--- a/projects/office_calibration.xlsx
+++ b/projects/office_calibration.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24709"/>
-  <workbookPr autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="562" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="13176" tabRatio="562" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="9" r:id="rId1"/>
@@ -31,7 +31,7 @@
     <definedName name="TrueFalse">Lookups!$C$12:$C$13</definedName>
     <definedName name="Workflow">Lookups!$E$12:$E$13</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2523" uniqueCount="824">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2525" uniqueCount="826">
   <si>
     <t>type</t>
   </si>
@@ -2170,9 +2170,6 @@
     <t>../weather/*</t>
   </si>
   <si>
-    <t>calibration_reports.utility_bill_1_consumption_modeled</t>
-  </si>
-  <si>
     <t>Total Electricity Consumption Modeled</t>
   </si>
   <si>
@@ -2182,18 +2179,12 @@
     <t>Total Electricity Peak Modeled</t>
   </si>
   <si>
-    <t>calibration_reports.utility_bill_1_peak_demand_modeled</t>
-  </si>
-  <si>
     <t>kW</t>
   </si>
   <si>
     <t>Electricity Consumption Period 1 Modeled</t>
   </si>
   <si>
-    <t>calibration_reports.utility_bill_1_period_1_consumption_modeled</t>
-  </si>
-  <si>
     <t>Electricity Consumption Period 2 Modeled</t>
   </si>
   <si>
@@ -2224,48 +2215,12 @@
     <t>Electricity Consumption Period 11 Modeled</t>
   </si>
   <si>
-    <t>calibration_reports.utility_bill_1_period_2_consumption_modeled</t>
-  </si>
-  <si>
-    <t>calibration_reports.utility_bill_1_period_3_consumption_modeled</t>
-  </si>
-  <si>
-    <t>calibration_reports.utility_bill_1_period_4_consumption_modeled</t>
-  </si>
-  <si>
-    <t>calibration_reports.utility_bill_1_period_5_consumption_modeled</t>
-  </si>
-  <si>
-    <t>calibration_reports.utility_bill_1_period_6_consumption_modeled</t>
-  </si>
-  <si>
-    <t>calibration_reports.utility_bill_1_period_7_consumption_modeled</t>
-  </si>
-  <si>
-    <t>calibration_reports.utility_bill_1_period_8_consumption_modeled</t>
-  </si>
-  <si>
-    <t>calibration_reports.utility_bill_1_period_9_consumption_modeled</t>
-  </si>
-  <si>
-    <t>calibration_reports.utility_bill_1_period_10_consumption_modeled</t>
-  </si>
-  <si>
-    <t>calibration_reports.utility_bill_1_period_11_consumption_modeled</t>
-  </si>
-  <si>
     <t>Gas Consumption Period 1 Modeled</t>
   </si>
   <si>
     <t>Total Gas Consumption Modeled</t>
   </si>
   <si>
-    <t>calibration_reports.utility_bill_2_consumption_modeled</t>
-  </si>
-  <si>
-    <t>calibration_reports.utility_bill_2_period_1_consumption_modeled</t>
-  </si>
-  <si>
     <t>therms</t>
   </si>
   <si>
@@ -2293,30 +2248,6 @@
     <t>Gas Consumption Period 9 Modeled</t>
   </si>
   <si>
-    <t>calibration_reports.utility_bill_2_period_2_consumption_modeled</t>
-  </si>
-  <si>
-    <t>calibration_reports.utility_bill_2_period_3_consumption_modeled</t>
-  </si>
-  <si>
-    <t>calibration_reports.utility_bill_2_period_4_consumption_modeled</t>
-  </si>
-  <si>
-    <t>calibration_reports.utility_bill_2_period_5_consumption_modeled</t>
-  </si>
-  <si>
-    <t>calibration_reports.utility_bill_2_period_6_consumption_modeled</t>
-  </si>
-  <si>
-    <t>calibration_reports.utility_bill_2_period_7_consumption_modeled</t>
-  </si>
-  <si>
-    <t>calibration_reports.utility_bill_2_period_8_consumption_modeled</t>
-  </si>
-  <si>
-    <t>calibration_reports.utility_bill_2_period_9_consumption_modeled</t>
-  </si>
-  <si>
     <t>Set Building Location And Design Days</t>
   </si>
   <si>
@@ -2476,12 +2407,6 @@
     <t>Unknown</t>
   </si>
   <si>
-    <t>../measures</t>
-  </si>
-  <si>
-    <t>../../analysis</t>
-  </si>
-  <si>
     <t>../../tmp/calibration_data</t>
   </si>
   <si>
@@ -2513,6 +2438,87 @@
   </si>
   <si>
     <t>cooling_cop</t>
+  </si>
+  <si>
+    <t>../analysis</t>
+  </si>
+  <si>
+    <t>../Cofee-measures</t>
+  </si>
+  <si>
+    <t>calibration_reports.electric_bill_1_peak_demand_modeled</t>
+  </si>
+  <si>
+    <t>calibration_reports.electric_bill_1_period_1_consumption_modeled</t>
+  </si>
+  <si>
+    <t>calibration_reports.electric_bill_1_period_2_consumption_modeled</t>
+  </si>
+  <si>
+    <t>calibration_reports.electric_bill_1_period_3_consumption_modeled</t>
+  </si>
+  <si>
+    <t>calibration_reports.electric_bill_1_period_4_consumption_modeled</t>
+  </si>
+  <si>
+    <t>calibration_reports.electric_bill_1_period_5_consumption_modeled</t>
+  </si>
+  <si>
+    <t>calibration_reports.electric_bill_1_period_6_consumption_modeled</t>
+  </si>
+  <si>
+    <t>calibration_reports.electric_bill_1_period_7_consumption_modeled</t>
+  </si>
+  <si>
+    <t>calibration_reports.electric_bill_1_period_8_consumption_modeled</t>
+  </si>
+  <si>
+    <t>calibration_reports.electric_bill_1_period_9_consumption_modeled</t>
+  </si>
+  <si>
+    <t>calibration_reports.electric_bill_1_period_10_consumption_modeled</t>
+  </si>
+  <si>
+    <t>calibration_reports.electric_bill_1_period_11_consumption_modeled</t>
+  </si>
+  <si>
+    <t>calibration_reports.gas_bill_2_consumption_modeled</t>
+  </si>
+  <si>
+    <t>calibration_reports.gas_bill_2_period_1_consumption_modeled</t>
+  </si>
+  <si>
+    <t>calibration_reports.gas_bill_2_period_2_consumption_modeled</t>
+  </si>
+  <si>
+    <t>calibration_reports.gas_bill_2_period_3_consumption_modeled</t>
+  </si>
+  <si>
+    <t>calibration_reports.gas_bill_2_period_4_consumption_modeled</t>
+  </si>
+  <si>
+    <t>calibration_reports.gas_bill_2_period_5_consumption_modeled</t>
+  </si>
+  <si>
+    <t>calibration_reports.gas_bill_2_period_6_consumption_modeled</t>
+  </si>
+  <si>
+    <t>calibration_reports.gas_bill_2_period_7_consumption_modeled</t>
+  </si>
+  <si>
+    <t>calibration_reports.gas_bill_2_period_8_consumption_modeled</t>
+  </si>
+  <si>
+    <t>calibration_reports.gas_bill_2_period_9_consumption_modeled</t>
+  </si>
+  <si>
+    <t>calibration_reports.electric_bill_1_consumption_modeled</t>
+  </si>
+  <si>
+    <t>exit_on_guideline14</t>
+  </si>
+  <si>
+    <t>1 is true</t>
   </si>
 </sst>
 </file>
@@ -6632,17 +6638,17 @@
       <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="81.83203125" customWidth="1"/>
+    <col min="1" max="1" width="81.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="28">
+    <row r="1" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="36" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="28">
+    <row r="2" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="36" t="s">
         <v>41</v>
       </c>
@@ -6662,21 +6668,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="30.33203125" style="26" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29" style="1" customWidth="1"/>
-    <col min="4" max="4" width="33.1640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="33.109375" style="2" customWidth="1"/>
     <col min="5" max="5" width="61.6640625" style="1" customWidth="1"/>
     <col min="6" max="16384" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="19"/>
       <c r="B1" s="28"/>
       <c r="C1" s="19"/>
@@ -6685,7 +6691,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="12" customFormat="1">
+    <row r="2" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>435</v>
       </c>
@@ -6694,7 +6700,7 @@
       <c r="D2" s="13"/>
       <c r="E2" s="13"/>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>436</v>
       </c>
@@ -6705,7 +6711,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="28">
+    <row r="4" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>456</v>
       </c>
@@ -6716,7 +6722,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="42">
+    <row r="5" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>469</v>
       </c>
@@ -6727,18 +6733,18 @@
         <v>614</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="46" customHeight="1">
+    <row r="6" spans="1:5" ht="46.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>470</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>810</v>
+        <v>787</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>442</v>
       </c>
@@ -6757,7 +6763,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="28">
+    <row r="8" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>443</v>
       </c>
@@ -6776,7 +6782,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>458</v>
       </c>
@@ -6789,7 +6795,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="12" customFormat="1">
+    <row r="11" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
         <v>28</v>
       </c>
@@ -6798,40 +6804,40 @@
       <c r="D11" s="13"/>
       <c r="E11" s="13"/>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>809</v>
+        <v>786</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>811</v>
+        <v>800</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>812</v>
+        <v>799</v>
       </c>
       <c r="E14" s="31" t="s">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>462</v>
       </c>
@@ -6842,18 +6848,18 @@
         <v>437</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>463</v>
       </c>
       <c r="B16" s="24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>464</v>
       </c>
@@ -6864,7 +6870,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>466</v>
       </c>
@@ -6875,7 +6881,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="2" customFormat="1" ht="42">
+    <row r="20" spans="1:5" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
         <v>27</v>
       </c>
@@ -6888,7 +6894,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>451</v>
       </c>
@@ -6896,11 +6902,11 @@
         <v>542</v>
       </c>
     </row>
-    <row r="22" spans="1:5" s="31" customFormat="1">
+    <row r="22" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B22" s="26"/>
       <c r="D22" s="2"/>
     </row>
-    <row r="23" spans="1:5" s="2" customFormat="1" ht="42">
+    <row r="23" spans="1:5" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A23" s="11" t="s">
         <v>450</v>
       </c>
@@ -6917,7 +6923,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="31" t="s">
         <v>538</v>
       </c>
@@ -6929,7 +6935,7 @@
       </c>
       <c r="D24" s="35"/>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="31" t="s">
         <v>543</v>
       </c>
@@ -6941,7 +6947,7 @@
       </c>
       <c r="D25" s="35"/>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="31" t="s">
         <v>557</v>
       </c>
@@ -6953,7 +6959,7 @@
       </c>
       <c r="D26" s="35"/>
     </row>
-    <row r="27" spans="1:5" s="31" customFormat="1">
+    <row r="27" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="31" t="s">
         <v>558</v>
       </c>
@@ -6965,7 +6971,7 @@
       </c>
       <c r="D27" s="35"/>
     </row>
-    <row r="28" spans="1:5" s="31" customFormat="1">
+    <row r="28" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="31" t="s">
         <v>539</v>
       </c>
@@ -6975,7 +6981,7 @@
       <c r="C28" s="30"/>
       <c r="D28" s="35"/>
     </row>
-    <row r="29" spans="1:5" s="31" customFormat="1">
+    <row r="29" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="31" t="s">
         <v>541</v>
       </c>
@@ -6987,42 +6993,49 @@
       </c>
       <c r="D29" s="35"/>
     </row>
-    <row r="30" spans="1:5" s="31" customFormat="1">
-      <c r="B30" s="26"/>
-      <c r="C30" s="34"/>
+    <row r="30" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="31" t="s">
+        <v>824</v>
+      </c>
+      <c r="B30" s="30">
+        <v>1</v>
+      </c>
+      <c r="C30" s="34" t="s">
+        <v>825</v>
+      </c>
       <c r="D30" s="35"/>
     </row>
-    <row r="31" spans="1:5" s="31" customFormat="1">
+    <row r="31" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B31" s="26"/>
       <c r="C31" s="34"/>
       <c r="D31" s="35"/>
     </row>
-    <row r="32" spans="1:5" s="31" customFormat="1">
+    <row r="32" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B32" s="26"/>
       <c r="C32" s="34"/>
       <c r="D32" s="35"/>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="31"/>
       <c r="C33" s="34"/>
       <c r="D33" s="35"/>
     </row>
-    <row r="34" spans="1:5" s="31" customFormat="1">
+    <row r="34" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B34" s="26"/>
       <c r="C34" s="34"/>
       <c r="D34" s="35"/>
     </row>
-    <row r="35" spans="1:5" s="31" customFormat="1">
+    <row r="35" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B35" s="26"/>
       <c r="C35" s="26"/>
       <c r="D35" s="2"/>
     </row>
-    <row r="36" spans="1:5" s="2" customFormat="1" ht="28">
+    <row r="36" spans="1:5" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A36" s="11" t="s">
         <v>33</v>
       </c>
       <c r="B36" s="27" t="s">
-        <v>794</v>
+        <v>771</v>
       </c>
       <c r="C36" s="11" t="s">
         <v>31</v>
@@ -7030,7 +7043,7 @@
       <c r="D36" s="11"/>
       <c r="E36" s="13"/>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>29</v>
       </c>
@@ -7038,7 +7051,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="39" spans="1:5" s="2" customFormat="1" ht="28">
+    <row r="39" spans="1:5" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A39" s="11" t="s">
         <v>30</v>
       </c>
@@ -7049,13 +7062,13 @@
         <v>38</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>794</v>
+        <v>771</v>
       </c>
       <c r="E39" s="13" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="40" spans="1:5" s="31" customFormat="1">
+    <row r="40" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="31" t="s">
         <v>32</v>
       </c>
@@ -7067,7 +7080,7 @@
       </c>
       <c r="E40" s="2"/>
     </row>
-    <row r="42" spans="1:5" s="2" customFormat="1" ht="56">
+    <row r="42" spans="1:5" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A42" s="11" t="s">
         <v>35</v>
       </c>
@@ -7075,14 +7088,14 @@
         <v>34</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>799</v>
+        <v>776</v>
       </c>
       <c r="D42" s="11"/>
       <c r="E42" s="13" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="31" t="s">
         <v>703</v>
       </c>
@@ -7090,10 +7103,10 @@
         <v>702</v>
       </c>
       <c r="C43" s="31" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" s="31" customFormat="1">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B44" s="26"/>
       <c r="D44" s="2"/>
     </row>
@@ -7123,37 +7136,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y223"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B29" sqref="B29"/>
+    <sheetView topLeftCell="D1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="120" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P50" sqref="P50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.1640625" style="31" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="31" customWidth="1"/>
     <col min="2" max="2" width="47" style="31" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="47" style="31" customWidth="1"/>
-    <col min="4" max="4" width="39.1640625" style="31" customWidth="1"/>
-    <col min="5" max="5" width="24.1640625" style="31" customWidth="1"/>
+    <col min="4" max="4" width="39.109375" style="31" customWidth="1"/>
+    <col min="5" max="5" width="24.109375" style="31" customWidth="1"/>
     <col min="6" max="6" width="9.6640625" style="31" customWidth="1"/>
     <col min="7" max="7" width="9.33203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5" style="4" customWidth="1"/>
-    <col min="9" max="9" width="8.83203125" style="4" customWidth="1"/>
-    <col min="10" max="10" width="7.1640625" style="31" customWidth="1"/>
-    <col min="11" max="11" width="8.1640625" style="31" customWidth="1"/>
+    <col min="8" max="8" width="15.44140625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="8.77734375" style="4" customWidth="1"/>
+    <col min="10" max="10" width="7.109375" style="31" customWidth="1"/>
+    <col min="11" max="11" width="8.109375" style="31" customWidth="1"/>
     <col min="12" max="12" width="6.6640625" style="31" customWidth="1"/>
-    <col min="13" max="14" width="7.83203125" style="31" customWidth="1"/>
-    <col min="15" max="15" width="11.5" style="31"/>
-    <col min="16" max="16" width="11.5" style="31" customWidth="1"/>
+    <col min="13" max="14" width="7.77734375" style="31" customWidth="1"/>
+    <col min="15" max="15" width="11.44140625" style="31"/>
+    <col min="16" max="16" width="11.44140625" style="31" customWidth="1"/>
     <col min="17" max="17" width="23" style="31" customWidth="1"/>
     <col min="18" max="18" width="27.6640625" style="31" customWidth="1"/>
-    <col min="19" max="19" width="46.1640625" style="31" customWidth="1"/>
-    <col min="20" max="22" width="11.5" style="31"/>
+    <col min="19" max="19" width="46.109375" style="31" customWidth="1"/>
+    <col min="20" max="22" width="11.44140625" style="31"/>
     <col min="23" max="23" width="13.33203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="11.5" style="31"/>
+    <col min="24" max="16384" width="11.44140625" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="18">
+    <row r="1" spans="1:25" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="5"/>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -7188,7 +7201,7 @@
       <c r="X1" s="49"/>
       <c r="Y1" s="49"/>
     </row>
-    <row r="2" spans="1:25" s="8" customFormat="1" ht="15">
+    <row r="2" spans="1:25" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>3</v>
       </c>
@@ -7204,7 +7217,7 @@
       <c r="H2" s="9"/>
       <c r="I2" s="9"/>
     </row>
-    <row r="3" spans="1:25" s="14" customFormat="1" ht="45">
+    <row r="3" spans="1:25" s="14" customFormat="1" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
         <v>1</v>
       </c>
@@ -7278,18 +7291,18 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:25" s="38" customFormat="1">
+    <row r="4" spans="1:25" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="38" t="b">
         <v>1</v>
       </c>
       <c r="B4" s="38" t="s">
-        <v>758</v>
+        <v>735</v>
       </c>
       <c r="C4" s="38" t="s">
-        <v>759</v>
+        <v>736</v>
       </c>
       <c r="D4" s="38" t="s">
-        <v>759</v>
+        <v>736</v>
       </c>
       <c r="E4" s="38" t="s">
         <v>68</v>
@@ -7297,41 +7310,41 @@
       <c r="G4" s="39"/>
       <c r="H4" s="39"/>
     </row>
-    <row r="5" spans="1:25" s="30" customFormat="1">
+    <row r="5" spans="1:25" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B5" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D5" s="30" t="s">
-        <v>796</v>
+        <v>773</v>
       </c>
       <c r="E5" s="30" t="s">
-        <v>797</v>
+        <v>774</v>
       </c>
       <c r="F5" s="30" t="s">
         <v>104</v>
       </c>
       <c r="H5" s="30" t="s">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25" s="30" customFormat="1">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B6" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D6" s="30" t="s">
-        <v>762</v>
+        <v>739</v>
       </c>
       <c r="E6" s="30" t="s">
-        <v>761</v>
+        <v>738</v>
       </c>
       <c r="F6" s="30" t="s">
         <v>104</v>
       </c>
       <c r="H6" s="31" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25" s="38" customFormat="1">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="38" t="b">
         <v>1</v>
       </c>
@@ -7350,7 +7363,7 @@
       <c r="G7" s="39"/>
       <c r="H7" s="39"/>
     </row>
-    <row r="8" spans="1:25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B8" s="31" t="s">
         <v>21</v>
       </c>
@@ -7364,7 +7377,7 @@
         <v>618</v>
       </c>
       <c r="H8" s="31" t="s">
-        <v>763</v>
+        <v>740</v>
       </c>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
@@ -7375,7 +7388,7 @@
       <c r="P8" s="40"/>
       <c r="Q8" s="2"/>
     </row>
-    <row r="9" spans="1:25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B9" s="31" t="s">
         <v>21</v>
       </c>
@@ -7398,7 +7411,7 @@
       <c r="O9" s="4"/>
       <c r="P9" s="3"/>
     </row>
-    <row r="10" spans="1:25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B10" s="31" t="s">
         <v>21</v>
       </c>
@@ -7416,7 +7429,7 @@
       </c>
       <c r="I10" s="31"/>
     </row>
-    <row r="11" spans="1:25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B11" s="31" t="s">
         <v>21</v>
       </c>
@@ -7434,7 +7447,7 @@
       </c>
       <c r="I11" s="31"/>
     </row>
-    <row r="12" spans="1:25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B12" s="31" t="s">
         <v>21</v>
       </c>
@@ -7452,18 +7465,18 @@
       </c>
       <c r="I12" s="31"/>
     </row>
-    <row r="13" spans="1:25" s="38" customFormat="1">
+    <row r="13" spans="1:25" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="38" t="b">
         <v>1</v>
       </c>
       <c r="B13" s="38" t="s">
-        <v>765</v>
+        <v>742</v>
       </c>
       <c r="C13" s="38" t="s">
-        <v>764</v>
+        <v>741</v>
       </c>
       <c r="D13" s="38" t="s">
-        <v>764</v>
+        <v>741</v>
       </c>
       <c r="E13" s="38" t="s">
         <v>68</v>
@@ -7471,7 +7484,7 @@
       <c r="G13" s="39"/>
       <c r="H13" s="39"/>
     </row>
-    <row r="14" spans="1:25" s="30" customFormat="1">
+    <row r="14" spans="1:25" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B14" s="30" t="s">
         <v>21</v>
       </c>
@@ -7485,13 +7498,13 @@
         <v>64</v>
       </c>
       <c r="G14" s="30" t="s">
-        <v>792</v>
+        <v>769</v>
       </c>
       <c r="H14" s="30">
         <v>10000</v>
       </c>
     </row>
-    <row r="15" spans="1:25" s="30" customFormat="1">
+    <row r="15" spans="1:25" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B15" s="30" t="s">
         <v>21</v>
       </c>
@@ -7508,7 +7521,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:25" s="30" customFormat="1">
+    <row r="16" spans="1:25" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B16" s="30" t="s">
         <v>21</v>
       </c>
@@ -7525,7 +7538,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:9" s="30" customFormat="1">
+    <row r="17" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B17" s="30" t="s">
         <v>21</v>
       </c>
@@ -7539,21 +7552,21 @@
         <v>64</v>
       </c>
       <c r="G17" s="30" t="s">
-        <v>793</v>
+        <v>770</v>
       </c>
       <c r="H17" s="30">
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:9" s="30" customFormat="1">
+    <row r="18" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B18" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D18" s="30" t="s">
-        <v>766</v>
+        <v>743</v>
       </c>
       <c r="E18" s="30" t="s">
-        <v>767</v>
+        <v>744</v>
       </c>
       <c r="F18" s="30" t="s">
         <v>64</v>
@@ -7563,15 +7576,15 @@
         <v>7.6923076923076927E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:9" s="30" customFormat="1">
+    <row r="19" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B19" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D19" s="30" t="s">
-        <v>768</v>
+        <v>745</v>
       </c>
       <c r="E19" s="30" t="s">
-        <v>769</v>
+        <v>746</v>
       </c>
       <c r="F19" s="30" t="s">
         <v>64</v>
@@ -7581,15 +7594,15 @@
         <v>7.6923076923076927E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:9" s="30" customFormat="1">
+    <row r="20" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B20" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D20" s="30" t="s">
-        <v>770</v>
+        <v>747</v>
       </c>
       <c r="E20" s="30" t="s">
-        <v>771</v>
+        <v>748</v>
       </c>
       <c r="F20" s="30" t="s">
         <v>64</v>
@@ -7599,15 +7612,15 @@
         <v>7.6923076923076927E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:9" s="30" customFormat="1">
+    <row r="21" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B21" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D21" s="30" t="s">
-        <v>772</v>
+        <v>749</v>
       </c>
       <c r="E21" s="30" t="s">
-        <v>773</v>
+        <v>750</v>
       </c>
       <c r="F21" s="30" t="s">
         <v>64</v>
@@ -7617,15 +7630,15 @@
         <v>7.6923076923076927E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:9" s="30" customFormat="1">
+    <row r="22" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B22" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D22" s="30" t="s">
-        <v>774</v>
+        <v>751</v>
       </c>
       <c r="E22" s="30" t="s">
-        <v>775</v>
+        <v>752</v>
       </c>
       <c r="F22" s="30" t="s">
         <v>64</v>
@@ -7635,15 +7648,15 @@
         <v>7.6923076923076927E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:9" s="30" customFormat="1">
+    <row r="23" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B23" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D23" s="30" t="s">
-        <v>776</v>
+        <v>753</v>
       </c>
       <c r="E23" s="30" t="s">
-        <v>777</v>
+        <v>754</v>
       </c>
       <c r="F23" s="30" t="s">
         <v>64</v>
@@ -7653,15 +7666,15 @@
         <v>7.6923076923076927E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:9" s="30" customFormat="1">
+    <row r="24" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B24" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D24" s="30" t="s">
-        <v>778</v>
+        <v>755</v>
       </c>
       <c r="E24" s="30" t="s">
-        <v>779</v>
+        <v>756</v>
       </c>
       <c r="F24" s="30" t="s">
         <v>64</v>
@@ -7671,15 +7684,15 @@
         <v>7.6923076923076927E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:9" s="30" customFormat="1">
+    <row r="25" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B25" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D25" s="30" t="s">
-        <v>780</v>
+        <v>757</v>
       </c>
       <c r="E25" s="30" t="s">
-        <v>781</v>
+        <v>758</v>
       </c>
       <c r="F25" s="30" t="s">
         <v>64</v>
@@ -7689,15 +7702,15 @@
         <v>7.6923076923076927E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:9" s="30" customFormat="1">
+    <row r="26" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B26" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="30" t="s">
-        <v>782</v>
+        <v>759</v>
       </c>
       <c r="E26" s="30" t="s">
-        <v>783</v>
+        <v>760</v>
       </c>
       <c r="F26" s="30" t="s">
         <v>64</v>
@@ -7707,15 +7720,15 @@
         <v>7.6923076923076927E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:9" s="30" customFormat="1">
+    <row r="27" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B27" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="30" t="s">
-        <v>784</v>
+        <v>761</v>
       </c>
       <c r="E27" s="30" t="s">
-        <v>785</v>
+        <v>762</v>
       </c>
       <c r="F27" s="30" t="s">
         <v>64</v>
@@ -7725,15 +7738,15 @@
         <v>7.6923076923076927E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:9" s="30" customFormat="1">
+    <row r="28" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B28" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D28" s="30" t="s">
-        <v>786</v>
+        <v>763</v>
       </c>
       <c r="E28" s="30" t="s">
-        <v>787</v>
+        <v>764</v>
       </c>
       <c r="F28" s="30" t="s">
         <v>64</v>
@@ -7743,15 +7756,15 @@
         <v>7.6923076923076927E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:9" s="30" customFormat="1">
+    <row r="29" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B29" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D29" s="30" t="s">
-        <v>788</v>
+        <v>765</v>
       </c>
       <c r="E29" s="30" t="s">
-        <v>789</v>
+        <v>766</v>
       </c>
       <c r="F29" s="30" t="s">
         <v>64</v>
@@ -7761,15 +7774,15 @@
         <v>7.6923076923076927E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:9" s="30" customFormat="1">
+    <row r="30" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B30" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D30" s="30" t="s">
-        <v>790</v>
+        <v>767</v>
       </c>
       <c r="E30" s="30" t="s">
-        <v>791</v>
+        <v>768</v>
       </c>
       <c r="F30" s="30" t="s">
         <v>64</v>
@@ -7779,7 +7792,7 @@
         <v>7.6923076923076927E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:9" s="38" customFormat="1">
+    <row r="31" spans="1:9" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="38" t="b">
         <v>1</v>
       </c>
@@ -7798,7 +7811,7 @@
       <c r="G31" s="39"/>
       <c r="H31" s="39"/>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B32" s="31" t="s">
         <v>21</v>
       </c>
@@ -7814,32 +7827,32 @@
       <c r="H32" s="31"/>
       <c r="I32" s="31"/>
     </row>
-    <row r="33" spans="1:17" s="38" customFormat="1">
+    <row r="33" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="38" t="b">
         <v>1</v>
       </c>
       <c r="B33" s="38" t="s">
-        <v>814</v>
+        <v>789</v>
       </c>
       <c r="C33" s="38" t="s">
-        <v>815</v>
+        <v>790</v>
       </c>
       <c r="D33" s="38" t="s">
-        <v>815</v>
+        <v>790</v>
       </c>
       <c r="E33" s="38" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="34" spans="1:17" s="30" customFormat="1">
+    <row r="34" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B34" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D34" s="30" t="s">
-        <v>816</v>
+        <v>791</v>
       </c>
       <c r="E34" s="30" t="s">
-        <v>817</v>
+        <v>792</v>
       </c>
       <c r="F34" s="30" t="s">
         <v>64</v>
@@ -7848,35 +7861,35 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="35" spans="1:17" s="30" customFormat="1">
+    <row r="35" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B35" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D35" s="30" t="s">
-        <v>818</v>
+        <v>793</v>
       </c>
       <c r="E35" s="30" t="s">
-        <v>819</v>
+        <v>794</v>
       </c>
       <c r="F35" s="30" t="s">
         <v>62</v>
       </c>
       <c r="H35" s="30" t="s">
-        <v>820</v>
+        <v>795</v>
       </c>
       <c r="I35" s="30" t="s">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" s="30" customFormat="1">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B36" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D36" s="30" t="s">
-        <v>822</v>
+        <v>797</v>
       </c>
       <c r="E36" s="30" t="s">
-        <v>823</v>
+        <v>798</v>
       </c>
       <c r="F36" s="30" t="s">
         <v>64</v>
@@ -7885,7 +7898,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:17" s="38" customFormat="1">
+    <row r="37" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="38" t="b">
         <v>1</v>
       </c>
@@ -7904,7 +7917,7 @@
       <c r="G37" s="39"/>
       <c r="H37" s="39"/>
     </row>
-    <row r="38" spans="1:17">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B38" s="31" t="s">
         <v>21</v>
       </c>
@@ -7929,7 +7942,7 @@
       <c r="P38" s="40"/>
       <c r="Q38" s="2"/>
     </row>
-    <row r="39" spans="1:17">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B39" s="31" t="s">
         <v>21</v>
       </c>
@@ -7957,7 +7970,7 @@
       <c r="P39" s="40"/>
       <c r="Q39" s="2"/>
     </row>
-    <row r="40" spans="1:17">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B40" s="31" t="s">
         <v>21</v>
       </c>
@@ -7985,7 +7998,7 @@
       <c r="P40" s="40"/>
       <c r="Q40" s="2"/>
     </row>
-    <row r="41" spans="1:17" s="38" customFormat="1">
+    <row r="41" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="38" t="b">
         <v>1</v>
       </c>
@@ -8004,7 +8017,7 @@
       <c r="G41" s="39"/>
       <c r="H41" s="39"/>
     </row>
-    <row r="42" spans="1:17">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B42" s="31" t="s">
         <v>21</v>
       </c>
@@ -8029,7 +8042,7 @@
       <c r="P42" s="40"/>
       <c r="Q42" s="2"/>
     </row>
-    <row r="43" spans="1:17">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B43" s="31" t="s">
         <v>21</v>
       </c>
@@ -8057,7 +8070,7 @@
       <c r="P43" s="40"/>
       <c r="Q43" s="2"/>
     </row>
-    <row r="44" spans="1:17">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B44" s="31" t="s">
         <v>21</v>
       </c>
@@ -8085,7 +8098,7 @@
       <c r="P44" s="40"/>
       <c r="Q44" s="2"/>
     </row>
-    <row r="45" spans="1:17" s="38" customFormat="1">
+    <row r="45" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="38" t="b">
         <v>1</v>
       </c>
@@ -8104,7 +8117,7 @@
       <c r="G45" s="39"/>
       <c r="H45" s="39"/>
     </row>
-    <row r="46" spans="1:17">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B46" s="31" t="s">
         <v>21</v>
       </c>
@@ -8129,7 +8142,7 @@
       <c r="P46" s="40"/>
       <c r="Q46" s="2"/>
     </row>
-    <row r="47" spans="1:17">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B47" s="31" t="s">
         <v>21</v>
       </c>
@@ -8157,7 +8170,7 @@
       <c r="P47" s="40"/>
       <c r="Q47" s="2"/>
     </row>
-    <row r="48" spans="1:17">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B48" s="31" t="s">
         <v>21</v>
       </c>
@@ -8185,7 +8198,7 @@
       <c r="P48" s="40"/>
       <c r="Q48" s="2"/>
     </row>
-    <row r="49" spans="1:17" s="38" customFormat="1">
+    <row r="49" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="38" t="b">
         <v>1</v>
       </c>
@@ -8204,7 +8217,7 @@
       <c r="G49" s="39"/>
       <c r="H49" s="39"/>
     </row>
-    <row r="50" spans="1:17">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B50" s="31" t="s">
         <v>21</v>
       </c>
@@ -8229,7 +8242,7 @@
       <c r="P50" s="40"/>
       <c r="Q50" s="2"/>
     </row>
-    <row r="51" spans="1:17">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B51" s="31" t="s">
         <v>21</v>
       </c>
@@ -8257,7 +8270,7 @@
       <c r="P51" s="40"/>
       <c r="Q51" s="2"/>
     </row>
-    <row r="52" spans="1:17">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B52" s="31" t="s">
         <v>21</v>
       </c>
@@ -8285,7 +8298,7 @@
       <c r="P52" s="40"/>
       <c r="Q52" s="2"/>
     </row>
-    <row r="53" spans="1:17" s="38" customFormat="1">
+    <row r="53" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="38" t="b">
         <v>1</v>
       </c>
@@ -8304,7 +8317,7 @@
       <c r="G53" s="39"/>
       <c r="H53" s="39"/>
     </row>
-    <row r="54" spans="1:17">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B54" s="31" t="s">
         <v>21</v>
       </c>
@@ -8322,7 +8335,7 @@
       </c>
       <c r="I54" s="31"/>
     </row>
-    <row r="55" spans="1:17">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B55" s="31" t="s">
         <v>21</v>
       </c>
@@ -8340,7 +8353,7 @@
       </c>
       <c r="I55" s="31"/>
     </row>
-    <row r="56" spans="1:17">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B56" s="31" t="s">
         <v>21</v>
       </c>
@@ -8358,7 +8371,7 @@
       </c>
       <c r="I56" s="31"/>
     </row>
-    <row r="57" spans="1:17">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B57" s="31" t="s">
         <v>21</v>
       </c>
@@ -8376,7 +8389,7 @@
       </c>
       <c r="I57" s="31"/>
     </row>
-    <row r="58" spans="1:17" s="38" customFormat="1">
+    <row r="58" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="38" t="b">
         <v>1</v>
       </c>
@@ -8395,12 +8408,12 @@
       <c r="G58" s="39"/>
       <c r="H58" s="39"/>
     </row>
-    <row r="59" spans="1:17" s="30" customFormat="1">
+    <row r="59" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A59" s="30" t="b">
         <v>1</v>
       </c>
       <c r="B59" s="30" t="s">
-        <v>800</v>
+        <v>777</v>
       </c>
       <c r="C59" s="30" t="s">
         <v>76</v>
@@ -8412,12 +8425,12 @@
         <v>68</v>
       </c>
     </row>
-    <row r="60" spans="1:17" s="43" customFormat="1">
+    <row r="60" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B60" s="43" t="s">
         <v>22</v>
       </c>
       <c r="D60" s="43" t="s">
-        <v>801</v>
+        <v>778</v>
       </c>
       <c r="E60" s="43" t="s">
         <v>77</v>
@@ -8445,10 +8458,10 @@
         <v>0.01</v>
       </c>
       <c r="Q60" s="43" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="61" spans="1:17" s="30" customFormat="1">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B61" s="30" t="s">
         <v>21</v>
       </c>
@@ -8465,7 +8478,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="62" spans="1:17" s="30" customFormat="1">
+    <row r="62" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B62" s="30" t="s">
         <v>21</v>
       </c>
@@ -8485,12 +8498,12 @@
         <v>84</v>
       </c>
     </row>
-    <row r="63" spans="1:17" s="30" customFormat="1">
+    <row r="63" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A63" s="30" t="b">
         <v>1</v>
       </c>
       <c r="B63" s="30" t="s">
-        <v>803</v>
+        <v>780</v>
       </c>
       <c r="C63" s="30" t="s">
         <v>76</v>
@@ -8502,12 +8515,12 @@
         <v>68</v>
       </c>
     </row>
-    <row r="64" spans="1:17" s="43" customFormat="1">
+    <row r="64" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B64" s="43" t="s">
         <v>22</v>
       </c>
       <c r="D64" s="43" t="s">
-        <v>804</v>
+        <v>781</v>
       </c>
       <c r="E64" s="43" t="s">
         <v>77</v>
@@ -8535,10 +8548,10 @@
         <v>0.01</v>
       </c>
       <c r="Q64" s="43" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="65" spans="1:17" s="30" customFormat="1">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B65" s="30" t="s">
         <v>21</v>
       </c>
@@ -8555,7 +8568,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="66" spans="1:17" s="30" customFormat="1">
+    <row r="66" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B66" s="30" t="s">
         <v>21</v>
       </c>
@@ -8575,12 +8588,12 @@
         <v>84</v>
       </c>
     </row>
-    <row r="67" spans="1:17" s="30" customFormat="1">
+    <row r="67" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A67" s="30" t="b">
         <v>1</v>
       </c>
       <c r="B67" s="30" t="s">
-        <v>805</v>
+        <v>782</v>
       </c>
       <c r="C67" s="30" t="s">
         <v>76</v>
@@ -8592,12 +8605,12 @@
         <v>68</v>
       </c>
     </row>
-    <row r="68" spans="1:17" s="43" customFormat="1">
+    <row r="68" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B68" s="43" t="s">
         <v>22</v>
       </c>
       <c r="D68" s="43" t="s">
-        <v>806</v>
+        <v>783</v>
       </c>
       <c r="E68" s="43" t="s">
         <v>77</v>
@@ -8625,10 +8638,10 @@
         <v>0.01</v>
       </c>
       <c r="Q68" s="43" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="69" spans="1:17" s="30" customFormat="1">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B69" s="30" t="s">
         <v>21</v>
       </c>
@@ -8645,7 +8658,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="70" spans="1:17" s="30" customFormat="1">
+    <row r="70" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B70" s="30" t="s">
         <v>21</v>
       </c>
@@ -8665,7 +8678,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="71" spans="1:17" s="30" customFormat="1">
+    <row r="71" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A71" s="30" t="b">
         <v>1</v>
       </c>
@@ -8683,7 +8696,7 @@
       </c>
       <c r="P71" s="31"/>
     </row>
-    <row r="72" spans="1:17" s="30" customFormat="1">
+    <row r="72" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B72" s="30" t="s">
         <v>21</v>
       </c>
@@ -8704,12 +8717,12 @@
       </c>
       <c r="O72" s="31"/>
     </row>
-    <row r="73" spans="1:17" s="43" customFormat="1">
+    <row r="73" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B73" s="43" t="s">
         <v>22</v>
       </c>
       <c r="D73" s="44" t="s">
-        <v>807</v>
+        <v>784</v>
       </c>
       <c r="E73" s="43" t="s">
         <v>70</v>
@@ -8737,10 +8750,10 @@
         <v>2.5</v>
       </c>
       <c r="Q73" s="43" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="74" spans="1:17" s="30" customFormat="1">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B74" s="30" t="s">
         <v>21</v>
       </c>
@@ -8758,7 +8771,7 @@
       </c>
       <c r="O74" s="31"/>
     </row>
-    <row r="75" spans="1:17" s="30" customFormat="1">
+    <row r="75" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B75" s="30" t="s">
         <v>21</v>
       </c>
@@ -8776,7 +8789,7 @@
       </c>
       <c r="O75" s="31"/>
     </row>
-    <row r="76" spans="1:17" s="30" customFormat="1">
+    <row r="76" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B76" s="30" t="s">
         <v>21</v>
       </c>
@@ -8794,7 +8807,7 @@
       </c>
       <c r="O76" s="31"/>
     </row>
-    <row r="77" spans="1:17">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A77" s="30" t="b">
         <v>1</v>
       </c>
@@ -8822,7 +8835,7 @@
       <c r="O77" s="3"/>
       <c r="Q77" s="40"/>
     </row>
-    <row r="78" spans="1:17">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A78" s="30"/>
       <c r="B78" s="30" t="s">
         <v>21</v>
@@ -8851,12 +8864,12 @@
       <c r="N78" s="3"/>
       <c r="P78" s="40"/>
     </row>
-    <row r="79" spans="1:17" s="43" customFormat="1">
+    <row r="79" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B79" s="43" t="s">
         <v>22</v>
       </c>
       <c r="D79" s="43" t="s">
-        <v>808</v>
+        <v>785</v>
       </c>
       <c r="E79" s="43" t="s">
         <v>46</v>
@@ -8889,7 +8902,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="80" spans="1:17">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A80" s="30"/>
       <c r="B80" s="30" t="s">
         <v>21</v>
@@ -8915,7 +8928,7 @@
       <c r="N80" s="3"/>
       <c r="P80" s="40"/>
     </row>
-    <row r="81" spans="1:16">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A81" s="30"/>
       <c r="B81" s="30" t="s">
         <v>21</v>
@@ -8941,7 +8954,7 @@
       <c r="N81" s="3"/>
       <c r="P81" s="40"/>
     </row>
-    <row r="82" spans="1:16">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A82" s="30"/>
       <c r="B82" s="30" t="s">
         <v>21</v>
@@ -8967,7 +8980,7 @@
       <c r="N82" s="3"/>
       <c r="P82" s="40"/>
     </row>
-    <row r="83" spans="1:16">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A83" s="30"/>
       <c r="B83" s="30" t="s">
         <v>21</v>
@@ -8993,7 +9006,7 @@
       <c r="N83" s="3"/>
       <c r="P83" s="40"/>
     </row>
-    <row r="84" spans="1:16">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A84" s="30"/>
       <c r="B84" s="30" t="s">
         <v>21</v>
@@ -9019,7 +9032,7 @@
       <c r="N84" s="3"/>
       <c r="P84" s="40"/>
     </row>
-    <row r="85" spans="1:16">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A85" s="30"/>
       <c r="B85" s="30" t="s">
         <v>21</v>
@@ -9045,7 +9058,7 @@
       <c r="N85" s="3"/>
       <c r="P85" s="40"/>
     </row>
-    <row r="86" spans="1:16">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A86" s="30"/>
       <c r="B86" s="30" t="s">
         <v>21</v>
@@ -9071,551 +9084,551 @@
       <c r="N86" s="3"/>
       <c r="P86" s="40"/>
     </row>
-    <row r="87" spans="1:16">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.3">
       <c r="H87" s="31"/>
       <c r="I87" s="31"/>
     </row>
-    <row r="88" spans="1:16">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.3">
       <c r="H88" s="31"/>
       <c r="I88" s="31"/>
     </row>
-    <row r="89" spans="1:16">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.3">
       <c r="H89" s="31"/>
       <c r="I89" s="31"/>
     </row>
-    <row r="90" spans="1:16">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.3">
       <c r="H90" s="31"/>
       <c r="I90" s="31"/>
     </row>
-    <row r="91" spans="1:16">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.3">
       <c r="H91" s="31"/>
       <c r="I91" s="31"/>
     </row>
-    <row r="92" spans="1:16">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.3">
       <c r="H92" s="31"/>
       <c r="I92" s="31"/>
     </row>
-    <row r="93" spans="1:16">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.3">
       <c r="H93" s="31"/>
       <c r="I93" s="31"/>
     </row>
-    <row r="94" spans="1:16">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.3">
       <c r="H94" s="31"/>
       <c r="I94" s="31"/>
     </row>
-    <row r="95" spans="1:16">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.3">
       <c r="H95" s="31"/>
       <c r="I95" s="31"/>
     </row>
-    <row r="96" spans="1:16">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.3">
       <c r="H96" s="31"/>
       <c r="I96" s="31"/>
     </row>
-    <row r="97" spans="8:9">
+    <row r="97" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H97" s="31"/>
       <c r="I97" s="31"/>
     </row>
-    <row r="98" spans="8:9">
+    <row r="98" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H98" s="31"/>
       <c r="I98" s="31"/>
     </row>
-    <row r="99" spans="8:9">
+    <row r="99" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H99" s="31"/>
       <c r="I99" s="31"/>
     </row>
-    <row r="100" spans="8:9">
+    <row r="100" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H100" s="31"/>
       <c r="I100" s="31"/>
     </row>
-    <row r="101" spans="8:9">
+    <row r="101" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H101" s="31"/>
       <c r="I101" s="31"/>
     </row>
-    <row r="102" spans="8:9">
+    <row r="102" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H102" s="31"/>
       <c r="I102" s="31"/>
     </row>
-    <row r="103" spans="8:9">
+    <row r="103" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H103" s="31"/>
       <c r="I103" s="31"/>
     </row>
-    <row r="104" spans="8:9">
+    <row r="104" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H104" s="31"/>
       <c r="I104" s="31"/>
     </row>
-    <row r="105" spans="8:9">
+    <row r="105" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H105" s="31"/>
       <c r="I105" s="31"/>
     </row>
-    <row r="106" spans="8:9">
+    <row r="106" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H106" s="31"/>
       <c r="I106" s="31"/>
     </row>
-    <row r="107" spans="8:9">
+    <row r="107" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H107" s="31"/>
       <c r="I107" s="31"/>
     </row>
-    <row r="108" spans="8:9">
+    <row r="108" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H108" s="31"/>
       <c r="I108" s="31"/>
     </row>
-    <row r="109" spans="8:9">
+    <row r="109" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H109" s="31"/>
       <c r="I109" s="31"/>
     </row>
-    <row r="110" spans="8:9">
+    <row r="110" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H110" s="31"/>
       <c r="I110" s="31"/>
     </row>
-    <row r="111" spans="8:9">
+    <row r="111" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H111" s="31"/>
       <c r="I111" s="31"/>
     </row>
-    <row r="112" spans="8:9">
+    <row r="112" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H112" s="31"/>
       <c r="I112" s="31"/>
     </row>
-    <row r="113" spans="8:9">
+    <row r="113" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H113" s="31"/>
       <c r="I113" s="31"/>
     </row>
-    <row r="114" spans="8:9">
+    <row r="114" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H114" s="31"/>
       <c r="I114" s="31"/>
     </row>
-    <row r="115" spans="8:9">
+    <row r="115" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H115" s="31"/>
       <c r="I115" s="31"/>
     </row>
-    <row r="116" spans="8:9">
+    <row r="116" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H116" s="31"/>
       <c r="I116" s="31"/>
     </row>
-    <row r="117" spans="8:9">
+    <row r="117" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H117" s="31"/>
       <c r="I117" s="31"/>
     </row>
-    <row r="118" spans="8:9">
+    <row r="118" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H118" s="31"/>
       <c r="I118" s="31"/>
     </row>
-    <row r="119" spans="8:9">
+    <row r="119" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H119" s="31"/>
       <c r="I119" s="31"/>
     </row>
-    <row r="120" spans="8:9">
+    <row r="120" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H120" s="31"/>
       <c r="I120" s="31"/>
     </row>
-    <row r="121" spans="8:9">
+    <row r="121" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H121" s="31"/>
       <c r="I121" s="31"/>
     </row>
-    <row r="122" spans="8:9">
+    <row r="122" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H122" s="31"/>
       <c r="I122" s="31"/>
     </row>
-    <row r="123" spans="8:9">
+    <row r="123" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H123" s="31"/>
       <c r="I123" s="31"/>
     </row>
-    <row r="124" spans="8:9">
+    <row r="124" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H124" s="31"/>
       <c r="I124" s="31"/>
     </row>
-    <row r="125" spans="8:9">
+    <row r="125" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H125" s="31"/>
       <c r="I125" s="31"/>
     </row>
-    <row r="126" spans="8:9">
+    <row r="126" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H126" s="31"/>
       <c r="I126" s="31"/>
     </row>
-    <row r="127" spans="8:9">
+    <row r="127" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H127" s="31"/>
       <c r="I127" s="31"/>
     </row>
-    <row r="128" spans="8:9">
+    <row r="128" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H128" s="31"/>
       <c r="I128" s="31"/>
     </row>
-    <row r="129" spans="8:9">
+    <row r="129" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H129" s="31"/>
       <c r="I129" s="31"/>
     </row>
-    <row r="130" spans="8:9">
+    <row r="130" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H130" s="31"/>
       <c r="I130" s="31"/>
     </row>
-    <row r="131" spans="8:9">
+    <row r="131" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H131" s="31"/>
       <c r="I131" s="31"/>
     </row>
-    <row r="132" spans="8:9">
+    <row r="132" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H132" s="31"/>
       <c r="I132" s="31"/>
     </row>
-    <row r="133" spans="8:9">
+    <row r="133" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H133" s="31"/>
       <c r="I133" s="31"/>
     </row>
-    <row r="134" spans="8:9">
+    <row r="134" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H134" s="31"/>
       <c r="I134" s="31"/>
     </row>
-    <row r="135" spans="8:9">
+    <row r="135" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H135" s="31"/>
       <c r="I135" s="31"/>
     </row>
-    <row r="136" spans="8:9">
+    <row r="136" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H136" s="31"/>
       <c r="I136" s="31"/>
     </row>
-    <row r="137" spans="8:9">
+    <row r="137" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H137" s="31"/>
       <c r="I137" s="31"/>
     </row>
-    <row r="138" spans="8:9">
+    <row r="138" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H138" s="31"/>
       <c r="I138" s="31"/>
     </row>
-    <row r="139" spans="8:9">
+    <row r="139" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H139" s="31"/>
       <c r="I139" s="31"/>
     </row>
-    <row r="140" spans="8:9">
+    <row r="140" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H140" s="31"/>
       <c r="I140" s="31"/>
     </row>
-    <row r="141" spans="8:9">
+    <row r="141" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H141" s="31"/>
       <c r="I141" s="31"/>
     </row>
-    <row r="142" spans="8:9">
+    <row r="142" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H142" s="31"/>
       <c r="I142" s="31"/>
     </row>
-    <row r="143" spans="8:9">
+    <row r="143" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H143" s="31"/>
       <c r="I143" s="31"/>
     </row>
-    <row r="144" spans="8:9">
+    <row r="144" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H144" s="31"/>
       <c r="I144" s="31"/>
     </row>
-    <row r="145" spans="8:9">
+    <row r="145" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H145" s="31"/>
       <c r="I145" s="31"/>
     </row>
-    <row r="146" spans="8:9">
+    <row r="146" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H146" s="31"/>
       <c r="I146" s="31"/>
     </row>
-    <row r="147" spans="8:9">
+    <row r="147" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H147" s="31"/>
       <c r="I147" s="31"/>
     </row>
-    <row r="148" spans="8:9">
+    <row r="148" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H148" s="31"/>
       <c r="I148" s="31"/>
     </row>
-    <row r="149" spans="8:9">
+    <row r="149" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H149" s="31"/>
       <c r="I149" s="31"/>
     </row>
-    <row r="150" spans="8:9">
+    <row r="150" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H150" s="31"/>
       <c r="I150" s="31"/>
     </row>
-    <row r="151" spans="8:9">
+    <row r="151" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H151" s="31"/>
       <c r="I151" s="31"/>
     </row>
-    <row r="152" spans="8:9">
+    <row r="152" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H152" s="31"/>
       <c r="I152" s="31"/>
     </row>
-    <row r="153" spans="8:9">
+    <row r="153" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H153" s="31"/>
       <c r="I153" s="31"/>
     </row>
-    <row r="154" spans="8:9">
+    <row r="154" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H154" s="31"/>
       <c r="I154" s="31"/>
     </row>
-    <row r="155" spans="8:9">
+    <row r="155" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H155" s="31"/>
       <c r="I155" s="31"/>
     </row>
-    <row r="156" spans="8:9">
+    <row r="156" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H156" s="31"/>
       <c r="I156" s="31"/>
     </row>
-    <row r="157" spans="8:9">
+    <row r="157" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H157" s="31"/>
       <c r="I157" s="31"/>
     </row>
-    <row r="158" spans="8:9">
+    <row r="158" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H158" s="31"/>
       <c r="I158" s="31"/>
     </row>
-    <row r="159" spans="8:9">
+    <row r="159" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H159" s="31"/>
       <c r="I159" s="31"/>
     </row>
-    <row r="160" spans="8:9">
+    <row r="160" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H160" s="31"/>
       <c r="I160" s="31"/>
     </row>
-    <row r="161" spans="8:9">
+    <row r="161" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H161" s="31"/>
       <c r="I161" s="31"/>
     </row>
-    <row r="162" spans="8:9">
+    <row r="162" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H162" s="31"/>
       <c r="I162" s="31"/>
     </row>
-    <row r="163" spans="8:9">
+    <row r="163" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H163" s="31"/>
       <c r="I163" s="31"/>
     </row>
-    <row r="164" spans="8:9">
+    <row r="164" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H164" s="31"/>
       <c r="I164" s="31"/>
     </row>
-    <row r="165" spans="8:9">
+    <row r="165" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H165" s="31"/>
       <c r="I165" s="31"/>
     </row>
-    <row r="166" spans="8:9">
+    <row r="166" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H166" s="31"/>
       <c r="I166" s="31"/>
     </row>
-    <row r="167" spans="8:9">
+    <row r="167" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H167" s="31"/>
       <c r="I167" s="31"/>
     </row>
-    <row r="168" spans="8:9">
+    <row r="168" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H168" s="31"/>
       <c r="I168" s="31"/>
     </row>
-    <row r="169" spans="8:9">
+    <row r="169" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H169" s="31"/>
       <c r="I169" s="31"/>
     </row>
-    <row r="170" spans="8:9">
+    <row r="170" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H170" s="31"/>
       <c r="I170" s="31"/>
     </row>
-    <row r="171" spans="8:9">
+    <row r="171" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H171" s="31"/>
       <c r="I171" s="31"/>
     </row>
-    <row r="172" spans="8:9">
+    <row r="172" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H172" s="31"/>
       <c r="I172" s="31"/>
     </row>
-    <row r="173" spans="8:9">
+    <row r="173" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H173" s="31"/>
       <c r="I173" s="31"/>
     </row>
-    <row r="174" spans="8:9">
+    <row r="174" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H174" s="31"/>
       <c r="I174" s="31"/>
     </row>
-    <row r="175" spans="8:9">
+    <row r="175" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H175" s="31"/>
       <c r="I175" s="31"/>
     </row>
-    <row r="176" spans="8:9">
+    <row r="176" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H176" s="31"/>
       <c r="I176" s="31"/>
     </row>
-    <row r="177" spans="8:9">
+    <row r="177" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H177" s="31"/>
       <c r="I177" s="31"/>
     </row>
-    <row r="178" spans="8:9">
+    <row r="178" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H178" s="31"/>
       <c r="I178" s="31"/>
     </row>
-    <row r="179" spans="8:9">
+    <row r="179" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H179" s="31"/>
       <c r="I179" s="31"/>
     </row>
-    <row r="180" spans="8:9">
+    <row r="180" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H180" s="31"/>
       <c r="I180" s="31"/>
     </row>
-    <row r="181" spans="8:9">
+    <row r="181" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H181" s="31"/>
       <c r="I181" s="31"/>
     </row>
-    <row r="182" spans="8:9">
+    <row r="182" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H182" s="31"/>
       <c r="I182" s="31"/>
     </row>
-    <row r="183" spans="8:9">
+    <row r="183" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H183" s="31"/>
       <c r="I183" s="31"/>
     </row>
-    <row r="184" spans="8:9">
+    <row r="184" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H184" s="31"/>
       <c r="I184" s="31"/>
     </row>
-    <row r="185" spans="8:9">
+    <row r="185" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H185" s="31"/>
       <c r="I185" s="31"/>
     </row>
-    <row r="186" spans="8:9">
+    <row r="186" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H186" s="31"/>
       <c r="I186" s="31"/>
     </row>
-    <row r="187" spans="8:9">
+    <row r="187" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H187" s="31"/>
       <c r="I187" s="31"/>
     </row>
-    <row r="188" spans="8:9">
+    <row r="188" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H188" s="31"/>
       <c r="I188" s="31"/>
     </row>
-    <row r="189" spans="8:9">
+    <row r="189" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H189" s="31"/>
       <c r="I189" s="31"/>
     </row>
-    <row r="190" spans="8:9">
+    <row r="190" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H190" s="31"/>
       <c r="I190" s="31"/>
     </row>
-    <row r="191" spans="8:9">
+    <row r="191" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H191" s="31"/>
       <c r="I191" s="31"/>
     </row>
-    <row r="192" spans="8:9">
+    <row r="192" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H192" s="31"/>
       <c r="I192" s="31"/>
     </row>
-    <row r="193" spans="8:9">
+    <row r="193" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H193" s="31"/>
       <c r="I193" s="31"/>
     </row>
-    <row r="194" spans="8:9">
+    <row r="194" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H194" s="31"/>
       <c r="I194" s="31"/>
     </row>
-    <row r="195" spans="8:9">
+    <row r="195" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H195" s="31"/>
       <c r="I195" s="31"/>
     </row>
-    <row r="196" spans="8:9">
+    <row r="196" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H196" s="31"/>
       <c r="I196" s="31"/>
     </row>
-    <row r="197" spans="8:9">
+    <row r="197" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H197" s="31"/>
       <c r="I197" s="31"/>
     </row>
-    <row r="198" spans="8:9">
+    <row r="198" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H198" s="31"/>
       <c r="I198" s="31"/>
     </row>
-    <row r="199" spans="8:9">
+    <row r="199" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H199" s="31"/>
       <c r="I199" s="31"/>
     </row>
-    <row r="200" spans="8:9">
+    <row r="200" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H200" s="31"/>
       <c r="I200" s="31"/>
     </row>
-    <row r="201" spans="8:9">
+    <row r="201" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H201" s="31"/>
       <c r="I201" s="31"/>
     </row>
-    <row r="202" spans="8:9">
+    <row r="202" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H202" s="31"/>
       <c r="I202" s="31"/>
     </row>
-    <row r="203" spans="8:9">
+    <row r="203" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H203" s="31"/>
       <c r="I203" s="31"/>
     </row>
-    <row r="204" spans="8:9">
+    <row r="204" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H204" s="31"/>
       <c r="I204" s="31"/>
     </row>
-    <row r="205" spans="8:9">
+    <row r="205" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H205" s="31"/>
       <c r="I205" s="31"/>
     </row>
-    <row r="206" spans="8:9">
+    <row r="206" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H206" s="31"/>
       <c r="I206" s="31"/>
     </row>
-    <row r="207" spans="8:9">
+    <row r="207" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H207" s="31"/>
       <c r="I207" s="31"/>
     </row>
-    <row r="208" spans="8:9">
+    <row r="208" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H208" s="31"/>
       <c r="I208" s="31"/>
     </row>
-    <row r="209" spans="8:9">
+    <row r="209" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H209" s="31"/>
       <c r="I209" s="31"/>
     </row>
-    <row r="210" spans="8:9">
+    <row r="210" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H210" s="31"/>
       <c r="I210" s="31"/>
     </row>
-    <row r="211" spans="8:9">
+    <row r="211" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H211" s="31"/>
       <c r="I211" s="31"/>
     </row>
-    <row r="212" spans="8:9">
+    <row r="212" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H212" s="31"/>
       <c r="I212" s="31"/>
     </row>
-    <row r="213" spans="8:9">
+    <row r="213" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H213" s="31"/>
       <c r="I213" s="31"/>
     </row>
-    <row r="214" spans="8:9">
+    <row r="214" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H214" s="31"/>
       <c r="I214" s="31"/>
     </row>
-    <row r="215" spans="8:9">
+    <row r="215" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H215" s="31"/>
       <c r="I215" s="31"/>
     </row>
-    <row r="216" spans="8:9">
+    <row r="216" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H216" s="31"/>
       <c r="I216" s="31"/>
     </row>
-    <row r="217" spans="8:9">
+    <row r="217" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H217" s="31"/>
       <c r="I217" s="31"/>
     </row>
-    <row r="218" spans="8:9">
+    <row r="218" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H218" s="31"/>
       <c r="I218" s="31"/>
     </row>
-    <row r="219" spans="8:9">
+    <row r="219" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H219" s="31"/>
       <c r="I219" s="31"/>
     </row>
-    <row r="220" spans="8:9">
+    <row r="220" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H220" s="31"/>
       <c r="I220" s="31"/>
     </row>
-    <row r="221" spans="8:9">
+    <row r="221" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H221" s="31"/>
       <c r="I221" s="31"/>
     </row>
-    <row r="222" spans="8:9">
+    <row r="222" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H222" s="31"/>
       <c r="I222" s="31"/>
     </row>
-    <row r="223" spans="8:9">
+    <row r="223" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H223" s="31"/>
       <c r="I223" s="31"/>
     </row>
@@ -9638,25 +9651,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L38"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C31" sqref="C31"/>
+    <sheetView topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="29.5" style="31" customWidth="1"/>
+    <col min="1" max="2" width="29.44140625" style="31" customWidth="1"/>
     <col min="3" max="3" width="71" style="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5" style="31" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" style="31" customWidth="1"/>
     <col min="5" max="5" width="12.33203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="10.5" style="31" customWidth="1"/>
-    <col min="8" max="8" width="14.5" style="31" customWidth="1"/>
+    <col min="6" max="7" width="10.44140625" style="31" customWidth="1"/>
+    <col min="8" max="8" width="14.44140625" style="31" customWidth="1"/>
     <col min="9" max="9" width="14.6640625" style="31" customWidth="1"/>
     <col min="10" max="10" width="9.6640625" style="31" customWidth="1"/>
-    <col min="11" max="16384" width="11.5" style="31"/>
+    <col min="11" max="16384" width="11.44140625" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18">
+    <row r="1" spans="1:12" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="5"/>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -9671,7 +9684,7 @@
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
     </row>
-    <row r="2" spans="1:12" s="8" customFormat="1" ht="15">
+    <row r="2" spans="1:12" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>459</v>
       </c>
@@ -9706,7 +9719,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="14" customFormat="1" ht="30">
+    <row r="3" spans="1:12" s="14" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
         <v>628</v>
       </c>
@@ -9742,7 +9755,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="30" t="s">
         <v>644</v>
       </c>
@@ -9771,7 +9784,7 @@
       <c r="J4" s="30"/>
       <c r="K4" s="30"/>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="30" t="s">
         <v>645</v>
       </c>
@@ -9801,7 +9814,7 @@
       <c r="K5" s="30"/>
       <c r="L5" s="30"/>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="30" t="s">
         <v>646</v>
       </c>
@@ -9830,7 +9843,7 @@
       <c r="J6" s="30"/>
       <c r="K6" s="30"/>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="30" t="s">
         <v>647</v>
       </c>
@@ -9859,16 +9872,16 @@
       <c r="J7" s="30"/>
       <c r="K7" s="30"/>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="30" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B8" s="30"/>
       <c r="C8" s="30" t="s">
-        <v>709</v>
+        <v>823</v>
       </c>
       <c r="D8" s="30" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="E8" s="30" t="s">
         <v>64</v>
@@ -9887,16 +9900,16 @@
       <c r="K8" s="30"/>
       <c r="L8" s="30"/>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="30" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B9" s="30"/>
       <c r="C9" s="30" t="s">
-        <v>713</v>
+        <v>801</v>
       </c>
       <c r="D9" s="30" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="E9" s="30" t="s">
         <v>64</v>
@@ -9915,16 +9928,16 @@
       <c r="K9" s="30"/>
       <c r="L9" s="30"/>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="30" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="B10" s="30"/>
       <c r="C10" s="30" t="s">
-        <v>716</v>
+        <v>802</v>
       </c>
       <c r="D10" s="30" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="E10" s="30" t="s">
         <v>64</v>
@@ -9943,16 +9956,16 @@
       <c r="K10" s="30"/>
       <c r="L10" s="30"/>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="30" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="B11" s="30"/>
       <c r="C11" s="30" t="s">
-        <v>727</v>
+        <v>803</v>
       </c>
       <c r="D11" s="30" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="E11" s="30" t="s">
         <v>64</v>
@@ -9971,16 +9984,16 @@
       <c r="K11" s="30"/>
       <c r="L11" s="30"/>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="30" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="B12" s="30"/>
       <c r="C12" s="30" t="s">
-        <v>728</v>
+        <v>804</v>
       </c>
       <c r="D12" s="30" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="E12" s="30" t="s">
         <v>64</v>
@@ -9999,16 +10012,16 @@
       <c r="K12" s="30"/>
       <c r="L12" s="30"/>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="30" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="B13" s="30"/>
       <c r="C13" s="30" t="s">
-        <v>729</v>
+        <v>805</v>
       </c>
       <c r="D13" s="30" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="E13" s="30" t="s">
         <v>64</v>
@@ -10027,16 +10040,16 @@
       <c r="K13" s="30"/>
       <c r="L13" s="30"/>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="30" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="B14" s="30"/>
       <c r="C14" s="30" t="s">
-        <v>730</v>
+        <v>806</v>
       </c>
       <c r="D14" s="30" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="E14" s="30" t="s">
         <v>64</v>
@@ -10055,16 +10068,16 @@
       <c r="K14" s="30"/>
       <c r="L14" s="30"/>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="30" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="B15" s="30"/>
       <c r="C15" s="30" t="s">
-        <v>731</v>
+        <v>807</v>
       </c>
       <c r="D15" s="30" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="E15" s="30" t="s">
         <v>64</v>
@@ -10083,16 +10096,16 @@
       <c r="K15" s="30"/>
       <c r="L15" s="30"/>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="30" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="B16" s="30"/>
       <c r="C16" s="30" t="s">
-        <v>732</v>
+        <v>808</v>
       </c>
       <c r="D16" s="30" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="E16" s="30" t="s">
         <v>64</v>
@@ -10111,16 +10124,16 @@
       <c r="K16" s="30"/>
       <c r="L16" s="30"/>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="30" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="B17" s="30"/>
       <c r="C17" s="30" t="s">
-        <v>733</v>
+        <v>809</v>
       </c>
       <c r="D17" s="30" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="E17" s="30" t="s">
         <v>64</v>
@@ -10139,16 +10152,16 @@
       <c r="K17" s="30"/>
       <c r="L17" s="30"/>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="30" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="B18" s="30"/>
       <c r="C18" s="30" t="s">
-        <v>734</v>
+        <v>810</v>
       </c>
       <c r="D18" s="30" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="E18" s="30" t="s">
         <v>64</v>
@@ -10167,16 +10180,16 @@
       <c r="K18" s="30"/>
       <c r="L18" s="30"/>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="30" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="B19" s="30"/>
       <c r="C19" s="30" t="s">
-        <v>735</v>
+        <v>811</v>
       </c>
       <c r="D19" s="30" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="E19" s="30" t="s">
         <v>64</v>
@@ -10195,16 +10208,16 @@
       <c r="K19" s="30"/>
       <c r="L19" s="30"/>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="30" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="B20" s="30"/>
       <c r="C20" s="30" t="s">
-        <v>736</v>
+        <v>812</v>
       </c>
       <c r="D20" s="30" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="E20" s="30" t="s">
         <v>64</v>
@@ -10223,16 +10236,16 @@
       <c r="K20" s="30"/>
       <c r="L20" s="30"/>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="30" t="s">
-        <v>738</v>
+        <v>725</v>
       </c>
       <c r="B21" s="30"/>
       <c r="C21" s="30" t="s">
-        <v>739</v>
+        <v>813</v>
       </c>
       <c r="D21" s="30" t="s">
-        <v>741</v>
+        <v>726</v>
       </c>
       <c r="E21" s="30" t="s">
         <v>64</v>
@@ -10251,16 +10264,16 @@
       <c r="K21" s="30"/>
       <c r="L21" s="30"/>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="30" t="s">
-        <v>737</v>
+        <v>724</v>
       </c>
       <c r="B22" s="30"/>
       <c r="C22" s="30" t="s">
-        <v>740</v>
+        <v>814</v>
       </c>
       <c r="D22" s="30" t="s">
-        <v>741</v>
+        <v>726</v>
       </c>
       <c r="E22" s="30" t="s">
         <v>64</v>
@@ -10279,16 +10292,16 @@
       <c r="K22" s="30"/>
       <c r="L22" s="30"/>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="30" t="s">
-        <v>742</v>
+        <v>727</v>
       </c>
       <c r="B23" s="30"/>
       <c r="C23" s="30" t="s">
-        <v>750</v>
+        <v>815</v>
       </c>
       <c r="D23" s="30" t="s">
-        <v>741</v>
+        <v>726</v>
       </c>
       <c r="E23" s="30" t="s">
         <v>64</v>
@@ -10307,16 +10320,16 @@
       <c r="K23" s="30"/>
       <c r="L23" s="30"/>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="30" t="s">
-        <v>743</v>
+        <v>728</v>
       </c>
       <c r="B24" s="30"/>
       <c r="C24" s="30" t="s">
-        <v>751</v>
+        <v>816</v>
       </c>
       <c r="D24" s="30" t="s">
-        <v>741</v>
+        <v>726</v>
       </c>
       <c r="E24" s="30" t="s">
         <v>64</v>
@@ -10335,16 +10348,16 @@
       <c r="K24" s="30"/>
       <c r="L24" s="30"/>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="30" t="s">
-        <v>744</v>
+        <v>729</v>
       </c>
       <c r="B25" s="30"/>
       <c r="C25" s="30" t="s">
-        <v>752</v>
+        <v>817</v>
       </c>
       <c r="D25" s="30" t="s">
-        <v>741</v>
+        <v>726</v>
       </c>
       <c r="E25" s="30" t="s">
         <v>64</v>
@@ -10363,16 +10376,16 @@
       <c r="K25" s="30"/>
       <c r="L25" s="30"/>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="30" t="s">
-        <v>745</v>
+        <v>730</v>
       </c>
       <c r="B26" s="30"/>
       <c r="C26" s="30" t="s">
-        <v>753</v>
+        <v>818</v>
       </c>
       <c r="D26" s="30" t="s">
-        <v>741</v>
+        <v>726</v>
       </c>
       <c r="E26" s="30" t="s">
         <v>64</v>
@@ -10391,16 +10404,16 @@
       <c r="K26" s="30"/>
       <c r="L26" s="30"/>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="30" t="s">
-        <v>746</v>
+        <v>731</v>
       </c>
       <c r="B27" s="30"/>
       <c r="C27" s="30" t="s">
-        <v>754</v>
+        <v>819</v>
       </c>
       <c r="D27" s="30" t="s">
-        <v>741</v>
+        <v>726</v>
       </c>
       <c r="E27" s="30" t="s">
         <v>64</v>
@@ -10419,16 +10432,16 @@
       <c r="K27" s="30"/>
       <c r="L27" s="30"/>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="30" t="s">
-        <v>747</v>
+        <v>732</v>
       </c>
       <c r="B28" s="30"/>
       <c r="C28" s="30" t="s">
-        <v>755</v>
+        <v>820</v>
       </c>
       <c r="D28" s="30" t="s">
-        <v>741</v>
+        <v>726</v>
       </c>
       <c r="E28" s="30" t="s">
         <v>64</v>
@@ -10447,16 +10460,16 @@
       <c r="K28" s="30"/>
       <c r="L28" s="30"/>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="30" t="s">
-        <v>748</v>
+        <v>733</v>
       </c>
       <c r="B29" s="30"/>
       <c r="C29" s="30" t="s">
-        <v>756</v>
+        <v>821</v>
       </c>
       <c r="D29" s="30" t="s">
-        <v>741</v>
+        <v>726</v>
       </c>
       <c r="E29" s="30" t="s">
         <v>64</v>
@@ -10475,16 +10488,16 @@
       <c r="K29" s="30"/>
       <c r="L29" s="30"/>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="30" t="s">
-        <v>749</v>
+        <v>734</v>
       </c>
       <c r="B30" s="30"/>
       <c r="C30" s="30" t="s">
-        <v>757</v>
+        <v>822</v>
       </c>
       <c r="D30" s="30" t="s">
-        <v>741</v>
+        <v>726</v>
       </c>
       <c r="E30" s="30" t="s">
         <v>64</v>
@@ -10503,49 +10516,49 @@
       <c r="K30" s="30"/>
       <c r="L30" s="30"/>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="30"/>
       <c r="B31" s="30"/>
       <c r="C31" s="30"/>
       <c r="D31" s="30"/>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="30"/>
       <c r="B32" s="30"/>
       <c r="C32" s="30"/>
       <c r="D32" s="30"/>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="30"/>
       <c r="B33" s="30"/>
       <c r="C33" s="30"/>
       <c r="D33" s="30"/>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="30"/>
       <c r="B34" s="30"/>
       <c r="C34" s="30"/>
       <c r="D34" s="30"/>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="30"/>
       <c r="B35" s="30"/>
       <c r="C35" s="30"/>
       <c r="D35" s="30"/>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="30"/>
       <c r="B36" s="30"/>
       <c r="C36" s="30"/>
       <c r="D36" s="30"/>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="30"/>
       <c r="B37" s="30"/>
       <c r="C37" s="30"/>
       <c r="D37" s="30"/>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="30"/>
       <c r="B38" s="30"/>
       <c r="C38" s="30"/>
@@ -10553,7 +10566,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -10570,19 +10583,19 @@
       <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="70.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="80.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="33.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="255.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15">
+    <row r="1" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="b">
         <v>0</v>
       </c>
@@ -10601,7 +10614,7 @@
       <c r="H1" s="17"/>
       <c r="I1" s="17"/>
     </row>
-    <row r="2" spans="1:9" ht="15">
+    <row r="2" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="17"/>
       <c r="B2" s="17" t="s">
         <v>21</v>
@@ -10622,7 +10635,7 @@
       <c r="H2" s="17"/>
       <c r="I2" s="17"/>
     </row>
-    <row r="3" spans="1:9" ht="15">
+    <row r="3" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="17"/>
       <c r="B3" s="17" t="s">
         <v>21</v>
@@ -10645,7 +10658,7 @@
       </c>
       <c r="I3" s="17"/>
     </row>
-    <row r="4" spans="1:9" ht="15">
+    <row r="4" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="17"/>
       <c r="B4" s="17" t="s">
         <v>21</v>
@@ -10668,7 +10681,7 @@
       </c>
       <c r="I4" s="17"/>
     </row>
-    <row r="5" spans="1:9" ht="15">
+    <row r="5" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="17"/>
       <c r="B5" s="17" t="s">
         <v>21</v>
@@ -10691,7 +10704,7 @@
       </c>
       <c r="I5" s="17"/>
     </row>
-    <row r="6" spans="1:9" ht="15">
+    <row r="6" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="17" t="s">
         <v>21</v>
@@ -10714,7 +10727,7 @@
       </c>
       <c r="I6" s="17"/>
     </row>
-    <row r="7" spans="1:9" ht="15">
+    <row r="7" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="17"/>
       <c r="B7" s="17" t="s">
         <v>21</v>
@@ -10737,7 +10750,7 @@
       </c>
       <c r="I7" s="17"/>
     </row>
-    <row r="8" spans="1:9" ht="15">
+    <row r="8" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="17"/>
       <c r="B8" s="17" t="s">
         <v>21</v>
@@ -10760,7 +10773,7 @@
       </c>
       <c r="I8" s="17"/>
     </row>
-    <row r="9" spans="1:9" ht="15">
+    <row r="9" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="17"/>
       <c r="B9" s="17" t="s">
         <v>21</v>
@@ -10783,7 +10796,7 @@
       </c>
       <c r="I9" s="17"/>
     </row>
-    <row r="10" spans="1:9" ht="15">
+    <row r="10" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="17"/>
       <c r="B10" s="17" t="s">
         <v>21</v>
@@ -10806,7 +10819,7 @@
       </c>
       <c r="I10" s="17"/>
     </row>
-    <row r="11" spans="1:9" ht="15">
+    <row r="11" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="17" t="b">
         <v>0</v>
       </c>
@@ -10825,7 +10838,7 @@
       <c r="H11" s="17"/>
       <c r="I11" s="17"/>
     </row>
-    <row r="12" spans="1:9" ht="15">
+    <row r="12" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="17"/>
       <c r="B12" s="17" t="s">
         <v>21</v>
@@ -10846,7 +10859,7 @@
       <c r="H12" s="17"/>
       <c r="I12" s="17"/>
     </row>
-    <row r="13" spans="1:9" ht="15">
+    <row r="13" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="17"/>
       <c r="B13" s="17" t="s">
         <v>21</v>
@@ -10869,7 +10882,7 @@
       </c>
       <c r="I13" s="17"/>
     </row>
-    <row r="14" spans="1:9" ht="15">
+    <row r="14" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="17"/>
       <c r="B14" s="17" t="s">
         <v>21</v>
@@ -10892,7 +10905,7 @@
       </c>
       <c r="I14" s="17"/>
     </row>
-    <row r="15" spans="1:9" ht="15">
+    <row r="15" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="17"/>
       <c r="B15" s="17" t="s">
         <v>21</v>
@@ -10915,7 +10928,7 @@
       </c>
       <c r="I15" s="17"/>
     </row>
-    <row r="16" spans="1:9" ht="15">
+    <row r="16" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="17"/>
       <c r="B16" s="17" t="s">
         <v>21</v>
@@ -10938,7 +10951,7 @@
       </c>
       <c r="I16" s="17"/>
     </row>
-    <row r="17" spans="1:9" ht="15">
+    <row r="17" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="17"/>
       <c r="B17" s="17" t="s">
         <v>21</v>
@@ -10961,7 +10974,7 @@
       </c>
       <c r="I17" s="17"/>
     </row>
-    <row r="18" spans="1:9" ht="15">
+    <row r="18" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="17"/>
       <c r="B18" s="17" t="s">
         <v>21</v>
@@ -10984,7 +10997,7 @@
       </c>
       <c r="I18" s="17"/>
     </row>
-    <row r="19" spans="1:9" ht="15">
+    <row r="19" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="17"/>
       <c r="B19" s="17" t="s">
         <v>21</v>
@@ -11007,7 +11020,7 @@
       </c>
       <c r="I19" s="17"/>
     </row>
-    <row r="20" spans="1:9" ht="15">
+    <row r="20" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="17"/>
       <c r="B20" s="17" t="s">
         <v>21</v>
@@ -11030,7 +11043,7 @@
       </c>
       <c r="I20" s="17"/>
     </row>
-    <row r="21" spans="1:9" ht="15">
+    <row r="21" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="17" t="b">
         <v>0</v>
       </c>
@@ -11049,7 +11062,7 @@
       <c r="H21" s="17"/>
       <c r="I21" s="17"/>
     </row>
-    <row r="22" spans="1:9" ht="15">
+    <row r="22" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="17"/>
       <c r="B22" s="17" t="s">
         <v>21</v>
@@ -11072,7 +11085,7 @@
       </c>
       <c r="I22" s="17"/>
     </row>
-    <row r="23" spans="1:9" ht="15">
+    <row r="23" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="17"/>
       <c r="B23" s="17" t="s">
         <v>21</v>
@@ -11095,7 +11108,7 @@
       </c>
       <c r="I23" s="17"/>
     </row>
-    <row r="24" spans="1:9" ht="15">
+    <row r="24" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="17"/>
       <c r="B24" s="17" t="s">
         <v>21</v>
@@ -11118,7 +11131,7 @@
       </c>
       <c r="I24" s="17"/>
     </row>
-    <row r="25" spans="1:9" ht="15">
+    <row r="25" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="17"/>
       <c r="B25" s="17" t="s">
         <v>21</v>
@@ -11141,7 +11154,7 @@
       </c>
       <c r="I25" s="17"/>
     </row>
-    <row r="26" spans="1:9" ht="15">
+    <row r="26" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="17"/>
       <c r="B26" s="17" t="s">
         <v>21</v>
@@ -11164,7 +11177,7 @@
       </c>
       <c r="I26" s="17"/>
     </row>
-    <row r="27" spans="1:9" ht="15">
+    <row r="27" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="17"/>
       <c r="B27" s="17" t="s">
         <v>21</v>
@@ -11187,7 +11200,7 @@
       </c>
       <c r="I27" s="17"/>
     </row>
-    <row r="28" spans="1:9" ht="15">
+    <row r="28" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="17"/>
       <c r="B28" s="17" t="s">
         <v>21</v>
@@ -11210,7 +11223,7 @@
       </c>
       <c r="I28" s="17"/>
     </row>
-    <row r="29" spans="1:9" ht="15">
+    <row r="29" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="17"/>
       <c r="B29" s="17" t="s">
         <v>21</v>
@@ -11233,7 +11246,7 @@
       </c>
       <c r="I29" s="17"/>
     </row>
-    <row r="30" spans="1:9" ht="15">
+    <row r="30" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="17"/>
       <c r="B30" s="17" t="s">
         <v>21</v>
@@ -11256,7 +11269,7 @@
       </c>
       <c r="I30" s="17"/>
     </row>
-    <row r="31" spans="1:9" ht="15">
+    <row r="31" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="17" t="b">
         <v>0</v>
       </c>
@@ -11275,7 +11288,7 @@
       <c r="H31" s="17"/>
       <c r="I31" s="17"/>
     </row>
-    <row r="32" spans="1:9" ht="15">
+    <row r="32" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="17"/>
       <c r="B32" s="17" t="s">
         <v>21</v>
@@ -11296,7 +11309,7 @@
       <c r="H32" s="17"/>
       <c r="I32" s="17"/>
     </row>
-    <row r="33" spans="1:9" ht="15">
+    <row r="33" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="17"/>
       <c r="B33" s="17" t="s">
         <v>21</v>
@@ -11319,7 +11332,7 @@
       </c>
       <c r="I33" s="17"/>
     </row>
-    <row r="34" spans="1:9" ht="15">
+    <row r="34" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="17"/>
       <c r="B34" s="17" t="s">
         <v>21</v>
@@ -11342,7 +11355,7 @@
       </c>
       <c r="I34" s="17"/>
     </row>
-    <row r="35" spans="1:9" ht="15">
+    <row r="35" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="17"/>
       <c r="B35" s="17" t="s">
         <v>21</v>
@@ -11365,7 +11378,7 @@
       </c>
       <c r="I35" s="17"/>
     </row>
-    <row r="36" spans="1:9" ht="15">
+    <row r="36" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="17"/>
       <c r="B36" s="17" t="s">
         <v>21</v>
@@ -11388,7 +11401,7 @@
       </c>
       <c r="I36" s="17"/>
     </row>
-    <row r="37" spans="1:9" ht="15">
+    <row r="37" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="17"/>
       <c r="B37" s="17" t="s">
         <v>21</v>
@@ -11411,7 +11424,7 @@
       </c>
       <c r="I37" s="17"/>
     </row>
-    <row r="38" spans="1:9" ht="15">
+    <row r="38" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="17"/>
       <c r="B38" s="17" t="s">
         <v>21</v>
@@ -11434,7 +11447,7 @@
       </c>
       <c r="I38" s="17"/>
     </row>
-    <row r="39" spans="1:9" ht="15">
+    <row r="39" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="17"/>
       <c r="B39" s="17" t="s">
         <v>21</v>
@@ -11457,7 +11470,7 @@
       </c>
       <c r="I39" s="17"/>
     </row>
-    <row r="40" spans="1:9" ht="15">
+    <row r="40" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="17"/>
       <c r="B40" s="17" t="s">
         <v>21</v>
@@ -11480,7 +11493,7 @@
       </c>
       <c r="I40" s="17"/>
     </row>
-    <row r="41" spans="1:9" ht="15">
+    <row r="41" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="17" t="b">
         <v>0</v>
       </c>
@@ -11499,7 +11512,7 @@
       <c r="H41" s="17"/>
       <c r="I41" s="17"/>
     </row>
-    <row r="42" spans="1:9" ht="15">
+    <row r="42" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="17"/>
       <c r="B42" s="17" t="s">
         <v>21</v>
@@ -11520,7 +11533,7 @@
       <c r="H42" s="17"/>
       <c r="I42" s="17"/>
     </row>
-    <row r="43" spans="1:9" ht="15">
+    <row r="43" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="17"/>
       <c r="B43" s="17" t="s">
         <v>21</v>
@@ -11543,7 +11556,7 @@
       </c>
       <c r="I43" s="17"/>
     </row>
-    <row r="44" spans="1:9" ht="15">
+    <row r="44" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="17"/>
       <c r="B44" s="17" t="s">
         <v>21</v>
@@ -11566,7 +11579,7 @@
       </c>
       <c r="I44" s="17"/>
     </row>
-    <row r="45" spans="1:9" ht="15">
+    <row r="45" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" s="17"/>
       <c r="B45" s="17" t="s">
         <v>21</v>
@@ -11589,7 +11602,7 @@
       </c>
       <c r="I45" s="17"/>
     </row>
-    <row r="46" spans="1:9" ht="15">
+    <row r="46" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="17"/>
       <c r="B46" s="17" t="s">
         <v>21</v>
@@ -11612,7 +11625,7 @@
       </c>
       <c r="I46" s="17"/>
     </row>
-    <row r="47" spans="1:9" ht="15">
+    <row r="47" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" s="17"/>
       <c r="B47" s="17" t="s">
         <v>21</v>
@@ -11635,7 +11648,7 @@
       </c>
       <c r="I47" s="17"/>
     </row>
-    <row r="48" spans="1:9" ht="15">
+    <row r="48" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="17"/>
       <c r="B48" s="17" t="s">
         <v>21</v>
@@ -11658,7 +11671,7 @@
       </c>
       <c r="I48" s="17"/>
     </row>
-    <row r="49" spans="1:9" ht="15">
+    <row r="49" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" s="17"/>
       <c r="B49" s="17" t="s">
         <v>21</v>
@@ -11681,7 +11694,7 @@
       </c>
       <c r="I49" s="17"/>
     </row>
-    <row r="50" spans="1:9" ht="15">
+    <row r="50" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50" s="17"/>
       <c r="B50" s="17" t="s">
         <v>21</v>
@@ -11704,7 +11717,7 @@
       </c>
       <c r="I50" s="17"/>
     </row>
-    <row r="51" spans="1:9" ht="15">
+    <row r="51" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A51" s="17" t="b">
         <v>0</v>
       </c>
@@ -11723,7 +11736,7 @@
       <c r="H51" s="17"/>
       <c r="I51" s="17"/>
     </row>
-    <row r="52" spans="1:9" ht="15">
+    <row r="52" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52" s="17"/>
       <c r="B52" s="17" t="s">
         <v>21</v>
@@ -11744,7 +11757,7 @@
       <c r="H52" s="17"/>
       <c r="I52" s="17"/>
     </row>
-    <row r="53" spans="1:9" ht="15">
+    <row r="53" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A53" s="17"/>
       <c r="B53" s="17" t="s">
         <v>21</v>
@@ -11767,7 +11780,7 @@
       </c>
       <c r="I53" s="17"/>
     </row>
-    <row r="54" spans="1:9" ht="15">
+    <row r="54" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A54" s="17"/>
       <c r="B54" s="17" t="s">
         <v>21</v>
@@ -11790,7 +11803,7 @@
       </c>
       <c r="I54" s="17"/>
     </row>
-    <row r="55" spans="1:9" ht="15">
+    <row r="55" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A55" s="17"/>
       <c r="B55" s="17" t="s">
         <v>21</v>
@@ -11813,7 +11826,7 @@
       </c>
       <c r="I55" s="17"/>
     </row>
-    <row r="56" spans="1:9" ht="15">
+    <row r="56" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A56" s="17"/>
       <c r="B56" s="17" t="s">
         <v>21</v>
@@ -11836,7 +11849,7 @@
       </c>
       <c r="I56" s="17"/>
     </row>
-    <row r="57" spans="1:9" ht="15">
+    <row r="57" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A57" s="17"/>
       <c r="B57" s="17" t="s">
         <v>21</v>
@@ -11859,7 +11872,7 @@
       </c>
       <c r="I57" s="17"/>
     </row>
-    <row r="58" spans="1:9" ht="15">
+    <row r="58" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A58" s="17"/>
       <c r="B58" s="17" t="s">
         <v>21</v>
@@ -11882,7 +11895,7 @@
       </c>
       <c r="I58" s="17"/>
     </row>
-    <row r="59" spans="1:9" ht="15">
+    <row r="59" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A59" s="17"/>
       <c r="B59" s="17" t="s">
         <v>21</v>
@@ -11905,7 +11918,7 @@
       </c>
       <c r="I59" s="17"/>
     </row>
-    <row r="60" spans="1:9" ht="15">
+    <row r="60" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A60" s="17"/>
       <c r="B60" s="17" t="s">
         <v>21</v>
@@ -11928,7 +11941,7 @@
       </c>
       <c r="I60" s="17"/>
     </row>
-    <row r="61" spans="1:9" ht="15">
+    <row r="61" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A61" s="17" t="b">
         <v>0</v>
       </c>
@@ -11947,7 +11960,7 @@
       <c r="H61" s="17"/>
       <c r="I61" s="17"/>
     </row>
-    <row r="62" spans="1:9" ht="15">
+    <row r="62" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A62" s="17"/>
       <c r="B62" s="17" t="s">
         <v>21</v>
@@ -11968,7 +11981,7 @@
       <c r="H62" s="17"/>
       <c r="I62" s="17"/>
     </row>
-    <row r="63" spans="1:9" ht="15">
+    <row r="63" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A63" s="17"/>
       <c r="B63" s="17" t="s">
         <v>21</v>
@@ -11993,7 +12006,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="15">
+    <row r="64" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A64" s="17"/>
       <c r="B64" s="17" t="s">
         <v>21</v>
@@ -12016,7 +12029,7 @@
       </c>
       <c r="I64" s="17"/>
     </row>
-    <row r="65" spans="1:9" ht="15">
+    <row r="65" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A65" s="17"/>
       <c r="B65" s="17" t="s">
         <v>21</v>
@@ -12039,7 +12052,7 @@
       </c>
       <c r="I65" s="17"/>
     </row>
-    <row r="66" spans="1:9" ht="15">
+    <row r="66" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A66" s="17"/>
       <c r="B66" s="17" t="s">
         <v>21</v>
@@ -12062,7 +12075,7 @@
       </c>
       <c r="I66" s="17"/>
     </row>
-    <row r="67" spans="1:9" ht="15">
+    <row r="67" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A67" s="17"/>
       <c r="B67" s="17" t="s">
         <v>21</v>
@@ -12085,7 +12098,7 @@
       </c>
       <c r="I67" s="17"/>
     </row>
-    <row r="68" spans="1:9" ht="15">
+    <row r="68" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A68" s="17"/>
       <c r="B68" s="17" t="s">
         <v>21</v>
@@ -12108,7 +12121,7 @@
       </c>
       <c r="I68" s="17"/>
     </row>
-    <row r="69" spans="1:9" ht="15">
+    <row r="69" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A69" s="17"/>
       <c r="B69" s="17" t="s">
         <v>21</v>
@@ -12131,7 +12144,7 @@
       </c>
       <c r="I69" s="17"/>
     </row>
-    <row r="70" spans="1:9" ht="15">
+    <row r="70" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A70" s="17"/>
       <c r="B70" s="17" t="s">
         <v>21</v>
@@ -12154,7 +12167,7 @@
       </c>
       <c r="I70" s="17"/>
     </row>
-    <row r="71" spans="1:9" ht="15">
+    <row r="71" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A71" s="17"/>
       <c r="B71" s="17" t="s">
         <v>21</v>
@@ -12177,7 +12190,7 @@
       </c>
       <c r="I71" s="17"/>
     </row>
-    <row r="72" spans="1:9" ht="15">
+    <row r="72" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A72" s="17" t="b">
         <v>0</v>
       </c>
@@ -12196,7 +12209,7 @@
       <c r="H72" s="17"/>
       <c r="I72" s="17"/>
     </row>
-    <row r="73" spans="1:9" ht="15">
+    <row r="73" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A73" s="17"/>
       <c r="B73" s="17" t="s">
         <v>21</v>
@@ -12217,7 +12230,7 @@
       <c r="H73" s="17"/>
       <c r="I73" s="17"/>
     </row>
-    <row r="74" spans="1:9" ht="15">
+    <row r="74" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A74" s="17"/>
       <c r="B74" s="17" t="s">
         <v>21</v>
@@ -12240,7 +12253,7 @@
       </c>
       <c r="I74" s="17"/>
     </row>
-    <row r="75" spans="1:9" ht="15">
+    <row r="75" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A75" s="17"/>
       <c r="B75" s="17" t="s">
         <v>21</v>
@@ -12265,7 +12278,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="15">
+    <row r="76" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A76" s="17"/>
       <c r="B76" s="17" t="s">
         <v>21</v>
@@ -12288,7 +12301,7 @@
       </c>
       <c r="I76" s="17"/>
     </row>
-    <row r="77" spans="1:9" ht="15">
+    <row r="77" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A77" s="17"/>
       <c r="B77" s="17" t="s">
         <v>21</v>
@@ -12311,7 +12324,7 @@
       </c>
       <c r="I77" s="17"/>
     </row>
-    <row r="78" spans="1:9" ht="15">
+    <row r="78" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A78" s="17"/>
       <c r="B78" s="17" t="s">
         <v>21</v>
@@ -12334,7 +12347,7 @@
       </c>
       <c r="I78" s="17"/>
     </row>
-    <row r="79" spans="1:9" ht="15">
+    <row r="79" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A79" s="17"/>
       <c r="B79" s="17" t="s">
         <v>21</v>
@@ -12357,7 +12370,7 @@
       </c>
       <c r="I79" s="17"/>
     </row>
-    <row r="80" spans="1:9" ht="15">
+    <row r="80" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A80" s="17"/>
       <c r="B80" s="17" t="s">
         <v>21</v>
@@ -12380,7 +12393,7 @@
       </c>
       <c r="I80" s="17"/>
     </row>
-    <row r="81" spans="1:9" ht="15">
+    <row r="81" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A81" s="17"/>
       <c r="B81" s="17" t="s">
         <v>21</v>
@@ -12403,7 +12416,7 @@
       </c>
       <c r="I81" s="17"/>
     </row>
-    <row r="82" spans="1:9" ht="15">
+    <row r="82" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A82" s="17"/>
       <c r="B82" s="17" t="s">
         <v>21</v>
@@ -12426,7 +12439,7 @@
       </c>
       <c r="I82" s="17"/>
     </row>
-    <row r="83" spans="1:9" ht="15">
+    <row r="83" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A83" s="17"/>
       <c r="B83" s="17" t="s">
         <v>21</v>
@@ -12449,7 +12462,7 @@
       </c>
       <c r="I83" s="17"/>
     </row>
-    <row r="84" spans="1:9" ht="15">
+    <row r="84" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A84" s="17"/>
       <c r="B84" s="17" t="s">
         <v>21</v>
@@ -12472,7 +12485,7 @@
       </c>
       <c r="I84" s="17"/>
     </row>
-    <row r="85" spans="1:9" ht="15">
+    <row r="85" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A85" s="17"/>
       <c r="B85" s="17" t="s">
         <v>21</v>
@@ -12495,7 +12508,7 @@
       </c>
       <c r="I85" s="17"/>
     </row>
-    <row r="86" spans="1:9" ht="15">
+    <row r="86" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A86" s="17" t="b">
         <v>0</v>
       </c>
@@ -12514,7 +12527,7 @@
       <c r="H86" s="17"/>
       <c r="I86" s="17"/>
     </row>
-    <row r="87" spans="1:9" ht="15">
+    <row r="87" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A87" s="17"/>
       <c r="B87" s="17" t="s">
         <v>21</v>
@@ -12537,7 +12550,7 @@
       </c>
       <c r="I87" s="17"/>
     </row>
-    <row r="88" spans="1:9" ht="15">
+    <row r="88" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A88" s="17"/>
       <c r="B88" s="17" t="s">
         <v>21</v>
@@ -12560,7 +12573,7 @@
       </c>
       <c r="I88" s="17"/>
     </row>
-    <row r="89" spans="1:9" ht="15">
+    <row r="89" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A89" s="17"/>
       <c r="B89" s="17" t="s">
         <v>21</v>
@@ -12583,7 +12596,7 @@
       </c>
       <c r="I89" s="17"/>
     </row>
-    <row r="90" spans="1:9" ht="15">
+    <row r="90" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A90" s="17"/>
       <c r="B90" s="17" t="s">
         <v>21</v>
@@ -12606,7 +12619,7 @@
       </c>
       <c r="I90" s="17"/>
     </row>
-    <row r="91" spans="1:9" ht="15">
+    <row r="91" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A91" s="17"/>
       <c r="B91" s="17" t="s">
         <v>21</v>
@@ -12629,7 +12642,7 @@
       </c>
       <c r="I91" s="17"/>
     </row>
-    <row r="92" spans="1:9" ht="15">
+    <row r="92" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A92" s="17"/>
       <c r="B92" s="17" t="s">
         <v>21</v>
@@ -12652,7 +12665,7 @@
       </c>
       <c r="I92" s="17"/>
     </row>
-    <row r="93" spans="1:9" ht="15">
+    <row r="93" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A93" s="17"/>
       <c r="B93" s="17" t="s">
         <v>21</v>
@@ -12675,7 +12688,7 @@
       </c>
       <c r="I93" s="17"/>
     </row>
-    <row r="94" spans="1:9" ht="15">
+    <row r="94" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A94" s="17"/>
       <c r="B94" s="17" t="s">
         <v>21</v>
@@ -12698,7 +12711,7 @@
       </c>
       <c r="I94" s="17"/>
     </row>
-    <row r="95" spans="1:9" ht="15">
+    <row r="95" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A95" s="17"/>
       <c r="B95" s="17" t="s">
         <v>21</v>
@@ -12721,7 +12734,7 @@
       </c>
       <c r="I95" s="17"/>
     </row>
-    <row r="96" spans="1:9" ht="15">
+    <row r="96" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A96" s="17"/>
       <c r="B96" s="17" t="s">
         <v>21</v>
@@ -12744,7 +12757,7 @@
       </c>
       <c r="I96" s="17"/>
     </row>
-    <row r="97" spans="1:9" ht="15">
+    <row r="97" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A97" s="17" t="b">
         <v>0</v>
       </c>
@@ -12763,7 +12776,7 @@
       <c r="H97" s="17"/>
       <c r="I97" s="17"/>
     </row>
-    <row r="98" spans="1:9" ht="15">
+    <row r="98" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A98" s="17"/>
       <c r="B98" s="17" t="s">
         <v>21</v>
@@ -12788,7 +12801,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="15">
+    <row r="99" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A99" s="17" t="b">
         <v>0</v>
       </c>
@@ -12807,7 +12820,7 @@
       <c r="H99" s="17"/>
       <c r="I99" s="17"/>
     </row>
-    <row r="100" spans="1:9" ht="15">
+    <row r="100" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A100" s="17"/>
       <c r="B100" s="17" t="s">
         <v>21</v>
@@ -12828,7 +12841,7 @@
       <c r="H100" s="17"/>
       <c r="I100" s="17"/>
     </row>
-    <row r="101" spans="1:9" ht="15">
+    <row r="101" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A101" s="17"/>
       <c r="B101" s="17" t="s">
         <v>21</v>
@@ -12853,7 +12866,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="15">
+    <row r="102" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A102" s="17" t="b">
         <v>0</v>
       </c>
@@ -12872,7 +12885,7 @@
       <c r="H102" s="17"/>
       <c r="I102" s="17"/>
     </row>
-    <row r="103" spans="1:9" ht="15">
+    <row r="103" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A103" s="17"/>
       <c r="B103" s="17" t="s">
         <v>21</v>
@@ -12895,7 +12908,7 @@
       </c>
       <c r="I103" s="17"/>
     </row>
-    <row r="104" spans="1:9" ht="15">
+    <row r="104" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A104" s="17"/>
       <c r="B104" s="17" t="s">
         <v>21</v>
@@ -12920,7 +12933,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="15">
+    <row r="105" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A105" s="17"/>
       <c r="B105" s="17" t="s">
         <v>21</v>
@@ -12943,7 +12956,7 @@
       </c>
       <c r="I105" s="17"/>
     </row>
-    <row r="106" spans="1:9" ht="15">
+    <row r="106" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A106" s="17"/>
       <c r="B106" s="17" t="s">
         <v>21</v>
@@ -12964,7 +12977,7 @@
       <c r="H106" s="17"/>
       <c r="I106" s="17"/>
     </row>
-    <row r="107" spans="1:9" ht="15">
+    <row r="107" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A107" s="17" t="b">
         <v>0</v>
       </c>
@@ -12983,7 +12996,7 @@
       <c r="H107" s="17"/>
       <c r="I107" s="17"/>
     </row>
-    <row r="108" spans="1:9" ht="15">
+    <row r="108" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A108" s="17"/>
       <c r="B108" s="17" t="s">
         <v>21</v>
@@ -13008,7 +13021,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="15">
+    <row r="109" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A109" s="17"/>
       <c r="B109" s="17" t="s">
         <v>21</v>
@@ -13031,7 +13044,7 @@
       </c>
       <c r="I109" s="17"/>
     </row>
-    <row r="110" spans="1:9" ht="15">
+    <row r="110" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A110" s="17"/>
       <c r="B110" s="17" t="s">
         <v>21</v>
@@ -13054,7 +13067,7 @@
       </c>
       <c r="I110" s="17"/>
     </row>
-    <row r="111" spans="1:9" ht="15">
+    <row r="111" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A111" s="17"/>
       <c r="B111" s="17" t="s">
         <v>21</v>
@@ -13077,7 +13090,7 @@
       </c>
       <c r="I111" s="17"/>
     </row>
-    <row r="112" spans="1:9" ht="15">
+    <row r="112" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A112" s="17"/>
       <c r="B112" s="17" t="s">
         <v>21</v>
@@ -13100,7 +13113,7 @@
       </c>
       <c r="I112" s="17"/>
     </row>
-    <row r="113" spans="1:9" ht="15">
+    <row r="113" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A113" s="17"/>
       <c r="B113" s="17" t="s">
         <v>21</v>
@@ -13123,7 +13136,7 @@
       </c>
       <c r="I113" s="17"/>
     </row>
-    <row r="114" spans="1:9" ht="15">
+    <row r="114" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A114" s="17"/>
       <c r="B114" s="17" t="s">
         <v>21</v>
@@ -13146,7 +13159,7 @@
       </c>
       <c r="I114" s="17"/>
     </row>
-    <row r="115" spans="1:9" ht="15">
+    <row r="115" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A115" s="17" t="b">
         <v>0</v>
       </c>
@@ -13165,7 +13178,7 @@
       <c r="H115" s="17"/>
       <c r="I115" s="17"/>
     </row>
-    <row r="116" spans="1:9" ht="15">
+    <row r="116" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A116" s="17"/>
       <c r="B116" s="17" t="s">
         <v>21</v>
@@ -13188,7 +13201,7 @@
       </c>
       <c r="I116" s="17"/>
     </row>
-    <row r="117" spans="1:9" ht="15">
+    <row r="117" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A117" s="17"/>
       <c r="B117" s="17" t="s">
         <v>21</v>
@@ -13211,7 +13224,7 @@
       </c>
       <c r="I117" s="17"/>
     </row>
-    <row r="118" spans="1:9" ht="15">
+    <row r="118" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A118" s="17"/>
       <c r="B118" s="17" t="s">
         <v>21</v>
@@ -13234,7 +13247,7 @@
       </c>
       <c r="I118" s="17"/>
     </row>
-    <row r="119" spans="1:9" ht="15">
+    <row r="119" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A119" s="17" t="b">
         <v>0</v>
       </c>
@@ -13253,7 +13266,7 @@
       <c r="H119" s="17"/>
       <c r="I119" s="17"/>
     </row>
-    <row r="120" spans="1:9" ht="15">
+    <row r="120" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A120" s="17"/>
       <c r="B120" s="17" t="s">
         <v>21</v>
@@ -13276,7 +13289,7 @@
       </c>
       <c r="I120" s="17"/>
     </row>
-    <row r="121" spans="1:9" ht="15">
+    <row r="121" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A121" s="17"/>
       <c r="B121" s="17" t="s">
         <v>21</v>
@@ -13299,7 +13312,7 @@
       </c>
       <c r="I121" s="17"/>
     </row>
-    <row r="122" spans="1:9" ht="15">
+    <row r="122" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A122" s="17"/>
       <c r="B122" s="17" t="s">
         <v>21</v>
@@ -13322,7 +13335,7 @@
       </c>
       <c r="I122" s="17"/>
     </row>
-    <row r="123" spans="1:9" ht="15">
+    <row r="123" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A123" s="17"/>
       <c r="B123" s="17" t="s">
         <v>21</v>
@@ -13345,7 +13358,7 @@
       </c>
       <c r="I123" s="17"/>
     </row>
-    <row r="124" spans="1:9" ht="15">
+    <row r="124" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A124" s="17"/>
       <c r="B124" s="17" t="s">
         <v>21</v>
@@ -13368,7 +13381,7 @@
       </c>
       <c r="I124" s="17"/>
     </row>
-    <row r="125" spans="1:9" ht="15">
+    <row r="125" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A125" s="17"/>
       <c r="B125" s="17" t="s">
         <v>21</v>
@@ -13391,7 +13404,7 @@
       </c>
       <c r="I125" s="17"/>
     </row>
-    <row r="126" spans="1:9" ht="15">
+    <row r="126" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A126" s="17" t="b">
         <v>0</v>
       </c>
@@ -13410,7 +13423,7 @@
       <c r="H126" s="17"/>
       <c r="I126" s="17"/>
     </row>
-    <row r="127" spans="1:9" ht="15">
+    <row r="127" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A127" s="17"/>
       <c r="B127" s="17" t="s">
         <v>21</v>
@@ -13435,7 +13448,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="128" spans="1:9" ht="15">
+    <row r="128" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A128" s="17"/>
       <c r="B128" s="17" t="s">
         <v>21</v>
@@ -13458,7 +13471,7 @@
       </c>
       <c r="I128" s="17"/>
     </row>
-    <row r="129" spans="1:9" ht="15">
+    <row r="129" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A129" s="17"/>
       <c r="B129" s="17" t="s">
         <v>21</v>
@@ -13481,7 +13494,7 @@
       </c>
       <c r="I129" s="17"/>
     </row>
-    <row r="130" spans="1:9" ht="15">
+    <row r="130" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A130" s="17"/>
       <c r="B130" s="17" t="s">
         <v>21</v>
@@ -13504,7 +13517,7 @@
       </c>
       <c r="I130" s="17"/>
     </row>
-    <row r="131" spans="1:9" ht="15">
+    <row r="131" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A131" s="17"/>
       <c r="B131" s="17" t="s">
         <v>21</v>
@@ -13527,7 +13540,7 @@
       </c>
       <c r="I131" s="17"/>
     </row>
-    <row r="132" spans="1:9" ht="15">
+    <row r="132" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A132" s="17"/>
       <c r="B132" s="17" t="s">
         <v>21</v>
@@ -13550,7 +13563,7 @@
       </c>
       <c r="I132" s="17"/>
     </row>
-    <row r="133" spans="1:9" ht="15">
+    <row r="133" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A133" s="17"/>
       <c r="B133" s="17" t="s">
         <v>21</v>
@@ -13573,7 +13586,7 @@
       </c>
       <c r="I133" s="17"/>
     </row>
-    <row r="134" spans="1:9" ht="15">
+    <row r="134" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A134" s="17"/>
       <c r="B134" s="17" t="s">
         <v>21</v>
@@ -13596,7 +13609,7 @@
       </c>
       <c r="I134" s="17"/>
     </row>
-    <row r="135" spans="1:9" ht="15">
+    <row r="135" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A135" s="17"/>
       <c r="B135" s="17" t="s">
         <v>21</v>
@@ -13619,7 +13632,7 @@
       </c>
       <c r="I135" s="17"/>
     </row>
-    <row r="136" spans="1:9" ht="15">
+    <row r="136" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A136" s="17" t="b">
         <v>0</v>
       </c>
@@ -13638,7 +13651,7 @@
       <c r="H136" s="17"/>
       <c r="I136" s="17"/>
     </row>
-    <row r="137" spans="1:9" ht="15">
+    <row r="137" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A137" s="17"/>
       <c r="B137" s="17" t="s">
         <v>21</v>
@@ -13663,7 +13676,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="138" spans="1:9" ht="15">
+    <row r="138" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A138" s="17"/>
       <c r="B138" s="17" t="s">
         <v>21</v>
@@ -13684,7 +13697,7 @@
       <c r="H138" s="17"/>
       <c r="I138" s="17"/>
     </row>
-    <row r="139" spans="1:9" ht="15">
+    <row r="139" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A139" s="17"/>
       <c r="B139" s="17" t="s">
         <v>21</v>
@@ -13707,7 +13720,7 @@
       </c>
       <c r="I139" s="17"/>
     </row>
-    <row r="140" spans="1:9" ht="15">
+    <row r="140" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A140" s="17"/>
       <c r="B140" s="17" t="s">
         <v>21</v>
@@ -13730,7 +13743,7 @@
       </c>
       <c r="I140" s="17"/>
     </row>
-    <row r="141" spans="1:9" ht="15">
+    <row r="141" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A141" s="17"/>
       <c r="B141" s="17" t="s">
         <v>21</v>
@@ -13753,7 +13766,7 @@
       </c>
       <c r="I141" s="17"/>
     </row>
-    <row r="142" spans="1:9" ht="15">
+    <row r="142" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A142" s="17"/>
       <c r="B142" s="17" t="s">
         <v>21</v>
@@ -13776,7 +13789,7 @@
       </c>
       <c r="I142" s="17"/>
     </row>
-    <row r="143" spans="1:9" ht="15">
+    <row r="143" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A143" s="17"/>
       <c r="B143" s="17" t="s">
         <v>21</v>
@@ -13799,7 +13812,7 @@
       </c>
       <c r="I143" s="17"/>
     </row>
-    <row r="144" spans="1:9" ht="15">
+    <row r="144" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A144" s="17"/>
       <c r="B144" s="17" t="s">
         <v>21</v>
@@ -13822,7 +13835,7 @@
       </c>
       <c r="I144" s="17"/>
     </row>
-    <row r="145" spans="1:9" ht="15">
+    <row r="145" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A145" s="17"/>
       <c r="B145" s="17" t="s">
         <v>21</v>
@@ -13845,7 +13858,7 @@
       </c>
       <c r="I145" s="17"/>
     </row>
-    <row r="146" spans="1:9" ht="15">
+    <row r="146" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A146" s="17"/>
       <c r="B146" s="17" t="s">
         <v>21</v>
@@ -13868,7 +13881,7 @@
       </c>
       <c r="I146" s="17"/>
     </row>
-    <row r="147" spans="1:9" ht="15">
+    <row r="147" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A147" s="17"/>
       <c r="B147" s="17" t="s">
         <v>21</v>
@@ -13891,7 +13904,7 @@
       </c>
       <c r="I147" s="17"/>
     </row>
-    <row r="148" spans="1:9" ht="15">
+    <row r="148" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A148" s="17"/>
       <c r="B148" s="17" t="s">
         <v>21</v>
@@ -13914,7 +13927,7 @@
       </c>
       <c r="I148" s="17"/>
     </row>
-    <row r="149" spans="1:9" ht="15">
+    <row r="149" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A149" s="17"/>
       <c r="B149" s="17" t="s">
         <v>21</v>
@@ -13937,7 +13950,7 @@
       </c>
       <c r="I149" s="17"/>
     </row>
-    <row r="150" spans="1:9" ht="15">
+    <row r="150" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A150" s="17"/>
       <c r="B150" s="17" t="s">
         <v>21</v>
@@ -13960,7 +13973,7 @@
       </c>
       <c r="I150" s="17"/>
     </row>
-    <row r="151" spans="1:9" ht="15">
+    <row r="151" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A151" s="17" t="b">
         <v>0</v>
       </c>
@@ -13979,7 +13992,7 @@
       <c r="H151" s="17"/>
       <c r="I151" s="17"/>
     </row>
-    <row r="152" spans="1:9" ht="15">
+    <row r="152" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A152" s="17"/>
       <c r="B152" s="17" t="s">
         <v>21</v>
@@ -14002,7 +14015,7 @@
       </c>
       <c r="I152" s="17"/>
     </row>
-    <row r="153" spans="1:9" ht="15">
+    <row r="153" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A153" s="17" t="b">
         <v>0</v>
       </c>
@@ -14021,7 +14034,7 @@
       <c r="H153" s="17"/>
       <c r="I153" s="17"/>
     </row>
-    <row r="154" spans="1:9" ht="15">
+    <row r="154" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A154" s="17"/>
       <c r="B154" s="17" t="s">
         <v>21</v>
@@ -14044,7 +14057,7 @@
       </c>
       <c r="I154" s="17"/>
     </row>
-    <row r="155" spans="1:9" ht="15">
+    <row r="155" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A155" s="17"/>
       <c r="B155" s="17" t="s">
         <v>21</v>
@@ -14067,7 +14080,7 @@
       </c>
       <c r="I155" s="17"/>
     </row>
-    <row r="156" spans="1:9" ht="15">
+    <row r="156" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A156" s="17" t="b">
         <v>0</v>
       </c>
@@ -14086,7 +14099,7 @@
       <c r="H156" s="17"/>
       <c r="I156" s="17"/>
     </row>
-    <row r="157" spans="1:9" ht="15">
+    <row r="157" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A157" s="17"/>
       <c r="B157" s="17" t="s">
         <v>21</v>
@@ -14111,7 +14124,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="158" spans="1:9" ht="15">
+    <row r="158" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A158" s="17"/>
       <c r="B158" s="17" t="s">
         <v>21</v>
@@ -14134,7 +14147,7 @@
       </c>
       <c r="I158" s="17"/>
     </row>
-    <row r="159" spans="1:9" ht="15">
+    <row r="159" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A159" s="17"/>
       <c r="B159" s="17" t="s">
         <v>21</v>
@@ -14157,7 +14170,7 @@
       </c>
       <c r="I159" s="17"/>
     </row>
-    <row r="160" spans="1:9" ht="15">
+    <row r="160" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A160" s="17"/>
       <c r="B160" s="17" t="s">
         <v>21</v>
@@ -14180,7 +14193,7 @@
       </c>
       <c r="I160" s="17"/>
     </row>
-    <row r="161" spans="1:9" ht="15">
+    <row r="161" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A161" s="17"/>
       <c r="B161" s="17" t="s">
         <v>21</v>
@@ -14203,7 +14216,7 @@
       </c>
       <c r="I161" s="17"/>
     </row>
-    <row r="162" spans="1:9" ht="15">
+    <row r="162" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A162" s="17"/>
       <c r="B162" s="17" t="s">
         <v>21</v>
@@ -14226,7 +14239,7 @@
       </c>
       <c r="I162" s="17"/>
     </row>
-    <row r="163" spans="1:9" ht="15">
+    <row r="163" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A163" s="17"/>
       <c r="B163" s="17" t="s">
         <v>21</v>
@@ -14249,7 +14262,7 @@
       </c>
       <c r="I163" s="17"/>
     </row>
-    <row r="164" spans="1:9" ht="15">
+    <row r="164" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A164" s="17"/>
       <c r="B164" s="17" t="s">
         <v>21</v>
@@ -14272,7 +14285,7 @@
       </c>
       <c r="I164" s="17"/>
     </row>
-    <row r="165" spans="1:9" ht="15">
+    <row r="165" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A165" s="17"/>
       <c r="B165" s="17" t="s">
         <v>21</v>
@@ -14295,7 +14308,7 @@
       </c>
       <c r="I165" s="17"/>
     </row>
-    <row r="166" spans="1:9" ht="15">
+    <row r="166" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A166" s="17"/>
       <c r="B166" s="17" t="s">
         <v>21</v>
@@ -14318,7 +14331,7 @@
       </c>
       <c r="I166" s="17"/>
     </row>
-    <row r="167" spans="1:9" ht="15">
+    <row r="167" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A167" s="17" t="b">
         <v>0</v>
       </c>
@@ -14337,7 +14350,7 @@
       <c r="H167" s="17"/>
       <c r="I167" s="17"/>
     </row>
-    <row r="168" spans="1:9" ht="15">
+    <row r="168" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A168" s="17"/>
       <c r="B168" s="17" t="s">
         <v>21</v>
@@ -14362,7 +14375,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="169" spans="1:9" ht="15">
+    <row r="169" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A169" s="17"/>
       <c r="B169" s="17" t="s">
         <v>21</v>
@@ -14385,7 +14398,7 @@
       </c>
       <c r="I169" s="17"/>
     </row>
-    <row r="170" spans="1:9" ht="15">
+    <row r="170" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A170" s="17"/>
       <c r="B170" s="17" t="s">
         <v>21</v>
@@ -14408,7 +14421,7 @@
       </c>
       <c r="I170" s="17"/>
     </row>
-    <row r="171" spans="1:9" ht="15">
+    <row r="171" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A171" s="17"/>
       <c r="B171" s="17" t="s">
         <v>21</v>
@@ -14431,7 +14444,7 @@
       </c>
       <c r="I171" s="17"/>
     </row>
-    <row r="172" spans="1:9" ht="15">
+    <row r="172" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A172" s="17"/>
       <c r="B172" s="17" t="s">
         <v>21</v>
@@ -14454,7 +14467,7 @@
       </c>
       <c r="I172" s="17"/>
     </row>
-    <row r="173" spans="1:9" ht="15">
+    <row r="173" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A173" s="17"/>
       <c r="B173" s="17" t="s">
         <v>21</v>
@@ -14477,7 +14490,7 @@
       </c>
       <c r="I173" s="17"/>
     </row>
-    <row r="174" spans="1:9" ht="15">
+    <row r="174" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A174" s="17"/>
       <c r="B174" s="17" t="s">
         <v>21</v>
@@ -14500,7 +14513,7 @@
       </c>
       <c r="I174" s="17"/>
     </row>
-    <row r="175" spans="1:9" ht="15">
+    <row r="175" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A175" s="17"/>
       <c r="B175" s="17" t="s">
         <v>21</v>
@@ -14523,7 +14536,7 @@
       </c>
       <c r="I175" s="17"/>
     </row>
-    <row r="176" spans="1:9" ht="15">
+    <row r="176" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A176" s="17"/>
       <c r="B176" s="17" t="s">
         <v>21</v>
@@ -14546,7 +14559,7 @@
       </c>
       <c r="I176" s="17"/>
     </row>
-    <row r="177" spans="1:9" ht="15">
+    <row r="177" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A177" s="17"/>
       <c r="B177" s="17" t="s">
         <v>21</v>
@@ -14569,7 +14582,7 @@
       </c>
       <c r="I177" s="17"/>
     </row>
-    <row r="178" spans="1:9" ht="15">
+    <row r="178" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A178" s="17" t="b">
         <v>0</v>
       </c>
@@ -14588,7 +14601,7 @@
       <c r="H178" s="17"/>
       <c r="I178" s="17"/>
     </row>
-    <row r="179" spans="1:9" ht="15">
+    <row r="179" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A179" s="17"/>
       <c r="B179" s="17" t="s">
         <v>21</v>
@@ -14611,7 +14624,7 @@
       </c>
       <c r="I179" s="17"/>
     </row>
-    <row r="180" spans="1:9" ht="15">
+    <row r="180" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A180" s="17"/>
       <c r="B180" s="17" t="s">
         <v>21</v>
@@ -14634,7 +14647,7 @@
       </c>
       <c r="I180" s="17"/>
     </row>
-    <row r="181" spans="1:9" ht="15">
+    <row r="181" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A181" s="17"/>
       <c r="B181" s="17" t="s">
         <v>21</v>
@@ -14657,7 +14670,7 @@
       </c>
       <c r="I181" s="17"/>
     </row>
-    <row r="182" spans="1:9" ht="15">
+    <row r="182" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A182" s="17"/>
       <c r="B182" s="17" t="s">
         <v>21</v>
@@ -14680,7 +14693,7 @@
       </c>
       <c r="I182" s="17"/>
     </row>
-    <row r="183" spans="1:9" ht="15">
+    <row r="183" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A183" s="17" t="b">
         <v>0</v>
       </c>
@@ -14699,7 +14712,7 @@
       <c r="H183" s="17"/>
       <c r="I183" s="17"/>
     </row>
-    <row r="184" spans="1:9" ht="15">
+    <row r="184" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A184" s="17"/>
       <c r="B184" s="17" t="s">
         <v>21</v>
@@ -14722,7 +14735,7 @@
       </c>
       <c r="I184" s="17"/>
     </row>
-    <row r="185" spans="1:9" ht="15">
+    <row r="185" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A185" s="17"/>
       <c r="B185" s="17" t="s">
         <v>21</v>
@@ -14745,7 +14758,7 @@
       </c>
       <c r="I185" s="17"/>
     </row>
-    <row r="186" spans="1:9" ht="15">
+    <row r="186" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A186" s="17"/>
       <c r="B186" s="17" t="s">
         <v>21</v>
@@ -14768,7 +14781,7 @@
       </c>
       <c r="I186" s="17"/>
     </row>
-    <row r="187" spans="1:9" ht="15">
+    <row r="187" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A187" s="17"/>
       <c r="B187" s="17" t="s">
         <v>21</v>
@@ -14791,7 +14804,7 @@
       </c>
       <c r="I187" s="17"/>
     </row>
-    <row r="188" spans="1:9" ht="15">
+    <row r="188" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A188" s="17" t="b">
         <v>0</v>
       </c>
@@ -14810,7 +14823,7 @@
       <c r="H188" s="17"/>
       <c r="I188" s="17"/>
     </row>
-    <row r="189" spans="1:9" ht="15">
+    <row r="189" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A189" s="17"/>
       <c r="B189" s="17" t="s">
         <v>21</v>
@@ -14831,7 +14844,7 @@
       <c r="H189" s="17"/>
       <c r="I189" s="17"/>
     </row>
-    <row r="190" spans="1:9" ht="15">
+    <row r="190" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A190" s="17"/>
       <c r="B190" s="17" t="s">
         <v>21</v>
@@ -14854,7 +14867,7 @@
       </c>
       <c r="I190" s="17"/>
     </row>
-    <row r="191" spans="1:9" ht="15">
+    <row r="191" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A191" s="17" t="b">
         <v>0</v>
       </c>
@@ -14873,7 +14886,7 @@
       <c r="H191" s="17"/>
       <c r="I191" s="17"/>
     </row>
-    <row r="192" spans="1:9" ht="15">
+    <row r="192" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A192" s="17"/>
       <c r="B192" s="17" t="s">
         <v>21</v>
@@ -14896,7 +14909,7 @@
       </c>
       <c r="I192" s="17"/>
     </row>
-    <row r="193" spans="1:9" ht="15">
+    <row r="193" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A193" s="17"/>
       <c r="B193" s="17" t="s">
         <v>21</v>
@@ -14921,7 +14934,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="194" spans="1:9" ht="15">
+    <row r="194" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A194" s="17"/>
       <c r="B194" s="17" t="s">
         <v>21</v>
@@ -14942,7 +14955,7 @@
       <c r="H194" s="17"/>
       <c r="I194" s="17"/>
     </row>
-    <row r="195" spans="1:9" ht="15">
+    <row r="195" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A195" s="17"/>
       <c r="B195" s="17" t="s">
         <v>21</v>
@@ -14967,7 +14980,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="196" spans="1:9" ht="15">
+    <row r="196" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A196" s="17"/>
       <c r="B196" s="17" t="s">
         <v>21</v>
@@ -14992,7 +15005,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="197" spans="1:9" ht="15">
+    <row r="197" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A197" s="17" t="b">
         <v>0</v>
       </c>
@@ -15011,7 +15024,7 @@
       <c r="H197" s="17"/>
       <c r="I197" s="17"/>
     </row>
-    <row r="198" spans="1:9" ht="15">
+    <row r="198" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A198" s="17"/>
       <c r="B198" s="17" t="s">
         <v>21</v>
@@ -15036,7 +15049,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="199" spans="1:9" ht="15">
+    <row r="199" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A199" s="17"/>
       <c r="B199" s="17" t="s">
         <v>21</v>
@@ -15059,7 +15072,7 @@
       </c>
       <c r="I199" s="17"/>
     </row>
-    <row r="200" spans="1:9" ht="15">
+    <row r="200" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A200" s="17"/>
       <c r="B200" s="17" t="s">
         <v>21</v>
@@ -15082,7 +15095,7 @@
       </c>
       <c r="I200" s="17"/>
     </row>
-    <row r="201" spans="1:9" ht="15">
+    <row r="201" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A201" s="17"/>
       <c r="B201" s="17" t="s">
         <v>21</v>
@@ -15105,7 +15118,7 @@
       </c>
       <c r="I201" s="17"/>
     </row>
-    <row r="202" spans="1:9" ht="15">
+    <row r="202" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A202" s="17"/>
       <c r="B202" s="17" t="s">
         <v>21</v>
@@ -15128,7 +15141,7 @@
       </c>
       <c r="I202" s="17"/>
     </row>
-    <row r="203" spans="1:9" ht="15">
+    <row r="203" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A203" s="17"/>
       <c r="B203" s="17" t="s">
         <v>21</v>
@@ -15151,7 +15164,7 @@
       </c>
       <c r="I203" s="17"/>
     </row>
-    <row r="204" spans="1:9" ht="15">
+    <row r="204" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A204" s="17"/>
       <c r="B204" s="17" t="s">
         <v>21</v>
@@ -15174,7 +15187,7 @@
       </c>
       <c r="I204" s="17"/>
     </row>
-    <row r="205" spans="1:9" ht="15">
+    <row r="205" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A205" s="17"/>
       <c r="B205" s="17" t="s">
         <v>21</v>
@@ -15197,7 +15210,7 @@
       </c>
       <c r="I205" s="17"/>
     </row>
-    <row r="206" spans="1:9" ht="15">
+    <row r="206" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A206" s="17"/>
       <c r="B206" s="17" t="s">
         <v>21</v>
@@ -15220,7 +15233,7 @@
       </c>
       <c r="I206" s="17"/>
     </row>
-    <row r="207" spans="1:9" ht="15">
+    <row r="207" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A207" s="17" t="b">
         <v>0</v>
       </c>
@@ -15239,7 +15252,7 @@
       <c r="H207" s="17"/>
       <c r="I207" s="17"/>
     </row>
-    <row r="208" spans="1:9" ht="15">
+    <row r="208" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A208" s="17"/>
       <c r="B208" s="17" t="s">
         <v>21</v>
@@ -15264,7 +15277,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="209" spans="1:9" ht="15">
+    <row r="209" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A209" s="17"/>
       <c r="B209" s="17" t="s">
         <v>21</v>
@@ -15287,7 +15300,7 @@
       </c>
       <c r="I209" s="17"/>
     </row>
-    <row r="210" spans="1:9" ht="15">
+    <row r="210" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A210" s="17"/>
       <c r="B210" s="17" t="s">
         <v>21</v>
@@ -15310,7 +15323,7 @@
       </c>
       <c r="I210" s="17"/>
     </row>
-    <row r="211" spans="1:9" ht="15">
+    <row r="211" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A211" s="17"/>
       <c r="B211" s="17" t="s">
         <v>21</v>
@@ -15333,7 +15346,7 @@
       </c>
       <c r="I211" s="17"/>
     </row>
-    <row r="212" spans="1:9" ht="15">
+    <row r="212" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A212" s="17"/>
       <c r="B212" s="17" t="s">
         <v>21</v>
@@ -15356,7 +15369,7 @@
       </c>
       <c r="I212" s="17"/>
     </row>
-    <row r="213" spans="1:9" ht="15">
+    <row r="213" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A213" s="17"/>
       <c r="B213" s="17" t="s">
         <v>21</v>
@@ -15379,7 +15392,7 @@
       </c>
       <c r="I213" s="17"/>
     </row>
-    <row r="214" spans="1:9" ht="15">
+    <row r="214" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A214" s="17"/>
       <c r="B214" s="17" t="s">
         <v>21</v>
@@ -15402,7 +15415,7 @@
       </c>
       <c r="I214" s="17"/>
     </row>
-    <row r="215" spans="1:9" ht="15">
+    <row r="215" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A215" s="17"/>
       <c r="B215" s="17" t="s">
         <v>21</v>
@@ -15425,7 +15438,7 @@
       </c>
       <c r="I215" s="17"/>
     </row>
-    <row r="216" spans="1:9" ht="15">
+    <row r="216" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A216" s="17"/>
       <c r="B216" s="17" t="s">
         <v>21</v>
@@ -15448,7 +15461,7 @@
       </c>
       <c r="I216" s="17"/>
     </row>
-    <row r="217" spans="1:9" ht="15">
+    <row r="217" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A217" s="17" t="b">
         <v>0</v>
       </c>
@@ -15467,7 +15480,7 @@
       <c r="H217" s="17"/>
       <c r="I217" s="17"/>
     </row>
-    <row r="218" spans="1:9" ht="15">
+    <row r="218" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A218" s="17"/>
       <c r="B218" s="17" t="s">
         <v>21</v>
@@ -15488,7 +15501,7 @@
       <c r="H218" s="17"/>
       <c r="I218" s="17"/>
     </row>
-    <row r="219" spans="1:9" ht="15">
+    <row r="219" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A219" s="17"/>
       <c r="B219" s="17" t="s">
         <v>21</v>
@@ -15511,7 +15524,7 @@
       </c>
       <c r="I219" s="17"/>
     </row>
-    <row r="220" spans="1:9" ht="15">
+    <row r="220" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A220" s="17"/>
       <c r="B220" s="17" t="s">
         <v>21</v>
@@ -15534,7 +15547,7 @@
       </c>
       <c r="I220" s="17"/>
     </row>
-    <row r="221" spans="1:9" ht="15">
+    <row r="221" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A221" s="17"/>
       <c r="B221" s="17" t="s">
         <v>21</v>
@@ -15557,7 +15570,7 @@
       </c>
       <c r="I221" s="17"/>
     </row>
-    <row r="222" spans="1:9" ht="15">
+    <row r="222" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A222" s="17"/>
       <c r="B222" s="17" t="s">
         <v>21</v>
@@ -15580,7 +15593,7 @@
       </c>
       <c r="I222" s="17"/>
     </row>
-    <row r="223" spans="1:9" ht="15">
+    <row r="223" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A223" s="17"/>
       <c r="B223" s="17" t="s">
         <v>21</v>
@@ -15603,7 +15616,7 @@
       </c>
       <c r="I223" s="17"/>
     </row>
-    <row r="224" spans="1:9" ht="15">
+    <row r="224" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A224" s="17"/>
       <c r="B224" s="17" t="s">
         <v>21</v>
@@ -15626,7 +15639,7 @@
       </c>
       <c r="I224" s="17"/>
     </row>
-    <row r="225" spans="1:9" ht="15">
+    <row r="225" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A225" s="17"/>
       <c r="B225" s="17" t="s">
         <v>21</v>
@@ -15649,7 +15662,7 @@
       </c>
       <c r="I225" s="17"/>
     </row>
-    <row r="226" spans="1:9" ht="15">
+    <row r="226" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A226" s="17"/>
       <c r="B226" s="17" t="s">
         <v>21</v>
@@ -15672,7 +15685,7 @@
       </c>
       <c r="I226" s="17"/>
     </row>
-    <row r="227" spans="1:9" ht="15">
+    <row r="227" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A227" s="17"/>
       <c r="B227" s="17" t="s">
         <v>21</v>
@@ -15695,7 +15708,7 @@
       </c>
       <c r="I227" s="17"/>
     </row>
-    <row r="228" spans="1:9" ht="15">
+    <row r="228" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A228" s="17"/>
       <c r="B228" s="17" t="s">
         <v>21</v>
@@ -15718,7 +15731,7 @@
       </c>
       <c r="I228" s="17"/>
     </row>
-    <row r="229" spans="1:9" ht="15">
+    <row r="229" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A229" s="17"/>
       <c r="B229" s="17" t="s">
         <v>21</v>
@@ -15741,7 +15754,7 @@
       </c>
       <c r="I229" s="17"/>
     </row>
-    <row r="230" spans="1:9" ht="15">
+    <row r="230" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A230" s="17"/>
       <c r="B230" s="17" t="s">
         <v>21</v>
@@ -15764,7 +15777,7 @@
       </c>
       <c r="I230" s="17"/>
     </row>
-    <row r="231" spans="1:9" ht="15">
+    <row r="231" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A231" s="17"/>
       <c r="B231" s="17" t="s">
         <v>21</v>
@@ -15787,7 +15800,7 @@
       </c>
       <c r="I231" s="17"/>
     </row>
-    <row r="232" spans="1:9" ht="15">
+    <row r="232" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A232" s="17"/>
       <c r="B232" s="17" t="s">
         <v>21</v>
@@ -15810,7 +15823,7 @@
       </c>
       <c r="I232" s="17"/>
     </row>
-    <row r="233" spans="1:9" ht="15">
+    <row r="233" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A233" s="17"/>
       <c r="B233" s="17" t="s">
         <v>21</v>
@@ -15833,7 +15846,7 @@
       </c>
       <c r="I233" s="17"/>
     </row>
-    <row r="234" spans="1:9" ht="15">
+    <row r="234" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A234" s="17" t="b">
         <v>0</v>
       </c>
@@ -15852,7 +15865,7 @@
       <c r="H234" s="17"/>
       <c r="I234" s="17"/>
     </row>
-    <row r="235" spans="1:9" ht="15">
+    <row r="235" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A235" s="17"/>
       <c r="B235" s="17" t="s">
         <v>21</v>
@@ -15873,7 +15886,7 @@
       <c r="H235" s="17"/>
       <c r="I235" s="17"/>
     </row>
-    <row r="236" spans="1:9" ht="15">
+    <row r="236" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A236" s="17"/>
       <c r="B236" s="17" t="s">
         <v>21</v>
@@ -15896,7 +15909,7 @@
       </c>
       <c r="I236" s="17"/>
     </row>
-    <row r="237" spans="1:9" ht="15">
+    <row r="237" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A237" s="17"/>
       <c r="B237" s="17" t="s">
         <v>21</v>
@@ -15919,7 +15932,7 @@
       </c>
       <c r="I237" s="17"/>
     </row>
-    <row r="238" spans="1:9" ht="15">
+    <row r="238" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A238" s="17"/>
       <c r="B238" s="17" t="s">
         <v>21</v>
@@ -15942,7 +15955,7 @@
       </c>
       <c r="I238" s="17"/>
     </row>
-    <row r="239" spans="1:9" ht="15">
+    <row r="239" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A239" s="17"/>
       <c r="B239" s="17" t="s">
         <v>21</v>
@@ -15965,7 +15978,7 @@
       </c>
       <c r="I239" s="17"/>
     </row>
-    <row r="240" spans="1:9" ht="15">
+    <row r="240" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A240" s="17"/>
       <c r="B240" s="17" t="s">
         <v>21</v>
@@ -15988,7 +16001,7 @@
       </c>
       <c r="I240" s="17"/>
     </row>
-    <row r="241" spans="1:9" ht="15">
+    <row r="241" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A241" s="17"/>
       <c r="B241" s="17" t="s">
         <v>21</v>
@@ -16011,7 +16024,7 @@
       </c>
       <c r="I241" s="17"/>
     </row>
-    <row r="242" spans="1:9" ht="15">
+    <row r="242" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A242" s="17"/>
       <c r="B242" s="17" t="s">
         <v>21</v>
@@ -16034,7 +16047,7 @@
       </c>
       <c r="I242" s="17"/>
     </row>
-    <row r="243" spans="1:9" ht="15">
+    <row r="243" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A243" s="17"/>
       <c r="B243" s="17" t="s">
         <v>21</v>
@@ -16057,7 +16070,7 @@
       </c>
       <c r="I243" s="17"/>
     </row>
-    <row r="244" spans="1:9" ht="15">
+    <row r="244" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A244" s="17"/>
       <c r="B244" s="17" t="s">
         <v>21</v>
@@ -16080,7 +16093,7 @@
       </c>
       <c r="I244" s="17"/>
     </row>
-    <row r="245" spans="1:9" ht="15">
+    <row r="245" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A245" s="17"/>
       <c r="B245" s="17" t="s">
         <v>21</v>
@@ -16103,7 +16116,7 @@
       </c>
       <c r="I245" s="17"/>
     </row>
-    <row r="246" spans="1:9" ht="15">
+    <row r="246" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A246" s="17"/>
       <c r="B246" s="17" t="s">
         <v>21</v>
@@ -16126,7 +16139,7 @@
       </c>
       <c r="I246" s="17"/>
     </row>
-    <row r="247" spans="1:9" ht="15">
+    <row r="247" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A247" s="17"/>
       <c r="B247" s="17" t="s">
         <v>21</v>
@@ -16149,7 +16162,7 @@
       </c>
       <c r="I247" s="17"/>
     </row>
-    <row r="248" spans="1:9" ht="15">
+    <row r="248" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A248" s="17"/>
       <c r="B248" s="17" t="s">
         <v>21</v>
@@ -16172,7 +16185,7 @@
       </c>
       <c r="I248" s="17"/>
     </row>
-    <row r="249" spans="1:9" ht="15">
+    <row r="249" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A249" s="17"/>
       <c r="B249" s="17" t="s">
         <v>21</v>
@@ -16195,7 +16208,7 @@
       </c>
       <c r="I249" s="17"/>
     </row>
-    <row r="250" spans="1:9" ht="15">
+    <row r="250" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A250" s="17"/>
       <c r="B250" s="17" t="s">
         <v>21</v>
@@ -16218,7 +16231,7 @@
       </c>
       <c r="I250" s="17"/>
     </row>
-    <row r="251" spans="1:9" ht="15">
+    <row r="251" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A251" s="17" t="b">
         <v>0</v>
       </c>
@@ -16237,7 +16250,7 @@
       <c r="H251" s="17"/>
       <c r="I251" s="17"/>
     </row>
-    <row r="252" spans="1:9" ht="15">
+    <row r="252" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A252" s="17"/>
       <c r="B252" s="17" t="s">
         <v>21</v>
@@ -16262,7 +16275,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="253" spans="1:9" ht="15">
+    <row r="253" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A253" s="17"/>
       <c r="B253" s="17" t="s">
         <v>21</v>
@@ -16285,7 +16298,7 @@
       </c>
       <c r="I253" s="17"/>
     </row>
-    <row r="254" spans="1:9" ht="15">
+    <row r="254" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A254" s="17"/>
       <c r="B254" s="17" t="s">
         <v>21</v>
@@ -16308,7 +16321,7 @@
       </c>
       <c r="I254" s="17"/>
     </row>
-    <row r="255" spans="1:9" ht="15">
+    <row r="255" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A255" s="17"/>
       <c r="B255" s="17" t="s">
         <v>21</v>
@@ -16331,7 +16344,7 @@
       </c>
       <c r="I255" s="17"/>
     </row>
-    <row r="256" spans="1:9" ht="15">
+    <row r="256" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A256" s="17"/>
       <c r="B256" s="17" t="s">
         <v>21</v>
@@ -16354,7 +16367,7 @@
       </c>
       <c r="I256" s="17"/>
     </row>
-    <row r="257" spans="1:9" ht="15">
+    <row r="257" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A257" s="17" t="b">
         <v>0</v>
       </c>
@@ -16373,7 +16386,7 @@
       <c r="H257" s="17"/>
       <c r="I257" s="17"/>
     </row>
-    <row r="258" spans="1:9" ht="15">
+    <row r="258" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A258" s="17"/>
       <c r="B258" s="17" t="s">
         <v>21</v>
@@ -16398,7 +16411,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="259" spans="1:9" ht="15">
+    <row r="259" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A259" s="17"/>
       <c r="B259" s="17" t="s">
         <v>21</v>
@@ -16421,7 +16434,7 @@
       </c>
       <c r="I259" s="17"/>
     </row>
-    <row r="260" spans="1:9" ht="15">
+    <row r="260" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A260" s="17" t="b">
         <v>0</v>
       </c>
@@ -16440,7 +16453,7 @@
       <c r="H260" s="17"/>
       <c r="I260" s="17"/>
     </row>
-    <row r="261" spans="1:9" ht="15">
+    <row r="261" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A261" s="17" t="b">
         <v>0</v>
       </c>
@@ -16459,7 +16472,7 @@
       <c r="H261" s="17"/>
       <c r="I261" s="17"/>
     </row>
-    <row r="262" spans="1:9" ht="15">
+    <row r="262" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A262" s="17" t="b">
         <v>0</v>
       </c>
@@ -16478,7 +16491,7 @@
       <c r="H262" s="17"/>
       <c r="I262" s="17"/>
     </row>
-    <row r="263" spans="1:9" ht="15">
+    <row r="263" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A263" s="17"/>
       <c r="B263" s="17" t="s">
         <v>21</v>
@@ -16499,7 +16512,7 @@
       <c r="H263" s="17"/>
       <c r="I263" s="17"/>
     </row>
-    <row r="264" spans="1:9" ht="15">
+    <row r="264" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A264" s="17"/>
       <c r="B264" s="17" t="s">
         <v>21</v>
@@ -16522,7 +16535,7 @@
       </c>
       <c r="I264" s="17"/>
     </row>
-    <row r="265" spans="1:9" ht="15">
+    <row r="265" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A265" s="17"/>
       <c r="B265" s="17" t="s">
         <v>21</v>
@@ -16545,7 +16558,7 @@
       </c>
       <c r="I265" s="17"/>
     </row>
-    <row r="266" spans="1:9" ht="15">
+    <row r="266" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A266" s="17"/>
       <c r="B266" s="17" t="s">
         <v>21</v>
@@ -16568,7 +16581,7 @@
       </c>
       <c r="I266" s="17"/>
     </row>
-    <row r="267" spans="1:9" ht="15">
+    <row r="267" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A267" s="17"/>
       <c r="B267" s="17" t="s">
         <v>21</v>
@@ -16591,7 +16604,7 @@
       </c>
       <c r="I267" s="17"/>
     </row>
-    <row r="268" spans="1:9" ht="15">
+    <row r="268" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A268" s="17"/>
       <c r="B268" s="17" t="s">
         <v>21</v>
@@ -16614,7 +16627,7 @@
       </c>
       <c r="I268" s="17"/>
     </row>
-    <row r="269" spans="1:9" ht="15">
+    <row r="269" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A269" s="17"/>
       <c r="B269" s="17" t="s">
         <v>21</v>
@@ -16637,7 +16650,7 @@
       </c>
       <c r="I269" s="17"/>
     </row>
-    <row r="270" spans="1:9" ht="15">
+    <row r="270" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A270" s="17"/>
       <c r="B270" s="17" t="s">
         <v>21</v>
@@ -16660,7 +16673,7 @@
       </c>
       <c r="I270" s="17"/>
     </row>
-    <row r="271" spans="1:9" ht="15">
+    <row r="271" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A271" s="17"/>
       <c r="B271" s="17" t="s">
         <v>21</v>
@@ -16683,7 +16696,7 @@
       </c>
       <c r="I271" s="17"/>
     </row>
-    <row r="272" spans="1:9" ht="15">
+    <row r="272" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A272" s="17"/>
       <c r="B272" s="17" t="s">
         <v>21</v>
@@ -16706,7 +16719,7 @@
       </c>
       <c r="I272" s="17"/>
     </row>
-    <row r="273" spans="1:9" ht="15">
+    <row r="273" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A273" s="17"/>
       <c r="B273" s="17" t="s">
         <v>21</v>
@@ -16729,7 +16742,7 @@
       </c>
       <c r="I273" s="17"/>
     </row>
-    <row r="274" spans="1:9" ht="15">
+    <row r="274" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A274" s="17" t="b">
         <v>0</v>
       </c>
@@ -16748,7 +16761,7 @@
       <c r="H274" s="17"/>
       <c r="I274" s="17"/>
     </row>
-    <row r="275" spans="1:9" ht="15">
+    <row r="275" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A275" s="17"/>
       <c r="B275" s="17" t="s">
         <v>21</v>
@@ -16771,7 +16784,7 @@
       </c>
       <c r="I275" s="17"/>
     </row>
-    <row r="276" spans="1:9" ht="15">
+    <row r="276" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A276" s="17" t="b">
         <v>0</v>
       </c>
@@ -16790,7 +16803,7 @@
       <c r="H276" s="17"/>
       <c r="I276" s="17"/>
     </row>
-    <row r="277" spans="1:9" ht="15">
+    <row r="277" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A277" s="17"/>
       <c r="B277" s="17" t="s">
         <v>21</v>
@@ -16815,7 +16828,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="278" spans="1:9" ht="15">
+    <row r="278" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A278" s="17"/>
       <c r="B278" s="17" t="s">
         <v>21</v>
@@ -16838,7 +16851,7 @@
       </c>
       <c r="I278" s="17"/>
     </row>
-    <row r="279" spans="1:9" ht="15">
+    <row r="279" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A279" s="17"/>
       <c r="B279" s="17" t="s">
         <v>21</v>
@@ -16861,7 +16874,7 @@
       </c>
       <c r="I279" s="17"/>
     </row>
-    <row r="280" spans="1:9" ht="15">
+    <row r="280" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A280" s="17"/>
       <c r="B280" s="17" t="s">
         <v>21</v>
@@ -16884,7 +16897,7 @@
       </c>
       <c r="I280" s="17"/>
     </row>
-    <row r="281" spans="1:9" ht="15">
+    <row r="281" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A281" s="17"/>
       <c r="B281" s="17" t="s">
         <v>21</v>
@@ -16907,7 +16920,7 @@
       </c>
       <c r="I281" s="17"/>
     </row>
-    <row r="282" spans="1:9" ht="15">
+    <row r="282" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A282" s="17"/>
       <c r="B282" s="17" t="s">
         <v>21</v>
@@ -16930,7 +16943,7 @@
       </c>
       <c r="I282" s="17"/>
     </row>
-    <row r="283" spans="1:9" ht="15">
+    <row r="283" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A283" s="17"/>
       <c r="B283" s="17" t="s">
         <v>21</v>
@@ -16953,7 +16966,7 @@
       </c>
       <c r="I283" s="17"/>
     </row>
-    <row r="284" spans="1:9" ht="15">
+    <row r="284" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A284" s="17"/>
       <c r="B284" s="17" t="s">
         <v>21</v>
@@ -16976,7 +16989,7 @@
       </c>
       <c r="I284" s="17"/>
     </row>
-    <row r="285" spans="1:9" ht="15">
+    <row r="285" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A285" s="17"/>
       <c r="B285" s="17" t="s">
         <v>21</v>
@@ -16999,7 +17012,7 @@
       </c>
       <c r="I285" s="17"/>
     </row>
-    <row r="286" spans="1:9" ht="15">
+    <row r="286" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A286" s="17"/>
       <c r="B286" s="17" t="s">
         <v>21</v>
@@ -17022,7 +17035,7 @@
       </c>
       <c r="I286" s="17"/>
     </row>
-    <row r="287" spans="1:9" ht="15">
+    <row r="287" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A287" s="17"/>
       <c r="B287" s="17" t="s">
         <v>21</v>
@@ -17045,7 +17058,7 @@
       </c>
       <c r="I287" s="17"/>
     </row>
-    <row r="288" spans="1:9" ht="15">
+    <row r="288" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A288" s="17" t="b">
         <v>0</v>
       </c>
@@ -17064,7 +17077,7 @@
       <c r="H288" s="17"/>
       <c r="I288" s="17"/>
     </row>
-    <row r="289" spans="1:9" ht="15">
+    <row r="289" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A289" s="17"/>
       <c r="B289" s="17" t="s">
         <v>21</v>
@@ -17087,7 +17100,7 @@
       </c>
       <c r="I289" s="17"/>
     </row>
-    <row r="290" spans="1:9" ht="15">
+    <row r="290" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A290" s="17" t="b">
         <v>0</v>
       </c>
@@ -17106,7 +17119,7 @@
       <c r="H290" s="17"/>
       <c r="I290" s="17"/>
     </row>
-    <row r="291" spans="1:9" ht="15">
+    <row r="291" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A291" s="17"/>
       <c r="B291" s="17" t="s">
         <v>21</v>
@@ -17127,7 +17140,7 @@
       <c r="H291" s="17"/>
       <c r="I291" s="17"/>
     </row>
-    <row r="292" spans="1:9" ht="15">
+    <row r="292" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A292" s="17" t="b">
         <v>0</v>
       </c>
@@ -17146,7 +17159,7 @@
       <c r="H292" s="17"/>
       <c r="I292" s="17"/>
     </row>
-    <row r="293" spans="1:9" ht="15">
+    <row r="293" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A293" s="17"/>
       <c r="B293" s="17" t="s">
         <v>21</v>
@@ -17167,7 +17180,7 @@
       <c r="H293" s="17"/>
       <c r="I293" s="17"/>
     </row>
-    <row r="294" spans="1:9" ht="15">
+    <row r="294" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A294" s="17" t="b">
         <v>0</v>
       </c>
@@ -17186,7 +17199,7 @@
       <c r="H294" s="17"/>
       <c r="I294" s="17"/>
     </row>
-    <row r="295" spans="1:9" ht="15">
+    <row r="295" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A295" s="17"/>
       <c r="B295" s="17" t="s">
         <v>21</v>
@@ -17207,7 +17220,7 @@
       <c r="H295" s="17"/>
       <c r="I295" s="17"/>
     </row>
-    <row r="296" spans="1:9" ht="15">
+    <row r="296" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A296" s="17" t="b">
         <v>0</v>
       </c>
@@ -17226,7 +17239,7 @@
       <c r="H296" s="17"/>
       <c r="I296" s="17"/>
     </row>
-    <row r="297" spans="1:9" ht="15">
+    <row r="297" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A297" s="17"/>
       <c r="B297" s="17" t="s">
         <v>21</v>
@@ -17249,7 +17262,7 @@
       </c>
       <c r="I297" s="17"/>
     </row>
-    <row r="298" spans="1:9" ht="15">
+    <row r="298" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A298" s="17" t="b">
         <v>0</v>
       </c>
@@ -17268,7 +17281,7 @@
       <c r="H298" s="17"/>
       <c r="I298" s="17"/>
     </row>
-    <row r="299" spans="1:9" ht="15">
+    <row r="299" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A299" s="17"/>
       <c r="B299" s="17" t="s">
         <v>21</v>
@@ -17293,7 +17306,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="300" spans="1:9" ht="15">
+    <row r="300" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A300" s="17"/>
       <c r="B300" s="17" t="s">
         <v>21</v>
@@ -17316,7 +17329,7 @@
       </c>
       <c r="I300" s="17"/>
     </row>
-    <row r="301" spans="1:9" ht="15">
+    <row r="301" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A301" s="17"/>
       <c r="B301" s="17" t="s">
         <v>21</v>
@@ -17339,7 +17352,7 @@
       </c>
       <c r="I301" s="17"/>
     </row>
-    <row r="302" spans="1:9" ht="15">
+    <row r="302" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A302" s="17"/>
       <c r="B302" s="17" t="s">
         <v>21</v>
@@ -17362,7 +17375,7 @@
       </c>
       <c r="I302" s="17"/>
     </row>
-    <row r="303" spans="1:9" ht="15">
+    <row r="303" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A303" s="17"/>
       <c r="B303" s="17" t="s">
         <v>21</v>
@@ -17385,7 +17398,7 @@
       </c>
       <c r="I303" s="17"/>
     </row>
-    <row r="304" spans="1:9" ht="15">
+    <row r="304" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A304" s="17"/>
       <c r="B304" s="17" t="s">
         <v>21</v>
@@ -17408,7 +17421,7 @@
       </c>
       <c r="I304" s="17"/>
     </row>
-    <row r="305" spans="1:9" ht="15">
+    <row r="305" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A305" s="17"/>
       <c r="B305" s="17" t="s">
         <v>21</v>
@@ -17431,7 +17444,7 @@
       </c>
       <c r="I305" s="17"/>
     </row>
-    <row r="306" spans="1:9" ht="15">
+    <row r="306" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A306" s="17"/>
       <c r="B306" s="17" t="s">
         <v>21</v>
@@ -17454,7 +17467,7 @@
       </c>
       <c r="I306" s="17"/>
     </row>
-    <row r="307" spans="1:9" ht="15">
+    <row r="307" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A307" s="17"/>
       <c r="B307" s="17" t="s">
         <v>21</v>
@@ -17477,7 +17490,7 @@
       </c>
       <c r="I307" s="17"/>
     </row>
-    <row r="308" spans="1:9" ht="15">
+    <row r="308" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A308" s="17" t="b">
         <v>0</v>
       </c>
@@ -17496,7 +17509,7 @@
       <c r="H308" s="17"/>
       <c r="I308" s="17"/>
     </row>
-    <row r="309" spans="1:9" ht="15">
+    <row r="309" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A309" s="17"/>
       <c r="B309" s="17" t="s">
         <v>21</v>
@@ -17519,7 +17532,7 @@
       </c>
       <c r="I309" s="17"/>
     </row>
-    <row r="310" spans="1:9" ht="15">
+    <row r="310" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A310" s="17"/>
       <c r="B310" s="17" t="s">
         <v>21</v>
@@ -17542,7 +17555,7 @@
       </c>
       <c r="I310" s="17"/>
     </row>
-    <row r="311" spans="1:9" ht="15">
+    <row r="311" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A311" s="17"/>
       <c r="B311" s="17" t="s">
         <v>21</v>
@@ -17565,7 +17578,7 @@
       </c>
       <c r="I311" s="17"/>
     </row>
-    <row r="312" spans="1:9" ht="15">
+    <row r="312" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A312" s="17"/>
       <c r="B312" s="17" t="s">
         <v>21</v>
@@ -17588,7 +17601,7 @@
       </c>
       <c r="I312" s="17"/>
     </row>
-    <row r="313" spans="1:9" ht="15">
+    <row r="313" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A313" s="17" t="b">
         <v>0</v>
       </c>
@@ -17607,7 +17620,7 @@
       <c r="H313" s="17"/>
       <c r="I313" s="17"/>
     </row>
-    <row r="314" spans="1:9" ht="15">
+    <row r="314" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A314" s="17"/>
       <c r="B314" s="17" t="s">
         <v>21</v>
@@ -17630,7 +17643,7 @@
       </c>
       <c r="I314" s="17"/>
     </row>
-    <row r="315" spans="1:9" ht="15">
+    <row r="315" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A315" s="17"/>
       <c r="B315" s="17" t="s">
         <v>21</v>
@@ -17653,7 +17666,7 @@
       </c>
       <c r="I315" s="17"/>
     </row>
-    <row r="316" spans="1:9" ht="15">
+    <row r="316" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A316" s="17"/>
       <c r="B316" s="17" t="s">
         <v>21</v>
@@ -17678,7 +17691,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="317" spans="1:9" ht="15">
+    <row r="317" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A317" s="17" t="b">
         <v>0</v>
       </c>
@@ -17697,7 +17710,7 @@
       <c r="H317" s="17"/>
       <c r="I317" s="17"/>
     </row>
-    <row r="318" spans="1:9" ht="15">
+    <row r="318" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A318" s="17"/>
       <c r="B318" s="17" t="s">
         <v>21</v>
@@ -17722,7 +17735,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="319" spans="1:9" ht="15">
+    <row r="319" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A319" s="17"/>
       <c r="B319" s="17" t="s">
         <v>21</v>
@@ -17745,7 +17758,7 @@
       </c>
       <c r="I319" s="17"/>
     </row>
-    <row r="320" spans="1:9" ht="15">
+    <row r="320" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A320" s="17" t="b">
         <v>0</v>
       </c>
@@ -17764,7 +17777,7 @@
       <c r="H320" s="17"/>
       <c r="I320" s="17"/>
     </row>
-    <row r="321" spans="1:9" ht="15">
+    <row r="321" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A321" s="17"/>
       <c r="B321" s="17" t="s">
         <v>21</v>
@@ -17785,7 +17798,7 @@
       <c r="H321" s="17"/>
       <c r="I321" s="17"/>
     </row>
-    <row r="322" spans="1:9" ht="15">
+    <row r="322" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A322" s="17"/>
       <c r="B322" s="17" t="s">
         <v>21</v>
@@ -17806,7 +17819,7 @@
       <c r="H322" s="17"/>
       <c r="I322" s="17"/>
     </row>
-    <row r="323" spans="1:9" ht="15">
+    <row r="323" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A323" s="17"/>
       <c r="B323" s="17" t="s">
         <v>21</v>
@@ -17829,7 +17842,7 @@
       </c>
       <c r="I323" s="17"/>
     </row>
-    <row r="324" spans="1:9" ht="15">
+    <row r="324" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A324" s="17" t="b">
         <v>0</v>
       </c>
@@ -17848,7 +17861,7 @@
       <c r="H324" s="17"/>
       <c r="I324" s="17"/>
     </row>
-    <row r="325" spans="1:9" ht="15">
+    <row r="325" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A325" s="17" t="b">
         <v>0</v>
       </c>
@@ -17867,7 +17880,7 @@
       <c r="H325" s="17"/>
       <c r="I325" s="17"/>
     </row>
-    <row r="326" spans="1:9" ht="15">
+    <row r="326" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A326" s="17"/>
       <c r="B326" s="17" t="s">
         <v>21</v>
@@ -17892,7 +17905,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="327" spans="1:9" ht="15">
+    <row r="327" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A327" s="17"/>
       <c r="B327" s="17" t="s">
         <v>21</v>
@@ -17917,7 +17930,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="328" spans="1:9">
+    <row r="328" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A328" t="b">
         <v>0</v>
       </c>
@@ -17931,7 +17944,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="329" spans="1:9">
+    <row r="329" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B329" t="s">
         <v>21</v>
       </c>
@@ -17954,7 +17967,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="330" spans="1:9">
+    <row r="330" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B330" t="s">
         <v>21</v>
       </c>
@@ -17974,7 +17987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:9">
+    <row r="331" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B331" t="s">
         <v>21</v>
       </c>
@@ -17994,7 +18007,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="332" spans="1:9">
+    <row r="332" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B332" t="s">
         <v>21</v>
       </c>
@@ -18014,7 +18027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:9">
+    <row r="333" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B333" t="s">
         <v>21</v>
       </c>
@@ -18031,7 +18044,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="334" spans="1:9">
+    <row r="334" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B334" t="s">
         <v>21</v>
       </c>
@@ -18054,7 +18067,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="335" spans="1:9">
+    <row r="335" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B335" t="s">
         <v>21</v>
       </c>
@@ -18077,7 +18090,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="336" spans="1:9">
+    <row r="336" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A336" t="b">
         <v>0</v>
       </c>
@@ -18091,7 +18104,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="337" spans="1:16">
+    <row r="337" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B337" t="s">
         <v>21</v>
       </c>
@@ -18114,7 +18127,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="338" spans="1:16">
+    <row r="338" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B338" t="s">
         <v>21</v>
       </c>
@@ -18137,7 +18150,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="339" spans="1:16">
+    <row r="339" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B339" t="s">
         <v>21</v>
       </c>
@@ -18157,7 +18170,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="340" spans="1:16">
+    <row r="340" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B340" t="s">
         <v>21</v>
       </c>
@@ -18177,7 +18190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:16">
+    <row r="341" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B341" t="s">
         <v>21</v>
       </c>
@@ -18194,7 +18207,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="342" spans="1:16">
+    <row r="342" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A342" s="1" t="b">
         <v>0</v>
       </c>
@@ -18220,7 +18233,7 @@
       <c r="O342" s="1"/>
       <c r="P342" s="1"/>
     </row>
-    <row r="343" spans="1:16">
+    <row r="343" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A343" s="1"/>
       <c r="B343" t="s">
         <v>21</v>
@@ -18249,7 +18262,7 @@
       <c r="O343" s="1"/>
       <c r="P343" s="1"/>
     </row>
-    <row r="344" spans="1:16" ht="15">
+    <row r="344" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A344" s="17"/>
       <c r="B344" t="s">
         <v>21</v>
@@ -18288,7 +18301,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="345" spans="1:16">
+    <row r="345" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A345" t="b">
         <v>0</v>
       </c>
@@ -18302,7 +18315,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="346" spans="1:16">
+    <row r="346" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B346" t="s">
         <v>21</v>
       </c>
@@ -18322,7 +18335,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="347" spans="1:16">
+    <row r="347" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A347" t="b">
         <v>0</v>
       </c>
@@ -18336,7 +18349,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="348" spans="1:16">
+    <row r="348" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B348" t="s">
         <v>21</v>
       </c>
@@ -18356,7 +18369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:16">
+    <row r="349" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B349" t="s">
         <v>21</v>
       </c>
@@ -18376,7 +18389,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="350" spans="1:16">
+    <row r="350" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B350" t="s">
         <v>21</v>
       </c>
@@ -18396,7 +18409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:16">
+    <row r="351" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B351" t="s">
         <v>21</v>
       </c>
@@ -18416,7 +18429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:16">
+    <row r="352" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B352" t="s">
         <v>21</v>
       </c>
@@ -18436,7 +18449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:18">
+    <row r="353" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B353" t="s">
         <v>21</v>
       </c>
@@ -18456,7 +18469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:18">
+    <row r="354" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B354" t="s">
         <v>21</v>
       </c>
@@ -18476,7 +18489,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="355" spans="1:18">
+    <row r="355" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B355" t="s">
         <v>21</v>
       </c>
@@ -18496,7 +18509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:18">
+    <row r="356" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B356" t="s">
         <v>21</v>
       </c>
@@ -18516,7 +18529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:18">
+    <row r="357" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A357" t="b">
         <v>0</v>
       </c>
@@ -18530,7 +18543,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="358" spans="1:18">
+    <row r="358" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B358" t="s">
         <v>21</v>
       </c>
@@ -18550,7 +18563,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="359" spans="1:18">
+    <row r="359" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B359" t="s">
         <v>21</v>
       </c>
@@ -18570,7 +18583,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="360" spans="1:18" s="1" customFormat="1">
+    <row r="360" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A360" t="b">
         <v>0</v>
       </c>
@@ -18586,7 +18599,7 @@
       <c r="H360" s="4"/>
       <c r="I360" s="4"/>
     </row>
-    <row r="361" spans="1:18" s="1" customFormat="1">
+    <row r="361" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B361" t="s">
         <v>21</v>
       </c>
@@ -18612,7 +18625,7 @@
       <c r="J361"/>
       <c r="K361"/>
     </row>
-    <row r="362" spans="1:18" s="1" customFormat="1" ht="15">
+    <row r="362" spans="1:18" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A362" s="17"/>
       <c r="B362" t="s">
         <v>22</v>
@@ -18653,7 +18666,7 @@
       <c r="Q362"/>
       <c r="R362"/>
     </row>
-    <row r="363" spans="1:18">
+    <row r="363" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A363" t="b">
         <v>0</v>
       </c>
@@ -18667,7 +18680,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="364" spans="1:18">
+    <row r="364" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B364" t="s">
         <v>21</v>
       </c>
@@ -18687,7 +18700,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="365" spans="1:18">
+    <row r="365" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A365" t="b">
         <v>0</v>
       </c>
@@ -18701,7 +18714,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="366" spans="1:18">
+    <row r="366" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B366" t="s">
         <v>21</v>
       </c>
@@ -18740,17 +18753,17 @@
       <selection activeCell="A17" sqref="A17:A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.33203125" customWidth="1"/>
-    <col min="5" max="5" width="16.1640625" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" customWidth="1"/>
     <col min="8" max="8" width="22.33203125" customWidth="1"/>
-    <col min="17" max="17" width="24.5" customWidth="1"/>
+    <col min="17" max="17" width="24.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>441</v>
       </c>
@@ -18761,7 +18774,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="30" customFormat="1">
+    <row r="2" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="30" t="s">
         <v>589</v>
       </c>
@@ -18775,7 +18788,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="30" customFormat="1">
+    <row r="3" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="30" t="s">
         <v>592</v>
       </c>
@@ -18789,7 +18802,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="30" customFormat="1">
+    <row r="4" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="30" t="s">
         <v>594</v>
       </c>
@@ -18803,7 +18816,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="30" customFormat="1">
+    <row r="5" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="30" t="s">
         <v>596</v>
       </c>
@@ -18817,7 +18830,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="30" customFormat="1">
+    <row r="6" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="30" t="s">
         <v>598</v>
       </c>
@@ -18831,7 +18844,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="30" customFormat="1">
+    <row r="7" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="30" t="s">
         <v>440</v>
       </c>
@@ -18845,7 +18858,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="30" customFormat="1">
+    <row r="8" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="30" t="s">
         <v>601</v>
       </c>
@@ -18859,7 +18872,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="30" customFormat="1">
+    <row r="9" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="30" t="s">
         <v>603</v>
       </c>
@@ -18873,7 +18886,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>569</v>
       </c>
@@ -18887,7 +18900,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>454</v>
       </c>
@@ -18901,7 +18914,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>452</v>
       </c>
@@ -18912,8 +18925,8 @@
         <v>544</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="30" customFormat="1"/>
-    <row r="16" spans="1:21">
+    <row r="14" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>547</v>
       </c>
@@ -18939,7 +18952,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>548</v>
       </c>
@@ -18980,7 +18993,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -19021,7 +19034,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>542</v>
       </c>
@@ -19053,7 +19066,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>550</v>
       </c>
@@ -19085,7 +19098,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>549</v>
       </c>
@@ -19114,7 +19127,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>551</v>
       </c>
@@ -19146,7 +19159,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="23" spans="1:17">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>552</v>
       </c>
@@ -19166,7 +19179,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="24" spans="1:17">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>682</v>
       </c>
@@ -19189,7 +19202,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="L25" s="1" t="s">
         <v>558</v>
       </c>
@@ -19200,7 +19213,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="26" spans="1:17">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="L26" s="1" t="s">
         <v>539</v>
       </c>
@@ -19208,7 +19221,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="27" spans="1:17">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="L27" s="1" t="s">
         <v>541</v>
       </c>

--- a/projects/office_calibration.xlsx
+++ b/projects/office_calibration.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24709"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="13176" tabRatio="562" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23260" windowHeight="13180" tabRatio="562" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="9" r:id="rId1"/>
@@ -2407,9 +2407,6 @@
     <t>Unknown</t>
   </si>
   <si>
-    <t>../../tmp/calibration_data</t>
-  </si>
-  <si>
     <t>Add Ptac</t>
   </si>
   <si>
@@ -2519,6 +2516,9 @@
   </si>
   <si>
     <t>1 is true</t>
+  </si>
+  <si>
+    <t>../lib/calibration_data</t>
   </si>
 </sst>
 </file>
@@ -6638,17 +6638,17 @@
       <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="81.77734375" customWidth="1"/>
+    <col min="1" max="1" width="81.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" ht="28">
       <c r="A1" s="36" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" ht="28">
       <c r="A2" s="36" t="s">
         <v>41</v>
       </c>
@@ -6668,21 +6668,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="25.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="30.33203125" style="26" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29" style="1" customWidth="1"/>
-    <col min="4" max="4" width="33.109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="33.1640625" style="2" customWidth="1"/>
     <col min="5" max="5" width="61.6640625" style="1" customWidth="1"/>
     <col min="6" max="16384" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="A1" s="19"/>
       <c r="B1" s="28"/>
       <c r="C1" s="19"/>
@@ -6691,7 +6691,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" s="12" customFormat="1">
       <c r="A2" s="11" t="s">
         <v>435</v>
       </c>
@@ -6700,7 +6700,7 @@
       <c r="D2" s="13"/>
       <c r="E2" s="13"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>436</v>
       </c>
@@ -6711,7 +6711,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="28">
       <c r="A4" s="1" t="s">
         <v>456</v>
       </c>
@@ -6722,7 +6722,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="42">
       <c r="A5" s="1" t="s">
         <v>469</v>
       </c>
@@ -6733,7 +6733,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="46.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="46" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>470</v>
       </c>
@@ -6744,7 +6744,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
         <v>442</v>
       </c>
@@ -6763,7 +6763,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="28">
       <c r="A8" s="1" t="s">
         <v>443</v>
       </c>
@@ -6782,7 +6782,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
         <v>458</v>
       </c>
@@ -6795,7 +6795,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" s="12" customFormat="1">
       <c r="A11" s="11" t="s">
         <v>28</v>
       </c>
@@ -6804,7 +6804,7 @@
       <c r="D11" s="13"/>
       <c r="E11" s="13"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
         <v>39</v>
       </c>
@@ -6815,29 +6815,29 @@
         <v>471</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="E14" s="31" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
         <v>462</v>
       </c>
@@ -6848,7 +6848,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
         <v>463</v>
       </c>
@@ -6859,7 +6859,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
         <v>464</v>
       </c>
@@ -6870,7 +6870,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
         <v>466</v>
       </c>
@@ -6881,7 +6881,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" s="2" customFormat="1" ht="42">
       <c r="A20" s="11" t="s">
         <v>27</v>
       </c>
@@ -6894,7 +6894,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
         <v>451</v>
       </c>
@@ -6902,11 +6902,11 @@
         <v>542</v>
       </c>
     </row>
-    <row r="22" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" s="31" customFormat="1">
       <c r="B22" s="26"/>
       <c r="D22" s="2"/>
     </row>
-    <row r="23" spans="1:5" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" s="2" customFormat="1" ht="42">
       <c r="A23" s="11" t="s">
         <v>450</v>
       </c>
@@ -6923,7 +6923,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5">
       <c r="A24" s="31" t="s">
         <v>538</v>
       </c>
@@ -6935,7 +6935,7 @@
       </c>
       <c r="D24" s="35"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5">
       <c r="A25" s="31" t="s">
         <v>543</v>
       </c>
@@ -6947,7 +6947,7 @@
       </c>
       <c r="D25" s="35"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5">
       <c r="A26" s="31" t="s">
         <v>557</v>
       </c>
@@ -6959,7 +6959,7 @@
       </c>
       <c r="D26" s="35"/>
     </row>
-    <row r="27" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" s="31" customFormat="1">
       <c r="A27" s="31" t="s">
         <v>558</v>
       </c>
@@ -6971,7 +6971,7 @@
       </c>
       <c r="D27" s="35"/>
     </row>
-    <row r="28" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" s="31" customFormat="1">
       <c r="A28" s="31" t="s">
         <v>539</v>
       </c>
@@ -6981,7 +6981,7 @@
       <c r="C28" s="30"/>
       <c r="D28" s="35"/>
     </row>
-    <row r="29" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" s="31" customFormat="1">
       <c r="A29" s="31" t="s">
         <v>541</v>
       </c>
@@ -6993,44 +6993,44 @@
       </c>
       <c r="D29" s="35"/>
     </row>
-    <row r="30" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" s="31" customFormat="1">
       <c r="A30" s="31" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B30" s="30">
         <v>1</v>
       </c>
       <c r="C30" s="34" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D30" s="35"/>
     </row>
-    <row r="31" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" s="31" customFormat="1">
       <c r="B31" s="26"/>
       <c r="C31" s="34"/>
       <c r="D31" s="35"/>
     </row>
-    <row r="32" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" s="31" customFormat="1">
       <c r="B32" s="26"/>
       <c r="C32" s="34"/>
       <c r="D32" s="35"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5">
       <c r="A33" s="31"/>
       <c r="C33" s="34"/>
       <c r="D33" s="35"/>
     </row>
-    <row r="34" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" s="31" customFormat="1">
       <c r="B34" s="26"/>
       <c r="C34" s="34"/>
       <c r="D34" s="35"/>
     </row>
-    <row r="35" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" s="31" customFormat="1">
       <c r="B35" s="26"/>
       <c r="C35" s="26"/>
       <c r="D35" s="2"/>
     </row>
-    <row r="36" spans="1:5" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" s="2" customFormat="1" ht="28">
       <c r="A36" s="11" t="s">
         <v>33</v>
       </c>
@@ -7043,7 +7043,7 @@
       <c r="D36" s="11"/>
       <c r="E36" s="13"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5">
       <c r="A37" s="1" t="s">
         <v>29</v>
       </c>
@@ -7051,7 +7051,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="39" spans="1:5" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" s="2" customFormat="1" ht="28">
       <c r="A39" s="11" t="s">
         <v>30</v>
       </c>
@@ -7068,7 +7068,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="40" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" s="31" customFormat="1">
       <c r="A40" s="31" t="s">
         <v>32</v>
       </c>
@@ -7080,7 +7080,7 @@
       </c>
       <c r="E40" s="2"/>
     </row>
-    <row r="42" spans="1:5" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" s="2" customFormat="1" ht="56">
       <c r="A42" s="11" t="s">
         <v>35</v>
       </c>
@@ -7095,7 +7095,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5">
       <c r="A43" s="31" t="s">
         <v>703</v>
       </c>
@@ -7103,10 +7103,10 @@
         <v>702</v>
       </c>
       <c r="C43" s="31" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" s="31" customFormat="1">
       <c r="B44" s="26"/>
       <c r="D44" s="2"/>
     </row>
@@ -7136,37 +7136,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y223"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="120" workbookViewId="0">
+    <sheetView topLeftCell="D1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="P50" sqref="P50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="31" customWidth="1"/>
+    <col min="1" max="1" width="9.1640625" style="31" customWidth="1"/>
     <col min="2" max="2" width="47" style="31" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="47" style="31" customWidth="1"/>
-    <col min="4" max="4" width="39.109375" style="31" customWidth="1"/>
-    <col min="5" max="5" width="24.109375" style="31" customWidth="1"/>
+    <col min="4" max="4" width="39.1640625" style="31" customWidth="1"/>
+    <col min="5" max="5" width="24.1640625" style="31" customWidth="1"/>
     <col min="6" max="6" width="9.6640625" style="31" customWidth="1"/>
     <col min="7" max="7" width="9.33203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.44140625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="8.77734375" style="4" customWidth="1"/>
-    <col min="10" max="10" width="7.109375" style="31" customWidth="1"/>
-    <col min="11" max="11" width="8.109375" style="31" customWidth="1"/>
+    <col min="8" max="8" width="15.5" style="4" customWidth="1"/>
+    <col min="9" max="9" width="8.83203125" style="4" customWidth="1"/>
+    <col min="10" max="10" width="7.1640625" style="31" customWidth="1"/>
+    <col min="11" max="11" width="8.1640625" style="31" customWidth="1"/>
     <col min="12" max="12" width="6.6640625" style="31" customWidth="1"/>
-    <col min="13" max="14" width="7.77734375" style="31" customWidth="1"/>
-    <col min="15" max="15" width="11.44140625" style="31"/>
-    <col min="16" max="16" width="11.44140625" style="31" customWidth="1"/>
+    <col min="13" max="14" width="7.83203125" style="31" customWidth="1"/>
+    <col min="15" max="15" width="11.5" style="31"/>
+    <col min="16" max="16" width="11.5" style="31" customWidth="1"/>
     <col min="17" max="17" width="23" style="31" customWidth="1"/>
     <col min="18" max="18" width="27.6640625" style="31" customWidth="1"/>
-    <col min="19" max="19" width="46.109375" style="31" customWidth="1"/>
-    <col min="20" max="22" width="11.44140625" style="31"/>
+    <col min="19" max="19" width="46.1640625" style="31" customWidth="1"/>
+    <col min="20" max="22" width="11.5" style="31"/>
     <col min="23" max="23" width="13.33203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="11.44140625" style="31"/>
+    <col min="24" max="16384" width="11.5" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:25" ht="18">
       <c r="A1" s="5"/>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -7201,7 +7201,7 @@
       <c r="X1" s="49"/>
       <c r="Y1" s="49"/>
     </row>
-    <row r="2" spans="1:25" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" s="8" customFormat="1" ht="15">
       <c r="A2" s="8" t="s">
         <v>3</v>
       </c>
@@ -7217,7 +7217,7 @@
       <c r="H2" s="9"/>
       <c r="I2" s="9"/>
     </row>
-    <row r="3" spans="1:25" s="14" customFormat="1" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" s="14" customFormat="1" ht="45">
       <c r="A3" s="14" t="s">
         <v>1</v>
       </c>
@@ -7291,7 +7291,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:25" s="38" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" s="38" customFormat="1">
       <c r="A4" s="38" t="b">
         <v>1</v>
       </c>
@@ -7310,7 +7310,7 @@
       <c r="G4" s="39"/>
       <c r="H4" s="39"/>
     </row>
-    <row r="5" spans="1:25" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" s="30" customFormat="1">
       <c r="B5" s="30" t="s">
         <v>21</v>
       </c>
@@ -7327,7 +7327,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="6" spans="1:25" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" s="30" customFormat="1">
       <c r="B6" s="30" t="s">
         <v>21</v>
       </c>
@@ -7344,7 +7344,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="7" spans="1:25" s="38" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25" s="38" customFormat="1">
       <c r="A7" s="38" t="b">
         <v>1</v>
       </c>
@@ -7363,7 +7363,7 @@
       <c r="G7" s="39"/>
       <c r="H7" s="39"/>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:25">
       <c r="B8" s="31" t="s">
         <v>21</v>
       </c>
@@ -7388,7 +7388,7 @@
       <c r="P8" s="40"/>
       <c r="Q8" s="2"/>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:25">
       <c r="B9" s="31" t="s">
         <v>21</v>
       </c>
@@ -7411,7 +7411,7 @@
       <c r="O9" s="4"/>
       <c r="P9" s="3"/>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:25">
       <c r="B10" s="31" t="s">
         <v>21</v>
       </c>
@@ -7429,7 +7429,7 @@
       </c>
       <c r="I10" s="31"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:25">
       <c r="B11" s="31" t="s">
         <v>21</v>
       </c>
@@ -7447,7 +7447,7 @@
       </c>
       <c r="I11" s="31"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:25">
       <c r="B12" s="31" t="s">
         <v>21</v>
       </c>
@@ -7465,7 +7465,7 @@
       </c>
       <c r="I12" s="31"/>
     </row>
-    <row r="13" spans="1:25" s="38" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:25" s="38" customFormat="1">
       <c r="A13" s="38" t="b">
         <v>1</v>
       </c>
@@ -7484,7 +7484,7 @@
       <c r="G13" s="39"/>
       <c r="H13" s="39"/>
     </row>
-    <row r="14" spans="1:25" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:25" s="30" customFormat="1">
       <c r="B14" s="30" t="s">
         <v>21</v>
       </c>
@@ -7504,7 +7504,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="15" spans="1:25" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:25" s="30" customFormat="1">
       <c r="B15" s="30" t="s">
         <v>21</v>
       </c>
@@ -7521,7 +7521,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:25" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:25" s="30" customFormat="1">
       <c r="B16" s="30" t="s">
         <v>21</v>
       </c>
@@ -7538,7 +7538,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" s="30" customFormat="1">
       <c r="B17" s="30" t="s">
         <v>21</v>
       </c>
@@ -7558,7 +7558,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" s="30" customFormat="1">
       <c r="B18" s="30" t="s">
         <v>21</v>
       </c>
@@ -7576,7 +7576,7 @@
         <v>7.6923076923076927E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" s="30" customFormat="1">
       <c r="B19" s="30" t="s">
         <v>21</v>
       </c>
@@ -7594,7 +7594,7 @@
         <v>7.6923076923076927E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" s="30" customFormat="1">
       <c r="B20" s="30" t="s">
         <v>21</v>
       </c>
@@ -7612,7 +7612,7 @@
         <v>7.6923076923076927E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" s="30" customFormat="1">
       <c r="B21" s="30" t="s">
         <v>21</v>
       </c>
@@ -7630,7 +7630,7 @@
         <v>7.6923076923076927E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" s="30" customFormat="1">
       <c r="B22" s="30" t="s">
         <v>21</v>
       </c>
@@ -7648,7 +7648,7 @@
         <v>7.6923076923076927E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" s="30" customFormat="1">
       <c r="B23" s="30" t="s">
         <v>21</v>
       </c>
@@ -7666,7 +7666,7 @@
         <v>7.6923076923076927E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" s="30" customFormat="1">
       <c r="B24" s="30" t="s">
         <v>21</v>
       </c>
@@ -7684,7 +7684,7 @@
         <v>7.6923076923076927E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" s="30" customFormat="1">
       <c r="B25" s="30" t="s">
         <v>21</v>
       </c>
@@ -7702,7 +7702,7 @@
         <v>7.6923076923076927E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" s="30" customFormat="1">
       <c r="B26" s="30" t="s">
         <v>21</v>
       </c>
@@ -7720,7 +7720,7 @@
         <v>7.6923076923076927E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" s="30" customFormat="1">
       <c r="B27" s="30" t="s">
         <v>21</v>
       </c>
@@ -7738,7 +7738,7 @@
         <v>7.6923076923076927E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" s="30" customFormat="1">
       <c r="B28" s="30" t="s">
         <v>21</v>
       </c>
@@ -7756,7 +7756,7 @@
         <v>7.6923076923076927E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" s="30" customFormat="1">
       <c r="B29" s="30" t="s">
         <v>21</v>
       </c>
@@ -7774,7 +7774,7 @@
         <v>7.6923076923076927E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" s="30" customFormat="1">
       <c r="B30" s="30" t="s">
         <v>21</v>
       </c>
@@ -7792,7 +7792,7 @@
         <v>7.6923076923076927E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:9" s="38" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" s="38" customFormat="1">
       <c r="A31" s="38" t="b">
         <v>1</v>
       </c>
@@ -7811,7 +7811,7 @@
       <c r="G31" s="39"/>
       <c r="H31" s="39"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9">
       <c r="B32" s="31" t="s">
         <v>21</v>
       </c>
@@ -7827,32 +7827,32 @@
       <c r="H32" s="31"/>
       <c r="I32" s="31"/>
     </row>
-    <row r="33" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:17" s="38" customFormat="1">
       <c r="A33" s="38" t="b">
         <v>1</v>
       </c>
       <c r="B33" s="38" t="s">
+        <v>788</v>
+      </c>
+      <c r="C33" s="38" t="s">
         <v>789</v>
       </c>
-      <c r="C33" s="38" t="s">
-        <v>790</v>
-      </c>
       <c r="D33" s="38" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E33" s="38" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="34" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:17" s="30" customFormat="1">
       <c r="B34" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D34" s="30" t="s">
+        <v>790</v>
+      </c>
+      <c r="E34" s="30" t="s">
         <v>791</v>
-      </c>
-      <c r="E34" s="30" t="s">
-        <v>792</v>
       </c>
       <c r="F34" s="30" t="s">
         <v>64</v>
@@ -7861,35 +7861,35 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="35" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:17" s="30" customFormat="1">
       <c r="B35" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D35" s="30" t="s">
+        <v>792</v>
+      </c>
+      <c r="E35" s="30" t="s">
         <v>793</v>
-      </c>
-      <c r="E35" s="30" t="s">
-        <v>794</v>
       </c>
       <c r="F35" s="30" t="s">
         <v>62</v>
       </c>
       <c r="H35" s="30" t="s">
+        <v>794</v>
+      </c>
+      <c r="I35" s="30" t="s">
         <v>795</v>
       </c>
-      <c r="I35" s="30" t="s">
+    </row>
+    <row r="36" spans="1:17" s="30" customFormat="1">
+      <c r="B36" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D36" s="30" t="s">
         <v>796</v>
       </c>
-    </row>
-    <row r="36" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D36" s="30" t="s">
+      <c r="E36" s="30" t="s">
         <v>797</v>
-      </c>
-      <c r="E36" s="30" t="s">
-        <v>798</v>
       </c>
       <c r="F36" s="30" t="s">
         <v>64</v>
@@ -7898,7 +7898,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:17" s="38" customFormat="1">
       <c r="A37" s="38" t="b">
         <v>1</v>
       </c>
@@ -7917,7 +7917,7 @@
       <c r="G37" s="39"/>
       <c r="H37" s="39"/>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:17">
       <c r="B38" s="31" t="s">
         <v>21</v>
       </c>
@@ -7942,7 +7942,7 @@
       <c r="P38" s="40"/>
       <c r="Q38" s="2"/>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:17">
       <c r="B39" s="31" t="s">
         <v>21</v>
       </c>
@@ -7970,7 +7970,7 @@
       <c r="P39" s="40"/>
       <c r="Q39" s="2"/>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:17">
       <c r="B40" s="31" t="s">
         <v>21</v>
       </c>
@@ -7998,7 +7998,7 @@
       <c r="P40" s="40"/>
       <c r="Q40" s="2"/>
     </row>
-    <row r="41" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:17" s="38" customFormat="1">
       <c r="A41" s="38" t="b">
         <v>1</v>
       </c>
@@ -8017,7 +8017,7 @@
       <c r="G41" s="39"/>
       <c r="H41" s="39"/>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:17">
       <c r="B42" s="31" t="s">
         <v>21</v>
       </c>
@@ -8042,7 +8042,7 @@
       <c r="P42" s="40"/>
       <c r="Q42" s="2"/>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:17">
       <c r="B43" s="31" t="s">
         <v>21</v>
       </c>
@@ -8070,7 +8070,7 @@
       <c r="P43" s="40"/>
       <c r="Q43" s="2"/>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:17">
       <c r="B44" s="31" t="s">
         <v>21</v>
       </c>
@@ -8098,7 +8098,7 @@
       <c r="P44" s="40"/>
       <c r="Q44" s="2"/>
     </row>
-    <row r="45" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:17" s="38" customFormat="1">
       <c r="A45" s="38" t="b">
         <v>1</v>
       </c>
@@ -8117,7 +8117,7 @@
       <c r="G45" s="39"/>
       <c r="H45" s="39"/>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:17">
       <c r="B46" s="31" t="s">
         <v>21</v>
       </c>
@@ -8142,7 +8142,7 @@
       <c r="P46" s="40"/>
       <c r="Q46" s="2"/>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:17">
       <c r="B47" s="31" t="s">
         <v>21</v>
       </c>
@@ -8170,7 +8170,7 @@
       <c r="P47" s="40"/>
       <c r="Q47" s="2"/>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:17">
       <c r="B48" s="31" t="s">
         <v>21</v>
       </c>
@@ -8198,7 +8198,7 @@
       <c r="P48" s="40"/>
       <c r="Q48" s="2"/>
     </row>
-    <row r="49" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:17" s="38" customFormat="1">
       <c r="A49" s="38" t="b">
         <v>1</v>
       </c>
@@ -8217,7 +8217,7 @@
       <c r="G49" s="39"/>
       <c r="H49" s="39"/>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:17">
       <c r="B50" s="31" t="s">
         <v>21</v>
       </c>
@@ -8242,7 +8242,7 @@
       <c r="P50" s="40"/>
       <c r="Q50" s="2"/>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:17">
       <c r="B51" s="31" t="s">
         <v>21</v>
       </c>
@@ -8270,7 +8270,7 @@
       <c r="P51" s="40"/>
       <c r="Q51" s="2"/>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:17">
       <c r="B52" s="31" t="s">
         <v>21</v>
       </c>
@@ -8298,7 +8298,7 @@
       <c r="P52" s="40"/>
       <c r="Q52" s="2"/>
     </row>
-    <row r="53" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:17" s="38" customFormat="1">
       <c r="A53" s="38" t="b">
         <v>1</v>
       </c>
@@ -8317,7 +8317,7 @@
       <c r="G53" s="39"/>
       <c r="H53" s="39"/>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:17">
       <c r="B54" s="31" t="s">
         <v>21</v>
       </c>
@@ -8335,7 +8335,7 @@
       </c>
       <c r="I54" s="31"/>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:17">
       <c r="B55" s="31" t="s">
         <v>21</v>
       </c>
@@ -8353,7 +8353,7 @@
       </c>
       <c r="I55" s="31"/>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:17">
       <c r="B56" s="31" t="s">
         <v>21</v>
       </c>
@@ -8371,7 +8371,7 @@
       </c>
       <c r="I56" s="31"/>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:17">
       <c r="B57" s="31" t="s">
         <v>21</v>
       </c>
@@ -8389,7 +8389,7 @@
       </c>
       <c r="I57" s="31"/>
     </row>
-    <row r="58" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:17" s="38" customFormat="1">
       <c r="A58" s="38" t="b">
         <v>1</v>
       </c>
@@ -8408,7 +8408,7 @@
       <c r="G58" s="39"/>
       <c r="H58" s="39"/>
     </row>
-    <row r="59" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:17" s="30" customFormat="1">
       <c r="A59" s="30" t="b">
         <v>1</v>
       </c>
@@ -8425,7 +8425,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="60" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:17" s="43" customFormat="1">
       <c r="B60" s="43" t="s">
         <v>22</v>
       </c>
@@ -8461,7 +8461,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="61" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:17" s="30" customFormat="1">
       <c r="B61" s="30" t="s">
         <v>21</v>
       </c>
@@ -8478,7 +8478,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="62" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:17" s="30" customFormat="1">
       <c r="B62" s="30" t="s">
         <v>21</v>
       </c>
@@ -8498,7 +8498,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="63" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:17" s="30" customFormat="1">
       <c r="A63" s="30" t="b">
         <v>1</v>
       </c>
@@ -8515,7 +8515,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="64" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:17" s="43" customFormat="1">
       <c r="B64" s="43" t="s">
         <v>22</v>
       </c>
@@ -8551,7 +8551,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="65" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:17" s="30" customFormat="1">
       <c r="B65" s="30" t="s">
         <v>21</v>
       </c>
@@ -8568,7 +8568,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="66" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:17" s="30" customFormat="1">
       <c r="B66" s="30" t="s">
         <v>21</v>
       </c>
@@ -8588,7 +8588,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="67" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:17" s="30" customFormat="1">
       <c r="A67" s="30" t="b">
         <v>1</v>
       </c>
@@ -8605,7 +8605,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="68" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:17" s="43" customFormat="1">
       <c r="B68" s="43" t="s">
         <v>22</v>
       </c>
@@ -8641,7 +8641,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="69" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:17" s="30" customFormat="1">
       <c r="B69" s="30" t="s">
         <v>21</v>
       </c>
@@ -8658,7 +8658,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="70" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:17" s="30" customFormat="1">
       <c r="B70" s="30" t="s">
         <v>21</v>
       </c>
@@ -8678,7 +8678,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="71" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:17" s="30" customFormat="1">
       <c r="A71" s="30" t="b">
         <v>1</v>
       </c>
@@ -8696,7 +8696,7 @@
       </c>
       <c r="P71" s="31"/>
     </row>
-    <row r="72" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:17" s="30" customFormat="1">
       <c r="B72" s="30" t="s">
         <v>21</v>
       </c>
@@ -8717,7 +8717,7 @@
       </c>
       <c r="O72" s="31"/>
     </row>
-    <row r="73" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:17" s="43" customFormat="1">
       <c r="B73" s="43" t="s">
         <v>22</v>
       </c>
@@ -8753,7 +8753,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="74" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:17" s="30" customFormat="1">
       <c r="B74" s="30" t="s">
         <v>21</v>
       </c>
@@ -8771,7 +8771,7 @@
       </c>
       <c r="O74" s="31"/>
     </row>
-    <row r="75" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:17" s="30" customFormat="1">
       <c r="B75" s="30" t="s">
         <v>21</v>
       </c>
@@ -8789,7 +8789,7 @@
       </c>
       <c r="O75" s="31"/>
     </row>
-    <row r="76" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:17" s="30" customFormat="1">
       <c r="B76" s="30" t="s">
         <v>21</v>
       </c>
@@ -8807,7 +8807,7 @@
       </c>
       <c r="O76" s="31"/>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:17">
       <c r="A77" s="30" t="b">
         <v>1</v>
       </c>
@@ -8835,7 +8835,7 @@
       <c r="O77" s="3"/>
       <c r="Q77" s="40"/>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:17">
       <c r="A78" s="30"/>
       <c r="B78" s="30" t="s">
         <v>21</v>
@@ -8864,7 +8864,7 @@
       <c r="N78" s="3"/>
       <c r="P78" s="40"/>
     </row>
-    <row r="79" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:17" s="43" customFormat="1">
       <c r="B79" s="43" t="s">
         <v>22</v>
       </c>
@@ -8902,7 +8902,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:17">
       <c r="A80" s="30"/>
       <c r="B80" s="30" t="s">
         <v>21</v>
@@ -8928,7 +8928,7 @@
       <c r="N80" s="3"/>
       <c r="P80" s="40"/>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:16">
       <c r="A81" s="30"/>
       <c r="B81" s="30" t="s">
         <v>21</v>
@@ -8954,7 +8954,7 @@
       <c r="N81" s="3"/>
       <c r="P81" s="40"/>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:16">
       <c r="A82" s="30"/>
       <c r="B82" s="30" t="s">
         <v>21</v>
@@ -8980,7 +8980,7 @@
       <c r="N82" s="3"/>
       <c r="P82" s="40"/>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:16">
       <c r="A83" s="30"/>
       <c r="B83" s="30" t="s">
         <v>21</v>
@@ -9006,7 +9006,7 @@
       <c r="N83" s="3"/>
       <c r="P83" s="40"/>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:16">
       <c r="A84" s="30"/>
       <c r="B84" s="30" t="s">
         <v>21</v>
@@ -9032,7 +9032,7 @@
       <c r="N84" s="3"/>
       <c r="P84" s="40"/>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:16">
       <c r="A85" s="30"/>
       <c r="B85" s="30" t="s">
         <v>21</v>
@@ -9058,7 +9058,7 @@
       <c r="N85" s="3"/>
       <c r="P85" s="40"/>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:16">
       <c r="A86" s="30"/>
       <c r="B86" s="30" t="s">
         <v>21</v>
@@ -9084,551 +9084,551 @@
       <c r="N86" s="3"/>
       <c r="P86" s="40"/>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:16">
       <c r="H87" s="31"/>
       <c r="I87" s="31"/>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:16">
       <c r="H88" s="31"/>
       <c r="I88" s="31"/>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:16">
       <c r="H89" s="31"/>
       <c r="I89" s="31"/>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:16">
       <c r="H90" s="31"/>
       <c r="I90" s="31"/>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:16">
       <c r="H91" s="31"/>
       <c r="I91" s="31"/>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:16">
       <c r="H92" s="31"/>
       <c r="I92" s="31"/>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:16">
       <c r="H93" s="31"/>
       <c r="I93" s="31"/>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:16">
       <c r="H94" s="31"/>
       <c r="I94" s="31"/>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:16">
       <c r="H95" s="31"/>
       <c r="I95" s="31"/>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:16">
       <c r="H96" s="31"/>
       <c r="I96" s="31"/>
     </row>
-    <row r="97" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="97" spans="8:9">
       <c r="H97" s="31"/>
       <c r="I97" s="31"/>
     </row>
-    <row r="98" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="98" spans="8:9">
       <c r="H98" s="31"/>
       <c r="I98" s="31"/>
     </row>
-    <row r="99" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="99" spans="8:9">
       <c r="H99" s="31"/>
       <c r="I99" s="31"/>
     </row>
-    <row r="100" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="100" spans="8:9">
       <c r="H100" s="31"/>
       <c r="I100" s="31"/>
     </row>
-    <row r="101" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="101" spans="8:9">
       <c r="H101" s="31"/>
       <c r="I101" s="31"/>
     </row>
-    <row r="102" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="102" spans="8:9">
       <c r="H102" s="31"/>
       <c r="I102" s="31"/>
     </row>
-    <row r="103" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="103" spans="8:9">
       <c r="H103" s="31"/>
       <c r="I103" s="31"/>
     </row>
-    <row r="104" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="104" spans="8:9">
       <c r="H104" s="31"/>
       <c r="I104" s="31"/>
     </row>
-    <row r="105" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="105" spans="8:9">
       <c r="H105" s="31"/>
       <c r="I105" s="31"/>
     </row>
-    <row r="106" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="106" spans="8:9">
       <c r="H106" s="31"/>
       <c r="I106" s="31"/>
     </row>
-    <row r="107" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="107" spans="8:9">
       <c r="H107" s="31"/>
       <c r="I107" s="31"/>
     </row>
-    <row r="108" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="108" spans="8:9">
       <c r="H108" s="31"/>
       <c r="I108" s="31"/>
     </row>
-    <row r="109" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="109" spans="8:9">
       <c r="H109" s="31"/>
       <c r="I109" s="31"/>
     </row>
-    <row r="110" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="110" spans="8:9">
       <c r="H110" s="31"/>
       <c r="I110" s="31"/>
     </row>
-    <row r="111" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="111" spans="8:9">
       <c r="H111" s="31"/>
       <c r="I111" s="31"/>
     </row>
-    <row r="112" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="112" spans="8:9">
       <c r="H112" s="31"/>
       <c r="I112" s="31"/>
     </row>
-    <row r="113" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="113" spans="8:9">
       <c r="H113" s="31"/>
       <c r="I113" s="31"/>
     </row>
-    <row r="114" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="114" spans="8:9">
       <c r="H114" s="31"/>
       <c r="I114" s="31"/>
     </row>
-    <row r="115" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="115" spans="8:9">
       <c r="H115" s="31"/>
       <c r="I115" s="31"/>
     </row>
-    <row r="116" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="116" spans="8:9">
       <c r="H116" s="31"/>
       <c r="I116" s="31"/>
     </row>
-    <row r="117" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="117" spans="8:9">
       <c r="H117" s="31"/>
       <c r="I117" s="31"/>
     </row>
-    <row r="118" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="118" spans="8:9">
       <c r="H118" s="31"/>
       <c r="I118" s="31"/>
     </row>
-    <row r="119" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="119" spans="8:9">
       <c r="H119" s="31"/>
       <c r="I119" s="31"/>
     </row>
-    <row r="120" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="120" spans="8:9">
       <c r="H120" s="31"/>
       <c r="I120" s="31"/>
     </row>
-    <row r="121" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="121" spans="8:9">
       <c r="H121" s="31"/>
       <c r="I121" s="31"/>
     </row>
-    <row r="122" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="122" spans="8:9">
       <c r="H122" s="31"/>
       <c r="I122" s="31"/>
     </row>
-    <row r="123" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="123" spans="8:9">
       <c r="H123" s="31"/>
       <c r="I123" s="31"/>
     </row>
-    <row r="124" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="124" spans="8:9">
       <c r="H124" s="31"/>
       <c r="I124" s="31"/>
     </row>
-    <row r="125" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="125" spans="8:9">
       <c r="H125" s="31"/>
       <c r="I125" s="31"/>
     </row>
-    <row r="126" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="126" spans="8:9">
       <c r="H126" s="31"/>
       <c r="I126" s="31"/>
     </row>
-    <row r="127" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="127" spans="8:9">
       <c r="H127" s="31"/>
       <c r="I127" s="31"/>
     </row>
-    <row r="128" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="128" spans="8:9">
       <c r="H128" s="31"/>
       <c r="I128" s="31"/>
     </row>
-    <row r="129" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="129" spans="8:9">
       <c r="H129" s="31"/>
       <c r="I129" s="31"/>
     </row>
-    <row r="130" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="130" spans="8:9">
       <c r="H130" s="31"/>
       <c r="I130" s="31"/>
     </row>
-    <row r="131" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="131" spans="8:9">
       <c r="H131" s="31"/>
       <c r="I131" s="31"/>
     </row>
-    <row r="132" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="132" spans="8:9">
       <c r="H132" s="31"/>
       <c r="I132" s="31"/>
     </row>
-    <row r="133" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="133" spans="8:9">
       <c r="H133" s="31"/>
       <c r="I133" s="31"/>
     </row>
-    <row r="134" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="134" spans="8:9">
       <c r="H134" s="31"/>
       <c r="I134" s="31"/>
     </row>
-    <row r="135" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="135" spans="8:9">
       <c r="H135" s="31"/>
       <c r="I135" s="31"/>
     </row>
-    <row r="136" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="136" spans="8:9">
       <c r="H136" s="31"/>
       <c r="I136" s="31"/>
     </row>
-    <row r="137" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="137" spans="8:9">
       <c r="H137" s="31"/>
       <c r="I137" s="31"/>
     </row>
-    <row r="138" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="138" spans="8:9">
       <c r="H138" s="31"/>
       <c r="I138" s="31"/>
     </row>
-    <row r="139" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="139" spans="8:9">
       <c r="H139" s="31"/>
       <c r="I139" s="31"/>
     </row>
-    <row r="140" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="140" spans="8:9">
       <c r="H140" s="31"/>
       <c r="I140" s="31"/>
     </row>
-    <row r="141" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="141" spans="8:9">
       <c r="H141" s="31"/>
       <c r="I141" s="31"/>
     </row>
-    <row r="142" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="142" spans="8:9">
       <c r="H142" s="31"/>
       <c r="I142" s="31"/>
     </row>
-    <row r="143" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="143" spans="8:9">
       <c r="H143" s="31"/>
       <c r="I143" s="31"/>
     </row>
-    <row r="144" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="144" spans="8:9">
       <c r="H144" s="31"/>
       <c r="I144" s="31"/>
     </row>
-    <row r="145" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="145" spans="8:9">
       <c r="H145" s="31"/>
       <c r="I145" s="31"/>
     </row>
-    <row r="146" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="146" spans="8:9">
       <c r="H146" s="31"/>
       <c r="I146" s="31"/>
     </row>
-    <row r="147" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="147" spans="8:9">
       <c r="H147" s="31"/>
       <c r="I147" s="31"/>
     </row>
-    <row r="148" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="148" spans="8:9">
       <c r="H148" s="31"/>
       <c r="I148" s="31"/>
     </row>
-    <row r="149" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="149" spans="8:9">
       <c r="H149" s="31"/>
       <c r="I149" s="31"/>
     </row>
-    <row r="150" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="150" spans="8:9">
       <c r="H150" s="31"/>
       <c r="I150" s="31"/>
     </row>
-    <row r="151" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="151" spans="8:9">
       <c r="H151" s="31"/>
       <c r="I151" s="31"/>
     </row>
-    <row r="152" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="152" spans="8:9">
       <c r="H152" s="31"/>
       <c r="I152" s="31"/>
     </row>
-    <row r="153" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="153" spans="8:9">
       <c r="H153" s="31"/>
       <c r="I153" s="31"/>
     </row>
-    <row r="154" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="154" spans="8:9">
       <c r="H154" s="31"/>
       <c r="I154" s="31"/>
     </row>
-    <row r="155" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="155" spans="8:9">
       <c r="H155" s="31"/>
       <c r="I155" s="31"/>
     </row>
-    <row r="156" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="156" spans="8:9">
       <c r="H156" s="31"/>
       <c r="I156" s="31"/>
     </row>
-    <row r="157" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="157" spans="8:9">
       <c r="H157" s="31"/>
       <c r="I157" s="31"/>
     </row>
-    <row r="158" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="158" spans="8:9">
       <c r="H158" s="31"/>
       <c r="I158" s="31"/>
     </row>
-    <row r="159" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="159" spans="8:9">
       <c r="H159" s="31"/>
       <c r="I159" s="31"/>
     </row>
-    <row r="160" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="160" spans="8:9">
       <c r="H160" s="31"/>
       <c r="I160" s="31"/>
     </row>
-    <row r="161" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="161" spans="8:9">
       <c r="H161" s="31"/>
       <c r="I161" s="31"/>
     </row>
-    <row r="162" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="162" spans="8:9">
       <c r="H162" s="31"/>
       <c r="I162" s="31"/>
     </row>
-    <row r="163" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="163" spans="8:9">
       <c r="H163" s="31"/>
       <c r="I163" s="31"/>
     </row>
-    <row r="164" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="164" spans="8:9">
       <c r="H164" s="31"/>
       <c r="I164" s="31"/>
     </row>
-    <row r="165" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="165" spans="8:9">
       <c r="H165" s="31"/>
       <c r="I165" s="31"/>
     </row>
-    <row r="166" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="166" spans="8:9">
       <c r="H166" s="31"/>
       <c r="I166" s="31"/>
     </row>
-    <row r="167" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="167" spans="8:9">
       <c r="H167" s="31"/>
       <c r="I167" s="31"/>
     </row>
-    <row r="168" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="168" spans="8:9">
       <c r="H168" s="31"/>
       <c r="I168" s="31"/>
     </row>
-    <row r="169" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="169" spans="8:9">
       <c r="H169" s="31"/>
       <c r="I169" s="31"/>
     </row>
-    <row r="170" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="170" spans="8:9">
       <c r="H170" s="31"/>
       <c r="I170" s="31"/>
     </row>
-    <row r="171" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="171" spans="8:9">
       <c r="H171" s="31"/>
       <c r="I171" s="31"/>
     </row>
-    <row r="172" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="172" spans="8:9">
       <c r="H172" s="31"/>
       <c r="I172" s="31"/>
     </row>
-    <row r="173" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="173" spans="8:9">
       <c r="H173" s="31"/>
       <c r="I173" s="31"/>
     </row>
-    <row r="174" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="174" spans="8:9">
       <c r="H174" s="31"/>
       <c r="I174" s="31"/>
     </row>
-    <row r="175" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="175" spans="8:9">
       <c r="H175" s="31"/>
       <c r="I175" s="31"/>
     </row>
-    <row r="176" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="176" spans="8:9">
       <c r="H176" s="31"/>
       <c r="I176" s="31"/>
     </row>
-    <row r="177" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="177" spans="8:9">
       <c r="H177" s="31"/>
       <c r="I177" s="31"/>
     </row>
-    <row r="178" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="178" spans="8:9">
       <c r="H178" s="31"/>
       <c r="I178" s="31"/>
     </row>
-    <row r="179" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="179" spans="8:9">
       <c r="H179" s="31"/>
       <c r="I179" s="31"/>
     </row>
-    <row r="180" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="180" spans="8:9">
       <c r="H180" s="31"/>
       <c r="I180" s="31"/>
     </row>
-    <row r="181" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="181" spans="8:9">
       <c r="H181" s="31"/>
       <c r="I181" s="31"/>
     </row>
-    <row r="182" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="182" spans="8:9">
       <c r="H182" s="31"/>
       <c r="I182" s="31"/>
     </row>
-    <row r="183" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="183" spans="8:9">
       <c r="H183" s="31"/>
       <c r="I183" s="31"/>
     </row>
-    <row r="184" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="184" spans="8:9">
       <c r="H184" s="31"/>
       <c r="I184" s="31"/>
     </row>
-    <row r="185" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="185" spans="8:9">
       <c r="H185" s="31"/>
       <c r="I185" s="31"/>
     </row>
-    <row r="186" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="186" spans="8:9">
       <c r="H186" s="31"/>
       <c r="I186" s="31"/>
     </row>
-    <row r="187" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="187" spans="8:9">
       <c r="H187" s="31"/>
       <c r="I187" s="31"/>
     </row>
-    <row r="188" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="188" spans="8:9">
       <c r="H188" s="31"/>
       <c r="I188" s="31"/>
     </row>
-    <row r="189" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="189" spans="8:9">
       <c r="H189" s="31"/>
       <c r="I189" s="31"/>
     </row>
-    <row r="190" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="190" spans="8:9">
       <c r="H190" s="31"/>
       <c r="I190" s="31"/>
     </row>
-    <row r="191" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="191" spans="8:9">
       <c r="H191" s="31"/>
       <c r="I191" s="31"/>
     </row>
-    <row r="192" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="192" spans="8:9">
       <c r="H192" s="31"/>
       <c r="I192" s="31"/>
     </row>
-    <row r="193" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="193" spans="8:9">
       <c r="H193" s="31"/>
       <c r="I193" s="31"/>
     </row>
-    <row r="194" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="194" spans="8:9">
       <c r="H194" s="31"/>
       <c r="I194" s="31"/>
     </row>
-    <row r="195" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="195" spans="8:9">
       <c r="H195" s="31"/>
       <c r="I195" s="31"/>
     </row>
-    <row r="196" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="196" spans="8:9">
       <c r="H196" s="31"/>
       <c r="I196" s="31"/>
     </row>
-    <row r="197" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="197" spans="8:9">
       <c r="H197" s="31"/>
       <c r="I197" s="31"/>
     </row>
-    <row r="198" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="198" spans="8:9">
       <c r="H198" s="31"/>
       <c r="I198" s="31"/>
     </row>
-    <row r="199" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="199" spans="8:9">
       <c r="H199" s="31"/>
       <c r="I199" s="31"/>
     </row>
-    <row r="200" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="200" spans="8:9">
       <c r="H200" s="31"/>
       <c r="I200" s="31"/>
     </row>
-    <row r="201" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="201" spans="8:9">
       <c r="H201" s="31"/>
       <c r="I201" s="31"/>
     </row>
-    <row r="202" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="202" spans="8:9">
       <c r="H202" s="31"/>
       <c r="I202" s="31"/>
     </row>
-    <row r="203" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="203" spans="8:9">
       <c r="H203" s="31"/>
       <c r="I203" s="31"/>
     </row>
-    <row r="204" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="204" spans="8:9">
       <c r="H204" s="31"/>
       <c r="I204" s="31"/>
     </row>
-    <row r="205" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="205" spans="8:9">
       <c r="H205" s="31"/>
       <c r="I205" s="31"/>
     </row>
-    <row r="206" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="206" spans="8:9">
       <c r="H206" s="31"/>
       <c r="I206" s="31"/>
     </row>
-    <row r="207" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="207" spans="8:9">
       <c r="H207" s="31"/>
       <c r="I207" s="31"/>
     </row>
-    <row r="208" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="208" spans="8:9">
       <c r="H208" s="31"/>
       <c r="I208" s="31"/>
     </row>
-    <row r="209" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="209" spans="8:9">
       <c r="H209" s="31"/>
       <c r="I209" s="31"/>
     </row>
-    <row r="210" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="210" spans="8:9">
       <c r="H210" s="31"/>
       <c r="I210" s="31"/>
     </row>
-    <row r="211" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="211" spans="8:9">
       <c r="H211" s="31"/>
       <c r="I211" s="31"/>
     </row>
-    <row r="212" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="212" spans="8:9">
       <c r="H212" s="31"/>
       <c r="I212" s="31"/>
     </row>
-    <row r="213" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="213" spans="8:9">
       <c r="H213" s="31"/>
       <c r="I213" s="31"/>
     </row>
-    <row r="214" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="214" spans="8:9">
       <c r="H214" s="31"/>
       <c r="I214" s="31"/>
     </row>
-    <row r="215" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="215" spans="8:9">
       <c r="H215" s="31"/>
       <c r="I215" s="31"/>
     </row>
-    <row r="216" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="216" spans="8:9">
       <c r="H216" s="31"/>
       <c r="I216" s="31"/>
     </row>
-    <row r="217" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="217" spans="8:9">
       <c r="H217" s="31"/>
       <c r="I217" s="31"/>
     </row>
-    <row r="218" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="218" spans="8:9">
       <c r="H218" s="31"/>
       <c r="I218" s="31"/>
     </row>
-    <row r="219" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="219" spans="8:9">
       <c r="H219" s="31"/>
       <c r="I219" s="31"/>
     </row>
-    <row r="220" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="220" spans="8:9">
       <c r="H220" s="31"/>
       <c r="I220" s="31"/>
     </row>
-    <row r="221" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="221" spans="8:9">
       <c r="H221" s="31"/>
       <c r="I221" s="31"/>
     </row>
-    <row r="222" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="222" spans="8:9">
       <c r="H222" s="31"/>
       <c r="I222" s="31"/>
     </row>
-    <row r="223" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="223" spans="8:9">
       <c r="H223" s="31"/>
       <c r="I223" s="31"/>
     </row>
@@ -9656,20 +9656,20 @@
       <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="2" width="29.44140625" style="31" customWidth="1"/>
+    <col min="1" max="2" width="29.5" style="31" customWidth="1"/>
     <col min="3" max="3" width="71" style="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.44140625" style="31" customWidth="1"/>
+    <col min="4" max="4" width="10.5" style="31" customWidth="1"/>
     <col min="5" max="5" width="12.33203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="10.44140625" style="31" customWidth="1"/>
-    <col min="8" max="8" width="14.44140625" style="31" customWidth="1"/>
+    <col min="6" max="7" width="10.5" style="31" customWidth="1"/>
+    <col min="8" max="8" width="14.5" style="31" customWidth="1"/>
     <col min="9" max="9" width="14.6640625" style="31" customWidth="1"/>
     <col min="10" max="10" width="9.6640625" style="31" customWidth="1"/>
-    <col min="11" max="16384" width="11.44140625" style="31"/>
+    <col min="11" max="16384" width="11.5" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" ht="18">
       <c r="A1" s="5"/>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -9684,7 +9684,7 @@
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
     </row>
-    <row r="2" spans="1:12" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" s="8" customFormat="1" ht="15">
       <c r="A2" s="8" t="s">
         <v>459</v>
       </c>
@@ -9719,7 +9719,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="14" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" s="14" customFormat="1" ht="30">
       <c r="A3" s="14" t="s">
         <v>628</v>
       </c>
@@ -9755,7 +9755,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12">
       <c r="A4" s="30" t="s">
         <v>644</v>
       </c>
@@ -9784,7 +9784,7 @@
       <c r="J4" s="30"/>
       <c r="K4" s="30"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12">
       <c r="A5" s="30" t="s">
         <v>645</v>
       </c>
@@ -9814,7 +9814,7 @@
       <c r="K5" s="30"/>
       <c r="L5" s="30"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12">
       <c r="A6" s="30" t="s">
         <v>646</v>
       </c>
@@ -9843,7 +9843,7 @@
       <c r="J6" s="30"/>
       <c r="K6" s="30"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12">
       <c r="A7" s="30" t="s">
         <v>647</v>
       </c>
@@ -9872,13 +9872,13 @@
       <c r="J7" s="30"/>
       <c r="K7" s="30"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12">
       <c r="A8" s="30" t="s">
         <v>709</v>
       </c>
       <c r="B8" s="30"/>
       <c r="C8" s="30" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D8" s="30" t="s">
         <v>710</v>
@@ -9900,13 +9900,13 @@
       <c r="K8" s="30"/>
       <c r="L8" s="30"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12">
       <c r="A9" s="30" t="s">
         <v>711</v>
       </c>
       <c r="B9" s="30"/>
       <c r="C9" s="30" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="D9" s="30" t="s">
         <v>712</v>
@@ -9928,13 +9928,13 @@
       <c r="K9" s="30"/>
       <c r="L9" s="30"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12">
       <c r="A10" s="30" t="s">
         <v>713</v>
       </c>
       <c r="B10" s="30"/>
       <c r="C10" s="30" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="D10" s="30" t="s">
         <v>710</v>
@@ -9956,13 +9956,13 @@
       <c r="K10" s="30"/>
       <c r="L10" s="30"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12">
       <c r="A11" s="30" t="s">
         <v>714</v>
       </c>
       <c r="B11" s="30"/>
       <c r="C11" s="30" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D11" s="30" t="s">
         <v>710</v>
@@ -9984,13 +9984,13 @@
       <c r="K11" s="30"/>
       <c r="L11" s="30"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12">
       <c r="A12" s="30" t="s">
         <v>715</v>
       </c>
       <c r="B12" s="30"/>
       <c r="C12" s="30" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D12" s="30" t="s">
         <v>710</v>
@@ -10012,13 +10012,13 @@
       <c r="K12" s="30"/>
       <c r="L12" s="30"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12">
       <c r="A13" s="30" t="s">
         <v>716</v>
       </c>
       <c r="B13" s="30"/>
       <c r="C13" s="30" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="D13" s="30" t="s">
         <v>710</v>
@@ -10040,13 +10040,13 @@
       <c r="K13" s="30"/>
       <c r="L13" s="30"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12">
       <c r="A14" s="30" t="s">
         <v>717</v>
       </c>
       <c r="B14" s="30"/>
       <c r="C14" s="30" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="D14" s="30" t="s">
         <v>710</v>
@@ -10068,13 +10068,13 @@
       <c r="K14" s="30"/>
       <c r="L14" s="30"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12">
       <c r="A15" s="30" t="s">
         <v>718</v>
       </c>
       <c r="B15" s="30"/>
       <c r="C15" s="30" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="D15" s="30" t="s">
         <v>710</v>
@@ -10096,13 +10096,13 @@
       <c r="K15" s="30"/>
       <c r="L15" s="30"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12">
       <c r="A16" s="30" t="s">
         <v>719</v>
       </c>
       <c r="B16" s="30"/>
       <c r="C16" s="30" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="D16" s="30" t="s">
         <v>710</v>
@@ -10124,13 +10124,13 @@
       <c r="K16" s="30"/>
       <c r="L16" s="30"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12">
       <c r="A17" s="30" t="s">
         <v>720</v>
       </c>
       <c r="B17" s="30"/>
       <c r="C17" s="30" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="D17" s="30" t="s">
         <v>710</v>
@@ -10152,13 +10152,13 @@
       <c r="K17" s="30"/>
       <c r="L17" s="30"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12">
       <c r="A18" s="30" t="s">
         <v>721</v>
       </c>
       <c r="B18" s="30"/>
       <c r="C18" s="30" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="D18" s="30" t="s">
         <v>710</v>
@@ -10180,13 +10180,13 @@
       <c r="K18" s="30"/>
       <c r="L18" s="30"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12">
       <c r="A19" s="30" t="s">
         <v>722</v>
       </c>
       <c r="B19" s="30"/>
       <c r="C19" s="30" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="D19" s="30" t="s">
         <v>710</v>
@@ -10208,13 +10208,13 @@
       <c r="K19" s="30"/>
       <c r="L19" s="30"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12">
       <c r="A20" s="30" t="s">
         <v>723</v>
       </c>
       <c r="B20" s="30"/>
       <c r="C20" s="30" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="D20" s="30" t="s">
         <v>710</v>
@@ -10236,13 +10236,13 @@
       <c r="K20" s="30"/>
       <c r="L20" s="30"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12">
       <c r="A21" s="30" t="s">
         <v>725</v>
       </c>
       <c r="B21" s="30"/>
       <c r="C21" s="30" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="D21" s="30" t="s">
         <v>726</v>
@@ -10264,13 +10264,13 @@
       <c r="K21" s="30"/>
       <c r="L21" s="30"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12">
       <c r="A22" s="30" t="s">
         <v>724</v>
       </c>
       <c r="B22" s="30"/>
       <c r="C22" s="30" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="D22" s="30" t="s">
         <v>726</v>
@@ -10292,13 +10292,13 @@
       <c r="K22" s="30"/>
       <c r="L22" s="30"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12">
       <c r="A23" s="30" t="s">
         <v>727</v>
       </c>
       <c r="B23" s="30"/>
       <c r="C23" s="30" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D23" s="30" t="s">
         <v>726</v>
@@ -10320,13 +10320,13 @@
       <c r="K23" s="30"/>
       <c r="L23" s="30"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12">
       <c r="A24" s="30" t="s">
         <v>728</v>
       </c>
       <c r="B24" s="30"/>
       <c r="C24" s="30" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D24" s="30" t="s">
         <v>726</v>
@@ -10348,13 +10348,13 @@
       <c r="K24" s="30"/>
       <c r="L24" s="30"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12">
       <c r="A25" s="30" t="s">
         <v>729</v>
       </c>
       <c r="B25" s="30"/>
       <c r="C25" s="30" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D25" s="30" t="s">
         <v>726</v>
@@ -10376,13 +10376,13 @@
       <c r="K25" s="30"/>
       <c r="L25" s="30"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12">
       <c r="A26" s="30" t="s">
         <v>730</v>
       </c>
       <c r="B26" s="30"/>
       <c r="C26" s="30" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="D26" s="30" t="s">
         <v>726</v>
@@ -10404,13 +10404,13 @@
       <c r="K26" s="30"/>
       <c r="L26" s="30"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12">
       <c r="A27" s="30" t="s">
         <v>731</v>
       </c>
       <c r="B27" s="30"/>
       <c r="C27" s="30" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D27" s="30" t="s">
         <v>726</v>
@@ -10432,13 +10432,13 @@
       <c r="K27" s="30"/>
       <c r="L27" s="30"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12">
       <c r="A28" s="30" t="s">
         <v>732</v>
       </c>
       <c r="B28" s="30"/>
       <c r="C28" s="30" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D28" s="30" t="s">
         <v>726</v>
@@ -10460,13 +10460,13 @@
       <c r="K28" s="30"/>
       <c r="L28" s="30"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12">
       <c r="A29" s="30" t="s">
         <v>733</v>
       </c>
       <c r="B29" s="30"/>
       <c r="C29" s="30" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D29" s="30" t="s">
         <v>726</v>
@@ -10488,13 +10488,13 @@
       <c r="K29" s="30"/>
       <c r="L29" s="30"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12">
       <c r="A30" s="30" t="s">
         <v>734</v>
       </c>
       <c r="B30" s="30"/>
       <c r="C30" s="30" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="D30" s="30" t="s">
         <v>726</v>
@@ -10516,49 +10516,49 @@
       <c r="K30" s="30"/>
       <c r="L30" s="30"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12">
       <c r="A31" s="30"/>
       <c r="B31" s="30"/>
       <c r="C31" s="30"/>
       <c r="D31" s="30"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12">
       <c r="A32" s="30"/>
       <c r="B32" s="30"/>
       <c r="C32" s="30"/>
       <c r="D32" s="30"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4">
       <c r="A33" s="30"/>
       <c r="B33" s="30"/>
       <c r="C33" s="30"/>
       <c r="D33" s="30"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4">
       <c r="A34" s="30"/>
       <c r="B34" s="30"/>
       <c r="C34" s="30"/>
       <c r="D34" s="30"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4">
       <c r="A35" s="30"/>
       <c r="B35" s="30"/>
       <c r="C35" s="30"/>
       <c r="D35" s="30"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4">
       <c r="A36" s="30"/>
       <c r="B36" s="30"/>
       <c r="C36" s="30"/>
       <c r="D36" s="30"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4">
       <c r="A37" s="30"/>
       <c r="B37" s="30"/>
       <c r="C37" s="30"/>
       <c r="D37" s="30"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4">
       <c r="A38" s="30"/>
       <c r="B38" s="30"/>
       <c r="C38" s="30"/>
@@ -10566,7 +10566,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -10583,19 +10583,19 @@
       <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="70.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="80.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="33.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="255.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="15">
       <c r="A1" s="17" t="b">
         <v>0</v>
       </c>
@@ -10614,7 +10614,7 @@
       <c r="H1" s="17"/>
       <c r="I1" s="17"/>
     </row>
-    <row r="2" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="15">
       <c r="A2" s="17"/>
       <c r="B2" s="17" t="s">
         <v>21</v>
@@ -10635,7 +10635,7 @@
       <c r="H2" s="17"/>
       <c r="I2" s="17"/>
     </row>
-    <row r="3" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="15">
       <c r="A3" s="17"/>
       <c r="B3" s="17" t="s">
         <v>21</v>
@@ -10658,7 +10658,7 @@
       </c>
       <c r="I3" s="17"/>
     </row>
-    <row r="4" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="15">
       <c r="A4" s="17"/>
       <c r="B4" s="17" t="s">
         <v>21</v>
@@ -10681,7 +10681,7 @@
       </c>
       <c r="I4" s="17"/>
     </row>
-    <row r="5" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="15">
       <c r="A5" s="17"/>
       <c r="B5" s="17" t="s">
         <v>21</v>
@@ -10704,7 +10704,7 @@
       </c>
       <c r="I5" s="17"/>
     </row>
-    <row r="6" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="15">
       <c r="A6" s="17"/>
       <c r="B6" s="17" t="s">
         <v>21</v>
@@ -10727,7 +10727,7 @@
       </c>
       <c r="I6" s="17"/>
     </row>
-    <row r="7" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="15">
       <c r="A7" s="17"/>
       <c r="B7" s="17" t="s">
         <v>21</v>
@@ -10750,7 +10750,7 @@
       </c>
       <c r="I7" s="17"/>
     </row>
-    <row r="8" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="15">
       <c r="A8" s="17"/>
       <c r="B8" s="17" t="s">
         <v>21</v>
@@ -10773,7 +10773,7 @@
       </c>
       <c r="I8" s="17"/>
     </row>
-    <row r="9" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="15">
       <c r="A9" s="17"/>
       <c r="B9" s="17" t="s">
         <v>21</v>
@@ -10796,7 +10796,7 @@
       </c>
       <c r="I9" s="17"/>
     </row>
-    <row r="10" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="15">
       <c r="A10" s="17"/>
       <c r="B10" s="17" t="s">
         <v>21</v>
@@ -10819,7 +10819,7 @@
       </c>
       <c r="I10" s="17"/>
     </row>
-    <row r="11" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="15">
       <c r="A11" s="17" t="b">
         <v>0</v>
       </c>
@@ -10838,7 +10838,7 @@
       <c r="H11" s="17"/>
       <c r="I11" s="17"/>
     </row>
-    <row r="12" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="15">
       <c r="A12" s="17"/>
       <c r="B12" s="17" t="s">
         <v>21</v>
@@ -10859,7 +10859,7 @@
       <c r="H12" s="17"/>
       <c r="I12" s="17"/>
     </row>
-    <row r="13" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="15">
       <c r="A13" s="17"/>
       <c r="B13" s="17" t="s">
         <v>21</v>
@@ -10882,7 +10882,7 @@
       </c>
       <c r="I13" s="17"/>
     </row>
-    <row r="14" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="15">
       <c r="A14" s="17"/>
       <c r="B14" s="17" t="s">
         <v>21</v>
@@ -10905,7 +10905,7 @@
       </c>
       <c r="I14" s="17"/>
     </row>
-    <row r="15" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="15">
       <c r="A15" s="17"/>
       <c r="B15" s="17" t="s">
         <v>21</v>
@@ -10928,7 +10928,7 @@
       </c>
       <c r="I15" s="17"/>
     </row>
-    <row r="16" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="15">
       <c r="A16" s="17"/>
       <c r="B16" s="17" t="s">
         <v>21</v>
@@ -10951,7 +10951,7 @@
       </c>
       <c r="I16" s="17"/>
     </row>
-    <row r="17" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="15">
       <c r="A17" s="17"/>
       <c r="B17" s="17" t="s">
         <v>21</v>
@@ -10974,7 +10974,7 @@
       </c>
       <c r="I17" s="17"/>
     </row>
-    <row r="18" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="15">
       <c r="A18" s="17"/>
       <c r="B18" s="17" t="s">
         <v>21</v>
@@ -10997,7 +10997,7 @@
       </c>
       <c r="I18" s="17"/>
     </row>
-    <row r="19" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="15">
       <c r="A19" s="17"/>
       <c r="B19" s="17" t="s">
         <v>21</v>
@@ -11020,7 +11020,7 @@
       </c>
       <c r="I19" s="17"/>
     </row>
-    <row r="20" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="15">
       <c r="A20" s="17"/>
       <c r="B20" s="17" t="s">
         <v>21</v>
@@ -11043,7 +11043,7 @@
       </c>
       <c r="I20" s="17"/>
     </row>
-    <row r="21" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" ht="15">
       <c r="A21" s="17" t="b">
         <v>0</v>
       </c>
@@ -11062,7 +11062,7 @@
       <c r="H21" s="17"/>
       <c r="I21" s="17"/>
     </row>
-    <row r="22" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" ht="15">
       <c r="A22" s="17"/>
       <c r="B22" s="17" t="s">
         <v>21</v>
@@ -11085,7 +11085,7 @@
       </c>
       <c r="I22" s="17"/>
     </row>
-    <row r="23" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" ht="15">
       <c r="A23" s="17"/>
       <c r="B23" s="17" t="s">
         <v>21</v>
@@ -11108,7 +11108,7 @@
       </c>
       <c r="I23" s="17"/>
     </row>
-    <row r="24" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" ht="15">
       <c r="A24" s="17"/>
       <c r="B24" s="17" t="s">
         <v>21</v>
@@ -11131,7 +11131,7 @@
       </c>
       <c r="I24" s="17"/>
     </row>
-    <row r="25" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" ht="15">
       <c r="A25" s="17"/>
       <c r="B25" s="17" t="s">
         <v>21</v>
@@ -11154,7 +11154,7 @@
       </c>
       <c r="I25" s="17"/>
     </row>
-    <row r="26" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" ht="15">
       <c r="A26" s="17"/>
       <c r="B26" s="17" t="s">
         <v>21</v>
@@ -11177,7 +11177,7 @@
       </c>
       <c r="I26" s="17"/>
     </row>
-    <row r="27" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" ht="15">
       <c r="A27" s="17"/>
       <c r="B27" s="17" t="s">
         <v>21</v>
@@ -11200,7 +11200,7 @@
       </c>
       <c r="I27" s="17"/>
     </row>
-    <row r="28" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" ht="15">
       <c r="A28" s="17"/>
       <c r="B28" s="17" t="s">
         <v>21</v>
@@ -11223,7 +11223,7 @@
       </c>
       <c r="I28" s="17"/>
     </row>
-    <row r="29" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" ht="15">
       <c r="A29" s="17"/>
       <c r="B29" s="17" t="s">
         <v>21</v>
@@ -11246,7 +11246,7 @@
       </c>
       <c r="I29" s="17"/>
     </row>
-    <row r="30" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" ht="15">
       <c r="A30" s="17"/>
       <c r="B30" s="17" t="s">
         <v>21</v>
@@ -11269,7 +11269,7 @@
       </c>
       <c r="I30" s="17"/>
     </row>
-    <row r="31" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" ht="15">
       <c r="A31" s="17" t="b">
         <v>0</v>
       </c>
@@ -11288,7 +11288,7 @@
       <c r="H31" s="17"/>
       <c r="I31" s="17"/>
     </row>
-    <row r="32" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" ht="15">
       <c r="A32" s="17"/>
       <c r="B32" s="17" t="s">
         <v>21</v>
@@ -11309,7 +11309,7 @@
       <c r="H32" s="17"/>
       <c r="I32" s="17"/>
     </row>
-    <row r="33" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" ht="15">
       <c r="A33" s="17"/>
       <c r="B33" s="17" t="s">
         <v>21</v>
@@ -11332,7 +11332,7 @@
       </c>
       <c r="I33" s="17"/>
     </row>
-    <row r="34" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" ht="15">
       <c r="A34" s="17"/>
       <c r="B34" s="17" t="s">
         <v>21</v>
@@ -11355,7 +11355,7 @@
       </c>
       <c r="I34" s="17"/>
     </row>
-    <row r="35" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" ht="15">
       <c r="A35" s="17"/>
       <c r="B35" s="17" t="s">
         <v>21</v>
@@ -11378,7 +11378,7 @@
       </c>
       <c r="I35" s="17"/>
     </row>
-    <row r="36" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" ht="15">
       <c r="A36" s="17"/>
       <c r="B36" s="17" t="s">
         <v>21</v>
@@ -11401,7 +11401,7 @@
       </c>
       <c r="I36" s="17"/>
     </row>
-    <row r="37" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" ht="15">
       <c r="A37" s="17"/>
       <c r="B37" s="17" t="s">
         <v>21</v>
@@ -11424,7 +11424,7 @@
       </c>
       <c r="I37" s="17"/>
     </row>
-    <row r="38" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" ht="15">
       <c r="A38" s="17"/>
       <c r="B38" s="17" t="s">
         <v>21</v>
@@ -11447,7 +11447,7 @@
       </c>
       <c r="I38" s="17"/>
     </row>
-    <row r="39" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" ht="15">
       <c r="A39" s="17"/>
       <c r="B39" s="17" t="s">
         <v>21</v>
@@ -11470,7 +11470,7 @@
       </c>
       <c r="I39" s="17"/>
     </row>
-    <row r="40" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" ht="15">
       <c r="A40" s="17"/>
       <c r="B40" s="17" t="s">
         <v>21</v>
@@ -11493,7 +11493,7 @@
       </c>
       <c r="I40" s="17"/>
     </row>
-    <row r="41" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" ht="15">
       <c r="A41" s="17" t="b">
         <v>0</v>
       </c>
@@ -11512,7 +11512,7 @@
       <c r="H41" s="17"/>
       <c r="I41" s="17"/>
     </row>
-    <row r="42" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" ht="15">
       <c r="A42" s="17"/>
       <c r="B42" s="17" t="s">
         <v>21</v>
@@ -11533,7 +11533,7 @@
       <c r="H42" s="17"/>
       <c r="I42" s="17"/>
     </row>
-    <row r="43" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" ht="15">
       <c r="A43" s="17"/>
       <c r="B43" s="17" t="s">
         <v>21</v>
@@ -11556,7 +11556,7 @@
       </c>
       <c r="I43" s="17"/>
     </row>
-    <row r="44" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" ht="15">
       <c r="A44" s="17"/>
       <c r="B44" s="17" t="s">
         <v>21</v>
@@ -11579,7 +11579,7 @@
       </c>
       <c r="I44" s="17"/>
     </row>
-    <row r="45" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" ht="15">
       <c r="A45" s="17"/>
       <c r="B45" s="17" t="s">
         <v>21</v>
@@ -11602,7 +11602,7 @@
       </c>
       <c r="I45" s="17"/>
     </row>
-    <row r="46" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" ht="15">
       <c r="A46" s="17"/>
       <c r="B46" s="17" t="s">
         <v>21</v>
@@ -11625,7 +11625,7 @@
       </c>
       <c r="I46" s="17"/>
     </row>
-    <row r="47" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" ht="15">
       <c r="A47" s="17"/>
       <c r="B47" s="17" t="s">
         <v>21</v>
@@ -11648,7 +11648,7 @@
       </c>
       <c r="I47" s="17"/>
     </row>
-    <row r="48" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" ht="15">
       <c r="A48" s="17"/>
       <c r="B48" s="17" t="s">
         <v>21</v>
@@ -11671,7 +11671,7 @@
       </c>
       <c r="I48" s="17"/>
     </row>
-    <row r="49" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" ht="15">
       <c r="A49" s="17"/>
       <c r="B49" s="17" t="s">
         <v>21</v>
@@ -11694,7 +11694,7 @@
       </c>
       <c r="I49" s="17"/>
     </row>
-    <row r="50" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" ht="15">
       <c r="A50" s="17"/>
       <c r="B50" s="17" t="s">
         <v>21</v>
@@ -11717,7 +11717,7 @@
       </c>
       <c r="I50" s="17"/>
     </row>
-    <row r="51" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" ht="15">
       <c r="A51" s="17" t="b">
         <v>0</v>
       </c>
@@ -11736,7 +11736,7 @@
       <c r="H51" s="17"/>
       <c r="I51" s="17"/>
     </row>
-    <row r="52" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" ht="15">
       <c r="A52" s="17"/>
       <c r="B52" s="17" t="s">
         <v>21</v>
@@ -11757,7 +11757,7 @@
       <c r="H52" s="17"/>
       <c r="I52" s="17"/>
     </row>
-    <row r="53" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" ht="15">
       <c r="A53" s="17"/>
       <c r="B53" s="17" t="s">
         <v>21</v>
@@ -11780,7 +11780,7 @@
       </c>
       <c r="I53" s="17"/>
     </row>
-    <row r="54" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" ht="15">
       <c r="A54" s="17"/>
       <c r="B54" s="17" t="s">
         <v>21</v>
@@ -11803,7 +11803,7 @@
       </c>
       <c r="I54" s="17"/>
     </row>
-    <row r="55" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" ht="15">
       <c r="A55" s="17"/>
       <c r="B55" s="17" t="s">
         <v>21</v>
@@ -11826,7 +11826,7 @@
       </c>
       <c r="I55" s="17"/>
     </row>
-    <row r="56" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" ht="15">
       <c r="A56" s="17"/>
       <c r="B56" s="17" t="s">
         <v>21</v>
@@ -11849,7 +11849,7 @@
       </c>
       <c r="I56" s="17"/>
     </row>
-    <row r="57" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" ht="15">
       <c r="A57" s="17"/>
       <c r="B57" s="17" t="s">
         <v>21</v>
@@ -11872,7 +11872,7 @@
       </c>
       <c r="I57" s="17"/>
     </row>
-    <row r="58" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" ht="15">
       <c r="A58" s="17"/>
       <c r="B58" s="17" t="s">
         <v>21</v>
@@ -11895,7 +11895,7 @@
       </c>
       <c r="I58" s="17"/>
     </row>
-    <row r="59" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" ht="15">
       <c r="A59" s="17"/>
       <c r="B59" s="17" t="s">
         <v>21</v>
@@ -11918,7 +11918,7 @@
       </c>
       <c r="I59" s="17"/>
     </row>
-    <row r="60" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" ht="15">
       <c r="A60" s="17"/>
       <c r="B60" s="17" t="s">
         <v>21</v>
@@ -11941,7 +11941,7 @@
       </c>
       <c r="I60" s="17"/>
     </row>
-    <row r="61" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" ht="15">
       <c r="A61" s="17" t="b">
         <v>0</v>
       </c>
@@ -11960,7 +11960,7 @@
       <c r="H61" s="17"/>
       <c r="I61" s="17"/>
     </row>
-    <row r="62" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" ht="15">
       <c r="A62" s="17"/>
       <c r="B62" s="17" t="s">
         <v>21</v>
@@ -11981,7 +11981,7 @@
       <c r="H62" s="17"/>
       <c r="I62" s="17"/>
     </row>
-    <row r="63" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" ht="15">
       <c r="A63" s="17"/>
       <c r="B63" s="17" t="s">
         <v>21</v>
@@ -12006,7 +12006,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" ht="15">
       <c r="A64" s="17"/>
       <c r="B64" s="17" t="s">
         <v>21</v>
@@ -12029,7 +12029,7 @@
       </c>
       <c r="I64" s="17"/>
     </row>
-    <row r="65" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" ht="15">
       <c r="A65" s="17"/>
       <c r="B65" s="17" t="s">
         <v>21</v>
@@ -12052,7 +12052,7 @@
       </c>
       <c r="I65" s="17"/>
     </row>
-    <row r="66" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" ht="15">
       <c r="A66" s="17"/>
       <c r="B66" s="17" t="s">
         <v>21</v>
@@ -12075,7 +12075,7 @@
       </c>
       <c r="I66" s="17"/>
     </row>
-    <row r="67" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" ht="15">
       <c r="A67" s="17"/>
       <c r="B67" s="17" t="s">
         <v>21</v>
@@ -12098,7 +12098,7 @@
       </c>
       <c r="I67" s="17"/>
     </row>
-    <row r="68" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" ht="15">
       <c r="A68" s="17"/>
       <c r="B68" s="17" t="s">
         <v>21</v>
@@ -12121,7 +12121,7 @@
       </c>
       <c r="I68" s="17"/>
     </row>
-    <row r="69" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" ht="15">
       <c r="A69" s="17"/>
       <c r="B69" s="17" t="s">
         <v>21</v>
@@ -12144,7 +12144,7 @@
       </c>
       <c r="I69" s="17"/>
     </row>
-    <row r="70" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" ht="15">
       <c r="A70" s="17"/>
       <c r="B70" s="17" t="s">
         <v>21</v>
@@ -12167,7 +12167,7 @@
       </c>
       <c r="I70" s="17"/>
     </row>
-    <row r="71" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" ht="15">
       <c r="A71" s="17"/>
       <c r="B71" s="17" t="s">
         <v>21</v>
@@ -12190,7 +12190,7 @@
       </c>
       <c r="I71" s="17"/>
     </row>
-    <row r="72" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9" ht="15">
       <c r="A72" s="17" t="b">
         <v>0</v>
       </c>
@@ -12209,7 +12209,7 @@
       <c r="H72" s="17"/>
       <c r="I72" s="17"/>
     </row>
-    <row r="73" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9" ht="15">
       <c r="A73" s="17"/>
       <c r="B73" s="17" t="s">
         <v>21</v>
@@ -12230,7 +12230,7 @@
       <c r="H73" s="17"/>
       <c r="I73" s="17"/>
     </row>
-    <row r="74" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9" ht="15">
       <c r="A74" s="17"/>
       <c r="B74" s="17" t="s">
         <v>21</v>
@@ -12253,7 +12253,7 @@
       </c>
       <c r="I74" s="17"/>
     </row>
-    <row r="75" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9" ht="15">
       <c r="A75" s="17"/>
       <c r="B75" s="17" t="s">
         <v>21</v>
@@ -12278,7 +12278,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9" ht="15">
       <c r="A76" s="17"/>
       <c r="B76" s="17" t="s">
         <v>21</v>
@@ -12301,7 +12301,7 @@
       </c>
       <c r="I76" s="17"/>
     </row>
-    <row r="77" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9" ht="15">
       <c r="A77" s="17"/>
       <c r="B77" s="17" t="s">
         <v>21</v>
@@ -12324,7 +12324,7 @@
       </c>
       <c r="I77" s="17"/>
     </row>
-    <row r="78" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9" ht="15">
       <c r="A78" s="17"/>
       <c r="B78" s="17" t="s">
         <v>21</v>
@@ -12347,7 +12347,7 @@
       </c>
       <c r="I78" s="17"/>
     </row>
-    <row r="79" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:9" ht="15">
       <c r="A79" s="17"/>
       <c r="B79" s="17" t="s">
         <v>21</v>
@@ -12370,7 +12370,7 @@
       </c>
       <c r="I79" s="17"/>
     </row>
-    <row r="80" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9" ht="15">
       <c r="A80" s="17"/>
       <c r="B80" s="17" t="s">
         <v>21</v>
@@ -12393,7 +12393,7 @@
       </c>
       <c r="I80" s="17"/>
     </row>
-    <row r="81" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:9" ht="15">
       <c r="A81" s="17"/>
       <c r="B81" s="17" t="s">
         <v>21</v>
@@ -12416,7 +12416,7 @@
       </c>
       <c r="I81" s="17"/>
     </row>
-    <row r="82" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:9" ht="15">
       <c r="A82" s="17"/>
       <c r="B82" s="17" t="s">
         <v>21</v>
@@ -12439,7 +12439,7 @@
       </c>
       <c r="I82" s="17"/>
     </row>
-    <row r="83" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:9" ht="15">
       <c r="A83" s="17"/>
       <c r="B83" s="17" t="s">
         <v>21</v>
@@ -12462,7 +12462,7 @@
       </c>
       <c r="I83" s="17"/>
     </row>
-    <row r="84" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:9" ht="15">
       <c r="A84" s="17"/>
       <c r="B84" s="17" t="s">
         <v>21</v>
@@ -12485,7 +12485,7 @@
       </c>
       <c r="I84" s="17"/>
     </row>
-    <row r="85" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:9" ht="15">
       <c r="A85" s="17"/>
       <c r="B85" s="17" t="s">
         <v>21</v>
@@ -12508,7 +12508,7 @@
       </c>
       <c r="I85" s="17"/>
     </row>
-    <row r="86" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:9" ht="15">
       <c r="A86" s="17" t="b">
         <v>0</v>
       </c>
@@ -12527,7 +12527,7 @@
       <c r="H86" s="17"/>
       <c r="I86" s="17"/>
     </row>
-    <row r="87" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:9" ht="15">
       <c r="A87" s="17"/>
       <c r="B87" s="17" t="s">
         <v>21</v>
@@ -12550,7 +12550,7 @@
       </c>
       <c r="I87" s="17"/>
     </row>
-    <row r="88" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:9" ht="15">
       <c r="A88" s="17"/>
       <c r="B88" s="17" t="s">
         <v>21</v>
@@ -12573,7 +12573,7 @@
       </c>
       <c r="I88" s="17"/>
     </row>
-    <row r="89" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:9" ht="15">
       <c r="A89" s="17"/>
       <c r="B89" s="17" t="s">
         <v>21</v>
@@ -12596,7 +12596,7 @@
       </c>
       <c r="I89" s="17"/>
     </row>
-    <row r="90" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:9" ht="15">
       <c r="A90" s="17"/>
       <c r="B90" s="17" t="s">
         <v>21</v>
@@ -12619,7 +12619,7 @@
       </c>
       <c r="I90" s="17"/>
     </row>
-    <row r="91" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:9" ht="15">
       <c r="A91" s="17"/>
       <c r="B91" s="17" t="s">
         <v>21</v>
@@ -12642,7 +12642,7 @@
       </c>
       <c r="I91" s="17"/>
     </row>
-    <row r="92" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:9" ht="15">
       <c r="A92" s="17"/>
       <c r="B92" s="17" t="s">
         <v>21</v>
@@ -12665,7 +12665,7 @@
       </c>
       <c r="I92" s="17"/>
     </row>
-    <row r="93" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:9" ht="15">
       <c r="A93" s="17"/>
       <c r="B93" s="17" t="s">
         <v>21</v>
@@ -12688,7 +12688,7 @@
       </c>
       <c r="I93" s="17"/>
     </row>
-    <row r="94" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:9" ht="15">
       <c r="A94" s="17"/>
       <c r="B94" s="17" t="s">
         <v>21</v>
@@ -12711,7 +12711,7 @@
       </c>
       <c r="I94" s="17"/>
     </row>
-    <row r="95" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:9" ht="15">
       <c r="A95" s="17"/>
       <c r="B95" s="17" t="s">
         <v>21</v>
@@ -12734,7 +12734,7 @@
       </c>
       <c r="I95" s="17"/>
     </row>
-    <row r="96" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:9" ht="15">
       <c r="A96" s="17"/>
       <c r="B96" s="17" t="s">
         <v>21</v>
@@ -12757,7 +12757,7 @@
       </c>
       <c r="I96" s="17"/>
     </row>
-    <row r="97" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:9" ht="15">
       <c r="A97" s="17" t="b">
         <v>0</v>
       </c>
@@ -12776,7 +12776,7 @@
       <c r="H97" s="17"/>
       <c r="I97" s="17"/>
     </row>
-    <row r="98" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:9" ht="15">
       <c r="A98" s="17"/>
       <c r="B98" s="17" t="s">
         <v>21</v>
@@ -12801,7 +12801,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:9" ht="15">
       <c r="A99" s="17" t="b">
         <v>0</v>
       </c>
@@ -12820,7 +12820,7 @@
       <c r="H99" s="17"/>
       <c r="I99" s="17"/>
     </row>
-    <row r="100" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:9" ht="15">
       <c r="A100" s="17"/>
       <c r="B100" s="17" t="s">
         <v>21</v>
@@ -12841,7 +12841,7 @@
       <c r="H100" s="17"/>
       <c r="I100" s="17"/>
     </row>
-    <row r="101" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:9" ht="15">
       <c r="A101" s="17"/>
       <c r="B101" s="17" t="s">
         <v>21</v>
@@ -12866,7 +12866,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:9" ht="15">
       <c r="A102" s="17" t="b">
         <v>0</v>
       </c>
@@ -12885,7 +12885,7 @@
       <c r="H102" s="17"/>
       <c r="I102" s="17"/>
     </row>
-    <row r="103" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:9" ht="15">
       <c r="A103" s="17"/>
       <c r="B103" s="17" t="s">
         <v>21</v>
@@ -12908,7 +12908,7 @@
       </c>
       <c r="I103" s="17"/>
     </row>
-    <row r="104" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:9" ht="15">
       <c r="A104" s="17"/>
       <c r="B104" s="17" t="s">
         <v>21</v>
@@ -12933,7 +12933,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:9" ht="15">
       <c r="A105" s="17"/>
       <c r="B105" s="17" t="s">
         <v>21</v>
@@ -12956,7 +12956,7 @@
       </c>
       <c r="I105" s="17"/>
     </row>
-    <row r="106" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:9" ht="15">
       <c r="A106" s="17"/>
       <c r="B106" s="17" t="s">
         <v>21</v>
@@ -12977,7 +12977,7 @@
       <c r="H106" s="17"/>
       <c r="I106" s="17"/>
     </row>
-    <row r="107" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:9" ht="15">
       <c r="A107" s="17" t="b">
         <v>0</v>
       </c>
@@ -12996,7 +12996,7 @@
       <c r="H107" s="17"/>
       <c r="I107" s="17"/>
     </row>
-    <row r="108" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:9" ht="15">
       <c r="A108" s="17"/>
       <c r="B108" s="17" t="s">
         <v>21</v>
@@ -13021,7 +13021,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:9" ht="15">
       <c r="A109" s="17"/>
       <c r="B109" s="17" t="s">
         <v>21</v>
@@ -13044,7 +13044,7 @@
       </c>
       <c r="I109" s="17"/>
     </row>
-    <row r="110" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:9" ht="15">
       <c r="A110" s="17"/>
       <c r="B110" s="17" t="s">
         <v>21</v>
@@ -13067,7 +13067,7 @@
       </c>
       <c r="I110" s="17"/>
     </row>
-    <row r="111" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:9" ht="15">
       <c r="A111" s="17"/>
       <c r="B111" s="17" t="s">
         <v>21</v>
@@ -13090,7 +13090,7 @@
       </c>
       <c r="I111" s="17"/>
     </row>
-    <row r="112" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:9" ht="15">
       <c r="A112" s="17"/>
       <c r="B112" s="17" t="s">
         <v>21</v>
@@ -13113,7 +13113,7 @@
       </c>
       <c r="I112" s="17"/>
     </row>
-    <row r="113" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:9" ht="15">
       <c r="A113" s="17"/>
       <c r="B113" s="17" t="s">
         <v>21</v>
@@ -13136,7 +13136,7 @@
       </c>
       <c r="I113" s="17"/>
     </row>
-    <row r="114" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:9" ht="15">
       <c r="A114" s="17"/>
       <c r="B114" s="17" t="s">
         <v>21</v>
@@ -13159,7 +13159,7 @@
       </c>
       <c r="I114" s="17"/>
     </row>
-    <row r="115" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:9" ht="15">
       <c r="A115" s="17" t="b">
         <v>0</v>
       </c>
@@ -13178,7 +13178,7 @@
       <c r="H115" s="17"/>
       <c r="I115" s="17"/>
     </row>
-    <row r="116" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:9" ht="15">
       <c r="A116" s="17"/>
       <c r="B116" s="17" t="s">
         <v>21</v>
@@ -13201,7 +13201,7 @@
       </c>
       <c r="I116" s="17"/>
     </row>
-    <row r="117" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:9" ht="15">
       <c r="A117" s="17"/>
       <c r="B117" s="17" t="s">
         <v>21</v>
@@ -13224,7 +13224,7 @@
       </c>
       <c r="I117" s="17"/>
     </row>
-    <row r="118" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:9" ht="15">
       <c r="A118" s="17"/>
       <c r="B118" s="17" t="s">
         <v>21</v>
@@ -13247,7 +13247,7 @@
       </c>
       <c r="I118" s="17"/>
     </row>
-    <row r="119" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:9" ht="15">
       <c r="A119" s="17" t="b">
         <v>0</v>
       </c>
@@ -13266,7 +13266,7 @@
       <c r="H119" s="17"/>
       <c r="I119" s="17"/>
     </row>
-    <row r="120" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:9" ht="15">
       <c r="A120" s="17"/>
       <c r="B120" s="17" t="s">
         <v>21</v>
@@ -13289,7 +13289,7 @@
       </c>
       <c r="I120" s="17"/>
     </row>
-    <row r="121" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:9" ht="15">
       <c r="A121" s="17"/>
       <c r="B121" s="17" t="s">
         <v>21</v>
@@ -13312,7 +13312,7 @@
       </c>
       <c r="I121" s="17"/>
     </row>
-    <row r="122" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:9" ht="15">
       <c r="A122" s="17"/>
       <c r="B122" s="17" t="s">
         <v>21</v>
@@ -13335,7 +13335,7 @@
       </c>
       <c r="I122" s="17"/>
     </row>
-    <row r="123" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:9" ht="15">
       <c r="A123" s="17"/>
       <c r="B123" s="17" t="s">
         <v>21</v>
@@ -13358,7 +13358,7 @@
       </c>
       <c r="I123" s="17"/>
     </row>
-    <row r="124" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:9" ht="15">
       <c r="A124" s="17"/>
       <c r="B124" s="17" t="s">
         <v>21</v>
@@ -13381,7 +13381,7 @@
       </c>
       <c r="I124" s="17"/>
     </row>
-    <row r="125" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:9" ht="15">
       <c r="A125" s="17"/>
       <c r="B125" s="17" t="s">
         <v>21</v>
@@ -13404,7 +13404,7 @@
       </c>
       <c r="I125" s="17"/>
     </row>
-    <row r="126" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:9" ht="15">
       <c r="A126" s="17" t="b">
         <v>0</v>
       </c>
@@ -13423,7 +13423,7 @@
       <c r="H126" s="17"/>
       <c r="I126" s="17"/>
     </row>
-    <row r="127" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:9" ht="15">
       <c r="A127" s="17"/>
       <c r="B127" s="17" t="s">
         <v>21</v>
@@ -13448,7 +13448,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="128" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:9" ht="15">
       <c r="A128" s="17"/>
       <c r="B128" s="17" t="s">
         <v>21</v>
@@ -13471,7 +13471,7 @@
       </c>
       <c r="I128" s="17"/>
     </row>
-    <row r="129" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:9" ht="15">
       <c r="A129" s="17"/>
       <c r="B129" s="17" t="s">
         <v>21</v>
@@ -13494,7 +13494,7 @@
       </c>
       <c r="I129" s="17"/>
     </row>
-    <row r="130" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:9" ht="15">
       <c r="A130" s="17"/>
       <c r="B130" s="17" t="s">
         <v>21</v>
@@ -13517,7 +13517,7 @@
       </c>
       <c r="I130" s="17"/>
     </row>
-    <row r="131" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:9" ht="15">
       <c r="A131" s="17"/>
       <c r="B131" s="17" t="s">
         <v>21</v>
@@ -13540,7 +13540,7 @@
       </c>
       <c r="I131" s="17"/>
     </row>
-    <row r="132" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:9" ht="15">
       <c r="A132" s="17"/>
       <c r="B132" s="17" t="s">
         <v>21</v>
@@ -13563,7 +13563,7 @@
       </c>
       <c r="I132" s="17"/>
     </row>
-    <row r="133" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:9" ht="15">
       <c r="A133" s="17"/>
       <c r="B133" s="17" t="s">
         <v>21</v>
@@ -13586,7 +13586,7 @@
       </c>
       <c r="I133" s="17"/>
     </row>
-    <row r="134" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:9" ht="15">
       <c r="A134" s="17"/>
       <c r="B134" s="17" t="s">
         <v>21</v>
@@ -13609,7 +13609,7 @@
       </c>
       <c r="I134" s="17"/>
     </row>
-    <row r="135" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:9" ht="15">
       <c r="A135" s="17"/>
       <c r="B135" s="17" t="s">
         <v>21</v>
@@ -13632,7 +13632,7 @@
       </c>
       <c r="I135" s="17"/>
     </row>
-    <row r="136" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:9" ht="15">
       <c r="A136" s="17" t="b">
         <v>0</v>
       </c>
@@ -13651,7 +13651,7 @@
       <c r="H136" s="17"/>
       <c r="I136" s="17"/>
     </row>
-    <row r="137" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:9" ht="15">
       <c r="A137" s="17"/>
       <c r="B137" s="17" t="s">
         <v>21</v>
@@ -13676,7 +13676,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="138" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:9" ht="15">
       <c r="A138" s="17"/>
       <c r="B138" s="17" t="s">
         <v>21</v>
@@ -13697,7 +13697,7 @@
       <c r="H138" s="17"/>
       <c r="I138" s="17"/>
     </row>
-    <row r="139" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:9" ht="15">
       <c r="A139" s="17"/>
       <c r="B139" s="17" t="s">
         <v>21</v>
@@ -13720,7 +13720,7 @@
       </c>
       <c r="I139" s="17"/>
     </row>
-    <row r="140" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:9" ht="15">
       <c r="A140" s="17"/>
       <c r="B140" s="17" t="s">
         <v>21</v>
@@ -13743,7 +13743,7 @@
       </c>
       <c r="I140" s="17"/>
     </row>
-    <row r="141" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:9" ht="15">
       <c r="A141" s="17"/>
       <c r="B141" s="17" t="s">
         <v>21</v>
@@ -13766,7 +13766,7 @@
       </c>
       <c r="I141" s="17"/>
     </row>
-    <row r="142" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:9" ht="15">
       <c r="A142" s="17"/>
       <c r="B142" s="17" t="s">
         <v>21</v>
@@ -13789,7 +13789,7 @@
       </c>
       <c r="I142" s="17"/>
     </row>
-    <row r="143" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:9" ht="15">
       <c r="A143" s="17"/>
       <c r="B143" s="17" t="s">
         <v>21</v>
@@ -13812,7 +13812,7 @@
       </c>
       <c r="I143" s="17"/>
     </row>
-    <row r="144" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:9" ht="15">
       <c r="A144" s="17"/>
       <c r="B144" s="17" t="s">
         <v>21</v>
@@ -13835,7 +13835,7 @@
       </c>
       <c r="I144" s="17"/>
     </row>
-    <row r="145" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:9" ht="15">
       <c r="A145" s="17"/>
       <c r="B145" s="17" t="s">
         <v>21</v>
@@ -13858,7 +13858,7 @@
       </c>
       <c r="I145" s="17"/>
     </row>
-    <row r="146" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:9" ht="15">
       <c r="A146" s="17"/>
       <c r="B146" s="17" t="s">
         <v>21</v>
@@ -13881,7 +13881,7 @@
       </c>
       <c r="I146" s="17"/>
     </row>
-    <row r="147" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:9" ht="15">
       <c r="A147" s="17"/>
       <c r="B147" s="17" t="s">
         <v>21</v>
@@ -13904,7 +13904,7 @@
       </c>
       <c r="I147" s="17"/>
     </row>
-    <row r="148" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:9" ht="15">
       <c r="A148" s="17"/>
       <c r="B148" s="17" t="s">
         <v>21</v>
@@ -13927,7 +13927,7 @@
       </c>
       <c r="I148" s="17"/>
     </row>
-    <row r="149" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:9" ht="15">
       <c r="A149" s="17"/>
       <c r="B149" s="17" t="s">
         <v>21</v>
@@ -13950,7 +13950,7 @@
       </c>
       <c r="I149" s="17"/>
     </row>
-    <row r="150" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:9" ht="15">
       <c r="A150" s="17"/>
       <c r="B150" s="17" t="s">
         <v>21</v>
@@ -13973,7 +13973,7 @@
       </c>
       <c r="I150" s="17"/>
     </row>
-    <row r="151" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:9" ht="15">
       <c r="A151" s="17" t="b">
         <v>0</v>
       </c>
@@ -13992,7 +13992,7 @@
       <c r="H151" s="17"/>
       <c r="I151" s="17"/>
     </row>
-    <row r="152" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:9" ht="15">
       <c r="A152" s="17"/>
       <c r="B152" s="17" t="s">
         <v>21</v>
@@ -14015,7 +14015,7 @@
       </c>
       <c r="I152" s="17"/>
     </row>
-    <row r="153" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:9" ht="15">
       <c r="A153" s="17" t="b">
         <v>0</v>
       </c>
@@ -14034,7 +14034,7 @@
       <c r="H153" s="17"/>
       <c r="I153" s="17"/>
     </row>
-    <row r="154" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:9" ht="15">
       <c r="A154" s="17"/>
       <c r="B154" s="17" t="s">
         <v>21</v>
@@ -14057,7 +14057,7 @@
       </c>
       <c r="I154" s="17"/>
     </row>
-    <row r="155" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:9" ht="15">
       <c r="A155" s="17"/>
       <c r="B155" s="17" t="s">
         <v>21</v>
@@ -14080,7 +14080,7 @@
       </c>
       <c r="I155" s="17"/>
     </row>
-    <row r="156" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:9" ht="15">
       <c r="A156" s="17" t="b">
         <v>0</v>
       </c>
@@ -14099,7 +14099,7 @@
       <c r="H156" s="17"/>
       <c r="I156" s="17"/>
     </row>
-    <row r="157" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:9" ht="15">
       <c r="A157" s="17"/>
       <c r="B157" s="17" t="s">
         <v>21</v>
@@ -14124,7 +14124,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="158" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:9" ht="15">
       <c r="A158" s="17"/>
       <c r="B158" s="17" t="s">
         <v>21</v>
@@ -14147,7 +14147,7 @@
       </c>
       <c r="I158" s="17"/>
     </row>
-    <row r="159" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:9" ht="15">
       <c r="A159" s="17"/>
       <c r="B159" s="17" t="s">
         <v>21</v>
@@ -14170,7 +14170,7 @@
       </c>
       <c r="I159" s="17"/>
     </row>
-    <row r="160" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:9" ht="15">
       <c r="A160" s="17"/>
       <c r="B160" s="17" t="s">
         <v>21</v>
@@ -14193,7 +14193,7 @@
       </c>
       <c r="I160" s="17"/>
     </row>
-    <row r="161" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:9" ht="15">
       <c r="A161" s="17"/>
       <c r="B161" s="17" t="s">
         <v>21</v>
@@ -14216,7 +14216,7 @@
       </c>
       <c r="I161" s="17"/>
     </row>
-    <row r="162" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:9" ht="15">
       <c r="A162" s="17"/>
       <c r="B162" s="17" t="s">
         <v>21</v>
@@ -14239,7 +14239,7 @@
       </c>
       <c r="I162" s="17"/>
     </row>
-    <row r="163" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:9" ht="15">
       <c r="A163" s="17"/>
       <c r="B163" s="17" t="s">
         <v>21</v>
@@ -14262,7 +14262,7 @@
       </c>
       <c r="I163" s="17"/>
     </row>
-    <row r="164" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:9" ht="15">
       <c r="A164" s="17"/>
       <c r="B164" s="17" t="s">
         <v>21</v>
@@ -14285,7 +14285,7 @@
       </c>
       <c r="I164" s="17"/>
     </row>
-    <row r="165" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:9" ht="15">
       <c r="A165" s="17"/>
       <c r="B165" s="17" t="s">
         <v>21</v>
@@ -14308,7 +14308,7 @@
       </c>
       <c r="I165" s="17"/>
     </row>
-    <row r="166" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:9" ht="15">
       <c r="A166" s="17"/>
       <c r="B166" s="17" t="s">
         <v>21</v>
@@ -14331,7 +14331,7 @@
       </c>
       <c r="I166" s="17"/>
     </row>
-    <row r="167" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:9" ht="15">
       <c r="A167" s="17" t="b">
         <v>0</v>
       </c>
@@ -14350,7 +14350,7 @@
       <c r="H167" s="17"/>
       <c r="I167" s="17"/>
     </row>
-    <row r="168" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:9" ht="15">
       <c r="A168" s="17"/>
       <c r="B168" s="17" t="s">
         <v>21</v>
@@ -14375,7 +14375,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="169" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:9" ht="15">
       <c r="A169" s="17"/>
       <c r="B169" s="17" t="s">
         <v>21</v>
@@ -14398,7 +14398,7 @@
       </c>
       <c r="I169" s="17"/>
     </row>
-    <row r="170" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:9" ht="15">
       <c r="A170" s="17"/>
       <c r="B170" s="17" t="s">
         <v>21</v>
@@ -14421,7 +14421,7 @@
       </c>
       <c r="I170" s="17"/>
     </row>
-    <row r="171" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:9" ht="15">
       <c r="A171" s="17"/>
       <c r="B171" s="17" t="s">
         <v>21</v>
@@ -14444,7 +14444,7 @@
       </c>
       <c r="I171" s="17"/>
     </row>
-    <row r="172" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:9" ht="15">
       <c r="A172" s="17"/>
       <c r="B172" s="17" t="s">
         <v>21</v>
@@ -14467,7 +14467,7 @@
       </c>
       <c r="I172" s="17"/>
     </row>
-    <row r="173" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:9" ht="15">
       <c r="A173" s="17"/>
       <c r="B173" s="17" t="s">
         <v>21</v>
@@ -14490,7 +14490,7 @@
       </c>
       <c r="I173" s="17"/>
     </row>
-    <row r="174" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:9" ht="15">
       <c r="A174" s="17"/>
       <c r="B174" s="17" t="s">
         <v>21</v>
@@ -14513,7 +14513,7 @@
       </c>
       <c r="I174" s="17"/>
     </row>
-    <row r="175" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:9" ht="15">
       <c r="A175" s="17"/>
       <c r="B175" s="17" t="s">
         <v>21</v>
@@ -14536,7 +14536,7 @@
       </c>
       <c r="I175" s="17"/>
     </row>
-    <row r="176" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:9" ht="15">
       <c r="A176" s="17"/>
       <c r="B176" s="17" t="s">
         <v>21</v>
@@ -14559,7 +14559,7 @@
       </c>
       <c r="I176" s="17"/>
     </row>
-    <row r="177" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:9" ht="15">
       <c r="A177" s="17"/>
       <c r="B177" s="17" t="s">
         <v>21</v>
@@ -14582,7 +14582,7 @@
       </c>
       <c r="I177" s="17"/>
     </row>
-    <row r="178" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:9" ht="15">
       <c r="A178" s="17" t="b">
         <v>0</v>
       </c>
@@ -14601,7 +14601,7 @@
       <c r="H178" s="17"/>
       <c r="I178" s="17"/>
     </row>
-    <row r="179" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:9" ht="15">
       <c r="A179" s="17"/>
       <c r="B179" s="17" t="s">
         <v>21</v>
@@ -14624,7 +14624,7 @@
       </c>
       <c r="I179" s="17"/>
     </row>
-    <row r="180" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:9" ht="15">
       <c r="A180" s="17"/>
       <c r="B180" s="17" t="s">
         <v>21</v>
@@ -14647,7 +14647,7 @@
       </c>
       <c r="I180" s="17"/>
     </row>
-    <row r="181" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:9" ht="15">
       <c r="A181" s="17"/>
       <c r="B181" s="17" t="s">
         <v>21</v>
@@ -14670,7 +14670,7 @@
       </c>
       <c r="I181" s="17"/>
     </row>
-    <row r="182" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:9" ht="15">
       <c r="A182" s="17"/>
       <c r="B182" s="17" t="s">
         <v>21</v>
@@ -14693,7 +14693,7 @@
       </c>
       <c r="I182" s="17"/>
     </row>
-    <row r="183" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:9" ht="15">
       <c r="A183" s="17" t="b">
         <v>0</v>
       </c>
@@ -14712,7 +14712,7 @@
       <c r="H183" s="17"/>
       <c r="I183" s="17"/>
     </row>
-    <row r="184" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:9" ht="15">
       <c r="A184" s="17"/>
       <c r="B184" s="17" t="s">
         <v>21</v>
@@ -14735,7 +14735,7 @@
       </c>
       <c r="I184" s="17"/>
     </row>
-    <row r="185" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:9" ht="15">
       <c r="A185" s="17"/>
       <c r="B185" s="17" t="s">
         <v>21</v>
@@ -14758,7 +14758,7 @@
       </c>
       <c r="I185" s="17"/>
     </row>
-    <row r="186" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:9" ht="15">
       <c r="A186" s="17"/>
       <c r="B186" s="17" t="s">
         <v>21</v>
@@ -14781,7 +14781,7 @@
       </c>
       <c r="I186" s="17"/>
     </row>
-    <row r="187" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:9" ht="15">
       <c r="A187" s="17"/>
       <c r="B187" s="17" t="s">
         <v>21</v>
@@ -14804,7 +14804,7 @@
       </c>
       <c r="I187" s="17"/>
     </row>
-    <row r="188" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:9" ht="15">
       <c r="A188" s="17" t="b">
         <v>0</v>
       </c>
@@ -14823,7 +14823,7 @@
       <c r="H188" s="17"/>
       <c r="I188" s="17"/>
     </row>
-    <row r="189" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:9" ht="15">
       <c r="A189" s="17"/>
       <c r="B189" s="17" t="s">
         <v>21</v>
@@ -14844,7 +14844,7 @@
       <c r="H189" s="17"/>
       <c r="I189" s="17"/>
     </row>
-    <row r="190" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:9" ht="15">
       <c r="A190" s="17"/>
       <c r="B190" s="17" t="s">
         <v>21</v>
@@ -14867,7 +14867,7 @@
       </c>
       <c r="I190" s="17"/>
     </row>
-    <row r="191" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:9" ht="15">
       <c r="A191" s="17" t="b">
         <v>0</v>
       </c>
@@ -14886,7 +14886,7 @@
       <c r="H191" s="17"/>
       <c r="I191" s="17"/>
     </row>
-    <row r="192" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:9" ht="15">
       <c r="A192" s="17"/>
       <c r="B192" s="17" t="s">
         <v>21</v>
@@ -14909,7 +14909,7 @@
       </c>
       <c r="I192" s="17"/>
     </row>
-    <row r="193" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:9" ht="15">
       <c r="A193" s="17"/>
       <c r="B193" s="17" t="s">
         <v>21</v>
@@ -14934,7 +14934,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="194" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:9" ht="15">
       <c r="A194" s="17"/>
       <c r="B194" s="17" t="s">
         <v>21</v>
@@ -14955,7 +14955,7 @@
       <c r="H194" s="17"/>
       <c r="I194" s="17"/>
     </row>
-    <row r="195" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:9" ht="15">
       <c r="A195" s="17"/>
       <c r="B195" s="17" t="s">
         <v>21</v>
@@ -14980,7 +14980,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="196" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:9" ht="15">
       <c r="A196" s="17"/>
       <c r="B196" s="17" t="s">
         <v>21</v>
@@ -15005,7 +15005,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="197" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:9" ht="15">
       <c r="A197" s="17" t="b">
         <v>0</v>
       </c>
@@ -15024,7 +15024,7 @@
       <c r="H197" s="17"/>
       <c r="I197" s="17"/>
     </row>
-    <row r="198" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:9" ht="15">
       <c r="A198" s="17"/>
       <c r="B198" s="17" t="s">
         <v>21</v>
@@ -15049,7 +15049,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="199" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:9" ht="15">
       <c r="A199" s="17"/>
       <c r="B199" s="17" t="s">
         <v>21</v>
@@ -15072,7 +15072,7 @@
       </c>
       <c r="I199" s="17"/>
     </row>
-    <row r="200" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:9" ht="15">
       <c r="A200" s="17"/>
       <c r="B200" s="17" t="s">
         <v>21</v>
@@ -15095,7 +15095,7 @@
       </c>
       <c r="I200" s="17"/>
     </row>
-    <row r="201" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:9" ht="15">
       <c r="A201" s="17"/>
       <c r="B201" s="17" t="s">
         <v>21</v>
@@ -15118,7 +15118,7 @@
       </c>
       <c r="I201" s="17"/>
     </row>
-    <row r="202" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:9" ht="15">
       <c r="A202" s="17"/>
       <c r="B202" s="17" t="s">
         <v>21</v>
@@ -15141,7 +15141,7 @@
       </c>
       <c r="I202" s="17"/>
     </row>
-    <row r="203" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:9" ht="15">
       <c r="A203" s="17"/>
       <c r="B203" s="17" t="s">
         <v>21</v>
@@ -15164,7 +15164,7 @@
       </c>
       <c r="I203" s="17"/>
     </row>
-    <row r="204" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:9" ht="15">
       <c r="A204" s="17"/>
       <c r="B204" s="17" t="s">
         <v>21</v>
@@ -15187,7 +15187,7 @@
       </c>
       <c r="I204" s="17"/>
     </row>
-    <row r="205" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:9" ht="15">
       <c r="A205" s="17"/>
       <c r="B205" s="17" t="s">
         <v>21</v>
@@ -15210,7 +15210,7 @@
       </c>
       <c r="I205" s="17"/>
     </row>
-    <row r="206" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:9" ht="15">
       <c r="A206" s="17"/>
       <c r="B206" s="17" t="s">
         <v>21</v>
@@ -15233,7 +15233,7 @@
       </c>
       <c r="I206" s="17"/>
     </row>
-    <row r="207" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:9" ht="15">
       <c r="A207" s="17" t="b">
         <v>0</v>
       </c>
@@ -15252,7 +15252,7 @@
       <c r="H207" s="17"/>
       <c r="I207" s="17"/>
     </row>
-    <row r="208" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:9" ht="15">
       <c r="A208" s="17"/>
       <c r="B208" s="17" t="s">
         <v>21</v>
@@ -15277,7 +15277,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="209" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:9" ht="15">
       <c r="A209" s="17"/>
       <c r="B209" s="17" t="s">
         <v>21</v>
@@ -15300,7 +15300,7 @@
       </c>
       <c r="I209" s="17"/>
     </row>
-    <row r="210" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:9" ht="15">
       <c r="A210" s="17"/>
       <c r="B210" s="17" t="s">
         <v>21</v>
@@ -15323,7 +15323,7 @@
       </c>
       <c r="I210" s="17"/>
     </row>
-    <row r="211" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:9" ht="15">
       <c r="A211" s="17"/>
       <c r="B211" s="17" t="s">
         <v>21</v>
@@ -15346,7 +15346,7 @@
       </c>
       <c r="I211" s="17"/>
     </row>
-    <row r="212" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:9" ht="15">
       <c r="A212" s="17"/>
       <c r="B212" s="17" t="s">
         <v>21</v>
@@ -15369,7 +15369,7 @@
       </c>
       <c r="I212" s="17"/>
     </row>
-    <row r="213" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:9" ht="15">
       <c r="A213" s="17"/>
       <c r="B213" s="17" t="s">
         <v>21</v>
@@ -15392,7 +15392,7 @@
       </c>
       <c r="I213" s="17"/>
     </row>
-    <row r="214" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:9" ht="15">
       <c r="A214" s="17"/>
       <c r="B214" s="17" t="s">
         <v>21</v>
@@ -15415,7 +15415,7 @@
       </c>
       <c r="I214" s="17"/>
     </row>
-    <row r="215" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:9" ht="15">
       <c r="A215" s="17"/>
       <c r="B215" s="17" t="s">
         <v>21</v>
@@ -15438,7 +15438,7 @@
       </c>
       <c r="I215" s="17"/>
     </row>
-    <row r="216" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:9" ht="15">
       <c r="A216" s="17"/>
       <c r="B216" s="17" t="s">
         <v>21</v>
@@ -15461,7 +15461,7 @@
       </c>
       <c r="I216" s="17"/>
     </row>
-    <row r="217" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:9" ht="15">
       <c r="A217" s="17" t="b">
         <v>0</v>
       </c>
@@ -15480,7 +15480,7 @@
       <c r="H217" s="17"/>
       <c r="I217" s="17"/>
     </row>
-    <row r="218" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:9" ht="15">
       <c r="A218" s="17"/>
       <c r="B218" s="17" t="s">
         <v>21</v>
@@ -15501,7 +15501,7 @@
       <c r="H218" s="17"/>
       <c r="I218" s="17"/>
     </row>
-    <row r="219" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:9" ht="15">
       <c r="A219" s="17"/>
       <c r="B219" s="17" t="s">
         <v>21</v>
@@ -15524,7 +15524,7 @@
       </c>
       <c r="I219" s="17"/>
     </row>
-    <row r="220" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:9" ht="15">
       <c r="A220" s="17"/>
       <c r="B220" s="17" t="s">
         <v>21</v>
@@ -15547,7 +15547,7 @@
       </c>
       <c r="I220" s="17"/>
     </row>
-    <row r="221" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:9" ht="15">
       <c r="A221" s="17"/>
       <c r="B221" s="17" t="s">
         <v>21</v>
@@ -15570,7 +15570,7 @@
       </c>
       <c r="I221" s="17"/>
     </row>
-    <row r="222" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:9" ht="15">
       <c r="A222" s="17"/>
       <c r="B222" s="17" t="s">
         <v>21</v>
@@ -15593,7 +15593,7 @@
       </c>
       <c r="I222" s="17"/>
     </row>
-    <row r="223" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:9" ht="15">
       <c r="A223" s="17"/>
       <c r="B223" s="17" t="s">
         <v>21</v>
@@ -15616,7 +15616,7 @@
       </c>
       <c r="I223" s="17"/>
     </row>
-    <row r="224" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:9" ht="15">
       <c r="A224" s="17"/>
       <c r="B224" s="17" t="s">
         <v>21</v>
@@ -15639,7 +15639,7 @@
       </c>
       <c r="I224" s="17"/>
     </row>
-    <row r="225" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:9" ht="15">
       <c r="A225" s="17"/>
       <c r="B225" s="17" t="s">
         <v>21</v>
@@ -15662,7 +15662,7 @@
       </c>
       <c r="I225" s="17"/>
     </row>
-    <row r="226" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:9" ht="15">
       <c r="A226" s="17"/>
       <c r="B226" s="17" t="s">
         <v>21</v>
@@ -15685,7 +15685,7 @@
       </c>
       <c r="I226" s="17"/>
     </row>
-    <row r="227" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:9" ht="15">
       <c r="A227" s="17"/>
       <c r="B227" s="17" t="s">
         <v>21</v>
@@ -15708,7 +15708,7 @@
       </c>
       <c r="I227" s="17"/>
     </row>
-    <row r="228" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:9" ht="15">
       <c r="A228" s="17"/>
       <c r="B228" s="17" t="s">
         <v>21</v>
@@ -15731,7 +15731,7 @@
       </c>
       <c r="I228" s="17"/>
     </row>
-    <row r="229" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:9" ht="15">
       <c r="A229" s="17"/>
       <c r="B229" s="17" t="s">
         <v>21</v>
@@ -15754,7 +15754,7 @@
       </c>
       <c r="I229" s="17"/>
     </row>
-    <row r="230" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:9" ht="15">
       <c r="A230" s="17"/>
       <c r="B230" s="17" t="s">
         <v>21</v>
@@ -15777,7 +15777,7 @@
       </c>
       <c r="I230" s="17"/>
     </row>
-    <row r="231" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:9" ht="15">
       <c r="A231" s="17"/>
       <c r="B231" s="17" t="s">
         <v>21</v>
@@ -15800,7 +15800,7 @@
       </c>
       <c r="I231" s="17"/>
     </row>
-    <row r="232" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:9" ht="15">
       <c r="A232" s="17"/>
       <c r="B232" s="17" t="s">
         <v>21</v>
@@ -15823,7 +15823,7 @@
       </c>
       <c r="I232" s="17"/>
     </row>
-    <row r="233" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:9" ht="15">
       <c r="A233" s="17"/>
       <c r="B233" s="17" t="s">
         <v>21</v>
@@ -15846,7 +15846,7 @@
       </c>
       <c r="I233" s="17"/>
     </row>
-    <row r="234" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:9" ht="15">
       <c r="A234" s="17" t="b">
         <v>0</v>
       </c>
@@ -15865,7 +15865,7 @@
       <c r="H234" s="17"/>
       <c r="I234" s="17"/>
     </row>
-    <row r="235" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:9" ht="15">
       <c r="A235" s="17"/>
       <c r="B235" s="17" t="s">
         <v>21</v>
@@ -15886,7 +15886,7 @@
       <c r="H235" s="17"/>
       <c r="I235" s="17"/>
     </row>
-    <row r="236" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:9" ht="15">
       <c r="A236" s="17"/>
       <c r="B236" s="17" t="s">
         <v>21</v>
@@ -15909,7 +15909,7 @@
       </c>
       <c r="I236" s="17"/>
     </row>
-    <row r="237" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:9" ht="15">
       <c r="A237" s="17"/>
       <c r="B237" s="17" t="s">
         <v>21</v>
@@ -15932,7 +15932,7 @@
       </c>
       <c r="I237" s="17"/>
     </row>
-    <row r="238" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:9" ht="15">
       <c r="A238" s="17"/>
       <c r="B238" s="17" t="s">
         <v>21</v>
@@ -15955,7 +15955,7 @@
       </c>
       <c r="I238" s="17"/>
     </row>
-    <row r="239" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:9" ht="15">
       <c r="A239" s="17"/>
       <c r="B239" s="17" t="s">
         <v>21</v>
@@ -15978,7 +15978,7 @@
       </c>
       <c r="I239" s="17"/>
     </row>
-    <row r="240" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:9" ht="15">
       <c r="A240" s="17"/>
       <c r="B240" s="17" t="s">
         <v>21</v>
@@ -16001,7 +16001,7 @@
       </c>
       <c r="I240" s="17"/>
     </row>
-    <row r="241" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:9" ht="15">
       <c r="A241" s="17"/>
       <c r="B241" s="17" t="s">
         <v>21</v>
@@ -16024,7 +16024,7 @@
       </c>
       <c r="I241" s="17"/>
     </row>
-    <row r="242" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:9" ht="15">
       <c r="A242" s="17"/>
       <c r="B242" s="17" t="s">
         <v>21</v>
@@ -16047,7 +16047,7 @@
       </c>
       <c r="I242" s="17"/>
     </row>
-    <row r="243" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:9" ht="15">
       <c r="A243" s="17"/>
       <c r="B243" s="17" t="s">
         <v>21</v>
@@ -16070,7 +16070,7 @@
       </c>
       <c r="I243" s="17"/>
     </row>
-    <row r="244" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:9" ht="15">
       <c r="A244" s="17"/>
       <c r="B244" s="17" t="s">
         <v>21</v>
@@ -16093,7 +16093,7 @@
       </c>
       <c r="I244" s="17"/>
     </row>
-    <row r="245" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:9" ht="15">
       <c r="A245" s="17"/>
       <c r="B245" s="17" t="s">
         <v>21</v>
@@ -16116,7 +16116,7 @@
       </c>
       <c r="I245" s="17"/>
     </row>
-    <row r="246" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:9" ht="15">
       <c r="A246" s="17"/>
       <c r="B246" s="17" t="s">
         <v>21</v>
@@ -16139,7 +16139,7 @@
       </c>
       <c r="I246" s="17"/>
     </row>
-    <row r="247" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:9" ht="15">
       <c r="A247" s="17"/>
       <c r="B247" s="17" t="s">
         <v>21</v>
@@ -16162,7 +16162,7 @@
       </c>
       <c r="I247" s="17"/>
     </row>
-    <row r="248" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:9" ht="15">
       <c r="A248" s="17"/>
       <c r="B248" s="17" t="s">
         <v>21</v>
@@ -16185,7 +16185,7 @@
       </c>
       <c r="I248" s="17"/>
     </row>
-    <row r="249" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:9" ht="15">
       <c r="A249" s="17"/>
       <c r="B249" s="17" t="s">
         <v>21</v>
@@ -16208,7 +16208,7 @@
       </c>
       <c r="I249" s="17"/>
     </row>
-    <row r="250" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:9" ht="15">
       <c r="A250" s="17"/>
       <c r="B250" s="17" t="s">
         <v>21</v>
@@ -16231,7 +16231,7 @@
       </c>
       <c r="I250" s="17"/>
     </row>
-    <row r="251" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:9" ht="15">
       <c r="A251" s="17" t="b">
         <v>0</v>
       </c>
@@ -16250,7 +16250,7 @@
       <c r="H251" s="17"/>
       <c r="I251" s="17"/>
     </row>
-    <row r="252" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:9" ht="15">
       <c r="A252" s="17"/>
       <c r="B252" s="17" t="s">
         <v>21</v>
@@ -16275,7 +16275,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="253" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:9" ht="15">
       <c r="A253" s="17"/>
       <c r="B253" s="17" t="s">
         <v>21</v>
@@ -16298,7 +16298,7 @@
       </c>
       <c r="I253" s="17"/>
     </row>
-    <row r="254" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:9" ht="15">
       <c r="A254" s="17"/>
       <c r="B254" s="17" t="s">
         <v>21</v>
@@ -16321,7 +16321,7 @@
       </c>
       <c r="I254" s="17"/>
     </row>
-    <row r="255" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:9" ht="15">
       <c r="A255" s="17"/>
       <c r="B255" s="17" t="s">
         <v>21</v>
@@ -16344,7 +16344,7 @@
       </c>
       <c r="I255" s="17"/>
     </row>
-    <row r="256" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:9" ht="15">
       <c r="A256" s="17"/>
       <c r="B256" s="17" t="s">
         <v>21</v>
@@ -16367,7 +16367,7 @@
       </c>
       <c r="I256" s="17"/>
     </row>
-    <row r="257" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:9" ht="15">
       <c r="A257" s="17" t="b">
         <v>0</v>
       </c>
@@ -16386,7 +16386,7 @@
       <c r="H257" s="17"/>
       <c r="I257" s="17"/>
     </row>
-    <row r="258" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:9" ht="15">
       <c r="A258" s="17"/>
       <c r="B258" s="17" t="s">
         <v>21</v>
@@ -16411,7 +16411,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="259" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:9" ht="15">
       <c r="A259" s="17"/>
       <c r="B259" s="17" t="s">
         <v>21</v>
@@ -16434,7 +16434,7 @@
       </c>
       <c r="I259" s="17"/>
     </row>
-    <row r="260" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:9" ht="15">
       <c r="A260" s="17" t="b">
         <v>0</v>
       </c>
@@ -16453,7 +16453,7 @@
       <c r="H260" s="17"/>
       <c r="I260" s="17"/>
     </row>
-    <row r="261" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:9" ht="15">
       <c r="A261" s="17" t="b">
         <v>0</v>
       </c>
@@ -16472,7 +16472,7 @@
       <c r="H261" s="17"/>
       <c r="I261" s="17"/>
     </row>
-    <row r="262" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:9" ht="15">
       <c r="A262" s="17" t="b">
         <v>0</v>
       </c>
@@ -16491,7 +16491,7 @@
       <c r="H262" s="17"/>
       <c r="I262" s="17"/>
     </row>
-    <row r="263" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:9" ht="15">
       <c r="A263" s="17"/>
       <c r="B263" s="17" t="s">
         <v>21</v>
@@ -16512,7 +16512,7 @@
       <c r="H263" s="17"/>
       <c r="I263" s="17"/>
     </row>
-    <row r="264" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:9" ht="15">
       <c r="A264" s="17"/>
       <c r="B264" s="17" t="s">
         <v>21</v>
@@ -16535,7 +16535,7 @@
       </c>
       <c r="I264" s="17"/>
     </row>
-    <row r="265" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:9" ht="15">
       <c r="A265" s="17"/>
       <c r="B265" s="17" t="s">
         <v>21</v>
@@ -16558,7 +16558,7 @@
       </c>
       <c r="I265" s="17"/>
     </row>
-    <row r="266" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:9" ht="15">
       <c r="A266" s="17"/>
       <c r="B266" s="17" t="s">
         <v>21</v>
@@ -16581,7 +16581,7 @@
       </c>
       <c r="I266" s="17"/>
     </row>
-    <row r="267" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:9" ht="15">
       <c r="A267" s="17"/>
       <c r="B267" s="17" t="s">
         <v>21</v>
@@ -16604,7 +16604,7 @@
       </c>
       <c r="I267" s="17"/>
     </row>
-    <row r="268" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:9" ht="15">
       <c r="A268" s="17"/>
       <c r="B268" s="17" t="s">
         <v>21</v>
@@ -16627,7 +16627,7 @@
       </c>
       <c r="I268" s="17"/>
     </row>
-    <row r="269" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:9" ht="15">
       <c r="A269" s="17"/>
       <c r="B269" s="17" t="s">
         <v>21</v>
@@ -16650,7 +16650,7 @@
       </c>
       <c r="I269" s="17"/>
     </row>
-    <row r="270" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:9" ht="15">
       <c r="A270" s="17"/>
       <c r="B270" s="17" t="s">
         <v>21</v>
@@ -16673,7 +16673,7 @@
       </c>
       <c r="I270" s="17"/>
     </row>
-    <row r="271" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:9" ht="15">
       <c r="A271" s="17"/>
       <c r="B271" s="17" t="s">
         <v>21</v>
@@ -16696,7 +16696,7 @@
       </c>
       <c r="I271" s="17"/>
     </row>
-    <row r="272" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:9" ht="15">
       <c r="A272" s="17"/>
       <c r="B272" s="17" t="s">
         <v>21</v>
@@ -16719,7 +16719,7 @@
       </c>
       <c r="I272" s="17"/>
     </row>
-    <row r="273" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:9" ht="15">
       <c r="A273" s="17"/>
       <c r="B273" s="17" t="s">
         <v>21</v>
@@ -16742,7 +16742,7 @@
       </c>
       <c r="I273" s="17"/>
     </row>
-    <row r="274" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:9" ht="15">
       <c r="A274" s="17" t="b">
         <v>0</v>
       </c>
@@ -16761,7 +16761,7 @@
       <c r="H274" s="17"/>
       <c r="I274" s="17"/>
     </row>
-    <row r="275" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:9" ht="15">
       <c r="A275" s="17"/>
       <c r="B275" s="17" t="s">
         <v>21</v>
@@ -16784,7 +16784,7 @@
       </c>
       <c r="I275" s="17"/>
     </row>
-    <row r="276" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:9" ht="15">
       <c r="A276" s="17" t="b">
         <v>0</v>
       </c>
@@ -16803,7 +16803,7 @@
       <c r="H276" s="17"/>
       <c r="I276" s="17"/>
     </row>
-    <row r="277" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:9" ht="15">
       <c r="A277" s="17"/>
       <c r="B277" s="17" t="s">
         <v>21</v>
@@ -16828,7 +16828,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="278" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:9" ht="15">
       <c r="A278" s="17"/>
       <c r="B278" s="17" t="s">
         <v>21</v>
@@ -16851,7 +16851,7 @@
       </c>
       <c r="I278" s="17"/>
     </row>
-    <row r="279" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:9" ht="15">
       <c r="A279" s="17"/>
       <c r="B279" s="17" t="s">
         <v>21</v>
@@ -16874,7 +16874,7 @@
       </c>
       <c r="I279" s="17"/>
     </row>
-    <row r="280" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:9" ht="15">
       <c r="A280" s="17"/>
       <c r="B280" s="17" t="s">
         <v>21</v>
@@ -16897,7 +16897,7 @@
       </c>
       <c r="I280" s="17"/>
     </row>
-    <row r="281" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:9" ht="15">
       <c r="A281" s="17"/>
       <c r="B281" s="17" t="s">
         <v>21</v>
@@ -16920,7 +16920,7 @@
       </c>
       <c r="I281" s="17"/>
     </row>
-    <row r="282" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:9" ht="15">
       <c r="A282" s="17"/>
       <c r="B282" s="17" t="s">
         <v>21</v>
@@ -16943,7 +16943,7 @@
       </c>
       <c r="I282" s="17"/>
     </row>
-    <row r="283" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:9" ht="15">
       <c r="A283" s="17"/>
       <c r="B283" s="17" t="s">
         <v>21</v>
@@ -16966,7 +16966,7 @@
       </c>
       <c r="I283" s="17"/>
     </row>
-    <row r="284" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:9" ht="15">
       <c r="A284" s="17"/>
       <c r="B284" s="17" t="s">
         <v>21</v>
@@ -16989,7 +16989,7 @@
       </c>
       <c r="I284" s="17"/>
     </row>
-    <row r="285" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:9" ht="15">
       <c r="A285" s="17"/>
       <c r="B285" s="17" t="s">
         <v>21</v>
@@ -17012,7 +17012,7 @@
       </c>
       <c r="I285" s="17"/>
     </row>
-    <row r="286" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:9" ht="15">
       <c r="A286" s="17"/>
       <c r="B286" s="17" t="s">
         <v>21</v>
@@ -17035,7 +17035,7 @@
       </c>
       <c r="I286" s="17"/>
     </row>
-    <row r="287" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:9" ht="15">
       <c r="A287" s="17"/>
       <c r="B287" s="17" t="s">
         <v>21</v>
@@ -17058,7 +17058,7 @@
       </c>
       <c r="I287" s="17"/>
     </row>
-    <row r="288" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:9" ht="15">
       <c r="A288" s="17" t="b">
         <v>0</v>
       </c>
@@ -17077,7 +17077,7 @@
       <c r="H288" s="17"/>
       <c r="I288" s="17"/>
     </row>
-    <row r="289" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:9" ht="15">
       <c r="A289" s="17"/>
       <c r="B289" s="17" t="s">
         <v>21</v>
@@ -17100,7 +17100,7 @@
       </c>
       <c r="I289" s="17"/>
     </row>
-    <row r="290" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:9" ht="15">
       <c r="A290" s="17" t="b">
         <v>0</v>
       </c>
@@ -17119,7 +17119,7 @@
       <c r="H290" s="17"/>
       <c r="I290" s="17"/>
     </row>
-    <row r="291" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:9" ht="15">
       <c r="A291" s="17"/>
       <c r="B291" s="17" t="s">
         <v>21</v>
@@ -17140,7 +17140,7 @@
       <c r="H291" s="17"/>
       <c r="I291" s="17"/>
     </row>
-    <row r="292" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:9" ht="15">
       <c r="A292" s="17" t="b">
         <v>0</v>
       </c>
@@ -17159,7 +17159,7 @@
       <c r="H292" s="17"/>
       <c r="I292" s="17"/>
     </row>
-    <row r="293" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:9" ht="15">
       <c r="A293" s="17"/>
       <c r="B293" s="17" t="s">
         <v>21</v>
@@ -17180,7 +17180,7 @@
       <c r="H293" s="17"/>
       <c r="I293" s="17"/>
     </row>
-    <row r="294" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:9" ht="15">
       <c r="A294" s="17" t="b">
         <v>0</v>
       </c>
@@ -17199,7 +17199,7 @@
       <c r="H294" s="17"/>
       <c r="I294" s="17"/>
     </row>
-    <row r="295" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:9" ht="15">
       <c r="A295" s="17"/>
       <c r="B295" s="17" t="s">
         <v>21</v>
@@ -17220,7 +17220,7 @@
       <c r="H295" s="17"/>
       <c r="I295" s="17"/>
     </row>
-    <row r="296" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:9" ht="15">
       <c r="A296" s="17" t="b">
         <v>0</v>
       </c>
@@ -17239,7 +17239,7 @@
       <c r="H296" s="17"/>
       <c r="I296" s="17"/>
     </row>
-    <row r="297" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:9" ht="15">
       <c r="A297" s="17"/>
       <c r="B297" s="17" t="s">
         <v>21</v>
@@ -17262,7 +17262,7 @@
       </c>
       <c r="I297" s="17"/>
     </row>
-    <row r="298" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:9" ht="15">
       <c r="A298" s="17" t="b">
         <v>0</v>
       </c>
@@ -17281,7 +17281,7 @@
       <c r="H298" s="17"/>
       <c r="I298" s="17"/>
     </row>
-    <row r="299" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:9" ht="15">
       <c r="A299" s="17"/>
       <c r="B299" s="17" t="s">
         <v>21</v>
@@ -17306,7 +17306,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="300" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:9" ht="15">
       <c r="A300" s="17"/>
       <c r="B300" s="17" t="s">
         <v>21</v>
@@ -17329,7 +17329,7 @@
       </c>
       <c r="I300" s="17"/>
     </row>
-    <row r="301" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:9" ht="15">
       <c r="A301" s="17"/>
       <c r="B301" s="17" t="s">
         <v>21</v>
@@ -17352,7 +17352,7 @@
       </c>
       <c r="I301" s="17"/>
     </row>
-    <row r="302" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:9" ht="15">
       <c r="A302" s="17"/>
       <c r="B302" s="17" t="s">
         <v>21</v>
@@ -17375,7 +17375,7 @@
       </c>
       <c r="I302" s="17"/>
     </row>
-    <row r="303" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:9" ht="15">
       <c r="A303" s="17"/>
       <c r="B303" s="17" t="s">
         <v>21</v>
@@ -17398,7 +17398,7 @@
       </c>
       <c r="I303" s="17"/>
     </row>
-    <row r="304" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:9" ht="15">
       <c r="A304" s="17"/>
       <c r="B304" s="17" t="s">
         <v>21</v>
@@ -17421,7 +17421,7 @@
       </c>
       <c r="I304" s="17"/>
     </row>
-    <row r="305" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:9" ht="15">
       <c r="A305" s="17"/>
       <c r="B305" s="17" t="s">
         <v>21</v>
@@ -17444,7 +17444,7 @@
       </c>
       <c r="I305" s="17"/>
     </row>
-    <row r="306" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:9" ht="15">
       <c r="A306" s="17"/>
       <c r="B306" s="17" t="s">
         <v>21</v>
@@ -17467,7 +17467,7 @@
       </c>
       <c r="I306" s="17"/>
     </row>
-    <row r="307" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:9" ht="15">
       <c r="A307" s="17"/>
       <c r="B307" s="17" t="s">
         <v>21</v>
@@ -17490,7 +17490,7 @@
       </c>
       <c r="I307" s="17"/>
     </row>
-    <row r="308" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:9" ht="15">
       <c r="A308" s="17" t="b">
         <v>0</v>
       </c>
@@ -17509,7 +17509,7 @@
       <c r="H308" s="17"/>
       <c r="I308" s="17"/>
     </row>
-    <row r="309" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:9" ht="15">
       <c r="A309" s="17"/>
       <c r="B309" s="17" t="s">
         <v>21</v>
@@ -17532,7 +17532,7 @@
       </c>
       <c r="I309" s="17"/>
     </row>
-    <row r="310" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:9" ht="15">
       <c r="A310" s="17"/>
       <c r="B310" s="17" t="s">
         <v>21</v>
@@ -17555,7 +17555,7 @@
       </c>
       <c r="I310" s="17"/>
     </row>
-    <row r="311" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:9" ht="15">
       <c r="A311" s="17"/>
       <c r="B311" s="17" t="s">
         <v>21</v>
@@ -17578,7 +17578,7 @@
       </c>
       <c r="I311" s="17"/>
     </row>
-    <row r="312" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:9" ht="15">
       <c r="A312" s="17"/>
       <c r="B312" s="17" t="s">
         <v>21</v>
@@ -17601,7 +17601,7 @@
       </c>
       <c r="I312" s="17"/>
     </row>
-    <row r="313" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:9" ht="15">
       <c r="A313" s="17" t="b">
         <v>0</v>
       </c>
@@ -17620,7 +17620,7 @@
       <c r="H313" s="17"/>
       <c r="I313" s="17"/>
     </row>
-    <row r="314" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:9" ht="15">
       <c r="A314" s="17"/>
       <c r="B314" s="17" t="s">
         <v>21</v>
@@ -17643,7 +17643,7 @@
       </c>
       <c r="I314" s="17"/>
     </row>
-    <row r="315" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:9" ht="15">
       <c r="A315" s="17"/>
       <c r="B315" s="17" t="s">
         <v>21</v>
@@ -17666,7 +17666,7 @@
       </c>
       <c r="I315" s="17"/>
     </row>
-    <row r="316" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:9" ht="15">
       <c r="A316" s="17"/>
       <c r="B316" s="17" t="s">
         <v>21</v>
@@ -17691,7 +17691,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="317" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:9" ht="15">
       <c r="A317" s="17" t="b">
         <v>0</v>
       </c>
@@ -17710,7 +17710,7 @@
       <c r="H317" s="17"/>
       <c r="I317" s="17"/>
     </row>
-    <row r="318" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:9" ht="15">
       <c r="A318" s="17"/>
       <c r="B318" s="17" t="s">
         <v>21</v>
@@ -17735,7 +17735,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="319" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:9" ht="15">
       <c r="A319" s="17"/>
       <c r="B319" s="17" t="s">
         <v>21</v>
@@ -17758,7 +17758,7 @@
       </c>
       <c r="I319" s="17"/>
     </row>
-    <row r="320" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:9" ht="15">
       <c r="A320" s="17" t="b">
         <v>0</v>
       </c>
@@ -17777,7 +17777,7 @@
       <c r="H320" s="17"/>
       <c r="I320" s="17"/>
     </row>
-    <row r="321" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:9" ht="15">
       <c r="A321" s="17"/>
       <c r="B321" s="17" t="s">
         <v>21</v>
@@ -17798,7 +17798,7 @@
       <c r="H321" s="17"/>
       <c r="I321" s="17"/>
     </row>
-    <row r="322" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:9" ht="15">
       <c r="A322" s="17"/>
       <c r="B322" s="17" t="s">
         <v>21</v>
@@ -17819,7 +17819,7 @@
       <c r="H322" s="17"/>
       <c r="I322" s="17"/>
     </row>
-    <row r="323" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:9" ht="15">
       <c r="A323" s="17"/>
       <c r="B323" s="17" t="s">
         <v>21</v>
@@ -17842,7 +17842,7 @@
       </c>
       <c r="I323" s="17"/>
     </row>
-    <row r="324" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:9" ht="15">
       <c r="A324" s="17" t="b">
         <v>0</v>
       </c>
@@ -17861,7 +17861,7 @@
       <c r="H324" s="17"/>
       <c r="I324" s="17"/>
     </row>
-    <row r="325" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:9" ht="15">
       <c r="A325" s="17" t="b">
         <v>0</v>
       </c>
@@ -17880,7 +17880,7 @@
       <c r="H325" s="17"/>
       <c r="I325" s="17"/>
     </row>
-    <row r="326" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:9" ht="15">
       <c r="A326" s="17"/>
       <c r="B326" s="17" t="s">
         <v>21</v>
@@ -17905,7 +17905,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="327" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:9" ht="15">
       <c r="A327" s="17"/>
       <c r="B327" s="17" t="s">
         <v>21</v>
@@ -17930,7 +17930,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:9">
       <c r="A328" t="b">
         <v>0</v>
       </c>
@@ -17944,7 +17944,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:9">
       <c r="B329" t="s">
         <v>21</v>
       </c>
@@ -17967,7 +17967,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:9">
       <c r="B330" t="s">
         <v>21</v>
       </c>
@@ -17987,7 +17987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:9">
       <c r="B331" t="s">
         <v>21</v>
       </c>
@@ -18007,7 +18007,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:9">
       <c r="B332" t="s">
         <v>21</v>
       </c>
@@ -18027,7 +18027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:9">
       <c r="B333" t="s">
         <v>21</v>
       </c>
@@ -18044,7 +18044,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:9">
       <c r="B334" t="s">
         <v>21</v>
       </c>
@@ -18067,7 +18067,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:9">
       <c r="B335" t="s">
         <v>21</v>
       </c>
@@ -18090,7 +18090,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:9">
       <c r="A336" t="b">
         <v>0</v>
       </c>
@@ -18104,7 +18104,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="337" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:16">
       <c r="B337" t="s">
         <v>21</v>
       </c>
@@ -18127,7 +18127,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="338" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:16">
       <c r="B338" t="s">
         <v>21</v>
       </c>
@@ -18150,7 +18150,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="339" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:16">
       <c r="B339" t="s">
         <v>21</v>
       </c>
@@ -18170,7 +18170,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="340" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:16">
       <c r="B340" t="s">
         <v>21</v>
       </c>
@@ -18190,7 +18190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:16">
       <c r="B341" t="s">
         <v>21</v>
       </c>
@@ -18207,7 +18207,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="342" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:16">
       <c r="A342" s="1" t="b">
         <v>0</v>
       </c>
@@ -18233,7 +18233,7 @@
       <c r="O342" s="1"/>
       <c r="P342" s="1"/>
     </row>
-    <row r="343" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:16">
       <c r="A343" s="1"/>
       <c r="B343" t="s">
         <v>21</v>
@@ -18262,7 +18262,7 @@
       <c r="O343" s="1"/>
       <c r="P343" s="1"/>
     </row>
-    <row r="344" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:16" ht="15">
       <c r="A344" s="17"/>
       <c r="B344" t="s">
         <v>21</v>
@@ -18301,7 +18301,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="345" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:16">
       <c r="A345" t="b">
         <v>0</v>
       </c>
@@ -18315,7 +18315,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="346" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:16">
       <c r="B346" t="s">
         <v>21</v>
       </c>
@@ -18335,7 +18335,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="347" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:16">
       <c r="A347" t="b">
         <v>0</v>
       </c>
@@ -18349,7 +18349,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="348" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:16">
       <c r="B348" t="s">
         <v>21</v>
       </c>
@@ -18369,7 +18369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:16">
       <c r="B349" t="s">
         <v>21</v>
       </c>
@@ -18389,7 +18389,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="350" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:16">
       <c r="B350" t="s">
         <v>21</v>
       </c>
@@ -18409,7 +18409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:16">
       <c r="B351" t="s">
         <v>21</v>
       </c>
@@ -18429,7 +18429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:16">
       <c r="B352" t="s">
         <v>21</v>
       </c>
@@ -18449,7 +18449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:18">
       <c r="B353" t="s">
         <v>21</v>
       </c>
@@ -18469,7 +18469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:18">
       <c r="B354" t="s">
         <v>21</v>
       </c>
@@ -18489,7 +18489,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="355" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:18">
       <c r="B355" t="s">
         <v>21</v>
       </c>
@@ -18509,7 +18509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:18">
       <c r="B356" t="s">
         <v>21</v>
       </c>
@@ -18529,7 +18529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:18">
       <c r="A357" t="b">
         <v>0</v>
       </c>
@@ -18543,7 +18543,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="358" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:18">
       <c r="B358" t="s">
         <v>21</v>
       </c>
@@ -18563,7 +18563,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="359" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:18">
       <c r="B359" t="s">
         <v>21</v>
       </c>
@@ -18583,7 +18583,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="360" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:18" s="1" customFormat="1">
       <c r="A360" t="b">
         <v>0</v>
       </c>
@@ -18599,7 +18599,7 @@
       <c r="H360" s="4"/>
       <c r="I360" s="4"/>
     </row>
-    <row r="361" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:18" s="1" customFormat="1">
       <c r="B361" t="s">
         <v>21</v>
       </c>
@@ -18625,7 +18625,7 @@
       <c r="J361"/>
       <c r="K361"/>
     </row>
-    <row r="362" spans="1:18" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:18" s="1" customFormat="1" ht="15">
       <c r="A362" s="17"/>
       <c r="B362" t="s">
         <v>22</v>
@@ -18666,7 +18666,7 @@
       <c r="Q362"/>
       <c r="R362"/>
     </row>
-    <row r="363" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:18">
       <c r="A363" t="b">
         <v>0</v>
       </c>
@@ -18680,7 +18680,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="364" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:18">
       <c r="B364" t="s">
         <v>21</v>
       </c>
@@ -18700,7 +18700,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="365" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:18">
       <c r="A365" t="b">
         <v>0</v>
       </c>
@@ -18714,7 +18714,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="366" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:18">
       <c r="B366" t="s">
         <v>21</v>
       </c>
@@ -18753,17 +18753,17 @@
       <selection activeCell="A17" sqref="A17:A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.33203125" customWidth="1"/>
-    <col min="5" max="5" width="16.109375" customWidth="1"/>
+    <col min="5" max="5" width="16.1640625" customWidth="1"/>
     <col min="8" max="8" width="22.33203125" customWidth="1"/>
-    <col min="17" max="17" width="24.44140625" customWidth="1"/>
+    <col min="17" max="17" width="24.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21">
       <c r="A1" t="s">
         <v>441</v>
       </c>
@@ -18774,7 +18774,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" s="30" customFormat="1">
       <c r="A2" s="30" t="s">
         <v>589</v>
       </c>
@@ -18788,7 +18788,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" s="30" customFormat="1">
       <c r="A3" s="30" t="s">
         <v>592</v>
       </c>
@@ -18802,7 +18802,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" s="30" customFormat="1">
       <c r="A4" s="30" t="s">
         <v>594</v>
       </c>
@@ -18816,7 +18816,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" s="30" customFormat="1">
       <c r="A5" s="30" t="s">
         <v>596</v>
       </c>
@@ -18830,7 +18830,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" s="30" customFormat="1">
       <c r="A6" s="30" t="s">
         <v>598</v>
       </c>
@@ -18844,7 +18844,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" s="30" customFormat="1">
       <c r="A7" s="30" t="s">
         <v>440</v>
       </c>
@@ -18858,7 +18858,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" s="30" customFormat="1">
       <c r="A8" s="30" t="s">
         <v>601</v>
       </c>
@@ -18872,7 +18872,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" s="30" customFormat="1">
       <c r="A9" s="30" t="s">
         <v>603</v>
       </c>
@@ -18886,7 +18886,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21">
       <c r="A11" t="s">
         <v>569</v>
       </c>
@@ -18900,7 +18900,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21">
       <c r="A12" t="s">
         <v>454</v>
       </c>
@@ -18914,7 +18914,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21">
       <c r="A13" t="s">
         <v>452</v>
       </c>
@@ -18925,8 +18925,8 @@
         <v>544</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" s="30" customFormat="1"/>
+    <row r="16" spans="1:21">
       <c r="A16" t="s">
         <v>547</v>
       </c>
@@ -18952,7 +18952,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17">
       <c r="A17" t="s">
         <v>548</v>
       </c>
@@ -18993,7 +18993,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -19034,7 +19034,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17">
       <c r="A19" t="s">
         <v>542</v>
       </c>
@@ -19066,7 +19066,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17">
       <c r="A20" t="s">
         <v>550</v>
       </c>
@@ -19098,7 +19098,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17">
       <c r="A21" t="s">
         <v>549</v>
       </c>
@@ -19127,7 +19127,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17">
       <c r="A22" t="s">
         <v>551</v>
       </c>
@@ -19159,7 +19159,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17">
       <c r="A23" t="s">
         <v>552</v>
       </c>
@@ -19179,7 +19179,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17">
       <c r="A24" t="s">
         <v>682</v>
       </c>
@@ -19202,7 +19202,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17">
       <c r="L25" s="1" t="s">
         <v>558</v>
       </c>
@@ -19213,7 +19213,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17">
       <c r="L26" s="1" t="s">
         <v>539</v>
       </c>
@@ -19221,7 +19221,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17">
       <c r="L27" s="1" t="s">
         <v>541</v>
       </c>

--- a/projects/office_calibration.xlsx
+++ b/projects/office_calibration.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24709"/>
-  <workbookPr autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23260" windowHeight="13180" tabRatio="562" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="13176" tabRatio="562" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="9" r:id="rId1"/>
@@ -32,11 +32,6 @@
     <definedName name="Workflow">Lookups!$E$12:$E$13</definedName>
   </definedNames>
   <calcPr calcId="145621" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -2443,75 +2438,6 @@
     <t>../Cofee-measures</t>
   </si>
   <si>
-    <t>calibration_reports.electric_bill_1_peak_demand_modeled</t>
-  </si>
-  <si>
-    <t>calibration_reports.electric_bill_1_period_1_consumption_modeled</t>
-  </si>
-  <si>
-    <t>calibration_reports.electric_bill_1_period_2_consumption_modeled</t>
-  </si>
-  <si>
-    <t>calibration_reports.electric_bill_1_period_3_consumption_modeled</t>
-  </si>
-  <si>
-    <t>calibration_reports.electric_bill_1_period_4_consumption_modeled</t>
-  </si>
-  <si>
-    <t>calibration_reports.electric_bill_1_period_5_consumption_modeled</t>
-  </si>
-  <si>
-    <t>calibration_reports.electric_bill_1_period_6_consumption_modeled</t>
-  </si>
-  <si>
-    <t>calibration_reports.electric_bill_1_period_7_consumption_modeled</t>
-  </si>
-  <si>
-    <t>calibration_reports.electric_bill_1_period_8_consumption_modeled</t>
-  </si>
-  <si>
-    <t>calibration_reports.electric_bill_1_period_9_consumption_modeled</t>
-  </si>
-  <si>
-    <t>calibration_reports.electric_bill_1_period_10_consumption_modeled</t>
-  </si>
-  <si>
-    <t>calibration_reports.electric_bill_1_period_11_consumption_modeled</t>
-  </si>
-  <si>
-    <t>calibration_reports.gas_bill_2_consumption_modeled</t>
-  </si>
-  <si>
-    <t>calibration_reports.gas_bill_2_period_1_consumption_modeled</t>
-  </si>
-  <si>
-    <t>calibration_reports.gas_bill_2_period_2_consumption_modeled</t>
-  </si>
-  <si>
-    <t>calibration_reports.gas_bill_2_period_3_consumption_modeled</t>
-  </si>
-  <si>
-    <t>calibration_reports.gas_bill_2_period_4_consumption_modeled</t>
-  </si>
-  <si>
-    <t>calibration_reports.gas_bill_2_period_5_consumption_modeled</t>
-  </si>
-  <si>
-    <t>calibration_reports.gas_bill_2_period_6_consumption_modeled</t>
-  </si>
-  <si>
-    <t>calibration_reports.gas_bill_2_period_7_consumption_modeled</t>
-  </si>
-  <si>
-    <t>calibration_reports.gas_bill_2_period_8_consumption_modeled</t>
-  </si>
-  <si>
-    <t>calibration_reports.gas_bill_2_period_9_consumption_modeled</t>
-  </si>
-  <si>
-    <t>calibration_reports.electric_bill_1_consumption_modeled</t>
-  </si>
-  <si>
     <t>exit_on_guideline14</t>
   </si>
   <si>
@@ -2519,6 +2445,75 @@
   </si>
   <si>
     <t>../lib/calibration_data</t>
+  </si>
+  <si>
+    <t>calibration_reports.electric_bill_consumption_modeled</t>
+  </si>
+  <si>
+    <t>calibration_reports.electric_bill_peak_demand_modeled</t>
+  </si>
+  <si>
+    <t>calibration_reports.electric_bill_period_1_consumption_modeled</t>
+  </si>
+  <si>
+    <t>calibration_reports.electric_bill_period_2_consumption_modeled</t>
+  </si>
+  <si>
+    <t>calibration_reports.electric_bill_period_3_consumption_modeled</t>
+  </si>
+  <si>
+    <t>calibration_reports.electric_bill_period_4_consumption_modeled</t>
+  </si>
+  <si>
+    <t>calibration_reports.electric_bill_period_5_consumption_modeled</t>
+  </si>
+  <si>
+    <t>calibration_reports.electric_bill_period_6_consumption_modeled</t>
+  </si>
+  <si>
+    <t>calibration_reports.electric_bill_period_7_consumption_modeled</t>
+  </si>
+  <si>
+    <t>calibration_reports.electric_bill_period_8_consumption_modeled</t>
+  </si>
+  <si>
+    <t>calibration_reports.electric_bill_period_9_consumption_modeled</t>
+  </si>
+  <si>
+    <t>calibration_reports.electric_bill_period_10_consumption_modeled</t>
+  </si>
+  <si>
+    <t>calibration_reports.electric_bill_period_11_consumption_modeled</t>
+  </si>
+  <si>
+    <t>calibration_reports.gas_bill_consumption_modeled</t>
+  </si>
+  <si>
+    <t>calibration_reports.gas_bill_period_1_consumption_modeled</t>
+  </si>
+  <si>
+    <t>calibration_reports.gas_bill_period_2_consumption_modeled</t>
+  </si>
+  <si>
+    <t>calibration_reports.gas_bill_period_3_consumption_modeled</t>
+  </si>
+  <si>
+    <t>calibration_reports.gas_bill_period_4_consumption_modeled</t>
+  </si>
+  <si>
+    <t>calibration_reports.gas_bill_period_5_consumption_modeled</t>
+  </si>
+  <si>
+    <t>calibration_reports.gas_bill_period_6_consumption_modeled</t>
+  </si>
+  <si>
+    <t>calibration_reports.gas_bill_period_7_consumption_modeled</t>
+  </si>
+  <si>
+    <t>calibration_reports.gas_bill_period_8_consumption_modeled</t>
+  </si>
+  <si>
+    <t>calibration_reports.gas_bill_period_9_consumption_modeled</t>
   </si>
 </sst>
 </file>
@@ -6638,17 +6633,17 @@
       <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="81.83203125" customWidth="1"/>
+    <col min="1" max="1" width="81.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="28">
+    <row r="1" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="36" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="28">
+    <row r="2" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="36" t="s">
         <v>41</v>
       </c>
@@ -6656,11 +6651,6 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -6668,21 +6658,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+    <sheetView topLeftCell="A26" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
       <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="30.33203125" style="26" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29" style="1" customWidth="1"/>
-    <col min="4" max="4" width="33.1640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="33.109375" style="2" customWidth="1"/>
     <col min="5" max="5" width="61.6640625" style="1" customWidth="1"/>
     <col min="6" max="16384" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="19"/>
       <c r="B1" s="28"/>
       <c r="C1" s="19"/>
@@ -6691,7 +6681,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="12" customFormat="1">
+    <row r="2" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>435</v>
       </c>
@@ -6700,7 +6690,7 @@
       <c r="D2" s="13"/>
       <c r="E2" s="13"/>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>436</v>
       </c>
@@ -6711,7 +6701,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="28">
+    <row r="4" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>456</v>
       </c>
@@ -6722,7 +6712,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="42">
+    <row r="5" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>469</v>
       </c>
@@ -6733,7 +6723,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="46" customHeight="1">
+    <row r="6" spans="1:5" ht="46.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>470</v>
       </c>
@@ -6744,7 +6734,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>442</v>
       </c>
@@ -6763,7 +6753,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="28">
+    <row r="8" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>443</v>
       </c>
@@ -6782,7 +6772,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>458</v>
       </c>
@@ -6795,7 +6785,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="12" customFormat="1">
+    <row r="11" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
         <v>28</v>
       </c>
@@ -6804,7 +6794,7 @@
       <c r="D11" s="13"/>
       <c r="E11" s="13"/>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>39</v>
       </c>
@@ -6815,7 +6805,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>25</v>
       </c>
@@ -6826,7 +6816,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>26</v>
       </c>
@@ -6837,7 +6827,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>462</v>
       </c>
@@ -6848,7 +6838,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>463</v>
       </c>
@@ -6859,7 +6849,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>464</v>
       </c>
@@ -6870,7 +6860,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>466</v>
       </c>
@@ -6881,7 +6871,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="2" customFormat="1" ht="42">
+    <row r="20" spans="1:5" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
         <v>27</v>
       </c>
@@ -6894,7 +6884,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>451</v>
       </c>
@@ -6902,11 +6892,11 @@
         <v>542</v>
       </c>
     </row>
-    <row r="22" spans="1:5" s="31" customFormat="1">
+    <row r="22" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B22" s="26"/>
       <c r="D22" s="2"/>
     </row>
-    <row r="23" spans="1:5" s="2" customFormat="1" ht="42">
+    <row r="23" spans="1:5" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A23" s="11" t="s">
         <v>450</v>
       </c>
@@ -6923,7 +6913,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="31" t="s">
         <v>538</v>
       </c>
@@ -6935,7 +6925,7 @@
       </c>
       <c r="D24" s="35"/>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="31" t="s">
         <v>543</v>
       </c>
@@ -6947,7 +6937,7 @@
       </c>
       <c r="D25" s="35"/>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="31" t="s">
         <v>557</v>
       </c>
@@ -6959,7 +6949,7 @@
       </c>
       <c r="D26" s="35"/>
     </row>
-    <row r="27" spans="1:5" s="31" customFormat="1">
+    <row r="27" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="31" t="s">
         <v>558</v>
       </c>
@@ -6971,7 +6961,7 @@
       </c>
       <c r="D27" s="35"/>
     </row>
-    <row r="28" spans="1:5" s="31" customFormat="1">
+    <row r="28" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="31" t="s">
         <v>539</v>
       </c>
@@ -6981,7 +6971,7 @@
       <c r="C28" s="30"/>
       <c r="D28" s="35"/>
     </row>
-    <row r="29" spans="1:5" s="31" customFormat="1">
+    <row r="29" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="31" t="s">
         <v>541</v>
       </c>
@@ -6993,44 +6983,44 @@
       </c>
       <c r="D29" s="35"/>
     </row>
-    <row r="30" spans="1:5" s="31" customFormat="1">
+    <row r="30" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="31" t="s">
-        <v>823</v>
+        <v>800</v>
       </c>
       <c r="B30" s="30">
         <v>1</v>
       </c>
       <c r="C30" s="34" t="s">
-        <v>824</v>
+        <v>801</v>
       </c>
       <c r="D30" s="35"/>
     </row>
-    <row r="31" spans="1:5" s="31" customFormat="1">
+    <row r="31" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B31" s="26"/>
       <c r="C31" s="34"/>
       <c r="D31" s="35"/>
     </row>
-    <row r="32" spans="1:5" s="31" customFormat="1">
+    <row r="32" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B32" s="26"/>
       <c r="C32" s="34"/>
       <c r="D32" s="35"/>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="31"/>
       <c r="C33" s="34"/>
       <c r="D33" s="35"/>
     </row>
-    <row r="34" spans="1:5" s="31" customFormat="1">
+    <row r="34" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B34" s="26"/>
       <c r="C34" s="34"/>
       <c r="D34" s="35"/>
     </row>
-    <row r="35" spans="1:5" s="31" customFormat="1">
+    <row r="35" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B35" s="26"/>
       <c r="C35" s="26"/>
       <c r="D35" s="2"/>
     </row>
-    <row r="36" spans="1:5" s="2" customFormat="1" ht="28">
+    <row r="36" spans="1:5" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A36" s="11" t="s">
         <v>33</v>
       </c>
@@ -7043,7 +7033,7 @@
       <c r="D36" s="11"/>
       <c r="E36" s="13"/>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>29</v>
       </c>
@@ -7051,7 +7041,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="39" spans="1:5" s="2" customFormat="1" ht="28">
+    <row r="39" spans="1:5" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A39" s="11" t="s">
         <v>30</v>
       </c>
@@ -7068,7 +7058,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="40" spans="1:5" s="31" customFormat="1">
+    <row r="40" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="31" t="s">
         <v>32</v>
       </c>
@@ -7080,7 +7070,7 @@
       </c>
       <c r="E40" s="2"/>
     </row>
-    <row r="42" spans="1:5" s="2" customFormat="1" ht="56">
+    <row r="42" spans="1:5" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A42" s="11" t="s">
         <v>35</v>
       </c>
@@ -7095,7 +7085,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="31" t="s">
         <v>703</v>
       </c>
@@ -7103,10 +7093,10 @@
         <v>702</v>
       </c>
       <c r="C43" s="31" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" s="31" customFormat="1">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B44" s="26"/>
       <c r="D44" s="2"/>
     </row>
@@ -7124,11 +7114,6 @@
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -7136,37 +7121,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y223"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+    <sheetView topLeftCell="D1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="120" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="P50" sqref="P50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.1640625" style="31" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="31" customWidth="1"/>
     <col min="2" max="2" width="47" style="31" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="47" style="31" customWidth="1"/>
-    <col min="4" max="4" width="39.1640625" style="31" customWidth="1"/>
-    <col min="5" max="5" width="24.1640625" style="31" customWidth="1"/>
+    <col min="4" max="4" width="39.109375" style="31" customWidth="1"/>
+    <col min="5" max="5" width="24.109375" style="31" customWidth="1"/>
     <col min="6" max="6" width="9.6640625" style="31" customWidth="1"/>
     <col min="7" max="7" width="9.33203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5" style="4" customWidth="1"/>
-    <col min="9" max="9" width="8.83203125" style="4" customWidth="1"/>
-    <col min="10" max="10" width="7.1640625" style="31" customWidth="1"/>
-    <col min="11" max="11" width="8.1640625" style="31" customWidth="1"/>
+    <col min="8" max="8" width="15.44140625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="8.77734375" style="4" customWidth="1"/>
+    <col min="10" max="10" width="7.109375" style="31" customWidth="1"/>
+    <col min="11" max="11" width="8.109375" style="31" customWidth="1"/>
     <col min="12" max="12" width="6.6640625" style="31" customWidth="1"/>
-    <col min="13" max="14" width="7.83203125" style="31" customWidth="1"/>
-    <col min="15" max="15" width="11.5" style="31"/>
-    <col min="16" max="16" width="11.5" style="31" customWidth="1"/>
+    <col min="13" max="14" width="7.77734375" style="31" customWidth="1"/>
+    <col min="15" max="15" width="11.44140625" style="31"/>
+    <col min="16" max="16" width="11.44140625" style="31" customWidth="1"/>
     <col min="17" max="17" width="23" style="31" customWidth="1"/>
     <col min="18" max="18" width="27.6640625" style="31" customWidth="1"/>
-    <col min="19" max="19" width="46.1640625" style="31" customWidth="1"/>
-    <col min="20" max="22" width="11.5" style="31"/>
+    <col min="19" max="19" width="46.109375" style="31" customWidth="1"/>
+    <col min="20" max="22" width="11.44140625" style="31"/>
     <col min="23" max="23" width="13.33203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="11.5" style="31"/>
+    <col min="24" max="16384" width="11.44140625" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="18">
+    <row r="1" spans="1:25" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="5"/>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -7201,7 +7186,7 @@
       <c r="X1" s="49"/>
       <c r="Y1" s="49"/>
     </row>
-    <row r="2" spans="1:25" s="8" customFormat="1" ht="15">
+    <row r="2" spans="1:25" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>3</v>
       </c>
@@ -7217,7 +7202,7 @@
       <c r="H2" s="9"/>
       <c r="I2" s="9"/>
     </row>
-    <row r="3" spans="1:25" s="14" customFormat="1" ht="45">
+    <row r="3" spans="1:25" s="14" customFormat="1" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
         <v>1</v>
       </c>
@@ -7291,7 +7276,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:25" s="38" customFormat="1">
+    <row r="4" spans="1:25" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="38" t="b">
         <v>1</v>
       </c>
@@ -7310,7 +7295,7 @@
       <c r="G4" s="39"/>
       <c r="H4" s="39"/>
     </row>
-    <row r="5" spans="1:25" s="30" customFormat="1">
+    <row r="5" spans="1:25" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B5" s="30" t="s">
         <v>21</v>
       </c>
@@ -7327,7 +7312,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="6" spans="1:25" s="30" customFormat="1">
+    <row r="6" spans="1:25" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B6" s="30" t="s">
         <v>21</v>
       </c>
@@ -7344,7 +7329,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="7" spans="1:25" s="38" customFormat="1">
+    <row r="7" spans="1:25" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="38" t="b">
         <v>1</v>
       </c>
@@ -7363,7 +7348,7 @@
       <c r="G7" s="39"/>
       <c r="H7" s="39"/>
     </row>
-    <row r="8" spans="1:25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B8" s="31" t="s">
         <v>21</v>
       </c>
@@ -7388,7 +7373,7 @@
       <c r="P8" s="40"/>
       <c r="Q8" s="2"/>
     </row>
-    <row r="9" spans="1:25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B9" s="31" t="s">
         <v>21</v>
       </c>
@@ -7411,7 +7396,7 @@
       <c r="O9" s="4"/>
       <c r="P9" s="3"/>
     </row>
-    <row r="10" spans="1:25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B10" s="31" t="s">
         <v>21</v>
       </c>
@@ -7429,7 +7414,7 @@
       </c>
       <c r="I10" s="31"/>
     </row>
-    <row r="11" spans="1:25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B11" s="31" t="s">
         <v>21</v>
       </c>
@@ -7447,7 +7432,7 @@
       </c>
       <c r="I11" s="31"/>
     </row>
-    <row r="12" spans="1:25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B12" s="31" t="s">
         <v>21</v>
       </c>
@@ -7465,7 +7450,7 @@
       </c>
       <c r="I12" s="31"/>
     </row>
-    <row r="13" spans="1:25" s="38" customFormat="1">
+    <row r="13" spans="1:25" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="38" t="b">
         <v>1</v>
       </c>
@@ -7484,7 +7469,7 @@
       <c r="G13" s="39"/>
       <c r="H13" s="39"/>
     </row>
-    <row r="14" spans="1:25" s="30" customFormat="1">
+    <row r="14" spans="1:25" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B14" s="30" t="s">
         <v>21</v>
       </c>
@@ -7504,7 +7489,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="15" spans="1:25" s="30" customFormat="1">
+    <row r="15" spans="1:25" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B15" s="30" t="s">
         <v>21</v>
       </c>
@@ -7521,7 +7506,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:25" s="30" customFormat="1">
+    <row r="16" spans="1:25" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B16" s="30" t="s">
         <v>21</v>
       </c>
@@ -7538,7 +7523,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:9" s="30" customFormat="1">
+    <row r="17" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B17" s="30" t="s">
         <v>21</v>
       </c>
@@ -7558,7 +7543,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:9" s="30" customFormat="1">
+    <row r="18" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B18" s="30" t="s">
         <v>21</v>
       </c>
@@ -7576,7 +7561,7 @@
         <v>7.6923076923076927E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:9" s="30" customFormat="1">
+    <row r="19" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B19" s="30" t="s">
         <v>21</v>
       </c>
@@ -7594,7 +7579,7 @@
         <v>7.6923076923076927E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:9" s="30" customFormat="1">
+    <row r="20" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B20" s="30" t="s">
         <v>21</v>
       </c>
@@ -7612,7 +7597,7 @@
         <v>7.6923076923076927E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:9" s="30" customFormat="1">
+    <row r="21" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B21" s="30" t="s">
         <v>21</v>
       </c>
@@ -7630,7 +7615,7 @@
         <v>7.6923076923076927E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:9" s="30" customFormat="1">
+    <row r="22" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B22" s="30" t="s">
         <v>21</v>
       </c>
@@ -7648,7 +7633,7 @@
         <v>7.6923076923076927E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:9" s="30" customFormat="1">
+    <row r="23" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B23" s="30" t="s">
         <v>21</v>
       </c>
@@ -7666,7 +7651,7 @@
         <v>7.6923076923076927E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:9" s="30" customFormat="1">
+    <row r="24" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B24" s="30" t="s">
         <v>21</v>
       </c>
@@ -7684,7 +7669,7 @@
         <v>7.6923076923076927E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:9" s="30" customFormat="1">
+    <row r="25" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B25" s="30" t="s">
         <v>21</v>
       </c>
@@ -7702,7 +7687,7 @@
         <v>7.6923076923076927E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:9" s="30" customFormat="1">
+    <row r="26" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B26" s="30" t="s">
         <v>21</v>
       </c>
@@ -7720,7 +7705,7 @@
         <v>7.6923076923076927E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:9" s="30" customFormat="1">
+    <row r="27" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B27" s="30" t="s">
         <v>21</v>
       </c>
@@ -7738,7 +7723,7 @@
         <v>7.6923076923076927E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:9" s="30" customFormat="1">
+    <row r="28" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B28" s="30" t="s">
         <v>21</v>
       </c>
@@ -7756,7 +7741,7 @@
         <v>7.6923076923076927E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:9" s="30" customFormat="1">
+    <row r="29" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B29" s="30" t="s">
         <v>21</v>
       </c>
@@ -7774,7 +7759,7 @@
         <v>7.6923076923076927E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:9" s="30" customFormat="1">
+    <row r="30" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B30" s="30" t="s">
         <v>21</v>
       </c>
@@ -7792,7 +7777,7 @@
         <v>7.6923076923076927E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:9" s="38" customFormat="1">
+    <row r="31" spans="1:9" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="38" t="b">
         <v>1</v>
       </c>
@@ -7811,7 +7796,7 @@
       <c r="G31" s="39"/>
       <c r="H31" s="39"/>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B32" s="31" t="s">
         <v>21</v>
       </c>
@@ -7827,7 +7812,7 @@
       <c r="H32" s="31"/>
       <c r="I32" s="31"/>
     </row>
-    <row r="33" spans="1:17" s="38" customFormat="1">
+    <row r="33" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="38" t="b">
         <v>1</v>
       </c>
@@ -7844,7 +7829,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="34" spans="1:17" s="30" customFormat="1">
+    <row r="34" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B34" s="30" t="s">
         <v>21</v>
       </c>
@@ -7861,7 +7846,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="35" spans="1:17" s="30" customFormat="1">
+    <row r="35" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B35" s="30" t="s">
         <v>21</v>
       </c>
@@ -7881,7 +7866,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="36" spans="1:17" s="30" customFormat="1">
+    <row r="36" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B36" s="30" t="s">
         <v>21</v>
       </c>
@@ -7898,7 +7883,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:17" s="38" customFormat="1">
+    <row r="37" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="38" t="b">
         <v>1</v>
       </c>
@@ -7917,7 +7902,7 @@
       <c r="G37" s="39"/>
       <c r="H37" s="39"/>
     </row>
-    <row r="38" spans="1:17">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B38" s="31" t="s">
         <v>21</v>
       </c>
@@ -7942,7 +7927,7 @@
       <c r="P38" s="40"/>
       <c r="Q38" s="2"/>
     </row>
-    <row r="39" spans="1:17">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B39" s="31" t="s">
         <v>21</v>
       </c>
@@ -7970,7 +7955,7 @@
       <c r="P39" s="40"/>
       <c r="Q39" s="2"/>
     </row>
-    <row r="40" spans="1:17">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B40" s="31" t="s">
         <v>21</v>
       </c>
@@ -7998,7 +7983,7 @@
       <c r="P40" s="40"/>
       <c r="Q40" s="2"/>
     </row>
-    <row r="41" spans="1:17" s="38" customFormat="1">
+    <row r="41" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="38" t="b">
         <v>1</v>
       </c>
@@ -8017,7 +8002,7 @@
       <c r="G41" s="39"/>
       <c r="H41" s="39"/>
     </row>
-    <row r="42" spans="1:17">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B42" s="31" t="s">
         <v>21</v>
       </c>
@@ -8042,7 +8027,7 @@
       <c r="P42" s="40"/>
       <c r="Q42" s="2"/>
     </row>
-    <row r="43" spans="1:17">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B43" s="31" t="s">
         <v>21</v>
       </c>
@@ -8070,7 +8055,7 @@
       <c r="P43" s="40"/>
       <c r="Q43" s="2"/>
     </row>
-    <row r="44" spans="1:17">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B44" s="31" t="s">
         <v>21</v>
       </c>
@@ -8098,7 +8083,7 @@
       <c r="P44" s="40"/>
       <c r="Q44" s="2"/>
     </row>
-    <row r="45" spans="1:17" s="38" customFormat="1">
+    <row r="45" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="38" t="b">
         <v>1</v>
       </c>
@@ -8117,7 +8102,7 @@
       <c r="G45" s="39"/>
       <c r="H45" s="39"/>
     </row>
-    <row r="46" spans="1:17">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B46" s="31" t="s">
         <v>21</v>
       </c>
@@ -8142,7 +8127,7 @@
       <c r="P46" s="40"/>
       <c r="Q46" s="2"/>
     </row>
-    <row r="47" spans="1:17">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B47" s="31" t="s">
         <v>21</v>
       </c>
@@ -8170,7 +8155,7 @@
       <c r="P47" s="40"/>
       <c r="Q47" s="2"/>
     </row>
-    <row r="48" spans="1:17">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B48" s="31" t="s">
         <v>21</v>
       </c>
@@ -8198,7 +8183,7 @@
       <c r="P48" s="40"/>
       <c r="Q48" s="2"/>
     </row>
-    <row r="49" spans="1:17" s="38" customFormat="1">
+    <row r="49" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="38" t="b">
         <v>1</v>
       </c>
@@ -8217,7 +8202,7 @@
       <c r="G49" s="39"/>
       <c r="H49" s="39"/>
     </row>
-    <row r="50" spans="1:17">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B50" s="31" t="s">
         <v>21</v>
       </c>
@@ -8242,7 +8227,7 @@
       <c r="P50" s="40"/>
       <c r="Q50" s="2"/>
     </row>
-    <row r="51" spans="1:17">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B51" s="31" t="s">
         <v>21</v>
       </c>
@@ -8270,7 +8255,7 @@
       <c r="P51" s="40"/>
       <c r="Q51" s="2"/>
     </row>
-    <row r="52" spans="1:17">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B52" s="31" t="s">
         <v>21</v>
       </c>
@@ -8298,7 +8283,7 @@
       <c r="P52" s="40"/>
       <c r="Q52" s="2"/>
     </row>
-    <row r="53" spans="1:17" s="38" customFormat="1">
+    <row r="53" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="38" t="b">
         <v>1</v>
       </c>
@@ -8317,7 +8302,7 @@
       <c r="G53" s="39"/>
       <c r="H53" s="39"/>
     </row>
-    <row r="54" spans="1:17">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B54" s="31" t="s">
         <v>21</v>
       </c>
@@ -8335,7 +8320,7 @@
       </c>
       <c r="I54" s="31"/>
     </row>
-    <row r="55" spans="1:17">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B55" s="31" t="s">
         <v>21</v>
       </c>
@@ -8353,7 +8338,7 @@
       </c>
       <c r="I55" s="31"/>
     </row>
-    <row r="56" spans="1:17">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B56" s="31" t="s">
         <v>21</v>
       </c>
@@ -8371,7 +8356,7 @@
       </c>
       <c r="I56" s="31"/>
     </row>
-    <row r="57" spans="1:17">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B57" s="31" t="s">
         <v>21</v>
       </c>
@@ -8389,7 +8374,7 @@
       </c>
       <c r="I57" s="31"/>
     </row>
-    <row r="58" spans="1:17" s="38" customFormat="1">
+    <row r="58" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="38" t="b">
         <v>1</v>
       </c>
@@ -8408,7 +8393,7 @@
       <c r="G58" s="39"/>
       <c r="H58" s="39"/>
     </row>
-    <row r="59" spans="1:17" s="30" customFormat="1">
+    <row r="59" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A59" s="30" t="b">
         <v>1</v>
       </c>
@@ -8425,7 +8410,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="60" spans="1:17" s="43" customFormat="1">
+    <row r="60" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B60" s="43" t="s">
         <v>22</v>
       </c>
@@ -8461,7 +8446,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="61" spans="1:17" s="30" customFormat="1">
+    <row r="61" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B61" s="30" t="s">
         <v>21</v>
       </c>
@@ -8478,7 +8463,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="62" spans="1:17" s="30" customFormat="1">
+    <row r="62" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B62" s="30" t="s">
         <v>21</v>
       </c>
@@ -8498,7 +8483,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="63" spans="1:17" s="30" customFormat="1">
+    <row r="63" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A63" s="30" t="b">
         <v>1</v>
       </c>
@@ -8515,7 +8500,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="64" spans="1:17" s="43" customFormat="1">
+    <row r="64" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B64" s="43" t="s">
         <v>22</v>
       </c>
@@ -8551,7 +8536,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="65" spans="1:17" s="30" customFormat="1">
+    <row r="65" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B65" s="30" t="s">
         <v>21</v>
       </c>
@@ -8568,7 +8553,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="66" spans="1:17" s="30" customFormat="1">
+    <row r="66" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B66" s="30" t="s">
         <v>21</v>
       </c>
@@ -8588,7 +8573,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="67" spans="1:17" s="30" customFormat="1">
+    <row r="67" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A67" s="30" t="b">
         <v>1</v>
       </c>
@@ -8605,7 +8590,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="68" spans="1:17" s="43" customFormat="1">
+    <row r="68" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B68" s="43" t="s">
         <v>22</v>
       </c>
@@ -8641,7 +8626,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="69" spans="1:17" s="30" customFormat="1">
+    <row r="69" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B69" s="30" t="s">
         <v>21</v>
       </c>
@@ -8658,7 +8643,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="70" spans="1:17" s="30" customFormat="1">
+    <row r="70" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B70" s="30" t="s">
         <v>21</v>
       </c>
@@ -8678,7 +8663,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="71" spans="1:17" s="30" customFormat="1">
+    <row r="71" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A71" s="30" t="b">
         <v>1</v>
       </c>
@@ -8696,7 +8681,7 @@
       </c>
       <c r="P71" s="31"/>
     </row>
-    <row r="72" spans="1:17" s="30" customFormat="1">
+    <row r="72" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B72" s="30" t="s">
         <v>21</v>
       </c>
@@ -8717,7 +8702,7 @@
       </c>
       <c r="O72" s="31"/>
     </row>
-    <row r="73" spans="1:17" s="43" customFormat="1">
+    <row r="73" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B73" s="43" t="s">
         <v>22</v>
       </c>
@@ -8753,7 +8738,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="74" spans="1:17" s="30" customFormat="1">
+    <row r="74" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B74" s="30" t="s">
         <v>21</v>
       </c>
@@ -8771,7 +8756,7 @@
       </c>
       <c r="O74" s="31"/>
     </row>
-    <row r="75" spans="1:17" s="30" customFormat="1">
+    <row r="75" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B75" s="30" t="s">
         <v>21</v>
       </c>
@@ -8789,7 +8774,7 @@
       </c>
       <c r="O75" s="31"/>
     </row>
-    <row r="76" spans="1:17" s="30" customFormat="1">
+    <row r="76" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B76" s="30" t="s">
         <v>21</v>
       </c>
@@ -8807,7 +8792,7 @@
       </c>
       <c r="O76" s="31"/>
     </row>
-    <row r="77" spans="1:17">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A77" s="30" t="b">
         <v>1</v>
       </c>
@@ -8835,7 +8820,7 @@
       <c r="O77" s="3"/>
       <c r="Q77" s="40"/>
     </row>
-    <row r="78" spans="1:17">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A78" s="30"/>
       <c r="B78" s="30" t="s">
         <v>21</v>
@@ -8864,7 +8849,7 @@
       <c r="N78" s="3"/>
       <c r="P78" s="40"/>
     </row>
-    <row r="79" spans="1:17" s="43" customFormat="1">
+    <row r="79" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B79" s="43" t="s">
         <v>22</v>
       </c>
@@ -8902,7 +8887,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="80" spans="1:17">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A80" s="30"/>
       <c r="B80" s="30" t="s">
         <v>21</v>
@@ -8928,7 +8913,7 @@
       <c r="N80" s="3"/>
       <c r="P80" s="40"/>
     </row>
-    <row r="81" spans="1:16">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A81" s="30"/>
       <c r="B81" s="30" t="s">
         <v>21</v>
@@ -8954,7 +8939,7 @@
       <c r="N81" s="3"/>
       <c r="P81" s="40"/>
     </row>
-    <row r="82" spans="1:16">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A82" s="30"/>
       <c r="B82" s="30" t="s">
         <v>21</v>
@@ -8980,7 +8965,7 @@
       <c r="N82" s="3"/>
       <c r="P82" s="40"/>
     </row>
-    <row r="83" spans="1:16">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A83" s="30"/>
       <c r="B83" s="30" t="s">
         <v>21</v>
@@ -9006,7 +8991,7 @@
       <c r="N83" s="3"/>
       <c r="P83" s="40"/>
     </row>
-    <row r="84" spans="1:16">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A84" s="30"/>
       <c r="B84" s="30" t="s">
         <v>21</v>
@@ -9032,7 +9017,7 @@
       <c r="N84" s="3"/>
       <c r="P84" s="40"/>
     </row>
-    <row r="85" spans="1:16">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A85" s="30"/>
       <c r="B85" s="30" t="s">
         <v>21</v>
@@ -9058,7 +9043,7 @@
       <c r="N85" s="3"/>
       <c r="P85" s="40"/>
     </row>
-    <row r="86" spans="1:16">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A86" s="30"/>
       <c r="B86" s="30" t="s">
         <v>21</v>
@@ -9084,551 +9069,551 @@
       <c r="N86" s="3"/>
       <c r="P86" s="40"/>
     </row>
-    <row r="87" spans="1:16">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.3">
       <c r="H87" s="31"/>
       <c r="I87" s="31"/>
     </row>
-    <row r="88" spans="1:16">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.3">
       <c r="H88" s="31"/>
       <c r="I88" s="31"/>
     </row>
-    <row r="89" spans="1:16">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.3">
       <c r="H89" s="31"/>
       <c r="I89" s="31"/>
     </row>
-    <row r="90" spans="1:16">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.3">
       <c r="H90" s="31"/>
       <c r="I90" s="31"/>
     </row>
-    <row r="91" spans="1:16">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.3">
       <c r="H91" s="31"/>
       <c r="I91" s="31"/>
     </row>
-    <row r="92" spans="1:16">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.3">
       <c r="H92" s="31"/>
       <c r="I92" s="31"/>
     </row>
-    <row r="93" spans="1:16">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.3">
       <c r="H93" s="31"/>
       <c r="I93" s="31"/>
     </row>
-    <row r="94" spans="1:16">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.3">
       <c r="H94" s="31"/>
       <c r="I94" s="31"/>
     </row>
-    <row r="95" spans="1:16">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.3">
       <c r="H95" s="31"/>
       <c r="I95" s="31"/>
     </row>
-    <row r="96" spans="1:16">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.3">
       <c r="H96" s="31"/>
       <c r="I96" s="31"/>
     </row>
-    <row r="97" spans="8:9">
+    <row r="97" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H97" s="31"/>
       <c r="I97" s="31"/>
     </row>
-    <row r="98" spans="8:9">
+    <row r="98" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H98" s="31"/>
       <c r="I98" s="31"/>
     </row>
-    <row r="99" spans="8:9">
+    <row r="99" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H99" s="31"/>
       <c r="I99" s="31"/>
     </row>
-    <row r="100" spans="8:9">
+    <row r="100" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H100" s="31"/>
       <c r="I100" s="31"/>
     </row>
-    <row r="101" spans="8:9">
+    <row r="101" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H101" s="31"/>
       <c r="I101" s="31"/>
     </row>
-    <row r="102" spans="8:9">
+    <row r="102" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H102" s="31"/>
       <c r="I102" s="31"/>
     </row>
-    <row r="103" spans="8:9">
+    <row r="103" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H103" s="31"/>
       <c r="I103" s="31"/>
     </row>
-    <row r="104" spans="8:9">
+    <row r="104" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H104" s="31"/>
       <c r="I104" s="31"/>
     </row>
-    <row r="105" spans="8:9">
+    <row r="105" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H105" s="31"/>
       <c r="I105" s="31"/>
     </row>
-    <row r="106" spans="8:9">
+    <row r="106" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H106" s="31"/>
       <c r="I106" s="31"/>
     </row>
-    <row r="107" spans="8:9">
+    <row r="107" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H107" s="31"/>
       <c r="I107" s="31"/>
     </row>
-    <row r="108" spans="8:9">
+    <row r="108" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H108" s="31"/>
       <c r="I108" s="31"/>
     </row>
-    <row r="109" spans="8:9">
+    <row r="109" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H109" s="31"/>
       <c r="I109" s="31"/>
     </row>
-    <row r="110" spans="8:9">
+    <row r="110" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H110" s="31"/>
       <c r="I110" s="31"/>
     </row>
-    <row r="111" spans="8:9">
+    <row r="111" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H111" s="31"/>
       <c r="I111" s="31"/>
     </row>
-    <row r="112" spans="8:9">
+    <row r="112" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H112" s="31"/>
       <c r="I112" s="31"/>
     </row>
-    <row r="113" spans="8:9">
+    <row r="113" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H113" s="31"/>
       <c r="I113" s="31"/>
     </row>
-    <row r="114" spans="8:9">
+    <row r="114" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H114" s="31"/>
       <c r="I114" s="31"/>
     </row>
-    <row r="115" spans="8:9">
+    <row r="115" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H115" s="31"/>
       <c r="I115" s="31"/>
     </row>
-    <row r="116" spans="8:9">
+    <row r="116" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H116" s="31"/>
       <c r="I116" s="31"/>
     </row>
-    <row r="117" spans="8:9">
+    <row r="117" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H117" s="31"/>
       <c r="I117" s="31"/>
     </row>
-    <row r="118" spans="8:9">
+    <row r="118" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H118" s="31"/>
       <c r="I118" s="31"/>
     </row>
-    <row r="119" spans="8:9">
+    <row r="119" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H119" s="31"/>
       <c r="I119" s="31"/>
     </row>
-    <row r="120" spans="8:9">
+    <row r="120" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H120" s="31"/>
       <c r="I120" s="31"/>
     </row>
-    <row r="121" spans="8:9">
+    <row r="121" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H121" s="31"/>
       <c r="I121" s="31"/>
     </row>
-    <row r="122" spans="8:9">
+    <row r="122" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H122" s="31"/>
       <c r="I122" s="31"/>
     </row>
-    <row r="123" spans="8:9">
+    <row r="123" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H123" s="31"/>
       <c r="I123" s="31"/>
     </row>
-    <row r="124" spans="8:9">
+    <row r="124" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H124" s="31"/>
       <c r="I124" s="31"/>
     </row>
-    <row r="125" spans="8:9">
+    <row r="125" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H125" s="31"/>
       <c r="I125" s="31"/>
     </row>
-    <row r="126" spans="8:9">
+    <row r="126" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H126" s="31"/>
       <c r="I126" s="31"/>
     </row>
-    <row r="127" spans="8:9">
+    <row r="127" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H127" s="31"/>
       <c r="I127" s="31"/>
     </row>
-    <row r="128" spans="8:9">
+    <row r="128" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H128" s="31"/>
       <c r="I128" s="31"/>
     </row>
-    <row r="129" spans="8:9">
+    <row r="129" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H129" s="31"/>
       <c r="I129" s="31"/>
     </row>
-    <row r="130" spans="8:9">
+    <row r="130" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H130" s="31"/>
       <c r="I130" s="31"/>
     </row>
-    <row r="131" spans="8:9">
+    <row r="131" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H131" s="31"/>
       <c r="I131" s="31"/>
     </row>
-    <row r="132" spans="8:9">
+    <row r="132" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H132" s="31"/>
       <c r="I132" s="31"/>
     </row>
-    <row r="133" spans="8:9">
+    <row r="133" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H133" s="31"/>
       <c r="I133" s="31"/>
     </row>
-    <row r="134" spans="8:9">
+    <row r="134" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H134" s="31"/>
       <c r="I134" s="31"/>
     </row>
-    <row r="135" spans="8:9">
+    <row r="135" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H135" s="31"/>
       <c r="I135" s="31"/>
     </row>
-    <row r="136" spans="8:9">
+    <row r="136" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H136" s="31"/>
       <c r="I136" s="31"/>
     </row>
-    <row r="137" spans="8:9">
+    <row r="137" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H137" s="31"/>
       <c r="I137" s="31"/>
     </row>
-    <row r="138" spans="8:9">
+    <row r="138" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H138" s="31"/>
       <c r="I138" s="31"/>
     </row>
-    <row r="139" spans="8:9">
+    <row r="139" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H139" s="31"/>
       <c r="I139" s="31"/>
     </row>
-    <row r="140" spans="8:9">
+    <row r="140" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H140" s="31"/>
       <c r="I140" s="31"/>
     </row>
-    <row r="141" spans="8:9">
+    <row r="141" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H141" s="31"/>
       <c r="I141" s="31"/>
     </row>
-    <row r="142" spans="8:9">
+    <row r="142" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H142" s="31"/>
       <c r="I142" s="31"/>
     </row>
-    <row r="143" spans="8:9">
+    <row r="143" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H143" s="31"/>
       <c r="I143" s="31"/>
     </row>
-    <row r="144" spans="8:9">
+    <row r="144" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H144" s="31"/>
       <c r="I144" s="31"/>
     </row>
-    <row r="145" spans="8:9">
+    <row r="145" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H145" s="31"/>
       <c r="I145" s="31"/>
     </row>
-    <row r="146" spans="8:9">
+    <row r="146" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H146" s="31"/>
       <c r="I146" s="31"/>
     </row>
-    <row r="147" spans="8:9">
+    <row r="147" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H147" s="31"/>
       <c r="I147" s="31"/>
     </row>
-    <row r="148" spans="8:9">
+    <row r="148" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H148" s="31"/>
       <c r="I148" s="31"/>
     </row>
-    <row r="149" spans="8:9">
+    <row r="149" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H149" s="31"/>
       <c r="I149" s="31"/>
     </row>
-    <row r="150" spans="8:9">
+    <row r="150" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H150" s="31"/>
       <c r="I150" s="31"/>
     </row>
-    <row r="151" spans="8:9">
+    <row r="151" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H151" s="31"/>
       <c r="I151" s="31"/>
     </row>
-    <row r="152" spans="8:9">
+    <row r="152" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H152" s="31"/>
       <c r="I152" s="31"/>
     </row>
-    <row r="153" spans="8:9">
+    <row r="153" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H153" s="31"/>
       <c r="I153" s="31"/>
     </row>
-    <row r="154" spans="8:9">
+    <row r="154" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H154" s="31"/>
       <c r="I154" s="31"/>
     </row>
-    <row r="155" spans="8:9">
+    <row r="155" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H155" s="31"/>
       <c r="I155" s="31"/>
     </row>
-    <row r="156" spans="8:9">
+    <row r="156" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H156" s="31"/>
       <c r="I156" s="31"/>
     </row>
-    <row r="157" spans="8:9">
+    <row r="157" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H157" s="31"/>
       <c r="I157" s="31"/>
     </row>
-    <row r="158" spans="8:9">
+    <row r="158" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H158" s="31"/>
       <c r="I158" s="31"/>
     </row>
-    <row r="159" spans="8:9">
+    <row r="159" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H159" s="31"/>
       <c r="I159" s="31"/>
     </row>
-    <row r="160" spans="8:9">
+    <row r="160" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H160" s="31"/>
       <c r="I160" s="31"/>
     </row>
-    <row r="161" spans="8:9">
+    <row r="161" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H161" s="31"/>
       <c r="I161" s="31"/>
     </row>
-    <row r="162" spans="8:9">
+    <row r="162" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H162" s="31"/>
       <c r="I162" s="31"/>
     </row>
-    <row r="163" spans="8:9">
+    <row r="163" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H163" s="31"/>
       <c r="I163" s="31"/>
     </row>
-    <row r="164" spans="8:9">
+    <row r="164" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H164" s="31"/>
       <c r="I164" s="31"/>
     </row>
-    <row r="165" spans="8:9">
+    <row r="165" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H165" s="31"/>
       <c r="I165" s="31"/>
     </row>
-    <row r="166" spans="8:9">
+    <row r="166" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H166" s="31"/>
       <c r="I166" s="31"/>
     </row>
-    <row r="167" spans="8:9">
+    <row r="167" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H167" s="31"/>
       <c r="I167" s="31"/>
     </row>
-    <row r="168" spans="8:9">
+    <row r="168" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H168" s="31"/>
       <c r="I168" s="31"/>
     </row>
-    <row r="169" spans="8:9">
+    <row r="169" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H169" s="31"/>
       <c r="I169" s="31"/>
     </row>
-    <row r="170" spans="8:9">
+    <row r="170" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H170" s="31"/>
       <c r="I170" s="31"/>
     </row>
-    <row r="171" spans="8:9">
+    <row r="171" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H171" s="31"/>
       <c r="I171" s="31"/>
     </row>
-    <row r="172" spans="8:9">
+    <row r="172" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H172" s="31"/>
       <c r="I172" s="31"/>
     </row>
-    <row r="173" spans="8:9">
+    <row r="173" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H173" s="31"/>
       <c r="I173" s="31"/>
     </row>
-    <row r="174" spans="8:9">
+    <row r="174" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H174" s="31"/>
       <c r="I174" s="31"/>
     </row>
-    <row r="175" spans="8:9">
+    <row r="175" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H175" s="31"/>
       <c r="I175" s="31"/>
     </row>
-    <row r="176" spans="8:9">
+    <row r="176" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H176" s="31"/>
       <c r="I176" s="31"/>
     </row>
-    <row r="177" spans="8:9">
+    <row r="177" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H177" s="31"/>
       <c r="I177" s="31"/>
     </row>
-    <row r="178" spans="8:9">
+    <row r="178" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H178" s="31"/>
       <c r="I178" s="31"/>
     </row>
-    <row r="179" spans="8:9">
+    <row r="179" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H179" s="31"/>
       <c r="I179" s="31"/>
     </row>
-    <row r="180" spans="8:9">
+    <row r="180" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H180" s="31"/>
       <c r="I180" s="31"/>
     </row>
-    <row r="181" spans="8:9">
+    <row r="181" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H181" s="31"/>
       <c r="I181" s="31"/>
     </row>
-    <row r="182" spans="8:9">
+    <row r="182" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H182" s="31"/>
       <c r="I182" s="31"/>
     </row>
-    <row r="183" spans="8:9">
+    <row r="183" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H183" s="31"/>
       <c r="I183" s="31"/>
     </row>
-    <row r="184" spans="8:9">
+    <row r="184" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H184" s="31"/>
       <c r="I184" s="31"/>
     </row>
-    <row r="185" spans="8:9">
+    <row r="185" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H185" s="31"/>
       <c r="I185" s="31"/>
     </row>
-    <row r="186" spans="8:9">
+    <row r="186" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H186" s="31"/>
       <c r="I186" s="31"/>
     </row>
-    <row r="187" spans="8:9">
+    <row r="187" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H187" s="31"/>
       <c r="I187" s="31"/>
     </row>
-    <row r="188" spans="8:9">
+    <row r="188" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H188" s="31"/>
       <c r="I188" s="31"/>
     </row>
-    <row r="189" spans="8:9">
+    <row r="189" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H189" s="31"/>
       <c r="I189" s="31"/>
     </row>
-    <row r="190" spans="8:9">
+    <row r="190" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H190" s="31"/>
       <c r="I190" s="31"/>
     </row>
-    <row r="191" spans="8:9">
+    <row r="191" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H191" s="31"/>
       <c r="I191" s="31"/>
     </row>
-    <row r="192" spans="8:9">
+    <row r="192" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H192" s="31"/>
       <c r="I192" s="31"/>
     </row>
-    <row r="193" spans="8:9">
+    <row r="193" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H193" s="31"/>
       <c r="I193" s="31"/>
     </row>
-    <row r="194" spans="8:9">
+    <row r="194" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H194" s="31"/>
       <c r="I194" s="31"/>
     </row>
-    <row r="195" spans="8:9">
+    <row r="195" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H195" s="31"/>
       <c r="I195" s="31"/>
     </row>
-    <row r="196" spans="8:9">
+    <row r="196" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H196" s="31"/>
       <c r="I196" s="31"/>
     </row>
-    <row r="197" spans="8:9">
+    <row r="197" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H197" s="31"/>
       <c r="I197" s="31"/>
     </row>
-    <row r="198" spans="8:9">
+    <row r="198" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H198" s="31"/>
       <c r="I198" s="31"/>
     </row>
-    <row r="199" spans="8:9">
+    <row r="199" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H199" s="31"/>
       <c r="I199" s="31"/>
     </row>
-    <row r="200" spans="8:9">
+    <row r="200" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H200" s="31"/>
       <c r="I200" s="31"/>
     </row>
-    <row r="201" spans="8:9">
+    <row r="201" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H201" s="31"/>
       <c r="I201" s="31"/>
     </row>
-    <row r="202" spans="8:9">
+    <row r="202" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H202" s="31"/>
       <c r="I202" s="31"/>
     </row>
-    <row r="203" spans="8:9">
+    <row r="203" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H203" s="31"/>
       <c r="I203" s="31"/>
     </row>
-    <row r="204" spans="8:9">
+    <row r="204" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H204" s="31"/>
       <c r="I204" s="31"/>
     </row>
-    <row r="205" spans="8:9">
+    <row r="205" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H205" s="31"/>
       <c r="I205" s="31"/>
     </row>
-    <row r="206" spans="8:9">
+    <row r="206" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H206" s="31"/>
       <c r="I206" s="31"/>
     </row>
-    <row r="207" spans="8:9">
+    <row r="207" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H207" s="31"/>
       <c r="I207" s="31"/>
     </row>
-    <row r="208" spans="8:9">
+    <row r="208" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H208" s="31"/>
       <c r="I208" s="31"/>
     </row>
-    <row r="209" spans="8:9">
+    <row r="209" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H209" s="31"/>
       <c r="I209" s="31"/>
     </row>
-    <row r="210" spans="8:9">
+    <row r="210" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H210" s="31"/>
       <c r="I210" s="31"/>
     </row>
-    <row r="211" spans="8:9">
+    <row r="211" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H211" s="31"/>
       <c r="I211" s="31"/>
     </row>
-    <row r="212" spans="8:9">
+    <row r="212" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H212" s="31"/>
       <c r="I212" s="31"/>
     </row>
-    <row r="213" spans="8:9">
+    <row r="213" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H213" s="31"/>
       <c r="I213" s="31"/>
     </row>
-    <row r="214" spans="8:9">
+    <row r="214" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H214" s="31"/>
       <c r="I214" s="31"/>
     </row>
-    <row r="215" spans="8:9">
+    <row r="215" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H215" s="31"/>
       <c r="I215" s="31"/>
     </row>
-    <row r="216" spans="8:9">
+    <row r="216" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H216" s="31"/>
       <c r="I216" s="31"/>
     </row>
-    <row r="217" spans="8:9">
+    <row r="217" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H217" s="31"/>
       <c r="I217" s="31"/>
     </row>
-    <row r="218" spans="8:9">
+    <row r="218" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H218" s="31"/>
       <c r="I218" s="31"/>
     </row>
-    <row r="219" spans="8:9">
+    <row r="219" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H219" s="31"/>
       <c r="I219" s="31"/>
     </row>
-    <row r="220" spans="8:9">
+    <row r="220" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H220" s="31"/>
       <c r="I220" s="31"/>
     </row>
-    <row r="221" spans="8:9">
+    <row r="221" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H221" s="31"/>
       <c r="I221" s="31"/>
     </row>
-    <row r="222" spans="8:9">
+    <row r="222" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H222" s="31"/>
       <c r="I222" s="31"/>
     </row>
-    <row r="223" spans="8:9">
+    <row r="223" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H223" s="31"/>
       <c r="I223" s="31"/>
     </row>
@@ -9639,11 +9624,6 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -9651,25 +9631,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L38"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="29.5" style="31" customWidth="1"/>
+    <col min="1" max="2" width="29.44140625" style="31" customWidth="1"/>
     <col min="3" max="3" width="71" style="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5" style="31" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" style="31" customWidth="1"/>
     <col min="5" max="5" width="12.33203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="10.5" style="31" customWidth="1"/>
-    <col min="8" max="8" width="14.5" style="31" customWidth="1"/>
+    <col min="6" max="7" width="10.44140625" style="31" customWidth="1"/>
+    <col min="8" max="8" width="14.44140625" style="31" customWidth="1"/>
     <col min="9" max="9" width="14.6640625" style="31" customWidth="1"/>
     <col min="10" max="10" width="9.6640625" style="31" customWidth="1"/>
-    <col min="11" max="16384" width="11.5" style="31"/>
+    <col min="11" max="16384" width="11.44140625" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18">
+    <row r="1" spans="1:12" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="5"/>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -9684,7 +9664,7 @@
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
     </row>
-    <row r="2" spans="1:12" s="8" customFormat="1" ht="15">
+    <row r="2" spans="1:12" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>459</v>
       </c>
@@ -9719,7 +9699,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="14" customFormat="1" ht="30">
+    <row r="3" spans="1:12" s="14" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
         <v>628</v>
       </c>
@@ -9755,7 +9735,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="30" t="s">
         <v>644</v>
       </c>
@@ -9784,7 +9764,7 @@
       <c r="J4" s="30"/>
       <c r="K4" s="30"/>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="30" t="s">
         <v>645</v>
       </c>
@@ -9814,7 +9794,7 @@
       <c r="K5" s="30"/>
       <c r="L5" s="30"/>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="30" t="s">
         <v>646</v>
       </c>
@@ -9843,7 +9823,7 @@
       <c r="J6" s="30"/>
       <c r="K6" s="30"/>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="30" t="s">
         <v>647</v>
       </c>
@@ -9872,13 +9852,13 @@
       <c r="J7" s="30"/>
       <c r="K7" s="30"/>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="30" t="s">
         <v>709</v>
       </c>
       <c r="B8" s="30"/>
       <c r="C8" s="30" t="s">
-        <v>822</v>
+        <v>803</v>
       </c>
       <c r="D8" s="30" t="s">
         <v>710</v>
@@ -9900,13 +9880,13 @@
       <c r="K8" s="30"/>
       <c r="L8" s="30"/>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="30" t="s">
         <v>711</v>
       </c>
       <c r="B9" s="30"/>
       <c r="C9" s="30" t="s">
-        <v>800</v>
+        <v>804</v>
       </c>
       <c r="D9" s="30" t="s">
         <v>712</v>
@@ -9928,13 +9908,13 @@
       <c r="K9" s="30"/>
       <c r="L9" s="30"/>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="30" t="s">
         <v>713</v>
       </c>
       <c r="B10" s="30"/>
       <c r="C10" s="30" t="s">
-        <v>801</v>
+        <v>805</v>
       </c>
       <c r="D10" s="30" t="s">
         <v>710</v>
@@ -9956,13 +9936,13 @@
       <c r="K10" s="30"/>
       <c r="L10" s="30"/>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="30" t="s">
         <v>714</v>
       </c>
       <c r="B11" s="30"/>
       <c r="C11" s="30" t="s">
-        <v>802</v>
+        <v>806</v>
       </c>
       <c r="D11" s="30" t="s">
         <v>710</v>
@@ -9984,13 +9964,13 @@
       <c r="K11" s="30"/>
       <c r="L11" s="30"/>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="30" t="s">
         <v>715</v>
       </c>
       <c r="B12" s="30"/>
       <c r="C12" s="30" t="s">
-        <v>803</v>
+        <v>807</v>
       </c>
       <c r="D12" s="30" t="s">
         <v>710</v>
@@ -10012,13 +9992,13 @@
       <c r="K12" s="30"/>
       <c r="L12" s="30"/>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="30" t="s">
         <v>716</v>
       </c>
       <c r="B13" s="30"/>
       <c r="C13" s="30" t="s">
-        <v>804</v>
+        <v>808</v>
       </c>
       <c r="D13" s="30" t="s">
         <v>710</v>
@@ -10040,13 +10020,13 @@
       <c r="K13" s="30"/>
       <c r="L13" s="30"/>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="30" t="s">
         <v>717</v>
       </c>
       <c r="B14" s="30"/>
       <c r="C14" s="30" t="s">
-        <v>805</v>
+        <v>809</v>
       </c>
       <c r="D14" s="30" t="s">
         <v>710</v>
@@ -10068,13 +10048,13 @@
       <c r="K14" s="30"/>
       <c r="L14" s="30"/>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="30" t="s">
         <v>718</v>
       </c>
       <c r="B15" s="30"/>
       <c r="C15" s="30" t="s">
-        <v>806</v>
+        <v>810</v>
       </c>
       <c r="D15" s="30" t="s">
         <v>710</v>
@@ -10096,13 +10076,13 @@
       <c r="K15" s="30"/>
       <c r="L15" s="30"/>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="30" t="s">
         <v>719</v>
       </c>
       <c r="B16" s="30"/>
       <c r="C16" s="30" t="s">
-        <v>807</v>
+        <v>811</v>
       </c>
       <c r="D16" s="30" t="s">
         <v>710</v>
@@ -10124,13 +10104,13 @@
       <c r="K16" s="30"/>
       <c r="L16" s="30"/>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="30" t="s">
         <v>720</v>
       </c>
       <c r="B17" s="30"/>
       <c r="C17" s="30" t="s">
-        <v>808</v>
+        <v>812</v>
       </c>
       <c r="D17" s="30" t="s">
         <v>710</v>
@@ -10152,13 +10132,13 @@
       <c r="K17" s="30"/>
       <c r="L17" s="30"/>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="30" t="s">
         <v>721</v>
       </c>
       <c r="B18" s="30"/>
       <c r="C18" s="30" t="s">
-        <v>809</v>
+        <v>813</v>
       </c>
       <c r="D18" s="30" t="s">
         <v>710</v>
@@ -10180,13 +10160,13 @@
       <c r="K18" s="30"/>
       <c r="L18" s="30"/>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="30" t="s">
         <v>722</v>
       </c>
       <c r="B19" s="30"/>
       <c r="C19" s="30" t="s">
-        <v>810</v>
+        <v>814</v>
       </c>
       <c r="D19" s="30" t="s">
         <v>710</v>
@@ -10208,13 +10188,13 @@
       <c r="K19" s="30"/>
       <c r="L19" s="30"/>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="30" t="s">
         <v>723</v>
       </c>
       <c r="B20" s="30"/>
       <c r="C20" s="30" t="s">
-        <v>811</v>
+        <v>815</v>
       </c>
       <c r="D20" s="30" t="s">
         <v>710</v>
@@ -10236,13 +10216,13 @@
       <c r="K20" s="30"/>
       <c r="L20" s="30"/>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="30" t="s">
         <v>725</v>
       </c>
       <c r="B21" s="30"/>
       <c r="C21" s="30" t="s">
-        <v>812</v>
+        <v>816</v>
       </c>
       <c r="D21" s="30" t="s">
         <v>726</v>
@@ -10264,13 +10244,13 @@
       <c r="K21" s="30"/>
       <c r="L21" s="30"/>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="30" t="s">
         <v>724</v>
       </c>
       <c r="B22" s="30"/>
       <c r="C22" s="30" t="s">
-        <v>813</v>
+        <v>817</v>
       </c>
       <c r="D22" s="30" t="s">
         <v>726</v>
@@ -10292,13 +10272,13 @@
       <c r="K22" s="30"/>
       <c r="L22" s="30"/>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="30" t="s">
         <v>727</v>
       </c>
       <c r="B23" s="30"/>
       <c r="C23" s="30" t="s">
-        <v>814</v>
+        <v>818</v>
       </c>
       <c r="D23" s="30" t="s">
         <v>726</v>
@@ -10320,13 +10300,13 @@
       <c r="K23" s="30"/>
       <c r="L23" s="30"/>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="30" t="s">
         <v>728</v>
       </c>
       <c r="B24" s="30"/>
       <c r="C24" s="30" t="s">
-        <v>815</v>
+        <v>819</v>
       </c>
       <c r="D24" s="30" t="s">
         <v>726</v>
@@ -10348,13 +10328,13 @@
       <c r="K24" s="30"/>
       <c r="L24" s="30"/>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="30" t="s">
         <v>729</v>
       </c>
       <c r="B25" s="30"/>
       <c r="C25" s="30" t="s">
-        <v>816</v>
+        <v>820</v>
       </c>
       <c r="D25" s="30" t="s">
         <v>726</v>
@@ -10376,13 +10356,13 @@
       <c r="K25" s="30"/>
       <c r="L25" s="30"/>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="30" t="s">
         <v>730</v>
       </c>
       <c r="B26" s="30"/>
       <c r="C26" s="30" t="s">
-        <v>817</v>
+        <v>821</v>
       </c>
       <c r="D26" s="30" t="s">
         <v>726</v>
@@ -10404,13 +10384,13 @@
       <c r="K26" s="30"/>
       <c r="L26" s="30"/>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="30" t="s">
         <v>731</v>
       </c>
       <c r="B27" s="30"/>
       <c r="C27" s="30" t="s">
-        <v>818</v>
+        <v>822</v>
       </c>
       <c r="D27" s="30" t="s">
         <v>726</v>
@@ -10432,13 +10412,13 @@
       <c r="K27" s="30"/>
       <c r="L27" s="30"/>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="30" t="s">
         <v>732</v>
       </c>
       <c r="B28" s="30"/>
       <c r="C28" s="30" t="s">
-        <v>819</v>
+        <v>823</v>
       </c>
       <c r="D28" s="30" t="s">
         <v>726</v>
@@ -10460,13 +10440,13 @@
       <c r="K28" s="30"/>
       <c r="L28" s="30"/>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="30" t="s">
         <v>733</v>
       </c>
       <c r="B29" s="30"/>
       <c r="C29" s="30" t="s">
-        <v>820</v>
+        <v>824</v>
       </c>
       <c r="D29" s="30" t="s">
         <v>726</v>
@@ -10488,13 +10468,13 @@
       <c r="K29" s="30"/>
       <c r="L29" s="30"/>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="30" t="s">
         <v>734</v>
       </c>
       <c r="B30" s="30"/>
       <c r="C30" s="30" t="s">
-        <v>821</v>
+        <v>825</v>
       </c>
       <c r="D30" s="30" t="s">
         <v>726</v>
@@ -10516,49 +10496,49 @@
       <c r="K30" s="30"/>
       <c r="L30" s="30"/>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="30"/>
       <c r="B31" s="30"/>
       <c r="C31" s="30"/>
       <c r="D31" s="30"/>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="30"/>
       <c r="B32" s="30"/>
       <c r="C32" s="30"/>
       <c r="D32" s="30"/>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="30"/>
       <c r="B33" s="30"/>
       <c r="C33" s="30"/>
       <c r="D33" s="30"/>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="30"/>
       <c r="B34" s="30"/>
       <c r="C34" s="30"/>
       <c r="D34" s="30"/>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="30"/>
       <c r="B35" s="30"/>
       <c r="C35" s="30"/>
       <c r="D35" s="30"/>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="30"/>
       <c r="B36" s="30"/>
       <c r="C36" s="30"/>
       <c r="D36" s="30"/>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="30"/>
       <c r="B37" s="30"/>
       <c r="C37" s="30"/>
       <c r="D37" s="30"/>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="30"/>
       <c r="B38" s="30"/>
       <c r="C38" s="30"/>
@@ -10566,12 +10546,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -10583,19 +10558,19 @@
       <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="70.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="80.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="33.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="255.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15">
+    <row r="1" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="b">
         <v>0</v>
       </c>
@@ -10614,7 +10589,7 @@
       <c r="H1" s="17"/>
       <c r="I1" s="17"/>
     </row>
-    <row r="2" spans="1:9" ht="15">
+    <row r="2" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="17"/>
       <c r="B2" s="17" t="s">
         <v>21</v>
@@ -10635,7 +10610,7 @@
       <c r="H2" s="17"/>
       <c r="I2" s="17"/>
     </row>
-    <row r="3" spans="1:9" ht="15">
+    <row r="3" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="17"/>
       <c r="B3" s="17" t="s">
         <v>21</v>
@@ -10658,7 +10633,7 @@
       </c>
       <c r="I3" s="17"/>
     </row>
-    <row r="4" spans="1:9" ht="15">
+    <row r="4" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="17"/>
       <c r="B4" s="17" t="s">
         <v>21</v>
@@ -10681,7 +10656,7 @@
       </c>
       <c r="I4" s="17"/>
     </row>
-    <row r="5" spans="1:9" ht="15">
+    <row r="5" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="17"/>
       <c r="B5" s="17" t="s">
         <v>21</v>
@@ -10704,7 +10679,7 @@
       </c>
       <c r="I5" s="17"/>
     </row>
-    <row r="6" spans="1:9" ht="15">
+    <row r="6" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="17" t="s">
         <v>21</v>
@@ -10727,7 +10702,7 @@
       </c>
       <c r="I6" s="17"/>
     </row>
-    <row r="7" spans="1:9" ht="15">
+    <row r="7" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="17"/>
       <c r="B7" s="17" t="s">
         <v>21</v>
@@ -10750,7 +10725,7 @@
       </c>
       <c r="I7" s="17"/>
     </row>
-    <row r="8" spans="1:9" ht="15">
+    <row r="8" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="17"/>
       <c r="B8" s="17" t="s">
         <v>21</v>
@@ -10773,7 +10748,7 @@
       </c>
       <c r="I8" s="17"/>
     </row>
-    <row r="9" spans="1:9" ht="15">
+    <row r="9" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="17"/>
       <c r="B9" s="17" t="s">
         <v>21</v>
@@ -10796,7 +10771,7 @@
       </c>
       <c r="I9" s="17"/>
     </row>
-    <row r="10" spans="1:9" ht="15">
+    <row r="10" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="17"/>
       <c r="B10" s="17" t="s">
         <v>21</v>
@@ -10819,7 +10794,7 @@
       </c>
       <c r="I10" s="17"/>
     </row>
-    <row r="11" spans="1:9" ht="15">
+    <row r="11" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="17" t="b">
         <v>0</v>
       </c>
@@ -10838,7 +10813,7 @@
       <c r="H11" s="17"/>
       <c r="I11" s="17"/>
     </row>
-    <row r="12" spans="1:9" ht="15">
+    <row r="12" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="17"/>
       <c r="B12" s="17" t="s">
         <v>21</v>
@@ -10859,7 +10834,7 @@
       <c r="H12" s="17"/>
       <c r="I12" s="17"/>
     </row>
-    <row r="13" spans="1:9" ht="15">
+    <row r="13" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="17"/>
       <c r="B13" s="17" t="s">
         <v>21</v>
@@ -10882,7 +10857,7 @@
       </c>
       <c r="I13" s="17"/>
     </row>
-    <row r="14" spans="1:9" ht="15">
+    <row r="14" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="17"/>
       <c r="B14" s="17" t="s">
         <v>21</v>
@@ -10905,7 +10880,7 @@
       </c>
       <c r="I14" s="17"/>
     </row>
-    <row r="15" spans="1:9" ht="15">
+    <row r="15" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="17"/>
       <c r="B15" s="17" t="s">
         <v>21</v>
@@ -10928,7 +10903,7 @@
       </c>
       <c r="I15" s="17"/>
     </row>
-    <row r="16" spans="1:9" ht="15">
+    <row r="16" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="17"/>
       <c r="B16" s="17" t="s">
         <v>21</v>
@@ -10951,7 +10926,7 @@
       </c>
       <c r="I16" s="17"/>
     </row>
-    <row r="17" spans="1:9" ht="15">
+    <row r="17" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="17"/>
       <c r="B17" s="17" t="s">
         <v>21</v>
@@ -10974,7 +10949,7 @@
       </c>
       <c r="I17" s="17"/>
     </row>
-    <row r="18" spans="1:9" ht="15">
+    <row r="18" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="17"/>
       <c r="B18" s="17" t="s">
         <v>21</v>
@@ -10997,7 +10972,7 @@
       </c>
       <c r="I18" s="17"/>
     </row>
-    <row r="19" spans="1:9" ht="15">
+    <row r="19" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="17"/>
       <c r="B19" s="17" t="s">
         <v>21</v>
@@ -11020,7 +10995,7 @@
       </c>
       <c r="I19" s="17"/>
     </row>
-    <row r="20" spans="1:9" ht="15">
+    <row r="20" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="17"/>
       <c r="B20" s="17" t="s">
         <v>21</v>
@@ -11043,7 +11018,7 @@
       </c>
       <c r="I20" s="17"/>
     </row>
-    <row r="21" spans="1:9" ht="15">
+    <row r="21" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="17" t="b">
         <v>0</v>
       </c>
@@ -11062,7 +11037,7 @@
       <c r="H21" s="17"/>
       <c r="I21" s="17"/>
     </row>
-    <row r="22" spans="1:9" ht="15">
+    <row r="22" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="17"/>
       <c r="B22" s="17" t="s">
         <v>21</v>
@@ -11085,7 +11060,7 @@
       </c>
       <c r="I22" s="17"/>
     </row>
-    <row r="23" spans="1:9" ht="15">
+    <row r="23" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="17"/>
       <c r="B23" s="17" t="s">
         <v>21</v>
@@ -11108,7 +11083,7 @@
       </c>
       <c r="I23" s="17"/>
     </row>
-    <row r="24" spans="1:9" ht="15">
+    <row r="24" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="17"/>
       <c r="B24" s="17" t="s">
         <v>21</v>
@@ -11131,7 +11106,7 @@
       </c>
       <c r="I24" s="17"/>
     </row>
-    <row r="25" spans="1:9" ht="15">
+    <row r="25" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="17"/>
       <c r="B25" s="17" t="s">
         <v>21</v>
@@ -11154,7 +11129,7 @@
       </c>
       <c r="I25" s="17"/>
     </row>
-    <row r="26" spans="1:9" ht="15">
+    <row r="26" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="17"/>
       <c r="B26" s="17" t="s">
         <v>21</v>
@@ -11177,7 +11152,7 @@
       </c>
       <c r="I26" s="17"/>
     </row>
-    <row r="27" spans="1:9" ht="15">
+    <row r="27" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="17"/>
       <c r="B27" s="17" t="s">
         <v>21</v>
@@ -11200,7 +11175,7 @@
       </c>
       <c r="I27" s="17"/>
     </row>
-    <row r="28" spans="1:9" ht="15">
+    <row r="28" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="17"/>
       <c r="B28" s="17" t="s">
         <v>21</v>
@@ -11223,7 +11198,7 @@
       </c>
       <c r="I28" s="17"/>
     </row>
-    <row r="29" spans="1:9" ht="15">
+    <row r="29" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="17"/>
       <c r="B29" s="17" t="s">
         <v>21</v>
@@ -11246,7 +11221,7 @@
       </c>
       <c r="I29" s="17"/>
     </row>
-    <row r="30" spans="1:9" ht="15">
+    <row r="30" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="17"/>
       <c r="B30" s="17" t="s">
         <v>21</v>
@@ -11269,7 +11244,7 @@
       </c>
       <c r="I30" s="17"/>
     </row>
-    <row r="31" spans="1:9" ht="15">
+    <row r="31" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="17" t="b">
         <v>0</v>
       </c>
@@ -11288,7 +11263,7 @@
       <c r="H31" s="17"/>
       <c r="I31" s="17"/>
     </row>
-    <row r="32" spans="1:9" ht="15">
+    <row r="32" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="17"/>
       <c r="B32" s="17" t="s">
         <v>21</v>
@@ -11309,7 +11284,7 @@
       <c r="H32" s="17"/>
       <c r="I32" s="17"/>
     </row>
-    <row r="33" spans="1:9" ht="15">
+    <row r="33" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="17"/>
       <c r="B33" s="17" t="s">
         <v>21</v>
@@ -11332,7 +11307,7 @@
       </c>
       <c r="I33" s="17"/>
     </row>
-    <row r="34" spans="1:9" ht="15">
+    <row r="34" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="17"/>
       <c r="B34" s="17" t="s">
         <v>21</v>
@@ -11355,7 +11330,7 @@
       </c>
       <c r="I34" s="17"/>
     </row>
-    <row r="35" spans="1:9" ht="15">
+    <row r="35" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="17"/>
       <c r="B35" s="17" t="s">
         <v>21</v>
@@ -11378,7 +11353,7 @@
       </c>
       <c r="I35" s="17"/>
     </row>
-    <row r="36" spans="1:9" ht="15">
+    <row r="36" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="17"/>
       <c r="B36" s="17" t="s">
         <v>21</v>
@@ -11401,7 +11376,7 @@
       </c>
       <c r="I36" s="17"/>
     </row>
-    <row r="37" spans="1:9" ht="15">
+    <row r="37" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="17"/>
       <c r="B37" s="17" t="s">
         <v>21</v>
@@ -11424,7 +11399,7 @@
       </c>
       <c r="I37" s="17"/>
     </row>
-    <row r="38" spans="1:9" ht="15">
+    <row r="38" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="17"/>
       <c r="B38" s="17" t="s">
         <v>21</v>
@@ -11447,7 +11422,7 @@
       </c>
       <c r="I38" s="17"/>
     </row>
-    <row r="39" spans="1:9" ht="15">
+    <row r="39" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="17"/>
       <c r="B39" s="17" t="s">
         <v>21</v>
@@ -11470,7 +11445,7 @@
       </c>
       <c r="I39" s="17"/>
     </row>
-    <row r="40" spans="1:9" ht="15">
+    <row r="40" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="17"/>
       <c r="B40" s="17" t="s">
         <v>21</v>
@@ -11493,7 +11468,7 @@
       </c>
       <c r="I40" s="17"/>
     </row>
-    <row r="41" spans="1:9" ht="15">
+    <row r="41" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="17" t="b">
         <v>0</v>
       </c>
@@ -11512,7 +11487,7 @@
       <c r="H41" s="17"/>
       <c r="I41" s="17"/>
     </row>
-    <row r="42" spans="1:9" ht="15">
+    <row r="42" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="17"/>
       <c r="B42" s="17" t="s">
         <v>21</v>
@@ -11533,7 +11508,7 @@
       <c r="H42" s="17"/>
       <c r="I42" s="17"/>
     </row>
-    <row r="43" spans="1:9" ht="15">
+    <row r="43" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="17"/>
       <c r="B43" s="17" t="s">
         <v>21</v>
@@ -11556,7 +11531,7 @@
       </c>
       <c r="I43" s="17"/>
     </row>
-    <row r="44" spans="1:9" ht="15">
+    <row r="44" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="17"/>
       <c r="B44" s="17" t="s">
         <v>21</v>
@@ -11579,7 +11554,7 @@
       </c>
       <c r="I44" s="17"/>
     </row>
-    <row r="45" spans="1:9" ht="15">
+    <row r="45" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" s="17"/>
       <c r="B45" s="17" t="s">
         <v>21</v>
@@ -11602,7 +11577,7 @@
       </c>
       <c r="I45" s="17"/>
     </row>
-    <row r="46" spans="1:9" ht="15">
+    <row r="46" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="17"/>
       <c r="B46" s="17" t="s">
         <v>21</v>
@@ -11625,7 +11600,7 @@
       </c>
       <c r="I46" s="17"/>
     </row>
-    <row r="47" spans="1:9" ht="15">
+    <row r="47" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" s="17"/>
       <c r="B47" s="17" t="s">
         <v>21</v>
@@ -11648,7 +11623,7 @@
       </c>
       <c r="I47" s="17"/>
     </row>
-    <row r="48" spans="1:9" ht="15">
+    <row r="48" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="17"/>
       <c r="B48" s="17" t="s">
         <v>21</v>
@@ -11671,7 +11646,7 @@
       </c>
       <c r="I48" s="17"/>
     </row>
-    <row r="49" spans="1:9" ht="15">
+    <row r="49" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" s="17"/>
       <c r="B49" s="17" t="s">
         <v>21</v>
@@ -11694,7 +11669,7 @@
       </c>
       <c r="I49" s="17"/>
     </row>
-    <row r="50" spans="1:9" ht="15">
+    <row r="50" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50" s="17"/>
       <c r="B50" s="17" t="s">
         <v>21</v>
@@ -11717,7 +11692,7 @@
       </c>
       <c r="I50" s="17"/>
     </row>
-    <row r="51" spans="1:9" ht="15">
+    <row r="51" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A51" s="17" t="b">
         <v>0</v>
       </c>
@@ -11736,7 +11711,7 @@
       <c r="H51" s="17"/>
       <c r="I51" s="17"/>
     </row>
-    <row r="52" spans="1:9" ht="15">
+    <row r="52" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52" s="17"/>
       <c r="B52" s="17" t="s">
         <v>21</v>
@@ -11757,7 +11732,7 @@
       <c r="H52" s="17"/>
       <c r="I52" s="17"/>
     </row>
-    <row r="53" spans="1:9" ht="15">
+    <row r="53" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A53" s="17"/>
       <c r="B53" s="17" t="s">
         <v>21</v>
@@ -11780,7 +11755,7 @@
       </c>
       <c r="I53" s="17"/>
     </row>
-    <row r="54" spans="1:9" ht="15">
+    <row r="54" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A54" s="17"/>
       <c r="B54" s="17" t="s">
         <v>21</v>
@@ -11803,7 +11778,7 @@
       </c>
       <c r="I54" s="17"/>
     </row>
-    <row r="55" spans="1:9" ht="15">
+    <row r="55" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A55" s="17"/>
       <c r="B55" s="17" t="s">
         <v>21</v>
@@ -11826,7 +11801,7 @@
       </c>
       <c r="I55" s="17"/>
     </row>
-    <row r="56" spans="1:9" ht="15">
+    <row r="56" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A56" s="17"/>
       <c r="B56" s="17" t="s">
         <v>21</v>
@@ -11849,7 +11824,7 @@
       </c>
       <c r="I56" s="17"/>
     </row>
-    <row r="57" spans="1:9" ht="15">
+    <row r="57" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A57" s="17"/>
       <c r="B57" s="17" t="s">
         <v>21</v>
@@ -11872,7 +11847,7 @@
       </c>
       <c r="I57" s="17"/>
     </row>
-    <row r="58" spans="1:9" ht="15">
+    <row r="58" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A58" s="17"/>
       <c r="B58" s="17" t="s">
         <v>21</v>
@@ -11895,7 +11870,7 @@
       </c>
       <c r="I58" s="17"/>
     </row>
-    <row r="59" spans="1:9" ht="15">
+    <row r="59" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A59" s="17"/>
       <c r="B59" s="17" t="s">
         <v>21</v>
@@ -11918,7 +11893,7 @@
       </c>
       <c r="I59" s="17"/>
     </row>
-    <row r="60" spans="1:9" ht="15">
+    <row r="60" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A60" s="17"/>
       <c r="B60" s="17" t="s">
         <v>21</v>
@@ -11941,7 +11916,7 @@
       </c>
       <c r="I60" s="17"/>
     </row>
-    <row r="61" spans="1:9" ht="15">
+    <row r="61" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A61" s="17" t="b">
         <v>0</v>
       </c>
@@ -11960,7 +11935,7 @@
       <c r="H61" s="17"/>
       <c r="I61" s="17"/>
     </row>
-    <row r="62" spans="1:9" ht="15">
+    <row r="62" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A62" s="17"/>
       <c r="B62" s="17" t="s">
         <v>21</v>
@@ -11981,7 +11956,7 @@
       <c r="H62" s="17"/>
       <c r="I62" s="17"/>
     </row>
-    <row r="63" spans="1:9" ht="15">
+    <row r="63" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A63" s="17"/>
       <c r="B63" s="17" t="s">
         <v>21</v>
@@ -12006,7 +11981,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="15">
+    <row r="64" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A64" s="17"/>
       <c r="B64" s="17" t="s">
         <v>21</v>
@@ -12029,7 +12004,7 @@
       </c>
       <c r="I64" s="17"/>
     </row>
-    <row r="65" spans="1:9" ht="15">
+    <row r="65" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A65" s="17"/>
       <c r="B65" s="17" t="s">
         <v>21</v>
@@ -12052,7 +12027,7 @@
       </c>
       <c r="I65" s="17"/>
     </row>
-    <row r="66" spans="1:9" ht="15">
+    <row r="66" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A66" s="17"/>
       <c r="B66" s="17" t="s">
         <v>21</v>
@@ -12075,7 +12050,7 @@
       </c>
       <c r="I66" s="17"/>
     </row>
-    <row r="67" spans="1:9" ht="15">
+    <row r="67" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A67" s="17"/>
       <c r="B67" s="17" t="s">
         <v>21</v>
@@ -12098,7 +12073,7 @@
       </c>
       <c r="I67" s="17"/>
     </row>
-    <row r="68" spans="1:9" ht="15">
+    <row r="68" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A68" s="17"/>
       <c r="B68" s="17" t="s">
         <v>21</v>
@@ -12121,7 +12096,7 @@
       </c>
       <c r="I68" s="17"/>
     </row>
-    <row r="69" spans="1:9" ht="15">
+    <row r="69" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A69" s="17"/>
       <c r="B69" s="17" t="s">
         <v>21</v>
@@ -12144,7 +12119,7 @@
       </c>
       <c r="I69" s="17"/>
     </row>
-    <row r="70" spans="1:9" ht="15">
+    <row r="70" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A70" s="17"/>
       <c r="B70" s="17" t="s">
         <v>21</v>
@@ -12167,7 +12142,7 @@
       </c>
       <c r="I70" s="17"/>
     </row>
-    <row r="71" spans="1:9" ht="15">
+    <row r="71" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A71" s="17"/>
       <c r="B71" s="17" t="s">
         <v>21</v>
@@ -12190,7 +12165,7 @@
       </c>
       <c r="I71" s="17"/>
     </row>
-    <row r="72" spans="1:9" ht="15">
+    <row r="72" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A72" s="17" t="b">
         <v>0</v>
       </c>
@@ -12209,7 +12184,7 @@
       <c r="H72" s="17"/>
       <c r="I72" s="17"/>
     </row>
-    <row r="73" spans="1:9" ht="15">
+    <row r="73" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A73" s="17"/>
       <c r="B73" s="17" t="s">
         <v>21</v>
@@ -12230,7 +12205,7 @@
       <c r="H73" s="17"/>
       <c r="I73" s="17"/>
     </row>
-    <row r="74" spans="1:9" ht="15">
+    <row r="74" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A74" s="17"/>
       <c r="B74" s="17" t="s">
         <v>21</v>
@@ -12253,7 +12228,7 @@
       </c>
       <c r="I74" s="17"/>
     </row>
-    <row r="75" spans="1:9" ht="15">
+    <row r="75" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A75" s="17"/>
       <c r="B75" s="17" t="s">
         <v>21</v>
@@ -12278,7 +12253,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="15">
+    <row r="76" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A76" s="17"/>
       <c r="B76" s="17" t="s">
         <v>21</v>
@@ -12301,7 +12276,7 @@
       </c>
       <c r="I76" s="17"/>
     </row>
-    <row r="77" spans="1:9" ht="15">
+    <row r="77" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A77" s="17"/>
       <c r="B77" s="17" t="s">
         <v>21</v>
@@ -12324,7 +12299,7 @@
       </c>
       <c r="I77" s="17"/>
     </row>
-    <row r="78" spans="1:9" ht="15">
+    <row r="78" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A78" s="17"/>
       <c r="B78" s="17" t="s">
         <v>21</v>
@@ -12347,7 +12322,7 @@
       </c>
       <c r="I78" s="17"/>
     </row>
-    <row r="79" spans="1:9" ht="15">
+    <row r="79" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A79" s="17"/>
       <c r="B79" s="17" t="s">
         <v>21</v>
@@ -12370,7 +12345,7 @@
       </c>
       <c r="I79" s="17"/>
     </row>
-    <row r="80" spans="1:9" ht="15">
+    <row r="80" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A80" s="17"/>
       <c r="B80" s="17" t="s">
         <v>21</v>
@@ -12393,7 +12368,7 @@
       </c>
       <c r="I80" s="17"/>
     </row>
-    <row r="81" spans="1:9" ht="15">
+    <row r="81" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A81" s="17"/>
       <c r="B81" s="17" t="s">
         <v>21</v>
@@ -12416,7 +12391,7 @@
       </c>
       <c r="I81" s="17"/>
     </row>
-    <row r="82" spans="1:9" ht="15">
+    <row r="82" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A82" s="17"/>
       <c r="B82" s="17" t="s">
         <v>21</v>
@@ -12439,7 +12414,7 @@
       </c>
       <c r="I82" s="17"/>
     </row>
-    <row r="83" spans="1:9" ht="15">
+    <row r="83" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A83" s="17"/>
       <c r="B83" s="17" t="s">
         <v>21</v>
@@ -12462,7 +12437,7 @@
       </c>
       <c r="I83" s="17"/>
     </row>
-    <row r="84" spans="1:9" ht="15">
+    <row r="84" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A84" s="17"/>
       <c r="B84" s="17" t="s">
         <v>21</v>
@@ -12485,7 +12460,7 @@
       </c>
       <c r="I84" s="17"/>
     </row>
-    <row r="85" spans="1:9" ht="15">
+    <row r="85" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A85" s="17"/>
       <c r="B85" s="17" t="s">
         <v>21</v>
@@ -12508,7 +12483,7 @@
       </c>
       <c r="I85" s="17"/>
     </row>
-    <row r="86" spans="1:9" ht="15">
+    <row r="86" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A86" s="17" t="b">
         <v>0</v>
       </c>
@@ -12527,7 +12502,7 @@
       <c r="H86" s="17"/>
       <c r="I86" s="17"/>
     </row>
-    <row r="87" spans="1:9" ht="15">
+    <row r="87" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A87" s="17"/>
       <c r="B87" s="17" t="s">
         <v>21</v>
@@ -12550,7 +12525,7 @@
       </c>
       <c r="I87" s="17"/>
     </row>
-    <row r="88" spans="1:9" ht="15">
+    <row r="88" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A88" s="17"/>
       <c r="B88" s="17" t="s">
         <v>21</v>
@@ -12573,7 +12548,7 @@
       </c>
       <c r="I88" s="17"/>
     </row>
-    <row r="89" spans="1:9" ht="15">
+    <row r="89" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A89" s="17"/>
       <c r="B89" s="17" t="s">
         <v>21</v>
@@ -12596,7 +12571,7 @@
       </c>
       <c r="I89" s="17"/>
     </row>
-    <row r="90" spans="1:9" ht="15">
+    <row r="90" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A90" s="17"/>
       <c r="B90" s="17" t="s">
         <v>21</v>
@@ -12619,7 +12594,7 @@
       </c>
       <c r="I90" s="17"/>
     </row>
-    <row r="91" spans="1:9" ht="15">
+    <row r="91" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A91" s="17"/>
       <c r="B91" s="17" t="s">
         <v>21</v>
@@ -12642,7 +12617,7 @@
       </c>
       <c r="I91" s="17"/>
     </row>
-    <row r="92" spans="1:9" ht="15">
+    <row r="92" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A92" s="17"/>
       <c r="B92" s="17" t="s">
         <v>21</v>
@@ -12665,7 +12640,7 @@
       </c>
       <c r="I92" s="17"/>
     </row>
-    <row r="93" spans="1:9" ht="15">
+    <row r="93" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A93" s="17"/>
       <c r="B93" s="17" t="s">
         <v>21</v>
@@ -12688,7 +12663,7 @@
       </c>
       <c r="I93" s="17"/>
     </row>
-    <row r="94" spans="1:9" ht="15">
+    <row r="94" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A94" s="17"/>
       <c r="B94" s="17" t="s">
         <v>21</v>
@@ -12711,7 +12686,7 @@
       </c>
       <c r="I94" s="17"/>
     </row>
-    <row r="95" spans="1:9" ht="15">
+    <row r="95" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A95" s="17"/>
       <c r="B95" s="17" t="s">
         <v>21</v>
@@ -12734,7 +12709,7 @@
       </c>
       <c r="I95" s="17"/>
     </row>
-    <row r="96" spans="1:9" ht="15">
+    <row r="96" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A96" s="17"/>
       <c r="B96" s="17" t="s">
         <v>21</v>
@@ -12757,7 +12732,7 @@
       </c>
       <c r="I96" s="17"/>
     </row>
-    <row r="97" spans="1:9" ht="15">
+    <row r="97" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A97" s="17" t="b">
         <v>0</v>
       </c>
@@ -12776,7 +12751,7 @@
       <c r="H97" s="17"/>
       <c r="I97" s="17"/>
     </row>
-    <row r="98" spans="1:9" ht="15">
+    <row r="98" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A98" s="17"/>
       <c r="B98" s="17" t="s">
         <v>21</v>
@@ -12801,7 +12776,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="15">
+    <row r="99" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A99" s="17" t="b">
         <v>0</v>
       </c>
@@ -12820,7 +12795,7 @@
       <c r="H99" s="17"/>
       <c r="I99" s="17"/>
     </row>
-    <row r="100" spans="1:9" ht="15">
+    <row r="100" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A100" s="17"/>
       <c r="B100" s="17" t="s">
         <v>21</v>
@@ -12841,7 +12816,7 @@
       <c r="H100" s="17"/>
       <c r="I100" s="17"/>
     </row>
-    <row r="101" spans="1:9" ht="15">
+    <row r="101" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A101" s="17"/>
       <c r="B101" s="17" t="s">
         <v>21</v>
@@ -12866,7 +12841,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="15">
+    <row r="102" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A102" s="17" t="b">
         <v>0</v>
       </c>
@@ -12885,7 +12860,7 @@
       <c r="H102" s="17"/>
       <c r="I102" s="17"/>
     </row>
-    <row r="103" spans="1:9" ht="15">
+    <row r="103" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A103" s="17"/>
       <c r="B103" s="17" t="s">
         <v>21</v>
@@ -12908,7 +12883,7 @@
       </c>
       <c r="I103" s="17"/>
     </row>
-    <row r="104" spans="1:9" ht="15">
+    <row r="104" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A104" s="17"/>
       <c r="B104" s="17" t="s">
         <v>21</v>
@@ -12933,7 +12908,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="15">
+    <row r="105" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A105" s="17"/>
       <c r="B105" s="17" t="s">
         <v>21</v>
@@ -12956,7 +12931,7 @@
       </c>
       <c r="I105" s="17"/>
     </row>
-    <row r="106" spans="1:9" ht="15">
+    <row r="106" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A106" s="17"/>
       <c r="B106" s="17" t="s">
         <v>21</v>
@@ -12977,7 +12952,7 @@
       <c r="H106" s="17"/>
       <c r="I106" s="17"/>
     </row>
-    <row r="107" spans="1:9" ht="15">
+    <row r="107" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A107" s="17" t="b">
         <v>0</v>
       </c>
@@ -12996,7 +12971,7 @@
       <c r="H107" s="17"/>
       <c r="I107" s="17"/>
     </row>
-    <row r="108" spans="1:9" ht="15">
+    <row r="108" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A108" s="17"/>
       <c r="B108" s="17" t="s">
         <v>21</v>
@@ -13021,7 +12996,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="15">
+    <row r="109" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A109" s="17"/>
       <c r="B109" s="17" t="s">
         <v>21</v>
@@ -13044,7 +13019,7 @@
       </c>
       <c r="I109" s="17"/>
     </row>
-    <row r="110" spans="1:9" ht="15">
+    <row r="110" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A110" s="17"/>
       <c r="B110" s="17" t="s">
         <v>21</v>
@@ -13067,7 +13042,7 @@
       </c>
       <c r="I110" s="17"/>
     </row>
-    <row r="111" spans="1:9" ht="15">
+    <row r="111" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A111" s="17"/>
       <c r="B111" s="17" t="s">
         <v>21</v>
@@ -13090,7 +13065,7 @@
       </c>
       <c r="I111" s="17"/>
     </row>
-    <row r="112" spans="1:9" ht="15">
+    <row r="112" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A112" s="17"/>
       <c r="B112" s="17" t="s">
         <v>21</v>
@@ -13113,7 +13088,7 @@
       </c>
       <c r="I112" s="17"/>
     </row>
-    <row r="113" spans="1:9" ht="15">
+    <row r="113" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A113" s="17"/>
       <c r="B113" s="17" t="s">
         <v>21</v>
@@ -13136,7 +13111,7 @@
       </c>
       <c r="I113" s="17"/>
     </row>
-    <row r="114" spans="1:9" ht="15">
+    <row r="114" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A114" s="17"/>
       <c r="B114" s="17" t="s">
         <v>21</v>
@@ -13159,7 +13134,7 @@
       </c>
       <c r="I114" s="17"/>
     </row>
-    <row r="115" spans="1:9" ht="15">
+    <row r="115" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A115" s="17" t="b">
         <v>0</v>
       </c>
@@ -13178,7 +13153,7 @@
       <c r="H115" s="17"/>
       <c r="I115" s="17"/>
     </row>
-    <row r="116" spans="1:9" ht="15">
+    <row r="116" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A116" s="17"/>
       <c r="B116" s="17" t="s">
         <v>21</v>
@@ -13201,7 +13176,7 @@
       </c>
       <c r="I116" s="17"/>
     </row>
-    <row r="117" spans="1:9" ht="15">
+    <row r="117" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A117" s="17"/>
       <c r="B117" s="17" t="s">
         <v>21</v>
@@ -13224,7 +13199,7 @@
       </c>
       <c r="I117" s="17"/>
     </row>
-    <row r="118" spans="1:9" ht="15">
+    <row r="118" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A118" s="17"/>
       <c r="B118" s="17" t="s">
         <v>21</v>
@@ -13247,7 +13222,7 @@
       </c>
       <c r="I118" s="17"/>
     </row>
-    <row r="119" spans="1:9" ht="15">
+    <row r="119" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A119" s="17" t="b">
         <v>0</v>
       </c>
@@ -13266,7 +13241,7 @@
       <c r="H119" s="17"/>
       <c r="I119" s="17"/>
     </row>
-    <row r="120" spans="1:9" ht="15">
+    <row r="120" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A120" s="17"/>
       <c r="B120" s="17" t="s">
         <v>21</v>
@@ -13289,7 +13264,7 @@
       </c>
       <c r="I120" s="17"/>
     </row>
-    <row r="121" spans="1:9" ht="15">
+    <row r="121" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A121" s="17"/>
       <c r="B121" s="17" t="s">
         <v>21</v>
@@ -13312,7 +13287,7 @@
       </c>
       <c r="I121" s="17"/>
     </row>
-    <row r="122" spans="1:9" ht="15">
+    <row r="122" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A122" s="17"/>
       <c r="B122" s="17" t="s">
         <v>21</v>
@@ -13335,7 +13310,7 @@
       </c>
       <c r="I122" s="17"/>
     </row>
-    <row r="123" spans="1:9" ht="15">
+    <row r="123" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A123" s="17"/>
       <c r="B123" s="17" t="s">
         <v>21</v>
@@ -13358,7 +13333,7 @@
       </c>
       <c r="I123" s="17"/>
     </row>
-    <row r="124" spans="1:9" ht="15">
+    <row r="124" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A124" s="17"/>
       <c r="B124" s="17" t="s">
         <v>21</v>
@@ -13381,7 +13356,7 @@
       </c>
       <c r="I124" s="17"/>
     </row>
-    <row r="125" spans="1:9" ht="15">
+    <row r="125" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A125" s="17"/>
       <c r="B125" s="17" t="s">
         <v>21</v>
@@ -13404,7 +13379,7 @@
       </c>
       <c r="I125" s="17"/>
     </row>
-    <row r="126" spans="1:9" ht="15">
+    <row r="126" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A126" s="17" t="b">
         <v>0</v>
       </c>
@@ -13423,7 +13398,7 @@
       <c r="H126" s="17"/>
       <c r="I126" s="17"/>
     </row>
-    <row r="127" spans="1:9" ht="15">
+    <row r="127" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A127" s="17"/>
       <c r="B127" s="17" t="s">
         <v>21</v>
@@ -13448,7 +13423,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="128" spans="1:9" ht="15">
+    <row r="128" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A128" s="17"/>
       <c r="B128" s="17" t="s">
         <v>21</v>
@@ -13471,7 +13446,7 @@
       </c>
       <c r="I128" s="17"/>
     </row>
-    <row r="129" spans="1:9" ht="15">
+    <row r="129" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A129" s="17"/>
       <c r="B129" s="17" t="s">
         <v>21</v>
@@ -13494,7 +13469,7 @@
       </c>
       <c r="I129" s="17"/>
     </row>
-    <row r="130" spans="1:9" ht="15">
+    <row r="130" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A130" s="17"/>
       <c r="B130" s="17" t="s">
         <v>21</v>
@@ -13517,7 +13492,7 @@
       </c>
       <c r="I130" s="17"/>
     </row>
-    <row r="131" spans="1:9" ht="15">
+    <row r="131" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A131" s="17"/>
       <c r="B131" s="17" t="s">
         <v>21</v>
@@ -13540,7 +13515,7 @@
       </c>
       <c r="I131" s="17"/>
     </row>
-    <row r="132" spans="1:9" ht="15">
+    <row r="132" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A132" s="17"/>
       <c r="B132" s="17" t="s">
         <v>21</v>
@@ -13563,7 +13538,7 @@
       </c>
       <c r="I132" s="17"/>
     </row>
-    <row r="133" spans="1:9" ht="15">
+    <row r="133" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A133" s="17"/>
       <c r="B133" s="17" t="s">
         <v>21</v>
@@ -13586,7 +13561,7 @@
       </c>
       <c r="I133" s="17"/>
     </row>
-    <row r="134" spans="1:9" ht="15">
+    <row r="134" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A134" s="17"/>
       <c r="B134" s="17" t="s">
         <v>21</v>
@@ -13609,7 +13584,7 @@
       </c>
       <c r="I134" s="17"/>
     </row>
-    <row r="135" spans="1:9" ht="15">
+    <row r="135" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A135" s="17"/>
       <c r="B135" s="17" t="s">
         <v>21</v>
@@ -13632,7 +13607,7 @@
       </c>
       <c r="I135" s="17"/>
     </row>
-    <row r="136" spans="1:9" ht="15">
+    <row r="136" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A136" s="17" t="b">
         <v>0</v>
       </c>
@@ -13651,7 +13626,7 @@
       <c r="H136" s="17"/>
       <c r="I136" s="17"/>
     </row>
-    <row r="137" spans="1:9" ht="15">
+    <row r="137" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A137" s="17"/>
       <c r="B137" s="17" t="s">
         <v>21</v>
@@ -13676,7 +13651,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="138" spans="1:9" ht="15">
+    <row r="138" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A138" s="17"/>
       <c r="B138" s="17" t="s">
         <v>21</v>
@@ -13697,7 +13672,7 @@
       <c r="H138" s="17"/>
       <c r="I138" s="17"/>
     </row>
-    <row r="139" spans="1:9" ht="15">
+    <row r="139" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A139" s="17"/>
       <c r="B139" s="17" t="s">
         <v>21</v>
@@ -13720,7 +13695,7 @@
       </c>
       <c r="I139" s="17"/>
     </row>
-    <row r="140" spans="1:9" ht="15">
+    <row r="140" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A140" s="17"/>
       <c r="B140" s="17" t="s">
         <v>21</v>
@@ -13743,7 +13718,7 @@
       </c>
       <c r="I140" s="17"/>
     </row>
-    <row r="141" spans="1:9" ht="15">
+    <row r="141" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A141" s="17"/>
       <c r="B141" s="17" t="s">
         <v>21</v>
@@ -13766,7 +13741,7 @@
       </c>
       <c r="I141" s="17"/>
     </row>
-    <row r="142" spans="1:9" ht="15">
+    <row r="142" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A142" s="17"/>
       <c r="B142" s="17" t="s">
         <v>21</v>
@@ -13789,7 +13764,7 @@
       </c>
       <c r="I142" s="17"/>
     </row>
-    <row r="143" spans="1:9" ht="15">
+    <row r="143" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A143" s="17"/>
       <c r="B143" s="17" t="s">
         <v>21</v>
@@ -13812,7 +13787,7 @@
       </c>
       <c r="I143" s="17"/>
     </row>
-    <row r="144" spans="1:9" ht="15">
+    <row r="144" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A144" s="17"/>
       <c r="B144" s="17" t="s">
         <v>21</v>
@@ -13835,7 +13810,7 @@
       </c>
       <c r="I144" s="17"/>
     </row>
-    <row r="145" spans="1:9" ht="15">
+    <row r="145" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A145" s="17"/>
       <c r="B145" s="17" t="s">
         <v>21</v>
@@ -13858,7 +13833,7 @@
       </c>
       <c r="I145" s="17"/>
     </row>
-    <row r="146" spans="1:9" ht="15">
+    <row r="146" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A146" s="17"/>
       <c r="B146" s="17" t="s">
         <v>21</v>
@@ -13881,7 +13856,7 @@
       </c>
       <c r="I146" s="17"/>
     </row>
-    <row r="147" spans="1:9" ht="15">
+    <row r="147" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A147" s="17"/>
       <c r="B147" s="17" t="s">
         <v>21</v>
@@ -13904,7 +13879,7 @@
       </c>
       <c r="I147" s="17"/>
     </row>
-    <row r="148" spans="1:9" ht="15">
+    <row r="148" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A148" s="17"/>
       <c r="B148" s="17" t="s">
         <v>21</v>
@@ -13927,7 +13902,7 @@
       </c>
       <c r="I148" s="17"/>
     </row>
-    <row r="149" spans="1:9" ht="15">
+    <row r="149" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A149" s="17"/>
       <c r="B149" s="17" t="s">
         <v>21</v>
@@ -13950,7 +13925,7 @@
       </c>
       <c r="I149" s="17"/>
     </row>
-    <row r="150" spans="1:9" ht="15">
+    <row r="150" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A150" s="17"/>
       <c r="B150" s="17" t="s">
         <v>21</v>
@@ -13973,7 +13948,7 @@
       </c>
       <c r="I150" s="17"/>
     </row>
-    <row r="151" spans="1:9" ht="15">
+    <row r="151" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A151" s="17" t="b">
         <v>0</v>
       </c>
@@ -13992,7 +13967,7 @@
       <c r="H151" s="17"/>
       <c r="I151" s="17"/>
     </row>
-    <row r="152" spans="1:9" ht="15">
+    <row r="152" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A152" s="17"/>
       <c r="B152" s="17" t="s">
         <v>21</v>
@@ -14015,7 +13990,7 @@
       </c>
       <c r="I152" s="17"/>
     </row>
-    <row r="153" spans="1:9" ht="15">
+    <row r="153" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A153" s="17" t="b">
         <v>0</v>
       </c>
@@ -14034,7 +14009,7 @@
       <c r="H153" s="17"/>
       <c r="I153" s="17"/>
     </row>
-    <row r="154" spans="1:9" ht="15">
+    <row r="154" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A154" s="17"/>
       <c r="B154" s="17" t="s">
         <v>21</v>
@@ -14057,7 +14032,7 @@
       </c>
       <c r="I154" s="17"/>
     </row>
-    <row r="155" spans="1:9" ht="15">
+    <row r="155" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A155" s="17"/>
       <c r="B155" s="17" t="s">
         <v>21</v>
@@ -14080,7 +14055,7 @@
       </c>
       <c r="I155" s="17"/>
     </row>
-    <row r="156" spans="1:9" ht="15">
+    <row r="156" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A156" s="17" t="b">
         <v>0</v>
       </c>
@@ -14099,7 +14074,7 @@
       <c r="H156" s="17"/>
       <c r="I156" s="17"/>
     </row>
-    <row r="157" spans="1:9" ht="15">
+    <row r="157" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A157" s="17"/>
       <c r="B157" s="17" t="s">
         <v>21</v>
@@ -14124,7 +14099,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="158" spans="1:9" ht="15">
+    <row r="158" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A158" s="17"/>
       <c r="B158" s="17" t="s">
         <v>21</v>
@@ -14147,7 +14122,7 @@
       </c>
       <c r="I158" s="17"/>
     </row>
-    <row r="159" spans="1:9" ht="15">
+    <row r="159" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A159" s="17"/>
       <c r="B159" s="17" t="s">
         <v>21</v>
@@ -14170,7 +14145,7 @@
       </c>
       <c r="I159" s="17"/>
     </row>
-    <row r="160" spans="1:9" ht="15">
+    <row r="160" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A160" s="17"/>
       <c r="B160" s="17" t="s">
         <v>21</v>
@@ -14193,7 +14168,7 @@
       </c>
       <c r="I160" s="17"/>
     </row>
-    <row r="161" spans="1:9" ht="15">
+    <row r="161" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A161" s="17"/>
       <c r="B161" s="17" t="s">
         <v>21</v>
@@ -14216,7 +14191,7 @@
       </c>
       <c r="I161" s="17"/>
     </row>
-    <row r="162" spans="1:9" ht="15">
+    <row r="162" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A162" s="17"/>
       <c r="B162" s="17" t="s">
         <v>21</v>
@@ -14239,7 +14214,7 @@
       </c>
       <c r="I162" s="17"/>
     </row>
-    <row r="163" spans="1:9" ht="15">
+    <row r="163" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A163" s="17"/>
       <c r="B163" s="17" t="s">
         <v>21</v>
@@ -14262,7 +14237,7 @@
       </c>
       <c r="I163" s="17"/>
     </row>
-    <row r="164" spans="1:9" ht="15">
+    <row r="164" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A164" s="17"/>
       <c r="B164" s="17" t="s">
         <v>21</v>
@@ -14285,7 +14260,7 @@
       </c>
       <c r="I164" s="17"/>
     </row>
-    <row r="165" spans="1:9" ht="15">
+    <row r="165" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A165" s="17"/>
       <c r="B165" s="17" t="s">
         <v>21</v>
@@ -14308,7 +14283,7 @@
       </c>
       <c r="I165" s="17"/>
     </row>
-    <row r="166" spans="1:9" ht="15">
+    <row r="166" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A166" s="17"/>
       <c r="B166" s="17" t="s">
         <v>21</v>
@@ -14331,7 +14306,7 @@
       </c>
       <c r="I166" s="17"/>
     </row>
-    <row r="167" spans="1:9" ht="15">
+    <row r="167" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A167" s="17" t="b">
         <v>0</v>
       </c>
@@ -14350,7 +14325,7 @@
       <c r="H167" s="17"/>
       <c r="I167" s="17"/>
     </row>
-    <row r="168" spans="1:9" ht="15">
+    <row r="168" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A168" s="17"/>
       <c r="B168" s="17" t="s">
         <v>21</v>
@@ -14375,7 +14350,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="169" spans="1:9" ht="15">
+    <row r="169" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A169" s="17"/>
       <c r="B169" s="17" t="s">
         <v>21</v>
@@ -14398,7 +14373,7 @@
       </c>
       <c r="I169" s="17"/>
     </row>
-    <row r="170" spans="1:9" ht="15">
+    <row r="170" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A170" s="17"/>
       <c r="B170" s="17" t="s">
         <v>21</v>
@@ -14421,7 +14396,7 @@
       </c>
       <c r="I170" s="17"/>
     </row>
-    <row r="171" spans="1:9" ht="15">
+    <row r="171" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A171" s="17"/>
       <c r="B171" s="17" t="s">
         <v>21</v>
@@ -14444,7 +14419,7 @@
       </c>
       <c r="I171" s="17"/>
     </row>
-    <row r="172" spans="1:9" ht="15">
+    <row r="172" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A172" s="17"/>
       <c r="B172" s="17" t="s">
         <v>21</v>
@@ -14467,7 +14442,7 @@
       </c>
       <c r="I172" s="17"/>
     </row>
-    <row r="173" spans="1:9" ht="15">
+    <row r="173" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A173" s="17"/>
       <c r="B173" s="17" t="s">
         <v>21</v>
@@ -14490,7 +14465,7 @@
       </c>
       <c r="I173" s="17"/>
     </row>
-    <row r="174" spans="1:9" ht="15">
+    <row r="174" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A174" s="17"/>
       <c r="B174" s="17" t="s">
         <v>21</v>
@@ -14513,7 +14488,7 @@
       </c>
       <c r="I174" s="17"/>
     </row>
-    <row r="175" spans="1:9" ht="15">
+    <row r="175" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A175" s="17"/>
       <c r="B175" s="17" t="s">
         <v>21</v>
@@ -14536,7 +14511,7 @@
       </c>
       <c r="I175" s="17"/>
     </row>
-    <row r="176" spans="1:9" ht="15">
+    <row r="176" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A176" s="17"/>
       <c r="B176" s="17" t="s">
         <v>21</v>
@@ -14559,7 +14534,7 @@
       </c>
       <c r="I176" s="17"/>
     </row>
-    <row r="177" spans="1:9" ht="15">
+    <row r="177" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A177" s="17"/>
       <c r="B177" s="17" t="s">
         <v>21</v>
@@ -14582,7 +14557,7 @@
       </c>
       <c r="I177" s="17"/>
     </row>
-    <row r="178" spans="1:9" ht="15">
+    <row r="178" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A178" s="17" t="b">
         <v>0</v>
       </c>
@@ -14601,7 +14576,7 @@
       <c r="H178" s="17"/>
       <c r="I178" s="17"/>
     </row>
-    <row r="179" spans="1:9" ht="15">
+    <row r="179" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A179" s="17"/>
       <c r="B179" s="17" t="s">
         <v>21</v>
@@ -14624,7 +14599,7 @@
       </c>
       <c r="I179" s="17"/>
     </row>
-    <row r="180" spans="1:9" ht="15">
+    <row r="180" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A180" s="17"/>
       <c r="B180" s="17" t="s">
         <v>21</v>
@@ -14647,7 +14622,7 @@
       </c>
       <c r="I180" s="17"/>
     </row>
-    <row r="181" spans="1:9" ht="15">
+    <row r="181" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A181" s="17"/>
       <c r="B181" s="17" t="s">
         <v>21</v>
@@ -14670,7 +14645,7 @@
       </c>
       <c r="I181" s="17"/>
     </row>
-    <row r="182" spans="1:9" ht="15">
+    <row r="182" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A182" s="17"/>
       <c r="B182" s="17" t="s">
         <v>21</v>
@@ -14693,7 +14668,7 @@
       </c>
       <c r="I182" s="17"/>
     </row>
-    <row r="183" spans="1:9" ht="15">
+    <row r="183" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A183" s="17" t="b">
         <v>0</v>
       </c>
@@ -14712,7 +14687,7 @@
       <c r="H183" s="17"/>
       <c r="I183" s="17"/>
     </row>
-    <row r="184" spans="1:9" ht="15">
+    <row r="184" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A184" s="17"/>
       <c r="B184" s="17" t="s">
         <v>21</v>
@@ -14735,7 +14710,7 @@
       </c>
       <c r="I184" s="17"/>
     </row>
-    <row r="185" spans="1:9" ht="15">
+    <row r="185" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A185" s="17"/>
       <c r="B185" s="17" t="s">
         <v>21</v>
@@ -14758,7 +14733,7 @@
       </c>
       <c r="I185" s="17"/>
     </row>
-    <row r="186" spans="1:9" ht="15">
+    <row r="186" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A186" s="17"/>
       <c r="B186" s="17" t="s">
         <v>21</v>
@@ -14781,7 +14756,7 @@
       </c>
       <c r="I186" s="17"/>
     </row>
-    <row r="187" spans="1:9" ht="15">
+    <row r="187" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A187" s="17"/>
       <c r="B187" s="17" t="s">
         <v>21</v>
@@ -14804,7 +14779,7 @@
       </c>
       <c r="I187" s="17"/>
     </row>
-    <row r="188" spans="1:9" ht="15">
+    <row r="188" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A188" s="17" t="b">
         <v>0</v>
       </c>
@@ -14823,7 +14798,7 @@
       <c r="H188" s="17"/>
       <c r="I188" s="17"/>
     </row>
-    <row r="189" spans="1:9" ht="15">
+    <row r="189" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A189" s="17"/>
       <c r="B189" s="17" t="s">
         <v>21</v>
@@ -14844,7 +14819,7 @@
       <c r="H189" s="17"/>
       <c r="I189" s="17"/>
     </row>
-    <row r="190" spans="1:9" ht="15">
+    <row r="190" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A190" s="17"/>
       <c r="B190" s="17" t="s">
         <v>21</v>
@@ -14867,7 +14842,7 @@
       </c>
       <c r="I190" s="17"/>
     </row>
-    <row r="191" spans="1:9" ht="15">
+    <row r="191" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A191" s="17" t="b">
         <v>0</v>
       </c>
@@ -14886,7 +14861,7 @@
       <c r="H191" s="17"/>
       <c r="I191" s="17"/>
     </row>
-    <row r="192" spans="1:9" ht="15">
+    <row r="192" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A192" s="17"/>
       <c r="B192" s="17" t="s">
         <v>21</v>
@@ -14909,7 +14884,7 @@
       </c>
       <c r="I192" s="17"/>
     </row>
-    <row r="193" spans="1:9" ht="15">
+    <row r="193" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A193" s="17"/>
       <c r="B193" s="17" t="s">
         <v>21</v>
@@ -14934,7 +14909,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="194" spans="1:9" ht="15">
+    <row r="194" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A194" s="17"/>
       <c r="B194" s="17" t="s">
         <v>21</v>
@@ -14955,7 +14930,7 @@
       <c r="H194" s="17"/>
       <c r="I194" s="17"/>
     </row>
-    <row r="195" spans="1:9" ht="15">
+    <row r="195" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A195" s="17"/>
       <c r="B195" s="17" t="s">
         <v>21</v>
@@ -14980,7 +14955,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="196" spans="1:9" ht="15">
+    <row r="196" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A196" s="17"/>
       <c r="B196" s="17" t="s">
         <v>21</v>
@@ -15005,7 +14980,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="197" spans="1:9" ht="15">
+    <row r="197" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A197" s="17" t="b">
         <v>0</v>
       </c>
@@ -15024,7 +14999,7 @@
       <c r="H197" s="17"/>
       <c r="I197" s="17"/>
     </row>
-    <row r="198" spans="1:9" ht="15">
+    <row r="198" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A198" s="17"/>
       <c r="B198" s="17" t="s">
         <v>21</v>
@@ -15049,7 +15024,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="199" spans="1:9" ht="15">
+    <row r="199" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A199" s="17"/>
       <c r="B199" s="17" t="s">
         <v>21</v>
@@ -15072,7 +15047,7 @@
       </c>
       <c r="I199" s="17"/>
     </row>
-    <row r="200" spans="1:9" ht="15">
+    <row r="200" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A200" s="17"/>
       <c r="B200" s="17" t="s">
         <v>21</v>
@@ -15095,7 +15070,7 @@
       </c>
       <c r="I200" s="17"/>
     </row>
-    <row r="201" spans="1:9" ht="15">
+    <row r="201" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A201" s="17"/>
       <c r="B201" s="17" t="s">
         <v>21</v>
@@ -15118,7 +15093,7 @@
       </c>
       <c r="I201" s="17"/>
     </row>
-    <row r="202" spans="1:9" ht="15">
+    <row r="202" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A202" s="17"/>
       <c r="B202" s="17" t="s">
         <v>21</v>
@@ -15141,7 +15116,7 @@
       </c>
       <c r="I202" s="17"/>
     </row>
-    <row r="203" spans="1:9" ht="15">
+    <row r="203" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A203" s="17"/>
       <c r="B203" s="17" t="s">
         <v>21</v>
@@ -15164,7 +15139,7 @@
       </c>
       <c r="I203" s="17"/>
     </row>
-    <row r="204" spans="1:9" ht="15">
+    <row r="204" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A204" s="17"/>
       <c r="B204" s="17" t="s">
         <v>21</v>
@@ -15187,7 +15162,7 @@
       </c>
       <c r="I204" s="17"/>
     </row>
-    <row r="205" spans="1:9" ht="15">
+    <row r="205" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A205" s="17"/>
       <c r="B205" s="17" t="s">
         <v>21</v>
@@ -15210,7 +15185,7 @@
       </c>
       <c r="I205" s="17"/>
     </row>
-    <row r="206" spans="1:9" ht="15">
+    <row r="206" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A206" s="17"/>
       <c r="B206" s="17" t="s">
         <v>21</v>
@@ -15233,7 +15208,7 @@
       </c>
       <c r="I206" s="17"/>
     </row>
-    <row r="207" spans="1:9" ht="15">
+    <row r="207" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A207" s="17" t="b">
         <v>0</v>
       </c>
@@ -15252,7 +15227,7 @@
       <c r="H207" s="17"/>
       <c r="I207" s="17"/>
     </row>
-    <row r="208" spans="1:9" ht="15">
+    <row r="208" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A208" s="17"/>
       <c r="B208" s="17" t="s">
         <v>21</v>
@@ -15277,7 +15252,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="209" spans="1:9" ht="15">
+    <row r="209" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A209" s="17"/>
       <c r="B209" s="17" t="s">
         <v>21</v>
@@ -15300,7 +15275,7 @@
       </c>
       <c r="I209" s="17"/>
     </row>
-    <row r="210" spans="1:9" ht="15">
+    <row r="210" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A210" s="17"/>
       <c r="B210" s="17" t="s">
         <v>21</v>
@@ -15323,7 +15298,7 @@
       </c>
       <c r="I210" s="17"/>
     </row>
-    <row r="211" spans="1:9" ht="15">
+    <row r="211" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A211" s="17"/>
       <c r="B211" s="17" t="s">
         <v>21</v>
@@ -15346,7 +15321,7 @@
       </c>
       <c r="I211" s="17"/>
     </row>
-    <row r="212" spans="1:9" ht="15">
+    <row r="212" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A212" s="17"/>
       <c r="B212" s="17" t="s">
         <v>21</v>
@@ -15369,7 +15344,7 @@
       </c>
       <c r="I212" s="17"/>
     </row>
-    <row r="213" spans="1:9" ht="15">
+    <row r="213" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A213" s="17"/>
       <c r="B213" s="17" t="s">
         <v>21</v>
@@ -15392,7 +15367,7 @@
       </c>
       <c r="I213" s="17"/>
     </row>
-    <row r="214" spans="1:9" ht="15">
+    <row r="214" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A214" s="17"/>
       <c r="B214" s="17" t="s">
         <v>21</v>
@@ -15415,7 +15390,7 @@
       </c>
       <c r="I214" s="17"/>
     </row>
-    <row r="215" spans="1:9" ht="15">
+    <row r="215" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A215" s="17"/>
       <c r="B215" s="17" t="s">
         <v>21</v>
@@ -15438,7 +15413,7 @@
       </c>
       <c r="I215" s="17"/>
     </row>
-    <row r="216" spans="1:9" ht="15">
+    <row r="216" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A216" s="17"/>
       <c r="B216" s="17" t="s">
         <v>21</v>
@@ -15461,7 +15436,7 @@
       </c>
       <c r="I216" s="17"/>
     </row>
-    <row r="217" spans="1:9" ht="15">
+    <row r="217" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A217" s="17" t="b">
         <v>0</v>
       </c>
@@ -15480,7 +15455,7 @@
       <c r="H217" s="17"/>
       <c r="I217" s="17"/>
     </row>
-    <row r="218" spans="1:9" ht="15">
+    <row r="218" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A218" s="17"/>
       <c r="B218" s="17" t="s">
         <v>21</v>
@@ -15501,7 +15476,7 @@
       <c r="H218" s="17"/>
       <c r="I218" s="17"/>
     </row>
-    <row r="219" spans="1:9" ht="15">
+    <row r="219" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A219" s="17"/>
       <c r="B219" s="17" t="s">
         <v>21</v>
@@ -15524,7 +15499,7 @@
       </c>
       <c r="I219" s="17"/>
     </row>
-    <row r="220" spans="1:9" ht="15">
+    <row r="220" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A220" s="17"/>
       <c r="B220" s="17" t="s">
         <v>21</v>
@@ -15547,7 +15522,7 @@
       </c>
       <c r="I220" s="17"/>
     </row>
-    <row r="221" spans="1:9" ht="15">
+    <row r="221" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A221" s="17"/>
       <c r="B221" s="17" t="s">
         <v>21</v>
@@ -15570,7 +15545,7 @@
       </c>
       <c r="I221" s="17"/>
     </row>
-    <row r="222" spans="1:9" ht="15">
+    <row r="222" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A222" s="17"/>
       <c r="B222" s="17" t="s">
         <v>21</v>
@@ -15593,7 +15568,7 @@
       </c>
       <c r="I222" s="17"/>
     </row>
-    <row r="223" spans="1:9" ht="15">
+    <row r="223" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A223" s="17"/>
       <c r="B223" s="17" t="s">
         <v>21</v>
@@ -15616,7 +15591,7 @@
       </c>
       <c r="I223" s="17"/>
     </row>
-    <row r="224" spans="1:9" ht="15">
+    <row r="224" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A224" s="17"/>
       <c r="B224" s="17" t="s">
         <v>21</v>
@@ -15639,7 +15614,7 @@
       </c>
       <c r="I224" s="17"/>
     </row>
-    <row r="225" spans="1:9" ht="15">
+    <row r="225" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A225" s="17"/>
       <c r="B225" s="17" t="s">
         <v>21</v>
@@ -15662,7 +15637,7 @@
       </c>
       <c r="I225" s="17"/>
     </row>
-    <row r="226" spans="1:9" ht="15">
+    <row r="226" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A226" s="17"/>
       <c r="B226" s="17" t="s">
         <v>21</v>
@@ -15685,7 +15660,7 @@
       </c>
       <c r="I226" s="17"/>
     </row>
-    <row r="227" spans="1:9" ht="15">
+    <row r="227" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A227" s="17"/>
       <c r="B227" s="17" t="s">
         <v>21</v>
@@ -15708,7 +15683,7 @@
       </c>
       <c r="I227" s="17"/>
     </row>
-    <row r="228" spans="1:9" ht="15">
+    <row r="228" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A228" s="17"/>
       <c r="B228" s="17" t="s">
         <v>21</v>
@@ -15731,7 +15706,7 @@
       </c>
       <c r="I228" s="17"/>
     </row>
-    <row r="229" spans="1:9" ht="15">
+    <row r="229" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A229" s="17"/>
       <c r="B229" s="17" t="s">
         <v>21</v>
@@ -15754,7 +15729,7 @@
       </c>
       <c r="I229" s="17"/>
     </row>
-    <row r="230" spans="1:9" ht="15">
+    <row r="230" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A230" s="17"/>
       <c r="B230" s="17" t="s">
         <v>21</v>
@@ -15777,7 +15752,7 @@
       </c>
       <c r="I230" s="17"/>
     </row>
-    <row r="231" spans="1:9" ht="15">
+    <row r="231" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A231" s="17"/>
       <c r="B231" s="17" t="s">
         <v>21</v>
@@ -15800,7 +15775,7 @@
       </c>
       <c r="I231" s="17"/>
     </row>
-    <row r="232" spans="1:9" ht="15">
+    <row r="232" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A232" s="17"/>
       <c r="B232" s="17" t="s">
         <v>21</v>
@@ -15823,7 +15798,7 @@
       </c>
       <c r="I232" s="17"/>
     </row>
-    <row r="233" spans="1:9" ht="15">
+    <row r="233" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A233" s="17"/>
       <c r="B233" s="17" t="s">
         <v>21</v>
@@ -15846,7 +15821,7 @@
       </c>
       <c r="I233" s="17"/>
     </row>
-    <row r="234" spans="1:9" ht="15">
+    <row r="234" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A234" s="17" t="b">
         <v>0</v>
       </c>
@@ -15865,7 +15840,7 @@
       <c r="H234" s="17"/>
       <c r="I234" s="17"/>
     </row>
-    <row r="235" spans="1:9" ht="15">
+    <row r="235" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A235" s="17"/>
       <c r="B235" s="17" t="s">
         <v>21</v>
@@ -15886,7 +15861,7 @@
       <c r="H235" s="17"/>
       <c r="I235" s="17"/>
     </row>
-    <row r="236" spans="1:9" ht="15">
+    <row r="236" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A236" s="17"/>
       <c r="B236" s="17" t="s">
         <v>21</v>
@@ -15909,7 +15884,7 @@
       </c>
       <c r="I236" s="17"/>
     </row>
-    <row r="237" spans="1:9" ht="15">
+    <row r="237" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A237" s="17"/>
       <c r="B237" s="17" t="s">
         <v>21</v>
@@ -15932,7 +15907,7 @@
       </c>
       <c r="I237" s="17"/>
     </row>
-    <row r="238" spans="1:9" ht="15">
+    <row r="238" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A238" s="17"/>
       <c r="B238" s="17" t="s">
         <v>21</v>
@@ -15955,7 +15930,7 @@
       </c>
       <c r="I238" s="17"/>
     </row>
-    <row r="239" spans="1:9" ht="15">
+    <row r="239" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A239" s="17"/>
       <c r="B239" s="17" t="s">
         <v>21</v>
@@ -15978,7 +15953,7 @@
       </c>
       <c r="I239" s="17"/>
     </row>
-    <row r="240" spans="1:9" ht="15">
+    <row r="240" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A240" s="17"/>
       <c r="B240" s="17" t="s">
         <v>21</v>
@@ -16001,7 +15976,7 @@
       </c>
       <c r="I240" s="17"/>
     </row>
-    <row r="241" spans="1:9" ht="15">
+    <row r="241" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A241" s="17"/>
       <c r="B241" s="17" t="s">
         <v>21</v>
@@ -16024,7 +15999,7 @@
       </c>
       <c r="I241" s="17"/>
     </row>
-    <row r="242" spans="1:9" ht="15">
+    <row r="242" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A242" s="17"/>
       <c r="B242" s="17" t="s">
         <v>21</v>
@@ -16047,7 +16022,7 @@
       </c>
       <c r="I242" s="17"/>
     </row>
-    <row r="243" spans="1:9" ht="15">
+    <row r="243" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A243" s="17"/>
       <c r="B243" s="17" t="s">
         <v>21</v>
@@ -16070,7 +16045,7 @@
       </c>
       <c r="I243" s="17"/>
     </row>
-    <row r="244" spans="1:9" ht="15">
+    <row r="244" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A244" s="17"/>
       <c r="B244" s="17" t="s">
         <v>21</v>
@@ -16093,7 +16068,7 @@
       </c>
       <c r="I244" s="17"/>
     </row>
-    <row r="245" spans="1:9" ht="15">
+    <row r="245" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A245" s="17"/>
       <c r="B245" s="17" t="s">
         <v>21</v>
@@ -16116,7 +16091,7 @@
       </c>
       <c r="I245" s="17"/>
     </row>
-    <row r="246" spans="1:9" ht="15">
+    <row r="246" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A246" s="17"/>
       <c r="B246" s="17" t="s">
         <v>21</v>
@@ -16139,7 +16114,7 @@
       </c>
       <c r="I246" s="17"/>
     </row>
-    <row r="247" spans="1:9" ht="15">
+    <row r="247" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A247" s="17"/>
       <c r="B247" s="17" t="s">
         <v>21</v>
@@ -16162,7 +16137,7 @@
       </c>
       <c r="I247" s="17"/>
     </row>
-    <row r="248" spans="1:9" ht="15">
+    <row r="248" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A248" s="17"/>
       <c r="B248" s="17" t="s">
         <v>21</v>
@@ -16185,7 +16160,7 @@
       </c>
       <c r="I248" s="17"/>
     </row>
-    <row r="249" spans="1:9" ht="15">
+    <row r="249" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A249" s="17"/>
       <c r="B249" s="17" t="s">
         <v>21</v>
@@ -16208,7 +16183,7 @@
       </c>
       <c r="I249" s="17"/>
     </row>
-    <row r="250" spans="1:9" ht="15">
+    <row r="250" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A250" s="17"/>
       <c r="B250" s="17" t="s">
         <v>21</v>
@@ -16231,7 +16206,7 @@
       </c>
       <c r="I250" s="17"/>
     </row>
-    <row r="251" spans="1:9" ht="15">
+    <row r="251" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A251" s="17" t="b">
         <v>0</v>
       </c>
@@ -16250,7 +16225,7 @@
       <c r="H251" s="17"/>
       <c r="I251" s="17"/>
     </row>
-    <row r="252" spans="1:9" ht="15">
+    <row r="252" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A252" s="17"/>
       <c r="B252" s="17" t="s">
         <v>21</v>
@@ -16275,7 +16250,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="253" spans="1:9" ht="15">
+    <row r="253" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A253" s="17"/>
       <c r="B253" s="17" t="s">
         <v>21</v>
@@ -16298,7 +16273,7 @@
       </c>
       <c r="I253" s="17"/>
     </row>
-    <row r="254" spans="1:9" ht="15">
+    <row r="254" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A254" s="17"/>
       <c r="B254" s="17" t="s">
         <v>21</v>
@@ -16321,7 +16296,7 @@
       </c>
       <c r="I254" s="17"/>
     </row>
-    <row r="255" spans="1:9" ht="15">
+    <row r="255" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A255" s="17"/>
       <c r="B255" s="17" t="s">
         <v>21</v>
@@ -16344,7 +16319,7 @@
       </c>
       <c r="I255" s="17"/>
     </row>
-    <row r="256" spans="1:9" ht="15">
+    <row r="256" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A256" s="17"/>
       <c r="B256" s="17" t="s">
         <v>21</v>
@@ -16367,7 +16342,7 @@
       </c>
       <c r="I256" s="17"/>
     </row>
-    <row r="257" spans="1:9" ht="15">
+    <row r="257" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A257" s="17" t="b">
         <v>0</v>
       </c>
@@ -16386,7 +16361,7 @@
       <c r="H257" s="17"/>
       <c r="I257" s="17"/>
     </row>
-    <row r="258" spans="1:9" ht="15">
+    <row r="258" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A258" s="17"/>
       <c r="B258" s="17" t="s">
         <v>21</v>
@@ -16411,7 +16386,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="259" spans="1:9" ht="15">
+    <row r="259" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A259" s="17"/>
       <c r="B259" s="17" t="s">
         <v>21</v>
@@ -16434,7 +16409,7 @@
       </c>
       <c r="I259" s="17"/>
     </row>
-    <row r="260" spans="1:9" ht="15">
+    <row r="260" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A260" s="17" t="b">
         <v>0</v>
       </c>
@@ -16453,7 +16428,7 @@
       <c r="H260" s="17"/>
       <c r="I260" s="17"/>
     </row>
-    <row r="261" spans="1:9" ht="15">
+    <row r="261" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A261" s="17" t="b">
         <v>0</v>
       </c>
@@ -16472,7 +16447,7 @@
       <c r="H261" s="17"/>
       <c r="I261" s="17"/>
     </row>
-    <row r="262" spans="1:9" ht="15">
+    <row r="262" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A262" s="17" t="b">
         <v>0</v>
       </c>
@@ -16491,7 +16466,7 @@
       <c r="H262" s="17"/>
       <c r="I262" s="17"/>
     </row>
-    <row r="263" spans="1:9" ht="15">
+    <row r="263" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A263" s="17"/>
       <c r="B263" s="17" t="s">
         <v>21</v>
@@ -16512,7 +16487,7 @@
       <c r="H263" s="17"/>
       <c r="I263" s="17"/>
     </row>
-    <row r="264" spans="1:9" ht="15">
+    <row r="264" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A264" s="17"/>
       <c r="B264" s="17" t="s">
         <v>21</v>
@@ -16535,7 +16510,7 @@
       </c>
       <c r="I264" s="17"/>
     </row>
-    <row r="265" spans="1:9" ht="15">
+    <row r="265" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A265" s="17"/>
       <c r="B265" s="17" t="s">
         <v>21</v>
@@ -16558,7 +16533,7 @@
       </c>
       <c r="I265" s="17"/>
     </row>
-    <row r="266" spans="1:9" ht="15">
+    <row r="266" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A266" s="17"/>
       <c r="B266" s="17" t="s">
         <v>21</v>
@@ -16581,7 +16556,7 @@
       </c>
       <c r="I266" s="17"/>
     </row>
-    <row r="267" spans="1:9" ht="15">
+    <row r="267" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A267" s="17"/>
       <c r="B267" s="17" t="s">
         <v>21</v>
@@ -16604,7 +16579,7 @@
       </c>
       <c r="I267" s="17"/>
     </row>
-    <row r="268" spans="1:9" ht="15">
+    <row r="268" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A268" s="17"/>
       <c r="B268" s="17" t="s">
         <v>21</v>
@@ -16627,7 +16602,7 @@
       </c>
       <c r="I268" s="17"/>
     </row>
-    <row r="269" spans="1:9" ht="15">
+    <row r="269" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A269" s="17"/>
       <c r="B269" s="17" t="s">
         <v>21</v>
@@ -16650,7 +16625,7 @@
       </c>
       <c r="I269" s="17"/>
     </row>
-    <row r="270" spans="1:9" ht="15">
+    <row r="270" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A270" s="17"/>
       <c r="B270" s="17" t="s">
         <v>21</v>
@@ -16673,7 +16648,7 @@
       </c>
       <c r="I270" s="17"/>
     </row>
-    <row r="271" spans="1:9" ht="15">
+    <row r="271" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A271" s="17"/>
       <c r="B271" s="17" t="s">
         <v>21</v>
@@ -16696,7 +16671,7 @@
       </c>
       <c r="I271" s="17"/>
     </row>
-    <row r="272" spans="1:9" ht="15">
+    <row r="272" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A272" s="17"/>
       <c r="B272" s="17" t="s">
         <v>21</v>
@@ -16719,7 +16694,7 @@
       </c>
       <c r="I272" s="17"/>
     </row>
-    <row r="273" spans="1:9" ht="15">
+    <row r="273" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A273" s="17"/>
       <c r="B273" s="17" t="s">
         <v>21</v>
@@ -16742,7 +16717,7 @@
       </c>
       <c r="I273" s="17"/>
     </row>
-    <row r="274" spans="1:9" ht="15">
+    <row r="274" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A274" s="17" t="b">
         <v>0</v>
       </c>
@@ -16761,7 +16736,7 @@
       <c r="H274" s="17"/>
       <c r="I274" s="17"/>
     </row>
-    <row r="275" spans="1:9" ht="15">
+    <row r="275" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A275" s="17"/>
       <c r="B275" s="17" t="s">
         <v>21</v>
@@ -16784,7 +16759,7 @@
       </c>
       <c r="I275" s="17"/>
     </row>
-    <row r="276" spans="1:9" ht="15">
+    <row r="276" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A276" s="17" t="b">
         <v>0</v>
       </c>
@@ -16803,7 +16778,7 @@
       <c r="H276" s="17"/>
       <c r="I276" s="17"/>
     </row>
-    <row r="277" spans="1:9" ht="15">
+    <row r="277" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A277" s="17"/>
       <c r="B277" s="17" t="s">
         <v>21</v>
@@ -16828,7 +16803,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="278" spans="1:9" ht="15">
+    <row r="278" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A278" s="17"/>
       <c r="B278" s="17" t="s">
         <v>21</v>
@@ -16851,7 +16826,7 @@
       </c>
       <c r="I278" s="17"/>
     </row>
-    <row r="279" spans="1:9" ht="15">
+    <row r="279" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A279" s="17"/>
       <c r="B279" s="17" t="s">
         <v>21</v>
@@ -16874,7 +16849,7 @@
       </c>
       <c r="I279" s="17"/>
     </row>
-    <row r="280" spans="1:9" ht="15">
+    <row r="280" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A280" s="17"/>
       <c r="B280" s="17" t="s">
         <v>21</v>
@@ -16897,7 +16872,7 @@
       </c>
       <c r="I280" s="17"/>
     </row>
-    <row r="281" spans="1:9" ht="15">
+    <row r="281" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A281" s="17"/>
       <c r="B281" s="17" t="s">
         <v>21</v>
@@ -16920,7 +16895,7 @@
       </c>
       <c r="I281" s="17"/>
     </row>
-    <row r="282" spans="1:9" ht="15">
+    <row r="282" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A282" s="17"/>
       <c r="B282" s="17" t="s">
         <v>21</v>
@@ -16943,7 +16918,7 @@
       </c>
       <c r="I282" s="17"/>
     </row>
-    <row r="283" spans="1:9" ht="15">
+    <row r="283" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A283" s="17"/>
       <c r="B283" s="17" t="s">
         <v>21</v>
@@ -16966,7 +16941,7 @@
       </c>
       <c r="I283" s="17"/>
     </row>
-    <row r="284" spans="1:9" ht="15">
+    <row r="284" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A284" s="17"/>
       <c r="B284" s="17" t="s">
         <v>21</v>
@@ -16989,7 +16964,7 @@
       </c>
       <c r="I284" s="17"/>
     </row>
-    <row r="285" spans="1:9" ht="15">
+    <row r="285" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A285" s="17"/>
       <c r="B285" s="17" t="s">
         <v>21</v>
@@ -17012,7 +16987,7 @@
       </c>
       <c r="I285" s="17"/>
     </row>
-    <row r="286" spans="1:9" ht="15">
+    <row r="286" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A286" s="17"/>
       <c r="B286" s="17" t="s">
         <v>21</v>
@@ -17035,7 +17010,7 @@
       </c>
       <c r="I286" s="17"/>
     </row>
-    <row r="287" spans="1:9" ht="15">
+    <row r="287" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A287" s="17"/>
       <c r="B287" s="17" t="s">
         <v>21</v>
@@ -17058,7 +17033,7 @@
       </c>
       <c r="I287" s="17"/>
     </row>
-    <row r="288" spans="1:9" ht="15">
+    <row r="288" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A288" s="17" t="b">
         <v>0</v>
       </c>
@@ -17077,7 +17052,7 @@
       <c r="H288" s="17"/>
       <c r="I288" s="17"/>
     </row>
-    <row r="289" spans="1:9" ht="15">
+    <row r="289" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A289" s="17"/>
       <c r="B289" s="17" t="s">
         <v>21</v>
@@ -17100,7 +17075,7 @@
       </c>
       <c r="I289" s="17"/>
     </row>
-    <row r="290" spans="1:9" ht="15">
+    <row r="290" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A290" s="17" t="b">
         <v>0</v>
       </c>
@@ -17119,7 +17094,7 @@
       <c r="H290" s="17"/>
       <c r="I290" s="17"/>
     </row>
-    <row r="291" spans="1:9" ht="15">
+    <row r="291" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A291" s="17"/>
       <c r="B291" s="17" t="s">
         <v>21</v>
@@ -17140,7 +17115,7 @@
       <c r="H291" s="17"/>
       <c r="I291" s="17"/>
     </row>
-    <row r="292" spans="1:9" ht="15">
+    <row r="292" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A292" s="17" t="b">
         <v>0</v>
       </c>
@@ -17159,7 +17134,7 @@
       <c r="H292" s="17"/>
       <c r="I292" s="17"/>
     </row>
-    <row r="293" spans="1:9" ht="15">
+    <row r="293" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A293" s="17"/>
       <c r="B293" s="17" t="s">
         <v>21</v>
@@ -17180,7 +17155,7 @@
       <c r="H293" s="17"/>
       <c r="I293" s="17"/>
     </row>
-    <row r="294" spans="1:9" ht="15">
+    <row r="294" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A294" s="17" t="b">
         <v>0</v>
       </c>
@@ -17199,7 +17174,7 @@
       <c r="H294" s="17"/>
       <c r="I294" s="17"/>
     </row>
-    <row r="295" spans="1:9" ht="15">
+    <row r="295" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A295" s="17"/>
       <c r="B295" s="17" t="s">
         <v>21</v>
@@ -17220,7 +17195,7 @@
       <c r="H295" s="17"/>
       <c r="I295" s="17"/>
     </row>
-    <row r="296" spans="1:9" ht="15">
+    <row r="296" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A296" s="17" t="b">
         <v>0</v>
       </c>
@@ -17239,7 +17214,7 @@
       <c r="H296" s="17"/>
       <c r="I296" s="17"/>
     </row>
-    <row r="297" spans="1:9" ht="15">
+    <row r="297" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A297" s="17"/>
       <c r="B297" s="17" t="s">
         <v>21</v>
@@ -17262,7 +17237,7 @@
       </c>
       <c r="I297" s="17"/>
     </row>
-    <row r="298" spans="1:9" ht="15">
+    <row r="298" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A298" s="17" t="b">
         <v>0</v>
       </c>
@@ -17281,7 +17256,7 @@
       <c r="H298" s="17"/>
       <c r="I298" s="17"/>
     </row>
-    <row r="299" spans="1:9" ht="15">
+    <row r="299" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A299" s="17"/>
       <c r="B299" s="17" t="s">
         <v>21</v>
@@ -17306,7 +17281,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="300" spans="1:9" ht="15">
+    <row r="300" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A300" s="17"/>
       <c r="B300" s="17" t="s">
         <v>21</v>
@@ -17329,7 +17304,7 @@
       </c>
       <c r="I300" s="17"/>
     </row>
-    <row r="301" spans="1:9" ht="15">
+    <row r="301" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A301" s="17"/>
       <c r="B301" s="17" t="s">
         <v>21</v>
@@ -17352,7 +17327,7 @@
       </c>
       <c r="I301" s="17"/>
     </row>
-    <row r="302" spans="1:9" ht="15">
+    <row r="302" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A302" s="17"/>
       <c r="B302" s="17" t="s">
         <v>21</v>
@@ -17375,7 +17350,7 @@
       </c>
       <c r="I302" s="17"/>
     </row>
-    <row r="303" spans="1:9" ht="15">
+    <row r="303" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A303" s="17"/>
       <c r="B303" s="17" t="s">
         <v>21</v>
@@ -17398,7 +17373,7 @@
       </c>
       <c r="I303" s="17"/>
     </row>
-    <row r="304" spans="1:9" ht="15">
+    <row r="304" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A304" s="17"/>
       <c r="B304" s="17" t="s">
         <v>21</v>
@@ -17421,7 +17396,7 @@
       </c>
       <c r="I304" s="17"/>
     </row>
-    <row r="305" spans="1:9" ht="15">
+    <row r="305" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A305" s="17"/>
       <c r="B305" s="17" t="s">
         <v>21</v>
@@ -17444,7 +17419,7 @@
       </c>
       <c r="I305" s="17"/>
     </row>
-    <row r="306" spans="1:9" ht="15">
+    <row r="306" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A306" s="17"/>
       <c r="B306" s="17" t="s">
         <v>21</v>
@@ -17467,7 +17442,7 @@
       </c>
       <c r="I306" s="17"/>
     </row>
-    <row r="307" spans="1:9" ht="15">
+    <row r="307" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A307" s="17"/>
       <c r="B307" s="17" t="s">
         <v>21</v>
@@ -17490,7 +17465,7 @@
       </c>
       <c r="I307" s="17"/>
     </row>
-    <row r="308" spans="1:9" ht="15">
+    <row r="308" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A308" s="17" t="b">
         <v>0</v>
       </c>
@@ -17509,7 +17484,7 @@
       <c r="H308" s="17"/>
       <c r="I308" s="17"/>
     </row>
-    <row r="309" spans="1:9" ht="15">
+    <row r="309" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A309" s="17"/>
       <c r="B309" s="17" t="s">
         <v>21</v>
@@ -17532,7 +17507,7 @@
       </c>
       <c r="I309" s="17"/>
     </row>
-    <row r="310" spans="1:9" ht="15">
+    <row r="310" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A310" s="17"/>
       <c r="B310" s="17" t="s">
         <v>21</v>
@@ -17555,7 +17530,7 @@
       </c>
       <c r="I310" s="17"/>
     </row>
-    <row r="311" spans="1:9" ht="15">
+    <row r="311" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A311" s="17"/>
       <c r="B311" s="17" t="s">
         <v>21</v>
@@ -17578,7 +17553,7 @@
       </c>
       <c r="I311" s="17"/>
     </row>
-    <row r="312" spans="1:9" ht="15">
+    <row r="312" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A312" s="17"/>
       <c r="B312" s="17" t="s">
         <v>21</v>
@@ -17601,7 +17576,7 @@
       </c>
       <c r="I312" s="17"/>
     </row>
-    <row r="313" spans="1:9" ht="15">
+    <row r="313" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A313" s="17" t="b">
         <v>0</v>
       </c>
@@ -17620,7 +17595,7 @@
       <c r="H313" s="17"/>
       <c r="I313" s="17"/>
     </row>
-    <row r="314" spans="1:9" ht="15">
+    <row r="314" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A314" s="17"/>
       <c r="B314" s="17" t="s">
         <v>21</v>
@@ -17643,7 +17618,7 @@
       </c>
       <c r="I314" s="17"/>
     </row>
-    <row r="315" spans="1:9" ht="15">
+    <row r="315" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A315" s="17"/>
       <c r="B315" s="17" t="s">
         <v>21</v>
@@ -17666,7 +17641,7 @@
       </c>
       <c r="I315" s="17"/>
     </row>
-    <row r="316" spans="1:9" ht="15">
+    <row r="316" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A316" s="17"/>
       <c r="B316" s="17" t="s">
         <v>21</v>
@@ -17691,7 +17666,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="317" spans="1:9" ht="15">
+    <row r="317" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A317" s="17" t="b">
         <v>0</v>
       </c>
@@ -17710,7 +17685,7 @@
       <c r="H317" s="17"/>
       <c r="I317" s="17"/>
     </row>
-    <row r="318" spans="1:9" ht="15">
+    <row r="318" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A318" s="17"/>
       <c r="B318" s="17" t="s">
         <v>21</v>
@@ -17735,7 +17710,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="319" spans="1:9" ht="15">
+    <row r="319" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A319" s="17"/>
       <c r="B319" s="17" t="s">
         <v>21</v>
@@ -17758,7 +17733,7 @@
       </c>
       <c r="I319" s="17"/>
     </row>
-    <row r="320" spans="1:9" ht="15">
+    <row r="320" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A320" s="17" t="b">
         <v>0</v>
       </c>
@@ -17777,7 +17752,7 @@
       <c r="H320" s="17"/>
       <c r="I320" s="17"/>
     </row>
-    <row r="321" spans="1:9" ht="15">
+    <row r="321" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A321" s="17"/>
       <c r="B321" s="17" t="s">
         <v>21</v>
@@ -17798,7 +17773,7 @@
       <c r="H321" s="17"/>
       <c r="I321" s="17"/>
     </row>
-    <row r="322" spans="1:9" ht="15">
+    <row r="322" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A322" s="17"/>
       <c r="B322" s="17" t="s">
         <v>21</v>
@@ -17819,7 +17794,7 @@
       <c r="H322" s="17"/>
       <c r="I322" s="17"/>
     </row>
-    <row r="323" spans="1:9" ht="15">
+    <row r="323" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A323" s="17"/>
       <c r="B323" s="17" t="s">
         <v>21</v>
@@ -17842,7 +17817,7 @@
       </c>
       <c r="I323" s="17"/>
     </row>
-    <row r="324" spans="1:9" ht="15">
+    <row r="324" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A324" s="17" t="b">
         <v>0</v>
       </c>
@@ -17861,7 +17836,7 @@
       <c r="H324" s="17"/>
       <c r="I324" s="17"/>
     </row>
-    <row r="325" spans="1:9" ht="15">
+    <row r="325" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A325" s="17" t="b">
         <v>0</v>
       </c>
@@ -17880,7 +17855,7 @@
       <c r="H325" s="17"/>
       <c r="I325" s="17"/>
     </row>
-    <row r="326" spans="1:9" ht="15">
+    <row r="326" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A326" s="17"/>
       <c r="B326" s="17" t="s">
         <v>21</v>
@@ -17905,7 +17880,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="327" spans="1:9" ht="15">
+    <row r="327" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A327" s="17"/>
       <c r="B327" s="17" t="s">
         <v>21</v>
@@ -17930,7 +17905,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="328" spans="1:9">
+    <row r="328" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A328" t="b">
         <v>0</v>
       </c>
@@ -17944,7 +17919,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="329" spans="1:9">
+    <row r="329" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B329" t="s">
         <v>21</v>
       </c>
@@ -17967,7 +17942,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="330" spans="1:9">
+    <row r="330" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B330" t="s">
         <v>21</v>
       </c>
@@ -17987,7 +17962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:9">
+    <row r="331" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B331" t="s">
         <v>21</v>
       </c>
@@ -18007,7 +17982,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="332" spans="1:9">
+    <row r="332" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B332" t="s">
         <v>21</v>
       </c>
@@ -18027,7 +18002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:9">
+    <row r="333" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B333" t="s">
         <v>21</v>
       </c>
@@ -18044,7 +18019,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="334" spans="1:9">
+    <row r="334" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B334" t="s">
         <v>21</v>
       </c>
@@ -18067,7 +18042,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="335" spans="1:9">
+    <row r="335" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B335" t="s">
         <v>21</v>
       </c>
@@ -18090,7 +18065,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="336" spans="1:9">
+    <row r="336" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A336" t="b">
         <v>0</v>
       </c>
@@ -18104,7 +18079,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="337" spans="1:16">
+    <row r="337" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B337" t="s">
         <v>21</v>
       </c>
@@ -18127,7 +18102,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="338" spans="1:16">
+    <row r="338" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B338" t="s">
         <v>21</v>
       </c>
@@ -18150,7 +18125,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="339" spans="1:16">
+    <row r="339" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B339" t="s">
         <v>21</v>
       </c>
@@ -18170,7 +18145,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="340" spans="1:16">
+    <row r="340" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B340" t="s">
         <v>21</v>
       </c>
@@ -18190,7 +18165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:16">
+    <row r="341" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B341" t="s">
         <v>21</v>
       </c>
@@ -18207,7 +18182,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="342" spans="1:16">
+    <row r="342" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A342" s="1" t="b">
         <v>0</v>
       </c>
@@ -18233,7 +18208,7 @@
       <c r="O342" s="1"/>
       <c r="P342" s="1"/>
     </row>
-    <row r="343" spans="1:16">
+    <row r="343" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A343" s="1"/>
       <c r="B343" t="s">
         <v>21</v>
@@ -18262,7 +18237,7 @@
       <c r="O343" s="1"/>
       <c r="P343" s="1"/>
     </row>
-    <row r="344" spans="1:16" ht="15">
+    <row r="344" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A344" s="17"/>
       <c r="B344" t="s">
         <v>21</v>
@@ -18301,7 +18276,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="345" spans="1:16">
+    <row r="345" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A345" t="b">
         <v>0</v>
       </c>
@@ -18315,7 +18290,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="346" spans="1:16">
+    <row r="346" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B346" t="s">
         <v>21</v>
       </c>
@@ -18335,7 +18310,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="347" spans="1:16">
+    <row r="347" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A347" t="b">
         <v>0</v>
       </c>
@@ -18349,7 +18324,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="348" spans="1:16">
+    <row r="348" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B348" t="s">
         <v>21</v>
       </c>
@@ -18369,7 +18344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:16">
+    <row r="349" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B349" t="s">
         <v>21</v>
       </c>
@@ -18389,7 +18364,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="350" spans="1:16">
+    <row r="350" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B350" t="s">
         <v>21</v>
       </c>
@@ -18409,7 +18384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:16">
+    <row r="351" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B351" t="s">
         <v>21</v>
       </c>
@@ -18429,7 +18404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:16">
+    <row r="352" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B352" t="s">
         <v>21</v>
       </c>
@@ -18449,7 +18424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:18">
+    <row r="353" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B353" t="s">
         <v>21</v>
       </c>
@@ -18469,7 +18444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:18">
+    <row r="354" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B354" t="s">
         <v>21</v>
       </c>
@@ -18489,7 +18464,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="355" spans="1:18">
+    <row r="355" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B355" t="s">
         <v>21</v>
       </c>
@@ -18509,7 +18484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:18">
+    <row r="356" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B356" t="s">
         <v>21</v>
       </c>
@@ -18529,7 +18504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:18">
+    <row r="357" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A357" t="b">
         <v>0</v>
       </c>
@@ -18543,7 +18518,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="358" spans="1:18">
+    <row r="358" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B358" t="s">
         <v>21</v>
       </c>
@@ -18563,7 +18538,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="359" spans="1:18">
+    <row r="359" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B359" t="s">
         <v>21</v>
       </c>
@@ -18583,7 +18558,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="360" spans="1:18" s="1" customFormat="1">
+    <row r="360" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A360" t="b">
         <v>0</v>
       </c>
@@ -18599,7 +18574,7 @@
       <c r="H360" s="4"/>
       <c r="I360" s="4"/>
     </row>
-    <row r="361" spans="1:18" s="1" customFormat="1">
+    <row r="361" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B361" t="s">
         <v>21</v>
       </c>
@@ -18625,7 +18600,7 @@
       <c r="J361"/>
       <c r="K361"/>
     </row>
-    <row r="362" spans="1:18" s="1" customFormat="1" ht="15">
+    <row r="362" spans="1:18" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A362" s="17"/>
       <c r="B362" t="s">
         <v>22</v>
@@ -18666,7 +18641,7 @@
       <c r="Q362"/>
       <c r="R362"/>
     </row>
-    <row r="363" spans="1:18">
+    <row r="363" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A363" t="b">
         <v>0</v>
       </c>
@@ -18680,7 +18655,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="364" spans="1:18">
+    <row r="364" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B364" t="s">
         <v>21</v>
       </c>
@@ -18700,7 +18675,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="365" spans="1:18">
+    <row r="365" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A365" t="b">
         <v>0</v>
       </c>
@@ -18714,7 +18689,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="366" spans="1:18">
+    <row r="366" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B366" t="s">
         <v>21</v>
       </c>
@@ -18737,11 +18712,6 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -18753,17 +18723,17 @@
       <selection activeCell="A17" sqref="A17:A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.33203125" customWidth="1"/>
-    <col min="5" max="5" width="16.1640625" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" customWidth="1"/>
     <col min="8" max="8" width="22.33203125" customWidth="1"/>
-    <col min="17" max="17" width="24.5" customWidth="1"/>
+    <col min="17" max="17" width="24.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>441</v>
       </c>
@@ -18774,7 +18744,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="30" customFormat="1">
+    <row r="2" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="30" t="s">
         <v>589</v>
       </c>
@@ -18788,7 +18758,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="30" customFormat="1">
+    <row r="3" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="30" t="s">
         <v>592</v>
       </c>
@@ -18802,7 +18772,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="30" customFormat="1">
+    <row r="4" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="30" t="s">
         <v>594</v>
       </c>
@@ -18816,7 +18786,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="30" customFormat="1">
+    <row r="5" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="30" t="s">
         <v>596</v>
       </c>
@@ -18830,7 +18800,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="30" customFormat="1">
+    <row r="6" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="30" t="s">
         <v>598</v>
       </c>
@@ -18844,7 +18814,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="30" customFormat="1">
+    <row r="7" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="30" t="s">
         <v>440</v>
       </c>
@@ -18858,7 +18828,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="30" customFormat="1">
+    <row r="8" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="30" t="s">
         <v>601</v>
       </c>
@@ -18872,7 +18842,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="30" customFormat="1">
+    <row r="9" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="30" t="s">
         <v>603</v>
       </c>
@@ -18886,7 +18856,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>569</v>
       </c>
@@ -18900,7 +18870,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>454</v>
       </c>
@@ -18914,7 +18884,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>452</v>
       </c>
@@ -18925,8 +18895,8 @@
         <v>544</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="30" customFormat="1"/>
-    <row r="16" spans="1:21">
+    <row r="14" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>547</v>
       </c>
@@ -18952,7 +18922,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>548</v>
       </c>
@@ -18993,7 +18963,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -19034,7 +19004,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>542</v>
       </c>
@@ -19066,7 +19036,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>550</v>
       </c>
@@ -19098,7 +19068,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>549</v>
       </c>
@@ -19127,7 +19097,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>551</v>
       </c>
@@ -19159,7 +19129,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="23" spans="1:17">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>552</v>
       </c>
@@ -19179,7 +19149,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="24" spans="1:17">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>682</v>
       </c>
@@ -19202,7 +19172,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="L25" s="1" t="s">
         <v>558</v>
       </c>
@@ -19213,7 +19183,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="26" spans="1:17">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="L26" s="1" t="s">
         <v>539</v>
       </c>
@@ -19221,7 +19191,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="27" spans="1:17">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="L27" s="1" t="s">
         <v>541</v>
       </c>
@@ -19235,10 +19205,5 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/projects/office_calibration.xlsx
+++ b/projects/office_calibration.xlsx
@@ -9631,9 +9631,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9901,7 +9901,7 @@
         <v>1</v>
       </c>
       <c r="H9" s="30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" s="30"/>
       <c r="J9" s="30"/>

--- a/projects/office_calibration.xlsx
+++ b/projects/office_calibration.xlsx
@@ -9632,8 +9632,8 @@
   <dimension ref="A1:L38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
+      <pane ySplit="3" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10209,7 +10209,7 @@
         <v>1</v>
       </c>
       <c r="H20" s="30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" s="30"/>
       <c r="J20" s="30"/>

--- a/projects/office_calibration.xlsx
+++ b/projects/office_calibration.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="13176" tabRatio="562" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="13176" tabRatio="562" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="9" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2525" uniqueCount="826">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2517" uniqueCount="821">
   <si>
     <t>type</t>
   </si>
@@ -2171,12 +2171,6 @@
     <t>kWh</t>
   </si>
   <si>
-    <t>Total Electricity Peak Modeled</t>
-  </si>
-  <si>
-    <t>kW</t>
-  </si>
-  <si>
     <t>Electricity Consumption Period 1 Modeled</t>
   </si>
   <si>
@@ -2207,9 +2201,6 @@
     <t>Electricity Consumption Period 10 Modeled</t>
   </si>
   <si>
-    <t>Electricity Consumption Period 11 Modeled</t>
-  </si>
-  <si>
     <t>Gas Consumption Period 1 Modeled</t>
   </si>
   <si>
@@ -2450,9 +2441,6 @@
     <t>calibration_reports.electric_bill_consumption_modeled</t>
   </si>
   <si>
-    <t>calibration_reports.electric_bill_peak_demand_modeled</t>
-  </si>
-  <si>
     <t>calibration_reports.electric_bill_period_1_consumption_modeled</t>
   </si>
   <si>
@@ -2481,9 +2469,6 @@
   </si>
   <si>
     <t>calibration_reports.electric_bill_period_10_consumption_modeled</t>
-  </si>
-  <si>
-    <t>calibration_reports.electric_bill_period_11_consumption_modeled</t>
   </si>
   <si>
     <t>calibration_reports.gas_bill_consumption_modeled</t>
@@ -6658,8 +6643,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6728,7 +6713,7 @@
         <v>470</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>472</v>
@@ -6799,7 +6784,7 @@
         <v>39</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>471</v>
@@ -6810,10 +6795,10 @@
         <v>25</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -6821,10 +6806,10 @@
         <v>26</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="E14" s="31" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -6942,7 +6927,7 @@
         <v>557</v>
       </c>
       <c r="B26" s="29">
-        <v>450360000000000</v>
+        <v>900360000000000</v>
       </c>
       <c r="C26" s="30" t="s">
         <v>575</v>
@@ -6985,13 +6970,13 @@
     </row>
     <row r="30" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="31" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="B30" s="30">
         <v>1</v>
       </c>
       <c r="C30" s="34" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="D30" s="35"/>
     </row>
@@ -7025,7 +7010,7 @@
         <v>33</v>
       </c>
       <c r="B36" s="27" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="C36" s="11" t="s">
         <v>31</v>
@@ -7052,7 +7037,7 @@
         <v>38</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="E39" s="13" t="s">
         <v>449</v>
@@ -7078,7 +7063,7 @@
         <v>34</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="D42" s="11"/>
       <c r="E42" s="13" t="s">
@@ -7093,7 +7078,7 @@
         <v>702</v>
       </c>
       <c r="C43" s="31" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
     </row>
     <row r="44" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
@@ -7281,13 +7266,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="38" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="C4" s="38" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="D4" s="38" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="E4" s="38" t="s">
         <v>68</v>
@@ -7300,16 +7285,16 @@
         <v>21</v>
       </c>
       <c r="D5" s="30" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="E5" s="30" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="F5" s="30" t="s">
         <v>104</v>
       </c>
       <c r="H5" s="30" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
     </row>
     <row r="6" spans="1:25" s="30" customFormat="1" x14ac:dyDescent="0.3">
@@ -7317,16 +7302,16 @@
         <v>21</v>
       </c>
       <c r="D6" s="30" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="E6" s="30" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="F6" s="30" t="s">
         <v>104</v>
       </c>
       <c r="H6" s="31" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
     </row>
     <row r="7" spans="1:25" s="38" customFormat="1" x14ac:dyDescent="0.3">
@@ -7362,7 +7347,7 @@
         <v>618</v>
       </c>
       <c r="H8" s="31" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
@@ -7455,13 +7440,13 @@
         <v>1</v>
       </c>
       <c r="B13" s="38" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="C13" s="38" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="D13" s="38" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="E13" s="38" t="s">
         <v>68</v>
@@ -7483,7 +7468,7 @@
         <v>64</v>
       </c>
       <c r="G14" s="30" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="H14" s="30">
         <v>10000</v>
@@ -7537,7 +7522,7 @@
         <v>64</v>
       </c>
       <c r="G17" s="30" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="H17" s="30">
         <v>10</v>
@@ -7548,10 +7533,10 @@
         <v>21</v>
       </c>
       <c r="D18" s="30" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="E18" s="30" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="F18" s="30" t="s">
         <v>64</v>
@@ -7566,10 +7551,10 @@
         <v>21</v>
       </c>
       <c r="D19" s="30" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="E19" s="30" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="F19" s="30" t="s">
         <v>64</v>
@@ -7584,10 +7569,10 @@
         <v>21</v>
       </c>
       <c r="D20" s="30" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="E20" s="30" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="F20" s="30" t="s">
         <v>64</v>
@@ -7602,10 +7587,10 @@
         <v>21</v>
       </c>
       <c r="D21" s="30" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="E21" s="30" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="F21" s="30" t="s">
         <v>64</v>
@@ -7620,10 +7605,10 @@
         <v>21</v>
       </c>
       <c r="D22" s="30" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="E22" s="30" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="F22" s="30" t="s">
         <v>64</v>
@@ -7638,10 +7623,10 @@
         <v>21</v>
       </c>
       <c r="D23" s="30" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="E23" s="30" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="F23" s="30" t="s">
         <v>64</v>
@@ -7656,10 +7641,10 @@
         <v>21</v>
       </c>
       <c r="D24" s="30" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="E24" s="30" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="F24" s="30" t="s">
         <v>64</v>
@@ -7674,10 +7659,10 @@
         <v>21</v>
       </c>
       <c r="D25" s="30" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="E25" s="30" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="F25" s="30" t="s">
         <v>64</v>
@@ -7692,10 +7677,10 @@
         <v>21</v>
       </c>
       <c r="D26" s="30" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="E26" s="30" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="F26" s="30" t="s">
         <v>64</v>
@@ -7710,10 +7695,10 @@
         <v>21</v>
       </c>
       <c r="D27" s="30" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="E27" s="30" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="F27" s="30" t="s">
         <v>64</v>
@@ -7728,10 +7713,10 @@
         <v>21</v>
       </c>
       <c r="D28" s="30" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="E28" s="30" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="F28" s="30" t="s">
         <v>64</v>
@@ -7746,10 +7731,10 @@
         <v>21</v>
       </c>
       <c r="D29" s="30" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="E29" s="30" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="F29" s="30" t="s">
         <v>64</v>
@@ -7764,10 +7749,10 @@
         <v>21</v>
       </c>
       <c r="D30" s="30" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="E30" s="30" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="F30" s="30" t="s">
         <v>64</v>
@@ -7817,13 +7802,13 @@
         <v>1</v>
       </c>
       <c r="B33" s="38" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="C33" s="38" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="D33" s="38" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="E33" s="38" t="s">
         <v>68</v>
@@ -7834,10 +7819,10 @@
         <v>21</v>
       </c>
       <c r="D34" s="30" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="E34" s="30" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="F34" s="30" t="s">
         <v>64</v>
@@ -7851,19 +7836,19 @@
         <v>21</v>
       </c>
       <c r="D35" s="30" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="E35" s="30" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="F35" s="30" t="s">
         <v>62</v>
       </c>
       <c r="H35" s="30" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="I35" s="30" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
     </row>
     <row r="36" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
@@ -7871,10 +7856,10 @@
         <v>21</v>
       </c>
       <c r="D36" s="30" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="E36" s="30" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="F36" s="30" t="s">
         <v>64</v>
@@ -8398,7 +8383,7 @@
         <v>1</v>
       </c>
       <c r="B59" s="30" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="C59" s="30" t="s">
         <v>76</v>
@@ -8415,7 +8400,7 @@
         <v>22</v>
       </c>
       <c r="D60" s="43" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="E60" s="43" t="s">
         <v>77</v>
@@ -8443,7 +8428,7 @@
         <v>0.01</v>
       </c>
       <c r="Q60" s="43" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
     </row>
     <row r="61" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
@@ -8488,7 +8473,7 @@
         <v>1</v>
       </c>
       <c r="B63" s="30" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="C63" s="30" t="s">
         <v>76</v>
@@ -8505,7 +8490,7 @@
         <v>22</v>
       </c>
       <c r="D64" s="43" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="E64" s="43" t="s">
         <v>77</v>
@@ -8533,7 +8518,7 @@
         <v>0.01</v>
       </c>
       <c r="Q64" s="43" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
     </row>
     <row r="65" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
@@ -8578,7 +8563,7 @@
         <v>1</v>
       </c>
       <c r="B67" s="30" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="C67" s="30" t="s">
         <v>76</v>
@@ -8595,7 +8580,7 @@
         <v>22</v>
       </c>
       <c r="D68" s="43" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="E68" s="43" t="s">
         <v>77</v>
@@ -8623,7 +8608,7 @@
         <v>0.01</v>
       </c>
       <c r="Q68" s="43" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
     </row>
     <row r="69" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
@@ -8707,7 +8692,7 @@
         <v>22</v>
       </c>
       <c r="D73" s="44" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="E73" s="43" t="s">
         <v>70</v>
@@ -8735,7 +8720,7 @@
         <v>2.5</v>
       </c>
       <c r="Q73" s="43" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
     </row>
     <row r="74" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
@@ -8854,7 +8839,7 @@
         <v>22</v>
       </c>
       <c r="D79" s="43" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="E79" s="43" t="s">
         <v>46</v>
@@ -9629,11 +9614,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L38"/>
+  <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H21" sqref="H21"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9858,7 +9843,7 @@
       </c>
       <c r="B8" s="30"/>
       <c r="C8" s="30" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="D8" s="30" t="s">
         <v>710</v>
@@ -9875,7 +9860,9 @@
       <c r="H8" s="30" t="b">
         <v>1</v>
       </c>
-      <c r="I8" s="30"/>
+      <c r="I8" s="30">
+        <v>39359</v>
+      </c>
       <c r="J8" s="30"/>
       <c r="K8" s="30"/>
       <c r="L8" s="30"/>
@@ -9886,10 +9873,10 @@
       </c>
       <c r="B9" s="30"/>
       <c r="C9" s="30" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="D9" s="30" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="E9" s="30" t="s">
         <v>64</v>
@@ -9901,20 +9888,22 @@
         <v>1</v>
       </c>
       <c r="H9" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="I9" s="30"/>
+        <v>1</v>
+      </c>
+      <c r="I9" s="30">
+        <v>4153</v>
+      </c>
       <c r="J9" s="30"/>
       <c r="K9" s="30"/>
       <c r="L9" s="30"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="30" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B10" s="30"/>
       <c r="C10" s="30" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="D10" s="30" t="s">
         <v>710</v>
@@ -9931,18 +9920,20 @@
       <c r="H10" s="30" t="b">
         <v>1</v>
       </c>
-      <c r="I10" s="30"/>
+      <c r="I10" s="30">
+        <v>3732</v>
+      </c>
       <c r="J10" s="30"/>
       <c r="K10" s="30"/>
       <c r="L10" s="30"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="30" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B11" s="30"/>
       <c r="C11" s="30" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="D11" s="30" t="s">
         <v>710</v>
@@ -9959,18 +9950,20 @@
       <c r="H11" s="30" t="b">
         <v>1</v>
       </c>
-      <c r="I11" s="30"/>
+      <c r="I11" s="30">
+        <v>3884</v>
+      </c>
       <c r="J11" s="30"/>
       <c r="K11" s="30"/>
       <c r="L11" s="30"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="30" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B12" s="30"/>
       <c r="C12" s="30" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="D12" s="30" t="s">
         <v>710</v>
@@ -9987,18 +9980,20 @@
       <c r="H12" s="30" t="b">
         <v>1</v>
       </c>
-      <c r="I12" s="30"/>
+      <c r="I12" s="30">
+        <v>3708</v>
+      </c>
       <c r="J12" s="30"/>
       <c r="K12" s="30"/>
       <c r="L12" s="30"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="30" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B13" s="30"/>
       <c r="C13" s="30" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="D13" s="30" t="s">
         <v>710</v>
@@ -10015,18 +10010,20 @@
       <c r="H13" s="30" t="b">
         <v>1</v>
       </c>
-      <c r="I13" s="30"/>
+      <c r="I13" s="30">
+        <v>4009</v>
+      </c>
       <c r="J13" s="30"/>
       <c r="K13" s="30"/>
       <c r="L13" s="30"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="30" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B14" s="30"/>
       <c r="C14" s="30" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="D14" s="30" t="s">
         <v>710</v>
@@ -10043,18 +10040,20 @@
       <c r="H14" s="30" t="b">
         <v>1</v>
       </c>
-      <c r="I14" s="30"/>
+      <c r="I14" s="30">
+        <v>5042</v>
+      </c>
       <c r="J14" s="30"/>
       <c r="K14" s="30"/>
       <c r="L14" s="30"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="30" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B15" s="30"/>
       <c r="C15" s="30" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="D15" s="30" t="s">
         <v>710</v>
@@ -10071,18 +10070,20 @@
       <c r="H15" s="30" t="b">
         <v>1</v>
       </c>
-      <c r="I15" s="30"/>
+      <c r="I15" s="30">
+        <v>4616</v>
+      </c>
       <c r="J15" s="30"/>
       <c r="K15" s="30"/>
       <c r="L15" s="30"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="30" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B16" s="30"/>
       <c r="C16" s="30" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="D16" s="30" t="s">
         <v>710</v>
@@ -10099,18 +10100,20 @@
       <c r="H16" s="30" t="b">
         <v>1</v>
       </c>
-      <c r="I16" s="30"/>
+      <c r="I16" s="30">
+        <v>3115</v>
+      </c>
       <c r="J16" s="30"/>
       <c r="K16" s="30"/>
       <c r="L16" s="30"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="30" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B17" s="30"/>
       <c r="C17" s="30" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="D17" s="30" t="s">
         <v>710</v>
@@ -10127,18 +10130,20 @@
       <c r="H17" s="30" t="b">
         <v>1</v>
       </c>
-      <c r="I17" s="30"/>
+      <c r="I17" s="30">
+        <v>3357</v>
+      </c>
       <c r="J17" s="30"/>
       <c r="K17" s="30"/>
       <c r="L17" s="30"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="30" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B18" s="30"/>
       <c r="C18" s="30" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="D18" s="30" t="s">
         <v>710</v>
@@ -10155,7 +10160,9 @@
       <c r="H18" s="30" t="b">
         <v>1</v>
       </c>
-      <c r="I18" s="30"/>
+      <c r="I18" s="30">
+        <v>3743</v>
+      </c>
       <c r="J18" s="30"/>
       <c r="K18" s="30"/>
       <c r="L18" s="30"/>
@@ -10166,10 +10173,10 @@
       </c>
       <c r="B19" s="30"/>
       <c r="C19" s="30" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="D19" s="30" t="s">
-        <v>710</v>
+        <v>723</v>
       </c>
       <c r="E19" s="30" t="s">
         <v>64</v>
@@ -10183,21 +10190,23 @@
       <c r="H19" s="30" t="b">
         <v>1</v>
       </c>
-      <c r="I19" s="30"/>
+      <c r="I19" s="30">
+        <v>2659</v>
+      </c>
       <c r="J19" s="30"/>
       <c r="K19" s="30"/>
       <c r="L19" s="30"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="30" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="B20" s="30"/>
       <c r="C20" s="30" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="D20" s="30" t="s">
-        <v>710</v>
+        <v>723</v>
       </c>
       <c r="E20" s="30" t="s">
         <v>64</v>
@@ -10209,23 +10218,25 @@
         <v>1</v>
       </c>
       <c r="H20" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="I20" s="30"/>
+        <v>1</v>
+      </c>
+      <c r="I20" s="30">
+        <v>1038</v>
+      </c>
       <c r="J20" s="30"/>
       <c r="K20" s="30"/>
       <c r="L20" s="30"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="30" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B21" s="30"/>
       <c r="C21" s="30" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="D21" s="30" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="E21" s="30" t="s">
         <v>64</v>
@@ -10239,21 +10250,23 @@
       <c r="H21" s="30" t="b">
         <v>1</v>
       </c>
-      <c r="I21" s="30"/>
+      <c r="I21" s="30">
+        <v>724</v>
+      </c>
       <c r="J21" s="30"/>
       <c r="K21" s="30"/>
       <c r="L21" s="30"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="30" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="B22" s="30"/>
       <c r="C22" s="30" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="D22" s="30" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="E22" s="30" t="s">
         <v>64</v>
@@ -10267,21 +10280,23 @@
       <c r="H22" s="30" t="b">
         <v>1</v>
       </c>
-      <c r="I22" s="30"/>
+      <c r="I22" s="30">
+        <v>297</v>
+      </c>
       <c r="J22" s="30"/>
       <c r="K22" s="30"/>
       <c r="L22" s="30"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="30" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B23" s="30"/>
       <c r="C23" s="30" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="D23" s="30" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="E23" s="30" t="s">
         <v>64</v>
@@ -10295,21 +10310,23 @@
       <c r="H23" s="30" t="b">
         <v>1</v>
       </c>
-      <c r="I23" s="30"/>
+      <c r="I23" s="30">
+        <v>71</v>
+      </c>
       <c r="J23" s="30"/>
       <c r="K23" s="30"/>
       <c r="L23" s="30"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="30" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B24" s="30"/>
       <c r="C24" s="30" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="D24" s="30" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="E24" s="30" t="s">
         <v>64</v>
@@ -10323,21 +10340,23 @@
       <c r="H24" s="30" t="b">
         <v>1</v>
       </c>
-      <c r="I24" s="30"/>
+      <c r="I24" s="30">
+        <v>14</v>
+      </c>
       <c r="J24" s="30"/>
       <c r="K24" s="30"/>
       <c r="L24" s="30"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="30" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B25" s="30"/>
       <c r="C25" s="30" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="D25" s="30" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="E25" s="30" t="s">
         <v>64</v>
@@ -10351,21 +10370,23 @@
       <c r="H25" s="30" t="b">
         <v>1</v>
       </c>
-      <c r="I25" s="30"/>
+      <c r="I25" s="30">
+        <v>1</v>
+      </c>
       <c r="J25" s="30"/>
       <c r="K25" s="30"/>
       <c r="L25" s="30"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="30" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B26" s="30"/>
       <c r="C26" s="30" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="D26" s="30" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="E26" s="30" t="s">
         <v>64</v>
@@ -10379,21 +10400,23 @@
       <c r="H26" s="30" t="b">
         <v>1</v>
       </c>
-      <c r="I26" s="30"/>
+      <c r="I26" s="30">
+        <v>0</v>
+      </c>
       <c r="J26" s="30"/>
       <c r="K26" s="30"/>
       <c r="L26" s="30"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="30" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B27" s="30"/>
       <c r="C27" s="30" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="D27" s="30" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="E27" s="30" t="s">
         <v>64</v>
@@ -10407,21 +10430,23 @@
       <c r="H27" s="30" t="b">
         <v>1</v>
       </c>
-      <c r="I27" s="30"/>
+      <c r="I27" s="30">
+        <v>22</v>
+      </c>
       <c r="J27" s="30"/>
       <c r="K27" s="30"/>
       <c r="L27" s="30"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="30" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B28" s="30"/>
       <c r="C28" s="30" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="D28" s="30" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="E28" s="30" t="s">
         <v>64</v>
@@ -10435,66 +10460,24 @@
       <c r="H28" s="30" t="b">
         <v>1</v>
       </c>
-      <c r="I28" s="30"/>
+      <c r="I28" s="30">
+        <v>72</v>
+      </c>
       <c r="J28" s="30"/>
       <c r="K28" s="30"/>
       <c r="L28" s="30"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A29" s="30" t="s">
-        <v>733</v>
-      </c>
+      <c r="A29" s="30"/>
       <c r="B29" s="30"/>
-      <c r="C29" s="30" t="s">
-        <v>824</v>
-      </c>
-      <c r="D29" s="30" t="s">
-        <v>726</v>
-      </c>
-      <c r="E29" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="F29" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="G29" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="H29" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="I29" s="30"/>
-      <c r="J29" s="30"/>
-      <c r="K29" s="30"/>
-      <c r="L29" s="30"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="30"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A30" s="30" t="s">
-        <v>734</v>
-      </c>
+      <c r="A30" s="30"/>
       <c r="B30" s="30"/>
-      <c r="C30" s="30" t="s">
-        <v>825</v>
-      </c>
-      <c r="D30" s="30" t="s">
-        <v>726</v>
-      </c>
-      <c r="E30" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="F30" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="G30" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="H30" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="I30" s="30"/>
-      <c r="J30" s="30"/>
-      <c r="K30" s="30"/>
-      <c r="L30" s="30"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="30"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="30"/>
@@ -10531,18 +10514,6 @@
       <c r="B36" s="30"/>
       <c r="C36" s="30"/>
       <c r="D36" s="30"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="30"/>
-      <c r="B37" s="30"/>
-      <c r="C37" s="30"/>
-      <c r="D37" s="30"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="30"/>
-      <c r="B38" s="30"/>
-      <c r="C38" s="30"/>
-      <c r="D38" s="30"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/projects/office_calibration.xlsx
+++ b/projects/office_calibration.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="13176" tabRatio="562" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="13176" tabRatio="562" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="9" r:id="rId1"/>
@@ -6643,7 +6643,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+    <sheetView topLeftCell="A14" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
@@ -9616,9 +9616,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4:XFD28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9858,7 +9858,7 @@
         <v>1</v>
       </c>
       <c r="H8" s="30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" s="30">
         <v>39359</v>
@@ -10188,7 +10188,7 @@
         <v>1</v>
       </c>
       <c r="H19" s="30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" s="30">
         <v>2659</v>

--- a/projects/office_calibration.xlsx
+++ b/projects/office_calibration.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24709"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="13176" tabRatio="562" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="20440" tabRatio="562" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="9" r:id="rId1"/>
@@ -16,7 +16,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Outputs!#REF!</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Variables!$A$2:$Z$150</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Variables!$A$2:$Z$151</definedName>
     <definedName name="AnalysisType">Lookups!$A$17:$A$23</definedName>
     <definedName name="instance_defs">Lookups!$A$2:$D$9</definedName>
     <definedName name="instance_types">Lookups!$A$2:$A$9</definedName>
@@ -31,12 +31,17 @@
     <definedName name="TrueFalse">Lookups!$C$12:$C$13</definedName>
     <definedName name="Workflow">Lookups!$E$12:$E$13</definedName>
   </definedNames>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2517" uniqueCount="821">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2612" uniqueCount="837">
   <si>
     <t>type</t>
   </si>
@@ -2393,30 +2398,12 @@
     <t>Unknown</t>
   </si>
   <si>
-    <t>Add Ptac</t>
-  </si>
-  <si>
-    <t>AddPTAC</t>
-  </si>
-  <si>
     <t>Heating Efficiency</t>
   </si>
   <si>
     <t>heating_efficiency</t>
   </si>
   <si>
-    <t>Heating Fuel Type</t>
-  </si>
-  <si>
-    <t>heating_fuel_type</t>
-  </si>
-  <si>
-    <t>Gas</t>
-  </si>
-  <si>
-    <t>|Gas,Electric|</t>
-  </si>
-  <si>
     <t>Cooling COP</t>
   </si>
   <si>
@@ -2499,6 +2486,72 @@
   </si>
   <si>
     <t>calibration_reports.gas_bill_period_9_consumption_modeled</t>
+  </si>
+  <si>
+    <t>Add Sys 3 - PSZ-AC Ngrid</t>
+  </si>
+  <si>
+    <t>AddSys3PSZACNgrid</t>
+  </si>
+  <si>
+    <t>Rotate Building</t>
+  </si>
+  <si>
+    <t>Number of Degrees to Rotate Building positive value is clockwise</t>
+  </si>
+  <si>
+    <t>degrees</t>
+  </si>
+  <si>
+    <t>Design Specification Outdoor Air Reduction (%)</t>
+  </si>
+  <si>
+    <t>Increase Insulation R value For Roofs By Percentage</t>
+  </si>
+  <si>
+    <t>IncreaseInsulationRValueForRoofsByPercentage</t>
+  </si>
+  <si>
+    <t>Percentage Increase of R-value for Roof Insulation</t>
+  </si>
+  <si>
+    <t>Increase Insulation R value For Exterior Walls By Percentage</t>
+  </si>
+  <si>
+    <t>IncreaseInsulationRValueForExteriorWallsByPercentage</t>
+  </si>
+  <si>
+    <t>Percentage Increase of R-value for Exterior Wall Insulation</t>
+  </si>
+  <si>
+    <t>Electric Equipment Power Reduction</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>Increase in Material and Installation Cost for Electric Equipment per Floor Area</t>
+  </si>
+  <si>
+    <t>Increase in Demolition Costs for Electric Equipment per Floor Area</t>
+  </si>
+  <si>
+    <t>Years Until Costs Start</t>
+  </si>
+  <si>
+    <t>whole years</t>
+  </si>
+  <si>
+    <t>Demolition Costs Occur During Initial Construction</t>
+  </si>
+  <si>
+    <t>Expected Life</t>
+  </si>
+  <si>
+    <t>Increase O &amp; M Costs for Electric Equipment per Floor Area</t>
+  </si>
+  <si>
+    <t>O &amp; M Frequency</t>
   </si>
 </sst>
 </file>
@@ -2508,7 +2561,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2567,8 +2620,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2629,6 +2689,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -2639,7 +2717,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1784">
+  <cellStyleXfs count="1832">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -4424,8 +4502,56 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -4525,11 +4651,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1784">
+  <cellStyles count="1832">
     <cellStyle name="Comma" xfId="1749" builtinId="3"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
@@ -5422,6 +5551,30 @@
     <cellStyle name="Followed Hyperlink" xfId="1779" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1781" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1783" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1785" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1787" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1789" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1791" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1793" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1795" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1797" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1799" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1801" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1803" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1805" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1807" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1809" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1811" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1813" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1815" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1817" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1819" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1821" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1823" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1825" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1827" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1829" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1831" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -6313,6 +6466,30 @@
     <cellStyle name="Hyperlink" xfId="1778" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1780" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1782" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1784" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1786" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1788" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1790" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1792" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1794" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1796" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1798" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1800" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1802" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1804" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1806" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1808" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1810" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1812" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1814" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1816" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1818" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1820" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1822" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1824" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1826" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1828" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1830" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -6618,17 +6795,17 @@
       <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="81.77734375" customWidth="1"/>
+    <col min="1" max="1" width="81.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" ht="28">
       <c r="A1" s="36" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" ht="28">
       <c r="A2" s="36" t="s">
         <v>41</v>
       </c>
@@ -6636,6 +6813,11 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -6647,17 +6829,17 @@
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="25.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="30.33203125" style="26" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29" style="1" customWidth="1"/>
-    <col min="4" max="4" width="33.109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="33.1640625" style="2" customWidth="1"/>
     <col min="5" max="5" width="61.6640625" style="1" customWidth="1"/>
     <col min="6" max="16384" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="A1" s="19"/>
       <c r="B1" s="28"/>
       <c r="C1" s="19"/>
@@ -6666,7 +6848,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" s="12" customFormat="1">
       <c r="A2" s="11" t="s">
         <v>435</v>
       </c>
@@ -6675,7 +6857,7 @@
       <c r="D2" s="13"/>
       <c r="E2" s="13"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>436</v>
       </c>
@@ -6686,7 +6868,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="28">
       <c r="A4" s="1" t="s">
         <v>456</v>
       </c>
@@ -6697,7 +6879,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="42">
       <c r="A5" s="1" t="s">
         <v>469</v>
       </c>
@@ -6708,7 +6890,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="46.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="46" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>470</v>
       </c>
@@ -6719,7 +6901,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
         <v>442</v>
       </c>
@@ -6738,7 +6920,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="28">
       <c r="A8" s="1" t="s">
         <v>443</v>
       </c>
@@ -6757,7 +6939,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
         <v>458</v>
       </c>
@@ -6770,7 +6952,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" s="12" customFormat="1">
       <c r="A11" s="11" t="s">
         <v>28</v>
       </c>
@@ -6779,7 +6961,7 @@
       <c r="D11" s="13"/>
       <c r="E11" s="13"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
         <v>39</v>
       </c>
@@ -6790,29 +6972,29 @@
         <v>471</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>769</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>795</v>
+        <v>789</v>
       </c>
       <c r="E14" s="31" t="s">
         <v>769</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
         <v>462</v>
       </c>
@@ -6823,7 +7005,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
         <v>463</v>
       </c>
@@ -6834,7 +7016,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
         <v>464</v>
       </c>
@@ -6845,7 +7027,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
         <v>466</v>
       </c>
@@ -6856,7 +7038,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" s="2" customFormat="1" ht="42">
       <c r="A20" s="11" t="s">
         <v>27</v>
       </c>
@@ -6869,7 +7051,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
         <v>451</v>
       </c>
@@ -6877,11 +7059,11 @@
         <v>542</v>
       </c>
     </row>
-    <row r="22" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" s="31" customFormat="1">
       <c r="B22" s="26"/>
       <c r="D22" s="2"/>
     </row>
-    <row r="23" spans="1:5" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" s="2" customFormat="1" ht="42">
       <c r="A23" s="11" t="s">
         <v>450</v>
       </c>
@@ -6898,7 +7080,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5">
       <c r="A24" s="31" t="s">
         <v>538</v>
       </c>
@@ -6910,7 +7092,7 @@
       </c>
       <c r="D24" s="35"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5">
       <c r="A25" s="31" t="s">
         <v>543</v>
       </c>
@@ -6922,7 +7104,7 @@
       </c>
       <c r="D25" s="35"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5">
       <c r="A26" s="31" t="s">
         <v>557</v>
       </c>
@@ -6934,7 +7116,7 @@
       </c>
       <c r="D26" s="35"/>
     </row>
-    <row r="27" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" s="31" customFormat="1">
       <c r="A27" s="31" t="s">
         <v>558</v>
       </c>
@@ -6946,7 +7128,7 @@
       </c>
       <c r="D27" s="35"/>
     </row>
-    <row r="28" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" s="31" customFormat="1">
       <c r="A28" s="31" t="s">
         <v>539</v>
       </c>
@@ -6956,7 +7138,7 @@
       <c r="C28" s="30"/>
       <c r="D28" s="35"/>
     </row>
-    <row r="29" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" s="31" customFormat="1">
       <c r="A29" s="31" t="s">
         <v>541</v>
       </c>
@@ -6968,44 +7150,44 @@
       </c>
       <c r="D29" s="35"/>
     </row>
-    <row r="30" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" s="31" customFormat="1">
       <c r="A30" s="31" t="s">
-        <v>797</v>
+        <v>791</v>
       </c>
       <c r="B30" s="30">
         <v>1</v>
       </c>
       <c r="C30" s="34" t="s">
-        <v>798</v>
+        <v>792</v>
       </c>
       <c r="D30" s="35"/>
     </row>
-    <row r="31" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" s="31" customFormat="1">
       <c r="B31" s="26"/>
       <c r="C31" s="34"/>
       <c r="D31" s="35"/>
     </row>
-    <row r="32" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" s="31" customFormat="1">
       <c r="B32" s="26"/>
       <c r="C32" s="34"/>
       <c r="D32" s="35"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5">
       <c r="A33" s="31"/>
       <c r="C33" s="34"/>
       <c r="D33" s="35"/>
     </row>
-    <row r="34" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" s="31" customFormat="1">
       <c r="B34" s="26"/>
       <c r="C34" s="34"/>
       <c r="D34" s="35"/>
     </row>
-    <row r="35" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" s="31" customFormat="1">
       <c r="B35" s="26"/>
       <c r="C35" s="26"/>
       <c r="D35" s="2"/>
     </row>
-    <row r="36" spans="1:5" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" s="2" customFormat="1" ht="28">
       <c r="A36" s="11" t="s">
         <v>33</v>
       </c>
@@ -7018,7 +7200,7 @@
       <c r="D36" s="11"/>
       <c r="E36" s="13"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5">
       <c r="A37" s="1" t="s">
         <v>29</v>
       </c>
@@ -7026,7 +7208,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="39" spans="1:5" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" s="2" customFormat="1" ht="28">
       <c r="A39" s="11" t="s">
         <v>30</v>
       </c>
@@ -7043,7 +7225,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="40" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" s="31" customFormat="1">
       <c r="A40" s="31" t="s">
         <v>32</v>
       </c>
@@ -7055,7 +7237,7 @@
       </c>
       <c r="E40" s="2"/>
     </row>
-    <row r="42" spans="1:5" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" s="2" customFormat="1" ht="56">
       <c r="A42" s="11" t="s">
         <v>35</v>
       </c>
@@ -7070,7 +7252,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5">
       <c r="A43" s="31" t="s">
         <v>703</v>
       </c>
@@ -7078,10 +7260,10 @@
         <v>702</v>
       </c>
       <c r="C43" s="31" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" s="31" customFormat="1">
       <c r="B44" s="26"/>
       <c r="D44" s="2"/>
     </row>
@@ -7099,44 +7281,49 @@
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y223"/>
+  <dimension ref="A1:Y224"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="120" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P50" sqref="P50"/>
+    <sheetView topLeftCell="D1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A79" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I98" sqref="I98"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="31" customWidth="1"/>
+    <col min="1" max="1" width="9.1640625" style="31" customWidth="1"/>
     <col min="2" max="2" width="47" style="31" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="47" style="31" customWidth="1"/>
-    <col min="4" max="4" width="39.109375" style="31" customWidth="1"/>
-    <col min="5" max="5" width="24.109375" style="31" customWidth="1"/>
+    <col min="4" max="4" width="39.1640625" style="31" customWidth="1"/>
+    <col min="5" max="5" width="24.1640625" style="31" customWidth="1"/>
     <col min="6" max="6" width="9.6640625" style="31" customWidth="1"/>
     <col min="7" max="7" width="9.33203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.44140625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="8.77734375" style="4" customWidth="1"/>
-    <col min="10" max="10" width="7.109375" style="31" customWidth="1"/>
-    <col min="11" max="11" width="8.109375" style="31" customWidth="1"/>
+    <col min="8" max="8" width="15.5" style="4" customWidth="1"/>
+    <col min="9" max="9" width="8.83203125" style="4" customWidth="1"/>
+    <col min="10" max="10" width="7.1640625" style="31" customWidth="1"/>
+    <col min="11" max="11" width="8.1640625" style="31" customWidth="1"/>
     <col min="12" max="12" width="6.6640625" style="31" customWidth="1"/>
-    <col min="13" max="14" width="7.77734375" style="31" customWidth="1"/>
-    <col min="15" max="15" width="11.44140625" style="31"/>
-    <col min="16" max="16" width="11.44140625" style="31" customWidth="1"/>
+    <col min="13" max="14" width="7.83203125" style="31" customWidth="1"/>
+    <col min="15" max="15" width="11.5" style="31"/>
+    <col min="16" max="16" width="11.5" style="31" customWidth="1"/>
     <col min="17" max="17" width="23" style="31" customWidth="1"/>
     <col min="18" max="18" width="27.6640625" style="31" customWidth="1"/>
-    <col min="19" max="19" width="46.109375" style="31" customWidth="1"/>
-    <col min="20" max="22" width="11.44140625" style="31"/>
+    <col min="19" max="19" width="46.1640625" style="31" customWidth="1"/>
+    <col min="20" max="22" width="11.5" style="31"/>
     <col min="23" max="23" width="13.33203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="11.44140625" style="31"/>
+    <col min="24" max="16384" width="11.5" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:25" ht="18">
       <c r="A1" s="5"/>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -7162,16 +7349,16 @@
       <c r="Q1" s="5"/>
       <c r="R1" s="5"/>
       <c r="S1" s="5"/>
-      <c r="T1" s="49" t="s">
+      <c r="T1" s="51" t="s">
         <v>61</v>
       </c>
-      <c r="U1" s="49"/>
-      <c r="V1" s="49"/>
-      <c r="W1" s="49"/>
-      <c r="X1" s="49"/>
-      <c r="Y1" s="49"/>
-    </row>
-    <row r="2" spans="1:25" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="U1" s="51"/>
+      <c r="V1" s="51"/>
+      <c r="W1" s="51"/>
+      <c r="X1" s="51"/>
+      <c r="Y1" s="51"/>
+    </row>
+    <row r="2" spans="1:25" s="8" customFormat="1" ht="15">
       <c r="A2" s="8" t="s">
         <v>3</v>
       </c>
@@ -7187,7 +7374,7 @@
       <c r="H2" s="9"/>
       <c r="I2" s="9"/>
     </row>
-    <row r="3" spans="1:25" s="14" customFormat="1" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" s="14" customFormat="1" ht="45">
       <c r="A3" s="14" t="s">
         <v>1</v>
       </c>
@@ -7261,7 +7448,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:25" s="38" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" s="38" customFormat="1">
       <c r="A4" s="38" t="b">
         <v>1</v>
       </c>
@@ -7280,7 +7467,7 @@
       <c r="G4" s="39"/>
       <c r="H4" s="39"/>
     </row>
-    <row r="5" spans="1:25" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" s="30" customFormat="1">
       <c r="B5" s="30" t="s">
         <v>21</v>
       </c>
@@ -7297,7 +7484,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="6" spans="1:25" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" s="30" customFormat="1">
       <c r="B6" s="30" t="s">
         <v>21</v>
       </c>
@@ -7314,7 +7501,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="7" spans="1:25" s="38" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25" s="38" customFormat="1">
       <c r="A7" s="38" t="b">
         <v>1</v>
       </c>
@@ -7333,7 +7520,7 @@
       <c r="G7" s="39"/>
       <c r="H7" s="39"/>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:25">
       <c r="B8" s="31" t="s">
         <v>21</v>
       </c>
@@ -7358,7 +7545,7 @@
       <c r="P8" s="40"/>
       <c r="Q8" s="2"/>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:25">
       <c r="B9" s="31" t="s">
         <v>21</v>
       </c>
@@ -7381,7 +7568,7 @@
       <c r="O9" s="4"/>
       <c r="P9" s="3"/>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:25">
       <c r="B10" s="31" t="s">
         <v>21</v>
       </c>
@@ -7399,7 +7586,7 @@
       </c>
       <c r="I10" s="31"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:25">
       <c r="B11" s="31" t="s">
         <v>21</v>
       </c>
@@ -7417,7 +7604,7 @@
       </c>
       <c r="I11" s="31"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:25">
       <c r="B12" s="31" t="s">
         <v>21</v>
       </c>
@@ -7435,7 +7622,7 @@
       </c>
       <c r="I12" s="31"/>
     </row>
-    <row r="13" spans="1:25" s="38" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:25" s="38" customFormat="1">
       <c r="A13" s="38" t="b">
         <v>1</v>
       </c>
@@ -7454,44 +7641,64 @@
       <c r="G13" s="39"/>
       <c r="H13" s="39"/>
     </row>
-    <row r="14" spans="1:25" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:25">
       <c r="B14" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="30" t="s">
+      <c r="D14" s="31" t="s">
         <v>662</v>
       </c>
-      <c r="E14" s="30" t="s">
+      <c r="E14" s="31" t="s">
         <v>198</v>
       </c>
-      <c r="F14" s="30" t="s">
+      <c r="F14" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="G14" s="30" t="s">
+      <c r="G14" s="31" t="s">
         <v>766</v>
       </c>
-      <c r="H14" s="30">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" s="30" t="s">
+      <c r="H14" s="31">
+        <v>12717</v>
+      </c>
+      <c r="I14" s="31"/>
+    </row>
+    <row r="15" spans="1:25" s="43" customFormat="1">
+      <c r="B15" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="43" t="s">
         <v>663</v>
       </c>
-      <c r="E15" s="30" t="s">
+      <c r="E15" s="43" t="s">
         <v>200</v>
       </c>
-      <c r="F15" s="30" t="s">
+      <c r="F15" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="H15" s="30">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H15" s="43">
+        <v>2</v>
+      </c>
+      <c r="J15" s="43">
+        <v>1</v>
+      </c>
+      <c r="K15" s="43">
+        <v>5</v>
+      </c>
+      <c r="L15" s="43">
+        <v>2</v>
+      </c>
+      <c r="M15" s="43">
+        <f>(K15-J15)/6</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="N15" s="43">
+        <v>0.1</v>
+      </c>
+      <c r="Q15" s="52" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" s="30" customFormat="1">
       <c r="B16" s="30" t="s">
         <v>21</v>
       </c>
@@ -7505,30 +7712,49 @@
         <v>65</v>
       </c>
       <c r="H16" s="30">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D17" s="30" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" s="43" customFormat="1">
+      <c r="B17" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="43" t="s">
         <v>664</v>
       </c>
-      <c r="E17" s="30" t="s">
+      <c r="E17" s="43" t="s">
         <v>204</v>
       </c>
-      <c r="F17" s="30" t="s">
+      <c r="F17" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="G17" s="30" t="s">
+      <c r="G17" s="43" t="s">
         <v>767</v>
       </c>
-      <c r="H17" s="30">
+      <c r="H17" s="43">
         <v>10</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J17" s="43">
+        <v>8</v>
+      </c>
+      <c r="K17" s="43">
+        <v>20</v>
+      </c>
+      <c r="L17" s="43">
+        <v>10</v>
+      </c>
+      <c r="M17" s="43">
+        <f>(K17-J17)/6</f>
+        <v>2</v>
+      </c>
+      <c r="N17" s="43">
+        <v>0.1</v>
+      </c>
+      <c r="Q17" s="52" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" s="30" customFormat="1">
       <c r="B18" s="30" t="s">
         <v>21</v>
       </c>
@@ -7542,11 +7768,10 @@
         <v>64</v>
       </c>
       <c r="H18" s="42">
-        <f>1/13</f>
-        <v>7.6923076923076927E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" s="30" customFormat="1">
       <c r="B19" s="30" t="s">
         <v>21</v>
       </c>
@@ -7560,11 +7785,10 @@
         <v>64</v>
       </c>
       <c r="H19" s="42">
-        <f>1/13</f>
-        <v>7.6923076923076927E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" s="30" customFormat="1">
       <c r="B20" s="30" t="s">
         <v>21</v>
       </c>
@@ -7578,11 +7802,10 @@
         <v>64</v>
       </c>
       <c r="H20" s="42">
-        <f t="shared" ref="H20:H30" si="0">1/13</f>
-        <v>7.6923076923076927E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" s="30" customFormat="1">
       <c r="B21" s="30" t="s">
         <v>21</v>
       </c>
@@ -7596,11 +7819,10 @@
         <v>64</v>
       </c>
       <c r="H21" s="42">
-        <f t="shared" si="0"/>
-        <v>7.6923076923076927E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" s="30" customFormat="1">
       <c r="B22" s="30" t="s">
         <v>21</v>
       </c>
@@ -7614,11 +7836,10 @@
         <v>64</v>
       </c>
       <c r="H22" s="42">
-        <f t="shared" si="0"/>
-        <v>7.6923076923076927E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" s="30" customFormat="1">
       <c r="B23" s="30" t="s">
         <v>21</v>
       </c>
@@ -7632,11 +7853,10 @@
         <v>64</v>
       </c>
       <c r="H23" s="42">
-        <f t="shared" si="0"/>
-        <v>7.6923076923076927E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" s="30" customFormat="1">
       <c r="B24" s="30" t="s">
         <v>21</v>
       </c>
@@ -7650,11 +7870,10 @@
         <v>64</v>
       </c>
       <c r="H24" s="42">
-        <f t="shared" si="0"/>
-        <v>7.6923076923076927E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" s="30" customFormat="1">
       <c r="B25" s="30" t="s">
         <v>21</v>
       </c>
@@ -7668,11 +7887,10 @@
         <v>64</v>
       </c>
       <c r="H25" s="42">
-        <f t="shared" si="0"/>
-        <v>7.6923076923076927E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" s="30" customFormat="1">
       <c r="B26" s="30" t="s">
         <v>21</v>
       </c>
@@ -7686,11 +7904,10 @@
         <v>64</v>
       </c>
       <c r="H26" s="42">
-        <f t="shared" si="0"/>
-        <v>7.6923076923076927E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.3">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" s="30" customFormat="1">
       <c r="B27" s="30" t="s">
         <v>21</v>
       </c>
@@ -7704,11 +7921,10 @@
         <v>64</v>
       </c>
       <c r="H27" s="42">
-        <f t="shared" si="0"/>
-        <v>7.6923076923076927E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" s="30" customFormat="1">
       <c r="B28" s="30" t="s">
         <v>21</v>
       </c>
@@ -7722,11 +7938,10 @@
         <v>64</v>
       </c>
       <c r="H28" s="42">
-        <f t="shared" si="0"/>
-        <v>7.6923076923076927E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" s="30" customFormat="1">
       <c r="B29" s="30" t="s">
         <v>21</v>
       </c>
@@ -7740,11 +7955,10 @@
         <v>64</v>
       </c>
       <c r="H29" s="42">
-        <f t="shared" si="0"/>
-        <v>7.6923076923076927E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" s="30" customFormat="1">
       <c r="B30" s="30" t="s">
         <v>21</v>
       </c>
@@ -7758,11 +7972,10 @@
         <v>64</v>
       </c>
       <c r="H30" s="42">
-        <f t="shared" si="0"/>
-        <v>7.6923076923076927E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" s="38" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" s="38" customFormat="1">
       <c r="A31" s="38" t="b">
         <v>1</v>
       </c>
@@ -7781,7 +7994,7 @@
       <c r="G31" s="39"/>
       <c r="H31" s="39"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17">
       <c r="B32" s="31" t="s">
         <v>21</v>
       </c>
@@ -7797,167 +8010,230 @@
       <c r="H32" s="31"/>
       <c r="I32" s="31"/>
     </row>
-    <row r="33" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:17" s="38" customFormat="1">
       <c r="A33" s="38" t="b">
         <v>1</v>
       </c>
       <c r="B33" s="38" t="s">
-        <v>785</v>
+        <v>815</v>
       </c>
       <c r="C33" s="38" t="s">
-        <v>786</v>
+        <v>816</v>
       </c>
       <c r="D33" s="38" t="s">
-        <v>786</v>
+        <v>816</v>
       </c>
       <c r="E33" s="38" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="34" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D34" s="30" t="s">
+      <c r="G33" s="39"/>
+      <c r="H33" s="39"/>
+    </row>
+    <row r="34" spans="1:17" s="43" customFormat="1">
+      <c r="B34" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="D34" s="43" t="s">
+        <v>785</v>
+      </c>
+      <c r="E34" s="43" t="s">
+        <v>786</v>
+      </c>
+      <c r="F34" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="H34" s="43">
+        <v>0.8</v>
+      </c>
+      <c r="J34" s="43">
+        <v>0.6</v>
+      </c>
+      <c r="K34" s="43">
+        <v>0.95</v>
+      </c>
+      <c r="L34" s="43">
+        <v>0.8</v>
+      </c>
+      <c r="M34" s="43">
+        <f>(K34-J34)/6</f>
+        <v>5.8333333333333327E-2</v>
+      </c>
+      <c r="N34" s="43">
+        <v>0.01</v>
+      </c>
+      <c r="Q34" s="43" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" s="43" customFormat="1">
+      <c r="B35" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="D35" s="43" t="s">
         <v>787</v>
       </c>
-      <c r="E34" s="30" t="s">
+      <c r="E35" s="43" t="s">
         <v>788</v>
       </c>
-      <c r="F34" s="30" t="s">
+      <c r="F35" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="H34" s="30">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D35" s="30" t="s">
-        <v>789</v>
-      </c>
-      <c r="E35" s="30" t="s">
-        <v>790</v>
-      </c>
-      <c r="F35" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="H35" s="30" t="s">
-        <v>791</v>
-      </c>
-      <c r="I35" s="30" t="s">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D36" s="30" t="s">
-        <v>793</v>
-      </c>
-      <c r="E36" s="30" t="s">
-        <v>794</v>
-      </c>
-      <c r="F36" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="H36" s="30">
+      <c r="H35" s="43">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="38" t="b">
+      <c r="J35" s="43">
+        <v>2.5</v>
+      </c>
+      <c r="K35" s="43">
+        <v>5</v>
+      </c>
+      <c r="L35" s="43">
+        <v>3</v>
+      </c>
+      <c r="M35" s="43">
+        <f>(K35-J35)/6</f>
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="N35" s="43">
+        <v>0.01</v>
+      </c>
+      <c r="Q35" s="43" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" s="38" customFormat="1">
+      <c r="A36" s="38" t="b">
         <v>1</v>
       </c>
-      <c r="B37" s="38" t="s">
+      <c r="B36" s="38" t="s">
+        <v>817</v>
+      </c>
+      <c r="C36" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="D36" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="E36" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="G36" s="39"/>
+      <c r="H36" s="39"/>
+    </row>
+    <row r="37" spans="1:17" s="43" customFormat="1">
+      <c r="B37" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="D37" s="43" t="s">
+        <v>818</v>
+      </c>
+      <c r="E37" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="F37" s="43" t="s">
+        <v>619</v>
+      </c>
+      <c r="G37" s="43" t="s">
+        <v>819</v>
+      </c>
+      <c r="H37" s="43">
+        <v>0</v>
+      </c>
+      <c r="J37" s="43">
+        <v>0</v>
+      </c>
+      <c r="K37" s="43">
+        <v>90</v>
+      </c>
+      <c r="L37" s="43">
+        <v>0</v>
+      </c>
+      <c r="M37" s="43">
+        <f>(K37-J37)/6</f>
+        <v>15</v>
+      </c>
+      <c r="N37" s="43">
+        <v>5</v>
+      </c>
+      <c r="Q37" s="43" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" s="38" customFormat="1">
+      <c r="A38" s="38" t="b">
+        <v>1</v>
+      </c>
+      <c r="B38" s="38" t="s">
         <v>680</v>
       </c>
-      <c r="C37" s="38" t="s">
+      <c r="C38" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="D37" s="38" t="s">
+      <c r="D38" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="E37" s="38" t="s">
+      <c r="E38" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="G37" s="39"/>
-      <c r="H37" s="39"/>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B38" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D38" s="31" t="s">
+      <c r="G38" s="39"/>
+      <c r="H38" s="39"/>
+    </row>
+    <row r="39" spans="1:17">
+      <c r="B39" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D39" s="31" t="s">
         <v>683</v>
       </c>
-      <c r="E38" s="31" t="s">
+      <c r="E39" s="31" t="s">
         <v>77</v>
-      </c>
-      <c r="F38" s="31" t="s">
-        <v>619</v>
-      </c>
-      <c r="H38" s="31">
-        <v>0.4</v>
-      </c>
-      <c r="I38" s="3"/>
-      <c r="J38" s="3"/>
-      <c r="K38" s="3"/>
-      <c r="L38" s="3"/>
-      <c r="M38" s="3"/>
-      <c r="N38" s="3"/>
-      <c r="P38" s="40"/>
-      <c r="Q38" s="2"/>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B39" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D39" s="31" t="s">
-        <v>667</v>
-      </c>
-      <c r="E39" s="31" t="s">
-        <v>79</v>
       </c>
       <c r="F39" s="31" t="s">
         <v>619</v>
       </c>
-      <c r="G39" s="31" t="s">
-        <v>668</v>
-      </c>
       <c r="H39" s="31">
-        <v>30</v>
+        <v>0.4</v>
       </c>
       <c r="I39" s="3"/>
-      <c r="J39" s="3"/>
-      <c r="K39" s="3"/>
-      <c r="L39" s="3"/>
-      <c r="M39" s="3"/>
-      <c r="N39" s="3"/>
+      <c r="J39" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="K39" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="L39" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="M39" s="31">
+        <f>(K39-J39)/6</f>
+        <v>0.125</v>
+      </c>
+      <c r="N39" s="31">
+        <v>0.01</v>
+      </c>
       <c r="P39" s="40"/>
-      <c r="Q39" s="2"/>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="Q39" s="31" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17">
       <c r="B40" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D40" s="31" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="E40" s="31" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F40" s="31" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="G40" s="31" t="s">
         <v>668</v>
       </c>
-      <c r="H40" s="31" t="s">
-        <v>669</v>
+      <c r="H40" s="31">
+        <v>30</v>
       </c>
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
@@ -7968,96 +8244,103 @@
       <c r="P40" s="40"/>
       <c r="Q40" s="2"/>
     </row>
-    <row r="41" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="38" t="b">
+    <row r="41" spans="1:17">
+      <c r="B41" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D41" s="31" t="s">
+        <v>672</v>
+      </c>
+      <c r="E41" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="F41" s="31" t="s">
+        <v>618</v>
+      </c>
+      <c r="G41" s="31" t="s">
+        <v>668</v>
+      </c>
+      <c r="H41" s="31" t="s">
+        <v>669</v>
+      </c>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3"/>
+    </row>
+    <row r="42" spans="1:17" s="38" customFormat="1">
+      <c r="A42" s="38" t="b">
         <v>1</v>
       </c>
-      <c r="B41" s="38" t="s">
+      <c r="B42" s="38" t="s">
         <v>687</v>
       </c>
-      <c r="C41" s="38" t="s">
+      <c r="C42" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="D41" s="38" t="s">
+      <c r="D42" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="E41" s="38" t="s">
+      <c r="E42" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="G41" s="39"/>
-      <c r="H41" s="39"/>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B42" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D42" s="31" t="s">
+      <c r="G42" s="39"/>
+      <c r="H42" s="39"/>
+    </row>
+    <row r="43" spans="1:17">
+      <c r="B43" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D43" s="31" t="s">
         <v>684</v>
       </c>
-      <c r="E42" s="31" t="s">
+      <c r="E43" s="31" t="s">
         <v>77</v>
-      </c>
-      <c r="F42" s="31" t="s">
-        <v>619</v>
-      </c>
-      <c r="H42" s="31">
-        <v>0.4</v>
-      </c>
-      <c r="I42" s="3"/>
-      <c r="J42" s="3"/>
-      <c r="K42" s="3"/>
-      <c r="L42" s="3"/>
-      <c r="M42" s="3"/>
-      <c r="N42" s="3"/>
-      <c r="P42" s="40"/>
-      <c r="Q42" s="2"/>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B43" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D43" s="31" t="s">
-        <v>667</v>
-      </c>
-      <c r="E43" s="31" t="s">
-        <v>79</v>
       </c>
       <c r="F43" s="31" t="s">
         <v>619</v>
       </c>
-      <c r="G43" s="31" t="s">
-        <v>668</v>
-      </c>
       <c r="H43" s="31">
-        <v>30</v>
+        <v>0.4</v>
       </c>
       <c r="I43" s="3"/>
-      <c r="J43" s="3"/>
-      <c r="K43" s="3"/>
-      <c r="L43" s="3"/>
-      <c r="M43" s="3"/>
-      <c r="N43" s="3"/>
+      <c r="J43" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="K43" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="L43" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="M43" s="31">
+        <f>(K43-J43)/6</f>
+        <v>0.125</v>
+      </c>
+      <c r="N43" s="31">
+        <v>0.01</v>
+      </c>
       <c r="P43" s="40"/>
-      <c r="Q43" s="2"/>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="Q43" s="31" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17">
       <c r="B44" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D44" s="31" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
       <c r="E44" s="31" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F44" s="31" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="G44" s="31" t="s">
         <v>668</v>
       </c>
-      <c r="H44" s="31" t="s">
-        <v>82</v>
+      <c r="H44" s="31">
+        <v>30</v>
       </c>
       <c r="I44" s="3"/>
       <c r="J44" s="3"/>
@@ -8068,96 +8351,103 @@
       <c r="P44" s="40"/>
       <c r="Q44" s="2"/>
     </row>
-    <row r="45" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="38" t="b">
+    <row r="45" spans="1:17">
+      <c r="B45" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D45" s="31" t="s">
+        <v>673</v>
+      </c>
+      <c r="E45" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="F45" s="31" t="s">
+        <v>618</v>
+      </c>
+      <c r="G45" s="31" t="s">
+        <v>668</v>
+      </c>
+      <c r="H45" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="I45" s="3"/>
+      <c r="J45" s="3"/>
+    </row>
+    <row r="46" spans="1:17" s="38" customFormat="1">
+      <c r="A46" s="38" t="b">
         <v>1</v>
       </c>
-      <c r="B45" s="38" t="s">
+      <c r="B46" s="38" t="s">
         <v>688</v>
       </c>
-      <c r="C45" s="38" t="s">
+      <c r="C46" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="D45" s="38" t="s">
+      <c r="D46" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="E45" s="38" t="s">
+      <c r="E46" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="G45" s="39"/>
-      <c r="H45" s="39"/>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B46" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D46" s="31" t="s">
+      <c r="G46" s="39"/>
+      <c r="H46" s="39"/>
+    </row>
+    <row r="47" spans="1:17">
+      <c r="B47" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D47" s="31" t="s">
         <v>685</v>
       </c>
-      <c r="E46" s="31" t="s">
+      <c r="E47" s="31" t="s">
         <v>77</v>
-      </c>
-      <c r="F46" s="31" t="s">
-        <v>619</v>
-      </c>
-      <c r="H46" s="31">
-        <v>0.4</v>
-      </c>
-      <c r="I46" s="3"/>
-      <c r="J46" s="3"/>
-      <c r="K46" s="3"/>
-      <c r="L46" s="3"/>
-      <c r="M46" s="3"/>
-      <c r="N46" s="3"/>
-      <c r="P46" s="40"/>
-      <c r="Q46" s="2"/>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B47" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D47" s="31" t="s">
-        <v>667</v>
-      </c>
-      <c r="E47" s="31" t="s">
-        <v>79</v>
       </c>
       <c r="F47" s="31" t="s">
         <v>619</v>
       </c>
-      <c r="G47" s="31" t="s">
-        <v>668</v>
-      </c>
       <c r="H47" s="31">
-        <v>30</v>
+        <v>0.4</v>
       </c>
       <c r="I47" s="3"/>
-      <c r="J47" s="3"/>
-      <c r="K47" s="3"/>
-      <c r="L47" s="3"/>
-      <c r="M47" s="3"/>
-      <c r="N47" s="3"/>
+      <c r="J47" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="K47" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="L47" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="M47" s="31">
+        <f>(K47-J47)/6</f>
+        <v>0.125</v>
+      </c>
+      <c r="N47" s="31">
+        <v>0.01</v>
+      </c>
       <c r="P47" s="40"/>
-      <c r="Q47" s="2"/>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="Q47" s="31" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17">
       <c r="B48" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D48" s="31" t="s">
-        <v>674</v>
+        <v>667</v>
       </c>
       <c r="E48" s="31" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F48" s="31" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="G48" s="31" t="s">
         <v>668</v>
       </c>
-      <c r="H48" s="31" t="s">
-        <v>670</v>
+      <c r="H48" s="31">
+        <v>30</v>
       </c>
       <c r="I48" s="3"/>
       <c r="J48" s="3"/>
@@ -8168,96 +8458,103 @@
       <c r="P48" s="40"/>
       <c r="Q48" s="2"/>
     </row>
-    <row r="49" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="38" t="b">
+    <row r="49" spans="1:17">
+      <c r="B49" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D49" s="31" t="s">
+        <v>674</v>
+      </c>
+      <c r="E49" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="F49" s="31" t="s">
+        <v>618</v>
+      </c>
+      <c r="G49" s="31" t="s">
+        <v>668</v>
+      </c>
+      <c r="H49" s="31" t="s">
+        <v>670</v>
+      </c>
+      <c r="I49" s="3"/>
+      <c r="J49" s="3"/>
+    </row>
+    <row r="50" spans="1:17" s="38" customFormat="1">
+      <c r="A50" s="38" t="b">
         <v>1</v>
       </c>
-      <c r="B49" s="38" t="s">
+      <c r="B50" s="38" t="s">
         <v>681</v>
       </c>
-      <c r="C49" s="38" t="s">
+      <c r="C50" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="D49" s="38" t="s">
+      <c r="D50" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="E49" s="38" t="s">
+      <c r="E50" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="G49" s="39"/>
-      <c r="H49" s="39"/>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B50" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D50" s="31" t="s">
+      <c r="G50" s="39"/>
+      <c r="H50" s="39"/>
+    </row>
+    <row r="51" spans="1:17">
+      <c r="B51" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D51" s="31" t="s">
         <v>686</v>
       </c>
-      <c r="E50" s="31" t="s">
+      <c r="E51" s="31" t="s">
         <v>77</v>
-      </c>
-      <c r="F50" s="31" t="s">
-        <v>619</v>
-      </c>
-      <c r="H50" s="31">
-        <v>0.4</v>
-      </c>
-      <c r="I50" s="3"/>
-      <c r="J50" s="3"/>
-      <c r="K50" s="3"/>
-      <c r="L50" s="3"/>
-      <c r="M50" s="3"/>
-      <c r="N50" s="3"/>
-      <c r="P50" s="40"/>
-      <c r="Q50" s="2"/>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B51" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D51" s="31" t="s">
-        <v>667</v>
-      </c>
-      <c r="E51" s="31" t="s">
-        <v>79</v>
       </c>
       <c r="F51" s="31" t="s">
         <v>619</v>
       </c>
-      <c r="G51" s="31" t="s">
-        <v>668</v>
-      </c>
       <c r="H51" s="31">
-        <v>30</v>
+        <v>0.4</v>
       </c>
       <c r="I51" s="3"/>
-      <c r="J51" s="3"/>
-      <c r="K51" s="3"/>
-      <c r="L51" s="3"/>
-      <c r="M51" s="3"/>
-      <c r="N51" s="3"/>
+      <c r="J51" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="K51" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="L51" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="M51" s="31">
+        <f>(K51-J51)/6</f>
+        <v>0.125</v>
+      </c>
+      <c r="N51" s="31">
+        <v>0.01</v>
+      </c>
       <c r="P51" s="40"/>
-      <c r="Q51" s="2"/>
-    </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="Q51" s="31" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17">
       <c r="B52" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D52" s="31" t="s">
-        <v>675</v>
+        <v>667</v>
       </c>
       <c r="E52" s="31" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F52" s="31" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="G52" s="31" t="s">
         <v>668</v>
       </c>
-      <c r="H52" s="31" t="s">
-        <v>671</v>
+      <c r="H52" s="31">
+        <v>30</v>
       </c>
       <c r="I52" s="3"/>
       <c r="J52" s="3"/>
@@ -8268,488 +8565,491 @@
       <c r="P52" s="40"/>
       <c r="Q52" s="2"/>
     </row>
-    <row r="53" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="38" t="b">
+    <row r="53" spans="1:17">
+      <c r="B53" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D53" s="31" t="s">
+        <v>675</v>
+      </c>
+      <c r="E53" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="F53" s="31" t="s">
+        <v>618</v>
+      </c>
+      <c r="G53" s="31" t="s">
+        <v>668</v>
+      </c>
+      <c r="H53" s="31" t="s">
+        <v>671</v>
+      </c>
+      <c r="I53" s="3"/>
+      <c r="J53" s="3"/>
+    </row>
+    <row r="54" spans="1:17" s="38" customFormat="1">
+      <c r="A54" s="38" t="b">
         <v>1</v>
       </c>
-      <c r="B53" s="38" t="s">
+      <c r="B54" s="38" t="s">
         <v>691</v>
       </c>
-      <c r="C53" s="38" t="s">
+      <c r="C54" s="38" t="s">
         <v>690</v>
       </c>
-      <c r="D53" s="38" t="s">
+      <c r="D54" s="38" t="s">
         <v>690</v>
       </c>
-      <c r="E53" s="38" t="s">
+      <c r="E54" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="G53" s="39"/>
-      <c r="H53" s="39"/>
-    </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B54" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D54" s="31" t="s">
+      <c r="G54" s="39"/>
+      <c r="H54" s="39"/>
+    </row>
+    <row r="55" spans="1:17">
+      <c r="B55" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D55" s="31" t="s">
         <v>693</v>
       </c>
-      <c r="E54" s="31" t="s">
+      <c r="E55" s="31" t="s">
         <v>692</v>
-      </c>
-      <c r="F54" s="31" t="s">
-        <v>618</v>
-      </c>
-      <c r="H54" s="31" t="s">
-        <v>704</v>
-      </c>
-      <c r="I54" s="31"/>
-    </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B55" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D55" s="31" t="s">
-        <v>695</v>
-      </c>
-      <c r="E55" s="31" t="s">
-        <v>694</v>
       </c>
       <c r="F55" s="31" t="s">
         <v>618</v>
       </c>
       <c r="H55" s="31" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="I55" s="31"/>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:17">
       <c r="B56" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D56" s="31" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="E56" s="31" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="F56" s="31" t="s">
         <v>618</v>
       </c>
-      <c r="H56" s="41" t="s">
-        <v>701</v>
+      <c r="H56" s="31" t="s">
+        <v>705</v>
       </c>
       <c r="I56" s="31"/>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:17">
       <c r="B57" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D57" s="31" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="E57" s="31" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="F57" s="31" t="s">
         <v>618</v>
       </c>
       <c r="H57" s="41" t="s">
+        <v>701</v>
+      </c>
+      <c r="I57" s="31"/>
+    </row>
+    <row r="58" spans="1:17">
+      <c r="B58" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D58" s="31" t="s">
+        <v>699</v>
+      </c>
+      <c r="E58" s="31" t="s">
+        <v>697</v>
+      </c>
+      <c r="F58" s="31" t="s">
+        <v>618</v>
+      </c>
+      <c r="H58" s="41" t="s">
         <v>700</v>
       </c>
-      <c r="I57" s="31"/>
-    </row>
-    <row r="58" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="38" t="b">
+      <c r="I58" s="31"/>
+    </row>
+    <row r="59" spans="1:17" s="38" customFormat="1">
+      <c r="A59" s="38" t="b">
         <v>1</v>
       </c>
-      <c r="B58" s="38" t="s">
+      <c r="B59" s="38" t="s">
         <v>707</v>
       </c>
-      <c r="C58" s="38" t="s">
+      <c r="C59" s="38" t="s">
         <v>706</v>
       </c>
-      <c r="D58" s="38" t="s">
+      <c r="D59" s="38" t="s">
         <v>706</v>
       </c>
-      <c r="E58" s="38" t="s">
+      <c r="E59" s="38" t="s">
         <v>233</v>
       </c>
-      <c r="G58" s="39"/>
-      <c r="H58" s="39"/>
-    </row>
-    <row r="59" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="30" t="b">
+      <c r="G59" s="39"/>
+      <c r="H59" s="39"/>
+    </row>
+    <row r="60" spans="1:17" s="49" customFormat="1">
+      <c r="A60" s="49" t="b">
         <v>1</v>
       </c>
-      <c r="B59" s="30" t="s">
+      <c r="B60" s="49" t="s">
         <v>774</v>
       </c>
-      <c r="C59" s="30" t="s">
+      <c r="C60" s="49" t="s">
         <v>76</v>
       </c>
-      <c r="D59" s="30" t="s">
+      <c r="D60" s="49" t="s">
         <v>76</v>
       </c>
-      <c r="E59" s="30" t="s">
+      <c r="E60" s="49" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="60" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="43" t="s">
+    <row r="61" spans="1:17" s="43" customFormat="1">
+      <c r="B61" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="D60" s="43" t="s">
+      <c r="D61" s="43" t="s">
         <v>775</v>
       </c>
-      <c r="E60" s="43" t="s">
+      <c r="E61" s="43" t="s">
         <v>77</v>
       </c>
-      <c r="F60" s="43" t="s">
+      <c r="F61" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="H60" s="43">
+      <c r="H61" s="43">
         <v>0.4</v>
       </c>
-      <c r="J60" s="43">
-        <v>0.3</v>
-      </c>
-      <c r="K60" s="43">
-        <v>0.5</v>
-      </c>
-      <c r="L60" s="43">
+      <c r="J61" s="43">
+        <v>0.05</v>
+      </c>
+      <c r="K61" s="43">
+        <v>0.8</v>
+      </c>
+      <c r="L61" s="43">
         <v>0.4</v>
       </c>
-      <c r="M60" s="43">
-        <f>(K60+J60)/6</f>
-        <v>0.13333333333333333</v>
-      </c>
-      <c r="N60" s="43">
+      <c r="M61" s="43">
+        <f>(K61+J61)/6</f>
+        <v>0.14166666666666669</v>
+      </c>
+      <c r="N61" s="43">
         <v>0.01</v>
       </c>
-      <c r="Q60" s="43" t="s">
+      <c r="Q61" s="43" t="s">
         <v>776</v>
       </c>
     </row>
-    <row r="61" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D61" s="30" t="s">
+    <row r="62" spans="1:17" s="30" customFormat="1">
+      <c r="B62" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D62" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="E61" s="30" t="s">
+      <c r="E62" s="30" t="s">
         <v>79</v>
       </c>
-      <c r="F61" s="30" t="s">
+      <c r="F62" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="H61" s="30">
+      <c r="H62" s="30">
         <v>30</v>
       </c>
     </row>
-    <row r="62" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D62" s="30" t="s">
+    <row r="63" spans="1:17" s="30" customFormat="1">
+      <c r="B63" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D63" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="E62" s="30" t="s">
+      <c r="E63" s="30" t="s">
         <v>81</v>
       </c>
-      <c r="F62" s="30" t="s">
+      <c r="F63" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="H62" s="30" t="s">
+      <c r="H63" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="I62" s="30" t="s">
+      <c r="I63" s="30" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="63" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="30" t="b">
+    <row r="64" spans="1:17" s="49" customFormat="1">
+      <c r="A64" s="49" t="b">
         <v>1</v>
       </c>
-      <c r="B63" s="30" t="s">
+      <c r="B64" s="49" t="s">
         <v>777</v>
       </c>
-      <c r="C63" s="30" t="s">
+      <c r="C64" s="49" t="s">
         <v>76</v>
       </c>
-      <c r="D63" s="30" t="s">
+      <c r="D64" s="49" t="s">
         <v>76</v>
       </c>
-      <c r="E63" s="30" t="s">
+      <c r="E64" s="49" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="64" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="43" t="s">
+    <row r="65" spans="1:17" s="43" customFormat="1">
+      <c r="B65" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="D64" s="43" t="s">
+      <c r="D65" s="43" t="s">
         <v>778</v>
       </c>
-      <c r="E64" s="43" t="s">
+      <c r="E65" s="43" t="s">
         <v>77</v>
       </c>
-      <c r="F64" s="43" t="s">
+      <c r="F65" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="H64" s="43">
+      <c r="H65" s="43">
         <v>0.4</v>
       </c>
-      <c r="J64" s="43">
-        <v>0.3</v>
-      </c>
-      <c r="K64" s="43">
-        <v>0.5</v>
-      </c>
-      <c r="L64" s="43">
+      <c r="J65" s="43">
+        <v>0.05</v>
+      </c>
+      <c r="K65" s="43">
+        <v>0.8</v>
+      </c>
+      <c r="L65" s="43">
         <v>0.4</v>
       </c>
-      <c r="M64" s="43">
-        <f>(K64+J64)/6</f>
-        <v>0.13333333333333333</v>
-      </c>
-      <c r="N64" s="43">
+      <c r="M65" s="43">
+        <f>(K65+J65)/6</f>
+        <v>0.14166666666666669</v>
+      </c>
+      <c r="N65" s="43">
         <v>0.01</v>
       </c>
-      <c r="Q64" s="43" t="s">
+      <c r="Q65" s="43" t="s">
         <v>776</v>
       </c>
     </row>
-    <row r="65" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D65" s="30" t="s">
+    <row r="66" spans="1:17" s="30" customFormat="1">
+      <c r="B66" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D66" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="E65" s="30" t="s">
+      <c r="E66" s="30" t="s">
         <v>79</v>
       </c>
-      <c r="F65" s="30" t="s">
+      <c r="F66" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="H65" s="30">
+      <c r="H66" s="30">
         <v>30</v>
       </c>
     </row>
-    <row r="66" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D66" s="30" t="s">
+    <row r="67" spans="1:17" s="30" customFormat="1">
+      <c r="B67" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D67" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="E66" s="30" t="s">
+      <c r="E67" s="30" t="s">
         <v>81</v>
       </c>
-      <c r="F66" s="30" t="s">
+      <c r="F67" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="H66" s="30" t="s">
+      <c r="H67" s="30" t="s">
         <v>670</v>
       </c>
-      <c r="I66" s="30" t="s">
+      <c r="I67" s="30" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="67" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="30" t="b">
+    <row r="68" spans="1:17" s="49" customFormat="1">
+      <c r="A68" s="49" t="b">
         <v>1</v>
       </c>
-      <c r="B67" s="30" t="s">
+      <c r="B68" s="49" t="s">
         <v>779</v>
       </c>
-      <c r="C67" s="30" t="s">
+      <c r="C68" s="49" t="s">
         <v>76</v>
       </c>
-      <c r="D67" s="30" t="s">
+      <c r="D68" s="49" t="s">
         <v>76</v>
       </c>
-      <c r="E67" s="30" t="s">
+      <c r="E68" s="49" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="68" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="43" t="s">
+    <row r="69" spans="1:17" s="43" customFormat="1">
+      <c r="B69" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="D68" s="43" t="s">
+      <c r="D69" s="43" t="s">
         <v>780</v>
       </c>
-      <c r="E68" s="43" t="s">
+      <c r="E69" s="43" t="s">
         <v>77</v>
       </c>
-      <c r="F68" s="43" t="s">
+      <c r="F69" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="H68" s="43">
+      <c r="H69" s="43">
         <v>0.4</v>
       </c>
-      <c r="J68" s="43">
-        <v>0.3</v>
-      </c>
-      <c r="K68" s="43">
-        <v>0.5</v>
-      </c>
-      <c r="L68" s="43">
+      <c r="J69" s="43">
+        <v>0.05</v>
+      </c>
+      <c r="K69" s="43">
+        <v>0.8</v>
+      </c>
+      <c r="L69" s="43">
         <v>0.4</v>
       </c>
-      <c r="M68" s="43">
-        <f>(K68+J68)/6</f>
-        <v>0.13333333333333333</v>
-      </c>
-      <c r="N68" s="43">
+      <c r="M69" s="43">
+        <f>(K69+J69)/6</f>
+        <v>0.14166666666666669</v>
+      </c>
+      <c r="N69" s="43">
         <v>0.01</v>
       </c>
-      <c r="Q68" s="43" t="s">
+      <c r="Q69" s="43" t="s">
         <v>776</v>
       </c>
     </row>
-    <row r="69" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B69" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D69" s="30" t="s">
+    <row r="70" spans="1:17" s="30" customFormat="1">
+      <c r="B70" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D70" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="E69" s="30" t="s">
+      <c r="E70" s="30" t="s">
         <v>79</v>
       </c>
-      <c r="F69" s="30" t="s">
+      <c r="F70" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="H69" s="30">
+      <c r="H70" s="30">
         <v>30</v>
       </c>
     </row>
-    <row r="70" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D70" s="30" t="s">
+    <row r="71" spans="1:17" s="30" customFormat="1">
+      <c r="B71" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D71" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="E70" s="30" t="s">
+      <c r="E71" s="30" t="s">
         <v>81</v>
       </c>
-      <c r="F70" s="30" t="s">
+      <c r="F71" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="H70" s="30" t="s">
+      <c r="H71" s="30" t="s">
         <v>671</v>
       </c>
-      <c r="I70" s="30" t="s">
+      <c r="I71" s="30" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="71" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="30" t="b">
+    <row r="72" spans="1:17" s="49" customFormat="1">
+      <c r="A72" s="49" t="b">
         <v>1</v>
       </c>
-      <c r="B71" s="30" t="s">
+      <c r="B72" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="C71" s="30" t="s">
+      <c r="C72" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="D71" s="30" t="s">
+      <c r="D72" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="E71" s="30" t="s">
+      <c r="E72" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="P71" s="31"/>
-    </row>
-    <row r="72" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B72" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D72" s="30" t="s">
+    </row>
+    <row r="73" spans="1:17" s="30" customFormat="1">
+      <c r="B73" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D73" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="E72" s="30" t="s">
+      <c r="E73" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="F72" s="30" t="s">
+      <c r="F73" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="H72" s="30" t="s">
+      <c r="H73" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="I72" s="30" t="s">
+      <c r="I73" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="O72" s="31"/>
-    </row>
-    <row r="73" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B73" s="43" t="s">
+      <c r="O73" s="31"/>
+    </row>
+    <row r="74" spans="1:17" s="43" customFormat="1">
+      <c r="B74" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="D73" s="44" t="s">
+      <c r="D74" s="44" t="s">
         <v>781</v>
       </c>
-      <c r="E73" s="43" t="s">
+      <c r="E74" s="43" t="s">
         <v>70</v>
       </c>
-      <c r="F73" s="43" t="s">
+      <c r="F74" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="H73" s="43">
-        <v>0</v>
-      </c>
-      <c r="J73" s="45">
+      <c r="H74" s="43">
+        <v>0</v>
+      </c>
+      <c r="J74" s="45">
         <v>-100</v>
       </c>
-      <c r="K73" s="45">
+      <c r="K74" s="45">
         <v>100</v>
       </c>
-      <c r="L73" s="45">
-        <v>0</v>
-      </c>
-      <c r="M73" s="45">
-        <f>(K73-J73)/6</f>
+      <c r="L74" s="45">
+        <v>0</v>
+      </c>
+      <c r="M74" s="45">
+        <f>(K74-J74)/6</f>
         <v>33.333333333333336</v>
       </c>
-      <c r="N73" s="45">
+      <c r="N74" s="45">
         <v>2.5</v>
       </c>
-      <c r="Q73" s="43" t="s">
+      <c r="Q74" s="43" t="s">
         <v>776</v>
       </c>
     </row>
-    <row r="74" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B74" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D74" s="30" t="s">
+    <row r="75" spans="1:17" s="30" customFormat="1">
+      <c r="B75" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D75" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="E74" s="30" t="s">
+      <c r="E75" s="30" t="s">
         <v>48</v>
-      </c>
-      <c r="F74" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="H74" s="30">
-        <v>0</v>
-      </c>
-      <c r="O74" s="31"/>
-    </row>
-    <row r="75" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D75" s="30" t="s">
-        <v>72</v>
-      </c>
-      <c r="E75" s="30" t="s">
-        <v>58</v>
       </c>
       <c r="F75" s="30" t="s">
         <v>64</v>
@@ -8759,156 +9059,137 @@
       </c>
       <c r="O75" s="31"/>
     </row>
-    <row r="76" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:17" s="30" customFormat="1">
       <c r="B76" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D76" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="E76" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F76" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="H76" s="30">
+        <v>0</v>
+      </c>
+      <c r="O76" s="31"/>
+    </row>
+    <row r="77" spans="1:17" s="30" customFormat="1">
+      <c r="B77" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D77" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="E76" s="30" t="s">
+      <c r="E77" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="F76" s="30" t="s">
+      <c r="F77" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="H76" s="30">
+      <c r="H77" s="30">
         <v>1</v>
       </c>
-      <c r="O76" s="31"/>
-    </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A77" s="30" t="b">
+      <c r="O77" s="31"/>
+    </row>
+    <row r="78" spans="1:17" s="50" customFormat="1">
+      <c r="A78" s="50" t="b">
         <v>1</v>
       </c>
-      <c r="B77" s="30" t="s">
+      <c r="B78" s="50" t="s">
         <v>67</v>
       </c>
-      <c r="C77" s="30" t="s">
+      <c r="C78" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="D77" s="30" t="s">
+      <c r="D78" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="E77" s="31" t="s">
+      <c r="E78" s="50" t="s">
         <v>68</v>
       </c>
-      <c r="F77" s="30"/>
-      <c r="G77" s="30"/>
-      <c r="H77" s="30"/>
-      <c r="I77" s="30"/>
-      <c r="J77" s="4"/>
-      <c r="K77" s="3"/>
-      <c r="L77" s="3"/>
-      <c r="M77" s="3"/>
-      <c r="N77" s="3"/>
-      <c r="O77" s="3"/>
-      <c r="Q77" s="40"/>
-    </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A78" s="30"/>
-      <c r="B78" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="C78" s="30"/>
-      <c r="D78" s="30" t="s">
+    </row>
+    <row r="79" spans="1:17">
+      <c r="A79" s="30"/>
+      <c r="B79" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C79" s="30"/>
+      <c r="D79" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="E78" s="30" t="s">
+      <c r="E79" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="F78" s="30" t="s">
+      <c r="F79" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="G78" s="30"/>
-      <c r="H78" s="30" t="s">
+      <c r="G79" s="30"/>
+      <c r="H79" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="I78" s="30" t="s">
+      <c r="I79" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="J78" s="3"/>
-      <c r="K78" s="3"/>
-      <c r="L78" s="3"/>
-      <c r="M78" s="3"/>
-      <c r="N78" s="3"/>
-      <c r="P78" s="40"/>
-    </row>
-    <row r="79" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B79" s="43" t="s">
+      <c r="J79" s="3"/>
+      <c r="K79" s="3"/>
+      <c r="L79" s="3"/>
+      <c r="M79" s="3"/>
+      <c r="N79" s="3"/>
+      <c r="P79" s="40"/>
+    </row>
+    <row r="80" spans="1:17" s="43" customFormat="1">
+      <c r="B80" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="D79" s="43" t="s">
+      <c r="D80" s="43" t="s">
         <v>782</v>
       </c>
-      <c r="E79" s="43" t="s">
+      <c r="E80" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="F79" s="43" t="s">
+      <c r="F80" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="H79" s="43">
-        <v>0</v>
-      </c>
-      <c r="I79" s="46"/>
-      <c r="J79" s="45">
-        <v>-40</v>
-      </c>
-      <c r="K79" s="45">
-        <v>40</v>
-      </c>
-      <c r="L79" s="45">
+      <c r="H80" s="43">
+        <v>0</v>
+      </c>
+      <c r="I80" s="46"/>
+      <c r="J80" s="45">
+        <v>-60</v>
+      </c>
+      <c r="K80" s="45">
+        <v>60</v>
+      </c>
+      <c r="L80" s="45">
         <v>-1</v>
       </c>
-      <c r="M79" s="45">
-        <f>(K79-J79)/6</f>
-        <v>13.333333333333334</v>
-      </c>
-      <c r="N79" s="45">
+      <c r="M80" s="45">
+        <f>(K80-J80)/6</f>
+        <v>20</v>
+      </c>
+      <c r="N80" s="45">
         <v>2.5</v>
       </c>
-      <c r="P79" s="47"/>
-      <c r="Q79" s="43" t="s">
+      <c r="P80" s="47"/>
+      <c r="Q80" s="43" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A80" s="30"/>
-      <c r="B80" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="C80" s="30"/>
-      <c r="D80" s="48" t="s">
-        <v>47</v>
-      </c>
-      <c r="E80" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="F80" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="G80" s="30"/>
-      <c r="H80" s="30">
-        <v>0</v>
-      </c>
-      <c r="J80" s="3"/>
-      <c r="K80" s="3"/>
-      <c r="L80" s="3"/>
-      <c r="M80" s="3"/>
-      <c r="N80" s="3"/>
-      <c r="P80" s="40"/>
-    </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:17">
       <c r="A81" s="30"/>
       <c r="B81" s="30" t="s">
         <v>21</v>
       </c>
       <c r="C81" s="30"/>
-      <c r="D81" s="30" t="s">
-        <v>49</v>
+      <c r="D81" s="48" t="s">
+        <v>47</v>
       </c>
       <c r="E81" s="30" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F81" s="30" t="s">
         <v>64</v>
@@ -8924,20 +9205,20 @@
       <c r="N81" s="3"/>
       <c r="P81" s="40"/>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:17">
       <c r="A82" s="30"/>
       <c r="B82" s="30" t="s">
         <v>21</v>
       </c>
       <c r="C82" s="30"/>
       <c r="D82" s="30" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E82" s="30" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F82" s="30" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G82" s="30"/>
       <c r="H82" s="30">
@@ -8950,24 +9231,24 @@
       <c r="N82" s="3"/>
       <c r="P82" s="40"/>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:17">
       <c r="A83" s="30"/>
       <c r="B83" s="30" t="s">
         <v>21</v>
       </c>
       <c r="C83" s="30"/>
       <c r="D83" s="30" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E83" s="30" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F83" s="30" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G83" s="30"/>
-      <c r="H83" s="30" t="b">
-        <v>1</v>
+      <c r="H83" s="30">
+        <v>0</v>
       </c>
       <c r="J83" s="3"/>
       <c r="K83" s="3"/>
@@ -8976,24 +9257,24 @@
       <c r="N83" s="3"/>
       <c r="P83" s="40"/>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:17">
       <c r="A84" s="30"/>
       <c r="B84" s="30" t="s">
         <v>21</v>
       </c>
       <c r="C84" s="30"/>
       <c r="D84" s="30" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E84" s="30" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F84" s="30" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G84" s="30"/>
-      <c r="H84" s="30">
-        <v>15</v>
+      <c r="H84" s="30" t="b">
+        <v>1</v>
       </c>
       <c r="J84" s="3"/>
       <c r="K84" s="3"/>
@@ -9002,24 +9283,24 @@
       <c r="N84" s="3"/>
       <c r="P84" s="40"/>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:17">
       <c r="A85" s="30"/>
       <c r="B85" s="30" t="s">
         <v>21</v>
       </c>
       <c r="C85" s="30"/>
       <c r="D85" s="30" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E85" s="30" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F85" s="30" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G85" s="30"/>
       <c r="H85" s="30">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J85" s="3"/>
       <c r="K85" s="3"/>
@@ -9028,24 +9309,24 @@
       <c r="N85" s="3"/>
       <c r="P85" s="40"/>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:17">
       <c r="A86" s="30"/>
       <c r="B86" s="30" t="s">
         <v>21</v>
       </c>
       <c r="C86" s="30"/>
       <c r="D86" s="30" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E86" s="30" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F86" s="30" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G86" s="30"/>
       <c r="H86" s="30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J86" s="3"/>
       <c r="K86" s="3"/>
@@ -9054,561 +9335,929 @@
       <c r="N86" s="3"/>
       <c r="P86" s="40"/>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="H87" s="31"/>
-      <c r="I87" s="31"/>
-    </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="H88" s="31"/>
-      <c r="I88" s="31"/>
-    </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="H89" s="31"/>
-      <c r="I89" s="31"/>
-    </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="H90" s="31"/>
-      <c r="I90" s="31"/>
-    </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="H91" s="31"/>
-      <c r="I91" s="31"/>
-    </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="H92" s="31"/>
-      <c r="I92" s="31"/>
-    </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="H93" s="31"/>
-      <c r="I93" s="31"/>
-    </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="H94" s="31"/>
-      <c r="I94" s="31"/>
-    </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="H95" s="31"/>
-      <c r="I95" s="31"/>
-    </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="H96" s="31"/>
-      <c r="I96" s="31"/>
-    </row>
-    <row r="97" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H97" s="31"/>
-      <c r="I97" s="31"/>
-    </row>
-    <row r="98" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H98" s="31"/>
-      <c r="I98" s="31"/>
-    </row>
-    <row r="99" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H99" s="31"/>
-      <c r="I99" s="31"/>
-    </row>
-    <row r="100" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H100" s="31"/>
-      <c r="I100" s="31"/>
-    </row>
-    <row r="101" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H101" s="31"/>
-      <c r="I101" s="31"/>
-    </row>
-    <row r="102" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H102" s="31"/>
-      <c r="I102" s="31"/>
-    </row>
-    <row r="103" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H103" s="31"/>
-      <c r="I103" s="31"/>
-    </row>
-    <row r="104" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H104" s="31"/>
-      <c r="I104" s="31"/>
-    </row>
-    <row r="105" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:17">
+      <c r="A87" s="30"/>
+      <c r="B87" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C87" s="30"/>
+      <c r="D87" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="E87" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="F87" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="G87" s="30"/>
+      <c r="H87" s="30">
+        <v>1</v>
+      </c>
+      <c r="J87" s="3"/>
+      <c r="K87" s="3"/>
+      <c r="L87" s="3"/>
+      <c r="M87" s="3"/>
+      <c r="N87" s="3"/>
+      <c r="P87" s="40"/>
+    </row>
+    <row r="88" spans="1:17" s="50" customFormat="1">
+      <c r="A88" s="50" t="b">
+        <v>1</v>
+      </c>
+      <c r="B88" s="50" t="s">
+        <v>327</v>
+      </c>
+      <c r="C88" s="50" t="s">
+        <v>328</v>
+      </c>
+      <c r="D88" s="50" t="s">
+        <v>328</v>
+      </c>
+      <c r="E88" s="50" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17">
+      <c r="A89" s="30"/>
+      <c r="B89" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C89" s="30"/>
+      <c r="D89" s="30" t="s">
+        <v>373</v>
+      </c>
+      <c r="E89" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="F89" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="G89" s="30"/>
+      <c r="H89" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="I89" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="J89" s="3"/>
+      <c r="K89" s="3"/>
+      <c r="L89" s="3"/>
+      <c r="M89" s="3"/>
+      <c r="N89" s="3"/>
+      <c r="P89" s="40"/>
+    </row>
+    <row r="90" spans="1:17" s="43" customFormat="1">
+      <c r="B90" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="D90" s="43" t="s">
+        <v>820</v>
+      </c>
+      <c r="E90" s="43" t="s">
+        <v>330</v>
+      </c>
+      <c r="F90" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="H90" s="43">
+        <v>0</v>
+      </c>
+      <c r="I90" s="46"/>
+      <c r="J90" s="45">
+        <v>-30</v>
+      </c>
+      <c r="K90" s="45">
+        <v>30</v>
+      </c>
+      <c r="L90" s="45">
+        <v>0</v>
+      </c>
+      <c r="M90" s="45">
+        <f>(K90-J90)/6</f>
+        <v>10</v>
+      </c>
+      <c r="N90" s="45">
+        <v>2.5</v>
+      </c>
+      <c r="Q90" s="43" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17" s="50" customFormat="1">
+      <c r="A91" s="50" t="b">
+        <v>1</v>
+      </c>
+      <c r="B91" s="50" t="s">
+        <v>821</v>
+      </c>
+      <c r="C91" s="50" t="s">
+        <v>822</v>
+      </c>
+      <c r="D91" s="50" t="s">
+        <v>822</v>
+      </c>
+      <c r="E91" s="50" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="92" spans="1:17" s="43" customFormat="1">
+      <c r="B92" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="D92" s="43" t="s">
+        <v>823</v>
+      </c>
+      <c r="E92" s="43" t="s">
+        <v>258</v>
+      </c>
+      <c r="F92" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="H92" s="43">
+        <v>0</v>
+      </c>
+      <c r="I92" s="46"/>
+      <c r="J92" s="45">
+        <v>-50</v>
+      </c>
+      <c r="K92" s="45">
+        <v>100</v>
+      </c>
+      <c r="L92" s="45">
+        <v>0</v>
+      </c>
+      <c r="M92" s="45">
+        <f>(K92-J92)/6</f>
+        <v>25</v>
+      </c>
+      <c r="N92" s="45">
+        <v>2.5</v>
+      </c>
+      <c r="Q92" s="43" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17" s="50" customFormat="1">
+      <c r="A93" s="50" t="b">
+        <v>1</v>
+      </c>
+      <c r="B93" s="50" t="s">
+        <v>824</v>
+      </c>
+      <c r="C93" s="50" t="s">
+        <v>825</v>
+      </c>
+      <c r="D93" s="50" t="s">
+        <v>825</v>
+      </c>
+      <c r="E93" s="50" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17" s="43" customFormat="1">
+      <c r="B94" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="D94" s="43" t="s">
+        <v>826</v>
+      </c>
+      <c r="E94" s="43" t="s">
+        <v>258</v>
+      </c>
+      <c r="F94" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="H94" s="43">
+        <v>0</v>
+      </c>
+      <c r="I94" s="46"/>
+      <c r="J94" s="45">
+        <v>-50</v>
+      </c>
+      <c r="K94" s="45">
+        <v>100</v>
+      </c>
+      <c r="L94" s="45">
+        <v>0</v>
+      </c>
+      <c r="M94" s="45">
+        <f>(K94-J94)/6</f>
+        <v>25</v>
+      </c>
+      <c r="N94" s="45">
+        <v>2.5</v>
+      </c>
+      <c r="Q94" s="43" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17" s="50" customFormat="1">
+      <c r="A95" s="50" t="b">
+        <v>1</v>
+      </c>
+      <c r="B95" s="50" t="s">
+        <v>285</v>
+      </c>
+      <c r="C95" s="50" t="s">
+        <v>286</v>
+      </c>
+      <c r="D95" s="50" t="s">
+        <v>286</v>
+      </c>
+      <c r="E95" s="50" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="96" spans="1:17" s="30" customFormat="1">
+      <c r="B96" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D96" s="30" t="s">
+        <v>373</v>
+      </c>
+      <c r="E96" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="F96" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="H96" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="I96" s="30" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="97" spans="2:17" s="43" customFormat="1">
+      <c r="B97" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="D97" s="43" t="s">
+        <v>827</v>
+      </c>
+      <c r="E97" s="43" t="s">
+        <v>288</v>
+      </c>
+      <c r="F97" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="G97" s="43" t="s">
+        <v>828</v>
+      </c>
+      <c r="H97" s="43">
+        <v>0</v>
+      </c>
+      <c r="I97" s="46"/>
+      <c r="J97" s="45">
+        <v>-40</v>
+      </c>
+      <c r="K97" s="45">
+        <v>80</v>
+      </c>
+      <c r="L97" s="45">
+        <v>-1</v>
+      </c>
+      <c r="M97" s="45">
+        <f>(K97-J97)/6</f>
+        <v>20</v>
+      </c>
+      <c r="N97" s="45">
+        <v>2.5</v>
+      </c>
+      <c r="Q97" s="43" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="98" spans="2:17" s="30" customFormat="1">
+      <c r="B98" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D98" s="30" t="s">
+        <v>829</v>
+      </c>
+      <c r="E98" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="F98" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="G98" s="30" t="s">
+        <v>828</v>
+      </c>
+      <c r="H98" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="2:17" s="30" customFormat="1">
+      <c r="B99" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D99" s="30" t="s">
+        <v>830</v>
+      </c>
+      <c r="E99" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="F99" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="G99" s="30" t="s">
+        <v>828</v>
+      </c>
+      <c r="H99" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="2:17" s="30" customFormat="1">
+      <c r="B100" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D100" s="30" t="s">
+        <v>831</v>
+      </c>
+      <c r="E100" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="F100" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="G100" s="30" t="s">
+        <v>832</v>
+      </c>
+      <c r="H100" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="2:17" s="30" customFormat="1">
+      <c r="B101" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D101" s="30" t="s">
+        <v>833</v>
+      </c>
+      <c r="E101" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="F101" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="H101" s="30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="2:17" s="30" customFormat="1">
+      <c r="B102" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D102" s="30" t="s">
+        <v>834</v>
+      </c>
+      <c r="E102" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="F102" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="G102" s="30" t="s">
+        <v>832</v>
+      </c>
+      <c r="H102" s="30">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="103" spans="2:17" s="30" customFormat="1">
+      <c r="B103" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D103" s="30" t="s">
+        <v>835</v>
+      </c>
+      <c r="E103" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F103" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="G103" s="30" t="s">
+        <v>828</v>
+      </c>
+      <c r="H103" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="2:17" s="30" customFormat="1">
+      <c r="B104" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D104" s="30" t="s">
+        <v>836</v>
+      </c>
+      <c r="E104" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="F104" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="G104" s="30" t="s">
+        <v>832</v>
+      </c>
+      <c r="H104" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="2:17">
       <c r="H105" s="31"/>
       <c r="I105" s="31"/>
     </row>
-    <row r="106" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:17">
       <c r="H106" s="31"/>
       <c r="I106" s="31"/>
     </row>
-    <row r="107" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:17">
       <c r="H107" s="31"/>
       <c r="I107" s="31"/>
     </row>
-    <row r="108" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:17">
       <c r="H108" s="31"/>
       <c r="I108" s="31"/>
     </row>
-    <row r="109" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:17">
       <c r="H109" s="31"/>
       <c r="I109" s="31"/>
     </row>
-    <row r="110" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:17">
       <c r="H110" s="31"/>
       <c r="I110" s="31"/>
     </row>
-    <row r="111" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:17">
       <c r="H111" s="31"/>
       <c r="I111" s="31"/>
     </row>
-    <row r="112" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:17">
       <c r="H112" s="31"/>
       <c r="I112" s="31"/>
     </row>
-    <row r="113" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="113" spans="8:9">
       <c r="H113" s="31"/>
       <c r="I113" s="31"/>
     </row>
-    <row r="114" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="114" spans="8:9">
       <c r="H114" s="31"/>
       <c r="I114" s="31"/>
     </row>
-    <row r="115" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="115" spans="8:9">
       <c r="H115" s="31"/>
       <c r="I115" s="31"/>
     </row>
-    <row r="116" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="116" spans="8:9">
       <c r="H116" s="31"/>
       <c r="I116" s="31"/>
     </row>
-    <row r="117" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="117" spans="8:9">
       <c r="H117" s="31"/>
       <c r="I117" s="31"/>
     </row>
-    <row r="118" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="118" spans="8:9">
       <c r="H118" s="31"/>
       <c r="I118" s="31"/>
     </row>
-    <row r="119" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="119" spans="8:9">
       <c r="H119" s="31"/>
       <c r="I119" s="31"/>
     </row>
-    <row r="120" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="120" spans="8:9">
       <c r="H120" s="31"/>
       <c r="I120" s="31"/>
     </row>
-    <row r="121" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="121" spans="8:9">
       <c r="H121" s="31"/>
       <c r="I121" s="31"/>
     </row>
-    <row r="122" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="122" spans="8:9">
       <c r="H122" s="31"/>
       <c r="I122" s="31"/>
     </row>
-    <row r="123" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="123" spans="8:9">
       <c r="H123" s="31"/>
       <c r="I123" s="31"/>
     </row>
-    <row r="124" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="124" spans="8:9">
       <c r="H124" s="31"/>
       <c r="I124" s="31"/>
     </row>
-    <row r="125" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="125" spans="8:9">
       <c r="H125" s="31"/>
       <c r="I125" s="31"/>
     </row>
-    <row r="126" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="126" spans="8:9">
       <c r="H126" s="31"/>
       <c r="I126" s="31"/>
     </row>
-    <row r="127" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="127" spans="8:9">
       <c r="H127" s="31"/>
       <c r="I127" s="31"/>
     </row>
-    <row r="128" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="128" spans="8:9">
       <c r="H128" s="31"/>
       <c r="I128" s="31"/>
     </row>
-    <row r="129" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="129" spans="8:9">
       <c r="H129" s="31"/>
       <c r="I129" s="31"/>
     </row>
-    <row r="130" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="130" spans="8:9">
       <c r="H130" s="31"/>
       <c r="I130" s="31"/>
     </row>
-    <row r="131" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="131" spans="8:9">
       <c r="H131" s="31"/>
       <c r="I131" s="31"/>
     </row>
-    <row r="132" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="132" spans="8:9">
       <c r="H132" s="31"/>
       <c r="I132" s="31"/>
     </row>
-    <row r="133" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="133" spans="8:9">
       <c r="H133" s="31"/>
       <c r="I133" s="31"/>
     </row>
-    <row r="134" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="134" spans="8:9">
       <c r="H134" s="31"/>
       <c r="I134" s="31"/>
     </row>
-    <row r="135" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="135" spans="8:9">
       <c r="H135" s="31"/>
       <c r="I135" s="31"/>
     </row>
-    <row r="136" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="136" spans="8:9">
       <c r="H136" s="31"/>
       <c r="I136" s="31"/>
     </row>
-    <row r="137" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="137" spans="8:9">
       <c r="H137" s="31"/>
       <c r="I137" s="31"/>
     </row>
-    <row r="138" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="138" spans="8:9">
       <c r="H138" s="31"/>
       <c r="I138" s="31"/>
     </row>
-    <row r="139" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="139" spans="8:9">
       <c r="H139" s="31"/>
       <c r="I139" s="31"/>
     </row>
-    <row r="140" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="140" spans="8:9">
       <c r="H140" s="31"/>
       <c r="I140" s="31"/>
     </row>
-    <row r="141" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="141" spans="8:9">
       <c r="H141" s="31"/>
       <c r="I141" s="31"/>
     </row>
-    <row r="142" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="142" spans="8:9">
       <c r="H142" s="31"/>
       <c r="I142" s="31"/>
     </row>
-    <row r="143" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="143" spans="8:9">
       <c r="H143" s="31"/>
       <c r="I143" s="31"/>
     </row>
-    <row r="144" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="144" spans="8:9">
       <c r="H144" s="31"/>
       <c r="I144" s="31"/>
     </row>
-    <row r="145" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="145" spans="8:9">
       <c r="H145" s="31"/>
       <c r="I145" s="31"/>
     </row>
-    <row r="146" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="146" spans="8:9">
       <c r="H146" s="31"/>
       <c r="I146" s="31"/>
     </row>
-    <row r="147" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="147" spans="8:9">
       <c r="H147" s="31"/>
       <c r="I147" s="31"/>
     </row>
-    <row r="148" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="148" spans="8:9">
       <c r="H148" s="31"/>
       <c r="I148" s="31"/>
     </row>
-    <row r="149" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="149" spans="8:9">
       <c r="H149" s="31"/>
       <c r="I149" s="31"/>
     </row>
-    <row r="150" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="150" spans="8:9">
       <c r="H150" s="31"/>
       <c r="I150" s="31"/>
     </row>
-    <row r="151" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="151" spans="8:9">
       <c r="H151" s="31"/>
       <c r="I151" s="31"/>
     </row>
-    <row r="152" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="152" spans="8:9">
       <c r="H152" s="31"/>
       <c r="I152" s="31"/>
     </row>
-    <row r="153" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="153" spans="8:9">
       <c r="H153" s="31"/>
       <c r="I153" s="31"/>
     </row>
-    <row r="154" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="154" spans="8:9">
       <c r="H154" s="31"/>
       <c r="I154" s="31"/>
     </row>
-    <row r="155" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="155" spans="8:9">
       <c r="H155" s="31"/>
       <c r="I155" s="31"/>
     </row>
-    <row r="156" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="156" spans="8:9">
       <c r="H156" s="31"/>
       <c r="I156" s="31"/>
     </row>
-    <row r="157" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="157" spans="8:9">
       <c r="H157" s="31"/>
       <c r="I157" s="31"/>
     </row>
-    <row r="158" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="158" spans="8:9">
       <c r="H158" s="31"/>
       <c r="I158" s="31"/>
     </row>
-    <row r="159" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="159" spans="8:9">
       <c r="H159" s="31"/>
       <c r="I159" s="31"/>
     </row>
-    <row r="160" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="160" spans="8:9">
       <c r="H160" s="31"/>
       <c r="I160" s="31"/>
     </row>
-    <row r="161" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="161" spans="8:9">
       <c r="H161" s="31"/>
       <c r="I161" s="31"/>
     </row>
-    <row r="162" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="162" spans="8:9">
       <c r="H162" s="31"/>
       <c r="I162" s="31"/>
     </row>
-    <row r="163" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="163" spans="8:9">
       <c r="H163" s="31"/>
       <c r="I163" s="31"/>
     </row>
-    <row r="164" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="164" spans="8:9">
       <c r="H164" s="31"/>
       <c r="I164" s="31"/>
     </row>
-    <row r="165" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="165" spans="8:9">
       <c r="H165" s="31"/>
       <c r="I165" s="31"/>
     </row>
-    <row r="166" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="166" spans="8:9">
       <c r="H166" s="31"/>
       <c r="I166" s="31"/>
     </row>
-    <row r="167" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="167" spans="8:9">
       <c r="H167" s="31"/>
       <c r="I167" s="31"/>
     </row>
-    <row r="168" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="168" spans="8:9">
       <c r="H168" s="31"/>
       <c r="I168" s="31"/>
     </row>
-    <row r="169" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="169" spans="8:9">
       <c r="H169" s="31"/>
       <c r="I169" s="31"/>
     </row>
-    <row r="170" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="170" spans="8:9">
       <c r="H170" s="31"/>
       <c r="I170" s="31"/>
     </row>
-    <row r="171" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="171" spans="8:9">
       <c r="H171" s="31"/>
       <c r="I171" s="31"/>
     </row>
-    <row r="172" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="172" spans="8:9">
       <c r="H172" s="31"/>
       <c r="I172" s="31"/>
     </row>
-    <row r="173" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="173" spans="8:9">
       <c r="H173" s="31"/>
       <c r="I173" s="31"/>
     </row>
-    <row r="174" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="174" spans="8:9">
       <c r="H174" s="31"/>
       <c r="I174" s="31"/>
     </row>
-    <row r="175" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="175" spans="8:9">
       <c r="H175" s="31"/>
       <c r="I175" s="31"/>
     </row>
-    <row r="176" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="176" spans="8:9">
       <c r="H176" s="31"/>
       <c r="I176" s="31"/>
     </row>
-    <row r="177" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="177" spans="8:9">
       <c r="H177" s="31"/>
       <c r="I177" s="31"/>
     </row>
-    <row r="178" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="178" spans="8:9">
       <c r="H178" s="31"/>
       <c r="I178" s="31"/>
     </row>
-    <row r="179" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="179" spans="8:9">
       <c r="H179" s="31"/>
       <c r="I179" s="31"/>
     </row>
-    <row r="180" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="180" spans="8:9">
       <c r="H180" s="31"/>
       <c r="I180" s="31"/>
     </row>
-    <row r="181" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="181" spans="8:9">
       <c r="H181" s="31"/>
       <c r="I181" s="31"/>
     </row>
-    <row r="182" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="182" spans="8:9">
       <c r="H182" s="31"/>
       <c r="I182" s="31"/>
     </row>
-    <row r="183" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="183" spans="8:9">
       <c r="H183" s="31"/>
       <c r="I183" s="31"/>
     </row>
-    <row r="184" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="184" spans="8:9">
       <c r="H184" s="31"/>
       <c r="I184" s="31"/>
     </row>
-    <row r="185" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="185" spans="8:9">
       <c r="H185" s="31"/>
       <c r="I185" s="31"/>
     </row>
-    <row r="186" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="186" spans="8:9">
       <c r="H186" s="31"/>
       <c r="I186" s="31"/>
     </row>
-    <row r="187" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="187" spans="8:9">
       <c r="H187" s="31"/>
       <c r="I187" s="31"/>
     </row>
-    <row r="188" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="188" spans="8:9">
       <c r="H188" s="31"/>
       <c r="I188" s="31"/>
     </row>
-    <row r="189" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="189" spans="8:9">
       <c r="H189" s="31"/>
       <c r="I189" s="31"/>
     </row>
-    <row r="190" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="190" spans="8:9">
       <c r="H190" s="31"/>
       <c r="I190" s="31"/>
     </row>
-    <row r="191" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="191" spans="8:9">
       <c r="H191" s="31"/>
       <c r="I191" s="31"/>
     </row>
-    <row r="192" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="192" spans="8:9">
       <c r="H192" s="31"/>
       <c r="I192" s="31"/>
     </row>
-    <row r="193" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="193" spans="8:9">
       <c r="H193" s="31"/>
       <c r="I193" s="31"/>
     </row>
-    <row r="194" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="194" spans="8:9">
       <c r="H194" s="31"/>
       <c r="I194" s="31"/>
     </row>
-    <row r="195" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="195" spans="8:9">
       <c r="H195" s="31"/>
       <c r="I195" s="31"/>
     </row>
-    <row r="196" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="196" spans="8:9">
       <c r="H196" s="31"/>
       <c r="I196" s="31"/>
     </row>
-    <row r="197" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="197" spans="8:9">
       <c r="H197" s="31"/>
       <c r="I197" s="31"/>
     </row>
-    <row r="198" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="198" spans="8:9">
       <c r="H198" s="31"/>
       <c r="I198" s="31"/>
     </row>
-    <row r="199" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="199" spans="8:9">
       <c r="H199" s="31"/>
       <c r="I199" s="31"/>
     </row>
-    <row r="200" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="200" spans="8:9">
       <c r="H200" s="31"/>
       <c r="I200" s="31"/>
     </row>
-    <row r="201" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="201" spans="8:9">
       <c r="H201" s="31"/>
       <c r="I201" s="31"/>
     </row>
-    <row r="202" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="202" spans="8:9">
       <c r="H202" s="31"/>
       <c r="I202" s="31"/>
     </row>
-    <row r="203" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="203" spans="8:9">
       <c r="H203" s="31"/>
       <c r="I203" s="31"/>
     </row>
-    <row r="204" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="204" spans="8:9">
       <c r="H204" s="31"/>
       <c r="I204" s="31"/>
     </row>
-    <row r="205" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="205" spans="8:9">
       <c r="H205" s="31"/>
       <c r="I205" s="31"/>
     </row>
-    <row r="206" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="206" spans="8:9">
       <c r="H206" s="31"/>
       <c r="I206" s="31"/>
     </row>
-    <row r="207" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="207" spans="8:9">
       <c r="H207" s="31"/>
       <c r="I207" s="31"/>
     </row>
-    <row r="208" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="208" spans="8:9">
       <c r="H208" s="31"/>
       <c r="I208" s="31"/>
     </row>
-    <row r="209" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="209" spans="8:9">
       <c r="H209" s="31"/>
       <c r="I209" s="31"/>
     </row>
-    <row r="210" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="210" spans="8:9">
       <c r="H210" s="31"/>
       <c r="I210" s="31"/>
     </row>
-    <row r="211" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="211" spans="8:9">
       <c r="H211" s="31"/>
       <c r="I211" s="31"/>
     </row>
-    <row r="212" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="212" spans="8:9">
       <c r="H212" s="31"/>
       <c r="I212" s="31"/>
     </row>
-    <row r="213" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="213" spans="8:9">
       <c r="H213" s="31"/>
       <c r="I213" s="31"/>
     </row>
-    <row r="214" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="214" spans="8:9">
       <c r="H214" s="31"/>
       <c r="I214" s="31"/>
     </row>
-    <row r="215" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="215" spans="8:9">
       <c r="H215" s="31"/>
       <c r="I215" s="31"/>
     </row>
-    <row r="216" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="216" spans="8:9">
       <c r="H216" s="31"/>
       <c r="I216" s="31"/>
     </row>
-    <row r="217" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="217" spans="8:9">
       <c r="H217" s="31"/>
       <c r="I217" s="31"/>
     </row>
-    <row r="218" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="218" spans="8:9">
       <c r="H218" s="31"/>
       <c r="I218" s="31"/>
     </row>
-    <row r="219" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="219" spans="8:9">
       <c r="H219" s="31"/>
       <c r="I219" s="31"/>
     </row>
-    <row r="220" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="220" spans="8:9">
       <c r="H220" s="31"/>
       <c r="I220" s="31"/>
     </row>
-    <row r="221" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="221" spans="8:9">
       <c r="H221" s="31"/>
       <c r="I221" s="31"/>
     </row>
-    <row r="222" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="222" spans="8:9">
       <c r="H222" s="31"/>
       <c r="I222" s="31"/>
     </row>
-    <row r="223" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="223" spans="8:9">
       <c r="H223" s="31"/>
       <c r="I223" s="31"/>
     </row>
+    <row r="224" spans="8:9">
+      <c r="H224" s="31"/>
+      <c r="I224" s="31"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A2:Z150"/>
+  <autoFilter ref="A2:Z151"/>
   <mergeCells count="1">
     <mergeCell ref="T1:Y1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -9616,25 +10265,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4:XFD28"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="2" width="29.44140625" style="31" customWidth="1"/>
+    <col min="1" max="2" width="29.5" style="31" customWidth="1"/>
     <col min="3" max="3" width="71" style="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.44140625" style="31" customWidth="1"/>
+    <col min="4" max="4" width="10.5" style="31" customWidth="1"/>
     <col min="5" max="5" width="12.33203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="10.44140625" style="31" customWidth="1"/>
-    <col min="8" max="8" width="14.44140625" style="31" customWidth="1"/>
+    <col min="6" max="7" width="10.5" style="31" customWidth="1"/>
+    <col min="8" max="8" width="14.5" style="31" customWidth="1"/>
     <col min="9" max="9" width="14.6640625" style="31" customWidth="1"/>
     <col min="10" max="10" width="9.6640625" style="31" customWidth="1"/>
-    <col min="11" max="16384" width="11.44140625" style="31"/>
+    <col min="11" max="16384" width="11.5" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" ht="18">
       <c r="A1" s="5"/>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -9649,7 +10298,7 @@
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
     </row>
-    <row r="2" spans="1:12" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" s="8" customFormat="1" ht="15">
       <c r="A2" s="8" t="s">
         <v>459</v>
       </c>
@@ -9684,7 +10333,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="14" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" s="14" customFormat="1" ht="30">
       <c r="A3" s="14" t="s">
         <v>628</v>
       </c>
@@ -9720,7 +10369,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12">
       <c r="A4" s="30" t="s">
         <v>644</v>
       </c>
@@ -9749,7 +10398,7 @@
       <c r="J4" s="30"/>
       <c r="K4" s="30"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12">
       <c r="A5" s="30" t="s">
         <v>645</v>
       </c>
@@ -9779,7 +10428,7 @@
       <c r="K5" s="30"/>
       <c r="L5" s="30"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12">
       <c r="A6" s="30" t="s">
         <v>646</v>
       </c>
@@ -9808,7 +10457,7 @@
       <c r="J6" s="30"/>
       <c r="K6" s="30"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12">
       <c r="A7" s="30" t="s">
         <v>647</v>
       </c>
@@ -9837,13 +10486,13 @@
       <c r="J7" s="30"/>
       <c r="K7" s="30"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12">
       <c r="A8" s="30" t="s">
         <v>709</v>
       </c>
       <c r="B8" s="30"/>
       <c r="C8" s="30" t="s">
-        <v>800</v>
+        <v>794</v>
       </c>
       <c r="D8" s="30" t="s">
         <v>710</v>
@@ -9861,19 +10510,20 @@
         <v>0</v>
       </c>
       <c r="I8" s="30">
+        <f>SUM(I9:I18)</f>
         <v>39359</v>
       </c>
       <c r="J8" s="30"/>
       <c r="K8" s="30"/>
       <c r="L8" s="30"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12">
       <c r="A9" s="30" t="s">
         <v>711</v>
       </c>
       <c r="B9" s="30"/>
       <c r="C9" s="30" t="s">
-        <v>801</v>
+        <v>795</v>
       </c>
       <c r="D9" s="30" t="s">
         <v>710</v>
@@ -9897,13 +10547,13 @@
       <c r="K9" s="30"/>
       <c r="L9" s="30"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12">
       <c r="A10" s="30" t="s">
         <v>712</v>
       </c>
       <c r="B10" s="30"/>
       <c r="C10" s="30" t="s">
-        <v>802</v>
+        <v>796</v>
       </c>
       <c r="D10" s="30" t="s">
         <v>710</v>
@@ -9927,13 +10577,13 @@
       <c r="K10" s="30"/>
       <c r="L10" s="30"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12">
       <c r="A11" s="30" t="s">
         <v>713</v>
       </c>
       <c r="B11" s="30"/>
       <c r="C11" s="30" t="s">
-        <v>803</v>
+        <v>797</v>
       </c>
       <c r="D11" s="30" t="s">
         <v>710</v>
@@ -9957,13 +10607,13 @@
       <c r="K11" s="30"/>
       <c r="L11" s="30"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12">
       <c r="A12" s="30" t="s">
         <v>714</v>
       </c>
       <c r="B12" s="30"/>
       <c r="C12" s="30" t="s">
-        <v>804</v>
+        <v>798</v>
       </c>
       <c r="D12" s="30" t="s">
         <v>710</v>
@@ -9987,13 +10637,13 @@
       <c r="K12" s="30"/>
       <c r="L12" s="30"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12">
       <c r="A13" s="30" t="s">
         <v>715</v>
       </c>
       <c r="B13" s="30"/>
       <c r="C13" s="30" t="s">
-        <v>805</v>
+        <v>799</v>
       </c>
       <c r="D13" s="30" t="s">
         <v>710</v>
@@ -10017,13 +10667,13 @@
       <c r="K13" s="30"/>
       <c r="L13" s="30"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12">
       <c r="A14" s="30" t="s">
         <v>716</v>
       </c>
       <c r="B14" s="30"/>
       <c r="C14" s="30" t="s">
-        <v>806</v>
+        <v>800</v>
       </c>
       <c r="D14" s="30" t="s">
         <v>710</v>
@@ -10047,13 +10697,13 @@
       <c r="K14" s="30"/>
       <c r="L14" s="30"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12">
       <c r="A15" s="30" t="s">
         <v>717</v>
       </c>
       <c r="B15" s="30"/>
       <c r="C15" s="30" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
       <c r="D15" s="30" t="s">
         <v>710</v>
@@ -10077,13 +10727,13 @@
       <c r="K15" s="30"/>
       <c r="L15" s="30"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12">
       <c r="A16" s="30" t="s">
         <v>718</v>
       </c>
       <c r="B16" s="30"/>
       <c r="C16" s="30" t="s">
-        <v>808</v>
+        <v>802</v>
       </c>
       <c r="D16" s="30" t="s">
         <v>710</v>
@@ -10107,13 +10757,13 @@
       <c r="K16" s="30"/>
       <c r="L16" s="30"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12">
       <c r="A17" s="30" t="s">
         <v>719</v>
       </c>
       <c r="B17" s="30"/>
       <c r="C17" s="30" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
       <c r="D17" s="30" t="s">
         <v>710</v>
@@ -10137,13 +10787,13 @@
       <c r="K17" s="30"/>
       <c r="L17" s="30"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12">
       <c r="A18" s="30" t="s">
         <v>720</v>
       </c>
       <c r="B18" s="30"/>
       <c r="C18" s="30" t="s">
-        <v>810</v>
+        <v>804</v>
       </c>
       <c r="D18" s="30" t="s">
         <v>710</v>
@@ -10167,13 +10817,13 @@
       <c r="K18" s="30"/>
       <c r="L18" s="30"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12">
       <c r="A19" s="30" t="s">
         <v>722</v>
       </c>
       <c r="B19" s="30"/>
       <c r="C19" s="30" t="s">
-        <v>811</v>
+        <v>805</v>
       </c>
       <c r="D19" s="30" t="s">
         <v>723</v>
@@ -10191,19 +10841,20 @@
         <v>0</v>
       </c>
       <c r="I19" s="30">
-        <v>2659</v>
+        <f>SUM(I20:I28)</f>
+        <v>2239</v>
       </c>
       <c r="J19" s="30"/>
       <c r="K19" s="30"/>
       <c r="L19" s="30"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12">
       <c r="A20" s="30" t="s">
         <v>721</v>
       </c>
       <c r="B20" s="30"/>
       <c r="C20" s="30" t="s">
-        <v>812</v>
+        <v>806</v>
       </c>
       <c r="D20" s="30" t="s">
         <v>723</v>
@@ -10227,13 +10878,13 @@
       <c r="K20" s="30"/>
       <c r="L20" s="30"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12">
       <c r="A21" s="30" t="s">
         <v>724</v>
       </c>
       <c r="B21" s="30"/>
       <c r="C21" s="30" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="D21" s="30" t="s">
         <v>723</v>
@@ -10257,13 +10908,13 @@
       <c r="K21" s="30"/>
       <c r="L21" s="30"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12">
       <c r="A22" s="30" t="s">
         <v>725</v>
       </c>
       <c r="B22" s="30"/>
       <c r="C22" s="30" t="s">
-        <v>814</v>
+        <v>808</v>
       </c>
       <c r="D22" s="30" t="s">
         <v>723</v>
@@ -10287,13 +10938,13 @@
       <c r="K22" s="30"/>
       <c r="L22" s="30"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12">
       <c r="A23" s="30" t="s">
         <v>726</v>
       </c>
       <c r="B23" s="30"/>
       <c r="C23" s="30" t="s">
-        <v>815</v>
+        <v>809</v>
       </c>
       <c r="D23" s="30" t="s">
         <v>723</v>
@@ -10317,13 +10968,13 @@
       <c r="K23" s="30"/>
       <c r="L23" s="30"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12">
       <c r="A24" s="30" t="s">
         <v>727</v>
       </c>
       <c r="B24" s="30"/>
       <c r="C24" s="30" t="s">
-        <v>816</v>
+        <v>810</v>
       </c>
       <c r="D24" s="30" t="s">
         <v>723</v>
@@ -10347,13 +10998,13 @@
       <c r="K24" s="30"/>
       <c r="L24" s="30"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12">
       <c r="A25" s="30" t="s">
         <v>728</v>
       </c>
       <c r="B25" s="30"/>
       <c r="C25" s="30" t="s">
-        <v>817</v>
+        <v>811</v>
       </c>
       <c r="D25" s="30" t="s">
         <v>723</v>
@@ -10377,13 +11028,13 @@
       <c r="K25" s="30"/>
       <c r="L25" s="30"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12">
       <c r="A26" s="30" t="s">
         <v>729</v>
       </c>
       <c r="B26" s="30"/>
       <c r="C26" s="30" t="s">
-        <v>818</v>
+        <v>812</v>
       </c>
       <c r="D26" s="30" t="s">
         <v>723</v>
@@ -10407,13 +11058,13 @@
       <c r="K26" s="30"/>
       <c r="L26" s="30"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12">
       <c r="A27" s="30" t="s">
         <v>730</v>
       </c>
       <c r="B27" s="30"/>
       <c r="C27" s="30" t="s">
-        <v>819</v>
+        <v>813</v>
       </c>
       <c r="D27" s="30" t="s">
         <v>723</v>
@@ -10437,13 +11088,13 @@
       <c r="K27" s="30"/>
       <c r="L27" s="30"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12">
       <c r="A28" s="30" t="s">
         <v>731</v>
       </c>
       <c r="B28" s="30"/>
       <c r="C28" s="30" t="s">
-        <v>820</v>
+        <v>814</v>
       </c>
       <c r="D28" s="30" t="s">
         <v>723</v>
@@ -10467,49 +11118,49 @@
       <c r="K28" s="30"/>
       <c r="L28" s="30"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12">
       <c r="A29" s="30"/>
       <c r="B29" s="30"/>
       <c r="C29" s="30"/>
       <c r="D29" s="30"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12">
       <c r="A30" s="30"/>
       <c r="B30" s="30"/>
       <c r="C30" s="30"/>
       <c r="D30" s="30"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12">
       <c r="A31" s="30"/>
       <c r="B31" s="30"/>
       <c r="C31" s="30"/>
       <c r="D31" s="30"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12">
       <c r="A32" s="30"/>
       <c r="B32" s="30"/>
       <c r="C32" s="30"/>
       <c r="D32" s="30"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4">
       <c r="A33" s="30"/>
       <c r="B33" s="30"/>
       <c r="C33" s="30"/>
       <c r="D33" s="30"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4">
       <c r="A34" s="30"/>
       <c r="B34" s="30"/>
       <c r="C34" s="30"/>
       <c r="D34" s="30"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4">
       <c r="A35" s="30"/>
       <c r="B35" s="30"/>
       <c r="C35" s="30"/>
       <c r="D35" s="30"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4">
       <c r="A36" s="30"/>
       <c r="B36" s="30"/>
       <c r="C36" s="30"/>
@@ -10517,7 +11168,12 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -10529,19 +11185,19 @@
       <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="70.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="80.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="33.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="255.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="15">
       <c r="A1" s="17" t="b">
         <v>0</v>
       </c>
@@ -10560,7 +11216,7 @@
       <c r="H1" s="17"/>
       <c r="I1" s="17"/>
     </row>
-    <row r="2" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="15">
       <c r="A2" s="17"/>
       <c r="B2" s="17" t="s">
         <v>21</v>
@@ -10581,7 +11237,7 @@
       <c r="H2" s="17"/>
       <c r="I2" s="17"/>
     </row>
-    <row r="3" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="15">
       <c r="A3" s="17"/>
       <c r="B3" s="17" t="s">
         <v>21</v>
@@ -10604,7 +11260,7 @@
       </c>
       <c r="I3" s="17"/>
     </row>
-    <row r="4" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="15">
       <c r="A4" s="17"/>
       <c r="B4" s="17" t="s">
         <v>21</v>
@@ -10627,7 +11283,7 @@
       </c>
       <c r="I4" s="17"/>
     </row>
-    <row r="5" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="15">
       <c r="A5" s="17"/>
       <c r="B5" s="17" t="s">
         <v>21</v>
@@ -10650,7 +11306,7 @@
       </c>
       <c r="I5" s="17"/>
     </row>
-    <row r="6" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="15">
       <c r="A6" s="17"/>
       <c r="B6" s="17" t="s">
         <v>21</v>
@@ -10673,7 +11329,7 @@
       </c>
       <c r="I6" s="17"/>
     </row>
-    <row r="7" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="15">
       <c r="A7" s="17"/>
       <c r="B7" s="17" t="s">
         <v>21</v>
@@ -10696,7 +11352,7 @@
       </c>
       <c r="I7" s="17"/>
     </row>
-    <row r="8" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="15">
       <c r="A8" s="17"/>
       <c r="B8" s="17" t="s">
         <v>21</v>
@@ -10719,7 +11375,7 @@
       </c>
       <c r="I8" s="17"/>
     </row>
-    <row r="9" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="15">
       <c r="A9" s="17"/>
       <c r="B9" s="17" t="s">
         <v>21</v>
@@ -10742,7 +11398,7 @@
       </c>
       <c r="I9" s="17"/>
     </row>
-    <row r="10" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="15">
       <c r="A10" s="17"/>
       <c r="B10" s="17" t="s">
         <v>21</v>
@@ -10765,7 +11421,7 @@
       </c>
       <c r="I10" s="17"/>
     </row>
-    <row r="11" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="15">
       <c r="A11" s="17" t="b">
         <v>0</v>
       </c>
@@ -10784,7 +11440,7 @@
       <c r="H11" s="17"/>
       <c r="I11" s="17"/>
     </row>
-    <row r="12" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="15">
       <c r="A12" s="17"/>
       <c r="B12" s="17" t="s">
         <v>21</v>
@@ -10805,7 +11461,7 @@
       <c r="H12" s="17"/>
       <c r="I12" s="17"/>
     </row>
-    <row r="13" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="15">
       <c r="A13" s="17"/>
       <c r="B13" s="17" t="s">
         <v>21</v>
@@ -10828,7 +11484,7 @@
       </c>
       <c r="I13" s="17"/>
     </row>
-    <row r="14" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="15">
       <c r="A14" s="17"/>
       <c r="B14" s="17" t="s">
         <v>21</v>
@@ -10851,7 +11507,7 @@
       </c>
       <c r="I14" s="17"/>
     </row>
-    <row r="15" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="15">
       <c r="A15" s="17"/>
       <c r="B15" s="17" t="s">
         <v>21</v>
@@ -10874,7 +11530,7 @@
       </c>
       <c r="I15" s="17"/>
     </row>
-    <row r="16" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="15">
       <c r="A16" s="17"/>
       <c r="B16" s="17" t="s">
         <v>21</v>
@@ -10897,7 +11553,7 @@
       </c>
       <c r="I16" s="17"/>
     </row>
-    <row r="17" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="15">
       <c r="A17" s="17"/>
       <c r="B17" s="17" t="s">
         <v>21</v>
@@ -10920,7 +11576,7 @@
       </c>
       <c r="I17" s="17"/>
     </row>
-    <row r="18" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="15">
       <c r="A18" s="17"/>
       <c r="B18" s="17" t="s">
         <v>21</v>
@@ -10943,7 +11599,7 @@
       </c>
       <c r="I18" s="17"/>
     </row>
-    <row r="19" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="15">
       <c r="A19" s="17"/>
       <c r="B19" s="17" t="s">
         <v>21</v>
@@ -10966,7 +11622,7 @@
       </c>
       <c r="I19" s="17"/>
     </row>
-    <row r="20" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="15">
       <c r="A20" s="17"/>
       <c r="B20" s="17" t="s">
         <v>21</v>
@@ -10989,7 +11645,7 @@
       </c>
       <c r="I20" s="17"/>
     </row>
-    <row r="21" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" ht="15">
       <c r="A21" s="17" t="b">
         <v>0</v>
       </c>
@@ -11008,7 +11664,7 @@
       <c r="H21" s="17"/>
       <c r="I21" s="17"/>
     </row>
-    <row r="22" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" ht="15">
       <c r="A22" s="17"/>
       <c r="B22" s="17" t="s">
         <v>21</v>
@@ -11031,7 +11687,7 @@
       </c>
       <c r="I22" s="17"/>
     </row>
-    <row r="23" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" ht="15">
       <c r="A23" s="17"/>
       <c r="B23" s="17" t="s">
         <v>21</v>
@@ -11054,7 +11710,7 @@
       </c>
       <c r="I23" s="17"/>
     </row>
-    <row r="24" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" ht="15">
       <c r="A24" s="17"/>
       <c r="B24" s="17" t="s">
         <v>21</v>
@@ -11077,7 +11733,7 @@
       </c>
       <c r="I24" s="17"/>
     </row>
-    <row r="25" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" ht="15">
       <c r="A25" s="17"/>
       <c r="B25" s="17" t="s">
         <v>21</v>
@@ -11100,7 +11756,7 @@
       </c>
       <c r="I25" s="17"/>
     </row>
-    <row r="26" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" ht="15">
       <c r="A26" s="17"/>
       <c r="B26" s="17" t="s">
         <v>21</v>
@@ -11123,7 +11779,7 @@
       </c>
       <c r="I26" s="17"/>
     </row>
-    <row r="27" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" ht="15">
       <c r="A27" s="17"/>
       <c r="B27" s="17" t="s">
         <v>21</v>
@@ -11146,7 +11802,7 @@
       </c>
       <c r="I27" s="17"/>
     </row>
-    <row r="28" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" ht="15">
       <c r="A28" s="17"/>
       <c r="B28" s="17" t="s">
         <v>21</v>
@@ -11169,7 +11825,7 @@
       </c>
       <c r="I28" s="17"/>
     </row>
-    <row r="29" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" ht="15">
       <c r="A29" s="17"/>
       <c r="B29" s="17" t="s">
         <v>21</v>
@@ -11192,7 +11848,7 @@
       </c>
       <c r="I29" s="17"/>
     </row>
-    <row r="30" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" ht="15">
       <c r="A30" s="17"/>
       <c r="B30" s="17" t="s">
         <v>21</v>
@@ -11215,7 +11871,7 @@
       </c>
       <c r="I30" s="17"/>
     </row>
-    <row r="31" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" ht="15">
       <c r="A31" s="17" t="b">
         <v>0</v>
       </c>
@@ -11234,7 +11890,7 @@
       <c r="H31" s="17"/>
       <c r="I31" s="17"/>
     </row>
-    <row r="32" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" ht="15">
       <c r="A32" s="17"/>
       <c r="B32" s="17" t="s">
         <v>21</v>
@@ -11255,7 +11911,7 @@
       <c r="H32" s="17"/>
       <c r="I32" s="17"/>
     </row>
-    <row r="33" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" ht="15">
       <c r="A33" s="17"/>
       <c r="B33" s="17" t="s">
         <v>21</v>
@@ -11278,7 +11934,7 @@
       </c>
       <c r="I33" s="17"/>
     </row>
-    <row r="34" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" ht="15">
       <c r="A34" s="17"/>
       <c r="B34" s="17" t="s">
         <v>21</v>
@@ -11301,7 +11957,7 @@
       </c>
       <c r="I34" s="17"/>
     </row>
-    <row r="35" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" ht="15">
       <c r="A35" s="17"/>
       <c r="B35" s="17" t="s">
         <v>21</v>
@@ -11324,7 +11980,7 @@
       </c>
       <c r="I35" s="17"/>
     </row>
-    <row r="36" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" ht="15">
       <c r="A36" s="17"/>
       <c r="B36" s="17" t="s">
         <v>21</v>
@@ -11347,7 +12003,7 @@
       </c>
       <c r="I36" s="17"/>
     </row>
-    <row r="37" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" ht="15">
       <c r="A37" s="17"/>
       <c r="B37" s="17" t="s">
         <v>21</v>
@@ -11370,7 +12026,7 @@
       </c>
       <c r="I37" s="17"/>
     </row>
-    <row r="38" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" ht="15">
       <c r="A38" s="17"/>
       <c r="B38" s="17" t="s">
         <v>21</v>
@@ -11393,7 +12049,7 @@
       </c>
       <c r="I38" s="17"/>
     </row>
-    <row r="39" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" ht="15">
       <c r="A39" s="17"/>
       <c r="B39" s="17" t="s">
         <v>21</v>
@@ -11416,7 +12072,7 @@
       </c>
       <c r="I39" s="17"/>
     </row>
-    <row r="40" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" ht="15">
       <c r="A40" s="17"/>
       <c r="B40" s="17" t="s">
         <v>21</v>
@@ -11439,7 +12095,7 @@
       </c>
       <c r="I40" s="17"/>
     </row>
-    <row r="41" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" ht="15">
       <c r="A41" s="17" t="b">
         <v>0</v>
       </c>
@@ -11458,7 +12114,7 @@
       <c r="H41" s="17"/>
       <c r="I41" s="17"/>
     </row>
-    <row r="42" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" ht="15">
       <c r="A42" s="17"/>
       <c r="B42" s="17" t="s">
         <v>21</v>
@@ -11479,7 +12135,7 @@
       <c r="H42" s="17"/>
       <c r="I42" s="17"/>
     </row>
-    <row r="43" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" ht="15">
       <c r="A43" s="17"/>
       <c r="B43" s="17" t="s">
         <v>21</v>
@@ -11502,7 +12158,7 @@
       </c>
       <c r="I43" s="17"/>
     </row>
-    <row r="44" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" ht="15">
       <c r="A44" s="17"/>
       <c r="B44" s="17" t="s">
         <v>21</v>
@@ -11525,7 +12181,7 @@
       </c>
       <c r="I44" s="17"/>
     </row>
-    <row r="45" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" ht="15">
       <c r="A45" s="17"/>
       <c r="B45" s="17" t="s">
         <v>21</v>
@@ -11548,7 +12204,7 @@
       </c>
       <c r="I45" s="17"/>
     </row>
-    <row r="46" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" ht="15">
       <c r="A46" s="17"/>
       <c r="B46" s="17" t="s">
         <v>21</v>
@@ -11571,7 +12227,7 @@
       </c>
       <c r="I46" s="17"/>
     </row>
-    <row r="47" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" ht="15">
       <c r="A47" s="17"/>
       <c r="B47" s="17" t="s">
         <v>21</v>
@@ -11594,7 +12250,7 @@
       </c>
       <c r="I47" s="17"/>
     </row>
-    <row r="48" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" ht="15">
       <c r="A48" s="17"/>
       <c r="B48" s="17" t="s">
         <v>21</v>
@@ -11617,7 +12273,7 @@
       </c>
       <c r="I48" s="17"/>
     </row>
-    <row r="49" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" ht="15">
       <c r="A49" s="17"/>
       <c r="B49" s="17" t="s">
         <v>21</v>
@@ -11640,7 +12296,7 @@
       </c>
       <c r="I49" s="17"/>
     </row>
-    <row r="50" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" ht="15">
       <c r="A50" s="17"/>
       <c r="B50" s="17" t="s">
         <v>21</v>
@@ -11663,7 +12319,7 @@
       </c>
       <c r="I50" s="17"/>
     </row>
-    <row r="51" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" ht="15">
       <c r="A51" s="17" t="b">
         <v>0</v>
       </c>
@@ -11682,7 +12338,7 @@
       <c r="H51" s="17"/>
       <c r="I51" s="17"/>
     </row>
-    <row r="52" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" ht="15">
       <c r="A52" s="17"/>
       <c r="B52" s="17" t="s">
         <v>21</v>
@@ -11703,7 +12359,7 @@
       <c r="H52" s="17"/>
       <c r="I52" s="17"/>
     </row>
-    <row r="53" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" ht="15">
       <c r="A53" s="17"/>
       <c r="B53" s="17" t="s">
         <v>21</v>
@@ -11726,7 +12382,7 @@
       </c>
       <c r="I53" s="17"/>
     </row>
-    <row r="54" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" ht="15">
       <c r="A54" s="17"/>
       <c r="B54" s="17" t="s">
         <v>21</v>
@@ -11749,7 +12405,7 @@
       </c>
       <c r="I54" s="17"/>
     </row>
-    <row r="55" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" ht="15">
       <c r="A55" s="17"/>
       <c r="B55" s="17" t="s">
         <v>21</v>
@@ -11772,7 +12428,7 @@
       </c>
       <c r="I55" s="17"/>
     </row>
-    <row r="56" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" ht="15">
       <c r="A56" s="17"/>
       <c r="B56" s="17" t="s">
         <v>21</v>
@@ -11795,7 +12451,7 @@
       </c>
       <c r="I56" s="17"/>
     </row>
-    <row r="57" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" ht="15">
       <c r="A57" s="17"/>
       <c r="B57" s="17" t="s">
         <v>21</v>
@@ -11818,7 +12474,7 @@
       </c>
       <c r="I57" s="17"/>
     </row>
-    <row r="58" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" ht="15">
       <c r="A58" s="17"/>
       <c r="B58" s="17" t="s">
         <v>21</v>
@@ -11841,7 +12497,7 @@
       </c>
       <c r="I58" s="17"/>
     </row>
-    <row r="59" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" ht="15">
       <c r="A59" s="17"/>
       <c r="B59" s="17" t="s">
         <v>21</v>
@@ -11864,7 +12520,7 @@
       </c>
       <c r="I59" s="17"/>
     </row>
-    <row r="60" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" ht="15">
       <c r="A60" s="17"/>
       <c r="B60" s="17" t="s">
         <v>21</v>
@@ -11887,7 +12543,7 @@
       </c>
       <c r="I60" s="17"/>
     </row>
-    <row r="61" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" ht="15">
       <c r="A61" s="17" t="b">
         <v>0</v>
       </c>
@@ -11906,7 +12562,7 @@
       <c r="H61" s="17"/>
       <c r="I61" s="17"/>
     </row>
-    <row r="62" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" ht="15">
       <c r="A62" s="17"/>
       <c r="B62" s="17" t="s">
         <v>21</v>
@@ -11927,7 +12583,7 @@
       <c r="H62" s="17"/>
       <c r="I62" s="17"/>
     </row>
-    <row r="63" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" ht="15">
       <c r="A63" s="17"/>
       <c r="B63" s="17" t="s">
         <v>21</v>
@@ -11952,7 +12608,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" ht="15">
       <c r="A64" s="17"/>
       <c r="B64" s="17" t="s">
         <v>21</v>
@@ -11975,7 +12631,7 @@
       </c>
       <c r="I64" s="17"/>
     </row>
-    <row r="65" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" ht="15">
       <c r="A65" s="17"/>
       <c r="B65" s="17" t="s">
         <v>21</v>
@@ -11998,7 +12654,7 @@
       </c>
       <c r="I65" s="17"/>
     </row>
-    <row r="66" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" ht="15">
       <c r="A66" s="17"/>
       <c r="B66" s="17" t="s">
         <v>21</v>
@@ -12021,7 +12677,7 @@
       </c>
       <c r="I66" s="17"/>
     </row>
-    <row r="67" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" ht="15">
       <c r="A67" s="17"/>
       <c r="B67" s="17" t="s">
         <v>21</v>
@@ -12044,7 +12700,7 @@
       </c>
       <c r="I67" s="17"/>
     </row>
-    <row r="68" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" ht="15">
       <c r="A68" s="17"/>
       <c r="B68" s="17" t="s">
         <v>21</v>
@@ -12067,7 +12723,7 @@
       </c>
       <c r="I68" s="17"/>
     </row>
-    <row r="69" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" ht="15">
       <c r="A69" s="17"/>
       <c r="B69" s="17" t="s">
         <v>21</v>
@@ -12090,7 +12746,7 @@
       </c>
       <c r="I69" s="17"/>
     </row>
-    <row r="70" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" ht="15">
       <c r="A70" s="17"/>
       <c r="B70" s="17" t="s">
         <v>21</v>
@@ -12113,7 +12769,7 @@
       </c>
       <c r="I70" s="17"/>
     </row>
-    <row r="71" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" ht="15">
       <c r="A71" s="17"/>
       <c r="B71" s="17" t="s">
         <v>21</v>
@@ -12136,7 +12792,7 @@
       </c>
       <c r="I71" s="17"/>
     </row>
-    <row r="72" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9" ht="15">
       <c r="A72" s="17" t="b">
         <v>0</v>
       </c>
@@ -12155,7 +12811,7 @@
       <c r="H72" s="17"/>
       <c r="I72" s="17"/>
     </row>
-    <row r="73" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9" ht="15">
       <c r="A73" s="17"/>
       <c r="B73" s="17" t="s">
         <v>21</v>
@@ -12176,7 +12832,7 @@
       <c r="H73" s="17"/>
       <c r="I73" s="17"/>
     </row>
-    <row r="74" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9" ht="15">
       <c r="A74" s="17"/>
       <c r="B74" s="17" t="s">
         <v>21</v>
@@ -12199,7 +12855,7 @@
       </c>
       <c r="I74" s="17"/>
     </row>
-    <row r="75" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9" ht="15">
       <c r="A75" s="17"/>
       <c r="B75" s="17" t="s">
         <v>21</v>
@@ -12224,7 +12880,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9" ht="15">
       <c r="A76" s="17"/>
       <c r="B76" s="17" t="s">
         <v>21</v>
@@ -12247,7 +12903,7 @@
       </c>
       <c r="I76" s="17"/>
     </row>
-    <row r="77" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9" ht="15">
       <c r="A77" s="17"/>
       <c r="B77" s="17" t="s">
         <v>21</v>
@@ -12270,7 +12926,7 @@
       </c>
       <c r="I77" s="17"/>
     </row>
-    <row r="78" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9" ht="15">
       <c r="A78" s="17"/>
       <c r="B78" s="17" t="s">
         <v>21</v>
@@ -12293,7 +12949,7 @@
       </c>
       <c r="I78" s="17"/>
     </row>
-    <row r="79" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:9" ht="15">
       <c r="A79" s="17"/>
       <c r="B79" s="17" t="s">
         <v>21</v>
@@ -12316,7 +12972,7 @@
       </c>
       <c r="I79" s="17"/>
     </row>
-    <row r="80" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9" ht="15">
       <c r="A80" s="17"/>
       <c r="B80" s="17" t="s">
         <v>21</v>
@@ -12339,7 +12995,7 @@
       </c>
       <c r="I80" s="17"/>
     </row>
-    <row r="81" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:9" ht="15">
       <c r="A81" s="17"/>
       <c r="B81" s="17" t="s">
         <v>21</v>
@@ -12362,7 +13018,7 @@
       </c>
       <c r="I81" s="17"/>
     </row>
-    <row r="82" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:9" ht="15">
       <c r="A82" s="17"/>
       <c r="B82" s="17" t="s">
         <v>21</v>
@@ -12385,7 +13041,7 @@
       </c>
       <c r="I82" s="17"/>
     </row>
-    <row r="83" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:9" ht="15">
       <c r="A83" s="17"/>
       <c r="B83" s="17" t="s">
         <v>21</v>
@@ -12408,7 +13064,7 @@
       </c>
       <c r="I83" s="17"/>
     </row>
-    <row r="84" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:9" ht="15">
       <c r="A84" s="17"/>
       <c r="B84" s="17" t="s">
         <v>21</v>
@@ -12431,7 +13087,7 @@
       </c>
       <c r="I84" s="17"/>
     </row>
-    <row r="85" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:9" ht="15">
       <c r="A85" s="17"/>
       <c r="B85" s="17" t="s">
         <v>21</v>
@@ -12454,7 +13110,7 @@
       </c>
       <c r="I85" s="17"/>
     </row>
-    <row r="86" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:9" ht="15">
       <c r="A86" s="17" t="b">
         <v>0</v>
       </c>
@@ -12473,7 +13129,7 @@
       <c r="H86" s="17"/>
       <c r="I86" s="17"/>
     </row>
-    <row r="87" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:9" ht="15">
       <c r="A87" s="17"/>
       <c r="B87" s="17" t="s">
         <v>21</v>
@@ -12496,7 +13152,7 @@
       </c>
       <c r="I87" s="17"/>
     </row>
-    <row r="88" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:9" ht="15">
       <c r="A88" s="17"/>
       <c r="B88" s="17" t="s">
         <v>21</v>
@@ -12519,7 +13175,7 @@
       </c>
       <c r="I88" s="17"/>
     </row>
-    <row r="89" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:9" ht="15">
       <c r="A89" s="17"/>
       <c r="B89" s="17" t="s">
         <v>21</v>
@@ -12542,7 +13198,7 @@
       </c>
       <c r="I89" s="17"/>
     </row>
-    <row r="90" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:9" ht="15">
       <c r="A90" s="17"/>
       <c r="B90" s="17" t="s">
         <v>21</v>
@@ -12565,7 +13221,7 @@
       </c>
       <c r="I90" s="17"/>
     </row>
-    <row r="91" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:9" ht="15">
       <c r="A91" s="17"/>
       <c r="B91" s="17" t="s">
         <v>21</v>
@@ -12588,7 +13244,7 @@
       </c>
       <c r="I91" s="17"/>
     </row>
-    <row r="92" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:9" ht="15">
       <c r="A92" s="17"/>
       <c r="B92" s="17" t="s">
         <v>21</v>
@@ -12611,7 +13267,7 @@
       </c>
       <c r="I92" s="17"/>
     </row>
-    <row r="93" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:9" ht="15">
       <c r="A93" s="17"/>
       <c r="B93" s="17" t="s">
         <v>21</v>
@@ -12634,7 +13290,7 @@
       </c>
       <c r="I93" s="17"/>
     </row>
-    <row r="94" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:9" ht="15">
       <c r="A94" s="17"/>
       <c r="B94" s="17" t="s">
         <v>21</v>
@@ -12657,7 +13313,7 @@
       </c>
       <c r="I94" s="17"/>
     </row>
-    <row r="95" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:9" ht="15">
       <c r="A95" s="17"/>
       <c r="B95" s="17" t="s">
         <v>21</v>
@@ -12680,7 +13336,7 @@
       </c>
       <c r="I95" s="17"/>
     </row>
-    <row r="96" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:9" ht="15">
       <c r="A96" s="17"/>
       <c r="B96" s="17" t="s">
         <v>21</v>
@@ -12703,7 +13359,7 @@
       </c>
       <c r="I96" s="17"/>
     </row>
-    <row r="97" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:9" ht="15">
       <c r="A97" s="17" t="b">
         <v>0</v>
       </c>
@@ -12722,7 +13378,7 @@
       <c r="H97" s="17"/>
       <c r="I97" s="17"/>
     </row>
-    <row r="98" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:9" ht="15">
       <c r="A98" s="17"/>
       <c r="B98" s="17" t="s">
         <v>21</v>
@@ -12747,7 +13403,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:9" ht="15">
       <c r="A99" s="17" t="b">
         <v>0</v>
       </c>
@@ -12766,7 +13422,7 @@
       <c r="H99" s="17"/>
       <c r="I99" s="17"/>
     </row>
-    <row r="100" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:9" ht="15">
       <c r="A100" s="17"/>
       <c r="B100" s="17" t="s">
         <v>21</v>
@@ -12787,7 +13443,7 @@
       <c r="H100" s="17"/>
       <c r="I100" s="17"/>
     </row>
-    <row r="101" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:9" ht="15">
       <c r="A101" s="17"/>
       <c r="B101" s="17" t="s">
         <v>21</v>
@@ -12812,7 +13468,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:9" ht="15">
       <c r="A102" s="17" t="b">
         <v>0</v>
       </c>
@@ -12831,7 +13487,7 @@
       <c r="H102" s="17"/>
       <c r="I102" s="17"/>
     </row>
-    <row r="103" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:9" ht="15">
       <c r="A103" s="17"/>
       <c r="B103" s="17" t="s">
         <v>21</v>
@@ -12854,7 +13510,7 @@
       </c>
       <c r="I103" s="17"/>
     </row>
-    <row r="104" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:9" ht="15">
       <c r="A104" s="17"/>
       <c r="B104" s="17" t="s">
         <v>21</v>
@@ -12879,7 +13535,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:9" ht="15">
       <c r="A105" s="17"/>
       <c r="B105" s="17" t="s">
         <v>21</v>
@@ -12902,7 +13558,7 @@
       </c>
       <c r="I105" s="17"/>
     </row>
-    <row r="106" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:9" ht="15">
       <c r="A106" s="17"/>
       <c r="B106" s="17" t="s">
         <v>21</v>
@@ -12923,7 +13579,7 @@
       <c r="H106" s="17"/>
       <c r="I106" s="17"/>
     </row>
-    <row r="107" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:9" ht="15">
       <c r="A107" s="17" t="b">
         <v>0</v>
       </c>
@@ -12942,7 +13598,7 @@
       <c r="H107" s="17"/>
       <c r="I107" s="17"/>
     </row>
-    <row r="108" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:9" ht="15">
       <c r="A108" s="17"/>
       <c r="B108" s="17" t="s">
         <v>21</v>
@@ -12967,7 +13623,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:9" ht="15">
       <c r="A109" s="17"/>
       <c r="B109" s="17" t="s">
         <v>21</v>
@@ -12990,7 +13646,7 @@
       </c>
       <c r="I109" s="17"/>
     </row>
-    <row r="110" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:9" ht="15">
       <c r="A110" s="17"/>
       <c r="B110" s="17" t="s">
         <v>21</v>
@@ -13013,7 +13669,7 @@
       </c>
       <c r="I110" s="17"/>
     </row>
-    <row r="111" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:9" ht="15">
       <c r="A111" s="17"/>
       <c r="B111" s="17" t="s">
         <v>21</v>
@@ -13036,7 +13692,7 @@
       </c>
       <c r="I111" s="17"/>
     </row>
-    <row r="112" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:9" ht="15">
       <c r="A112" s="17"/>
       <c r="B112" s="17" t="s">
         <v>21</v>
@@ -13059,7 +13715,7 @@
       </c>
       <c r="I112" s="17"/>
     </row>
-    <row r="113" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:9" ht="15">
       <c r="A113" s="17"/>
       <c r="B113" s="17" t="s">
         <v>21</v>
@@ -13082,7 +13738,7 @@
       </c>
       <c r="I113" s="17"/>
     </row>
-    <row r="114" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:9" ht="15">
       <c r="A114" s="17"/>
       <c r="B114" s="17" t="s">
         <v>21</v>
@@ -13105,7 +13761,7 @@
       </c>
       <c r="I114" s="17"/>
     </row>
-    <row r="115" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:9" ht="15">
       <c r="A115" s="17" t="b">
         <v>0</v>
       </c>
@@ -13124,7 +13780,7 @@
       <c r="H115" s="17"/>
       <c r="I115" s="17"/>
     </row>
-    <row r="116" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:9" ht="15">
       <c r="A116" s="17"/>
       <c r="B116" s="17" t="s">
         <v>21</v>
@@ -13147,7 +13803,7 @@
       </c>
       <c r="I116" s="17"/>
     </row>
-    <row r="117" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:9" ht="15">
       <c r="A117" s="17"/>
       <c r="B117" s="17" t="s">
         <v>21</v>
@@ -13170,7 +13826,7 @@
       </c>
       <c r="I117" s="17"/>
     </row>
-    <row r="118" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:9" ht="15">
       <c r="A118" s="17"/>
       <c r="B118" s="17" t="s">
         <v>21</v>
@@ -13193,7 +13849,7 @@
       </c>
       <c r="I118" s="17"/>
     </row>
-    <row r="119" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:9" ht="15">
       <c r="A119" s="17" t="b">
         <v>0</v>
       </c>
@@ -13212,7 +13868,7 @@
       <c r="H119" s="17"/>
       <c r="I119" s="17"/>
     </row>
-    <row r="120" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:9" ht="15">
       <c r="A120" s="17"/>
       <c r="B120" s="17" t="s">
         <v>21</v>
@@ -13235,7 +13891,7 @@
       </c>
       <c r="I120" s="17"/>
     </row>
-    <row r="121" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:9" ht="15">
       <c r="A121" s="17"/>
       <c r="B121" s="17" t="s">
         <v>21</v>
@@ -13258,7 +13914,7 @@
       </c>
       <c r="I121" s="17"/>
     </row>
-    <row r="122" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:9" ht="15">
       <c r="A122" s="17"/>
       <c r="B122" s="17" t="s">
         <v>21</v>
@@ -13281,7 +13937,7 @@
       </c>
       <c r="I122" s="17"/>
     </row>
-    <row r="123" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:9" ht="15">
       <c r="A123" s="17"/>
       <c r="B123" s="17" t="s">
         <v>21</v>
@@ -13304,7 +13960,7 @@
       </c>
       <c r="I123" s="17"/>
     </row>
-    <row r="124" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:9" ht="15">
       <c r="A124" s="17"/>
       <c r="B124" s="17" t="s">
         <v>21</v>
@@ -13327,7 +13983,7 @@
       </c>
       <c r="I124" s="17"/>
     </row>
-    <row r="125" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:9" ht="15">
       <c r="A125" s="17"/>
       <c r="B125" s="17" t="s">
         <v>21</v>
@@ -13350,7 +14006,7 @@
       </c>
       <c r="I125" s="17"/>
     </row>
-    <row r="126" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:9" ht="15">
       <c r="A126" s="17" t="b">
         <v>0</v>
       </c>
@@ -13369,7 +14025,7 @@
       <c r="H126" s="17"/>
       <c r="I126" s="17"/>
     </row>
-    <row r="127" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:9" ht="15">
       <c r="A127" s="17"/>
       <c r="B127" s="17" t="s">
         <v>21</v>
@@ -13394,7 +14050,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="128" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:9" ht="15">
       <c r="A128" s="17"/>
       <c r="B128" s="17" t="s">
         <v>21</v>
@@ -13417,7 +14073,7 @@
       </c>
       <c r="I128" s="17"/>
     </row>
-    <row r="129" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:9" ht="15">
       <c r="A129" s="17"/>
       <c r="B129" s="17" t="s">
         <v>21</v>
@@ -13440,7 +14096,7 @@
       </c>
       <c r="I129" s="17"/>
     </row>
-    <row r="130" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:9" ht="15">
       <c r="A130" s="17"/>
       <c r="B130" s="17" t="s">
         <v>21</v>
@@ -13463,7 +14119,7 @@
       </c>
       <c r="I130" s="17"/>
     </row>
-    <row r="131" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:9" ht="15">
       <c r="A131" s="17"/>
       <c r="B131" s="17" t="s">
         <v>21</v>
@@ -13486,7 +14142,7 @@
       </c>
       <c r="I131" s="17"/>
     </row>
-    <row r="132" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:9" ht="15">
       <c r="A132" s="17"/>
       <c r="B132" s="17" t="s">
         <v>21</v>
@@ -13509,7 +14165,7 @@
       </c>
       <c r="I132" s="17"/>
     </row>
-    <row r="133" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:9" ht="15">
       <c r="A133" s="17"/>
       <c r="B133" s="17" t="s">
         <v>21</v>
@@ -13532,7 +14188,7 @@
       </c>
       <c r="I133" s="17"/>
     </row>
-    <row r="134" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:9" ht="15">
       <c r="A134" s="17"/>
       <c r="B134" s="17" t="s">
         <v>21</v>
@@ -13555,7 +14211,7 @@
       </c>
       <c r="I134" s="17"/>
     </row>
-    <row r="135" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:9" ht="15">
       <c r="A135" s="17"/>
       <c r="B135" s="17" t="s">
         <v>21</v>
@@ -13578,7 +14234,7 @@
       </c>
       <c r="I135" s="17"/>
     </row>
-    <row r="136" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:9" ht="15">
       <c r="A136" s="17" t="b">
         <v>0</v>
       </c>
@@ -13597,7 +14253,7 @@
       <c r="H136" s="17"/>
       <c r="I136" s="17"/>
     </row>
-    <row r="137" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:9" ht="15">
       <c r="A137" s="17"/>
       <c r="B137" s="17" t="s">
         <v>21</v>
@@ -13622,7 +14278,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="138" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:9" ht="15">
       <c r="A138" s="17"/>
       <c r="B138" s="17" t="s">
         <v>21</v>
@@ -13643,7 +14299,7 @@
       <c r="H138" s="17"/>
       <c r="I138" s="17"/>
     </row>
-    <row r="139" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:9" ht="15">
       <c r="A139" s="17"/>
       <c r="B139" s="17" t="s">
         <v>21</v>
@@ -13666,7 +14322,7 @@
       </c>
       <c r="I139" s="17"/>
     </row>
-    <row r="140" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:9" ht="15">
       <c r="A140" s="17"/>
       <c r="B140" s="17" t="s">
         <v>21</v>
@@ -13689,7 +14345,7 @@
       </c>
       <c r="I140" s="17"/>
     </row>
-    <row r="141" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:9" ht="15">
       <c r="A141" s="17"/>
       <c r="B141" s="17" t="s">
         <v>21</v>
@@ -13712,7 +14368,7 @@
       </c>
       <c r="I141" s="17"/>
     </row>
-    <row r="142" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:9" ht="15">
       <c r="A142" s="17"/>
       <c r="B142" s="17" t="s">
         <v>21</v>
@@ -13735,7 +14391,7 @@
       </c>
       <c r="I142" s="17"/>
     </row>
-    <row r="143" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:9" ht="15">
       <c r="A143" s="17"/>
       <c r="B143" s="17" t="s">
         <v>21</v>
@@ -13758,7 +14414,7 @@
       </c>
       <c r="I143" s="17"/>
     </row>
-    <row r="144" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:9" ht="15">
       <c r="A144" s="17"/>
       <c r="B144" s="17" t="s">
         <v>21</v>
@@ -13781,7 +14437,7 @@
       </c>
       <c r="I144" s="17"/>
     </row>
-    <row r="145" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:9" ht="15">
       <c r="A145" s="17"/>
       <c r="B145" s="17" t="s">
         <v>21</v>
@@ -13804,7 +14460,7 @@
       </c>
       <c r="I145" s="17"/>
     </row>
-    <row r="146" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:9" ht="15">
       <c r="A146" s="17"/>
       <c r="B146" s="17" t="s">
         <v>21</v>
@@ -13827,7 +14483,7 @@
       </c>
       <c r="I146" s="17"/>
     </row>
-    <row r="147" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:9" ht="15">
       <c r="A147" s="17"/>
       <c r="B147" s="17" t="s">
         <v>21</v>
@@ -13850,7 +14506,7 @@
       </c>
       <c r="I147" s="17"/>
     </row>
-    <row r="148" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:9" ht="15">
       <c r="A148" s="17"/>
       <c r="B148" s="17" t="s">
         <v>21</v>
@@ -13873,7 +14529,7 @@
       </c>
       <c r="I148" s="17"/>
     </row>
-    <row r="149" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:9" ht="15">
       <c r="A149" s="17"/>
       <c r="B149" s="17" t="s">
         <v>21</v>
@@ -13896,7 +14552,7 @@
       </c>
       <c r="I149" s="17"/>
     </row>
-    <row r="150" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:9" ht="15">
       <c r="A150" s="17"/>
       <c r="B150" s="17" t="s">
         <v>21</v>
@@ -13919,7 +14575,7 @@
       </c>
       <c r="I150" s="17"/>
     </row>
-    <row r="151" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:9" ht="15">
       <c r="A151" s="17" t="b">
         <v>0</v>
       </c>
@@ -13938,7 +14594,7 @@
       <c r="H151" s="17"/>
       <c r="I151" s="17"/>
     </row>
-    <row r="152" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:9" ht="15">
       <c r="A152" s="17"/>
       <c r="B152" s="17" t="s">
         <v>21</v>
@@ -13961,7 +14617,7 @@
       </c>
       <c r="I152" s="17"/>
     </row>
-    <row r="153" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:9" ht="15">
       <c r="A153" s="17" t="b">
         <v>0</v>
       </c>
@@ -13980,7 +14636,7 @@
       <c r="H153" s="17"/>
       <c r="I153" s="17"/>
     </row>
-    <row r="154" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:9" ht="15">
       <c r="A154" s="17"/>
       <c r="B154" s="17" t="s">
         <v>21</v>
@@ -14003,7 +14659,7 @@
       </c>
       <c r="I154" s="17"/>
     </row>
-    <row r="155" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:9" ht="15">
       <c r="A155" s="17"/>
       <c r="B155" s="17" t="s">
         <v>21</v>
@@ -14026,7 +14682,7 @@
       </c>
       <c r="I155" s="17"/>
     </row>
-    <row r="156" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:9" ht="15">
       <c r="A156" s="17" t="b">
         <v>0</v>
       </c>
@@ -14045,7 +14701,7 @@
       <c r="H156" s="17"/>
       <c r="I156" s="17"/>
     </row>
-    <row r="157" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:9" ht="15">
       <c r="A157" s="17"/>
       <c r="B157" s="17" t="s">
         <v>21</v>
@@ -14070,7 +14726,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="158" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:9" ht="15">
       <c r="A158" s="17"/>
       <c r="B158" s="17" t="s">
         <v>21</v>
@@ -14093,7 +14749,7 @@
       </c>
       <c r="I158" s="17"/>
     </row>
-    <row r="159" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:9" ht="15">
       <c r="A159" s="17"/>
       <c r="B159" s="17" t="s">
         <v>21</v>
@@ -14116,7 +14772,7 @@
       </c>
       <c r="I159" s="17"/>
     </row>
-    <row r="160" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:9" ht="15">
       <c r="A160" s="17"/>
       <c r="B160" s="17" t="s">
         <v>21</v>
@@ -14139,7 +14795,7 @@
       </c>
       <c r="I160" s="17"/>
     </row>
-    <row r="161" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:9" ht="15">
       <c r="A161" s="17"/>
       <c r="B161" s="17" t="s">
         <v>21</v>
@@ -14162,7 +14818,7 @@
       </c>
       <c r="I161" s="17"/>
     </row>
-    <row r="162" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:9" ht="15">
       <c r="A162" s="17"/>
       <c r="B162" s="17" t="s">
         <v>21</v>
@@ -14185,7 +14841,7 @@
       </c>
       <c r="I162" s="17"/>
     </row>
-    <row r="163" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:9" ht="15">
       <c r="A163" s="17"/>
       <c r="B163" s="17" t="s">
         <v>21</v>
@@ -14208,7 +14864,7 @@
       </c>
       <c r="I163" s="17"/>
     </row>
-    <row r="164" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:9" ht="15">
       <c r="A164" s="17"/>
       <c r="B164" s="17" t="s">
         <v>21</v>
@@ -14231,7 +14887,7 @@
       </c>
       <c r="I164" s="17"/>
     </row>
-    <row r="165" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:9" ht="15">
       <c r="A165" s="17"/>
       <c r="B165" s="17" t="s">
         <v>21</v>
@@ -14254,7 +14910,7 @@
       </c>
       <c r="I165" s="17"/>
     </row>
-    <row r="166" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:9" ht="15">
       <c r="A166" s="17"/>
       <c r="B166" s="17" t="s">
         <v>21</v>
@@ -14277,7 +14933,7 @@
       </c>
       <c r="I166" s="17"/>
     </row>
-    <row r="167" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:9" ht="15">
       <c r="A167" s="17" t="b">
         <v>0</v>
       </c>
@@ -14296,7 +14952,7 @@
       <c r="H167" s="17"/>
       <c r="I167" s="17"/>
     </row>
-    <row r="168" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:9" ht="15">
       <c r="A168" s="17"/>
       <c r="B168" s="17" t="s">
         <v>21</v>
@@ -14321,7 +14977,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="169" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:9" ht="15">
       <c r="A169" s="17"/>
       <c r="B169" s="17" t="s">
         <v>21</v>
@@ -14344,7 +15000,7 @@
       </c>
       <c r="I169" s="17"/>
     </row>
-    <row r="170" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:9" ht="15">
       <c r="A170" s="17"/>
       <c r="B170" s="17" t="s">
         <v>21</v>
@@ -14367,7 +15023,7 @@
       </c>
       <c r="I170" s="17"/>
     </row>
-    <row r="171" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:9" ht="15">
       <c r="A171" s="17"/>
       <c r="B171" s="17" t="s">
         <v>21</v>
@@ -14390,7 +15046,7 @@
       </c>
       <c r="I171" s="17"/>
     </row>
-    <row r="172" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:9" ht="15">
       <c r="A172" s="17"/>
       <c r="B172" s="17" t="s">
         <v>21</v>
@@ -14413,7 +15069,7 @@
       </c>
       <c r="I172" s="17"/>
     </row>
-    <row r="173" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:9" ht="15">
       <c r="A173" s="17"/>
       <c r="B173" s="17" t="s">
         <v>21</v>
@@ -14436,7 +15092,7 @@
       </c>
       <c r="I173" s="17"/>
     </row>
-    <row r="174" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:9" ht="15">
       <c r="A174" s="17"/>
       <c r="B174" s="17" t="s">
         <v>21</v>
@@ -14459,7 +15115,7 @@
       </c>
       <c r="I174" s="17"/>
     </row>
-    <row r="175" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:9" ht="15">
       <c r="A175" s="17"/>
       <c r="B175" s="17" t="s">
         <v>21</v>
@@ -14482,7 +15138,7 @@
       </c>
       <c r="I175" s="17"/>
     </row>
-    <row r="176" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:9" ht="15">
       <c r="A176" s="17"/>
       <c r="B176" s="17" t="s">
         <v>21</v>
@@ -14505,7 +15161,7 @@
       </c>
       <c r="I176" s="17"/>
     </row>
-    <row r="177" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:9" ht="15">
       <c r="A177" s="17"/>
       <c r="B177" s="17" t="s">
         <v>21</v>
@@ -14528,7 +15184,7 @@
       </c>
       <c r="I177" s="17"/>
     </row>
-    <row r="178" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:9" ht="15">
       <c r="A178" s="17" t="b">
         <v>0</v>
       </c>
@@ -14547,7 +15203,7 @@
       <c r="H178" s="17"/>
       <c r="I178" s="17"/>
     </row>
-    <row r="179" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:9" ht="15">
       <c r="A179" s="17"/>
       <c r="B179" s="17" t="s">
         <v>21</v>
@@ -14570,7 +15226,7 @@
       </c>
       <c r="I179" s="17"/>
     </row>
-    <row r="180" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:9" ht="15">
       <c r="A180" s="17"/>
       <c r="B180" s="17" t="s">
         <v>21</v>
@@ -14593,7 +15249,7 @@
       </c>
       <c r="I180" s="17"/>
     </row>
-    <row r="181" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:9" ht="15">
       <c r="A181" s="17"/>
       <c r="B181" s="17" t="s">
         <v>21</v>
@@ -14616,7 +15272,7 @@
       </c>
       <c r="I181" s="17"/>
     </row>
-    <row r="182" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:9" ht="15">
       <c r="A182" s="17"/>
       <c r="B182" s="17" t="s">
         <v>21</v>
@@ -14639,7 +15295,7 @@
       </c>
       <c r="I182" s="17"/>
     </row>
-    <row r="183" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:9" ht="15">
       <c r="A183" s="17" t="b">
         <v>0</v>
       </c>
@@ -14658,7 +15314,7 @@
       <c r="H183" s="17"/>
       <c r="I183" s="17"/>
     </row>
-    <row r="184" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:9" ht="15">
       <c r="A184" s="17"/>
       <c r="B184" s="17" t="s">
         <v>21</v>
@@ -14681,7 +15337,7 @@
       </c>
       <c r="I184" s="17"/>
     </row>
-    <row r="185" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:9" ht="15">
       <c r="A185" s="17"/>
       <c r="B185" s="17" t="s">
         <v>21</v>
@@ -14704,7 +15360,7 @@
       </c>
       <c r="I185" s="17"/>
     </row>
-    <row r="186" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:9" ht="15">
       <c r="A186" s="17"/>
       <c r="B186" s="17" t="s">
         <v>21</v>
@@ -14727,7 +15383,7 @@
       </c>
       <c r="I186" s="17"/>
     </row>
-    <row r="187" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:9" ht="15">
       <c r="A187" s="17"/>
       <c r="B187" s="17" t="s">
         <v>21</v>
@@ -14750,7 +15406,7 @@
       </c>
       <c r="I187" s="17"/>
     </row>
-    <row r="188" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:9" ht="15">
       <c r="A188" s="17" t="b">
         <v>0</v>
       </c>
@@ -14769,7 +15425,7 @@
       <c r="H188" s="17"/>
       <c r="I188" s="17"/>
     </row>
-    <row r="189" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:9" ht="15">
       <c r="A189" s="17"/>
       <c r="B189" s="17" t="s">
         <v>21</v>
@@ -14790,7 +15446,7 @@
       <c r="H189" s="17"/>
       <c r="I189" s="17"/>
     </row>
-    <row r="190" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:9" ht="15">
       <c r="A190" s="17"/>
       <c r="B190" s="17" t="s">
         <v>21</v>
@@ -14813,7 +15469,7 @@
       </c>
       <c r="I190" s="17"/>
     </row>
-    <row r="191" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:9" ht="15">
       <c r="A191" s="17" t="b">
         <v>0</v>
       </c>
@@ -14832,7 +15488,7 @@
       <c r="H191" s="17"/>
       <c r="I191" s="17"/>
     </row>
-    <row r="192" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:9" ht="15">
       <c r="A192" s="17"/>
       <c r="B192" s="17" t="s">
         <v>21</v>
@@ -14855,7 +15511,7 @@
       </c>
       <c r="I192" s="17"/>
     </row>
-    <row r="193" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:9" ht="15">
       <c r="A193" s="17"/>
       <c r="B193" s="17" t="s">
         <v>21</v>
@@ -14880,7 +15536,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="194" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:9" ht="15">
       <c r="A194" s="17"/>
       <c r="B194" s="17" t="s">
         <v>21</v>
@@ -14901,7 +15557,7 @@
       <c r="H194" s="17"/>
       <c r="I194" s="17"/>
     </row>
-    <row r="195" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:9" ht="15">
       <c r="A195" s="17"/>
       <c r="B195" s="17" t="s">
         <v>21</v>
@@ -14926,7 +15582,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="196" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:9" ht="15">
       <c r="A196" s="17"/>
       <c r="B196" s="17" t="s">
         <v>21</v>
@@ -14951,7 +15607,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="197" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:9" ht="15">
       <c r="A197" s="17" t="b">
         <v>0</v>
       </c>
@@ -14970,7 +15626,7 @@
       <c r="H197" s="17"/>
       <c r="I197" s="17"/>
     </row>
-    <row r="198" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:9" ht="15">
       <c r="A198" s="17"/>
       <c r="B198" s="17" t="s">
         <v>21</v>
@@ -14995,7 +15651,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="199" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:9" ht="15">
       <c r="A199" s="17"/>
       <c r="B199" s="17" t="s">
         <v>21</v>
@@ -15018,7 +15674,7 @@
       </c>
       <c r="I199" s="17"/>
     </row>
-    <row r="200" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:9" ht="15">
       <c r="A200" s="17"/>
       <c r="B200" s="17" t="s">
         <v>21</v>
@@ -15041,7 +15697,7 @@
       </c>
       <c r="I200" s="17"/>
     </row>
-    <row r="201" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:9" ht="15">
       <c r="A201" s="17"/>
       <c r="B201" s="17" t="s">
         <v>21</v>
@@ -15064,7 +15720,7 @@
       </c>
       <c r="I201" s="17"/>
     </row>
-    <row r="202" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:9" ht="15">
       <c r="A202" s="17"/>
       <c r="B202" s="17" t="s">
         <v>21</v>
@@ -15087,7 +15743,7 @@
       </c>
       <c r="I202" s="17"/>
     </row>
-    <row r="203" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:9" ht="15">
       <c r="A203" s="17"/>
       <c r="B203" s="17" t="s">
         <v>21</v>
@@ -15110,7 +15766,7 @@
       </c>
       <c r="I203" s="17"/>
     </row>
-    <row r="204" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:9" ht="15">
       <c r="A204" s="17"/>
       <c r="B204" s="17" t="s">
         <v>21</v>
@@ -15133,7 +15789,7 @@
       </c>
       <c r="I204" s="17"/>
     </row>
-    <row r="205" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:9" ht="15">
       <c r="A205" s="17"/>
       <c r="B205" s="17" t="s">
         <v>21</v>
@@ -15156,7 +15812,7 @@
       </c>
       <c r="I205" s="17"/>
     </row>
-    <row r="206" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:9" ht="15">
       <c r="A206" s="17"/>
       <c r="B206" s="17" t="s">
         <v>21</v>
@@ -15179,7 +15835,7 @@
       </c>
       <c r="I206" s="17"/>
     </row>
-    <row r="207" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:9" ht="15">
       <c r="A207" s="17" t="b">
         <v>0</v>
       </c>
@@ -15198,7 +15854,7 @@
       <c r="H207" s="17"/>
       <c r="I207" s="17"/>
     </row>
-    <row r="208" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:9" ht="15">
       <c r="A208" s="17"/>
       <c r="B208" s="17" t="s">
         <v>21</v>
@@ -15223,7 +15879,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="209" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:9" ht="15">
       <c r="A209" s="17"/>
       <c r="B209" s="17" t="s">
         <v>21</v>
@@ -15246,7 +15902,7 @@
       </c>
       <c r="I209" s="17"/>
     </row>
-    <row r="210" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:9" ht="15">
       <c r="A210" s="17"/>
       <c r="B210" s="17" t="s">
         <v>21</v>
@@ -15269,7 +15925,7 @@
       </c>
       <c r="I210" s="17"/>
     </row>
-    <row r="211" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:9" ht="15">
       <c r="A211" s="17"/>
       <c r="B211" s="17" t="s">
         <v>21</v>
@@ -15292,7 +15948,7 @@
       </c>
       <c r="I211" s="17"/>
     </row>
-    <row r="212" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:9" ht="15">
       <c r="A212" s="17"/>
       <c r="B212" s="17" t="s">
         <v>21</v>
@@ -15315,7 +15971,7 @@
       </c>
       <c r="I212" s="17"/>
     </row>
-    <row r="213" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:9" ht="15">
       <c r="A213" s="17"/>
       <c r="B213" s="17" t="s">
         <v>21</v>
@@ -15338,7 +15994,7 @@
       </c>
       <c r="I213" s="17"/>
     </row>
-    <row r="214" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:9" ht="15">
       <c r="A214" s="17"/>
       <c r="B214" s="17" t="s">
         <v>21</v>
@@ -15361,7 +16017,7 @@
       </c>
       <c r="I214" s="17"/>
     </row>
-    <row r="215" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:9" ht="15">
       <c r="A215" s="17"/>
       <c r="B215" s="17" t="s">
         <v>21</v>
@@ -15384,7 +16040,7 @@
       </c>
       <c r="I215" s="17"/>
     </row>
-    <row r="216" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:9" ht="15">
       <c r="A216" s="17"/>
       <c r="B216" s="17" t="s">
         <v>21</v>
@@ -15407,7 +16063,7 @@
       </c>
       <c r="I216" s="17"/>
     </row>
-    <row r="217" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:9" ht="15">
       <c r="A217" s="17" t="b">
         <v>0</v>
       </c>
@@ -15426,7 +16082,7 @@
       <c r="H217" s="17"/>
       <c r="I217" s="17"/>
     </row>
-    <row r="218" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:9" ht="15">
       <c r="A218" s="17"/>
       <c r="B218" s="17" t="s">
         <v>21</v>
@@ -15447,7 +16103,7 @@
       <c r="H218" s="17"/>
       <c r="I218" s="17"/>
     </row>
-    <row r="219" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:9" ht="15">
       <c r="A219" s="17"/>
       <c r="B219" s="17" t="s">
         <v>21</v>
@@ -15470,7 +16126,7 @@
       </c>
       <c r="I219" s="17"/>
     </row>
-    <row r="220" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:9" ht="15">
       <c r="A220" s="17"/>
       <c r="B220" s="17" t="s">
         <v>21</v>
@@ -15493,7 +16149,7 @@
       </c>
       <c r="I220" s="17"/>
     </row>
-    <row r="221" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:9" ht="15">
       <c r="A221" s="17"/>
       <c r="B221" s="17" t="s">
         <v>21</v>
@@ -15516,7 +16172,7 @@
       </c>
       <c r="I221" s="17"/>
     </row>
-    <row r="222" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:9" ht="15">
       <c r="A222" s="17"/>
       <c r="B222" s="17" t="s">
         <v>21</v>
@@ -15539,7 +16195,7 @@
       </c>
       <c r="I222" s="17"/>
     </row>
-    <row r="223" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:9" ht="15">
       <c r="A223" s="17"/>
       <c r="B223" s="17" t="s">
         <v>21</v>
@@ -15562,7 +16218,7 @@
       </c>
       <c r="I223" s="17"/>
     </row>
-    <row r="224" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:9" ht="15">
       <c r="A224" s="17"/>
       <c r="B224" s="17" t="s">
         <v>21</v>
@@ -15585,7 +16241,7 @@
       </c>
       <c r="I224" s="17"/>
     </row>
-    <row r="225" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:9" ht="15">
       <c r="A225" s="17"/>
       <c r="B225" s="17" t="s">
         <v>21</v>
@@ -15608,7 +16264,7 @@
       </c>
       <c r="I225" s="17"/>
     </row>
-    <row r="226" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:9" ht="15">
       <c r="A226" s="17"/>
       <c r="B226" s="17" t="s">
         <v>21</v>
@@ -15631,7 +16287,7 @@
       </c>
       <c r="I226" s="17"/>
     </row>
-    <row r="227" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:9" ht="15">
       <c r="A227" s="17"/>
       <c r="B227" s="17" t="s">
         <v>21</v>
@@ -15654,7 +16310,7 @@
       </c>
       <c r="I227" s="17"/>
     </row>
-    <row r="228" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:9" ht="15">
       <c r="A228" s="17"/>
       <c r="B228" s="17" t="s">
         <v>21</v>
@@ -15677,7 +16333,7 @@
       </c>
       <c r="I228" s="17"/>
     </row>
-    <row r="229" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:9" ht="15">
       <c r="A229" s="17"/>
       <c r="B229" s="17" t="s">
         <v>21</v>
@@ -15700,7 +16356,7 @@
       </c>
       <c r="I229" s="17"/>
     </row>
-    <row r="230" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:9" ht="15">
       <c r="A230" s="17"/>
       <c r="B230" s="17" t="s">
         <v>21</v>
@@ -15723,7 +16379,7 @@
       </c>
       <c r="I230" s="17"/>
     </row>
-    <row r="231" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:9" ht="15">
       <c r="A231" s="17"/>
       <c r="B231" s="17" t="s">
         <v>21</v>
@@ -15746,7 +16402,7 @@
       </c>
       <c r="I231" s="17"/>
     </row>
-    <row r="232" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:9" ht="15">
       <c r="A232" s="17"/>
       <c r="B232" s="17" t="s">
         <v>21</v>
@@ -15769,7 +16425,7 @@
       </c>
       <c r="I232" s="17"/>
     </row>
-    <row r="233" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:9" ht="15">
       <c r="A233" s="17"/>
       <c r="B233" s="17" t="s">
         <v>21</v>
@@ -15792,7 +16448,7 @@
       </c>
       <c r="I233" s="17"/>
     </row>
-    <row r="234" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:9" ht="15">
       <c r="A234" s="17" t="b">
         <v>0</v>
       </c>
@@ -15811,7 +16467,7 @@
       <c r="H234" s="17"/>
       <c r="I234" s="17"/>
     </row>
-    <row r="235" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:9" ht="15">
       <c r="A235" s="17"/>
       <c r="B235" s="17" t="s">
         <v>21</v>
@@ -15832,7 +16488,7 @@
       <c r="H235" s="17"/>
       <c r="I235" s="17"/>
     </row>
-    <row r="236" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:9" ht="15">
       <c r="A236" s="17"/>
       <c r="B236" s="17" t="s">
         <v>21</v>
@@ -15855,7 +16511,7 @@
       </c>
       <c r="I236" s="17"/>
     </row>
-    <row r="237" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:9" ht="15">
       <c r="A237" s="17"/>
       <c r="B237" s="17" t="s">
         <v>21</v>
@@ -15878,7 +16534,7 @@
       </c>
       <c r="I237" s="17"/>
     </row>
-    <row r="238" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:9" ht="15">
       <c r="A238" s="17"/>
       <c r="B238" s="17" t="s">
         <v>21</v>
@@ -15901,7 +16557,7 @@
       </c>
       <c r="I238" s="17"/>
     </row>
-    <row r="239" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:9" ht="15">
       <c r="A239" s="17"/>
       <c r="B239" s="17" t="s">
         <v>21</v>
@@ -15924,7 +16580,7 @@
       </c>
       <c r="I239" s="17"/>
     </row>
-    <row r="240" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:9" ht="15">
       <c r="A240" s="17"/>
       <c r="B240" s="17" t="s">
         <v>21</v>
@@ -15947,7 +16603,7 @@
       </c>
       <c r="I240" s="17"/>
     </row>
-    <row r="241" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:9" ht="15">
       <c r="A241" s="17"/>
       <c r="B241" s="17" t="s">
         <v>21</v>
@@ -15970,7 +16626,7 @@
       </c>
       <c r="I241" s="17"/>
     </row>
-    <row r="242" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:9" ht="15">
       <c r="A242" s="17"/>
       <c r="B242" s="17" t="s">
         <v>21</v>
@@ -15993,7 +16649,7 @@
       </c>
       <c r="I242" s="17"/>
     </row>
-    <row r="243" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:9" ht="15">
       <c r="A243" s="17"/>
       <c r="B243" s="17" t="s">
         <v>21</v>
@@ -16016,7 +16672,7 @@
       </c>
       <c r="I243" s="17"/>
     </row>
-    <row r="244" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:9" ht="15">
       <c r="A244" s="17"/>
       <c r="B244" s="17" t="s">
         <v>21</v>
@@ -16039,7 +16695,7 @@
       </c>
       <c r="I244" s="17"/>
     </row>
-    <row r="245" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:9" ht="15">
       <c r="A245" s="17"/>
       <c r="B245" s="17" t="s">
         <v>21</v>
@@ -16062,7 +16718,7 @@
       </c>
       <c r="I245" s="17"/>
     </row>
-    <row r="246" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:9" ht="15">
       <c r="A246" s="17"/>
       <c r="B246" s="17" t="s">
         <v>21</v>
@@ -16085,7 +16741,7 @@
       </c>
       <c r="I246" s="17"/>
     </row>
-    <row r="247" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:9" ht="15">
       <c r="A247" s="17"/>
       <c r="B247" s="17" t="s">
         <v>21</v>
@@ -16108,7 +16764,7 @@
       </c>
       <c r="I247" s="17"/>
     </row>
-    <row r="248" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:9" ht="15">
       <c r="A248" s="17"/>
       <c r="B248" s="17" t="s">
         <v>21</v>
@@ -16131,7 +16787,7 @@
       </c>
       <c r="I248" s="17"/>
     </row>
-    <row r="249" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:9" ht="15">
       <c r="A249" s="17"/>
       <c r="B249" s="17" t="s">
         <v>21</v>
@@ -16154,7 +16810,7 @@
       </c>
       <c r="I249" s="17"/>
     </row>
-    <row r="250" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:9" ht="15">
       <c r="A250" s="17"/>
       <c r="B250" s="17" t="s">
         <v>21</v>
@@ -16177,7 +16833,7 @@
       </c>
       <c r="I250" s="17"/>
     </row>
-    <row r="251" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:9" ht="15">
       <c r="A251" s="17" t="b">
         <v>0</v>
       </c>
@@ -16196,7 +16852,7 @@
       <c r="H251" s="17"/>
       <c r="I251" s="17"/>
     </row>
-    <row r="252" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:9" ht="15">
       <c r="A252" s="17"/>
       <c r="B252" s="17" t="s">
         <v>21</v>
@@ -16221,7 +16877,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="253" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:9" ht="15">
       <c r="A253" s="17"/>
       <c r="B253" s="17" t="s">
         <v>21</v>
@@ -16244,7 +16900,7 @@
       </c>
       <c r="I253" s="17"/>
     </row>
-    <row r="254" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:9" ht="15">
       <c r="A254" s="17"/>
       <c r="B254" s="17" t="s">
         <v>21</v>
@@ -16267,7 +16923,7 @@
       </c>
       <c r="I254" s="17"/>
     </row>
-    <row r="255" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:9" ht="15">
       <c r="A255" s="17"/>
       <c r="B255" s="17" t="s">
         <v>21</v>
@@ -16290,7 +16946,7 @@
       </c>
       <c r="I255" s="17"/>
     </row>
-    <row r="256" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:9" ht="15">
       <c r="A256" s="17"/>
       <c r="B256" s="17" t="s">
         <v>21</v>
@@ -16313,7 +16969,7 @@
       </c>
       <c r="I256" s="17"/>
     </row>
-    <row r="257" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:9" ht="15">
       <c r="A257" s="17" t="b">
         <v>0</v>
       </c>
@@ -16332,7 +16988,7 @@
       <c r="H257" s="17"/>
       <c r="I257" s="17"/>
     </row>
-    <row r="258" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:9" ht="15">
       <c r="A258" s="17"/>
       <c r="B258" s="17" t="s">
         <v>21</v>
@@ -16357,7 +17013,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="259" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:9" ht="15">
       <c r="A259" s="17"/>
       <c r="B259" s="17" t="s">
         <v>21</v>
@@ -16380,7 +17036,7 @@
       </c>
       <c r="I259" s="17"/>
     </row>
-    <row r="260" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:9" ht="15">
       <c r="A260" s="17" t="b">
         <v>0</v>
       </c>
@@ -16399,7 +17055,7 @@
       <c r="H260" s="17"/>
       <c r="I260" s="17"/>
     </row>
-    <row r="261" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:9" ht="15">
       <c r="A261" s="17" t="b">
         <v>0</v>
       </c>
@@ -16418,7 +17074,7 @@
       <c r="H261" s="17"/>
       <c r="I261" s="17"/>
     </row>
-    <row r="262" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:9" ht="15">
       <c r="A262" s="17" t="b">
         <v>0</v>
       </c>
@@ -16437,7 +17093,7 @@
       <c r="H262" s="17"/>
       <c r="I262" s="17"/>
     </row>
-    <row r="263" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:9" ht="15">
       <c r="A263" s="17"/>
       <c r="B263" s="17" t="s">
         <v>21</v>
@@ -16458,7 +17114,7 @@
       <c r="H263" s="17"/>
       <c r="I263" s="17"/>
     </row>
-    <row r="264" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:9" ht="15">
       <c r="A264" s="17"/>
       <c r="B264" s="17" t="s">
         <v>21</v>
@@ -16481,7 +17137,7 @@
       </c>
       <c r="I264" s="17"/>
     </row>
-    <row r="265" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:9" ht="15">
       <c r="A265" s="17"/>
       <c r="B265" s="17" t="s">
         <v>21</v>
@@ -16504,7 +17160,7 @@
       </c>
       <c r="I265" s="17"/>
     </row>
-    <row r="266" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:9" ht="15">
       <c r="A266" s="17"/>
       <c r="B266" s="17" t="s">
         <v>21</v>
@@ -16527,7 +17183,7 @@
       </c>
       <c r="I266" s="17"/>
     </row>
-    <row r="267" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:9" ht="15">
       <c r="A267" s="17"/>
       <c r="B267" s="17" t="s">
         <v>21</v>
@@ -16550,7 +17206,7 @@
       </c>
       <c r="I267" s="17"/>
     </row>
-    <row r="268" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:9" ht="15">
       <c r="A268" s="17"/>
       <c r="B268" s="17" t="s">
         <v>21</v>
@@ -16573,7 +17229,7 @@
       </c>
       <c r="I268" s="17"/>
     </row>
-    <row r="269" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:9" ht="15">
       <c r="A269" s="17"/>
       <c r="B269" s="17" t="s">
         <v>21</v>
@@ -16596,7 +17252,7 @@
       </c>
       <c r="I269" s="17"/>
     </row>
-    <row r="270" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:9" ht="15">
       <c r="A270" s="17"/>
       <c r="B270" s="17" t="s">
         <v>21</v>
@@ -16619,7 +17275,7 @@
       </c>
       <c r="I270" s="17"/>
     </row>
-    <row r="271" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:9" ht="15">
       <c r="A271" s="17"/>
       <c r="B271" s="17" t="s">
         <v>21</v>
@@ -16642,7 +17298,7 @@
       </c>
       <c r="I271" s="17"/>
     </row>
-    <row r="272" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:9" ht="15">
       <c r="A272" s="17"/>
       <c r="B272" s="17" t="s">
         <v>21</v>
@@ -16665,7 +17321,7 @@
       </c>
       <c r="I272" s="17"/>
     </row>
-    <row r="273" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:9" ht="15">
       <c r="A273" s="17"/>
       <c r="B273" s="17" t="s">
         <v>21</v>
@@ -16688,7 +17344,7 @@
       </c>
       <c r="I273" s="17"/>
     </row>
-    <row r="274" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:9" ht="15">
       <c r="A274" s="17" t="b">
         <v>0</v>
       </c>
@@ -16707,7 +17363,7 @@
       <c r="H274" s="17"/>
       <c r="I274" s="17"/>
     </row>
-    <row r="275" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:9" ht="15">
       <c r="A275" s="17"/>
       <c r="B275" s="17" t="s">
         <v>21</v>
@@ -16730,7 +17386,7 @@
       </c>
       <c r="I275" s="17"/>
     </row>
-    <row r="276" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:9" ht="15">
       <c r="A276" s="17" t="b">
         <v>0</v>
       </c>
@@ -16749,7 +17405,7 @@
       <c r="H276" s="17"/>
       <c r="I276" s="17"/>
     </row>
-    <row r="277" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:9" ht="15">
       <c r="A277" s="17"/>
       <c r="B277" s="17" t="s">
         <v>21</v>
@@ -16774,7 +17430,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="278" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:9" ht="15">
       <c r="A278" s="17"/>
       <c r="B278" s="17" t="s">
         <v>21</v>
@@ -16797,7 +17453,7 @@
       </c>
       <c r="I278" s="17"/>
     </row>
-    <row r="279" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:9" ht="15">
       <c r="A279" s="17"/>
       <c r="B279" s="17" t="s">
         <v>21</v>
@@ -16820,7 +17476,7 @@
       </c>
       <c r="I279" s="17"/>
     </row>
-    <row r="280" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:9" ht="15">
       <c r="A280" s="17"/>
       <c r="B280" s="17" t="s">
         <v>21</v>
@@ -16843,7 +17499,7 @@
       </c>
       <c r="I280" s="17"/>
     </row>
-    <row r="281" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:9" ht="15">
       <c r="A281" s="17"/>
       <c r="B281" s="17" t="s">
         <v>21</v>
@@ -16866,7 +17522,7 @@
       </c>
       <c r="I281" s="17"/>
     </row>
-    <row r="282" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:9" ht="15">
       <c r="A282" s="17"/>
       <c r="B282" s="17" t="s">
         <v>21</v>
@@ -16889,7 +17545,7 @@
       </c>
       <c r="I282" s="17"/>
     </row>
-    <row r="283" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:9" ht="15">
       <c r="A283" s="17"/>
       <c r="B283" s="17" t="s">
         <v>21</v>
@@ -16912,7 +17568,7 @@
       </c>
       <c r="I283" s="17"/>
     </row>
-    <row r="284" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:9" ht="15">
       <c r="A284" s="17"/>
       <c r="B284" s="17" t="s">
         <v>21</v>
@@ -16935,7 +17591,7 @@
       </c>
       <c r="I284" s="17"/>
     </row>
-    <row r="285" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:9" ht="15">
       <c r="A285" s="17"/>
       <c r="B285" s="17" t="s">
         <v>21</v>
@@ -16958,7 +17614,7 @@
       </c>
       <c r="I285" s="17"/>
     </row>
-    <row r="286" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:9" ht="15">
       <c r="A286" s="17"/>
       <c r="B286" s="17" t="s">
         <v>21</v>
@@ -16981,7 +17637,7 @@
       </c>
       <c r="I286" s="17"/>
     </row>
-    <row r="287" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:9" ht="15">
       <c r="A287" s="17"/>
       <c r="B287" s="17" t="s">
         <v>21</v>
@@ -17004,7 +17660,7 @@
       </c>
       <c r="I287" s="17"/>
     </row>
-    <row r="288" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:9" ht="15">
       <c r="A288" s="17" t="b">
         <v>0</v>
       </c>
@@ -17023,7 +17679,7 @@
       <c r="H288" s="17"/>
       <c r="I288" s="17"/>
     </row>
-    <row r="289" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:9" ht="15">
       <c r="A289" s="17"/>
       <c r="B289" s="17" t="s">
         <v>21</v>
@@ -17046,7 +17702,7 @@
       </c>
       <c r="I289" s="17"/>
     </row>
-    <row r="290" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:9" ht="15">
       <c r="A290" s="17" t="b">
         <v>0</v>
       </c>
@@ -17065,7 +17721,7 @@
       <c r="H290" s="17"/>
       <c r="I290" s="17"/>
     </row>
-    <row r="291" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:9" ht="15">
       <c r="A291" s="17"/>
       <c r="B291" s="17" t="s">
         <v>21</v>
@@ -17086,7 +17742,7 @@
       <c r="H291" s="17"/>
       <c r="I291" s="17"/>
     </row>
-    <row r="292" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:9" ht="15">
       <c r="A292" s="17" t="b">
         <v>0</v>
       </c>
@@ -17105,7 +17761,7 @@
       <c r="H292" s="17"/>
       <c r="I292" s="17"/>
     </row>
-    <row r="293" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:9" ht="15">
       <c r="A293" s="17"/>
       <c r="B293" s="17" t="s">
         <v>21</v>
@@ -17126,7 +17782,7 @@
       <c r="H293" s="17"/>
       <c r="I293" s="17"/>
     </row>
-    <row r="294" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:9" ht="15">
       <c r="A294" s="17" t="b">
         <v>0</v>
       </c>
@@ -17145,7 +17801,7 @@
       <c r="H294" s="17"/>
       <c r="I294" s="17"/>
     </row>
-    <row r="295" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:9" ht="15">
       <c r="A295" s="17"/>
       <c r="B295" s="17" t="s">
         <v>21</v>
@@ -17166,7 +17822,7 @@
       <c r="H295" s="17"/>
       <c r="I295" s="17"/>
     </row>
-    <row r="296" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:9" ht="15">
       <c r="A296" s="17" t="b">
         <v>0</v>
       </c>
@@ -17185,7 +17841,7 @@
       <c r="H296" s="17"/>
       <c r="I296" s="17"/>
     </row>
-    <row r="297" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:9" ht="15">
       <c r="A297" s="17"/>
       <c r="B297" s="17" t="s">
         <v>21</v>
@@ -17208,7 +17864,7 @@
       </c>
       <c r="I297" s="17"/>
     </row>
-    <row r="298" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:9" ht="15">
       <c r="A298" s="17" t="b">
         <v>0</v>
       </c>
@@ -17227,7 +17883,7 @@
       <c r="H298" s="17"/>
       <c r="I298" s="17"/>
     </row>
-    <row r="299" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:9" ht="15">
       <c r="A299" s="17"/>
       <c r="B299" s="17" t="s">
         <v>21</v>
@@ -17252,7 +17908,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="300" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:9" ht="15">
       <c r="A300" s="17"/>
       <c r="B300" s="17" t="s">
         <v>21</v>
@@ -17275,7 +17931,7 @@
       </c>
       <c r="I300" s="17"/>
     </row>
-    <row r="301" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:9" ht="15">
       <c r="A301" s="17"/>
       <c r="B301" s="17" t="s">
         <v>21</v>
@@ -17298,7 +17954,7 @@
       </c>
       <c r="I301" s="17"/>
     </row>
-    <row r="302" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:9" ht="15">
       <c r="A302" s="17"/>
       <c r="B302" s="17" t="s">
         <v>21</v>
@@ -17321,7 +17977,7 @@
       </c>
       <c r="I302" s="17"/>
     </row>
-    <row r="303" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:9" ht="15">
       <c r="A303" s="17"/>
       <c r="B303" s="17" t="s">
         <v>21</v>
@@ -17344,7 +18000,7 @@
       </c>
       <c r="I303" s="17"/>
     </row>
-    <row r="304" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:9" ht="15">
       <c r="A304" s="17"/>
       <c r="B304" s="17" t="s">
         <v>21</v>
@@ -17367,7 +18023,7 @@
       </c>
       <c r="I304" s="17"/>
     </row>
-    <row r="305" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:9" ht="15">
       <c r="A305" s="17"/>
       <c r="B305" s="17" t="s">
         <v>21</v>
@@ -17390,7 +18046,7 @@
       </c>
       <c r="I305" s="17"/>
     </row>
-    <row r="306" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:9" ht="15">
       <c r="A306" s="17"/>
       <c r="B306" s="17" t="s">
         <v>21</v>
@@ -17413,7 +18069,7 @@
       </c>
       <c r="I306" s="17"/>
     </row>
-    <row r="307" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:9" ht="15">
       <c r="A307" s="17"/>
       <c r="B307" s="17" t="s">
         <v>21</v>
@@ -17436,7 +18092,7 @@
       </c>
       <c r="I307" s="17"/>
     </row>
-    <row r="308" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:9" ht="15">
       <c r="A308" s="17" t="b">
         <v>0</v>
       </c>
@@ -17455,7 +18111,7 @@
       <c r="H308" s="17"/>
       <c r="I308" s="17"/>
     </row>
-    <row r="309" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:9" ht="15">
       <c r="A309" s="17"/>
       <c r="B309" s="17" t="s">
         <v>21</v>
@@ -17478,7 +18134,7 @@
       </c>
       <c r="I309" s="17"/>
     </row>
-    <row r="310" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:9" ht="15">
       <c r="A310" s="17"/>
       <c r="B310" s="17" t="s">
         <v>21</v>
@@ -17501,7 +18157,7 @@
       </c>
       <c r="I310" s="17"/>
     </row>
-    <row r="311" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:9" ht="15">
       <c r="A311" s="17"/>
       <c r="B311" s="17" t="s">
         <v>21</v>
@@ -17524,7 +18180,7 @@
       </c>
       <c r="I311" s="17"/>
     </row>
-    <row r="312" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:9" ht="15">
       <c r="A312" s="17"/>
       <c r="B312" s="17" t="s">
         <v>21</v>
@@ -17547,7 +18203,7 @@
       </c>
       <c r="I312" s="17"/>
     </row>
-    <row r="313" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:9" ht="15">
       <c r="A313" s="17" t="b">
         <v>0</v>
       </c>
@@ -17566,7 +18222,7 @@
       <c r="H313" s="17"/>
       <c r="I313" s="17"/>
     </row>
-    <row r="314" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:9" ht="15">
       <c r="A314" s="17"/>
       <c r="B314" s="17" t="s">
         <v>21</v>
@@ -17589,7 +18245,7 @@
       </c>
       <c r="I314" s="17"/>
     </row>
-    <row r="315" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:9" ht="15">
       <c r="A315" s="17"/>
       <c r="B315" s="17" t="s">
         <v>21</v>
@@ -17612,7 +18268,7 @@
       </c>
       <c r="I315" s="17"/>
     </row>
-    <row r="316" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:9" ht="15">
       <c r="A316" s="17"/>
       <c r="B316" s="17" t="s">
         <v>21</v>
@@ -17637,7 +18293,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="317" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:9" ht="15">
       <c r="A317" s="17" t="b">
         <v>0</v>
       </c>
@@ -17656,7 +18312,7 @@
       <c r="H317" s="17"/>
       <c r="I317" s="17"/>
     </row>
-    <row r="318" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:9" ht="15">
       <c r="A318" s="17"/>
       <c r="B318" s="17" t="s">
         <v>21</v>
@@ -17681,7 +18337,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="319" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:9" ht="15">
       <c r="A319" s="17"/>
       <c r="B319" s="17" t="s">
         <v>21</v>
@@ -17704,7 +18360,7 @@
       </c>
       <c r="I319" s="17"/>
     </row>
-    <row r="320" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:9" ht="15">
       <c r="A320" s="17" t="b">
         <v>0</v>
       </c>
@@ -17723,7 +18379,7 @@
       <c r="H320" s="17"/>
       <c r="I320" s="17"/>
     </row>
-    <row r="321" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:9" ht="15">
       <c r="A321" s="17"/>
       <c r="B321" s="17" t="s">
         <v>21</v>
@@ -17744,7 +18400,7 @@
       <c r="H321" s="17"/>
       <c r="I321" s="17"/>
     </row>
-    <row r="322" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:9" ht="15">
       <c r="A322" s="17"/>
       <c r="B322" s="17" t="s">
         <v>21</v>
@@ -17765,7 +18421,7 @@
       <c r="H322" s="17"/>
       <c r="I322" s="17"/>
     </row>
-    <row r="323" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:9" ht="15">
       <c r="A323" s="17"/>
       <c r="B323" s="17" t="s">
         <v>21</v>
@@ -17788,7 +18444,7 @@
       </c>
       <c r="I323" s="17"/>
     </row>
-    <row r="324" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:9" ht="15">
       <c r="A324" s="17" t="b">
         <v>0</v>
       </c>
@@ -17807,7 +18463,7 @@
       <c r="H324" s="17"/>
       <c r="I324" s="17"/>
     </row>
-    <row r="325" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:9" ht="15">
       <c r="A325" s="17" t="b">
         <v>0</v>
       </c>
@@ -17826,7 +18482,7 @@
       <c r="H325" s="17"/>
       <c r="I325" s="17"/>
     </row>
-    <row r="326" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:9" ht="15">
       <c r="A326" s="17"/>
       <c r="B326" s="17" t="s">
         <v>21</v>
@@ -17851,7 +18507,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="327" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:9" ht="15">
       <c r="A327" s="17"/>
       <c r="B327" s="17" t="s">
         <v>21</v>
@@ -17876,7 +18532,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:9">
       <c r="A328" t="b">
         <v>0</v>
       </c>
@@ -17890,7 +18546,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:9">
       <c r="B329" t="s">
         <v>21</v>
       </c>
@@ -17913,7 +18569,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:9">
       <c r="B330" t="s">
         <v>21</v>
       </c>
@@ -17933,7 +18589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:9">
       <c r="B331" t="s">
         <v>21</v>
       </c>
@@ -17953,7 +18609,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:9">
       <c r="B332" t="s">
         <v>21</v>
       </c>
@@ -17973,7 +18629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:9">
       <c r="B333" t="s">
         <v>21</v>
       </c>
@@ -17990,7 +18646,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:9">
       <c r="B334" t="s">
         <v>21</v>
       </c>
@@ -18013,7 +18669,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:9">
       <c r="B335" t="s">
         <v>21</v>
       </c>
@@ -18036,7 +18692,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:9">
       <c r="A336" t="b">
         <v>0</v>
       </c>
@@ -18050,7 +18706,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="337" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:16">
       <c r="B337" t="s">
         <v>21</v>
       </c>
@@ -18073,7 +18729,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="338" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:16">
       <c r="B338" t="s">
         <v>21</v>
       </c>
@@ -18096,7 +18752,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="339" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:16">
       <c r="B339" t="s">
         <v>21</v>
       </c>
@@ -18116,7 +18772,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="340" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:16">
       <c r="B340" t="s">
         <v>21</v>
       </c>
@@ -18136,7 +18792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:16">
       <c r="B341" t="s">
         <v>21</v>
       </c>
@@ -18153,7 +18809,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="342" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:16">
       <c r="A342" s="1" t="b">
         <v>0</v>
       </c>
@@ -18179,7 +18835,7 @@
       <c r="O342" s="1"/>
       <c r="P342" s="1"/>
     </row>
-    <row r="343" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:16">
       <c r="A343" s="1"/>
       <c r="B343" t="s">
         <v>21</v>
@@ -18208,7 +18864,7 @@
       <c r="O343" s="1"/>
       <c r="P343" s="1"/>
     </row>
-    <row r="344" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:16" ht="15">
       <c r="A344" s="17"/>
       <c r="B344" t="s">
         <v>21</v>
@@ -18247,7 +18903,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="345" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:16">
       <c r="A345" t="b">
         <v>0</v>
       </c>
@@ -18261,7 +18917,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="346" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:16">
       <c r="B346" t="s">
         <v>21</v>
       </c>
@@ -18281,7 +18937,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="347" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:16">
       <c r="A347" t="b">
         <v>0</v>
       </c>
@@ -18295,7 +18951,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="348" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:16">
       <c r="B348" t="s">
         <v>21</v>
       </c>
@@ -18315,7 +18971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:16">
       <c r="B349" t="s">
         <v>21</v>
       </c>
@@ -18335,7 +18991,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="350" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:16">
       <c r="B350" t="s">
         <v>21</v>
       </c>
@@ -18355,7 +19011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:16">
       <c r="B351" t="s">
         <v>21</v>
       </c>
@@ -18375,7 +19031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:16">
       <c r="B352" t="s">
         <v>21</v>
       </c>
@@ -18395,7 +19051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:18">
       <c r="B353" t="s">
         <v>21</v>
       </c>
@@ -18415,7 +19071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:18">
       <c r="B354" t="s">
         <v>21</v>
       </c>
@@ -18435,7 +19091,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="355" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:18">
       <c r="B355" t="s">
         <v>21</v>
       </c>
@@ -18455,7 +19111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:18">
       <c r="B356" t="s">
         <v>21</v>
       </c>
@@ -18475,7 +19131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:18">
       <c r="A357" t="b">
         <v>0</v>
       </c>
@@ -18489,7 +19145,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="358" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:18">
       <c r="B358" t="s">
         <v>21</v>
       </c>
@@ -18509,7 +19165,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="359" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:18">
       <c r="B359" t="s">
         <v>21</v>
       </c>
@@ -18529,7 +19185,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="360" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:18" s="1" customFormat="1">
       <c r="A360" t="b">
         <v>0</v>
       </c>
@@ -18545,7 +19201,7 @@
       <c r="H360" s="4"/>
       <c r="I360" s="4"/>
     </row>
-    <row r="361" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:18" s="1" customFormat="1">
       <c r="B361" t="s">
         <v>21</v>
       </c>
@@ -18571,7 +19227,7 @@
       <c r="J361"/>
       <c r="K361"/>
     </row>
-    <row r="362" spans="1:18" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:18" s="1" customFormat="1" ht="15">
       <c r="A362" s="17"/>
       <c r="B362" t="s">
         <v>22</v>
@@ -18612,7 +19268,7 @@
       <c r="Q362"/>
       <c r="R362"/>
     </row>
-    <row r="363" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:18">
       <c r="A363" t="b">
         <v>0</v>
       </c>
@@ -18626,7 +19282,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="364" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:18">
       <c r="B364" t="s">
         <v>21</v>
       </c>
@@ -18646,7 +19302,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="365" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:18">
       <c r="A365" t="b">
         <v>0</v>
       </c>
@@ -18660,7 +19316,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="366" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:18">
       <c r="B366" t="s">
         <v>21</v>
       </c>
@@ -18683,6 +19339,11 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -18694,17 +19355,17 @@
       <selection activeCell="A17" sqref="A17:A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.33203125" customWidth="1"/>
-    <col min="5" max="5" width="16.109375" customWidth="1"/>
+    <col min="5" max="5" width="16.1640625" customWidth="1"/>
     <col min="8" max="8" width="22.33203125" customWidth="1"/>
-    <col min="17" max="17" width="24.44140625" customWidth="1"/>
+    <col min="17" max="17" width="24.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21">
       <c r="A1" t="s">
         <v>441</v>
       </c>
@@ -18715,7 +19376,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" s="30" customFormat="1">
       <c r="A2" s="30" t="s">
         <v>589</v>
       </c>
@@ -18729,7 +19390,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" s="30" customFormat="1">
       <c r="A3" s="30" t="s">
         <v>592</v>
       </c>
@@ -18743,7 +19404,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" s="30" customFormat="1">
       <c r="A4" s="30" t="s">
         <v>594</v>
       </c>
@@ -18757,7 +19418,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" s="30" customFormat="1">
       <c r="A5" s="30" t="s">
         <v>596</v>
       </c>
@@ -18771,7 +19432,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" s="30" customFormat="1">
       <c r="A6" s="30" t="s">
         <v>598</v>
       </c>
@@ -18785,7 +19446,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" s="30" customFormat="1">
       <c r="A7" s="30" t="s">
         <v>440</v>
       </c>
@@ -18799,7 +19460,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" s="30" customFormat="1">
       <c r="A8" s="30" t="s">
         <v>601</v>
       </c>
@@ -18813,7 +19474,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" s="30" customFormat="1">
       <c r="A9" s="30" t="s">
         <v>603</v>
       </c>
@@ -18827,7 +19488,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21">
       <c r="A11" t="s">
         <v>569</v>
       </c>
@@ -18841,7 +19502,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21">
       <c r="A12" t="s">
         <v>454</v>
       </c>
@@ -18855,7 +19516,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21">
       <c r="A13" t="s">
         <v>452</v>
       </c>
@@ -18866,8 +19527,8 @@
         <v>544</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" s="30" customFormat="1"/>
+    <row r="16" spans="1:21">
       <c r="A16" t="s">
         <v>547</v>
       </c>
@@ -18893,7 +19554,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17">
       <c r="A17" t="s">
         <v>548</v>
       </c>
@@ -18934,7 +19595,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -18975,7 +19636,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17">
       <c r="A19" t="s">
         <v>542</v>
       </c>
@@ -19007,7 +19668,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17">
       <c r="A20" t="s">
         <v>550</v>
       </c>
@@ -19039,7 +19700,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17">
       <c r="A21" t="s">
         <v>549</v>
       </c>
@@ -19068,7 +19729,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17">
       <c r="A22" t="s">
         <v>551</v>
       </c>
@@ -19100,7 +19761,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17">
       <c r="A23" t="s">
         <v>552</v>
       </c>
@@ -19120,7 +19781,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17">
       <c r="A24" t="s">
         <v>682</v>
       </c>
@@ -19143,7 +19804,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17">
       <c r="L25" s="1" t="s">
         <v>558</v>
       </c>
@@ -19154,7 +19815,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17">
       <c r="L26" s="1" t="s">
         <v>539</v>
       </c>
@@ -19162,7 +19823,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17">
       <c r="L27" s="1" t="s">
         <v>541</v>
       </c>
@@ -19176,5 +19837,10 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/projects/office_calibration.xlsx
+++ b/projects/office_calibration.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24709"/>
-  <workbookPr autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="20440" tabRatio="562" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="13176" tabRatio="562" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="9" r:id="rId1"/>
@@ -31,7 +31,7 @@
     <definedName name="TrueFalse">Lookups!$C$12:$C$13</definedName>
     <definedName name="Workflow">Lookups!$E$12:$E$13</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2612" uniqueCount="837">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2628" uniqueCount="845">
   <si>
     <t>type</t>
   </si>
@@ -2552,6 +2552,30 @@
   </si>
   <si>
     <t>O &amp; M Frequency</t>
+  </si>
+  <si>
+    <t>calibration_reports.electric_bill_consumption_cvrmse</t>
+  </si>
+  <si>
+    <t>calibration_reports.electric_bill_consumption_nmbe</t>
+  </si>
+  <si>
+    <t>calibration_reports.gas_bill_consumption_cvrmse</t>
+  </si>
+  <si>
+    <t>calibration_reports.gas_bill_consumption_nmbe</t>
+  </si>
+  <si>
+    <t>Electric CVRMSE</t>
+  </si>
+  <si>
+    <t>Electric NMBE</t>
+  </si>
+  <si>
+    <t>Gas CVRMSE</t>
+  </si>
+  <si>
+    <t>Gas NMBE</t>
   </si>
 </sst>
 </file>
@@ -2590,6 +2614,7 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2597,6 +2622,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2604,6 +2630,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4653,10 +4680,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1832">
     <cellStyle name="Comma" xfId="1749" builtinId="3"/>
@@ -6795,17 +6822,17 @@
       <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="81.83203125" customWidth="1"/>
+    <col min="1" max="1" width="81.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="28">
+    <row r="1" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="36" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="28">
+    <row r="2" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="36" t="s">
         <v>41</v>
       </c>
@@ -6829,17 +6856,17 @@
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="30.33203125" style="26" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29" style="1" customWidth="1"/>
-    <col min="4" max="4" width="33.1640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="33.109375" style="2" customWidth="1"/>
     <col min="5" max="5" width="61.6640625" style="1" customWidth="1"/>
     <col min="6" max="16384" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="19"/>
       <c r="B1" s="28"/>
       <c r="C1" s="19"/>
@@ -6848,7 +6875,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="12" customFormat="1">
+    <row r="2" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>435</v>
       </c>
@@ -6857,7 +6884,7 @@
       <c r="D2" s="13"/>
       <c r="E2" s="13"/>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>436</v>
       </c>
@@ -6868,7 +6895,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="28">
+    <row r="4" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>456</v>
       </c>
@@ -6879,7 +6906,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="42">
+    <row r="5" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>469</v>
       </c>
@@ -6890,7 +6917,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="46" customHeight="1">
+    <row r="6" spans="1:5" ht="46.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>470</v>
       </c>
@@ -6901,7 +6928,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>442</v>
       </c>
@@ -6920,7 +6947,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="28">
+    <row r="8" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>443</v>
       </c>
@@ -6939,7 +6966,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>458</v>
       </c>
@@ -6952,7 +6979,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="12" customFormat="1">
+    <row r="11" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
         <v>28</v>
       </c>
@@ -6961,7 +6988,7 @@
       <c r="D11" s="13"/>
       <c r="E11" s="13"/>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>39</v>
       </c>
@@ -6972,7 +6999,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>25</v>
       </c>
@@ -6983,7 +7010,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>26</v>
       </c>
@@ -6994,7 +7021,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>462</v>
       </c>
@@ -7005,7 +7032,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>463</v>
       </c>
@@ -7016,7 +7043,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>464</v>
       </c>
@@ -7027,7 +7054,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>466</v>
       </c>
@@ -7038,7 +7065,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="2" customFormat="1" ht="42">
+    <row r="20" spans="1:5" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
         <v>27</v>
       </c>
@@ -7051,7 +7078,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>451</v>
       </c>
@@ -7059,11 +7086,11 @@
         <v>542</v>
       </c>
     </row>
-    <row r="22" spans="1:5" s="31" customFormat="1">
+    <row r="22" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B22" s="26"/>
       <c r="D22" s="2"/>
     </row>
-    <row r="23" spans="1:5" s="2" customFormat="1" ht="42">
+    <row r="23" spans="1:5" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A23" s="11" t="s">
         <v>450</v>
       </c>
@@ -7080,7 +7107,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="31" t="s">
         <v>538</v>
       </c>
@@ -7092,7 +7119,7 @@
       </c>
       <c r="D24" s="35"/>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="31" t="s">
         <v>543</v>
       </c>
@@ -7104,7 +7131,7 @@
       </c>
       <c r="D25" s="35"/>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="31" t="s">
         <v>557</v>
       </c>
@@ -7116,7 +7143,7 @@
       </c>
       <c r="D26" s="35"/>
     </row>
-    <row r="27" spans="1:5" s="31" customFormat="1">
+    <row r="27" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="31" t="s">
         <v>558</v>
       </c>
@@ -7128,7 +7155,7 @@
       </c>
       <c r="D27" s="35"/>
     </row>
-    <row r="28" spans="1:5" s="31" customFormat="1">
+    <row r="28" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="31" t="s">
         <v>539</v>
       </c>
@@ -7138,7 +7165,7 @@
       <c r="C28" s="30"/>
       <c r="D28" s="35"/>
     </row>
-    <row r="29" spans="1:5" s="31" customFormat="1">
+    <row r="29" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="31" t="s">
         <v>541</v>
       </c>
@@ -7150,7 +7177,7 @@
       </c>
       <c r="D29" s="35"/>
     </row>
-    <row r="30" spans="1:5" s="31" customFormat="1">
+    <row r="30" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="31" t="s">
         <v>791</v>
       </c>
@@ -7162,32 +7189,32 @@
       </c>
       <c r="D30" s="35"/>
     </row>
-    <row r="31" spans="1:5" s="31" customFormat="1">
+    <row r="31" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B31" s="26"/>
       <c r="C31" s="34"/>
       <c r="D31" s="35"/>
     </row>
-    <row r="32" spans="1:5" s="31" customFormat="1">
+    <row r="32" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B32" s="26"/>
       <c r="C32" s="34"/>
       <c r="D32" s="35"/>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="31"/>
       <c r="C33" s="34"/>
       <c r="D33" s="35"/>
     </row>
-    <row r="34" spans="1:5" s="31" customFormat="1">
+    <row r="34" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B34" s="26"/>
       <c r="C34" s="34"/>
       <c r="D34" s="35"/>
     </row>
-    <row r="35" spans="1:5" s="31" customFormat="1">
+    <row r="35" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B35" s="26"/>
       <c r="C35" s="26"/>
       <c r="D35" s="2"/>
     </row>
-    <row r="36" spans="1:5" s="2" customFormat="1" ht="28">
+    <row r="36" spans="1:5" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A36" s="11" t="s">
         <v>33</v>
       </c>
@@ -7200,7 +7227,7 @@
       <c r="D36" s="11"/>
       <c r="E36" s="13"/>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>29</v>
       </c>
@@ -7208,7 +7235,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="39" spans="1:5" s="2" customFormat="1" ht="28">
+    <row r="39" spans="1:5" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A39" s="11" t="s">
         <v>30</v>
       </c>
@@ -7225,7 +7252,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="40" spans="1:5" s="31" customFormat="1">
+    <row r="40" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="31" t="s">
         <v>32</v>
       </c>
@@ -7237,7 +7264,7 @@
       </c>
       <c r="E40" s="2"/>
     </row>
-    <row r="42" spans="1:5" s="2" customFormat="1" ht="56">
+    <row r="42" spans="1:5" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A42" s="11" t="s">
         <v>35</v>
       </c>
@@ -7252,7 +7279,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="31" t="s">
         <v>703</v>
       </c>
@@ -7263,7 +7290,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="44" spans="1:5" s="31" customFormat="1">
+    <row r="44" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B44" s="26"/>
       <c r="D44" s="2"/>
     </row>
@@ -7298,32 +7325,32 @@
       <selection pane="bottomLeft" activeCell="I98" sqref="I98"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.1640625" style="31" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="31" customWidth="1"/>
     <col min="2" max="2" width="47" style="31" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="47" style="31" customWidth="1"/>
-    <col min="4" max="4" width="39.1640625" style="31" customWidth="1"/>
-    <col min="5" max="5" width="24.1640625" style="31" customWidth="1"/>
+    <col min="4" max="4" width="39.109375" style="31" customWidth="1"/>
+    <col min="5" max="5" width="24.109375" style="31" customWidth="1"/>
     <col min="6" max="6" width="9.6640625" style="31" customWidth="1"/>
     <col min="7" max="7" width="9.33203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5" style="4" customWidth="1"/>
-    <col min="9" max="9" width="8.83203125" style="4" customWidth="1"/>
-    <col min="10" max="10" width="7.1640625" style="31" customWidth="1"/>
-    <col min="11" max="11" width="8.1640625" style="31" customWidth="1"/>
+    <col min="8" max="8" width="15.44140625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="8.77734375" style="4" customWidth="1"/>
+    <col min="10" max="10" width="7.109375" style="31" customWidth="1"/>
+    <col min="11" max="11" width="8.109375" style="31" customWidth="1"/>
     <col min="12" max="12" width="6.6640625" style="31" customWidth="1"/>
-    <col min="13" max="14" width="7.83203125" style="31" customWidth="1"/>
-    <col min="15" max="15" width="11.5" style="31"/>
-    <col min="16" max="16" width="11.5" style="31" customWidth="1"/>
+    <col min="13" max="14" width="7.77734375" style="31" customWidth="1"/>
+    <col min="15" max="15" width="11.44140625" style="31"/>
+    <col min="16" max="16" width="11.44140625" style="31" customWidth="1"/>
     <col min="17" max="17" width="23" style="31" customWidth="1"/>
     <col min="18" max="18" width="27.6640625" style="31" customWidth="1"/>
-    <col min="19" max="19" width="46.1640625" style="31" customWidth="1"/>
-    <col min="20" max="22" width="11.5" style="31"/>
+    <col min="19" max="19" width="46.109375" style="31" customWidth="1"/>
+    <col min="20" max="22" width="11.44140625" style="31"/>
     <col min="23" max="23" width="13.33203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="11.5" style="31"/>
+    <col min="24" max="16384" width="11.44140625" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="18">
+    <row r="1" spans="1:25" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="5"/>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -7349,16 +7376,16 @@
       <c r="Q1" s="5"/>
       <c r="R1" s="5"/>
       <c r="S1" s="5"/>
-      <c r="T1" s="51" t="s">
+      <c r="T1" s="52" t="s">
         <v>61</v>
       </c>
-      <c r="U1" s="51"/>
-      <c r="V1" s="51"/>
-      <c r="W1" s="51"/>
-      <c r="X1" s="51"/>
-      <c r="Y1" s="51"/>
-    </row>
-    <row r="2" spans="1:25" s="8" customFormat="1" ht="15">
+      <c r="U1" s="52"/>
+      <c r="V1" s="52"/>
+      <c r="W1" s="52"/>
+      <c r="X1" s="52"/>
+      <c r="Y1" s="52"/>
+    </row>
+    <row r="2" spans="1:25" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>3</v>
       </c>
@@ -7374,7 +7401,7 @@
       <c r="H2" s="9"/>
       <c r="I2" s="9"/>
     </row>
-    <row r="3" spans="1:25" s="14" customFormat="1" ht="45">
+    <row r="3" spans="1:25" s="14" customFormat="1" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
         <v>1</v>
       </c>
@@ -7448,7 +7475,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:25" s="38" customFormat="1">
+    <row r="4" spans="1:25" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="38" t="b">
         <v>1</v>
       </c>
@@ -7467,7 +7494,7 @@
       <c r="G4" s="39"/>
       <c r="H4" s="39"/>
     </row>
-    <row r="5" spans="1:25" s="30" customFormat="1">
+    <row r="5" spans="1:25" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B5" s="30" t="s">
         <v>21</v>
       </c>
@@ -7484,7 +7511,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="6" spans="1:25" s="30" customFormat="1">
+    <row r="6" spans="1:25" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B6" s="30" t="s">
         <v>21</v>
       </c>
@@ -7501,7 +7528,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="7" spans="1:25" s="38" customFormat="1">
+    <row r="7" spans="1:25" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="38" t="b">
         <v>1</v>
       </c>
@@ -7520,7 +7547,7 @@
       <c r="G7" s="39"/>
       <c r="H7" s="39"/>
     </row>
-    <row r="8" spans="1:25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B8" s="31" t="s">
         <v>21</v>
       </c>
@@ -7545,7 +7572,7 @@
       <c r="P8" s="40"/>
       <c r="Q8" s="2"/>
     </row>
-    <row r="9" spans="1:25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B9" s="31" t="s">
         <v>21</v>
       </c>
@@ -7568,7 +7595,7 @@
       <c r="O9" s="4"/>
       <c r="P9" s="3"/>
     </row>
-    <row r="10" spans="1:25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B10" s="31" t="s">
         <v>21</v>
       </c>
@@ -7586,7 +7613,7 @@
       </c>
       <c r="I10" s="31"/>
     </row>
-    <row r="11" spans="1:25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B11" s="31" t="s">
         <v>21</v>
       </c>
@@ -7604,7 +7631,7 @@
       </c>
       <c r="I11" s="31"/>
     </row>
-    <row r="12" spans="1:25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B12" s="31" t="s">
         <v>21</v>
       </c>
@@ -7622,7 +7649,7 @@
       </c>
       <c r="I12" s="31"/>
     </row>
-    <row r="13" spans="1:25" s="38" customFormat="1">
+    <row r="13" spans="1:25" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="38" t="b">
         <v>1</v>
       </c>
@@ -7641,7 +7668,7 @@
       <c r="G13" s="39"/>
       <c r="H13" s="39"/>
     </row>
-    <row r="14" spans="1:25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B14" s="30" t="s">
         <v>21</v>
       </c>
@@ -7662,7 +7689,7 @@
       </c>
       <c r="I14" s="31"/>
     </row>
-    <row r="15" spans="1:25" s="43" customFormat="1">
+    <row r="15" spans="1:25" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B15" s="43" t="s">
         <v>22</v>
       </c>
@@ -7694,11 +7721,11 @@
       <c r="N15" s="43">
         <v>0.1</v>
       </c>
-      <c r="Q15" s="52" t="s">
+      <c r="Q15" s="51" t="s">
         <v>776</v>
       </c>
     </row>
-    <row r="16" spans="1:25" s="30" customFormat="1">
+    <row r="16" spans="1:25" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B16" s="30" t="s">
         <v>21</v>
       </c>
@@ -7715,7 +7742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:17" s="43" customFormat="1">
+    <row r="17" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B17" s="43" t="s">
         <v>22</v>
       </c>
@@ -7750,11 +7777,11 @@
       <c r="N17" s="43">
         <v>0.1</v>
       </c>
-      <c r="Q17" s="52" t="s">
+      <c r="Q17" s="51" t="s">
         <v>776</v>
       </c>
     </row>
-    <row r="18" spans="1:17" s="30" customFormat="1">
+    <row r="18" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B18" s="30" t="s">
         <v>21</v>
       </c>
@@ -7771,7 +7798,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="19" spans="1:17" s="30" customFormat="1">
+    <row r="19" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B19" s="30" t="s">
         <v>21</v>
       </c>
@@ -7788,7 +7815,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="20" spans="1:17" s="30" customFormat="1">
+    <row r="20" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B20" s="30" t="s">
         <v>21</v>
       </c>
@@ -7805,7 +7832,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="21" spans="1:17" s="30" customFormat="1">
+    <row r="21" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B21" s="30" t="s">
         <v>21</v>
       </c>
@@ -7822,7 +7849,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="22" spans="1:17" s="30" customFormat="1">
+    <row r="22" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B22" s="30" t="s">
         <v>21</v>
       </c>
@@ -7839,7 +7866,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="23" spans="1:17" s="30" customFormat="1">
+    <row r="23" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B23" s="30" t="s">
         <v>21</v>
       </c>
@@ -7856,7 +7883,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="24" spans="1:17" s="30" customFormat="1">
+    <row r="24" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B24" s="30" t="s">
         <v>21</v>
       </c>
@@ -7873,7 +7900,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:17" s="30" customFormat="1">
+    <row r="25" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B25" s="30" t="s">
         <v>21</v>
       </c>
@@ -7890,7 +7917,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="26" spans="1:17" s="30" customFormat="1">
+    <row r="26" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B26" s="30" t="s">
         <v>21</v>
       </c>
@@ -7907,7 +7934,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:17" s="30" customFormat="1">
+    <row r="27" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B27" s="30" t="s">
         <v>21</v>
       </c>
@@ -7924,7 +7951,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="28" spans="1:17" s="30" customFormat="1">
+    <row r="28" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B28" s="30" t="s">
         <v>21</v>
       </c>
@@ -7941,7 +7968,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="29" spans="1:17" s="30" customFormat="1">
+    <row r="29" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B29" s="30" t="s">
         <v>21</v>
       </c>
@@ -7958,7 +7985,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:17" s="30" customFormat="1">
+    <row r="30" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B30" s="30" t="s">
         <v>21</v>
       </c>
@@ -7975,7 +8002,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="31" spans="1:17" s="38" customFormat="1">
+    <row r="31" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="38" t="b">
         <v>1</v>
       </c>
@@ -7994,7 +8021,7 @@
       <c r="G31" s="39"/>
       <c r="H31" s="39"/>
     </row>
-    <row r="32" spans="1:17">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B32" s="31" t="s">
         <v>21</v>
       </c>
@@ -8010,7 +8037,7 @@
       <c r="H32" s="31"/>
       <c r="I32" s="31"/>
     </row>
-    <row r="33" spans="1:17" s="38" customFormat="1">
+    <row r="33" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="38" t="b">
         <v>1</v>
       </c>
@@ -8029,7 +8056,7 @@
       <c r="G33" s="39"/>
       <c r="H33" s="39"/>
     </row>
-    <row r="34" spans="1:17" s="43" customFormat="1">
+    <row r="34" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B34" s="43" t="s">
         <v>22</v>
       </c>
@@ -8065,7 +8092,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="35" spans="1:17" s="43" customFormat="1">
+    <row r="35" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B35" s="43" t="s">
         <v>22</v>
       </c>
@@ -8101,7 +8128,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="36" spans="1:17" s="38" customFormat="1">
+    <row r="36" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="38" t="b">
         <v>1</v>
       </c>
@@ -8120,7 +8147,7 @@
       <c r="G36" s="39"/>
       <c r="H36" s="39"/>
     </row>
-    <row r="37" spans="1:17" s="43" customFormat="1">
+    <row r="37" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B37" s="43" t="s">
         <v>22</v>
       </c>
@@ -8159,7 +8186,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="38" spans="1:17" s="38" customFormat="1">
+    <row r="38" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="38" t="b">
         <v>1</v>
       </c>
@@ -8178,7 +8205,7 @@
       <c r="G38" s="39"/>
       <c r="H38" s="39"/>
     </row>
-    <row r="39" spans="1:17">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B39" s="31" t="s">
         <v>21</v>
       </c>
@@ -8216,7 +8243,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="40" spans="1:17">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B40" s="31" t="s">
         <v>21</v>
       </c>
@@ -8244,7 +8271,7 @@
       <c r="P40" s="40"/>
       <c r="Q40" s="2"/>
     </row>
-    <row r="41" spans="1:17">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B41" s="31" t="s">
         <v>21</v>
       </c>
@@ -8266,7 +8293,7 @@
       <c r="I41" s="3"/>
       <c r="J41" s="3"/>
     </row>
-    <row r="42" spans="1:17" s="38" customFormat="1">
+    <row r="42" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="38" t="b">
         <v>1</v>
       </c>
@@ -8285,7 +8312,7 @@
       <c r="G42" s="39"/>
       <c r="H42" s="39"/>
     </row>
-    <row r="43" spans="1:17">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B43" s="31" t="s">
         <v>21</v>
       </c>
@@ -8323,7 +8350,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="44" spans="1:17">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B44" s="31" t="s">
         <v>21</v>
       </c>
@@ -8351,7 +8378,7 @@
       <c r="P44" s="40"/>
       <c r="Q44" s="2"/>
     </row>
-    <row r="45" spans="1:17">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B45" s="31" t="s">
         <v>21</v>
       </c>
@@ -8373,7 +8400,7 @@
       <c r="I45" s="3"/>
       <c r="J45" s="3"/>
     </row>
-    <row r="46" spans="1:17" s="38" customFormat="1">
+    <row r="46" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="38" t="b">
         <v>1</v>
       </c>
@@ -8392,7 +8419,7 @@
       <c r="G46" s="39"/>
       <c r="H46" s="39"/>
     </row>
-    <row r="47" spans="1:17">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B47" s="31" t="s">
         <v>21</v>
       </c>
@@ -8430,7 +8457,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="48" spans="1:17">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B48" s="31" t="s">
         <v>21</v>
       </c>
@@ -8458,7 +8485,7 @@
       <c r="P48" s="40"/>
       <c r="Q48" s="2"/>
     </row>
-    <row r="49" spans="1:17">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B49" s="31" t="s">
         <v>21</v>
       </c>
@@ -8480,7 +8507,7 @@
       <c r="I49" s="3"/>
       <c r="J49" s="3"/>
     </row>
-    <row r="50" spans="1:17" s="38" customFormat="1">
+    <row r="50" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="38" t="b">
         <v>1</v>
       </c>
@@ -8499,7 +8526,7 @@
       <c r="G50" s="39"/>
       <c r="H50" s="39"/>
     </row>
-    <row r="51" spans="1:17">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B51" s="31" t="s">
         <v>21</v>
       </c>
@@ -8537,7 +8564,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="52" spans="1:17">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B52" s="31" t="s">
         <v>21</v>
       </c>
@@ -8565,7 +8592,7 @@
       <c r="P52" s="40"/>
       <c r="Q52" s="2"/>
     </row>
-    <row r="53" spans="1:17">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B53" s="31" t="s">
         <v>21</v>
       </c>
@@ -8587,7 +8614,7 @@
       <c r="I53" s="3"/>
       <c r="J53" s="3"/>
     </row>
-    <row r="54" spans="1:17" s="38" customFormat="1">
+    <row r="54" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="38" t="b">
         <v>1</v>
       </c>
@@ -8606,7 +8633,7 @@
       <c r="G54" s="39"/>
       <c r="H54" s="39"/>
     </row>
-    <row r="55" spans="1:17">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B55" s="31" t="s">
         <v>21</v>
       </c>
@@ -8624,7 +8651,7 @@
       </c>
       <c r="I55" s="31"/>
     </row>
-    <row r="56" spans="1:17">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B56" s="31" t="s">
         <v>21</v>
       </c>
@@ -8642,7 +8669,7 @@
       </c>
       <c r="I56" s="31"/>
     </row>
-    <row r="57" spans="1:17">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B57" s="31" t="s">
         <v>21</v>
       </c>
@@ -8660,7 +8687,7 @@
       </c>
       <c r="I57" s="31"/>
     </row>
-    <row r="58" spans="1:17">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B58" s="31" t="s">
         <v>21</v>
       </c>
@@ -8678,7 +8705,7 @@
       </c>
       <c r="I58" s="31"/>
     </row>
-    <row r="59" spans="1:17" s="38" customFormat="1">
+    <row r="59" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A59" s="38" t="b">
         <v>1</v>
       </c>
@@ -8697,7 +8724,7 @@
       <c r="G59" s="39"/>
       <c r="H59" s="39"/>
     </row>
-    <row r="60" spans="1:17" s="49" customFormat="1">
+    <row r="60" spans="1:17" s="49" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="49" t="b">
         <v>1</v>
       </c>
@@ -8714,7 +8741,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="61" spans="1:17" s="43" customFormat="1">
+    <row r="61" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B61" s="43" t="s">
         <v>22</v>
       </c>
@@ -8750,7 +8777,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="62" spans="1:17" s="30" customFormat="1">
+    <row r="62" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B62" s="30" t="s">
         <v>21</v>
       </c>
@@ -8767,7 +8794,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="63" spans="1:17" s="30" customFormat="1">
+    <row r="63" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B63" s="30" t="s">
         <v>21</v>
       </c>
@@ -8787,7 +8814,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="64" spans="1:17" s="49" customFormat="1">
+    <row r="64" spans="1:17" s="49" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="49" t="b">
         <v>1</v>
       </c>
@@ -8804,7 +8831,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="65" spans="1:17" s="43" customFormat="1">
+    <row r="65" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B65" s="43" t="s">
         <v>22</v>
       </c>
@@ -8840,7 +8867,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="66" spans="1:17" s="30" customFormat="1">
+    <row r="66" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B66" s="30" t="s">
         <v>21</v>
       </c>
@@ -8857,7 +8884,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="67" spans="1:17" s="30" customFormat="1">
+    <row r="67" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B67" s="30" t="s">
         <v>21</v>
       </c>
@@ -8877,7 +8904,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="68" spans="1:17" s="49" customFormat="1">
+    <row r="68" spans="1:17" s="49" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A68" s="49" t="b">
         <v>1</v>
       </c>
@@ -8894,7 +8921,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="69" spans="1:17" s="43" customFormat="1">
+    <row r="69" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B69" s="43" t="s">
         <v>22</v>
       </c>
@@ -8930,7 +8957,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="70" spans="1:17" s="30" customFormat="1">
+    <row r="70" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B70" s="30" t="s">
         <v>21</v>
       </c>
@@ -8947,7 +8974,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="71" spans="1:17" s="30" customFormat="1">
+    <row r="71" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B71" s="30" t="s">
         <v>21</v>
       </c>
@@ -8967,7 +8994,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="72" spans="1:17" s="49" customFormat="1">
+    <row r="72" spans="1:17" s="49" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A72" s="49" t="b">
         <v>1</v>
       </c>
@@ -8984,7 +9011,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="73" spans="1:17" s="30" customFormat="1">
+    <row r="73" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B73" s="30" t="s">
         <v>21</v>
       </c>
@@ -9005,7 +9032,7 @@
       </c>
       <c r="O73" s="31"/>
     </row>
-    <row r="74" spans="1:17" s="43" customFormat="1">
+    <row r="74" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B74" s="43" t="s">
         <v>22</v>
       </c>
@@ -9041,7 +9068,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="75" spans="1:17" s="30" customFormat="1">
+    <row r="75" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B75" s="30" t="s">
         <v>21</v>
       </c>
@@ -9059,7 +9086,7 @@
       </c>
       <c r="O75" s="31"/>
     </row>
-    <row r="76" spans="1:17" s="30" customFormat="1">
+    <row r="76" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B76" s="30" t="s">
         <v>21</v>
       </c>
@@ -9077,7 +9104,7 @@
       </c>
       <c r="O76" s="31"/>
     </row>
-    <row r="77" spans="1:17" s="30" customFormat="1">
+    <row r="77" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B77" s="30" t="s">
         <v>21</v>
       </c>
@@ -9095,7 +9122,7 @@
       </c>
       <c r="O77" s="31"/>
     </row>
-    <row r="78" spans="1:17" s="50" customFormat="1">
+    <row r="78" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A78" s="50" t="b">
         <v>1</v>
       </c>
@@ -9112,7 +9139,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="79" spans="1:17">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A79" s="30"/>
       <c r="B79" s="30" t="s">
         <v>21</v>
@@ -9141,7 +9168,7 @@
       <c r="N79" s="3"/>
       <c r="P79" s="40"/>
     </row>
-    <row r="80" spans="1:17" s="43" customFormat="1">
+    <row r="80" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B80" s="43" t="s">
         <v>22</v>
       </c>
@@ -9179,7 +9206,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="81" spans="1:17">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A81" s="30"/>
       <c r="B81" s="30" t="s">
         <v>21</v>
@@ -9205,7 +9232,7 @@
       <c r="N81" s="3"/>
       <c r="P81" s="40"/>
     </row>
-    <row r="82" spans="1:17">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A82" s="30"/>
       <c r="B82" s="30" t="s">
         <v>21</v>
@@ -9231,7 +9258,7 @@
       <c r="N82" s="3"/>
       <c r="P82" s="40"/>
     </row>
-    <row r="83" spans="1:17">
+    <row r="83" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A83" s="30"/>
       <c r="B83" s="30" t="s">
         <v>21</v>
@@ -9257,7 +9284,7 @@
       <c r="N83" s="3"/>
       <c r="P83" s="40"/>
     </row>
-    <row r="84" spans="1:17">
+    <row r="84" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A84" s="30"/>
       <c r="B84" s="30" t="s">
         <v>21</v>
@@ -9283,7 +9310,7 @@
       <c r="N84" s="3"/>
       <c r="P84" s="40"/>
     </row>
-    <row r="85" spans="1:17">
+    <row r="85" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A85" s="30"/>
       <c r="B85" s="30" t="s">
         <v>21</v>
@@ -9309,7 +9336,7 @@
       <c r="N85" s="3"/>
       <c r="P85" s="40"/>
     </row>
-    <row r="86" spans="1:17">
+    <row r="86" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A86" s="30"/>
       <c r="B86" s="30" t="s">
         <v>21</v>
@@ -9335,7 +9362,7 @@
       <c r="N86" s="3"/>
       <c r="P86" s="40"/>
     </row>
-    <row r="87" spans="1:17">
+    <row r="87" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A87" s="30"/>
       <c r="B87" s="30" t="s">
         <v>21</v>
@@ -9361,7 +9388,7 @@
       <c r="N87" s="3"/>
       <c r="P87" s="40"/>
     </row>
-    <row r="88" spans="1:17" s="50" customFormat="1">
+    <row r="88" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A88" s="50" t="b">
         <v>1</v>
       </c>
@@ -9378,7 +9405,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="89" spans="1:17">
+    <row r="89" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A89" s="30"/>
       <c r="B89" s="30" t="s">
         <v>21</v>
@@ -9407,7 +9434,7 @@
       <c r="N89" s="3"/>
       <c r="P89" s="40"/>
     </row>
-    <row r="90" spans="1:17" s="43" customFormat="1">
+    <row r="90" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B90" s="43" t="s">
         <v>22</v>
       </c>
@@ -9444,7 +9471,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="91" spans="1:17" s="50" customFormat="1">
+    <row r="91" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A91" s="50" t="b">
         <v>1</v>
       </c>
@@ -9461,7 +9488,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="92" spans="1:17" s="43" customFormat="1">
+    <row r="92" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B92" s="43" t="s">
         <v>22</v>
       </c>
@@ -9498,7 +9525,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="93" spans="1:17" s="50" customFormat="1">
+    <row r="93" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A93" s="50" t="b">
         <v>1</v>
       </c>
@@ -9515,7 +9542,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="94" spans="1:17" s="43" customFormat="1">
+    <row r="94" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B94" s="43" t="s">
         <v>22</v>
       </c>
@@ -9552,7 +9579,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="95" spans="1:17" s="50" customFormat="1">
+    <row r="95" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A95" s="50" t="b">
         <v>1</v>
       </c>
@@ -9569,7 +9596,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="96" spans="1:17" s="30" customFormat="1">
+    <row r="96" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B96" s="30" t="s">
         <v>21</v>
       </c>
@@ -9589,7 +9616,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="97" spans="2:17" s="43" customFormat="1">
+    <row r="97" spans="2:17" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B97" s="43" t="s">
         <v>22</v>
       </c>
@@ -9629,7 +9656,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="98" spans="2:17" s="30" customFormat="1">
+    <row r="98" spans="2:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B98" s="30" t="s">
         <v>21</v>
       </c>
@@ -9649,7 +9676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="2:17" s="30" customFormat="1">
+    <row r="99" spans="2:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B99" s="30" t="s">
         <v>21</v>
       </c>
@@ -9669,7 +9696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="2:17" s="30" customFormat="1">
+    <row r="100" spans="2:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B100" s="30" t="s">
         <v>21</v>
       </c>
@@ -9689,7 +9716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="2:17" s="30" customFormat="1">
+    <row r="101" spans="2:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B101" s="30" t="s">
         <v>21</v>
       </c>
@@ -9706,7 +9733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="2:17" s="30" customFormat="1">
+    <row r="102" spans="2:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B102" s="30" t="s">
         <v>21</v>
       </c>
@@ -9726,7 +9753,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="103" spans="2:17" s="30" customFormat="1">
+    <row r="103" spans="2:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B103" s="30" t="s">
         <v>21</v>
       </c>
@@ -9746,7 +9773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="2:17" s="30" customFormat="1">
+    <row r="104" spans="2:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B104" s="30" t="s">
         <v>21</v>
       </c>
@@ -9766,483 +9793,483 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="2:17">
+    <row r="105" spans="2:17" x14ac:dyDescent="0.3">
       <c r="H105" s="31"/>
       <c r="I105" s="31"/>
     </row>
-    <row r="106" spans="2:17">
+    <row r="106" spans="2:17" x14ac:dyDescent="0.3">
       <c r="H106" s="31"/>
       <c r="I106" s="31"/>
     </row>
-    <row r="107" spans="2:17">
+    <row r="107" spans="2:17" x14ac:dyDescent="0.3">
       <c r="H107" s="31"/>
       <c r="I107" s="31"/>
     </row>
-    <row r="108" spans="2:17">
+    <row r="108" spans="2:17" x14ac:dyDescent="0.3">
       <c r="H108" s="31"/>
       <c r="I108" s="31"/>
     </row>
-    <row r="109" spans="2:17">
+    <row r="109" spans="2:17" x14ac:dyDescent="0.3">
       <c r="H109" s="31"/>
       <c r="I109" s="31"/>
     </row>
-    <row r="110" spans="2:17">
+    <row r="110" spans="2:17" x14ac:dyDescent="0.3">
       <c r="H110" s="31"/>
       <c r="I110" s="31"/>
     </row>
-    <row r="111" spans="2:17">
+    <row r="111" spans="2:17" x14ac:dyDescent="0.3">
       <c r="H111" s="31"/>
       <c r="I111" s="31"/>
     </row>
-    <row r="112" spans="2:17">
+    <row r="112" spans="2:17" x14ac:dyDescent="0.3">
       <c r="H112" s="31"/>
       <c r="I112" s="31"/>
     </row>
-    <row r="113" spans="8:9">
+    <row r="113" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H113" s="31"/>
       <c r="I113" s="31"/>
     </row>
-    <row r="114" spans="8:9">
+    <row r="114" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H114" s="31"/>
       <c r="I114" s="31"/>
     </row>
-    <row r="115" spans="8:9">
+    <row r="115" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H115" s="31"/>
       <c r="I115" s="31"/>
     </row>
-    <row r="116" spans="8:9">
+    <row r="116" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H116" s="31"/>
       <c r="I116" s="31"/>
     </row>
-    <row r="117" spans="8:9">
+    <row r="117" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H117" s="31"/>
       <c r="I117" s="31"/>
     </row>
-    <row r="118" spans="8:9">
+    <row r="118" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H118" s="31"/>
       <c r="I118" s="31"/>
     </row>
-    <row r="119" spans="8:9">
+    <row r="119" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H119" s="31"/>
       <c r="I119" s="31"/>
     </row>
-    <row r="120" spans="8:9">
+    <row r="120" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H120" s="31"/>
       <c r="I120" s="31"/>
     </row>
-    <row r="121" spans="8:9">
+    <row r="121" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H121" s="31"/>
       <c r="I121" s="31"/>
     </row>
-    <row r="122" spans="8:9">
+    <row r="122" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H122" s="31"/>
       <c r="I122" s="31"/>
     </row>
-    <row r="123" spans="8:9">
+    <row r="123" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H123" s="31"/>
       <c r="I123" s="31"/>
     </row>
-    <row r="124" spans="8:9">
+    <row r="124" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H124" s="31"/>
       <c r="I124" s="31"/>
     </row>
-    <row r="125" spans="8:9">
+    <row r="125" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H125" s="31"/>
       <c r="I125" s="31"/>
     </row>
-    <row r="126" spans="8:9">
+    <row r="126" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H126" s="31"/>
       <c r="I126" s="31"/>
     </row>
-    <row r="127" spans="8:9">
+    <row r="127" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H127" s="31"/>
       <c r="I127" s="31"/>
     </row>
-    <row r="128" spans="8:9">
+    <row r="128" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H128" s="31"/>
       <c r="I128" s="31"/>
     </row>
-    <row r="129" spans="8:9">
+    <row r="129" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H129" s="31"/>
       <c r="I129" s="31"/>
     </row>
-    <row r="130" spans="8:9">
+    <row r="130" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H130" s="31"/>
       <c r="I130" s="31"/>
     </row>
-    <row r="131" spans="8:9">
+    <row r="131" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H131" s="31"/>
       <c r="I131" s="31"/>
     </row>
-    <row r="132" spans="8:9">
+    <row r="132" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H132" s="31"/>
       <c r="I132" s="31"/>
     </row>
-    <row r="133" spans="8:9">
+    <row r="133" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H133" s="31"/>
       <c r="I133" s="31"/>
     </row>
-    <row r="134" spans="8:9">
+    <row r="134" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H134" s="31"/>
       <c r="I134" s="31"/>
     </row>
-    <row r="135" spans="8:9">
+    <row r="135" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H135" s="31"/>
       <c r="I135" s="31"/>
     </row>
-    <row r="136" spans="8:9">
+    <row r="136" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H136" s="31"/>
       <c r="I136" s="31"/>
     </row>
-    <row r="137" spans="8:9">
+    <row r="137" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H137" s="31"/>
       <c r="I137" s="31"/>
     </row>
-    <row r="138" spans="8:9">
+    <row r="138" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H138" s="31"/>
       <c r="I138" s="31"/>
     </row>
-    <row r="139" spans="8:9">
+    <row r="139" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H139" s="31"/>
       <c r="I139" s="31"/>
     </row>
-    <row r="140" spans="8:9">
+    <row r="140" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H140" s="31"/>
       <c r="I140" s="31"/>
     </row>
-    <row r="141" spans="8:9">
+    <row r="141" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H141" s="31"/>
       <c r="I141" s="31"/>
     </row>
-    <row r="142" spans="8:9">
+    <row r="142" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H142" s="31"/>
       <c r="I142" s="31"/>
     </row>
-    <row r="143" spans="8:9">
+    <row r="143" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H143" s="31"/>
       <c r="I143" s="31"/>
     </row>
-    <row r="144" spans="8:9">
+    <row r="144" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H144" s="31"/>
       <c r="I144" s="31"/>
     </row>
-    <row r="145" spans="8:9">
+    <row r="145" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H145" s="31"/>
       <c r="I145" s="31"/>
     </row>
-    <row r="146" spans="8:9">
+    <row r="146" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H146" s="31"/>
       <c r="I146" s="31"/>
     </row>
-    <row r="147" spans="8:9">
+    <row r="147" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H147" s="31"/>
       <c r="I147" s="31"/>
     </row>
-    <row r="148" spans="8:9">
+    <row r="148" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H148" s="31"/>
       <c r="I148" s="31"/>
     </row>
-    <row r="149" spans="8:9">
+    <row r="149" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H149" s="31"/>
       <c r="I149" s="31"/>
     </row>
-    <row r="150" spans="8:9">
+    <row r="150" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H150" s="31"/>
       <c r="I150" s="31"/>
     </row>
-    <row r="151" spans="8:9">
+    <row r="151" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H151" s="31"/>
       <c r="I151" s="31"/>
     </row>
-    <row r="152" spans="8:9">
+    <row r="152" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H152" s="31"/>
       <c r="I152" s="31"/>
     </row>
-    <row r="153" spans="8:9">
+    <row r="153" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H153" s="31"/>
       <c r="I153" s="31"/>
     </row>
-    <row r="154" spans="8:9">
+    <row r="154" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H154" s="31"/>
       <c r="I154" s="31"/>
     </row>
-    <row r="155" spans="8:9">
+    <row r="155" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H155" s="31"/>
       <c r="I155" s="31"/>
     </row>
-    <row r="156" spans="8:9">
+    <row r="156" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H156" s="31"/>
       <c r="I156" s="31"/>
     </row>
-    <row r="157" spans="8:9">
+    <row r="157" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H157" s="31"/>
       <c r="I157" s="31"/>
     </row>
-    <row r="158" spans="8:9">
+    <row r="158" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H158" s="31"/>
       <c r="I158" s="31"/>
     </row>
-    <row r="159" spans="8:9">
+    <row r="159" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H159" s="31"/>
       <c r="I159" s="31"/>
     </row>
-    <row r="160" spans="8:9">
+    <row r="160" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H160" s="31"/>
       <c r="I160" s="31"/>
     </row>
-    <row r="161" spans="8:9">
+    <row r="161" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H161" s="31"/>
       <c r="I161" s="31"/>
     </row>
-    <row r="162" spans="8:9">
+    <row r="162" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H162" s="31"/>
       <c r="I162" s="31"/>
     </row>
-    <row r="163" spans="8:9">
+    <row r="163" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H163" s="31"/>
       <c r="I163" s="31"/>
     </row>
-    <row r="164" spans="8:9">
+    <row r="164" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H164" s="31"/>
       <c r="I164" s="31"/>
     </row>
-    <row r="165" spans="8:9">
+    <row r="165" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H165" s="31"/>
       <c r="I165" s="31"/>
     </row>
-    <row r="166" spans="8:9">
+    <row r="166" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H166" s="31"/>
       <c r="I166" s="31"/>
     </row>
-    <row r="167" spans="8:9">
+    <row r="167" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H167" s="31"/>
       <c r="I167" s="31"/>
     </row>
-    <row r="168" spans="8:9">
+    <row r="168" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H168" s="31"/>
       <c r="I168" s="31"/>
     </row>
-    <row r="169" spans="8:9">
+    <row r="169" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H169" s="31"/>
       <c r="I169" s="31"/>
     </row>
-    <row r="170" spans="8:9">
+    <row r="170" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H170" s="31"/>
       <c r="I170" s="31"/>
     </row>
-    <row r="171" spans="8:9">
+    <row r="171" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H171" s="31"/>
       <c r="I171" s="31"/>
     </row>
-    <row r="172" spans="8:9">
+    <row r="172" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H172" s="31"/>
       <c r="I172" s="31"/>
     </row>
-    <row r="173" spans="8:9">
+    <row r="173" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H173" s="31"/>
       <c r="I173" s="31"/>
     </row>
-    <row r="174" spans="8:9">
+    <row r="174" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H174" s="31"/>
       <c r="I174" s="31"/>
     </row>
-    <row r="175" spans="8:9">
+    <row r="175" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H175" s="31"/>
       <c r="I175" s="31"/>
     </row>
-    <row r="176" spans="8:9">
+    <row r="176" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H176" s="31"/>
       <c r="I176" s="31"/>
     </row>
-    <row r="177" spans="8:9">
+    <row r="177" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H177" s="31"/>
       <c r="I177" s="31"/>
     </row>
-    <row r="178" spans="8:9">
+    <row r="178" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H178" s="31"/>
       <c r="I178" s="31"/>
     </row>
-    <row r="179" spans="8:9">
+    <row r="179" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H179" s="31"/>
       <c r="I179" s="31"/>
     </row>
-    <row r="180" spans="8:9">
+    <row r="180" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H180" s="31"/>
       <c r="I180" s="31"/>
     </row>
-    <row r="181" spans="8:9">
+    <row r="181" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H181" s="31"/>
       <c r="I181" s="31"/>
     </row>
-    <row r="182" spans="8:9">
+    <row r="182" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H182" s="31"/>
       <c r="I182" s="31"/>
     </row>
-    <row r="183" spans="8:9">
+    <row r="183" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H183" s="31"/>
       <c r="I183" s="31"/>
     </row>
-    <row r="184" spans="8:9">
+    <row r="184" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H184" s="31"/>
       <c r="I184" s="31"/>
     </row>
-    <row r="185" spans="8:9">
+    <row r="185" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H185" s="31"/>
       <c r="I185" s="31"/>
     </row>
-    <row r="186" spans="8:9">
+    <row r="186" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H186" s="31"/>
       <c r="I186" s="31"/>
     </row>
-    <row r="187" spans="8:9">
+    <row r="187" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H187" s="31"/>
       <c r="I187" s="31"/>
     </row>
-    <row r="188" spans="8:9">
+    <row r="188" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H188" s="31"/>
       <c r="I188" s="31"/>
     </row>
-    <row r="189" spans="8:9">
+    <row r="189" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H189" s="31"/>
       <c r="I189" s="31"/>
     </row>
-    <row r="190" spans="8:9">
+    <row r="190" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H190" s="31"/>
       <c r="I190" s="31"/>
     </row>
-    <row r="191" spans="8:9">
+    <row r="191" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H191" s="31"/>
       <c r="I191" s="31"/>
     </row>
-    <row r="192" spans="8:9">
+    <row r="192" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H192" s="31"/>
       <c r="I192" s="31"/>
     </row>
-    <row r="193" spans="8:9">
+    <row r="193" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H193" s="31"/>
       <c r="I193" s="31"/>
     </row>
-    <row r="194" spans="8:9">
+    <row r="194" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H194" s="31"/>
       <c r="I194" s="31"/>
     </row>
-    <row r="195" spans="8:9">
+    <row r="195" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H195" s="31"/>
       <c r="I195" s="31"/>
     </row>
-    <row r="196" spans="8:9">
+    <row r="196" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H196" s="31"/>
       <c r="I196" s="31"/>
     </row>
-    <row r="197" spans="8:9">
+    <row r="197" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H197" s="31"/>
       <c r="I197" s="31"/>
     </row>
-    <row r="198" spans="8:9">
+    <row r="198" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H198" s="31"/>
       <c r="I198" s="31"/>
     </row>
-    <row r="199" spans="8:9">
+    <row r="199" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H199" s="31"/>
       <c r="I199" s="31"/>
     </row>
-    <row r="200" spans="8:9">
+    <row r="200" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H200" s="31"/>
       <c r="I200" s="31"/>
     </row>
-    <row r="201" spans="8:9">
+    <row r="201" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H201" s="31"/>
       <c r="I201" s="31"/>
     </row>
-    <row r="202" spans="8:9">
+    <row r="202" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H202" s="31"/>
       <c r="I202" s="31"/>
     </row>
-    <row r="203" spans="8:9">
+    <row r="203" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H203" s="31"/>
       <c r="I203" s="31"/>
     </row>
-    <row r="204" spans="8:9">
+    <row r="204" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H204" s="31"/>
       <c r="I204" s="31"/>
     </row>
-    <row r="205" spans="8:9">
+    <row r="205" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H205" s="31"/>
       <c r="I205" s="31"/>
     </row>
-    <row r="206" spans="8:9">
+    <row r="206" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H206" s="31"/>
       <c r="I206" s="31"/>
     </row>
-    <row r="207" spans="8:9">
+    <row r="207" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H207" s="31"/>
       <c r="I207" s="31"/>
     </row>
-    <row r="208" spans="8:9">
+    <row r="208" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H208" s="31"/>
       <c r="I208" s="31"/>
     </row>
-    <row r="209" spans="8:9">
+    <row r="209" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H209" s="31"/>
       <c r="I209" s="31"/>
     </row>
-    <row r="210" spans="8:9">
+    <row r="210" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H210" s="31"/>
       <c r="I210" s="31"/>
     </row>
-    <row r="211" spans="8:9">
+    <row r="211" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H211" s="31"/>
       <c r="I211" s="31"/>
     </row>
-    <row r="212" spans="8:9">
+    <row r="212" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H212" s="31"/>
       <c r="I212" s="31"/>
     </row>
-    <row r="213" spans="8:9">
+    <row r="213" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H213" s="31"/>
       <c r="I213" s="31"/>
     </row>
-    <row r="214" spans="8:9">
+    <row r="214" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H214" s="31"/>
       <c r="I214" s="31"/>
     </row>
-    <row r="215" spans="8:9">
+    <row r="215" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H215" s="31"/>
       <c r="I215" s="31"/>
     </row>
-    <row r="216" spans="8:9">
+    <row r="216" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H216" s="31"/>
       <c r="I216" s="31"/>
     </row>
-    <row r="217" spans="8:9">
+    <row r="217" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H217" s="31"/>
       <c r="I217" s="31"/>
     </row>
-    <row r="218" spans="8:9">
+    <row r="218" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H218" s="31"/>
       <c r="I218" s="31"/>
     </row>
-    <row r="219" spans="8:9">
+    <row r="219" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H219" s="31"/>
       <c r="I219" s="31"/>
     </row>
-    <row r="220" spans="8:9">
+    <row r="220" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H220" s="31"/>
       <c r="I220" s="31"/>
     </row>
-    <row r="221" spans="8:9">
+    <row r="221" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H221" s="31"/>
       <c r="I221" s="31"/>
     </row>
-    <row r="222" spans="8:9">
+    <row r="222" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H222" s="31"/>
       <c r="I222" s="31"/>
     </row>
-    <row r="223" spans="8:9">
+    <row r="223" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H223" s="31"/>
       <c r="I223" s="31"/>
     </row>
-    <row r="224" spans="8:9">
+    <row r="224" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H224" s="31"/>
       <c r="I224" s="31"/>
     </row>
@@ -10265,25 +10292,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="150" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A29" sqref="A29:A32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="29.5" style="31" customWidth="1"/>
+    <col min="1" max="2" width="29.44140625" style="31" customWidth="1"/>
     <col min="3" max="3" width="71" style="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5" style="31" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" style="31" customWidth="1"/>
     <col min="5" max="5" width="12.33203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="10.5" style="31" customWidth="1"/>
-    <col min="8" max="8" width="14.5" style="31" customWidth="1"/>
+    <col min="6" max="7" width="10.44140625" style="31" customWidth="1"/>
+    <col min="8" max="8" width="14.44140625" style="31" customWidth="1"/>
     <col min="9" max="9" width="14.6640625" style="31" customWidth="1"/>
     <col min="10" max="10" width="9.6640625" style="31" customWidth="1"/>
-    <col min="11" max="16384" width="11.5" style="31"/>
+    <col min="11" max="16384" width="11.44140625" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18">
+    <row r="1" spans="1:12" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="5"/>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -10298,7 +10325,7 @@
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
     </row>
-    <row r="2" spans="1:12" s="8" customFormat="1" ht="15">
+    <row r="2" spans="1:12" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>459</v>
       </c>
@@ -10333,7 +10360,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="14" customFormat="1" ht="30">
+    <row r="3" spans="1:12" s="14" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
         <v>628</v>
       </c>
@@ -10369,7 +10396,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="30" t="s">
         <v>644</v>
       </c>
@@ -10398,7 +10425,7 @@
       <c r="J4" s="30"/>
       <c r="K4" s="30"/>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="30" t="s">
         <v>645</v>
       </c>
@@ -10428,7 +10455,7 @@
       <c r="K5" s="30"/>
       <c r="L5" s="30"/>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="30" t="s">
         <v>646</v>
       </c>
@@ -10457,7 +10484,7 @@
       <c r="J6" s="30"/>
       <c r="K6" s="30"/>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="30" t="s">
         <v>647</v>
       </c>
@@ -10486,7 +10513,7 @@
       <c r="J7" s="30"/>
       <c r="K7" s="30"/>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="30" t="s">
         <v>709</v>
       </c>
@@ -10517,7 +10544,7 @@
       <c r="K8" s="30"/>
       <c r="L8" s="30"/>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="30" t="s">
         <v>711</v>
       </c>
@@ -10547,7 +10574,7 @@
       <c r="K9" s="30"/>
       <c r="L9" s="30"/>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="30" t="s">
         <v>712</v>
       </c>
@@ -10577,7 +10604,7 @@
       <c r="K10" s="30"/>
       <c r="L10" s="30"/>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="30" t="s">
         <v>713</v>
       </c>
@@ -10607,7 +10634,7 @@
       <c r="K11" s="30"/>
       <c r="L11" s="30"/>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="30" t="s">
         <v>714</v>
       </c>
@@ -10637,7 +10664,7 @@
       <c r="K12" s="30"/>
       <c r="L12" s="30"/>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="30" t="s">
         <v>715</v>
       </c>
@@ -10667,7 +10694,7 @@
       <c r="K13" s="30"/>
       <c r="L13" s="30"/>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="30" t="s">
         <v>716</v>
       </c>
@@ -10697,7 +10724,7 @@
       <c r="K14" s="30"/>
       <c r="L14" s="30"/>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="30" t="s">
         <v>717</v>
       </c>
@@ -10727,7 +10754,7 @@
       <c r="K15" s="30"/>
       <c r="L15" s="30"/>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="30" t="s">
         <v>718</v>
       </c>
@@ -10757,7 +10784,7 @@
       <c r="K16" s="30"/>
       <c r="L16" s="30"/>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="30" t="s">
         <v>719</v>
       </c>
@@ -10787,7 +10814,7 @@
       <c r="K17" s="30"/>
       <c r="L17" s="30"/>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="30" t="s">
         <v>720</v>
       </c>
@@ -10817,7 +10844,7 @@
       <c r="K18" s="30"/>
       <c r="L18" s="30"/>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="30" t="s">
         <v>722</v>
       </c>
@@ -10848,7 +10875,7 @@
       <c r="K19" s="30"/>
       <c r="L19" s="30"/>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="30" t="s">
         <v>721</v>
       </c>
@@ -10878,7 +10905,7 @@
       <c r="K20" s="30"/>
       <c r="L20" s="30"/>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="30" t="s">
         <v>724</v>
       </c>
@@ -10908,7 +10935,7 @@
       <c r="K21" s="30"/>
       <c r="L21" s="30"/>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="30" t="s">
         <v>725</v>
       </c>
@@ -10938,7 +10965,7 @@
       <c r="K22" s="30"/>
       <c r="L22" s="30"/>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="30" t="s">
         <v>726</v>
       </c>
@@ -10968,7 +10995,7 @@
       <c r="K23" s="30"/>
       <c r="L23" s="30"/>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="30" t="s">
         <v>727</v>
       </c>
@@ -10998,7 +11025,7 @@
       <c r="K24" s="30"/>
       <c r="L24" s="30"/>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="30" t="s">
         <v>728</v>
       </c>
@@ -11028,7 +11055,7 @@
       <c r="K25" s="30"/>
       <c r="L25" s="30"/>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="30" t="s">
         <v>729</v>
       </c>
@@ -11058,7 +11085,7 @@
       <c r="K26" s="30"/>
       <c r="L26" s="30"/>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="30" t="s">
         <v>730</v>
       </c>
@@ -11088,7 +11115,7 @@
       <c r="K27" s="30"/>
       <c r="L27" s="30"/>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="30" t="s">
         <v>731</v>
       </c>
@@ -11118,49 +11145,121 @@
       <c r="K28" s="30"/>
       <c r="L28" s="30"/>
     </row>
-    <row r="29" spans="1:12">
-      <c r="A29" s="30"/>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A29" s="30" t="s">
+        <v>841</v>
+      </c>
       <c r="B29" s="30"/>
-      <c r="C29" s="30"/>
-      <c r="D29" s="30"/>
-    </row>
-    <row r="30" spans="1:12">
-      <c r="A30" s="30"/>
+      <c r="C29" s="30" t="s">
+        <v>837</v>
+      </c>
+      <c r="D29" s="30" t="s">
+        <v>828</v>
+      </c>
+      <c r="E29" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="F29" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="G29" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="H29" s="30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A30" s="30" t="s">
+        <v>842</v>
+      </c>
       <c r="B30" s="30"/>
-      <c r="C30" s="30"/>
-      <c r="D30" s="30"/>
-    </row>
-    <row r="31" spans="1:12">
-      <c r="A31" s="30"/>
+      <c r="C30" s="30" t="s">
+        <v>838</v>
+      </c>
+      <c r="D30" s="30" t="s">
+        <v>828</v>
+      </c>
+      <c r="E30" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="F30" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="G30" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="H30" s="30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A31" s="30" t="s">
+        <v>843</v>
+      </c>
       <c r="B31" s="30"/>
-      <c r="C31" s="30"/>
-      <c r="D31" s="30"/>
-    </row>
-    <row r="32" spans="1:12">
-      <c r="A32" s="30"/>
+      <c r="C31" s="30" t="s">
+        <v>839</v>
+      </c>
+      <c r="D31" s="30" t="s">
+        <v>828</v>
+      </c>
+      <c r="E31" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="F31" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="G31" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="H31" s="30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A32" s="30" t="s">
+        <v>844</v>
+      </c>
       <c r="B32" s="30"/>
-      <c r="C32" s="30"/>
-      <c r="D32" s="30"/>
-    </row>
-    <row r="33" spans="1:4">
+      <c r="C32" s="30" t="s">
+        <v>840</v>
+      </c>
+      <c r="D32" s="30" t="s">
+        <v>828</v>
+      </c>
+      <c r="E32" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="F32" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="G32" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="H32" s="30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="30"/>
       <c r="B33" s="30"/>
       <c r="C33" s="30"/>
       <c r="D33" s="30"/>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="30"/>
       <c r="B34" s="30"/>
       <c r="C34" s="30"/>
       <c r="D34" s="30"/>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="30"/>
       <c r="B35" s="30"/>
       <c r="C35" s="30"/>
       <c r="D35" s="30"/>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="30"/>
       <c r="B36" s="30"/>
       <c r="C36" s="30"/>
@@ -11185,19 +11284,19 @@
       <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="70.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="80.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="33.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="255.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15">
+    <row r="1" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="b">
         <v>0</v>
       </c>
@@ -11216,7 +11315,7 @@
       <c r="H1" s="17"/>
       <c r="I1" s="17"/>
     </row>
-    <row r="2" spans="1:9" ht="15">
+    <row r="2" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="17"/>
       <c r="B2" s="17" t="s">
         <v>21</v>
@@ -11237,7 +11336,7 @@
       <c r="H2" s="17"/>
       <c r="I2" s="17"/>
     </row>
-    <row r="3" spans="1:9" ht="15">
+    <row r="3" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="17"/>
       <c r="B3" s="17" t="s">
         <v>21</v>
@@ -11260,7 +11359,7 @@
       </c>
       <c r="I3" s="17"/>
     </row>
-    <row r="4" spans="1:9" ht="15">
+    <row r="4" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="17"/>
       <c r="B4" s="17" t="s">
         <v>21</v>
@@ -11283,7 +11382,7 @@
       </c>
       <c r="I4" s="17"/>
     </row>
-    <row r="5" spans="1:9" ht="15">
+    <row r="5" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="17"/>
       <c r="B5" s="17" t="s">
         <v>21</v>
@@ -11306,7 +11405,7 @@
       </c>
       <c r="I5" s="17"/>
     </row>
-    <row r="6" spans="1:9" ht="15">
+    <row r="6" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="17" t="s">
         <v>21</v>
@@ -11329,7 +11428,7 @@
       </c>
       <c r="I6" s="17"/>
     </row>
-    <row r="7" spans="1:9" ht="15">
+    <row r="7" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="17"/>
       <c r="B7" s="17" t="s">
         <v>21</v>
@@ -11352,7 +11451,7 @@
       </c>
       <c r="I7" s="17"/>
     </row>
-    <row r="8" spans="1:9" ht="15">
+    <row r="8" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="17"/>
       <c r="B8" s="17" t="s">
         <v>21</v>
@@ -11375,7 +11474,7 @@
       </c>
       <c r="I8" s="17"/>
     </row>
-    <row r="9" spans="1:9" ht="15">
+    <row r="9" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="17"/>
       <c r="B9" s="17" t="s">
         <v>21</v>
@@ -11398,7 +11497,7 @@
       </c>
       <c r="I9" s="17"/>
     </row>
-    <row r="10" spans="1:9" ht="15">
+    <row r="10" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="17"/>
       <c r="B10" s="17" t="s">
         <v>21</v>
@@ -11421,7 +11520,7 @@
       </c>
       <c r="I10" s="17"/>
     </row>
-    <row r="11" spans="1:9" ht="15">
+    <row r="11" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="17" t="b">
         <v>0</v>
       </c>
@@ -11440,7 +11539,7 @@
       <c r="H11" s="17"/>
       <c r="I11" s="17"/>
     </row>
-    <row r="12" spans="1:9" ht="15">
+    <row r="12" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="17"/>
       <c r="B12" s="17" t="s">
         <v>21</v>
@@ -11461,7 +11560,7 @@
       <c r="H12" s="17"/>
       <c r="I12" s="17"/>
     </row>
-    <row r="13" spans="1:9" ht="15">
+    <row r="13" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="17"/>
       <c r="B13" s="17" t="s">
         <v>21</v>
@@ -11484,7 +11583,7 @@
       </c>
       <c r="I13" s="17"/>
     </row>
-    <row r="14" spans="1:9" ht="15">
+    <row r="14" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="17"/>
       <c r="B14" s="17" t="s">
         <v>21</v>
@@ -11507,7 +11606,7 @@
       </c>
       <c r="I14" s="17"/>
     </row>
-    <row r="15" spans="1:9" ht="15">
+    <row r="15" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="17"/>
       <c r="B15" s="17" t="s">
         <v>21</v>
@@ -11530,7 +11629,7 @@
       </c>
       <c r="I15" s="17"/>
     </row>
-    <row r="16" spans="1:9" ht="15">
+    <row r="16" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="17"/>
       <c r="B16" s="17" t="s">
         <v>21</v>
@@ -11553,7 +11652,7 @@
       </c>
       <c r="I16" s="17"/>
     </row>
-    <row r="17" spans="1:9" ht="15">
+    <row r="17" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="17"/>
       <c r="B17" s="17" t="s">
         <v>21</v>
@@ -11576,7 +11675,7 @@
       </c>
       <c r="I17" s="17"/>
     </row>
-    <row r="18" spans="1:9" ht="15">
+    <row r="18" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="17"/>
       <c r="B18" s="17" t="s">
         <v>21</v>
@@ -11599,7 +11698,7 @@
       </c>
       <c r="I18" s="17"/>
     </row>
-    <row r="19" spans="1:9" ht="15">
+    <row r="19" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="17"/>
       <c r="B19" s="17" t="s">
         <v>21</v>
@@ -11622,7 +11721,7 @@
       </c>
       <c r="I19" s="17"/>
     </row>
-    <row r="20" spans="1:9" ht="15">
+    <row r="20" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="17"/>
       <c r="B20" s="17" t="s">
         <v>21</v>
@@ -11645,7 +11744,7 @@
       </c>
       <c r="I20" s="17"/>
     </row>
-    <row r="21" spans="1:9" ht="15">
+    <row r="21" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="17" t="b">
         <v>0</v>
       </c>
@@ -11664,7 +11763,7 @@
       <c r="H21" s="17"/>
       <c r="I21" s="17"/>
     </row>
-    <row r="22" spans="1:9" ht="15">
+    <row r="22" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="17"/>
       <c r="B22" s="17" t="s">
         <v>21</v>
@@ -11687,7 +11786,7 @@
       </c>
       <c r="I22" s="17"/>
     </row>
-    <row r="23" spans="1:9" ht="15">
+    <row r="23" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="17"/>
       <c r="B23" s="17" t="s">
         <v>21</v>
@@ -11710,7 +11809,7 @@
       </c>
       <c r="I23" s="17"/>
     </row>
-    <row r="24" spans="1:9" ht="15">
+    <row r="24" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="17"/>
       <c r="B24" s="17" t="s">
         <v>21</v>
@@ -11733,7 +11832,7 @@
       </c>
       <c r="I24" s="17"/>
     </row>
-    <row r="25" spans="1:9" ht="15">
+    <row r="25" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="17"/>
       <c r="B25" s="17" t="s">
         <v>21</v>
@@ -11756,7 +11855,7 @@
       </c>
       <c r="I25" s="17"/>
     </row>
-    <row r="26" spans="1:9" ht="15">
+    <row r="26" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="17"/>
       <c r="B26" s="17" t="s">
         <v>21</v>
@@ -11779,7 +11878,7 @@
       </c>
       <c r="I26" s="17"/>
     </row>
-    <row r="27" spans="1:9" ht="15">
+    <row r="27" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="17"/>
       <c r="B27" s="17" t="s">
         <v>21</v>
@@ -11802,7 +11901,7 @@
       </c>
       <c r="I27" s="17"/>
     </row>
-    <row r="28" spans="1:9" ht="15">
+    <row r="28" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="17"/>
       <c r="B28" s="17" t="s">
         <v>21</v>
@@ -11825,7 +11924,7 @@
       </c>
       <c r="I28" s="17"/>
     </row>
-    <row r="29" spans="1:9" ht="15">
+    <row r="29" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="17"/>
       <c r="B29" s="17" t="s">
         <v>21</v>
@@ -11848,7 +11947,7 @@
       </c>
       <c r="I29" s="17"/>
     </row>
-    <row r="30" spans="1:9" ht="15">
+    <row r="30" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="17"/>
       <c r="B30" s="17" t="s">
         <v>21</v>
@@ -11871,7 +11970,7 @@
       </c>
       <c r="I30" s="17"/>
     </row>
-    <row r="31" spans="1:9" ht="15">
+    <row r="31" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="17" t="b">
         <v>0</v>
       </c>
@@ -11890,7 +11989,7 @@
       <c r="H31" s="17"/>
       <c r="I31" s="17"/>
     </row>
-    <row r="32" spans="1:9" ht="15">
+    <row r="32" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="17"/>
       <c r="B32" s="17" t="s">
         <v>21</v>
@@ -11911,7 +12010,7 @@
       <c r="H32" s="17"/>
       <c r="I32" s="17"/>
     </row>
-    <row r="33" spans="1:9" ht="15">
+    <row r="33" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="17"/>
       <c r="B33" s="17" t="s">
         <v>21</v>
@@ -11934,7 +12033,7 @@
       </c>
       <c r="I33" s="17"/>
     </row>
-    <row r="34" spans="1:9" ht="15">
+    <row r="34" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="17"/>
       <c r="B34" s="17" t="s">
         <v>21</v>
@@ -11957,7 +12056,7 @@
       </c>
       <c r="I34" s="17"/>
     </row>
-    <row r="35" spans="1:9" ht="15">
+    <row r="35" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="17"/>
       <c r="B35" s="17" t="s">
         <v>21</v>
@@ -11980,7 +12079,7 @@
       </c>
       <c r="I35" s="17"/>
     </row>
-    <row r="36" spans="1:9" ht="15">
+    <row r="36" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="17"/>
       <c r="B36" s="17" t="s">
         <v>21</v>
@@ -12003,7 +12102,7 @@
       </c>
       <c r="I36" s="17"/>
     </row>
-    <row r="37" spans="1:9" ht="15">
+    <row r="37" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="17"/>
       <c r="B37" s="17" t="s">
         <v>21</v>
@@ -12026,7 +12125,7 @@
       </c>
       <c r="I37" s="17"/>
     </row>
-    <row r="38" spans="1:9" ht="15">
+    <row r="38" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="17"/>
       <c r="B38" s="17" t="s">
         <v>21</v>
@@ -12049,7 +12148,7 @@
       </c>
       <c r="I38" s="17"/>
     </row>
-    <row r="39" spans="1:9" ht="15">
+    <row r="39" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="17"/>
       <c r="B39" s="17" t="s">
         <v>21</v>
@@ -12072,7 +12171,7 @@
       </c>
       <c r="I39" s="17"/>
     </row>
-    <row r="40" spans="1:9" ht="15">
+    <row r="40" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="17"/>
       <c r="B40" s="17" t="s">
         <v>21</v>
@@ -12095,7 +12194,7 @@
       </c>
       <c r="I40" s="17"/>
     </row>
-    <row r="41" spans="1:9" ht="15">
+    <row r="41" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="17" t="b">
         <v>0</v>
       </c>
@@ -12114,7 +12213,7 @@
       <c r="H41" s="17"/>
       <c r="I41" s="17"/>
     </row>
-    <row r="42" spans="1:9" ht="15">
+    <row r="42" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="17"/>
       <c r="B42" s="17" t="s">
         <v>21</v>
@@ -12135,7 +12234,7 @@
       <c r="H42" s="17"/>
       <c r="I42" s="17"/>
     </row>
-    <row r="43" spans="1:9" ht="15">
+    <row r="43" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="17"/>
       <c r="B43" s="17" t="s">
         <v>21</v>
@@ -12158,7 +12257,7 @@
       </c>
       <c r="I43" s="17"/>
     </row>
-    <row r="44" spans="1:9" ht="15">
+    <row r="44" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="17"/>
       <c r="B44" s="17" t="s">
         <v>21</v>
@@ -12181,7 +12280,7 @@
       </c>
       <c r="I44" s="17"/>
     </row>
-    <row r="45" spans="1:9" ht="15">
+    <row r="45" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" s="17"/>
       <c r="B45" s="17" t="s">
         <v>21</v>
@@ -12204,7 +12303,7 @@
       </c>
       <c r="I45" s="17"/>
     </row>
-    <row r="46" spans="1:9" ht="15">
+    <row r="46" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="17"/>
       <c r="B46" s="17" t="s">
         <v>21</v>
@@ -12227,7 +12326,7 @@
       </c>
       <c r="I46" s="17"/>
     </row>
-    <row r="47" spans="1:9" ht="15">
+    <row r="47" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" s="17"/>
       <c r="B47" s="17" t="s">
         <v>21</v>
@@ -12250,7 +12349,7 @@
       </c>
       <c r="I47" s="17"/>
     </row>
-    <row r="48" spans="1:9" ht="15">
+    <row r="48" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="17"/>
       <c r="B48" s="17" t="s">
         <v>21</v>
@@ -12273,7 +12372,7 @@
       </c>
       <c r="I48" s="17"/>
     </row>
-    <row r="49" spans="1:9" ht="15">
+    <row r="49" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" s="17"/>
       <c r="B49" s="17" t="s">
         <v>21</v>
@@ -12296,7 +12395,7 @@
       </c>
       <c r="I49" s="17"/>
     </row>
-    <row r="50" spans="1:9" ht="15">
+    <row r="50" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50" s="17"/>
       <c r="B50" s="17" t="s">
         <v>21</v>
@@ -12319,7 +12418,7 @@
       </c>
       <c r="I50" s="17"/>
     </row>
-    <row r="51" spans="1:9" ht="15">
+    <row r="51" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A51" s="17" t="b">
         <v>0</v>
       </c>
@@ -12338,7 +12437,7 @@
       <c r="H51" s="17"/>
       <c r="I51" s="17"/>
     </row>
-    <row r="52" spans="1:9" ht="15">
+    <row r="52" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52" s="17"/>
       <c r="B52" s="17" t="s">
         <v>21</v>
@@ -12359,7 +12458,7 @@
       <c r="H52" s="17"/>
       <c r="I52" s="17"/>
     </row>
-    <row r="53" spans="1:9" ht="15">
+    <row r="53" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A53" s="17"/>
       <c r="B53" s="17" t="s">
         <v>21</v>
@@ -12382,7 +12481,7 @@
       </c>
       <c r="I53" s="17"/>
     </row>
-    <row r="54" spans="1:9" ht="15">
+    <row r="54" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A54" s="17"/>
       <c r="B54" s="17" t="s">
         <v>21</v>
@@ -12405,7 +12504,7 @@
       </c>
       <c r="I54" s="17"/>
     </row>
-    <row r="55" spans="1:9" ht="15">
+    <row r="55" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A55" s="17"/>
       <c r="B55" s="17" t="s">
         <v>21</v>
@@ -12428,7 +12527,7 @@
       </c>
       <c r="I55" s="17"/>
     </row>
-    <row r="56" spans="1:9" ht="15">
+    <row r="56" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A56" s="17"/>
       <c r="B56" s="17" t="s">
         <v>21</v>
@@ -12451,7 +12550,7 @@
       </c>
       <c r="I56" s="17"/>
     </row>
-    <row r="57" spans="1:9" ht="15">
+    <row r="57" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A57" s="17"/>
       <c r="B57" s="17" t="s">
         <v>21</v>
@@ -12474,7 +12573,7 @@
       </c>
       <c r="I57" s="17"/>
     </row>
-    <row r="58" spans="1:9" ht="15">
+    <row r="58" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A58" s="17"/>
       <c r="B58" s="17" t="s">
         <v>21</v>
@@ -12497,7 +12596,7 @@
       </c>
       <c r="I58" s="17"/>
     </row>
-    <row r="59" spans="1:9" ht="15">
+    <row r="59" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A59" s="17"/>
       <c r="B59" s="17" t="s">
         <v>21</v>
@@ -12520,7 +12619,7 @@
       </c>
       <c r="I59" s="17"/>
     </row>
-    <row r="60" spans="1:9" ht="15">
+    <row r="60" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A60" s="17"/>
       <c r="B60" s="17" t="s">
         <v>21</v>
@@ -12543,7 +12642,7 @@
       </c>
       <c r="I60" s="17"/>
     </row>
-    <row r="61" spans="1:9" ht="15">
+    <row r="61" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A61" s="17" t="b">
         <v>0</v>
       </c>
@@ -12562,7 +12661,7 @@
       <c r="H61" s="17"/>
       <c r="I61" s="17"/>
     </row>
-    <row r="62" spans="1:9" ht="15">
+    <row r="62" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A62" s="17"/>
       <c r="B62" s="17" t="s">
         <v>21</v>
@@ -12583,7 +12682,7 @@
       <c r="H62" s="17"/>
       <c r="I62" s="17"/>
     </row>
-    <row r="63" spans="1:9" ht="15">
+    <row r="63" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A63" s="17"/>
       <c r="B63" s="17" t="s">
         <v>21</v>
@@ -12608,7 +12707,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="15">
+    <row r="64" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A64" s="17"/>
       <c r="B64" s="17" t="s">
         <v>21</v>
@@ -12631,7 +12730,7 @@
       </c>
       <c r="I64" s="17"/>
     </row>
-    <row r="65" spans="1:9" ht="15">
+    <row r="65" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A65" s="17"/>
       <c r="B65" s="17" t="s">
         <v>21</v>
@@ -12654,7 +12753,7 @@
       </c>
       <c r="I65" s="17"/>
     </row>
-    <row r="66" spans="1:9" ht="15">
+    <row r="66" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A66" s="17"/>
       <c r="B66" s="17" t="s">
         <v>21</v>
@@ -12677,7 +12776,7 @@
       </c>
       <c r="I66" s="17"/>
     </row>
-    <row r="67" spans="1:9" ht="15">
+    <row r="67" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A67" s="17"/>
       <c r="B67" s="17" t="s">
         <v>21</v>
@@ -12700,7 +12799,7 @@
       </c>
       <c r="I67" s="17"/>
     </row>
-    <row r="68" spans="1:9" ht="15">
+    <row r="68" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A68" s="17"/>
       <c r="B68" s="17" t="s">
         <v>21</v>
@@ -12723,7 +12822,7 @@
       </c>
       <c r="I68" s="17"/>
     </row>
-    <row r="69" spans="1:9" ht="15">
+    <row r="69" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A69" s="17"/>
       <c r="B69" s="17" t="s">
         <v>21</v>
@@ -12746,7 +12845,7 @@
       </c>
       <c r="I69" s="17"/>
     </row>
-    <row r="70" spans="1:9" ht="15">
+    <row r="70" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A70" s="17"/>
       <c r="B70" s="17" t="s">
         <v>21</v>
@@ -12769,7 +12868,7 @@
       </c>
       <c r="I70" s="17"/>
     </row>
-    <row r="71" spans="1:9" ht="15">
+    <row r="71" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A71" s="17"/>
       <c r="B71" s="17" t="s">
         <v>21</v>
@@ -12792,7 +12891,7 @@
       </c>
       <c r="I71" s="17"/>
     </row>
-    <row r="72" spans="1:9" ht="15">
+    <row r="72" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A72" s="17" t="b">
         <v>0</v>
       </c>
@@ -12811,7 +12910,7 @@
       <c r="H72" s="17"/>
       <c r="I72" s="17"/>
     </row>
-    <row r="73" spans="1:9" ht="15">
+    <row r="73" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A73" s="17"/>
       <c r="B73" s="17" t="s">
         <v>21</v>
@@ -12832,7 +12931,7 @@
       <c r="H73" s="17"/>
       <c r="I73" s="17"/>
     </row>
-    <row r="74" spans="1:9" ht="15">
+    <row r="74" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A74" s="17"/>
       <c r="B74" s="17" t="s">
         <v>21</v>
@@ -12855,7 +12954,7 @@
       </c>
       <c r="I74" s="17"/>
     </row>
-    <row r="75" spans="1:9" ht="15">
+    <row r="75" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A75" s="17"/>
       <c r="B75" s="17" t="s">
         <v>21</v>
@@ -12880,7 +12979,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="15">
+    <row r="76" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A76" s="17"/>
       <c r="B76" s="17" t="s">
         <v>21</v>
@@ -12903,7 +13002,7 @@
       </c>
       <c r="I76" s="17"/>
     </row>
-    <row r="77" spans="1:9" ht="15">
+    <row r="77" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A77" s="17"/>
       <c r="B77" s="17" t="s">
         <v>21</v>
@@ -12926,7 +13025,7 @@
       </c>
       <c r="I77" s="17"/>
     </row>
-    <row r="78" spans="1:9" ht="15">
+    <row r="78" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A78" s="17"/>
       <c r="B78" s="17" t="s">
         <v>21</v>
@@ -12949,7 +13048,7 @@
       </c>
       <c r="I78" s="17"/>
     </row>
-    <row r="79" spans="1:9" ht="15">
+    <row r="79" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A79" s="17"/>
       <c r="B79" s="17" t="s">
         <v>21</v>
@@ -12972,7 +13071,7 @@
       </c>
       <c r="I79" s="17"/>
     </row>
-    <row r="80" spans="1:9" ht="15">
+    <row r="80" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A80" s="17"/>
       <c r="B80" s="17" t="s">
         <v>21</v>
@@ -12995,7 +13094,7 @@
       </c>
       <c r="I80" s="17"/>
     </row>
-    <row r="81" spans="1:9" ht="15">
+    <row r="81" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A81" s="17"/>
       <c r="B81" s="17" t="s">
         <v>21</v>
@@ -13018,7 +13117,7 @@
       </c>
       <c r="I81" s="17"/>
     </row>
-    <row r="82" spans="1:9" ht="15">
+    <row r="82" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A82" s="17"/>
       <c r="B82" s="17" t="s">
         <v>21</v>
@@ -13041,7 +13140,7 @@
       </c>
       <c r="I82" s="17"/>
     </row>
-    <row r="83" spans="1:9" ht="15">
+    <row r="83" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A83" s="17"/>
       <c r="B83" s="17" t="s">
         <v>21</v>
@@ -13064,7 +13163,7 @@
       </c>
       <c r="I83" s="17"/>
     </row>
-    <row r="84" spans="1:9" ht="15">
+    <row r="84" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A84" s="17"/>
       <c r="B84" s="17" t="s">
         <v>21</v>
@@ -13087,7 +13186,7 @@
       </c>
       <c r="I84" s="17"/>
     </row>
-    <row r="85" spans="1:9" ht="15">
+    <row r="85" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A85" s="17"/>
       <c r="B85" s="17" t="s">
         <v>21</v>
@@ -13110,7 +13209,7 @@
       </c>
       <c r="I85" s="17"/>
     </row>
-    <row r="86" spans="1:9" ht="15">
+    <row r="86" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A86" s="17" t="b">
         <v>0</v>
       </c>
@@ -13129,7 +13228,7 @@
       <c r="H86" s="17"/>
       <c r="I86" s="17"/>
     </row>
-    <row r="87" spans="1:9" ht="15">
+    <row r="87" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A87" s="17"/>
       <c r="B87" s="17" t="s">
         <v>21</v>
@@ -13152,7 +13251,7 @@
       </c>
       <c r="I87" s="17"/>
     </row>
-    <row r="88" spans="1:9" ht="15">
+    <row r="88" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A88" s="17"/>
       <c r="B88" s="17" t="s">
         <v>21</v>
@@ -13175,7 +13274,7 @@
       </c>
       <c r="I88" s="17"/>
     </row>
-    <row r="89" spans="1:9" ht="15">
+    <row r="89" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A89" s="17"/>
       <c r="B89" s="17" t="s">
         <v>21</v>
@@ -13198,7 +13297,7 @@
       </c>
       <c r="I89" s="17"/>
     </row>
-    <row r="90" spans="1:9" ht="15">
+    <row r="90" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A90" s="17"/>
       <c r="B90" s="17" t="s">
         <v>21</v>
@@ -13221,7 +13320,7 @@
       </c>
       <c r="I90" s="17"/>
     </row>
-    <row r="91" spans="1:9" ht="15">
+    <row r="91" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A91" s="17"/>
       <c r="B91" s="17" t="s">
         <v>21</v>
@@ -13244,7 +13343,7 @@
       </c>
       <c r="I91" s="17"/>
     </row>
-    <row r="92" spans="1:9" ht="15">
+    <row r="92" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A92" s="17"/>
       <c r="B92" s="17" t="s">
         <v>21</v>
@@ -13267,7 +13366,7 @@
       </c>
       <c r="I92" s="17"/>
     </row>
-    <row r="93" spans="1:9" ht="15">
+    <row r="93" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A93" s="17"/>
       <c r="B93" s="17" t="s">
         <v>21</v>
@@ -13290,7 +13389,7 @@
       </c>
       <c r="I93" s="17"/>
     </row>
-    <row r="94" spans="1:9" ht="15">
+    <row r="94" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A94" s="17"/>
       <c r="B94" s="17" t="s">
         <v>21</v>
@@ -13313,7 +13412,7 @@
       </c>
       <c r="I94" s="17"/>
     </row>
-    <row r="95" spans="1:9" ht="15">
+    <row r="95" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A95" s="17"/>
       <c r="B95" s="17" t="s">
         <v>21</v>
@@ -13336,7 +13435,7 @@
       </c>
       <c r="I95" s="17"/>
     </row>
-    <row r="96" spans="1:9" ht="15">
+    <row r="96" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A96" s="17"/>
       <c r="B96" s="17" t="s">
         <v>21</v>
@@ -13359,7 +13458,7 @@
       </c>
       <c r="I96" s="17"/>
     </row>
-    <row r="97" spans="1:9" ht="15">
+    <row r="97" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A97" s="17" t="b">
         <v>0</v>
       </c>
@@ -13378,7 +13477,7 @@
       <c r="H97" s="17"/>
       <c r="I97" s="17"/>
     </row>
-    <row r="98" spans="1:9" ht="15">
+    <row r="98" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A98" s="17"/>
       <c r="B98" s="17" t="s">
         <v>21</v>
@@ -13403,7 +13502,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="15">
+    <row r="99" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A99" s="17" t="b">
         <v>0</v>
       </c>
@@ -13422,7 +13521,7 @@
       <c r="H99" s="17"/>
       <c r="I99" s="17"/>
     </row>
-    <row r="100" spans="1:9" ht="15">
+    <row r="100" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A100" s="17"/>
       <c r="B100" s="17" t="s">
         <v>21</v>
@@ -13443,7 +13542,7 @@
       <c r="H100" s="17"/>
       <c r="I100" s="17"/>
     </row>
-    <row r="101" spans="1:9" ht="15">
+    <row r="101" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A101" s="17"/>
       <c r="B101" s="17" t="s">
         <v>21</v>
@@ -13468,7 +13567,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="15">
+    <row r="102" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A102" s="17" t="b">
         <v>0</v>
       </c>
@@ -13487,7 +13586,7 @@
       <c r="H102" s="17"/>
       <c r="I102" s="17"/>
     </row>
-    <row r="103" spans="1:9" ht="15">
+    <row r="103" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A103" s="17"/>
       <c r="B103" s="17" t="s">
         <v>21</v>
@@ -13510,7 +13609,7 @@
       </c>
       <c r="I103" s="17"/>
     </row>
-    <row r="104" spans="1:9" ht="15">
+    <row r="104" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A104" s="17"/>
       <c r="B104" s="17" t="s">
         <v>21</v>
@@ -13535,7 +13634,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="15">
+    <row r="105" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A105" s="17"/>
       <c r="B105" s="17" t="s">
         <v>21</v>
@@ -13558,7 +13657,7 @@
       </c>
       <c r="I105" s="17"/>
     </row>
-    <row r="106" spans="1:9" ht="15">
+    <row r="106" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A106" s="17"/>
       <c r="B106" s="17" t="s">
         <v>21</v>
@@ -13579,7 +13678,7 @@
       <c r="H106" s="17"/>
       <c r="I106" s="17"/>
     </row>
-    <row r="107" spans="1:9" ht="15">
+    <row r="107" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A107" s="17" t="b">
         <v>0</v>
       </c>
@@ -13598,7 +13697,7 @@
       <c r="H107" s="17"/>
       <c r="I107" s="17"/>
     </row>
-    <row r="108" spans="1:9" ht="15">
+    <row r="108" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A108" s="17"/>
       <c r="B108" s="17" t="s">
         <v>21</v>
@@ -13623,7 +13722,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="15">
+    <row r="109" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A109" s="17"/>
       <c r="B109" s="17" t="s">
         <v>21</v>
@@ -13646,7 +13745,7 @@
       </c>
       <c r="I109" s="17"/>
     </row>
-    <row r="110" spans="1:9" ht="15">
+    <row r="110" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A110" s="17"/>
       <c r="B110" s="17" t="s">
         <v>21</v>
@@ -13669,7 +13768,7 @@
       </c>
       <c r="I110" s="17"/>
     </row>
-    <row r="111" spans="1:9" ht="15">
+    <row r="111" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A111" s="17"/>
       <c r="B111" s="17" t="s">
         <v>21</v>
@@ -13692,7 +13791,7 @@
       </c>
       <c r="I111" s="17"/>
     </row>
-    <row r="112" spans="1:9" ht="15">
+    <row r="112" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A112" s="17"/>
       <c r="B112" s="17" t="s">
         <v>21</v>
@@ -13715,7 +13814,7 @@
       </c>
       <c r="I112" s="17"/>
     </row>
-    <row r="113" spans="1:9" ht="15">
+    <row r="113" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A113" s="17"/>
       <c r="B113" s="17" t="s">
         <v>21</v>
@@ -13738,7 +13837,7 @@
       </c>
       <c r="I113" s="17"/>
     </row>
-    <row r="114" spans="1:9" ht="15">
+    <row r="114" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A114" s="17"/>
       <c r="B114" s="17" t="s">
         <v>21</v>
@@ -13761,7 +13860,7 @@
       </c>
       <c r="I114" s="17"/>
     </row>
-    <row r="115" spans="1:9" ht="15">
+    <row r="115" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A115" s="17" t="b">
         <v>0</v>
       </c>
@@ -13780,7 +13879,7 @@
       <c r="H115" s="17"/>
       <c r="I115" s="17"/>
     </row>
-    <row r="116" spans="1:9" ht="15">
+    <row r="116" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A116" s="17"/>
       <c r="B116" s="17" t="s">
         <v>21</v>
@@ -13803,7 +13902,7 @@
       </c>
       <c r="I116" s="17"/>
     </row>
-    <row r="117" spans="1:9" ht="15">
+    <row r="117" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A117" s="17"/>
       <c r="B117" s="17" t="s">
         <v>21</v>
@@ -13826,7 +13925,7 @@
       </c>
       <c r="I117" s="17"/>
     </row>
-    <row r="118" spans="1:9" ht="15">
+    <row r="118" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A118" s="17"/>
       <c r="B118" s="17" t="s">
         <v>21</v>
@@ -13849,7 +13948,7 @@
       </c>
       <c r="I118" s="17"/>
     </row>
-    <row r="119" spans="1:9" ht="15">
+    <row r="119" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A119" s="17" t="b">
         <v>0</v>
       </c>
@@ -13868,7 +13967,7 @@
       <c r="H119" s="17"/>
       <c r="I119" s="17"/>
     </row>
-    <row r="120" spans="1:9" ht="15">
+    <row r="120" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A120" s="17"/>
       <c r="B120" s="17" t="s">
         <v>21</v>
@@ -13891,7 +13990,7 @@
       </c>
       <c r="I120" s="17"/>
     </row>
-    <row r="121" spans="1:9" ht="15">
+    <row r="121" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A121" s="17"/>
       <c r="B121" s="17" t="s">
         <v>21</v>
@@ -13914,7 +14013,7 @@
       </c>
       <c r="I121" s="17"/>
     </row>
-    <row r="122" spans="1:9" ht="15">
+    <row r="122" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A122" s="17"/>
       <c r="B122" s="17" t="s">
         <v>21</v>
@@ -13937,7 +14036,7 @@
       </c>
       <c r="I122" s="17"/>
     </row>
-    <row r="123" spans="1:9" ht="15">
+    <row r="123" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A123" s="17"/>
       <c r="B123" s="17" t="s">
         <v>21</v>
@@ -13960,7 +14059,7 @@
       </c>
       <c r="I123" s="17"/>
     </row>
-    <row r="124" spans="1:9" ht="15">
+    <row r="124" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A124" s="17"/>
       <c r="B124" s="17" t="s">
         <v>21</v>
@@ -13983,7 +14082,7 @@
       </c>
       <c r="I124" s="17"/>
     </row>
-    <row r="125" spans="1:9" ht="15">
+    <row r="125" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A125" s="17"/>
       <c r="B125" s="17" t="s">
         <v>21</v>
@@ -14006,7 +14105,7 @@
       </c>
       <c r="I125" s="17"/>
     </row>
-    <row r="126" spans="1:9" ht="15">
+    <row r="126" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A126" s="17" t="b">
         <v>0</v>
       </c>
@@ -14025,7 +14124,7 @@
       <c r="H126" s="17"/>
       <c r="I126" s="17"/>
     </row>
-    <row r="127" spans="1:9" ht="15">
+    <row r="127" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A127" s="17"/>
       <c r="B127" s="17" t="s">
         <v>21</v>
@@ -14050,7 +14149,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="128" spans="1:9" ht="15">
+    <row r="128" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A128" s="17"/>
       <c r="B128" s="17" t="s">
         <v>21</v>
@@ -14073,7 +14172,7 @@
       </c>
       <c r="I128" s="17"/>
     </row>
-    <row r="129" spans="1:9" ht="15">
+    <row r="129" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A129" s="17"/>
       <c r="B129" s="17" t="s">
         <v>21</v>
@@ -14096,7 +14195,7 @@
       </c>
       <c r="I129" s="17"/>
     </row>
-    <row r="130" spans="1:9" ht="15">
+    <row r="130" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A130" s="17"/>
       <c r="B130" s="17" t="s">
         <v>21</v>
@@ -14119,7 +14218,7 @@
       </c>
       <c r="I130" s="17"/>
     </row>
-    <row r="131" spans="1:9" ht="15">
+    <row r="131" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A131" s="17"/>
       <c r="B131" s="17" t="s">
         <v>21</v>
@@ -14142,7 +14241,7 @@
       </c>
       <c r="I131" s="17"/>
     </row>
-    <row r="132" spans="1:9" ht="15">
+    <row r="132" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A132" s="17"/>
       <c r="B132" s="17" t="s">
         <v>21</v>
@@ -14165,7 +14264,7 @@
       </c>
       <c r="I132" s="17"/>
     </row>
-    <row r="133" spans="1:9" ht="15">
+    <row r="133" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A133" s="17"/>
       <c r="B133" s="17" t="s">
         <v>21</v>
@@ -14188,7 +14287,7 @@
       </c>
       <c r="I133" s="17"/>
     </row>
-    <row r="134" spans="1:9" ht="15">
+    <row r="134" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A134" s="17"/>
       <c r="B134" s="17" t="s">
         <v>21</v>
@@ -14211,7 +14310,7 @@
       </c>
       <c r="I134" s="17"/>
     </row>
-    <row r="135" spans="1:9" ht="15">
+    <row r="135" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A135" s="17"/>
       <c r="B135" s="17" t="s">
         <v>21</v>
@@ -14234,7 +14333,7 @@
       </c>
       <c r="I135" s="17"/>
     </row>
-    <row r="136" spans="1:9" ht="15">
+    <row r="136" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A136" s="17" t="b">
         <v>0</v>
       </c>
@@ -14253,7 +14352,7 @@
       <c r="H136" s="17"/>
       <c r="I136" s="17"/>
     </row>
-    <row r="137" spans="1:9" ht="15">
+    <row r="137" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A137" s="17"/>
       <c r="B137" s="17" t="s">
         <v>21</v>
@@ -14278,7 +14377,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="138" spans="1:9" ht="15">
+    <row r="138" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A138" s="17"/>
       <c r="B138" s="17" t="s">
         <v>21</v>
@@ -14299,7 +14398,7 @@
       <c r="H138" s="17"/>
       <c r="I138" s="17"/>
     </row>
-    <row r="139" spans="1:9" ht="15">
+    <row r="139" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A139" s="17"/>
       <c r="B139" s="17" t="s">
         <v>21</v>
@@ -14322,7 +14421,7 @@
       </c>
       <c r="I139" s="17"/>
     </row>
-    <row r="140" spans="1:9" ht="15">
+    <row r="140" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A140" s="17"/>
       <c r="B140" s="17" t="s">
         <v>21</v>
@@ -14345,7 +14444,7 @@
       </c>
       <c r="I140" s="17"/>
     </row>
-    <row r="141" spans="1:9" ht="15">
+    <row r="141" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A141" s="17"/>
       <c r="B141" s="17" t="s">
         <v>21</v>
@@ -14368,7 +14467,7 @@
       </c>
       <c r="I141" s="17"/>
     </row>
-    <row r="142" spans="1:9" ht="15">
+    <row r="142" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A142" s="17"/>
       <c r="B142" s="17" t="s">
         <v>21</v>
@@ -14391,7 +14490,7 @@
       </c>
       <c r="I142" s="17"/>
     </row>
-    <row r="143" spans="1:9" ht="15">
+    <row r="143" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A143" s="17"/>
       <c r="B143" s="17" t="s">
         <v>21</v>
@@ -14414,7 +14513,7 @@
       </c>
       <c r="I143" s="17"/>
     </row>
-    <row r="144" spans="1:9" ht="15">
+    <row r="144" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A144" s="17"/>
       <c r="B144" s="17" t="s">
         <v>21</v>
@@ -14437,7 +14536,7 @@
       </c>
       <c r="I144" s="17"/>
     </row>
-    <row r="145" spans="1:9" ht="15">
+    <row r="145" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A145" s="17"/>
       <c r="B145" s="17" t="s">
         <v>21</v>
@@ -14460,7 +14559,7 @@
       </c>
       <c r="I145" s="17"/>
     </row>
-    <row r="146" spans="1:9" ht="15">
+    <row r="146" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A146" s="17"/>
       <c r="B146" s="17" t="s">
         <v>21</v>
@@ -14483,7 +14582,7 @@
       </c>
       <c r="I146" s="17"/>
     </row>
-    <row r="147" spans="1:9" ht="15">
+    <row r="147" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A147" s="17"/>
       <c r="B147" s="17" t="s">
         <v>21</v>
@@ -14506,7 +14605,7 @@
       </c>
       <c r="I147" s="17"/>
     </row>
-    <row r="148" spans="1:9" ht="15">
+    <row r="148" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A148" s="17"/>
       <c r="B148" s="17" t="s">
         <v>21</v>
@@ -14529,7 +14628,7 @@
       </c>
       <c r="I148" s="17"/>
     </row>
-    <row r="149" spans="1:9" ht="15">
+    <row r="149" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A149" s="17"/>
       <c r="B149" s="17" t="s">
         <v>21</v>
@@ -14552,7 +14651,7 @@
       </c>
       <c r="I149" s="17"/>
     </row>
-    <row r="150" spans="1:9" ht="15">
+    <row r="150" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A150" s="17"/>
       <c r="B150" s="17" t="s">
         <v>21</v>
@@ -14575,7 +14674,7 @@
       </c>
       <c r="I150" s="17"/>
     </row>
-    <row r="151" spans="1:9" ht="15">
+    <row r="151" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A151" s="17" t="b">
         <v>0</v>
       </c>
@@ -14594,7 +14693,7 @@
       <c r="H151" s="17"/>
       <c r="I151" s="17"/>
     </row>
-    <row r="152" spans="1:9" ht="15">
+    <row r="152" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A152" s="17"/>
       <c r="B152" s="17" t="s">
         <v>21</v>
@@ -14617,7 +14716,7 @@
       </c>
       <c r="I152" s="17"/>
     </row>
-    <row r="153" spans="1:9" ht="15">
+    <row r="153" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A153" s="17" t="b">
         <v>0</v>
       </c>
@@ -14636,7 +14735,7 @@
       <c r="H153" s="17"/>
       <c r="I153" s="17"/>
     </row>
-    <row r="154" spans="1:9" ht="15">
+    <row r="154" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A154" s="17"/>
       <c r="B154" s="17" t="s">
         <v>21</v>
@@ -14659,7 +14758,7 @@
       </c>
       <c r="I154" s="17"/>
     </row>
-    <row r="155" spans="1:9" ht="15">
+    <row r="155" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A155" s="17"/>
       <c r="B155" s="17" t="s">
         <v>21</v>
@@ -14682,7 +14781,7 @@
       </c>
       <c r="I155" s="17"/>
     </row>
-    <row r="156" spans="1:9" ht="15">
+    <row r="156" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A156" s="17" t="b">
         <v>0</v>
       </c>
@@ -14701,7 +14800,7 @@
       <c r="H156" s="17"/>
       <c r="I156" s="17"/>
     </row>
-    <row r="157" spans="1:9" ht="15">
+    <row r="157" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A157" s="17"/>
       <c r="B157" s="17" t="s">
         <v>21</v>
@@ -14726,7 +14825,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="158" spans="1:9" ht="15">
+    <row r="158" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A158" s="17"/>
       <c r="B158" s="17" t="s">
         <v>21</v>
@@ -14749,7 +14848,7 @@
       </c>
       <c r="I158" s="17"/>
     </row>
-    <row r="159" spans="1:9" ht="15">
+    <row r="159" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A159" s="17"/>
       <c r="B159" s="17" t="s">
         <v>21</v>
@@ -14772,7 +14871,7 @@
       </c>
       <c r="I159" s="17"/>
     </row>
-    <row r="160" spans="1:9" ht="15">
+    <row r="160" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A160" s="17"/>
       <c r="B160" s="17" t="s">
         <v>21</v>
@@ -14795,7 +14894,7 @@
       </c>
       <c r="I160" s="17"/>
     </row>
-    <row r="161" spans="1:9" ht="15">
+    <row r="161" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A161" s="17"/>
       <c r="B161" s="17" t="s">
         <v>21</v>
@@ -14818,7 +14917,7 @@
       </c>
       <c r="I161" s="17"/>
     </row>
-    <row r="162" spans="1:9" ht="15">
+    <row r="162" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A162" s="17"/>
       <c r="B162" s="17" t="s">
         <v>21</v>
@@ -14841,7 +14940,7 @@
       </c>
       <c r="I162" s="17"/>
     </row>
-    <row r="163" spans="1:9" ht="15">
+    <row r="163" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A163" s="17"/>
       <c r="B163" s="17" t="s">
         <v>21</v>
@@ -14864,7 +14963,7 @@
       </c>
       <c r="I163" s="17"/>
     </row>
-    <row r="164" spans="1:9" ht="15">
+    <row r="164" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A164" s="17"/>
       <c r="B164" s="17" t="s">
         <v>21</v>
@@ -14887,7 +14986,7 @@
       </c>
       <c r="I164" s="17"/>
     </row>
-    <row r="165" spans="1:9" ht="15">
+    <row r="165" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A165" s="17"/>
       <c r="B165" s="17" t="s">
         <v>21</v>
@@ -14910,7 +15009,7 @@
       </c>
       <c r="I165" s="17"/>
     </row>
-    <row r="166" spans="1:9" ht="15">
+    <row r="166" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A166" s="17"/>
       <c r="B166" s="17" t="s">
         <v>21</v>
@@ -14933,7 +15032,7 @@
       </c>
       <c r="I166" s="17"/>
     </row>
-    <row r="167" spans="1:9" ht="15">
+    <row r="167" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A167" s="17" t="b">
         <v>0</v>
       </c>
@@ -14952,7 +15051,7 @@
       <c r="H167" s="17"/>
       <c r="I167" s="17"/>
     </row>
-    <row r="168" spans="1:9" ht="15">
+    <row r="168" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A168" s="17"/>
       <c r="B168" s="17" t="s">
         <v>21</v>
@@ -14977,7 +15076,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="169" spans="1:9" ht="15">
+    <row r="169" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A169" s="17"/>
       <c r="B169" s="17" t="s">
         <v>21</v>
@@ -15000,7 +15099,7 @@
       </c>
       <c r="I169" s="17"/>
     </row>
-    <row r="170" spans="1:9" ht="15">
+    <row r="170" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A170" s="17"/>
       <c r="B170" s="17" t="s">
         <v>21</v>
@@ -15023,7 +15122,7 @@
       </c>
       <c r="I170" s="17"/>
     </row>
-    <row r="171" spans="1:9" ht="15">
+    <row r="171" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A171" s="17"/>
       <c r="B171" s="17" t="s">
         <v>21</v>
@@ -15046,7 +15145,7 @@
       </c>
       <c r="I171" s="17"/>
     </row>
-    <row r="172" spans="1:9" ht="15">
+    <row r="172" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A172" s="17"/>
       <c r="B172" s="17" t="s">
         <v>21</v>
@@ -15069,7 +15168,7 @@
       </c>
       <c r="I172" s="17"/>
     </row>
-    <row r="173" spans="1:9" ht="15">
+    <row r="173" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A173" s="17"/>
       <c r="B173" s="17" t="s">
         <v>21</v>
@@ -15092,7 +15191,7 @@
       </c>
       <c r="I173" s="17"/>
     </row>
-    <row r="174" spans="1:9" ht="15">
+    <row r="174" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A174" s="17"/>
       <c r="B174" s="17" t="s">
         <v>21</v>
@@ -15115,7 +15214,7 @@
       </c>
       <c r="I174" s="17"/>
     </row>
-    <row r="175" spans="1:9" ht="15">
+    <row r="175" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A175" s="17"/>
       <c r="B175" s="17" t="s">
         <v>21</v>
@@ -15138,7 +15237,7 @@
       </c>
       <c r="I175" s="17"/>
     </row>
-    <row r="176" spans="1:9" ht="15">
+    <row r="176" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A176" s="17"/>
       <c r="B176" s="17" t="s">
         <v>21</v>
@@ -15161,7 +15260,7 @@
       </c>
       <c r="I176" s="17"/>
     </row>
-    <row r="177" spans="1:9" ht="15">
+    <row r="177" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A177" s="17"/>
       <c r="B177" s="17" t="s">
         <v>21</v>
@@ -15184,7 +15283,7 @@
       </c>
       <c r="I177" s="17"/>
     </row>
-    <row r="178" spans="1:9" ht="15">
+    <row r="178" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A178" s="17" t="b">
         <v>0</v>
       </c>
@@ -15203,7 +15302,7 @@
       <c r="H178" s="17"/>
       <c r="I178" s="17"/>
     </row>
-    <row r="179" spans="1:9" ht="15">
+    <row r="179" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A179" s="17"/>
       <c r="B179" s="17" t="s">
         <v>21</v>
@@ -15226,7 +15325,7 @@
       </c>
       <c r="I179" s="17"/>
     </row>
-    <row r="180" spans="1:9" ht="15">
+    <row r="180" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A180" s="17"/>
       <c r="B180" s="17" t="s">
         <v>21</v>
@@ -15249,7 +15348,7 @@
       </c>
       <c r="I180" s="17"/>
     </row>
-    <row r="181" spans="1:9" ht="15">
+    <row r="181" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A181" s="17"/>
       <c r="B181" s="17" t="s">
         <v>21</v>
@@ -15272,7 +15371,7 @@
       </c>
       <c r="I181" s="17"/>
     </row>
-    <row r="182" spans="1:9" ht="15">
+    <row r="182" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A182" s="17"/>
       <c r="B182" s="17" t="s">
         <v>21</v>
@@ -15295,7 +15394,7 @@
       </c>
       <c r="I182" s="17"/>
     </row>
-    <row r="183" spans="1:9" ht="15">
+    <row r="183" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A183" s="17" t="b">
         <v>0</v>
       </c>
@@ -15314,7 +15413,7 @@
       <c r="H183" s="17"/>
       <c r="I183" s="17"/>
     </row>
-    <row r="184" spans="1:9" ht="15">
+    <row r="184" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A184" s="17"/>
       <c r="B184" s="17" t="s">
         <v>21</v>
@@ -15337,7 +15436,7 @@
       </c>
       <c r="I184" s="17"/>
     </row>
-    <row r="185" spans="1:9" ht="15">
+    <row r="185" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A185" s="17"/>
       <c r="B185" s="17" t="s">
         <v>21</v>
@@ -15360,7 +15459,7 @@
       </c>
       <c r="I185" s="17"/>
     </row>
-    <row r="186" spans="1:9" ht="15">
+    <row r="186" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A186" s="17"/>
       <c r="B186" s="17" t="s">
         <v>21</v>
@@ -15383,7 +15482,7 @@
       </c>
       <c r="I186" s="17"/>
     </row>
-    <row r="187" spans="1:9" ht="15">
+    <row r="187" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A187" s="17"/>
       <c r="B187" s="17" t="s">
         <v>21</v>
@@ -15406,7 +15505,7 @@
       </c>
       <c r="I187" s="17"/>
     </row>
-    <row r="188" spans="1:9" ht="15">
+    <row r="188" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A188" s="17" t="b">
         <v>0</v>
       </c>
@@ -15425,7 +15524,7 @@
       <c r="H188" s="17"/>
       <c r="I188" s="17"/>
     </row>
-    <row r="189" spans="1:9" ht="15">
+    <row r="189" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A189" s="17"/>
       <c r="B189" s="17" t="s">
         <v>21</v>
@@ -15446,7 +15545,7 @@
       <c r="H189" s="17"/>
       <c r="I189" s="17"/>
     </row>
-    <row r="190" spans="1:9" ht="15">
+    <row r="190" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A190" s="17"/>
       <c r="B190" s="17" t="s">
         <v>21</v>
@@ -15469,7 +15568,7 @@
       </c>
       <c r="I190" s="17"/>
     </row>
-    <row r="191" spans="1:9" ht="15">
+    <row r="191" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A191" s="17" t="b">
         <v>0</v>
       </c>
@@ -15488,7 +15587,7 @@
       <c r="H191" s="17"/>
       <c r="I191" s="17"/>
     </row>
-    <row r="192" spans="1:9" ht="15">
+    <row r="192" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A192" s="17"/>
       <c r="B192" s="17" t="s">
         <v>21</v>
@@ -15511,7 +15610,7 @@
       </c>
       <c r="I192" s="17"/>
     </row>
-    <row r="193" spans="1:9" ht="15">
+    <row r="193" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A193" s="17"/>
       <c r="B193" s="17" t="s">
         <v>21</v>
@@ -15536,7 +15635,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="194" spans="1:9" ht="15">
+    <row r="194" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A194" s="17"/>
       <c r="B194" s="17" t="s">
         <v>21</v>
@@ -15557,7 +15656,7 @@
       <c r="H194" s="17"/>
       <c r="I194" s="17"/>
     </row>
-    <row r="195" spans="1:9" ht="15">
+    <row r="195" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A195" s="17"/>
       <c r="B195" s="17" t="s">
         <v>21</v>
@@ -15582,7 +15681,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="196" spans="1:9" ht="15">
+    <row r="196" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A196" s="17"/>
       <c r="B196" s="17" t="s">
         <v>21</v>
@@ -15607,7 +15706,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="197" spans="1:9" ht="15">
+    <row r="197" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A197" s="17" t="b">
         <v>0</v>
       </c>
@@ -15626,7 +15725,7 @@
       <c r="H197" s="17"/>
       <c r="I197" s="17"/>
     </row>
-    <row r="198" spans="1:9" ht="15">
+    <row r="198" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A198" s="17"/>
       <c r="B198" s="17" t="s">
         <v>21</v>
@@ -15651,7 +15750,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="199" spans="1:9" ht="15">
+    <row r="199" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A199" s="17"/>
       <c r="B199" s="17" t="s">
         <v>21</v>
@@ -15674,7 +15773,7 @@
       </c>
       <c r="I199" s="17"/>
     </row>
-    <row r="200" spans="1:9" ht="15">
+    <row r="200" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A200" s="17"/>
       <c r="B200" s="17" t="s">
         <v>21</v>
@@ -15697,7 +15796,7 @@
       </c>
       <c r="I200" s="17"/>
     </row>
-    <row r="201" spans="1:9" ht="15">
+    <row r="201" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A201" s="17"/>
       <c r="B201" s="17" t="s">
         <v>21</v>
@@ -15720,7 +15819,7 @@
       </c>
       <c r="I201" s="17"/>
     </row>
-    <row r="202" spans="1:9" ht="15">
+    <row r="202" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A202" s="17"/>
       <c r="B202" s="17" t="s">
         <v>21</v>
@@ -15743,7 +15842,7 @@
       </c>
       <c r="I202" s="17"/>
     </row>
-    <row r="203" spans="1:9" ht="15">
+    <row r="203" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A203" s="17"/>
       <c r="B203" s="17" t="s">
         <v>21</v>
@@ -15766,7 +15865,7 @@
       </c>
       <c r="I203" s="17"/>
     </row>
-    <row r="204" spans="1:9" ht="15">
+    <row r="204" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A204" s="17"/>
       <c r="B204" s="17" t="s">
         <v>21</v>
@@ -15789,7 +15888,7 @@
       </c>
       <c r="I204" s="17"/>
     </row>
-    <row r="205" spans="1:9" ht="15">
+    <row r="205" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A205" s="17"/>
       <c r="B205" s="17" t="s">
         <v>21</v>
@@ -15812,7 +15911,7 @@
       </c>
       <c r="I205" s="17"/>
     </row>
-    <row r="206" spans="1:9" ht="15">
+    <row r="206" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A206" s="17"/>
       <c r="B206" s="17" t="s">
         <v>21</v>
@@ -15835,7 +15934,7 @@
       </c>
       <c r="I206" s="17"/>
     </row>
-    <row r="207" spans="1:9" ht="15">
+    <row r="207" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A207" s="17" t="b">
         <v>0</v>
       </c>
@@ -15854,7 +15953,7 @@
       <c r="H207" s="17"/>
       <c r="I207" s="17"/>
     </row>
-    <row r="208" spans="1:9" ht="15">
+    <row r="208" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A208" s="17"/>
       <c r="B208" s="17" t="s">
         <v>21</v>
@@ -15879,7 +15978,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="209" spans="1:9" ht="15">
+    <row r="209" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A209" s="17"/>
       <c r="B209" s="17" t="s">
         <v>21</v>
@@ -15902,7 +16001,7 @@
       </c>
       <c r="I209" s="17"/>
     </row>
-    <row r="210" spans="1:9" ht="15">
+    <row r="210" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A210" s="17"/>
       <c r="B210" s="17" t="s">
         <v>21</v>
@@ -15925,7 +16024,7 @@
       </c>
       <c r="I210" s="17"/>
     </row>
-    <row r="211" spans="1:9" ht="15">
+    <row r="211" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A211" s="17"/>
       <c r="B211" s="17" t="s">
         <v>21</v>
@@ -15948,7 +16047,7 @@
       </c>
       <c r="I211" s="17"/>
     </row>
-    <row r="212" spans="1:9" ht="15">
+    <row r="212" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A212" s="17"/>
       <c r="B212" s="17" t="s">
         <v>21</v>
@@ -15971,7 +16070,7 @@
       </c>
       <c r="I212" s="17"/>
     </row>
-    <row r="213" spans="1:9" ht="15">
+    <row r="213" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A213" s="17"/>
       <c r="B213" s="17" t="s">
         <v>21</v>
@@ -15994,7 +16093,7 @@
       </c>
       <c r="I213" s="17"/>
     </row>
-    <row r="214" spans="1:9" ht="15">
+    <row r="214" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A214" s="17"/>
       <c r="B214" s="17" t="s">
         <v>21</v>
@@ -16017,7 +16116,7 @@
       </c>
       <c r="I214" s="17"/>
     </row>
-    <row r="215" spans="1:9" ht="15">
+    <row r="215" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A215" s="17"/>
       <c r="B215" s="17" t="s">
         <v>21</v>
@@ -16040,7 +16139,7 @@
       </c>
       <c r="I215" s="17"/>
     </row>
-    <row r="216" spans="1:9" ht="15">
+    <row r="216" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A216" s="17"/>
       <c r="B216" s="17" t="s">
         <v>21</v>
@@ -16063,7 +16162,7 @@
       </c>
       <c r="I216" s="17"/>
     </row>
-    <row r="217" spans="1:9" ht="15">
+    <row r="217" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A217" s="17" t="b">
         <v>0</v>
       </c>
@@ -16082,7 +16181,7 @@
       <c r="H217" s="17"/>
       <c r="I217" s="17"/>
     </row>
-    <row r="218" spans="1:9" ht="15">
+    <row r="218" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A218" s="17"/>
       <c r="B218" s="17" t="s">
         <v>21</v>
@@ -16103,7 +16202,7 @@
       <c r="H218" s="17"/>
       <c r="I218" s="17"/>
     </row>
-    <row r="219" spans="1:9" ht="15">
+    <row r="219" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A219" s="17"/>
       <c r="B219" s="17" t="s">
         <v>21</v>
@@ -16126,7 +16225,7 @@
       </c>
       <c r="I219" s="17"/>
     </row>
-    <row r="220" spans="1:9" ht="15">
+    <row r="220" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A220" s="17"/>
       <c r="B220" s="17" t="s">
         <v>21</v>
@@ -16149,7 +16248,7 @@
       </c>
       <c r="I220" s="17"/>
     </row>
-    <row r="221" spans="1:9" ht="15">
+    <row r="221" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A221" s="17"/>
       <c r="B221" s="17" t="s">
         <v>21</v>
@@ -16172,7 +16271,7 @@
       </c>
       <c r="I221" s="17"/>
     </row>
-    <row r="222" spans="1:9" ht="15">
+    <row r="222" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A222" s="17"/>
       <c r="B222" s="17" t="s">
         <v>21</v>
@@ -16195,7 +16294,7 @@
       </c>
       <c r="I222" s="17"/>
     </row>
-    <row r="223" spans="1:9" ht="15">
+    <row r="223" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A223" s="17"/>
       <c r="B223" s="17" t="s">
         <v>21</v>
@@ -16218,7 +16317,7 @@
       </c>
       <c r="I223" s="17"/>
     </row>
-    <row r="224" spans="1:9" ht="15">
+    <row r="224" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A224" s="17"/>
       <c r="B224" s="17" t="s">
         <v>21</v>
@@ -16241,7 +16340,7 @@
       </c>
       <c r="I224" s="17"/>
     </row>
-    <row r="225" spans="1:9" ht="15">
+    <row r="225" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A225" s="17"/>
       <c r="B225" s="17" t="s">
         <v>21</v>
@@ -16264,7 +16363,7 @@
       </c>
       <c r="I225" s="17"/>
     </row>
-    <row r="226" spans="1:9" ht="15">
+    <row r="226" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A226" s="17"/>
       <c r="B226" s="17" t="s">
         <v>21</v>
@@ -16287,7 +16386,7 @@
       </c>
       <c r="I226" s="17"/>
     </row>
-    <row r="227" spans="1:9" ht="15">
+    <row r="227" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A227" s="17"/>
       <c r="B227" s="17" t="s">
         <v>21</v>
@@ -16310,7 +16409,7 @@
       </c>
       <c r="I227" s="17"/>
     </row>
-    <row r="228" spans="1:9" ht="15">
+    <row r="228" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A228" s="17"/>
       <c r="B228" s="17" t="s">
         <v>21</v>
@@ -16333,7 +16432,7 @@
       </c>
       <c r="I228" s="17"/>
     </row>
-    <row r="229" spans="1:9" ht="15">
+    <row r="229" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A229" s="17"/>
       <c r="B229" s="17" t="s">
         <v>21</v>
@@ -16356,7 +16455,7 @@
       </c>
       <c r="I229" s="17"/>
     </row>
-    <row r="230" spans="1:9" ht="15">
+    <row r="230" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A230" s="17"/>
       <c r="B230" s="17" t="s">
         <v>21</v>
@@ -16379,7 +16478,7 @@
       </c>
       <c r="I230" s="17"/>
     </row>
-    <row r="231" spans="1:9" ht="15">
+    <row r="231" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A231" s="17"/>
       <c r="B231" s="17" t="s">
         <v>21</v>
@@ -16402,7 +16501,7 @@
       </c>
       <c r="I231" s="17"/>
     </row>
-    <row r="232" spans="1:9" ht="15">
+    <row r="232" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A232" s="17"/>
       <c r="B232" s="17" t="s">
         <v>21</v>
@@ -16425,7 +16524,7 @@
       </c>
       <c r="I232" s="17"/>
     </row>
-    <row r="233" spans="1:9" ht="15">
+    <row r="233" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A233" s="17"/>
       <c r="B233" s="17" t="s">
         <v>21</v>
@@ -16448,7 +16547,7 @@
       </c>
       <c r="I233" s="17"/>
     </row>
-    <row r="234" spans="1:9" ht="15">
+    <row r="234" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A234" s="17" t="b">
         <v>0</v>
       </c>
@@ -16467,7 +16566,7 @@
       <c r="H234" s="17"/>
       <c r="I234" s="17"/>
     </row>
-    <row r="235" spans="1:9" ht="15">
+    <row r="235" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A235" s="17"/>
       <c r="B235" s="17" t="s">
         <v>21</v>
@@ -16488,7 +16587,7 @@
       <c r="H235" s="17"/>
       <c r="I235" s="17"/>
     </row>
-    <row r="236" spans="1:9" ht="15">
+    <row r="236" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A236" s="17"/>
       <c r="B236" s="17" t="s">
         <v>21</v>
@@ -16511,7 +16610,7 @@
       </c>
       <c r="I236" s="17"/>
     </row>
-    <row r="237" spans="1:9" ht="15">
+    <row r="237" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A237" s="17"/>
       <c r="B237" s="17" t="s">
         <v>21</v>
@@ -16534,7 +16633,7 @@
       </c>
       <c r="I237" s="17"/>
     </row>
-    <row r="238" spans="1:9" ht="15">
+    <row r="238" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A238" s="17"/>
       <c r="B238" s="17" t="s">
         <v>21</v>
@@ -16557,7 +16656,7 @@
       </c>
       <c r="I238" s="17"/>
     </row>
-    <row r="239" spans="1:9" ht="15">
+    <row r="239" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A239" s="17"/>
       <c r="B239" s="17" t="s">
         <v>21</v>
@@ -16580,7 +16679,7 @@
       </c>
       <c r="I239" s="17"/>
     </row>
-    <row r="240" spans="1:9" ht="15">
+    <row r="240" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A240" s="17"/>
       <c r="B240" s="17" t="s">
         <v>21</v>
@@ -16603,7 +16702,7 @@
       </c>
       <c r="I240" s="17"/>
     </row>
-    <row r="241" spans="1:9" ht="15">
+    <row r="241" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A241" s="17"/>
       <c r="B241" s="17" t="s">
         <v>21</v>
@@ -16626,7 +16725,7 @@
       </c>
       <c r="I241" s="17"/>
     </row>
-    <row r="242" spans="1:9" ht="15">
+    <row r="242" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A242" s="17"/>
       <c r="B242" s="17" t="s">
         <v>21</v>
@@ -16649,7 +16748,7 @@
       </c>
       <c r="I242" s="17"/>
     </row>
-    <row r="243" spans="1:9" ht="15">
+    <row r="243" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A243" s="17"/>
       <c r="B243" s="17" t="s">
         <v>21</v>
@@ -16672,7 +16771,7 @@
       </c>
       <c r="I243" s="17"/>
     </row>
-    <row r="244" spans="1:9" ht="15">
+    <row r="244" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A244" s="17"/>
       <c r="B244" s="17" t="s">
         <v>21</v>
@@ -16695,7 +16794,7 @@
       </c>
       <c r="I244" s="17"/>
     </row>
-    <row r="245" spans="1:9" ht="15">
+    <row r="245" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A245" s="17"/>
       <c r="B245" s="17" t="s">
         <v>21</v>
@@ -16718,7 +16817,7 @@
       </c>
       <c r="I245" s="17"/>
     </row>
-    <row r="246" spans="1:9" ht="15">
+    <row r="246" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A246" s="17"/>
       <c r="B246" s="17" t="s">
         <v>21</v>
@@ -16741,7 +16840,7 @@
       </c>
       <c r="I246" s="17"/>
     </row>
-    <row r="247" spans="1:9" ht="15">
+    <row r="247" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A247" s="17"/>
       <c r="B247" s="17" t="s">
         <v>21</v>
@@ -16764,7 +16863,7 @@
       </c>
       <c r="I247" s="17"/>
     </row>
-    <row r="248" spans="1:9" ht="15">
+    <row r="248" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A248" s="17"/>
       <c r="B248" s="17" t="s">
         <v>21</v>
@@ -16787,7 +16886,7 @@
       </c>
       <c r="I248" s="17"/>
     </row>
-    <row r="249" spans="1:9" ht="15">
+    <row r="249" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A249" s="17"/>
       <c r="B249" s="17" t="s">
         <v>21</v>
@@ -16810,7 +16909,7 @@
       </c>
       <c r="I249" s="17"/>
     </row>
-    <row r="250" spans="1:9" ht="15">
+    <row r="250" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A250" s="17"/>
       <c r="B250" s="17" t="s">
         <v>21</v>
@@ -16833,7 +16932,7 @@
       </c>
       <c r="I250" s="17"/>
     </row>
-    <row r="251" spans="1:9" ht="15">
+    <row r="251" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A251" s="17" t="b">
         <v>0</v>
       </c>
@@ -16852,7 +16951,7 @@
       <c r="H251" s="17"/>
       <c r="I251" s="17"/>
     </row>
-    <row r="252" spans="1:9" ht="15">
+    <row r="252" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A252" s="17"/>
       <c r="B252" s="17" t="s">
         <v>21</v>
@@ -16877,7 +16976,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="253" spans="1:9" ht="15">
+    <row r="253" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A253" s="17"/>
       <c r="B253" s="17" t="s">
         <v>21</v>
@@ -16900,7 +16999,7 @@
       </c>
       <c r="I253" s="17"/>
     </row>
-    <row r="254" spans="1:9" ht="15">
+    <row r="254" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A254" s="17"/>
       <c r="B254" s="17" t="s">
         <v>21</v>
@@ -16923,7 +17022,7 @@
       </c>
       <c r="I254" s="17"/>
     </row>
-    <row r="255" spans="1:9" ht="15">
+    <row r="255" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A255" s="17"/>
       <c r="B255" s="17" t="s">
         <v>21</v>
@@ -16946,7 +17045,7 @@
       </c>
       <c r="I255" s="17"/>
     </row>
-    <row r="256" spans="1:9" ht="15">
+    <row r="256" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A256" s="17"/>
       <c r="B256" s="17" t="s">
         <v>21</v>
@@ -16969,7 +17068,7 @@
       </c>
       <c r="I256" s="17"/>
     </row>
-    <row r="257" spans="1:9" ht="15">
+    <row r="257" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A257" s="17" t="b">
         <v>0</v>
       </c>
@@ -16988,7 +17087,7 @@
       <c r="H257" s="17"/>
       <c r="I257" s="17"/>
     </row>
-    <row r="258" spans="1:9" ht="15">
+    <row r="258" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A258" s="17"/>
       <c r="B258" s="17" t="s">
         <v>21</v>
@@ -17013,7 +17112,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="259" spans="1:9" ht="15">
+    <row r="259" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A259" s="17"/>
       <c r="B259" s="17" t="s">
         <v>21</v>
@@ -17036,7 +17135,7 @@
       </c>
       <c r="I259" s="17"/>
     </row>
-    <row r="260" spans="1:9" ht="15">
+    <row r="260" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A260" s="17" t="b">
         <v>0</v>
       </c>
@@ -17055,7 +17154,7 @@
       <c r="H260" s="17"/>
       <c r="I260" s="17"/>
     </row>
-    <row r="261" spans="1:9" ht="15">
+    <row r="261" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A261" s="17" t="b">
         <v>0</v>
       </c>
@@ -17074,7 +17173,7 @@
       <c r="H261" s="17"/>
       <c r="I261" s="17"/>
     </row>
-    <row r="262" spans="1:9" ht="15">
+    <row r="262" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A262" s="17" t="b">
         <v>0</v>
       </c>
@@ -17093,7 +17192,7 @@
       <c r="H262" s="17"/>
       <c r="I262" s="17"/>
     </row>
-    <row r="263" spans="1:9" ht="15">
+    <row r="263" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A263" s="17"/>
       <c r="B263" s="17" t="s">
         <v>21</v>
@@ -17114,7 +17213,7 @@
       <c r="H263" s="17"/>
       <c r="I263" s="17"/>
     </row>
-    <row r="264" spans="1:9" ht="15">
+    <row r="264" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A264" s="17"/>
       <c r="B264" s="17" t="s">
         <v>21</v>
@@ -17137,7 +17236,7 @@
       </c>
       <c r="I264" s="17"/>
     </row>
-    <row r="265" spans="1:9" ht="15">
+    <row r="265" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A265" s="17"/>
       <c r="B265" s="17" t="s">
         <v>21</v>
@@ -17160,7 +17259,7 @@
       </c>
       <c r="I265" s="17"/>
     </row>
-    <row r="266" spans="1:9" ht="15">
+    <row r="266" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A266" s="17"/>
       <c r="B266" s="17" t="s">
         <v>21</v>
@@ -17183,7 +17282,7 @@
       </c>
       <c r="I266" s="17"/>
     </row>
-    <row r="267" spans="1:9" ht="15">
+    <row r="267" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A267" s="17"/>
       <c r="B267" s="17" t="s">
         <v>21</v>
@@ -17206,7 +17305,7 @@
       </c>
       <c r="I267" s="17"/>
     </row>
-    <row r="268" spans="1:9" ht="15">
+    <row r="268" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A268" s="17"/>
       <c r="B268" s="17" t="s">
         <v>21</v>
@@ -17229,7 +17328,7 @@
       </c>
       <c r="I268" s="17"/>
     </row>
-    <row r="269" spans="1:9" ht="15">
+    <row r="269" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A269" s="17"/>
       <c r="B269" s="17" t="s">
         <v>21</v>
@@ -17252,7 +17351,7 @@
       </c>
       <c r="I269" s="17"/>
     </row>
-    <row r="270" spans="1:9" ht="15">
+    <row r="270" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A270" s="17"/>
       <c r="B270" s="17" t="s">
         <v>21</v>
@@ -17275,7 +17374,7 @@
       </c>
       <c r="I270" s="17"/>
     </row>
-    <row r="271" spans="1:9" ht="15">
+    <row r="271" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A271" s="17"/>
       <c r="B271" s="17" t="s">
         <v>21</v>
@@ -17298,7 +17397,7 @@
       </c>
       <c r="I271" s="17"/>
     </row>
-    <row r="272" spans="1:9" ht="15">
+    <row r="272" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A272" s="17"/>
       <c r="B272" s="17" t="s">
         <v>21</v>
@@ -17321,7 +17420,7 @@
       </c>
       <c r="I272" s="17"/>
     </row>
-    <row r="273" spans="1:9" ht="15">
+    <row r="273" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A273" s="17"/>
       <c r="B273" s="17" t="s">
         <v>21</v>
@@ -17344,7 +17443,7 @@
       </c>
       <c r="I273" s="17"/>
     </row>
-    <row r="274" spans="1:9" ht="15">
+    <row r="274" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A274" s="17" t="b">
         <v>0</v>
       </c>
@@ -17363,7 +17462,7 @@
       <c r="H274" s="17"/>
       <c r="I274" s="17"/>
     </row>
-    <row r="275" spans="1:9" ht="15">
+    <row r="275" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A275" s="17"/>
       <c r="B275" s="17" t="s">
         <v>21</v>
@@ -17386,7 +17485,7 @@
       </c>
       <c r="I275" s="17"/>
     </row>
-    <row r="276" spans="1:9" ht="15">
+    <row r="276" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A276" s="17" t="b">
         <v>0</v>
       </c>
@@ -17405,7 +17504,7 @@
       <c r="H276" s="17"/>
       <c r="I276" s="17"/>
     </row>
-    <row r="277" spans="1:9" ht="15">
+    <row r="277" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A277" s="17"/>
       <c r="B277" s="17" t="s">
         <v>21</v>
@@ -17430,7 +17529,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="278" spans="1:9" ht="15">
+    <row r="278" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A278" s="17"/>
       <c r="B278" s="17" t="s">
         <v>21</v>
@@ -17453,7 +17552,7 @@
       </c>
       <c r="I278" s="17"/>
     </row>
-    <row r="279" spans="1:9" ht="15">
+    <row r="279" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A279" s="17"/>
       <c r="B279" s="17" t="s">
         <v>21</v>
@@ -17476,7 +17575,7 @@
       </c>
       <c r="I279" s="17"/>
     </row>
-    <row r="280" spans="1:9" ht="15">
+    <row r="280" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A280" s="17"/>
       <c r="B280" s="17" t="s">
         <v>21</v>
@@ -17499,7 +17598,7 @@
       </c>
       <c r="I280" s="17"/>
     </row>
-    <row r="281" spans="1:9" ht="15">
+    <row r="281" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A281" s="17"/>
       <c r="B281" s="17" t="s">
         <v>21</v>
@@ -17522,7 +17621,7 @@
       </c>
       <c r="I281" s="17"/>
     </row>
-    <row r="282" spans="1:9" ht="15">
+    <row r="282" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A282" s="17"/>
       <c r="B282" s="17" t="s">
         <v>21</v>
@@ -17545,7 +17644,7 @@
       </c>
       <c r="I282" s="17"/>
     </row>
-    <row r="283" spans="1:9" ht="15">
+    <row r="283" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A283" s="17"/>
       <c r="B283" s="17" t="s">
         <v>21</v>
@@ -17568,7 +17667,7 @@
       </c>
       <c r="I283" s="17"/>
     </row>
-    <row r="284" spans="1:9" ht="15">
+    <row r="284" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A284" s="17"/>
       <c r="B284" s="17" t="s">
         <v>21</v>
@@ -17591,7 +17690,7 @@
       </c>
       <c r="I284" s="17"/>
     </row>
-    <row r="285" spans="1:9" ht="15">
+    <row r="285" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A285" s="17"/>
       <c r="B285" s="17" t="s">
         <v>21</v>
@@ -17614,7 +17713,7 @@
       </c>
       <c r="I285" s="17"/>
     </row>
-    <row r="286" spans="1:9" ht="15">
+    <row r="286" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A286" s="17"/>
       <c r="B286" s="17" t="s">
         <v>21</v>
@@ -17637,7 +17736,7 @@
       </c>
       <c r="I286" s="17"/>
     </row>
-    <row r="287" spans="1:9" ht="15">
+    <row r="287" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A287" s="17"/>
       <c r="B287" s="17" t="s">
         <v>21</v>
@@ -17660,7 +17759,7 @@
       </c>
       <c r="I287" s="17"/>
     </row>
-    <row r="288" spans="1:9" ht="15">
+    <row r="288" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A288" s="17" t="b">
         <v>0</v>
       </c>
@@ -17679,7 +17778,7 @@
       <c r="H288" s="17"/>
       <c r="I288" s="17"/>
     </row>
-    <row r="289" spans="1:9" ht="15">
+    <row r="289" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A289" s="17"/>
       <c r="B289" s="17" t="s">
         <v>21</v>
@@ -17702,7 +17801,7 @@
       </c>
       <c r="I289" s="17"/>
     </row>
-    <row r="290" spans="1:9" ht="15">
+    <row r="290" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A290" s="17" t="b">
         <v>0</v>
       </c>
@@ -17721,7 +17820,7 @@
       <c r="H290" s="17"/>
       <c r="I290" s="17"/>
     </row>
-    <row r="291" spans="1:9" ht="15">
+    <row r="291" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A291" s="17"/>
       <c r="B291" s="17" t="s">
         <v>21</v>
@@ -17742,7 +17841,7 @@
       <c r="H291" s="17"/>
       <c r="I291" s="17"/>
     </row>
-    <row r="292" spans="1:9" ht="15">
+    <row r="292" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A292" s="17" t="b">
         <v>0</v>
       </c>
@@ -17761,7 +17860,7 @@
       <c r="H292" s="17"/>
       <c r="I292" s="17"/>
     </row>
-    <row r="293" spans="1:9" ht="15">
+    <row r="293" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A293" s="17"/>
       <c r="B293" s="17" t="s">
         <v>21</v>
@@ -17782,7 +17881,7 @@
       <c r="H293" s="17"/>
       <c r="I293" s="17"/>
     </row>
-    <row r="294" spans="1:9" ht="15">
+    <row r="294" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A294" s="17" t="b">
         <v>0</v>
       </c>
@@ -17801,7 +17900,7 @@
       <c r="H294" s="17"/>
       <c r="I294" s="17"/>
     </row>
-    <row r="295" spans="1:9" ht="15">
+    <row r="295" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A295" s="17"/>
       <c r="B295" s="17" t="s">
         <v>21</v>
@@ -17822,7 +17921,7 @@
       <c r="H295" s="17"/>
       <c r="I295" s="17"/>
     </row>
-    <row r="296" spans="1:9" ht="15">
+    <row r="296" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A296" s="17" t="b">
         <v>0</v>
       </c>
@@ -17841,7 +17940,7 @@
       <c r="H296" s="17"/>
       <c r="I296" s="17"/>
     </row>
-    <row r="297" spans="1:9" ht="15">
+    <row r="297" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A297" s="17"/>
       <c r="B297" s="17" t="s">
         <v>21</v>
@@ -17864,7 +17963,7 @@
       </c>
       <c r="I297" s="17"/>
     </row>
-    <row r="298" spans="1:9" ht="15">
+    <row r="298" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A298" s="17" t="b">
         <v>0</v>
       </c>
@@ -17883,7 +17982,7 @@
       <c r="H298" s="17"/>
       <c r="I298" s="17"/>
     </row>
-    <row r="299" spans="1:9" ht="15">
+    <row r="299" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A299" s="17"/>
       <c r="B299" s="17" t="s">
         <v>21</v>
@@ -17908,7 +18007,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="300" spans="1:9" ht="15">
+    <row r="300" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A300" s="17"/>
       <c r="B300" s="17" t="s">
         <v>21</v>
@@ -17931,7 +18030,7 @@
       </c>
       <c r="I300" s="17"/>
     </row>
-    <row r="301" spans="1:9" ht="15">
+    <row r="301" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A301" s="17"/>
       <c r="B301" s="17" t="s">
         <v>21</v>
@@ -17954,7 +18053,7 @@
       </c>
       <c r="I301" s="17"/>
     </row>
-    <row r="302" spans="1:9" ht="15">
+    <row r="302" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A302" s="17"/>
       <c r="B302" s="17" t="s">
         <v>21</v>
@@ -17977,7 +18076,7 @@
       </c>
       <c r="I302" s="17"/>
     </row>
-    <row r="303" spans="1:9" ht="15">
+    <row r="303" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A303" s="17"/>
       <c r="B303" s="17" t="s">
         <v>21</v>
@@ -18000,7 +18099,7 @@
       </c>
       <c r="I303" s="17"/>
     </row>
-    <row r="304" spans="1:9" ht="15">
+    <row r="304" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A304" s="17"/>
       <c r="B304" s="17" t="s">
         <v>21</v>
@@ -18023,7 +18122,7 @@
       </c>
       <c r="I304" s="17"/>
     </row>
-    <row r="305" spans="1:9" ht="15">
+    <row r="305" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A305" s="17"/>
       <c r="B305" s="17" t="s">
         <v>21</v>
@@ -18046,7 +18145,7 @@
       </c>
       <c r="I305" s="17"/>
     </row>
-    <row r="306" spans="1:9" ht="15">
+    <row r="306" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A306" s="17"/>
       <c r="B306" s="17" t="s">
         <v>21</v>
@@ -18069,7 +18168,7 @@
       </c>
       <c r="I306" s="17"/>
     </row>
-    <row r="307" spans="1:9" ht="15">
+    <row r="307" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A307" s="17"/>
       <c r="B307" s="17" t="s">
         <v>21</v>
@@ -18092,7 +18191,7 @@
       </c>
       <c r="I307" s="17"/>
     </row>
-    <row r="308" spans="1:9" ht="15">
+    <row r="308" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A308" s="17" t="b">
         <v>0</v>
       </c>
@@ -18111,7 +18210,7 @@
       <c r="H308" s="17"/>
       <c r="I308" s="17"/>
     </row>
-    <row r="309" spans="1:9" ht="15">
+    <row r="309" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A309" s="17"/>
       <c r="B309" s="17" t="s">
         <v>21</v>
@@ -18134,7 +18233,7 @@
       </c>
       <c r="I309" s="17"/>
     </row>
-    <row r="310" spans="1:9" ht="15">
+    <row r="310" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A310" s="17"/>
       <c r="B310" s="17" t="s">
         <v>21</v>
@@ -18157,7 +18256,7 @@
       </c>
       <c r="I310" s="17"/>
     </row>
-    <row r="311" spans="1:9" ht="15">
+    <row r="311" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A311" s="17"/>
       <c r="B311" s="17" t="s">
         <v>21</v>
@@ -18180,7 +18279,7 @@
       </c>
       <c r="I311" s="17"/>
     </row>
-    <row r="312" spans="1:9" ht="15">
+    <row r="312" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A312" s="17"/>
       <c r="B312" s="17" t="s">
         <v>21</v>
@@ -18203,7 +18302,7 @@
       </c>
       <c r="I312" s="17"/>
     </row>
-    <row r="313" spans="1:9" ht="15">
+    <row r="313" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A313" s="17" t="b">
         <v>0</v>
       </c>
@@ -18222,7 +18321,7 @@
       <c r="H313" s="17"/>
       <c r="I313" s="17"/>
     </row>
-    <row r="314" spans="1:9" ht="15">
+    <row r="314" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A314" s="17"/>
       <c r="B314" s="17" t="s">
         <v>21</v>
@@ -18245,7 +18344,7 @@
       </c>
       <c r="I314" s="17"/>
     </row>
-    <row r="315" spans="1:9" ht="15">
+    <row r="315" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A315" s="17"/>
       <c r="B315" s="17" t="s">
         <v>21</v>
@@ -18268,7 +18367,7 @@
       </c>
       <c r="I315" s="17"/>
     </row>
-    <row r="316" spans="1:9" ht="15">
+    <row r="316" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A316" s="17"/>
       <c r="B316" s="17" t="s">
         <v>21</v>
@@ -18293,7 +18392,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="317" spans="1:9" ht="15">
+    <row r="317" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A317" s="17" t="b">
         <v>0</v>
       </c>
@@ -18312,7 +18411,7 @@
       <c r="H317" s="17"/>
       <c r="I317" s="17"/>
     </row>
-    <row r="318" spans="1:9" ht="15">
+    <row r="318" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A318" s="17"/>
       <c r="B318" s="17" t="s">
         <v>21</v>
@@ -18337,7 +18436,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="319" spans="1:9" ht="15">
+    <row r="319" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A319" s="17"/>
       <c r="B319" s="17" t="s">
         <v>21</v>
@@ -18360,7 +18459,7 @@
       </c>
       <c r="I319" s="17"/>
     </row>
-    <row r="320" spans="1:9" ht="15">
+    <row r="320" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A320" s="17" t="b">
         <v>0</v>
       </c>
@@ -18379,7 +18478,7 @@
       <c r="H320" s="17"/>
       <c r="I320" s="17"/>
     </row>
-    <row r="321" spans="1:9" ht="15">
+    <row r="321" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A321" s="17"/>
       <c r="B321" s="17" t="s">
         <v>21</v>
@@ -18400,7 +18499,7 @@
       <c r="H321" s="17"/>
       <c r="I321" s="17"/>
     </row>
-    <row r="322" spans="1:9" ht="15">
+    <row r="322" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A322" s="17"/>
       <c r="B322" s="17" t="s">
         <v>21</v>
@@ -18421,7 +18520,7 @@
       <c r="H322" s="17"/>
       <c r="I322" s="17"/>
     </row>
-    <row r="323" spans="1:9" ht="15">
+    <row r="323" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A323" s="17"/>
       <c r="B323" s="17" t="s">
         <v>21</v>
@@ -18444,7 +18543,7 @@
       </c>
       <c r="I323" s="17"/>
     </row>
-    <row r="324" spans="1:9" ht="15">
+    <row r="324" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A324" s="17" t="b">
         <v>0</v>
       </c>
@@ -18463,7 +18562,7 @@
       <c r="H324" s="17"/>
       <c r="I324" s="17"/>
     </row>
-    <row r="325" spans="1:9" ht="15">
+    <row r="325" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A325" s="17" t="b">
         <v>0</v>
       </c>
@@ -18482,7 +18581,7 @@
       <c r="H325" s="17"/>
       <c r="I325" s="17"/>
     </row>
-    <row r="326" spans="1:9" ht="15">
+    <row r="326" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A326" s="17"/>
       <c r="B326" s="17" t="s">
         <v>21</v>
@@ -18507,7 +18606,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="327" spans="1:9" ht="15">
+    <row r="327" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A327" s="17"/>
       <c r="B327" s="17" t="s">
         <v>21</v>
@@ -18532,7 +18631,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="328" spans="1:9">
+    <row r="328" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A328" t="b">
         <v>0</v>
       </c>
@@ -18546,7 +18645,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="329" spans="1:9">
+    <row r="329" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B329" t="s">
         <v>21</v>
       </c>
@@ -18569,7 +18668,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="330" spans="1:9">
+    <row r="330" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B330" t="s">
         <v>21</v>
       </c>
@@ -18589,7 +18688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:9">
+    <row r="331" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B331" t="s">
         <v>21</v>
       </c>
@@ -18609,7 +18708,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="332" spans="1:9">
+    <row r="332" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B332" t="s">
         <v>21</v>
       </c>
@@ -18629,7 +18728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:9">
+    <row r="333" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B333" t="s">
         <v>21</v>
       </c>
@@ -18646,7 +18745,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="334" spans="1:9">
+    <row r="334" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B334" t="s">
         <v>21</v>
       </c>
@@ -18669,7 +18768,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="335" spans="1:9">
+    <row r="335" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B335" t="s">
         <v>21</v>
       </c>
@@ -18692,7 +18791,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="336" spans="1:9">
+    <row r="336" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A336" t="b">
         <v>0</v>
       </c>
@@ -18706,7 +18805,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="337" spans="1:16">
+    <row r="337" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B337" t="s">
         <v>21</v>
       </c>
@@ -18729,7 +18828,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="338" spans="1:16">
+    <row r="338" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B338" t="s">
         <v>21</v>
       </c>
@@ -18752,7 +18851,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="339" spans="1:16">
+    <row r="339" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B339" t="s">
         <v>21</v>
       </c>
@@ -18772,7 +18871,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="340" spans="1:16">
+    <row r="340" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B340" t="s">
         <v>21</v>
       </c>
@@ -18792,7 +18891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:16">
+    <row r="341" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B341" t="s">
         <v>21</v>
       </c>
@@ -18809,7 +18908,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="342" spans="1:16">
+    <row r="342" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A342" s="1" t="b">
         <v>0</v>
       </c>
@@ -18835,7 +18934,7 @@
       <c r="O342" s="1"/>
       <c r="P342" s="1"/>
     </row>
-    <row r="343" spans="1:16">
+    <row r="343" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A343" s="1"/>
       <c r="B343" t="s">
         <v>21</v>
@@ -18864,7 +18963,7 @@
       <c r="O343" s="1"/>
       <c r="P343" s="1"/>
     </row>
-    <row r="344" spans="1:16" ht="15">
+    <row r="344" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A344" s="17"/>
       <c r="B344" t="s">
         <v>21</v>
@@ -18903,7 +19002,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="345" spans="1:16">
+    <row r="345" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A345" t="b">
         <v>0</v>
       </c>
@@ -18917,7 +19016,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="346" spans="1:16">
+    <row r="346" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B346" t="s">
         <v>21</v>
       </c>
@@ -18937,7 +19036,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="347" spans="1:16">
+    <row r="347" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A347" t="b">
         <v>0</v>
       </c>
@@ -18951,7 +19050,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="348" spans="1:16">
+    <row r="348" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B348" t="s">
         <v>21</v>
       </c>
@@ -18971,7 +19070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:16">
+    <row r="349" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B349" t="s">
         <v>21</v>
       </c>
@@ -18991,7 +19090,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="350" spans="1:16">
+    <row r="350" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B350" t="s">
         <v>21</v>
       </c>
@@ -19011,7 +19110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:16">
+    <row r="351" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B351" t="s">
         <v>21</v>
       </c>
@@ -19031,7 +19130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:16">
+    <row r="352" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B352" t="s">
         <v>21</v>
       </c>
@@ -19051,7 +19150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:18">
+    <row r="353" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B353" t="s">
         <v>21</v>
       </c>
@@ -19071,7 +19170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:18">
+    <row r="354" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B354" t="s">
         <v>21</v>
       </c>
@@ -19091,7 +19190,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="355" spans="1:18">
+    <row r="355" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B355" t="s">
         <v>21</v>
       </c>
@@ -19111,7 +19210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:18">
+    <row r="356" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B356" t="s">
         <v>21</v>
       </c>
@@ -19131,7 +19230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:18">
+    <row r="357" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A357" t="b">
         <v>0</v>
       </c>
@@ -19145,7 +19244,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="358" spans="1:18">
+    <row r="358" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B358" t="s">
         <v>21</v>
       </c>
@@ -19165,7 +19264,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="359" spans="1:18">
+    <row r="359" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B359" t="s">
         <v>21</v>
       </c>
@@ -19185,7 +19284,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="360" spans="1:18" s="1" customFormat="1">
+    <row r="360" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A360" t="b">
         <v>0</v>
       </c>
@@ -19201,7 +19300,7 @@
       <c r="H360" s="4"/>
       <c r="I360" s="4"/>
     </row>
-    <row r="361" spans="1:18" s="1" customFormat="1">
+    <row r="361" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B361" t="s">
         <v>21</v>
       </c>
@@ -19227,7 +19326,7 @@
       <c r="J361"/>
       <c r="K361"/>
     </row>
-    <row r="362" spans="1:18" s="1" customFormat="1" ht="15">
+    <row r="362" spans="1:18" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A362" s="17"/>
       <c r="B362" t="s">
         <v>22</v>
@@ -19268,7 +19367,7 @@
       <c r="Q362"/>
       <c r="R362"/>
     </row>
-    <row r="363" spans="1:18">
+    <row r="363" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A363" t="b">
         <v>0</v>
       </c>
@@ -19282,7 +19381,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="364" spans="1:18">
+    <row r="364" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B364" t="s">
         <v>21</v>
       </c>
@@ -19302,7 +19401,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="365" spans="1:18">
+    <row r="365" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A365" t="b">
         <v>0</v>
       </c>
@@ -19316,7 +19415,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="366" spans="1:18">
+    <row r="366" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B366" t="s">
         <v>21</v>
       </c>
@@ -19355,17 +19454,17 @@
       <selection activeCell="A17" sqref="A17:A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.33203125" customWidth="1"/>
-    <col min="5" max="5" width="16.1640625" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" customWidth="1"/>
     <col min="8" max="8" width="22.33203125" customWidth="1"/>
-    <col min="17" max="17" width="24.5" customWidth="1"/>
+    <col min="17" max="17" width="24.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>441</v>
       </c>
@@ -19376,7 +19475,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="30" customFormat="1">
+    <row r="2" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="30" t="s">
         <v>589</v>
       </c>
@@ -19390,7 +19489,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="30" customFormat="1">
+    <row r="3" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="30" t="s">
         <v>592</v>
       </c>
@@ -19404,7 +19503,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="30" customFormat="1">
+    <row r="4" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="30" t="s">
         <v>594</v>
       </c>
@@ -19418,7 +19517,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="30" customFormat="1">
+    <row r="5" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="30" t="s">
         <v>596</v>
       </c>
@@ -19432,7 +19531,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="30" customFormat="1">
+    <row r="6" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="30" t="s">
         <v>598</v>
       </c>
@@ -19446,7 +19545,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="30" customFormat="1">
+    <row r="7" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="30" t="s">
         <v>440</v>
       </c>
@@ -19460,7 +19559,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="30" customFormat="1">
+    <row r="8" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="30" t="s">
         <v>601</v>
       </c>
@@ -19474,7 +19573,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="30" customFormat="1">
+    <row r="9" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="30" t="s">
         <v>603</v>
       </c>
@@ -19488,7 +19587,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>569</v>
       </c>
@@ -19502,7 +19601,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>454</v>
       </c>
@@ -19516,7 +19615,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>452</v>
       </c>
@@ -19527,8 +19626,8 @@
         <v>544</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="30" customFormat="1"/>
-    <row r="16" spans="1:21">
+    <row r="14" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>547</v>
       </c>
@@ -19554,7 +19653,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>548</v>
       </c>
@@ -19595,7 +19694,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -19636,7 +19735,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>542</v>
       </c>
@@ -19668,7 +19767,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>550</v>
       </c>
@@ -19700,7 +19799,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>549</v>
       </c>
@@ -19729,7 +19828,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>551</v>
       </c>
@@ -19761,7 +19860,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="23" spans="1:17">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>552</v>
       </c>
@@ -19781,7 +19880,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="24" spans="1:17">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>682</v>
       </c>
@@ -19804,7 +19903,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="L25" s="1" t="s">
         <v>558</v>
       </c>
@@ -19815,7 +19914,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="26" spans="1:17">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="L26" s="1" t="s">
         <v>539</v>
       </c>
@@ -19823,7 +19922,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="27" spans="1:17">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="L27" s="1" t="s">
         <v>541</v>
       </c>

--- a/projects/office_calibration.xlsx
+++ b/projects/office_calibration.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="13176" tabRatio="562" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23250" windowHeight="13170" tabRatio="562" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="9" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2628" uniqueCount="845">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2648" uniqueCount="850">
   <si>
     <t>type</t>
   </si>
@@ -2576,6 +2576,21 @@
   </si>
   <si>
     <t>Gas NMBE</t>
+  </si>
+  <si>
+    <t>AdjustThermostatSetpointsByDegrees</t>
+  </si>
+  <si>
+    <t>Degrees Fahrenheit to Adjust Cooling Setpoint By</t>
+  </si>
+  <si>
+    <t>deg F</t>
+  </si>
+  <si>
+    <t>Degrees Fahrenheit to Adjust heating Setpoint By</t>
+  </si>
+  <si>
+    <t>Alter Design Day Thermostats</t>
   </si>
 </sst>
 </file>
@@ -6822,17 +6837,17 @@
       <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="81.77734375" customWidth="1"/>
+    <col min="1" max="1" width="81.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" ht="28.9" x14ac:dyDescent="0.3">
       <c r="A1" s="36" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" ht="28.9" x14ac:dyDescent="0.3">
       <c r="A2" s="36" t="s">
         <v>41</v>
       </c>
@@ -6856,17 +6871,17 @@
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="30.33203125" style="26" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="30.28515625" style="26" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29" style="1" customWidth="1"/>
-    <col min="4" max="4" width="33.109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="61.6640625" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.6640625" style="1"/>
+    <col min="4" max="4" width="33.140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="61.7109375" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="10.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" s="19"/>
       <c r="B1" s="28"/>
       <c r="C1" s="19"/>
@@ -6875,7 +6890,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" s="12" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>435</v>
       </c>
@@ -6884,7 +6899,7 @@
       <c r="D2" s="13"/>
       <c r="E2" s="13"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>436</v>
       </c>
@@ -6895,7 +6910,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="28.9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>456</v>
       </c>
@@ -6917,7 +6932,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="46.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="46.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>470</v>
       </c>
@@ -6928,7 +6943,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="28.9" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>442</v>
       </c>
@@ -6947,7 +6962,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="28.9" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>443</v>
       </c>
@@ -6966,7 +6981,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>458</v>
       </c>
@@ -6979,7 +6994,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" s="12" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
         <v>28</v>
       </c>
@@ -6988,7 +7003,7 @@
       <c r="D11" s="13"/>
       <c r="E11" s="13"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>39</v>
       </c>
@@ -6999,7 +7014,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>25</v>
       </c>
@@ -7010,7 +7025,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>26</v>
       </c>
@@ -7021,7 +7036,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>462</v>
       </c>
@@ -7032,7 +7047,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="28.9" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>463</v>
       </c>
@@ -7043,7 +7058,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>464</v>
       </c>
@@ -7054,7 +7069,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>466</v>
       </c>
@@ -7078,7 +7093,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>451</v>
       </c>
@@ -7086,7 +7101,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="22" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" s="31" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B22" s="26"/>
       <c r="D22" s="2"/>
     </row>
@@ -7107,7 +7122,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A24" s="31" t="s">
         <v>538</v>
       </c>
@@ -7119,7 +7134,7 @@
       </c>
       <c r="D24" s="35"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A25" s="31" t="s">
         <v>543</v>
       </c>
@@ -7131,7 +7146,7 @@
       </c>
       <c r="D25" s="35"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A26" s="31" t="s">
         <v>557</v>
       </c>
@@ -7143,7 +7158,7 @@
       </c>
       <c r="D26" s="35"/>
     </row>
-    <row r="27" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" s="31" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A27" s="31" t="s">
         <v>558</v>
       </c>
@@ -7155,7 +7170,7 @@
       </c>
       <c r="D27" s="35"/>
     </row>
-    <row r="28" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" s="31" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A28" s="31" t="s">
         <v>539</v>
       </c>
@@ -7165,7 +7180,7 @@
       <c r="C28" s="30"/>
       <c r="D28" s="35"/>
     </row>
-    <row r="29" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" s="31" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A29" s="31" t="s">
         <v>541</v>
       </c>
@@ -7177,7 +7192,7 @@
       </c>
       <c r="D29" s="35"/>
     </row>
-    <row r="30" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" s="31" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A30" s="31" t="s">
         <v>791</v>
       </c>
@@ -7189,32 +7204,32 @@
       </c>
       <c r="D30" s="35"/>
     </row>
-    <row r="31" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" s="31" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B31" s="26"/>
       <c r="C31" s="34"/>
       <c r="D31" s="35"/>
     </row>
-    <row r="32" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" s="31" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B32" s="26"/>
       <c r="C32" s="34"/>
       <c r="D32" s="35"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A33" s="31"/>
       <c r="C33" s="34"/>
       <c r="D33" s="35"/>
     </row>
-    <row r="34" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" s="31" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B34" s="26"/>
       <c r="C34" s="34"/>
       <c r="D34" s="35"/>
     </row>
-    <row r="35" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" s="31" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B35" s="26"/>
       <c r="C35" s="26"/>
       <c r="D35" s="2"/>
     </row>
-    <row r="36" spans="1:5" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" s="2" customFormat="1" ht="43.15" x14ac:dyDescent="0.3">
       <c r="A36" s="11" t="s">
         <v>33</v>
       </c>
@@ -7227,7 +7242,7 @@
       <c r="D36" s="11"/>
       <c r="E36" s="13"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>29</v>
       </c>
@@ -7235,7 +7250,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="39" spans="1:5" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" s="2" customFormat="1" ht="28.9" x14ac:dyDescent="0.3">
       <c r="A39" s="11" t="s">
         <v>30</v>
       </c>
@@ -7252,7 +7267,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="40" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" s="31" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A40" s="31" t="s">
         <v>32</v>
       </c>
@@ -7279,7 +7294,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A43" s="31" t="s">
         <v>703</v>
       </c>
@@ -7290,7 +7305,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="44" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" s="31" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B44" s="26"/>
       <c r="D44" s="2"/>
     </row>
@@ -7320,34 +7335,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y224"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A79" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I98" sqref="I98"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A93" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B111" sqref="B111"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="31" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="31" customWidth="1"/>
     <col min="2" max="2" width="47" style="31" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="47" style="31" customWidth="1"/>
-    <col min="4" max="4" width="39.109375" style="31" customWidth="1"/>
-    <col min="5" max="5" width="24.109375" style="31" customWidth="1"/>
-    <col min="6" max="6" width="9.6640625" style="31" customWidth="1"/>
-    <col min="7" max="7" width="9.33203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.44140625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="8.77734375" style="4" customWidth="1"/>
-    <col min="10" max="10" width="7.109375" style="31" customWidth="1"/>
-    <col min="11" max="11" width="8.109375" style="31" customWidth="1"/>
-    <col min="12" max="12" width="6.6640625" style="31" customWidth="1"/>
-    <col min="13" max="14" width="7.77734375" style="31" customWidth="1"/>
-    <col min="15" max="15" width="11.44140625" style="31"/>
-    <col min="16" max="16" width="11.44140625" style="31" customWidth="1"/>
+    <col min="4" max="4" width="39.140625" style="31" customWidth="1"/>
+    <col min="5" max="5" width="24.140625" style="31" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" style="31" customWidth="1"/>
+    <col min="7" max="7" width="9.28515625" style="31" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.42578125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="8.7109375" style="4" customWidth="1"/>
+    <col min="10" max="10" width="7.140625" style="31" customWidth="1"/>
+    <col min="11" max="11" width="8.140625" style="31" customWidth="1"/>
+    <col min="12" max="12" width="6.7109375" style="31" customWidth="1"/>
+    <col min="13" max="14" width="7.7109375" style="31" customWidth="1"/>
+    <col min="15" max="15" width="11.42578125" style="31"/>
+    <col min="16" max="16" width="11.42578125" style="31" customWidth="1"/>
     <col min="17" max="17" width="23" style="31" customWidth="1"/>
-    <col min="18" max="18" width="27.6640625" style="31" customWidth="1"/>
-    <col min="19" max="19" width="46.109375" style="31" customWidth="1"/>
-    <col min="20" max="22" width="11.44140625" style="31"/>
-    <col min="23" max="23" width="13.33203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="11.44140625" style="31"/>
+    <col min="18" max="18" width="27.7109375" style="31" customWidth="1"/>
+    <col min="19" max="19" width="46.140625" style="31" customWidth="1"/>
+    <col min="20" max="22" width="11.42578125" style="31"/>
+    <col min="23" max="23" width="13.28515625" style="31" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="11.42578125" style="31"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="18" x14ac:dyDescent="0.35">
@@ -7401,7 +7416,7 @@
       <c r="H2" s="9"/>
       <c r="I2" s="9"/>
     </row>
-    <row r="3" spans="1:25" s="14" customFormat="1" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" s="14" customFormat="1" ht="62.45" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
         <v>1</v>
       </c>
@@ -7475,7 +7490,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:25" s="38" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" s="38" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4" s="38" t="b">
         <v>1</v>
       </c>
@@ -7494,7 +7509,7 @@
       <c r="G4" s="39"/>
       <c r="H4" s="39"/>
     </row>
-    <row r="5" spans="1:25" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" s="30" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B5" s="30" t="s">
         <v>21</v>
       </c>
@@ -7511,7 +7526,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="6" spans="1:25" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" s="30" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B6" s="30" t="s">
         <v>21</v>
       </c>
@@ -7528,7 +7543,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="7" spans="1:25" s="38" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25" s="38" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" s="38" t="b">
         <v>1</v>
       </c>
@@ -7547,7 +7562,7 @@
       <c r="G7" s="39"/>
       <c r="H7" s="39"/>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:25" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B8" s="31" t="s">
         <v>21</v>
       </c>
@@ -7572,7 +7587,7 @@
       <c r="P8" s="40"/>
       <c r="Q8" s="2"/>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:25" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B9" s="31" t="s">
         <v>21</v>
       </c>
@@ -7595,7 +7610,7 @@
       <c r="O9" s="4"/>
       <c r="P9" s="3"/>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:25" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B10" s="31" t="s">
         <v>21</v>
       </c>
@@ -7613,7 +7628,7 @@
       </c>
       <c r="I10" s="31"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:25" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B11" s="31" t="s">
         <v>21</v>
       </c>
@@ -7631,7 +7646,7 @@
       </c>
       <c r="I11" s="31"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:25" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B12" s="31" t="s">
         <v>21</v>
       </c>
@@ -7649,7 +7664,7 @@
       </c>
       <c r="I12" s="31"/>
     </row>
-    <row r="13" spans="1:25" s="38" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:25" s="38" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A13" s="38" t="b">
         <v>1</v>
       </c>
@@ -7668,7 +7683,7 @@
       <c r="G13" s="39"/>
       <c r="H13" s="39"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:25" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B14" s="30" t="s">
         <v>21</v>
       </c>
@@ -7689,7 +7704,7 @@
       </c>
       <c r="I14" s="31"/>
     </row>
-    <row r="15" spans="1:25" s="43" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:25" s="43" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B15" s="43" t="s">
         <v>22</v>
       </c>
@@ -7725,7 +7740,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="16" spans="1:25" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:25" s="30" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B16" s="30" t="s">
         <v>21</v>
       </c>
@@ -7742,7 +7757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" s="43" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B17" s="43" t="s">
         <v>22</v>
       </c>
@@ -7781,7 +7796,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="18" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" s="30" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B18" s="30" t="s">
         <v>21</v>
       </c>
@@ -7798,7 +7813,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="19" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" s="30" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B19" s="30" t="s">
         <v>21</v>
       </c>
@@ -7815,7 +7830,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="20" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" s="30" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B20" s="30" t="s">
         <v>21</v>
       </c>
@@ -7832,7 +7847,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="21" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" s="30" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B21" s="30" t="s">
         <v>21</v>
       </c>
@@ -7849,7 +7864,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="22" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" s="30" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B22" s="30" t="s">
         <v>21</v>
       </c>
@@ -7866,7 +7881,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="23" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" s="30" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B23" s="30" t="s">
         <v>21</v>
       </c>
@@ -7883,7 +7898,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="24" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" s="30" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B24" s="30" t="s">
         <v>21</v>
       </c>
@@ -7900,7 +7915,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" s="30" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B25" s="30" t="s">
         <v>21</v>
       </c>
@@ -7917,7 +7932,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="26" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" s="30" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B26" s="30" t="s">
         <v>21</v>
       </c>
@@ -7934,7 +7949,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" s="30" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B27" s="30" t="s">
         <v>21</v>
       </c>
@@ -7951,7 +7966,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="28" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" s="30" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B28" s="30" t="s">
         <v>21</v>
       </c>
@@ -7968,7 +7983,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="29" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" s="30" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B29" s="30" t="s">
         <v>21</v>
       </c>
@@ -7985,7 +8000,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" s="30" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B30" s="30" t="s">
         <v>21</v>
       </c>
@@ -8002,7 +8017,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="31" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17" s="38" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A31" s="38" t="b">
         <v>1</v>
       </c>
@@ -8021,7 +8036,7 @@
       <c r="G31" s="39"/>
       <c r="H31" s="39"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B32" s="31" t="s">
         <v>21</v>
       </c>
@@ -8037,7 +8052,7 @@
       <c r="H32" s="31"/>
       <c r="I32" s="31"/>
     </row>
-    <row r="33" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:17" s="38" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A33" s="38" t="b">
         <v>1</v>
       </c>
@@ -8056,7 +8071,7 @@
       <c r="G33" s="39"/>
       <c r="H33" s="39"/>
     </row>
-    <row r="34" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:17" s="43" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B34" s="43" t="s">
         <v>22</v>
       </c>
@@ -8092,7 +8107,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="35" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:17" s="43" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B35" s="43" t="s">
         <v>22</v>
       </c>
@@ -8128,7 +8143,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="36" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:17" s="38" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A36" s="38" t="b">
         <v>1</v>
       </c>
@@ -8147,7 +8162,7 @@
       <c r="G36" s="39"/>
       <c r="H36" s="39"/>
     </row>
-    <row r="37" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:17" s="43" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B37" s="43" t="s">
         <v>22</v>
       </c>
@@ -8186,7 +8201,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="38" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:17" s="38" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A38" s="38" t="b">
         <v>1</v>
       </c>
@@ -8205,7 +8220,7 @@
       <c r="G38" s="39"/>
       <c r="H38" s="39"/>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B39" s="31" t="s">
         <v>21</v>
       </c>
@@ -8243,7 +8258,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B40" s="31" t="s">
         <v>21</v>
       </c>
@@ -8271,7 +8286,7 @@
       <c r="P40" s="40"/>
       <c r="Q40" s="2"/>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B41" s="31" t="s">
         <v>21</v>
       </c>
@@ -8293,7 +8308,7 @@
       <c r="I41" s="3"/>
       <c r="J41" s="3"/>
     </row>
-    <row r="42" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:17" s="38" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A42" s="38" t="b">
         <v>1</v>
       </c>
@@ -8312,7 +8327,7 @@
       <c r="G42" s="39"/>
       <c r="H42" s="39"/>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B43" s="31" t="s">
         <v>21</v>
       </c>
@@ -8350,7 +8365,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B44" s="31" t="s">
         <v>21</v>
       </c>
@@ -8378,7 +8393,7 @@
       <c r="P44" s="40"/>
       <c r="Q44" s="2"/>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B45" s="31" t="s">
         <v>21</v>
       </c>
@@ -8400,7 +8415,7 @@
       <c r="I45" s="3"/>
       <c r="J45" s="3"/>
     </row>
-    <row r="46" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:17" s="38" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A46" s="38" t="b">
         <v>1</v>
       </c>
@@ -8419,7 +8434,7 @@
       <c r="G46" s="39"/>
       <c r="H46" s="39"/>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B47" s="31" t="s">
         <v>21</v>
       </c>
@@ -8457,7 +8472,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B48" s="31" t="s">
         <v>21</v>
       </c>
@@ -8485,7 +8500,7 @@
       <c r="P48" s="40"/>
       <c r="Q48" s="2"/>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B49" s="31" t="s">
         <v>21</v>
       </c>
@@ -8507,7 +8522,7 @@
       <c r="I49" s="3"/>
       <c r="J49" s="3"/>
     </row>
-    <row r="50" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:17" s="38" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A50" s="38" t="b">
         <v>1</v>
       </c>
@@ -8526,7 +8541,7 @@
       <c r="G50" s="39"/>
       <c r="H50" s="39"/>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B51" s="31" t="s">
         <v>21</v>
       </c>
@@ -8564,7 +8579,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B52" s="31" t="s">
         <v>21</v>
       </c>
@@ -8592,7 +8607,7 @@
       <c r="P52" s="40"/>
       <c r="Q52" s="2"/>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B53" s="31" t="s">
         <v>21</v>
       </c>
@@ -8614,7 +8629,7 @@
       <c r="I53" s="3"/>
       <c r="J53" s="3"/>
     </row>
-    <row r="54" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:17" s="38" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A54" s="38" t="b">
         <v>1</v>
       </c>
@@ -8633,7 +8648,7 @@
       <c r="G54" s="39"/>
       <c r="H54" s="39"/>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B55" s="31" t="s">
         <v>21</v>
       </c>
@@ -8651,7 +8666,7 @@
       </c>
       <c r="I55" s="31"/>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B56" s="31" t="s">
         <v>21</v>
       </c>
@@ -8669,7 +8684,7 @@
       </c>
       <c r="I56" s="31"/>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B57" s="31" t="s">
         <v>21</v>
       </c>
@@ -8687,7 +8702,7 @@
       </c>
       <c r="I57" s="31"/>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B58" s="31" t="s">
         <v>21</v>
       </c>
@@ -8705,7 +8720,7 @@
       </c>
       <c r="I58" s="31"/>
     </row>
-    <row r="59" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:17" s="38" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A59" s="38" t="b">
         <v>1</v>
       </c>
@@ -8724,7 +8739,7 @@
       <c r="G59" s="39"/>
       <c r="H59" s="39"/>
     </row>
-    <row r="60" spans="1:17" s="49" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:17" s="49" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A60" s="49" t="b">
         <v>1</v>
       </c>
@@ -8741,7 +8756,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="61" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:17" s="43" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B61" s="43" t="s">
         <v>22</v>
       </c>
@@ -8777,7 +8792,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="62" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:17" s="30" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B62" s="30" t="s">
         <v>21</v>
       </c>
@@ -8794,7 +8809,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="63" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:17" s="30" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B63" s="30" t="s">
         <v>21</v>
       </c>
@@ -8814,7 +8829,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="64" spans="1:17" s="49" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:17" s="49" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A64" s="49" t="b">
         <v>1</v>
       </c>
@@ -8831,7 +8846,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="65" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:17" s="43" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B65" s="43" t="s">
         <v>22</v>
       </c>
@@ -8867,7 +8882,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="66" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:17" s="30" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B66" s="30" t="s">
         <v>21</v>
       </c>
@@ -8884,7 +8899,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="67" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:17" s="30" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B67" s="30" t="s">
         <v>21</v>
       </c>
@@ -8904,7 +8919,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="68" spans="1:17" s="49" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:17" s="49" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A68" s="49" t="b">
         <v>1</v>
       </c>
@@ -8921,7 +8936,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="69" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:17" s="43" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B69" s="43" t="s">
         <v>22</v>
       </c>
@@ -8957,7 +8972,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="70" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:17" s="30" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B70" s="30" t="s">
         <v>21</v>
       </c>
@@ -8974,7 +8989,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="71" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:17" s="30" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B71" s="30" t="s">
         <v>21</v>
       </c>
@@ -8994,7 +9009,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="72" spans="1:17" s="49" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:17" s="49" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A72" s="49" t="b">
         <v>1</v>
       </c>
@@ -9011,7 +9026,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="73" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:17" s="30" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B73" s="30" t="s">
         <v>21</v>
       </c>
@@ -9032,7 +9047,7 @@
       </c>
       <c r="O73" s="31"/>
     </row>
-    <row r="74" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:17" s="43" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B74" s="43" t="s">
         <v>22</v>
       </c>
@@ -9068,7 +9083,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="75" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:17" s="30" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B75" s="30" t="s">
         <v>21</v>
       </c>
@@ -9086,7 +9101,7 @@
       </c>
       <c r="O75" s="31"/>
     </row>
-    <row r="76" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:17" s="30" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B76" s="30" t="s">
         <v>21</v>
       </c>
@@ -9104,7 +9119,7 @@
       </c>
       <c r="O76" s="31"/>
     </row>
-    <row r="77" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:17" s="30" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B77" s="30" t="s">
         <v>21</v>
       </c>
@@ -9122,7 +9137,7 @@
       </c>
       <c r="O77" s="31"/>
     </row>
-    <row r="78" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:17" s="50" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A78" s="50" t="b">
         <v>1</v>
       </c>
@@ -9139,7 +9154,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A79" s="30"/>
       <c r="B79" s="30" t="s">
         <v>21</v>
@@ -9168,7 +9183,7 @@
       <c r="N79" s="3"/>
       <c r="P79" s="40"/>
     </row>
-    <row r="80" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:17" s="43" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B80" s="43" t="s">
         <v>22</v>
       </c>
@@ -9206,7 +9221,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A81" s="30"/>
       <c r="B81" s="30" t="s">
         <v>21</v>
@@ -9232,7 +9247,7 @@
       <c r="N81" s="3"/>
       <c r="P81" s="40"/>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A82" s="30"/>
       <c r="B82" s="30" t="s">
         <v>21</v>
@@ -9258,7 +9273,7 @@
       <c r="N82" s="3"/>
       <c r="P82" s="40"/>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A83" s="30"/>
       <c r="B83" s="30" t="s">
         <v>21</v>
@@ -9284,7 +9299,7 @@
       <c r="N83" s="3"/>
       <c r="P83" s="40"/>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A84" s="30"/>
       <c r="B84" s="30" t="s">
         <v>21</v>
@@ -9310,7 +9325,7 @@
       <c r="N84" s="3"/>
       <c r="P84" s="40"/>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A85" s="30"/>
       <c r="B85" s="30" t="s">
         <v>21</v>
@@ -9336,7 +9351,7 @@
       <c r="N85" s="3"/>
       <c r="P85" s="40"/>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A86" s="30"/>
       <c r="B86" s="30" t="s">
         <v>21</v>
@@ -9362,7 +9377,7 @@
       <c r="N86" s="3"/>
       <c r="P86" s="40"/>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A87" s="30"/>
       <c r="B87" s="30" t="s">
         <v>21</v>
@@ -9388,7 +9403,7 @@
       <c r="N87" s="3"/>
       <c r="P87" s="40"/>
     </row>
-    <row r="88" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:17" s="50" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A88" s="50" t="b">
         <v>1</v>
       </c>
@@ -9405,7 +9420,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A89" s="30"/>
       <c r="B89" s="30" t="s">
         <v>21</v>
@@ -9434,7 +9449,7 @@
       <c r="N89" s="3"/>
       <c r="P89" s="40"/>
     </row>
-    <row r="90" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:17" s="43" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B90" s="43" t="s">
         <v>22</v>
       </c>
@@ -9471,7 +9486,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="91" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:17" s="50" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A91" s="50" t="b">
         <v>1</v>
       </c>
@@ -9488,7 +9503,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="92" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:17" s="43" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B92" s="43" t="s">
         <v>22</v>
       </c>
@@ -9525,7 +9540,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="93" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:17" s="50" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A93" s="50" t="b">
         <v>1</v>
       </c>
@@ -9542,7 +9557,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="94" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:17" s="43" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B94" s="43" t="s">
         <v>22</v>
       </c>
@@ -9579,7 +9594,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="95" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:17" s="50" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A95" s="50" t="b">
         <v>1</v>
       </c>
@@ -9596,7 +9611,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="96" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:17" s="30" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B96" s="30" t="s">
         <v>21</v>
       </c>
@@ -9616,7 +9631,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="97" spans="2:17" s="43" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:17" s="43" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B97" s="43" t="s">
         <v>22</v>
       </c>
@@ -9656,7 +9671,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="98" spans="2:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:17" s="30" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B98" s="30" t="s">
         <v>21</v>
       </c>
@@ -9676,7 +9691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="2:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:17" s="30" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B99" s="30" t="s">
         <v>21</v>
       </c>
@@ -9696,7 +9711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="2:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:17" s="30" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B100" s="30" t="s">
         <v>21</v>
       </c>
@@ -9716,7 +9731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="2:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:17" s="30" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B101" s="30" t="s">
         <v>21</v>
       </c>
@@ -9733,7 +9748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="2:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:17" s="30" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B102" s="30" t="s">
         <v>21</v>
       </c>
@@ -9753,7 +9768,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="103" spans="2:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:17" s="30" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B103" s="30" t="s">
         <v>21</v>
       </c>
@@ -9773,7 +9788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="2:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:17" s="30" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B104" s="30" t="s">
         <v>21</v>
       </c>
@@ -9793,483 +9808,588 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="H105" s="31"/>
-      <c r="I105" s="31"/>
-    </row>
-    <row r="106" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="H106" s="31"/>
-      <c r="I106" s="31"/>
-    </row>
-    <row r="107" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="H107" s="31"/>
-      <c r="I107" s="31"/>
-    </row>
-    <row r="108" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="H108" s="31"/>
-      <c r="I108" s="31"/>
-    </row>
-    <row r="109" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="38" t="b">
+        <v>1</v>
+      </c>
+      <c r="B105" s="38" t="s">
+        <v>187</v>
+      </c>
+      <c r="C105" s="38" t="s">
+        <v>845</v>
+      </c>
+      <c r="D105" s="38" t="s">
+        <v>845</v>
+      </c>
+      <c r="E105" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="G105" s="39"/>
+      <c r="H105" s="39"/>
+    </row>
+    <row r="106" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B106" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="D106" s="43" t="s">
+        <v>846</v>
+      </c>
+      <c r="E106" s="43" t="s">
+        <v>190</v>
+      </c>
+      <c r="F106" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="G106" s="43" t="s">
+        <v>847</v>
+      </c>
+      <c r="H106" s="43">
+        <v>1</v>
+      </c>
+      <c r="I106" s="46"/>
+      <c r="J106" s="45">
+        <v>-5</v>
+      </c>
+      <c r="K106" s="45">
+        <v>5</v>
+      </c>
+      <c r="L106" s="45">
+        <v>0</v>
+      </c>
+      <c r="M106" s="45">
+        <f>(K106-J106)/6</f>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="N106" s="45">
+        <v>2.5</v>
+      </c>
+      <c r="Q106" s="43" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="107" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B107" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="D107" s="43" t="s">
+        <v>848</v>
+      </c>
+      <c r="E107" s="43" t="s">
+        <v>192</v>
+      </c>
+      <c r="F107" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="G107" s="43" t="s">
+        <v>847</v>
+      </c>
+      <c r="H107" s="43">
+        <v>-1</v>
+      </c>
+      <c r="I107" s="46"/>
+      <c r="J107" s="45">
+        <v>-5</v>
+      </c>
+      <c r="K107" s="45">
+        <v>5</v>
+      </c>
+      <c r="L107" s="45">
+        <v>0</v>
+      </c>
+      <c r="M107" s="45">
+        <f>(K107-J107)/6</f>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="N107" s="45">
+        <v>2.5</v>
+      </c>
+      <c r="Q107" s="43" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="108" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B108" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D108" s="31" t="s">
+        <v>849</v>
+      </c>
+      <c r="E108" s="31" t="s">
+        <v>194</v>
+      </c>
+      <c r="F108" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="H108" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="J108" s="3"/>
+      <c r="K108" s="3"/>
+      <c r="L108" s="3"/>
+      <c r="M108" s="3"/>
+      <c r="N108" s="3"/>
+    </row>
+    <row r="109" spans="1:17" x14ac:dyDescent="0.25">
       <c r="H109" s="31"/>
       <c r="I109" s="31"/>
     </row>
-    <row r="110" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:17" x14ac:dyDescent="0.25">
       <c r="H110" s="31"/>
       <c r="I110" s="31"/>
     </row>
-    <row r="111" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:17" x14ac:dyDescent="0.25">
       <c r="H111" s="31"/>
       <c r="I111" s="31"/>
     </row>
-    <row r="112" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:17" x14ac:dyDescent="0.25">
       <c r="H112" s="31"/>
       <c r="I112" s="31"/>
     </row>
-    <row r="113" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="113" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H113" s="31"/>
       <c r="I113" s="31"/>
     </row>
-    <row r="114" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="114" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H114" s="31"/>
       <c r="I114" s="31"/>
     </row>
-    <row r="115" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="115" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H115" s="31"/>
       <c r="I115" s="31"/>
     </row>
-    <row r="116" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="116" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H116" s="31"/>
       <c r="I116" s="31"/>
     </row>
-    <row r="117" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="117" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H117" s="31"/>
       <c r="I117" s="31"/>
     </row>
-    <row r="118" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="118" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H118" s="31"/>
       <c r="I118" s="31"/>
     </row>
-    <row r="119" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="119" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H119" s="31"/>
       <c r="I119" s="31"/>
     </row>
-    <row r="120" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="120" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H120" s="31"/>
       <c r="I120" s="31"/>
     </row>
-    <row r="121" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="121" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H121" s="31"/>
       <c r="I121" s="31"/>
     </row>
-    <row r="122" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="122" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H122" s="31"/>
       <c r="I122" s="31"/>
     </row>
-    <row r="123" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="123" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H123" s="31"/>
       <c r="I123" s="31"/>
     </row>
-    <row r="124" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="124" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H124" s="31"/>
       <c r="I124" s="31"/>
     </row>
-    <row r="125" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="125" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H125" s="31"/>
       <c r="I125" s="31"/>
     </row>
-    <row r="126" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="126" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H126" s="31"/>
       <c r="I126" s="31"/>
     </row>
-    <row r="127" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="127" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H127" s="31"/>
       <c r="I127" s="31"/>
     </row>
-    <row r="128" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="128" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H128" s="31"/>
       <c r="I128" s="31"/>
     </row>
-    <row r="129" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="129" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H129" s="31"/>
       <c r="I129" s="31"/>
     </row>
-    <row r="130" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="130" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H130" s="31"/>
       <c r="I130" s="31"/>
     </row>
-    <row r="131" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="131" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H131" s="31"/>
       <c r="I131" s="31"/>
     </row>
-    <row r="132" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="132" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H132" s="31"/>
       <c r="I132" s="31"/>
     </row>
-    <row r="133" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="133" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H133" s="31"/>
       <c r="I133" s="31"/>
     </row>
-    <row r="134" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="134" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H134" s="31"/>
       <c r="I134" s="31"/>
     </row>
-    <row r="135" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="135" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H135" s="31"/>
       <c r="I135" s="31"/>
     </row>
-    <row r="136" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="136" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H136" s="31"/>
       <c r="I136" s="31"/>
     </row>
-    <row r="137" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="137" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H137" s="31"/>
       <c r="I137" s="31"/>
     </row>
-    <row r="138" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="138" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H138" s="31"/>
       <c r="I138" s="31"/>
     </row>
-    <row r="139" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="139" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H139" s="31"/>
       <c r="I139" s="31"/>
     </row>
-    <row r="140" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="140" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H140" s="31"/>
       <c r="I140" s="31"/>
     </row>
-    <row r="141" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="141" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H141" s="31"/>
       <c r="I141" s="31"/>
     </row>
-    <row r="142" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="142" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H142" s="31"/>
       <c r="I142" s="31"/>
     </row>
-    <row r="143" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="143" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H143" s="31"/>
       <c r="I143" s="31"/>
     </row>
-    <row r="144" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="144" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H144" s="31"/>
       <c r="I144" s="31"/>
     </row>
-    <row r="145" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="145" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H145" s="31"/>
       <c r="I145" s="31"/>
     </row>
-    <row r="146" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="146" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H146" s="31"/>
       <c r="I146" s="31"/>
     </row>
-    <row r="147" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="147" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H147" s="31"/>
       <c r="I147" s="31"/>
     </row>
-    <row r="148" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="148" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H148" s="31"/>
       <c r="I148" s="31"/>
     </row>
-    <row r="149" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="149" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H149" s="31"/>
       <c r="I149" s="31"/>
     </row>
-    <row r="150" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="150" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H150" s="31"/>
       <c r="I150" s="31"/>
     </row>
-    <row r="151" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="151" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H151" s="31"/>
       <c r="I151" s="31"/>
     </row>
-    <row r="152" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="152" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H152" s="31"/>
       <c r="I152" s="31"/>
     </row>
-    <row r="153" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="153" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H153" s="31"/>
       <c r="I153" s="31"/>
     </row>
-    <row r="154" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="154" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H154" s="31"/>
       <c r="I154" s="31"/>
     </row>
-    <row r="155" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="155" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H155" s="31"/>
       <c r="I155" s="31"/>
     </row>
-    <row r="156" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="156" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H156" s="31"/>
       <c r="I156" s="31"/>
     </row>
-    <row r="157" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="157" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H157" s="31"/>
       <c r="I157" s="31"/>
     </row>
-    <row r="158" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="158" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H158" s="31"/>
       <c r="I158" s="31"/>
     </row>
-    <row r="159" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="159" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H159" s="31"/>
       <c r="I159" s="31"/>
     </row>
-    <row r="160" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="160" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H160" s="31"/>
       <c r="I160" s="31"/>
     </row>
-    <row r="161" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="161" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H161" s="31"/>
       <c r="I161" s="31"/>
     </row>
-    <row r="162" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="162" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H162" s="31"/>
       <c r="I162" s="31"/>
     </row>
-    <row r="163" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="163" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H163" s="31"/>
       <c r="I163" s="31"/>
     </row>
-    <row r="164" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="164" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H164" s="31"/>
       <c r="I164" s="31"/>
     </row>
-    <row r="165" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="165" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H165" s="31"/>
       <c r="I165" s="31"/>
     </row>
-    <row r="166" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="166" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H166" s="31"/>
       <c r="I166" s="31"/>
     </row>
-    <row r="167" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="167" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H167" s="31"/>
       <c r="I167" s="31"/>
     </row>
-    <row r="168" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="168" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H168" s="31"/>
       <c r="I168" s="31"/>
     </row>
-    <row r="169" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="169" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H169" s="31"/>
       <c r="I169" s="31"/>
     </row>
-    <row r="170" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="170" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H170" s="31"/>
       <c r="I170" s="31"/>
     </row>
-    <row r="171" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="171" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H171" s="31"/>
       <c r="I171" s="31"/>
     </row>
-    <row r="172" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="172" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H172" s="31"/>
       <c r="I172" s="31"/>
     </row>
-    <row r="173" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="173" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H173" s="31"/>
       <c r="I173" s="31"/>
     </row>
-    <row r="174" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="174" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H174" s="31"/>
       <c r="I174" s="31"/>
     </row>
-    <row r="175" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="175" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H175" s="31"/>
       <c r="I175" s="31"/>
     </row>
-    <row r="176" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="176" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H176" s="31"/>
       <c r="I176" s="31"/>
     </row>
-    <row r="177" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="177" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H177" s="31"/>
       <c r="I177" s="31"/>
     </row>
-    <row r="178" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="178" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H178" s="31"/>
       <c r="I178" s="31"/>
     </row>
-    <row r="179" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="179" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H179" s="31"/>
       <c r="I179" s="31"/>
     </row>
-    <row r="180" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="180" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H180" s="31"/>
       <c r="I180" s="31"/>
     </row>
-    <row r="181" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="181" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H181" s="31"/>
       <c r="I181" s="31"/>
     </row>
-    <row r="182" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="182" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H182" s="31"/>
       <c r="I182" s="31"/>
     </row>
-    <row r="183" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="183" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H183" s="31"/>
       <c r="I183" s="31"/>
     </row>
-    <row r="184" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="184" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H184" s="31"/>
       <c r="I184" s="31"/>
     </row>
-    <row r="185" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="185" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H185" s="31"/>
       <c r="I185" s="31"/>
     </row>
-    <row r="186" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="186" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H186" s="31"/>
       <c r="I186" s="31"/>
     </row>
-    <row r="187" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="187" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H187" s="31"/>
       <c r="I187" s="31"/>
     </row>
-    <row r="188" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="188" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H188" s="31"/>
       <c r="I188" s="31"/>
     </row>
-    <row r="189" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="189" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H189" s="31"/>
       <c r="I189" s="31"/>
     </row>
-    <row r="190" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="190" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H190" s="31"/>
       <c r="I190" s="31"/>
     </row>
-    <row r="191" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="191" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H191" s="31"/>
       <c r="I191" s="31"/>
     </row>
-    <row r="192" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="192" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H192" s="31"/>
       <c r="I192" s="31"/>
     </row>
-    <row r="193" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="193" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H193" s="31"/>
       <c r="I193" s="31"/>
     </row>
-    <row r="194" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="194" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H194" s="31"/>
       <c r="I194" s="31"/>
     </row>
-    <row r="195" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="195" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H195" s="31"/>
       <c r="I195" s="31"/>
     </row>
-    <row r="196" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="196" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H196" s="31"/>
       <c r="I196" s="31"/>
     </row>
-    <row r="197" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="197" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H197" s="31"/>
       <c r="I197" s="31"/>
     </row>
-    <row r="198" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="198" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H198" s="31"/>
       <c r="I198" s="31"/>
     </row>
-    <row r="199" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="199" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H199" s="31"/>
       <c r="I199" s="31"/>
     </row>
-    <row r="200" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="200" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H200" s="31"/>
       <c r="I200" s="31"/>
     </row>
-    <row r="201" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="201" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H201" s="31"/>
       <c r="I201" s="31"/>
     </row>
-    <row r="202" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="202" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H202" s="31"/>
       <c r="I202" s="31"/>
     </row>
-    <row r="203" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="203" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H203" s="31"/>
       <c r="I203" s="31"/>
     </row>
-    <row r="204" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="204" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H204" s="31"/>
       <c r="I204" s="31"/>
     </row>
-    <row r="205" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="205" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H205" s="31"/>
       <c r="I205" s="31"/>
     </row>
-    <row r="206" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="206" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H206" s="31"/>
       <c r="I206" s="31"/>
     </row>
-    <row r="207" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="207" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H207" s="31"/>
       <c r="I207" s="31"/>
     </row>
-    <row r="208" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="208" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H208" s="31"/>
       <c r="I208" s="31"/>
     </row>
-    <row r="209" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="209" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H209" s="31"/>
       <c r="I209" s="31"/>
     </row>
-    <row r="210" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="210" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H210" s="31"/>
       <c r="I210" s="31"/>
     </row>
-    <row r="211" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="211" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H211" s="31"/>
       <c r="I211" s="31"/>
     </row>
-    <row r="212" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="212" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H212" s="31"/>
       <c r="I212" s="31"/>
     </row>
-    <row r="213" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="213" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H213" s="31"/>
       <c r="I213" s="31"/>
     </row>
-    <row r="214" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="214" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H214" s="31"/>
       <c r="I214" s="31"/>
     </row>
-    <row r="215" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="215" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H215" s="31"/>
       <c r="I215" s="31"/>
     </row>
-    <row r="216" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="216" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H216" s="31"/>
       <c r="I216" s="31"/>
     </row>
-    <row r="217" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="217" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H217" s="31"/>
       <c r="I217" s="31"/>
     </row>
-    <row r="218" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="218" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H218" s="31"/>
       <c r="I218" s="31"/>
     </row>
-    <row r="219" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="219" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H219" s="31"/>
       <c r="I219" s="31"/>
     </row>
-    <row r="220" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="220" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H220" s="31"/>
       <c r="I220" s="31"/>
     </row>
-    <row r="221" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="221" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H221" s="31"/>
       <c r="I221" s="31"/>
     </row>
-    <row r="222" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="222" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H222" s="31"/>
       <c r="I222" s="31"/>
     </row>
-    <row r="223" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="223" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H223" s="31"/>
       <c r="I223" s="31"/>
     </row>
-    <row r="224" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="224" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H224" s="31"/>
       <c r="I224" s="31"/>
     </row>
@@ -10292,22 +10412,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="150" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A29" sqref="A29:A32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="29.44140625" style="31" customWidth="1"/>
+    <col min="1" max="2" width="29.42578125" style="31" customWidth="1"/>
     <col min="3" max="3" width="71" style="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.44140625" style="31" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="10.44140625" style="31" customWidth="1"/>
-    <col min="8" max="8" width="14.44140625" style="31" customWidth="1"/>
-    <col min="9" max="9" width="14.6640625" style="31" customWidth="1"/>
-    <col min="10" max="10" width="9.6640625" style="31" customWidth="1"/>
-    <col min="11" max="16384" width="11.44140625" style="31"/>
+    <col min="4" max="4" width="10.42578125" style="31" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" style="31" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="10.42578125" style="31" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="31" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="31" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" style="31" customWidth="1"/>
+    <col min="11" max="16384" width="11.42578125" style="31"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18" x14ac:dyDescent="0.35">
@@ -10360,7 +10480,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="14" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" s="14" customFormat="1" ht="46.9" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
         <v>628</v>
       </c>
@@ -10396,7 +10516,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4" s="30" t="s">
         <v>644</v>
       </c>
@@ -10425,7 +10545,7 @@
       <c r="J4" s="30"/>
       <c r="K4" s="30"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5" s="30" t="s">
         <v>645</v>
       </c>
@@ -10455,7 +10575,7 @@
       <c r="K5" s="30"/>
       <c r="L5" s="30"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6" s="30" t="s">
         <v>646</v>
       </c>
@@ -10484,7 +10604,7 @@
       <c r="J6" s="30"/>
       <c r="K6" s="30"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" s="30" t="s">
         <v>647</v>
       </c>
@@ -10513,7 +10633,7 @@
       <c r="J7" s="30"/>
       <c r="K7" s="30"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" s="30" t="s">
         <v>709</v>
       </c>
@@ -10544,7 +10664,7 @@
       <c r="K8" s="30"/>
       <c r="L8" s="30"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9" s="30" t="s">
         <v>711</v>
       </c>
@@ -10574,7 +10694,7 @@
       <c r="K9" s="30"/>
       <c r="L9" s="30"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10" s="30" t="s">
         <v>712</v>
       </c>
@@ -10604,7 +10724,7 @@
       <c r="K10" s="30"/>
       <c r="L10" s="30"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11" s="30" t="s">
         <v>713</v>
       </c>
@@ -10634,7 +10754,7 @@
       <c r="K11" s="30"/>
       <c r="L11" s="30"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A12" s="30" t="s">
         <v>714</v>
       </c>
@@ -10664,7 +10784,7 @@
       <c r="K12" s="30"/>
       <c r="L12" s="30"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A13" s="30" t="s">
         <v>715</v>
       </c>
@@ -10694,7 +10814,7 @@
       <c r="K13" s="30"/>
       <c r="L13" s="30"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14" s="30" t="s">
         <v>716</v>
       </c>
@@ -10724,7 +10844,7 @@
       <c r="K14" s="30"/>
       <c r="L14" s="30"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15" s="30" t="s">
         <v>717</v>
       </c>
@@ -10754,7 +10874,7 @@
       <c r="K15" s="30"/>
       <c r="L15" s="30"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A16" s="30" t="s">
         <v>718</v>
       </c>
@@ -10784,7 +10904,7 @@
       <c r="K16" s="30"/>
       <c r="L16" s="30"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A17" s="30" t="s">
         <v>719</v>
       </c>
@@ -10814,7 +10934,7 @@
       <c r="K17" s="30"/>
       <c r="L17" s="30"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A18" s="30" t="s">
         <v>720</v>
       </c>
@@ -10844,7 +10964,7 @@
       <c r="K18" s="30"/>
       <c r="L18" s="30"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A19" s="30" t="s">
         <v>722</v>
       </c>
@@ -10875,7 +10995,7 @@
       <c r="K19" s="30"/>
       <c r="L19" s="30"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A20" s="30" t="s">
         <v>721</v>
       </c>
@@ -10905,7 +11025,7 @@
       <c r="K20" s="30"/>
       <c r="L20" s="30"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A21" s="30" t="s">
         <v>724</v>
       </c>
@@ -10935,7 +11055,7 @@
       <c r="K21" s="30"/>
       <c r="L21" s="30"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A22" s="30" t="s">
         <v>725</v>
       </c>
@@ -10965,7 +11085,7 @@
       <c r="K22" s="30"/>
       <c r="L22" s="30"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A23" s="30" t="s">
         <v>726</v>
       </c>
@@ -10995,7 +11115,7 @@
       <c r="K23" s="30"/>
       <c r="L23" s="30"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A24" s="30" t="s">
         <v>727</v>
       </c>
@@ -11025,7 +11145,7 @@
       <c r="K24" s="30"/>
       <c r="L24" s="30"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A25" s="30" t="s">
         <v>728</v>
       </c>
@@ -11055,7 +11175,7 @@
       <c r="K25" s="30"/>
       <c r="L25" s="30"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A26" s="30" t="s">
         <v>729</v>
       </c>
@@ -11085,7 +11205,7 @@
       <c r="K26" s="30"/>
       <c r="L26" s="30"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A27" s="30" t="s">
         <v>730</v>
       </c>
@@ -11115,7 +11235,7 @@
       <c r="K27" s="30"/>
       <c r="L27" s="30"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A28" s="30" t="s">
         <v>731</v>
       </c>
@@ -11145,7 +11265,7 @@
       <c r="K28" s="30"/>
       <c r="L28" s="30"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A29" s="30" t="s">
         <v>841</v>
       </c>
@@ -11169,7 +11289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A30" s="30" t="s">
         <v>842</v>
       </c>
@@ -11193,7 +11313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A31" s="30" t="s">
         <v>843</v>
       </c>
@@ -11217,7 +11337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A32" s="30" t="s">
         <v>844</v>
       </c>
@@ -11241,25 +11361,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A33" s="30"/>
       <c r="B33" s="30"/>
       <c r="C33" s="30"/>
       <c r="D33" s="30"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A34" s="30"/>
       <c r="B34" s="30"/>
       <c r="C34" s="30"/>
       <c r="D34" s="30"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A35" s="30"/>
       <c r="B35" s="30"/>
       <c r="C35" s="30"/>
       <c r="D35" s="30"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A36" s="30"/>
       <c r="B36" s="30"/>
       <c r="C36" s="30"/>
@@ -11284,16 +11404,16 @@
       <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="70.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="80.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="33.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="255.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="70.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="80.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="33.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="255.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -12303,7 +12423,7 @@
       </c>
       <c r="I45" s="17"/>
     </row>
-    <row r="46" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="17"/>
       <c r="B46" s="17" t="s">
         <v>21</v>
@@ -12326,7 +12446,7 @@
       </c>
       <c r="I46" s="17"/>
     </row>
-    <row r="47" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="17"/>
       <c r="B47" s="17" t="s">
         <v>21</v>
@@ -12349,7 +12469,7 @@
       </c>
       <c r="I47" s="17"/>
     </row>
-    <row r="48" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="17"/>
       <c r="B48" s="17" t="s">
         <v>21</v>
@@ -12372,7 +12492,7 @@
       </c>
       <c r="I48" s="17"/>
     </row>
-    <row r="49" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="17"/>
       <c r="B49" s="17" t="s">
         <v>21</v>
@@ -12395,7 +12515,7 @@
       </c>
       <c r="I49" s="17"/>
     </row>
-    <row r="50" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="17"/>
       <c r="B50" s="17" t="s">
         <v>21</v>
@@ -12418,7 +12538,7 @@
       </c>
       <c r="I50" s="17"/>
     </row>
-    <row r="51" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="17" t="b">
         <v>0</v>
       </c>
@@ -12437,7 +12557,7 @@
       <c r="H51" s="17"/>
       <c r="I51" s="17"/>
     </row>
-    <row r="52" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="17"/>
       <c r="B52" s="17" t="s">
         <v>21</v>
@@ -12458,7 +12578,7 @@
       <c r="H52" s="17"/>
       <c r="I52" s="17"/>
     </row>
-    <row r="53" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="17"/>
       <c r="B53" s="17" t="s">
         <v>21</v>
@@ -12481,7 +12601,7 @@
       </c>
       <c r="I53" s="17"/>
     </row>
-    <row r="54" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="17"/>
       <c r="B54" s="17" t="s">
         <v>21</v>
@@ -12504,7 +12624,7 @@
       </c>
       <c r="I54" s="17"/>
     </row>
-    <row r="55" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="17"/>
       <c r="B55" s="17" t="s">
         <v>21</v>
@@ -12527,7 +12647,7 @@
       </c>
       <c r="I55" s="17"/>
     </row>
-    <row r="56" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="17"/>
       <c r="B56" s="17" t="s">
         <v>21</v>
@@ -12550,7 +12670,7 @@
       </c>
       <c r="I56" s="17"/>
     </row>
-    <row r="57" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="17"/>
       <c r="B57" s="17" t="s">
         <v>21</v>
@@ -12573,7 +12693,7 @@
       </c>
       <c r="I57" s="17"/>
     </row>
-    <row r="58" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="17"/>
       <c r="B58" s="17" t="s">
         <v>21</v>
@@ -12596,7 +12716,7 @@
       </c>
       <c r="I58" s="17"/>
     </row>
-    <row r="59" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="17"/>
       <c r="B59" s="17" t="s">
         <v>21</v>
@@ -12619,7 +12739,7 @@
       </c>
       <c r="I59" s="17"/>
     </row>
-    <row r="60" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="17"/>
       <c r="B60" s="17" t="s">
         <v>21</v>
@@ -12642,7 +12762,7 @@
       </c>
       <c r="I60" s="17"/>
     </row>
-    <row r="61" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="17" t="b">
         <v>0</v>
       </c>
@@ -12661,7 +12781,7 @@
       <c r="H61" s="17"/>
       <c r="I61" s="17"/>
     </row>
-    <row r="62" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="17"/>
       <c r="B62" s="17" t="s">
         <v>21</v>
@@ -12682,7 +12802,7 @@
       <c r="H62" s="17"/>
       <c r="I62" s="17"/>
     </row>
-    <row r="63" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" s="17"/>
       <c r="B63" s="17" t="s">
         <v>21</v>
@@ -12707,7 +12827,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" s="17"/>
       <c r="B64" s="17" t="s">
         <v>21</v>
@@ -12730,7 +12850,7 @@
       </c>
       <c r="I64" s="17"/>
     </row>
-    <row r="65" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A65" s="17"/>
       <c r="B65" s="17" t="s">
         <v>21</v>
@@ -12753,7 +12873,7 @@
       </c>
       <c r="I65" s="17"/>
     </row>
-    <row r="66" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="17"/>
       <c r="B66" s="17" t="s">
         <v>21</v>
@@ -12776,7 +12896,7 @@
       </c>
       <c r="I66" s="17"/>
     </row>
-    <row r="67" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" s="17"/>
       <c r="B67" s="17" t="s">
         <v>21</v>
@@ -12799,7 +12919,7 @@
       </c>
       <c r="I67" s="17"/>
     </row>
-    <row r="68" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" s="17"/>
       <c r="B68" s="17" t="s">
         <v>21</v>
@@ -12822,7 +12942,7 @@
       </c>
       <c r="I68" s="17"/>
     </row>
-    <row r="69" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A69" s="17"/>
       <c r="B69" s="17" t="s">
         <v>21</v>
@@ -12845,7 +12965,7 @@
       </c>
       <c r="I69" s="17"/>
     </row>
-    <row r="70" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A70" s="17"/>
       <c r="B70" s="17" t="s">
         <v>21</v>
@@ -12868,7 +12988,7 @@
       </c>
       <c r="I70" s="17"/>
     </row>
-    <row r="71" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A71" s="17"/>
       <c r="B71" s="17" t="s">
         <v>21</v>
@@ -12891,7 +13011,7 @@
       </c>
       <c r="I71" s="17"/>
     </row>
-    <row r="72" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72" s="17" t="b">
         <v>0</v>
       </c>
@@ -12910,7 +13030,7 @@
       <c r="H72" s="17"/>
       <c r="I72" s="17"/>
     </row>
-    <row r="73" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A73" s="17"/>
       <c r="B73" s="17" t="s">
         <v>21</v>
@@ -12931,7 +13051,7 @@
       <c r="H73" s="17"/>
       <c r="I73" s="17"/>
     </row>
-    <row r="74" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A74" s="17"/>
       <c r="B74" s="17" t="s">
         <v>21</v>
@@ -12954,7 +13074,7 @@
       </c>
       <c r="I74" s="17"/>
     </row>
-    <row r="75" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75" s="17"/>
       <c r="B75" s="17" t="s">
         <v>21</v>
@@ -12979,7 +13099,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76" s="17"/>
       <c r="B76" s="17" t="s">
         <v>21</v>
@@ -13002,7 +13122,7 @@
       </c>
       <c r="I76" s="17"/>
     </row>
-    <row r="77" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A77" s="17"/>
       <c r="B77" s="17" t="s">
         <v>21</v>
@@ -13025,7 +13145,7 @@
       </c>
       <c r="I77" s="17"/>
     </row>
-    <row r="78" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A78" s="17"/>
       <c r="B78" s="17" t="s">
         <v>21</v>
@@ -13048,7 +13168,7 @@
       </c>
       <c r="I78" s="17"/>
     </row>
-    <row r="79" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A79" s="17"/>
       <c r="B79" s="17" t="s">
         <v>21</v>
@@ -13071,7 +13191,7 @@
       </c>
       <c r="I79" s="17"/>
     </row>
-    <row r="80" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A80" s="17"/>
       <c r="B80" s="17" t="s">
         <v>21</v>
@@ -13094,7 +13214,7 @@
       </c>
       <c r="I80" s="17"/>
     </row>
-    <row r="81" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81" s="17"/>
       <c r="B81" s="17" t="s">
         <v>21</v>
@@ -13117,7 +13237,7 @@
       </c>
       <c r="I81" s="17"/>
     </row>
-    <row r="82" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A82" s="17"/>
       <c r="B82" s="17" t="s">
         <v>21</v>
@@ -13140,7 +13260,7 @@
       </c>
       <c r="I82" s="17"/>
     </row>
-    <row r="83" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A83" s="17"/>
       <c r="B83" s="17" t="s">
         <v>21</v>
@@ -13163,7 +13283,7 @@
       </c>
       <c r="I83" s="17"/>
     </row>
-    <row r="84" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A84" s="17"/>
       <c r="B84" s="17" t="s">
         <v>21</v>
@@ -13186,7 +13306,7 @@
       </c>
       <c r="I84" s="17"/>
     </row>
-    <row r="85" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A85" s="17"/>
       <c r="B85" s="17" t="s">
         <v>21</v>
@@ -13209,7 +13329,7 @@
       </c>
       <c r="I85" s="17"/>
     </row>
-    <row r="86" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A86" s="17" t="b">
         <v>0</v>
       </c>
@@ -13228,7 +13348,7 @@
       <c r="H86" s="17"/>
       <c r="I86" s="17"/>
     </row>
-    <row r="87" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A87" s="17"/>
       <c r="B87" s="17" t="s">
         <v>21</v>
@@ -13251,7 +13371,7 @@
       </c>
       <c r="I87" s="17"/>
     </row>
-    <row r="88" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A88" s="17"/>
       <c r="B88" s="17" t="s">
         <v>21</v>
@@ -13274,7 +13394,7 @@
       </c>
       <c r="I88" s="17"/>
     </row>
-    <row r="89" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A89" s="17"/>
       <c r="B89" s="17" t="s">
         <v>21</v>
@@ -13297,7 +13417,7 @@
       </c>
       <c r="I89" s="17"/>
     </row>
-    <row r="90" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A90" s="17"/>
       <c r="B90" s="17" t="s">
         <v>21</v>
@@ -13320,7 +13440,7 @@
       </c>
       <c r="I90" s="17"/>
     </row>
-    <row r="91" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A91" s="17"/>
       <c r="B91" s="17" t="s">
         <v>21</v>
@@ -13343,7 +13463,7 @@
       </c>
       <c r="I91" s="17"/>
     </row>
-    <row r="92" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A92" s="17"/>
       <c r="B92" s="17" t="s">
         <v>21</v>
@@ -13366,7 +13486,7 @@
       </c>
       <c r="I92" s="17"/>
     </row>
-    <row r="93" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A93" s="17"/>
       <c r="B93" s="17" t="s">
         <v>21</v>
@@ -13389,7 +13509,7 @@
       </c>
       <c r="I93" s="17"/>
     </row>
-    <row r="94" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A94" s="17"/>
       <c r="B94" s="17" t="s">
         <v>21</v>
@@ -13412,7 +13532,7 @@
       </c>
       <c r="I94" s="17"/>
     </row>
-    <row r="95" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A95" s="17"/>
       <c r="B95" s="17" t="s">
         <v>21</v>
@@ -13435,7 +13555,7 @@
       </c>
       <c r="I95" s="17"/>
     </row>
-    <row r="96" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A96" s="17"/>
       <c r="B96" s="17" t="s">
         <v>21</v>
@@ -13458,7 +13578,7 @@
       </c>
       <c r="I96" s="17"/>
     </row>
-    <row r="97" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A97" s="17" t="b">
         <v>0</v>
       </c>
@@ -13477,7 +13597,7 @@
       <c r="H97" s="17"/>
       <c r="I97" s="17"/>
     </row>
-    <row r="98" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A98" s="17"/>
       <c r="B98" s="17" t="s">
         <v>21</v>
@@ -13502,7 +13622,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A99" s="17" t="b">
         <v>0</v>
       </c>
@@ -13521,7 +13641,7 @@
       <c r="H99" s="17"/>
       <c r="I99" s="17"/>
     </row>
-    <row r="100" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A100" s="17"/>
       <c r="B100" s="17" t="s">
         <v>21</v>
@@ -13542,7 +13662,7 @@
       <c r="H100" s="17"/>
       <c r="I100" s="17"/>
     </row>
-    <row r="101" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A101" s="17"/>
       <c r="B101" s="17" t="s">
         <v>21</v>
@@ -13567,7 +13687,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A102" s="17" t="b">
         <v>0</v>
       </c>
@@ -13586,7 +13706,7 @@
       <c r="H102" s="17"/>
       <c r="I102" s="17"/>
     </row>
-    <row r="103" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A103" s="17"/>
       <c r="B103" s="17" t="s">
         <v>21</v>
@@ -13609,7 +13729,7 @@
       </c>
       <c r="I103" s="17"/>
     </row>
-    <row r="104" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A104" s="17"/>
       <c r="B104" s="17" t="s">
         <v>21</v>
@@ -13634,7 +13754,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A105" s="17"/>
       <c r="B105" s="17" t="s">
         <v>21</v>
@@ -13657,7 +13777,7 @@
       </c>
       <c r="I105" s="17"/>
     </row>
-    <row r="106" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A106" s="17"/>
       <c r="B106" s="17" t="s">
         <v>21</v>
@@ -13678,7 +13798,7 @@
       <c r="H106" s="17"/>
       <c r="I106" s="17"/>
     </row>
-    <row r="107" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A107" s="17" t="b">
         <v>0</v>
       </c>
@@ -13697,7 +13817,7 @@
       <c r="H107" s="17"/>
       <c r="I107" s="17"/>
     </row>
-    <row r="108" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A108" s="17"/>
       <c r="B108" s="17" t="s">
         <v>21</v>
@@ -13722,7 +13842,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A109" s="17"/>
       <c r="B109" s="17" t="s">
         <v>21</v>
@@ -13745,7 +13865,7 @@
       </c>
       <c r="I109" s="17"/>
     </row>
-    <row r="110" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A110" s="17"/>
       <c r="B110" s="17" t="s">
         <v>21</v>
@@ -13768,7 +13888,7 @@
       </c>
       <c r="I110" s="17"/>
     </row>
-    <row r="111" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A111" s="17"/>
       <c r="B111" s="17" t="s">
         <v>21</v>
@@ -13791,7 +13911,7 @@
       </c>
       <c r="I111" s="17"/>
     </row>
-    <row r="112" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A112" s="17"/>
       <c r="B112" s="17" t="s">
         <v>21</v>
@@ -13814,7 +13934,7 @@
       </c>
       <c r="I112" s="17"/>
     </row>
-    <row r="113" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A113" s="17"/>
       <c r="B113" s="17" t="s">
         <v>21</v>
@@ -13837,7 +13957,7 @@
       </c>
       <c r="I113" s="17"/>
     </row>
-    <row r="114" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A114" s="17"/>
       <c r="B114" s="17" t="s">
         <v>21</v>
@@ -13860,7 +13980,7 @@
       </c>
       <c r="I114" s="17"/>
     </row>
-    <row r="115" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A115" s="17" t="b">
         <v>0</v>
       </c>
@@ -13879,7 +13999,7 @@
       <c r="H115" s="17"/>
       <c r="I115" s="17"/>
     </row>
-    <row r="116" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A116" s="17"/>
       <c r="B116" s="17" t="s">
         <v>21</v>
@@ -13902,7 +14022,7 @@
       </c>
       <c r="I116" s="17"/>
     </row>
-    <row r="117" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A117" s="17"/>
       <c r="B117" s="17" t="s">
         <v>21</v>
@@ -13925,7 +14045,7 @@
       </c>
       <c r="I117" s="17"/>
     </row>
-    <row r="118" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A118" s="17"/>
       <c r="B118" s="17" t="s">
         <v>21</v>
@@ -13948,7 +14068,7 @@
       </c>
       <c r="I118" s="17"/>
     </row>
-    <row r="119" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A119" s="17" t="b">
         <v>0</v>
       </c>
@@ -13967,7 +14087,7 @@
       <c r="H119" s="17"/>
       <c r="I119" s="17"/>
     </row>
-    <row r="120" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A120" s="17"/>
       <c r="B120" s="17" t="s">
         <v>21</v>
@@ -13990,7 +14110,7 @@
       </c>
       <c r="I120" s="17"/>
     </row>
-    <row r="121" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A121" s="17"/>
       <c r="B121" s="17" t="s">
         <v>21</v>
@@ -14013,7 +14133,7 @@
       </c>
       <c r="I121" s="17"/>
     </row>
-    <row r="122" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A122" s="17"/>
       <c r="B122" s="17" t="s">
         <v>21</v>
@@ -14036,7 +14156,7 @@
       </c>
       <c r="I122" s="17"/>
     </row>
-    <row r="123" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A123" s="17"/>
       <c r="B123" s="17" t="s">
         <v>21</v>
@@ -14059,7 +14179,7 @@
       </c>
       <c r="I123" s="17"/>
     </row>
-    <row r="124" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A124" s="17"/>
       <c r="B124" s="17" t="s">
         <v>21</v>
@@ -14082,7 +14202,7 @@
       </c>
       <c r="I124" s="17"/>
     </row>
-    <row r="125" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A125" s="17"/>
       <c r="B125" s="17" t="s">
         <v>21</v>
@@ -14105,7 +14225,7 @@
       </c>
       <c r="I125" s="17"/>
     </row>
-    <row r="126" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A126" s="17" t="b">
         <v>0</v>
       </c>
@@ -14124,7 +14244,7 @@
       <c r="H126" s="17"/>
       <c r="I126" s="17"/>
     </row>
-    <row r="127" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A127" s="17"/>
       <c r="B127" s="17" t="s">
         <v>21</v>
@@ -14149,7 +14269,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="128" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A128" s="17"/>
       <c r="B128" s="17" t="s">
         <v>21</v>
@@ -14172,7 +14292,7 @@
       </c>
       <c r="I128" s="17"/>
     </row>
-    <row r="129" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A129" s="17"/>
       <c r="B129" s="17" t="s">
         <v>21</v>
@@ -14195,7 +14315,7 @@
       </c>
       <c r="I129" s="17"/>
     </row>
-    <row r="130" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A130" s="17"/>
       <c r="B130" s="17" t="s">
         <v>21</v>
@@ -14218,7 +14338,7 @@
       </c>
       <c r="I130" s="17"/>
     </row>
-    <row r="131" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A131" s="17"/>
       <c r="B131" s="17" t="s">
         <v>21</v>
@@ -14241,7 +14361,7 @@
       </c>
       <c r="I131" s="17"/>
     </row>
-    <row r="132" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A132" s="17"/>
       <c r="B132" s="17" t="s">
         <v>21</v>
@@ -14264,7 +14384,7 @@
       </c>
       <c r="I132" s="17"/>
     </row>
-    <row r="133" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A133" s="17"/>
       <c r="B133" s="17" t="s">
         <v>21</v>
@@ -14287,7 +14407,7 @@
       </c>
       <c r="I133" s="17"/>
     </row>
-    <row r="134" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A134" s="17"/>
       <c r="B134" s="17" t="s">
         <v>21</v>
@@ -14310,7 +14430,7 @@
       </c>
       <c r="I134" s="17"/>
     </row>
-    <row r="135" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A135" s="17"/>
       <c r="B135" s="17" t="s">
         <v>21</v>
@@ -14333,7 +14453,7 @@
       </c>
       <c r="I135" s="17"/>
     </row>
-    <row r="136" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A136" s="17" t="b">
         <v>0</v>
       </c>
@@ -14352,7 +14472,7 @@
       <c r="H136" s="17"/>
       <c r="I136" s="17"/>
     </row>
-    <row r="137" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A137" s="17"/>
       <c r="B137" s="17" t="s">
         <v>21</v>
@@ -14377,7 +14497,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="138" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A138" s="17"/>
       <c r="B138" s="17" t="s">
         <v>21</v>
@@ -14398,7 +14518,7 @@
       <c r="H138" s="17"/>
       <c r="I138" s="17"/>
     </row>
-    <row r="139" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A139" s="17"/>
       <c r="B139" s="17" t="s">
         <v>21</v>
@@ -14421,7 +14541,7 @@
       </c>
       <c r="I139" s="17"/>
     </row>
-    <row r="140" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A140" s="17"/>
       <c r="B140" s="17" t="s">
         <v>21</v>
@@ -14444,7 +14564,7 @@
       </c>
       <c r="I140" s="17"/>
     </row>
-    <row r="141" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A141" s="17"/>
       <c r="B141" s="17" t="s">
         <v>21</v>
@@ -14467,7 +14587,7 @@
       </c>
       <c r="I141" s="17"/>
     </row>
-    <row r="142" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A142" s="17"/>
       <c r="B142" s="17" t="s">
         <v>21</v>
@@ -14490,7 +14610,7 @@
       </c>
       <c r="I142" s="17"/>
     </row>
-    <row r="143" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A143" s="17"/>
       <c r="B143" s="17" t="s">
         <v>21</v>
@@ -14513,7 +14633,7 @@
       </c>
       <c r="I143" s="17"/>
     </row>
-    <row r="144" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A144" s="17"/>
       <c r="B144" s="17" t="s">
         <v>21</v>
@@ -14536,7 +14656,7 @@
       </c>
       <c r="I144" s="17"/>
     </row>
-    <row r="145" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A145" s="17"/>
       <c r="B145" s="17" t="s">
         <v>21</v>
@@ -14559,7 +14679,7 @@
       </c>
       <c r="I145" s="17"/>
     </row>
-    <row r="146" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A146" s="17"/>
       <c r="B146" s="17" t="s">
         <v>21</v>
@@ -14582,7 +14702,7 @@
       </c>
       <c r="I146" s="17"/>
     </row>
-    <row r="147" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A147" s="17"/>
       <c r="B147" s="17" t="s">
         <v>21</v>
@@ -14605,7 +14725,7 @@
       </c>
       <c r="I147" s="17"/>
     </row>
-    <row r="148" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A148" s="17"/>
       <c r="B148" s="17" t="s">
         <v>21</v>
@@ -14628,7 +14748,7 @@
       </c>
       <c r="I148" s="17"/>
     </row>
-    <row r="149" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A149" s="17"/>
       <c r="B149" s="17" t="s">
         <v>21</v>
@@ -14651,7 +14771,7 @@
       </c>
       <c r="I149" s="17"/>
     </row>
-    <row r="150" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A150" s="17"/>
       <c r="B150" s="17" t="s">
         <v>21</v>
@@ -14674,7 +14794,7 @@
       </c>
       <c r="I150" s="17"/>
     </row>
-    <row r="151" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A151" s="17" t="b">
         <v>0</v>
       </c>
@@ -14693,7 +14813,7 @@
       <c r="H151" s="17"/>
       <c r="I151" s="17"/>
     </row>
-    <row r="152" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A152" s="17"/>
       <c r="B152" s="17" t="s">
         <v>21</v>
@@ -14716,7 +14836,7 @@
       </c>
       <c r="I152" s="17"/>
     </row>
-    <row r="153" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A153" s="17" t="b">
         <v>0</v>
       </c>
@@ -14735,7 +14855,7 @@
       <c r="H153" s="17"/>
       <c r="I153" s="17"/>
     </row>
-    <row r="154" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A154" s="17"/>
       <c r="B154" s="17" t="s">
         <v>21</v>
@@ -14758,7 +14878,7 @@
       </c>
       <c r="I154" s="17"/>
     </row>
-    <row r="155" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A155" s="17"/>
       <c r="B155" s="17" t="s">
         <v>21</v>
@@ -14781,7 +14901,7 @@
       </c>
       <c r="I155" s="17"/>
     </row>
-    <row r="156" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A156" s="17" t="b">
         <v>0</v>
       </c>
@@ -14800,7 +14920,7 @@
       <c r="H156" s="17"/>
       <c r="I156" s="17"/>
     </row>
-    <row r="157" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A157" s="17"/>
       <c r="B157" s="17" t="s">
         <v>21</v>
@@ -14825,7 +14945,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="158" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A158" s="17"/>
       <c r="B158" s="17" t="s">
         <v>21</v>
@@ -14848,7 +14968,7 @@
       </c>
       <c r="I158" s="17"/>
     </row>
-    <row r="159" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A159" s="17"/>
       <c r="B159" s="17" t="s">
         <v>21</v>
@@ -14871,7 +14991,7 @@
       </c>
       <c r="I159" s="17"/>
     </row>
-    <row r="160" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A160" s="17"/>
       <c r="B160" s="17" t="s">
         <v>21</v>
@@ -14894,7 +15014,7 @@
       </c>
       <c r="I160" s="17"/>
     </row>
-    <row r="161" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A161" s="17"/>
       <c r="B161" s="17" t="s">
         <v>21</v>
@@ -14917,7 +15037,7 @@
       </c>
       <c r="I161" s="17"/>
     </row>
-    <row r="162" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A162" s="17"/>
       <c r="B162" s="17" t="s">
         <v>21</v>
@@ -14940,7 +15060,7 @@
       </c>
       <c r="I162" s="17"/>
     </row>
-    <row r="163" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A163" s="17"/>
       <c r="B163" s="17" t="s">
         <v>21</v>
@@ -14963,7 +15083,7 @@
       </c>
       <c r="I163" s="17"/>
     </row>
-    <row r="164" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A164" s="17"/>
       <c r="B164" s="17" t="s">
         <v>21</v>
@@ -14986,7 +15106,7 @@
       </c>
       <c r="I164" s="17"/>
     </row>
-    <row r="165" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A165" s="17"/>
       <c r="B165" s="17" t="s">
         <v>21</v>
@@ -15009,7 +15129,7 @@
       </c>
       <c r="I165" s="17"/>
     </row>
-    <row r="166" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A166" s="17"/>
       <c r="B166" s="17" t="s">
         <v>21</v>
@@ -15032,7 +15152,7 @@
       </c>
       <c r="I166" s="17"/>
     </row>
-    <row r="167" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A167" s="17" t="b">
         <v>0</v>
       </c>
@@ -15051,7 +15171,7 @@
       <c r="H167" s="17"/>
       <c r="I167" s="17"/>
     </row>
-    <row r="168" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A168" s="17"/>
       <c r="B168" s="17" t="s">
         <v>21</v>
@@ -15076,7 +15196,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="169" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A169" s="17"/>
       <c r="B169" s="17" t="s">
         <v>21</v>
@@ -15099,7 +15219,7 @@
       </c>
       <c r="I169" s="17"/>
     </row>
-    <row r="170" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A170" s="17"/>
       <c r="B170" s="17" t="s">
         <v>21</v>
@@ -15122,7 +15242,7 @@
       </c>
       <c r="I170" s="17"/>
     </row>
-    <row r="171" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A171" s="17"/>
       <c r="B171" s="17" t="s">
         <v>21</v>
@@ -15145,7 +15265,7 @@
       </c>
       <c r="I171" s="17"/>
     </row>
-    <row r="172" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A172" s="17"/>
       <c r="B172" s="17" t="s">
         <v>21</v>
@@ -15168,7 +15288,7 @@
       </c>
       <c r="I172" s="17"/>
     </row>
-    <row r="173" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A173" s="17"/>
       <c r="B173" s="17" t="s">
         <v>21</v>
@@ -15191,7 +15311,7 @@
       </c>
       <c r="I173" s="17"/>
     </row>
-    <row r="174" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A174" s="17"/>
       <c r="B174" s="17" t="s">
         <v>21</v>
@@ -15214,7 +15334,7 @@
       </c>
       <c r="I174" s="17"/>
     </row>
-    <row r="175" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A175" s="17"/>
       <c r="B175" s="17" t="s">
         <v>21</v>
@@ -15237,7 +15357,7 @@
       </c>
       <c r="I175" s="17"/>
     </row>
-    <row r="176" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A176" s="17"/>
       <c r="B176" s="17" t="s">
         <v>21</v>
@@ -15260,7 +15380,7 @@
       </c>
       <c r="I176" s="17"/>
     </row>
-    <row r="177" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A177" s="17"/>
       <c r="B177" s="17" t="s">
         <v>21</v>
@@ -15283,7 +15403,7 @@
       </c>
       <c r="I177" s="17"/>
     </row>
-    <row r="178" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A178" s="17" t="b">
         <v>0</v>
       </c>
@@ -15302,7 +15422,7 @@
       <c r="H178" s="17"/>
       <c r="I178" s="17"/>
     </row>
-    <row r="179" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A179" s="17"/>
       <c r="B179" s="17" t="s">
         <v>21</v>
@@ -15325,7 +15445,7 @@
       </c>
       <c r="I179" s="17"/>
     </row>
-    <row r="180" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A180" s="17"/>
       <c r="B180" s="17" t="s">
         <v>21</v>
@@ -15348,7 +15468,7 @@
       </c>
       <c r="I180" s="17"/>
     </row>
-    <row r="181" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A181" s="17"/>
       <c r="B181" s="17" t="s">
         <v>21</v>
@@ -15371,7 +15491,7 @@
       </c>
       <c r="I181" s="17"/>
     </row>
-    <row r="182" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A182" s="17"/>
       <c r="B182" s="17" t="s">
         <v>21</v>
@@ -15394,7 +15514,7 @@
       </c>
       <c r="I182" s="17"/>
     </row>
-    <row r="183" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A183" s="17" t="b">
         <v>0</v>
       </c>
@@ -15413,7 +15533,7 @@
       <c r="H183" s="17"/>
       <c r="I183" s="17"/>
     </row>
-    <row r="184" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A184" s="17"/>
       <c r="B184" s="17" t="s">
         <v>21</v>
@@ -15436,7 +15556,7 @@
       </c>
       <c r="I184" s="17"/>
     </row>
-    <row r="185" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A185" s="17"/>
       <c r="B185" s="17" t="s">
         <v>21</v>
@@ -15459,7 +15579,7 @@
       </c>
       <c r="I185" s="17"/>
     </row>
-    <row r="186" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A186" s="17"/>
       <c r="B186" s="17" t="s">
         <v>21</v>
@@ -15482,7 +15602,7 @@
       </c>
       <c r="I186" s="17"/>
     </row>
-    <row r="187" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A187" s="17"/>
       <c r="B187" s="17" t="s">
         <v>21</v>
@@ -15505,7 +15625,7 @@
       </c>
       <c r="I187" s="17"/>
     </row>
-    <row r="188" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A188" s="17" t="b">
         <v>0</v>
       </c>
@@ -15524,7 +15644,7 @@
       <c r="H188" s="17"/>
       <c r="I188" s="17"/>
     </row>
-    <row r="189" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A189" s="17"/>
       <c r="B189" s="17" t="s">
         <v>21</v>
@@ -15545,7 +15665,7 @@
       <c r="H189" s="17"/>
       <c r="I189" s="17"/>
     </row>
-    <row r="190" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A190" s="17"/>
       <c r="B190" s="17" t="s">
         <v>21</v>
@@ -15568,7 +15688,7 @@
       </c>
       <c r="I190" s="17"/>
     </row>
-    <row r="191" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A191" s="17" t="b">
         <v>0</v>
       </c>
@@ -15587,7 +15707,7 @@
       <c r="H191" s="17"/>
       <c r="I191" s="17"/>
     </row>
-    <row r="192" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A192" s="17"/>
       <c r="B192" s="17" t="s">
         <v>21</v>
@@ -15610,7 +15730,7 @@
       </c>
       <c r="I192" s="17"/>
     </row>
-    <row r="193" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A193" s="17"/>
       <c r="B193" s="17" t="s">
         <v>21</v>
@@ -15635,7 +15755,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="194" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A194" s="17"/>
       <c r="B194" s="17" t="s">
         <v>21</v>
@@ -15656,7 +15776,7 @@
       <c r="H194" s="17"/>
       <c r="I194" s="17"/>
     </row>
-    <row r="195" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A195" s="17"/>
       <c r="B195" s="17" t="s">
         <v>21</v>
@@ -15681,7 +15801,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="196" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A196" s="17"/>
       <c r="B196" s="17" t="s">
         <v>21</v>
@@ -15706,7 +15826,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="197" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A197" s="17" t="b">
         <v>0</v>
       </c>
@@ -15725,7 +15845,7 @@
       <c r="H197" s="17"/>
       <c r="I197" s="17"/>
     </row>
-    <row r="198" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A198" s="17"/>
       <c r="B198" s="17" t="s">
         <v>21</v>
@@ -15750,7 +15870,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="199" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A199" s="17"/>
       <c r="B199" s="17" t="s">
         <v>21</v>
@@ -15773,7 +15893,7 @@
       </c>
       <c r="I199" s="17"/>
     </row>
-    <row r="200" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A200" s="17"/>
       <c r="B200" s="17" t="s">
         <v>21</v>
@@ -15796,7 +15916,7 @@
       </c>
       <c r="I200" s="17"/>
     </row>
-    <row r="201" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A201" s="17"/>
       <c r="B201" s="17" t="s">
         <v>21</v>
@@ -15819,7 +15939,7 @@
       </c>
       <c r="I201" s="17"/>
     </row>
-    <row r="202" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A202" s="17"/>
       <c r="B202" s="17" t="s">
         <v>21</v>
@@ -15842,7 +15962,7 @@
       </c>
       <c r="I202" s="17"/>
     </row>
-    <row r="203" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A203" s="17"/>
       <c r="B203" s="17" t="s">
         <v>21</v>
@@ -15865,7 +15985,7 @@
       </c>
       <c r="I203" s="17"/>
     </row>
-    <row r="204" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A204" s="17"/>
       <c r="B204" s="17" t="s">
         <v>21</v>
@@ -15888,7 +16008,7 @@
       </c>
       <c r="I204" s="17"/>
     </row>
-    <row r="205" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A205" s="17"/>
       <c r="B205" s="17" t="s">
         <v>21</v>
@@ -15911,7 +16031,7 @@
       </c>
       <c r="I205" s="17"/>
     </row>
-    <row r="206" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A206" s="17"/>
       <c r="B206" s="17" t="s">
         <v>21</v>
@@ -15934,7 +16054,7 @@
       </c>
       <c r="I206" s="17"/>
     </row>
-    <row r="207" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A207" s="17" t="b">
         <v>0</v>
       </c>
@@ -15953,7 +16073,7 @@
       <c r="H207" s="17"/>
       <c r="I207" s="17"/>
     </row>
-    <row r="208" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A208" s="17"/>
       <c r="B208" s="17" t="s">
         <v>21</v>
@@ -15978,7 +16098,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="209" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A209" s="17"/>
       <c r="B209" s="17" t="s">
         <v>21</v>
@@ -16001,7 +16121,7 @@
       </c>
       <c r="I209" s="17"/>
     </row>
-    <row r="210" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A210" s="17"/>
       <c r="B210" s="17" t="s">
         <v>21</v>
@@ -16024,7 +16144,7 @@
       </c>
       <c r="I210" s="17"/>
     </row>
-    <row r="211" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A211" s="17"/>
       <c r="B211" s="17" t="s">
         <v>21</v>
@@ -16047,7 +16167,7 @@
       </c>
       <c r="I211" s="17"/>
     </row>
-    <row r="212" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A212" s="17"/>
       <c r="B212" s="17" t="s">
         <v>21</v>
@@ -16070,7 +16190,7 @@
       </c>
       <c r="I212" s="17"/>
     </row>
-    <row r="213" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A213" s="17"/>
       <c r="B213" s="17" t="s">
         <v>21</v>
@@ -16093,7 +16213,7 @@
       </c>
       <c r="I213" s="17"/>
     </row>
-    <row r="214" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A214" s="17"/>
       <c r="B214" s="17" t="s">
         <v>21</v>
@@ -16116,7 +16236,7 @@
       </c>
       <c r="I214" s="17"/>
     </row>
-    <row r="215" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A215" s="17"/>
       <c r="B215" s="17" t="s">
         <v>21</v>
@@ -16139,7 +16259,7 @@
       </c>
       <c r="I215" s="17"/>
     </row>
-    <row r="216" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A216" s="17"/>
       <c r="B216" s="17" t="s">
         <v>21</v>
@@ -16162,7 +16282,7 @@
       </c>
       <c r="I216" s="17"/>
     </row>
-    <row r="217" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A217" s="17" t="b">
         <v>0</v>
       </c>
@@ -16181,7 +16301,7 @@
       <c r="H217" s="17"/>
       <c r="I217" s="17"/>
     </row>
-    <row r="218" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A218" s="17"/>
       <c r="B218" s="17" t="s">
         <v>21</v>
@@ -16202,7 +16322,7 @@
       <c r="H218" s="17"/>
       <c r="I218" s="17"/>
     </row>
-    <row r="219" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A219" s="17"/>
       <c r="B219" s="17" t="s">
         <v>21</v>
@@ -16225,7 +16345,7 @@
       </c>
       <c r="I219" s="17"/>
     </row>
-    <row r="220" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A220" s="17"/>
       <c r="B220" s="17" t="s">
         <v>21</v>
@@ -16248,7 +16368,7 @@
       </c>
       <c r="I220" s="17"/>
     </row>
-    <row r="221" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A221" s="17"/>
       <c r="B221" s="17" t="s">
         <v>21</v>
@@ -16271,7 +16391,7 @@
       </c>
       <c r="I221" s="17"/>
     </row>
-    <row r="222" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A222" s="17"/>
       <c r="B222" s="17" t="s">
         <v>21</v>
@@ -16294,7 +16414,7 @@
       </c>
       <c r="I222" s="17"/>
     </row>
-    <row r="223" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A223" s="17"/>
       <c r="B223" s="17" t="s">
         <v>21</v>
@@ -16317,7 +16437,7 @@
       </c>
       <c r="I223" s="17"/>
     </row>
-    <row r="224" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A224" s="17"/>
       <c r="B224" s="17" t="s">
         <v>21</v>
@@ -16340,7 +16460,7 @@
       </c>
       <c r="I224" s="17"/>
     </row>
-    <row r="225" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A225" s="17"/>
       <c r="B225" s="17" t="s">
         <v>21</v>
@@ -16363,7 +16483,7 @@
       </c>
       <c r="I225" s="17"/>
     </row>
-    <row r="226" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A226" s="17"/>
       <c r="B226" s="17" t="s">
         <v>21</v>
@@ -16386,7 +16506,7 @@
       </c>
       <c r="I226" s="17"/>
     </row>
-    <row r="227" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A227" s="17"/>
       <c r="B227" s="17" t="s">
         <v>21</v>
@@ -16409,7 +16529,7 @@
       </c>
       <c r="I227" s="17"/>
     </row>
-    <row r="228" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A228" s="17"/>
       <c r="B228" s="17" t="s">
         <v>21</v>
@@ -16432,7 +16552,7 @@
       </c>
       <c r="I228" s="17"/>
     </row>
-    <row r="229" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A229" s="17"/>
       <c r="B229" s="17" t="s">
         <v>21</v>
@@ -16455,7 +16575,7 @@
       </c>
       <c r="I229" s="17"/>
     </row>
-    <row r="230" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A230" s="17"/>
       <c r="B230" s="17" t="s">
         <v>21</v>
@@ -16478,7 +16598,7 @@
       </c>
       <c r="I230" s="17"/>
     </row>
-    <row r="231" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A231" s="17"/>
       <c r="B231" s="17" t="s">
         <v>21</v>
@@ -16501,7 +16621,7 @@
       </c>
       <c r="I231" s="17"/>
     </row>
-    <row r="232" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A232" s="17"/>
       <c r="B232" s="17" t="s">
         <v>21</v>
@@ -16524,7 +16644,7 @@
       </c>
       <c r="I232" s="17"/>
     </row>
-    <row r="233" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A233" s="17"/>
       <c r="B233" s="17" t="s">
         <v>21</v>
@@ -16547,7 +16667,7 @@
       </c>
       <c r="I233" s="17"/>
     </row>
-    <row r="234" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A234" s="17" t="b">
         <v>0</v>
       </c>
@@ -16566,7 +16686,7 @@
       <c r="H234" s="17"/>
       <c r="I234" s="17"/>
     </row>
-    <row r="235" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A235" s="17"/>
       <c r="B235" s="17" t="s">
         <v>21</v>
@@ -16587,7 +16707,7 @@
       <c r="H235" s="17"/>
       <c r="I235" s="17"/>
     </row>
-    <row r="236" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A236" s="17"/>
       <c r="B236" s="17" t="s">
         <v>21</v>
@@ -16610,7 +16730,7 @@
       </c>
       <c r="I236" s="17"/>
     </row>
-    <row r="237" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A237" s="17"/>
       <c r="B237" s="17" t="s">
         <v>21</v>
@@ -16633,7 +16753,7 @@
       </c>
       <c r="I237" s="17"/>
     </row>
-    <row r="238" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A238" s="17"/>
       <c r="B238" s="17" t="s">
         <v>21</v>
@@ -16656,7 +16776,7 @@
       </c>
       <c r="I238" s="17"/>
     </row>
-    <row r="239" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A239" s="17"/>
       <c r="B239" s="17" t="s">
         <v>21</v>
@@ -16679,7 +16799,7 @@
       </c>
       <c r="I239" s="17"/>
     </row>
-    <row r="240" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A240" s="17"/>
       <c r="B240" s="17" t="s">
         <v>21</v>
@@ -16702,7 +16822,7 @@
       </c>
       <c r="I240" s="17"/>
     </row>
-    <row r="241" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A241" s="17"/>
       <c r="B241" s="17" t="s">
         <v>21</v>
@@ -16725,7 +16845,7 @@
       </c>
       <c r="I241" s="17"/>
     </row>
-    <row r="242" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A242" s="17"/>
       <c r="B242" s="17" t="s">
         <v>21</v>
@@ -16748,7 +16868,7 @@
       </c>
       <c r="I242" s="17"/>
     </row>
-    <row r="243" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A243" s="17"/>
       <c r="B243" s="17" t="s">
         <v>21</v>
@@ -16771,7 +16891,7 @@
       </c>
       <c r="I243" s="17"/>
     </row>
-    <row r="244" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A244" s="17"/>
       <c r="B244" s="17" t="s">
         <v>21</v>
@@ -16794,7 +16914,7 @@
       </c>
       <c r="I244" s="17"/>
     </row>
-    <row r="245" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A245" s="17"/>
       <c r="B245" s="17" t="s">
         <v>21</v>
@@ -16817,7 +16937,7 @@
       </c>
       <c r="I245" s="17"/>
     </row>
-    <row r="246" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A246" s="17"/>
       <c r="B246" s="17" t="s">
         <v>21</v>
@@ -16840,7 +16960,7 @@
       </c>
       <c r="I246" s="17"/>
     </row>
-    <row r="247" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A247" s="17"/>
       <c r="B247" s="17" t="s">
         <v>21</v>
@@ -16863,7 +16983,7 @@
       </c>
       <c r="I247" s="17"/>
     </row>
-    <row r="248" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A248" s="17"/>
       <c r="B248" s="17" t="s">
         <v>21</v>
@@ -16886,7 +17006,7 @@
       </c>
       <c r="I248" s="17"/>
     </row>
-    <row r="249" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A249" s="17"/>
       <c r="B249" s="17" t="s">
         <v>21</v>
@@ -16909,7 +17029,7 @@
       </c>
       <c r="I249" s="17"/>
     </row>
-    <row r="250" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A250" s="17"/>
       <c r="B250" s="17" t="s">
         <v>21</v>
@@ -16932,7 +17052,7 @@
       </c>
       <c r="I250" s="17"/>
     </row>
-    <row r="251" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A251" s="17" t="b">
         <v>0</v>
       </c>
@@ -16951,7 +17071,7 @@
       <c r="H251" s="17"/>
       <c r="I251" s="17"/>
     </row>
-    <row r="252" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A252" s="17"/>
       <c r="B252" s="17" t="s">
         <v>21</v>
@@ -16976,7 +17096,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="253" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A253" s="17"/>
       <c r="B253" s="17" t="s">
         <v>21</v>
@@ -16999,7 +17119,7 @@
       </c>
       <c r="I253" s="17"/>
     </row>
-    <row r="254" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A254" s="17"/>
       <c r="B254" s="17" t="s">
         <v>21</v>
@@ -17022,7 +17142,7 @@
       </c>
       <c r="I254" s="17"/>
     </row>
-    <row r="255" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A255" s="17"/>
       <c r="B255" s="17" t="s">
         <v>21</v>
@@ -17045,7 +17165,7 @@
       </c>
       <c r="I255" s="17"/>
     </row>
-    <row r="256" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A256" s="17"/>
       <c r="B256" s="17" t="s">
         <v>21</v>
@@ -17068,7 +17188,7 @@
       </c>
       <c r="I256" s="17"/>
     </row>
-    <row r="257" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A257" s="17" t="b">
         <v>0</v>
       </c>
@@ -17087,7 +17207,7 @@
       <c r="H257" s="17"/>
       <c r="I257" s="17"/>
     </row>
-    <row r="258" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A258" s="17"/>
       <c r="B258" s="17" t="s">
         <v>21</v>
@@ -17112,7 +17232,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="259" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A259" s="17"/>
       <c r="B259" s="17" t="s">
         <v>21</v>
@@ -17135,7 +17255,7 @@
       </c>
       <c r="I259" s="17"/>
     </row>
-    <row r="260" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A260" s="17" t="b">
         <v>0</v>
       </c>
@@ -17154,7 +17274,7 @@
       <c r="H260" s="17"/>
       <c r="I260" s="17"/>
     </row>
-    <row r="261" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A261" s="17" t="b">
         <v>0</v>
       </c>
@@ -17173,7 +17293,7 @@
       <c r="H261" s="17"/>
       <c r="I261" s="17"/>
     </row>
-    <row r="262" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A262" s="17" t="b">
         <v>0</v>
       </c>
@@ -17192,7 +17312,7 @@
       <c r="H262" s="17"/>
       <c r="I262" s="17"/>
     </row>
-    <row r="263" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A263" s="17"/>
       <c r="B263" s="17" t="s">
         <v>21</v>
@@ -17213,7 +17333,7 @@
       <c r="H263" s="17"/>
       <c r="I263" s="17"/>
     </row>
-    <row r="264" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A264" s="17"/>
       <c r="B264" s="17" t="s">
         <v>21</v>
@@ -17236,7 +17356,7 @@
       </c>
       <c r="I264" s="17"/>
     </row>
-    <row r="265" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A265" s="17"/>
       <c r="B265" s="17" t="s">
         <v>21</v>
@@ -17259,7 +17379,7 @@
       </c>
       <c r="I265" s="17"/>
     </row>
-    <row r="266" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A266" s="17"/>
       <c r="B266" s="17" t="s">
         <v>21</v>
@@ -17282,7 +17402,7 @@
       </c>
       <c r="I266" s="17"/>
     </row>
-    <row r="267" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A267" s="17"/>
       <c r="B267" s="17" t="s">
         <v>21</v>
@@ -17305,7 +17425,7 @@
       </c>
       <c r="I267" s="17"/>
     </row>
-    <row r="268" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A268" s="17"/>
       <c r="B268" s="17" t="s">
         <v>21</v>
@@ -17328,7 +17448,7 @@
       </c>
       <c r="I268" s="17"/>
     </row>
-    <row r="269" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A269" s="17"/>
       <c r="B269" s="17" t="s">
         <v>21</v>
@@ -17351,7 +17471,7 @@
       </c>
       <c r="I269" s="17"/>
     </row>
-    <row r="270" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A270" s="17"/>
       <c r="B270" s="17" t="s">
         <v>21</v>
@@ -17374,7 +17494,7 @@
       </c>
       <c r="I270" s="17"/>
     </row>
-    <row r="271" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A271" s="17"/>
       <c r="B271" s="17" t="s">
         <v>21</v>
@@ -17397,7 +17517,7 @@
       </c>
       <c r="I271" s="17"/>
     </row>
-    <row r="272" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A272" s="17"/>
       <c r="B272" s="17" t="s">
         <v>21</v>
@@ -17420,7 +17540,7 @@
       </c>
       <c r="I272" s="17"/>
     </row>
-    <row r="273" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A273" s="17"/>
       <c r="B273" s="17" t="s">
         <v>21</v>
@@ -17443,7 +17563,7 @@
       </c>
       <c r="I273" s="17"/>
     </row>
-    <row r="274" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A274" s="17" t="b">
         <v>0</v>
       </c>
@@ -17462,7 +17582,7 @@
       <c r="H274" s="17"/>
       <c r="I274" s="17"/>
     </row>
-    <row r="275" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A275" s="17"/>
       <c r="B275" s="17" t="s">
         <v>21</v>
@@ -17485,7 +17605,7 @@
       </c>
       <c r="I275" s="17"/>
     </row>
-    <row r="276" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A276" s="17" t="b">
         <v>0</v>
       </c>
@@ -17504,7 +17624,7 @@
       <c r="H276" s="17"/>
       <c r="I276" s="17"/>
     </row>
-    <row r="277" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A277" s="17"/>
       <c r="B277" s="17" t="s">
         <v>21</v>
@@ -17529,7 +17649,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="278" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A278" s="17"/>
       <c r="B278" s="17" t="s">
         <v>21</v>
@@ -17552,7 +17672,7 @@
       </c>
       <c r="I278" s="17"/>
     </row>
-    <row r="279" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A279" s="17"/>
       <c r="B279" s="17" t="s">
         <v>21</v>
@@ -17575,7 +17695,7 @@
       </c>
       <c r="I279" s="17"/>
     </row>
-    <row r="280" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A280" s="17"/>
       <c r="B280" s="17" t="s">
         <v>21</v>
@@ -17598,7 +17718,7 @@
       </c>
       <c r="I280" s="17"/>
     </row>
-    <row r="281" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A281" s="17"/>
       <c r="B281" s="17" t="s">
         <v>21</v>
@@ -17621,7 +17741,7 @@
       </c>
       <c r="I281" s="17"/>
     </row>
-    <row r="282" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A282" s="17"/>
       <c r="B282" s="17" t="s">
         <v>21</v>
@@ -17644,7 +17764,7 @@
       </c>
       <c r="I282" s="17"/>
     </row>
-    <row r="283" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A283" s="17"/>
       <c r="B283" s="17" t="s">
         <v>21</v>
@@ -17667,7 +17787,7 @@
       </c>
       <c r="I283" s="17"/>
     </row>
-    <row r="284" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A284" s="17"/>
       <c r="B284" s="17" t="s">
         <v>21</v>
@@ -17690,7 +17810,7 @@
       </c>
       <c r="I284" s="17"/>
     </row>
-    <row r="285" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A285" s="17"/>
       <c r="B285" s="17" t="s">
         <v>21</v>
@@ -17713,7 +17833,7 @@
       </c>
       <c r="I285" s="17"/>
     </row>
-    <row r="286" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A286" s="17"/>
       <c r="B286" s="17" t="s">
         <v>21</v>
@@ -17736,7 +17856,7 @@
       </c>
       <c r="I286" s="17"/>
     </row>
-    <row r="287" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A287" s="17"/>
       <c r="B287" s="17" t="s">
         <v>21</v>
@@ -17759,7 +17879,7 @@
       </c>
       <c r="I287" s="17"/>
     </row>
-    <row r="288" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A288" s="17" t="b">
         <v>0</v>
       </c>
@@ -17778,7 +17898,7 @@
       <c r="H288" s="17"/>
       <c r="I288" s="17"/>
     </row>
-    <row r="289" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A289" s="17"/>
       <c r="B289" s="17" t="s">
         <v>21</v>
@@ -17801,7 +17921,7 @@
       </c>
       <c r="I289" s="17"/>
     </row>
-    <row r="290" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A290" s="17" t="b">
         <v>0</v>
       </c>
@@ -17820,7 +17940,7 @@
       <c r="H290" s="17"/>
       <c r="I290" s="17"/>
     </row>
-    <row r="291" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A291" s="17"/>
       <c r="B291" s="17" t="s">
         <v>21</v>
@@ -17841,7 +17961,7 @@
       <c r="H291" s="17"/>
       <c r="I291" s="17"/>
     </row>
-    <row r="292" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A292" s="17" t="b">
         <v>0</v>
       </c>
@@ -17860,7 +17980,7 @@
       <c r="H292" s="17"/>
       <c r="I292" s="17"/>
     </row>
-    <row r="293" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A293" s="17"/>
       <c r="B293" s="17" t="s">
         <v>21</v>
@@ -17881,7 +18001,7 @@
       <c r="H293" s="17"/>
       <c r="I293" s="17"/>
     </row>
-    <row r="294" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A294" s="17" t="b">
         <v>0</v>
       </c>
@@ -17900,7 +18020,7 @@
       <c r="H294" s="17"/>
       <c r="I294" s="17"/>
     </row>
-    <row r="295" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A295" s="17"/>
       <c r="B295" s="17" t="s">
         <v>21</v>
@@ -17921,7 +18041,7 @@
       <c r="H295" s="17"/>
       <c r="I295" s="17"/>
     </row>
-    <row r="296" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A296" s="17" t="b">
         <v>0</v>
       </c>
@@ -17940,7 +18060,7 @@
       <c r="H296" s="17"/>
       <c r="I296" s="17"/>
     </row>
-    <row r="297" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A297" s="17"/>
       <c r="B297" s="17" t="s">
         <v>21</v>
@@ -17963,7 +18083,7 @@
       </c>
       <c r="I297" s="17"/>
     </row>
-    <row r="298" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A298" s="17" t="b">
         <v>0</v>
       </c>
@@ -17982,7 +18102,7 @@
       <c r="H298" s="17"/>
       <c r="I298" s="17"/>
     </row>
-    <row r="299" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A299" s="17"/>
       <c r="B299" s="17" t="s">
         <v>21</v>
@@ -18007,7 +18127,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="300" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A300" s="17"/>
       <c r="B300" s="17" t="s">
         <v>21</v>
@@ -18030,7 +18150,7 @@
       </c>
       <c r="I300" s="17"/>
     </row>
-    <row r="301" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A301" s="17"/>
       <c r="B301" s="17" t="s">
         <v>21</v>
@@ -18053,7 +18173,7 @@
       </c>
       <c r="I301" s="17"/>
     </row>
-    <row r="302" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A302" s="17"/>
       <c r="B302" s="17" t="s">
         <v>21</v>
@@ -18076,7 +18196,7 @@
       </c>
       <c r="I302" s="17"/>
     </row>
-    <row r="303" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A303" s="17"/>
       <c r="B303" s="17" t="s">
         <v>21</v>
@@ -18099,7 +18219,7 @@
       </c>
       <c r="I303" s="17"/>
     </row>
-    <row r="304" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A304" s="17"/>
       <c r="B304" s="17" t="s">
         <v>21</v>
@@ -18122,7 +18242,7 @@
       </c>
       <c r="I304" s="17"/>
     </row>
-    <row r="305" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A305" s="17"/>
       <c r="B305" s="17" t="s">
         <v>21</v>
@@ -18145,7 +18265,7 @@
       </c>
       <c r="I305" s="17"/>
     </row>
-    <row r="306" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A306" s="17"/>
       <c r="B306" s="17" t="s">
         <v>21</v>
@@ -18168,7 +18288,7 @@
       </c>
       <c r="I306" s="17"/>
     </row>
-    <row r="307" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A307" s="17"/>
       <c r="B307" s="17" t="s">
         <v>21</v>
@@ -18191,7 +18311,7 @@
       </c>
       <c r="I307" s="17"/>
     </row>
-    <row r="308" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A308" s="17" t="b">
         <v>0</v>
       </c>
@@ -18210,7 +18330,7 @@
       <c r="H308" s="17"/>
       <c r="I308" s="17"/>
     </row>
-    <row r="309" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A309" s="17"/>
       <c r="B309" s="17" t="s">
         <v>21</v>
@@ -18233,7 +18353,7 @@
       </c>
       <c r="I309" s="17"/>
     </row>
-    <row r="310" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A310" s="17"/>
       <c r="B310" s="17" t="s">
         <v>21</v>
@@ -18256,7 +18376,7 @@
       </c>
       <c r="I310" s="17"/>
     </row>
-    <row r="311" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A311" s="17"/>
       <c r="B311" s="17" t="s">
         <v>21</v>
@@ -18279,7 +18399,7 @@
       </c>
       <c r="I311" s="17"/>
     </row>
-    <row r="312" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A312" s="17"/>
       <c r="B312" s="17" t="s">
         <v>21</v>
@@ -18302,7 +18422,7 @@
       </c>
       <c r="I312" s="17"/>
     </row>
-    <row r="313" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A313" s="17" t="b">
         <v>0</v>
       </c>
@@ -18321,7 +18441,7 @@
       <c r="H313" s="17"/>
       <c r="I313" s="17"/>
     </row>
-    <row r="314" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A314" s="17"/>
       <c r="B314" s="17" t="s">
         <v>21</v>
@@ -18344,7 +18464,7 @@
       </c>
       <c r="I314" s="17"/>
     </row>
-    <row r="315" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A315" s="17"/>
       <c r="B315" s="17" t="s">
         <v>21</v>
@@ -18367,7 +18487,7 @@
       </c>
       <c r="I315" s="17"/>
     </row>
-    <row r="316" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A316" s="17"/>
       <c r="B316" s="17" t="s">
         <v>21</v>
@@ -18392,7 +18512,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="317" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A317" s="17" t="b">
         <v>0</v>
       </c>
@@ -18411,7 +18531,7 @@
       <c r="H317" s="17"/>
       <c r="I317" s="17"/>
     </row>
-    <row r="318" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A318" s="17"/>
       <c r="B318" s="17" t="s">
         <v>21</v>
@@ -18436,7 +18556,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="319" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A319" s="17"/>
       <c r="B319" s="17" t="s">
         <v>21</v>
@@ -18459,7 +18579,7 @@
       </c>
       <c r="I319" s="17"/>
     </row>
-    <row r="320" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A320" s="17" t="b">
         <v>0</v>
       </c>
@@ -18478,7 +18598,7 @@
       <c r="H320" s="17"/>
       <c r="I320" s="17"/>
     </row>
-    <row r="321" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A321" s="17"/>
       <c r="B321" s="17" t="s">
         <v>21</v>
@@ -18499,7 +18619,7 @@
       <c r="H321" s="17"/>
       <c r="I321" s="17"/>
     </row>
-    <row r="322" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A322" s="17"/>
       <c r="B322" s="17" t="s">
         <v>21</v>
@@ -18520,7 +18640,7 @@
       <c r="H322" s="17"/>
       <c r="I322" s="17"/>
     </row>
-    <row r="323" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A323" s="17"/>
       <c r="B323" s="17" t="s">
         <v>21</v>
@@ -18543,7 +18663,7 @@
       </c>
       <c r="I323" s="17"/>
     </row>
-    <row r="324" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A324" s="17" t="b">
         <v>0</v>
       </c>
@@ -18562,7 +18682,7 @@
       <c r="H324" s="17"/>
       <c r="I324" s="17"/>
     </row>
-    <row r="325" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A325" s="17" t="b">
         <v>0</v>
       </c>
@@ -18581,7 +18701,7 @@
       <c r="H325" s="17"/>
       <c r="I325" s="17"/>
     </row>
-    <row r="326" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A326" s="17"/>
       <c r="B326" s="17" t="s">
         <v>21</v>
@@ -18606,7 +18726,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="327" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A327" s="17"/>
       <c r="B327" s="17" t="s">
         <v>21</v>
@@ -18631,7 +18751,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A328" t="b">
         <v>0</v>
       </c>
@@ -18645,7 +18765,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B329" t="s">
         <v>21</v>
       </c>
@@ -18668,7 +18788,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B330" t="s">
         <v>21</v>
       </c>
@@ -18688,7 +18808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B331" t="s">
         <v>21</v>
       </c>
@@ -18708,7 +18828,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B332" t="s">
         <v>21</v>
       </c>
@@ -18728,7 +18848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B333" t="s">
         <v>21</v>
       </c>
@@ -18745,7 +18865,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B334" t="s">
         <v>21</v>
       </c>
@@ -18768,7 +18888,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B335" t="s">
         <v>21</v>
       </c>
@@ -18791,7 +18911,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A336" t="b">
         <v>0</v>
       </c>
@@ -18805,7 +18925,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="337" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B337" t="s">
         <v>21</v>
       </c>
@@ -18828,7 +18948,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="338" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B338" t="s">
         <v>21</v>
       </c>
@@ -18851,7 +18971,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="339" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B339" t="s">
         <v>21</v>
       </c>
@@ -18871,7 +18991,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="340" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B340" t="s">
         <v>21</v>
       </c>
@@ -18891,7 +19011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B341" t="s">
         <v>21</v>
       </c>
@@ -18908,7 +19028,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="342" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A342" s="1" t="b">
         <v>0</v>
       </c>
@@ -18934,7 +19054,7 @@
       <c r="O342" s="1"/>
       <c r="P342" s="1"/>
     </row>
-    <row r="343" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A343" s="1"/>
       <c r="B343" t="s">
         <v>21</v>
@@ -18963,7 +19083,7 @@
       <c r="O343" s="1"/>
       <c r="P343" s="1"/>
     </row>
-    <row r="344" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A344" s="17"/>
       <c r="B344" t="s">
         <v>21</v>
@@ -19002,7 +19122,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="345" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A345" t="b">
         <v>0</v>
       </c>
@@ -19016,7 +19136,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="346" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B346" t="s">
         <v>21</v>
       </c>
@@ -19036,7 +19156,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="347" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A347" t="b">
         <v>0</v>
       </c>
@@ -19050,7 +19170,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="348" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B348" t="s">
         <v>21</v>
       </c>
@@ -19070,7 +19190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B349" t="s">
         <v>21</v>
       </c>
@@ -19090,7 +19210,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="350" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B350" t="s">
         <v>21</v>
       </c>
@@ -19110,7 +19230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B351" t="s">
         <v>21</v>
       </c>
@@ -19130,7 +19250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B352" t="s">
         <v>21</v>
       </c>
@@ -19150,7 +19270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B353" t="s">
         <v>21</v>
       </c>
@@ -19170,7 +19290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B354" t="s">
         <v>21</v>
       </c>
@@ -19190,7 +19310,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="355" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B355" t="s">
         <v>21</v>
       </c>
@@ -19210,7 +19330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B356" t="s">
         <v>21</v>
       </c>
@@ -19230,7 +19350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A357" t="b">
         <v>0</v>
       </c>
@@ -19244,7 +19364,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="358" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B358" t="s">
         <v>21</v>
       </c>
@@ -19264,7 +19384,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="359" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B359" t="s">
         <v>21</v>
       </c>
@@ -19284,7 +19404,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="360" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A360" t="b">
         <v>0</v>
       </c>
@@ -19300,7 +19420,7 @@
       <c r="H360" s="4"/>
       <c r="I360" s="4"/>
     </row>
-    <row r="361" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B361" t="s">
         <v>21</v>
       </c>
@@ -19326,7 +19446,7 @@
       <c r="J361"/>
       <c r="K361"/>
     </row>
-    <row r="362" spans="1:18" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A362" s="17"/>
       <c r="B362" t="s">
         <v>22</v>
@@ -19367,7 +19487,7 @@
       <c r="Q362"/>
       <c r="R362"/>
     </row>
-    <row r="363" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A363" t="b">
         <v>0</v>
       </c>
@@ -19381,7 +19501,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="364" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B364" t="s">
         <v>21</v>
       </c>
@@ -19401,7 +19521,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="365" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A365" t="b">
         <v>0</v>
       </c>
@@ -19415,7 +19535,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="366" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B366" t="s">
         <v>21</v>
       </c>
@@ -19454,17 +19574,17 @@
       <selection activeCell="A17" sqref="A17:A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" customWidth="1"/>
-    <col min="5" max="5" width="16.109375" customWidth="1"/>
-    <col min="8" max="8" width="22.33203125" customWidth="1"/>
-    <col min="17" max="17" width="24.44140625" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" customWidth="1"/>
+    <col min="8" max="8" width="22.28515625" customWidth="1"/>
+    <col min="17" max="17" width="24.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>441</v>
       </c>
@@ -19475,7 +19595,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" s="30" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" s="30" t="s">
         <v>589</v>
       </c>
@@ -19489,7 +19609,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" s="30" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" s="30" t="s">
         <v>592</v>
       </c>
@@ -19503,7 +19623,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" s="30" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4" s="30" t="s">
         <v>594</v>
       </c>
@@ -19517,7 +19637,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" s="30" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5" s="30" t="s">
         <v>596</v>
       </c>
@@ -19531,7 +19651,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" s="30" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6" s="30" t="s">
         <v>598</v>
       </c>
@@ -19545,7 +19665,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" s="30" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" s="30" t="s">
         <v>440</v>
       </c>
@@ -19559,7 +19679,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" s="30" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" s="30" t="s">
         <v>601</v>
       </c>
@@ -19573,7 +19693,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" s="30" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9" s="30" t="s">
         <v>603</v>
       </c>
@@ -19587,7 +19707,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>569</v>
       </c>
@@ -19601,7 +19721,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>454</v>
       </c>
@@ -19615,7 +19735,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>452</v>
       </c>
@@ -19626,8 +19746,8 @@
         <v>544</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" s="30" customFormat="1" ht="14.45" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>547</v>
       </c>
@@ -19653,7 +19773,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>548</v>
       </c>
@@ -19694,7 +19814,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -19735,7 +19855,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>542</v>
       </c>
@@ -19767,7 +19887,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>550</v>
       </c>
@@ -19799,7 +19919,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>549</v>
       </c>
@@ -19828,7 +19948,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>551</v>
       </c>
@@ -19860,7 +19980,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>552</v>
       </c>
@@ -19880,7 +20000,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>682</v>
       </c>
@@ -19903,7 +20023,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="L25" s="1" t="s">
         <v>558</v>
       </c>
@@ -19914,7 +20034,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="L26" s="1" t="s">
         <v>539</v>
       </c>
@@ -19922,7 +20042,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="L27" s="1" t="s">
         <v>541</v>
       </c>

--- a/projects/office_calibration.xlsx
+++ b/projects/office_calibration.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24709"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23250" windowHeight="13170" tabRatio="562" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="20440" tabRatio="562" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="9" r:id="rId1"/>
@@ -31,7 +31,7 @@
     <definedName name="TrueFalse">Lookups!$C$12:$C$13</definedName>
     <definedName name="Workflow">Lookups!$E$12:$E$13</definedName>
   </definedNames>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -2759,7 +2759,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1832">
+  <cellStyleXfs count="1836">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -4510,6 +4510,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -4700,7 +4704,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1832">
+  <cellStyles count="1836">
     <cellStyle name="Comma" xfId="1749" builtinId="3"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
@@ -5617,6 +5621,8 @@
     <cellStyle name="Followed Hyperlink" xfId="1827" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1829" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1831" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1833" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1835" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -6532,6 +6538,8 @@
     <cellStyle name="Hyperlink" xfId="1826" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1828" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1830" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1832" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1834" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -6837,17 +6845,17 @@
       <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="81.7109375" customWidth="1"/>
+    <col min="1" max="1" width="81.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="28.9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" ht="28">
       <c r="A1" s="36" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="28.9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" ht="28">
       <c r="A2" s="36" t="s">
         <v>41</v>
       </c>
@@ -6871,17 +6879,17 @@
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="25.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="30.28515625" style="26" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="30.33203125" style="26" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29" style="1" customWidth="1"/>
-    <col min="4" max="4" width="33.140625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="61.7109375" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.7109375" style="1"/>
+    <col min="4" max="4" width="33.1640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="61.6640625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="A1" s="19"/>
       <c r="B1" s="28"/>
       <c r="C1" s="19"/>
@@ -6890,7 +6898,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="12" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" s="12" customFormat="1">
       <c r="A2" s="11" t="s">
         <v>435</v>
       </c>
@@ -6899,7 +6907,7 @@
       <c r="D2" s="13"/>
       <c r="E2" s="13"/>
     </row>
-    <row r="3" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>436</v>
       </c>
@@ -6910,7 +6918,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="28.9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="28">
       <c r="A4" s="1" t="s">
         <v>456</v>
       </c>
@@ -6921,7 +6929,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="42">
       <c r="A5" s="1" t="s">
         <v>469</v>
       </c>
@@ -6932,7 +6940,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="46.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="46.25" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>470</v>
       </c>
@@ -6943,7 +6951,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="28.9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
         <v>442</v>
       </c>
@@ -6962,7 +6970,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="28.9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="28">
       <c r="A8" s="1" t="s">
         <v>443</v>
       </c>
@@ -6981,7 +6989,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
         <v>458</v>
       </c>
@@ -6994,7 +7002,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="12" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" s="12" customFormat="1">
       <c r="A11" s="11" t="s">
         <v>28</v>
       </c>
@@ -7003,7 +7011,7 @@
       <c r="D11" s="13"/>
       <c r="E11" s="13"/>
     </row>
-    <row r="12" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
         <v>39</v>
       </c>
@@ -7014,7 +7022,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
         <v>25</v>
       </c>
@@ -7025,7 +7033,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
         <v>26</v>
       </c>
@@ -7036,7 +7044,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
         <v>462</v>
       </c>
@@ -7047,7 +7055,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="28.9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
         <v>463</v>
       </c>
@@ -7058,7 +7066,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
         <v>464</v>
       </c>
@@ -7069,7 +7077,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
         <v>466</v>
       </c>
@@ -7080,7 +7088,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" s="2" customFormat="1" ht="42">
       <c r="A20" s="11" t="s">
         <v>27</v>
       </c>
@@ -7093,7 +7101,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
         <v>451</v>
       </c>
@@ -7101,11 +7109,11 @@
         <v>542</v>
       </c>
     </row>
-    <row r="22" spans="1:5" s="31" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" s="31" customFormat="1">
       <c r="B22" s="26"/>
       <c r="D22" s="2"/>
     </row>
-    <row r="23" spans="1:5" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" s="2" customFormat="1" ht="42">
       <c r="A23" s="11" t="s">
         <v>450</v>
       </c>
@@ -7122,7 +7130,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5">
       <c r="A24" s="31" t="s">
         <v>538</v>
       </c>
@@ -7134,7 +7142,7 @@
       </c>
       <c r="D24" s="35"/>
     </row>
-    <row r="25" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5">
       <c r="A25" s="31" t="s">
         <v>543</v>
       </c>
@@ -7146,7 +7154,7 @@
       </c>
       <c r="D25" s="35"/>
     </row>
-    <row r="26" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5">
       <c r="A26" s="31" t="s">
         <v>557</v>
       </c>
@@ -7158,7 +7166,7 @@
       </c>
       <c r="D26" s="35"/>
     </row>
-    <row r="27" spans="1:5" s="31" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" s="31" customFormat="1">
       <c r="A27" s="31" t="s">
         <v>558</v>
       </c>
@@ -7170,7 +7178,7 @@
       </c>
       <c r="D27" s="35"/>
     </row>
-    <row r="28" spans="1:5" s="31" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" s="31" customFormat="1">
       <c r="A28" s="31" t="s">
         <v>539</v>
       </c>
@@ -7180,7 +7188,7 @@
       <c r="C28" s="30"/>
       <c r="D28" s="35"/>
     </row>
-    <row r="29" spans="1:5" s="31" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" s="31" customFormat="1">
       <c r="A29" s="31" t="s">
         <v>541</v>
       </c>
@@ -7192,7 +7200,7 @@
       </c>
       <c r="D29" s="35"/>
     </row>
-    <row r="30" spans="1:5" s="31" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" s="31" customFormat="1">
       <c r="A30" s="31" t="s">
         <v>791</v>
       </c>
@@ -7204,32 +7212,32 @@
       </c>
       <c r="D30" s="35"/>
     </row>
-    <row r="31" spans="1:5" s="31" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" s="31" customFormat="1">
       <c r="B31" s="26"/>
       <c r="C31" s="34"/>
       <c r="D31" s="35"/>
     </row>
-    <row r="32" spans="1:5" s="31" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" s="31" customFormat="1">
       <c r="B32" s="26"/>
       <c r="C32" s="34"/>
       <c r="D32" s="35"/>
     </row>
-    <row r="33" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5">
       <c r="A33" s="31"/>
       <c r="C33" s="34"/>
       <c r="D33" s="35"/>
     </row>
-    <row r="34" spans="1:5" s="31" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" s="31" customFormat="1">
       <c r="B34" s="26"/>
       <c r="C34" s="34"/>
       <c r="D34" s="35"/>
     </row>
-    <row r="35" spans="1:5" s="31" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" s="31" customFormat="1">
       <c r="B35" s="26"/>
       <c r="C35" s="26"/>
       <c r="D35" s="2"/>
     </row>
-    <row r="36" spans="1:5" s="2" customFormat="1" ht="43.15" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" s="2" customFormat="1" ht="28">
       <c r="A36" s="11" t="s">
         <v>33</v>
       </c>
@@ -7242,7 +7250,7 @@
       <c r="D36" s="11"/>
       <c r="E36" s="13"/>
     </row>
-    <row r="37" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5">
       <c r="A37" s="1" t="s">
         <v>29</v>
       </c>
@@ -7250,7 +7258,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="39" spans="1:5" s="2" customFormat="1" ht="28.9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" s="2" customFormat="1" ht="28">
       <c r="A39" s="11" t="s">
         <v>30</v>
       </c>
@@ -7267,7 +7275,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="40" spans="1:5" s="31" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" s="31" customFormat="1">
       <c r="A40" s="31" t="s">
         <v>32</v>
       </c>
@@ -7279,7 +7287,7 @@
       </c>
       <c r="E40" s="2"/>
     </row>
-    <row r="42" spans="1:5" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" s="2" customFormat="1" ht="56">
       <c r="A42" s="11" t="s">
         <v>35</v>
       </c>
@@ -7294,7 +7302,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5">
       <c r="A43" s="31" t="s">
         <v>703</v>
       </c>
@@ -7305,7 +7313,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="44" spans="1:5" s="31" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" s="31" customFormat="1">
       <c r="B44" s="26"/>
       <c r="D44" s="2"/>
     </row>
@@ -7336,36 +7344,36 @@
   <dimension ref="A1:Y224"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A93" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B111" sqref="B111"/>
+      <pane ySplit="3" topLeftCell="A90" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A106" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="31" customWidth="1"/>
+    <col min="1" max="1" width="9.1640625" style="31" customWidth="1"/>
     <col min="2" max="2" width="47" style="31" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="47" style="31" customWidth="1"/>
-    <col min="4" max="4" width="39.140625" style="31" customWidth="1"/>
-    <col min="5" max="5" width="24.140625" style="31" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" style="31" customWidth="1"/>
-    <col min="7" max="7" width="9.28515625" style="31" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.42578125" style="4" customWidth="1"/>
-    <col min="9" max="9" width="8.7109375" style="4" customWidth="1"/>
-    <col min="10" max="10" width="7.140625" style="31" customWidth="1"/>
-    <col min="11" max="11" width="8.140625" style="31" customWidth="1"/>
-    <col min="12" max="12" width="6.7109375" style="31" customWidth="1"/>
-    <col min="13" max="14" width="7.7109375" style="31" customWidth="1"/>
-    <col min="15" max="15" width="11.42578125" style="31"/>
-    <col min="16" max="16" width="11.42578125" style="31" customWidth="1"/>
+    <col min="4" max="4" width="39.1640625" style="31" customWidth="1"/>
+    <col min="5" max="5" width="24.1640625" style="31" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" style="31" customWidth="1"/>
+    <col min="7" max="7" width="9.33203125" style="31" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5" style="4" customWidth="1"/>
+    <col min="9" max="9" width="8.6640625" style="4" customWidth="1"/>
+    <col min="10" max="10" width="7.1640625" style="31" customWidth="1"/>
+    <col min="11" max="11" width="8.1640625" style="31" customWidth="1"/>
+    <col min="12" max="12" width="6.6640625" style="31" customWidth="1"/>
+    <col min="13" max="14" width="7.6640625" style="31" customWidth="1"/>
+    <col min="15" max="15" width="11.5" style="31"/>
+    <col min="16" max="16" width="11.5" style="31" customWidth="1"/>
     <col min="17" max="17" width="23" style="31" customWidth="1"/>
-    <col min="18" max="18" width="27.7109375" style="31" customWidth="1"/>
-    <col min="19" max="19" width="46.140625" style="31" customWidth="1"/>
-    <col min="20" max="22" width="11.42578125" style="31"/>
-    <col min="23" max="23" width="13.28515625" style="31" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="11.42578125" style="31"/>
+    <col min="18" max="18" width="27.6640625" style="31" customWidth="1"/>
+    <col min="19" max="19" width="46.1640625" style="31" customWidth="1"/>
+    <col min="20" max="22" width="11.5" style="31"/>
+    <col min="23" max="23" width="13.33203125" style="31" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="11.5" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:25" ht="18">
       <c r="A1" s="5"/>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -7400,7 +7408,7 @@
       <c r="X1" s="52"/>
       <c r="Y1" s="52"/>
     </row>
-    <row r="2" spans="1:25" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" s="8" customFormat="1" ht="15">
       <c r="A2" s="8" t="s">
         <v>3</v>
       </c>
@@ -7416,7 +7424,7 @@
       <c r="H2" s="9"/>
       <c r="I2" s="9"/>
     </row>
-    <row r="3" spans="1:25" s="14" customFormat="1" ht="62.45" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" s="14" customFormat="1" ht="45">
       <c r="A3" s="14" t="s">
         <v>1</v>
       </c>
@@ -7490,7 +7498,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:25" s="38" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" s="38" customFormat="1">
       <c r="A4" s="38" t="b">
         <v>1</v>
       </c>
@@ -7509,7 +7517,7 @@
       <c r="G4" s="39"/>
       <c r="H4" s="39"/>
     </row>
-    <row r="5" spans="1:25" s="30" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" s="30" customFormat="1">
       <c r="B5" s="30" t="s">
         <v>21</v>
       </c>
@@ -7526,7 +7534,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="6" spans="1:25" s="30" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" s="30" customFormat="1">
       <c r="B6" s="30" t="s">
         <v>21</v>
       </c>
@@ -7543,7 +7551,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="7" spans="1:25" s="38" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25" s="38" customFormat="1">
       <c r="A7" s="38" t="b">
         <v>1</v>
       </c>
@@ -7562,7 +7570,7 @@
       <c r="G7" s="39"/>
       <c r="H7" s="39"/>
     </row>
-    <row r="8" spans="1:25" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:25">
       <c r="B8" s="31" t="s">
         <v>21</v>
       </c>
@@ -7587,7 +7595,7 @@
       <c r="P8" s="40"/>
       <c r="Q8" s="2"/>
     </row>
-    <row r="9" spans="1:25" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:25">
       <c r="B9" s="31" t="s">
         <v>21</v>
       </c>
@@ -7610,7 +7618,7 @@
       <c r="O9" s="4"/>
       <c r="P9" s="3"/>
     </row>
-    <row r="10" spans="1:25" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:25">
       <c r="B10" s="31" t="s">
         <v>21</v>
       </c>
@@ -7628,7 +7636,7 @@
       </c>
       <c r="I10" s="31"/>
     </row>
-    <row r="11" spans="1:25" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:25">
       <c r="B11" s="31" t="s">
         <v>21</v>
       </c>
@@ -7646,7 +7654,7 @@
       </c>
       <c r="I11" s="31"/>
     </row>
-    <row r="12" spans="1:25" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:25">
       <c r="B12" s="31" t="s">
         <v>21</v>
       </c>
@@ -7664,7 +7672,7 @@
       </c>
       <c r="I12" s="31"/>
     </row>
-    <row r="13" spans="1:25" s="38" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:25" s="38" customFormat="1">
       <c r="A13" s="38" t="b">
         <v>1</v>
       </c>
@@ -7683,7 +7691,7 @@
       <c r="G13" s="39"/>
       <c r="H13" s="39"/>
     </row>
-    <row r="14" spans="1:25" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:25">
       <c r="B14" s="30" t="s">
         <v>21</v>
       </c>
@@ -7704,7 +7712,7 @@
       </c>
       <c r="I14" s="31"/>
     </row>
-    <row r="15" spans="1:25" s="43" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:25" s="43" customFormat="1">
       <c r="B15" s="43" t="s">
         <v>22</v>
       </c>
@@ -7740,7 +7748,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="16" spans="1:25" s="30" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:25" s="30" customFormat="1">
       <c r="B16" s="30" t="s">
         <v>21</v>
       </c>
@@ -7757,7 +7765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:17" s="43" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" s="43" customFormat="1">
       <c r="B17" s="43" t="s">
         <v>22</v>
       </c>
@@ -7796,7 +7804,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="18" spans="1:17" s="30" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" s="30" customFormat="1">
       <c r="B18" s="30" t="s">
         <v>21</v>
       </c>
@@ -7813,7 +7821,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="19" spans="1:17" s="30" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" s="30" customFormat="1">
       <c r="B19" s="30" t="s">
         <v>21</v>
       </c>
@@ -7830,7 +7838,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="20" spans="1:17" s="30" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" s="30" customFormat="1">
       <c r="B20" s="30" t="s">
         <v>21</v>
       </c>
@@ -7847,7 +7855,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="21" spans="1:17" s="30" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" s="30" customFormat="1">
       <c r="B21" s="30" t="s">
         <v>21</v>
       </c>
@@ -7864,7 +7872,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="22" spans="1:17" s="30" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" s="30" customFormat="1">
       <c r="B22" s="30" t="s">
         <v>21</v>
       </c>
@@ -7881,7 +7889,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="23" spans="1:17" s="30" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" s="30" customFormat="1">
       <c r="B23" s="30" t="s">
         <v>21</v>
       </c>
@@ -7898,7 +7906,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="24" spans="1:17" s="30" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" s="30" customFormat="1">
       <c r="B24" s="30" t="s">
         <v>21</v>
       </c>
@@ -7915,7 +7923,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:17" s="30" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" s="30" customFormat="1">
       <c r="B25" s="30" t="s">
         <v>21</v>
       </c>
@@ -7932,7 +7940,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="26" spans="1:17" s="30" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" s="30" customFormat="1">
       <c r="B26" s="30" t="s">
         <v>21</v>
       </c>
@@ -7949,7 +7957,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:17" s="30" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" s="30" customFormat="1">
       <c r="B27" s="30" t="s">
         <v>21</v>
       </c>
@@ -7966,7 +7974,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="28" spans="1:17" s="30" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" s="30" customFormat="1">
       <c r="B28" s="30" t="s">
         <v>21</v>
       </c>
@@ -7983,7 +7991,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="29" spans="1:17" s="30" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" s="30" customFormat="1">
       <c r="B29" s="30" t="s">
         <v>21</v>
       </c>
@@ -8000,7 +8008,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:17" s="30" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" s="30" customFormat="1">
       <c r="B30" s="30" t="s">
         <v>21</v>
       </c>
@@ -8017,7 +8025,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="31" spans="1:17" s="38" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17" s="38" customFormat="1">
       <c r="A31" s="38" t="b">
         <v>1</v>
       </c>
@@ -8036,7 +8044,7 @@
       <c r="G31" s="39"/>
       <c r="H31" s="39"/>
     </row>
-    <row r="32" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17">
       <c r="B32" s="31" t="s">
         <v>21</v>
       </c>
@@ -8052,7 +8060,7 @@
       <c r="H32" s="31"/>
       <c r="I32" s="31"/>
     </row>
-    <row r="33" spans="1:17" s="38" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:17" s="38" customFormat="1">
       <c r="A33" s="38" t="b">
         <v>1</v>
       </c>
@@ -8071,7 +8079,7 @@
       <c r="G33" s="39"/>
       <c r="H33" s="39"/>
     </row>
-    <row r="34" spans="1:17" s="43" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:17" s="43" customFormat="1">
       <c r="B34" s="43" t="s">
         <v>22</v>
       </c>
@@ -8107,7 +8115,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="35" spans="1:17" s="43" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:17" s="43" customFormat="1">
       <c r="B35" s="43" t="s">
         <v>22</v>
       </c>
@@ -8143,7 +8151,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="36" spans="1:17" s="38" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:17" s="38" customFormat="1">
       <c r="A36" s="38" t="b">
         <v>1</v>
       </c>
@@ -8162,7 +8170,7 @@
       <c r="G36" s="39"/>
       <c r="H36" s="39"/>
     </row>
-    <row r="37" spans="1:17" s="43" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:17" s="43" customFormat="1">
       <c r="B37" s="43" t="s">
         <v>22</v>
       </c>
@@ -8201,7 +8209,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="38" spans="1:17" s="38" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:17" s="38" customFormat="1">
       <c r="A38" s="38" t="b">
         <v>1</v>
       </c>
@@ -8220,7 +8228,7 @@
       <c r="G38" s="39"/>
       <c r="H38" s="39"/>
     </row>
-    <row r="39" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:17">
       <c r="B39" s="31" t="s">
         <v>21</v>
       </c>
@@ -8258,7 +8266,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="40" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:17">
       <c r="B40" s="31" t="s">
         <v>21</v>
       </c>
@@ -8286,7 +8294,7 @@
       <c r="P40" s="40"/>
       <c r="Q40" s="2"/>
     </row>
-    <row r="41" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:17">
       <c r="B41" s="31" t="s">
         <v>21</v>
       </c>
@@ -8308,7 +8316,7 @@
       <c r="I41" s="3"/>
       <c r="J41" s="3"/>
     </row>
-    <row r="42" spans="1:17" s="38" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:17" s="38" customFormat="1">
       <c r="A42" s="38" t="b">
         <v>1</v>
       </c>
@@ -8327,7 +8335,7 @@
       <c r="G42" s="39"/>
       <c r="H42" s="39"/>
     </row>
-    <row r="43" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:17">
       <c r="B43" s="31" t="s">
         <v>21</v>
       </c>
@@ -8365,7 +8373,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="44" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:17">
       <c r="B44" s="31" t="s">
         <v>21</v>
       </c>
@@ -8393,7 +8401,7 @@
       <c r="P44" s="40"/>
       <c r="Q44" s="2"/>
     </row>
-    <row r="45" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:17">
       <c r="B45" s="31" t="s">
         <v>21</v>
       </c>
@@ -8415,7 +8423,7 @@
       <c r="I45" s="3"/>
       <c r="J45" s="3"/>
     </row>
-    <row r="46" spans="1:17" s="38" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:17" s="38" customFormat="1">
       <c r="A46" s="38" t="b">
         <v>1</v>
       </c>
@@ -8434,7 +8442,7 @@
       <c r="G46" s="39"/>
       <c r="H46" s="39"/>
     </row>
-    <row r="47" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:17">
       <c r="B47" s="31" t="s">
         <v>21</v>
       </c>
@@ -8472,7 +8480,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="48" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:17">
       <c r="B48" s="31" t="s">
         <v>21</v>
       </c>
@@ -8500,7 +8508,7 @@
       <c r="P48" s="40"/>
       <c r="Q48" s="2"/>
     </row>
-    <row r="49" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:17">
       <c r="B49" s="31" t="s">
         <v>21</v>
       </c>
@@ -8522,7 +8530,7 @@
       <c r="I49" s="3"/>
       <c r="J49" s="3"/>
     </row>
-    <row r="50" spans="1:17" s="38" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:17" s="38" customFormat="1">
       <c r="A50" s="38" t="b">
         <v>1</v>
       </c>
@@ -8541,7 +8549,7 @@
       <c r="G50" s="39"/>
       <c r="H50" s="39"/>
     </row>
-    <row r="51" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:17">
       <c r="B51" s="31" t="s">
         <v>21</v>
       </c>
@@ -8579,7 +8587,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="52" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:17">
       <c r="B52" s="31" t="s">
         <v>21</v>
       </c>
@@ -8607,7 +8615,7 @@
       <c r="P52" s="40"/>
       <c r="Q52" s="2"/>
     </row>
-    <row r="53" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:17">
       <c r="B53" s="31" t="s">
         <v>21</v>
       </c>
@@ -8629,7 +8637,7 @@
       <c r="I53" s="3"/>
       <c r="J53" s="3"/>
     </row>
-    <row r="54" spans="1:17" s="38" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:17" s="38" customFormat="1">
       <c r="A54" s="38" t="b">
         <v>1</v>
       </c>
@@ -8648,7 +8656,7 @@
       <c r="G54" s="39"/>
       <c r="H54" s="39"/>
     </row>
-    <row r="55" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:17">
       <c r="B55" s="31" t="s">
         <v>21</v>
       </c>
@@ -8666,7 +8674,7 @@
       </c>
       <c r="I55" s="31"/>
     </row>
-    <row r="56" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:17">
       <c r="B56" s="31" t="s">
         <v>21</v>
       </c>
@@ -8684,7 +8692,7 @@
       </c>
       <c r="I56" s="31"/>
     </row>
-    <row r="57" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:17">
       <c r="B57" s="31" t="s">
         <v>21</v>
       </c>
@@ -8702,7 +8710,7 @@
       </c>
       <c r="I57" s="31"/>
     </row>
-    <row r="58" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:17">
       <c r="B58" s="31" t="s">
         <v>21</v>
       </c>
@@ -8720,7 +8728,7 @@
       </c>
       <c r="I58" s="31"/>
     </row>
-    <row r="59" spans="1:17" s="38" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:17" s="38" customFormat="1">
       <c r="A59" s="38" t="b">
         <v>1</v>
       </c>
@@ -8739,7 +8747,7 @@
       <c r="G59" s="39"/>
       <c r="H59" s="39"/>
     </row>
-    <row r="60" spans="1:17" s="49" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:17" s="49" customFormat="1">
       <c r="A60" s="49" t="b">
         <v>1</v>
       </c>
@@ -8756,7 +8764,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="61" spans="1:17" s="43" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:17" s="43" customFormat="1">
       <c r="B61" s="43" t="s">
         <v>22</v>
       </c>
@@ -8792,7 +8800,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="62" spans="1:17" s="30" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:17" s="30" customFormat="1">
       <c r="B62" s="30" t="s">
         <v>21</v>
       </c>
@@ -8809,7 +8817,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="63" spans="1:17" s="30" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:17" s="30" customFormat="1">
       <c r="B63" s="30" t="s">
         <v>21</v>
       </c>
@@ -8829,7 +8837,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="64" spans="1:17" s="49" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:17" s="49" customFormat="1">
       <c r="A64" s="49" t="b">
         <v>1</v>
       </c>
@@ -8846,7 +8854,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="65" spans="1:17" s="43" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:17" s="43" customFormat="1">
       <c r="B65" s="43" t="s">
         <v>22</v>
       </c>
@@ -8882,7 +8890,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="66" spans="1:17" s="30" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:17" s="30" customFormat="1">
       <c r="B66" s="30" t="s">
         <v>21</v>
       </c>
@@ -8899,7 +8907,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="67" spans="1:17" s="30" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:17" s="30" customFormat="1">
       <c r="B67" s="30" t="s">
         <v>21</v>
       </c>
@@ -8919,7 +8927,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="68" spans="1:17" s="49" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:17" s="49" customFormat="1">
       <c r="A68" s="49" t="b">
         <v>1</v>
       </c>
@@ -8936,7 +8944,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="69" spans="1:17" s="43" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:17" s="43" customFormat="1">
       <c r="B69" s="43" t="s">
         <v>22</v>
       </c>
@@ -8972,7 +8980,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="70" spans="1:17" s="30" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:17" s="30" customFormat="1">
       <c r="B70" s="30" t="s">
         <v>21</v>
       </c>
@@ -8989,7 +8997,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="71" spans="1:17" s="30" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:17" s="30" customFormat="1">
       <c r="B71" s="30" t="s">
         <v>21</v>
       </c>
@@ -9009,7 +9017,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="72" spans="1:17" s="49" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:17" s="49" customFormat="1">
       <c r="A72" s="49" t="b">
         <v>1</v>
       </c>
@@ -9026,7 +9034,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="73" spans="1:17" s="30" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:17" s="30" customFormat="1">
       <c r="B73" s="30" t="s">
         <v>21</v>
       </c>
@@ -9047,7 +9055,7 @@
       </c>
       <c r="O73" s="31"/>
     </row>
-    <row r="74" spans="1:17" s="43" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:17" s="43" customFormat="1">
       <c r="B74" s="43" t="s">
         <v>22</v>
       </c>
@@ -9083,7 +9091,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="75" spans="1:17" s="30" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:17" s="30" customFormat="1">
       <c r="B75" s="30" t="s">
         <v>21</v>
       </c>
@@ -9101,7 +9109,7 @@
       </c>
       <c r="O75" s="31"/>
     </row>
-    <row r="76" spans="1:17" s="30" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:17" s="30" customFormat="1">
       <c r="B76" s="30" t="s">
         <v>21</v>
       </c>
@@ -9119,7 +9127,7 @@
       </c>
       <c r="O76" s="31"/>
     </row>
-    <row r="77" spans="1:17" s="30" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:17" s="30" customFormat="1">
       <c r="B77" s="30" t="s">
         <v>21</v>
       </c>
@@ -9137,7 +9145,7 @@
       </c>
       <c r="O77" s="31"/>
     </row>
-    <row r="78" spans="1:17" s="50" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:17" s="50" customFormat="1">
       <c r="A78" s="50" t="b">
         <v>1</v>
       </c>
@@ -9154,7 +9162,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="79" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:17">
       <c r="A79" s="30"/>
       <c r="B79" s="30" t="s">
         <v>21</v>
@@ -9183,7 +9191,7 @@
       <c r="N79" s="3"/>
       <c r="P79" s="40"/>
     </row>
-    <row r="80" spans="1:17" s="43" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:17" s="43" customFormat="1">
       <c r="B80" s="43" t="s">
         <v>22</v>
       </c>
@@ -9221,7 +9229,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="81" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:17">
       <c r="A81" s="30"/>
       <c r="B81" s="30" t="s">
         <v>21</v>
@@ -9247,7 +9255,7 @@
       <c r="N81" s="3"/>
       <c r="P81" s="40"/>
     </row>
-    <row r="82" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:17">
       <c r="A82" s="30"/>
       <c r="B82" s="30" t="s">
         <v>21</v>
@@ -9273,7 +9281,7 @@
       <c r="N82" s="3"/>
       <c r="P82" s="40"/>
     </row>
-    <row r="83" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:17">
       <c r="A83" s="30"/>
       <c r="B83" s="30" t="s">
         <v>21</v>
@@ -9299,7 +9307,7 @@
       <c r="N83" s="3"/>
       <c r="P83" s="40"/>
     </row>
-    <row r="84" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:17">
       <c r="A84" s="30"/>
       <c r="B84" s="30" t="s">
         <v>21</v>
@@ -9325,7 +9333,7 @@
       <c r="N84" s="3"/>
       <c r="P84" s="40"/>
     </row>
-    <row r="85" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:17">
       <c r="A85" s="30"/>
       <c r="B85" s="30" t="s">
         <v>21</v>
@@ -9351,7 +9359,7 @@
       <c r="N85" s="3"/>
       <c r="P85" s="40"/>
     </row>
-    <row r="86" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:17">
       <c r="A86" s="30"/>
       <c r="B86" s="30" t="s">
         <v>21</v>
@@ -9377,7 +9385,7 @@
       <c r="N86" s="3"/>
       <c r="P86" s="40"/>
     </row>
-    <row r="87" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:17">
       <c r="A87" s="30"/>
       <c r="B87" s="30" t="s">
         <v>21</v>
@@ -9403,7 +9411,7 @@
       <c r="N87" s="3"/>
       <c r="P87" s="40"/>
     </row>
-    <row r="88" spans="1:17" s="50" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:17" s="50" customFormat="1">
       <c r="A88" s="50" t="b">
         <v>1</v>
       </c>
@@ -9420,7 +9428,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="89" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:17">
       <c r="A89" s="30"/>
       <c r="B89" s="30" t="s">
         <v>21</v>
@@ -9449,7 +9457,7 @@
       <c r="N89" s="3"/>
       <c r="P89" s="40"/>
     </row>
-    <row r="90" spans="1:17" s="43" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:17" s="43" customFormat="1">
       <c r="B90" s="43" t="s">
         <v>22</v>
       </c>
@@ -9486,7 +9494,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="91" spans="1:17" s="50" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:17" s="50" customFormat="1">
       <c r="A91" s="50" t="b">
         <v>1</v>
       </c>
@@ -9503,7 +9511,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="92" spans="1:17" s="43" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:17" s="43" customFormat="1">
       <c r="B92" s="43" t="s">
         <v>22</v>
       </c>
@@ -9540,7 +9548,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="93" spans="1:17" s="50" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:17" s="50" customFormat="1">
       <c r="A93" s="50" t="b">
         <v>1</v>
       </c>
@@ -9557,7 +9565,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="94" spans="1:17" s="43" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:17" s="43" customFormat="1">
       <c r="B94" s="43" t="s">
         <v>22</v>
       </c>
@@ -9594,7 +9602,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="95" spans="1:17" s="50" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:17" s="50" customFormat="1">
       <c r="A95" s="50" t="b">
         <v>1</v>
       </c>
@@ -9611,7 +9619,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="96" spans="1:17" s="30" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:17" s="30" customFormat="1">
       <c r="B96" s="30" t="s">
         <v>21</v>
       </c>
@@ -9631,7 +9639,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="97" spans="1:17" s="43" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:17" s="43" customFormat="1">
       <c r="B97" s="43" t="s">
         <v>22</v>
       </c>
@@ -9671,7 +9679,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="98" spans="1:17" s="30" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:17" s="30" customFormat="1">
       <c r="B98" s="30" t="s">
         <v>21</v>
       </c>
@@ -9691,7 +9699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:17" s="30" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:17" s="30" customFormat="1">
       <c r="B99" s="30" t="s">
         <v>21</v>
       </c>
@@ -9711,7 +9719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:17" s="30" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:17" s="30" customFormat="1">
       <c r="B100" s="30" t="s">
         <v>21</v>
       </c>
@@ -9731,7 +9739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:17" s="30" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:17" s="30" customFormat="1">
       <c r="B101" s="30" t="s">
         <v>21</v>
       </c>
@@ -9748,7 +9756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:17" s="30" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:17" s="30" customFormat="1">
       <c r="B102" s="30" t="s">
         <v>21</v>
       </c>
@@ -9768,7 +9776,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="103" spans="1:17" s="30" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:17" s="30" customFormat="1">
       <c r="B103" s="30" t="s">
         <v>21</v>
       </c>
@@ -9788,7 +9796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:17" s="30" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:17" s="30" customFormat="1">
       <c r="B104" s="30" t="s">
         <v>21</v>
       </c>
@@ -9808,7 +9816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:17" s="38" customFormat="1">
       <c r="A105" s="38" t="b">
         <v>1</v>
       </c>
@@ -9827,9 +9835,9 @@
       <c r="G105" s="39"/>
       <c r="H105" s="39"/>
     </row>
-    <row r="106" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:17" s="43" customFormat="1">
       <c r="B106" s="43" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D106" s="43" t="s">
         <v>846</v>
@@ -9867,9 +9875,9 @@
         <v>776</v>
       </c>
     </row>
-    <row r="107" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:17" s="43" customFormat="1">
       <c r="B107" s="43" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D107" s="43" t="s">
         <v>848</v>
@@ -9907,7 +9915,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:17">
       <c r="B108" s="31" t="s">
         <v>21</v>
       </c>
@@ -9929,467 +9937,467 @@
       <c r="M108" s="3"/>
       <c r="N108" s="3"/>
     </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:17">
       <c r="H109" s="31"/>
       <c r="I109" s="31"/>
     </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:17">
       <c r="H110" s="31"/>
       <c r="I110" s="31"/>
     </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:17">
       <c r="H111" s="31"/>
       <c r="I111" s="31"/>
     </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:17">
       <c r="H112" s="31"/>
       <c r="I112" s="31"/>
     </row>
-    <row r="113" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="8:9">
       <c r="H113" s="31"/>
       <c r="I113" s="31"/>
     </row>
-    <row r="114" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="8:9">
       <c r="H114" s="31"/>
       <c r="I114" s="31"/>
     </row>
-    <row r="115" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="8:9">
       <c r="H115" s="31"/>
       <c r="I115" s="31"/>
     </row>
-    <row r="116" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="8:9">
       <c r="H116" s="31"/>
       <c r="I116" s="31"/>
     </row>
-    <row r="117" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="8:9">
       <c r="H117" s="31"/>
       <c r="I117" s="31"/>
     </row>
-    <row r="118" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="8:9">
       <c r="H118" s="31"/>
       <c r="I118" s="31"/>
     </row>
-    <row r="119" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="8:9">
       <c r="H119" s="31"/>
       <c r="I119" s="31"/>
     </row>
-    <row r="120" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="8:9">
       <c r="H120" s="31"/>
       <c r="I120" s="31"/>
     </row>
-    <row r="121" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="8:9">
       <c r="H121" s="31"/>
       <c r="I121" s="31"/>
     </row>
-    <row r="122" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="8:9">
       <c r="H122" s="31"/>
       <c r="I122" s="31"/>
     </row>
-    <row r="123" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="8:9">
       <c r="H123" s="31"/>
       <c r="I123" s="31"/>
     </row>
-    <row r="124" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="8:9">
       <c r="H124" s="31"/>
       <c r="I124" s="31"/>
     </row>
-    <row r="125" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="8:9">
       <c r="H125" s="31"/>
       <c r="I125" s="31"/>
     </row>
-    <row r="126" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="8:9">
       <c r="H126" s="31"/>
       <c r="I126" s="31"/>
     </row>
-    <row r="127" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="8:9">
       <c r="H127" s="31"/>
       <c r="I127" s="31"/>
     </row>
-    <row r="128" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="8:9">
       <c r="H128" s="31"/>
       <c r="I128" s="31"/>
     </row>
-    <row r="129" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="8:9">
       <c r="H129" s="31"/>
       <c r="I129" s="31"/>
     </row>
-    <row r="130" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="8:9">
       <c r="H130" s="31"/>
       <c r="I130" s="31"/>
     </row>
-    <row r="131" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="8:9">
       <c r="H131" s="31"/>
       <c r="I131" s="31"/>
     </row>
-    <row r="132" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="8:9">
       <c r="H132" s="31"/>
       <c r="I132" s="31"/>
     </row>
-    <row r="133" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="8:9">
       <c r="H133" s="31"/>
       <c r="I133" s="31"/>
     </row>
-    <row r="134" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="8:9">
       <c r="H134" s="31"/>
       <c r="I134" s="31"/>
     </row>
-    <row r="135" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="135" spans="8:9">
       <c r="H135" s="31"/>
       <c r="I135" s="31"/>
     </row>
-    <row r="136" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="8:9">
       <c r="H136" s="31"/>
       <c r="I136" s="31"/>
     </row>
-    <row r="137" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="8:9">
       <c r="H137" s="31"/>
       <c r="I137" s="31"/>
     </row>
-    <row r="138" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="8:9">
       <c r="H138" s="31"/>
       <c r="I138" s="31"/>
     </row>
-    <row r="139" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="8:9">
       <c r="H139" s="31"/>
       <c r="I139" s="31"/>
     </row>
-    <row r="140" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="140" spans="8:9">
       <c r="H140" s="31"/>
       <c r="I140" s="31"/>
     </row>
-    <row r="141" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="8:9">
       <c r="H141" s="31"/>
       <c r="I141" s="31"/>
     </row>
-    <row r="142" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="8:9">
       <c r="H142" s="31"/>
       <c r="I142" s="31"/>
     </row>
-    <row r="143" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="8:9">
       <c r="H143" s="31"/>
       <c r="I143" s="31"/>
     </row>
-    <row r="144" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="8:9">
       <c r="H144" s="31"/>
       <c r="I144" s="31"/>
     </row>
-    <row r="145" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="8:9">
       <c r="H145" s="31"/>
       <c r="I145" s="31"/>
     </row>
-    <row r="146" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="8:9">
       <c r="H146" s="31"/>
       <c r="I146" s="31"/>
     </row>
-    <row r="147" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="8:9">
       <c r="H147" s="31"/>
       <c r="I147" s="31"/>
     </row>
-    <row r="148" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="8:9">
       <c r="H148" s="31"/>
       <c r="I148" s="31"/>
     </row>
-    <row r="149" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="149" spans="8:9">
       <c r="H149" s="31"/>
       <c r="I149" s="31"/>
     </row>
-    <row r="150" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="150" spans="8:9">
       <c r="H150" s="31"/>
       <c r="I150" s="31"/>
     </row>
-    <row r="151" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="151" spans="8:9">
       <c r="H151" s="31"/>
       <c r="I151" s="31"/>
     </row>
-    <row r="152" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="152" spans="8:9">
       <c r="H152" s="31"/>
       <c r="I152" s="31"/>
     </row>
-    <row r="153" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="153" spans="8:9">
       <c r="H153" s="31"/>
       <c r="I153" s="31"/>
     </row>
-    <row r="154" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="154" spans="8:9">
       <c r="H154" s="31"/>
       <c r="I154" s="31"/>
     </row>
-    <row r="155" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="155" spans="8:9">
       <c r="H155" s="31"/>
       <c r="I155" s="31"/>
     </row>
-    <row r="156" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="156" spans="8:9">
       <c r="H156" s="31"/>
       <c r="I156" s="31"/>
     </row>
-    <row r="157" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="157" spans="8:9">
       <c r="H157" s="31"/>
       <c r="I157" s="31"/>
     </row>
-    <row r="158" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="158" spans="8:9">
       <c r="H158" s="31"/>
       <c r="I158" s="31"/>
     </row>
-    <row r="159" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="159" spans="8:9">
       <c r="H159" s="31"/>
       <c r="I159" s="31"/>
     </row>
-    <row r="160" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="160" spans="8:9">
       <c r="H160" s="31"/>
       <c r="I160" s="31"/>
     </row>
-    <row r="161" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="161" spans="8:9">
       <c r="H161" s="31"/>
       <c r="I161" s="31"/>
     </row>
-    <row r="162" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="162" spans="8:9">
       <c r="H162" s="31"/>
       <c r="I162" s="31"/>
     </row>
-    <row r="163" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="163" spans="8:9">
       <c r="H163" s="31"/>
       <c r="I163" s="31"/>
     </row>
-    <row r="164" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="164" spans="8:9">
       <c r="H164" s="31"/>
       <c r="I164" s="31"/>
     </row>
-    <row r="165" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="165" spans="8:9">
       <c r="H165" s="31"/>
       <c r="I165" s="31"/>
     </row>
-    <row r="166" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="166" spans="8:9">
       <c r="H166" s="31"/>
       <c r="I166" s="31"/>
     </row>
-    <row r="167" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="167" spans="8:9">
       <c r="H167" s="31"/>
       <c r="I167" s="31"/>
     </row>
-    <row r="168" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="168" spans="8:9">
       <c r="H168" s="31"/>
       <c r="I168" s="31"/>
     </row>
-    <row r="169" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="169" spans="8:9">
       <c r="H169" s="31"/>
       <c r="I169" s="31"/>
     </row>
-    <row r="170" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="170" spans="8:9">
       <c r="H170" s="31"/>
       <c r="I170" s="31"/>
     </row>
-    <row r="171" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="171" spans="8:9">
       <c r="H171" s="31"/>
       <c r="I171" s="31"/>
     </row>
-    <row r="172" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="172" spans="8:9">
       <c r="H172" s="31"/>
       <c r="I172" s="31"/>
     </row>
-    <row r="173" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="173" spans="8:9">
       <c r="H173" s="31"/>
       <c r="I173" s="31"/>
     </row>
-    <row r="174" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="174" spans="8:9">
       <c r="H174" s="31"/>
       <c r="I174" s="31"/>
     </row>
-    <row r="175" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="175" spans="8:9">
       <c r="H175" s="31"/>
       <c r="I175" s="31"/>
     </row>
-    <row r="176" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="176" spans="8:9">
       <c r="H176" s="31"/>
       <c r="I176" s="31"/>
     </row>
-    <row r="177" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="177" spans="8:9">
       <c r="H177" s="31"/>
       <c r="I177" s="31"/>
     </row>
-    <row r="178" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="178" spans="8:9">
       <c r="H178" s="31"/>
       <c r="I178" s="31"/>
     </row>
-    <row r="179" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="179" spans="8:9">
       <c r="H179" s="31"/>
       <c r="I179" s="31"/>
     </row>
-    <row r="180" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="180" spans="8:9">
       <c r="H180" s="31"/>
       <c r="I180" s="31"/>
     </row>
-    <row r="181" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="181" spans="8:9">
       <c r="H181" s="31"/>
       <c r="I181" s="31"/>
     </row>
-    <row r="182" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="182" spans="8:9">
       <c r="H182" s="31"/>
       <c r="I182" s="31"/>
     </row>
-    <row r="183" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="183" spans="8:9">
       <c r="H183" s="31"/>
       <c r="I183" s="31"/>
     </row>
-    <row r="184" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="184" spans="8:9">
       <c r="H184" s="31"/>
       <c r="I184" s="31"/>
     </row>
-    <row r="185" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="185" spans="8:9">
       <c r="H185" s="31"/>
       <c r="I185" s="31"/>
     </row>
-    <row r="186" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="186" spans="8:9">
       <c r="H186" s="31"/>
       <c r="I186" s="31"/>
     </row>
-    <row r="187" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="187" spans="8:9">
       <c r="H187" s="31"/>
       <c r="I187" s="31"/>
     </row>
-    <row r="188" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="188" spans="8:9">
       <c r="H188" s="31"/>
       <c r="I188" s="31"/>
     </row>
-    <row r="189" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="189" spans="8:9">
       <c r="H189" s="31"/>
       <c r="I189" s="31"/>
     </row>
-    <row r="190" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="190" spans="8:9">
       <c r="H190" s="31"/>
       <c r="I190" s="31"/>
     </row>
-    <row r="191" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="191" spans="8:9">
       <c r="H191" s="31"/>
       <c r="I191" s="31"/>
     </row>
-    <row r="192" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="192" spans="8:9">
       <c r="H192" s="31"/>
       <c r="I192" s="31"/>
     </row>
-    <row r="193" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="193" spans="8:9">
       <c r="H193" s="31"/>
       <c r="I193" s="31"/>
     </row>
-    <row r="194" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="194" spans="8:9">
       <c r="H194" s="31"/>
       <c r="I194" s="31"/>
     </row>
-    <row r="195" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="195" spans="8:9">
       <c r="H195" s="31"/>
       <c r="I195" s="31"/>
     </row>
-    <row r="196" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="196" spans="8:9">
       <c r="H196" s="31"/>
       <c r="I196" s="31"/>
     </row>
-    <row r="197" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="197" spans="8:9">
       <c r="H197" s="31"/>
       <c r="I197" s="31"/>
     </row>
-    <row r="198" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="198" spans="8:9">
       <c r="H198" s="31"/>
       <c r="I198" s="31"/>
     </row>
-    <row r="199" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="199" spans="8:9">
       <c r="H199" s="31"/>
       <c r="I199" s="31"/>
     </row>
-    <row r="200" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="200" spans="8:9">
       <c r="H200" s="31"/>
       <c r="I200" s="31"/>
     </row>
-    <row r="201" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="201" spans="8:9">
       <c r="H201" s="31"/>
       <c r="I201" s="31"/>
     </row>
-    <row r="202" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="202" spans="8:9">
       <c r="H202" s="31"/>
       <c r="I202" s="31"/>
     </row>
-    <row r="203" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="203" spans="8:9">
       <c r="H203" s="31"/>
       <c r="I203" s="31"/>
     </row>
-    <row r="204" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="204" spans="8:9">
       <c r="H204" s="31"/>
       <c r="I204" s="31"/>
     </row>
-    <row r="205" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="205" spans="8:9">
       <c r="H205" s="31"/>
       <c r="I205" s="31"/>
     </row>
-    <row r="206" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="206" spans="8:9">
       <c r="H206" s="31"/>
       <c r="I206" s="31"/>
     </row>
-    <row r="207" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="207" spans="8:9">
       <c r="H207" s="31"/>
       <c r="I207" s="31"/>
     </row>
-    <row r="208" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="208" spans="8:9">
       <c r="H208" s="31"/>
       <c r="I208" s="31"/>
     </row>
-    <row r="209" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="209" spans="8:9">
       <c r="H209" s="31"/>
       <c r="I209" s="31"/>
     </row>
-    <row r="210" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="210" spans="8:9">
       <c r="H210" s="31"/>
       <c r="I210" s="31"/>
     </row>
-    <row r="211" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="211" spans="8:9">
       <c r="H211" s="31"/>
       <c r="I211" s="31"/>
     </row>
-    <row r="212" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="212" spans="8:9">
       <c r="H212" s="31"/>
       <c r="I212" s="31"/>
     </row>
-    <row r="213" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="213" spans="8:9">
       <c r="H213" s="31"/>
       <c r="I213" s="31"/>
     </row>
-    <row r="214" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="214" spans="8:9">
       <c r="H214" s="31"/>
       <c r="I214" s="31"/>
     </row>
-    <row r="215" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="215" spans="8:9">
       <c r="H215" s="31"/>
       <c r="I215" s="31"/>
     </row>
-    <row r="216" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="216" spans="8:9">
       <c r="H216" s="31"/>
       <c r="I216" s="31"/>
     </row>
-    <row r="217" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="217" spans="8:9">
       <c r="H217" s="31"/>
       <c r="I217" s="31"/>
     </row>
-    <row r="218" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="218" spans="8:9">
       <c r="H218" s="31"/>
       <c r="I218" s="31"/>
     </row>
-    <row r="219" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="219" spans="8:9">
       <c r="H219" s="31"/>
       <c r="I219" s="31"/>
     </row>
-    <row r="220" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="220" spans="8:9">
       <c r="H220" s="31"/>
       <c r="I220" s="31"/>
     </row>
-    <row r="221" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="221" spans="8:9">
       <c r="H221" s="31"/>
       <c r="I221" s="31"/>
     </row>
-    <row r="222" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="222" spans="8:9">
       <c r="H222" s="31"/>
       <c r="I222" s="31"/>
     </row>
-    <row r="223" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="223" spans="8:9">
       <c r="H223" s="31"/>
       <c r="I223" s="31"/>
     </row>
-    <row r="224" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="224" spans="8:9">
       <c r="H224" s="31"/>
       <c r="I224" s="31"/>
     </row>
@@ -10412,25 +10420,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A29" sqref="A29:A32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="2" width="29.42578125" style="31" customWidth="1"/>
+    <col min="1" max="2" width="29.5" style="31" customWidth="1"/>
     <col min="3" max="3" width="71" style="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" style="31" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" style="31" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="10.42578125" style="31" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="31" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="31" customWidth="1"/>
-    <col min="10" max="10" width="9.7109375" style="31" customWidth="1"/>
-    <col min="11" max="16384" width="11.42578125" style="31"/>
+    <col min="4" max="4" width="10.5" style="31" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" style="31" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="10.5" style="31" customWidth="1"/>
+    <col min="8" max="8" width="14.5" style="31" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" style="31" customWidth="1"/>
+    <col min="10" max="10" width="9.6640625" style="31" customWidth="1"/>
+    <col min="11" max="16384" width="11.5" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" ht="18">
       <c r="A1" s="5"/>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -10445,7 +10453,7 @@
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
     </row>
-    <row r="2" spans="1:12" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" s="8" customFormat="1" ht="15">
       <c r="A2" s="8" t="s">
         <v>459</v>
       </c>
@@ -10480,7 +10488,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="14" customFormat="1" ht="46.9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" s="14" customFormat="1" ht="30">
       <c r="A3" s="14" t="s">
         <v>628</v>
       </c>
@@ -10516,7 +10524,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12">
       <c r="A4" s="30" t="s">
         <v>644</v>
       </c>
@@ -10545,7 +10553,7 @@
       <c r="J4" s="30"/>
       <c r="K4" s="30"/>
     </row>
-    <row r="5" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12">
       <c r="A5" s="30" t="s">
         <v>645</v>
       </c>
@@ -10575,7 +10583,7 @@
       <c r="K5" s="30"/>
       <c r="L5" s="30"/>
     </row>
-    <row r="6" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12">
       <c r="A6" s="30" t="s">
         <v>646</v>
       </c>
@@ -10604,7 +10612,7 @@
       <c r="J6" s="30"/>
       <c r="K6" s="30"/>
     </row>
-    <row r="7" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12">
       <c r="A7" s="30" t="s">
         <v>647</v>
       </c>
@@ -10633,7 +10641,7 @@
       <c r="J7" s="30"/>
       <c r="K7" s="30"/>
     </row>
-    <row r="8" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12">
       <c r="A8" s="30" t="s">
         <v>709</v>
       </c>
@@ -10664,7 +10672,7 @@
       <c r="K8" s="30"/>
       <c r="L8" s="30"/>
     </row>
-    <row r="9" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12">
       <c r="A9" s="30" t="s">
         <v>711</v>
       </c>
@@ -10694,7 +10702,7 @@
       <c r="K9" s="30"/>
       <c r="L9" s="30"/>
     </row>
-    <row r="10" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12">
       <c r="A10" s="30" t="s">
         <v>712</v>
       </c>
@@ -10724,7 +10732,7 @@
       <c r="K10" s="30"/>
       <c r="L10" s="30"/>
     </row>
-    <row r="11" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12">
       <c r="A11" s="30" t="s">
         <v>713</v>
       </c>
@@ -10754,7 +10762,7 @@
       <c r="K11" s="30"/>
       <c r="L11" s="30"/>
     </row>
-    <row r="12" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12">
       <c r="A12" s="30" t="s">
         <v>714</v>
       </c>
@@ -10784,7 +10792,7 @@
       <c r="K12" s="30"/>
       <c r="L12" s="30"/>
     </row>
-    <row r="13" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12">
       <c r="A13" s="30" t="s">
         <v>715</v>
       </c>
@@ -10814,7 +10822,7 @@
       <c r="K13" s="30"/>
       <c r="L13" s="30"/>
     </row>
-    <row r="14" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12">
       <c r="A14" s="30" t="s">
         <v>716</v>
       </c>
@@ -10844,7 +10852,7 @@
       <c r="K14" s="30"/>
       <c r="L14" s="30"/>
     </row>
-    <row r="15" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12">
       <c r="A15" s="30" t="s">
         <v>717</v>
       </c>
@@ -10874,7 +10882,7 @@
       <c r="K15" s="30"/>
       <c r="L15" s="30"/>
     </row>
-    <row r="16" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12">
       <c r="A16" s="30" t="s">
         <v>718</v>
       </c>
@@ -10904,7 +10912,7 @@
       <c r="K16" s="30"/>
       <c r="L16" s="30"/>
     </row>
-    <row r="17" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12">
       <c r="A17" s="30" t="s">
         <v>719</v>
       </c>
@@ -10934,7 +10942,7 @@
       <c r="K17" s="30"/>
       <c r="L17" s="30"/>
     </row>
-    <row r="18" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12">
       <c r="A18" s="30" t="s">
         <v>720</v>
       </c>
@@ -10964,7 +10972,7 @@
       <c r="K18" s="30"/>
       <c r="L18" s="30"/>
     </row>
-    <row r="19" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12">
       <c r="A19" s="30" t="s">
         <v>722</v>
       </c>
@@ -10995,7 +11003,7 @@
       <c r="K19" s="30"/>
       <c r="L19" s="30"/>
     </row>
-    <row r="20" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12">
       <c r="A20" s="30" t="s">
         <v>721</v>
       </c>
@@ -11025,7 +11033,7 @@
       <c r="K20" s="30"/>
       <c r="L20" s="30"/>
     </row>
-    <row r="21" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12">
       <c r="A21" s="30" t="s">
         <v>724</v>
       </c>
@@ -11055,7 +11063,7 @@
       <c r="K21" s="30"/>
       <c r="L21" s="30"/>
     </row>
-    <row r="22" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12">
       <c r="A22" s="30" t="s">
         <v>725</v>
       </c>
@@ -11085,7 +11093,7 @@
       <c r="K22" s="30"/>
       <c r="L22" s="30"/>
     </row>
-    <row r="23" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12">
       <c r="A23" s="30" t="s">
         <v>726</v>
       </c>
@@ -11115,7 +11123,7 @@
       <c r="K23" s="30"/>
       <c r="L23" s="30"/>
     </row>
-    <row r="24" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12">
       <c r="A24" s="30" t="s">
         <v>727</v>
       </c>
@@ -11145,7 +11153,7 @@
       <c r="K24" s="30"/>
       <c r="L24" s="30"/>
     </row>
-    <row r="25" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12">
       <c r="A25" s="30" t="s">
         <v>728</v>
       </c>
@@ -11175,7 +11183,7 @@
       <c r="K25" s="30"/>
       <c r="L25" s="30"/>
     </row>
-    <row r="26" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12">
       <c r="A26" s="30" t="s">
         <v>729</v>
       </c>
@@ -11205,7 +11213,7 @@
       <c r="K26" s="30"/>
       <c r="L26" s="30"/>
     </row>
-    <row r="27" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12">
       <c r="A27" s="30" t="s">
         <v>730</v>
       </c>
@@ -11235,7 +11243,7 @@
       <c r="K27" s="30"/>
       <c r="L27" s="30"/>
     </row>
-    <row r="28" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12">
       <c r="A28" s="30" t="s">
         <v>731</v>
       </c>
@@ -11265,7 +11273,7 @@
       <c r="K28" s="30"/>
       <c r="L28" s="30"/>
     </row>
-    <row r="29" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12">
       <c r="A29" s="30" t="s">
         <v>841</v>
       </c>
@@ -11289,7 +11297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12">
       <c r="A30" s="30" t="s">
         <v>842</v>
       </c>
@@ -11313,7 +11321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12">
       <c r="A31" s="30" t="s">
         <v>843</v>
       </c>
@@ -11337,7 +11345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12">
       <c r="A32" s="30" t="s">
         <v>844</v>
       </c>
@@ -11361,25 +11369,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4">
       <c r="A33" s="30"/>
       <c r="B33" s="30"/>
       <c r="C33" s="30"/>
       <c r="D33" s="30"/>
     </row>
-    <row r="34" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4">
       <c r="A34" s="30"/>
       <c r="B34" s="30"/>
       <c r="C34" s="30"/>
       <c r="D34" s="30"/>
     </row>
-    <row r="35" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4">
       <c r="A35" s="30"/>
       <c r="B35" s="30"/>
       <c r="C35" s="30"/>
       <c r="D35" s="30"/>
     </row>
-    <row r="36" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4">
       <c r="A36" s="30"/>
       <c r="B36" s="30"/>
       <c r="C36" s="30"/>
@@ -11404,19 +11412,19 @@
       <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="70.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="80.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="33.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="70.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="80.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="33.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="255.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="15">
       <c r="A1" s="17" t="b">
         <v>0</v>
       </c>
@@ -11435,7 +11443,7 @@
       <c r="H1" s="17"/>
       <c r="I1" s="17"/>
     </row>
-    <row r="2" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="15">
       <c r="A2" s="17"/>
       <c r="B2" s="17" t="s">
         <v>21</v>
@@ -11456,7 +11464,7 @@
       <c r="H2" s="17"/>
       <c r="I2" s="17"/>
     </row>
-    <row r="3" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="15">
       <c r="A3" s="17"/>
       <c r="B3" s="17" t="s">
         <v>21</v>
@@ -11479,7 +11487,7 @@
       </c>
       <c r="I3" s="17"/>
     </row>
-    <row r="4" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="15">
       <c r="A4" s="17"/>
       <c r="B4" s="17" t="s">
         <v>21</v>
@@ -11502,7 +11510,7 @@
       </c>
       <c r="I4" s="17"/>
     </row>
-    <row r="5" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="15">
       <c r="A5" s="17"/>
       <c r="B5" s="17" t="s">
         <v>21</v>
@@ -11525,7 +11533,7 @@
       </c>
       <c r="I5" s="17"/>
     </row>
-    <row r="6" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="15">
       <c r="A6" s="17"/>
       <c r="B6" s="17" t="s">
         <v>21</v>
@@ -11548,7 +11556,7 @@
       </c>
       <c r="I6" s="17"/>
     </row>
-    <row r="7" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="15">
       <c r="A7" s="17"/>
       <c r="B7" s="17" t="s">
         <v>21</v>
@@ -11571,7 +11579,7 @@
       </c>
       <c r="I7" s="17"/>
     </row>
-    <row r="8" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="15">
       <c r="A8" s="17"/>
       <c r="B8" s="17" t="s">
         <v>21</v>
@@ -11594,7 +11602,7 @@
       </c>
       <c r="I8" s="17"/>
     </row>
-    <row r="9" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="15">
       <c r="A9" s="17"/>
       <c r="B9" s="17" t="s">
         <v>21</v>
@@ -11617,7 +11625,7 @@
       </c>
       <c r="I9" s="17"/>
     </row>
-    <row r="10" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="15">
       <c r="A10" s="17"/>
       <c r="B10" s="17" t="s">
         <v>21</v>
@@ -11640,7 +11648,7 @@
       </c>
       <c r="I10" s="17"/>
     </row>
-    <row r="11" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="15">
       <c r="A11" s="17" t="b">
         <v>0</v>
       </c>
@@ -11659,7 +11667,7 @@
       <c r="H11" s="17"/>
       <c r="I11" s="17"/>
     </row>
-    <row r="12" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="15">
       <c r="A12" s="17"/>
       <c r="B12" s="17" t="s">
         <v>21</v>
@@ -11680,7 +11688,7 @@
       <c r="H12" s="17"/>
       <c r="I12" s="17"/>
     </row>
-    <row r="13" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="15">
       <c r="A13" s="17"/>
       <c r="B13" s="17" t="s">
         <v>21</v>
@@ -11703,7 +11711,7 @@
       </c>
       <c r="I13" s="17"/>
     </row>
-    <row r="14" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="15">
       <c r="A14" s="17"/>
       <c r="B14" s="17" t="s">
         <v>21</v>
@@ -11726,7 +11734,7 @@
       </c>
       <c r="I14" s="17"/>
     </row>
-    <row r="15" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="15">
       <c r="A15" s="17"/>
       <c r="B15" s="17" t="s">
         <v>21</v>
@@ -11749,7 +11757,7 @@
       </c>
       <c r="I15" s="17"/>
     </row>
-    <row r="16" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="15">
       <c r="A16" s="17"/>
       <c r="B16" s="17" t="s">
         <v>21</v>
@@ -11772,7 +11780,7 @@
       </c>
       <c r="I16" s="17"/>
     </row>
-    <row r="17" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="15">
       <c r="A17" s="17"/>
       <c r="B17" s="17" t="s">
         <v>21</v>
@@ -11795,7 +11803,7 @@
       </c>
       <c r="I17" s="17"/>
     </row>
-    <row r="18" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="15">
       <c r="A18" s="17"/>
       <c r="B18" s="17" t="s">
         <v>21</v>
@@ -11818,7 +11826,7 @@
       </c>
       <c r="I18" s="17"/>
     </row>
-    <row r="19" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="15">
       <c r="A19" s="17"/>
       <c r="B19" s="17" t="s">
         <v>21</v>
@@ -11841,7 +11849,7 @@
       </c>
       <c r="I19" s="17"/>
     </row>
-    <row r="20" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="15">
       <c r="A20" s="17"/>
       <c r="B20" s="17" t="s">
         <v>21</v>
@@ -11864,7 +11872,7 @@
       </c>
       <c r="I20" s="17"/>
     </row>
-    <row r="21" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" ht="15">
       <c r="A21" s="17" t="b">
         <v>0</v>
       </c>
@@ -11883,7 +11891,7 @@
       <c r="H21" s="17"/>
       <c r="I21" s="17"/>
     </row>
-    <row r="22" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" ht="15">
       <c r="A22" s="17"/>
       <c r="B22" s="17" t="s">
         <v>21</v>
@@ -11906,7 +11914,7 @@
       </c>
       <c r="I22" s="17"/>
     </row>
-    <row r="23" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" ht="15">
       <c r="A23" s="17"/>
       <c r="B23" s="17" t="s">
         <v>21</v>
@@ -11929,7 +11937,7 @@
       </c>
       <c r="I23" s="17"/>
     </row>
-    <row r="24" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" ht="15">
       <c r="A24" s="17"/>
       <c r="B24" s="17" t="s">
         <v>21</v>
@@ -11952,7 +11960,7 @@
       </c>
       <c r="I24" s="17"/>
     </row>
-    <row r="25" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" ht="15">
       <c r="A25" s="17"/>
       <c r="B25" s="17" t="s">
         <v>21</v>
@@ -11975,7 +11983,7 @@
       </c>
       <c r="I25" s="17"/>
     </row>
-    <row r="26" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" ht="15">
       <c r="A26" s="17"/>
       <c r="B26" s="17" t="s">
         <v>21</v>
@@ -11998,7 +12006,7 @@
       </c>
       <c r="I26" s="17"/>
     </row>
-    <row r="27" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" ht="15">
       <c r="A27" s="17"/>
       <c r="B27" s="17" t="s">
         <v>21</v>
@@ -12021,7 +12029,7 @@
       </c>
       <c r="I27" s="17"/>
     </row>
-    <row r="28" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" ht="15">
       <c r="A28" s="17"/>
       <c r="B28" s="17" t="s">
         <v>21</v>
@@ -12044,7 +12052,7 @@
       </c>
       <c r="I28" s="17"/>
     </row>
-    <row r="29" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" ht="15">
       <c r="A29" s="17"/>
       <c r="B29" s="17" t="s">
         <v>21</v>
@@ -12067,7 +12075,7 @@
       </c>
       <c r="I29" s="17"/>
     </row>
-    <row r="30" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" ht="15">
       <c r="A30" s="17"/>
       <c r="B30" s="17" t="s">
         <v>21</v>
@@ -12090,7 +12098,7 @@
       </c>
       <c r="I30" s="17"/>
     </row>
-    <row r="31" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" ht="15">
       <c r="A31" s="17" t="b">
         <v>0</v>
       </c>
@@ -12109,7 +12117,7 @@
       <c r="H31" s="17"/>
       <c r="I31" s="17"/>
     </row>
-    <row r="32" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" ht="15">
       <c r="A32" s="17"/>
       <c r="B32" s="17" t="s">
         <v>21</v>
@@ -12130,7 +12138,7 @@
       <c r="H32" s="17"/>
       <c r="I32" s="17"/>
     </row>
-    <row r="33" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" ht="15">
       <c r="A33" s="17"/>
       <c r="B33" s="17" t="s">
         <v>21</v>
@@ -12153,7 +12161,7 @@
       </c>
       <c r="I33" s="17"/>
     </row>
-    <row r="34" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" ht="15">
       <c r="A34" s="17"/>
       <c r="B34" s="17" t="s">
         <v>21</v>
@@ -12176,7 +12184,7 @@
       </c>
       <c r="I34" s="17"/>
     </row>
-    <row r="35" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" ht="15">
       <c r="A35" s="17"/>
       <c r="B35" s="17" t="s">
         <v>21</v>
@@ -12199,7 +12207,7 @@
       </c>
       <c r="I35" s="17"/>
     </row>
-    <row r="36" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" ht="15">
       <c r="A36" s="17"/>
       <c r="B36" s="17" t="s">
         <v>21</v>
@@ -12222,7 +12230,7 @@
       </c>
       <c r="I36" s="17"/>
     </row>
-    <row r="37" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" ht="15">
       <c r="A37" s="17"/>
       <c r="B37" s="17" t="s">
         <v>21</v>
@@ -12245,7 +12253,7 @@
       </c>
       <c r="I37" s="17"/>
     </row>
-    <row r="38" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" ht="15">
       <c r="A38" s="17"/>
       <c r="B38" s="17" t="s">
         <v>21</v>
@@ -12268,7 +12276,7 @@
       </c>
       <c r="I38" s="17"/>
     </row>
-    <row r="39" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" ht="15">
       <c r="A39" s="17"/>
       <c r="B39" s="17" t="s">
         <v>21</v>
@@ -12291,7 +12299,7 @@
       </c>
       <c r="I39" s="17"/>
     </row>
-    <row r="40" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" ht="15">
       <c r="A40" s="17"/>
       <c r="B40" s="17" t="s">
         <v>21</v>
@@ -12314,7 +12322,7 @@
       </c>
       <c r="I40" s="17"/>
     </row>
-    <row r="41" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" ht="15">
       <c r="A41" s="17" t="b">
         <v>0</v>
       </c>
@@ -12333,7 +12341,7 @@
       <c r="H41" s="17"/>
       <c r="I41" s="17"/>
     </row>
-    <row r="42" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" ht="15">
       <c r="A42" s="17"/>
       <c r="B42" s="17" t="s">
         <v>21</v>
@@ -12354,7 +12362,7 @@
       <c r="H42" s="17"/>
       <c r="I42" s="17"/>
     </row>
-    <row r="43" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" ht="15">
       <c r="A43" s="17"/>
       <c r="B43" s="17" t="s">
         <v>21</v>
@@ -12377,7 +12385,7 @@
       </c>
       <c r="I43" s="17"/>
     </row>
-    <row r="44" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" ht="15">
       <c r="A44" s="17"/>
       <c r="B44" s="17" t="s">
         <v>21</v>
@@ -12400,7 +12408,7 @@
       </c>
       <c r="I44" s="17"/>
     </row>
-    <row r="45" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" ht="15">
       <c r="A45" s="17"/>
       <c r="B45" s="17" t="s">
         <v>21</v>
@@ -12423,7 +12431,7 @@
       </c>
       <c r="I45" s="17"/>
     </row>
-    <row r="46" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" ht="15">
       <c r="A46" s="17"/>
       <c r="B46" s="17" t="s">
         <v>21</v>
@@ -12446,7 +12454,7 @@
       </c>
       <c r="I46" s="17"/>
     </row>
-    <row r="47" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" ht="15">
       <c r="A47" s="17"/>
       <c r="B47" s="17" t="s">
         <v>21</v>
@@ -12469,7 +12477,7 @@
       </c>
       <c r="I47" s="17"/>
     </row>
-    <row r="48" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" ht="15">
       <c r="A48" s="17"/>
       <c r="B48" s="17" t="s">
         <v>21</v>
@@ -12492,7 +12500,7 @@
       </c>
       <c r="I48" s="17"/>
     </row>
-    <row r="49" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" ht="15">
       <c r="A49" s="17"/>
       <c r="B49" s="17" t="s">
         <v>21</v>
@@ -12515,7 +12523,7 @@
       </c>
       <c r="I49" s="17"/>
     </row>
-    <row r="50" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" ht="15">
       <c r="A50" s="17"/>
       <c r="B50" s="17" t="s">
         <v>21</v>
@@ -12538,7 +12546,7 @@
       </c>
       <c r="I50" s="17"/>
     </row>
-    <row r="51" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" ht="15">
       <c r="A51" s="17" t="b">
         <v>0</v>
       </c>
@@ -12557,7 +12565,7 @@
       <c r="H51" s="17"/>
       <c r="I51" s="17"/>
     </row>
-    <row r="52" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" ht="15">
       <c r="A52" s="17"/>
       <c r="B52" s="17" t="s">
         <v>21</v>
@@ -12578,7 +12586,7 @@
       <c r="H52" s="17"/>
       <c r="I52" s="17"/>
     </row>
-    <row r="53" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" ht="15">
       <c r="A53" s="17"/>
       <c r="B53" s="17" t="s">
         <v>21</v>
@@ -12601,7 +12609,7 @@
       </c>
       <c r="I53" s="17"/>
     </row>
-    <row r="54" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" ht="15">
       <c r="A54" s="17"/>
       <c r="B54" s="17" t="s">
         <v>21</v>
@@ -12624,7 +12632,7 @@
       </c>
       <c r="I54" s="17"/>
     </row>
-    <row r="55" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" ht="15">
       <c r="A55" s="17"/>
       <c r="B55" s="17" t="s">
         <v>21</v>
@@ -12647,7 +12655,7 @@
       </c>
       <c r="I55" s="17"/>
     </row>
-    <row r="56" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" ht="15">
       <c r="A56" s="17"/>
       <c r="B56" s="17" t="s">
         <v>21</v>
@@ -12670,7 +12678,7 @@
       </c>
       <c r="I56" s="17"/>
     </row>
-    <row r="57" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" ht="15">
       <c r="A57" s="17"/>
       <c r="B57" s="17" t="s">
         <v>21</v>
@@ -12693,7 +12701,7 @@
       </c>
       <c r="I57" s="17"/>
     </row>
-    <row r="58" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" ht="15">
       <c r="A58" s="17"/>
       <c r="B58" s="17" t="s">
         <v>21</v>
@@ -12716,7 +12724,7 @@
       </c>
       <c r="I58" s="17"/>
     </row>
-    <row r="59" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" ht="15">
       <c r="A59" s="17"/>
       <c r="B59" s="17" t="s">
         <v>21</v>
@@ -12739,7 +12747,7 @@
       </c>
       <c r="I59" s="17"/>
     </row>
-    <row r="60" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" ht="15">
       <c r="A60" s="17"/>
       <c r="B60" s="17" t="s">
         <v>21</v>
@@ -12762,7 +12770,7 @@
       </c>
       <c r="I60" s="17"/>
     </row>
-    <row r="61" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" ht="15">
       <c r="A61" s="17" t="b">
         <v>0</v>
       </c>
@@ -12781,7 +12789,7 @@
       <c r="H61" s="17"/>
       <c r="I61" s="17"/>
     </row>
-    <row r="62" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" ht="15">
       <c r="A62" s="17"/>
       <c r="B62" s="17" t="s">
         <v>21</v>
@@ -12802,7 +12810,7 @@
       <c r="H62" s="17"/>
       <c r="I62" s="17"/>
     </row>
-    <row r="63" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" ht="15">
       <c r="A63" s="17"/>
       <c r="B63" s="17" t="s">
         <v>21</v>
@@ -12827,7 +12835,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" ht="15">
       <c r="A64" s="17"/>
       <c r="B64" s="17" t="s">
         <v>21</v>
@@ -12850,7 +12858,7 @@
       </c>
       <c r="I64" s="17"/>
     </row>
-    <row r="65" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" ht="15">
       <c r="A65" s="17"/>
       <c r="B65" s="17" t="s">
         <v>21</v>
@@ -12873,7 +12881,7 @@
       </c>
       <c r="I65" s="17"/>
     </row>
-    <row r="66" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" ht="15">
       <c r="A66" s="17"/>
       <c r="B66" s="17" t="s">
         <v>21</v>
@@ -12896,7 +12904,7 @@
       </c>
       <c r="I66" s="17"/>
     </row>
-    <row r="67" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" ht="15">
       <c r="A67" s="17"/>
       <c r="B67" s="17" t="s">
         <v>21</v>
@@ -12919,7 +12927,7 @@
       </c>
       <c r="I67" s="17"/>
     </row>
-    <row r="68" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" ht="15">
       <c r="A68" s="17"/>
       <c r="B68" s="17" t="s">
         <v>21</v>
@@ -12942,7 +12950,7 @@
       </c>
       <c r="I68" s="17"/>
     </row>
-    <row r="69" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" ht="15">
       <c r="A69" s="17"/>
       <c r="B69" s="17" t="s">
         <v>21</v>
@@ -12965,7 +12973,7 @@
       </c>
       <c r="I69" s="17"/>
     </row>
-    <row r="70" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" ht="15">
       <c r="A70" s="17"/>
       <c r="B70" s="17" t="s">
         <v>21</v>
@@ -12988,7 +12996,7 @@
       </c>
       <c r="I70" s="17"/>
     </row>
-    <row r="71" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" ht="15">
       <c r="A71" s="17"/>
       <c r="B71" s="17" t="s">
         <v>21</v>
@@ -13011,7 +13019,7 @@
       </c>
       <c r="I71" s="17"/>
     </row>
-    <row r="72" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" ht="15">
       <c r="A72" s="17" t="b">
         <v>0</v>
       </c>
@@ -13030,7 +13038,7 @@
       <c r="H72" s="17"/>
       <c r="I72" s="17"/>
     </row>
-    <row r="73" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" ht="15">
       <c r="A73" s="17"/>
       <c r="B73" s="17" t="s">
         <v>21</v>
@@ -13051,7 +13059,7 @@
       <c r="H73" s="17"/>
       <c r="I73" s="17"/>
     </row>
-    <row r="74" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" ht="15">
       <c r="A74" s="17"/>
       <c r="B74" s="17" t="s">
         <v>21</v>
@@ -13074,7 +13082,7 @@
       </c>
       <c r="I74" s="17"/>
     </row>
-    <row r="75" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" ht="15">
       <c r="A75" s="17"/>
       <c r="B75" s="17" t="s">
         <v>21</v>
@@ -13099,7 +13107,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" ht="15">
       <c r="A76" s="17"/>
       <c r="B76" s="17" t="s">
         <v>21</v>
@@ -13122,7 +13130,7 @@
       </c>
       <c r="I76" s="17"/>
     </row>
-    <row r="77" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" ht="15">
       <c r="A77" s="17"/>
       <c r="B77" s="17" t="s">
         <v>21</v>
@@ -13145,7 +13153,7 @@
       </c>
       <c r="I77" s="17"/>
     </row>
-    <row r="78" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" ht="15">
       <c r="A78" s="17"/>
       <c r="B78" s="17" t="s">
         <v>21</v>
@@ -13168,7 +13176,7 @@
       </c>
       <c r="I78" s="17"/>
     </row>
-    <row r="79" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" ht="15">
       <c r="A79" s="17"/>
       <c r="B79" s="17" t="s">
         <v>21</v>
@@ -13191,7 +13199,7 @@
       </c>
       <c r="I79" s="17"/>
     </row>
-    <row r="80" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" ht="15">
       <c r="A80" s="17"/>
       <c r="B80" s="17" t="s">
         <v>21</v>
@@ -13214,7 +13222,7 @@
       </c>
       <c r="I80" s="17"/>
     </row>
-    <row r="81" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" ht="15">
       <c r="A81" s="17"/>
       <c r="B81" s="17" t="s">
         <v>21</v>
@@ -13237,7 +13245,7 @@
       </c>
       <c r="I81" s="17"/>
     </row>
-    <row r="82" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" ht="15">
       <c r="A82" s="17"/>
       <c r="B82" s="17" t="s">
         <v>21</v>
@@ -13260,7 +13268,7 @@
       </c>
       <c r="I82" s="17"/>
     </row>
-    <row r="83" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" ht="15">
       <c r="A83" s="17"/>
       <c r="B83" s="17" t="s">
         <v>21</v>
@@ -13283,7 +13291,7 @@
       </c>
       <c r="I83" s="17"/>
     </row>
-    <row r="84" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" ht="15">
       <c r="A84" s="17"/>
       <c r="B84" s="17" t="s">
         <v>21</v>
@@ -13306,7 +13314,7 @@
       </c>
       <c r="I84" s="17"/>
     </row>
-    <row r="85" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" ht="15">
       <c r="A85" s="17"/>
       <c r="B85" s="17" t="s">
         <v>21</v>
@@ -13329,7 +13337,7 @@
       </c>
       <c r="I85" s="17"/>
     </row>
-    <row r="86" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" ht="15">
       <c r="A86" s="17" t="b">
         <v>0</v>
       </c>
@@ -13348,7 +13356,7 @@
       <c r="H86" s="17"/>
       <c r="I86" s="17"/>
     </row>
-    <row r="87" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" ht="15">
       <c r="A87" s="17"/>
       <c r="B87" s="17" t="s">
         <v>21</v>
@@ -13371,7 +13379,7 @@
       </c>
       <c r="I87" s="17"/>
     </row>
-    <row r="88" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" ht="15">
       <c r="A88" s="17"/>
       <c r="B88" s="17" t="s">
         <v>21</v>
@@ -13394,7 +13402,7 @@
       </c>
       <c r="I88" s="17"/>
     </row>
-    <row r="89" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" ht="15">
       <c r="A89" s="17"/>
       <c r="B89" s="17" t="s">
         <v>21</v>
@@ -13417,7 +13425,7 @@
       </c>
       <c r="I89" s="17"/>
     </row>
-    <row r="90" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" ht="15">
       <c r="A90" s="17"/>
       <c r="B90" s="17" t="s">
         <v>21</v>
@@ -13440,7 +13448,7 @@
       </c>
       <c r="I90" s="17"/>
     </row>
-    <row r="91" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" ht="15">
       <c r="A91" s="17"/>
       <c r="B91" s="17" t="s">
         <v>21</v>
@@ -13463,7 +13471,7 @@
       </c>
       <c r="I91" s="17"/>
     </row>
-    <row r="92" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" ht="15">
       <c r="A92" s="17"/>
       <c r="B92" s="17" t="s">
         <v>21</v>
@@ -13486,7 +13494,7 @@
       </c>
       <c r="I92" s="17"/>
     </row>
-    <row r="93" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" ht="15">
       <c r="A93" s="17"/>
       <c r="B93" s="17" t="s">
         <v>21</v>
@@ -13509,7 +13517,7 @@
       </c>
       <c r="I93" s="17"/>
     </row>
-    <row r="94" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" ht="15">
       <c r="A94" s="17"/>
       <c r="B94" s="17" t="s">
         <v>21</v>
@@ -13532,7 +13540,7 @@
       </c>
       <c r="I94" s="17"/>
     </row>
-    <row r="95" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" ht="15">
       <c r="A95" s="17"/>
       <c r="B95" s="17" t="s">
         <v>21</v>
@@ -13555,7 +13563,7 @@
       </c>
       <c r="I95" s="17"/>
     </row>
-    <row r="96" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" ht="15">
       <c r="A96" s="17"/>
       <c r="B96" s="17" t="s">
         <v>21</v>
@@ -13578,7 +13586,7 @@
       </c>
       <c r="I96" s="17"/>
     </row>
-    <row r="97" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" ht="15">
       <c r="A97" s="17" t="b">
         <v>0</v>
       </c>
@@ -13597,7 +13605,7 @@
       <c r="H97" s="17"/>
       <c r="I97" s="17"/>
     </row>
-    <row r="98" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" ht="15">
       <c r="A98" s="17"/>
       <c r="B98" s="17" t="s">
         <v>21</v>
@@ -13622,7 +13630,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" ht="15">
       <c r="A99" s="17" t="b">
         <v>0</v>
       </c>
@@ -13641,7 +13649,7 @@
       <c r="H99" s="17"/>
       <c r="I99" s="17"/>
     </row>
-    <row r="100" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" ht="15">
       <c r="A100" s="17"/>
       <c r="B100" s="17" t="s">
         <v>21</v>
@@ -13662,7 +13670,7 @@
       <c r="H100" s="17"/>
       <c r="I100" s="17"/>
     </row>
-    <row r="101" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" ht="15">
       <c r="A101" s="17"/>
       <c r="B101" s="17" t="s">
         <v>21</v>
@@ -13687,7 +13695,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" ht="15">
       <c r="A102" s="17" t="b">
         <v>0</v>
       </c>
@@ -13706,7 +13714,7 @@
       <c r="H102" s="17"/>
       <c r="I102" s="17"/>
     </row>
-    <row r="103" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" ht="15">
       <c r="A103" s="17"/>
       <c r="B103" s="17" t="s">
         <v>21</v>
@@ -13729,7 +13737,7 @@
       </c>
       <c r="I103" s="17"/>
     </row>
-    <row r="104" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" ht="15">
       <c r="A104" s="17"/>
       <c r="B104" s="17" t="s">
         <v>21</v>
@@ -13754,7 +13762,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" ht="15">
       <c r="A105" s="17"/>
       <c r="B105" s="17" t="s">
         <v>21</v>
@@ -13777,7 +13785,7 @@
       </c>
       <c r="I105" s="17"/>
     </row>
-    <row r="106" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" ht="15">
       <c r="A106" s="17"/>
       <c r="B106" s="17" t="s">
         <v>21</v>
@@ -13798,7 +13806,7 @@
       <c r="H106" s="17"/>
       <c r="I106" s="17"/>
     </row>
-    <row r="107" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" ht="15">
       <c r="A107" s="17" t="b">
         <v>0</v>
       </c>
@@ -13817,7 +13825,7 @@
       <c r="H107" s="17"/>
       <c r="I107" s="17"/>
     </row>
-    <row r="108" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" ht="15">
       <c r="A108" s="17"/>
       <c r="B108" s="17" t="s">
         <v>21</v>
@@ -13842,7 +13850,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" ht="15">
       <c r="A109" s="17"/>
       <c r="B109" s="17" t="s">
         <v>21</v>
@@ -13865,7 +13873,7 @@
       </c>
       <c r="I109" s="17"/>
     </row>
-    <row r="110" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" ht="15">
       <c r="A110" s="17"/>
       <c r="B110" s="17" t="s">
         <v>21</v>
@@ -13888,7 +13896,7 @@
       </c>
       <c r="I110" s="17"/>
     </row>
-    <row r="111" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" ht="15">
       <c r="A111" s="17"/>
       <c r="B111" s="17" t="s">
         <v>21</v>
@@ -13911,7 +13919,7 @@
       </c>
       <c r="I111" s="17"/>
     </row>
-    <row r="112" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" ht="15">
       <c r="A112" s="17"/>
       <c r="B112" s="17" t="s">
         <v>21</v>
@@ -13934,7 +13942,7 @@
       </c>
       <c r="I112" s="17"/>
     </row>
-    <row r="113" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" ht="15">
       <c r="A113" s="17"/>
       <c r="B113" s="17" t="s">
         <v>21</v>
@@ -13957,7 +13965,7 @@
       </c>
       <c r="I113" s="17"/>
     </row>
-    <row r="114" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" ht="15">
       <c r="A114" s="17"/>
       <c r="B114" s="17" t="s">
         <v>21</v>
@@ -13980,7 +13988,7 @@
       </c>
       <c r="I114" s="17"/>
     </row>
-    <row r="115" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" ht="15">
       <c r="A115" s="17" t="b">
         <v>0</v>
       </c>
@@ -13999,7 +14007,7 @@
       <c r="H115" s="17"/>
       <c r="I115" s="17"/>
     </row>
-    <row r="116" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" ht="15">
       <c r="A116" s="17"/>
       <c r="B116" s="17" t="s">
         <v>21</v>
@@ -14022,7 +14030,7 @@
       </c>
       <c r="I116" s="17"/>
     </row>
-    <row r="117" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" ht="15">
       <c r="A117" s="17"/>
       <c r="B117" s="17" t="s">
         <v>21</v>
@@ -14045,7 +14053,7 @@
       </c>
       <c r="I117" s="17"/>
     </row>
-    <row r="118" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" ht="15">
       <c r="A118" s="17"/>
       <c r="B118" s="17" t="s">
         <v>21</v>
@@ -14068,7 +14076,7 @@
       </c>
       <c r="I118" s="17"/>
     </row>
-    <row r="119" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" ht="15">
       <c r="A119" s="17" t="b">
         <v>0</v>
       </c>
@@ -14087,7 +14095,7 @@
       <c r="H119" s="17"/>
       <c r="I119" s="17"/>
     </row>
-    <row r="120" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" ht="15">
       <c r="A120" s="17"/>
       <c r="B120" s="17" t="s">
         <v>21</v>
@@ -14110,7 +14118,7 @@
       </c>
       <c r="I120" s="17"/>
     </row>
-    <row r="121" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" ht="15">
       <c r="A121" s="17"/>
       <c r="B121" s="17" t="s">
         <v>21</v>
@@ -14133,7 +14141,7 @@
       </c>
       <c r="I121" s="17"/>
     </row>
-    <row r="122" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" ht="15">
       <c r="A122" s="17"/>
       <c r="B122" s="17" t="s">
         <v>21</v>
@@ -14156,7 +14164,7 @@
       </c>
       <c r="I122" s="17"/>
     </row>
-    <row r="123" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" ht="15">
       <c r="A123" s="17"/>
       <c r="B123" s="17" t="s">
         <v>21</v>
@@ -14179,7 +14187,7 @@
       </c>
       <c r="I123" s="17"/>
     </row>
-    <row r="124" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" ht="15">
       <c r="A124" s="17"/>
       <c r="B124" s="17" t="s">
         <v>21</v>
@@ -14202,7 +14210,7 @@
       </c>
       <c r="I124" s="17"/>
     </row>
-    <row r="125" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" ht="15">
       <c r="A125" s="17"/>
       <c r="B125" s="17" t="s">
         <v>21</v>
@@ -14225,7 +14233,7 @@
       </c>
       <c r="I125" s="17"/>
     </row>
-    <row r="126" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" ht="15">
       <c r="A126" s="17" t="b">
         <v>0</v>
       </c>
@@ -14244,7 +14252,7 @@
       <c r="H126" s="17"/>
       <c r="I126" s="17"/>
     </row>
-    <row r="127" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" ht="15">
       <c r="A127" s="17"/>
       <c r="B127" s="17" t="s">
         <v>21</v>
@@ -14269,7 +14277,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="128" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" ht="15">
       <c r="A128" s="17"/>
       <c r="B128" s="17" t="s">
         <v>21</v>
@@ -14292,7 +14300,7 @@
       </c>
       <c r="I128" s="17"/>
     </row>
-    <row r="129" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" ht="15">
       <c r="A129" s="17"/>
       <c r="B129" s="17" t="s">
         <v>21</v>
@@ -14315,7 +14323,7 @@
       </c>
       <c r="I129" s="17"/>
     </row>
-    <row r="130" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" ht="15">
       <c r="A130" s="17"/>
       <c r="B130" s="17" t="s">
         <v>21</v>
@@ -14338,7 +14346,7 @@
       </c>
       <c r="I130" s="17"/>
     </row>
-    <row r="131" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" ht="15">
       <c r="A131" s="17"/>
       <c r="B131" s="17" t="s">
         <v>21</v>
@@ -14361,7 +14369,7 @@
       </c>
       <c r="I131" s="17"/>
     </row>
-    <row r="132" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9" ht="15">
       <c r="A132" s="17"/>
       <c r="B132" s="17" t="s">
         <v>21</v>
@@ -14384,7 +14392,7 @@
       </c>
       <c r="I132" s="17"/>
     </row>
-    <row r="133" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" ht="15">
       <c r="A133" s="17"/>
       <c r="B133" s="17" t="s">
         <v>21</v>
@@ -14407,7 +14415,7 @@
       </c>
       <c r="I133" s="17"/>
     </row>
-    <row r="134" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9" ht="15">
       <c r="A134" s="17"/>
       <c r="B134" s="17" t="s">
         <v>21</v>
@@ -14430,7 +14438,7 @@
       </c>
       <c r="I134" s="17"/>
     </row>
-    <row r="135" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9" ht="15">
       <c r="A135" s="17"/>
       <c r="B135" s="17" t="s">
         <v>21</v>
@@ -14453,7 +14461,7 @@
       </c>
       <c r="I135" s="17"/>
     </row>
-    <row r="136" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9" ht="15">
       <c r="A136" s="17" t="b">
         <v>0</v>
       </c>
@@ -14472,7 +14480,7 @@
       <c r="H136" s="17"/>
       <c r="I136" s="17"/>
     </row>
-    <row r="137" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9" ht="15">
       <c r="A137" s="17"/>
       <c r="B137" s="17" t="s">
         <v>21</v>
@@ -14497,7 +14505,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="138" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9" ht="15">
       <c r="A138" s="17"/>
       <c r="B138" s="17" t="s">
         <v>21</v>
@@ -14518,7 +14526,7 @@
       <c r="H138" s="17"/>
       <c r="I138" s="17"/>
     </row>
-    <row r="139" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9" ht="15">
       <c r="A139" s="17"/>
       <c r="B139" s="17" t="s">
         <v>21</v>
@@ -14541,7 +14549,7 @@
       </c>
       <c r="I139" s="17"/>
     </row>
-    <row r="140" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9" ht="15">
       <c r="A140" s="17"/>
       <c r="B140" s="17" t="s">
         <v>21</v>
@@ -14564,7 +14572,7 @@
       </c>
       <c r="I140" s="17"/>
     </row>
-    <row r="141" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9" ht="15">
       <c r="A141" s="17"/>
       <c r="B141" s="17" t="s">
         <v>21</v>
@@ -14587,7 +14595,7 @@
       </c>
       <c r="I141" s="17"/>
     </row>
-    <row r="142" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9" ht="15">
       <c r="A142" s="17"/>
       <c r="B142" s="17" t="s">
         <v>21</v>
@@ -14610,7 +14618,7 @@
       </c>
       <c r="I142" s="17"/>
     </row>
-    <row r="143" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9" ht="15">
       <c r="A143" s="17"/>
       <c r="B143" s="17" t="s">
         <v>21</v>
@@ -14633,7 +14641,7 @@
       </c>
       <c r="I143" s="17"/>
     </row>
-    <row r="144" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9" ht="15">
       <c r="A144" s="17"/>
       <c r="B144" s="17" t="s">
         <v>21</v>
@@ -14656,7 +14664,7 @@
       </c>
       <c r="I144" s="17"/>
     </row>
-    <row r="145" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9" ht="15">
       <c r="A145" s="17"/>
       <c r="B145" s="17" t="s">
         <v>21</v>
@@ -14679,7 +14687,7 @@
       </c>
       <c r="I145" s="17"/>
     </row>
-    <row r="146" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9" ht="15">
       <c r="A146" s="17"/>
       <c r="B146" s="17" t="s">
         <v>21</v>
@@ -14702,7 +14710,7 @@
       </c>
       <c r="I146" s="17"/>
     </row>
-    <row r="147" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9" ht="15">
       <c r="A147" s="17"/>
       <c r="B147" s="17" t="s">
         <v>21</v>
@@ -14725,7 +14733,7 @@
       </c>
       <c r="I147" s="17"/>
     </row>
-    <row r="148" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9" ht="15">
       <c r="A148" s="17"/>
       <c r="B148" s="17" t="s">
         <v>21</v>
@@ -14748,7 +14756,7 @@
       </c>
       <c r="I148" s="17"/>
     </row>
-    <row r="149" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9" ht="15">
       <c r="A149" s="17"/>
       <c r="B149" s="17" t="s">
         <v>21</v>
@@ -14771,7 +14779,7 @@
       </c>
       <c r="I149" s="17"/>
     </row>
-    <row r="150" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9" ht="15">
       <c r="A150" s="17"/>
       <c r="B150" s="17" t="s">
         <v>21</v>
@@ -14794,7 +14802,7 @@
       </c>
       <c r="I150" s="17"/>
     </row>
-    <row r="151" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9" ht="15">
       <c r="A151" s="17" t="b">
         <v>0</v>
       </c>
@@ -14813,7 +14821,7 @@
       <c r="H151" s="17"/>
       <c r="I151" s="17"/>
     </row>
-    <row r="152" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9" ht="15">
       <c r="A152" s="17"/>
       <c r="B152" s="17" t="s">
         <v>21</v>
@@ -14836,7 +14844,7 @@
       </c>
       <c r="I152" s="17"/>
     </row>
-    <row r="153" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9" ht="15">
       <c r="A153" s="17" t="b">
         <v>0</v>
       </c>
@@ -14855,7 +14863,7 @@
       <c r="H153" s="17"/>
       <c r="I153" s="17"/>
     </row>
-    <row r="154" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9" ht="15">
       <c r="A154" s="17"/>
       <c r="B154" s="17" t="s">
         <v>21</v>
@@ -14878,7 +14886,7 @@
       </c>
       <c r="I154" s="17"/>
     </row>
-    <row r="155" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9" ht="15">
       <c r="A155" s="17"/>
       <c r="B155" s="17" t="s">
         <v>21</v>
@@ -14901,7 +14909,7 @@
       </c>
       <c r="I155" s="17"/>
     </row>
-    <row r="156" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9" ht="15">
       <c r="A156" s="17" t="b">
         <v>0</v>
       </c>
@@ -14920,7 +14928,7 @@
       <c r="H156" s="17"/>
       <c r="I156" s="17"/>
     </row>
-    <row r="157" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9" ht="15">
       <c r="A157" s="17"/>
       <c r="B157" s="17" t="s">
         <v>21</v>
@@ -14945,7 +14953,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="158" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9" ht="15">
       <c r="A158" s="17"/>
       <c r="B158" s="17" t="s">
         <v>21</v>
@@ -14968,7 +14976,7 @@
       </c>
       <c r="I158" s="17"/>
     </row>
-    <row r="159" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9" ht="15">
       <c r="A159" s="17"/>
       <c r="B159" s="17" t="s">
         <v>21</v>
@@ -14991,7 +14999,7 @@
       </c>
       <c r="I159" s="17"/>
     </row>
-    <row r="160" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9" ht="15">
       <c r="A160" s="17"/>
       <c r="B160" s="17" t="s">
         <v>21</v>
@@ -15014,7 +15022,7 @@
       </c>
       <c r="I160" s="17"/>
     </row>
-    <row r="161" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:9" ht="15">
       <c r="A161" s="17"/>
       <c r="B161" s="17" t="s">
         <v>21</v>
@@ -15037,7 +15045,7 @@
       </c>
       <c r="I161" s="17"/>
     </row>
-    <row r="162" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:9" ht="15">
       <c r="A162" s="17"/>
       <c r="B162" s="17" t="s">
         <v>21</v>
@@ -15060,7 +15068,7 @@
       </c>
       <c r="I162" s="17"/>
     </row>
-    <row r="163" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:9" ht="15">
       <c r="A163" s="17"/>
       <c r="B163" s="17" t="s">
         <v>21</v>
@@ -15083,7 +15091,7 @@
       </c>
       <c r="I163" s="17"/>
     </row>
-    <row r="164" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:9" ht="15">
       <c r="A164" s="17"/>
       <c r="B164" s="17" t="s">
         <v>21</v>
@@ -15106,7 +15114,7 @@
       </c>
       <c r="I164" s="17"/>
     </row>
-    <row r="165" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:9" ht="15">
       <c r="A165" s="17"/>
       <c r="B165" s="17" t="s">
         <v>21</v>
@@ -15129,7 +15137,7 @@
       </c>
       <c r="I165" s="17"/>
     </row>
-    <row r="166" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:9" ht="15">
       <c r="A166" s="17"/>
       <c r="B166" s="17" t="s">
         <v>21</v>
@@ -15152,7 +15160,7 @@
       </c>
       <c r="I166" s="17"/>
     </row>
-    <row r="167" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:9" ht="15">
       <c r="A167" s="17" t="b">
         <v>0</v>
       </c>
@@ -15171,7 +15179,7 @@
       <c r="H167" s="17"/>
       <c r="I167" s="17"/>
     </row>
-    <row r="168" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:9" ht="15">
       <c r="A168" s="17"/>
       <c r="B168" s="17" t="s">
         <v>21</v>
@@ -15196,7 +15204,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="169" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:9" ht="15">
       <c r="A169" s="17"/>
       <c r="B169" s="17" t="s">
         <v>21</v>
@@ -15219,7 +15227,7 @@
       </c>
       <c r="I169" s="17"/>
     </row>
-    <row r="170" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:9" ht="15">
       <c r="A170" s="17"/>
       <c r="B170" s="17" t="s">
         <v>21</v>
@@ -15242,7 +15250,7 @@
       </c>
       <c r="I170" s="17"/>
     </row>
-    <row r="171" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:9" ht="15">
       <c r="A171" s="17"/>
       <c r="B171" s="17" t="s">
         <v>21</v>
@@ -15265,7 +15273,7 @@
       </c>
       <c r="I171" s="17"/>
     </row>
-    <row r="172" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:9" ht="15">
       <c r="A172" s="17"/>
       <c r="B172" s="17" t="s">
         <v>21</v>
@@ -15288,7 +15296,7 @@
       </c>
       <c r="I172" s="17"/>
     </row>
-    <row r="173" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:9" ht="15">
       <c r="A173" s="17"/>
       <c r="B173" s="17" t="s">
         <v>21</v>
@@ -15311,7 +15319,7 @@
       </c>
       <c r="I173" s="17"/>
     </row>
-    <row r="174" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:9" ht="15">
       <c r="A174" s="17"/>
       <c r="B174" s="17" t="s">
         <v>21</v>
@@ -15334,7 +15342,7 @@
       </c>
       <c r="I174" s="17"/>
     </row>
-    <row r="175" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:9" ht="15">
       <c r="A175" s="17"/>
       <c r="B175" s="17" t="s">
         <v>21</v>
@@ -15357,7 +15365,7 @@
       </c>
       <c r="I175" s="17"/>
     </row>
-    <row r="176" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:9" ht="15">
       <c r="A176" s="17"/>
       <c r="B176" s="17" t="s">
         <v>21</v>
@@ -15380,7 +15388,7 @@
       </c>
       <c r="I176" s="17"/>
     </row>
-    <row r="177" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:9" ht="15">
       <c r="A177" s="17"/>
       <c r="B177" s="17" t="s">
         <v>21</v>
@@ -15403,7 +15411,7 @@
       </c>
       <c r="I177" s="17"/>
     </row>
-    <row r="178" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:9" ht="15">
       <c r="A178" s="17" t="b">
         <v>0</v>
       </c>
@@ -15422,7 +15430,7 @@
       <c r="H178" s="17"/>
       <c r="I178" s="17"/>
     </row>
-    <row r="179" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:9" ht="15">
       <c r="A179" s="17"/>
       <c r="B179" s="17" t="s">
         <v>21</v>
@@ -15445,7 +15453,7 @@
       </c>
       <c r="I179" s="17"/>
     </row>
-    <row r="180" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:9" ht="15">
       <c r="A180" s="17"/>
       <c r="B180" s="17" t="s">
         <v>21</v>
@@ -15468,7 +15476,7 @@
       </c>
       <c r="I180" s="17"/>
     </row>
-    <row r="181" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:9" ht="15">
       <c r="A181" s="17"/>
       <c r="B181" s="17" t="s">
         <v>21</v>
@@ -15491,7 +15499,7 @@
       </c>
       <c r="I181" s="17"/>
     </row>
-    <row r="182" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:9" ht="15">
       <c r="A182" s="17"/>
       <c r="B182" s="17" t="s">
         <v>21</v>
@@ -15514,7 +15522,7 @@
       </c>
       <c r="I182" s="17"/>
     </row>
-    <row r="183" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:9" ht="15">
       <c r="A183" s="17" t="b">
         <v>0</v>
       </c>
@@ -15533,7 +15541,7 @@
       <c r="H183" s="17"/>
       <c r="I183" s="17"/>
     </row>
-    <row r="184" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:9" ht="15">
       <c r="A184" s="17"/>
       <c r="B184" s="17" t="s">
         <v>21</v>
@@ -15556,7 +15564,7 @@
       </c>
       <c r="I184" s="17"/>
     </row>
-    <row r="185" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:9" ht="15">
       <c r="A185" s="17"/>
       <c r="B185" s="17" t="s">
         <v>21</v>
@@ -15579,7 +15587,7 @@
       </c>
       <c r="I185" s="17"/>
     </row>
-    <row r="186" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:9" ht="15">
       <c r="A186" s="17"/>
       <c r="B186" s="17" t="s">
         <v>21</v>
@@ -15602,7 +15610,7 @@
       </c>
       <c r="I186" s="17"/>
     </row>
-    <row r="187" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:9" ht="15">
       <c r="A187" s="17"/>
       <c r="B187" s="17" t="s">
         <v>21</v>
@@ -15625,7 +15633,7 @@
       </c>
       <c r="I187" s="17"/>
     </row>
-    <row r="188" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:9" ht="15">
       <c r="A188" s="17" t="b">
         <v>0</v>
       </c>
@@ -15644,7 +15652,7 @@
       <c r="H188" s="17"/>
       <c r="I188" s="17"/>
     </row>
-    <row r="189" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:9" ht="15">
       <c r="A189" s="17"/>
       <c r="B189" s="17" t="s">
         <v>21</v>
@@ -15665,7 +15673,7 @@
       <c r="H189" s="17"/>
       <c r="I189" s="17"/>
     </row>
-    <row r="190" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:9" ht="15">
       <c r="A190" s="17"/>
       <c r="B190" s="17" t="s">
         <v>21</v>
@@ -15688,7 +15696,7 @@
       </c>
       <c r="I190" s="17"/>
     </row>
-    <row r="191" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:9" ht="15">
       <c r="A191" s="17" t="b">
         <v>0</v>
       </c>
@@ -15707,7 +15715,7 @@
       <c r="H191" s="17"/>
       <c r="I191" s="17"/>
     </row>
-    <row r="192" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:9" ht="15">
       <c r="A192" s="17"/>
       <c r="B192" s="17" t="s">
         <v>21</v>
@@ -15730,7 +15738,7 @@
       </c>
       <c r="I192" s="17"/>
     </row>
-    <row r="193" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:9" ht="15">
       <c r="A193" s="17"/>
       <c r="B193" s="17" t="s">
         <v>21</v>
@@ -15755,7 +15763,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="194" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:9" ht="15">
       <c r="A194" s="17"/>
       <c r="B194" s="17" t="s">
         <v>21</v>
@@ -15776,7 +15784,7 @@
       <c r="H194" s="17"/>
       <c r="I194" s="17"/>
     </row>
-    <row r="195" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:9" ht="15">
       <c r="A195" s="17"/>
       <c r="B195" s="17" t="s">
         <v>21</v>
@@ -15801,7 +15809,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="196" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:9" ht="15">
       <c r="A196" s="17"/>
       <c r="B196" s="17" t="s">
         <v>21</v>
@@ -15826,7 +15834,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="197" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:9" ht="15">
       <c r="A197" s="17" t="b">
         <v>0</v>
       </c>
@@ -15845,7 +15853,7 @@
       <c r="H197" s="17"/>
       <c r="I197" s="17"/>
     </row>
-    <row r="198" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:9" ht="15">
       <c r="A198" s="17"/>
       <c r="B198" s="17" t="s">
         <v>21</v>
@@ -15870,7 +15878,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="199" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:9" ht="15">
       <c r="A199" s="17"/>
       <c r="B199" s="17" t="s">
         <v>21</v>
@@ -15893,7 +15901,7 @@
       </c>
       <c r="I199" s="17"/>
     </row>
-    <row r="200" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:9" ht="15">
       <c r="A200" s="17"/>
       <c r="B200" s="17" t="s">
         <v>21</v>
@@ -15916,7 +15924,7 @@
       </c>
       <c r="I200" s="17"/>
     </row>
-    <row r="201" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:9" ht="15">
       <c r="A201" s="17"/>
       <c r="B201" s="17" t="s">
         <v>21</v>
@@ -15939,7 +15947,7 @@
       </c>
       <c r="I201" s="17"/>
     </row>
-    <row r="202" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:9" ht="15">
       <c r="A202" s="17"/>
       <c r="B202" s="17" t="s">
         <v>21</v>
@@ -15962,7 +15970,7 @@
       </c>
       <c r="I202" s="17"/>
     </row>
-    <row r="203" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:9" ht="15">
       <c r="A203" s="17"/>
       <c r="B203" s="17" t="s">
         <v>21</v>
@@ -15985,7 +15993,7 @@
       </c>
       <c r="I203" s="17"/>
     </row>
-    <row r="204" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:9" ht="15">
       <c r="A204" s="17"/>
       <c r="B204" s="17" t="s">
         <v>21</v>
@@ -16008,7 +16016,7 @@
       </c>
       <c r="I204" s="17"/>
     </row>
-    <row r="205" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:9" ht="15">
       <c r="A205" s="17"/>
       <c r="B205" s="17" t="s">
         <v>21</v>
@@ -16031,7 +16039,7 @@
       </c>
       <c r="I205" s="17"/>
     </row>
-    <row r="206" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:9" ht="15">
       <c r="A206" s="17"/>
       <c r="B206" s="17" t="s">
         <v>21</v>
@@ -16054,7 +16062,7 @@
       </c>
       <c r="I206" s="17"/>
     </row>
-    <row r="207" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:9" ht="15">
       <c r="A207" s="17" t="b">
         <v>0</v>
       </c>
@@ -16073,7 +16081,7 @@
       <c r="H207" s="17"/>
       <c r="I207" s="17"/>
     </row>
-    <row r="208" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:9" ht="15">
       <c r="A208" s="17"/>
       <c r="B208" s="17" t="s">
         <v>21</v>
@@ -16098,7 +16106,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="209" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:9" ht="15">
       <c r="A209" s="17"/>
       <c r="B209" s="17" t="s">
         <v>21</v>
@@ -16121,7 +16129,7 @@
       </c>
       <c r="I209" s="17"/>
     </row>
-    <row r="210" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:9" ht="15">
       <c r="A210" s="17"/>
       <c r="B210" s="17" t="s">
         <v>21</v>
@@ -16144,7 +16152,7 @@
       </c>
       <c r="I210" s="17"/>
     </row>
-    <row r="211" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:9" ht="15">
       <c r="A211" s="17"/>
       <c r="B211" s="17" t="s">
         <v>21</v>
@@ -16167,7 +16175,7 @@
       </c>
       <c r="I211" s="17"/>
     </row>
-    <row r="212" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:9" ht="15">
       <c r="A212" s="17"/>
       <c r="B212" s="17" t="s">
         <v>21</v>
@@ -16190,7 +16198,7 @@
       </c>
       <c r="I212" s="17"/>
     </row>
-    <row r="213" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:9" ht="15">
       <c r="A213" s="17"/>
       <c r="B213" s="17" t="s">
         <v>21</v>
@@ -16213,7 +16221,7 @@
       </c>
       <c r="I213" s="17"/>
     </row>
-    <row r="214" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:9" ht="15">
       <c r="A214" s="17"/>
       <c r="B214" s="17" t="s">
         <v>21</v>
@@ -16236,7 +16244,7 @@
       </c>
       <c r="I214" s="17"/>
     </row>
-    <row r="215" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:9" ht="15">
       <c r="A215" s="17"/>
       <c r="B215" s="17" t="s">
         <v>21</v>
@@ -16259,7 +16267,7 @@
       </c>
       <c r="I215" s="17"/>
     </row>
-    <row r="216" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:9" ht="15">
       <c r="A216" s="17"/>
       <c r="B216" s="17" t="s">
         <v>21</v>
@@ -16282,7 +16290,7 @@
       </c>
       <c r="I216" s="17"/>
     </row>
-    <row r="217" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:9" ht="15">
       <c r="A217" s="17" t="b">
         <v>0</v>
       </c>
@@ -16301,7 +16309,7 @@
       <c r="H217" s="17"/>
       <c r="I217" s="17"/>
     </row>
-    <row r="218" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:9" ht="15">
       <c r="A218" s="17"/>
       <c r="B218" s="17" t="s">
         <v>21</v>
@@ -16322,7 +16330,7 @@
       <c r="H218" s="17"/>
       <c r="I218" s="17"/>
     </row>
-    <row r="219" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:9" ht="15">
       <c r="A219" s="17"/>
       <c r="B219" s="17" t="s">
         <v>21</v>
@@ -16345,7 +16353,7 @@
       </c>
       <c r="I219" s="17"/>
     </row>
-    <row r="220" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:9" ht="15">
       <c r="A220" s="17"/>
       <c r="B220" s="17" t="s">
         <v>21</v>
@@ -16368,7 +16376,7 @@
       </c>
       <c r="I220" s="17"/>
     </row>
-    <row r="221" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:9" ht="15">
       <c r="A221" s="17"/>
       <c r="B221" s="17" t="s">
         <v>21</v>
@@ -16391,7 +16399,7 @@
       </c>
       <c r="I221" s="17"/>
     </row>
-    <row r="222" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:9" ht="15">
       <c r="A222" s="17"/>
       <c r="B222" s="17" t="s">
         <v>21</v>
@@ -16414,7 +16422,7 @@
       </c>
       <c r="I222" s="17"/>
     </row>
-    <row r="223" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:9" ht="15">
       <c r="A223" s="17"/>
       <c r="B223" s="17" t="s">
         <v>21</v>
@@ -16437,7 +16445,7 @@
       </c>
       <c r="I223" s="17"/>
     </row>
-    <row r="224" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:9" ht="15">
       <c r="A224" s="17"/>
       <c r="B224" s="17" t="s">
         <v>21</v>
@@ -16460,7 +16468,7 @@
       </c>
       <c r="I224" s="17"/>
     </row>
-    <row r="225" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:9" ht="15">
       <c r="A225" s="17"/>
       <c r="B225" s="17" t="s">
         <v>21</v>
@@ -16483,7 +16491,7 @@
       </c>
       <c r="I225" s="17"/>
     </row>
-    <row r="226" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:9" ht="15">
       <c r="A226" s="17"/>
       <c r="B226" s="17" t="s">
         <v>21</v>
@@ -16506,7 +16514,7 @@
       </c>
       <c r="I226" s="17"/>
     </row>
-    <row r="227" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:9" ht="15">
       <c r="A227" s="17"/>
       <c r="B227" s="17" t="s">
         <v>21</v>
@@ -16529,7 +16537,7 @@
       </c>
       <c r="I227" s="17"/>
     </row>
-    <row r="228" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:9" ht="15">
       <c r="A228" s="17"/>
       <c r="B228" s="17" t="s">
         <v>21</v>
@@ -16552,7 +16560,7 @@
       </c>
       <c r="I228" s="17"/>
     </row>
-    <row r="229" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:9" ht="15">
       <c r="A229" s="17"/>
       <c r="B229" s="17" t="s">
         <v>21</v>
@@ -16575,7 +16583,7 @@
       </c>
       <c r="I229" s="17"/>
     </row>
-    <row r="230" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:9" ht="15">
       <c r="A230" s="17"/>
       <c r="B230" s="17" t="s">
         <v>21</v>
@@ -16598,7 +16606,7 @@
       </c>
       <c r="I230" s="17"/>
     </row>
-    <row r="231" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:9" ht="15">
       <c r="A231" s="17"/>
       <c r="B231" s="17" t="s">
         <v>21</v>
@@ -16621,7 +16629,7 @@
       </c>
       <c r="I231" s="17"/>
     </row>
-    <row r="232" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:9" ht="15">
       <c r="A232" s="17"/>
       <c r="B232" s="17" t="s">
         <v>21</v>
@@ -16644,7 +16652,7 @@
       </c>
       <c r="I232" s="17"/>
     </row>
-    <row r="233" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:9" ht="15">
       <c r="A233" s="17"/>
       <c r="B233" s="17" t="s">
         <v>21</v>
@@ -16667,7 +16675,7 @@
       </c>
       <c r="I233" s="17"/>
     </row>
-    <row r="234" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:9" ht="15">
       <c r="A234" s="17" t="b">
         <v>0</v>
       </c>
@@ -16686,7 +16694,7 @@
       <c r="H234" s="17"/>
       <c r="I234" s="17"/>
     </row>
-    <row r="235" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:9" ht="15">
       <c r="A235" s="17"/>
       <c r="B235" s="17" t="s">
         <v>21</v>
@@ -16707,7 +16715,7 @@
       <c r="H235" s="17"/>
       <c r="I235" s="17"/>
     </row>
-    <row r="236" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:9" ht="15">
       <c r="A236" s="17"/>
       <c r="B236" s="17" t="s">
         <v>21</v>
@@ -16730,7 +16738,7 @@
       </c>
       <c r="I236" s="17"/>
     </row>
-    <row r="237" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:9" ht="15">
       <c r="A237" s="17"/>
       <c r="B237" s="17" t="s">
         <v>21</v>
@@ -16753,7 +16761,7 @@
       </c>
       <c r="I237" s="17"/>
     </row>
-    <row r="238" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:9" ht="15">
       <c r="A238" s="17"/>
       <c r="B238" s="17" t="s">
         <v>21</v>
@@ -16776,7 +16784,7 @@
       </c>
       <c r="I238" s="17"/>
     </row>
-    <row r="239" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:9" ht="15">
       <c r="A239" s="17"/>
       <c r="B239" s="17" t="s">
         <v>21</v>
@@ -16799,7 +16807,7 @@
       </c>
       <c r="I239" s="17"/>
     </row>
-    <row r="240" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:9" ht="15">
       <c r="A240" s="17"/>
       <c r="B240" s="17" t="s">
         <v>21</v>
@@ -16822,7 +16830,7 @@
       </c>
       <c r="I240" s="17"/>
     </row>
-    <row r="241" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:9" ht="15">
       <c r="A241" s="17"/>
       <c r="B241" s="17" t="s">
         <v>21</v>
@@ -16845,7 +16853,7 @@
       </c>
       <c r="I241" s="17"/>
     </row>
-    <row r="242" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:9" ht="15">
       <c r="A242" s="17"/>
       <c r="B242" s="17" t="s">
         <v>21</v>
@@ -16868,7 +16876,7 @@
       </c>
       <c r="I242" s="17"/>
     </row>
-    <row r="243" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:9" ht="15">
       <c r="A243" s="17"/>
       <c r="B243" s="17" t="s">
         <v>21</v>
@@ -16891,7 +16899,7 @@
       </c>
       <c r="I243" s="17"/>
     </row>
-    <row r="244" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:9" ht="15">
       <c r="A244" s="17"/>
       <c r="B244" s="17" t="s">
         <v>21</v>
@@ -16914,7 +16922,7 @@
       </c>
       <c r="I244" s="17"/>
     </row>
-    <row r="245" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:9" ht="15">
       <c r="A245" s="17"/>
       <c r="B245" s="17" t="s">
         <v>21</v>
@@ -16937,7 +16945,7 @@
       </c>
       <c r="I245" s="17"/>
     </row>
-    <row r="246" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:9" ht="15">
       <c r="A246" s="17"/>
       <c r="B246" s="17" t="s">
         <v>21</v>
@@ -16960,7 +16968,7 @@
       </c>
       <c r="I246" s="17"/>
     </row>
-    <row r="247" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:9" ht="15">
       <c r="A247" s="17"/>
       <c r="B247" s="17" t="s">
         <v>21</v>
@@ -16983,7 +16991,7 @@
       </c>
       <c r="I247" s="17"/>
     </row>
-    <row r="248" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:9" ht="15">
       <c r="A248" s="17"/>
       <c r="B248" s="17" t="s">
         <v>21</v>
@@ -17006,7 +17014,7 @@
       </c>
       <c r="I248" s="17"/>
     </row>
-    <row r="249" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:9" ht="15">
       <c r="A249" s="17"/>
       <c r="B249" s="17" t="s">
         <v>21</v>
@@ -17029,7 +17037,7 @@
       </c>
       <c r="I249" s="17"/>
     </row>
-    <row r="250" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:9" ht="15">
       <c r="A250" s="17"/>
       <c r="B250" s="17" t="s">
         <v>21</v>
@@ -17052,7 +17060,7 @@
       </c>
       <c r="I250" s="17"/>
     </row>
-    <row r="251" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:9" ht="15">
       <c r="A251" s="17" t="b">
         <v>0</v>
       </c>
@@ -17071,7 +17079,7 @@
       <c r="H251" s="17"/>
       <c r="I251" s="17"/>
     </row>
-    <row r="252" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:9" ht="15">
       <c r="A252" s="17"/>
       <c r="B252" s="17" t="s">
         <v>21</v>
@@ -17096,7 +17104,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="253" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:9" ht="15">
       <c r="A253" s="17"/>
       <c r="B253" s="17" t="s">
         <v>21</v>
@@ -17119,7 +17127,7 @@
       </c>
       <c r="I253" s="17"/>
     </row>
-    <row r="254" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:9" ht="15">
       <c r="A254" s="17"/>
       <c r="B254" s="17" t="s">
         <v>21</v>
@@ -17142,7 +17150,7 @@
       </c>
       <c r="I254" s="17"/>
     </row>
-    <row r="255" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:9" ht="15">
       <c r="A255" s="17"/>
       <c r="B255" s="17" t="s">
         <v>21</v>
@@ -17165,7 +17173,7 @@
       </c>
       <c r="I255" s="17"/>
     </row>
-    <row r="256" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:9" ht="15">
       <c r="A256" s="17"/>
       <c r="B256" s="17" t="s">
         <v>21</v>
@@ -17188,7 +17196,7 @@
       </c>
       <c r="I256" s="17"/>
     </row>
-    <row r="257" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:9" ht="15">
       <c r="A257" s="17" t="b">
         <v>0</v>
       </c>
@@ -17207,7 +17215,7 @@
       <c r="H257" s="17"/>
       <c r="I257" s="17"/>
     </row>
-    <row r="258" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:9" ht="15">
       <c r="A258" s="17"/>
       <c r="B258" s="17" t="s">
         <v>21</v>
@@ -17232,7 +17240,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="259" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:9" ht="15">
       <c r="A259" s="17"/>
       <c r="B259" s="17" t="s">
         <v>21</v>
@@ -17255,7 +17263,7 @@
       </c>
       <c r="I259" s="17"/>
     </row>
-    <row r="260" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:9" ht="15">
       <c r="A260" s="17" t="b">
         <v>0</v>
       </c>
@@ -17274,7 +17282,7 @@
       <c r="H260" s="17"/>
       <c r="I260" s="17"/>
     </row>
-    <row r="261" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:9" ht="15">
       <c r="A261" s="17" t="b">
         <v>0</v>
       </c>
@@ -17293,7 +17301,7 @@
       <c r="H261" s="17"/>
       <c r="I261" s="17"/>
     </row>
-    <row r="262" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:9" ht="15">
       <c r="A262" s="17" t="b">
         <v>0</v>
       </c>
@@ -17312,7 +17320,7 @@
       <c r="H262" s="17"/>
       <c r="I262" s="17"/>
     </row>
-    <row r="263" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:9" ht="15">
       <c r="A263" s="17"/>
       <c r="B263" s="17" t="s">
         <v>21</v>
@@ -17333,7 +17341,7 @@
       <c r="H263" s="17"/>
       <c r="I263" s="17"/>
     </row>
-    <row r="264" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:9" ht="15">
       <c r="A264" s="17"/>
       <c r="B264" s="17" t="s">
         <v>21</v>
@@ -17356,7 +17364,7 @@
       </c>
       <c r="I264" s="17"/>
     </row>
-    <row r="265" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:9" ht="15">
       <c r="A265" s="17"/>
       <c r="B265" s="17" t="s">
         <v>21</v>
@@ -17379,7 +17387,7 @@
       </c>
       <c r="I265" s="17"/>
     </row>
-    <row r="266" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:9" ht="15">
       <c r="A266" s="17"/>
       <c r="B266" s="17" t="s">
         <v>21</v>
@@ -17402,7 +17410,7 @@
       </c>
       <c r="I266" s="17"/>
     </row>
-    <row r="267" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:9" ht="15">
       <c r="A267" s="17"/>
       <c r="B267" s="17" t="s">
         <v>21</v>
@@ -17425,7 +17433,7 @@
       </c>
       <c r="I267" s="17"/>
     </row>
-    <row r="268" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:9" ht="15">
       <c r="A268" s="17"/>
       <c r="B268" s="17" t="s">
         <v>21</v>
@@ -17448,7 +17456,7 @@
       </c>
       <c r="I268" s="17"/>
     </row>
-    <row r="269" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:9" ht="15">
       <c r="A269" s="17"/>
       <c r="B269" s="17" t="s">
         <v>21</v>
@@ -17471,7 +17479,7 @@
       </c>
       <c r="I269" s="17"/>
     </row>
-    <row r="270" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:9" ht="15">
       <c r="A270" s="17"/>
       <c r="B270" s="17" t="s">
         <v>21</v>
@@ -17494,7 +17502,7 @@
       </c>
       <c r="I270" s="17"/>
     </row>
-    <row r="271" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:9" ht="15">
       <c r="A271" s="17"/>
       <c r="B271" s="17" t="s">
         <v>21</v>
@@ -17517,7 +17525,7 @@
       </c>
       <c r="I271" s="17"/>
     </row>
-    <row r="272" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:9" ht="15">
       <c r="A272" s="17"/>
       <c r="B272" s="17" t="s">
         <v>21</v>
@@ -17540,7 +17548,7 @@
       </c>
       <c r="I272" s="17"/>
     </row>
-    <row r="273" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:9" ht="15">
       <c r="A273" s="17"/>
       <c r="B273" s="17" t="s">
         <v>21</v>
@@ -17563,7 +17571,7 @@
       </c>
       <c r="I273" s="17"/>
     </row>
-    <row r="274" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:9" ht="15">
       <c r="A274" s="17" t="b">
         <v>0</v>
       </c>
@@ -17582,7 +17590,7 @@
       <c r="H274" s="17"/>
       <c r="I274" s="17"/>
     </row>
-    <row r="275" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:9" ht="15">
       <c r="A275" s="17"/>
       <c r="B275" s="17" t="s">
         <v>21</v>
@@ -17605,7 +17613,7 @@
       </c>
       <c r="I275" s="17"/>
     </row>
-    <row r="276" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:9" ht="15">
       <c r="A276" s="17" t="b">
         <v>0</v>
       </c>
@@ -17624,7 +17632,7 @@
       <c r="H276" s="17"/>
       <c r="I276" s="17"/>
     </row>
-    <row r="277" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:9" ht="15">
       <c r="A277" s="17"/>
       <c r="B277" s="17" t="s">
         <v>21</v>
@@ -17649,7 +17657,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="278" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:9" ht="15">
       <c r="A278" s="17"/>
       <c r="B278" s="17" t="s">
         <v>21</v>
@@ -17672,7 +17680,7 @@
       </c>
       <c r="I278" s="17"/>
     </row>
-    <row r="279" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:9" ht="15">
       <c r="A279" s="17"/>
       <c r="B279" s="17" t="s">
         <v>21</v>
@@ -17695,7 +17703,7 @@
       </c>
       <c r="I279" s="17"/>
     </row>
-    <row r="280" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:9" ht="15">
       <c r="A280" s="17"/>
       <c r="B280" s="17" t="s">
         <v>21</v>
@@ -17718,7 +17726,7 @@
       </c>
       <c r="I280" s="17"/>
     </row>
-    <row r="281" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:9" ht="15">
       <c r="A281" s="17"/>
       <c r="B281" s="17" t="s">
         <v>21</v>
@@ -17741,7 +17749,7 @@
       </c>
       <c r="I281" s="17"/>
     </row>
-    <row r="282" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:9" ht="15">
       <c r="A282" s="17"/>
       <c r="B282" s="17" t="s">
         <v>21</v>
@@ -17764,7 +17772,7 @@
       </c>
       <c r="I282" s="17"/>
     </row>
-    <row r="283" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:9" ht="15">
       <c r="A283" s="17"/>
       <c r="B283" s="17" t="s">
         <v>21</v>
@@ -17787,7 +17795,7 @@
       </c>
       <c r="I283" s="17"/>
     </row>
-    <row r="284" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:9" ht="15">
       <c r="A284" s="17"/>
       <c r="B284" s="17" t="s">
         <v>21</v>
@@ -17810,7 +17818,7 @@
       </c>
       <c r="I284" s="17"/>
     </row>
-    <row r="285" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:9" ht="15">
       <c r="A285" s="17"/>
       <c r="B285" s="17" t="s">
         <v>21</v>
@@ -17833,7 +17841,7 @@
       </c>
       <c r="I285" s="17"/>
     </row>
-    <row r="286" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:9" ht="15">
       <c r="A286" s="17"/>
       <c r="B286" s="17" t="s">
         <v>21</v>
@@ -17856,7 +17864,7 @@
       </c>
       <c r="I286" s="17"/>
     </row>
-    <row r="287" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:9" ht="15">
       <c r="A287" s="17"/>
       <c r="B287" s="17" t="s">
         <v>21</v>
@@ -17879,7 +17887,7 @@
       </c>
       <c r="I287" s="17"/>
     </row>
-    <row r="288" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:9" ht="15">
       <c r="A288" s="17" t="b">
         <v>0</v>
       </c>
@@ -17898,7 +17906,7 @@
       <c r="H288" s="17"/>
       <c r="I288" s="17"/>
     </row>
-    <row r="289" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:9" ht="15">
       <c r="A289" s="17"/>
       <c r="B289" s="17" t="s">
         <v>21</v>
@@ -17921,7 +17929,7 @@
       </c>
       <c r="I289" s="17"/>
     </row>
-    <row r="290" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:9" ht="15">
       <c r="A290" s="17" t="b">
         <v>0</v>
       </c>
@@ -17940,7 +17948,7 @@
       <c r="H290" s="17"/>
       <c r="I290" s="17"/>
     </row>
-    <row r="291" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:9" ht="15">
       <c r="A291" s="17"/>
       <c r="B291" s="17" t="s">
         <v>21</v>
@@ -17961,7 +17969,7 @@
       <c r="H291" s="17"/>
       <c r="I291" s="17"/>
     </row>
-    <row r="292" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:9" ht="15">
       <c r="A292" s="17" t="b">
         <v>0</v>
       </c>
@@ -17980,7 +17988,7 @@
       <c r="H292" s="17"/>
       <c r="I292" s="17"/>
     </row>
-    <row r="293" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:9" ht="15">
       <c r="A293" s="17"/>
       <c r="B293" s="17" t="s">
         <v>21</v>
@@ -18001,7 +18009,7 @@
       <c r="H293" s="17"/>
       <c r="I293" s="17"/>
     </row>
-    <row r="294" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:9" ht="15">
       <c r="A294" s="17" t="b">
         <v>0</v>
       </c>
@@ -18020,7 +18028,7 @@
       <c r="H294" s="17"/>
       <c r="I294" s="17"/>
     </row>
-    <row r="295" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:9" ht="15">
       <c r="A295" s="17"/>
       <c r="B295" s="17" t="s">
         <v>21</v>
@@ -18041,7 +18049,7 @@
       <c r="H295" s="17"/>
       <c r="I295" s="17"/>
     </row>
-    <row r="296" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:9" ht="15">
       <c r="A296" s="17" t="b">
         <v>0</v>
       </c>
@@ -18060,7 +18068,7 @@
       <c r="H296" s="17"/>
       <c r="I296" s="17"/>
     </row>
-    <row r="297" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:9" ht="15">
       <c r="A297" s="17"/>
       <c r="B297" s="17" t="s">
         <v>21</v>
@@ -18083,7 +18091,7 @@
       </c>
       <c r="I297" s="17"/>
     </row>
-    <row r="298" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:9" ht="15">
       <c r="A298" s="17" t="b">
         <v>0</v>
       </c>
@@ -18102,7 +18110,7 @@
       <c r="H298" s="17"/>
       <c r="I298" s="17"/>
     </row>
-    <row r="299" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:9" ht="15">
       <c r="A299" s="17"/>
       <c r="B299" s="17" t="s">
         <v>21</v>
@@ -18127,7 +18135,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="300" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:9" ht="15">
       <c r="A300" s="17"/>
       <c r="B300" s="17" t="s">
         <v>21</v>
@@ -18150,7 +18158,7 @@
       </c>
       <c r="I300" s="17"/>
     </row>
-    <row r="301" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:9" ht="15">
       <c r="A301" s="17"/>
       <c r="B301" s="17" t="s">
         <v>21</v>
@@ -18173,7 +18181,7 @@
       </c>
       <c r="I301" s="17"/>
     </row>
-    <row r="302" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:9" ht="15">
       <c r="A302" s="17"/>
       <c r="B302" s="17" t="s">
         <v>21</v>
@@ -18196,7 +18204,7 @@
       </c>
       <c r="I302" s="17"/>
     </row>
-    <row r="303" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:9" ht="15">
       <c r="A303" s="17"/>
       <c r="B303" s="17" t="s">
         <v>21</v>
@@ -18219,7 +18227,7 @@
       </c>
       <c r="I303" s="17"/>
     </row>
-    <row r="304" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:9" ht="15">
       <c r="A304" s="17"/>
       <c r="B304" s="17" t="s">
         <v>21</v>
@@ -18242,7 +18250,7 @@
       </c>
       <c r="I304" s="17"/>
     </row>
-    <row r="305" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:9" ht="15">
       <c r="A305" s="17"/>
       <c r="B305" s="17" t="s">
         <v>21</v>
@@ -18265,7 +18273,7 @@
       </c>
       <c r="I305" s="17"/>
     </row>
-    <row r="306" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:9" ht="15">
       <c r="A306" s="17"/>
       <c r="B306" s="17" t="s">
         <v>21</v>
@@ -18288,7 +18296,7 @@
       </c>
       <c r="I306" s="17"/>
     </row>
-    <row r="307" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:9" ht="15">
       <c r="A307" s="17"/>
       <c r="B307" s="17" t="s">
         <v>21</v>
@@ -18311,7 +18319,7 @@
       </c>
       <c r="I307" s="17"/>
     </row>
-    <row r="308" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:9" ht="15">
       <c r="A308" s="17" t="b">
         <v>0</v>
       </c>
@@ -18330,7 +18338,7 @@
       <c r="H308" s="17"/>
       <c r="I308" s="17"/>
     </row>
-    <row r="309" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:9" ht="15">
       <c r="A309" s="17"/>
       <c r="B309" s="17" t="s">
         <v>21</v>
@@ -18353,7 +18361,7 @@
       </c>
       <c r="I309" s="17"/>
     </row>
-    <row r="310" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:9" ht="15">
       <c r="A310" s="17"/>
       <c r="B310" s="17" t="s">
         <v>21</v>
@@ -18376,7 +18384,7 @@
       </c>
       <c r="I310" s="17"/>
     </row>
-    <row r="311" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:9" ht="15">
       <c r="A311" s="17"/>
       <c r="B311" s="17" t="s">
         <v>21</v>
@@ -18399,7 +18407,7 @@
       </c>
       <c r="I311" s="17"/>
     </row>
-    <row r="312" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:9" ht="15">
       <c r="A312" s="17"/>
       <c r="B312" s="17" t="s">
         <v>21</v>
@@ -18422,7 +18430,7 @@
       </c>
       <c r="I312" s="17"/>
     </row>
-    <row r="313" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:9" ht="15">
       <c r="A313" s="17" t="b">
         <v>0</v>
       </c>
@@ -18441,7 +18449,7 @@
       <c r="H313" s="17"/>
       <c r="I313" s="17"/>
     </row>
-    <row r="314" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:9" ht="15">
       <c r="A314" s="17"/>
       <c r="B314" s="17" t="s">
         <v>21</v>
@@ -18464,7 +18472,7 @@
       </c>
       <c r="I314" s="17"/>
     </row>
-    <row r="315" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:9" ht="15">
       <c r="A315" s="17"/>
       <c r="B315" s="17" t="s">
         <v>21</v>
@@ -18487,7 +18495,7 @@
       </c>
       <c r="I315" s="17"/>
     </row>
-    <row r="316" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:9" ht="15">
       <c r="A316" s="17"/>
       <c r="B316" s="17" t="s">
         <v>21</v>
@@ -18512,7 +18520,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="317" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:9" ht="15">
       <c r="A317" s="17" t="b">
         <v>0</v>
       </c>
@@ -18531,7 +18539,7 @@
       <c r="H317" s="17"/>
       <c r="I317" s="17"/>
     </row>
-    <row r="318" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:9" ht="15">
       <c r="A318" s="17"/>
       <c r="B318" s="17" t="s">
         <v>21</v>
@@ -18556,7 +18564,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="319" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:9" ht="15">
       <c r="A319" s="17"/>
       <c r="B319" s="17" t="s">
         <v>21</v>
@@ -18579,7 +18587,7 @@
       </c>
       <c r="I319" s="17"/>
     </row>
-    <row r="320" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:9" ht="15">
       <c r="A320" s="17" t="b">
         <v>0</v>
       </c>
@@ -18598,7 +18606,7 @@
       <c r="H320" s="17"/>
       <c r="I320" s="17"/>
     </row>
-    <row r="321" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:9" ht="15">
       <c r="A321" s="17"/>
       <c r="B321" s="17" t="s">
         <v>21</v>
@@ -18619,7 +18627,7 @@
       <c r="H321" s="17"/>
       <c r="I321" s="17"/>
     </row>
-    <row r="322" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:9" ht="15">
       <c r="A322" s="17"/>
       <c r="B322" s="17" t="s">
         <v>21</v>
@@ -18640,7 +18648,7 @@
       <c r="H322" s="17"/>
       <c r="I322" s="17"/>
     </row>
-    <row r="323" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:9" ht="15">
       <c r="A323" s="17"/>
       <c r="B323" s="17" t="s">
         <v>21</v>
@@ -18663,7 +18671,7 @@
       </c>
       <c r="I323" s="17"/>
     </row>
-    <row r="324" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:9" ht="15">
       <c r="A324" s="17" t="b">
         <v>0</v>
       </c>
@@ -18682,7 +18690,7 @@
       <c r="H324" s="17"/>
       <c r="I324" s="17"/>
     </row>
-    <row r="325" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:9" ht="15">
       <c r="A325" s="17" t="b">
         <v>0</v>
       </c>
@@ -18701,7 +18709,7 @@
       <c r="H325" s="17"/>
       <c r="I325" s="17"/>
     </row>
-    <row r="326" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:9" ht="15">
       <c r="A326" s="17"/>
       <c r="B326" s="17" t="s">
         <v>21</v>
@@ -18726,7 +18734,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="327" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:9" ht="15">
       <c r="A327" s="17"/>
       <c r="B327" s="17" t="s">
         <v>21</v>
@@ -18751,7 +18759,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:9">
       <c r="A328" t="b">
         <v>0</v>
       </c>
@@ -18765,7 +18773,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:9">
       <c r="B329" t="s">
         <v>21</v>
       </c>
@@ -18788,7 +18796,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:9">
       <c r="B330" t="s">
         <v>21</v>
       </c>
@@ -18808,7 +18816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:9">
       <c r="B331" t="s">
         <v>21</v>
       </c>
@@ -18828,7 +18836,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:9">
       <c r="B332" t="s">
         <v>21</v>
       </c>
@@ -18848,7 +18856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:9">
       <c r="B333" t="s">
         <v>21</v>
       </c>
@@ -18865,7 +18873,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:9">
       <c r="B334" t="s">
         <v>21</v>
       </c>
@@ -18888,7 +18896,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:9">
       <c r="B335" t="s">
         <v>21</v>
       </c>
@@ -18911,7 +18919,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:9">
       <c r="A336" t="b">
         <v>0</v>
       </c>
@@ -18925,7 +18933,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="337" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:16">
       <c r="B337" t="s">
         <v>21</v>
       </c>
@@ -18948,7 +18956,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="338" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:16">
       <c r="B338" t="s">
         <v>21</v>
       </c>
@@ -18971,7 +18979,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="339" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:16">
       <c r="B339" t="s">
         <v>21</v>
       </c>
@@ -18991,7 +18999,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="340" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:16">
       <c r="B340" t="s">
         <v>21</v>
       </c>
@@ -19011,7 +19019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:16">
       <c r="B341" t="s">
         <v>21</v>
       </c>
@@ -19028,7 +19036,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="342" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:16">
       <c r="A342" s="1" t="b">
         <v>0</v>
       </c>
@@ -19054,7 +19062,7 @@
       <c r="O342" s="1"/>
       <c r="P342" s="1"/>
     </row>
-    <row r="343" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:16">
       <c r="A343" s="1"/>
       <c r="B343" t="s">
         <v>21</v>
@@ -19083,7 +19091,7 @@
       <c r="O343" s="1"/>
       <c r="P343" s="1"/>
     </row>
-    <row r="344" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:16" ht="15">
       <c r="A344" s="17"/>
       <c r="B344" t="s">
         <v>21</v>
@@ -19122,7 +19130,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="345" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:16">
       <c r="A345" t="b">
         <v>0</v>
       </c>
@@ -19136,7 +19144,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="346" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:16">
       <c r="B346" t="s">
         <v>21</v>
       </c>
@@ -19156,7 +19164,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="347" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:16">
       <c r="A347" t="b">
         <v>0</v>
       </c>
@@ -19170,7 +19178,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="348" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:16">
       <c r="B348" t="s">
         <v>21</v>
       </c>
@@ -19190,7 +19198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:16">
       <c r="B349" t="s">
         <v>21</v>
       </c>
@@ -19210,7 +19218,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="350" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:16">
       <c r="B350" t="s">
         <v>21</v>
       </c>
@@ -19230,7 +19238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:16">
       <c r="B351" t="s">
         <v>21</v>
       </c>
@@ -19250,7 +19258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:16">
       <c r="B352" t="s">
         <v>21</v>
       </c>
@@ -19270,7 +19278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:18">
       <c r="B353" t="s">
         <v>21</v>
       </c>
@@ -19290,7 +19298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:18">
       <c r="B354" t="s">
         <v>21</v>
       </c>
@@ -19310,7 +19318,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="355" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:18">
       <c r="B355" t="s">
         <v>21</v>
       </c>
@@ -19330,7 +19338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:18">
       <c r="B356" t="s">
         <v>21</v>
       </c>
@@ -19350,7 +19358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:18">
       <c r="A357" t="b">
         <v>0</v>
       </c>
@@ -19364,7 +19372,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="358" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:18">
       <c r="B358" t="s">
         <v>21</v>
       </c>
@@ -19384,7 +19392,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="359" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:18">
       <c r="B359" t="s">
         <v>21</v>
       </c>
@@ -19404,7 +19412,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="360" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:18" s="1" customFormat="1">
       <c r="A360" t="b">
         <v>0</v>
       </c>
@@ -19420,7 +19428,7 @@
       <c r="H360" s="4"/>
       <c r="I360" s="4"/>
     </row>
-    <row r="361" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:18" s="1" customFormat="1">
       <c r="B361" t="s">
         <v>21</v>
       </c>
@@ -19446,7 +19454,7 @@
       <c r="J361"/>
       <c r="K361"/>
     </row>
-    <row r="362" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:18" s="1" customFormat="1" ht="15">
       <c r="A362" s="17"/>
       <c r="B362" t="s">
         <v>22</v>
@@ -19487,7 +19495,7 @@
       <c r="Q362"/>
       <c r="R362"/>
     </row>
-    <row r="363" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:18">
       <c r="A363" t="b">
         <v>0</v>
       </c>
@@ -19501,7 +19509,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="364" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:18">
       <c r="B364" t="s">
         <v>21</v>
       </c>
@@ -19521,7 +19529,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="365" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:18">
       <c r="A365" t="b">
         <v>0</v>
       </c>
@@ -19535,7 +19543,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="366" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:18">
       <c r="B366" t="s">
         <v>21</v>
       </c>
@@ -19574,17 +19582,17 @@
       <selection activeCell="A17" sqref="A17:A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" customWidth="1"/>
-    <col min="8" max="8" width="22.28515625" customWidth="1"/>
-    <col min="17" max="17" width="24.42578125" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" customWidth="1"/>
+    <col min="5" max="5" width="16.1640625" customWidth="1"/>
+    <col min="8" max="8" width="22.33203125" customWidth="1"/>
+    <col min="17" max="17" width="24.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21">
       <c r="A1" t="s">
         <v>441</v>
       </c>
@@ -19595,7 +19603,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="30" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" s="30" customFormat="1">
       <c r="A2" s="30" t="s">
         <v>589</v>
       </c>
@@ -19609,7 +19617,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="30" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" s="30" customFormat="1">
       <c r="A3" s="30" t="s">
         <v>592</v>
       </c>
@@ -19623,7 +19631,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="30" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" s="30" customFormat="1">
       <c r="A4" s="30" t="s">
         <v>594</v>
       </c>
@@ -19637,7 +19645,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="30" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" s="30" customFormat="1">
       <c r="A5" s="30" t="s">
         <v>596</v>
       </c>
@@ -19651,7 +19659,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="30" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" s="30" customFormat="1">
       <c r="A6" s="30" t="s">
         <v>598</v>
       </c>
@@ -19665,7 +19673,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="30" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" s="30" customFormat="1">
       <c r="A7" s="30" t="s">
         <v>440</v>
       </c>
@@ -19679,7 +19687,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="30" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" s="30" customFormat="1">
       <c r="A8" s="30" t="s">
         <v>601</v>
       </c>
@@ -19693,7 +19701,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="30" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" s="30" customFormat="1">
       <c r="A9" s="30" t="s">
         <v>603</v>
       </c>
@@ -19707,7 +19715,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21">
       <c r="A11" t="s">
         <v>569</v>
       </c>
@@ -19721,7 +19729,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21">
       <c r="A12" t="s">
         <v>454</v>
       </c>
@@ -19735,7 +19743,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21">
       <c r="A13" t="s">
         <v>452</v>
       </c>
@@ -19746,8 +19754,8 @@
         <v>544</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="30" customFormat="1" ht="14.45" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" s="30" customFormat="1"/>
+    <row r="16" spans="1:21">
       <c r="A16" t="s">
         <v>547</v>
       </c>
@@ -19773,7 +19781,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17">
       <c r="A17" t="s">
         <v>548</v>
       </c>
@@ -19814,7 +19822,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -19855,7 +19863,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="19" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17">
       <c r="A19" t="s">
         <v>542</v>
       </c>
@@ -19887,7 +19895,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17">
       <c r="A20" t="s">
         <v>550</v>
       </c>
@@ -19919,7 +19927,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="21" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17">
       <c r="A21" t="s">
         <v>549</v>
       </c>
@@ -19948,7 +19956,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17">
       <c r="A22" t="s">
         <v>551</v>
       </c>
@@ -19980,7 +19988,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="23" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17">
       <c r="A23" t="s">
         <v>552</v>
       </c>
@@ -20000,7 +20008,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17">
       <c r="A24" t="s">
         <v>682</v>
       </c>
@@ -20023,7 +20031,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="25" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17">
       <c r="L25" s="1" t="s">
         <v>558</v>
       </c>
@@ -20034,7 +20042,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="26" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17">
       <c r="L26" s="1" t="s">
         <v>539</v>
       </c>
@@ -20042,7 +20050,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="27" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17">
       <c r="L27" s="1" t="s">
         <v>541</v>
       </c>

--- a/projects/office_calibration.xlsx
+++ b/projects/office_calibration.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24709"/>
-  <workbookPr autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="20440" tabRatio="562" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="13176" tabRatio="562" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="9" r:id="rId1"/>
@@ -31,7 +31,7 @@
     <definedName name="TrueFalse">Lookups!$C$12:$C$13</definedName>
     <definedName name="Workflow">Lookups!$E$12:$E$13</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -6845,17 +6845,17 @@
       <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="81.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="28">
+    <row r="1" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="36" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="28">
+    <row r="2" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="36" t="s">
         <v>41</v>
       </c>
@@ -6879,17 +6879,17 @@
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="30.33203125" style="26" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29" style="1" customWidth="1"/>
-    <col min="4" max="4" width="33.1640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="33.109375" style="2" customWidth="1"/>
     <col min="5" max="5" width="61.6640625" style="1" customWidth="1"/>
     <col min="6" max="16384" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="19"/>
       <c r="B1" s="28"/>
       <c r="C1" s="19"/>
@@ -6898,7 +6898,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="12" customFormat="1">
+    <row r="2" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>435</v>
       </c>
@@ -6907,7 +6907,7 @@
       <c r="D2" s="13"/>
       <c r="E2" s="13"/>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>436</v>
       </c>
@@ -6918,7 +6918,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="28">
+    <row r="4" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>456</v>
       </c>
@@ -6929,7 +6929,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="42">
+    <row r="5" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>469</v>
       </c>
@@ -6940,7 +6940,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="46.25" customHeight="1">
+    <row r="6" spans="1:5" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>470</v>
       </c>
@@ -6951,7 +6951,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>442</v>
       </c>
@@ -6970,7 +6970,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="28">
+    <row r="8" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>443</v>
       </c>
@@ -6989,7 +6989,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>458</v>
       </c>
@@ -7002,7 +7002,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="12" customFormat="1">
+    <row r="11" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
         <v>28</v>
       </c>
@@ -7011,7 +7011,7 @@
       <c r="D11" s="13"/>
       <c r="E11" s="13"/>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>39</v>
       </c>
@@ -7022,7 +7022,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>25</v>
       </c>
@@ -7033,7 +7033,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>26</v>
       </c>
@@ -7044,7 +7044,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>462</v>
       </c>
@@ -7055,7 +7055,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>463</v>
       </c>
@@ -7066,7 +7066,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>464</v>
       </c>
@@ -7077,7 +7077,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>466</v>
       </c>
@@ -7088,7 +7088,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="2" customFormat="1" ht="42">
+    <row r="20" spans="1:5" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
         <v>27</v>
       </c>
@@ -7101,7 +7101,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>451</v>
       </c>
@@ -7109,11 +7109,11 @@
         <v>542</v>
       </c>
     </row>
-    <row r="22" spans="1:5" s="31" customFormat="1">
+    <row r="22" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B22" s="26"/>
       <c r="D22" s="2"/>
     </row>
-    <row r="23" spans="1:5" s="2" customFormat="1" ht="42">
+    <row r="23" spans="1:5" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A23" s="11" t="s">
         <v>450</v>
       </c>
@@ -7130,7 +7130,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="31" t="s">
         <v>538</v>
       </c>
@@ -7142,7 +7142,7 @@
       </c>
       <c r="D24" s="35"/>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="31" t="s">
         <v>543</v>
       </c>
@@ -7154,7 +7154,7 @@
       </c>
       <c r="D25" s="35"/>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="31" t="s">
         <v>557</v>
       </c>
@@ -7166,7 +7166,7 @@
       </c>
       <c r="D26" s="35"/>
     </row>
-    <row r="27" spans="1:5" s="31" customFormat="1">
+    <row r="27" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="31" t="s">
         <v>558</v>
       </c>
@@ -7178,7 +7178,7 @@
       </c>
       <c r="D27" s="35"/>
     </row>
-    <row r="28" spans="1:5" s="31" customFormat="1">
+    <row r="28" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="31" t="s">
         <v>539</v>
       </c>
@@ -7188,7 +7188,7 @@
       <c r="C28" s="30"/>
       <c r="D28" s="35"/>
     </row>
-    <row r="29" spans="1:5" s="31" customFormat="1">
+    <row r="29" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="31" t="s">
         <v>541</v>
       </c>
@@ -7200,7 +7200,7 @@
       </c>
       <c r="D29" s="35"/>
     </row>
-    <row r="30" spans="1:5" s="31" customFormat="1">
+    <row r="30" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="31" t="s">
         <v>791</v>
       </c>
@@ -7212,32 +7212,32 @@
       </c>
       <c r="D30" s="35"/>
     </row>
-    <row r="31" spans="1:5" s="31" customFormat="1">
+    <row r="31" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B31" s="26"/>
       <c r="C31" s="34"/>
       <c r="D31" s="35"/>
     </row>
-    <row r="32" spans="1:5" s="31" customFormat="1">
+    <row r="32" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B32" s="26"/>
       <c r="C32" s="34"/>
       <c r="D32" s="35"/>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="31"/>
       <c r="C33" s="34"/>
       <c r="D33" s="35"/>
     </row>
-    <row r="34" spans="1:5" s="31" customFormat="1">
+    <row r="34" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B34" s="26"/>
       <c r="C34" s="34"/>
       <c r="D34" s="35"/>
     </row>
-    <row r="35" spans="1:5" s="31" customFormat="1">
+    <row r="35" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B35" s="26"/>
       <c r="C35" s="26"/>
       <c r="D35" s="2"/>
     </row>
-    <row r="36" spans="1:5" s="2" customFormat="1" ht="28">
+    <row r="36" spans="1:5" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A36" s="11" t="s">
         <v>33</v>
       </c>
@@ -7250,7 +7250,7 @@
       <c r="D36" s="11"/>
       <c r="E36" s="13"/>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>29</v>
       </c>
@@ -7258,7 +7258,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="39" spans="1:5" s="2" customFormat="1" ht="28">
+    <row r="39" spans="1:5" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A39" s="11" t="s">
         <v>30</v>
       </c>
@@ -7275,7 +7275,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="40" spans="1:5" s="31" customFormat="1">
+    <row r="40" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="31" t="s">
         <v>32</v>
       </c>
@@ -7287,7 +7287,7 @@
       </c>
       <c r="E40" s="2"/>
     </row>
-    <row r="42" spans="1:5" s="2" customFormat="1" ht="56">
+    <row r="42" spans="1:5" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A42" s="11" t="s">
         <v>35</v>
       </c>
@@ -7302,7 +7302,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="31" t="s">
         <v>703</v>
       </c>
@@ -7313,7 +7313,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="44" spans="1:5" s="31" customFormat="1">
+    <row r="44" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B44" s="26"/>
       <c r="D44" s="2"/>
     </row>
@@ -7343,37 +7343,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y224"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A90" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A106" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A102" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N106" sqref="N106"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.1640625" style="31" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="31" customWidth="1"/>
     <col min="2" max="2" width="47" style="31" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="47" style="31" customWidth="1"/>
-    <col min="4" max="4" width="39.1640625" style="31" customWidth="1"/>
-    <col min="5" max="5" width="24.1640625" style="31" customWidth="1"/>
+    <col min="4" max="4" width="39.109375" style="31" customWidth="1"/>
+    <col min="5" max="5" width="24.109375" style="31" customWidth="1"/>
     <col min="6" max="6" width="9.6640625" style="31" customWidth="1"/>
     <col min="7" max="7" width="9.33203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5" style="4" customWidth="1"/>
+    <col min="8" max="8" width="15.44140625" style="4" customWidth="1"/>
     <col min="9" max="9" width="8.6640625" style="4" customWidth="1"/>
-    <col min="10" max="10" width="7.1640625" style="31" customWidth="1"/>
-    <col min="11" max="11" width="8.1640625" style="31" customWidth="1"/>
+    <col min="10" max="10" width="7.109375" style="31" customWidth="1"/>
+    <col min="11" max="11" width="8.109375" style="31" customWidth="1"/>
     <col min="12" max="12" width="6.6640625" style="31" customWidth="1"/>
     <col min="13" max="14" width="7.6640625" style="31" customWidth="1"/>
-    <col min="15" max="15" width="11.5" style="31"/>
-    <col min="16" max="16" width="11.5" style="31" customWidth="1"/>
+    <col min="15" max="15" width="11.44140625" style="31"/>
+    <col min="16" max="16" width="11.44140625" style="31" customWidth="1"/>
     <col min="17" max="17" width="23" style="31" customWidth="1"/>
     <col min="18" max="18" width="27.6640625" style="31" customWidth="1"/>
-    <col min="19" max="19" width="46.1640625" style="31" customWidth="1"/>
-    <col min="20" max="22" width="11.5" style="31"/>
+    <col min="19" max="19" width="46.109375" style="31" customWidth="1"/>
+    <col min="20" max="22" width="11.44140625" style="31"/>
     <col min="23" max="23" width="13.33203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="11.5" style="31"/>
+    <col min="24" max="16384" width="11.44140625" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="18">
+    <row r="1" spans="1:25" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="5"/>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -7408,7 +7408,7 @@
       <c r="X1" s="52"/>
       <c r="Y1" s="52"/>
     </row>
-    <row r="2" spans="1:25" s="8" customFormat="1" ht="15">
+    <row r="2" spans="1:25" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>3</v>
       </c>
@@ -7424,7 +7424,7 @@
       <c r="H2" s="9"/>
       <c r="I2" s="9"/>
     </row>
-    <row r="3" spans="1:25" s="14" customFormat="1" ht="45">
+    <row r="3" spans="1:25" s="14" customFormat="1" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
         <v>1</v>
       </c>
@@ -7498,7 +7498,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:25" s="38" customFormat="1">
+    <row r="4" spans="1:25" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="38" t="b">
         <v>1</v>
       </c>
@@ -7517,7 +7517,7 @@
       <c r="G4" s="39"/>
       <c r="H4" s="39"/>
     </row>
-    <row r="5" spans="1:25" s="30" customFormat="1">
+    <row r="5" spans="1:25" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B5" s="30" t="s">
         <v>21</v>
       </c>
@@ -7534,7 +7534,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="6" spans="1:25" s="30" customFormat="1">
+    <row r="6" spans="1:25" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B6" s="30" t="s">
         <v>21</v>
       </c>
@@ -7551,7 +7551,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="7" spans="1:25" s="38" customFormat="1">
+    <row r="7" spans="1:25" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="38" t="b">
         <v>1</v>
       </c>
@@ -7570,7 +7570,7 @@
       <c r="G7" s="39"/>
       <c r="H7" s="39"/>
     </row>
-    <row r="8" spans="1:25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B8" s="31" t="s">
         <v>21</v>
       </c>
@@ -7595,7 +7595,7 @@
       <c r="P8" s="40"/>
       <c r="Q8" s="2"/>
     </row>
-    <row r="9" spans="1:25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B9" s="31" t="s">
         <v>21</v>
       </c>
@@ -7618,7 +7618,7 @@
       <c r="O9" s="4"/>
       <c r="P9" s="3"/>
     </row>
-    <row r="10" spans="1:25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B10" s="31" t="s">
         <v>21</v>
       </c>
@@ -7636,7 +7636,7 @@
       </c>
       <c r="I10" s="31"/>
     </row>
-    <row r="11" spans="1:25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B11" s="31" t="s">
         <v>21</v>
       </c>
@@ -7654,7 +7654,7 @@
       </c>
       <c r="I11" s="31"/>
     </row>
-    <row r="12" spans="1:25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B12" s="31" t="s">
         <v>21</v>
       </c>
@@ -7672,7 +7672,7 @@
       </c>
       <c r="I12" s="31"/>
     </row>
-    <row r="13" spans="1:25" s="38" customFormat="1">
+    <row r="13" spans="1:25" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="38" t="b">
         <v>1</v>
       </c>
@@ -7691,7 +7691,7 @@
       <c r="G13" s="39"/>
       <c r="H13" s="39"/>
     </row>
-    <row r="14" spans="1:25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B14" s="30" t="s">
         <v>21</v>
       </c>
@@ -7712,7 +7712,7 @@
       </c>
       <c r="I14" s="31"/>
     </row>
-    <row r="15" spans="1:25" s="43" customFormat="1">
+    <row r="15" spans="1:25" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B15" s="43" t="s">
         <v>22</v>
       </c>
@@ -7748,7 +7748,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="16" spans="1:25" s="30" customFormat="1">
+    <row r="16" spans="1:25" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B16" s="30" t="s">
         <v>21</v>
       </c>
@@ -7765,7 +7765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:17" s="43" customFormat="1">
+    <row r="17" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B17" s="43" t="s">
         <v>22</v>
       </c>
@@ -7804,7 +7804,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="18" spans="1:17" s="30" customFormat="1">
+    <row r="18" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B18" s="30" t="s">
         <v>21</v>
       </c>
@@ -7821,7 +7821,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="19" spans="1:17" s="30" customFormat="1">
+    <row r="19" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B19" s="30" t="s">
         <v>21</v>
       </c>
@@ -7838,7 +7838,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="20" spans="1:17" s="30" customFormat="1">
+    <row r="20" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B20" s="30" t="s">
         <v>21</v>
       </c>
@@ -7855,7 +7855,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="21" spans="1:17" s="30" customFormat="1">
+    <row r="21" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B21" s="30" t="s">
         <v>21</v>
       </c>
@@ -7872,7 +7872,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="22" spans="1:17" s="30" customFormat="1">
+    <row r="22" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B22" s="30" t="s">
         <v>21</v>
       </c>
@@ -7889,7 +7889,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="23" spans="1:17" s="30" customFormat="1">
+    <row r="23" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B23" s="30" t="s">
         <v>21</v>
       </c>
@@ -7906,7 +7906,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="24" spans="1:17" s="30" customFormat="1">
+    <row r="24" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B24" s="30" t="s">
         <v>21</v>
       </c>
@@ -7923,7 +7923,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:17" s="30" customFormat="1">
+    <row r="25" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B25" s="30" t="s">
         <v>21</v>
       </c>
@@ -7940,7 +7940,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="26" spans="1:17" s="30" customFormat="1">
+    <row r="26" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B26" s="30" t="s">
         <v>21</v>
       </c>
@@ -7957,7 +7957,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:17" s="30" customFormat="1">
+    <row r="27" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B27" s="30" t="s">
         <v>21</v>
       </c>
@@ -7974,7 +7974,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="28" spans="1:17" s="30" customFormat="1">
+    <row r="28" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B28" s="30" t="s">
         <v>21</v>
       </c>
@@ -7991,7 +7991,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="29" spans="1:17" s="30" customFormat="1">
+    <row r="29" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B29" s="30" t="s">
         <v>21</v>
       </c>
@@ -8008,7 +8008,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:17" s="30" customFormat="1">
+    <row r="30" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B30" s="30" t="s">
         <v>21</v>
       </c>
@@ -8025,7 +8025,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="31" spans="1:17" s="38" customFormat="1">
+    <row r="31" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="38" t="b">
         <v>1</v>
       </c>
@@ -8044,7 +8044,7 @@
       <c r="G31" s="39"/>
       <c r="H31" s="39"/>
     </row>
-    <row r="32" spans="1:17">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B32" s="31" t="s">
         <v>21</v>
       </c>
@@ -8060,7 +8060,7 @@
       <c r="H32" s="31"/>
       <c r="I32" s="31"/>
     </row>
-    <row r="33" spans="1:17" s="38" customFormat="1">
+    <row r="33" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="38" t="b">
         <v>1</v>
       </c>
@@ -8079,7 +8079,7 @@
       <c r="G33" s="39"/>
       <c r="H33" s="39"/>
     </row>
-    <row r="34" spans="1:17" s="43" customFormat="1">
+    <row r="34" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B34" s="43" t="s">
         <v>22</v>
       </c>
@@ -8115,7 +8115,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="35" spans="1:17" s="43" customFormat="1">
+    <row r="35" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B35" s="43" t="s">
         <v>22</v>
       </c>
@@ -8151,7 +8151,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="36" spans="1:17" s="38" customFormat="1">
+    <row r="36" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="38" t="b">
         <v>1</v>
       </c>
@@ -8170,7 +8170,7 @@
       <c r="G36" s="39"/>
       <c r="H36" s="39"/>
     </row>
-    <row r="37" spans="1:17" s="43" customFormat="1">
+    <row r="37" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B37" s="43" t="s">
         <v>22</v>
       </c>
@@ -8209,7 +8209,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="38" spans="1:17" s="38" customFormat="1">
+    <row r="38" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="38" t="b">
         <v>1</v>
       </c>
@@ -8228,7 +8228,7 @@
       <c r="G38" s="39"/>
       <c r="H38" s="39"/>
     </row>
-    <row r="39" spans="1:17">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B39" s="31" t="s">
         <v>21</v>
       </c>
@@ -8266,7 +8266,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="40" spans="1:17">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B40" s="31" t="s">
         <v>21</v>
       </c>
@@ -8294,7 +8294,7 @@
       <c r="P40" s="40"/>
       <c r="Q40" s="2"/>
     </row>
-    <row r="41" spans="1:17">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B41" s="31" t="s">
         <v>21</v>
       </c>
@@ -8316,7 +8316,7 @@
       <c r="I41" s="3"/>
       <c r="J41" s="3"/>
     </row>
-    <row r="42" spans="1:17" s="38" customFormat="1">
+    <row r="42" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="38" t="b">
         <v>1</v>
       </c>
@@ -8335,7 +8335,7 @@
       <c r="G42" s="39"/>
       <c r="H42" s="39"/>
     </row>
-    <row r="43" spans="1:17">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B43" s="31" t="s">
         <v>21</v>
       </c>
@@ -8373,7 +8373,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="44" spans="1:17">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B44" s="31" t="s">
         <v>21</v>
       </c>
@@ -8401,7 +8401,7 @@
       <c r="P44" s="40"/>
       <c r="Q44" s="2"/>
     </row>
-    <row r="45" spans="1:17">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B45" s="31" t="s">
         <v>21</v>
       </c>
@@ -8423,7 +8423,7 @@
       <c r="I45" s="3"/>
       <c r="J45" s="3"/>
     </row>
-    <row r="46" spans="1:17" s="38" customFormat="1">
+    <row r="46" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="38" t="b">
         <v>1</v>
       </c>
@@ -8442,7 +8442,7 @@
       <c r="G46" s="39"/>
       <c r="H46" s="39"/>
     </row>
-    <row r="47" spans="1:17">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B47" s="31" t="s">
         <v>21</v>
       </c>
@@ -8480,7 +8480,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="48" spans="1:17">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B48" s="31" t="s">
         <v>21</v>
       </c>
@@ -8508,7 +8508,7 @@
       <c r="P48" s="40"/>
       <c r="Q48" s="2"/>
     </row>
-    <row r="49" spans="1:17">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B49" s="31" t="s">
         <v>21</v>
       </c>
@@ -8530,7 +8530,7 @@
       <c r="I49" s="3"/>
       <c r="J49" s="3"/>
     </row>
-    <row r="50" spans="1:17" s="38" customFormat="1">
+    <row r="50" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="38" t="b">
         <v>1</v>
       </c>
@@ -8549,7 +8549,7 @@
       <c r="G50" s="39"/>
       <c r="H50" s="39"/>
     </row>
-    <row r="51" spans="1:17">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B51" s="31" t="s">
         <v>21</v>
       </c>
@@ -8587,7 +8587,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="52" spans="1:17">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B52" s="31" t="s">
         <v>21</v>
       </c>
@@ -8615,7 +8615,7 @@
       <c r="P52" s="40"/>
       <c r="Q52" s="2"/>
     </row>
-    <row r="53" spans="1:17">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B53" s="31" t="s">
         <v>21</v>
       </c>
@@ -8637,7 +8637,7 @@
       <c r="I53" s="3"/>
       <c r="J53" s="3"/>
     </row>
-    <row r="54" spans="1:17" s="38" customFormat="1">
+    <row r="54" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="38" t="b">
         <v>1</v>
       </c>
@@ -8656,7 +8656,7 @@
       <c r="G54" s="39"/>
       <c r="H54" s="39"/>
     </row>
-    <row r="55" spans="1:17">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B55" s="31" t="s">
         <v>21</v>
       </c>
@@ -8674,7 +8674,7 @@
       </c>
       <c r="I55" s="31"/>
     </row>
-    <row r="56" spans="1:17">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B56" s="31" t="s">
         <v>21</v>
       </c>
@@ -8692,7 +8692,7 @@
       </c>
       <c r="I56" s="31"/>
     </row>
-    <row r="57" spans="1:17">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B57" s="31" t="s">
         <v>21</v>
       </c>
@@ -8710,7 +8710,7 @@
       </c>
       <c r="I57" s="31"/>
     </row>
-    <row r="58" spans="1:17">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B58" s="31" t="s">
         <v>21</v>
       </c>
@@ -8728,7 +8728,7 @@
       </c>
       <c r="I58" s="31"/>
     </row>
-    <row r="59" spans="1:17" s="38" customFormat="1">
+    <row r="59" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A59" s="38" t="b">
         <v>1</v>
       </c>
@@ -8747,7 +8747,7 @@
       <c r="G59" s="39"/>
       <c r="H59" s="39"/>
     </row>
-    <row r="60" spans="1:17" s="49" customFormat="1">
+    <row r="60" spans="1:17" s="49" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="49" t="b">
         <v>1</v>
       </c>
@@ -8764,7 +8764,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="61" spans="1:17" s="43" customFormat="1">
+    <row r="61" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B61" s="43" t="s">
         <v>22</v>
       </c>
@@ -8800,7 +8800,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="62" spans="1:17" s="30" customFormat="1">
+    <row r="62" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B62" s="30" t="s">
         <v>21</v>
       </c>
@@ -8817,7 +8817,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="63" spans="1:17" s="30" customFormat="1">
+    <row r="63" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B63" s="30" t="s">
         <v>21</v>
       </c>
@@ -8837,7 +8837,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="64" spans="1:17" s="49" customFormat="1">
+    <row r="64" spans="1:17" s="49" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="49" t="b">
         <v>1</v>
       </c>
@@ -8854,7 +8854,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="65" spans="1:17" s="43" customFormat="1">
+    <row r="65" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B65" s="43" t="s">
         <v>22</v>
       </c>
@@ -8890,7 +8890,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="66" spans="1:17" s="30" customFormat="1">
+    <row r="66" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B66" s="30" t="s">
         <v>21</v>
       </c>
@@ -8907,7 +8907,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="67" spans="1:17" s="30" customFormat="1">
+    <row r="67" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B67" s="30" t="s">
         <v>21</v>
       </c>
@@ -8927,7 +8927,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="68" spans="1:17" s="49" customFormat="1">
+    <row r="68" spans="1:17" s="49" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A68" s="49" t="b">
         <v>1</v>
       </c>
@@ -8944,7 +8944,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="69" spans="1:17" s="43" customFormat="1">
+    <row r="69" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B69" s="43" t="s">
         <v>22</v>
       </c>
@@ -8980,7 +8980,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="70" spans="1:17" s="30" customFormat="1">
+    <row r="70" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B70" s="30" t="s">
         <v>21</v>
       </c>
@@ -8997,7 +8997,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="71" spans="1:17" s="30" customFormat="1">
+    <row r="71" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B71" s="30" t="s">
         <v>21</v>
       </c>
@@ -9017,7 +9017,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="72" spans="1:17" s="49" customFormat="1">
+    <row r="72" spans="1:17" s="49" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A72" s="49" t="b">
         <v>1</v>
       </c>
@@ -9034,7 +9034,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="73" spans="1:17" s="30" customFormat="1">
+    <row r="73" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B73" s="30" t="s">
         <v>21</v>
       </c>
@@ -9055,7 +9055,7 @@
       </c>
       <c r="O73" s="31"/>
     </row>
-    <row r="74" spans="1:17" s="43" customFormat="1">
+    <row r="74" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B74" s="43" t="s">
         <v>22</v>
       </c>
@@ -9091,7 +9091,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="75" spans="1:17" s="30" customFormat="1">
+    <row r="75" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B75" s="30" t="s">
         <v>21</v>
       </c>
@@ -9109,7 +9109,7 @@
       </c>
       <c r="O75" s="31"/>
     </row>
-    <row r="76" spans="1:17" s="30" customFormat="1">
+    <row r="76" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B76" s="30" t="s">
         <v>21</v>
       </c>
@@ -9127,7 +9127,7 @@
       </c>
       <c r="O76" s="31"/>
     </row>
-    <row r="77" spans="1:17" s="30" customFormat="1">
+    <row r="77" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B77" s="30" t="s">
         <v>21</v>
       </c>
@@ -9145,7 +9145,7 @@
       </c>
       <c r="O77" s="31"/>
     </row>
-    <row r="78" spans="1:17" s="50" customFormat="1">
+    <row r="78" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A78" s="50" t="b">
         <v>1</v>
       </c>
@@ -9162,7 +9162,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="79" spans="1:17">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A79" s="30"/>
       <c r="B79" s="30" t="s">
         <v>21</v>
@@ -9191,7 +9191,7 @@
       <c r="N79" s="3"/>
       <c r="P79" s="40"/>
     </row>
-    <row r="80" spans="1:17" s="43" customFormat="1">
+    <row r="80" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B80" s="43" t="s">
         <v>22</v>
       </c>
@@ -9229,7 +9229,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="81" spans="1:17">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A81" s="30"/>
       <c r="B81" s="30" t="s">
         <v>21</v>
@@ -9255,7 +9255,7 @@
       <c r="N81" s="3"/>
       <c r="P81" s="40"/>
     </row>
-    <row r="82" spans="1:17">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A82" s="30"/>
       <c r="B82" s="30" t="s">
         <v>21</v>
@@ -9281,7 +9281,7 @@
       <c r="N82" s="3"/>
       <c r="P82" s="40"/>
     </row>
-    <row r="83" spans="1:17">
+    <row r="83" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A83" s="30"/>
       <c r="B83" s="30" t="s">
         <v>21</v>
@@ -9307,7 +9307,7 @@
       <c r="N83" s="3"/>
       <c r="P83" s="40"/>
     </row>
-    <row r="84" spans="1:17">
+    <row r="84" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A84" s="30"/>
       <c r="B84" s="30" t="s">
         <v>21</v>
@@ -9333,7 +9333,7 @@
       <c r="N84" s="3"/>
       <c r="P84" s="40"/>
     </row>
-    <row r="85" spans="1:17">
+    <row r="85" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A85" s="30"/>
       <c r="B85" s="30" t="s">
         <v>21</v>
@@ -9359,7 +9359,7 @@
       <c r="N85" s="3"/>
       <c r="P85" s="40"/>
     </row>
-    <row r="86" spans="1:17">
+    <row r="86" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A86" s="30"/>
       <c r="B86" s="30" t="s">
         <v>21</v>
@@ -9385,7 +9385,7 @@
       <c r="N86" s="3"/>
       <c r="P86" s="40"/>
     </row>
-    <row r="87" spans="1:17">
+    <row r="87" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A87" s="30"/>
       <c r="B87" s="30" t="s">
         <v>21</v>
@@ -9411,7 +9411,7 @@
       <c r="N87" s="3"/>
       <c r="P87" s="40"/>
     </row>
-    <row r="88" spans="1:17" s="50" customFormat="1">
+    <row r="88" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A88" s="50" t="b">
         <v>1</v>
       </c>
@@ -9428,7 +9428,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="89" spans="1:17">
+    <row r="89" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A89" s="30"/>
       <c r="B89" s="30" t="s">
         <v>21</v>
@@ -9457,7 +9457,7 @@
       <c r="N89" s="3"/>
       <c r="P89" s="40"/>
     </row>
-    <row r="90" spans="1:17" s="43" customFormat="1">
+    <row r="90" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B90" s="43" t="s">
         <v>22</v>
       </c>
@@ -9494,7 +9494,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="91" spans="1:17" s="50" customFormat="1">
+    <row r="91" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A91" s="50" t="b">
         <v>1</v>
       </c>
@@ -9511,7 +9511,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="92" spans="1:17" s="43" customFormat="1">
+    <row r="92" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B92" s="43" t="s">
         <v>22</v>
       </c>
@@ -9548,7 +9548,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="93" spans="1:17" s="50" customFormat="1">
+    <row r="93" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A93" s="50" t="b">
         <v>1</v>
       </c>
@@ -9565,7 +9565,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="94" spans="1:17" s="43" customFormat="1">
+    <row r="94" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B94" s="43" t="s">
         <v>22</v>
       </c>
@@ -9602,7 +9602,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="95" spans="1:17" s="50" customFormat="1">
+    <row r="95" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A95" s="50" t="b">
         <v>1</v>
       </c>
@@ -9619,7 +9619,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="96" spans="1:17" s="30" customFormat="1">
+    <row r="96" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B96" s="30" t="s">
         <v>21</v>
       </c>
@@ -9639,7 +9639,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="97" spans="1:17" s="43" customFormat="1">
+    <row r="97" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B97" s="43" t="s">
         <v>22</v>
       </c>
@@ -9679,7 +9679,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="98" spans="1:17" s="30" customFormat="1">
+    <row r="98" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B98" s="30" t="s">
         <v>21</v>
       </c>
@@ -9699,7 +9699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:17" s="30" customFormat="1">
+    <row r="99" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B99" s="30" t="s">
         <v>21</v>
       </c>
@@ -9719,7 +9719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:17" s="30" customFormat="1">
+    <row r="100" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B100" s="30" t="s">
         <v>21</v>
       </c>
@@ -9739,7 +9739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:17" s="30" customFormat="1">
+    <row r="101" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B101" s="30" t="s">
         <v>21</v>
       </c>
@@ -9756,7 +9756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:17" s="30" customFormat="1">
+    <row r="102" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B102" s="30" t="s">
         <v>21</v>
       </c>
@@ -9776,7 +9776,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="103" spans="1:17" s="30" customFormat="1">
+    <row r="103" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B103" s="30" t="s">
         <v>21</v>
       </c>
@@ -9796,7 +9796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:17" s="30" customFormat="1">
+    <row r="104" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B104" s="30" t="s">
         <v>21</v>
       </c>
@@ -9816,7 +9816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:17" s="38" customFormat="1">
+    <row r="105" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A105" s="38" t="b">
         <v>1</v>
       </c>
@@ -9835,7 +9835,7 @@
       <c r="G105" s="39"/>
       <c r="H105" s="39"/>
     </row>
-    <row r="106" spans="1:17" s="43" customFormat="1">
+    <row r="106" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B106" s="43" t="s">
         <v>22</v>
       </c>
@@ -9856,26 +9856,26 @@
       </c>
       <c r="I106" s="46"/>
       <c r="J106" s="45">
-        <v>-5</v>
+        <v>-2</v>
       </c>
       <c r="K106" s="45">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L106" s="45">
         <v>0</v>
       </c>
       <c r="M106" s="45">
         <f>(K106-J106)/6</f>
-        <v>1.6666666666666667</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="N106" s="45">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="Q106" s="43" t="s">
         <v>776</v>
       </c>
     </row>
-    <row r="107" spans="1:17" s="43" customFormat="1">
+    <row r="107" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B107" s="43" t="s">
         <v>22</v>
       </c>
@@ -9896,26 +9896,26 @@
       </c>
       <c r="I107" s="46"/>
       <c r="J107" s="45">
-        <v>-5</v>
+        <v>-2</v>
       </c>
       <c r="K107" s="45">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L107" s="45">
         <v>0</v>
       </c>
       <c r="M107" s="45">
         <f>(K107-J107)/6</f>
-        <v>1.6666666666666667</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="N107" s="45">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="Q107" s="43" t="s">
         <v>776</v>
       </c>
     </row>
-    <row r="108" spans="1:17">
+    <row r="108" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B108" s="31" t="s">
         <v>21</v>
       </c>
@@ -9937,467 +9937,467 @@
       <c r="M108" s="3"/>
       <c r="N108" s="3"/>
     </row>
-    <row r="109" spans="1:17">
+    <row r="109" spans="1:17" x14ac:dyDescent="0.3">
       <c r="H109" s="31"/>
       <c r="I109" s="31"/>
     </row>
-    <row r="110" spans="1:17">
+    <row r="110" spans="1:17" x14ac:dyDescent="0.3">
       <c r="H110" s="31"/>
       <c r="I110" s="31"/>
     </row>
-    <row r="111" spans="1:17">
+    <row r="111" spans="1:17" x14ac:dyDescent="0.3">
       <c r="H111" s="31"/>
       <c r="I111" s="31"/>
     </row>
-    <row r="112" spans="1:17">
+    <row r="112" spans="1:17" x14ac:dyDescent="0.3">
       <c r="H112" s="31"/>
       <c r="I112" s="31"/>
     </row>
-    <row r="113" spans="8:9">
+    <row r="113" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H113" s="31"/>
       <c r="I113" s="31"/>
     </row>
-    <row r="114" spans="8:9">
+    <row r="114" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H114" s="31"/>
       <c r="I114" s="31"/>
     </row>
-    <row r="115" spans="8:9">
+    <row r="115" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H115" s="31"/>
       <c r="I115" s="31"/>
     </row>
-    <row r="116" spans="8:9">
+    <row r="116" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H116" s="31"/>
       <c r="I116" s="31"/>
     </row>
-    <row r="117" spans="8:9">
+    <row r="117" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H117" s="31"/>
       <c r="I117" s="31"/>
     </row>
-    <row r="118" spans="8:9">
+    <row r="118" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H118" s="31"/>
       <c r="I118" s="31"/>
     </row>
-    <row r="119" spans="8:9">
+    <row r="119" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H119" s="31"/>
       <c r="I119" s="31"/>
     </row>
-    <row r="120" spans="8:9">
+    <row r="120" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H120" s="31"/>
       <c r="I120" s="31"/>
     </row>
-    <row r="121" spans="8:9">
+    <row r="121" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H121" s="31"/>
       <c r="I121" s="31"/>
     </row>
-    <row r="122" spans="8:9">
+    <row r="122" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H122" s="31"/>
       <c r="I122" s="31"/>
     </row>
-    <row r="123" spans="8:9">
+    <row r="123" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H123" s="31"/>
       <c r="I123" s="31"/>
     </row>
-    <row r="124" spans="8:9">
+    <row r="124" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H124" s="31"/>
       <c r="I124" s="31"/>
     </row>
-    <row r="125" spans="8:9">
+    <row r="125" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H125" s="31"/>
       <c r="I125" s="31"/>
     </row>
-    <row r="126" spans="8:9">
+    <row r="126" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H126" s="31"/>
       <c r="I126" s="31"/>
     </row>
-    <row r="127" spans="8:9">
+    <row r="127" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H127" s="31"/>
       <c r="I127" s="31"/>
     </row>
-    <row r="128" spans="8:9">
+    <row r="128" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H128" s="31"/>
       <c r="I128" s="31"/>
     </row>
-    <row r="129" spans="8:9">
+    <row r="129" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H129" s="31"/>
       <c r="I129" s="31"/>
     </row>
-    <row r="130" spans="8:9">
+    <row r="130" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H130" s="31"/>
       <c r="I130" s="31"/>
     </row>
-    <row r="131" spans="8:9">
+    <row r="131" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H131" s="31"/>
       <c r="I131" s="31"/>
     </row>
-    <row r="132" spans="8:9">
+    <row r="132" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H132" s="31"/>
       <c r="I132" s="31"/>
     </row>
-    <row r="133" spans="8:9">
+    <row r="133" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H133" s="31"/>
       <c r="I133" s="31"/>
     </row>
-    <row r="134" spans="8:9">
+    <row r="134" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H134" s="31"/>
       <c r="I134" s="31"/>
     </row>
-    <row r="135" spans="8:9">
+    <row r="135" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H135" s="31"/>
       <c r="I135" s="31"/>
     </row>
-    <row r="136" spans="8:9">
+    <row r="136" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H136" s="31"/>
       <c r="I136" s="31"/>
     </row>
-    <row r="137" spans="8:9">
+    <row r="137" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H137" s="31"/>
       <c r="I137" s="31"/>
     </row>
-    <row r="138" spans="8:9">
+    <row r="138" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H138" s="31"/>
       <c r="I138" s="31"/>
     </row>
-    <row r="139" spans="8:9">
+    <row r="139" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H139" s="31"/>
       <c r="I139" s="31"/>
     </row>
-    <row r="140" spans="8:9">
+    <row r="140" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H140" s="31"/>
       <c r="I140" s="31"/>
     </row>
-    <row r="141" spans="8:9">
+    <row r="141" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H141" s="31"/>
       <c r="I141" s="31"/>
     </row>
-    <row r="142" spans="8:9">
+    <row r="142" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H142" s="31"/>
       <c r="I142" s="31"/>
     </row>
-    <row r="143" spans="8:9">
+    <row r="143" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H143" s="31"/>
       <c r="I143" s="31"/>
     </row>
-    <row r="144" spans="8:9">
+    <row r="144" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H144" s="31"/>
       <c r="I144" s="31"/>
     </row>
-    <row r="145" spans="8:9">
+    <row r="145" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H145" s="31"/>
       <c r="I145" s="31"/>
     </row>
-    <row r="146" spans="8:9">
+    <row r="146" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H146" s="31"/>
       <c r="I146" s="31"/>
     </row>
-    <row r="147" spans="8:9">
+    <row r="147" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H147" s="31"/>
       <c r="I147" s="31"/>
     </row>
-    <row r="148" spans="8:9">
+    <row r="148" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H148" s="31"/>
       <c r="I148" s="31"/>
     </row>
-    <row r="149" spans="8:9">
+    <row r="149" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H149" s="31"/>
       <c r="I149" s="31"/>
     </row>
-    <row r="150" spans="8:9">
+    <row r="150" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H150" s="31"/>
       <c r="I150" s="31"/>
     </row>
-    <row r="151" spans="8:9">
+    <row r="151" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H151" s="31"/>
       <c r="I151" s="31"/>
     </row>
-    <row r="152" spans="8:9">
+    <row r="152" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H152" s="31"/>
       <c r="I152" s="31"/>
     </row>
-    <row r="153" spans="8:9">
+    <row r="153" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H153" s="31"/>
       <c r="I153" s="31"/>
     </row>
-    <row r="154" spans="8:9">
+    <row r="154" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H154" s="31"/>
       <c r="I154" s="31"/>
     </row>
-    <row r="155" spans="8:9">
+    <row r="155" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H155" s="31"/>
       <c r="I155" s="31"/>
     </row>
-    <row r="156" spans="8:9">
+    <row r="156" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H156" s="31"/>
       <c r="I156" s="31"/>
     </row>
-    <row r="157" spans="8:9">
+    <row r="157" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H157" s="31"/>
       <c r="I157" s="31"/>
     </row>
-    <row r="158" spans="8:9">
+    <row r="158" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H158" s="31"/>
       <c r="I158" s="31"/>
     </row>
-    <row r="159" spans="8:9">
+    <row r="159" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H159" s="31"/>
       <c r="I159" s="31"/>
     </row>
-    <row r="160" spans="8:9">
+    <row r="160" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H160" s="31"/>
       <c r="I160" s="31"/>
     </row>
-    <row r="161" spans="8:9">
+    <row r="161" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H161" s="31"/>
       <c r="I161" s="31"/>
     </row>
-    <row r="162" spans="8:9">
+    <row r="162" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H162" s="31"/>
       <c r="I162" s="31"/>
     </row>
-    <row r="163" spans="8:9">
+    <row r="163" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H163" s="31"/>
       <c r="I163" s="31"/>
     </row>
-    <row r="164" spans="8:9">
+    <row r="164" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H164" s="31"/>
       <c r="I164" s="31"/>
     </row>
-    <row r="165" spans="8:9">
+    <row r="165" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H165" s="31"/>
       <c r="I165" s="31"/>
     </row>
-    <row r="166" spans="8:9">
+    <row r="166" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H166" s="31"/>
       <c r="I166" s="31"/>
     </row>
-    <row r="167" spans="8:9">
+    <row r="167" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H167" s="31"/>
       <c r="I167" s="31"/>
     </row>
-    <row r="168" spans="8:9">
+    <row r="168" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H168" s="31"/>
       <c r="I168" s="31"/>
     </row>
-    <row r="169" spans="8:9">
+    <row r="169" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H169" s="31"/>
       <c r="I169" s="31"/>
     </row>
-    <row r="170" spans="8:9">
+    <row r="170" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H170" s="31"/>
       <c r="I170" s="31"/>
     </row>
-    <row r="171" spans="8:9">
+    <row r="171" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H171" s="31"/>
       <c r="I171" s="31"/>
     </row>
-    <row r="172" spans="8:9">
+    <row r="172" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H172" s="31"/>
       <c r="I172" s="31"/>
     </row>
-    <row r="173" spans="8:9">
+    <row r="173" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H173" s="31"/>
       <c r="I173" s="31"/>
     </row>
-    <row r="174" spans="8:9">
+    <row r="174" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H174" s="31"/>
       <c r="I174" s="31"/>
     </row>
-    <row r="175" spans="8:9">
+    <row r="175" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H175" s="31"/>
       <c r="I175" s="31"/>
     </row>
-    <row r="176" spans="8:9">
+    <row r="176" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H176" s="31"/>
       <c r="I176" s="31"/>
     </row>
-    <row r="177" spans="8:9">
+    <row r="177" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H177" s="31"/>
       <c r="I177" s="31"/>
     </row>
-    <row r="178" spans="8:9">
+    <row r="178" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H178" s="31"/>
       <c r="I178" s="31"/>
     </row>
-    <row r="179" spans="8:9">
+    <row r="179" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H179" s="31"/>
       <c r="I179" s="31"/>
     </row>
-    <row r="180" spans="8:9">
+    <row r="180" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H180" s="31"/>
       <c r="I180" s="31"/>
     </row>
-    <row r="181" spans="8:9">
+    <row r="181" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H181" s="31"/>
       <c r="I181" s="31"/>
     </row>
-    <row r="182" spans="8:9">
+    <row r="182" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H182" s="31"/>
       <c r="I182" s="31"/>
     </row>
-    <row r="183" spans="8:9">
+    <row r="183" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H183" s="31"/>
       <c r="I183" s="31"/>
     </row>
-    <row r="184" spans="8:9">
+    <row r="184" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H184" s="31"/>
       <c r="I184" s="31"/>
     </row>
-    <row r="185" spans="8:9">
+    <row r="185" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H185" s="31"/>
       <c r="I185" s="31"/>
     </row>
-    <row r="186" spans="8:9">
+    <row r="186" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H186" s="31"/>
       <c r="I186" s="31"/>
     </row>
-    <row r="187" spans="8:9">
+    <row r="187" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H187" s="31"/>
       <c r="I187" s="31"/>
     </row>
-    <row r="188" spans="8:9">
+    <row r="188" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H188" s="31"/>
       <c r="I188" s="31"/>
     </row>
-    <row r="189" spans="8:9">
+    <row r="189" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H189" s="31"/>
       <c r="I189" s="31"/>
     </row>
-    <row r="190" spans="8:9">
+    <row r="190" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H190" s="31"/>
       <c r="I190" s="31"/>
     </row>
-    <row r="191" spans="8:9">
+    <row r="191" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H191" s="31"/>
       <c r="I191" s="31"/>
     </row>
-    <row r="192" spans="8:9">
+    <row r="192" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H192" s="31"/>
       <c r="I192" s="31"/>
     </row>
-    <row r="193" spans="8:9">
+    <row r="193" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H193" s="31"/>
       <c r="I193" s="31"/>
     </row>
-    <row r="194" spans="8:9">
+    <row r="194" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H194" s="31"/>
       <c r="I194" s="31"/>
     </row>
-    <row r="195" spans="8:9">
+    <row r="195" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H195" s="31"/>
       <c r="I195" s="31"/>
     </row>
-    <row r="196" spans="8:9">
+    <row r="196" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H196" s="31"/>
       <c r="I196" s="31"/>
     </row>
-    <row r="197" spans="8:9">
+    <row r="197" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H197" s="31"/>
       <c r="I197" s="31"/>
     </row>
-    <row r="198" spans="8:9">
+    <row r="198" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H198" s="31"/>
       <c r="I198" s="31"/>
     </row>
-    <row r="199" spans="8:9">
+    <row r="199" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H199" s="31"/>
       <c r="I199" s="31"/>
     </row>
-    <row r="200" spans="8:9">
+    <row r="200" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H200" s="31"/>
       <c r="I200" s="31"/>
     </row>
-    <row r="201" spans="8:9">
+    <row r="201" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H201" s="31"/>
       <c r="I201" s="31"/>
     </row>
-    <row r="202" spans="8:9">
+    <row r="202" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H202" s="31"/>
       <c r="I202" s="31"/>
     </row>
-    <row r="203" spans="8:9">
+    <row r="203" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H203" s="31"/>
       <c r="I203" s="31"/>
     </row>
-    <row r="204" spans="8:9">
+    <row r="204" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H204" s="31"/>
       <c r="I204" s="31"/>
     </row>
-    <row r="205" spans="8:9">
+    <row r="205" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H205" s="31"/>
       <c r="I205" s="31"/>
     </row>
-    <row r="206" spans="8:9">
+    <row r="206" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H206" s="31"/>
       <c r="I206" s="31"/>
     </row>
-    <row r="207" spans="8:9">
+    <row r="207" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H207" s="31"/>
       <c r="I207" s="31"/>
     </row>
-    <row r="208" spans="8:9">
+    <row r="208" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H208" s="31"/>
       <c r="I208" s="31"/>
     </row>
-    <row r="209" spans="8:9">
+    <row r="209" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H209" s="31"/>
       <c r="I209" s="31"/>
     </row>
-    <row r="210" spans="8:9">
+    <row r="210" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H210" s="31"/>
       <c r="I210" s="31"/>
     </row>
-    <row r="211" spans="8:9">
+    <row r="211" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H211" s="31"/>
       <c r="I211" s="31"/>
     </row>
-    <row r="212" spans="8:9">
+    <row r="212" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H212" s="31"/>
       <c r="I212" s="31"/>
     </row>
-    <row r="213" spans="8:9">
+    <row r="213" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H213" s="31"/>
       <c r="I213" s="31"/>
     </row>
-    <row r="214" spans="8:9">
+    <row r="214" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H214" s="31"/>
       <c r="I214" s="31"/>
     </row>
-    <row r="215" spans="8:9">
+    <row r="215" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H215" s="31"/>
       <c r="I215" s="31"/>
     </row>
-    <row r="216" spans="8:9">
+    <row r="216" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H216" s="31"/>
       <c r="I216" s="31"/>
     </row>
-    <row r="217" spans="8:9">
+    <row r="217" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H217" s="31"/>
       <c r="I217" s="31"/>
     </row>
-    <row r="218" spans="8:9">
+    <row r="218" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H218" s="31"/>
       <c r="I218" s="31"/>
     </row>
-    <row r="219" spans="8:9">
+    <row r="219" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H219" s="31"/>
       <c r="I219" s="31"/>
     </row>
-    <row r="220" spans="8:9">
+    <row r="220" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H220" s="31"/>
       <c r="I220" s="31"/>
     </row>
-    <row r="221" spans="8:9">
+    <row r="221" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H221" s="31"/>
       <c r="I221" s="31"/>
     </row>
-    <row r="222" spans="8:9">
+    <row r="222" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H222" s="31"/>
       <c r="I222" s="31"/>
     </row>
-    <row r="223" spans="8:9">
+    <row r="223" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H223" s="31"/>
       <c r="I223" s="31"/>
     </row>
-    <row r="224" spans="8:9">
+    <row r="224" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H224" s="31"/>
       <c r="I224" s="31"/>
     </row>
@@ -10425,20 +10425,20 @@
       <selection pane="bottomLeft" activeCell="A29" sqref="A29:A32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="29.5" style="31" customWidth="1"/>
+    <col min="1" max="2" width="29.44140625" style="31" customWidth="1"/>
     <col min="3" max="3" width="71" style="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5" style="31" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" style="31" customWidth="1"/>
     <col min="5" max="5" width="12.33203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="10.5" style="31" customWidth="1"/>
-    <col min="8" max="8" width="14.5" style="31" customWidth="1"/>
+    <col min="6" max="7" width="10.44140625" style="31" customWidth="1"/>
+    <col min="8" max="8" width="14.44140625" style="31" customWidth="1"/>
     <col min="9" max="9" width="14.6640625" style="31" customWidth="1"/>
     <col min="10" max="10" width="9.6640625" style="31" customWidth="1"/>
-    <col min="11" max="16384" width="11.5" style="31"/>
+    <col min="11" max="16384" width="11.44140625" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18">
+    <row r="1" spans="1:12" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="5"/>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -10453,7 +10453,7 @@
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
     </row>
-    <row r="2" spans="1:12" s="8" customFormat="1" ht="15">
+    <row r="2" spans="1:12" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>459</v>
       </c>
@@ -10488,7 +10488,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="14" customFormat="1" ht="30">
+    <row r="3" spans="1:12" s="14" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
         <v>628</v>
       </c>
@@ -10524,7 +10524,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="30" t="s">
         <v>644</v>
       </c>
@@ -10553,7 +10553,7 @@
       <c r="J4" s="30"/>
       <c r="K4" s="30"/>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="30" t="s">
         <v>645</v>
       </c>
@@ -10583,7 +10583,7 @@
       <c r="K5" s="30"/>
       <c r="L5" s="30"/>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="30" t="s">
         <v>646</v>
       </c>
@@ -10612,7 +10612,7 @@
       <c r="J6" s="30"/>
       <c r="K6" s="30"/>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="30" t="s">
         <v>647</v>
       </c>
@@ -10641,7 +10641,7 @@
       <c r="J7" s="30"/>
       <c r="K7" s="30"/>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="30" t="s">
         <v>709</v>
       </c>
@@ -10672,7 +10672,7 @@
       <c r="K8" s="30"/>
       <c r="L8" s="30"/>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="30" t="s">
         <v>711</v>
       </c>
@@ -10702,7 +10702,7 @@
       <c r="K9" s="30"/>
       <c r="L9" s="30"/>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="30" t="s">
         <v>712</v>
       </c>
@@ -10732,7 +10732,7 @@
       <c r="K10" s="30"/>
       <c r="L10" s="30"/>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="30" t="s">
         <v>713</v>
       </c>
@@ -10762,7 +10762,7 @@
       <c r="K11" s="30"/>
       <c r="L11" s="30"/>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="30" t="s">
         <v>714</v>
       </c>
@@ -10792,7 +10792,7 @@
       <c r="K12" s="30"/>
       <c r="L12" s="30"/>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="30" t="s">
         <v>715</v>
       </c>
@@ -10822,7 +10822,7 @@
       <c r="K13" s="30"/>
       <c r="L13" s="30"/>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="30" t="s">
         <v>716</v>
       </c>
@@ -10852,7 +10852,7 @@
       <c r="K14" s="30"/>
       <c r="L14" s="30"/>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="30" t="s">
         <v>717</v>
       </c>
@@ -10882,7 +10882,7 @@
       <c r="K15" s="30"/>
       <c r="L15" s="30"/>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="30" t="s">
         <v>718</v>
       </c>
@@ -10912,7 +10912,7 @@
       <c r="K16" s="30"/>
       <c r="L16" s="30"/>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="30" t="s">
         <v>719</v>
       </c>
@@ -10942,7 +10942,7 @@
       <c r="K17" s="30"/>
       <c r="L17" s="30"/>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="30" t="s">
         <v>720</v>
       </c>
@@ -10972,7 +10972,7 @@
       <c r="K18" s="30"/>
       <c r="L18" s="30"/>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="30" t="s">
         <v>722</v>
       </c>
@@ -11003,7 +11003,7 @@
       <c r="K19" s="30"/>
       <c r="L19" s="30"/>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="30" t="s">
         <v>721</v>
       </c>
@@ -11033,7 +11033,7 @@
       <c r="K20" s="30"/>
       <c r="L20" s="30"/>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="30" t="s">
         <v>724</v>
       </c>
@@ -11063,7 +11063,7 @@
       <c r="K21" s="30"/>
       <c r="L21" s="30"/>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="30" t="s">
         <v>725</v>
       </c>
@@ -11093,7 +11093,7 @@
       <c r="K22" s="30"/>
       <c r="L22" s="30"/>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="30" t="s">
         <v>726</v>
       </c>
@@ -11123,7 +11123,7 @@
       <c r="K23" s="30"/>
       <c r="L23" s="30"/>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="30" t="s">
         <v>727</v>
       </c>
@@ -11153,7 +11153,7 @@
       <c r="K24" s="30"/>
       <c r="L24" s="30"/>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="30" t="s">
         <v>728</v>
       </c>
@@ -11183,7 +11183,7 @@
       <c r="K25" s="30"/>
       <c r="L25" s="30"/>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="30" t="s">
         <v>729</v>
       </c>
@@ -11213,7 +11213,7 @@
       <c r="K26" s="30"/>
       <c r="L26" s="30"/>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="30" t="s">
         <v>730</v>
       </c>
@@ -11243,7 +11243,7 @@
       <c r="K27" s="30"/>
       <c r="L27" s="30"/>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="30" t="s">
         <v>731</v>
       </c>
@@ -11273,7 +11273,7 @@
       <c r="K28" s="30"/>
       <c r="L28" s="30"/>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="30" t="s">
         <v>841</v>
       </c>
@@ -11297,7 +11297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="30" t="s">
         <v>842</v>
       </c>
@@ -11321,7 +11321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="30" t="s">
         <v>843</v>
       </c>
@@ -11345,7 +11345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="30" t="s">
         <v>844</v>
       </c>
@@ -11369,25 +11369,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="30"/>
       <c r="B33" s="30"/>
       <c r="C33" s="30"/>
       <c r="D33" s="30"/>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="30"/>
       <c r="B34" s="30"/>
       <c r="C34" s="30"/>
       <c r="D34" s="30"/>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="30"/>
       <c r="B35" s="30"/>
       <c r="C35" s="30"/>
       <c r="D35" s="30"/>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="30"/>
       <c r="B36" s="30"/>
       <c r="C36" s="30"/>
@@ -11412,19 +11412,19 @@
       <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="70.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="80.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="33.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="255.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15">
+    <row r="1" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="b">
         <v>0</v>
       </c>
@@ -11443,7 +11443,7 @@
       <c r="H1" s="17"/>
       <c r="I1" s="17"/>
     </row>
-    <row r="2" spans="1:9" ht="15">
+    <row r="2" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="17"/>
       <c r="B2" s="17" t="s">
         <v>21</v>
@@ -11464,7 +11464,7 @@
       <c r="H2" s="17"/>
       <c r="I2" s="17"/>
     </row>
-    <row r="3" spans="1:9" ht="15">
+    <row r="3" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="17"/>
       <c r="B3" s="17" t="s">
         <v>21</v>
@@ -11487,7 +11487,7 @@
       </c>
       <c r="I3" s="17"/>
     </row>
-    <row r="4" spans="1:9" ht="15">
+    <row r="4" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="17"/>
       <c r="B4" s="17" t="s">
         <v>21</v>
@@ -11510,7 +11510,7 @@
       </c>
       <c r="I4" s="17"/>
     </row>
-    <row r="5" spans="1:9" ht="15">
+    <row r="5" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="17"/>
       <c r="B5" s="17" t="s">
         <v>21</v>
@@ -11533,7 +11533,7 @@
       </c>
       <c r="I5" s="17"/>
     </row>
-    <row r="6" spans="1:9" ht="15">
+    <row r="6" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="17" t="s">
         <v>21</v>
@@ -11556,7 +11556,7 @@
       </c>
       <c r="I6" s="17"/>
     </row>
-    <row r="7" spans="1:9" ht="15">
+    <row r="7" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="17"/>
       <c r="B7" s="17" t="s">
         <v>21</v>
@@ -11579,7 +11579,7 @@
       </c>
       <c r="I7" s="17"/>
     </row>
-    <row r="8" spans="1:9" ht="15">
+    <row r="8" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="17"/>
       <c r="B8" s="17" t="s">
         <v>21</v>
@@ -11602,7 +11602,7 @@
       </c>
       <c r="I8" s="17"/>
     </row>
-    <row r="9" spans="1:9" ht="15">
+    <row r="9" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="17"/>
       <c r="B9" s="17" t="s">
         <v>21</v>
@@ -11625,7 +11625,7 @@
       </c>
       <c r="I9" s="17"/>
     </row>
-    <row r="10" spans="1:9" ht="15">
+    <row r="10" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="17"/>
       <c r="B10" s="17" t="s">
         <v>21</v>
@@ -11648,7 +11648,7 @@
       </c>
       <c r="I10" s="17"/>
     </row>
-    <row r="11" spans="1:9" ht="15">
+    <row r="11" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="17" t="b">
         <v>0</v>
       </c>
@@ -11667,7 +11667,7 @@
       <c r="H11" s="17"/>
       <c r="I11" s="17"/>
     </row>
-    <row r="12" spans="1:9" ht="15">
+    <row r="12" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="17"/>
       <c r="B12" s="17" t="s">
         <v>21</v>
@@ -11688,7 +11688,7 @@
       <c r="H12" s="17"/>
       <c r="I12" s="17"/>
     </row>
-    <row r="13" spans="1:9" ht="15">
+    <row r="13" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="17"/>
       <c r="B13" s="17" t="s">
         <v>21</v>
@@ -11711,7 +11711,7 @@
       </c>
       <c r="I13" s="17"/>
     </row>
-    <row r="14" spans="1:9" ht="15">
+    <row r="14" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="17"/>
       <c r="B14" s="17" t="s">
         <v>21</v>
@@ -11734,7 +11734,7 @@
       </c>
       <c r="I14" s="17"/>
     </row>
-    <row r="15" spans="1:9" ht="15">
+    <row r="15" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="17"/>
       <c r="B15" s="17" t="s">
         <v>21</v>
@@ -11757,7 +11757,7 @@
       </c>
       <c r="I15" s="17"/>
     </row>
-    <row r="16" spans="1:9" ht="15">
+    <row r="16" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="17"/>
       <c r="B16" s="17" t="s">
         <v>21</v>
@@ -11780,7 +11780,7 @@
       </c>
       <c r="I16" s="17"/>
     </row>
-    <row r="17" spans="1:9" ht="15">
+    <row r="17" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="17"/>
       <c r="B17" s="17" t="s">
         <v>21</v>
@@ -11803,7 +11803,7 @@
       </c>
       <c r="I17" s="17"/>
     </row>
-    <row r="18" spans="1:9" ht="15">
+    <row r="18" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="17"/>
       <c r="B18" s="17" t="s">
         <v>21</v>
@@ -11826,7 +11826,7 @@
       </c>
       <c r="I18" s="17"/>
     </row>
-    <row r="19" spans="1:9" ht="15">
+    <row r="19" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="17"/>
       <c r="B19" s="17" t="s">
         <v>21</v>
@@ -11849,7 +11849,7 @@
       </c>
       <c r="I19" s="17"/>
     </row>
-    <row r="20" spans="1:9" ht="15">
+    <row r="20" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="17"/>
       <c r="B20" s="17" t="s">
         <v>21</v>
@@ -11872,7 +11872,7 @@
       </c>
       <c r="I20" s="17"/>
     </row>
-    <row r="21" spans="1:9" ht="15">
+    <row r="21" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="17" t="b">
         <v>0</v>
       </c>
@@ -11891,7 +11891,7 @@
       <c r="H21" s="17"/>
       <c r="I21" s="17"/>
     </row>
-    <row r="22" spans="1:9" ht="15">
+    <row r="22" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="17"/>
       <c r="B22" s="17" t="s">
         <v>21</v>
@@ -11914,7 +11914,7 @@
       </c>
       <c r="I22" s="17"/>
     </row>
-    <row r="23" spans="1:9" ht="15">
+    <row r="23" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="17"/>
       <c r="B23" s="17" t="s">
         <v>21</v>
@@ -11937,7 +11937,7 @@
       </c>
       <c r="I23" s="17"/>
     </row>
-    <row r="24" spans="1:9" ht="15">
+    <row r="24" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="17"/>
       <c r="B24" s="17" t="s">
         <v>21</v>
@@ -11960,7 +11960,7 @@
       </c>
       <c r="I24" s="17"/>
     </row>
-    <row r="25" spans="1:9" ht="15">
+    <row r="25" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="17"/>
       <c r="B25" s="17" t="s">
         <v>21</v>
@@ -11983,7 +11983,7 @@
       </c>
       <c r="I25" s="17"/>
     </row>
-    <row r="26" spans="1:9" ht="15">
+    <row r="26" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="17"/>
       <c r="B26" s="17" t="s">
         <v>21</v>
@@ -12006,7 +12006,7 @@
       </c>
       <c r="I26" s="17"/>
     </row>
-    <row r="27" spans="1:9" ht="15">
+    <row r="27" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="17"/>
       <c r="B27" s="17" t="s">
         <v>21</v>
@@ -12029,7 +12029,7 @@
       </c>
       <c r="I27" s="17"/>
     </row>
-    <row r="28" spans="1:9" ht="15">
+    <row r="28" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="17"/>
       <c r="B28" s="17" t="s">
         <v>21</v>
@@ -12052,7 +12052,7 @@
       </c>
       <c r="I28" s="17"/>
     </row>
-    <row r="29" spans="1:9" ht="15">
+    <row r="29" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="17"/>
       <c r="B29" s="17" t="s">
         <v>21</v>
@@ -12075,7 +12075,7 @@
       </c>
       <c r="I29" s="17"/>
     </row>
-    <row r="30" spans="1:9" ht="15">
+    <row r="30" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="17"/>
       <c r="B30" s="17" t="s">
         <v>21</v>
@@ -12098,7 +12098,7 @@
       </c>
       <c r="I30" s="17"/>
     </row>
-    <row r="31" spans="1:9" ht="15">
+    <row r="31" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="17" t="b">
         <v>0</v>
       </c>
@@ -12117,7 +12117,7 @@
       <c r="H31" s="17"/>
       <c r="I31" s="17"/>
     </row>
-    <row r="32" spans="1:9" ht="15">
+    <row r="32" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="17"/>
       <c r="B32" s="17" t="s">
         <v>21</v>
@@ -12138,7 +12138,7 @@
       <c r="H32" s="17"/>
       <c r="I32" s="17"/>
     </row>
-    <row r="33" spans="1:9" ht="15">
+    <row r="33" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="17"/>
       <c r="B33" s="17" t="s">
         <v>21</v>
@@ -12161,7 +12161,7 @@
       </c>
       <c r="I33" s="17"/>
     </row>
-    <row r="34" spans="1:9" ht="15">
+    <row r="34" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="17"/>
       <c r="B34" s="17" t="s">
         <v>21</v>
@@ -12184,7 +12184,7 @@
       </c>
       <c r="I34" s="17"/>
     </row>
-    <row r="35" spans="1:9" ht="15">
+    <row r="35" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="17"/>
       <c r="B35" s="17" t="s">
         <v>21</v>
@@ -12207,7 +12207,7 @@
       </c>
       <c r="I35" s="17"/>
     </row>
-    <row r="36" spans="1:9" ht="15">
+    <row r="36" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="17"/>
       <c r="B36" s="17" t="s">
         <v>21</v>
@@ -12230,7 +12230,7 @@
       </c>
       <c r="I36" s="17"/>
     </row>
-    <row r="37" spans="1:9" ht="15">
+    <row r="37" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="17"/>
       <c r="B37" s="17" t="s">
         <v>21</v>
@@ -12253,7 +12253,7 @@
       </c>
       <c r="I37" s="17"/>
     </row>
-    <row r="38" spans="1:9" ht="15">
+    <row r="38" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="17"/>
       <c r="B38" s="17" t="s">
         <v>21</v>
@@ -12276,7 +12276,7 @@
       </c>
       <c r="I38" s="17"/>
     </row>
-    <row r="39" spans="1:9" ht="15">
+    <row r="39" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="17"/>
       <c r="B39" s="17" t="s">
         <v>21</v>
@@ -12299,7 +12299,7 @@
       </c>
       <c r="I39" s="17"/>
     </row>
-    <row r="40" spans="1:9" ht="15">
+    <row r="40" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="17"/>
       <c r="B40" s="17" t="s">
         <v>21</v>
@@ -12322,7 +12322,7 @@
       </c>
       <c r="I40" s="17"/>
     </row>
-    <row r="41" spans="1:9" ht="15">
+    <row r="41" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="17" t="b">
         <v>0</v>
       </c>
@@ -12341,7 +12341,7 @@
       <c r="H41" s="17"/>
       <c r="I41" s="17"/>
     </row>
-    <row r="42" spans="1:9" ht="15">
+    <row r="42" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="17"/>
       <c r="B42" s="17" t="s">
         <v>21</v>
@@ -12362,7 +12362,7 @@
       <c r="H42" s="17"/>
       <c r="I42" s="17"/>
     </row>
-    <row r="43" spans="1:9" ht="15">
+    <row r="43" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="17"/>
       <c r="B43" s="17" t="s">
         <v>21</v>
@@ -12385,7 +12385,7 @@
       </c>
       <c r="I43" s="17"/>
     </row>
-    <row r="44" spans="1:9" ht="15">
+    <row r="44" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="17"/>
       <c r="B44" s="17" t="s">
         <v>21</v>
@@ -12408,7 +12408,7 @@
       </c>
       <c r="I44" s="17"/>
     </row>
-    <row r="45" spans="1:9" ht="15">
+    <row r="45" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" s="17"/>
       <c r="B45" s="17" t="s">
         <v>21</v>
@@ -12431,7 +12431,7 @@
       </c>
       <c r="I45" s="17"/>
     </row>
-    <row r="46" spans="1:9" ht="15">
+    <row r="46" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="17"/>
       <c r="B46" s="17" t="s">
         <v>21</v>
@@ -12454,7 +12454,7 @@
       </c>
       <c r="I46" s="17"/>
     </row>
-    <row r="47" spans="1:9" ht="15">
+    <row r="47" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" s="17"/>
       <c r="B47" s="17" t="s">
         <v>21</v>
@@ -12477,7 +12477,7 @@
       </c>
       <c r="I47" s="17"/>
     </row>
-    <row r="48" spans="1:9" ht="15">
+    <row r="48" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="17"/>
       <c r="B48" s="17" t="s">
         <v>21</v>
@@ -12500,7 +12500,7 @@
       </c>
       <c r="I48" s="17"/>
     </row>
-    <row r="49" spans="1:9" ht="15">
+    <row r="49" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" s="17"/>
       <c r="B49" s="17" t="s">
         <v>21</v>
@@ -12523,7 +12523,7 @@
       </c>
       <c r="I49" s="17"/>
     </row>
-    <row r="50" spans="1:9" ht="15">
+    <row r="50" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50" s="17"/>
       <c r="B50" s="17" t="s">
         <v>21</v>
@@ -12546,7 +12546,7 @@
       </c>
       <c r="I50" s="17"/>
     </row>
-    <row r="51" spans="1:9" ht="15">
+    <row r="51" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A51" s="17" t="b">
         <v>0</v>
       </c>
@@ -12565,7 +12565,7 @@
       <c r="H51" s="17"/>
       <c r="I51" s="17"/>
     </row>
-    <row r="52" spans="1:9" ht="15">
+    <row r="52" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52" s="17"/>
       <c r="B52" s="17" t="s">
         <v>21</v>
@@ -12586,7 +12586,7 @@
       <c r="H52" s="17"/>
       <c r="I52" s="17"/>
     </row>
-    <row r="53" spans="1:9" ht="15">
+    <row r="53" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A53" s="17"/>
       <c r="B53" s="17" t="s">
         <v>21</v>
@@ -12609,7 +12609,7 @@
       </c>
       <c r="I53" s="17"/>
     </row>
-    <row r="54" spans="1:9" ht="15">
+    <row r="54" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A54" s="17"/>
       <c r="B54" s="17" t="s">
         <v>21</v>
@@ -12632,7 +12632,7 @@
       </c>
       <c r="I54" s="17"/>
     </row>
-    <row r="55" spans="1:9" ht="15">
+    <row r="55" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A55" s="17"/>
       <c r="B55" s="17" t="s">
         <v>21</v>
@@ -12655,7 +12655,7 @@
       </c>
       <c r="I55" s="17"/>
     </row>
-    <row r="56" spans="1:9" ht="15">
+    <row r="56" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A56" s="17"/>
       <c r="B56" s="17" t="s">
         <v>21</v>
@@ -12678,7 +12678,7 @@
       </c>
       <c r="I56" s="17"/>
     </row>
-    <row r="57" spans="1:9" ht="15">
+    <row r="57" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A57" s="17"/>
       <c r="B57" s="17" t="s">
         <v>21</v>
@@ -12701,7 +12701,7 @@
       </c>
       <c r="I57" s="17"/>
     </row>
-    <row r="58" spans="1:9" ht="15">
+    <row r="58" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A58" s="17"/>
       <c r="B58" s="17" t="s">
         <v>21</v>
@@ -12724,7 +12724,7 @@
       </c>
       <c r="I58" s="17"/>
     </row>
-    <row r="59" spans="1:9" ht="15">
+    <row r="59" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A59" s="17"/>
       <c r="B59" s="17" t="s">
         <v>21</v>
@@ -12747,7 +12747,7 @@
       </c>
       <c r="I59" s="17"/>
     </row>
-    <row r="60" spans="1:9" ht="15">
+    <row r="60" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A60" s="17"/>
       <c r="B60" s="17" t="s">
         <v>21</v>
@@ -12770,7 +12770,7 @@
       </c>
       <c r="I60" s="17"/>
     </row>
-    <row r="61" spans="1:9" ht="15">
+    <row r="61" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A61" s="17" t="b">
         <v>0</v>
       </c>
@@ -12789,7 +12789,7 @@
       <c r="H61" s="17"/>
       <c r="I61" s="17"/>
     </row>
-    <row r="62" spans="1:9" ht="15">
+    <row r="62" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A62" s="17"/>
       <c r="B62" s="17" t="s">
         <v>21</v>
@@ -12810,7 +12810,7 @@
       <c r="H62" s="17"/>
       <c r="I62" s="17"/>
     </row>
-    <row r="63" spans="1:9" ht="15">
+    <row r="63" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A63" s="17"/>
       <c r="B63" s="17" t="s">
         <v>21</v>
@@ -12835,7 +12835,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="15">
+    <row r="64" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A64" s="17"/>
       <c r="B64" s="17" t="s">
         <v>21</v>
@@ -12858,7 +12858,7 @@
       </c>
       <c r="I64" s="17"/>
     </row>
-    <row r="65" spans="1:9" ht="15">
+    <row r="65" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A65" s="17"/>
       <c r="B65" s="17" t="s">
         <v>21</v>
@@ -12881,7 +12881,7 @@
       </c>
       <c r="I65" s="17"/>
     </row>
-    <row r="66" spans="1:9" ht="15">
+    <row r="66" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A66" s="17"/>
       <c r="B66" s="17" t="s">
         <v>21</v>
@@ -12904,7 +12904,7 @@
       </c>
       <c r="I66" s="17"/>
     </row>
-    <row r="67" spans="1:9" ht="15">
+    <row r="67" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A67" s="17"/>
       <c r="B67" s="17" t="s">
         <v>21</v>
@@ -12927,7 +12927,7 @@
       </c>
       <c r="I67" s="17"/>
     </row>
-    <row r="68" spans="1:9" ht="15">
+    <row r="68" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A68" s="17"/>
       <c r="B68" s="17" t="s">
         <v>21</v>
@@ -12950,7 +12950,7 @@
       </c>
       <c r="I68" s="17"/>
     </row>
-    <row r="69" spans="1:9" ht="15">
+    <row r="69" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A69" s="17"/>
       <c r="B69" s="17" t="s">
         <v>21</v>
@@ -12973,7 +12973,7 @@
       </c>
       <c r="I69" s="17"/>
     </row>
-    <row r="70" spans="1:9" ht="15">
+    <row r="70" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A70" s="17"/>
       <c r="B70" s="17" t="s">
         <v>21</v>
@@ -12996,7 +12996,7 @@
       </c>
       <c r="I70" s="17"/>
     </row>
-    <row r="71" spans="1:9" ht="15">
+    <row r="71" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A71" s="17"/>
       <c r="B71" s="17" t="s">
         <v>21</v>
@@ -13019,7 +13019,7 @@
       </c>
       <c r="I71" s="17"/>
     </row>
-    <row r="72" spans="1:9" ht="15">
+    <row r="72" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A72" s="17" t="b">
         <v>0</v>
       </c>
@@ -13038,7 +13038,7 @@
       <c r="H72" s="17"/>
       <c r="I72" s="17"/>
     </row>
-    <row r="73" spans="1:9" ht="15">
+    <row r="73" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A73" s="17"/>
       <c r="B73" s="17" t="s">
         <v>21</v>
@@ -13059,7 +13059,7 @@
       <c r="H73" s="17"/>
       <c r="I73" s="17"/>
     </row>
-    <row r="74" spans="1:9" ht="15">
+    <row r="74" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A74" s="17"/>
       <c r="B74" s="17" t="s">
         <v>21</v>
@@ -13082,7 +13082,7 @@
       </c>
       <c r="I74" s="17"/>
     </row>
-    <row r="75" spans="1:9" ht="15">
+    <row r="75" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A75" s="17"/>
       <c r="B75" s="17" t="s">
         <v>21</v>
@@ -13107,7 +13107,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="15">
+    <row r="76" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A76" s="17"/>
       <c r="B76" s="17" t="s">
         <v>21</v>
@@ -13130,7 +13130,7 @@
       </c>
       <c r="I76" s="17"/>
     </row>
-    <row r="77" spans="1:9" ht="15">
+    <row r="77" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A77" s="17"/>
       <c r="B77" s="17" t="s">
         <v>21</v>
@@ -13153,7 +13153,7 @@
       </c>
       <c r="I77" s="17"/>
     </row>
-    <row r="78" spans="1:9" ht="15">
+    <row r="78" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A78" s="17"/>
       <c r="B78" s="17" t="s">
         <v>21</v>
@@ -13176,7 +13176,7 @@
       </c>
       <c r="I78" s="17"/>
     </row>
-    <row r="79" spans="1:9" ht="15">
+    <row r="79" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A79" s="17"/>
       <c r="B79" s="17" t="s">
         <v>21</v>
@@ -13199,7 +13199,7 @@
       </c>
       <c r="I79" s="17"/>
     </row>
-    <row r="80" spans="1:9" ht="15">
+    <row r="80" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A80" s="17"/>
       <c r="B80" s="17" t="s">
         <v>21</v>
@@ -13222,7 +13222,7 @@
       </c>
       <c r="I80" s="17"/>
     </row>
-    <row r="81" spans="1:9" ht="15">
+    <row r="81" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A81" s="17"/>
       <c r="B81" s="17" t="s">
         <v>21</v>
@@ -13245,7 +13245,7 @@
       </c>
       <c r="I81" s="17"/>
     </row>
-    <row r="82" spans="1:9" ht="15">
+    <row r="82" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A82" s="17"/>
       <c r="B82" s="17" t="s">
         <v>21</v>
@@ -13268,7 +13268,7 @@
       </c>
       <c r="I82" s="17"/>
     </row>
-    <row r="83" spans="1:9" ht="15">
+    <row r="83" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A83" s="17"/>
       <c r="B83" s="17" t="s">
         <v>21</v>
@@ -13291,7 +13291,7 @@
       </c>
       <c r="I83" s="17"/>
     </row>
-    <row r="84" spans="1:9" ht="15">
+    <row r="84" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A84" s="17"/>
       <c r="B84" s="17" t="s">
         <v>21</v>
@@ -13314,7 +13314,7 @@
       </c>
       <c r="I84" s="17"/>
     </row>
-    <row r="85" spans="1:9" ht="15">
+    <row r="85" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A85" s="17"/>
       <c r="B85" s="17" t="s">
         <v>21</v>
@@ -13337,7 +13337,7 @@
       </c>
       <c r="I85" s="17"/>
     </row>
-    <row r="86" spans="1:9" ht="15">
+    <row r="86" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A86" s="17" t="b">
         <v>0</v>
       </c>
@@ -13356,7 +13356,7 @@
       <c r="H86" s="17"/>
       <c r="I86" s="17"/>
     </row>
-    <row r="87" spans="1:9" ht="15">
+    <row r="87" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A87" s="17"/>
       <c r="B87" s="17" t="s">
         <v>21</v>
@@ -13379,7 +13379,7 @@
       </c>
       <c r="I87" s="17"/>
     </row>
-    <row r="88" spans="1:9" ht="15">
+    <row r="88" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A88" s="17"/>
       <c r="B88" s="17" t="s">
         <v>21</v>
@@ -13402,7 +13402,7 @@
       </c>
       <c r="I88" s="17"/>
     </row>
-    <row r="89" spans="1:9" ht="15">
+    <row r="89" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A89" s="17"/>
       <c r="B89" s="17" t="s">
         <v>21</v>
@@ -13425,7 +13425,7 @@
       </c>
       <c r="I89" s="17"/>
     </row>
-    <row r="90" spans="1:9" ht="15">
+    <row r="90" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A90" s="17"/>
       <c r="B90" s="17" t="s">
         <v>21</v>
@@ -13448,7 +13448,7 @@
       </c>
       <c r="I90" s="17"/>
     </row>
-    <row r="91" spans="1:9" ht="15">
+    <row r="91" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A91" s="17"/>
       <c r="B91" s="17" t="s">
         <v>21</v>
@@ -13471,7 +13471,7 @@
       </c>
       <c r="I91" s="17"/>
     </row>
-    <row r="92" spans="1:9" ht="15">
+    <row r="92" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A92" s="17"/>
       <c r="B92" s="17" t="s">
         <v>21</v>
@@ -13494,7 +13494,7 @@
       </c>
       <c r="I92" s="17"/>
     </row>
-    <row r="93" spans="1:9" ht="15">
+    <row r="93" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A93" s="17"/>
       <c r="B93" s="17" t="s">
         <v>21</v>
@@ -13517,7 +13517,7 @@
       </c>
       <c r="I93" s="17"/>
     </row>
-    <row r="94" spans="1:9" ht="15">
+    <row r="94" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A94" s="17"/>
       <c r="B94" s="17" t="s">
         <v>21</v>
@@ -13540,7 +13540,7 @@
       </c>
       <c r="I94" s="17"/>
     </row>
-    <row r="95" spans="1:9" ht="15">
+    <row r="95" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A95" s="17"/>
       <c r="B95" s="17" t="s">
         <v>21</v>
@@ -13563,7 +13563,7 @@
       </c>
       <c r="I95" s="17"/>
     </row>
-    <row r="96" spans="1:9" ht="15">
+    <row r="96" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A96" s="17"/>
       <c r="B96" s="17" t="s">
         <v>21</v>
@@ -13586,7 +13586,7 @@
       </c>
       <c r="I96" s="17"/>
     </row>
-    <row r="97" spans="1:9" ht="15">
+    <row r="97" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A97" s="17" t="b">
         <v>0</v>
       </c>
@@ -13605,7 +13605,7 @@
       <c r="H97" s="17"/>
       <c r="I97" s="17"/>
     </row>
-    <row r="98" spans="1:9" ht="15">
+    <row r="98" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A98" s="17"/>
       <c r="B98" s="17" t="s">
         <v>21</v>
@@ -13630,7 +13630,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="15">
+    <row r="99" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A99" s="17" t="b">
         <v>0</v>
       </c>
@@ -13649,7 +13649,7 @@
       <c r="H99" s="17"/>
       <c r="I99" s="17"/>
     </row>
-    <row r="100" spans="1:9" ht="15">
+    <row r="100" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A100" s="17"/>
       <c r="B100" s="17" t="s">
         <v>21</v>
@@ -13670,7 +13670,7 @@
       <c r="H100" s="17"/>
       <c r="I100" s="17"/>
     </row>
-    <row r="101" spans="1:9" ht="15">
+    <row r="101" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A101" s="17"/>
       <c r="B101" s="17" t="s">
         <v>21</v>
@@ -13695,7 +13695,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="15">
+    <row r="102" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A102" s="17" t="b">
         <v>0</v>
       </c>
@@ -13714,7 +13714,7 @@
       <c r="H102" s="17"/>
       <c r="I102" s="17"/>
     </row>
-    <row r="103" spans="1:9" ht="15">
+    <row r="103" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A103" s="17"/>
       <c r="B103" s="17" t="s">
         <v>21</v>
@@ -13737,7 +13737,7 @@
       </c>
       <c r="I103" s="17"/>
     </row>
-    <row r="104" spans="1:9" ht="15">
+    <row r="104" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A104" s="17"/>
       <c r="B104" s="17" t="s">
         <v>21</v>
@@ -13762,7 +13762,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="15">
+    <row r="105" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A105" s="17"/>
       <c r="B105" s="17" t="s">
         <v>21</v>
@@ -13785,7 +13785,7 @@
       </c>
       <c r="I105" s="17"/>
     </row>
-    <row r="106" spans="1:9" ht="15">
+    <row r="106" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A106" s="17"/>
       <c r="B106" s="17" t="s">
         <v>21</v>
@@ -13806,7 +13806,7 @@
       <c r="H106" s="17"/>
       <c r="I106" s="17"/>
     </row>
-    <row r="107" spans="1:9" ht="15">
+    <row r="107" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A107" s="17" t="b">
         <v>0</v>
       </c>
@@ -13825,7 +13825,7 @@
       <c r="H107" s="17"/>
       <c r="I107" s="17"/>
     </row>
-    <row r="108" spans="1:9" ht="15">
+    <row r="108" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A108" s="17"/>
       <c r="B108" s="17" t="s">
         <v>21</v>
@@ -13850,7 +13850,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="15">
+    <row r="109" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A109" s="17"/>
       <c r="B109" s="17" t="s">
         <v>21</v>
@@ -13873,7 +13873,7 @@
       </c>
       <c r="I109" s="17"/>
     </row>
-    <row r="110" spans="1:9" ht="15">
+    <row r="110" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A110" s="17"/>
       <c r="B110" s="17" t="s">
         <v>21</v>
@@ -13896,7 +13896,7 @@
       </c>
       <c r="I110" s="17"/>
     </row>
-    <row r="111" spans="1:9" ht="15">
+    <row r="111" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A111" s="17"/>
       <c r="B111" s="17" t="s">
         <v>21</v>
@@ -13919,7 +13919,7 @@
       </c>
       <c r="I111" s="17"/>
     </row>
-    <row r="112" spans="1:9" ht="15">
+    <row r="112" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A112" s="17"/>
       <c r="B112" s="17" t="s">
         <v>21</v>
@@ -13942,7 +13942,7 @@
       </c>
       <c r="I112" s="17"/>
     </row>
-    <row r="113" spans="1:9" ht="15">
+    <row r="113" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A113" s="17"/>
       <c r="B113" s="17" t="s">
         <v>21</v>
@@ -13965,7 +13965,7 @@
       </c>
       <c r="I113" s="17"/>
     </row>
-    <row r="114" spans="1:9" ht="15">
+    <row r="114" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A114" s="17"/>
       <c r="B114" s="17" t="s">
         <v>21</v>
@@ -13988,7 +13988,7 @@
       </c>
       <c r="I114" s="17"/>
     </row>
-    <row r="115" spans="1:9" ht="15">
+    <row r="115" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A115" s="17" t="b">
         <v>0</v>
       </c>
@@ -14007,7 +14007,7 @@
       <c r="H115" s="17"/>
       <c r="I115" s="17"/>
     </row>
-    <row r="116" spans="1:9" ht="15">
+    <row r="116" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A116" s="17"/>
       <c r="B116" s="17" t="s">
         <v>21</v>
@@ -14030,7 +14030,7 @@
       </c>
       <c r="I116" s="17"/>
     </row>
-    <row r="117" spans="1:9" ht="15">
+    <row r="117" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A117" s="17"/>
       <c r="B117" s="17" t="s">
         <v>21</v>
@@ -14053,7 +14053,7 @@
       </c>
       <c r="I117" s="17"/>
     </row>
-    <row r="118" spans="1:9" ht="15">
+    <row r="118" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A118" s="17"/>
       <c r="B118" s="17" t="s">
         <v>21</v>
@@ -14076,7 +14076,7 @@
       </c>
       <c r="I118" s="17"/>
     </row>
-    <row r="119" spans="1:9" ht="15">
+    <row r="119" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A119" s="17" t="b">
         <v>0</v>
       </c>
@@ -14095,7 +14095,7 @@
       <c r="H119" s="17"/>
       <c r="I119" s="17"/>
     </row>
-    <row r="120" spans="1:9" ht="15">
+    <row r="120" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A120" s="17"/>
       <c r="B120" s="17" t="s">
         <v>21</v>
@@ -14118,7 +14118,7 @@
       </c>
       <c r="I120" s="17"/>
     </row>
-    <row r="121" spans="1:9" ht="15">
+    <row r="121" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A121" s="17"/>
       <c r="B121" s="17" t="s">
         <v>21</v>
@@ -14141,7 +14141,7 @@
       </c>
       <c r="I121" s="17"/>
     </row>
-    <row r="122" spans="1:9" ht="15">
+    <row r="122" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A122" s="17"/>
       <c r="B122" s="17" t="s">
         <v>21</v>
@@ -14164,7 +14164,7 @@
       </c>
       <c r="I122" s="17"/>
     </row>
-    <row r="123" spans="1:9" ht="15">
+    <row r="123" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A123" s="17"/>
       <c r="B123" s="17" t="s">
         <v>21</v>
@@ -14187,7 +14187,7 @@
       </c>
       <c r="I123" s="17"/>
     </row>
-    <row r="124" spans="1:9" ht="15">
+    <row r="124" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A124" s="17"/>
       <c r="B124" s="17" t="s">
         <v>21</v>
@@ -14210,7 +14210,7 @@
       </c>
       <c r="I124" s="17"/>
     </row>
-    <row r="125" spans="1:9" ht="15">
+    <row r="125" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A125" s="17"/>
       <c r="B125" s="17" t="s">
         <v>21</v>
@@ -14233,7 +14233,7 @@
       </c>
       <c r="I125" s="17"/>
     </row>
-    <row r="126" spans="1:9" ht="15">
+    <row r="126" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A126" s="17" t="b">
         <v>0</v>
       </c>
@@ -14252,7 +14252,7 @@
       <c r="H126" s="17"/>
       <c r="I126" s="17"/>
     </row>
-    <row r="127" spans="1:9" ht="15">
+    <row r="127" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A127" s="17"/>
       <c r="B127" s="17" t="s">
         <v>21</v>
@@ -14277,7 +14277,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="128" spans="1:9" ht="15">
+    <row r="128" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A128" s="17"/>
       <c r="B128" s="17" t="s">
         <v>21</v>
@@ -14300,7 +14300,7 @@
       </c>
       <c r="I128" s="17"/>
     </row>
-    <row r="129" spans="1:9" ht="15">
+    <row r="129" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A129" s="17"/>
       <c r="B129" s="17" t="s">
         <v>21</v>
@@ -14323,7 +14323,7 @@
       </c>
       <c r="I129" s="17"/>
     </row>
-    <row r="130" spans="1:9" ht="15">
+    <row r="130" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A130" s="17"/>
       <c r="B130" s="17" t="s">
         <v>21</v>
@@ -14346,7 +14346,7 @@
       </c>
       <c r="I130" s="17"/>
     </row>
-    <row r="131" spans="1:9" ht="15">
+    <row r="131" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A131" s="17"/>
       <c r="B131" s="17" t="s">
         <v>21</v>
@@ -14369,7 +14369,7 @@
       </c>
       <c r="I131" s="17"/>
     </row>
-    <row r="132" spans="1:9" ht="15">
+    <row r="132" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A132" s="17"/>
       <c r="B132" s="17" t="s">
         <v>21</v>
@@ -14392,7 +14392,7 @@
       </c>
       <c r="I132" s="17"/>
     </row>
-    <row r="133" spans="1:9" ht="15">
+    <row r="133" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A133" s="17"/>
       <c r="B133" s="17" t="s">
         <v>21</v>
@@ -14415,7 +14415,7 @@
       </c>
       <c r="I133" s="17"/>
     </row>
-    <row r="134" spans="1:9" ht="15">
+    <row r="134" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A134" s="17"/>
       <c r="B134" s="17" t="s">
         <v>21</v>
@@ -14438,7 +14438,7 @@
       </c>
       <c r="I134" s="17"/>
     </row>
-    <row r="135" spans="1:9" ht="15">
+    <row r="135" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A135" s="17"/>
       <c r="B135" s="17" t="s">
         <v>21</v>
@@ -14461,7 +14461,7 @@
       </c>
       <c r="I135" s="17"/>
     </row>
-    <row r="136" spans="1:9" ht="15">
+    <row r="136" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A136" s="17" t="b">
         <v>0</v>
       </c>
@@ -14480,7 +14480,7 @@
       <c r="H136" s="17"/>
       <c r="I136" s="17"/>
     </row>
-    <row r="137" spans="1:9" ht="15">
+    <row r="137" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A137" s="17"/>
       <c r="B137" s="17" t="s">
         <v>21</v>
@@ -14505,7 +14505,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="138" spans="1:9" ht="15">
+    <row r="138" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A138" s="17"/>
       <c r="B138" s="17" t="s">
         <v>21</v>
@@ -14526,7 +14526,7 @@
       <c r="H138" s="17"/>
       <c r="I138" s="17"/>
     </row>
-    <row r="139" spans="1:9" ht="15">
+    <row r="139" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A139" s="17"/>
       <c r="B139" s="17" t="s">
         <v>21</v>
@@ -14549,7 +14549,7 @@
       </c>
       <c r="I139" s="17"/>
     </row>
-    <row r="140" spans="1:9" ht="15">
+    <row r="140" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A140" s="17"/>
       <c r="B140" s="17" t="s">
         <v>21</v>
@@ -14572,7 +14572,7 @@
       </c>
       <c r="I140" s="17"/>
     </row>
-    <row r="141" spans="1:9" ht="15">
+    <row r="141" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A141" s="17"/>
       <c r="B141" s="17" t="s">
         <v>21</v>
@@ -14595,7 +14595,7 @@
       </c>
       <c r="I141" s="17"/>
     </row>
-    <row r="142" spans="1:9" ht="15">
+    <row r="142" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A142" s="17"/>
       <c r="B142" s="17" t="s">
         <v>21</v>
@@ -14618,7 +14618,7 @@
       </c>
       <c r="I142" s="17"/>
     </row>
-    <row r="143" spans="1:9" ht="15">
+    <row r="143" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A143" s="17"/>
       <c r="B143" s="17" t="s">
         <v>21</v>
@@ -14641,7 +14641,7 @@
       </c>
       <c r="I143" s="17"/>
     </row>
-    <row r="144" spans="1:9" ht="15">
+    <row r="144" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A144" s="17"/>
       <c r="B144" s="17" t="s">
         <v>21</v>
@@ -14664,7 +14664,7 @@
       </c>
       <c r="I144" s="17"/>
     </row>
-    <row r="145" spans="1:9" ht="15">
+    <row r="145" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A145" s="17"/>
       <c r="B145" s="17" t="s">
         <v>21</v>
@@ -14687,7 +14687,7 @@
       </c>
       <c r="I145" s="17"/>
     </row>
-    <row r="146" spans="1:9" ht="15">
+    <row r="146" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A146" s="17"/>
       <c r="B146" s="17" t="s">
         <v>21</v>
@@ -14710,7 +14710,7 @@
       </c>
       <c r="I146" s="17"/>
     </row>
-    <row r="147" spans="1:9" ht="15">
+    <row r="147" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A147" s="17"/>
       <c r="B147" s="17" t="s">
         <v>21</v>
@@ -14733,7 +14733,7 @@
       </c>
       <c r="I147" s="17"/>
     </row>
-    <row r="148" spans="1:9" ht="15">
+    <row r="148" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A148" s="17"/>
       <c r="B148" s="17" t="s">
         <v>21</v>
@@ -14756,7 +14756,7 @@
       </c>
       <c r="I148" s="17"/>
     </row>
-    <row r="149" spans="1:9" ht="15">
+    <row r="149" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A149" s="17"/>
       <c r="B149" s="17" t="s">
         <v>21</v>
@@ -14779,7 +14779,7 @@
       </c>
       <c r="I149" s="17"/>
     </row>
-    <row r="150" spans="1:9" ht="15">
+    <row r="150" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A150" s="17"/>
       <c r="B150" s="17" t="s">
         <v>21</v>
@@ -14802,7 +14802,7 @@
       </c>
       <c r="I150" s="17"/>
     </row>
-    <row r="151" spans="1:9" ht="15">
+    <row r="151" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A151" s="17" t="b">
         <v>0</v>
       </c>
@@ -14821,7 +14821,7 @@
       <c r="H151" s="17"/>
       <c r="I151" s="17"/>
     </row>
-    <row r="152" spans="1:9" ht="15">
+    <row r="152" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A152" s="17"/>
       <c r="B152" s="17" t="s">
         <v>21</v>
@@ -14844,7 +14844,7 @@
       </c>
       <c r="I152" s="17"/>
     </row>
-    <row r="153" spans="1:9" ht="15">
+    <row r="153" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A153" s="17" t="b">
         <v>0</v>
       </c>
@@ -14863,7 +14863,7 @@
       <c r="H153" s="17"/>
       <c r="I153" s="17"/>
     </row>
-    <row r="154" spans="1:9" ht="15">
+    <row r="154" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A154" s="17"/>
       <c r="B154" s="17" t="s">
         <v>21</v>
@@ -14886,7 +14886,7 @@
       </c>
       <c r="I154" s="17"/>
     </row>
-    <row r="155" spans="1:9" ht="15">
+    <row r="155" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A155" s="17"/>
       <c r="B155" s="17" t="s">
         <v>21</v>
@@ -14909,7 +14909,7 @@
       </c>
       <c r="I155" s="17"/>
     </row>
-    <row r="156" spans="1:9" ht="15">
+    <row r="156" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A156" s="17" t="b">
         <v>0</v>
       </c>
@@ -14928,7 +14928,7 @@
       <c r="H156" s="17"/>
       <c r="I156" s="17"/>
     </row>
-    <row r="157" spans="1:9" ht="15">
+    <row r="157" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A157" s="17"/>
       <c r="B157" s="17" t="s">
         <v>21</v>
@@ -14953,7 +14953,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="158" spans="1:9" ht="15">
+    <row r="158" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A158" s="17"/>
       <c r="B158" s="17" t="s">
         <v>21</v>
@@ -14976,7 +14976,7 @@
       </c>
       <c r="I158" s="17"/>
     </row>
-    <row r="159" spans="1:9" ht="15">
+    <row r="159" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A159" s="17"/>
       <c r="B159" s="17" t="s">
         <v>21</v>
@@ -14999,7 +14999,7 @@
       </c>
       <c r="I159" s="17"/>
     </row>
-    <row r="160" spans="1:9" ht="15">
+    <row r="160" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A160" s="17"/>
       <c r="B160" s="17" t="s">
         <v>21</v>
@@ -15022,7 +15022,7 @@
       </c>
       <c r="I160" s="17"/>
     </row>
-    <row r="161" spans="1:9" ht="15">
+    <row r="161" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A161" s="17"/>
       <c r="B161" s="17" t="s">
         <v>21</v>
@@ -15045,7 +15045,7 @@
       </c>
       <c r="I161" s="17"/>
     </row>
-    <row r="162" spans="1:9" ht="15">
+    <row r="162" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A162" s="17"/>
       <c r="B162" s="17" t="s">
         <v>21</v>
@@ -15068,7 +15068,7 @@
       </c>
       <c r="I162" s="17"/>
     </row>
-    <row r="163" spans="1:9" ht="15">
+    <row r="163" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A163" s="17"/>
       <c r="B163" s="17" t="s">
         <v>21</v>
@@ -15091,7 +15091,7 @@
       </c>
       <c r="I163" s="17"/>
     </row>
-    <row r="164" spans="1:9" ht="15">
+    <row r="164" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A164" s="17"/>
       <c r="B164" s="17" t="s">
         <v>21</v>
@@ -15114,7 +15114,7 @@
       </c>
       <c r="I164" s="17"/>
     </row>
-    <row r="165" spans="1:9" ht="15">
+    <row r="165" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A165" s="17"/>
       <c r="B165" s="17" t="s">
         <v>21</v>
@@ -15137,7 +15137,7 @@
       </c>
       <c r="I165" s="17"/>
     </row>
-    <row r="166" spans="1:9" ht="15">
+    <row r="166" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A166" s="17"/>
       <c r="B166" s="17" t="s">
         <v>21</v>
@@ -15160,7 +15160,7 @@
       </c>
       <c r="I166" s="17"/>
     </row>
-    <row r="167" spans="1:9" ht="15">
+    <row r="167" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A167" s="17" t="b">
         <v>0</v>
       </c>
@@ -15179,7 +15179,7 @@
       <c r="H167" s="17"/>
       <c r="I167" s="17"/>
     </row>
-    <row r="168" spans="1:9" ht="15">
+    <row r="168" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A168" s="17"/>
       <c r="B168" s="17" t="s">
         <v>21</v>
@@ -15204,7 +15204,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="169" spans="1:9" ht="15">
+    <row r="169" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A169" s="17"/>
       <c r="B169" s="17" t="s">
         <v>21</v>
@@ -15227,7 +15227,7 @@
       </c>
       <c r="I169" s="17"/>
     </row>
-    <row r="170" spans="1:9" ht="15">
+    <row r="170" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A170" s="17"/>
       <c r="B170" s="17" t="s">
         <v>21</v>
@@ -15250,7 +15250,7 @@
       </c>
       <c r="I170" s="17"/>
     </row>
-    <row r="171" spans="1:9" ht="15">
+    <row r="171" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A171" s="17"/>
       <c r="B171" s="17" t="s">
         <v>21</v>
@@ -15273,7 +15273,7 @@
       </c>
       <c r="I171" s="17"/>
     </row>
-    <row r="172" spans="1:9" ht="15">
+    <row r="172" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A172" s="17"/>
       <c r="B172" s="17" t="s">
         <v>21</v>
@@ -15296,7 +15296,7 @@
       </c>
       <c r="I172" s="17"/>
     </row>
-    <row r="173" spans="1:9" ht="15">
+    <row r="173" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A173" s="17"/>
       <c r="B173" s="17" t="s">
         <v>21</v>
@@ -15319,7 +15319,7 @@
       </c>
       <c r="I173" s="17"/>
     </row>
-    <row r="174" spans="1:9" ht="15">
+    <row r="174" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A174" s="17"/>
       <c r="B174" s="17" t="s">
         <v>21</v>
@@ -15342,7 +15342,7 @@
       </c>
       <c r="I174" s="17"/>
     </row>
-    <row r="175" spans="1:9" ht="15">
+    <row r="175" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A175" s="17"/>
       <c r="B175" s="17" t="s">
         <v>21</v>
@@ -15365,7 +15365,7 @@
       </c>
       <c r="I175" s="17"/>
     </row>
-    <row r="176" spans="1:9" ht="15">
+    <row r="176" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A176" s="17"/>
       <c r="B176" s="17" t="s">
         <v>21</v>
@@ -15388,7 +15388,7 @@
       </c>
       <c r="I176" s="17"/>
     </row>
-    <row r="177" spans="1:9" ht="15">
+    <row r="177" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A177" s="17"/>
       <c r="B177" s="17" t="s">
         <v>21</v>
@@ -15411,7 +15411,7 @@
       </c>
       <c r="I177" s="17"/>
     </row>
-    <row r="178" spans="1:9" ht="15">
+    <row r="178" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A178" s="17" t="b">
         <v>0</v>
       </c>
@@ -15430,7 +15430,7 @@
       <c r="H178" s="17"/>
       <c r="I178" s="17"/>
     </row>
-    <row r="179" spans="1:9" ht="15">
+    <row r="179" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A179" s="17"/>
       <c r="B179" s="17" t="s">
         <v>21</v>
@@ -15453,7 +15453,7 @@
       </c>
       <c r="I179" s="17"/>
     </row>
-    <row r="180" spans="1:9" ht="15">
+    <row r="180" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A180" s="17"/>
       <c r="B180" s="17" t="s">
         <v>21</v>
@@ -15476,7 +15476,7 @@
       </c>
       <c r="I180" s="17"/>
     </row>
-    <row r="181" spans="1:9" ht="15">
+    <row r="181" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A181" s="17"/>
       <c r="B181" s="17" t="s">
         <v>21</v>
@@ -15499,7 +15499,7 @@
       </c>
       <c r="I181" s="17"/>
     </row>
-    <row r="182" spans="1:9" ht="15">
+    <row r="182" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A182" s="17"/>
       <c r="B182" s="17" t="s">
         <v>21</v>
@@ -15522,7 +15522,7 @@
       </c>
       <c r="I182" s="17"/>
     </row>
-    <row r="183" spans="1:9" ht="15">
+    <row r="183" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A183" s="17" t="b">
         <v>0</v>
       </c>
@@ -15541,7 +15541,7 @@
       <c r="H183" s="17"/>
       <c r="I183" s="17"/>
     </row>
-    <row r="184" spans="1:9" ht="15">
+    <row r="184" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A184" s="17"/>
       <c r="B184" s="17" t="s">
         <v>21</v>
@@ -15564,7 +15564,7 @@
       </c>
       <c r="I184" s="17"/>
     </row>
-    <row r="185" spans="1:9" ht="15">
+    <row r="185" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A185" s="17"/>
       <c r="B185" s="17" t="s">
         <v>21</v>
@@ -15587,7 +15587,7 @@
       </c>
       <c r="I185" s="17"/>
     </row>
-    <row r="186" spans="1:9" ht="15">
+    <row r="186" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A186" s="17"/>
       <c r="B186" s="17" t="s">
         <v>21</v>
@@ -15610,7 +15610,7 @@
       </c>
       <c r="I186" s="17"/>
     </row>
-    <row r="187" spans="1:9" ht="15">
+    <row r="187" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A187" s="17"/>
       <c r="B187" s="17" t="s">
         <v>21</v>
@@ -15633,7 +15633,7 @@
       </c>
       <c r="I187" s="17"/>
     </row>
-    <row r="188" spans="1:9" ht="15">
+    <row r="188" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A188" s="17" t="b">
         <v>0</v>
       </c>
@@ -15652,7 +15652,7 @@
       <c r="H188" s="17"/>
       <c r="I188" s="17"/>
     </row>
-    <row r="189" spans="1:9" ht="15">
+    <row r="189" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A189" s="17"/>
       <c r="B189" s="17" t="s">
         <v>21</v>
@@ -15673,7 +15673,7 @@
       <c r="H189" s="17"/>
       <c r="I189" s="17"/>
     </row>
-    <row r="190" spans="1:9" ht="15">
+    <row r="190" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A190" s="17"/>
       <c r="B190" s="17" t="s">
         <v>21</v>
@@ -15696,7 +15696,7 @@
       </c>
       <c r="I190" s="17"/>
     </row>
-    <row r="191" spans="1:9" ht="15">
+    <row r="191" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A191" s="17" t="b">
         <v>0</v>
       </c>
@@ -15715,7 +15715,7 @@
       <c r="H191" s="17"/>
       <c r="I191" s="17"/>
     </row>
-    <row r="192" spans="1:9" ht="15">
+    <row r="192" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A192" s="17"/>
       <c r="B192" s="17" t="s">
         <v>21</v>
@@ -15738,7 +15738,7 @@
       </c>
       <c r="I192" s="17"/>
     </row>
-    <row r="193" spans="1:9" ht="15">
+    <row r="193" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A193" s="17"/>
       <c r="B193" s="17" t="s">
         <v>21</v>
@@ -15763,7 +15763,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="194" spans="1:9" ht="15">
+    <row r="194" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A194" s="17"/>
       <c r="B194" s="17" t="s">
         <v>21</v>
@@ -15784,7 +15784,7 @@
       <c r="H194" s="17"/>
       <c r="I194" s="17"/>
     </row>
-    <row r="195" spans="1:9" ht="15">
+    <row r="195" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A195" s="17"/>
       <c r="B195" s="17" t="s">
         <v>21</v>
@@ -15809,7 +15809,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="196" spans="1:9" ht="15">
+    <row r="196" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A196" s="17"/>
       <c r="B196" s="17" t="s">
         <v>21</v>
@@ -15834,7 +15834,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="197" spans="1:9" ht="15">
+    <row r="197" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A197" s="17" t="b">
         <v>0</v>
       </c>
@@ -15853,7 +15853,7 @@
       <c r="H197" s="17"/>
       <c r="I197" s="17"/>
     </row>
-    <row r="198" spans="1:9" ht="15">
+    <row r="198" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A198" s="17"/>
       <c r="B198" s="17" t="s">
         <v>21</v>
@@ -15878,7 +15878,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="199" spans="1:9" ht="15">
+    <row r="199" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A199" s="17"/>
       <c r="B199" s="17" t="s">
         <v>21</v>
@@ -15901,7 +15901,7 @@
       </c>
       <c r="I199" s="17"/>
     </row>
-    <row r="200" spans="1:9" ht="15">
+    <row r="200" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A200" s="17"/>
       <c r="B200" s="17" t="s">
         <v>21</v>
@@ -15924,7 +15924,7 @@
       </c>
       <c r="I200" s="17"/>
     </row>
-    <row r="201" spans="1:9" ht="15">
+    <row r="201" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A201" s="17"/>
       <c r="B201" s="17" t="s">
         <v>21</v>
@@ -15947,7 +15947,7 @@
       </c>
       <c r="I201" s="17"/>
     </row>
-    <row r="202" spans="1:9" ht="15">
+    <row r="202" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A202" s="17"/>
       <c r="B202" s="17" t="s">
         <v>21</v>
@@ -15970,7 +15970,7 @@
       </c>
       <c r="I202" s="17"/>
     </row>
-    <row r="203" spans="1:9" ht="15">
+    <row r="203" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A203" s="17"/>
       <c r="B203" s="17" t="s">
         <v>21</v>
@@ -15993,7 +15993,7 @@
       </c>
       <c r="I203" s="17"/>
     </row>
-    <row r="204" spans="1:9" ht="15">
+    <row r="204" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A204" s="17"/>
       <c r="B204" s="17" t="s">
         <v>21</v>
@@ -16016,7 +16016,7 @@
       </c>
       <c r="I204" s="17"/>
     </row>
-    <row r="205" spans="1:9" ht="15">
+    <row r="205" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A205" s="17"/>
       <c r="B205" s="17" t="s">
         <v>21</v>
@@ -16039,7 +16039,7 @@
       </c>
       <c r="I205" s="17"/>
     </row>
-    <row r="206" spans="1:9" ht="15">
+    <row r="206" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A206" s="17"/>
       <c r="B206" s="17" t="s">
         <v>21</v>
@@ -16062,7 +16062,7 @@
       </c>
       <c r="I206" s="17"/>
     </row>
-    <row r="207" spans="1:9" ht="15">
+    <row r="207" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A207" s="17" t="b">
         <v>0</v>
       </c>
@@ -16081,7 +16081,7 @@
       <c r="H207" s="17"/>
       <c r="I207" s="17"/>
     </row>
-    <row r="208" spans="1:9" ht="15">
+    <row r="208" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A208" s="17"/>
       <c r="B208" s="17" t="s">
         <v>21</v>
@@ -16106,7 +16106,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="209" spans="1:9" ht="15">
+    <row r="209" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A209" s="17"/>
       <c r="B209" s="17" t="s">
         <v>21</v>
@@ -16129,7 +16129,7 @@
       </c>
       <c r="I209" s="17"/>
     </row>
-    <row r="210" spans="1:9" ht="15">
+    <row r="210" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A210" s="17"/>
       <c r="B210" s="17" t="s">
         <v>21</v>
@@ -16152,7 +16152,7 @@
       </c>
       <c r="I210" s="17"/>
     </row>
-    <row r="211" spans="1:9" ht="15">
+    <row r="211" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A211" s="17"/>
       <c r="B211" s="17" t="s">
         <v>21</v>
@@ -16175,7 +16175,7 @@
       </c>
       <c r="I211" s="17"/>
     </row>
-    <row r="212" spans="1:9" ht="15">
+    <row r="212" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A212" s="17"/>
       <c r="B212" s="17" t="s">
         <v>21</v>
@@ -16198,7 +16198,7 @@
       </c>
       <c r="I212" s="17"/>
     </row>
-    <row r="213" spans="1:9" ht="15">
+    <row r="213" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A213" s="17"/>
       <c r="B213" s="17" t="s">
         <v>21</v>
@@ -16221,7 +16221,7 @@
       </c>
       <c r="I213" s="17"/>
     </row>
-    <row r="214" spans="1:9" ht="15">
+    <row r="214" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A214" s="17"/>
       <c r="B214" s="17" t="s">
         <v>21</v>
@@ -16244,7 +16244,7 @@
       </c>
       <c r="I214" s="17"/>
     </row>
-    <row r="215" spans="1:9" ht="15">
+    <row r="215" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A215" s="17"/>
       <c r="B215" s="17" t="s">
         <v>21</v>
@@ -16267,7 +16267,7 @@
       </c>
       <c r="I215" s="17"/>
     </row>
-    <row r="216" spans="1:9" ht="15">
+    <row r="216" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A216" s="17"/>
       <c r="B216" s="17" t="s">
         <v>21</v>
@@ -16290,7 +16290,7 @@
       </c>
       <c r="I216" s="17"/>
     </row>
-    <row r="217" spans="1:9" ht="15">
+    <row r="217" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A217" s="17" t="b">
         <v>0</v>
       </c>
@@ -16309,7 +16309,7 @@
       <c r="H217" s="17"/>
       <c r="I217" s="17"/>
     </row>
-    <row r="218" spans="1:9" ht="15">
+    <row r="218" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A218" s="17"/>
       <c r="B218" s="17" t="s">
         <v>21</v>
@@ -16330,7 +16330,7 @@
       <c r="H218" s="17"/>
       <c r="I218" s="17"/>
     </row>
-    <row r="219" spans="1:9" ht="15">
+    <row r="219" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A219" s="17"/>
       <c r="B219" s="17" t="s">
         <v>21</v>
@@ -16353,7 +16353,7 @@
       </c>
       <c r="I219" s="17"/>
     </row>
-    <row r="220" spans="1:9" ht="15">
+    <row r="220" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A220" s="17"/>
       <c r="B220" s="17" t="s">
         <v>21</v>
@@ -16376,7 +16376,7 @@
       </c>
       <c r="I220" s="17"/>
     </row>
-    <row r="221" spans="1:9" ht="15">
+    <row r="221" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A221" s="17"/>
       <c r="B221" s="17" t="s">
         <v>21</v>
@@ -16399,7 +16399,7 @@
       </c>
       <c r="I221" s="17"/>
     </row>
-    <row r="222" spans="1:9" ht="15">
+    <row r="222" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A222" s="17"/>
       <c r="B222" s="17" t="s">
         <v>21</v>
@@ -16422,7 +16422,7 @@
       </c>
       <c r="I222" s="17"/>
     </row>
-    <row r="223" spans="1:9" ht="15">
+    <row r="223" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A223" s="17"/>
       <c r="B223" s="17" t="s">
         <v>21</v>
@@ -16445,7 +16445,7 @@
       </c>
       <c r="I223" s="17"/>
     </row>
-    <row r="224" spans="1:9" ht="15">
+    <row r="224" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A224" s="17"/>
       <c r="B224" s="17" t="s">
         <v>21</v>
@@ -16468,7 +16468,7 @@
       </c>
       <c r="I224" s="17"/>
     </row>
-    <row r="225" spans="1:9" ht="15">
+    <row r="225" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A225" s="17"/>
       <c r="B225" s="17" t="s">
         <v>21</v>
@@ -16491,7 +16491,7 @@
       </c>
       <c r="I225" s="17"/>
     </row>
-    <row r="226" spans="1:9" ht="15">
+    <row r="226" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A226" s="17"/>
       <c r="B226" s="17" t="s">
         <v>21</v>
@@ -16514,7 +16514,7 @@
       </c>
       <c r="I226" s="17"/>
     </row>
-    <row r="227" spans="1:9" ht="15">
+    <row r="227" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A227" s="17"/>
       <c r="B227" s="17" t="s">
         <v>21</v>
@@ -16537,7 +16537,7 @@
       </c>
       <c r="I227" s="17"/>
     </row>
-    <row r="228" spans="1:9" ht="15">
+    <row r="228" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A228" s="17"/>
       <c r="B228" s="17" t="s">
         <v>21</v>
@@ -16560,7 +16560,7 @@
       </c>
       <c r="I228" s="17"/>
     </row>
-    <row r="229" spans="1:9" ht="15">
+    <row r="229" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A229" s="17"/>
       <c r="B229" s="17" t="s">
         <v>21</v>
@@ -16583,7 +16583,7 @@
       </c>
       <c r="I229" s="17"/>
     </row>
-    <row r="230" spans="1:9" ht="15">
+    <row r="230" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A230" s="17"/>
       <c r="B230" s="17" t="s">
         <v>21</v>
@@ -16606,7 +16606,7 @@
       </c>
       <c r="I230" s="17"/>
     </row>
-    <row r="231" spans="1:9" ht="15">
+    <row r="231" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A231" s="17"/>
       <c r="B231" s="17" t="s">
         <v>21</v>
@@ -16629,7 +16629,7 @@
       </c>
       <c r="I231" s="17"/>
     </row>
-    <row r="232" spans="1:9" ht="15">
+    <row r="232" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A232" s="17"/>
       <c r="B232" s="17" t="s">
         <v>21</v>
@@ -16652,7 +16652,7 @@
       </c>
       <c r="I232" s="17"/>
     </row>
-    <row r="233" spans="1:9" ht="15">
+    <row r="233" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A233" s="17"/>
       <c r="B233" s="17" t="s">
         <v>21</v>
@@ -16675,7 +16675,7 @@
       </c>
       <c r="I233" s="17"/>
     </row>
-    <row r="234" spans="1:9" ht="15">
+    <row r="234" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A234" s="17" t="b">
         <v>0</v>
       </c>
@@ -16694,7 +16694,7 @@
       <c r="H234" s="17"/>
       <c r="I234" s="17"/>
     </row>
-    <row r="235" spans="1:9" ht="15">
+    <row r="235" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A235" s="17"/>
       <c r="B235" s="17" t="s">
         <v>21</v>
@@ -16715,7 +16715,7 @@
       <c r="H235" s="17"/>
       <c r="I235" s="17"/>
     </row>
-    <row r="236" spans="1:9" ht="15">
+    <row r="236" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A236" s="17"/>
       <c r="B236" s="17" t="s">
         <v>21</v>
@@ -16738,7 +16738,7 @@
       </c>
       <c r="I236" s="17"/>
     </row>
-    <row r="237" spans="1:9" ht="15">
+    <row r="237" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A237" s="17"/>
       <c r="B237" s="17" t="s">
         <v>21</v>
@@ -16761,7 +16761,7 @@
       </c>
       <c r="I237" s="17"/>
     </row>
-    <row r="238" spans="1:9" ht="15">
+    <row r="238" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A238" s="17"/>
       <c r="B238" s="17" t="s">
         <v>21</v>
@@ -16784,7 +16784,7 @@
       </c>
       <c r="I238" s="17"/>
     </row>
-    <row r="239" spans="1:9" ht="15">
+    <row r="239" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A239" s="17"/>
       <c r="B239" s="17" t="s">
         <v>21</v>
@@ -16807,7 +16807,7 @@
       </c>
       <c r="I239" s="17"/>
     </row>
-    <row r="240" spans="1:9" ht="15">
+    <row r="240" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A240" s="17"/>
       <c r="B240" s="17" t="s">
         <v>21</v>
@@ -16830,7 +16830,7 @@
       </c>
       <c r="I240" s="17"/>
     </row>
-    <row r="241" spans="1:9" ht="15">
+    <row r="241" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A241" s="17"/>
       <c r="B241" s="17" t="s">
         <v>21</v>
@@ -16853,7 +16853,7 @@
       </c>
       <c r="I241" s="17"/>
     </row>
-    <row r="242" spans="1:9" ht="15">
+    <row r="242" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A242" s="17"/>
       <c r="B242" s="17" t="s">
         <v>21</v>
@@ -16876,7 +16876,7 @@
       </c>
       <c r="I242" s="17"/>
     </row>
-    <row r="243" spans="1:9" ht="15">
+    <row r="243" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A243" s="17"/>
       <c r="B243" s="17" t="s">
         <v>21</v>
@@ -16899,7 +16899,7 @@
       </c>
       <c r="I243" s="17"/>
     </row>
-    <row r="244" spans="1:9" ht="15">
+    <row r="244" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A244" s="17"/>
       <c r="B244" s="17" t="s">
         <v>21</v>
@@ -16922,7 +16922,7 @@
       </c>
       <c r="I244" s="17"/>
     </row>
-    <row r="245" spans="1:9" ht="15">
+    <row r="245" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A245" s="17"/>
       <c r="B245" s="17" t="s">
         <v>21</v>
@@ -16945,7 +16945,7 @@
       </c>
       <c r="I245" s="17"/>
     </row>
-    <row r="246" spans="1:9" ht="15">
+    <row r="246" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A246" s="17"/>
       <c r="B246" s="17" t="s">
         <v>21</v>
@@ -16968,7 +16968,7 @@
       </c>
       <c r="I246" s="17"/>
     </row>
-    <row r="247" spans="1:9" ht="15">
+    <row r="247" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A247" s="17"/>
       <c r="B247" s="17" t="s">
         <v>21</v>
@@ -16991,7 +16991,7 @@
       </c>
       <c r="I247" s="17"/>
     </row>
-    <row r="248" spans="1:9" ht="15">
+    <row r="248" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A248" s="17"/>
       <c r="B248" s="17" t="s">
         <v>21</v>
@@ -17014,7 +17014,7 @@
       </c>
       <c r="I248" s="17"/>
     </row>
-    <row r="249" spans="1:9" ht="15">
+    <row r="249" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A249" s="17"/>
       <c r="B249" s="17" t="s">
         <v>21</v>
@@ -17037,7 +17037,7 @@
       </c>
       <c r="I249" s="17"/>
     </row>
-    <row r="250" spans="1:9" ht="15">
+    <row r="250" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A250" s="17"/>
       <c r="B250" s="17" t="s">
         <v>21</v>
@@ -17060,7 +17060,7 @@
       </c>
       <c r="I250" s="17"/>
     </row>
-    <row r="251" spans="1:9" ht="15">
+    <row r="251" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A251" s="17" t="b">
         <v>0</v>
       </c>
@@ -17079,7 +17079,7 @@
       <c r="H251" s="17"/>
       <c r="I251" s="17"/>
     </row>
-    <row r="252" spans="1:9" ht="15">
+    <row r="252" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A252" s="17"/>
       <c r="B252" s="17" t="s">
         <v>21</v>
@@ -17104,7 +17104,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="253" spans="1:9" ht="15">
+    <row r="253" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A253" s="17"/>
       <c r="B253" s="17" t="s">
         <v>21</v>
@@ -17127,7 +17127,7 @@
       </c>
       <c r="I253" s="17"/>
     </row>
-    <row r="254" spans="1:9" ht="15">
+    <row r="254" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A254" s="17"/>
       <c r="B254" s="17" t="s">
         <v>21</v>
@@ -17150,7 +17150,7 @@
       </c>
       <c r="I254" s="17"/>
     </row>
-    <row r="255" spans="1:9" ht="15">
+    <row r="255" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A255" s="17"/>
       <c r="B255" s="17" t="s">
         <v>21</v>
@@ -17173,7 +17173,7 @@
       </c>
       <c r="I255" s="17"/>
     </row>
-    <row r="256" spans="1:9" ht="15">
+    <row r="256" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A256" s="17"/>
       <c r="B256" s="17" t="s">
         <v>21</v>
@@ -17196,7 +17196,7 @@
       </c>
       <c r="I256" s="17"/>
     </row>
-    <row r="257" spans="1:9" ht="15">
+    <row r="257" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A257" s="17" t="b">
         <v>0</v>
       </c>
@@ -17215,7 +17215,7 @@
       <c r="H257" s="17"/>
       <c r="I257" s="17"/>
     </row>
-    <row r="258" spans="1:9" ht="15">
+    <row r="258" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A258" s="17"/>
       <c r="B258" s="17" t="s">
         <v>21</v>
@@ -17240,7 +17240,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="259" spans="1:9" ht="15">
+    <row r="259" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A259" s="17"/>
       <c r="B259" s="17" t="s">
         <v>21</v>
@@ -17263,7 +17263,7 @@
       </c>
       <c r="I259" s="17"/>
     </row>
-    <row r="260" spans="1:9" ht="15">
+    <row r="260" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A260" s="17" t="b">
         <v>0</v>
       </c>
@@ -17282,7 +17282,7 @@
       <c r="H260" s="17"/>
       <c r="I260" s="17"/>
     </row>
-    <row r="261" spans="1:9" ht="15">
+    <row r="261" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A261" s="17" t="b">
         <v>0</v>
       </c>
@@ -17301,7 +17301,7 @@
       <c r="H261" s="17"/>
       <c r="I261" s="17"/>
     </row>
-    <row r="262" spans="1:9" ht="15">
+    <row r="262" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A262" s="17" t="b">
         <v>0</v>
       </c>
@@ -17320,7 +17320,7 @@
       <c r="H262" s="17"/>
       <c r="I262" s="17"/>
     </row>
-    <row r="263" spans="1:9" ht="15">
+    <row r="263" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A263" s="17"/>
       <c r="B263" s="17" t="s">
         <v>21</v>
@@ -17341,7 +17341,7 @@
       <c r="H263" s="17"/>
       <c r="I263" s="17"/>
     </row>
-    <row r="264" spans="1:9" ht="15">
+    <row r="264" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A264" s="17"/>
       <c r="B264" s="17" t="s">
         <v>21</v>
@@ -17364,7 +17364,7 @@
       </c>
       <c r="I264" s="17"/>
     </row>
-    <row r="265" spans="1:9" ht="15">
+    <row r="265" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A265" s="17"/>
       <c r="B265" s="17" t="s">
         <v>21</v>
@@ -17387,7 +17387,7 @@
       </c>
       <c r="I265" s="17"/>
     </row>
-    <row r="266" spans="1:9" ht="15">
+    <row r="266" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A266" s="17"/>
       <c r="B266" s="17" t="s">
         <v>21</v>
@@ -17410,7 +17410,7 @@
       </c>
       <c r="I266" s="17"/>
     </row>
-    <row r="267" spans="1:9" ht="15">
+    <row r="267" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A267" s="17"/>
       <c r="B267" s="17" t="s">
         <v>21</v>
@@ -17433,7 +17433,7 @@
       </c>
       <c r="I267" s="17"/>
     </row>
-    <row r="268" spans="1:9" ht="15">
+    <row r="268" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A268" s="17"/>
       <c r="B268" s="17" t="s">
         <v>21</v>
@@ -17456,7 +17456,7 @@
       </c>
       <c r="I268" s="17"/>
     </row>
-    <row r="269" spans="1:9" ht="15">
+    <row r="269" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A269" s="17"/>
       <c r="B269" s="17" t="s">
         <v>21</v>
@@ -17479,7 +17479,7 @@
       </c>
       <c r="I269" s="17"/>
     </row>
-    <row r="270" spans="1:9" ht="15">
+    <row r="270" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A270" s="17"/>
       <c r="B270" s="17" t="s">
         <v>21</v>
@@ -17502,7 +17502,7 @@
       </c>
       <c r="I270" s="17"/>
     </row>
-    <row r="271" spans="1:9" ht="15">
+    <row r="271" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A271" s="17"/>
       <c r="B271" s="17" t="s">
         <v>21</v>
@@ -17525,7 +17525,7 @@
       </c>
       <c r="I271" s="17"/>
     </row>
-    <row r="272" spans="1:9" ht="15">
+    <row r="272" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A272" s="17"/>
       <c r="B272" s="17" t="s">
         <v>21</v>
@@ -17548,7 +17548,7 @@
       </c>
       <c r="I272" s="17"/>
     </row>
-    <row r="273" spans="1:9" ht="15">
+    <row r="273" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A273" s="17"/>
       <c r="B273" s="17" t="s">
         <v>21</v>
@@ -17571,7 +17571,7 @@
       </c>
       <c r="I273" s="17"/>
     </row>
-    <row r="274" spans="1:9" ht="15">
+    <row r="274" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A274" s="17" t="b">
         <v>0</v>
       </c>
@@ -17590,7 +17590,7 @@
       <c r="H274" s="17"/>
       <c r="I274" s="17"/>
     </row>
-    <row r="275" spans="1:9" ht="15">
+    <row r="275" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A275" s="17"/>
       <c r="B275" s="17" t="s">
         <v>21</v>
@@ -17613,7 +17613,7 @@
       </c>
       <c r="I275" s="17"/>
     </row>
-    <row r="276" spans="1:9" ht="15">
+    <row r="276" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A276" s="17" t="b">
         <v>0</v>
       </c>
@@ -17632,7 +17632,7 @@
       <c r="H276" s="17"/>
       <c r="I276" s="17"/>
     </row>
-    <row r="277" spans="1:9" ht="15">
+    <row r="277" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A277" s="17"/>
       <c r="B277" s="17" t="s">
         <v>21</v>
@@ -17657,7 +17657,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="278" spans="1:9" ht="15">
+    <row r="278" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A278" s="17"/>
       <c r="B278" s="17" t="s">
         <v>21</v>
@@ -17680,7 +17680,7 @@
       </c>
       <c r="I278" s="17"/>
     </row>
-    <row r="279" spans="1:9" ht="15">
+    <row r="279" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A279" s="17"/>
       <c r="B279" s="17" t="s">
         <v>21</v>
@@ -17703,7 +17703,7 @@
       </c>
       <c r="I279" s="17"/>
     </row>
-    <row r="280" spans="1:9" ht="15">
+    <row r="280" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A280" s="17"/>
       <c r="B280" s="17" t="s">
         <v>21</v>
@@ -17726,7 +17726,7 @@
       </c>
       <c r="I280" s="17"/>
     </row>
-    <row r="281" spans="1:9" ht="15">
+    <row r="281" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A281" s="17"/>
       <c r="B281" s="17" t="s">
         <v>21</v>
@@ -17749,7 +17749,7 @@
       </c>
       <c r="I281" s="17"/>
     </row>
-    <row r="282" spans="1:9" ht="15">
+    <row r="282" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A282" s="17"/>
       <c r="B282" s="17" t="s">
         <v>21</v>
@@ -17772,7 +17772,7 @@
       </c>
       <c r="I282" s="17"/>
     </row>
-    <row r="283" spans="1:9" ht="15">
+    <row r="283" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A283" s="17"/>
       <c r="B283" s="17" t="s">
         <v>21</v>
@@ -17795,7 +17795,7 @@
       </c>
       <c r="I283" s="17"/>
     </row>
-    <row r="284" spans="1:9" ht="15">
+    <row r="284" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A284" s="17"/>
       <c r="B284" s="17" t="s">
         <v>21</v>
@@ -17818,7 +17818,7 @@
       </c>
       <c r="I284" s="17"/>
     </row>
-    <row r="285" spans="1:9" ht="15">
+    <row r="285" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A285" s="17"/>
       <c r="B285" s="17" t="s">
         <v>21</v>
@@ -17841,7 +17841,7 @@
       </c>
       <c r="I285" s="17"/>
     </row>
-    <row r="286" spans="1:9" ht="15">
+    <row r="286" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A286" s="17"/>
       <c r="B286" s="17" t="s">
         <v>21</v>
@@ -17864,7 +17864,7 @@
       </c>
       <c r="I286" s="17"/>
     </row>
-    <row r="287" spans="1:9" ht="15">
+    <row r="287" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A287" s="17"/>
       <c r="B287" s="17" t="s">
         <v>21</v>
@@ -17887,7 +17887,7 @@
       </c>
       <c r="I287" s="17"/>
     </row>
-    <row r="288" spans="1:9" ht="15">
+    <row r="288" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A288" s="17" t="b">
         <v>0</v>
       </c>
@@ -17906,7 +17906,7 @@
       <c r="H288" s="17"/>
       <c r="I288" s="17"/>
     </row>
-    <row r="289" spans="1:9" ht="15">
+    <row r="289" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A289" s="17"/>
       <c r="B289" s="17" t="s">
         <v>21</v>
@@ -17929,7 +17929,7 @@
       </c>
       <c r="I289" s="17"/>
     </row>
-    <row r="290" spans="1:9" ht="15">
+    <row r="290" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A290" s="17" t="b">
         <v>0</v>
       </c>
@@ -17948,7 +17948,7 @@
       <c r="H290" s="17"/>
       <c r="I290" s="17"/>
     </row>
-    <row r="291" spans="1:9" ht="15">
+    <row r="291" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A291" s="17"/>
       <c r="B291" s="17" t="s">
         <v>21</v>
@@ -17969,7 +17969,7 @@
       <c r="H291" s="17"/>
       <c r="I291" s="17"/>
     </row>
-    <row r="292" spans="1:9" ht="15">
+    <row r="292" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A292" s="17" t="b">
         <v>0</v>
       </c>
@@ -17988,7 +17988,7 @@
       <c r="H292" s="17"/>
       <c r="I292" s="17"/>
     </row>
-    <row r="293" spans="1:9" ht="15">
+    <row r="293" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A293" s="17"/>
       <c r="B293" s="17" t="s">
         <v>21</v>
@@ -18009,7 +18009,7 @@
       <c r="H293" s="17"/>
       <c r="I293" s="17"/>
     </row>
-    <row r="294" spans="1:9" ht="15">
+    <row r="294" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A294" s="17" t="b">
         <v>0</v>
       </c>
@@ -18028,7 +18028,7 @@
       <c r="H294" s="17"/>
       <c r="I294" s="17"/>
     </row>
-    <row r="295" spans="1:9" ht="15">
+    <row r="295" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A295" s="17"/>
       <c r="B295" s="17" t="s">
         <v>21</v>
@@ -18049,7 +18049,7 @@
       <c r="H295" s="17"/>
       <c r="I295" s="17"/>
     </row>
-    <row r="296" spans="1:9" ht="15">
+    <row r="296" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A296" s="17" t="b">
         <v>0</v>
       </c>
@@ -18068,7 +18068,7 @@
       <c r="H296" s="17"/>
       <c r="I296" s="17"/>
     </row>
-    <row r="297" spans="1:9" ht="15">
+    <row r="297" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A297" s="17"/>
       <c r="B297" s="17" t="s">
         <v>21</v>
@@ -18091,7 +18091,7 @@
       </c>
       <c r="I297" s="17"/>
     </row>
-    <row r="298" spans="1:9" ht="15">
+    <row r="298" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A298" s="17" t="b">
         <v>0</v>
       </c>
@@ -18110,7 +18110,7 @@
       <c r="H298" s="17"/>
       <c r="I298" s="17"/>
     </row>
-    <row r="299" spans="1:9" ht="15">
+    <row r="299" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A299" s="17"/>
       <c r="B299" s="17" t="s">
         <v>21</v>
@@ -18135,7 +18135,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="300" spans="1:9" ht="15">
+    <row r="300" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A300" s="17"/>
       <c r="B300" s="17" t="s">
         <v>21</v>
@@ -18158,7 +18158,7 @@
       </c>
       <c r="I300" s="17"/>
     </row>
-    <row r="301" spans="1:9" ht="15">
+    <row r="301" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A301" s="17"/>
       <c r="B301" s="17" t="s">
         <v>21</v>
@@ -18181,7 +18181,7 @@
       </c>
       <c r="I301" s="17"/>
     </row>
-    <row r="302" spans="1:9" ht="15">
+    <row r="302" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A302" s="17"/>
       <c r="B302" s="17" t="s">
         <v>21</v>
@@ -18204,7 +18204,7 @@
       </c>
       <c r="I302" s="17"/>
     </row>
-    <row r="303" spans="1:9" ht="15">
+    <row r="303" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A303" s="17"/>
       <c r="B303" s="17" t="s">
         <v>21</v>
@@ -18227,7 +18227,7 @@
       </c>
       <c r="I303" s="17"/>
     </row>
-    <row r="304" spans="1:9" ht="15">
+    <row r="304" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A304" s="17"/>
       <c r="B304" s="17" t="s">
         <v>21</v>
@@ -18250,7 +18250,7 @@
       </c>
       <c r="I304" s="17"/>
     </row>
-    <row r="305" spans="1:9" ht="15">
+    <row r="305" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A305" s="17"/>
       <c r="B305" s="17" t="s">
         <v>21</v>
@@ -18273,7 +18273,7 @@
       </c>
       <c r="I305" s="17"/>
     </row>
-    <row r="306" spans="1:9" ht="15">
+    <row r="306" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A306" s="17"/>
       <c r="B306" s="17" t="s">
         <v>21</v>
@@ -18296,7 +18296,7 @@
       </c>
       <c r="I306" s="17"/>
     </row>
-    <row r="307" spans="1:9" ht="15">
+    <row r="307" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A307" s="17"/>
       <c r="B307" s="17" t="s">
         <v>21</v>
@@ -18319,7 +18319,7 @@
       </c>
       <c r="I307" s="17"/>
     </row>
-    <row r="308" spans="1:9" ht="15">
+    <row r="308" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A308" s="17" t="b">
         <v>0</v>
       </c>
@@ -18338,7 +18338,7 @@
       <c r="H308" s="17"/>
       <c r="I308" s="17"/>
     </row>
-    <row r="309" spans="1:9" ht="15">
+    <row r="309" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A309" s="17"/>
       <c r="B309" s="17" t="s">
         <v>21</v>
@@ -18361,7 +18361,7 @@
       </c>
       <c r="I309" s="17"/>
     </row>
-    <row r="310" spans="1:9" ht="15">
+    <row r="310" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A310" s="17"/>
       <c r="B310" s="17" t="s">
         <v>21</v>
@@ -18384,7 +18384,7 @@
       </c>
       <c r="I310" s="17"/>
     </row>
-    <row r="311" spans="1:9" ht="15">
+    <row r="311" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A311" s="17"/>
       <c r="B311" s="17" t="s">
         <v>21</v>
@@ -18407,7 +18407,7 @@
       </c>
       <c r="I311" s="17"/>
     </row>
-    <row r="312" spans="1:9" ht="15">
+    <row r="312" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A312" s="17"/>
       <c r="B312" s="17" t="s">
         <v>21</v>
@@ -18430,7 +18430,7 @@
       </c>
       <c r="I312" s="17"/>
     </row>
-    <row r="313" spans="1:9" ht="15">
+    <row r="313" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A313" s="17" t="b">
         <v>0</v>
       </c>
@@ -18449,7 +18449,7 @@
       <c r="H313" s="17"/>
       <c r="I313" s="17"/>
     </row>
-    <row r="314" spans="1:9" ht="15">
+    <row r="314" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A314" s="17"/>
       <c r="B314" s="17" t="s">
         <v>21</v>
@@ -18472,7 +18472,7 @@
       </c>
       <c r="I314" s="17"/>
     </row>
-    <row r="315" spans="1:9" ht="15">
+    <row r="315" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A315" s="17"/>
       <c r="B315" s="17" t="s">
         <v>21</v>
@@ -18495,7 +18495,7 @@
       </c>
       <c r="I315" s="17"/>
     </row>
-    <row r="316" spans="1:9" ht="15">
+    <row r="316" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A316" s="17"/>
       <c r="B316" s="17" t="s">
         <v>21</v>
@@ -18520,7 +18520,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="317" spans="1:9" ht="15">
+    <row r="317" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A317" s="17" t="b">
         <v>0</v>
       </c>
@@ -18539,7 +18539,7 @@
       <c r="H317" s="17"/>
       <c r="I317" s="17"/>
     </row>
-    <row r="318" spans="1:9" ht="15">
+    <row r="318" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A318" s="17"/>
       <c r="B318" s="17" t="s">
         <v>21</v>
@@ -18564,7 +18564,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="319" spans="1:9" ht="15">
+    <row r="319" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A319" s="17"/>
       <c r="B319" s="17" t="s">
         <v>21</v>
@@ -18587,7 +18587,7 @@
       </c>
       <c r="I319" s="17"/>
     </row>
-    <row r="320" spans="1:9" ht="15">
+    <row r="320" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A320" s="17" t="b">
         <v>0</v>
       </c>
@@ -18606,7 +18606,7 @@
       <c r="H320" s="17"/>
       <c r="I320" s="17"/>
     </row>
-    <row r="321" spans="1:9" ht="15">
+    <row r="321" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A321" s="17"/>
       <c r="B321" s="17" t="s">
         <v>21</v>
@@ -18627,7 +18627,7 @@
       <c r="H321" s="17"/>
       <c r="I321" s="17"/>
     </row>
-    <row r="322" spans="1:9" ht="15">
+    <row r="322" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A322" s="17"/>
       <c r="B322" s="17" t="s">
         <v>21</v>
@@ -18648,7 +18648,7 @@
       <c r="H322" s="17"/>
       <c r="I322" s="17"/>
     </row>
-    <row r="323" spans="1:9" ht="15">
+    <row r="323" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A323" s="17"/>
       <c r="B323" s="17" t="s">
         <v>21</v>
@@ -18671,7 +18671,7 @@
       </c>
       <c r="I323" s="17"/>
     </row>
-    <row r="324" spans="1:9" ht="15">
+    <row r="324" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A324" s="17" t="b">
         <v>0</v>
       </c>
@@ -18690,7 +18690,7 @@
       <c r="H324" s="17"/>
       <c r="I324" s="17"/>
     </row>
-    <row r="325" spans="1:9" ht="15">
+    <row r="325" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A325" s="17" t="b">
         <v>0</v>
       </c>
@@ -18709,7 +18709,7 @@
       <c r="H325" s="17"/>
       <c r="I325" s="17"/>
     </row>
-    <row r="326" spans="1:9" ht="15">
+    <row r="326" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A326" s="17"/>
       <c r="B326" s="17" t="s">
         <v>21</v>
@@ -18734,7 +18734,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="327" spans="1:9" ht="15">
+    <row r="327" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A327" s="17"/>
       <c r="B327" s="17" t="s">
         <v>21</v>
@@ -18759,7 +18759,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="328" spans="1:9">
+    <row r="328" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A328" t="b">
         <v>0</v>
       </c>
@@ -18773,7 +18773,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="329" spans="1:9">
+    <row r="329" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B329" t="s">
         <v>21</v>
       </c>
@@ -18796,7 +18796,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="330" spans="1:9">
+    <row r="330" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B330" t="s">
         <v>21</v>
       </c>
@@ -18816,7 +18816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:9">
+    <row r="331" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B331" t="s">
         <v>21</v>
       </c>
@@ -18836,7 +18836,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="332" spans="1:9">
+    <row r="332" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B332" t="s">
         <v>21</v>
       </c>
@@ -18856,7 +18856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:9">
+    <row r="333" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B333" t="s">
         <v>21</v>
       </c>
@@ -18873,7 +18873,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="334" spans="1:9">
+    <row r="334" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B334" t="s">
         <v>21</v>
       </c>
@@ -18896,7 +18896,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="335" spans="1:9">
+    <row r="335" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B335" t="s">
         <v>21</v>
       </c>
@@ -18919,7 +18919,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="336" spans="1:9">
+    <row r="336" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A336" t="b">
         <v>0</v>
       </c>
@@ -18933,7 +18933,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="337" spans="1:16">
+    <row r="337" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B337" t="s">
         <v>21</v>
       </c>
@@ -18956,7 +18956,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="338" spans="1:16">
+    <row r="338" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B338" t="s">
         <v>21</v>
       </c>
@@ -18979,7 +18979,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="339" spans="1:16">
+    <row r="339" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B339" t="s">
         <v>21</v>
       </c>
@@ -18999,7 +18999,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="340" spans="1:16">
+    <row r="340" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B340" t="s">
         <v>21</v>
       </c>
@@ -19019,7 +19019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:16">
+    <row r="341" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B341" t="s">
         <v>21</v>
       </c>
@@ -19036,7 +19036,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="342" spans="1:16">
+    <row r="342" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A342" s="1" t="b">
         <v>0</v>
       </c>
@@ -19062,7 +19062,7 @@
       <c r="O342" s="1"/>
       <c r="P342" s="1"/>
     </row>
-    <row r="343" spans="1:16">
+    <row r="343" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A343" s="1"/>
       <c r="B343" t="s">
         <v>21</v>
@@ -19091,7 +19091,7 @@
       <c r="O343" s="1"/>
       <c r="P343" s="1"/>
     </row>
-    <row r="344" spans="1:16" ht="15">
+    <row r="344" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A344" s="17"/>
       <c r="B344" t="s">
         <v>21</v>
@@ -19130,7 +19130,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="345" spans="1:16">
+    <row r="345" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A345" t="b">
         <v>0</v>
       </c>
@@ -19144,7 +19144,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="346" spans="1:16">
+    <row r="346" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B346" t="s">
         <v>21</v>
       </c>
@@ -19164,7 +19164,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="347" spans="1:16">
+    <row r="347" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A347" t="b">
         <v>0</v>
       </c>
@@ -19178,7 +19178,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="348" spans="1:16">
+    <row r="348" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B348" t="s">
         <v>21</v>
       </c>
@@ -19198,7 +19198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:16">
+    <row r="349" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B349" t="s">
         <v>21</v>
       </c>
@@ -19218,7 +19218,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="350" spans="1:16">
+    <row r="350" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B350" t="s">
         <v>21</v>
       </c>
@@ -19238,7 +19238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:16">
+    <row r="351" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B351" t="s">
         <v>21</v>
       </c>
@@ -19258,7 +19258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:16">
+    <row r="352" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B352" t="s">
         <v>21</v>
       </c>
@@ -19278,7 +19278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:18">
+    <row r="353" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B353" t="s">
         <v>21</v>
       </c>
@@ -19298,7 +19298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:18">
+    <row r="354" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B354" t="s">
         <v>21</v>
       </c>
@@ -19318,7 +19318,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="355" spans="1:18">
+    <row r="355" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B355" t="s">
         <v>21</v>
       </c>
@@ -19338,7 +19338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:18">
+    <row r="356" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B356" t="s">
         <v>21</v>
       </c>
@@ -19358,7 +19358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:18">
+    <row r="357" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A357" t="b">
         <v>0</v>
       </c>
@@ -19372,7 +19372,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="358" spans="1:18">
+    <row r="358" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B358" t="s">
         <v>21</v>
       </c>
@@ -19392,7 +19392,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="359" spans="1:18">
+    <row r="359" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B359" t="s">
         <v>21</v>
       </c>
@@ -19412,7 +19412,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="360" spans="1:18" s="1" customFormat="1">
+    <row r="360" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A360" t="b">
         <v>0</v>
       </c>
@@ -19428,7 +19428,7 @@
       <c r="H360" s="4"/>
       <c r="I360" s="4"/>
     </row>
-    <row r="361" spans="1:18" s="1" customFormat="1">
+    <row r="361" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B361" t="s">
         <v>21</v>
       </c>
@@ -19454,7 +19454,7 @@
       <c r="J361"/>
       <c r="K361"/>
     </row>
-    <row r="362" spans="1:18" s="1" customFormat="1" ht="15">
+    <row r="362" spans="1:18" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A362" s="17"/>
       <c r="B362" t="s">
         <v>22</v>
@@ -19495,7 +19495,7 @@
       <c r="Q362"/>
       <c r="R362"/>
     </row>
-    <row r="363" spans="1:18">
+    <row r="363" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A363" t="b">
         <v>0</v>
       </c>
@@ -19509,7 +19509,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="364" spans="1:18">
+    <row r="364" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B364" t="s">
         <v>21</v>
       </c>
@@ -19529,7 +19529,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="365" spans="1:18">
+    <row r="365" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A365" t="b">
         <v>0</v>
       </c>
@@ -19543,7 +19543,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="366" spans="1:18">
+    <row r="366" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B366" t="s">
         <v>21</v>
       </c>
@@ -19582,17 +19582,17 @@
       <selection activeCell="A17" sqref="A17:A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.33203125" customWidth="1"/>
-    <col min="5" max="5" width="16.1640625" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" customWidth="1"/>
     <col min="8" max="8" width="22.33203125" customWidth="1"/>
-    <col min="17" max="17" width="24.5" customWidth="1"/>
+    <col min="17" max="17" width="24.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>441</v>
       </c>
@@ -19603,7 +19603,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="30" customFormat="1">
+    <row r="2" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="30" t="s">
         <v>589</v>
       </c>
@@ -19617,7 +19617,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="30" customFormat="1">
+    <row r="3" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="30" t="s">
         <v>592</v>
       </c>
@@ -19631,7 +19631,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="30" customFormat="1">
+    <row r="4" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="30" t="s">
         <v>594</v>
       </c>
@@ -19645,7 +19645,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="30" customFormat="1">
+    <row r="5" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="30" t="s">
         <v>596</v>
       </c>
@@ -19659,7 +19659,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="30" customFormat="1">
+    <row r="6" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="30" t="s">
         <v>598</v>
       </c>
@@ -19673,7 +19673,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="30" customFormat="1">
+    <row r="7" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="30" t="s">
         <v>440</v>
       </c>
@@ -19687,7 +19687,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="30" customFormat="1">
+    <row r="8" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="30" t="s">
         <v>601</v>
       </c>
@@ -19701,7 +19701,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="30" customFormat="1">
+    <row r="9" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="30" t="s">
         <v>603</v>
       </c>
@@ -19715,7 +19715,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>569</v>
       </c>
@@ -19729,7 +19729,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>454</v>
       </c>
@@ -19743,7 +19743,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>452</v>
       </c>
@@ -19754,8 +19754,8 @@
         <v>544</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="30" customFormat="1"/>
-    <row r="16" spans="1:21">
+    <row r="14" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>547</v>
       </c>
@@ -19781,7 +19781,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>548</v>
       </c>
@@ -19822,7 +19822,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -19863,7 +19863,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>542</v>
       </c>
@@ -19895,7 +19895,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>550</v>
       </c>
@@ -19927,7 +19927,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>549</v>
       </c>
@@ -19956,7 +19956,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>551</v>
       </c>
@@ -19988,7 +19988,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="23" spans="1:17">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>552</v>
       </c>
@@ -20008,7 +20008,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="24" spans="1:17">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>682</v>
       </c>
@@ -20031,7 +20031,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="L25" s="1" t="s">
         <v>558</v>
       </c>
@@ -20042,7 +20042,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="26" spans="1:17">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="L26" s="1" t="s">
         <v>539</v>
       </c>
@@ -20050,7 +20050,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="27" spans="1:17">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="L27" s="1" t="s">
         <v>541</v>
       </c>

--- a/projects/office_calibration.xlsx
+++ b/projects/office_calibration.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24709"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="13176" tabRatio="562" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23260" windowHeight="13180" tabRatio="562" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="9" r:id="rId1"/>
@@ -2014,9 +2014,6 @@
     <t>createConstructionSet</t>
   </si>
   <si>
-    <t>DOE Ref 2004</t>
-  </si>
-  <si>
     <t>ASHRAE 169-2006-5B</t>
   </si>
   <si>
@@ -2591,6 +2588,9 @@
   </si>
   <si>
     <t>Alter Design Day Thermostats</t>
+  </si>
+  <si>
+    <t>DOE Ref 1980-2004</t>
   </si>
 </sst>
 </file>
@@ -2600,7 +2600,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2668,6 +2668,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF333333"/>
+      <name val="Helvetica Neue"/>
     </font>
   </fonts>
   <fills count="14">
@@ -4597,7 +4602,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -4703,6 +4708,7 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1836">
     <cellStyle name="Comma" xfId="1749" builtinId="3"/>
@@ -6845,17 +6851,17 @@
       <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="81.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" ht="28">
       <c r="A1" s="36" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" ht="28">
       <c r="A2" s="36" t="s">
         <v>41</v>
       </c>
@@ -6879,17 +6885,17 @@
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="25.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="30.33203125" style="26" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29" style="1" customWidth="1"/>
-    <col min="4" max="4" width="33.109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="33.1640625" style="2" customWidth="1"/>
     <col min="5" max="5" width="61.6640625" style="1" customWidth="1"/>
     <col min="6" max="16384" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="A1" s="19"/>
       <c r="B1" s="28"/>
       <c r="C1" s="19"/>
@@ -6898,7 +6904,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" s="12" customFormat="1">
       <c r="A2" s="11" t="s">
         <v>435</v>
       </c>
@@ -6907,7 +6913,7 @@
       <c r="D2" s="13"/>
       <c r="E2" s="13"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>436</v>
       </c>
@@ -6918,18 +6924,18 @@
         <v>437</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="28">
       <c r="A4" s="1" t="s">
         <v>456</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="42">
       <c r="A5" s="1" t="s">
         <v>469</v>
       </c>
@@ -6940,18 +6946,18 @@
         <v>614</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="46.25" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>470</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
         <v>442</v>
       </c>
@@ -6970,7 +6976,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="28">
       <c r="A8" s="1" t="s">
         <v>443</v>
       </c>
@@ -6989,7 +6995,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
         <v>458</v>
       </c>
@@ -7002,7 +7008,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" s="12" customFormat="1">
       <c r="A11" s="11" t="s">
         <v>28</v>
       </c>
@@ -7011,40 +7017,40 @@
       <c r="D11" s="13"/>
       <c r="E11" s="13"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="E14" s="31" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
         <v>462</v>
       </c>
@@ -7055,7 +7061,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
         <v>463</v>
       </c>
@@ -7066,7 +7072,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
         <v>464</v>
       </c>
@@ -7077,7 +7083,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
         <v>466</v>
       </c>
@@ -7088,7 +7094,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" s="2" customFormat="1" ht="42">
       <c r="A20" s="11" t="s">
         <v>27</v>
       </c>
@@ -7101,7 +7107,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
         <v>451</v>
       </c>
@@ -7109,11 +7115,11 @@
         <v>542</v>
       </c>
     </row>
-    <row r="22" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" s="31" customFormat="1">
       <c r="B22" s="26"/>
       <c r="D22" s="2"/>
     </row>
-    <row r="23" spans="1:5" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" s="2" customFormat="1" ht="42">
       <c r="A23" s="11" t="s">
         <v>450</v>
       </c>
@@ -7130,7 +7136,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5">
       <c r="A24" s="31" t="s">
         <v>538</v>
       </c>
@@ -7142,7 +7148,7 @@
       </c>
       <c r="D24" s="35"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5">
       <c r="A25" s="31" t="s">
         <v>543</v>
       </c>
@@ -7154,7 +7160,7 @@
       </c>
       <c r="D25" s="35"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5">
       <c r="A26" s="31" t="s">
         <v>557</v>
       </c>
@@ -7166,7 +7172,7 @@
       </c>
       <c r="D26" s="35"/>
     </row>
-    <row r="27" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" s="31" customFormat="1">
       <c r="A27" s="31" t="s">
         <v>558</v>
       </c>
@@ -7178,7 +7184,7 @@
       </c>
       <c r="D27" s="35"/>
     </row>
-    <row r="28" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" s="31" customFormat="1">
       <c r="A28" s="31" t="s">
         <v>539</v>
       </c>
@@ -7188,7 +7194,7 @@
       <c r="C28" s="30"/>
       <c r="D28" s="35"/>
     </row>
-    <row r="29" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" s="31" customFormat="1">
       <c r="A29" s="31" t="s">
         <v>541</v>
       </c>
@@ -7200,49 +7206,49 @@
       </c>
       <c r="D29" s="35"/>
     </row>
-    <row r="30" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" s="31" customFormat="1">
       <c r="A30" s="31" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="B30" s="30">
         <v>1</v>
       </c>
       <c r="C30" s="34" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="D30" s="35"/>
     </row>
-    <row r="31" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" s="31" customFormat="1">
       <c r="B31" s="26"/>
       <c r="C31" s="34"/>
       <c r="D31" s="35"/>
     </row>
-    <row r="32" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" s="31" customFormat="1">
       <c r="B32" s="26"/>
       <c r="C32" s="34"/>
       <c r="D32" s="35"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5">
       <c r="A33" s="31"/>
       <c r="C33" s="34"/>
       <c r="D33" s="35"/>
     </row>
-    <row r="34" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" s="31" customFormat="1">
       <c r="B34" s="26"/>
       <c r="C34" s="34"/>
       <c r="D34" s="35"/>
     </row>
-    <row r="35" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" s="31" customFormat="1">
       <c r="B35" s="26"/>
       <c r="C35" s="26"/>
       <c r="D35" s="2"/>
     </row>
-    <row r="36" spans="1:5" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" s="2" customFormat="1" ht="28">
       <c r="A36" s="11" t="s">
         <v>33</v>
       </c>
       <c r="B36" s="27" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="C36" s="11" t="s">
         <v>31</v>
@@ -7250,15 +7256,15 @@
       <c r="D36" s="11"/>
       <c r="E36" s="13"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5">
       <c r="A37" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B37" s="25" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" s="2" customFormat="1" ht="28">
       <c r="A39" s="11" t="s">
         <v>30</v>
       </c>
@@ -7269,25 +7275,25 @@
         <v>38</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="E39" s="13" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="40" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" s="31" customFormat="1">
       <c r="A40" s="31" t="s">
         <v>32</v>
       </c>
       <c r="C40" s="31" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="D40" s="31" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="E40" s="2"/>
     </row>
-    <row r="42" spans="1:5" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" s="2" customFormat="1" ht="56">
       <c r="A42" s="11" t="s">
         <v>35</v>
       </c>
@@ -7295,25 +7301,25 @@
         <v>34</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="D42" s="11"/>
       <c r="E42" s="13" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5">
       <c r="A43" s="31" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B43" s="26" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="C43" s="31" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" s="31" customFormat="1">
       <c r="B44" s="26"/>
       <c r="D44" s="2"/>
     </row>
@@ -7343,37 +7349,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y224"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A102" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N106" sqref="N106"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4:H30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="31" customWidth="1"/>
+    <col min="1" max="1" width="9.1640625" style="31" customWidth="1"/>
     <col min="2" max="2" width="47" style="31" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="47" style="31" customWidth="1"/>
-    <col min="4" max="4" width="39.109375" style="31" customWidth="1"/>
-    <col min="5" max="5" width="24.109375" style="31" customWidth="1"/>
+    <col min="4" max="4" width="39.1640625" style="31" customWidth="1"/>
+    <col min="5" max="5" width="24.1640625" style="31" customWidth="1"/>
     <col min="6" max="6" width="9.6640625" style="31" customWidth="1"/>
     <col min="7" max="7" width="9.33203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.44140625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="15.5" style="4" customWidth="1"/>
     <col min="9" max="9" width="8.6640625" style="4" customWidth="1"/>
-    <col min="10" max="10" width="7.109375" style="31" customWidth="1"/>
-    <col min="11" max="11" width="8.109375" style="31" customWidth="1"/>
+    <col min="10" max="10" width="7.1640625" style="31" customWidth="1"/>
+    <col min="11" max="11" width="8.1640625" style="31" customWidth="1"/>
     <col min="12" max="12" width="6.6640625" style="31" customWidth="1"/>
     <col min="13" max="14" width="7.6640625" style="31" customWidth="1"/>
-    <col min="15" max="15" width="11.44140625" style="31"/>
-    <col min="16" max="16" width="11.44140625" style="31" customWidth="1"/>
+    <col min="15" max="15" width="11.5" style="31"/>
+    <col min="16" max="16" width="11.5" style="31" customWidth="1"/>
     <col min="17" max="17" width="23" style="31" customWidth="1"/>
     <col min="18" max="18" width="27.6640625" style="31" customWidth="1"/>
-    <col min="19" max="19" width="46.109375" style="31" customWidth="1"/>
-    <col min="20" max="22" width="11.44140625" style="31"/>
+    <col min="19" max="19" width="46.1640625" style="31" customWidth="1"/>
+    <col min="20" max="22" width="11.5" style="31"/>
     <col min="23" max="23" width="13.33203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="11.44140625" style="31"/>
+    <col min="24" max="16384" width="11.5" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:25" ht="18">
       <c r="A1" s="5"/>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -7408,7 +7414,7 @@
       <c r="X1" s="52"/>
       <c r="Y1" s="52"/>
     </row>
-    <row r="2" spans="1:25" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" s="8" customFormat="1" ht="15">
       <c r="A2" s="8" t="s">
         <v>3</v>
       </c>
@@ -7424,7 +7430,7 @@
       <c r="H2" s="9"/>
       <c r="I2" s="9"/>
     </row>
-    <row r="3" spans="1:25" s="14" customFormat="1" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" s="14" customFormat="1" ht="45">
       <c r="A3" s="14" t="s">
         <v>1</v>
       </c>
@@ -7498,18 +7504,18 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:25" s="38" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" s="38" customFormat="1">
       <c r="A4" s="38" t="b">
         <v>1</v>
       </c>
       <c r="B4" s="38" t="s">
+        <v>731</v>
+      </c>
+      <c r="C4" s="38" t="s">
         <v>732</v>
       </c>
-      <c r="C4" s="38" t="s">
-        <v>733</v>
-      </c>
       <c r="D4" s="38" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="E4" s="38" t="s">
         <v>68</v>
@@ -7517,46 +7523,46 @@
       <c r="G4" s="39"/>
       <c r="H4" s="39"/>
     </row>
-    <row r="5" spans="1:25" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" s="30" customFormat="1">
       <c r="B5" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D5" s="30" t="s">
+        <v>769</v>
+      </c>
+      <c r="E5" s="30" t="s">
         <v>770</v>
-      </c>
-      <c r="E5" s="30" t="s">
-        <v>771</v>
       </c>
       <c r="F5" s="30" t="s">
         <v>104</v>
       </c>
       <c r="H5" s="30" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25" s="30" customFormat="1" x14ac:dyDescent="0.3">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" s="30" customFormat="1">
       <c r="B6" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D6" s="30" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="E6" s="30" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="F6" s="30" t="s">
         <v>104</v>
       </c>
       <c r="H6" s="31" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25" s="38" customFormat="1" x14ac:dyDescent="0.3">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" s="38" customFormat="1">
       <c r="A7" s="38" t="b">
         <v>1</v>
       </c>
       <c r="B7" s="38" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C7" s="38" t="s">
         <v>648</v>
@@ -7570,7 +7576,7 @@
       <c r="G7" s="39"/>
       <c r="H7" s="39"/>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:25">
       <c r="B8" s="31" t="s">
         <v>21</v>
       </c>
@@ -7584,7 +7590,7 @@
         <v>618</v>
       </c>
       <c r="H8" s="31" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
@@ -7595,7 +7601,7 @@
       <c r="P8" s="40"/>
       <c r="Q8" s="2"/>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:25">
       <c r="B9" s="31" t="s">
         <v>21</v>
       </c>
@@ -7609,7 +7615,7 @@
         <v>618</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>657</v>
+        <v>849</v>
       </c>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
@@ -7618,7 +7624,7 @@
       <c r="O9" s="4"/>
       <c r="P9" s="3"/>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:25">
       <c r="B10" s="31" t="s">
         <v>21</v>
       </c>
@@ -7632,16 +7638,16 @@
         <v>618</v>
       </c>
       <c r="H10" s="31" t="s">
+        <v>657</v>
+      </c>
+      <c r="I10" s="31"/>
+    </row>
+    <row r="11" spans="1:25">
+      <c r="B11" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="31" t="s">
         <v>658</v>
-      </c>
-      <c r="I10" s="31"/>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="B11" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="31" t="s">
-        <v>659</v>
       </c>
       <c r="E11" s="31" t="s">
         <v>655</v>
@@ -7654,12 +7660,12 @@
       </c>
       <c r="I11" s="31"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:25">
       <c r="B12" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D12" s="31" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="E12" s="31" t="s">
         <v>656</v>
@@ -7672,18 +7678,18 @@
       </c>
       <c r="I12" s="31"/>
     </row>
-    <row r="13" spans="1:25" s="38" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:25" s="38" customFormat="1">
       <c r="A13" s="38" t="b">
         <v>1</v>
       </c>
       <c r="B13" s="38" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="C13" s="38" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D13" s="38" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E13" s="38" t="s">
         <v>68</v>
@@ -7691,33 +7697,35 @@
       <c r="G13" s="39"/>
       <c r="H13" s="39"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:25" ht="17">
+      <c r="A14" s="30"/>
       <c r="B14" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="31" t="s">
-        <v>662</v>
-      </c>
-      <c r="E14" s="31" t="s">
+      <c r="C14" s="30"/>
+      <c r="D14" s="30" t="s">
+        <v>661</v>
+      </c>
+      <c r="E14" s="30" t="s">
         <v>198</v>
       </c>
-      <c r="F14" s="31" t="s">
+      <c r="F14" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="G14" s="31" t="s">
-        <v>766</v>
-      </c>
-      <c r="H14" s="31">
-        <v>12717</v>
+      <c r="G14" s="30" t="s">
+        <v>765</v>
+      </c>
+      <c r="H14" s="53">
+        <v>104666</v>
       </c>
       <c r="I14" s="31"/>
     </row>
-    <row r="15" spans="1:25" s="43" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:25" s="43" customFormat="1">
       <c r="B15" s="43" t="s">
         <v>22</v>
       </c>
       <c r="D15" s="43" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="E15" s="43" t="s">
         <v>200</v>
@@ -7745,10 +7753,10 @@
         <v>0.1</v>
       </c>
       <c r="Q15" s="51" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25" s="30" customFormat="1" x14ac:dyDescent="0.3">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" s="30" customFormat="1">
       <c r="B16" s="30" t="s">
         <v>21</v>
       </c>
@@ -7762,15 +7770,15 @@
         <v>65</v>
       </c>
       <c r="H16" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" s="43" customFormat="1">
       <c r="B17" s="43" t="s">
         <v>22</v>
       </c>
       <c r="D17" s="43" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="E17" s="43" t="s">
         <v>204</v>
@@ -7779,10 +7787,10 @@
         <v>64</v>
       </c>
       <c r="G17" s="43" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="H17" s="43">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J17" s="43">
         <v>8</v>
@@ -7801,18 +7809,18 @@
         <v>0.1</v>
       </c>
       <c r="Q17" s="51" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" s="30" customFormat="1">
       <c r="B18" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D18" s="30" t="s">
+        <v>739</v>
+      </c>
+      <c r="E18" s="30" t="s">
         <v>740</v>
-      </c>
-      <c r="E18" s="30" t="s">
-        <v>741</v>
       </c>
       <c r="F18" s="30" t="s">
         <v>64</v>
@@ -7821,15 +7829,15 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="19" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" s="30" customFormat="1">
       <c r="B19" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D19" s="30" t="s">
+        <v>741</v>
+      </c>
+      <c r="E19" s="30" t="s">
         <v>742</v>
-      </c>
-      <c r="E19" s="30" t="s">
-        <v>743</v>
       </c>
       <c r="F19" s="30" t="s">
         <v>64</v>
@@ -7838,15 +7846,15 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="20" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" s="30" customFormat="1">
       <c r="B20" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D20" s="30" t="s">
+        <v>743</v>
+      </c>
+      <c r="E20" s="30" t="s">
         <v>744</v>
-      </c>
-      <c r="E20" s="30" t="s">
-        <v>745</v>
       </c>
       <c r="F20" s="30" t="s">
         <v>64</v>
@@ -7855,15 +7863,15 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="21" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" s="30" customFormat="1">
       <c r="B21" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D21" s="30" t="s">
+        <v>745</v>
+      </c>
+      <c r="E21" s="30" t="s">
         <v>746</v>
-      </c>
-      <c r="E21" s="30" t="s">
-        <v>747</v>
       </c>
       <c r="F21" s="30" t="s">
         <v>64</v>
@@ -7872,15 +7880,15 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="22" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" s="30" customFormat="1">
       <c r="B22" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D22" s="30" t="s">
+        <v>747</v>
+      </c>
+      <c r="E22" s="30" t="s">
         <v>748</v>
-      </c>
-      <c r="E22" s="30" t="s">
-        <v>749</v>
       </c>
       <c r="F22" s="30" t="s">
         <v>64</v>
@@ -7889,15 +7897,15 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="23" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" s="30" customFormat="1">
       <c r="B23" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D23" s="30" t="s">
+        <v>749</v>
+      </c>
+      <c r="E23" s="30" t="s">
         <v>750</v>
-      </c>
-      <c r="E23" s="30" t="s">
-        <v>751</v>
       </c>
       <c r="F23" s="30" t="s">
         <v>64</v>
@@ -7906,15 +7914,15 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="24" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" s="30" customFormat="1">
       <c r="B24" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D24" s="30" t="s">
+        <v>751</v>
+      </c>
+      <c r="E24" s="30" t="s">
         <v>752</v>
-      </c>
-      <c r="E24" s="30" t="s">
-        <v>753</v>
       </c>
       <c r="F24" s="30" t="s">
         <v>64</v>
@@ -7923,15 +7931,15 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" s="30" customFormat="1">
       <c r="B25" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D25" s="30" t="s">
+        <v>753</v>
+      </c>
+      <c r="E25" s="30" t="s">
         <v>754</v>
-      </c>
-      <c r="E25" s="30" t="s">
-        <v>755</v>
       </c>
       <c r="F25" s="30" t="s">
         <v>64</v>
@@ -7940,15 +7948,15 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="26" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" s="30" customFormat="1">
       <c r="B26" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="30" t="s">
+        <v>755</v>
+      </c>
+      <c r="E26" s="30" t="s">
         <v>756</v>
-      </c>
-      <c r="E26" s="30" t="s">
-        <v>757</v>
       </c>
       <c r="F26" s="30" t="s">
         <v>64</v>
@@ -7957,15 +7965,15 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" s="30" customFormat="1">
       <c r="B27" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="30" t="s">
+        <v>757</v>
+      </c>
+      <c r="E27" s="30" t="s">
         <v>758</v>
-      </c>
-      <c r="E27" s="30" t="s">
-        <v>759</v>
       </c>
       <c r="F27" s="30" t="s">
         <v>64</v>
@@ -7974,15 +7982,15 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="28" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" s="30" customFormat="1">
       <c r="B28" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D28" s="30" t="s">
+        <v>759</v>
+      </c>
+      <c r="E28" s="30" t="s">
         <v>760</v>
-      </c>
-      <c r="E28" s="30" t="s">
-        <v>761</v>
       </c>
       <c r="F28" s="30" t="s">
         <v>64</v>
@@ -7991,15 +7999,15 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="29" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" s="30" customFormat="1">
       <c r="B29" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D29" s="30" t="s">
+        <v>761</v>
+      </c>
+      <c r="E29" s="30" t="s">
         <v>762</v>
-      </c>
-      <c r="E29" s="30" t="s">
-        <v>763</v>
       </c>
       <c r="F29" s="30" t="s">
         <v>64</v>
@@ -8008,15 +8016,15 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" s="30" customFormat="1">
       <c r="B30" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D30" s="30" t="s">
+        <v>763</v>
+      </c>
+      <c r="E30" s="30" t="s">
         <v>764</v>
-      </c>
-      <c r="E30" s="30" t="s">
-        <v>765</v>
       </c>
       <c r="F30" s="30" t="s">
         <v>64</v>
@@ -8025,18 +8033,18 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="31" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17" s="38" customFormat="1">
       <c r="A31" s="38" t="b">
         <v>1</v>
       </c>
       <c r="B31" s="38" t="s">
+        <v>664</v>
+      </c>
+      <c r="C31" s="38" t="s">
         <v>665</v>
       </c>
-      <c r="C31" s="38" t="s">
-        <v>666</v>
-      </c>
       <c r="D31" s="38" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="E31" s="38" t="s">
         <v>68</v>
@@ -8044,15 +8052,15 @@
       <c r="G31" s="39"/>
       <c r="H31" s="39"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17">
       <c r="B32" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D32" s="31" t="s">
+        <v>676</v>
+      </c>
+      <c r="E32" s="31" t="s">
         <v>677</v>
-      </c>
-      <c r="E32" s="31" t="s">
-        <v>678</v>
       </c>
       <c r="F32" s="31" t="s">
         <v>619</v>
@@ -8060,18 +8068,18 @@
       <c r="H32" s="31"/>
       <c r="I32" s="31"/>
     </row>
-    <row r="33" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:17" s="38" customFormat="1">
       <c r="A33" s="38" t="b">
         <v>1</v>
       </c>
       <c r="B33" s="38" t="s">
+        <v>814</v>
+      </c>
+      <c r="C33" s="38" t="s">
         <v>815</v>
       </c>
-      <c r="C33" s="38" t="s">
-        <v>816</v>
-      </c>
       <c r="D33" s="38" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E33" s="38" t="s">
         <v>68</v>
@@ -8079,15 +8087,15 @@
       <c r="G33" s="39"/>
       <c r="H33" s="39"/>
     </row>
-    <row r="34" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:17" s="43" customFormat="1">
       <c r="B34" s="43" t="s">
         <v>22</v>
       </c>
       <c r="D34" s="43" t="s">
+        <v>784</v>
+      </c>
+      <c r="E34" s="43" t="s">
         <v>785</v>
-      </c>
-      <c r="E34" s="43" t="s">
-        <v>786</v>
       </c>
       <c r="F34" s="43" t="s">
         <v>64</v>
@@ -8112,18 +8120,18 @@
         <v>0.01</v>
       </c>
       <c r="Q34" s="43" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.3">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" s="43" customFormat="1">
       <c r="B35" s="43" t="s">
         <v>22</v>
       </c>
       <c r="D35" s="43" t="s">
+        <v>786</v>
+      </c>
+      <c r="E35" s="43" t="s">
         <v>787</v>
-      </c>
-      <c r="E35" s="43" t="s">
-        <v>788</v>
       </c>
       <c r="F35" s="43" t="s">
         <v>64</v>
@@ -8148,15 +8156,15 @@
         <v>0.01</v>
       </c>
       <c r="Q35" s="43" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.3">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" s="38" customFormat="1">
       <c r="A36" s="38" t="b">
         <v>1</v>
       </c>
       <c r="B36" s="38" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="C36" s="38" t="s">
         <v>74</v>
@@ -8170,12 +8178,12 @@
       <c r="G36" s="39"/>
       <c r="H36" s="39"/>
     </row>
-    <row r="37" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:17" s="43" customFormat="1">
       <c r="B37" s="43" t="s">
         <v>22</v>
       </c>
       <c r="D37" s="43" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="E37" s="43" t="s">
         <v>75</v>
@@ -8184,7 +8192,7 @@
         <v>619</v>
       </c>
       <c r="G37" s="43" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="H37" s="43">
         <v>0</v>
@@ -8206,15 +8214,15 @@
         <v>5</v>
       </c>
       <c r="Q37" s="43" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.3">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" s="38" customFormat="1">
       <c r="A38" s="38" t="b">
         <v>1</v>
       </c>
       <c r="B38" s="38" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C38" s="38" t="s">
         <v>76</v>
@@ -8228,12 +8236,12 @@
       <c r="G38" s="39"/>
       <c r="H38" s="39"/>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:17">
       <c r="B39" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D39" s="31" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="E39" s="31" t="s">
         <v>77</v>
@@ -8263,15 +8271,15 @@
       </c>
       <c r="P39" s="40"/>
       <c r="Q39" s="31" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17">
       <c r="B40" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D40" s="31" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E40" s="31" t="s">
         <v>79</v>
@@ -8280,7 +8288,7 @@
         <v>619</v>
       </c>
       <c r="G40" s="31" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H40" s="31">
         <v>30</v>
@@ -8294,12 +8302,12 @@
       <c r="P40" s="40"/>
       <c r="Q40" s="2"/>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:17">
       <c r="B41" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D41" s="31" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="E41" s="31" t="s">
         <v>81</v>
@@ -8308,20 +8316,20 @@
         <v>618</v>
       </c>
       <c r="G41" s="31" t="s">
+        <v>667</v>
+      </c>
+      <c r="H41" s="31" t="s">
         <v>668</v>
-      </c>
-      <c r="H41" s="31" t="s">
-        <v>669</v>
       </c>
       <c r="I41" s="3"/>
       <c r="J41" s="3"/>
     </row>
-    <row r="42" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:17" s="38" customFormat="1">
       <c r="A42" s="38" t="b">
         <v>1</v>
       </c>
       <c r="B42" s="38" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="C42" s="38" t="s">
         <v>76</v>
@@ -8335,12 +8343,12 @@
       <c r="G42" s="39"/>
       <c r="H42" s="39"/>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:17">
       <c r="B43" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D43" s="31" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E43" s="31" t="s">
         <v>77</v>
@@ -8370,15 +8378,15 @@
       </c>
       <c r="P43" s="40"/>
       <c r="Q43" s="31" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17">
       <c r="B44" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D44" s="31" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E44" s="31" t="s">
         <v>79</v>
@@ -8387,7 +8395,7 @@
         <v>619</v>
       </c>
       <c r="G44" s="31" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H44" s="31">
         <v>30</v>
@@ -8401,12 +8409,12 @@
       <c r="P44" s="40"/>
       <c r="Q44" s="2"/>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:17">
       <c r="B45" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D45" s="31" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="E45" s="31" t="s">
         <v>81</v>
@@ -8415,7 +8423,7 @@
         <v>618</v>
       </c>
       <c r="G45" s="31" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H45" s="31" t="s">
         <v>82</v>
@@ -8423,12 +8431,12 @@
       <c r="I45" s="3"/>
       <c r="J45" s="3"/>
     </row>
-    <row r="46" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:17" s="38" customFormat="1">
       <c r="A46" s="38" t="b">
         <v>1</v>
       </c>
       <c r="B46" s="38" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="C46" s="38" t="s">
         <v>76</v>
@@ -8442,12 +8450,12 @@
       <c r="G46" s="39"/>
       <c r="H46" s="39"/>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:17">
       <c r="B47" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D47" s="31" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="E47" s="31" t="s">
         <v>77</v>
@@ -8477,15 +8485,15 @@
       </c>
       <c r="P47" s="40"/>
       <c r="Q47" s="31" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17">
       <c r="B48" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D48" s="31" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E48" s="31" t="s">
         <v>79</v>
@@ -8494,7 +8502,7 @@
         <v>619</v>
       </c>
       <c r="G48" s="31" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H48" s="31">
         <v>30</v>
@@ -8508,12 +8516,12 @@
       <c r="P48" s="40"/>
       <c r="Q48" s="2"/>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:17">
       <c r="B49" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D49" s="31" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="E49" s="31" t="s">
         <v>81</v>
@@ -8522,20 +8530,20 @@
         <v>618</v>
       </c>
       <c r="G49" s="31" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H49" s="31" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="I49" s="3"/>
       <c r="J49" s="3"/>
     </row>
-    <row r="50" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:17" s="38" customFormat="1">
       <c r="A50" s="38" t="b">
         <v>1</v>
       </c>
       <c r="B50" s="38" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C50" s="38" t="s">
         <v>76</v>
@@ -8549,12 +8557,12 @@
       <c r="G50" s="39"/>
       <c r="H50" s="39"/>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:17">
       <c r="B51" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D51" s="31" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="E51" s="31" t="s">
         <v>77</v>
@@ -8584,15 +8592,15 @@
       </c>
       <c r="P51" s="40"/>
       <c r="Q51" s="31" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17">
       <c r="B52" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D52" s="31" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E52" s="31" t="s">
         <v>79</v>
@@ -8601,7 +8609,7 @@
         <v>619</v>
       </c>
       <c r="G52" s="31" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H52" s="31">
         <v>30</v>
@@ -8615,12 +8623,12 @@
       <c r="P52" s="40"/>
       <c r="Q52" s="2"/>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:17">
       <c r="B53" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D53" s="31" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="E53" s="31" t="s">
         <v>81</v>
@@ -8629,26 +8637,26 @@
         <v>618</v>
       </c>
       <c r="G53" s="31" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H53" s="31" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="I53" s="3"/>
       <c r="J53" s="3"/>
     </row>
-    <row r="54" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:17" s="38" customFormat="1">
       <c r="A54" s="38" t="b">
         <v>1</v>
       </c>
       <c r="B54" s="38" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="C54" s="38" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="D54" s="38" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="E54" s="38" t="s">
         <v>68</v>
@@ -8656,90 +8664,90 @@
       <c r="G54" s="39"/>
       <c r="H54" s="39"/>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:17">
       <c r="B55" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D55" s="31" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="E55" s="31" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="F55" s="31" t="s">
         <v>618</v>
       </c>
       <c r="H55" s="31" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="I55" s="31"/>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:17">
       <c r="B56" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D56" s="31" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="E56" s="31" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F56" s="31" t="s">
         <v>618</v>
       </c>
       <c r="H56" s="31" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="I56" s="31"/>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:17">
       <c r="B57" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D57" s="31" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="E57" s="31" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="F57" s="31" t="s">
         <v>618</v>
       </c>
       <c r="H57" s="41" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="I57" s="31"/>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:17">
       <c r="B58" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D58" s="31" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="E58" s="31" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="F58" s="31" t="s">
         <v>618</v>
       </c>
       <c r="H58" s="41" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="I58" s="31"/>
     </row>
-    <row r="59" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:17" s="38" customFormat="1">
       <c r="A59" s="38" t="b">
         <v>1</v>
       </c>
       <c r="B59" s="38" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="C59" s="38" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="D59" s="38" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="E59" s="38" t="s">
         <v>233</v>
@@ -8747,12 +8755,12 @@
       <c r="G59" s="39"/>
       <c r="H59" s="39"/>
     </row>
-    <row r="60" spans="1:17" s="49" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:17" s="49" customFormat="1">
       <c r="A60" s="49" t="b">
         <v>1</v>
       </c>
       <c r="B60" s="49" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C60" s="49" t="s">
         <v>76</v>
@@ -8764,12 +8772,12 @@
         <v>68</v>
       </c>
     </row>
-    <row r="61" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:17" s="43" customFormat="1">
       <c r="B61" s="43" t="s">
         <v>22</v>
       </c>
       <c r="D61" s="43" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="E61" s="43" t="s">
         <v>77</v>
@@ -8797,10 +8805,10 @@
         <v>0.01</v>
       </c>
       <c r="Q61" s="43" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="62" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" s="30" customFormat="1">
       <c r="B62" s="30" t="s">
         <v>21</v>
       </c>
@@ -8817,7 +8825,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="63" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:17" s="30" customFormat="1">
       <c r="B63" s="30" t="s">
         <v>21</v>
       </c>
@@ -8837,12 +8845,12 @@
         <v>84</v>
       </c>
     </row>
-    <row r="64" spans="1:17" s="49" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:17" s="49" customFormat="1">
       <c r="A64" s="49" t="b">
         <v>1</v>
       </c>
       <c r="B64" s="49" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="C64" s="49" t="s">
         <v>76</v>
@@ -8854,12 +8862,12 @@
         <v>68</v>
       </c>
     </row>
-    <row r="65" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:17" s="43" customFormat="1">
       <c r="B65" s="43" t="s">
         <v>22</v>
       </c>
       <c r="D65" s="43" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="E65" s="43" t="s">
         <v>77</v>
@@ -8887,10 +8895,10 @@
         <v>0.01</v>
       </c>
       <c r="Q65" s="43" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="66" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" s="30" customFormat="1">
       <c r="B66" s="30" t="s">
         <v>21</v>
       </c>
@@ -8907,7 +8915,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="67" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:17" s="30" customFormat="1">
       <c r="B67" s="30" t="s">
         <v>21</v>
       </c>
@@ -8921,18 +8929,18 @@
         <v>62</v>
       </c>
       <c r="H67" s="30" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="I67" s="30" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="68" spans="1:17" s="49" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:17" s="49" customFormat="1">
       <c r="A68" s="49" t="b">
         <v>1</v>
       </c>
       <c r="B68" s="49" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="C68" s="49" t="s">
         <v>76</v>
@@ -8944,12 +8952,12 @@
         <v>68</v>
       </c>
     </row>
-    <row r="69" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:17" s="43" customFormat="1">
       <c r="B69" s="43" t="s">
         <v>22</v>
       </c>
       <c r="D69" s="43" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="E69" s="43" t="s">
         <v>77</v>
@@ -8977,10 +8985,10 @@
         <v>0.01</v>
       </c>
       <c r="Q69" s="43" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="70" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" s="30" customFormat="1">
       <c r="B70" s="30" t="s">
         <v>21</v>
       </c>
@@ -8997,7 +9005,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="71" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:17" s="30" customFormat="1">
       <c r="B71" s="30" t="s">
         <v>21</v>
       </c>
@@ -9011,13 +9019,13 @@
         <v>62</v>
       </c>
       <c r="H71" s="30" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="I71" s="30" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="72" spans="1:17" s="49" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:17" s="49" customFormat="1">
       <c r="A72" s="49" t="b">
         <v>1</v>
       </c>
@@ -9034,7 +9042,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="73" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:17" s="30" customFormat="1">
       <c r="B73" s="30" t="s">
         <v>21</v>
       </c>
@@ -9055,12 +9063,12 @@
       </c>
       <c r="O73" s="31"/>
     </row>
-    <row r="74" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:17" s="43" customFormat="1">
       <c r="B74" s="43" t="s">
         <v>22</v>
       </c>
       <c r="D74" s="44" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="E74" s="43" t="s">
         <v>70</v>
@@ -9088,10 +9096,10 @@
         <v>2.5</v>
       </c>
       <c r="Q74" s="43" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="75" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" s="30" customFormat="1">
       <c r="B75" s="30" t="s">
         <v>21</v>
       </c>
@@ -9109,7 +9117,7 @@
       </c>
       <c r="O75" s="31"/>
     </row>
-    <row r="76" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:17" s="30" customFormat="1">
       <c r="B76" s="30" t="s">
         <v>21</v>
       </c>
@@ -9127,7 +9135,7 @@
       </c>
       <c r="O76" s="31"/>
     </row>
-    <row r="77" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:17" s="30" customFormat="1">
       <c r="B77" s="30" t="s">
         <v>21</v>
       </c>
@@ -9145,7 +9153,7 @@
       </c>
       <c r="O77" s="31"/>
     </row>
-    <row r="78" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:17" s="50" customFormat="1">
       <c r="A78" s="50" t="b">
         <v>1</v>
       </c>
@@ -9162,7 +9170,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:17">
       <c r="A79" s="30"/>
       <c r="B79" s="30" t="s">
         <v>21</v>
@@ -9191,12 +9199,12 @@
       <c r="N79" s="3"/>
       <c r="P79" s="40"/>
     </row>
-    <row r="80" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:17" s="43" customFormat="1">
       <c r="B80" s="43" t="s">
         <v>22</v>
       </c>
       <c r="D80" s="43" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="E80" s="43" t="s">
         <v>46</v>
@@ -9229,7 +9237,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:17">
       <c r="A81" s="30"/>
       <c r="B81" s="30" t="s">
         <v>21</v>
@@ -9255,7 +9263,7 @@
       <c r="N81" s="3"/>
       <c r="P81" s="40"/>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:17">
       <c r="A82" s="30"/>
       <c r="B82" s="30" t="s">
         <v>21</v>
@@ -9281,7 +9289,7 @@
       <c r="N82" s="3"/>
       <c r="P82" s="40"/>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:17">
       <c r="A83" s="30"/>
       <c r="B83" s="30" t="s">
         <v>21</v>
@@ -9307,7 +9315,7 @@
       <c r="N83" s="3"/>
       <c r="P83" s="40"/>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:17">
       <c r="A84" s="30"/>
       <c r="B84" s="30" t="s">
         <v>21</v>
@@ -9333,7 +9341,7 @@
       <c r="N84" s="3"/>
       <c r="P84" s="40"/>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:17">
       <c r="A85" s="30"/>
       <c r="B85" s="30" t="s">
         <v>21</v>
@@ -9359,7 +9367,7 @@
       <c r="N85" s="3"/>
       <c r="P85" s="40"/>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:17">
       <c r="A86" s="30"/>
       <c r="B86" s="30" t="s">
         <v>21</v>
@@ -9385,7 +9393,7 @@
       <c r="N86" s="3"/>
       <c r="P86" s="40"/>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:17">
       <c r="A87" s="30"/>
       <c r="B87" s="30" t="s">
         <v>21</v>
@@ -9411,7 +9419,7 @@
       <c r="N87" s="3"/>
       <c r="P87" s="40"/>
     </row>
-    <row r="88" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:17" s="50" customFormat="1">
       <c r="A88" s="50" t="b">
         <v>1</v>
       </c>
@@ -9428,7 +9436,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:17">
       <c r="A89" s="30"/>
       <c r="B89" s="30" t="s">
         <v>21</v>
@@ -9457,12 +9465,12 @@
       <c r="N89" s="3"/>
       <c r="P89" s="40"/>
     </row>
-    <row r="90" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:17" s="43" customFormat="1">
       <c r="B90" s="43" t="s">
         <v>22</v>
       </c>
       <c r="D90" s="43" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E90" s="43" t="s">
         <v>330</v>
@@ -9491,32 +9499,32 @@
         <v>2.5</v>
       </c>
       <c r="Q90" s="43" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="91" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.3">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17" s="50" customFormat="1">
       <c r="A91" s="50" t="b">
         <v>1</v>
       </c>
       <c r="B91" s="50" t="s">
+        <v>820</v>
+      </c>
+      <c r="C91" s="50" t="s">
         <v>821</v>
       </c>
-      <c r="C91" s="50" t="s">
-        <v>822</v>
-      </c>
       <c r="D91" s="50" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="E91" s="50" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="92" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:17" s="43" customFormat="1">
       <c r="B92" s="43" t="s">
         <v>22</v>
       </c>
       <c r="D92" s="43" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="E92" s="43" t="s">
         <v>258</v>
@@ -9545,32 +9553,32 @@
         <v>2.5</v>
       </c>
       <c r="Q92" s="43" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="93" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.3">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17" s="50" customFormat="1">
       <c r="A93" s="50" t="b">
         <v>1</v>
       </c>
       <c r="B93" s="50" t="s">
+        <v>823</v>
+      </c>
+      <c r="C93" s="50" t="s">
         <v>824</v>
       </c>
-      <c r="C93" s="50" t="s">
-        <v>825</v>
-      </c>
       <c r="D93" s="50" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="E93" s="50" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="94" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:17" s="43" customFormat="1">
       <c r="B94" s="43" t="s">
         <v>22</v>
       </c>
       <c r="D94" s="43" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="E94" s="43" t="s">
         <v>258</v>
@@ -9599,10 +9607,10 @@
         <v>2.5</v>
       </c>
       <c r="Q94" s="43" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="95" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.3">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17" s="50" customFormat="1">
       <c r="A95" s="50" t="b">
         <v>1</v>
       </c>
@@ -9619,7 +9627,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="96" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:17" s="30" customFormat="1">
       <c r="B96" s="30" t="s">
         <v>21</v>
       </c>
@@ -9639,12 +9647,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="97" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:17" s="43" customFormat="1">
       <c r="B97" s="43" t="s">
         <v>22</v>
       </c>
       <c r="D97" s="43" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="E97" s="43" t="s">
         <v>288</v>
@@ -9653,7 +9661,7 @@
         <v>64</v>
       </c>
       <c r="G97" s="43" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="H97" s="43">
         <v>0</v>
@@ -9676,15 +9684,15 @@
         <v>2.5</v>
       </c>
       <c r="Q97" s="43" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="98" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="98" spans="1:17" s="30" customFormat="1">
       <c r="B98" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D98" s="30" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="E98" s="30" t="s">
         <v>48</v>
@@ -9693,18 +9701,18 @@
         <v>64</v>
       </c>
       <c r="G98" s="30" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="H98" s="30">
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:17" s="30" customFormat="1">
       <c r="B99" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D99" s="30" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E99" s="30" t="s">
         <v>50</v>
@@ -9713,18 +9721,18 @@
         <v>64</v>
       </c>
       <c r="G99" s="30" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="H99" s="30">
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:17" s="30" customFormat="1">
       <c r="B100" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D100" s="30" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="E100" s="30" t="s">
         <v>52</v>
@@ -9733,18 +9741,18 @@
         <v>65</v>
       </c>
       <c r="G100" s="30" t="s">
+        <v>831</v>
+      </c>
+      <c r="H100" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:17" s="30" customFormat="1">
+      <c r="B101" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D101" s="30" t="s">
         <v>832</v>
-      </c>
-      <c r="H100" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B101" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D101" s="30" t="s">
-        <v>833</v>
       </c>
       <c r="E101" s="30" t="s">
         <v>54</v>
@@ -9756,12 +9764,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:17" s="30" customFormat="1">
       <c r="B102" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D102" s="30" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="E102" s="30" t="s">
         <v>56</v>
@@ -9770,18 +9778,18 @@
         <v>65</v>
       </c>
       <c r="G102" s="30" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="H102" s="30">
         <v>15</v>
       </c>
     </row>
-    <row r="103" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:17" s="30" customFormat="1">
       <c r="B103" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D103" s="30" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="E103" s="30" t="s">
         <v>58</v>
@@ -9790,18 +9798,18 @@
         <v>64</v>
       </c>
       <c r="G103" s="30" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="H103" s="30">
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:17" s="30" customFormat="1">
       <c r="B104" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D104" s="30" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="E104" s="30" t="s">
         <v>60</v>
@@ -9810,13 +9818,13 @@
         <v>65</v>
       </c>
       <c r="G104" s="30" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="H104" s="30">
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:17" s="38" customFormat="1">
       <c r="A105" s="38" t="b">
         <v>1</v>
       </c>
@@ -9824,10 +9832,10 @@
         <v>187</v>
       </c>
       <c r="C105" s="38" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="D105" s="38" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="E105" s="38" t="s">
         <v>68</v>
@@ -9835,12 +9843,12 @@
       <c r="G105" s="39"/>
       <c r="H105" s="39"/>
     </row>
-    <row r="106" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:17" s="43" customFormat="1">
       <c r="B106" s="43" t="s">
         <v>22</v>
       </c>
       <c r="D106" s="43" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="E106" s="43" t="s">
         <v>190</v>
@@ -9849,7 +9857,7 @@
         <v>64</v>
       </c>
       <c r="G106" s="43" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="H106" s="43">
         <v>1</v>
@@ -9872,15 +9880,15 @@
         <v>1</v>
       </c>
       <c r="Q106" s="43" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="107" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.3">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="107" spans="1:17" s="43" customFormat="1">
       <c r="B107" s="43" t="s">
         <v>22</v>
       </c>
       <c r="D107" s="43" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="E107" s="43" t="s">
         <v>192</v>
@@ -9889,7 +9897,7 @@
         <v>64</v>
       </c>
       <c r="G107" s="43" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="H107" s="43">
         <v>-1</v>
@@ -9912,15 +9920,15 @@
         <v>1</v>
       </c>
       <c r="Q107" s="43" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.3">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="108" spans="1:17">
       <c r="B108" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D108" s="31" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="E108" s="31" t="s">
         <v>194</v>
@@ -9937,467 +9945,467 @@
       <c r="M108" s="3"/>
       <c r="N108" s="3"/>
     </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:17">
       <c r="H109" s="31"/>
       <c r="I109" s="31"/>
     </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:17">
       <c r="H110" s="31"/>
       <c r="I110" s="31"/>
     </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:17">
       <c r="H111" s="31"/>
       <c r="I111" s="31"/>
     </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:17">
       <c r="H112" s="31"/>
       <c r="I112" s="31"/>
     </row>
-    <row r="113" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="113" spans="8:9">
       <c r="H113" s="31"/>
       <c r="I113" s="31"/>
     </row>
-    <row r="114" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="114" spans="8:9">
       <c r="H114" s="31"/>
       <c r="I114" s="31"/>
     </row>
-    <row r="115" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="115" spans="8:9">
       <c r="H115" s="31"/>
       <c r="I115" s="31"/>
     </row>
-    <row r="116" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="116" spans="8:9">
       <c r="H116" s="31"/>
       <c r="I116" s="31"/>
     </row>
-    <row r="117" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="117" spans="8:9">
       <c r="H117" s="31"/>
       <c r="I117" s="31"/>
     </row>
-    <row r="118" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="118" spans="8:9">
       <c r="H118" s="31"/>
       <c r="I118" s="31"/>
     </row>
-    <row r="119" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="119" spans="8:9">
       <c r="H119" s="31"/>
       <c r="I119" s="31"/>
     </row>
-    <row r="120" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="120" spans="8:9">
       <c r="H120" s="31"/>
       <c r="I120" s="31"/>
     </row>
-    <row r="121" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="121" spans="8:9">
       <c r="H121" s="31"/>
       <c r="I121" s="31"/>
     </row>
-    <row r="122" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="122" spans="8:9">
       <c r="H122" s="31"/>
       <c r="I122" s="31"/>
     </row>
-    <row r="123" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="123" spans="8:9">
       <c r="H123" s="31"/>
       <c r="I123" s="31"/>
     </row>
-    <row r="124" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="124" spans="8:9">
       <c r="H124" s="31"/>
       <c r="I124" s="31"/>
     </row>
-    <row r="125" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="125" spans="8:9">
       <c r="H125" s="31"/>
       <c r="I125" s="31"/>
     </row>
-    <row r="126" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="126" spans="8:9">
       <c r="H126" s="31"/>
       <c r="I126" s="31"/>
     </row>
-    <row r="127" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="127" spans="8:9">
       <c r="H127" s="31"/>
       <c r="I127" s="31"/>
     </row>
-    <row r="128" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="128" spans="8:9">
       <c r="H128" s="31"/>
       <c r="I128" s="31"/>
     </row>
-    <row r="129" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="129" spans="8:9">
       <c r="H129" s="31"/>
       <c r="I129" s="31"/>
     </row>
-    <row r="130" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="130" spans="8:9">
       <c r="H130" s="31"/>
       <c r="I130" s="31"/>
     </row>
-    <row r="131" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="131" spans="8:9">
       <c r="H131" s="31"/>
       <c r="I131" s="31"/>
     </row>
-    <row r="132" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="132" spans="8:9">
       <c r="H132" s="31"/>
       <c r="I132" s="31"/>
     </row>
-    <row r="133" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="133" spans="8:9">
       <c r="H133" s="31"/>
       <c r="I133" s="31"/>
     </row>
-    <row r="134" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="134" spans="8:9">
       <c r="H134" s="31"/>
       <c r="I134" s="31"/>
     </row>
-    <row r="135" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="135" spans="8:9">
       <c r="H135" s="31"/>
       <c r="I135" s="31"/>
     </row>
-    <row r="136" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="136" spans="8:9">
       <c r="H136" s="31"/>
       <c r="I136" s="31"/>
     </row>
-    <row r="137" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="137" spans="8:9">
       <c r="H137" s="31"/>
       <c r="I137" s="31"/>
     </row>
-    <row r="138" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="138" spans="8:9">
       <c r="H138" s="31"/>
       <c r="I138" s="31"/>
     </row>
-    <row r="139" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="139" spans="8:9">
       <c r="H139" s="31"/>
       <c r="I139" s="31"/>
     </row>
-    <row r="140" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="140" spans="8:9">
       <c r="H140" s="31"/>
       <c r="I140" s="31"/>
     </row>
-    <row r="141" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="141" spans="8:9">
       <c r="H141" s="31"/>
       <c r="I141" s="31"/>
     </row>
-    <row r="142" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="142" spans="8:9">
       <c r="H142" s="31"/>
       <c r="I142" s="31"/>
     </row>
-    <row r="143" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="143" spans="8:9">
       <c r="H143" s="31"/>
       <c r="I143" s="31"/>
     </row>
-    <row r="144" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="144" spans="8:9">
       <c r="H144" s="31"/>
       <c r="I144" s="31"/>
     </row>
-    <row r="145" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="145" spans="8:9">
       <c r="H145" s="31"/>
       <c r="I145" s="31"/>
     </row>
-    <row r="146" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="146" spans="8:9">
       <c r="H146" s="31"/>
       <c r="I146" s="31"/>
     </row>
-    <row r="147" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="147" spans="8:9">
       <c r="H147" s="31"/>
       <c r="I147" s="31"/>
     </row>
-    <row r="148" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="148" spans="8:9">
       <c r="H148" s="31"/>
       <c r="I148" s="31"/>
     </row>
-    <row r="149" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="149" spans="8:9">
       <c r="H149" s="31"/>
       <c r="I149" s="31"/>
     </row>
-    <row r="150" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="150" spans="8:9">
       <c r="H150" s="31"/>
       <c r="I150" s="31"/>
     </row>
-    <row r="151" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="151" spans="8:9">
       <c r="H151" s="31"/>
       <c r="I151" s="31"/>
     </row>
-    <row r="152" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="152" spans="8:9">
       <c r="H152" s="31"/>
       <c r="I152" s="31"/>
     </row>
-    <row r="153" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="153" spans="8:9">
       <c r="H153" s="31"/>
       <c r="I153" s="31"/>
     </row>
-    <row r="154" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="154" spans="8:9">
       <c r="H154" s="31"/>
       <c r="I154" s="31"/>
     </row>
-    <row r="155" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="155" spans="8:9">
       <c r="H155" s="31"/>
       <c r="I155" s="31"/>
     </row>
-    <row r="156" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="156" spans="8:9">
       <c r="H156" s="31"/>
       <c r="I156" s="31"/>
     </row>
-    <row r="157" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="157" spans="8:9">
       <c r="H157" s="31"/>
       <c r="I157" s="31"/>
     </row>
-    <row r="158" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="158" spans="8:9">
       <c r="H158" s="31"/>
       <c r="I158" s="31"/>
     </row>
-    <row r="159" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="159" spans="8:9">
       <c r="H159" s="31"/>
       <c r="I159" s="31"/>
     </row>
-    <row r="160" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="160" spans="8:9">
       <c r="H160" s="31"/>
       <c r="I160" s="31"/>
     </row>
-    <row r="161" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="161" spans="8:9">
       <c r="H161" s="31"/>
       <c r="I161" s="31"/>
     </row>
-    <row r="162" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="162" spans="8:9">
       <c r="H162" s="31"/>
       <c r="I162" s="31"/>
     </row>
-    <row r="163" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="163" spans="8:9">
       <c r="H163" s="31"/>
       <c r="I163" s="31"/>
     </row>
-    <row r="164" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="164" spans="8:9">
       <c r="H164" s="31"/>
       <c r="I164" s="31"/>
     </row>
-    <row r="165" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="165" spans="8:9">
       <c r="H165" s="31"/>
       <c r="I165" s="31"/>
     </row>
-    <row r="166" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="166" spans="8:9">
       <c r="H166" s="31"/>
       <c r="I166" s="31"/>
     </row>
-    <row r="167" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="167" spans="8:9">
       <c r="H167" s="31"/>
       <c r="I167" s="31"/>
     </row>
-    <row r="168" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="168" spans="8:9">
       <c r="H168" s="31"/>
       <c r="I168" s="31"/>
     </row>
-    <row r="169" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="169" spans="8:9">
       <c r="H169" s="31"/>
       <c r="I169" s="31"/>
     </row>
-    <row r="170" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="170" spans="8:9">
       <c r="H170" s="31"/>
       <c r="I170" s="31"/>
     </row>
-    <row r="171" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="171" spans="8:9">
       <c r="H171" s="31"/>
       <c r="I171" s="31"/>
     </row>
-    <row r="172" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="172" spans="8:9">
       <c r="H172" s="31"/>
       <c r="I172" s="31"/>
     </row>
-    <row r="173" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="173" spans="8:9">
       <c r="H173" s="31"/>
       <c r="I173" s="31"/>
     </row>
-    <row r="174" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="174" spans="8:9">
       <c r="H174" s="31"/>
       <c r="I174" s="31"/>
     </row>
-    <row r="175" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="175" spans="8:9">
       <c r="H175" s="31"/>
       <c r="I175" s="31"/>
     </row>
-    <row r="176" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="176" spans="8:9">
       <c r="H176" s="31"/>
       <c r="I176" s="31"/>
     </row>
-    <row r="177" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="177" spans="8:9">
       <c r="H177" s="31"/>
       <c r="I177" s="31"/>
     </row>
-    <row r="178" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="178" spans="8:9">
       <c r="H178" s="31"/>
       <c r="I178" s="31"/>
     </row>
-    <row r="179" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="179" spans="8:9">
       <c r="H179" s="31"/>
       <c r="I179" s="31"/>
     </row>
-    <row r="180" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="180" spans="8:9">
       <c r="H180" s="31"/>
       <c r="I180" s="31"/>
     </row>
-    <row r="181" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="181" spans="8:9">
       <c r="H181" s="31"/>
       <c r="I181" s="31"/>
     </row>
-    <row r="182" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="182" spans="8:9">
       <c r="H182" s="31"/>
       <c r="I182" s="31"/>
     </row>
-    <row r="183" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="183" spans="8:9">
       <c r="H183" s="31"/>
       <c r="I183" s="31"/>
     </row>
-    <row r="184" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="184" spans="8:9">
       <c r="H184" s="31"/>
       <c r="I184" s="31"/>
     </row>
-    <row r="185" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="185" spans="8:9">
       <c r="H185" s="31"/>
       <c r="I185" s="31"/>
     </row>
-    <row r="186" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="186" spans="8:9">
       <c r="H186" s="31"/>
       <c r="I186" s="31"/>
     </row>
-    <row r="187" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="187" spans="8:9">
       <c r="H187" s="31"/>
       <c r="I187" s="31"/>
     </row>
-    <row r="188" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="188" spans="8:9">
       <c r="H188" s="31"/>
       <c r="I188" s="31"/>
     </row>
-    <row r="189" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="189" spans="8:9">
       <c r="H189" s="31"/>
       <c r="I189" s="31"/>
     </row>
-    <row r="190" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="190" spans="8:9">
       <c r="H190" s="31"/>
       <c r="I190" s="31"/>
     </row>
-    <row r="191" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="191" spans="8:9">
       <c r="H191" s="31"/>
       <c r="I191" s="31"/>
     </row>
-    <row r="192" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="192" spans="8:9">
       <c r="H192" s="31"/>
       <c r="I192" s="31"/>
     </row>
-    <row r="193" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="193" spans="8:9">
       <c r="H193" s="31"/>
       <c r="I193" s="31"/>
     </row>
-    <row r="194" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="194" spans="8:9">
       <c r="H194" s="31"/>
       <c r="I194" s="31"/>
     </row>
-    <row r="195" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="195" spans="8:9">
       <c r="H195" s="31"/>
       <c r="I195" s="31"/>
     </row>
-    <row r="196" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="196" spans="8:9">
       <c r="H196" s="31"/>
       <c r="I196" s="31"/>
     </row>
-    <row r="197" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="197" spans="8:9">
       <c r="H197" s="31"/>
       <c r="I197" s="31"/>
     </row>
-    <row r="198" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="198" spans="8:9">
       <c r="H198" s="31"/>
       <c r="I198" s="31"/>
     </row>
-    <row r="199" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="199" spans="8:9">
       <c r="H199" s="31"/>
       <c r="I199" s="31"/>
     </row>
-    <row r="200" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="200" spans="8:9">
       <c r="H200" s="31"/>
       <c r="I200" s="31"/>
     </row>
-    <row r="201" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="201" spans="8:9">
       <c r="H201" s="31"/>
       <c r="I201" s="31"/>
     </row>
-    <row r="202" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="202" spans="8:9">
       <c r="H202" s="31"/>
       <c r="I202" s="31"/>
     </row>
-    <row r="203" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="203" spans="8:9">
       <c r="H203" s="31"/>
       <c r="I203" s="31"/>
     </row>
-    <row r="204" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="204" spans="8:9">
       <c r="H204" s="31"/>
       <c r="I204" s="31"/>
     </row>
-    <row r="205" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="205" spans="8:9">
       <c r="H205" s="31"/>
       <c r="I205" s="31"/>
     </row>
-    <row r="206" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="206" spans="8:9">
       <c r="H206" s="31"/>
       <c r="I206" s="31"/>
     </row>
-    <row r="207" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="207" spans="8:9">
       <c r="H207" s="31"/>
       <c r="I207" s="31"/>
     </row>
-    <row r="208" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="208" spans="8:9">
       <c r="H208" s="31"/>
       <c r="I208" s="31"/>
     </row>
-    <row r="209" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="209" spans="8:9">
       <c r="H209" s="31"/>
       <c r="I209" s="31"/>
     </row>
-    <row r="210" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="210" spans="8:9">
       <c r="H210" s="31"/>
       <c r="I210" s="31"/>
     </row>
-    <row r="211" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="211" spans="8:9">
       <c r="H211" s="31"/>
       <c r="I211" s="31"/>
     </row>
-    <row r="212" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="212" spans="8:9">
       <c r="H212" s="31"/>
       <c r="I212" s="31"/>
     </row>
-    <row r="213" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="213" spans="8:9">
       <c r="H213" s="31"/>
       <c r="I213" s="31"/>
     </row>
-    <row r="214" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="214" spans="8:9">
       <c r="H214" s="31"/>
       <c r="I214" s="31"/>
     </row>
-    <row r="215" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="215" spans="8:9">
       <c r="H215" s="31"/>
       <c r="I215" s="31"/>
     </row>
-    <row r="216" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="216" spans="8:9">
       <c r="H216" s="31"/>
       <c r="I216" s="31"/>
     </row>
-    <row r="217" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="217" spans="8:9">
       <c r="H217" s="31"/>
       <c r="I217" s="31"/>
     </row>
-    <row r="218" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="218" spans="8:9">
       <c r="H218" s="31"/>
       <c r="I218" s="31"/>
     </row>
-    <row r="219" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="219" spans="8:9">
       <c r="H219" s="31"/>
       <c r="I219" s="31"/>
     </row>
-    <row r="220" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="220" spans="8:9">
       <c r="H220" s="31"/>
       <c r="I220" s="31"/>
     </row>
-    <row r="221" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="221" spans="8:9">
       <c r="H221" s="31"/>
       <c r="I221" s="31"/>
     </row>
-    <row r="222" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="222" spans="8:9">
       <c r="H222" s="31"/>
       <c r="I222" s="31"/>
     </row>
-    <row r="223" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="223" spans="8:9">
       <c r="H223" s="31"/>
       <c r="I223" s="31"/>
     </row>
-    <row r="224" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="224" spans="8:9">
       <c r="H224" s="31"/>
       <c r="I224" s="31"/>
     </row>
@@ -10425,20 +10433,20 @@
       <selection pane="bottomLeft" activeCell="A29" sqref="A29:A32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="2" width="29.44140625" style="31" customWidth="1"/>
+    <col min="1" max="2" width="29.5" style="31" customWidth="1"/>
     <col min="3" max="3" width="71" style="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.44140625" style="31" customWidth="1"/>
+    <col min="4" max="4" width="10.5" style="31" customWidth="1"/>
     <col min="5" max="5" width="12.33203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="10.44140625" style="31" customWidth="1"/>
-    <col min="8" max="8" width="14.44140625" style="31" customWidth="1"/>
+    <col min="6" max="7" width="10.5" style="31" customWidth="1"/>
+    <col min="8" max="8" width="14.5" style="31" customWidth="1"/>
     <col min="9" max="9" width="14.6640625" style="31" customWidth="1"/>
     <col min="10" max="10" width="9.6640625" style="31" customWidth="1"/>
-    <col min="11" max="16384" width="11.44140625" style="31"/>
+    <col min="11" max="16384" width="11.5" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" ht="18">
       <c r="A1" s="5"/>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -10453,7 +10461,7 @@
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
     </row>
-    <row r="2" spans="1:12" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" s="8" customFormat="1" ht="15">
       <c r="A2" s="8" t="s">
         <v>459</v>
       </c>
@@ -10488,7 +10496,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="14" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" s="14" customFormat="1" ht="30">
       <c r="A3" s="14" t="s">
         <v>628</v>
       </c>
@@ -10524,7 +10532,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12">
       <c r="A4" s="30" t="s">
         <v>644</v>
       </c>
@@ -10553,7 +10561,7 @@
       <c r="J4" s="30"/>
       <c r="K4" s="30"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12">
       <c r="A5" s="30" t="s">
         <v>645</v>
       </c>
@@ -10583,7 +10591,7 @@
       <c r="K5" s="30"/>
       <c r="L5" s="30"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12">
       <c r="A6" s="30" t="s">
         <v>646</v>
       </c>
@@ -10612,7 +10620,7 @@
       <c r="J6" s="30"/>
       <c r="K6" s="30"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12">
       <c r="A7" s="30" t="s">
         <v>647</v>
       </c>
@@ -10641,16 +10649,16 @@
       <c r="J7" s="30"/>
       <c r="K7" s="30"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12">
       <c r="A8" s="30" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B8" s="30"/>
       <c r="C8" s="30" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="D8" s="30" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E8" s="30" t="s">
         <v>64</v>
@@ -10672,16 +10680,16 @@
       <c r="K8" s="30"/>
       <c r="L8" s="30"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12">
       <c r="A9" s="30" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B9" s="30"/>
       <c r="C9" s="30" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="D9" s="30" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E9" s="30" t="s">
         <v>64</v>
@@ -10702,16 +10710,16 @@
       <c r="K9" s="30"/>
       <c r="L9" s="30"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12">
       <c r="A10" s="30" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B10" s="30"/>
       <c r="C10" s="30" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="D10" s="30" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E10" s="30" t="s">
         <v>64</v>
@@ -10732,16 +10740,16 @@
       <c r="K10" s="30"/>
       <c r="L10" s="30"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12">
       <c r="A11" s="30" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B11" s="30"/>
       <c r="C11" s="30" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="D11" s="30" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E11" s="30" t="s">
         <v>64</v>
@@ -10762,16 +10770,16 @@
       <c r="K11" s="30"/>
       <c r="L11" s="30"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12">
       <c r="A12" s="30" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B12" s="30"/>
       <c r="C12" s="30" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="D12" s="30" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E12" s="30" t="s">
         <v>64</v>
@@ -10792,16 +10800,16 @@
       <c r="K12" s="30"/>
       <c r="L12" s="30"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12">
       <c r="A13" s="30" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B13" s="30"/>
       <c r="C13" s="30" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="D13" s="30" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E13" s="30" t="s">
         <v>64</v>
@@ -10822,16 +10830,16 @@
       <c r="K13" s="30"/>
       <c r="L13" s="30"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12">
       <c r="A14" s="30" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B14" s="30"/>
       <c r="C14" s="30" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D14" s="30" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E14" s="30" t="s">
         <v>64</v>
@@ -10852,16 +10860,16 @@
       <c r="K14" s="30"/>
       <c r="L14" s="30"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12">
       <c r="A15" s="30" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B15" s="30"/>
       <c r="C15" s="30" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="D15" s="30" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E15" s="30" t="s">
         <v>64</v>
@@ -10882,16 +10890,16 @@
       <c r="K15" s="30"/>
       <c r="L15" s="30"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12">
       <c r="A16" s="30" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B16" s="30"/>
       <c r="C16" s="30" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="D16" s="30" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E16" s="30" t="s">
         <v>64</v>
@@ -10912,16 +10920,16 @@
       <c r="K16" s="30"/>
       <c r="L16" s="30"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12">
       <c r="A17" s="30" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B17" s="30"/>
       <c r="C17" s="30" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D17" s="30" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E17" s="30" t="s">
         <v>64</v>
@@ -10942,16 +10950,16 @@
       <c r="K17" s="30"/>
       <c r="L17" s="30"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12">
       <c r="A18" s="30" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B18" s="30"/>
       <c r="C18" s="30" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D18" s="30" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E18" s="30" t="s">
         <v>64</v>
@@ -10972,16 +10980,16 @@
       <c r="K18" s="30"/>
       <c r="L18" s="30"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12">
       <c r="A19" s="30" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B19" s="30"/>
       <c r="C19" s="30" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="D19" s="30" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="E19" s="30" t="s">
         <v>64</v>
@@ -11003,16 +11011,16 @@
       <c r="K19" s="30"/>
       <c r="L19" s="30"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12">
       <c r="A20" s="30" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B20" s="30"/>
       <c r="C20" s="30" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="D20" s="30" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="E20" s="30" t="s">
         <v>64</v>
@@ -11033,16 +11041,16 @@
       <c r="K20" s="30"/>
       <c r="L20" s="30"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12">
       <c r="A21" s="30" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B21" s="30"/>
       <c r="C21" s="30" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="D21" s="30" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="E21" s="30" t="s">
         <v>64</v>
@@ -11063,16 +11071,16 @@
       <c r="K21" s="30"/>
       <c r="L21" s="30"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12">
       <c r="A22" s="30" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B22" s="30"/>
       <c r="C22" s="30" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="D22" s="30" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="E22" s="30" t="s">
         <v>64</v>
@@ -11093,16 +11101,16 @@
       <c r="K22" s="30"/>
       <c r="L22" s="30"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12">
       <c r="A23" s="30" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B23" s="30"/>
       <c r="C23" s="30" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="D23" s="30" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="E23" s="30" t="s">
         <v>64</v>
@@ -11123,16 +11131,16 @@
       <c r="K23" s="30"/>
       <c r="L23" s="30"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12">
       <c r="A24" s="30" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B24" s="30"/>
       <c r="C24" s="30" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="D24" s="30" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="E24" s="30" t="s">
         <v>64</v>
@@ -11153,16 +11161,16 @@
       <c r="K24" s="30"/>
       <c r="L24" s="30"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12">
       <c r="A25" s="30" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B25" s="30"/>
       <c r="C25" s="30" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="D25" s="30" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="E25" s="30" t="s">
         <v>64</v>
@@ -11183,16 +11191,16 @@
       <c r="K25" s="30"/>
       <c r="L25" s="30"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12">
       <c r="A26" s="30" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B26" s="30"/>
       <c r="C26" s="30" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="D26" s="30" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="E26" s="30" t="s">
         <v>64</v>
@@ -11213,16 +11221,16 @@
       <c r="K26" s="30"/>
       <c r="L26" s="30"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12">
       <c r="A27" s="30" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B27" s="30"/>
       <c r="C27" s="30" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="D27" s="30" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="E27" s="30" t="s">
         <v>64</v>
@@ -11243,16 +11251,16 @@
       <c r="K27" s="30"/>
       <c r="L27" s="30"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12">
       <c r="A28" s="30" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B28" s="30"/>
       <c r="C28" s="30" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="D28" s="30" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="E28" s="30" t="s">
         <v>64</v>
@@ -11273,16 +11281,16 @@
       <c r="K28" s="30"/>
       <c r="L28" s="30"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12">
       <c r="A29" s="30" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="B29" s="30"/>
       <c r="C29" s="30" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D29" s="30" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="E29" s="31" t="s">
         <v>64</v>
@@ -11297,16 +11305,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12">
       <c r="A30" s="30" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="B30" s="30"/>
       <c r="C30" s="30" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="D30" s="30" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="E30" s="31" t="s">
         <v>64</v>
@@ -11321,16 +11329,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12">
       <c r="A31" s="30" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="B31" s="30"/>
       <c r="C31" s="30" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="D31" s="30" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="E31" s="31" t="s">
         <v>64</v>
@@ -11345,16 +11353,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12">
       <c r="A32" s="30" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="B32" s="30"/>
       <c r="C32" s="30" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="D32" s="30" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="E32" s="31" t="s">
         <v>64</v>
@@ -11369,25 +11377,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4">
       <c r="A33" s="30"/>
       <c r="B33" s="30"/>
       <c r="C33" s="30"/>
       <c r="D33" s="30"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4">
       <c r="A34" s="30"/>
       <c r="B34" s="30"/>
       <c r="C34" s="30"/>
       <c r="D34" s="30"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4">
       <c r="A35" s="30"/>
       <c r="B35" s="30"/>
       <c r="C35" s="30"/>
       <c r="D35" s="30"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4">
       <c r="A36" s="30"/>
       <c r="B36" s="30"/>
       <c r="C36" s="30"/>
@@ -11412,19 +11420,19 @@
       <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="70.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="80.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="33.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="255.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="15">
       <c r="A1" s="17" t="b">
         <v>0</v>
       </c>
@@ -11443,7 +11451,7 @@
       <c r="H1" s="17"/>
       <c r="I1" s="17"/>
     </row>
-    <row r="2" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="15">
       <c r="A2" s="17"/>
       <c r="B2" s="17" t="s">
         <v>21</v>
@@ -11464,7 +11472,7 @@
       <c r="H2" s="17"/>
       <c r="I2" s="17"/>
     </row>
-    <row r="3" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="15">
       <c r="A3" s="17"/>
       <c r="B3" s="17" t="s">
         <v>21</v>
@@ -11487,7 +11495,7 @@
       </c>
       <c r="I3" s="17"/>
     </row>
-    <row r="4" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="15">
       <c r="A4" s="17"/>
       <c r="B4" s="17" t="s">
         <v>21</v>
@@ -11510,7 +11518,7 @@
       </c>
       <c r="I4" s="17"/>
     </row>
-    <row r="5" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="15">
       <c r="A5" s="17"/>
       <c r="B5" s="17" t="s">
         <v>21</v>
@@ -11533,7 +11541,7 @@
       </c>
       <c r="I5" s="17"/>
     </row>
-    <row r="6" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="15">
       <c r="A6" s="17"/>
       <c r="B6" s="17" t="s">
         <v>21</v>
@@ -11556,7 +11564,7 @@
       </c>
       <c r="I6" s="17"/>
     </row>
-    <row r="7" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="15">
       <c r="A7" s="17"/>
       <c r="B7" s="17" t="s">
         <v>21</v>
@@ -11579,7 +11587,7 @@
       </c>
       <c r="I7" s="17"/>
     </row>
-    <row r="8" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="15">
       <c r="A8" s="17"/>
       <c r="B8" s="17" t="s">
         <v>21</v>
@@ -11602,7 +11610,7 @@
       </c>
       <c r="I8" s="17"/>
     </row>
-    <row r="9" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="15">
       <c r="A9" s="17"/>
       <c r="B9" s="17" t="s">
         <v>21</v>
@@ -11625,7 +11633,7 @@
       </c>
       <c r="I9" s="17"/>
     </row>
-    <row r="10" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="15">
       <c r="A10" s="17"/>
       <c r="B10" s="17" t="s">
         <v>21</v>
@@ -11648,7 +11656,7 @@
       </c>
       <c r="I10" s="17"/>
     </row>
-    <row r="11" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="15">
       <c r="A11" s="17" t="b">
         <v>0</v>
       </c>
@@ -11667,7 +11675,7 @@
       <c r="H11" s="17"/>
       <c r="I11" s="17"/>
     </row>
-    <row r="12" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="15">
       <c r="A12" s="17"/>
       <c r="B12" s="17" t="s">
         <v>21</v>
@@ -11688,7 +11696,7 @@
       <c r="H12" s="17"/>
       <c r="I12" s="17"/>
     </row>
-    <row r="13" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="15">
       <c r="A13" s="17"/>
       <c r="B13" s="17" t="s">
         <v>21</v>
@@ -11711,7 +11719,7 @@
       </c>
       <c r="I13" s="17"/>
     </row>
-    <row r="14" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="15">
       <c r="A14" s="17"/>
       <c r="B14" s="17" t="s">
         <v>21</v>
@@ -11734,7 +11742,7 @@
       </c>
       <c r="I14" s="17"/>
     </row>
-    <row r="15" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="15">
       <c r="A15" s="17"/>
       <c r="B15" s="17" t="s">
         <v>21</v>
@@ -11757,7 +11765,7 @@
       </c>
       <c r="I15" s="17"/>
     </row>
-    <row r="16" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="15">
       <c r="A16" s="17"/>
       <c r="B16" s="17" t="s">
         <v>21</v>
@@ -11780,7 +11788,7 @@
       </c>
       <c r="I16" s="17"/>
     </row>
-    <row r="17" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="15">
       <c r="A17" s="17"/>
       <c r="B17" s="17" t="s">
         <v>21</v>
@@ -11803,7 +11811,7 @@
       </c>
       <c r="I17" s="17"/>
     </row>
-    <row r="18" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="15">
       <c r="A18" s="17"/>
       <c r="B18" s="17" t="s">
         <v>21</v>
@@ -11826,7 +11834,7 @@
       </c>
       <c r="I18" s="17"/>
     </row>
-    <row r="19" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="15">
       <c r="A19" s="17"/>
       <c r="B19" s="17" t="s">
         <v>21</v>
@@ -11849,7 +11857,7 @@
       </c>
       <c r="I19" s="17"/>
     </row>
-    <row r="20" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="15">
       <c r="A20" s="17"/>
       <c r="B20" s="17" t="s">
         <v>21</v>
@@ -11872,7 +11880,7 @@
       </c>
       <c r="I20" s="17"/>
     </row>
-    <row r="21" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" ht="15">
       <c r="A21" s="17" t="b">
         <v>0</v>
       </c>
@@ -11891,7 +11899,7 @@
       <c r="H21" s="17"/>
       <c r="I21" s="17"/>
     </row>
-    <row r="22" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" ht="15">
       <c r="A22" s="17"/>
       <c r="B22" s="17" t="s">
         <v>21</v>
@@ -11914,7 +11922,7 @@
       </c>
       <c r="I22" s="17"/>
     </row>
-    <row r="23" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" ht="15">
       <c r="A23" s="17"/>
       <c r="B23" s="17" t="s">
         <v>21</v>
@@ -11937,7 +11945,7 @@
       </c>
       <c r="I23" s="17"/>
     </row>
-    <row r="24" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" ht="15">
       <c r="A24" s="17"/>
       <c r="B24" s="17" t="s">
         <v>21</v>
@@ -11960,7 +11968,7 @@
       </c>
       <c r="I24" s="17"/>
     </row>
-    <row r="25" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" ht="15">
       <c r="A25" s="17"/>
       <c r="B25" s="17" t="s">
         <v>21</v>
@@ -11983,7 +11991,7 @@
       </c>
       <c r="I25" s="17"/>
     </row>
-    <row r="26" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" ht="15">
       <c r="A26" s="17"/>
       <c r="B26" s="17" t="s">
         <v>21</v>
@@ -12006,7 +12014,7 @@
       </c>
       <c r="I26" s="17"/>
     </row>
-    <row r="27" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" ht="15">
       <c r="A27" s="17"/>
       <c r="B27" s="17" t="s">
         <v>21</v>
@@ -12029,7 +12037,7 @@
       </c>
       <c r="I27" s="17"/>
     </row>
-    <row r="28" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" ht="15">
       <c r="A28" s="17"/>
       <c r="B28" s="17" t="s">
         <v>21</v>
@@ -12052,7 +12060,7 @@
       </c>
       <c r="I28" s="17"/>
     </row>
-    <row r="29" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" ht="15">
       <c r="A29" s="17"/>
       <c r="B29" s="17" t="s">
         <v>21</v>
@@ -12075,7 +12083,7 @@
       </c>
       <c r="I29" s="17"/>
     </row>
-    <row r="30" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" ht="15">
       <c r="A30" s="17"/>
       <c r="B30" s="17" t="s">
         <v>21</v>
@@ -12098,7 +12106,7 @@
       </c>
       <c r="I30" s="17"/>
     </row>
-    <row r="31" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" ht="15">
       <c r="A31" s="17" t="b">
         <v>0</v>
       </c>
@@ -12117,7 +12125,7 @@
       <c r="H31" s="17"/>
       <c r="I31" s="17"/>
     </row>
-    <row r="32" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" ht="15">
       <c r="A32" s="17"/>
       <c r="B32" s="17" t="s">
         <v>21</v>
@@ -12138,7 +12146,7 @@
       <c r="H32" s="17"/>
       <c r="I32" s="17"/>
     </row>
-    <row r="33" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" ht="15">
       <c r="A33" s="17"/>
       <c r="B33" s="17" t="s">
         <v>21</v>
@@ -12161,7 +12169,7 @@
       </c>
       <c r="I33" s="17"/>
     </row>
-    <row r="34" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" ht="15">
       <c r="A34" s="17"/>
       <c r="B34" s="17" t="s">
         <v>21</v>
@@ -12184,7 +12192,7 @@
       </c>
       <c r="I34" s="17"/>
     </row>
-    <row r="35" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" ht="15">
       <c r="A35" s="17"/>
       <c r="B35" s="17" t="s">
         <v>21</v>
@@ -12207,7 +12215,7 @@
       </c>
       <c r="I35" s="17"/>
     </row>
-    <row r="36" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" ht="15">
       <c r="A36" s="17"/>
       <c r="B36" s="17" t="s">
         <v>21</v>
@@ -12230,7 +12238,7 @@
       </c>
       <c r="I36" s="17"/>
     </row>
-    <row r="37" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" ht="15">
       <c r="A37" s="17"/>
       <c r="B37" s="17" t="s">
         <v>21</v>
@@ -12253,7 +12261,7 @@
       </c>
       <c r="I37" s="17"/>
     </row>
-    <row r="38" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" ht="15">
       <c r="A38" s="17"/>
       <c r="B38" s="17" t="s">
         <v>21</v>
@@ -12276,7 +12284,7 @@
       </c>
       <c r="I38" s="17"/>
     </row>
-    <row r="39" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" ht="15">
       <c r="A39" s="17"/>
       <c r="B39" s="17" t="s">
         <v>21</v>
@@ -12299,7 +12307,7 @@
       </c>
       <c r="I39" s="17"/>
     </row>
-    <row r="40" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" ht="15">
       <c r="A40" s="17"/>
       <c r="B40" s="17" t="s">
         <v>21</v>
@@ -12322,7 +12330,7 @@
       </c>
       <c r="I40" s="17"/>
     </row>
-    <row r="41" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" ht="15">
       <c r="A41" s="17" t="b">
         <v>0</v>
       </c>
@@ -12341,7 +12349,7 @@
       <c r="H41" s="17"/>
       <c r="I41" s="17"/>
     </row>
-    <row r="42" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" ht="15">
       <c r="A42" s="17"/>
       <c r="B42" s="17" t="s">
         <v>21</v>
@@ -12362,7 +12370,7 @@
       <c r="H42" s="17"/>
       <c r="I42" s="17"/>
     </row>
-    <row r="43" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" ht="15">
       <c r="A43" s="17"/>
       <c r="B43" s="17" t="s">
         <v>21</v>
@@ -12385,7 +12393,7 @@
       </c>
       <c r="I43" s="17"/>
     </row>
-    <row r="44" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" ht="15">
       <c r="A44" s="17"/>
       <c r="B44" s="17" t="s">
         <v>21</v>
@@ -12408,7 +12416,7 @@
       </c>
       <c r="I44" s="17"/>
     </row>
-    <row r="45" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" ht="15">
       <c r="A45" s="17"/>
       <c r="B45" s="17" t="s">
         <v>21</v>
@@ -12431,7 +12439,7 @@
       </c>
       <c r="I45" s="17"/>
     </row>
-    <row r="46" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" ht="15">
       <c r="A46" s="17"/>
       <c r="B46" s="17" t="s">
         <v>21</v>
@@ -12454,7 +12462,7 @@
       </c>
       <c r="I46" s="17"/>
     </row>
-    <row r="47" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" ht="15">
       <c r="A47" s="17"/>
       <c r="B47" s="17" t="s">
         <v>21</v>
@@ -12477,7 +12485,7 @@
       </c>
       <c r="I47" s="17"/>
     </row>
-    <row r="48" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" ht="15">
       <c r="A48" s="17"/>
       <c r="B48" s="17" t="s">
         <v>21</v>
@@ -12500,7 +12508,7 @@
       </c>
       <c r="I48" s="17"/>
     </row>
-    <row r="49" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" ht="15">
       <c r="A49" s="17"/>
       <c r="B49" s="17" t="s">
         <v>21</v>
@@ -12523,7 +12531,7 @@
       </c>
       <c r="I49" s="17"/>
     </row>
-    <row r="50" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" ht="15">
       <c r="A50" s="17"/>
       <c r="B50" s="17" t="s">
         <v>21</v>
@@ -12546,7 +12554,7 @@
       </c>
       <c r="I50" s="17"/>
     </row>
-    <row r="51" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" ht="15">
       <c r="A51" s="17" t="b">
         <v>0</v>
       </c>
@@ -12565,7 +12573,7 @@
       <c r="H51" s="17"/>
       <c r="I51" s="17"/>
     </row>
-    <row r="52" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" ht="15">
       <c r="A52" s="17"/>
       <c r="B52" s="17" t="s">
         <v>21</v>
@@ -12586,7 +12594,7 @@
       <c r="H52" s="17"/>
       <c r="I52" s="17"/>
     </row>
-    <row r="53" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" ht="15">
       <c r="A53" s="17"/>
       <c r="B53" s="17" t="s">
         <v>21</v>
@@ -12609,7 +12617,7 @@
       </c>
       <c r="I53" s="17"/>
     </row>
-    <row r="54" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" ht="15">
       <c r="A54" s="17"/>
       <c r="B54" s="17" t="s">
         <v>21</v>
@@ -12632,7 +12640,7 @@
       </c>
       <c r="I54" s="17"/>
     </row>
-    <row r="55" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" ht="15">
       <c r="A55" s="17"/>
       <c r="B55" s="17" t="s">
         <v>21</v>
@@ -12655,7 +12663,7 @@
       </c>
       <c r="I55" s="17"/>
     </row>
-    <row r="56" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" ht="15">
       <c r="A56" s="17"/>
       <c r="B56" s="17" t="s">
         <v>21</v>
@@ -12678,7 +12686,7 @@
       </c>
       <c r="I56" s="17"/>
     </row>
-    <row r="57" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" ht="15">
       <c r="A57" s="17"/>
       <c r="B57" s="17" t="s">
         <v>21</v>
@@ -12701,7 +12709,7 @@
       </c>
       <c r="I57" s="17"/>
     </row>
-    <row r="58" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" ht="15">
       <c r="A58" s="17"/>
       <c r="B58" s="17" t="s">
         <v>21</v>
@@ -12724,7 +12732,7 @@
       </c>
       <c r="I58" s="17"/>
     </row>
-    <row r="59" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" ht="15">
       <c r="A59" s="17"/>
       <c r="B59" s="17" t="s">
         <v>21</v>
@@ -12747,7 +12755,7 @@
       </c>
       <c r="I59" s="17"/>
     </row>
-    <row r="60" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" ht="15">
       <c r="A60" s="17"/>
       <c r="B60" s="17" t="s">
         <v>21</v>
@@ -12770,7 +12778,7 @@
       </c>
       <c r="I60" s="17"/>
     </row>
-    <row r="61" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" ht="15">
       <c r="A61" s="17" t="b">
         <v>0</v>
       </c>
@@ -12789,7 +12797,7 @@
       <c r="H61" s="17"/>
       <c r="I61" s="17"/>
     </row>
-    <row r="62" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" ht="15">
       <c r="A62" s="17"/>
       <c r="B62" s="17" t="s">
         <v>21</v>
@@ -12810,7 +12818,7 @@
       <c r="H62" s="17"/>
       <c r="I62" s="17"/>
     </row>
-    <row r="63" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" ht="15">
       <c r="A63" s="17"/>
       <c r="B63" s="17" t="s">
         <v>21</v>
@@ -12835,7 +12843,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" ht="15">
       <c r="A64" s="17"/>
       <c r="B64" s="17" t="s">
         <v>21</v>
@@ -12858,7 +12866,7 @@
       </c>
       <c r="I64" s="17"/>
     </row>
-    <row r="65" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" ht="15">
       <c r="A65" s="17"/>
       <c r="B65" s="17" t="s">
         <v>21</v>
@@ -12881,7 +12889,7 @@
       </c>
       <c r="I65" s="17"/>
     </row>
-    <row r="66" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" ht="15">
       <c r="A66" s="17"/>
       <c r="B66" s="17" t="s">
         <v>21</v>
@@ -12904,7 +12912,7 @@
       </c>
       <c r="I66" s="17"/>
     </row>
-    <row r="67" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" ht="15">
       <c r="A67" s="17"/>
       <c r="B67" s="17" t="s">
         <v>21</v>
@@ -12927,7 +12935,7 @@
       </c>
       <c r="I67" s="17"/>
     </row>
-    <row r="68" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" ht="15">
       <c r="A68" s="17"/>
       <c r="B68" s="17" t="s">
         <v>21</v>
@@ -12950,7 +12958,7 @@
       </c>
       <c r="I68" s="17"/>
     </row>
-    <row r="69" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" ht="15">
       <c r="A69" s="17"/>
       <c r="B69" s="17" t="s">
         <v>21</v>
@@ -12973,7 +12981,7 @@
       </c>
       <c r="I69" s="17"/>
     </row>
-    <row r="70" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" ht="15">
       <c r="A70" s="17"/>
       <c r="B70" s="17" t="s">
         <v>21</v>
@@ -12996,7 +13004,7 @@
       </c>
       <c r="I70" s="17"/>
     </row>
-    <row r="71" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" ht="15">
       <c r="A71" s="17"/>
       <c r="B71" s="17" t="s">
         <v>21</v>
@@ -13019,7 +13027,7 @@
       </c>
       <c r="I71" s="17"/>
     </row>
-    <row r="72" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9" ht="15">
       <c r="A72" s="17" t="b">
         <v>0</v>
       </c>
@@ -13038,7 +13046,7 @@
       <c r="H72" s="17"/>
       <c r="I72" s="17"/>
     </row>
-    <row r="73" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9" ht="15">
       <c r="A73" s="17"/>
       <c r="B73" s="17" t="s">
         <v>21</v>
@@ -13059,7 +13067,7 @@
       <c r="H73" s="17"/>
       <c r="I73" s="17"/>
     </row>
-    <row r="74" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9" ht="15">
       <c r="A74" s="17"/>
       <c r="B74" s="17" t="s">
         <v>21</v>
@@ -13082,7 +13090,7 @@
       </c>
       <c r="I74" s="17"/>
     </row>
-    <row r="75" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9" ht="15">
       <c r="A75" s="17"/>
       <c r="B75" s="17" t="s">
         <v>21</v>
@@ -13107,7 +13115,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9" ht="15">
       <c r="A76" s="17"/>
       <c r="B76" s="17" t="s">
         <v>21</v>
@@ -13130,7 +13138,7 @@
       </c>
       <c r="I76" s="17"/>
     </row>
-    <row r="77" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9" ht="15">
       <c r="A77" s="17"/>
       <c r="B77" s="17" t="s">
         <v>21</v>
@@ -13153,7 +13161,7 @@
       </c>
       <c r="I77" s="17"/>
     </row>
-    <row r="78" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9" ht="15">
       <c r="A78" s="17"/>
       <c r="B78" s="17" t="s">
         <v>21</v>
@@ -13176,7 +13184,7 @@
       </c>
       <c r="I78" s="17"/>
     </row>
-    <row r="79" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:9" ht="15">
       <c r="A79" s="17"/>
       <c r="B79" s="17" t="s">
         <v>21</v>
@@ -13199,7 +13207,7 @@
       </c>
       <c r="I79" s="17"/>
     </row>
-    <row r="80" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9" ht="15">
       <c r="A80" s="17"/>
       <c r="B80" s="17" t="s">
         <v>21</v>
@@ -13222,7 +13230,7 @@
       </c>
       <c r="I80" s="17"/>
     </row>
-    <row r="81" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:9" ht="15">
       <c r="A81" s="17"/>
       <c r="B81" s="17" t="s">
         <v>21</v>
@@ -13245,7 +13253,7 @@
       </c>
       <c r="I81" s="17"/>
     </row>
-    <row r="82" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:9" ht="15">
       <c r="A82" s="17"/>
       <c r="B82" s="17" t="s">
         <v>21</v>
@@ -13268,7 +13276,7 @@
       </c>
       <c r="I82" s="17"/>
     </row>
-    <row r="83" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:9" ht="15">
       <c r="A83" s="17"/>
       <c r="B83" s="17" t="s">
         <v>21</v>
@@ -13291,7 +13299,7 @@
       </c>
       <c r="I83" s="17"/>
     </row>
-    <row r="84" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:9" ht="15">
       <c r="A84" s="17"/>
       <c r="B84" s="17" t="s">
         <v>21</v>
@@ -13314,7 +13322,7 @@
       </c>
       <c r="I84" s="17"/>
     </row>
-    <row r="85" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:9" ht="15">
       <c r="A85" s="17"/>
       <c r="B85" s="17" t="s">
         <v>21</v>
@@ -13337,7 +13345,7 @@
       </c>
       <c r="I85" s="17"/>
     </row>
-    <row r="86" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:9" ht="15">
       <c r="A86" s="17" t="b">
         <v>0</v>
       </c>
@@ -13356,7 +13364,7 @@
       <c r="H86" s="17"/>
       <c r="I86" s="17"/>
     </row>
-    <row r="87" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:9" ht="15">
       <c r="A87" s="17"/>
       <c r="B87" s="17" t="s">
         <v>21</v>
@@ -13379,7 +13387,7 @@
       </c>
       <c r="I87" s="17"/>
     </row>
-    <row r="88" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:9" ht="15">
       <c r="A88" s="17"/>
       <c r="B88" s="17" t="s">
         <v>21</v>
@@ -13402,7 +13410,7 @@
       </c>
       <c r="I88" s="17"/>
     </row>
-    <row r="89" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:9" ht="15">
       <c r="A89" s="17"/>
       <c r="B89" s="17" t="s">
         <v>21</v>
@@ -13425,7 +13433,7 @@
       </c>
       <c r="I89" s="17"/>
     </row>
-    <row r="90" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:9" ht="15">
       <c r="A90" s="17"/>
       <c r="B90" s="17" t="s">
         <v>21</v>
@@ -13448,7 +13456,7 @@
       </c>
       <c r="I90" s="17"/>
     </row>
-    <row r="91" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:9" ht="15">
       <c r="A91" s="17"/>
       <c r="B91" s="17" t="s">
         <v>21</v>
@@ -13471,7 +13479,7 @@
       </c>
       <c r="I91" s="17"/>
     </row>
-    <row r="92" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:9" ht="15">
       <c r="A92" s="17"/>
       <c r="B92" s="17" t="s">
         <v>21</v>
@@ -13494,7 +13502,7 @@
       </c>
       <c r="I92" s="17"/>
     </row>
-    <row r="93" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:9" ht="15">
       <c r="A93" s="17"/>
       <c r="B93" s="17" t="s">
         <v>21</v>
@@ -13517,7 +13525,7 @@
       </c>
       <c r="I93" s="17"/>
     </row>
-    <row r="94" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:9" ht="15">
       <c r="A94" s="17"/>
       <c r="B94" s="17" t="s">
         <v>21</v>
@@ -13540,7 +13548,7 @@
       </c>
       <c r="I94" s="17"/>
     </row>
-    <row r="95" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:9" ht="15">
       <c r="A95" s="17"/>
       <c r="B95" s="17" t="s">
         <v>21</v>
@@ -13563,7 +13571,7 @@
       </c>
       <c r="I95" s="17"/>
     </row>
-    <row r="96" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:9" ht="15">
       <c r="A96" s="17"/>
       <c r="B96" s="17" t="s">
         <v>21</v>
@@ -13586,7 +13594,7 @@
       </c>
       <c r="I96" s="17"/>
     </row>
-    <row r="97" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:9" ht="15">
       <c r="A97" s="17" t="b">
         <v>0</v>
       </c>
@@ -13605,7 +13613,7 @@
       <c r="H97" s="17"/>
       <c r="I97" s="17"/>
     </row>
-    <row r="98" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:9" ht="15">
       <c r="A98" s="17"/>
       <c r="B98" s="17" t="s">
         <v>21</v>
@@ -13630,7 +13638,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:9" ht="15">
       <c r="A99" s="17" t="b">
         <v>0</v>
       </c>
@@ -13649,7 +13657,7 @@
       <c r="H99" s="17"/>
       <c r="I99" s="17"/>
     </row>
-    <row r="100" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:9" ht="15">
       <c r="A100" s="17"/>
       <c r="B100" s="17" t="s">
         <v>21</v>
@@ -13670,7 +13678,7 @@
       <c r="H100" s="17"/>
       <c r="I100" s="17"/>
     </row>
-    <row r="101" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:9" ht="15">
       <c r="A101" s="17"/>
       <c r="B101" s="17" t="s">
         <v>21</v>
@@ -13695,7 +13703,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:9" ht="15">
       <c r="A102" s="17" t="b">
         <v>0</v>
       </c>
@@ -13714,7 +13722,7 @@
       <c r="H102" s="17"/>
       <c r="I102" s="17"/>
     </row>
-    <row r="103" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:9" ht="15">
       <c r="A103" s="17"/>
       <c r="B103" s="17" t="s">
         <v>21</v>
@@ -13737,7 +13745,7 @@
       </c>
       <c r="I103" s="17"/>
     </row>
-    <row r="104" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:9" ht="15">
       <c r="A104" s="17"/>
       <c r="B104" s="17" t="s">
         <v>21</v>
@@ -13762,7 +13770,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:9" ht="15">
       <c r="A105" s="17"/>
       <c r="B105" s="17" t="s">
         <v>21</v>
@@ -13785,7 +13793,7 @@
       </c>
       <c r="I105" s="17"/>
     </row>
-    <row r="106" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:9" ht="15">
       <c r="A106" s="17"/>
       <c r="B106" s="17" t="s">
         <v>21</v>
@@ -13806,7 +13814,7 @@
       <c r="H106" s="17"/>
       <c r="I106" s="17"/>
     </row>
-    <row r="107" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:9" ht="15">
       <c r="A107" s="17" t="b">
         <v>0</v>
       </c>
@@ -13825,7 +13833,7 @@
       <c r="H107" s="17"/>
       <c r="I107" s="17"/>
     </row>
-    <row r="108" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:9" ht="15">
       <c r="A108" s="17"/>
       <c r="B108" s="17" t="s">
         <v>21</v>
@@ -13850,7 +13858,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:9" ht="15">
       <c r="A109" s="17"/>
       <c r="B109" s="17" t="s">
         <v>21</v>
@@ -13873,7 +13881,7 @@
       </c>
       <c r="I109" s="17"/>
     </row>
-    <row r="110" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:9" ht="15">
       <c r="A110" s="17"/>
       <c r="B110" s="17" t="s">
         <v>21</v>
@@ -13896,7 +13904,7 @@
       </c>
       <c r="I110" s="17"/>
     </row>
-    <row r="111" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:9" ht="15">
       <c r="A111" s="17"/>
       <c r="B111" s="17" t="s">
         <v>21</v>
@@ -13919,7 +13927,7 @@
       </c>
       <c r="I111" s="17"/>
     </row>
-    <row r="112" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:9" ht="15">
       <c r="A112" s="17"/>
       <c r="B112" s="17" t="s">
         <v>21</v>
@@ -13942,7 +13950,7 @@
       </c>
       <c r="I112" s="17"/>
     </row>
-    <row r="113" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:9" ht="15">
       <c r="A113" s="17"/>
       <c r="B113" s="17" t="s">
         <v>21</v>
@@ -13965,7 +13973,7 @@
       </c>
       <c r="I113" s="17"/>
     </row>
-    <row r="114" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:9" ht="15">
       <c r="A114" s="17"/>
       <c r="B114" s="17" t="s">
         <v>21</v>
@@ -13988,7 +13996,7 @@
       </c>
       <c r="I114" s="17"/>
     </row>
-    <row r="115" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:9" ht="15">
       <c r="A115" s="17" t="b">
         <v>0</v>
       </c>
@@ -14007,7 +14015,7 @@
       <c r="H115" s="17"/>
       <c r="I115" s="17"/>
     </row>
-    <row r="116" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:9" ht="15">
       <c r="A116" s="17"/>
       <c r="B116" s="17" t="s">
         <v>21</v>
@@ -14030,7 +14038,7 @@
       </c>
       <c r="I116" s="17"/>
     </row>
-    <row r="117" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:9" ht="15">
       <c r="A117" s="17"/>
       <c r="B117" s="17" t="s">
         <v>21</v>
@@ -14053,7 +14061,7 @@
       </c>
       <c r="I117" s="17"/>
     </row>
-    <row r="118" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:9" ht="15">
       <c r="A118" s="17"/>
       <c r="B118" s="17" t="s">
         <v>21</v>
@@ -14076,7 +14084,7 @@
       </c>
       <c r="I118" s="17"/>
     </row>
-    <row r="119" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:9" ht="15">
       <c r="A119" s="17" t="b">
         <v>0</v>
       </c>
@@ -14095,7 +14103,7 @@
       <c r="H119" s="17"/>
       <c r="I119" s="17"/>
     </row>
-    <row r="120" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:9" ht="15">
       <c r="A120" s="17"/>
       <c r="B120" s="17" t="s">
         <v>21</v>
@@ -14118,7 +14126,7 @@
       </c>
       <c r="I120" s="17"/>
     </row>
-    <row r="121" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:9" ht="15">
       <c r="A121" s="17"/>
       <c r="B121" s="17" t="s">
         <v>21</v>
@@ -14141,7 +14149,7 @@
       </c>
       <c r="I121" s="17"/>
     </row>
-    <row r="122" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:9" ht="15">
       <c r="A122" s="17"/>
       <c r="B122" s="17" t="s">
         <v>21</v>
@@ -14164,7 +14172,7 @@
       </c>
       <c r="I122" s="17"/>
     </row>
-    <row r="123" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:9" ht="15">
       <c r="A123" s="17"/>
       <c r="B123" s="17" t="s">
         <v>21</v>
@@ -14187,7 +14195,7 @@
       </c>
       <c r="I123" s="17"/>
     </row>
-    <row r="124" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:9" ht="15">
       <c r="A124" s="17"/>
       <c r="B124" s="17" t="s">
         <v>21</v>
@@ -14210,7 +14218,7 @@
       </c>
       <c r="I124" s="17"/>
     </row>
-    <row r="125" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:9" ht="15">
       <c r="A125" s="17"/>
       <c r="B125" s="17" t="s">
         <v>21</v>
@@ -14233,7 +14241,7 @@
       </c>
       <c r="I125" s="17"/>
     </row>
-    <row r="126" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:9" ht="15">
       <c r="A126" s="17" t="b">
         <v>0</v>
       </c>
@@ -14252,7 +14260,7 @@
       <c r="H126" s="17"/>
       <c r="I126" s="17"/>
     </row>
-    <row r="127" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:9" ht="15">
       <c r="A127" s="17"/>
       <c r="B127" s="17" t="s">
         <v>21</v>
@@ -14277,7 +14285,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="128" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:9" ht="15">
       <c r="A128" s="17"/>
       <c r="B128" s="17" t="s">
         <v>21</v>
@@ -14300,7 +14308,7 @@
       </c>
       <c r="I128" s="17"/>
     </row>
-    <row r="129" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:9" ht="15">
       <c r="A129" s="17"/>
       <c r="B129" s="17" t="s">
         <v>21</v>
@@ -14323,7 +14331,7 @@
       </c>
       <c r="I129" s="17"/>
     </row>
-    <row r="130" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:9" ht="15">
       <c r="A130" s="17"/>
       <c r="B130" s="17" t="s">
         <v>21</v>
@@ -14346,7 +14354,7 @@
       </c>
       <c r="I130" s="17"/>
     </row>
-    <row r="131" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:9" ht="15">
       <c r="A131" s="17"/>
       <c r="B131" s="17" t="s">
         <v>21</v>
@@ -14369,7 +14377,7 @@
       </c>
       <c r="I131" s="17"/>
     </row>
-    <row r="132" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:9" ht="15">
       <c r="A132" s="17"/>
       <c r="B132" s="17" t="s">
         <v>21</v>
@@ -14392,7 +14400,7 @@
       </c>
       <c r="I132" s="17"/>
     </row>
-    <row r="133" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:9" ht="15">
       <c r="A133" s="17"/>
       <c r="B133" s="17" t="s">
         <v>21</v>
@@ -14415,7 +14423,7 @@
       </c>
       <c r="I133" s="17"/>
     </row>
-    <row r="134" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:9" ht="15">
       <c r="A134" s="17"/>
       <c r="B134" s="17" t="s">
         <v>21</v>
@@ -14438,7 +14446,7 @@
       </c>
       <c r="I134" s="17"/>
     </row>
-    <row r="135" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:9" ht="15">
       <c r="A135" s="17"/>
       <c r="B135" s="17" t="s">
         <v>21</v>
@@ -14461,7 +14469,7 @@
       </c>
       <c r="I135" s="17"/>
     </row>
-    <row r="136" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:9" ht="15">
       <c r="A136" s="17" t="b">
         <v>0</v>
       </c>
@@ -14480,7 +14488,7 @@
       <c r="H136" s="17"/>
       <c r="I136" s="17"/>
     </row>
-    <row r="137" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:9" ht="15">
       <c r="A137" s="17"/>
       <c r="B137" s="17" t="s">
         <v>21</v>
@@ -14505,7 +14513,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="138" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:9" ht="15">
       <c r="A138" s="17"/>
       <c r="B138" s="17" t="s">
         <v>21</v>
@@ -14526,7 +14534,7 @@
       <c r="H138" s="17"/>
       <c r="I138" s="17"/>
     </row>
-    <row r="139" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:9" ht="15">
       <c r="A139" s="17"/>
       <c r="B139" s="17" t="s">
         <v>21</v>
@@ -14549,7 +14557,7 @@
       </c>
       <c r="I139" s="17"/>
     </row>
-    <row r="140" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:9" ht="15">
       <c r="A140" s="17"/>
       <c r="B140" s="17" t="s">
         <v>21</v>
@@ -14572,7 +14580,7 @@
       </c>
       <c r="I140" s="17"/>
     </row>
-    <row r="141" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:9" ht="15">
       <c r="A141" s="17"/>
       <c r="B141" s="17" t="s">
         <v>21</v>
@@ -14595,7 +14603,7 @@
       </c>
       <c r="I141" s="17"/>
     </row>
-    <row r="142" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:9" ht="15">
       <c r="A142" s="17"/>
       <c r="B142" s="17" t="s">
         <v>21</v>
@@ -14618,7 +14626,7 @@
       </c>
       <c r="I142" s="17"/>
     </row>
-    <row r="143" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:9" ht="15">
       <c r="A143" s="17"/>
       <c r="B143" s="17" t="s">
         <v>21</v>
@@ -14641,7 +14649,7 @@
       </c>
       <c r="I143" s="17"/>
     </row>
-    <row r="144" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:9" ht="15">
       <c r="A144" s="17"/>
       <c r="B144" s="17" t="s">
         <v>21</v>
@@ -14664,7 +14672,7 @@
       </c>
       <c r="I144" s="17"/>
     </row>
-    <row r="145" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:9" ht="15">
       <c r="A145" s="17"/>
       <c r="B145" s="17" t="s">
         <v>21</v>
@@ -14687,7 +14695,7 @@
       </c>
       <c r="I145" s="17"/>
     </row>
-    <row r="146" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:9" ht="15">
       <c r="A146" s="17"/>
       <c r="B146" s="17" t="s">
         <v>21</v>
@@ -14710,7 +14718,7 @@
       </c>
       <c r="I146" s="17"/>
     </row>
-    <row r="147" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:9" ht="15">
       <c r="A147" s="17"/>
       <c r="B147" s="17" t="s">
         <v>21</v>
@@ -14733,7 +14741,7 @@
       </c>
       <c r="I147" s="17"/>
     </row>
-    <row r="148" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:9" ht="15">
       <c r="A148" s="17"/>
       <c r="B148" s="17" t="s">
         <v>21</v>
@@ -14756,7 +14764,7 @@
       </c>
       <c r="I148" s="17"/>
     </row>
-    <row r="149" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:9" ht="15">
       <c r="A149" s="17"/>
       <c r="B149" s="17" t="s">
         <v>21</v>
@@ -14779,7 +14787,7 @@
       </c>
       <c r="I149" s="17"/>
     </row>
-    <row r="150" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:9" ht="15">
       <c r="A150" s="17"/>
       <c r="B150" s="17" t="s">
         <v>21</v>
@@ -14802,7 +14810,7 @@
       </c>
       <c r="I150" s="17"/>
     </row>
-    <row r="151" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:9" ht="15">
       <c r="A151" s="17" t="b">
         <v>0</v>
       </c>
@@ -14821,7 +14829,7 @@
       <c r="H151" s="17"/>
       <c r="I151" s="17"/>
     </row>
-    <row r="152" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:9" ht="15">
       <c r="A152" s="17"/>
       <c r="B152" s="17" t="s">
         <v>21</v>
@@ -14844,7 +14852,7 @@
       </c>
       <c r="I152" s="17"/>
     </row>
-    <row r="153" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:9" ht="15">
       <c r="A153" s="17" t="b">
         <v>0</v>
       </c>
@@ -14863,7 +14871,7 @@
       <c r="H153" s="17"/>
       <c r="I153" s="17"/>
     </row>
-    <row r="154" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:9" ht="15">
       <c r="A154" s="17"/>
       <c r="B154" s="17" t="s">
         <v>21</v>
@@ -14886,7 +14894,7 @@
       </c>
       <c r="I154" s="17"/>
     </row>
-    <row r="155" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:9" ht="15">
       <c r="A155" s="17"/>
       <c r="B155" s="17" t="s">
         <v>21</v>
@@ -14909,7 +14917,7 @@
       </c>
       <c r="I155" s="17"/>
     </row>
-    <row r="156" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:9" ht="15">
       <c r="A156" s="17" t="b">
         <v>0</v>
       </c>
@@ -14928,7 +14936,7 @@
       <c r="H156" s="17"/>
       <c r="I156" s="17"/>
     </row>
-    <row r="157" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:9" ht="15">
       <c r="A157" s="17"/>
       <c r="B157" s="17" t="s">
         <v>21</v>
@@ -14953,7 +14961,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="158" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:9" ht="15">
       <c r="A158" s="17"/>
       <c r="B158" s="17" t="s">
         <v>21</v>
@@ -14976,7 +14984,7 @@
       </c>
       <c r="I158" s="17"/>
     </row>
-    <row r="159" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:9" ht="15">
       <c r="A159" s="17"/>
       <c r="B159" s="17" t="s">
         <v>21</v>
@@ -14999,7 +15007,7 @@
       </c>
       <c r="I159" s="17"/>
     </row>
-    <row r="160" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:9" ht="15">
       <c r="A160" s="17"/>
       <c r="B160" s="17" t="s">
         <v>21</v>
@@ -15022,7 +15030,7 @@
       </c>
       <c r="I160" s="17"/>
     </row>
-    <row r="161" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:9" ht="15">
       <c r="A161" s="17"/>
       <c r="B161" s="17" t="s">
         <v>21</v>
@@ -15045,7 +15053,7 @@
       </c>
       <c r="I161" s="17"/>
     </row>
-    <row r="162" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:9" ht="15">
       <c r="A162" s="17"/>
       <c r="B162" s="17" t="s">
         <v>21</v>
@@ -15068,7 +15076,7 @@
       </c>
       <c r="I162" s="17"/>
     </row>
-    <row r="163" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:9" ht="15">
       <c r="A163" s="17"/>
       <c r="B163" s="17" t="s">
         <v>21</v>
@@ -15091,7 +15099,7 @@
       </c>
       <c r="I163" s="17"/>
     </row>
-    <row r="164" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:9" ht="15">
       <c r="A164" s="17"/>
       <c r="B164" s="17" t="s">
         <v>21</v>
@@ -15114,7 +15122,7 @@
       </c>
       <c r="I164" s="17"/>
     </row>
-    <row r="165" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:9" ht="15">
       <c r="A165" s="17"/>
       <c r="B165" s="17" t="s">
         <v>21</v>
@@ -15137,7 +15145,7 @@
       </c>
       <c r="I165" s="17"/>
     </row>
-    <row r="166" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:9" ht="15">
       <c r="A166" s="17"/>
       <c r="B166" s="17" t="s">
         <v>21</v>
@@ -15160,7 +15168,7 @@
       </c>
       <c r="I166" s="17"/>
     </row>
-    <row r="167" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:9" ht="15">
       <c r="A167" s="17" t="b">
         <v>0</v>
       </c>
@@ -15179,7 +15187,7 @@
       <c r="H167" s="17"/>
       <c r="I167" s="17"/>
     </row>
-    <row r="168" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:9" ht="15">
       <c r="A168" s="17"/>
       <c r="B168" s="17" t="s">
         <v>21</v>
@@ -15204,7 +15212,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="169" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:9" ht="15">
       <c r="A169" s="17"/>
       <c r="B169" s="17" t="s">
         <v>21</v>
@@ -15227,7 +15235,7 @@
       </c>
       <c r="I169" s="17"/>
     </row>
-    <row r="170" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:9" ht="15">
       <c r="A170" s="17"/>
       <c r="B170" s="17" t="s">
         <v>21</v>
@@ -15250,7 +15258,7 @@
       </c>
       <c r="I170" s="17"/>
     </row>
-    <row r="171" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:9" ht="15">
       <c r="A171" s="17"/>
       <c r="B171" s="17" t="s">
         <v>21</v>
@@ -15273,7 +15281,7 @@
       </c>
       <c r="I171" s="17"/>
     </row>
-    <row r="172" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:9" ht="15">
       <c r="A172" s="17"/>
       <c r="B172" s="17" t="s">
         <v>21</v>
@@ -15296,7 +15304,7 @@
       </c>
       <c r="I172" s="17"/>
     </row>
-    <row r="173" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:9" ht="15">
       <c r="A173" s="17"/>
       <c r="B173" s="17" t="s">
         <v>21</v>
@@ -15319,7 +15327,7 @@
       </c>
       <c r="I173" s="17"/>
     </row>
-    <row r="174" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:9" ht="15">
       <c r="A174" s="17"/>
       <c r="B174" s="17" t="s">
         <v>21</v>
@@ -15342,7 +15350,7 @@
       </c>
       <c r="I174" s="17"/>
     </row>
-    <row r="175" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:9" ht="15">
       <c r="A175" s="17"/>
       <c r="B175" s="17" t="s">
         <v>21</v>
@@ -15365,7 +15373,7 @@
       </c>
       <c r="I175" s="17"/>
     </row>
-    <row r="176" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:9" ht="15">
       <c r="A176" s="17"/>
       <c r="B176" s="17" t="s">
         <v>21</v>
@@ -15388,7 +15396,7 @@
       </c>
       <c r="I176" s="17"/>
     </row>
-    <row r="177" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:9" ht="15">
       <c r="A177" s="17"/>
       <c r="B177" s="17" t="s">
         <v>21</v>
@@ -15411,7 +15419,7 @@
       </c>
       <c r="I177" s="17"/>
     </row>
-    <row r="178" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:9" ht="15">
       <c r="A178" s="17" t="b">
         <v>0</v>
       </c>
@@ -15430,7 +15438,7 @@
       <c r="H178" s="17"/>
       <c r="I178" s="17"/>
     </row>
-    <row r="179" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:9" ht="15">
       <c r="A179" s="17"/>
       <c r="B179" s="17" t="s">
         <v>21</v>
@@ -15453,7 +15461,7 @@
       </c>
       <c r="I179" s="17"/>
     </row>
-    <row r="180" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:9" ht="15">
       <c r="A180" s="17"/>
       <c r="B180" s="17" t="s">
         <v>21</v>
@@ -15476,7 +15484,7 @@
       </c>
       <c r="I180" s="17"/>
     </row>
-    <row r="181" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:9" ht="15">
       <c r="A181" s="17"/>
       <c r="B181" s="17" t="s">
         <v>21</v>
@@ -15499,7 +15507,7 @@
       </c>
       <c r="I181" s="17"/>
     </row>
-    <row r="182" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:9" ht="15">
       <c r="A182" s="17"/>
       <c r="B182" s="17" t="s">
         <v>21</v>
@@ -15522,7 +15530,7 @@
       </c>
       <c r="I182" s="17"/>
     </row>
-    <row r="183" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:9" ht="15">
       <c r="A183" s="17" t="b">
         <v>0</v>
       </c>
@@ -15541,7 +15549,7 @@
       <c r="H183" s="17"/>
       <c r="I183" s="17"/>
     </row>
-    <row r="184" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:9" ht="15">
       <c r="A184" s="17"/>
       <c r="B184" s="17" t="s">
         <v>21</v>
@@ -15564,7 +15572,7 @@
       </c>
       <c r="I184" s="17"/>
     </row>
-    <row r="185" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:9" ht="15">
       <c r="A185" s="17"/>
       <c r="B185" s="17" t="s">
         <v>21</v>
@@ -15587,7 +15595,7 @@
       </c>
       <c r="I185" s="17"/>
     </row>
-    <row r="186" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:9" ht="15">
       <c r="A186" s="17"/>
       <c r="B186" s="17" t="s">
         <v>21</v>
@@ -15610,7 +15618,7 @@
       </c>
       <c r="I186" s="17"/>
     </row>
-    <row r="187" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:9" ht="15">
       <c r="A187" s="17"/>
       <c r="B187" s="17" t="s">
         <v>21</v>
@@ -15633,7 +15641,7 @@
       </c>
       <c r="I187" s="17"/>
     </row>
-    <row r="188" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:9" ht="15">
       <c r="A188" s="17" t="b">
         <v>0</v>
       </c>
@@ -15652,7 +15660,7 @@
       <c r="H188" s="17"/>
       <c r="I188" s="17"/>
     </row>
-    <row r="189" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:9" ht="15">
       <c r="A189" s="17"/>
       <c r="B189" s="17" t="s">
         <v>21</v>
@@ -15673,7 +15681,7 @@
       <c r="H189" s="17"/>
       <c r="I189" s="17"/>
     </row>
-    <row r="190" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:9" ht="15">
       <c r="A190" s="17"/>
       <c r="B190" s="17" t="s">
         <v>21</v>
@@ -15696,7 +15704,7 @@
       </c>
       <c r="I190" s="17"/>
     </row>
-    <row r="191" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:9" ht="15">
       <c r="A191" s="17" t="b">
         <v>0</v>
       </c>
@@ -15715,7 +15723,7 @@
       <c r="H191" s="17"/>
       <c r="I191" s="17"/>
     </row>
-    <row r="192" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:9" ht="15">
       <c r="A192" s="17"/>
       <c r="B192" s="17" t="s">
         <v>21</v>
@@ -15738,7 +15746,7 @@
       </c>
       <c r="I192" s="17"/>
     </row>
-    <row r="193" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:9" ht="15">
       <c r="A193" s="17"/>
       <c r="B193" s="17" t="s">
         <v>21</v>
@@ -15763,7 +15771,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="194" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:9" ht="15">
       <c r="A194" s="17"/>
       <c r="B194" s="17" t="s">
         <v>21</v>
@@ -15784,7 +15792,7 @@
       <c r="H194" s="17"/>
       <c r="I194" s="17"/>
     </row>
-    <row r="195" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:9" ht="15">
       <c r="A195" s="17"/>
       <c r="B195" s="17" t="s">
         <v>21</v>
@@ -15809,7 +15817,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="196" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:9" ht="15">
       <c r="A196" s="17"/>
       <c r="B196" s="17" t="s">
         <v>21</v>
@@ -15834,7 +15842,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="197" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:9" ht="15">
       <c r="A197" s="17" t="b">
         <v>0</v>
       </c>
@@ -15853,7 +15861,7 @@
       <c r="H197" s="17"/>
       <c r="I197" s="17"/>
     </row>
-    <row r="198" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:9" ht="15">
       <c r="A198" s="17"/>
       <c r="B198" s="17" t="s">
         <v>21</v>
@@ -15878,7 +15886,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="199" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:9" ht="15">
       <c r="A199" s="17"/>
       <c r="B199" s="17" t="s">
         <v>21</v>
@@ -15901,7 +15909,7 @@
       </c>
       <c r="I199" s="17"/>
     </row>
-    <row r="200" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:9" ht="15">
       <c r="A200" s="17"/>
       <c r="B200" s="17" t="s">
         <v>21</v>
@@ -15924,7 +15932,7 @@
       </c>
       <c r="I200" s="17"/>
     </row>
-    <row r="201" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:9" ht="15">
       <c r="A201" s="17"/>
       <c r="B201" s="17" t="s">
         <v>21</v>
@@ -15947,7 +15955,7 @@
       </c>
       <c r="I201" s="17"/>
     </row>
-    <row r="202" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:9" ht="15">
       <c r="A202" s="17"/>
       <c r="B202" s="17" t="s">
         <v>21</v>
@@ -15970,7 +15978,7 @@
       </c>
       <c r="I202" s="17"/>
     </row>
-    <row r="203" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:9" ht="15">
       <c r="A203" s="17"/>
       <c r="B203" s="17" t="s">
         <v>21</v>
@@ -15993,7 +16001,7 @@
       </c>
       <c r="I203" s="17"/>
     </row>
-    <row r="204" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:9" ht="15">
       <c r="A204" s="17"/>
       <c r="B204" s="17" t="s">
         <v>21</v>
@@ -16016,7 +16024,7 @@
       </c>
       <c r="I204" s="17"/>
     </row>
-    <row r="205" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:9" ht="15">
       <c r="A205" s="17"/>
       <c r="B205" s="17" t="s">
         <v>21</v>
@@ -16039,7 +16047,7 @@
       </c>
       <c r="I205" s="17"/>
     </row>
-    <row r="206" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:9" ht="15">
       <c r="A206" s="17"/>
       <c r="B206" s="17" t="s">
         <v>21</v>
@@ -16062,7 +16070,7 @@
       </c>
       <c r="I206" s="17"/>
     </row>
-    <row r="207" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:9" ht="15">
       <c r="A207" s="17" t="b">
         <v>0</v>
       </c>
@@ -16081,7 +16089,7 @@
       <c r="H207" s="17"/>
       <c r="I207" s="17"/>
     </row>
-    <row r="208" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:9" ht="15">
       <c r="A208" s="17"/>
       <c r="B208" s="17" t="s">
         <v>21</v>
@@ -16106,7 +16114,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="209" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:9" ht="15">
       <c r="A209" s="17"/>
       <c r="B209" s="17" t="s">
         <v>21</v>
@@ -16129,7 +16137,7 @@
       </c>
       <c r="I209" s="17"/>
     </row>
-    <row r="210" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:9" ht="15">
       <c r="A210" s="17"/>
       <c r="B210" s="17" t="s">
         <v>21</v>
@@ -16152,7 +16160,7 @@
       </c>
       <c r="I210" s="17"/>
     </row>
-    <row r="211" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:9" ht="15">
       <c r="A211" s="17"/>
       <c r="B211" s="17" t="s">
         <v>21</v>
@@ -16175,7 +16183,7 @@
       </c>
       <c r="I211" s="17"/>
     </row>
-    <row r="212" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:9" ht="15">
       <c r="A212" s="17"/>
       <c r="B212" s="17" t="s">
         <v>21</v>
@@ -16198,7 +16206,7 @@
       </c>
       <c r="I212" s="17"/>
     </row>
-    <row r="213" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:9" ht="15">
       <c r="A213" s="17"/>
       <c r="B213" s="17" t="s">
         <v>21</v>
@@ -16221,7 +16229,7 @@
       </c>
       <c r="I213" s="17"/>
     </row>
-    <row r="214" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:9" ht="15">
       <c r="A214" s="17"/>
       <c r="B214" s="17" t="s">
         <v>21</v>
@@ -16244,7 +16252,7 @@
       </c>
       <c r="I214" s="17"/>
     </row>
-    <row r="215" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:9" ht="15">
       <c r="A215" s="17"/>
       <c r="B215" s="17" t="s">
         <v>21</v>
@@ -16267,7 +16275,7 @@
       </c>
       <c r="I215" s="17"/>
     </row>
-    <row r="216" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:9" ht="15">
       <c r="A216" s="17"/>
       <c r="B216" s="17" t="s">
         <v>21</v>
@@ -16290,7 +16298,7 @@
       </c>
       <c r="I216" s="17"/>
     </row>
-    <row r="217" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:9" ht="15">
       <c r="A217" s="17" t="b">
         <v>0</v>
       </c>
@@ -16309,7 +16317,7 @@
       <c r="H217" s="17"/>
       <c r="I217" s="17"/>
     </row>
-    <row r="218" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:9" ht="15">
       <c r="A218" s="17"/>
       <c r="B218" s="17" t="s">
         <v>21</v>
@@ -16330,7 +16338,7 @@
       <c r="H218" s="17"/>
       <c r="I218" s="17"/>
     </row>
-    <row r="219" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:9" ht="15">
       <c r="A219" s="17"/>
       <c r="B219" s="17" t="s">
         <v>21</v>
@@ -16353,7 +16361,7 @@
       </c>
       <c r="I219" s="17"/>
     </row>
-    <row r="220" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:9" ht="15">
       <c r="A220" s="17"/>
       <c r="B220" s="17" t="s">
         <v>21</v>
@@ -16376,7 +16384,7 @@
       </c>
       <c r="I220" s="17"/>
     </row>
-    <row r="221" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:9" ht="15">
       <c r="A221" s="17"/>
       <c r="B221" s="17" t="s">
         <v>21</v>
@@ -16399,7 +16407,7 @@
       </c>
       <c r="I221" s="17"/>
     </row>
-    <row r="222" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:9" ht="15">
       <c r="A222" s="17"/>
       <c r="B222" s="17" t="s">
         <v>21</v>
@@ -16422,7 +16430,7 @@
       </c>
       <c r="I222" s="17"/>
     </row>
-    <row r="223" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:9" ht="15">
       <c r="A223" s="17"/>
       <c r="B223" s="17" t="s">
         <v>21</v>
@@ -16445,7 +16453,7 @@
       </c>
       <c r="I223" s="17"/>
     </row>
-    <row r="224" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:9" ht="15">
       <c r="A224" s="17"/>
       <c r="B224" s="17" t="s">
         <v>21</v>
@@ -16468,7 +16476,7 @@
       </c>
       <c r="I224" s="17"/>
     </row>
-    <row r="225" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:9" ht="15">
       <c r="A225" s="17"/>
       <c r="B225" s="17" t="s">
         <v>21</v>
@@ -16491,7 +16499,7 @@
       </c>
       <c r="I225" s="17"/>
     </row>
-    <row r="226" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:9" ht="15">
       <c r="A226" s="17"/>
       <c r="B226" s="17" t="s">
         <v>21</v>
@@ -16514,7 +16522,7 @@
       </c>
       <c r="I226" s="17"/>
     </row>
-    <row r="227" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:9" ht="15">
       <c r="A227" s="17"/>
       <c r="B227" s="17" t="s">
         <v>21</v>
@@ -16537,7 +16545,7 @@
       </c>
       <c r="I227" s="17"/>
     </row>
-    <row r="228" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:9" ht="15">
       <c r="A228" s="17"/>
       <c r="B228" s="17" t="s">
         <v>21</v>
@@ -16560,7 +16568,7 @@
       </c>
       <c r="I228" s="17"/>
     </row>
-    <row r="229" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:9" ht="15">
       <c r="A229" s="17"/>
       <c r="B229" s="17" t="s">
         <v>21</v>
@@ -16583,7 +16591,7 @@
       </c>
       <c r="I229" s="17"/>
     </row>
-    <row r="230" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:9" ht="15">
       <c r="A230" s="17"/>
       <c r="B230" s="17" t="s">
         <v>21</v>
@@ -16606,7 +16614,7 @@
       </c>
       <c r="I230" s="17"/>
     </row>
-    <row r="231" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:9" ht="15">
       <c r="A231" s="17"/>
       <c r="B231" s="17" t="s">
         <v>21</v>
@@ -16629,7 +16637,7 @@
       </c>
       <c r="I231" s="17"/>
     </row>
-    <row r="232" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:9" ht="15">
       <c r="A232" s="17"/>
       <c r="B232" s="17" t="s">
         <v>21</v>
@@ -16652,7 +16660,7 @@
       </c>
       <c r="I232" s="17"/>
     </row>
-    <row r="233" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:9" ht="15">
       <c r="A233" s="17"/>
       <c r="B233" s="17" t="s">
         <v>21</v>
@@ -16675,7 +16683,7 @@
       </c>
       <c r="I233" s="17"/>
     </row>
-    <row r="234" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:9" ht="15">
       <c r="A234" s="17" t="b">
         <v>0</v>
       </c>
@@ -16694,7 +16702,7 @@
       <c r="H234" s="17"/>
       <c r="I234" s="17"/>
     </row>
-    <row r="235" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:9" ht="15">
       <c r="A235" s="17"/>
       <c r="B235" s="17" t="s">
         <v>21</v>
@@ -16715,7 +16723,7 @@
       <c r="H235" s="17"/>
       <c r="I235" s="17"/>
     </row>
-    <row r="236" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:9" ht="15">
       <c r="A236" s="17"/>
       <c r="B236" s="17" t="s">
         <v>21</v>
@@ -16738,7 +16746,7 @@
       </c>
       <c r="I236" s="17"/>
     </row>
-    <row r="237" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:9" ht="15">
       <c r="A237" s="17"/>
       <c r="B237" s="17" t="s">
         <v>21</v>
@@ -16761,7 +16769,7 @@
       </c>
       <c r="I237" s="17"/>
     </row>
-    <row r="238" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:9" ht="15">
       <c r="A238" s="17"/>
       <c r="B238" s="17" t="s">
         <v>21</v>
@@ -16784,7 +16792,7 @@
       </c>
       <c r="I238" s="17"/>
     </row>
-    <row r="239" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:9" ht="15">
       <c r="A239" s="17"/>
       <c r="B239" s="17" t="s">
         <v>21</v>
@@ -16807,7 +16815,7 @@
       </c>
       <c r="I239" s="17"/>
     </row>
-    <row r="240" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:9" ht="15">
       <c r="A240" s="17"/>
       <c r="B240" s="17" t="s">
         <v>21</v>
@@ -16830,7 +16838,7 @@
       </c>
       <c r="I240" s="17"/>
     </row>
-    <row r="241" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:9" ht="15">
       <c r="A241" s="17"/>
       <c r="B241" s="17" t="s">
         <v>21</v>
@@ -16853,7 +16861,7 @@
       </c>
       <c r="I241" s="17"/>
     </row>
-    <row r="242" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:9" ht="15">
       <c r="A242" s="17"/>
       <c r="B242" s="17" t="s">
         <v>21</v>
@@ -16876,7 +16884,7 @@
       </c>
       <c r="I242" s="17"/>
     </row>
-    <row r="243" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:9" ht="15">
       <c r="A243" s="17"/>
       <c r="B243" s="17" t="s">
         <v>21</v>
@@ -16899,7 +16907,7 @@
       </c>
       <c r="I243" s="17"/>
     </row>
-    <row r="244" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:9" ht="15">
       <c r="A244" s="17"/>
       <c r="B244" s="17" t="s">
         <v>21</v>
@@ -16922,7 +16930,7 @@
       </c>
       <c r="I244" s="17"/>
     </row>
-    <row r="245" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:9" ht="15">
       <c r="A245" s="17"/>
       <c r="B245" s="17" t="s">
         <v>21</v>
@@ -16945,7 +16953,7 @@
       </c>
       <c r="I245" s="17"/>
     </row>
-    <row r="246" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:9" ht="15">
       <c r="A246" s="17"/>
       <c r="B246" s="17" t="s">
         <v>21</v>
@@ -16968,7 +16976,7 @@
       </c>
       <c r="I246" s="17"/>
     </row>
-    <row r="247" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:9" ht="15">
       <c r="A247" s="17"/>
       <c r="B247" s="17" t="s">
         <v>21</v>
@@ -16991,7 +16999,7 @@
       </c>
       <c r="I247" s="17"/>
     </row>
-    <row r="248" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:9" ht="15">
       <c r="A248" s="17"/>
       <c r="B248" s="17" t="s">
         <v>21</v>
@@ -17014,7 +17022,7 @@
       </c>
       <c r="I248" s="17"/>
     </row>
-    <row r="249" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:9" ht="15">
       <c r="A249" s="17"/>
       <c r="B249" s="17" t="s">
         <v>21</v>
@@ -17037,7 +17045,7 @@
       </c>
       <c r="I249" s="17"/>
     </row>
-    <row r="250" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:9" ht="15">
       <c r="A250" s="17"/>
       <c r="B250" s="17" t="s">
         <v>21</v>
@@ -17060,7 +17068,7 @@
       </c>
       <c r="I250" s="17"/>
     </row>
-    <row r="251" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:9" ht="15">
       <c r="A251" s="17" t="b">
         <v>0</v>
       </c>
@@ -17079,7 +17087,7 @@
       <c r="H251" s="17"/>
       <c r="I251" s="17"/>
     </row>
-    <row r="252" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:9" ht="15">
       <c r="A252" s="17"/>
       <c r="B252" s="17" t="s">
         <v>21</v>
@@ -17104,7 +17112,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="253" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:9" ht="15">
       <c r="A253" s="17"/>
       <c r="B253" s="17" t="s">
         <v>21</v>
@@ -17127,7 +17135,7 @@
       </c>
       <c r="I253" s="17"/>
     </row>
-    <row r="254" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:9" ht="15">
       <c r="A254" s="17"/>
       <c r="B254" s="17" t="s">
         <v>21</v>
@@ -17150,7 +17158,7 @@
       </c>
       <c r="I254" s="17"/>
     </row>
-    <row r="255" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:9" ht="15">
       <c r="A255" s="17"/>
       <c r="B255" s="17" t="s">
         <v>21</v>
@@ -17173,7 +17181,7 @@
       </c>
       <c r="I255" s="17"/>
     </row>
-    <row r="256" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:9" ht="15">
       <c r="A256" s="17"/>
       <c r="B256" s="17" t="s">
         <v>21</v>
@@ -17196,7 +17204,7 @@
       </c>
       <c r="I256" s="17"/>
     </row>
-    <row r="257" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:9" ht="15">
       <c r="A257" s="17" t="b">
         <v>0</v>
       </c>
@@ -17215,7 +17223,7 @@
       <c r="H257" s="17"/>
       <c r="I257" s="17"/>
     </row>
-    <row r="258" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:9" ht="15">
       <c r="A258" s="17"/>
       <c r="B258" s="17" t="s">
         <v>21</v>
@@ -17240,7 +17248,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="259" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:9" ht="15">
       <c r="A259" s="17"/>
       <c r="B259" s="17" t="s">
         <v>21</v>
@@ -17263,7 +17271,7 @@
       </c>
       <c r="I259" s="17"/>
     </row>
-    <row r="260" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:9" ht="15">
       <c r="A260" s="17" t="b">
         <v>0</v>
       </c>
@@ -17282,7 +17290,7 @@
       <c r="H260" s="17"/>
       <c r="I260" s="17"/>
     </row>
-    <row r="261" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:9" ht="15">
       <c r="A261" s="17" t="b">
         <v>0</v>
       </c>
@@ -17301,7 +17309,7 @@
       <c r="H261" s="17"/>
       <c r="I261" s="17"/>
     </row>
-    <row r="262" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:9" ht="15">
       <c r="A262" s="17" t="b">
         <v>0</v>
       </c>
@@ -17320,7 +17328,7 @@
       <c r="H262" s="17"/>
       <c r="I262" s="17"/>
     </row>
-    <row r="263" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:9" ht="15">
       <c r="A263" s="17"/>
       <c r="B263" s="17" t="s">
         <v>21</v>
@@ -17341,7 +17349,7 @@
       <c r="H263" s="17"/>
       <c r="I263" s="17"/>
     </row>
-    <row r="264" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:9" ht="15">
       <c r="A264" s="17"/>
       <c r="B264" s="17" t="s">
         <v>21</v>
@@ -17364,7 +17372,7 @@
       </c>
       <c r="I264" s="17"/>
     </row>
-    <row r="265" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:9" ht="15">
       <c r="A265" s="17"/>
       <c r="B265" s="17" t="s">
         <v>21</v>
@@ -17387,7 +17395,7 @@
       </c>
       <c r="I265" s="17"/>
     </row>
-    <row r="266" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:9" ht="15">
       <c r="A266" s="17"/>
       <c r="B266" s="17" t="s">
         <v>21</v>
@@ -17410,7 +17418,7 @@
       </c>
       <c r="I266" s="17"/>
     </row>
-    <row r="267" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:9" ht="15">
       <c r="A267" s="17"/>
       <c r="B267" s="17" t="s">
         <v>21</v>
@@ -17433,7 +17441,7 @@
       </c>
       <c r="I267" s="17"/>
     </row>
-    <row r="268" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:9" ht="15">
       <c r="A268" s="17"/>
       <c r="B268" s="17" t="s">
         <v>21</v>
@@ -17456,7 +17464,7 @@
       </c>
       <c r="I268" s="17"/>
     </row>
-    <row r="269" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:9" ht="15">
       <c r="A269" s="17"/>
       <c r="B269" s="17" t="s">
         <v>21</v>
@@ -17479,7 +17487,7 @@
       </c>
       <c r="I269" s="17"/>
     </row>
-    <row r="270" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:9" ht="15">
       <c r="A270" s="17"/>
       <c r="B270" s="17" t="s">
         <v>21</v>
@@ -17502,7 +17510,7 @@
       </c>
       <c r="I270" s="17"/>
     </row>
-    <row r="271" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:9" ht="15">
       <c r="A271" s="17"/>
       <c r="B271" s="17" t="s">
         <v>21</v>
@@ -17525,7 +17533,7 @@
       </c>
       <c r="I271" s="17"/>
     </row>
-    <row r="272" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:9" ht="15">
       <c r="A272" s="17"/>
       <c r="B272" s="17" t="s">
         <v>21</v>
@@ -17548,7 +17556,7 @@
       </c>
       <c r="I272" s="17"/>
     </row>
-    <row r="273" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:9" ht="15">
       <c r="A273" s="17"/>
       <c r="B273" s="17" t="s">
         <v>21</v>
@@ -17571,7 +17579,7 @@
       </c>
       <c r="I273" s="17"/>
     </row>
-    <row r="274" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:9" ht="15">
       <c r="A274" s="17" t="b">
         <v>0</v>
       </c>
@@ -17590,7 +17598,7 @@
       <c r="H274" s="17"/>
       <c r="I274" s="17"/>
     </row>
-    <row r="275" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:9" ht="15">
       <c r="A275" s="17"/>
       <c r="B275" s="17" t="s">
         <v>21</v>
@@ -17613,7 +17621,7 @@
       </c>
       <c r="I275" s="17"/>
     </row>
-    <row r="276" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:9" ht="15">
       <c r="A276" s="17" t="b">
         <v>0</v>
       </c>
@@ -17632,7 +17640,7 @@
       <c r="H276" s="17"/>
       <c r="I276" s="17"/>
     </row>
-    <row r="277" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:9" ht="15">
       <c r="A277" s="17"/>
       <c r="B277" s="17" t="s">
         <v>21</v>
@@ -17657,7 +17665,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="278" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:9" ht="15">
       <c r="A278" s="17"/>
       <c r="B278" s="17" t="s">
         <v>21</v>
@@ -17680,7 +17688,7 @@
       </c>
       <c r="I278" s="17"/>
     </row>
-    <row r="279" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:9" ht="15">
       <c r="A279" s="17"/>
       <c r="B279" s="17" t="s">
         <v>21</v>
@@ -17703,7 +17711,7 @@
       </c>
       <c r="I279" s="17"/>
     </row>
-    <row r="280" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:9" ht="15">
       <c r="A280" s="17"/>
       <c r="B280" s="17" t="s">
         <v>21</v>
@@ -17726,7 +17734,7 @@
       </c>
       <c r="I280" s="17"/>
     </row>
-    <row r="281" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:9" ht="15">
       <c r="A281" s="17"/>
       <c r="B281" s="17" t="s">
         <v>21</v>
@@ -17749,7 +17757,7 @@
       </c>
       <c r="I281" s="17"/>
     </row>
-    <row r="282" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:9" ht="15">
       <c r="A282" s="17"/>
       <c r="B282" s="17" t="s">
         <v>21</v>
@@ -17772,7 +17780,7 @@
       </c>
       <c r="I282" s="17"/>
     </row>
-    <row r="283" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:9" ht="15">
       <c r="A283" s="17"/>
       <c r="B283" s="17" t="s">
         <v>21</v>
@@ -17795,7 +17803,7 @@
       </c>
       <c r="I283" s="17"/>
     </row>
-    <row r="284" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:9" ht="15">
       <c r="A284" s="17"/>
       <c r="B284" s="17" t="s">
         <v>21</v>
@@ -17818,7 +17826,7 @@
       </c>
       <c r="I284" s="17"/>
     </row>
-    <row r="285" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:9" ht="15">
       <c r="A285" s="17"/>
       <c r="B285" s="17" t="s">
         <v>21</v>
@@ -17841,7 +17849,7 @@
       </c>
       <c r="I285" s="17"/>
     </row>
-    <row r="286" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:9" ht="15">
       <c r="A286" s="17"/>
       <c r="B286" s="17" t="s">
         <v>21</v>
@@ -17864,7 +17872,7 @@
       </c>
       <c r="I286" s="17"/>
     </row>
-    <row r="287" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:9" ht="15">
       <c r="A287" s="17"/>
       <c r="B287" s="17" t="s">
         <v>21</v>
@@ -17887,7 +17895,7 @@
       </c>
       <c r="I287" s="17"/>
     </row>
-    <row r="288" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:9" ht="15">
       <c r="A288" s="17" t="b">
         <v>0</v>
       </c>
@@ -17906,7 +17914,7 @@
       <c r="H288" s="17"/>
       <c r="I288" s="17"/>
     </row>
-    <row r="289" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:9" ht="15">
       <c r="A289" s="17"/>
       <c r="B289" s="17" t="s">
         <v>21</v>
@@ -17929,7 +17937,7 @@
       </c>
       <c r="I289" s="17"/>
     </row>
-    <row r="290" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:9" ht="15">
       <c r="A290" s="17" t="b">
         <v>0</v>
       </c>
@@ -17948,7 +17956,7 @@
       <c r="H290" s="17"/>
       <c r="I290" s="17"/>
     </row>
-    <row r="291" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:9" ht="15">
       <c r="A291" s="17"/>
       <c r="B291" s="17" t="s">
         <v>21</v>
@@ -17969,7 +17977,7 @@
       <c r="H291" s="17"/>
       <c r="I291" s="17"/>
     </row>
-    <row r="292" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:9" ht="15">
       <c r="A292" s="17" t="b">
         <v>0</v>
       </c>
@@ -17988,7 +17996,7 @@
       <c r="H292" s="17"/>
       <c r="I292" s="17"/>
     </row>
-    <row r="293" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:9" ht="15">
       <c r="A293" s="17"/>
       <c r="B293" s="17" t="s">
         <v>21</v>
@@ -18009,7 +18017,7 @@
       <c r="H293" s="17"/>
       <c r="I293" s="17"/>
     </row>
-    <row r="294" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:9" ht="15">
       <c r="A294" s="17" t="b">
         <v>0</v>
       </c>
@@ -18028,7 +18036,7 @@
       <c r="H294" s="17"/>
       <c r="I294" s="17"/>
     </row>
-    <row r="295" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:9" ht="15">
       <c r="A295" s="17"/>
       <c r="B295" s="17" t="s">
         <v>21</v>
@@ -18049,7 +18057,7 @@
       <c r="H295" s="17"/>
       <c r="I295" s="17"/>
     </row>
-    <row r="296" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:9" ht="15">
       <c r="A296" s="17" t="b">
         <v>0</v>
       </c>
@@ -18068,7 +18076,7 @@
       <c r="H296" s="17"/>
       <c r="I296" s="17"/>
     </row>
-    <row r="297" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:9" ht="15">
       <c r="A297" s="17"/>
       <c r="B297" s="17" t="s">
         <v>21</v>
@@ -18091,7 +18099,7 @@
       </c>
       <c r="I297" s="17"/>
     </row>
-    <row r="298" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:9" ht="15">
       <c r="A298" s="17" t="b">
         <v>0</v>
       </c>
@@ -18110,7 +18118,7 @@
       <c r="H298" s="17"/>
       <c r="I298" s="17"/>
     </row>
-    <row r="299" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:9" ht="15">
       <c r="A299" s="17"/>
       <c r="B299" s="17" t="s">
         <v>21</v>
@@ -18135,7 +18143,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="300" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:9" ht="15">
       <c r="A300" s="17"/>
       <c r="B300" s="17" t="s">
         <v>21</v>
@@ -18158,7 +18166,7 @@
       </c>
       <c r="I300" s="17"/>
     </row>
-    <row r="301" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:9" ht="15">
       <c r="A301" s="17"/>
       <c r="B301" s="17" t="s">
         <v>21</v>
@@ -18181,7 +18189,7 @@
       </c>
       <c r="I301" s="17"/>
     </row>
-    <row r="302" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:9" ht="15">
       <c r="A302" s="17"/>
       <c r="B302" s="17" t="s">
         <v>21</v>
@@ -18204,7 +18212,7 @@
       </c>
       <c r="I302" s="17"/>
     </row>
-    <row r="303" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:9" ht="15">
       <c r="A303" s="17"/>
       <c r="B303" s="17" t="s">
         <v>21</v>
@@ -18227,7 +18235,7 @@
       </c>
       <c r="I303" s="17"/>
     </row>
-    <row r="304" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:9" ht="15">
       <c r="A304" s="17"/>
       <c r="B304" s="17" t="s">
         <v>21</v>
@@ -18250,7 +18258,7 @@
       </c>
       <c r="I304" s="17"/>
     </row>
-    <row r="305" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:9" ht="15">
       <c r="A305" s="17"/>
       <c r="B305" s="17" t="s">
         <v>21</v>
@@ -18273,7 +18281,7 @@
       </c>
       <c r="I305" s="17"/>
     </row>
-    <row r="306" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:9" ht="15">
       <c r="A306" s="17"/>
       <c r="B306" s="17" t="s">
         <v>21</v>
@@ -18296,7 +18304,7 @@
       </c>
       <c r="I306" s="17"/>
     </row>
-    <row r="307" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:9" ht="15">
       <c r="A307" s="17"/>
       <c r="B307" s="17" t="s">
         <v>21</v>
@@ -18319,7 +18327,7 @@
       </c>
       <c r="I307" s="17"/>
     </row>
-    <row r="308" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:9" ht="15">
       <c r="A308" s="17" t="b">
         <v>0</v>
       </c>
@@ -18338,7 +18346,7 @@
       <c r="H308" s="17"/>
       <c r="I308" s="17"/>
     </row>
-    <row r="309" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:9" ht="15">
       <c r="A309" s="17"/>
       <c r="B309" s="17" t="s">
         <v>21</v>
@@ -18361,7 +18369,7 @@
       </c>
       <c r="I309" s="17"/>
     </row>
-    <row r="310" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:9" ht="15">
       <c r="A310" s="17"/>
       <c r="B310" s="17" t="s">
         <v>21</v>
@@ -18384,7 +18392,7 @@
       </c>
       <c r="I310" s="17"/>
     </row>
-    <row r="311" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:9" ht="15">
       <c r="A311" s="17"/>
       <c r="B311" s="17" t="s">
         <v>21</v>
@@ -18407,7 +18415,7 @@
       </c>
       <c r="I311" s="17"/>
     </row>
-    <row r="312" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:9" ht="15">
       <c r="A312" s="17"/>
       <c r="B312" s="17" t="s">
         <v>21</v>
@@ -18430,7 +18438,7 @@
       </c>
       <c r="I312" s="17"/>
     </row>
-    <row r="313" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:9" ht="15">
       <c r="A313" s="17" t="b">
         <v>0</v>
       </c>
@@ -18449,7 +18457,7 @@
       <c r="H313" s="17"/>
       <c r="I313" s="17"/>
     </row>
-    <row r="314" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:9" ht="15">
       <c r="A314" s="17"/>
       <c r="B314" s="17" t="s">
         <v>21</v>
@@ -18472,7 +18480,7 @@
       </c>
       <c r="I314" s="17"/>
     </row>
-    <row r="315" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:9" ht="15">
       <c r="A315" s="17"/>
       <c r="B315" s="17" t="s">
         <v>21</v>
@@ -18495,7 +18503,7 @@
       </c>
       <c r="I315" s="17"/>
     </row>
-    <row r="316" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:9" ht="15">
       <c r="A316" s="17"/>
       <c r="B316" s="17" t="s">
         <v>21</v>
@@ -18520,7 +18528,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="317" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:9" ht="15">
       <c r="A317" s="17" t="b">
         <v>0</v>
       </c>
@@ -18539,7 +18547,7 @@
       <c r="H317" s="17"/>
       <c r="I317" s="17"/>
     </row>
-    <row r="318" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:9" ht="15">
       <c r="A318" s="17"/>
       <c r="B318" s="17" t="s">
         <v>21</v>
@@ -18564,7 +18572,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="319" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:9" ht="15">
       <c r="A319" s="17"/>
       <c r="B319" s="17" t="s">
         <v>21</v>
@@ -18587,7 +18595,7 @@
       </c>
       <c r="I319" s="17"/>
     </row>
-    <row r="320" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:9" ht="15">
       <c r="A320" s="17" t="b">
         <v>0</v>
       </c>
@@ -18606,7 +18614,7 @@
       <c r="H320" s="17"/>
       <c r="I320" s="17"/>
     </row>
-    <row r="321" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:9" ht="15">
       <c r="A321" s="17"/>
       <c r="B321" s="17" t="s">
         <v>21</v>
@@ -18627,7 +18635,7 @@
       <c r="H321" s="17"/>
       <c r="I321" s="17"/>
     </row>
-    <row r="322" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:9" ht="15">
       <c r="A322" s="17"/>
       <c r="B322" s="17" t="s">
         <v>21</v>
@@ -18648,7 +18656,7 @@
       <c r="H322" s="17"/>
       <c r="I322" s="17"/>
     </row>
-    <row r="323" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:9" ht="15">
       <c r="A323" s="17"/>
       <c r="B323" s="17" t="s">
         <v>21</v>
@@ -18671,7 +18679,7 @@
       </c>
       <c r="I323" s="17"/>
     </row>
-    <row r="324" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:9" ht="15">
       <c r="A324" s="17" t="b">
         <v>0</v>
       </c>
@@ -18690,7 +18698,7 @@
       <c r="H324" s="17"/>
       <c r="I324" s="17"/>
     </row>
-    <row r="325" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:9" ht="15">
       <c r="A325" s="17" t="b">
         <v>0</v>
       </c>
@@ -18709,7 +18717,7 @@
       <c r="H325" s="17"/>
       <c r="I325" s="17"/>
     </row>
-    <row r="326" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:9" ht="15">
       <c r="A326" s="17"/>
       <c r="B326" s="17" t="s">
         <v>21</v>
@@ -18734,7 +18742,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="327" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:9" ht="15">
       <c r="A327" s="17"/>
       <c r="B327" s="17" t="s">
         <v>21</v>
@@ -18759,7 +18767,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:9">
       <c r="A328" t="b">
         <v>0</v>
       </c>
@@ -18773,7 +18781,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:9">
       <c r="B329" t="s">
         <v>21</v>
       </c>
@@ -18796,7 +18804,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:9">
       <c r="B330" t="s">
         <v>21</v>
       </c>
@@ -18816,7 +18824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:9">
       <c r="B331" t="s">
         <v>21</v>
       </c>
@@ -18836,7 +18844,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:9">
       <c r="B332" t="s">
         <v>21</v>
       </c>
@@ -18856,7 +18864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:9">
       <c r="B333" t="s">
         <v>21</v>
       </c>
@@ -18873,7 +18881,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:9">
       <c r="B334" t="s">
         <v>21</v>
       </c>
@@ -18896,7 +18904,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:9">
       <c r="B335" t="s">
         <v>21</v>
       </c>
@@ -18919,7 +18927,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:9">
       <c r="A336" t="b">
         <v>0</v>
       </c>
@@ -18933,7 +18941,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="337" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:16">
       <c r="B337" t="s">
         <v>21</v>
       </c>
@@ -18956,7 +18964,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="338" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:16">
       <c r="B338" t="s">
         <v>21</v>
       </c>
@@ -18979,7 +18987,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="339" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:16">
       <c r="B339" t="s">
         <v>21</v>
       </c>
@@ -18999,7 +19007,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="340" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:16">
       <c r="B340" t="s">
         <v>21</v>
       </c>
@@ -19019,7 +19027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:16">
       <c r="B341" t="s">
         <v>21</v>
       </c>
@@ -19036,7 +19044,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="342" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:16">
       <c r="A342" s="1" t="b">
         <v>0</v>
       </c>
@@ -19062,7 +19070,7 @@
       <c r="O342" s="1"/>
       <c r="P342" s="1"/>
     </row>
-    <row r="343" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:16">
       <c r="A343" s="1"/>
       <c r="B343" t="s">
         <v>21</v>
@@ -19091,7 +19099,7 @@
       <c r="O343" s="1"/>
       <c r="P343" s="1"/>
     </row>
-    <row r="344" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:16" ht="15">
       <c r="A344" s="17"/>
       <c r="B344" t="s">
         <v>21</v>
@@ -19130,7 +19138,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="345" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:16">
       <c r="A345" t="b">
         <v>0</v>
       </c>
@@ -19144,7 +19152,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="346" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:16">
       <c r="B346" t="s">
         <v>21</v>
       </c>
@@ -19164,7 +19172,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="347" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:16">
       <c r="A347" t="b">
         <v>0</v>
       </c>
@@ -19178,7 +19186,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="348" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:16">
       <c r="B348" t="s">
         <v>21</v>
       </c>
@@ -19198,7 +19206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:16">
       <c r="B349" t="s">
         <v>21</v>
       </c>
@@ -19218,7 +19226,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="350" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:16">
       <c r="B350" t="s">
         <v>21</v>
       </c>
@@ -19238,7 +19246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:16">
       <c r="B351" t="s">
         <v>21</v>
       </c>
@@ -19258,7 +19266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:16">
       <c r="B352" t="s">
         <v>21</v>
       </c>
@@ -19278,7 +19286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:18">
       <c r="B353" t="s">
         <v>21</v>
       </c>
@@ -19298,7 +19306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:18">
       <c r="B354" t="s">
         <v>21</v>
       </c>
@@ -19318,7 +19326,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="355" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:18">
       <c r="B355" t="s">
         <v>21</v>
       </c>
@@ -19338,7 +19346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:18">
       <c r="B356" t="s">
         <v>21</v>
       </c>
@@ -19358,7 +19366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:18">
       <c r="A357" t="b">
         <v>0</v>
       </c>
@@ -19372,7 +19380,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="358" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:18">
       <c r="B358" t="s">
         <v>21</v>
       </c>
@@ -19392,7 +19400,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="359" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:18">
       <c r="B359" t="s">
         <v>21</v>
       </c>
@@ -19412,7 +19420,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="360" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:18" s="1" customFormat="1">
       <c r="A360" t="b">
         <v>0</v>
       </c>
@@ -19428,7 +19436,7 @@
       <c r="H360" s="4"/>
       <c r="I360" s="4"/>
     </row>
-    <row r="361" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:18" s="1" customFormat="1">
       <c r="B361" t="s">
         <v>21</v>
       </c>
@@ -19454,7 +19462,7 @@
       <c r="J361"/>
       <c r="K361"/>
     </row>
-    <row r="362" spans="1:18" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:18" s="1" customFormat="1" ht="15">
       <c r="A362" s="17"/>
       <c r="B362" t="s">
         <v>22</v>
@@ -19495,7 +19503,7 @@
       <c r="Q362"/>
       <c r="R362"/>
     </row>
-    <row r="363" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:18">
       <c r="A363" t="b">
         <v>0</v>
       </c>
@@ -19509,7 +19517,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="364" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:18">
       <c r="B364" t="s">
         <v>21</v>
       </c>
@@ -19529,7 +19537,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="365" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:18">
       <c r="A365" t="b">
         <v>0</v>
       </c>
@@ -19543,7 +19551,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="366" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:18">
       <c r="B366" t="s">
         <v>21</v>
       </c>
@@ -19582,17 +19590,17 @@
       <selection activeCell="A17" sqref="A17:A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.33203125" customWidth="1"/>
-    <col min="5" max="5" width="16.109375" customWidth="1"/>
+    <col min="5" max="5" width="16.1640625" customWidth="1"/>
     <col min="8" max="8" width="22.33203125" customWidth="1"/>
-    <col min="17" max="17" width="24.44140625" customWidth="1"/>
+    <col min="17" max="17" width="24.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21">
       <c r="A1" t="s">
         <v>441</v>
       </c>
@@ -19603,7 +19611,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" s="30" customFormat="1">
       <c r="A2" s="30" t="s">
         <v>589</v>
       </c>
@@ -19617,7 +19625,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" s="30" customFormat="1">
       <c r="A3" s="30" t="s">
         <v>592</v>
       </c>
@@ -19631,7 +19639,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" s="30" customFormat="1">
       <c r="A4" s="30" t="s">
         <v>594</v>
       </c>
@@ -19645,7 +19653,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" s="30" customFormat="1">
       <c r="A5" s="30" t="s">
         <v>596</v>
       </c>
@@ -19659,7 +19667,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" s="30" customFormat="1">
       <c r="A6" s="30" t="s">
         <v>598</v>
       </c>
@@ -19673,7 +19681,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" s="30" customFormat="1">
       <c r="A7" s="30" t="s">
         <v>440</v>
       </c>
@@ -19687,7 +19695,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" s="30" customFormat="1">
       <c r="A8" s="30" t="s">
         <v>601</v>
       </c>
@@ -19701,7 +19709,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" s="30" customFormat="1">
       <c r="A9" s="30" t="s">
         <v>603</v>
       </c>
@@ -19715,7 +19723,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21">
       <c r="A11" t="s">
         <v>569</v>
       </c>
@@ -19729,7 +19737,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21">
       <c r="A12" t="s">
         <v>454</v>
       </c>
@@ -19743,7 +19751,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21">
       <c r="A13" t="s">
         <v>452</v>
       </c>
@@ -19754,8 +19762,8 @@
         <v>544</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" s="30" customFormat="1"/>
+    <row r="16" spans="1:21">
       <c r="A16" t="s">
         <v>547</v>
       </c>
@@ -19781,7 +19789,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17">
       <c r="A17" t="s">
         <v>548</v>
       </c>
@@ -19822,7 +19830,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -19863,7 +19871,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17">
       <c r="A19" t="s">
         <v>542</v>
       </c>
@@ -19895,7 +19903,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17">
       <c r="A20" t="s">
         <v>550</v>
       </c>
@@ -19927,7 +19935,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17">
       <c r="A21" t="s">
         <v>549</v>
       </c>
@@ -19956,7 +19964,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17">
       <c r="A22" t="s">
         <v>551</v>
       </c>
@@ -19988,7 +19996,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17">
       <c r="A23" t="s">
         <v>552</v>
       </c>
@@ -20008,9 +20016,9 @@
         <v>540</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17">
       <c r="A24" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="L24" s="1" t="s">
         <v>557</v>
@@ -20031,7 +20039,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17">
       <c r="L25" s="1" t="s">
         <v>558</v>
       </c>
@@ -20042,7 +20050,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17">
       <c r="L26" s="1" t="s">
         <v>539</v>
       </c>
@@ -20050,7 +20058,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17">
       <c r="L27" s="1" t="s">
         <v>541</v>
       </c>

--- a/projects/office_calibration.xlsx
+++ b/projects/office_calibration.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24709"/>
-  <workbookPr autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23260" windowHeight="13180" tabRatio="562" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="13176" tabRatio="562" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="9" r:id="rId1"/>
@@ -2140,12 +2140,6 @@
     <t>End date</t>
   </si>
   <si>
-    <t>2013-12-21</t>
-  </si>
-  <si>
-    <t>2013-01-21</t>
-  </si>
-  <si>
     <t>calibration_data</t>
   </si>
   <si>
@@ -2591,6 +2585,12 @@
   </si>
   <si>
     <t>DOE Ref 1980-2004</t>
+  </si>
+  <si>
+    <t>2013-01-10</t>
+  </si>
+  <si>
+    <t>2013-12-12</t>
   </si>
 </sst>
 </file>
@@ -2600,7 +2600,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4705,10 +4705,10 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1836">
     <cellStyle name="Comma" xfId="1749" builtinId="3"/>
@@ -6851,17 +6851,17 @@
       <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="81.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="28">
+    <row r="1" spans="1:1" ht="28.8">
       <c r="A1" s="36" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="28">
+    <row r="2" spans="1:1" ht="28.8">
       <c r="A2" s="36" t="s">
         <v>41</v>
       </c>
@@ -6881,16 +6881,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="25.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="30.33203125" style="26" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29" style="1" customWidth="1"/>
-    <col min="4" max="4" width="33.1640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="33.109375" style="2" customWidth="1"/>
     <col min="5" max="5" width="61.6640625" style="1" customWidth="1"/>
     <col min="6" max="16384" width="10.6640625" style="1"/>
   </cols>
@@ -6924,7 +6924,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="28">
+    <row r="4" spans="1:5" ht="28.8">
       <c r="A4" s="1" t="s">
         <v>456</v>
       </c>
@@ -6935,7 +6935,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="42">
+    <row r="5" spans="1:5" ht="72">
       <c r="A5" s="1" t="s">
         <v>469</v>
       </c>
@@ -6946,18 +6946,18 @@
         <v>614</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="46.25" customHeight="1">
+    <row r="6" spans="1:5" ht="46.2" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>470</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" ht="28.8">
       <c r="A7" s="1" t="s">
         <v>442</v>
       </c>
@@ -6976,7 +6976,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="28">
+    <row r="8" spans="1:5" ht="28.8">
       <c r="A8" s="1" t="s">
         <v>443</v>
       </c>
@@ -7022,7 +7022,7 @@
         <v>39</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>471</v>
@@ -7033,10 +7033,10 @@
         <v>25</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -7044,10 +7044,10 @@
         <v>26</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="E14" s="31" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -7061,7 +7061,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" ht="28.8">
       <c r="A16" s="1" t="s">
         <v>463</v>
       </c>
@@ -7094,7 +7094,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="2" customFormat="1" ht="42">
+    <row r="20" spans="1:5" s="2" customFormat="1" ht="57.6">
       <c r="A20" s="11" t="s">
         <v>27</v>
       </c>
@@ -7119,7 +7119,7 @@
       <c r="B22" s="26"/>
       <c r="D22" s="2"/>
     </row>
-    <row r="23" spans="1:5" s="2" customFormat="1" ht="42">
+    <row r="23" spans="1:5" s="2" customFormat="1" ht="57.6">
       <c r="A23" s="11" t="s">
         <v>450</v>
       </c>
@@ -7208,13 +7208,13 @@
     </row>
     <row r="30" spans="1:5" s="31" customFormat="1">
       <c r="A30" s="31" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="B30" s="30">
         <v>1</v>
       </c>
       <c r="C30" s="34" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="D30" s="35"/>
     </row>
@@ -7243,12 +7243,12 @@
       <c r="C35" s="26"/>
       <c r="D35" s="2"/>
     </row>
-    <row r="36" spans="1:5" s="2" customFormat="1" ht="28">
+    <row r="36" spans="1:5" s="2" customFormat="1" ht="43.2">
       <c r="A36" s="11" t="s">
         <v>33</v>
       </c>
       <c r="B36" s="27" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="C36" s="11" t="s">
         <v>31</v>
@@ -7261,10 +7261,10 @@
         <v>29</v>
       </c>
       <c r="B37" s="25" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" s="2" customFormat="1" ht="28">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" s="2" customFormat="1" ht="28.8">
       <c r="A39" s="11" t="s">
         <v>30</v>
       </c>
@@ -7275,7 +7275,7 @@
         <v>38</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="E39" s="13" t="s">
         <v>449</v>
@@ -7293,7 +7293,7 @@
       </c>
       <c r="E40" s="2"/>
     </row>
-    <row r="42" spans="1:5" s="2" customFormat="1" ht="56">
+    <row r="42" spans="1:5" s="2" customFormat="1" ht="57.6">
       <c r="A42" s="11" t="s">
         <v>35</v>
       </c>
@@ -7301,7 +7301,7 @@
         <v>34</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="D42" s="11"/>
       <c r="E42" s="13" t="s">
@@ -7310,13 +7310,13 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="31" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="B43" s="26" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="C43" s="31" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
     </row>
     <row r="44" spans="1:5" s="31" customFormat="1">
@@ -7349,34 +7349,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y224"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4:H30"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="150" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H57" sqref="H57:H58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="9.1640625" style="31" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="31" customWidth="1"/>
     <col min="2" max="2" width="47" style="31" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="47" style="31" customWidth="1"/>
-    <col min="4" max="4" width="39.1640625" style="31" customWidth="1"/>
-    <col min="5" max="5" width="24.1640625" style="31" customWidth="1"/>
+    <col min="4" max="4" width="39.109375" style="31" customWidth="1"/>
+    <col min="5" max="5" width="24.109375" style="31" customWidth="1"/>
     <col min="6" max="6" width="9.6640625" style="31" customWidth="1"/>
     <col min="7" max="7" width="9.33203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5" style="4" customWidth="1"/>
+    <col min="8" max="8" width="15.44140625" style="4" customWidth="1"/>
     <col min="9" max="9" width="8.6640625" style="4" customWidth="1"/>
-    <col min="10" max="10" width="7.1640625" style="31" customWidth="1"/>
-    <col min="11" max="11" width="8.1640625" style="31" customWidth="1"/>
+    <col min="10" max="10" width="7.109375" style="31" customWidth="1"/>
+    <col min="11" max="11" width="8.109375" style="31" customWidth="1"/>
     <col min="12" max="12" width="6.6640625" style="31" customWidth="1"/>
     <col min="13" max="14" width="7.6640625" style="31" customWidth="1"/>
-    <col min="15" max="15" width="11.5" style="31"/>
-    <col min="16" max="16" width="11.5" style="31" customWidth="1"/>
+    <col min="15" max="15" width="11.44140625" style="31"/>
+    <col min="16" max="16" width="11.44140625" style="31" customWidth="1"/>
     <col min="17" max="17" width="23" style="31" customWidth="1"/>
     <col min="18" max="18" width="27.6640625" style="31" customWidth="1"/>
-    <col min="19" max="19" width="46.1640625" style="31" customWidth="1"/>
-    <col min="20" max="22" width="11.5" style="31"/>
+    <col min="19" max="19" width="46.109375" style="31" customWidth="1"/>
+    <col min="20" max="22" width="11.44140625" style="31"/>
     <col min="23" max="23" width="13.33203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="11.5" style="31"/>
+    <col min="24" max="16384" width="11.44140625" style="31"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="18">
@@ -7405,16 +7405,16 @@
       <c r="Q1" s="5"/>
       <c r="R1" s="5"/>
       <c r="S1" s="5"/>
-      <c r="T1" s="52" t="s">
+      <c r="T1" s="53" t="s">
         <v>61</v>
       </c>
-      <c r="U1" s="52"/>
-      <c r="V1" s="52"/>
-      <c r="W1" s="52"/>
-      <c r="X1" s="52"/>
-      <c r="Y1" s="52"/>
-    </row>
-    <row r="2" spans="1:25" s="8" customFormat="1" ht="15">
+      <c r="U1" s="53"/>
+      <c r="V1" s="53"/>
+      <c r="W1" s="53"/>
+      <c r="X1" s="53"/>
+      <c r="Y1" s="53"/>
+    </row>
+    <row r="2" spans="1:25" s="8" customFormat="1" ht="15.6">
       <c r="A2" s="8" t="s">
         <v>3</v>
       </c>
@@ -7430,7 +7430,7 @@
       <c r="H2" s="9"/>
       <c r="I2" s="9"/>
     </row>
-    <row r="3" spans="1:25" s="14" customFormat="1" ht="45">
+    <row r="3" spans="1:25" s="14" customFormat="1" ht="62.4">
       <c r="A3" s="14" t="s">
         <v>1</v>
       </c>
@@ -7509,13 +7509,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="38" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="C4" s="38" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="D4" s="38" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="E4" s="38" t="s">
         <v>68</v>
@@ -7528,16 +7528,16 @@
         <v>21</v>
       </c>
       <c r="D5" s="30" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="E5" s="30" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="F5" s="30" t="s">
         <v>104</v>
       </c>
       <c r="H5" s="30" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
     </row>
     <row r="6" spans="1:25" s="30" customFormat="1">
@@ -7545,16 +7545,16 @@
         <v>21</v>
       </c>
       <c r="D6" s="30" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="E6" s="30" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="F6" s="30" t="s">
         <v>104</v>
       </c>
       <c r="H6" s="31" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
     </row>
     <row r="7" spans="1:25" s="38" customFormat="1">
@@ -7590,7 +7590,7 @@
         <v>618</v>
       </c>
       <c r="H8" s="31" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
@@ -7615,7 +7615,7 @@
         <v>618</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
@@ -7683,13 +7683,13 @@
         <v>1</v>
       </c>
       <c r="B13" s="38" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="C13" s="38" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="D13" s="38" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="E13" s="38" t="s">
         <v>68</v>
@@ -7697,7 +7697,7 @@
       <c r="G13" s="39"/>
       <c r="H13" s="39"/>
     </row>
-    <row r="14" spans="1:25" ht="17">
+    <row r="14" spans="1:25" ht="17.399999999999999">
       <c r="A14" s="30"/>
       <c r="B14" s="30" t="s">
         <v>21</v>
@@ -7713,9 +7713,9 @@
         <v>64</v>
       </c>
       <c r="G14" s="30" t="s">
-        <v>765</v>
-      </c>
-      <c r="H14" s="53">
+        <v>763</v>
+      </c>
+      <c r="H14" s="52">
         <v>104666</v>
       </c>
       <c r="I14" s="31"/>
@@ -7753,7 +7753,7 @@
         <v>0.1</v>
       </c>
       <c r="Q15" s="51" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="16" spans="1:25" s="30" customFormat="1">
@@ -7787,7 +7787,7 @@
         <v>64</v>
       </c>
       <c r="G17" s="43" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="H17" s="43">
         <v>12</v>
@@ -7809,7 +7809,7 @@
         <v>0.1</v>
       </c>
       <c r="Q17" s="51" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="18" spans="1:17" s="30" customFormat="1">
@@ -7817,10 +7817,10 @@
         <v>21</v>
       </c>
       <c r="D18" s="30" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="E18" s="30" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="F18" s="30" t="s">
         <v>64</v>
@@ -7834,10 +7834,10 @@
         <v>21</v>
       </c>
       <c r="D19" s="30" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="E19" s="30" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="F19" s="30" t="s">
         <v>64</v>
@@ -7851,10 +7851,10 @@
         <v>21</v>
       </c>
       <c r="D20" s="30" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="E20" s="30" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="F20" s="30" t="s">
         <v>64</v>
@@ -7868,10 +7868,10 @@
         <v>21</v>
       </c>
       <c r="D21" s="30" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="E21" s="30" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="F21" s="30" t="s">
         <v>64</v>
@@ -7885,10 +7885,10 @@
         <v>21</v>
       </c>
       <c r="D22" s="30" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="E22" s="30" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="F22" s="30" t="s">
         <v>64</v>
@@ -7902,10 +7902,10 @@
         <v>21</v>
       </c>
       <c r="D23" s="30" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="E23" s="30" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="F23" s="30" t="s">
         <v>64</v>
@@ -7919,10 +7919,10 @@
         <v>21</v>
       </c>
       <c r="D24" s="30" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="E24" s="30" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="F24" s="30" t="s">
         <v>64</v>
@@ -7936,10 +7936,10 @@
         <v>21</v>
       </c>
       <c r="D25" s="30" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="E25" s="30" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="F25" s="30" t="s">
         <v>64</v>
@@ -7953,10 +7953,10 @@
         <v>21</v>
       </c>
       <c r="D26" s="30" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="E26" s="30" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="F26" s="30" t="s">
         <v>64</v>
@@ -7970,10 +7970,10 @@
         <v>21</v>
       </c>
       <c r="D27" s="30" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="E27" s="30" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="F27" s="30" t="s">
         <v>64</v>
@@ -7987,10 +7987,10 @@
         <v>21</v>
       </c>
       <c r="D28" s="30" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="E28" s="30" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F28" s="30" t="s">
         <v>64</v>
@@ -8004,10 +8004,10 @@
         <v>21</v>
       </c>
       <c r="D29" s="30" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="E29" s="30" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="F29" s="30" t="s">
         <v>64</v>
@@ -8021,10 +8021,10 @@
         <v>21</v>
       </c>
       <c r="D30" s="30" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="E30" s="30" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="F30" s="30" t="s">
         <v>64</v>
@@ -8073,13 +8073,13 @@
         <v>1</v>
       </c>
       <c r="B33" s="38" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C33" s="38" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="D33" s="38" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="E33" s="38" t="s">
         <v>68</v>
@@ -8092,10 +8092,10 @@
         <v>22</v>
       </c>
       <c r="D34" s="43" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="E34" s="43" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="F34" s="43" t="s">
         <v>64</v>
@@ -8120,7 +8120,7 @@
         <v>0.01</v>
       </c>
       <c r="Q34" s="43" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="35" spans="1:17" s="43" customFormat="1">
@@ -8128,10 +8128,10 @@
         <v>22</v>
       </c>
       <c r="D35" s="43" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="E35" s="43" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="F35" s="43" t="s">
         <v>64</v>
@@ -8156,7 +8156,7 @@
         <v>0.01</v>
       </c>
       <c r="Q35" s="43" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="36" spans="1:17" s="38" customFormat="1">
@@ -8164,7 +8164,7 @@
         <v>1</v>
       </c>
       <c r="B36" s="38" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="C36" s="38" t="s">
         <v>74</v>
@@ -8183,7 +8183,7 @@
         <v>22</v>
       </c>
       <c r="D37" s="43" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="E37" s="43" t="s">
         <v>75</v>
@@ -8192,7 +8192,7 @@
         <v>619</v>
       </c>
       <c r="G37" s="43" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="H37" s="43">
         <v>0</v>
@@ -8214,7 +8214,7 @@
         <v>5</v>
       </c>
       <c r="Q37" s="43" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="38" spans="1:17" s="38" customFormat="1">
@@ -8271,7 +8271,7 @@
       </c>
       <c r="P39" s="40"/>
       <c r="Q39" s="31" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -8378,7 +8378,7 @@
       </c>
       <c r="P43" s="40"/>
       <c r="Q43" s="31" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -8485,7 +8485,7 @@
       </c>
       <c r="P47" s="40"/>
       <c r="Q47" s="31" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -8592,7 +8592,7 @@
       </c>
       <c r="P51" s="40"/>
       <c r="Q51" s="31" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="52" spans="1:17">
@@ -8678,7 +8678,7 @@
         <v>618</v>
       </c>
       <c r="H55" s="31" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="I55" s="31"/>
     </row>
@@ -8696,7 +8696,7 @@
         <v>618</v>
       </c>
       <c r="H56" s="31" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="I56" s="31"/>
     </row>
@@ -8714,7 +8714,7 @@
         <v>618</v>
       </c>
       <c r="H57" s="41" t="s">
-        <v>700</v>
+        <v>848</v>
       </c>
       <c r="I57" s="31"/>
     </row>
@@ -8732,7 +8732,7 @@
         <v>618</v>
       </c>
       <c r="H58" s="41" t="s">
-        <v>699</v>
+        <v>849</v>
       </c>
       <c r="I58" s="31"/>
     </row>
@@ -8741,13 +8741,13 @@
         <v>1</v>
       </c>
       <c r="B59" s="38" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="C59" s="38" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="D59" s="38" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="E59" s="38" t="s">
         <v>233</v>
@@ -8760,7 +8760,7 @@
         <v>1</v>
       </c>
       <c r="B60" s="49" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="C60" s="49" t="s">
         <v>76</v>
@@ -8777,7 +8777,7 @@
         <v>22</v>
       </c>
       <c r="D61" s="43" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="E61" s="43" t="s">
         <v>77</v>
@@ -8805,7 +8805,7 @@
         <v>0.01</v>
       </c>
       <c r="Q61" s="43" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="62" spans="1:17" s="30" customFormat="1">
@@ -8850,7 +8850,7 @@
         <v>1</v>
       </c>
       <c r="B64" s="49" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="C64" s="49" t="s">
         <v>76</v>
@@ -8867,7 +8867,7 @@
         <v>22</v>
       </c>
       <c r="D65" s="43" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="E65" s="43" t="s">
         <v>77</v>
@@ -8895,7 +8895,7 @@
         <v>0.01</v>
       </c>
       <c r="Q65" s="43" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="66" spans="1:17" s="30" customFormat="1">
@@ -8940,7 +8940,7 @@
         <v>1</v>
       </c>
       <c r="B68" s="49" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="C68" s="49" t="s">
         <v>76</v>
@@ -8957,7 +8957,7 @@
         <v>22</v>
       </c>
       <c r="D69" s="43" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="E69" s="43" t="s">
         <v>77</v>
@@ -8985,7 +8985,7 @@
         <v>0.01</v>
       </c>
       <c r="Q69" s="43" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="70" spans="1:17" s="30" customFormat="1">
@@ -9068,7 +9068,7 @@
         <v>22</v>
       </c>
       <c r="D74" s="44" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="E74" s="43" t="s">
         <v>70</v>
@@ -9096,7 +9096,7 @@
         <v>2.5</v>
       </c>
       <c r="Q74" s="43" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="75" spans="1:17" s="30" customFormat="1">
@@ -9204,7 +9204,7 @@
         <v>22</v>
       </c>
       <c r="D80" s="43" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="E80" s="43" t="s">
         <v>46</v>
@@ -9470,7 +9470,7 @@
         <v>22</v>
       </c>
       <c r="D90" s="43" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="E90" s="43" t="s">
         <v>330</v>
@@ -9499,7 +9499,7 @@
         <v>2.5</v>
       </c>
       <c r="Q90" s="43" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="91" spans="1:17" s="50" customFormat="1">
@@ -9507,13 +9507,13 @@
         <v>1</v>
       </c>
       <c r="B91" s="50" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="C91" s="50" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="D91" s="50" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="E91" s="50" t="s">
         <v>68</v>
@@ -9524,7 +9524,7 @@
         <v>22</v>
       </c>
       <c r="D92" s="43" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="E92" s="43" t="s">
         <v>258</v>
@@ -9553,7 +9553,7 @@
         <v>2.5</v>
       </c>
       <c r="Q92" s="43" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="93" spans="1:17" s="50" customFormat="1">
@@ -9561,13 +9561,13 @@
         <v>1</v>
       </c>
       <c r="B93" s="50" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="C93" s="50" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="D93" s="50" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="E93" s="50" t="s">
         <v>68</v>
@@ -9578,7 +9578,7 @@
         <v>22</v>
       </c>
       <c r="D94" s="43" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="E94" s="43" t="s">
         <v>258</v>
@@ -9607,7 +9607,7 @@
         <v>2.5</v>
       </c>
       <c r="Q94" s="43" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="95" spans="1:17" s="50" customFormat="1">
@@ -9652,7 +9652,7 @@
         <v>22</v>
       </c>
       <c r="D97" s="43" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="E97" s="43" t="s">
         <v>288</v>
@@ -9661,7 +9661,7 @@
         <v>64</v>
       </c>
       <c r="G97" s="43" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="H97" s="43">
         <v>0</v>
@@ -9684,7 +9684,7 @@
         <v>2.5</v>
       </c>
       <c r="Q97" s="43" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="98" spans="1:17" s="30" customFormat="1">
@@ -9692,7 +9692,7 @@
         <v>21</v>
       </c>
       <c r="D98" s="30" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="E98" s="30" t="s">
         <v>48</v>
@@ -9701,7 +9701,7 @@
         <v>64</v>
       </c>
       <c r="G98" s="30" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="H98" s="30">
         <v>0</v>
@@ -9712,7 +9712,7 @@
         <v>21</v>
       </c>
       <c r="D99" s="30" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="E99" s="30" t="s">
         <v>50</v>
@@ -9721,7 +9721,7 @@
         <v>64</v>
       </c>
       <c r="G99" s="30" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="H99" s="30">
         <v>0</v>
@@ -9732,7 +9732,7 @@
         <v>21</v>
       </c>
       <c r="D100" s="30" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="E100" s="30" t="s">
         <v>52</v>
@@ -9741,7 +9741,7 @@
         <v>65</v>
       </c>
       <c r="G100" s="30" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="H100" s="30">
         <v>0</v>
@@ -9752,7 +9752,7 @@
         <v>21</v>
       </c>
       <c r="D101" s="30" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="E101" s="30" t="s">
         <v>54</v>
@@ -9769,7 +9769,7 @@
         <v>21</v>
       </c>
       <c r="D102" s="30" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="E102" s="30" t="s">
         <v>56</v>
@@ -9778,7 +9778,7 @@
         <v>65</v>
       </c>
       <c r="G102" s="30" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="H102" s="30">
         <v>15</v>
@@ -9789,7 +9789,7 @@
         <v>21</v>
       </c>
       <c r="D103" s="30" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="E103" s="30" t="s">
         <v>58</v>
@@ -9798,7 +9798,7 @@
         <v>64</v>
       </c>
       <c r="G103" s="30" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="H103" s="30">
         <v>0</v>
@@ -9809,7 +9809,7 @@
         <v>21</v>
       </c>
       <c r="D104" s="30" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="E104" s="30" t="s">
         <v>60</v>
@@ -9818,7 +9818,7 @@
         <v>65</v>
       </c>
       <c r="G104" s="30" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="H104" s="30">
         <v>1</v>
@@ -9832,10 +9832,10 @@
         <v>187</v>
       </c>
       <c r="C105" s="38" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="D105" s="38" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="E105" s="38" t="s">
         <v>68</v>
@@ -9848,7 +9848,7 @@
         <v>22</v>
       </c>
       <c r="D106" s="43" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="E106" s="43" t="s">
         <v>190</v>
@@ -9857,7 +9857,7 @@
         <v>64</v>
       </c>
       <c r="G106" s="43" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="H106" s="43">
         <v>1</v>
@@ -9880,7 +9880,7 @@
         <v>1</v>
       </c>
       <c r="Q106" s="43" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="107" spans="1:17" s="43" customFormat="1">
@@ -9888,7 +9888,7 @@
         <v>22</v>
       </c>
       <c r="D107" s="43" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="E107" s="43" t="s">
         <v>192</v>
@@ -9897,7 +9897,7 @@
         <v>64</v>
       </c>
       <c r="G107" s="43" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="H107" s="43">
         <v>-1</v>
@@ -9920,7 +9920,7 @@
         <v>1</v>
       </c>
       <c r="Q107" s="43" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="108" spans="1:17">
@@ -9928,7 +9928,7 @@
         <v>21</v>
       </c>
       <c r="D108" s="31" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="E108" s="31" t="s">
         <v>194</v>
@@ -10433,17 +10433,17 @@
       <selection pane="bottomLeft" activeCell="A29" sqref="A29:A32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="2" width="29.5" style="31" customWidth="1"/>
+    <col min="1" max="2" width="29.44140625" style="31" customWidth="1"/>
     <col min="3" max="3" width="71" style="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5" style="31" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" style="31" customWidth="1"/>
     <col min="5" max="5" width="12.33203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="10.5" style="31" customWidth="1"/>
-    <col min="8" max="8" width="14.5" style="31" customWidth="1"/>
+    <col min="6" max="7" width="10.44140625" style="31" customWidth="1"/>
+    <col min="8" max="8" width="14.44140625" style="31" customWidth="1"/>
     <col min="9" max="9" width="14.6640625" style="31" customWidth="1"/>
     <col min="10" max="10" width="9.6640625" style="31" customWidth="1"/>
-    <col min="11" max="16384" width="11.5" style="31"/>
+    <col min="11" max="16384" width="11.44140625" style="31"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18">
@@ -10461,7 +10461,7 @@
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
     </row>
-    <row r="2" spans="1:12" s="8" customFormat="1" ht="15">
+    <row r="2" spans="1:12" s="8" customFormat="1" ht="15.6">
       <c r="A2" s="8" t="s">
         <v>459</v>
       </c>
@@ -10496,7 +10496,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="14" customFormat="1" ht="30">
+    <row r="3" spans="1:12" s="14" customFormat="1" ht="46.8">
       <c r="A3" s="14" t="s">
         <v>628</v>
       </c>
@@ -10651,14 +10651,14 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="30" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="B8" s="30"/>
       <c r="C8" s="30" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="D8" s="30" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="E8" s="30" t="s">
         <v>64</v>
@@ -10682,14 +10682,14 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="30" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="B9" s="30"/>
       <c r="C9" s="30" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="D9" s="30" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="E9" s="30" t="s">
         <v>64</v>
@@ -10712,14 +10712,14 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="30" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="B10" s="30"/>
       <c r="C10" s="30" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="D10" s="30" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="E10" s="30" t="s">
         <v>64</v>
@@ -10742,14 +10742,14 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="30" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="B11" s="30"/>
       <c r="C11" s="30" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="D11" s="30" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="E11" s="30" t="s">
         <v>64</v>
@@ -10772,14 +10772,14 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="30" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="B12" s="30"/>
       <c r="C12" s="30" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="D12" s="30" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="E12" s="30" t="s">
         <v>64</v>
@@ -10802,14 +10802,14 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="30" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="B13" s="30"/>
       <c r="C13" s="30" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="D13" s="30" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="E13" s="30" t="s">
         <v>64</v>
@@ -10832,14 +10832,14 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="30" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="B14" s="30"/>
       <c r="C14" s="30" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="D14" s="30" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="E14" s="30" t="s">
         <v>64</v>
@@ -10862,14 +10862,14 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="30" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="B15" s="30"/>
       <c r="C15" s="30" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="D15" s="30" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="E15" s="30" t="s">
         <v>64</v>
@@ -10892,14 +10892,14 @@
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="30" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="B16" s="30"/>
       <c r="C16" s="30" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="D16" s="30" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="E16" s="30" t="s">
         <v>64</v>
@@ -10922,14 +10922,14 @@
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="30" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="B17" s="30"/>
       <c r="C17" s="30" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="D17" s="30" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="E17" s="30" t="s">
         <v>64</v>
@@ -10952,14 +10952,14 @@
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="30" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="B18" s="30"/>
       <c r="C18" s="30" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="D18" s="30" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="E18" s="30" t="s">
         <v>64</v>
@@ -10982,14 +10982,14 @@
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="30" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="B19" s="30"/>
       <c r="C19" s="30" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="D19" s="30" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="E19" s="30" t="s">
         <v>64</v>
@@ -11013,14 +11013,14 @@
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="30" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="B20" s="30"/>
       <c r="C20" s="30" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="D20" s="30" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="E20" s="30" t="s">
         <v>64</v>
@@ -11043,14 +11043,14 @@
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="30" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="B21" s="30"/>
       <c r="C21" s="30" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="D21" s="30" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="E21" s="30" t="s">
         <v>64</v>
@@ -11073,14 +11073,14 @@
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="30" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="B22" s="30"/>
       <c r="C22" s="30" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="D22" s="30" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="E22" s="30" t="s">
         <v>64</v>
@@ -11103,14 +11103,14 @@
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="30" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="B23" s="30"/>
       <c r="C23" s="30" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="D23" s="30" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="E23" s="30" t="s">
         <v>64</v>
@@ -11133,14 +11133,14 @@
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="30" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="B24" s="30"/>
       <c r="C24" s="30" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="D24" s="30" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="E24" s="30" t="s">
         <v>64</v>
@@ -11163,14 +11163,14 @@
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="30" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="B25" s="30"/>
       <c r="C25" s="30" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="D25" s="30" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="E25" s="30" t="s">
         <v>64</v>
@@ -11193,14 +11193,14 @@
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="30" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="B26" s="30"/>
       <c r="C26" s="30" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="D26" s="30" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="E26" s="30" t="s">
         <v>64</v>
@@ -11223,14 +11223,14 @@
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="30" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="B27" s="30"/>
       <c r="C27" s="30" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="D27" s="30" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="E27" s="30" t="s">
         <v>64</v>
@@ -11253,14 +11253,14 @@
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="30" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="B28" s="30"/>
       <c r="C28" s="30" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="D28" s="30" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="E28" s="30" t="s">
         <v>64</v>
@@ -11283,14 +11283,14 @@
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="30" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="B29" s="30"/>
       <c r="C29" s="30" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="D29" s="30" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="E29" s="31" t="s">
         <v>64</v>
@@ -11307,14 +11307,14 @@
     </row>
     <row r="30" spans="1:12">
       <c r="A30" s="30" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="B30" s="30"/>
       <c r="C30" s="30" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="D30" s="30" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="E30" s="31" t="s">
         <v>64</v>
@@ -11331,14 +11331,14 @@
     </row>
     <row r="31" spans="1:12">
       <c r="A31" s="30" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="B31" s="30"/>
       <c r="C31" s="30" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="D31" s="30" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="E31" s="31" t="s">
         <v>64</v>
@@ -11355,14 +11355,14 @@
     </row>
     <row r="32" spans="1:12">
       <c r="A32" s="30" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="B32" s="30"/>
       <c r="C32" s="30" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="D32" s="30" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="E32" s="31" t="s">
         <v>64</v>
@@ -11420,19 +11420,19 @@
       <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="70.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="80.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="33.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="255.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15">
+    <row r="1" spans="1:9" ht="15.6">
       <c r="A1" s="17" t="b">
         <v>0</v>
       </c>
@@ -11451,7 +11451,7 @@
       <c r="H1" s="17"/>
       <c r="I1" s="17"/>
     </row>
-    <row r="2" spans="1:9" ht="15">
+    <row r="2" spans="1:9" ht="15.6">
       <c r="A2" s="17"/>
       <c r="B2" s="17" t="s">
         <v>21</v>
@@ -11472,7 +11472,7 @@
       <c r="H2" s="17"/>
       <c r="I2" s="17"/>
     </row>
-    <row r="3" spans="1:9" ht="15">
+    <row r="3" spans="1:9" ht="15.6">
       <c r="A3" s="17"/>
       <c r="B3" s="17" t="s">
         <v>21</v>
@@ -11495,7 +11495,7 @@
       </c>
       <c r="I3" s="17"/>
     </row>
-    <row r="4" spans="1:9" ht="15">
+    <row r="4" spans="1:9" ht="15.6">
       <c r="A4" s="17"/>
       <c r="B4" s="17" t="s">
         <v>21</v>
@@ -11518,7 +11518,7 @@
       </c>
       <c r="I4" s="17"/>
     </row>
-    <row r="5" spans="1:9" ht="15">
+    <row r="5" spans="1:9" ht="15.6">
       <c r="A5" s="17"/>
       <c r="B5" s="17" t="s">
         <v>21</v>
@@ -11541,7 +11541,7 @@
       </c>
       <c r="I5" s="17"/>
     </row>
-    <row r="6" spans="1:9" ht="15">
+    <row r="6" spans="1:9" ht="15.6">
       <c r="A6" s="17"/>
       <c r="B6" s="17" t="s">
         <v>21</v>
@@ -11564,7 +11564,7 @@
       </c>
       <c r="I6" s="17"/>
     </row>
-    <row r="7" spans="1:9" ht="15">
+    <row r="7" spans="1:9" ht="15.6">
       <c r="A7" s="17"/>
       <c r="B7" s="17" t="s">
         <v>21</v>
@@ -11587,7 +11587,7 @@
       </c>
       <c r="I7" s="17"/>
     </row>
-    <row r="8" spans="1:9" ht="15">
+    <row r="8" spans="1:9" ht="15.6">
       <c r="A8" s="17"/>
       <c r="B8" s="17" t="s">
         <v>21</v>
@@ -11610,7 +11610,7 @@
       </c>
       <c r="I8" s="17"/>
     </row>
-    <row r="9" spans="1:9" ht="15">
+    <row r="9" spans="1:9" ht="15.6">
       <c r="A9" s="17"/>
       <c r="B9" s="17" t="s">
         <v>21</v>
@@ -11633,7 +11633,7 @@
       </c>
       <c r="I9" s="17"/>
     </row>
-    <row r="10" spans="1:9" ht="15">
+    <row r="10" spans="1:9" ht="15.6">
       <c r="A10" s="17"/>
       <c r="B10" s="17" t="s">
         <v>21</v>
@@ -11656,7 +11656,7 @@
       </c>
       <c r="I10" s="17"/>
     </row>
-    <row r="11" spans="1:9" ht="15">
+    <row r="11" spans="1:9" ht="15.6">
       <c r="A11" s="17" t="b">
         <v>0</v>
       </c>
@@ -11675,7 +11675,7 @@
       <c r="H11" s="17"/>
       <c r="I11" s="17"/>
     </row>
-    <row r="12" spans="1:9" ht="15">
+    <row r="12" spans="1:9" ht="15.6">
       <c r="A12" s="17"/>
       <c r="B12" s="17" t="s">
         <v>21</v>
@@ -11696,7 +11696,7 @@
       <c r="H12" s="17"/>
       <c r="I12" s="17"/>
     </row>
-    <row r="13" spans="1:9" ht="15">
+    <row r="13" spans="1:9" ht="15.6">
       <c r="A13" s="17"/>
       <c r="B13" s="17" t="s">
         <v>21</v>
@@ -11719,7 +11719,7 @@
       </c>
       <c r="I13" s="17"/>
     </row>
-    <row r="14" spans="1:9" ht="15">
+    <row r="14" spans="1:9" ht="15.6">
       <c r="A14" s="17"/>
       <c r="B14" s="17" t="s">
         <v>21</v>
@@ -11742,7 +11742,7 @@
       </c>
       <c r="I14" s="17"/>
     </row>
-    <row r="15" spans="1:9" ht="15">
+    <row r="15" spans="1:9" ht="15.6">
       <c r="A15" s="17"/>
       <c r="B15" s="17" t="s">
         <v>21</v>
@@ -11765,7 +11765,7 @@
       </c>
       <c r="I15" s="17"/>
     </row>
-    <row r="16" spans="1:9" ht="15">
+    <row r="16" spans="1:9" ht="15.6">
       <c r="A16" s="17"/>
       <c r="B16" s="17" t="s">
         <v>21</v>
@@ -11788,7 +11788,7 @@
       </c>
       <c r="I16" s="17"/>
     </row>
-    <row r="17" spans="1:9" ht="15">
+    <row r="17" spans="1:9" ht="15.6">
       <c r="A17" s="17"/>
       <c r="B17" s="17" t="s">
         <v>21</v>
@@ -11811,7 +11811,7 @@
       </c>
       <c r="I17" s="17"/>
     </row>
-    <row r="18" spans="1:9" ht="15">
+    <row r="18" spans="1:9" ht="15.6">
       <c r="A18" s="17"/>
       <c r="B18" s="17" t="s">
         <v>21</v>
@@ -11834,7 +11834,7 @@
       </c>
       <c r="I18" s="17"/>
     </row>
-    <row r="19" spans="1:9" ht="15">
+    <row r="19" spans="1:9" ht="15.6">
       <c r="A19" s="17"/>
       <c r="B19" s="17" t="s">
         <v>21</v>
@@ -11857,7 +11857,7 @@
       </c>
       <c r="I19" s="17"/>
     </row>
-    <row r="20" spans="1:9" ht="15">
+    <row r="20" spans="1:9" ht="15.6">
       <c r="A20" s="17"/>
       <c r="B20" s="17" t="s">
         <v>21</v>
@@ -11880,7 +11880,7 @@
       </c>
       <c r="I20" s="17"/>
     </row>
-    <row r="21" spans="1:9" ht="15">
+    <row r="21" spans="1:9" ht="15.6">
       <c r="A21" s="17" t="b">
         <v>0</v>
       </c>
@@ -11899,7 +11899,7 @@
       <c r="H21" s="17"/>
       <c r="I21" s="17"/>
     </row>
-    <row r="22" spans="1:9" ht="15">
+    <row r="22" spans="1:9" ht="15.6">
       <c r="A22" s="17"/>
       <c r="B22" s="17" t="s">
         <v>21</v>
@@ -11922,7 +11922,7 @@
       </c>
       <c r="I22" s="17"/>
     </row>
-    <row r="23" spans="1:9" ht="15">
+    <row r="23" spans="1:9" ht="15.6">
       <c r="A23" s="17"/>
       <c r="B23" s="17" t="s">
         <v>21</v>
@@ -11945,7 +11945,7 @@
       </c>
       <c r="I23" s="17"/>
     </row>
-    <row r="24" spans="1:9" ht="15">
+    <row r="24" spans="1:9" ht="15.6">
       <c r="A24" s="17"/>
       <c r="B24" s="17" t="s">
         <v>21</v>
@@ -11968,7 +11968,7 @@
       </c>
       <c r="I24" s="17"/>
     </row>
-    <row r="25" spans="1:9" ht="15">
+    <row r="25" spans="1:9" ht="15.6">
       <c r="A25" s="17"/>
       <c r="B25" s="17" t="s">
         <v>21</v>
@@ -11991,7 +11991,7 @@
       </c>
       <c r="I25" s="17"/>
     </row>
-    <row r="26" spans="1:9" ht="15">
+    <row r="26" spans="1:9" ht="15.6">
       <c r="A26" s="17"/>
       <c r="B26" s="17" t="s">
         <v>21</v>
@@ -12014,7 +12014,7 @@
       </c>
       <c r="I26" s="17"/>
     </row>
-    <row r="27" spans="1:9" ht="15">
+    <row r="27" spans="1:9" ht="15.6">
       <c r="A27" s="17"/>
       <c r="B27" s="17" t="s">
         <v>21</v>
@@ -12037,7 +12037,7 @@
       </c>
       <c r="I27" s="17"/>
     </row>
-    <row r="28" spans="1:9" ht="15">
+    <row r="28" spans="1:9" ht="15.6">
       <c r="A28" s="17"/>
       <c r="B28" s="17" t="s">
         <v>21</v>
@@ -12060,7 +12060,7 @@
       </c>
       <c r="I28" s="17"/>
     </row>
-    <row r="29" spans="1:9" ht="15">
+    <row r="29" spans="1:9" ht="15.6">
       <c r="A29" s="17"/>
       <c r="B29" s="17" t="s">
         <v>21</v>
@@ -12083,7 +12083,7 @@
       </c>
       <c r="I29" s="17"/>
     </row>
-    <row r="30" spans="1:9" ht="15">
+    <row r="30" spans="1:9" ht="15.6">
       <c r="A30" s="17"/>
       <c r="B30" s="17" t="s">
         <v>21</v>
@@ -12106,7 +12106,7 @@
       </c>
       <c r="I30" s="17"/>
     </row>
-    <row r="31" spans="1:9" ht="15">
+    <row r="31" spans="1:9" ht="15.6">
       <c r="A31" s="17" t="b">
         <v>0</v>
       </c>
@@ -12125,7 +12125,7 @@
       <c r="H31" s="17"/>
       <c r="I31" s="17"/>
     </row>
-    <row r="32" spans="1:9" ht="15">
+    <row r="32" spans="1:9" ht="15.6">
       <c r="A32" s="17"/>
       <c r="B32" s="17" t="s">
         <v>21</v>
@@ -12146,7 +12146,7 @@
       <c r="H32" s="17"/>
       <c r="I32" s="17"/>
     </row>
-    <row r="33" spans="1:9" ht="15">
+    <row r="33" spans="1:9" ht="15.6">
       <c r="A33" s="17"/>
       <c r="B33" s="17" t="s">
         <v>21</v>
@@ -12169,7 +12169,7 @@
       </c>
       <c r="I33" s="17"/>
     </row>
-    <row r="34" spans="1:9" ht="15">
+    <row r="34" spans="1:9" ht="15.6">
       <c r="A34" s="17"/>
       <c r="B34" s="17" t="s">
         <v>21</v>
@@ -12192,7 +12192,7 @@
       </c>
       <c r="I34" s="17"/>
     </row>
-    <row r="35" spans="1:9" ht="15">
+    <row r="35" spans="1:9" ht="15.6">
       <c r="A35" s="17"/>
       <c r="B35" s="17" t="s">
         <v>21</v>
@@ -12215,7 +12215,7 @@
       </c>
       <c r="I35" s="17"/>
     </row>
-    <row r="36" spans="1:9" ht="15">
+    <row r="36" spans="1:9" ht="15.6">
       <c r="A36" s="17"/>
       <c r="B36" s="17" t="s">
         <v>21</v>
@@ -12238,7 +12238,7 @@
       </c>
       <c r="I36" s="17"/>
     </row>
-    <row r="37" spans="1:9" ht="15">
+    <row r="37" spans="1:9" ht="15.6">
       <c r="A37" s="17"/>
       <c r="B37" s="17" t="s">
         <v>21</v>
@@ -12261,7 +12261,7 @@
       </c>
       <c r="I37" s="17"/>
     </row>
-    <row r="38" spans="1:9" ht="15">
+    <row r="38" spans="1:9" ht="15.6">
       <c r="A38" s="17"/>
       <c r="B38" s="17" t="s">
         <v>21</v>
@@ -12284,7 +12284,7 @@
       </c>
       <c r="I38" s="17"/>
     </row>
-    <row r="39" spans="1:9" ht="15">
+    <row r="39" spans="1:9" ht="15.6">
       <c r="A39" s="17"/>
       <c r="B39" s="17" t="s">
         <v>21</v>
@@ -12307,7 +12307,7 @@
       </c>
       <c r="I39" s="17"/>
     </row>
-    <row r="40" spans="1:9" ht="15">
+    <row r="40" spans="1:9" ht="15.6">
       <c r="A40" s="17"/>
       <c r="B40" s="17" t="s">
         <v>21</v>
@@ -12330,7 +12330,7 @@
       </c>
       <c r="I40" s="17"/>
     </row>
-    <row r="41" spans="1:9" ht="15">
+    <row r="41" spans="1:9" ht="15.6">
       <c r="A41" s="17" t="b">
         <v>0</v>
       </c>
@@ -12349,7 +12349,7 @@
       <c r="H41" s="17"/>
       <c r="I41" s="17"/>
     </row>
-    <row r="42" spans="1:9" ht="15">
+    <row r="42" spans="1:9" ht="15.6">
       <c r="A42" s="17"/>
       <c r="B42" s="17" t="s">
         <v>21</v>
@@ -12370,7 +12370,7 @@
       <c r="H42" s="17"/>
       <c r="I42" s="17"/>
     </row>
-    <row r="43" spans="1:9" ht="15">
+    <row r="43" spans="1:9" ht="15.6">
       <c r="A43" s="17"/>
       <c r="B43" s="17" t="s">
         <v>21</v>
@@ -12393,7 +12393,7 @@
       </c>
       <c r="I43" s="17"/>
     </row>
-    <row r="44" spans="1:9" ht="15">
+    <row r="44" spans="1:9" ht="15.6">
       <c r="A44" s="17"/>
       <c r="B44" s="17" t="s">
         <v>21</v>
@@ -12416,7 +12416,7 @@
       </c>
       <c r="I44" s="17"/>
     </row>
-    <row r="45" spans="1:9" ht="15">
+    <row r="45" spans="1:9" ht="15.6">
       <c r="A45" s="17"/>
       <c r="B45" s="17" t="s">
         <v>21</v>
@@ -12439,7 +12439,7 @@
       </c>
       <c r="I45" s="17"/>
     </row>
-    <row r="46" spans="1:9" ht="15">
+    <row r="46" spans="1:9" ht="15.6">
       <c r="A46" s="17"/>
       <c r="B46" s="17" t="s">
         <v>21</v>
@@ -12462,7 +12462,7 @@
       </c>
       <c r="I46" s="17"/>
     </row>
-    <row r="47" spans="1:9" ht="15">
+    <row r="47" spans="1:9" ht="15.6">
       <c r="A47" s="17"/>
       <c r="B47" s="17" t="s">
         <v>21</v>
@@ -12485,7 +12485,7 @@
       </c>
       <c r="I47" s="17"/>
     </row>
-    <row r="48" spans="1:9" ht="15">
+    <row r="48" spans="1:9" ht="15.6">
       <c r="A48" s="17"/>
       <c r="B48" s="17" t="s">
         <v>21</v>
@@ -12508,7 +12508,7 @@
       </c>
       <c r="I48" s="17"/>
     </row>
-    <row r="49" spans="1:9" ht="15">
+    <row r="49" spans="1:9" ht="15.6">
       <c r="A49" s="17"/>
       <c r="B49" s="17" t="s">
         <v>21</v>
@@ -12531,7 +12531,7 @@
       </c>
       <c r="I49" s="17"/>
     </row>
-    <row r="50" spans="1:9" ht="15">
+    <row r="50" spans="1:9" ht="15.6">
       <c r="A50" s="17"/>
       <c r="B50" s="17" t="s">
         <v>21</v>
@@ -12554,7 +12554,7 @@
       </c>
       <c r="I50" s="17"/>
     </row>
-    <row r="51" spans="1:9" ht="15">
+    <row r="51" spans="1:9" ht="15.6">
       <c r="A51" s="17" t="b">
         <v>0</v>
       </c>
@@ -12573,7 +12573,7 @@
       <c r="H51" s="17"/>
       <c r="I51" s="17"/>
     </row>
-    <row r="52" spans="1:9" ht="15">
+    <row r="52" spans="1:9" ht="15.6">
       <c r="A52" s="17"/>
       <c r="B52" s="17" t="s">
         <v>21</v>
@@ -12594,7 +12594,7 @@
       <c r="H52" s="17"/>
       <c r="I52" s="17"/>
     </row>
-    <row r="53" spans="1:9" ht="15">
+    <row r="53" spans="1:9" ht="15.6">
       <c r="A53" s="17"/>
       <c r="B53" s="17" t="s">
         <v>21</v>
@@ -12617,7 +12617,7 @@
       </c>
       <c r="I53" s="17"/>
     </row>
-    <row r="54" spans="1:9" ht="15">
+    <row r="54" spans="1:9" ht="15.6">
       <c r="A54" s="17"/>
       <c r="B54" s="17" t="s">
         <v>21</v>
@@ -12640,7 +12640,7 @@
       </c>
       <c r="I54" s="17"/>
     </row>
-    <row r="55" spans="1:9" ht="15">
+    <row r="55" spans="1:9" ht="15.6">
       <c r="A55" s="17"/>
       <c r="B55" s="17" t="s">
         <v>21</v>
@@ -12663,7 +12663,7 @@
       </c>
       <c r="I55" s="17"/>
     </row>
-    <row r="56" spans="1:9" ht="15">
+    <row r="56" spans="1:9" ht="15.6">
       <c r="A56" s="17"/>
       <c r="B56" s="17" t="s">
         <v>21</v>
@@ -12686,7 +12686,7 @@
       </c>
       <c r="I56" s="17"/>
     </row>
-    <row r="57" spans="1:9" ht="15">
+    <row r="57" spans="1:9" ht="15.6">
       <c r="A57" s="17"/>
       <c r="B57" s="17" t="s">
         <v>21</v>
@@ -12709,7 +12709,7 @@
       </c>
       <c r="I57" s="17"/>
     </row>
-    <row r="58" spans="1:9" ht="15">
+    <row r="58" spans="1:9" ht="15.6">
       <c r="A58" s="17"/>
       <c r="B58" s="17" t="s">
         <v>21</v>
@@ -12732,7 +12732,7 @@
       </c>
       <c r="I58" s="17"/>
     </row>
-    <row r="59" spans="1:9" ht="15">
+    <row r="59" spans="1:9" ht="15.6">
       <c r="A59" s="17"/>
       <c r="B59" s="17" t="s">
         <v>21</v>
@@ -12755,7 +12755,7 @@
       </c>
       <c r="I59" s="17"/>
     </row>
-    <row r="60" spans="1:9" ht="15">
+    <row r="60" spans="1:9" ht="15.6">
       <c r="A60" s="17"/>
       <c r="B60" s="17" t="s">
         <v>21</v>
@@ -12778,7 +12778,7 @@
       </c>
       <c r="I60" s="17"/>
     </row>
-    <row r="61" spans="1:9" ht="15">
+    <row r="61" spans="1:9" ht="15.6">
       <c r="A61" s="17" t="b">
         <v>0</v>
       </c>
@@ -12797,7 +12797,7 @@
       <c r="H61" s="17"/>
       <c r="I61" s="17"/>
     </row>
-    <row r="62" spans="1:9" ht="15">
+    <row r="62" spans="1:9" ht="15.6">
       <c r="A62" s="17"/>
       <c r="B62" s="17" t="s">
         <v>21</v>
@@ -12818,7 +12818,7 @@
       <c r="H62" s="17"/>
       <c r="I62" s="17"/>
     </row>
-    <row r="63" spans="1:9" ht="15">
+    <row r="63" spans="1:9" ht="15.6">
       <c r="A63" s="17"/>
       <c r="B63" s="17" t="s">
         <v>21</v>
@@ -12843,7 +12843,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="15">
+    <row r="64" spans="1:9" ht="15.6">
       <c r="A64" s="17"/>
       <c r="B64" s="17" t="s">
         <v>21</v>
@@ -12866,7 +12866,7 @@
       </c>
       <c r="I64" s="17"/>
     </row>
-    <row r="65" spans="1:9" ht="15">
+    <row r="65" spans="1:9" ht="15.6">
       <c r="A65" s="17"/>
       <c r="B65" s="17" t="s">
         <v>21</v>
@@ -12889,7 +12889,7 @@
       </c>
       <c r="I65" s="17"/>
     </row>
-    <row r="66" spans="1:9" ht="15">
+    <row r="66" spans="1:9" ht="15.6">
       <c r="A66" s="17"/>
       <c r="B66" s="17" t="s">
         <v>21</v>
@@ -12912,7 +12912,7 @@
       </c>
       <c r="I66" s="17"/>
     </row>
-    <row r="67" spans="1:9" ht="15">
+    <row r="67" spans="1:9" ht="15.6">
       <c r="A67" s="17"/>
       <c r="B67" s="17" t="s">
         <v>21</v>
@@ -12935,7 +12935,7 @@
       </c>
       <c r="I67" s="17"/>
     </row>
-    <row r="68" spans="1:9" ht="15">
+    <row r="68" spans="1:9" ht="15.6">
       <c r="A68" s="17"/>
       <c r="B68" s="17" t="s">
         <v>21</v>
@@ -12958,7 +12958,7 @@
       </c>
       <c r="I68" s="17"/>
     </row>
-    <row r="69" spans="1:9" ht="15">
+    <row r="69" spans="1:9" ht="15.6">
       <c r="A69" s="17"/>
       <c r="B69" s="17" t="s">
         <v>21</v>
@@ -12981,7 +12981,7 @@
       </c>
       <c r="I69" s="17"/>
     </row>
-    <row r="70" spans="1:9" ht="15">
+    <row r="70" spans="1:9" ht="15.6">
       <c r="A70" s="17"/>
       <c r="B70" s="17" t="s">
         <v>21</v>
@@ -13004,7 +13004,7 @@
       </c>
       <c r="I70" s="17"/>
     </row>
-    <row r="71" spans="1:9" ht="15">
+    <row r="71" spans="1:9" ht="15.6">
       <c r="A71" s="17"/>
       <c r="B71" s="17" t="s">
         <v>21</v>
@@ -13027,7 +13027,7 @@
       </c>
       <c r="I71" s="17"/>
     </row>
-    <row r="72" spans="1:9" ht="15">
+    <row r="72" spans="1:9" ht="15.6">
       <c r="A72" s="17" t="b">
         <v>0</v>
       </c>
@@ -13046,7 +13046,7 @@
       <c r="H72" s="17"/>
       <c r="I72" s="17"/>
     </row>
-    <row r="73" spans="1:9" ht="15">
+    <row r="73" spans="1:9" ht="15.6">
       <c r="A73" s="17"/>
       <c r="B73" s="17" t="s">
         <v>21</v>
@@ -13067,7 +13067,7 @@
       <c r="H73" s="17"/>
       <c r="I73" s="17"/>
     </row>
-    <row r="74" spans="1:9" ht="15">
+    <row r="74" spans="1:9" ht="15.6">
       <c r="A74" s="17"/>
       <c r="B74" s="17" t="s">
         <v>21</v>
@@ -13090,7 +13090,7 @@
       </c>
       <c r="I74" s="17"/>
     </row>
-    <row r="75" spans="1:9" ht="15">
+    <row r="75" spans="1:9" ht="15.6">
       <c r="A75" s="17"/>
       <c r="B75" s="17" t="s">
         <v>21</v>
@@ -13115,7 +13115,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="15">
+    <row r="76" spans="1:9" ht="15.6">
       <c r="A76" s="17"/>
       <c r="B76" s="17" t="s">
         <v>21</v>
@@ -13138,7 +13138,7 @@
       </c>
       <c r="I76" s="17"/>
     </row>
-    <row r="77" spans="1:9" ht="15">
+    <row r="77" spans="1:9" ht="15.6">
       <c r="A77" s="17"/>
       <c r="B77" s="17" t="s">
         <v>21</v>
@@ -13161,7 +13161,7 @@
       </c>
       <c r="I77" s="17"/>
     </row>
-    <row r="78" spans="1:9" ht="15">
+    <row r="78" spans="1:9" ht="15.6">
       <c r="A78" s="17"/>
       <c r="B78" s="17" t="s">
         <v>21</v>
@@ -13184,7 +13184,7 @@
       </c>
       <c r="I78" s="17"/>
     </row>
-    <row r="79" spans="1:9" ht="15">
+    <row r="79" spans="1:9" ht="15.6">
       <c r="A79" s="17"/>
       <c r="B79" s="17" t="s">
         <v>21</v>
@@ -13207,7 +13207,7 @@
       </c>
       <c r="I79" s="17"/>
     </row>
-    <row r="80" spans="1:9" ht="15">
+    <row r="80" spans="1:9" ht="15.6">
       <c r="A80" s="17"/>
       <c r="B80" s="17" t="s">
         <v>21</v>
@@ -13230,7 +13230,7 @@
       </c>
       <c r="I80" s="17"/>
     </row>
-    <row r="81" spans="1:9" ht="15">
+    <row r="81" spans="1:9" ht="15.6">
       <c r="A81" s="17"/>
       <c r="B81" s="17" t="s">
         <v>21</v>
@@ -13253,7 +13253,7 @@
       </c>
       <c r="I81" s="17"/>
     </row>
-    <row r="82" spans="1:9" ht="15">
+    <row r="82" spans="1:9" ht="15.6">
       <c r="A82" s="17"/>
       <c r="B82" s="17" t="s">
         <v>21</v>
@@ -13276,7 +13276,7 @@
       </c>
       <c r="I82" s="17"/>
     </row>
-    <row r="83" spans="1:9" ht="15">
+    <row r="83" spans="1:9" ht="15.6">
       <c r="A83" s="17"/>
       <c r="B83" s="17" t="s">
         <v>21</v>
@@ -13299,7 +13299,7 @@
       </c>
       <c r="I83" s="17"/>
     </row>
-    <row r="84" spans="1:9" ht="15">
+    <row r="84" spans="1:9" ht="15.6">
       <c r="A84" s="17"/>
       <c r="B84" s="17" t="s">
         <v>21</v>
@@ -13322,7 +13322,7 @@
       </c>
       <c r="I84" s="17"/>
     </row>
-    <row r="85" spans="1:9" ht="15">
+    <row r="85" spans="1:9" ht="15.6">
       <c r="A85" s="17"/>
       <c r="B85" s="17" t="s">
         <v>21</v>
@@ -13345,7 +13345,7 @@
       </c>
       <c r="I85" s="17"/>
     </row>
-    <row r="86" spans="1:9" ht="15">
+    <row r="86" spans="1:9" ht="15.6">
       <c r="A86" s="17" t="b">
         <v>0</v>
       </c>
@@ -13364,7 +13364,7 @@
       <c r="H86" s="17"/>
       <c r="I86" s="17"/>
     </row>
-    <row r="87" spans="1:9" ht="15">
+    <row r="87" spans="1:9" ht="15.6">
       <c r="A87" s="17"/>
       <c r="B87" s="17" t="s">
         <v>21</v>
@@ -13387,7 +13387,7 @@
       </c>
       <c r="I87" s="17"/>
     </row>
-    <row r="88" spans="1:9" ht="15">
+    <row r="88" spans="1:9" ht="15.6">
       <c r="A88" s="17"/>
       <c r="B88" s="17" t="s">
         <v>21</v>
@@ -13410,7 +13410,7 @@
       </c>
       <c r="I88" s="17"/>
     </row>
-    <row r="89" spans="1:9" ht="15">
+    <row r="89" spans="1:9" ht="15.6">
       <c r="A89" s="17"/>
       <c r="B89" s="17" t="s">
         <v>21</v>
@@ -13433,7 +13433,7 @@
       </c>
       <c r="I89" s="17"/>
     </row>
-    <row r="90" spans="1:9" ht="15">
+    <row r="90" spans="1:9" ht="15.6">
       <c r="A90" s="17"/>
       <c r="B90" s="17" t="s">
         <v>21</v>
@@ -13456,7 +13456,7 @@
       </c>
       <c r="I90" s="17"/>
     </row>
-    <row r="91" spans="1:9" ht="15">
+    <row r="91" spans="1:9" ht="15.6">
       <c r="A91" s="17"/>
       <c r="B91" s="17" t="s">
         <v>21</v>
@@ -13479,7 +13479,7 @@
       </c>
       <c r="I91" s="17"/>
     </row>
-    <row r="92" spans="1:9" ht="15">
+    <row r="92" spans="1:9" ht="15.6">
       <c r="A92" s="17"/>
       <c r="B92" s="17" t="s">
         <v>21</v>
@@ -13502,7 +13502,7 @@
       </c>
       <c r="I92" s="17"/>
     </row>
-    <row r="93" spans="1:9" ht="15">
+    <row r="93" spans="1:9" ht="15.6">
       <c r="A93" s="17"/>
       <c r="B93" s="17" t="s">
         <v>21</v>
@@ -13525,7 +13525,7 @@
       </c>
       <c r="I93" s="17"/>
     </row>
-    <row r="94" spans="1:9" ht="15">
+    <row r="94" spans="1:9" ht="15.6">
       <c r="A94" s="17"/>
       <c r="B94" s="17" t="s">
         <v>21</v>
@@ -13548,7 +13548,7 @@
       </c>
       <c r="I94" s="17"/>
     </row>
-    <row r="95" spans="1:9" ht="15">
+    <row r="95" spans="1:9" ht="15.6">
       <c r="A95" s="17"/>
       <c r="B95" s="17" t="s">
         <v>21</v>
@@ -13571,7 +13571,7 @@
       </c>
       <c r="I95" s="17"/>
     </row>
-    <row r="96" spans="1:9" ht="15">
+    <row r="96" spans="1:9" ht="15.6">
       <c r="A96" s="17"/>
       <c r="B96" s="17" t="s">
         <v>21</v>
@@ -13594,7 +13594,7 @@
       </c>
       <c r="I96" s="17"/>
     </row>
-    <row r="97" spans="1:9" ht="15">
+    <row r="97" spans="1:9" ht="15.6">
       <c r="A97" s="17" t="b">
         <v>0</v>
       </c>
@@ -13613,7 +13613,7 @@
       <c r="H97" s="17"/>
       <c r="I97" s="17"/>
     </row>
-    <row r="98" spans="1:9" ht="15">
+    <row r="98" spans="1:9" ht="15.6">
       <c r="A98" s="17"/>
       <c r="B98" s="17" t="s">
         <v>21</v>
@@ -13638,7 +13638,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="15">
+    <row r="99" spans="1:9" ht="15.6">
       <c r="A99" s="17" t="b">
         <v>0</v>
       </c>
@@ -13657,7 +13657,7 @@
       <c r="H99" s="17"/>
       <c r="I99" s="17"/>
     </row>
-    <row r="100" spans="1:9" ht="15">
+    <row r="100" spans="1:9" ht="15.6">
       <c r="A100" s="17"/>
       <c r="B100" s="17" t="s">
         <v>21</v>
@@ -13678,7 +13678,7 @@
       <c r="H100" s="17"/>
       <c r="I100" s="17"/>
     </row>
-    <row r="101" spans="1:9" ht="15">
+    <row r="101" spans="1:9" ht="15.6">
       <c r="A101" s="17"/>
       <c r="B101" s="17" t="s">
         <v>21</v>
@@ -13703,7 +13703,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="15">
+    <row r="102" spans="1:9" ht="15.6">
       <c r="A102" s="17" t="b">
         <v>0</v>
       </c>
@@ -13722,7 +13722,7 @@
       <c r="H102" s="17"/>
       <c r="I102" s="17"/>
     </row>
-    <row r="103" spans="1:9" ht="15">
+    <row r="103" spans="1:9" ht="15.6">
       <c r="A103" s="17"/>
       <c r="B103" s="17" t="s">
         <v>21</v>
@@ -13745,7 +13745,7 @@
       </c>
       <c r="I103" s="17"/>
     </row>
-    <row r="104" spans="1:9" ht="15">
+    <row r="104" spans="1:9" ht="15.6">
       <c r="A104" s="17"/>
       <c r="B104" s="17" t="s">
         <v>21</v>
@@ -13770,7 +13770,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="15">
+    <row r="105" spans="1:9" ht="15.6">
       <c r="A105" s="17"/>
       <c r="B105" s="17" t="s">
         <v>21</v>
@@ -13793,7 +13793,7 @@
       </c>
       <c r="I105" s="17"/>
     </row>
-    <row r="106" spans="1:9" ht="15">
+    <row r="106" spans="1:9" ht="15.6">
       <c r="A106" s="17"/>
       <c r="B106" s="17" t="s">
         <v>21</v>
@@ -13814,7 +13814,7 @@
       <c r="H106" s="17"/>
       <c r="I106" s="17"/>
     </row>
-    <row r="107" spans="1:9" ht="15">
+    <row r="107" spans="1:9" ht="15.6">
       <c r="A107" s="17" t="b">
         <v>0</v>
       </c>
@@ -13833,7 +13833,7 @@
       <c r="H107" s="17"/>
       <c r="I107" s="17"/>
     </row>
-    <row r="108" spans="1:9" ht="15">
+    <row r="108" spans="1:9" ht="15.6">
       <c r="A108" s="17"/>
       <c r="B108" s="17" t="s">
         <v>21</v>
@@ -13858,7 +13858,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="15">
+    <row r="109" spans="1:9" ht="15.6">
       <c r="A109" s="17"/>
       <c r="B109" s="17" t="s">
         <v>21</v>
@@ -13881,7 +13881,7 @@
       </c>
       <c r="I109" s="17"/>
     </row>
-    <row r="110" spans="1:9" ht="15">
+    <row r="110" spans="1:9" ht="15.6">
       <c r="A110" s="17"/>
       <c r="B110" s="17" t="s">
         <v>21</v>
@@ -13904,7 +13904,7 @@
       </c>
       <c r="I110" s="17"/>
     </row>
-    <row r="111" spans="1:9" ht="15">
+    <row r="111" spans="1:9" ht="15.6">
       <c r="A111" s="17"/>
       <c r="B111" s="17" t="s">
         <v>21</v>
@@ -13927,7 +13927,7 @@
       </c>
       <c r="I111" s="17"/>
     </row>
-    <row r="112" spans="1:9" ht="15">
+    <row r="112" spans="1:9" ht="15.6">
       <c r="A112" s="17"/>
       <c r="B112" s="17" t="s">
         <v>21</v>
@@ -13950,7 +13950,7 @@
       </c>
       <c r="I112" s="17"/>
     </row>
-    <row r="113" spans="1:9" ht="15">
+    <row r="113" spans="1:9" ht="15.6">
       <c r="A113" s="17"/>
       <c r="B113" s="17" t="s">
         <v>21</v>
@@ -13973,7 +13973,7 @@
       </c>
       <c r="I113" s="17"/>
     </row>
-    <row r="114" spans="1:9" ht="15">
+    <row r="114" spans="1:9" ht="15.6">
       <c r="A114" s="17"/>
       <c r="B114" s="17" t="s">
         <v>21</v>
@@ -13996,7 +13996,7 @@
       </c>
       <c r="I114" s="17"/>
     </row>
-    <row r="115" spans="1:9" ht="15">
+    <row r="115" spans="1:9" ht="15.6">
       <c r="A115" s="17" t="b">
         <v>0</v>
       </c>
@@ -14015,7 +14015,7 @@
       <c r="H115" s="17"/>
       <c r="I115" s="17"/>
     </row>
-    <row r="116" spans="1:9" ht="15">
+    <row r="116" spans="1:9" ht="15.6">
       <c r="A116" s="17"/>
       <c r="B116" s="17" t="s">
         <v>21</v>
@@ -14038,7 +14038,7 @@
       </c>
       <c r="I116" s="17"/>
     </row>
-    <row r="117" spans="1:9" ht="15">
+    <row r="117" spans="1:9" ht="15.6">
       <c r="A117" s="17"/>
       <c r="B117" s="17" t="s">
         <v>21</v>
@@ -14061,7 +14061,7 @@
       </c>
       <c r="I117" s="17"/>
     </row>
-    <row r="118" spans="1:9" ht="15">
+    <row r="118" spans="1:9" ht="15.6">
       <c r="A118" s="17"/>
       <c r="B118" s="17" t="s">
         <v>21</v>
@@ -14084,7 +14084,7 @@
       </c>
       <c r="I118" s="17"/>
     </row>
-    <row r="119" spans="1:9" ht="15">
+    <row r="119" spans="1:9" ht="15.6">
       <c r="A119" s="17" t="b">
         <v>0</v>
       </c>
@@ -14103,7 +14103,7 @@
       <c r="H119" s="17"/>
       <c r="I119" s="17"/>
     </row>
-    <row r="120" spans="1:9" ht="15">
+    <row r="120" spans="1:9" ht="15.6">
       <c r="A120" s="17"/>
       <c r="B120" s="17" t="s">
         <v>21</v>
@@ -14126,7 +14126,7 @@
       </c>
       <c r="I120" s="17"/>
     </row>
-    <row r="121" spans="1:9" ht="15">
+    <row r="121" spans="1:9" ht="15.6">
       <c r="A121" s="17"/>
       <c r="B121" s="17" t="s">
         <v>21</v>
@@ -14149,7 +14149,7 @@
       </c>
       <c r="I121" s="17"/>
     </row>
-    <row r="122" spans="1:9" ht="15">
+    <row r="122" spans="1:9" ht="15.6">
       <c r="A122" s="17"/>
       <c r="B122" s="17" t="s">
         <v>21</v>
@@ -14172,7 +14172,7 @@
       </c>
       <c r="I122" s="17"/>
     </row>
-    <row r="123" spans="1:9" ht="15">
+    <row r="123" spans="1:9" ht="15.6">
       <c r="A123" s="17"/>
       <c r="B123" s="17" t="s">
         <v>21</v>
@@ -14195,7 +14195,7 @@
       </c>
       <c r="I123" s="17"/>
     </row>
-    <row r="124" spans="1:9" ht="15">
+    <row r="124" spans="1:9" ht="15.6">
       <c r="A124" s="17"/>
       <c r="B124" s="17" t="s">
         <v>21</v>
@@ -14218,7 +14218,7 @@
       </c>
       <c r="I124" s="17"/>
     </row>
-    <row r="125" spans="1:9" ht="15">
+    <row r="125" spans="1:9" ht="15.6">
       <c r="A125" s="17"/>
       <c r="B125" s="17" t="s">
         <v>21</v>
@@ -14241,7 +14241,7 @@
       </c>
       <c r="I125" s="17"/>
     </row>
-    <row r="126" spans="1:9" ht="15">
+    <row r="126" spans="1:9" ht="15.6">
       <c r="A126" s="17" t="b">
         <v>0</v>
       </c>
@@ -14260,7 +14260,7 @@
       <c r="H126" s="17"/>
       <c r="I126" s="17"/>
     </row>
-    <row r="127" spans="1:9" ht="15">
+    <row r="127" spans="1:9" ht="15.6">
       <c r="A127" s="17"/>
       <c r="B127" s="17" t="s">
         <v>21</v>
@@ -14285,7 +14285,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="128" spans="1:9" ht="15">
+    <row r="128" spans="1:9" ht="15.6">
       <c r="A128" s="17"/>
       <c r="B128" s="17" t="s">
         <v>21</v>
@@ -14308,7 +14308,7 @@
       </c>
       <c r="I128" s="17"/>
     </row>
-    <row r="129" spans="1:9" ht="15">
+    <row r="129" spans="1:9" ht="15.6">
       <c r="A129" s="17"/>
       <c r="B129" s="17" t="s">
         <v>21</v>
@@ -14331,7 +14331,7 @@
       </c>
       <c r="I129" s="17"/>
     </row>
-    <row r="130" spans="1:9" ht="15">
+    <row r="130" spans="1:9" ht="15.6">
       <c r="A130" s="17"/>
       <c r="B130" s="17" t="s">
         <v>21</v>
@@ -14354,7 +14354,7 @@
       </c>
       <c r="I130" s="17"/>
     </row>
-    <row r="131" spans="1:9" ht="15">
+    <row r="131" spans="1:9" ht="15.6">
       <c r="A131" s="17"/>
       <c r="B131" s="17" t="s">
         <v>21</v>
@@ -14377,7 +14377,7 @@
       </c>
       <c r="I131" s="17"/>
     </row>
-    <row r="132" spans="1:9" ht="15">
+    <row r="132" spans="1:9" ht="15.6">
       <c r="A132" s="17"/>
       <c r="B132" s="17" t="s">
         <v>21</v>
@@ -14400,7 +14400,7 @@
       </c>
       <c r="I132" s="17"/>
     </row>
-    <row r="133" spans="1:9" ht="15">
+    <row r="133" spans="1:9" ht="15.6">
       <c r="A133" s="17"/>
       <c r="B133" s="17" t="s">
         <v>21</v>
@@ -14423,7 +14423,7 @@
       </c>
       <c r="I133" s="17"/>
     </row>
-    <row r="134" spans="1:9" ht="15">
+    <row r="134" spans="1:9" ht="15.6">
       <c r="A134" s="17"/>
       <c r="B134" s="17" t="s">
         <v>21</v>
@@ -14446,7 +14446,7 @@
       </c>
       <c r="I134" s="17"/>
     </row>
-    <row r="135" spans="1:9" ht="15">
+    <row r="135" spans="1:9" ht="15.6">
       <c r="A135" s="17"/>
       <c r="B135" s="17" t="s">
         <v>21</v>
@@ -14469,7 +14469,7 @@
       </c>
       <c r="I135" s="17"/>
     </row>
-    <row r="136" spans="1:9" ht="15">
+    <row r="136" spans="1:9" ht="15.6">
       <c r="A136" s="17" t="b">
         <v>0</v>
       </c>
@@ -14488,7 +14488,7 @@
       <c r="H136" s="17"/>
       <c r="I136" s="17"/>
     </row>
-    <row r="137" spans="1:9" ht="15">
+    <row r="137" spans="1:9" ht="15.6">
       <c r="A137" s="17"/>
       <c r="B137" s="17" t="s">
         <v>21</v>
@@ -14513,7 +14513,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="138" spans="1:9" ht="15">
+    <row r="138" spans="1:9" ht="15.6">
       <c r="A138" s="17"/>
       <c r="B138" s="17" t="s">
         <v>21</v>
@@ -14534,7 +14534,7 @@
       <c r="H138" s="17"/>
       <c r="I138" s="17"/>
     </row>
-    <row r="139" spans="1:9" ht="15">
+    <row r="139" spans="1:9" ht="15.6">
       <c r="A139" s="17"/>
       <c r="B139" s="17" t="s">
         <v>21</v>
@@ -14557,7 +14557,7 @@
       </c>
       <c r="I139" s="17"/>
     </row>
-    <row r="140" spans="1:9" ht="15">
+    <row r="140" spans="1:9" ht="15.6">
       <c r="A140" s="17"/>
       <c r="B140" s="17" t="s">
         <v>21</v>
@@ -14580,7 +14580,7 @@
       </c>
       <c r="I140" s="17"/>
     </row>
-    <row r="141" spans="1:9" ht="15">
+    <row r="141" spans="1:9" ht="15.6">
       <c r="A141" s="17"/>
       <c r="B141" s="17" t="s">
         <v>21</v>
@@ -14603,7 +14603,7 @@
       </c>
       <c r="I141" s="17"/>
     </row>
-    <row r="142" spans="1:9" ht="15">
+    <row r="142" spans="1:9" ht="15.6">
       <c r="A142" s="17"/>
       <c r="B142" s="17" t="s">
         <v>21</v>
@@ -14626,7 +14626,7 @@
       </c>
       <c r="I142" s="17"/>
     </row>
-    <row r="143" spans="1:9" ht="15">
+    <row r="143" spans="1:9" ht="15.6">
       <c r="A143" s="17"/>
       <c r="B143" s="17" t="s">
         <v>21</v>
@@ -14649,7 +14649,7 @@
       </c>
       <c r="I143" s="17"/>
     </row>
-    <row r="144" spans="1:9" ht="15">
+    <row r="144" spans="1:9" ht="15.6">
       <c r="A144" s="17"/>
       <c r="B144" s="17" t="s">
         <v>21</v>
@@ -14672,7 +14672,7 @@
       </c>
       <c r="I144" s="17"/>
     </row>
-    <row r="145" spans="1:9" ht="15">
+    <row r="145" spans="1:9" ht="15.6">
       <c r="A145" s="17"/>
       <c r="B145" s="17" t="s">
         <v>21</v>
@@ -14695,7 +14695,7 @@
       </c>
       <c r="I145" s="17"/>
     </row>
-    <row r="146" spans="1:9" ht="15">
+    <row r="146" spans="1:9" ht="15.6">
       <c r="A146" s="17"/>
       <c r="B146" s="17" t="s">
         <v>21</v>
@@ -14718,7 +14718,7 @@
       </c>
       <c r="I146" s="17"/>
     </row>
-    <row r="147" spans="1:9" ht="15">
+    <row r="147" spans="1:9" ht="15.6">
       <c r="A147" s="17"/>
       <c r="B147" s="17" t="s">
         <v>21</v>
@@ -14741,7 +14741,7 @@
       </c>
       <c r="I147" s="17"/>
     </row>
-    <row r="148" spans="1:9" ht="15">
+    <row r="148" spans="1:9" ht="15.6">
       <c r="A148" s="17"/>
       <c r="B148" s="17" t="s">
         <v>21</v>
@@ -14764,7 +14764,7 @@
       </c>
       <c r="I148" s="17"/>
     </row>
-    <row r="149" spans="1:9" ht="15">
+    <row r="149" spans="1:9" ht="15.6">
       <c r="A149" s="17"/>
       <c r="B149" s="17" t="s">
         <v>21</v>
@@ -14787,7 +14787,7 @@
       </c>
       <c r="I149" s="17"/>
     </row>
-    <row r="150" spans="1:9" ht="15">
+    <row r="150" spans="1:9" ht="15.6">
       <c r="A150" s="17"/>
       <c r="B150" s="17" t="s">
         <v>21</v>
@@ -14810,7 +14810,7 @@
       </c>
       <c r="I150" s="17"/>
     </row>
-    <row r="151" spans="1:9" ht="15">
+    <row r="151" spans="1:9" ht="15.6">
       <c r="A151" s="17" t="b">
         <v>0</v>
       </c>
@@ -14829,7 +14829,7 @@
       <c r="H151" s="17"/>
       <c r="I151" s="17"/>
     </row>
-    <row r="152" spans="1:9" ht="15">
+    <row r="152" spans="1:9" ht="15.6">
       <c r="A152" s="17"/>
       <c r="B152" s="17" t="s">
         <v>21</v>
@@ -14852,7 +14852,7 @@
       </c>
       <c r="I152" s="17"/>
     </row>
-    <row r="153" spans="1:9" ht="15">
+    <row r="153" spans="1:9" ht="15.6">
       <c r="A153" s="17" t="b">
         <v>0</v>
       </c>
@@ -14871,7 +14871,7 @@
       <c r="H153" s="17"/>
       <c r="I153" s="17"/>
     </row>
-    <row r="154" spans="1:9" ht="15">
+    <row r="154" spans="1:9" ht="15.6">
       <c r="A154" s="17"/>
       <c r="B154" s="17" t="s">
         <v>21</v>
@@ -14894,7 +14894,7 @@
       </c>
       <c r="I154" s="17"/>
     </row>
-    <row r="155" spans="1:9" ht="15">
+    <row r="155" spans="1:9" ht="15.6">
       <c r="A155" s="17"/>
       <c r="B155" s="17" t="s">
         <v>21</v>
@@ -14917,7 +14917,7 @@
       </c>
       <c r="I155" s="17"/>
     </row>
-    <row r="156" spans="1:9" ht="15">
+    <row r="156" spans="1:9" ht="15.6">
       <c r="A156" s="17" t="b">
         <v>0</v>
       </c>
@@ -14936,7 +14936,7 @@
       <c r="H156" s="17"/>
       <c r="I156" s="17"/>
     </row>
-    <row r="157" spans="1:9" ht="15">
+    <row r="157" spans="1:9" ht="15.6">
       <c r="A157" s="17"/>
       <c r="B157" s="17" t="s">
         <v>21</v>
@@ -14961,7 +14961,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="158" spans="1:9" ht="15">
+    <row r="158" spans="1:9" ht="15.6">
       <c r="A158" s="17"/>
       <c r="B158" s="17" t="s">
         <v>21</v>
@@ -14984,7 +14984,7 @@
       </c>
       <c r="I158" s="17"/>
     </row>
-    <row r="159" spans="1:9" ht="15">
+    <row r="159" spans="1:9" ht="15.6">
       <c r="A159" s="17"/>
       <c r="B159" s="17" t="s">
         <v>21</v>
@@ -15007,7 +15007,7 @@
       </c>
       <c r="I159" s="17"/>
     </row>
-    <row r="160" spans="1:9" ht="15">
+    <row r="160" spans="1:9" ht="15.6">
       <c r="A160" s="17"/>
       <c r="B160" s="17" t="s">
         <v>21</v>
@@ -15030,7 +15030,7 @@
       </c>
       <c r="I160" s="17"/>
     </row>
-    <row r="161" spans="1:9" ht="15">
+    <row r="161" spans="1:9" ht="15.6">
       <c r="A161" s="17"/>
       <c r="B161" s="17" t="s">
         <v>21</v>
@@ -15053,7 +15053,7 @@
       </c>
       <c r="I161" s="17"/>
     </row>
-    <row r="162" spans="1:9" ht="15">
+    <row r="162" spans="1:9" ht="15.6">
       <c r="A162" s="17"/>
       <c r="B162" s="17" t="s">
         <v>21</v>
@@ -15076,7 +15076,7 @@
       </c>
       <c r="I162" s="17"/>
     </row>
-    <row r="163" spans="1:9" ht="15">
+    <row r="163" spans="1:9" ht="15.6">
       <c r="A163" s="17"/>
       <c r="B163" s="17" t="s">
         <v>21</v>
@@ -15099,7 +15099,7 @@
       </c>
       <c r="I163" s="17"/>
     </row>
-    <row r="164" spans="1:9" ht="15">
+    <row r="164" spans="1:9" ht="15.6">
       <c r="A164" s="17"/>
       <c r="B164" s="17" t="s">
         <v>21</v>
@@ -15122,7 +15122,7 @@
       </c>
       <c r="I164" s="17"/>
     </row>
-    <row r="165" spans="1:9" ht="15">
+    <row r="165" spans="1:9" ht="15.6">
       <c r="A165" s="17"/>
       <c r="B165" s="17" t="s">
         <v>21</v>
@@ -15145,7 +15145,7 @@
       </c>
       <c r="I165" s="17"/>
     </row>
-    <row r="166" spans="1:9" ht="15">
+    <row r="166" spans="1:9" ht="15.6">
       <c r="A166" s="17"/>
       <c r="B166" s="17" t="s">
         <v>21</v>
@@ -15168,7 +15168,7 @@
       </c>
       <c r="I166" s="17"/>
     </row>
-    <row r="167" spans="1:9" ht="15">
+    <row r="167" spans="1:9" ht="15.6">
       <c r="A167" s="17" t="b">
         <v>0</v>
       </c>
@@ -15187,7 +15187,7 @@
       <c r="H167" s="17"/>
       <c r="I167" s="17"/>
     </row>
-    <row r="168" spans="1:9" ht="15">
+    <row r="168" spans="1:9" ht="15.6">
       <c r="A168" s="17"/>
       <c r="B168" s="17" t="s">
         <v>21</v>
@@ -15212,7 +15212,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="169" spans="1:9" ht="15">
+    <row r="169" spans="1:9" ht="15.6">
       <c r="A169" s="17"/>
       <c r="B169" s="17" t="s">
         <v>21</v>
@@ -15235,7 +15235,7 @@
       </c>
       <c r="I169" s="17"/>
     </row>
-    <row r="170" spans="1:9" ht="15">
+    <row r="170" spans="1:9" ht="15.6">
       <c r="A170" s="17"/>
       <c r="B170" s="17" t="s">
         <v>21</v>
@@ -15258,7 +15258,7 @@
       </c>
       <c r="I170" s="17"/>
     </row>
-    <row r="171" spans="1:9" ht="15">
+    <row r="171" spans="1:9" ht="15.6">
       <c r="A171" s="17"/>
       <c r="B171" s="17" t="s">
         <v>21</v>
@@ -15281,7 +15281,7 @@
       </c>
       <c r="I171" s="17"/>
     </row>
-    <row r="172" spans="1:9" ht="15">
+    <row r="172" spans="1:9" ht="15.6">
       <c r="A172" s="17"/>
       <c r="B172" s="17" t="s">
         <v>21</v>
@@ -15304,7 +15304,7 @@
       </c>
       <c r="I172" s="17"/>
     </row>
-    <row r="173" spans="1:9" ht="15">
+    <row r="173" spans="1:9" ht="15.6">
       <c r="A173" s="17"/>
       <c r="B173" s="17" t="s">
         <v>21</v>
@@ -15327,7 +15327,7 @@
       </c>
       <c r="I173" s="17"/>
     </row>
-    <row r="174" spans="1:9" ht="15">
+    <row r="174" spans="1:9" ht="15.6">
       <c r="A174" s="17"/>
       <c r="B174" s="17" t="s">
         <v>21</v>
@@ -15350,7 +15350,7 @@
       </c>
       <c r="I174" s="17"/>
     </row>
-    <row r="175" spans="1:9" ht="15">
+    <row r="175" spans="1:9" ht="15.6">
       <c r="A175" s="17"/>
       <c r="B175" s="17" t="s">
         <v>21</v>
@@ -15373,7 +15373,7 @@
       </c>
       <c r="I175" s="17"/>
     </row>
-    <row r="176" spans="1:9" ht="15">
+    <row r="176" spans="1:9" ht="15.6">
       <c r="A176" s="17"/>
       <c r="B176" s="17" t="s">
         <v>21</v>
@@ -15396,7 +15396,7 @@
       </c>
       <c r="I176" s="17"/>
     </row>
-    <row r="177" spans="1:9" ht="15">
+    <row r="177" spans="1:9" ht="15.6">
       <c r="A177" s="17"/>
       <c r="B177" s="17" t="s">
         <v>21</v>
@@ -15419,7 +15419,7 @@
       </c>
       <c r="I177" s="17"/>
     </row>
-    <row r="178" spans="1:9" ht="15">
+    <row r="178" spans="1:9" ht="15.6">
       <c r="A178" s="17" t="b">
         <v>0</v>
       </c>
@@ -15438,7 +15438,7 @@
       <c r="H178" s="17"/>
       <c r="I178" s="17"/>
     </row>
-    <row r="179" spans="1:9" ht="15">
+    <row r="179" spans="1:9" ht="15.6">
       <c r="A179" s="17"/>
       <c r="B179" s="17" t="s">
         <v>21</v>
@@ -15461,7 +15461,7 @@
       </c>
       <c r="I179" s="17"/>
     </row>
-    <row r="180" spans="1:9" ht="15">
+    <row r="180" spans="1:9" ht="15.6">
       <c r="A180" s="17"/>
       <c r="B180" s="17" t="s">
         <v>21</v>
@@ -15484,7 +15484,7 @@
       </c>
       <c r="I180" s="17"/>
     </row>
-    <row r="181" spans="1:9" ht="15">
+    <row r="181" spans="1:9" ht="15.6">
       <c r="A181" s="17"/>
       <c r="B181" s="17" t="s">
         <v>21</v>
@@ -15507,7 +15507,7 @@
       </c>
       <c r="I181" s="17"/>
     </row>
-    <row r="182" spans="1:9" ht="15">
+    <row r="182" spans="1:9" ht="15.6">
       <c r="A182" s="17"/>
       <c r="B182" s="17" t="s">
         <v>21</v>
@@ -15530,7 +15530,7 @@
       </c>
       <c r="I182" s="17"/>
     </row>
-    <row r="183" spans="1:9" ht="15">
+    <row r="183" spans="1:9" ht="15.6">
       <c r="A183" s="17" t="b">
         <v>0</v>
       </c>
@@ -15549,7 +15549,7 @@
       <c r="H183" s="17"/>
       <c r="I183" s="17"/>
     </row>
-    <row r="184" spans="1:9" ht="15">
+    <row r="184" spans="1:9" ht="15.6">
       <c r="A184" s="17"/>
       <c r="B184" s="17" t="s">
         <v>21</v>
@@ -15572,7 +15572,7 @@
       </c>
       <c r="I184" s="17"/>
     </row>
-    <row r="185" spans="1:9" ht="15">
+    <row r="185" spans="1:9" ht="15.6">
       <c r="A185" s="17"/>
       <c r="B185" s="17" t="s">
         <v>21</v>
@@ -15595,7 +15595,7 @@
       </c>
       <c r="I185" s="17"/>
     </row>
-    <row r="186" spans="1:9" ht="15">
+    <row r="186" spans="1:9" ht="15.6">
       <c r="A186" s="17"/>
       <c r="B186" s="17" t="s">
         <v>21</v>
@@ -15618,7 +15618,7 @@
       </c>
       <c r="I186" s="17"/>
     </row>
-    <row r="187" spans="1:9" ht="15">
+    <row r="187" spans="1:9" ht="15.6">
       <c r="A187" s="17"/>
       <c r="B187" s="17" t="s">
         <v>21</v>
@@ -15641,7 +15641,7 @@
       </c>
       <c r="I187" s="17"/>
     </row>
-    <row r="188" spans="1:9" ht="15">
+    <row r="188" spans="1:9" ht="15.6">
       <c r="A188" s="17" t="b">
         <v>0</v>
       </c>
@@ -15660,7 +15660,7 @@
       <c r="H188" s="17"/>
       <c r="I188" s="17"/>
     </row>
-    <row r="189" spans="1:9" ht="15">
+    <row r="189" spans="1:9" ht="15.6">
       <c r="A189" s="17"/>
       <c r="B189" s="17" t="s">
         <v>21</v>
@@ -15681,7 +15681,7 @@
       <c r="H189" s="17"/>
       <c r="I189" s="17"/>
     </row>
-    <row r="190" spans="1:9" ht="15">
+    <row r="190" spans="1:9" ht="15.6">
       <c r="A190" s="17"/>
       <c r="B190" s="17" t="s">
         <v>21</v>
@@ -15704,7 +15704,7 @@
       </c>
       <c r="I190" s="17"/>
     </row>
-    <row r="191" spans="1:9" ht="15">
+    <row r="191" spans="1:9" ht="15.6">
       <c r="A191" s="17" t="b">
         <v>0</v>
       </c>
@@ -15723,7 +15723,7 @@
       <c r="H191" s="17"/>
       <c r="I191" s="17"/>
     </row>
-    <row r="192" spans="1:9" ht="15">
+    <row r="192" spans="1:9" ht="15.6">
       <c r="A192" s="17"/>
       <c r="B192" s="17" t="s">
         <v>21</v>
@@ -15746,7 +15746,7 @@
       </c>
       <c r="I192" s="17"/>
     </row>
-    <row r="193" spans="1:9" ht="15">
+    <row r="193" spans="1:9" ht="15.6">
       <c r="A193" s="17"/>
       <c r="B193" s="17" t="s">
         <v>21</v>
@@ -15771,7 +15771,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="194" spans="1:9" ht="15">
+    <row r="194" spans="1:9" ht="15.6">
       <c r="A194" s="17"/>
       <c r="B194" s="17" t="s">
         <v>21</v>
@@ -15792,7 +15792,7 @@
       <c r="H194" s="17"/>
       <c r="I194" s="17"/>
     </row>
-    <row r="195" spans="1:9" ht="15">
+    <row r="195" spans="1:9" ht="15.6">
       <c r="A195" s="17"/>
       <c r="B195" s="17" t="s">
         <v>21</v>
@@ -15817,7 +15817,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="196" spans="1:9" ht="15">
+    <row r="196" spans="1:9" ht="15.6">
       <c r="A196" s="17"/>
       <c r="B196" s="17" t="s">
         <v>21</v>
@@ -15842,7 +15842,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="197" spans="1:9" ht="15">
+    <row r="197" spans="1:9" ht="15.6">
       <c r="A197" s="17" t="b">
         <v>0</v>
       </c>
@@ -15861,7 +15861,7 @@
       <c r="H197" s="17"/>
       <c r="I197" s="17"/>
     </row>
-    <row r="198" spans="1:9" ht="15">
+    <row r="198" spans="1:9" ht="15.6">
       <c r="A198" s="17"/>
       <c r="B198" s="17" t="s">
         <v>21</v>
@@ -15886,7 +15886,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="199" spans="1:9" ht="15">
+    <row r="199" spans="1:9" ht="15.6">
       <c r="A199" s="17"/>
       <c r="B199" s="17" t="s">
         <v>21</v>
@@ -15909,7 +15909,7 @@
       </c>
       <c r="I199" s="17"/>
     </row>
-    <row r="200" spans="1:9" ht="15">
+    <row r="200" spans="1:9" ht="15.6">
       <c r="A200" s="17"/>
       <c r="B200" s="17" t="s">
         <v>21</v>
@@ -15932,7 +15932,7 @@
       </c>
       <c r="I200" s="17"/>
     </row>
-    <row r="201" spans="1:9" ht="15">
+    <row r="201" spans="1:9" ht="15.6">
       <c r="A201" s="17"/>
       <c r="B201" s="17" t="s">
         <v>21</v>
@@ -15955,7 +15955,7 @@
       </c>
       <c r="I201" s="17"/>
     </row>
-    <row r="202" spans="1:9" ht="15">
+    <row r="202" spans="1:9" ht="15.6">
       <c r="A202" s="17"/>
       <c r="B202" s="17" t="s">
         <v>21</v>
@@ -15978,7 +15978,7 @@
       </c>
       <c r="I202" s="17"/>
     </row>
-    <row r="203" spans="1:9" ht="15">
+    <row r="203" spans="1:9" ht="15.6">
       <c r="A203" s="17"/>
       <c r="B203" s="17" t="s">
         <v>21</v>
@@ -16001,7 +16001,7 @@
       </c>
       <c r="I203" s="17"/>
     </row>
-    <row r="204" spans="1:9" ht="15">
+    <row r="204" spans="1:9" ht="15.6">
       <c r="A204" s="17"/>
       <c r="B204" s="17" t="s">
         <v>21</v>
@@ -16024,7 +16024,7 @@
       </c>
       <c r="I204" s="17"/>
     </row>
-    <row r="205" spans="1:9" ht="15">
+    <row r="205" spans="1:9" ht="15.6">
       <c r="A205" s="17"/>
       <c r="B205" s="17" t="s">
         <v>21</v>
@@ -16047,7 +16047,7 @@
       </c>
       <c r="I205" s="17"/>
     </row>
-    <row r="206" spans="1:9" ht="15">
+    <row r="206" spans="1:9" ht="15.6">
       <c r="A206" s="17"/>
       <c r="B206" s="17" t="s">
         <v>21</v>
@@ -16070,7 +16070,7 @@
       </c>
       <c r="I206" s="17"/>
     </row>
-    <row r="207" spans="1:9" ht="15">
+    <row r="207" spans="1:9" ht="15.6">
       <c r="A207" s="17" t="b">
         <v>0</v>
       </c>
@@ -16089,7 +16089,7 @@
       <c r="H207" s="17"/>
       <c r="I207" s="17"/>
     </row>
-    <row r="208" spans="1:9" ht="15">
+    <row r="208" spans="1:9" ht="15.6">
       <c r="A208" s="17"/>
       <c r="B208" s="17" t="s">
         <v>21</v>
@@ -16114,7 +16114,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="209" spans="1:9" ht="15">
+    <row r="209" spans="1:9" ht="15.6">
       <c r="A209" s="17"/>
       <c r="B209" s="17" t="s">
         <v>21</v>
@@ -16137,7 +16137,7 @@
       </c>
       <c r="I209" s="17"/>
     </row>
-    <row r="210" spans="1:9" ht="15">
+    <row r="210" spans="1:9" ht="15.6">
       <c r="A210" s="17"/>
       <c r="B210" s="17" t="s">
         <v>21</v>
@@ -16160,7 +16160,7 @@
       </c>
       <c r="I210" s="17"/>
     </row>
-    <row r="211" spans="1:9" ht="15">
+    <row r="211" spans="1:9" ht="15.6">
       <c r="A211" s="17"/>
       <c r="B211" s="17" t="s">
         <v>21</v>
@@ -16183,7 +16183,7 @@
       </c>
       <c r="I211" s="17"/>
     </row>
-    <row r="212" spans="1:9" ht="15">
+    <row r="212" spans="1:9" ht="15.6">
       <c r="A212" s="17"/>
       <c r="B212" s="17" t="s">
         <v>21</v>
@@ -16206,7 +16206,7 @@
       </c>
       <c r="I212" s="17"/>
     </row>
-    <row r="213" spans="1:9" ht="15">
+    <row r="213" spans="1:9" ht="15.6">
       <c r="A213" s="17"/>
       <c r="B213" s="17" t="s">
         <v>21</v>
@@ -16229,7 +16229,7 @@
       </c>
       <c r="I213" s="17"/>
     </row>
-    <row r="214" spans="1:9" ht="15">
+    <row r="214" spans="1:9" ht="15.6">
       <c r="A214" s="17"/>
       <c r="B214" s="17" t="s">
         <v>21</v>
@@ -16252,7 +16252,7 @@
       </c>
       <c r="I214" s="17"/>
     </row>
-    <row r="215" spans="1:9" ht="15">
+    <row r="215" spans="1:9" ht="15.6">
       <c r="A215" s="17"/>
       <c r="B215" s="17" t="s">
         <v>21</v>
@@ -16275,7 +16275,7 @@
       </c>
       <c r="I215" s="17"/>
     </row>
-    <row r="216" spans="1:9" ht="15">
+    <row r="216" spans="1:9" ht="15.6">
       <c r="A216" s="17"/>
       <c r="B216" s="17" t="s">
         <v>21</v>
@@ -16298,7 +16298,7 @@
       </c>
       <c r="I216" s="17"/>
     </row>
-    <row r="217" spans="1:9" ht="15">
+    <row r="217" spans="1:9" ht="15.6">
       <c r="A217" s="17" t="b">
         <v>0</v>
       </c>
@@ -16317,7 +16317,7 @@
       <c r="H217" s="17"/>
       <c r="I217" s="17"/>
     </row>
-    <row r="218" spans="1:9" ht="15">
+    <row r="218" spans="1:9" ht="15.6">
       <c r="A218" s="17"/>
       <c r="B218" s="17" t="s">
         <v>21</v>
@@ -16338,7 +16338,7 @@
       <c r="H218" s="17"/>
       <c r="I218" s="17"/>
     </row>
-    <row r="219" spans="1:9" ht="15">
+    <row r="219" spans="1:9" ht="15.6">
       <c r="A219" s="17"/>
       <c r="B219" s="17" t="s">
         <v>21</v>
@@ -16361,7 +16361,7 @@
       </c>
       <c r="I219" s="17"/>
     </row>
-    <row r="220" spans="1:9" ht="15">
+    <row r="220" spans="1:9" ht="15.6">
       <c r="A220" s="17"/>
       <c r="B220" s="17" t="s">
         <v>21</v>
@@ -16384,7 +16384,7 @@
       </c>
       <c r="I220" s="17"/>
     </row>
-    <row r="221" spans="1:9" ht="15">
+    <row r="221" spans="1:9" ht="15.6">
       <c r="A221" s="17"/>
       <c r="B221" s="17" t="s">
         <v>21</v>
@@ -16407,7 +16407,7 @@
       </c>
       <c r="I221" s="17"/>
     </row>
-    <row r="222" spans="1:9" ht="15">
+    <row r="222" spans="1:9" ht="15.6">
       <c r="A222" s="17"/>
       <c r="B222" s="17" t="s">
         <v>21</v>
@@ -16430,7 +16430,7 @@
       </c>
       <c r="I222" s="17"/>
     </row>
-    <row r="223" spans="1:9" ht="15">
+    <row r="223" spans="1:9" ht="15.6">
       <c r="A223" s="17"/>
       <c r="B223" s="17" t="s">
         <v>21</v>
@@ -16453,7 +16453,7 @@
       </c>
       <c r="I223" s="17"/>
     </row>
-    <row r="224" spans="1:9" ht="15">
+    <row r="224" spans="1:9" ht="15.6">
       <c r="A224" s="17"/>
       <c r="B224" s="17" t="s">
         <v>21</v>
@@ -16476,7 +16476,7 @@
       </c>
       <c r="I224" s="17"/>
     </row>
-    <row r="225" spans="1:9" ht="15">
+    <row r="225" spans="1:9" ht="15.6">
       <c r="A225" s="17"/>
       <c r="B225" s="17" t="s">
         <v>21</v>
@@ -16499,7 +16499,7 @@
       </c>
       <c r="I225" s="17"/>
     </row>
-    <row r="226" spans="1:9" ht="15">
+    <row r="226" spans="1:9" ht="15.6">
       <c r="A226" s="17"/>
       <c r="B226" s="17" t="s">
         <v>21</v>
@@ -16522,7 +16522,7 @@
       </c>
       <c r="I226" s="17"/>
     </row>
-    <row r="227" spans="1:9" ht="15">
+    <row r="227" spans="1:9" ht="15.6">
       <c r="A227" s="17"/>
       <c r="B227" s="17" t="s">
         <v>21</v>
@@ -16545,7 +16545,7 @@
       </c>
       <c r="I227" s="17"/>
     </row>
-    <row r="228" spans="1:9" ht="15">
+    <row r="228" spans="1:9" ht="15.6">
       <c r="A228" s="17"/>
       <c r="B228" s="17" t="s">
         <v>21</v>
@@ -16568,7 +16568,7 @@
       </c>
       <c r="I228" s="17"/>
     </row>
-    <row r="229" spans="1:9" ht="15">
+    <row r="229" spans="1:9" ht="15.6">
       <c r="A229" s="17"/>
       <c r="B229" s="17" t="s">
         <v>21</v>
@@ -16591,7 +16591,7 @@
       </c>
       <c r="I229" s="17"/>
     </row>
-    <row r="230" spans="1:9" ht="15">
+    <row r="230" spans="1:9" ht="15.6">
       <c r="A230" s="17"/>
       <c r="B230" s="17" t="s">
         <v>21</v>
@@ -16614,7 +16614,7 @@
       </c>
       <c r="I230" s="17"/>
     </row>
-    <row r="231" spans="1:9" ht="15">
+    <row r="231" spans="1:9" ht="15.6">
       <c r="A231" s="17"/>
       <c r="B231" s="17" t="s">
         <v>21</v>
@@ -16637,7 +16637,7 @@
       </c>
       <c r="I231" s="17"/>
     </row>
-    <row r="232" spans="1:9" ht="15">
+    <row r="232" spans="1:9" ht="15.6">
       <c r="A232" s="17"/>
       <c r="B232" s="17" t="s">
         <v>21</v>
@@ -16660,7 +16660,7 @@
       </c>
       <c r="I232" s="17"/>
     </row>
-    <row r="233" spans="1:9" ht="15">
+    <row r="233" spans="1:9" ht="15.6">
       <c r="A233" s="17"/>
       <c r="B233" s="17" t="s">
         <v>21</v>
@@ -16683,7 +16683,7 @@
       </c>
       <c r="I233" s="17"/>
     </row>
-    <row r="234" spans="1:9" ht="15">
+    <row r="234" spans="1:9" ht="15.6">
       <c r="A234" s="17" t="b">
         <v>0</v>
       </c>
@@ -16702,7 +16702,7 @@
       <c r="H234" s="17"/>
       <c r="I234" s="17"/>
     </row>
-    <row r="235" spans="1:9" ht="15">
+    <row r="235" spans="1:9" ht="15.6">
       <c r="A235" s="17"/>
       <c r="B235" s="17" t="s">
         <v>21</v>
@@ -16723,7 +16723,7 @@
       <c r="H235" s="17"/>
       <c r="I235" s="17"/>
     </row>
-    <row r="236" spans="1:9" ht="15">
+    <row r="236" spans="1:9" ht="15.6">
       <c r="A236" s="17"/>
       <c r="B236" s="17" t="s">
         <v>21</v>
@@ -16746,7 +16746,7 @@
       </c>
       <c r="I236" s="17"/>
     </row>
-    <row r="237" spans="1:9" ht="15">
+    <row r="237" spans="1:9" ht="15.6">
       <c r="A237" s="17"/>
       <c r="B237" s="17" t="s">
         <v>21</v>
@@ -16769,7 +16769,7 @@
       </c>
       <c r="I237" s="17"/>
     </row>
-    <row r="238" spans="1:9" ht="15">
+    <row r="238" spans="1:9" ht="15.6">
       <c r="A238" s="17"/>
       <c r="B238" s="17" t="s">
         <v>21</v>
@@ -16792,7 +16792,7 @@
       </c>
       <c r="I238" s="17"/>
     </row>
-    <row r="239" spans="1:9" ht="15">
+    <row r="239" spans="1:9" ht="15.6">
       <c r="A239" s="17"/>
       <c r="B239" s="17" t="s">
         <v>21</v>
@@ -16815,7 +16815,7 @@
       </c>
       <c r="I239" s="17"/>
     </row>
-    <row r="240" spans="1:9" ht="15">
+    <row r="240" spans="1:9" ht="15.6">
       <c r="A240" s="17"/>
       <c r="B240" s="17" t="s">
         <v>21</v>
@@ -16838,7 +16838,7 @@
       </c>
       <c r="I240" s="17"/>
     </row>
-    <row r="241" spans="1:9" ht="15">
+    <row r="241" spans="1:9" ht="15.6">
       <c r="A241" s="17"/>
       <c r="B241" s="17" t="s">
         <v>21</v>
@@ -16861,7 +16861,7 @@
       </c>
       <c r="I241" s="17"/>
     </row>
-    <row r="242" spans="1:9" ht="15">
+    <row r="242" spans="1:9" ht="15.6">
       <c r="A242" s="17"/>
       <c r="B242" s="17" t="s">
         <v>21</v>
@@ -16884,7 +16884,7 @@
       </c>
       <c r="I242" s="17"/>
     </row>
-    <row r="243" spans="1:9" ht="15">
+    <row r="243" spans="1:9" ht="15.6">
       <c r="A243" s="17"/>
       <c r="B243" s="17" t="s">
         <v>21</v>
@@ -16907,7 +16907,7 @@
       </c>
       <c r="I243" s="17"/>
     </row>
-    <row r="244" spans="1:9" ht="15">
+    <row r="244" spans="1:9" ht="15.6">
       <c r="A244" s="17"/>
       <c r="B244" s="17" t="s">
         <v>21</v>
@@ -16930,7 +16930,7 @@
       </c>
       <c r="I244" s="17"/>
     </row>
-    <row r="245" spans="1:9" ht="15">
+    <row r="245" spans="1:9" ht="15.6">
       <c r="A245" s="17"/>
       <c r="B245" s="17" t="s">
         <v>21</v>
@@ -16953,7 +16953,7 @@
       </c>
       <c r="I245" s="17"/>
     </row>
-    <row r="246" spans="1:9" ht="15">
+    <row r="246" spans="1:9" ht="15.6">
       <c r="A246" s="17"/>
       <c r="B246" s="17" t="s">
         <v>21</v>
@@ -16976,7 +16976,7 @@
       </c>
       <c r="I246" s="17"/>
     </row>
-    <row r="247" spans="1:9" ht="15">
+    <row r="247" spans="1:9" ht="15.6">
       <c r="A247" s="17"/>
       <c r="B247" s="17" t="s">
         <v>21</v>
@@ -16999,7 +16999,7 @@
       </c>
       <c r="I247" s="17"/>
     </row>
-    <row r="248" spans="1:9" ht="15">
+    <row r="248" spans="1:9" ht="15.6">
       <c r="A248" s="17"/>
       <c r="B248" s="17" t="s">
         <v>21</v>
@@ -17022,7 +17022,7 @@
       </c>
       <c r="I248" s="17"/>
     </row>
-    <row r="249" spans="1:9" ht="15">
+    <row r="249" spans="1:9" ht="15.6">
       <c r="A249" s="17"/>
       <c r="B249" s="17" t="s">
         <v>21</v>
@@ -17045,7 +17045,7 @@
       </c>
       <c r="I249" s="17"/>
     </row>
-    <row r="250" spans="1:9" ht="15">
+    <row r="250" spans="1:9" ht="15.6">
       <c r="A250" s="17"/>
       <c r="B250" s="17" t="s">
         <v>21</v>
@@ -17068,7 +17068,7 @@
       </c>
       <c r="I250" s="17"/>
     </row>
-    <row r="251" spans="1:9" ht="15">
+    <row r="251" spans="1:9" ht="15.6">
       <c r="A251" s="17" t="b">
         <v>0</v>
       </c>
@@ -17087,7 +17087,7 @@
       <c r="H251" s="17"/>
       <c r="I251" s="17"/>
     </row>
-    <row r="252" spans="1:9" ht="15">
+    <row r="252" spans="1:9" ht="15.6">
       <c r="A252" s="17"/>
       <c r="B252" s="17" t="s">
         <v>21</v>
@@ -17112,7 +17112,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="253" spans="1:9" ht="15">
+    <row r="253" spans="1:9" ht="15.6">
       <c r="A253" s="17"/>
       <c r="B253" s="17" t="s">
         <v>21</v>
@@ -17135,7 +17135,7 @@
       </c>
       <c r="I253" s="17"/>
     </row>
-    <row r="254" spans="1:9" ht="15">
+    <row r="254" spans="1:9" ht="15.6">
       <c r="A254" s="17"/>
       <c r="B254" s="17" t="s">
         <v>21</v>
@@ -17158,7 +17158,7 @@
       </c>
       <c r="I254" s="17"/>
     </row>
-    <row r="255" spans="1:9" ht="15">
+    <row r="255" spans="1:9" ht="15.6">
       <c r="A255" s="17"/>
       <c r="B255" s="17" t="s">
         <v>21</v>
@@ -17181,7 +17181,7 @@
       </c>
       <c r="I255" s="17"/>
     </row>
-    <row r="256" spans="1:9" ht="15">
+    <row r="256" spans="1:9" ht="15.6">
       <c r="A256" s="17"/>
       <c r="B256" s="17" t="s">
         <v>21</v>
@@ -17204,7 +17204,7 @@
       </c>
       <c r="I256" s="17"/>
     </row>
-    <row r="257" spans="1:9" ht="15">
+    <row r="257" spans="1:9" ht="15.6">
       <c r="A257" s="17" t="b">
         <v>0</v>
       </c>
@@ -17223,7 +17223,7 @@
       <c r="H257" s="17"/>
       <c r="I257" s="17"/>
     </row>
-    <row r="258" spans="1:9" ht="15">
+    <row r="258" spans="1:9" ht="15.6">
       <c r="A258" s="17"/>
       <c r="B258" s="17" t="s">
         <v>21</v>
@@ -17248,7 +17248,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="259" spans="1:9" ht="15">
+    <row r="259" spans="1:9" ht="15.6">
       <c r="A259" s="17"/>
       <c r="B259" s="17" t="s">
         <v>21</v>
@@ -17271,7 +17271,7 @@
       </c>
       <c r="I259" s="17"/>
     </row>
-    <row r="260" spans="1:9" ht="15">
+    <row r="260" spans="1:9" ht="15.6">
       <c r="A260" s="17" t="b">
         <v>0</v>
       </c>
@@ -17290,7 +17290,7 @@
       <c r="H260" s="17"/>
       <c r="I260" s="17"/>
     </row>
-    <row r="261" spans="1:9" ht="15">
+    <row r="261" spans="1:9" ht="15.6">
       <c r="A261" s="17" t="b">
         <v>0</v>
       </c>
@@ -17309,7 +17309,7 @@
       <c r="H261" s="17"/>
       <c r="I261" s="17"/>
     </row>
-    <row r="262" spans="1:9" ht="15">
+    <row r="262" spans="1:9" ht="15.6">
       <c r="A262" s="17" t="b">
         <v>0</v>
       </c>
@@ -17328,7 +17328,7 @@
       <c r="H262" s="17"/>
       <c r="I262" s="17"/>
     </row>
-    <row r="263" spans="1:9" ht="15">
+    <row r="263" spans="1:9" ht="15.6">
       <c r="A263" s="17"/>
       <c r="B263" s="17" t="s">
         <v>21</v>
@@ -17349,7 +17349,7 @@
       <c r="H263" s="17"/>
       <c r="I263" s="17"/>
     </row>
-    <row r="264" spans="1:9" ht="15">
+    <row r="264" spans="1:9" ht="15.6">
       <c r="A264" s="17"/>
       <c r="B264" s="17" t="s">
         <v>21</v>
@@ -17372,7 +17372,7 @@
       </c>
       <c r="I264" s="17"/>
     </row>
-    <row r="265" spans="1:9" ht="15">
+    <row r="265" spans="1:9" ht="15.6">
       <c r="A265" s="17"/>
       <c r="B265" s="17" t="s">
         <v>21</v>
@@ -17395,7 +17395,7 @@
       </c>
       <c r="I265" s="17"/>
     </row>
-    <row r="266" spans="1:9" ht="15">
+    <row r="266" spans="1:9" ht="15.6">
       <c r="A266" s="17"/>
       <c r="B266" s="17" t="s">
         <v>21</v>
@@ -17418,7 +17418,7 @@
       </c>
       <c r="I266" s="17"/>
     </row>
-    <row r="267" spans="1:9" ht="15">
+    <row r="267" spans="1:9" ht="15.6">
       <c r="A267" s="17"/>
       <c r="B267" s="17" t="s">
         <v>21</v>
@@ -17441,7 +17441,7 @@
       </c>
       <c r="I267" s="17"/>
     </row>
-    <row r="268" spans="1:9" ht="15">
+    <row r="268" spans="1:9" ht="15.6">
       <c r="A268" s="17"/>
       <c r="B268" s="17" t="s">
         <v>21</v>
@@ -17464,7 +17464,7 @@
       </c>
       <c r="I268" s="17"/>
     </row>
-    <row r="269" spans="1:9" ht="15">
+    <row r="269" spans="1:9" ht="15.6">
       <c r="A269" s="17"/>
       <c r="B269" s="17" t="s">
         <v>21</v>
@@ -17487,7 +17487,7 @@
       </c>
       <c r="I269" s="17"/>
     </row>
-    <row r="270" spans="1:9" ht="15">
+    <row r="270" spans="1:9" ht="15.6">
       <c r="A270" s="17"/>
       <c r="B270" s="17" t="s">
         <v>21</v>
@@ -17510,7 +17510,7 @@
       </c>
       <c r="I270" s="17"/>
     </row>
-    <row r="271" spans="1:9" ht="15">
+    <row r="271" spans="1:9" ht="15.6">
       <c r="A271" s="17"/>
       <c r="B271" s="17" t="s">
         <v>21</v>
@@ -17533,7 +17533,7 @@
       </c>
       <c r="I271" s="17"/>
     </row>
-    <row r="272" spans="1:9" ht="15">
+    <row r="272" spans="1:9" ht="15.6">
       <c r="A272" s="17"/>
       <c r="B272" s="17" t="s">
         <v>21</v>
@@ -17556,7 +17556,7 @@
       </c>
       <c r="I272" s="17"/>
     </row>
-    <row r="273" spans="1:9" ht="15">
+    <row r="273" spans="1:9" ht="15.6">
       <c r="A273" s="17"/>
       <c r="B273" s="17" t="s">
         <v>21</v>
@@ -17579,7 +17579,7 @@
       </c>
       <c r="I273" s="17"/>
     </row>
-    <row r="274" spans="1:9" ht="15">
+    <row r="274" spans="1:9" ht="15.6">
       <c r="A274" s="17" t="b">
         <v>0</v>
       </c>
@@ -17598,7 +17598,7 @@
       <c r="H274" s="17"/>
       <c r="I274" s="17"/>
     </row>
-    <row r="275" spans="1:9" ht="15">
+    <row r="275" spans="1:9" ht="15.6">
       <c r="A275" s="17"/>
       <c r="B275" s="17" t="s">
         <v>21</v>
@@ -17621,7 +17621,7 @@
       </c>
       <c r="I275" s="17"/>
     </row>
-    <row r="276" spans="1:9" ht="15">
+    <row r="276" spans="1:9" ht="15.6">
       <c r="A276" s="17" t="b">
         <v>0</v>
       </c>
@@ -17640,7 +17640,7 @@
       <c r="H276" s="17"/>
       <c r="I276" s="17"/>
     </row>
-    <row r="277" spans="1:9" ht="15">
+    <row r="277" spans="1:9" ht="15.6">
       <c r="A277" s="17"/>
       <c r="B277" s="17" t="s">
         <v>21</v>
@@ -17665,7 +17665,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="278" spans="1:9" ht="15">
+    <row r="278" spans="1:9" ht="15.6">
       <c r="A278" s="17"/>
       <c r="B278" s="17" t="s">
         <v>21</v>
@@ -17688,7 +17688,7 @@
       </c>
       <c r="I278" s="17"/>
     </row>
-    <row r="279" spans="1:9" ht="15">
+    <row r="279" spans="1:9" ht="15.6">
       <c r="A279" s="17"/>
       <c r="B279" s="17" t="s">
         <v>21</v>
@@ -17711,7 +17711,7 @@
       </c>
       <c r="I279" s="17"/>
     </row>
-    <row r="280" spans="1:9" ht="15">
+    <row r="280" spans="1:9" ht="15.6">
       <c r="A280" s="17"/>
       <c r="B280" s="17" t="s">
         <v>21</v>
@@ -17734,7 +17734,7 @@
       </c>
       <c r="I280" s="17"/>
     </row>
-    <row r="281" spans="1:9" ht="15">
+    <row r="281" spans="1:9" ht="15.6">
       <c r="A281" s="17"/>
       <c r="B281" s="17" t="s">
         <v>21</v>
@@ -17757,7 +17757,7 @@
       </c>
       <c r="I281" s="17"/>
     </row>
-    <row r="282" spans="1:9" ht="15">
+    <row r="282" spans="1:9" ht="15.6">
       <c r="A282" s="17"/>
       <c r="B282" s="17" t="s">
         <v>21</v>
@@ -17780,7 +17780,7 @@
       </c>
       <c r="I282" s="17"/>
     </row>
-    <row r="283" spans="1:9" ht="15">
+    <row r="283" spans="1:9" ht="15.6">
       <c r="A283" s="17"/>
       <c r="B283" s="17" t="s">
         <v>21</v>
@@ -17803,7 +17803,7 @@
       </c>
       <c r="I283" s="17"/>
     </row>
-    <row r="284" spans="1:9" ht="15">
+    <row r="284" spans="1:9" ht="15.6">
       <c r="A284" s="17"/>
       <c r="B284" s="17" t="s">
         <v>21</v>
@@ -17826,7 +17826,7 @@
       </c>
       <c r="I284" s="17"/>
     </row>
-    <row r="285" spans="1:9" ht="15">
+    <row r="285" spans="1:9" ht="15.6">
       <c r="A285" s="17"/>
       <c r="B285" s="17" t="s">
         <v>21</v>
@@ -17849,7 +17849,7 @@
       </c>
       <c r="I285" s="17"/>
     </row>
-    <row r="286" spans="1:9" ht="15">
+    <row r="286" spans="1:9" ht="15.6">
       <c r="A286" s="17"/>
       <c r="B286" s="17" t="s">
         <v>21</v>
@@ -17872,7 +17872,7 @@
       </c>
       <c r="I286" s="17"/>
     </row>
-    <row r="287" spans="1:9" ht="15">
+    <row r="287" spans="1:9" ht="15.6">
       <c r="A287" s="17"/>
       <c r="B287" s="17" t="s">
         <v>21</v>
@@ -17895,7 +17895,7 @@
       </c>
       <c r="I287" s="17"/>
     </row>
-    <row r="288" spans="1:9" ht="15">
+    <row r="288" spans="1:9" ht="15.6">
       <c r="A288" s="17" t="b">
         <v>0</v>
       </c>
@@ -17914,7 +17914,7 @@
       <c r="H288" s="17"/>
       <c r="I288" s="17"/>
     </row>
-    <row r="289" spans="1:9" ht="15">
+    <row r="289" spans="1:9" ht="15.6">
       <c r="A289" s="17"/>
       <c r="B289" s="17" t="s">
         <v>21</v>
@@ -17937,7 +17937,7 @@
       </c>
       <c r="I289" s="17"/>
     </row>
-    <row r="290" spans="1:9" ht="15">
+    <row r="290" spans="1:9" ht="15.6">
       <c r="A290" s="17" t="b">
         <v>0</v>
       </c>
@@ -17956,7 +17956,7 @@
       <c r="H290" s="17"/>
       <c r="I290" s="17"/>
     </row>
-    <row r="291" spans="1:9" ht="15">
+    <row r="291" spans="1:9" ht="15.6">
       <c r="A291" s="17"/>
       <c r="B291" s="17" t="s">
         <v>21</v>
@@ -17977,7 +17977,7 @@
       <c r="H291" s="17"/>
       <c r="I291" s="17"/>
     </row>
-    <row r="292" spans="1:9" ht="15">
+    <row r="292" spans="1:9" ht="15.6">
       <c r="A292" s="17" t="b">
         <v>0</v>
       </c>
@@ -17996,7 +17996,7 @@
       <c r="H292" s="17"/>
       <c r="I292" s="17"/>
     </row>
-    <row r="293" spans="1:9" ht="15">
+    <row r="293" spans="1:9" ht="15.6">
       <c r="A293" s="17"/>
       <c r="B293" s="17" t="s">
         <v>21</v>
@@ -18017,7 +18017,7 @@
       <c r="H293" s="17"/>
       <c r="I293" s="17"/>
     </row>
-    <row r="294" spans="1:9" ht="15">
+    <row r="294" spans="1:9" ht="15.6">
       <c r="A294" s="17" t="b">
         <v>0</v>
       </c>
@@ -18036,7 +18036,7 @@
       <c r="H294" s="17"/>
       <c r="I294" s="17"/>
     </row>
-    <row r="295" spans="1:9" ht="15">
+    <row r="295" spans="1:9" ht="15.6">
       <c r="A295" s="17"/>
       <c r="B295" s="17" t="s">
         <v>21</v>
@@ -18057,7 +18057,7 @@
       <c r="H295" s="17"/>
       <c r="I295" s="17"/>
     </row>
-    <row r="296" spans="1:9" ht="15">
+    <row r="296" spans="1:9" ht="15.6">
       <c r="A296" s="17" t="b">
         <v>0</v>
       </c>
@@ -18076,7 +18076,7 @@
       <c r="H296" s="17"/>
       <c r="I296" s="17"/>
     </row>
-    <row r="297" spans="1:9" ht="15">
+    <row r="297" spans="1:9" ht="15.6">
       <c r="A297" s="17"/>
       <c r="B297" s="17" t="s">
         <v>21</v>
@@ -18099,7 +18099,7 @@
       </c>
       <c r="I297" s="17"/>
     </row>
-    <row r="298" spans="1:9" ht="15">
+    <row r="298" spans="1:9" ht="15.6">
       <c r="A298" s="17" t="b">
         <v>0</v>
       </c>
@@ -18118,7 +18118,7 @@
       <c r="H298" s="17"/>
       <c r="I298" s="17"/>
     </row>
-    <row r="299" spans="1:9" ht="15">
+    <row r="299" spans="1:9" ht="15.6">
       <c r="A299" s="17"/>
       <c r="B299" s="17" t="s">
         <v>21</v>
@@ -18143,7 +18143,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="300" spans="1:9" ht="15">
+    <row r="300" spans="1:9" ht="15.6">
       <c r="A300" s="17"/>
       <c r="B300" s="17" t="s">
         <v>21</v>
@@ -18166,7 +18166,7 @@
       </c>
       <c r="I300" s="17"/>
     </row>
-    <row r="301" spans="1:9" ht="15">
+    <row r="301" spans="1:9" ht="15.6">
       <c r="A301" s="17"/>
       <c r="B301" s="17" t="s">
         <v>21</v>
@@ -18189,7 +18189,7 @@
       </c>
       <c r="I301" s="17"/>
     </row>
-    <row r="302" spans="1:9" ht="15">
+    <row r="302" spans="1:9" ht="15.6">
       <c r="A302" s="17"/>
       <c r="B302" s="17" t="s">
         <v>21</v>
@@ -18212,7 +18212,7 @@
       </c>
       <c r="I302" s="17"/>
     </row>
-    <row r="303" spans="1:9" ht="15">
+    <row r="303" spans="1:9" ht="15.6">
       <c r="A303" s="17"/>
       <c r="B303" s="17" t="s">
         <v>21</v>
@@ -18235,7 +18235,7 @@
       </c>
       <c r="I303" s="17"/>
     </row>
-    <row r="304" spans="1:9" ht="15">
+    <row r="304" spans="1:9" ht="15.6">
       <c r="A304" s="17"/>
       <c r="B304" s="17" t="s">
         <v>21</v>
@@ -18258,7 +18258,7 @@
       </c>
       <c r="I304" s="17"/>
     </row>
-    <row r="305" spans="1:9" ht="15">
+    <row r="305" spans="1:9" ht="15.6">
       <c r="A305" s="17"/>
       <c r="B305" s="17" t="s">
         <v>21</v>
@@ -18281,7 +18281,7 @@
       </c>
       <c r="I305" s="17"/>
     </row>
-    <row r="306" spans="1:9" ht="15">
+    <row r="306" spans="1:9" ht="15.6">
       <c r="A306" s="17"/>
       <c r="B306" s="17" t="s">
         <v>21</v>
@@ -18304,7 +18304,7 @@
       </c>
       <c r="I306" s="17"/>
     </row>
-    <row r="307" spans="1:9" ht="15">
+    <row r="307" spans="1:9" ht="15.6">
       <c r="A307" s="17"/>
       <c r="B307" s="17" t="s">
         <v>21</v>
@@ -18327,7 +18327,7 @@
       </c>
       <c r="I307" s="17"/>
     </row>
-    <row r="308" spans="1:9" ht="15">
+    <row r="308" spans="1:9" ht="15.6">
       <c r="A308" s="17" t="b">
         <v>0</v>
       </c>
@@ -18346,7 +18346,7 @@
       <c r="H308" s="17"/>
       <c r="I308" s="17"/>
     </row>
-    <row r="309" spans="1:9" ht="15">
+    <row r="309" spans="1:9" ht="15.6">
       <c r="A309" s="17"/>
       <c r="B309" s="17" t="s">
         <v>21</v>
@@ -18369,7 +18369,7 @@
       </c>
       <c r="I309" s="17"/>
     </row>
-    <row r="310" spans="1:9" ht="15">
+    <row r="310" spans="1:9" ht="15.6">
       <c r="A310" s="17"/>
       <c r="B310" s="17" t="s">
         <v>21</v>
@@ -18392,7 +18392,7 @@
       </c>
       <c r="I310" s="17"/>
     </row>
-    <row r="311" spans="1:9" ht="15">
+    <row r="311" spans="1:9" ht="15.6">
       <c r="A311" s="17"/>
       <c r="B311" s="17" t="s">
         <v>21</v>
@@ -18415,7 +18415,7 @@
       </c>
       <c r="I311" s="17"/>
     </row>
-    <row r="312" spans="1:9" ht="15">
+    <row r="312" spans="1:9" ht="15.6">
       <c r="A312" s="17"/>
       <c r="B312" s="17" t="s">
         <v>21</v>
@@ -18438,7 +18438,7 @@
       </c>
       <c r="I312" s="17"/>
     </row>
-    <row r="313" spans="1:9" ht="15">
+    <row r="313" spans="1:9" ht="15.6">
       <c r="A313" s="17" t="b">
         <v>0</v>
       </c>
@@ -18457,7 +18457,7 @@
       <c r="H313" s="17"/>
       <c r="I313" s="17"/>
     </row>
-    <row r="314" spans="1:9" ht="15">
+    <row r="314" spans="1:9" ht="15.6">
       <c r="A314" s="17"/>
       <c r="B314" s="17" t="s">
         <v>21</v>
@@ -18480,7 +18480,7 @@
       </c>
       <c r="I314" s="17"/>
     </row>
-    <row r="315" spans="1:9" ht="15">
+    <row r="315" spans="1:9" ht="15.6">
       <c r="A315" s="17"/>
       <c r="B315" s="17" t="s">
         <v>21</v>
@@ -18503,7 +18503,7 @@
       </c>
       <c r="I315" s="17"/>
     </row>
-    <row r="316" spans="1:9" ht="15">
+    <row r="316" spans="1:9" ht="15.6">
       <c r="A316" s="17"/>
       <c r="B316" s="17" t="s">
         <v>21</v>
@@ -18528,7 +18528,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="317" spans="1:9" ht="15">
+    <row r="317" spans="1:9" ht="15.6">
       <c r="A317" s="17" t="b">
         <v>0</v>
       </c>
@@ -18547,7 +18547,7 @@
       <c r="H317" s="17"/>
       <c r="I317" s="17"/>
     </row>
-    <row r="318" spans="1:9" ht="15">
+    <row r="318" spans="1:9" ht="15.6">
       <c r="A318" s="17"/>
       <c r="B318" s="17" t="s">
         <v>21</v>
@@ -18572,7 +18572,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="319" spans="1:9" ht="15">
+    <row r="319" spans="1:9" ht="15.6">
       <c r="A319" s="17"/>
       <c r="B319" s="17" t="s">
         <v>21</v>
@@ -18595,7 +18595,7 @@
       </c>
       <c r="I319" s="17"/>
     </row>
-    <row r="320" spans="1:9" ht="15">
+    <row r="320" spans="1:9" ht="15.6">
       <c r="A320" s="17" t="b">
         <v>0</v>
       </c>
@@ -18614,7 +18614,7 @@
       <c r="H320" s="17"/>
       <c r="I320" s="17"/>
     </row>
-    <row r="321" spans="1:9" ht="15">
+    <row r="321" spans="1:9" ht="15.6">
       <c r="A321" s="17"/>
       <c r="B321" s="17" t="s">
         <v>21</v>
@@ -18635,7 +18635,7 @@
       <c r="H321" s="17"/>
       <c r="I321" s="17"/>
     </row>
-    <row r="322" spans="1:9" ht="15">
+    <row r="322" spans="1:9" ht="15.6">
       <c r="A322" s="17"/>
       <c r="B322" s="17" t="s">
         <v>21</v>
@@ -18656,7 +18656,7 @@
       <c r="H322" s="17"/>
       <c r="I322" s="17"/>
     </row>
-    <row r="323" spans="1:9" ht="15">
+    <row r="323" spans="1:9" ht="15.6">
       <c r="A323" s="17"/>
       <c r="B323" s="17" t="s">
         <v>21</v>
@@ -18679,7 +18679,7 @@
       </c>
       <c r="I323" s="17"/>
     </row>
-    <row r="324" spans="1:9" ht="15">
+    <row r="324" spans="1:9" ht="15.6">
       <c r="A324" s="17" t="b">
         <v>0</v>
       </c>
@@ -18698,7 +18698,7 @@
       <c r="H324" s="17"/>
       <c r="I324" s="17"/>
     </row>
-    <row r="325" spans="1:9" ht="15">
+    <row r="325" spans="1:9" ht="15.6">
       <c r="A325" s="17" t="b">
         <v>0</v>
       </c>
@@ -18717,7 +18717,7 @@
       <c r="H325" s="17"/>
       <c r="I325" s="17"/>
     </row>
-    <row r="326" spans="1:9" ht="15">
+    <row r="326" spans="1:9" ht="15.6">
       <c r="A326" s="17"/>
       <c r="B326" s="17" t="s">
         <v>21</v>
@@ -18742,7 +18742,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="327" spans="1:9" ht="15">
+    <row r="327" spans="1:9" ht="15.6">
       <c r="A327" s="17"/>
       <c r="B327" s="17" t="s">
         <v>21</v>
@@ -19099,7 +19099,7 @@
       <c r="O343" s="1"/>
       <c r="P343" s="1"/>
     </row>
-    <row r="344" spans="1:16" ht="15">
+    <row r="344" spans="1:16" ht="15.6">
       <c r="A344" s="17"/>
       <c r="B344" t="s">
         <v>21</v>
@@ -19462,7 +19462,7 @@
       <c r="J361"/>
       <c r="K361"/>
     </row>
-    <row r="362" spans="1:18" s="1" customFormat="1" ht="15">
+    <row r="362" spans="1:18" s="1" customFormat="1" ht="15.6">
       <c r="A362" s="17"/>
       <c r="B362" t="s">
         <v>22</v>
@@ -19590,14 +19590,14 @@
       <selection activeCell="A17" sqref="A17:A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.33203125" customWidth="1"/>
-    <col min="5" max="5" width="16.1640625" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" customWidth="1"/>
     <col min="8" max="8" width="22.33203125" customWidth="1"/>
-    <col min="17" max="17" width="24.5" customWidth="1"/>
+    <col min="17" max="17" width="24.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21">

--- a/projects/office_calibration.xlsx
+++ b/projects/office_calibration.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="13176" tabRatio="562" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="13176" tabRatio="562" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="9" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2648" uniqueCount="850">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2660" uniqueCount="856">
   <si>
     <t>type</t>
   </si>
@@ -2591,6 +2591,24 @@
   </si>
   <si>
     <t>2013-12-12</t>
+  </si>
+  <si>
+    <t>Electricity Consumption Period 11 Modeled</t>
+  </si>
+  <si>
+    <t>calibration_reports.electric_bill_period_11_consumption_modeled</t>
+  </si>
+  <si>
+    <t>calibration_reports.gas_bill_period_10_consumption_modeled</t>
+  </si>
+  <si>
+    <t>calibration_reports.gas_bill_period_11_consumption_modeled</t>
+  </si>
+  <si>
+    <t>Gas Consumption Period 10 Modeled</t>
+  </si>
+  <si>
+    <t>Gas Consumption Period 11 Modeled</t>
   </si>
 </sst>
 </file>
@@ -7349,7 +7367,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y224"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="150" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H57" sqref="H57:H58"/>
     </sheetView>
@@ -10426,11 +10444,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L36"/>
+  <dimension ref="A1:L39"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A29" sqref="A29:A32"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4:XFD35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
@@ -10674,7 +10692,7 @@
       </c>
       <c r="I8" s="30">
         <f>SUM(I9:I18)</f>
-        <v>39359</v>
+        <v>1398000</v>
       </c>
       <c r="J8" s="30"/>
       <c r="K8" s="30"/>
@@ -10704,7 +10722,7 @@
         <v>1</v>
       </c>
       <c r="I9" s="30">
-        <v>4153</v>
+        <v>148000</v>
       </c>
       <c r="J9" s="30"/>
       <c r="K9" s="30"/>
@@ -10734,7 +10752,7 @@
         <v>1</v>
       </c>
       <c r="I10" s="30">
-        <v>3732</v>
+        <v>112000</v>
       </c>
       <c r="J10" s="30"/>
       <c r="K10" s="30"/>
@@ -10764,7 +10782,7 @@
         <v>1</v>
       </c>
       <c r="I11" s="30">
-        <v>3884</v>
+        <v>116000</v>
       </c>
       <c r="J11" s="30"/>
       <c r="K11" s="30"/>
@@ -10794,7 +10812,7 @@
         <v>1</v>
       </c>
       <c r="I12" s="30">
-        <v>3708</v>
+        <v>112000</v>
       </c>
       <c r="J12" s="30"/>
       <c r="K12" s="30"/>
@@ -10824,7 +10842,7 @@
         <v>1</v>
       </c>
       <c r="I13" s="30">
-        <v>4009</v>
+        <v>148000</v>
       </c>
       <c r="J13" s="30"/>
       <c r="K13" s="30"/>
@@ -10854,7 +10872,7 @@
         <v>1</v>
       </c>
       <c r="I14" s="30">
-        <v>5042</v>
+        <v>166000</v>
       </c>
       <c r="J14" s="30"/>
       <c r="K14" s="30"/>
@@ -10884,7 +10902,7 @@
         <v>1</v>
       </c>
       <c r="I15" s="30">
-        <v>4616</v>
+        <v>178000</v>
       </c>
       <c r="J15" s="30"/>
       <c r="K15" s="30"/>
@@ -10914,7 +10932,7 @@
         <v>1</v>
       </c>
       <c r="I16" s="30">
-        <v>3115</v>
+        <v>168000</v>
       </c>
       <c r="J16" s="30"/>
       <c r="K16" s="30"/>
@@ -10944,7 +10962,7 @@
         <v>1</v>
       </c>
       <c r="I17" s="30">
-        <v>3357</v>
+        <v>130000</v>
       </c>
       <c r="J17" s="30"/>
       <c r="K17" s="30"/>
@@ -10974,7 +10992,7 @@
         <v>1</v>
       </c>
       <c r="I18" s="30">
-        <v>3743</v>
+        <v>120000</v>
       </c>
       <c r="J18" s="30"/>
       <c r="K18" s="30"/>
@@ -10982,14 +11000,14 @@
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="30" t="s">
-        <v>719</v>
+        <v>850</v>
       </c>
       <c r="B19" s="30"/>
       <c r="C19" s="30" t="s">
-        <v>802</v>
+        <v>851</v>
       </c>
       <c r="D19" s="30" t="s">
-        <v>720</v>
+        <v>707</v>
       </c>
       <c r="E19" s="30" t="s">
         <v>64</v>
@@ -11001,11 +11019,10 @@
         <v>1</v>
       </c>
       <c r="H19" s="30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" s="30">
-        <f>SUM(I20:I28)</f>
-        <v>2239</v>
+        <v>130000</v>
       </c>
       <c r="J19" s="30"/>
       <c r="K19" s="30"/>
@@ -11013,11 +11030,11 @@
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="30" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="B20" s="30"/>
       <c r="C20" s="30" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D20" s="30" t="s">
         <v>720</v>
@@ -11032,10 +11049,11 @@
         <v>1</v>
       </c>
       <c r="H20" s="30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" s="30">
-        <v>1038</v>
+        <f>SUM(I21:I31)</f>
+        <v>18676</v>
       </c>
       <c r="J20" s="30"/>
       <c r="K20" s="30"/>
@@ -11043,11 +11061,11 @@
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="30" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="B21" s="30"/>
       <c r="C21" s="30" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D21" s="30" t="s">
         <v>720</v>
@@ -11065,7 +11083,7 @@
         <v>1</v>
       </c>
       <c r="I21" s="30">
-        <v>724</v>
+        <v>4621</v>
       </c>
       <c r="J21" s="30"/>
       <c r="K21" s="30"/>
@@ -11073,11 +11091,11 @@
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="30" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B22" s="30"/>
       <c r="C22" s="30" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="D22" s="30" t="s">
         <v>720</v>
@@ -11095,7 +11113,7 @@
         <v>1</v>
       </c>
       <c r="I22" s="30">
-        <v>297</v>
+        <v>3152</v>
       </c>
       <c r="J22" s="30"/>
       <c r="K22" s="30"/>
@@ -11103,11 +11121,11 @@
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="30" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B23" s="30"/>
       <c r="C23" s="30" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="D23" s="30" t="s">
         <v>720</v>
@@ -11125,7 +11143,7 @@
         <v>1</v>
       </c>
       <c r="I23" s="30">
-        <v>71</v>
+        <v>2180</v>
       </c>
       <c r="J23" s="30"/>
       <c r="K23" s="30"/>
@@ -11133,11 +11151,11 @@
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="30" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B24" s="30"/>
       <c r="C24" s="30" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="D24" s="30" t="s">
         <v>720</v>
@@ -11155,7 +11173,7 @@
         <v>1</v>
       </c>
       <c r="I24" s="30">
-        <v>14</v>
+        <v>1271</v>
       </c>
       <c r="J24" s="30"/>
       <c r="K24" s="30"/>
@@ -11163,11 +11181,11 @@
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="30" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B25" s="30"/>
       <c r="C25" s="30" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="D25" s="30" t="s">
         <v>720</v>
@@ -11185,7 +11203,7 @@
         <v>1</v>
       </c>
       <c r="I25" s="30">
-        <v>1</v>
+        <v>655</v>
       </c>
       <c r="J25" s="30"/>
       <c r="K25" s="30"/>
@@ -11193,11 +11211,11 @@
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="30" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B26" s="30"/>
       <c r="C26" s="30" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="D26" s="30" t="s">
         <v>720</v>
@@ -11215,7 +11233,7 @@
         <v>1</v>
       </c>
       <c r="I26" s="30">
-        <v>0</v>
+        <v>439</v>
       </c>
       <c r="J26" s="30"/>
       <c r="K26" s="30"/>
@@ -11223,11 +11241,11 @@
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="30" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B27" s="30"/>
       <c r="C27" s="30" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="D27" s="30" t="s">
         <v>720</v>
@@ -11245,7 +11263,7 @@
         <v>1</v>
       </c>
       <c r="I27" s="30">
-        <v>22</v>
+        <v>225</v>
       </c>
       <c r="J27" s="30"/>
       <c r="K27" s="30"/>
@@ -11253,11 +11271,11 @@
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="30" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B28" s="30"/>
       <c r="C28" s="30" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="D28" s="30" t="s">
         <v>720</v>
@@ -11275,7 +11293,7 @@
         <v>1</v>
       </c>
       <c r="I28" s="30">
-        <v>72</v>
+        <v>414</v>
       </c>
       <c r="J28" s="30"/>
       <c r="K28" s="30"/>
@@ -11283,16 +11301,16 @@
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="30" t="s">
-        <v>838</v>
+        <v>728</v>
       </c>
       <c r="B29" s="30"/>
       <c r="C29" s="30" t="s">
-        <v>834</v>
+        <v>811</v>
       </c>
       <c r="D29" s="30" t="s">
-        <v>825</v>
-      </c>
-      <c r="E29" s="31" t="s">
+        <v>720</v>
+      </c>
+      <c r="E29" s="30" t="s">
         <v>64</v>
       </c>
       <c r="F29" s="30" t="b">
@@ -11302,21 +11320,27 @@
         <v>1</v>
       </c>
       <c r="H29" s="30" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I29" s="30">
+        <v>794</v>
+      </c>
+      <c r="J29" s="30"/>
+      <c r="K29" s="30"/>
+      <c r="L29" s="30"/>
     </row>
     <row r="30" spans="1:12">
       <c r="A30" s="30" t="s">
-        <v>839</v>
+        <v>854</v>
       </c>
       <c r="B30" s="30"/>
       <c r="C30" s="30" t="s">
-        <v>835</v>
+        <v>852</v>
       </c>
       <c r="D30" s="30" t="s">
-        <v>825</v>
-      </c>
-      <c r="E30" s="31" t="s">
+        <v>720</v>
+      </c>
+      <c r="E30" s="30" t="s">
         <v>64</v>
       </c>
       <c r="F30" s="30" t="b">
@@ -11326,21 +11350,27 @@
         <v>1</v>
       </c>
       <c r="H30" s="30" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I30" s="30">
+        <v>1413</v>
+      </c>
+      <c r="J30" s="30"/>
+      <c r="K30" s="30"/>
+      <c r="L30" s="30"/>
     </row>
     <row r="31" spans="1:12">
       <c r="A31" s="30" t="s">
-        <v>840</v>
+        <v>855</v>
       </c>
       <c r="B31" s="30"/>
       <c r="C31" s="30" t="s">
-        <v>836</v>
+        <v>853</v>
       </c>
       <c r="D31" s="30" t="s">
-        <v>825</v>
-      </c>
-      <c r="E31" s="31" t="s">
+        <v>720</v>
+      </c>
+      <c r="E31" s="30" t="s">
         <v>64</v>
       </c>
       <c r="F31" s="30" t="b">
@@ -11350,16 +11380,22 @@
         <v>1</v>
       </c>
       <c r="H31" s="30" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I31" s="30">
+        <v>3512</v>
+      </c>
+      <c r="J31" s="30"/>
+      <c r="K31" s="30"/>
+      <c r="L31" s="30"/>
     </row>
     <row r="32" spans="1:12">
       <c r="A32" s="30" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="B32" s="30"/>
       <c r="C32" s="30" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="D32" s="30" t="s">
         <v>825</v>
@@ -11377,29 +11413,101 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="30"/>
+    <row r="33" spans="1:8">
+      <c r="A33" s="30" t="s">
+        <v>839</v>
+      </c>
       <c r="B33" s="30"/>
-      <c r="C33" s="30"/>
-      <c r="D33" s="30"/>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="30"/>
+      <c r="C33" s="30" t="s">
+        <v>835</v>
+      </c>
+      <c r="D33" s="30" t="s">
+        <v>825</v>
+      </c>
+      <c r="E33" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="F33" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="G33" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="H33" s="30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="30" t="s">
+        <v>840</v>
+      </c>
       <c r="B34" s="30"/>
-      <c r="C34" s="30"/>
-      <c r="D34" s="30"/>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="30"/>
+      <c r="C34" s="30" t="s">
+        <v>836</v>
+      </c>
+      <c r="D34" s="30" t="s">
+        <v>825</v>
+      </c>
+      <c r="E34" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="F34" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="G34" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="H34" s="30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="30" t="s">
+        <v>841</v>
+      </c>
       <c r="B35" s="30"/>
-      <c r="C35" s="30"/>
-      <c r="D35" s="30"/>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="C35" s="30" t="s">
+        <v>837</v>
+      </c>
+      <c r="D35" s="30" t="s">
+        <v>825</v>
+      </c>
+      <c r="E35" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="F35" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="G35" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="H35" s="30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="30"/>
       <c r="B36" s="30"/>
       <c r="C36" s="30"/>
       <c r="D36" s="30"/>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="30"/>
+      <c r="B37" s="30"/>
+      <c r="C37" s="30"/>
+      <c r="D37" s="30"/>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="30"/>
+      <c r="B38" s="30"/>
+      <c r="C38" s="30"/>
+      <c r="D38" s="30"/>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="30"/>
+      <c r="B39" s="30"/>
+      <c r="C39" s="30"/>
+      <c r="D39" s="30"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/projects/office_calibration.xlsx
+++ b/projects/office_calibration.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="13176" tabRatio="562" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="13176" tabRatio="562" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="9" r:id="rId1"/>
@@ -7367,9 +7367,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y224"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="150" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H57" sqref="H57:H58"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="150" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G79" sqref="G79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
@@ -7768,7 +7768,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="N15" s="43">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="Q15" s="51" t="s">
         <v>773</v>
@@ -7824,7 +7824,7 @@
         <v>2</v>
       </c>
       <c r="N17" s="43">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="Q17" s="51" t="s">
         <v>773</v>
@@ -8135,7 +8135,7 @@
         <v>5.8333333333333327E-2</v>
       </c>
       <c r="N34" s="43">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="Q34" s="43" t="s">
         <v>773</v>
@@ -8171,7 +8171,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="N35" s="43">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="Q35" s="43" t="s">
         <v>773</v>
@@ -8820,7 +8820,7 @@
         <v>0.14166666666666669</v>
       </c>
       <c r="N61" s="43">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="Q61" s="43" t="s">
         <v>773</v>
@@ -8910,7 +8910,7 @@
         <v>0.14166666666666669</v>
       </c>
       <c r="N65" s="43">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="Q65" s="43" t="s">
         <v>773</v>
@@ -9000,7 +9000,7 @@
         <v>0.14166666666666669</v>
       </c>
       <c r="N69" s="43">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="Q69" s="43" t="s">
         <v>773</v>
@@ -10446,7 +10446,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4:XFD35"/>
     </sheetView>

--- a/projects/office_calibration.xlsx
+++ b/projects/office_calibration.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="13176" tabRatio="562" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23250" windowHeight="13170" tabRatio="562" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="9" r:id="rId1"/>
@@ -16,7 +16,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Outputs!#REF!</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Variables!$A$2:$Z$151</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Variables!$A$2:$Z$154</definedName>
     <definedName name="AnalysisType">Lookups!$A$17:$A$23</definedName>
     <definedName name="instance_defs">Lookups!$A$2:$D$9</definedName>
     <definedName name="instance_types">Lookups!$A$2:$A$9</definedName>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2660" uniqueCount="856">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2675" uniqueCount="864">
   <si>
     <t>type</t>
   </si>
@@ -2609,6 +2609,30 @@
   </si>
   <si>
     <t>Gas Consumption Period 11 Modeled</t>
+  </si>
+  <si>
+    <t>Add Service Water Heating</t>
+  </si>
+  <si>
+    <t>AddServiceWaterHeating</t>
+  </si>
+  <si>
+    <t>Water Heater Fuel Type</t>
+  </si>
+  <si>
+    <t>water_heater_fuel_type</t>
+  </si>
+  <si>
+    <t>NaturalGas</t>
+  </si>
+  <si>
+    <t>Gallons Hot Water per Occupant per Day</t>
+  </si>
+  <si>
+    <t>hot_water_per_occ_per_day_gal</t>
+  </si>
+  <si>
+    <t>gal</t>
   </si>
 </sst>
 </file>
@@ -6869,17 +6893,17 @@
       <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="81.6640625" customWidth="1"/>
+    <col min="1" max="1" width="81.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="28.8">
+    <row r="1" spans="1:1" ht="45">
       <c r="A1" s="36" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="28.8">
+    <row r="2" spans="1:1" ht="30">
       <c r="A2" s="36" t="s">
         <v>41</v>
       </c>
@@ -6903,14 +6927,14 @@
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="25.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="30.33203125" style="26" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="30.28515625" style="26" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29" style="1" customWidth="1"/>
-    <col min="4" max="4" width="33.109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="61.6640625" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.6640625" style="1"/>
+    <col min="4" max="4" width="33.140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="61.7109375" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="10.7109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -6942,7 +6966,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="28.8">
+    <row r="4" spans="1:5" ht="30">
       <c r="A4" s="1" t="s">
         <v>456</v>
       </c>
@@ -6953,7 +6977,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="72">
+    <row r="5" spans="1:5" ht="75">
       <c r="A5" s="1" t="s">
         <v>469</v>
       </c>
@@ -6964,7 +6988,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="46.2" customHeight="1">
+    <row r="6" spans="1:5" ht="46.15" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>470</v>
       </c>
@@ -6975,7 +6999,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="28.8">
+    <row r="7" spans="1:5" ht="30">
       <c r="A7" s="1" t="s">
         <v>442</v>
       </c>
@@ -6994,7 +7018,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="28.8">
+    <row r="8" spans="1:5" ht="30">
       <c r="A8" s="1" t="s">
         <v>443</v>
       </c>
@@ -7079,7 +7103,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="28.8">
+    <row r="16" spans="1:5" ht="30">
       <c r="A16" s="1" t="s">
         <v>463</v>
       </c>
@@ -7112,7 +7136,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="2" customFormat="1" ht="57.6">
+    <row r="20" spans="1:5" s="2" customFormat="1" ht="60">
       <c r="A20" s="11" t="s">
         <v>27</v>
       </c>
@@ -7137,7 +7161,7 @@
       <c r="B22" s="26"/>
       <c r="D22" s="2"/>
     </row>
-    <row r="23" spans="1:5" s="2" customFormat="1" ht="57.6">
+    <row r="23" spans="1:5" s="2" customFormat="1" ht="60">
       <c r="A23" s="11" t="s">
         <v>450</v>
       </c>
@@ -7261,7 +7285,7 @@
       <c r="C35" s="26"/>
       <c r="D35" s="2"/>
     </row>
-    <row r="36" spans="1:5" s="2" customFormat="1" ht="43.2">
+    <row r="36" spans="1:5" s="2" customFormat="1" ht="45">
       <c r="A36" s="11" t="s">
         <v>33</v>
       </c>
@@ -7282,7 +7306,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="39" spans="1:5" s="2" customFormat="1" ht="28.8">
+    <row r="39" spans="1:5" s="2" customFormat="1" ht="30">
       <c r="A39" s="11" t="s">
         <v>30</v>
       </c>
@@ -7311,7 +7335,7 @@
       </c>
       <c r="E40" s="2"/>
     </row>
-    <row r="42" spans="1:5" s="2" customFormat="1" ht="57.6">
+    <row r="42" spans="1:5" s="2" customFormat="1" ht="60">
       <c r="A42" s="11" t="s">
         <v>35</v>
       </c>
@@ -7365,39 +7389,39 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y224"/>
+  <dimension ref="A1:Y227"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="150" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G79" sqref="G79"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="150" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="31" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="31" customWidth="1"/>
     <col min="2" max="2" width="47" style="31" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="47" style="31" customWidth="1"/>
-    <col min="4" max="4" width="39.109375" style="31" customWidth="1"/>
-    <col min="5" max="5" width="24.109375" style="31" customWidth="1"/>
-    <col min="6" max="6" width="9.6640625" style="31" customWidth="1"/>
-    <col min="7" max="7" width="9.33203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.44140625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="8.6640625" style="4" customWidth="1"/>
-    <col min="10" max="10" width="7.109375" style="31" customWidth="1"/>
-    <col min="11" max="11" width="8.109375" style="31" customWidth="1"/>
-    <col min="12" max="12" width="6.6640625" style="31" customWidth="1"/>
-    <col min="13" max="14" width="7.6640625" style="31" customWidth="1"/>
-    <col min="15" max="15" width="11.44140625" style="31"/>
-    <col min="16" max="16" width="11.44140625" style="31" customWidth="1"/>
+    <col min="4" max="4" width="39.140625" style="31" customWidth="1"/>
+    <col min="5" max="5" width="24.140625" style="31" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" style="31" customWidth="1"/>
+    <col min="7" max="7" width="9.28515625" style="31" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.42578125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="8.7109375" style="4" customWidth="1"/>
+    <col min="10" max="10" width="7.140625" style="31" customWidth="1"/>
+    <col min="11" max="11" width="8.140625" style="31" customWidth="1"/>
+    <col min="12" max="12" width="6.7109375" style="31" customWidth="1"/>
+    <col min="13" max="14" width="7.7109375" style="31" customWidth="1"/>
+    <col min="15" max="15" width="11.42578125" style="31"/>
+    <col min="16" max="16" width="11.42578125" style="31" customWidth="1"/>
     <col min="17" max="17" width="23" style="31" customWidth="1"/>
-    <col min="18" max="18" width="27.6640625" style="31" customWidth="1"/>
-    <col min="19" max="19" width="46.109375" style="31" customWidth="1"/>
-    <col min="20" max="22" width="11.44140625" style="31"/>
-    <col min="23" max="23" width="13.33203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="11.44140625" style="31"/>
+    <col min="18" max="18" width="27.7109375" style="31" customWidth="1"/>
+    <col min="19" max="19" width="46.140625" style="31" customWidth="1"/>
+    <col min="20" max="22" width="11.42578125" style="31"/>
+    <col min="23" max="23" width="13.28515625" style="31" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="11.42578125" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="18">
+    <row r="1" spans="1:25" ht="18.75">
       <c r="A1" s="5"/>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -7432,7 +7456,7 @@
       <c r="X1" s="53"/>
       <c r="Y1" s="53"/>
     </row>
-    <row r="2" spans="1:25" s="8" customFormat="1" ht="15.6">
+    <row r="2" spans="1:25" s="8" customFormat="1" ht="15.75">
       <c r="A2" s="8" t="s">
         <v>3</v>
       </c>
@@ -7448,7 +7472,7 @@
       <c r="H2" s="9"/>
       <c r="I2" s="9"/>
     </row>
-    <row r="3" spans="1:25" s="14" customFormat="1" ht="62.4">
+    <row r="3" spans="1:25" s="14" customFormat="1" ht="63">
       <c r="A3" s="14" t="s">
         <v>1</v>
       </c>
@@ -7715,7 +7739,7 @@
       <c r="G13" s="39"/>
       <c r="H13" s="39"/>
     </row>
-    <row r="14" spans="1:25" ht="17.399999999999999">
+    <row r="14" spans="1:25" ht="18">
       <c r="A14" s="30"/>
       <c r="B14" s="30" t="s">
         <v>21</v>
@@ -8759,161 +8783,165 @@
         <v>1</v>
       </c>
       <c r="B59" s="38" t="s">
-        <v>704</v>
+        <v>856</v>
       </c>
       <c r="C59" s="38" t="s">
-        <v>703</v>
+        <v>857</v>
       </c>
       <c r="D59" s="38" t="s">
-        <v>703</v>
+        <v>857</v>
       </c>
       <c r="E59" s="38" t="s">
-        <v>233</v>
+        <v>68</v>
       </c>
       <c r="G59" s="39"/>
       <c r="H59" s="39"/>
     </row>
-    <row r="60" spans="1:17" s="49" customFormat="1">
-      <c r="A60" s="49" t="b">
-        <v>1</v>
-      </c>
-      <c r="B60" s="49" t="s">
-        <v>771</v>
-      </c>
-      <c r="C60" s="49" t="s">
-        <v>76</v>
-      </c>
-      <c r="D60" s="49" t="s">
-        <v>76</v>
-      </c>
-      <c r="E60" s="49" t="s">
-        <v>68</v>
-      </c>
+    <row r="60" spans="1:17">
+      <c r="B60" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D60" s="31" t="s">
+        <v>858</v>
+      </c>
+      <c r="E60" s="31" t="s">
+        <v>859</v>
+      </c>
+      <c r="F60" s="31" t="s">
+        <v>618</v>
+      </c>
+      <c r="H60" s="31" t="s">
+        <v>860</v>
+      </c>
+      <c r="I60" s="31"/>
     </row>
     <row r="61" spans="1:17" s="43" customFormat="1">
       <c r="B61" s="43" t="s">
         <v>22</v>
       </c>
       <c r="D61" s="43" t="s">
-        <v>772</v>
+        <v>861</v>
       </c>
       <c r="E61" s="43" t="s">
-        <v>77</v>
+        <v>862</v>
       </c>
       <c r="F61" s="43" t="s">
-        <v>64</v>
+        <v>619</v>
+      </c>
+      <c r="G61" s="43" t="s">
+        <v>863</v>
       </c>
       <c r="H61" s="43">
-        <v>0.4</v>
-      </c>
-      <c r="J61" s="43">
-        <v>0.05</v>
-      </c>
-      <c r="K61" s="43">
-        <v>0.8</v>
-      </c>
-      <c r="L61" s="43">
-        <v>0.4</v>
+        <v>1</v>
+      </c>
+      <c r="J61" s="45">
+        <v>0.25</v>
+      </c>
+      <c r="K61" s="45">
+        <v>3</v>
+      </c>
+      <c r="L61" s="45">
+        <v>1</v>
       </c>
       <c r="M61" s="43">
-        <f>(K61+J61)/6</f>
-        <v>0.14166666666666669</v>
+        <f>(K61-J61)/6</f>
+        <v>0.45833333333333331</v>
       </c>
       <c r="N61" s="43">
-        <v>0.1</v>
-      </c>
+        <v>0.01</v>
+      </c>
+      <c r="P61" s="47"/>
       <c r="Q61" s="43" t="s">
         <v>773</v>
       </c>
     </row>
-    <row r="62" spans="1:17" s="30" customFormat="1">
-      <c r="B62" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D62" s="30" t="s">
+    <row r="62" spans="1:17" s="38" customFormat="1">
+      <c r="A62" s="38" t="b">
+        <v>1</v>
+      </c>
+      <c r="B62" s="38" t="s">
+        <v>704</v>
+      </c>
+      <c r="C62" s="38" t="s">
+        <v>703</v>
+      </c>
+      <c r="D62" s="38" t="s">
+        <v>703</v>
+      </c>
+      <c r="E62" s="38" t="s">
+        <v>233</v>
+      </c>
+      <c r="G62" s="39"/>
+      <c r="H62" s="39"/>
+    </row>
+    <row r="63" spans="1:17" s="49" customFormat="1">
+      <c r="A63" s="49" t="b">
+        <v>1</v>
+      </c>
+      <c r="B63" s="49" t="s">
+        <v>771</v>
+      </c>
+      <c r="C63" s="49" t="s">
+        <v>76</v>
+      </c>
+      <c r="D63" s="49" t="s">
+        <v>76</v>
+      </c>
+      <c r="E63" s="49" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" s="43" customFormat="1">
+      <c r="B64" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="D64" s="43" t="s">
+        <v>772</v>
+      </c>
+      <c r="E64" s="43" t="s">
+        <v>77</v>
+      </c>
+      <c r="F64" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="H64" s="43">
+        <v>0.4</v>
+      </c>
+      <c r="J64" s="43">
+        <v>0.05</v>
+      </c>
+      <c r="K64" s="43">
+        <v>0.8</v>
+      </c>
+      <c r="L64" s="43">
+        <v>0.4</v>
+      </c>
+      <c r="M64" s="43">
+        <f>(K64+J64)/6</f>
+        <v>0.14166666666666669</v>
+      </c>
+      <c r="N64" s="43">
+        <v>0.1</v>
+      </c>
+      <c r="Q64" s="43" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" s="30" customFormat="1">
+      <c r="B65" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D65" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="E62" s="30" t="s">
+      <c r="E65" s="30" t="s">
         <v>79</v>
       </c>
-      <c r="F62" s="30" t="s">
+      <c r="F65" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="H62" s="30">
+      <c r="H65" s="30">
         <v>30</v>
-      </c>
-    </row>
-    <row r="63" spans="1:17" s="30" customFormat="1">
-      <c r="B63" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D63" s="30" t="s">
-        <v>80</v>
-      </c>
-      <c r="E63" s="30" t="s">
-        <v>81</v>
-      </c>
-      <c r="F63" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="H63" s="30" t="s">
-        <v>82</v>
-      </c>
-      <c r="I63" s="30" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="64" spans="1:17" s="49" customFormat="1">
-      <c r="A64" s="49" t="b">
-        <v>1</v>
-      </c>
-      <c r="B64" s="49" t="s">
-        <v>774</v>
-      </c>
-      <c r="C64" s="49" t="s">
-        <v>76</v>
-      </c>
-      <c r="D64" s="49" t="s">
-        <v>76</v>
-      </c>
-      <c r="E64" s="49" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="65" spans="1:17" s="43" customFormat="1">
-      <c r="B65" s="43" t="s">
-        <v>22</v>
-      </c>
-      <c r="D65" s="43" t="s">
-        <v>775</v>
-      </c>
-      <c r="E65" s="43" t="s">
-        <v>77</v>
-      </c>
-      <c r="F65" s="43" t="s">
-        <v>64</v>
-      </c>
-      <c r="H65" s="43">
-        <v>0.4</v>
-      </c>
-      <c r="J65" s="43">
-        <v>0.05</v>
-      </c>
-      <c r="K65" s="43">
-        <v>0.8</v>
-      </c>
-      <c r="L65" s="43">
-        <v>0.4</v>
-      </c>
-      <c r="M65" s="43">
-        <f>(K65+J65)/6</f>
-        <v>0.14166666666666669</v>
-      </c>
-      <c r="N65" s="43">
-        <v>0.1</v>
-      </c>
-      <c r="Q65" s="43" t="s">
-        <v>773</v>
       </c>
     </row>
     <row r="66" spans="1:17" s="30" customFormat="1">
@@ -8921,89 +8949,89 @@
         <v>21</v>
       </c>
       <c r="D66" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="E66" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="F66" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="H66" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="I66" s="30" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" s="49" customFormat="1">
+      <c r="A67" s="49" t="b">
+        <v>1</v>
+      </c>
+      <c r="B67" s="49" t="s">
+        <v>774</v>
+      </c>
+      <c r="C67" s="49" t="s">
+        <v>76</v>
+      </c>
+      <c r="D67" s="49" t="s">
+        <v>76</v>
+      </c>
+      <c r="E67" s="49" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" s="43" customFormat="1">
+      <c r="B68" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="D68" s="43" t="s">
+        <v>775</v>
+      </c>
+      <c r="E68" s="43" t="s">
+        <v>77</v>
+      </c>
+      <c r="F68" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="H68" s="43">
+        <v>0.4</v>
+      </c>
+      <c r="J68" s="43">
+        <v>0.05</v>
+      </c>
+      <c r="K68" s="43">
+        <v>0.8</v>
+      </c>
+      <c r="L68" s="43">
+        <v>0.4</v>
+      </c>
+      <c r="M68" s="43">
+        <f>(K68+J68)/6</f>
+        <v>0.14166666666666669</v>
+      </c>
+      <c r="N68" s="43">
+        <v>0.1</v>
+      </c>
+      <c r="Q68" s="43" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" s="30" customFormat="1">
+      <c r="B69" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D69" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="E66" s="30" t="s">
+      <c r="E69" s="30" t="s">
         <v>79</v>
       </c>
-      <c r="F66" s="30" t="s">
+      <c r="F69" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="H66" s="30">
+      <c r="H69" s="30">
         <v>30</v>
-      </c>
-    </row>
-    <row r="67" spans="1:17" s="30" customFormat="1">
-      <c r="B67" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D67" s="30" t="s">
-        <v>80</v>
-      </c>
-      <c r="E67" s="30" t="s">
-        <v>81</v>
-      </c>
-      <c r="F67" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="H67" s="30" t="s">
-        <v>669</v>
-      </c>
-      <c r="I67" s="30" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="68" spans="1:17" s="49" customFormat="1">
-      <c r="A68" s="49" t="b">
-        <v>1</v>
-      </c>
-      <c r="B68" s="49" t="s">
-        <v>776</v>
-      </c>
-      <c r="C68" s="49" t="s">
-        <v>76</v>
-      </c>
-      <c r="D68" s="49" t="s">
-        <v>76</v>
-      </c>
-      <c r="E68" s="49" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="69" spans="1:17" s="43" customFormat="1">
-      <c r="B69" s="43" t="s">
-        <v>22</v>
-      </c>
-      <c r="D69" s="43" t="s">
-        <v>777</v>
-      </c>
-      <c r="E69" s="43" t="s">
-        <v>77</v>
-      </c>
-      <c r="F69" s="43" t="s">
-        <v>64</v>
-      </c>
-      <c r="H69" s="43">
-        <v>0.4</v>
-      </c>
-      <c r="J69" s="43">
-        <v>0.05</v>
-      </c>
-      <c r="K69" s="43">
-        <v>0.8</v>
-      </c>
-      <c r="L69" s="43">
-        <v>0.4</v>
-      </c>
-      <c r="M69" s="43">
-        <f>(K69+J69)/6</f>
-        <v>0.14166666666666669</v>
-      </c>
-      <c r="N69" s="43">
-        <v>0.1</v>
-      </c>
-      <c r="Q69" s="43" t="s">
-        <v>773</v>
       </c>
     </row>
     <row r="70" spans="1:17" s="30" customFormat="1">
@@ -9011,53 +9039,72 @@
         <v>21</v>
       </c>
       <c r="D70" s="30" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E70" s="30" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F70" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="H70" s="30" t="s">
+        <v>669</v>
+      </c>
+      <c r="I70" s="30" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" s="49" customFormat="1">
+      <c r="A71" s="49" t="b">
+        <v>1</v>
+      </c>
+      <c r="B71" s="49" t="s">
+        <v>776</v>
+      </c>
+      <c r="C71" s="49" t="s">
+        <v>76</v>
+      </c>
+      <c r="D71" s="49" t="s">
+        <v>76</v>
+      </c>
+      <c r="E71" s="49" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" s="43" customFormat="1">
+      <c r="B72" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="D72" s="43" t="s">
+        <v>777</v>
+      </c>
+      <c r="E72" s="43" t="s">
+        <v>77</v>
+      </c>
+      <c r="F72" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="H70" s="30">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="71" spans="1:17" s="30" customFormat="1">
-      <c r="B71" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D71" s="30" t="s">
-        <v>80</v>
-      </c>
-      <c r="E71" s="30" t="s">
-        <v>81</v>
-      </c>
-      <c r="F71" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="H71" s="30" t="s">
-        <v>670</v>
-      </c>
-      <c r="I71" s="30" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="72" spans="1:17" s="49" customFormat="1">
-      <c r="A72" s="49" t="b">
-        <v>1</v>
-      </c>
-      <c r="B72" s="49" t="s">
-        <v>69</v>
-      </c>
-      <c r="C72" s="49" t="s">
-        <v>69</v>
-      </c>
-      <c r="D72" s="49" t="s">
-        <v>69</v>
-      </c>
-      <c r="E72" s="49" t="s">
-        <v>68</v>
+      <c r="H72" s="43">
+        <v>0.4</v>
+      </c>
+      <c r="J72" s="43">
+        <v>0.05</v>
+      </c>
+      <c r="K72" s="43">
+        <v>0.8</v>
+      </c>
+      <c r="L72" s="43">
+        <v>0.4</v>
+      </c>
+      <c r="M72" s="43">
+        <f>(K72+J72)/6</f>
+        <v>0.14166666666666669</v>
+      </c>
+      <c r="N72" s="43">
+        <v>0.1</v>
+      </c>
+      <c r="Q72" s="43" t="s">
+        <v>773</v>
       </c>
     </row>
     <row r="73" spans="1:17" s="30" customFormat="1">
@@ -9065,221 +9112,182 @@
         <v>21</v>
       </c>
       <c r="D73" s="30" t="s">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="E73" s="30" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="F73" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="H73" s="30">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" s="30" customFormat="1">
+      <c r="B74" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D74" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="E74" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="F74" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="H73" s="30" t="s">
-        <v>66</v>
-      </c>
-      <c r="I73" s="30" t="s">
-        <v>83</v>
-      </c>
-      <c r="O73" s="31"/>
-    </row>
-    <row r="74" spans="1:17" s="43" customFormat="1">
-      <c r="B74" s="43" t="s">
-        <v>22</v>
-      </c>
-      <c r="D74" s="44" t="s">
-        <v>778</v>
-      </c>
-      <c r="E74" s="43" t="s">
-        <v>70</v>
-      </c>
-      <c r="F74" s="43" t="s">
-        <v>64</v>
-      </c>
-      <c r="H74" s="43">
-        <v>0</v>
-      </c>
-      <c r="J74" s="45">
-        <v>-100</v>
-      </c>
-      <c r="K74" s="45">
-        <v>100</v>
-      </c>
-      <c r="L74" s="45">
-        <v>0</v>
-      </c>
-      <c r="M74" s="45">
-        <f>(K74-J74)/6</f>
-        <v>33.333333333333336</v>
-      </c>
-      <c r="N74" s="45">
-        <v>2.5</v>
-      </c>
-      <c r="Q74" s="43" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="75" spans="1:17" s="30" customFormat="1">
-      <c r="B75" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D75" s="30" t="s">
-        <v>71</v>
-      </c>
-      <c r="E75" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="F75" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="H75" s="30">
-        <v>0</v>
-      </c>
-      <c r="O75" s="31"/>
+      <c r="H74" s="30" t="s">
+        <v>670</v>
+      </c>
+      <c r="I74" s="30" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" s="49" customFormat="1">
+      <c r="A75" s="49" t="b">
+        <v>1</v>
+      </c>
+      <c r="B75" s="49" t="s">
+        <v>69</v>
+      </c>
+      <c r="C75" s="49" t="s">
+        <v>69</v>
+      </c>
+      <c r="D75" s="49" t="s">
+        <v>69</v>
+      </c>
+      <c r="E75" s="49" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="76" spans="1:17" s="30" customFormat="1">
       <c r="B76" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D76" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="E76" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="F76" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="H76" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="I76" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="O76" s="31"/>
+    </row>
+    <row r="77" spans="1:17" s="43" customFormat="1">
+      <c r="B77" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="D77" s="44" t="s">
+        <v>778</v>
+      </c>
+      <c r="E77" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="F77" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="H77" s="43">
+        <v>0</v>
+      </c>
+      <c r="J77" s="45">
+        <v>-100</v>
+      </c>
+      <c r="K77" s="45">
+        <v>100</v>
+      </c>
+      <c r="L77" s="45">
+        <v>0</v>
+      </c>
+      <c r="M77" s="45">
+        <f>(K77-J77)/6</f>
+        <v>33.333333333333336</v>
+      </c>
+      <c r="N77" s="45">
+        <v>2.5</v>
+      </c>
+      <c r="Q77" s="43" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17" s="30" customFormat="1">
+      <c r="B78" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D78" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="E78" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="F78" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="H78" s="30">
+        <v>0</v>
+      </c>
+      <c r="O78" s="31"/>
+    </row>
+    <row r="79" spans="1:17" s="30" customFormat="1">
+      <c r="B79" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D79" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="E76" s="30" t="s">
+      <c r="E79" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="F76" s="30" t="s">
+      <c r="F79" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="H76" s="30">
-        <v>0</v>
-      </c>
-      <c r="O76" s="31"/>
-    </row>
-    <row r="77" spans="1:17" s="30" customFormat="1">
-      <c r="B77" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D77" s="30" t="s">
+      <c r="H79" s="30">
+        <v>0</v>
+      </c>
+      <c r="O79" s="31"/>
+    </row>
+    <row r="80" spans="1:17" s="30" customFormat="1">
+      <c r="B80" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D80" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="E77" s="30" t="s">
+      <c r="E80" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="F77" s="30" t="s">
+      <c r="F80" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="H77" s="30">
+      <c r="H80" s="30">
         <v>1</v>
       </c>
-      <c r="O77" s="31"/>
-    </row>
-    <row r="78" spans="1:17" s="50" customFormat="1">
-      <c r="A78" s="50" t="b">
+      <c r="O80" s="31"/>
+    </row>
+    <row r="81" spans="1:17" s="50" customFormat="1">
+      <c r="A81" s="50" t="b">
         <v>1</v>
       </c>
-      <c r="B78" s="50" t="s">
+      <c r="B81" s="50" t="s">
         <v>67</v>
       </c>
-      <c r="C78" s="50" t="s">
+      <c r="C81" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="D78" s="50" t="s">
+      <c r="D81" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="E78" s="50" t="s">
+      <c r="E81" s="50" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="79" spans="1:17">
-      <c r="A79" s="30"/>
-      <c r="B79" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="C79" s="30"/>
-      <c r="D79" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="E79" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="F79" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="G79" s="30"/>
-      <c r="H79" s="30" t="s">
-        <v>66</v>
-      </c>
-      <c r="I79" s="30" t="s">
-        <v>83</v>
-      </c>
-      <c r="J79" s="3"/>
-      <c r="K79" s="3"/>
-      <c r="L79" s="3"/>
-      <c r="M79" s="3"/>
-      <c r="N79" s="3"/>
-      <c r="P79" s="40"/>
-    </row>
-    <row r="80" spans="1:17" s="43" customFormat="1">
-      <c r="B80" s="43" t="s">
-        <v>22</v>
-      </c>
-      <c r="D80" s="43" t="s">
-        <v>779</v>
-      </c>
-      <c r="E80" s="43" t="s">
-        <v>46</v>
-      </c>
-      <c r="F80" s="43" t="s">
-        <v>64</v>
-      </c>
-      <c r="H80" s="43">
-        <v>0</v>
-      </c>
-      <c r="I80" s="46"/>
-      <c r="J80" s="45">
-        <v>-60</v>
-      </c>
-      <c r="K80" s="45">
-        <v>60</v>
-      </c>
-      <c r="L80" s="45">
-        <v>-1</v>
-      </c>
-      <c r="M80" s="45">
-        <f>(K80-J80)/6</f>
-        <v>20</v>
-      </c>
-      <c r="N80" s="45">
-        <v>2.5</v>
-      </c>
-      <c r="P80" s="47"/>
-      <c r="Q80" s="43" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="81" spans="1:17">
-      <c r="A81" s="30"/>
-      <c r="B81" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="C81" s="30"/>
-      <c r="D81" s="48" t="s">
-        <v>47</v>
-      </c>
-      <c r="E81" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="F81" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="G81" s="30"/>
-      <c r="H81" s="30">
-        <v>0</v>
-      </c>
-      <c r="J81" s="3"/>
-      <c r="K81" s="3"/>
-      <c r="L81" s="3"/>
-      <c r="M81" s="3"/>
-      <c r="N81" s="3"/>
-      <c r="P81" s="40"/>
     </row>
     <row r="82" spans="1:17">
       <c r="A82" s="30"/>
@@ -9288,17 +9296,20 @@
       </c>
       <c r="C82" s="30"/>
       <c r="D82" s="30" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E82" s="30" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F82" s="30" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G82" s="30"/>
-      <c r="H82" s="30">
-        <v>0</v>
+      <c r="H82" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="I82" s="30" t="s">
+        <v>83</v>
       </c>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
@@ -9307,31 +9318,43 @@
       <c r="N82" s="3"/>
       <c r="P82" s="40"/>
     </row>
-    <row r="83" spans="1:17">
-      <c r="A83" s="30"/>
-      <c r="B83" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="C83" s="30"/>
-      <c r="D83" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="E83" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="F83" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="G83" s="30"/>
-      <c r="H83" s="30">
-        <v>0</v>
-      </c>
-      <c r="J83" s="3"/>
-      <c r="K83" s="3"/>
-      <c r="L83" s="3"/>
-      <c r="M83" s="3"/>
-      <c r="N83" s="3"/>
-      <c r="P83" s="40"/>
+    <row r="83" spans="1:17" s="43" customFormat="1">
+      <c r="B83" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="D83" s="43" t="s">
+        <v>779</v>
+      </c>
+      <c r="E83" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="F83" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="H83" s="43">
+        <v>0</v>
+      </c>
+      <c r="I83" s="46"/>
+      <c r="J83" s="45">
+        <v>-60</v>
+      </c>
+      <c r="K83" s="45">
+        <v>60</v>
+      </c>
+      <c r="L83" s="45">
+        <v>-1</v>
+      </c>
+      <c r="M83" s="45">
+        <f>(K83-J83)/6</f>
+        <v>20</v>
+      </c>
+      <c r="N83" s="45">
+        <v>2.5</v>
+      </c>
+      <c r="P83" s="47"/>
+      <c r="Q83" s="43" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="84" spans="1:17">
       <c r="A84" s="30"/>
@@ -9339,18 +9362,18 @@
         <v>21</v>
       </c>
       <c r="C84" s="30"/>
-      <c r="D84" s="30" t="s">
-        <v>53</v>
+      <c r="D84" s="48" t="s">
+        <v>47</v>
       </c>
       <c r="E84" s="30" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F84" s="30" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G84" s="30"/>
-      <c r="H84" s="30" t="b">
-        <v>1</v>
+      <c r="H84" s="30">
+        <v>0</v>
       </c>
       <c r="J84" s="3"/>
       <c r="K84" s="3"/>
@@ -9366,17 +9389,17 @@
       </c>
       <c r="C85" s="30"/>
       <c r="D85" s="30" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E85" s="30" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F85" s="30" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G85" s="30"/>
       <c r="H85" s="30">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="J85" s="3"/>
       <c r="K85" s="3"/>
@@ -9392,13 +9415,13 @@
       </c>
       <c r="C86" s="30"/>
       <c r="D86" s="30" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E86" s="30" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F86" s="30" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G86" s="30"/>
       <c r="H86" s="30">
@@ -9418,16 +9441,16 @@
       </c>
       <c r="C87" s="30"/>
       <c r="D87" s="30" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="E87" s="30" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F87" s="30" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G87" s="30"/>
-      <c r="H87" s="30">
+      <c r="H87" s="30" t="b">
         <v>1</v>
       </c>
       <c r="J87" s="3"/>
@@ -9437,22 +9460,31 @@
       <c r="N87" s="3"/>
       <c r="P87" s="40"/>
     </row>
-    <row r="88" spans="1:17" s="50" customFormat="1">
-      <c r="A88" s="50" t="b">
-        <v>1</v>
-      </c>
-      <c r="B88" s="50" t="s">
-        <v>327</v>
-      </c>
-      <c r="C88" s="50" t="s">
-        <v>328</v>
-      </c>
-      <c r="D88" s="50" t="s">
-        <v>328</v>
-      </c>
-      <c r="E88" s="50" t="s">
-        <v>68</v>
-      </c>
+    <row r="88" spans="1:17">
+      <c r="A88" s="30"/>
+      <c r="B88" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C88" s="30"/>
+      <c r="D88" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="E88" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="F88" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="G88" s="30"/>
+      <c r="H88" s="30">
+        <v>15</v>
+      </c>
+      <c r="J88" s="3"/>
+      <c r="K88" s="3"/>
+      <c r="L88" s="3"/>
+      <c r="M88" s="3"/>
+      <c r="N88" s="3"/>
+      <c r="P88" s="40"/>
     </row>
     <row r="89" spans="1:17">
       <c r="A89" s="30"/>
@@ -9461,20 +9493,17 @@
       </c>
       <c r="C89" s="30"/>
       <c r="D89" s="30" t="s">
-        <v>373</v>
+        <v>57</v>
       </c>
       <c r="E89" s="30" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="F89" s="30" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G89" s="30"/>
-      <c r="H89" s="30" t="s">
-        <v>66</v>
-      </c>
-      <c r="I89" s="30" t="s">
-        <v>83</v>
+      <c r="H89" s="30">
+        <v>0</v>
       </c>
       <c r="J89" s="3"/>
       <c r="K89" s="3"/>
@@ -9483,186 +9512,184 @@
       <c r="N89" s="3"/>
       <c r="P89" s="40"/>
     </row>
-    <row r="90" spans="1:17" s="43" customFormat="1">
-      <c r="B90" s="43" t="s">
-        <v>22</v>
-      </c>
-      <c r="D90" s="43" t="s">
-        <v>817</v>
-      </c>
-      <c r="E90" s="43" t="s">
-        <v>330</v>
-      </c>
-      <c r="F90" s="43" t="s">
-        <v>64</v>
-      </c>
-      <c r="H90" s="43">
-        <v>0</v>
-      </c>
-      <c r="I90" s="46"/>
-      <c r="J90" s="45">
-        <v>-30</v>
-      </c>
-      <c r="K90" s="45">
-        <v>30</v>
-      </c>
-      <c r="L90" s="45">
-        <v>0</v>
-      </c>
-      <c r="M90" s="45">
-        <f>(K90-J90)/6</f>
-        <v>10</v>
-      </c>
-      <c r="N90" s="45">
-        <v>2.5</v>
-      </c>
-      <c r="Q90" s="43" t="s">
-        <v>773</v>
-      </c>
+    <row r="90" spans="1:17">
+      <c r="A90" s="30"/>
+      <c r="B90" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C90" s="30"/>
+      <c r="D90" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="E90" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="F90" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="G90" s="30"/>
+      <c r="H90" s="30">
+        <v>1</v>
+      </c>
+      <c r="J90" s="3"/>
+      <c r="K90" s="3"/>
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+      <c r="N90" s="3"/>
+      <c r="P90" s="40"/>
     </row>
     <row r="91" spans="1:17" s="50" customFormat="1">
       <c r="A91" s="50" t="b">
         <v>1</v>
       </c>
       <c r="B91" s="50" t="s">
-        <v>818</v>
+        <v>327</v>
       </c>
       <c r="C91" s="50" t="s">
-        <v>819</v>
+        <v>328</v>
       </c>
       <c r="D91" s="50" t="s">
-        <v>819</v>
+        <v>328</v>
       </c>
       <c r="E91" s="50" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="92" spans="1:17" s="43" customFormat="1">
-      <c r="B92" s="43" t="s">
+    <row r="92" spans="1:17">
+      <c r="A92" s="30"/>
+      <c r="B92" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C92" s="30"/>
+      <c r="D92" s="30" t="s">
+        <v>373</v>
+      </c>
+      <c r="E92" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="F92" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="G92" s="30"/>
+      <c r="H92" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="I92" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="J92" s="3"/>
+      <c r="K92" s="3"/>
+      <c r="L92" s="3"/>
+      <c r="M92" s="3"/>
+      <c r="N92" s="3"/>
+      <c r="P92" s="40"/>
+    </row>
+    <row r="93" spans="1:17" s="43" customFormat="1">
+      <c r="B93" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="D92" s="43" t="s">
+      <c r="D93" s="43" t="s">
+        <v>817</v>
+      </c>
+      <c r="E93" s="43" t="s">
+        <v>330</v>
+      </c>
+      <c r="F93" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="H93" s="43">
+        <v>0</v>
+      </c>
+      <c r="I93" s="46"/>
+      <c r="J93" s="45">
+        <v>-30</v>
+      </c>
+      <c r="K93" s="45">
+        <v>30</v>
+      </c>
+      <c r="L93" s="45">
+        <v>0</v>
+      </c>
+      <c r="M93" s="45">
+        <f>(K93-J93)/6</f>
+        <v>10</v>
+      </c>
+      <c r="N93" s="45">
+        <v>2.5</v>
+      </c>
+      <c r="Q93" s="43" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17" s="50" customFormat="1">
+      <c r="A94" s="50" t="b">
+        <v>1</v>
+      </c>
+      <c r="B94" s="50" t="s">
+        <v>818</v>
+      </c>
+      <c r="C94" s="50" t="s">
+        <v>819</v>
+      </c>
+      <c r="D94" s="50" t="s">
+        <v>819</v>
+      </c>
+      <c r="E94" s="50" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17" s="43" customFormat="1">
+      <c r="B95" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="D95" s="43" t="s">
         <v>820</v>
       </c>
-      <c r="E92" s="43" t="s">
+      <c r="E95" s="43" t="s">
         <v>258</v>
       </c>
-      <c r="F92" s="43" t="s">
+      <c r="F95" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="H92" s="43">
-        <v>0</v>
-      </c>
-      <c r="I92" s="46"/>
-      <c r="J92" s="45">
+      <c r="H95" s="43">
+        <v>0</v>
+      </c>
+      <c r="I95" s="46"/>
+      <c r="J95" s="45">
         <v>-50</v>
       </c>
-      <c r="K92" s="45">
+      <c r="K95" s="45">
         <v>100</v>
       </c>
-      <c r="L92" s="45">
-        <v>0</v>
-      </c>
-      <c r="M92" s="45">
-        <f>(K92-J92)/6</f>
+      <c r="L95" s="45">
+        <v>0</v>
+      </c>
+      <c r="M95" s="45">
+        <f>(K95-J95)/6</f>
         <v>25</v>
       </c>
-      <c r="N92" s="45">
+      <c r="N95" s="45">
         <v>2.5</v>
       </c>
-      <c r="Q92" s="43" t="s">
+      <c r="Q95" s="43" t="s">
         <v>773</v>
       </c>
     </row>
-    <row r="93" spans="1:17" s="50" customFormat="1">
-      <c r="A93" s="50" t="b">
+    <row r="96" spans="1:17" s="50" customFormat="1">
+      <c r="A96" s="50" t="b">
         <v>1</v>
       </c>
-      <c r="B93" s="50" t="s">
+      <c r="B96" s="50" t="s">
         <v>821</v>
       </c>
-      <c r="C93" s="50" t="s">
+      <c r="C96" s="50" t="s">
         <v>822</v>
       </c>
-      <c r="D93" s="50" t="s">
+      <c r="D96" s="50" t="s">
         <v>822</v>
       </c>
-      <c r="E93" s="50" t="s">
+      <c r="E96" s="50" t="s">
         <v>68</v>
-      </c>
-    </row>
-    <row r="94" spans="1:17" s="43" customFormat="1">
-      <c r="B94" s="43" t="s">
-        <v>22</v>
-      </c>
-      <c r="D94" s="43" t="s">
-        <v>823</v>
-      </c>
-      <c r="E94" s="43" t="s">
-        <v>258</v>
-      </c>
-      <c r="F94" s="43" t="s">
-        <v>64</v>
-      </c>
-      <c r="H94" s="43">
-        <v>0</v>
-      </c>
-      <c r="I94" s="46"/>
-      <c r="J94" s="45">
-        <v>-50</v>
-      </c>
-      <c r="K94" s="45">
-        <v>100</v>
-      </c>
-      <c r="L94" s="45">
-        <v>0</v>
-      </c>
-      <c r="M94" s="45">
-        <f>(K94-J94)/6</f>
-        <v>25</v>
-      </c>
-      <c r="N94" s="45">
-        <v>2.5</v>
-      </c>
-      <c r="Q94" s="43" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="95" spans="1:17" s="50" customFormat="1">
-      <c r="A95" s="50" t="b">
-        <v>1</v>
-      </c>
-      <c r="B95" s="50" t="s">
-        <v>285</v>
-      </c>
-      <c r="C95" s="50" t="s">
-        <v>286</v>
-      </c>
-      <c r="D95" s="50" t="s">
-        <v>286</v>
-      </c>
-      <c r="E95" s="50" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="96" spans="1:17" s="30" customFormat="1">
-      <c r="B96" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D96" s="30" t="s">
-        <v>373</v>
-      </c>
-      <c r="E96" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="F96" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="H96" s="30" t="s">
-        <v>66</v>
-      </c>
-      <c r="I96" s="30" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="97" spans="1:17" s="43" customFormat="1">
@@ -9670,33 +9697,30 @@
         <v>22</v>
       </c>
       <c r="D97" s="43" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="E97" s="43" t="s">
-        <v>288</v>
+        <v>258</v>
       </c>
       <c r="F97" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="G97" s="43" t="s">
-        <v>825</v>
-      </c>
       <c r="H97" s="43">
         <v>0</v>
       </c>
       <c r="I97" s="46"/>
       <c r="J97" s="45">
-        <v>-40</v>
+        <v>-50</v>
       </c>
       <c r="K97" s="45">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="L97" s="45">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M97" s="45">
         <f>(K97-J97)/6</f>
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N97" s="45">
         <v>2.5</v>
@@ -9705,24 +9729,21 @@
         <v>773</v>
       </c>
     </row>
-    <row r="98" spans="1:17" s="30" customFormat="1">
-      <c r="B98" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D98" s="30" t="s">
-        <v>826</v>
-      </c>
-      <c r="E98" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="F98" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="G98" s="30" t="s">
-        <v>825</v>
-      </c>
-      <c r="H98" s="30">
-        <v>0</v>
+    <row r="98" spans="1:17" s="50" customFormat="1">
+      <c r="A98" s="50" t="b">
+        <v>1</v>
+      </c>
+      <c r="B98" s="50" t="s">
+        <v>285</v>
+      </c>
+      <c r="C98" s="50" t="s">
+        <v>286</v>
+      </c>
+      <c r="D98" s="50" t="s">
+        <v>286</v>
+      </c>
+      <c r="E98" s="50" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="99" spans="1:17" s="30" customFormat="1">
@@ -9730,39 +9751,59 @@
         <v>21</v>
       </c>
       <c r="D99" s="30" t="s">
-        <v>827</v>
+        <v>373</v>
       </c>
       <c r="E99" s="30" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F99" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="H99" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="I99" s="30" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="100" spans="1:17" s="43" customFormat="1">
+      <c r="B100" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="D100" s="43" t="s">
+        <v>824</v>
+      </c>
+      <c r="E100" s="43" t="s">
+        <v>288</v>
+      </c>
+      <c r="F100" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="G99" s="30" t="s">
+      <c r="G100" s="43" t="s">
         <v>825</v>
       </c>
-      <c r="H99" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:17" s="30" customFormat="1">
-      <c r="B100" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D100" s="30" t="s">
-        <v>828</v>
-      </c>
-      <c r="E100" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="F100" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="G100" s="30" t="s">
-        <v>829</v>
-      </c>
-      <c r="H100" s="30">
-        <v>0</v>
+      <c r="H100" s="43">
+        <v>0</v>
+      </c>
+      <c r="I100" s="46"/>
+      <c r="J100" s="45">
+        <v>-40</v>
+      </c>
+      <c r="K100" s="45">
+        <v>80</v>
+      </c>
+      <c r="L100" s="45">
+        <v>-1</v>
+      </c>
+      <c r="M100" s="45">
+        <f>(K100-J100)/6</f>
+        <v>20</v>
+      </c>
+      <c r="N100" s="45">
+        <v>2.5</v>
+      </c>
+      <c r="Q100" s="43" t="s">
+        <v>773</v>
       </c>
     </row>
     <row r="101" spans="1:17" s="30" customFormat="1">
@@ -9770,15 +9811,18 @@
         <v>21</v>
       </c>
       <c r="D101" s="30" t="s">
-        <v>830</v>
+        <v>826</v>
       </c>
       <c r="E101" s="30" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F101" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="H101" s="30" t="b">
+        <v>64</v>
+      </c>
+      <c r="G101" s="30" t="s">
+        <v>825</v>
+      </c>
+      <c r="H101" s="30">
         <v>0</v>
       </c>
     </row>
@@ -9787,19 +9831,19 @@
         <v>21</v>
       </c>
       <c r="D102" s="30" t="s">
-        <v>831</v>
+        <v>827</v>
       </c>
       <c r="E102" s="30" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F102" s="30" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G102" s="30" t="s">
-        <v>829</v>
+        <v>825</v>
       </c>
       <c r="H102" s="30">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:17" s="30" customFormat="1">
@@ -9807,16 +9851,16 @@
         <v>21</v>
       </c>
       <c r="D103" s="30" t="s">
-        <v>832</v>
+        <v>828</v>
       </c>
       <c r="E103" s="30" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F103" s="30" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G103" s="30" t="s">
-        <v>825</v>
+        <v>829</v>
       </c>
       <c r="H103" s="30">
         <v>0</v>
@@ -9827,153 +9871,198 @@
         <v>21</v>
       </c>
       <c r="D104" s="30" t="s">
+        <v>830</v>
+      </c>
+      <c r="E104" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="F104" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="H104" s="30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:17" s="30" customFormat="1">
+      <c r="B105" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D105" s="30" t="s">
+        <v>831</v>
+      </c>
+      <c r="E105" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="F105" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="G105" s="30" t="s">
+        <v>829</v>
+      </c>
+      <c r="H105" s="30">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="106" spans="1:17" s="30" customFormat="1">
+      <c r="B106" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D106" s="30" t="s">
+        <v>832</v>
+      </c>
+      <c r="E106" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F106" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="G106" s="30" t="s">
+        <v>825</v>
+      </c>
+      <c r="H106" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:17" s="30" customFormat="1">
+      <c r="B107" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D107" s="30" t="s">
         <v>833</v>
       </c>
-      <c r="E104" s="30" t="s">
+      <c r="E107" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="F104" s="30" t="s">
+      <c r="F107" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="G104" s="30" t="s">
+      <c r="G107" s="30" t="s">
         <v>829</v>
       </c>
-      <c r="H104" s="30">
+      <c r="H107" s="30">
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:17" s="38" customFormat="1">
-      <c r="A105" s="38" t="b">
+    <row r="108" spans="1:17" s="38" customFormat="1">
+      <c r="A108" s="38" t="b">
         <v>1</v>
       </c>
-      <c r="B105" s="38" t="s">
+      <c r="B108" s="38" t="s">
         <v>187</v>
       </c>
-      <c r="C105" s="38" t="s">
+      <c r="C108" s="38" t="s">
         <v>842</v>
       </c>
-      <c r="D105" s="38" t="s">
+      <c r="D108" s="38" t="s">
         <v>842</v>
       </c>
-      <c r="E105" s="38" t="s">
+      <c r="E108" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="G105" s="39"/>
-      <c r="H105" s="39"/>
-    </row>
-    <row r="106" spans="1:17" s="43" customFormat="1">
-      <c r="B106" s="43" t="s">
+      <c r="G108" s="39"/>
+      <c r="H108" s="39"/>
+    </row>
+    <row r="109" spans="1:17" s="43" customFormat="1">
+      <c r="B109" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="D106" s="43" t="s">
+      <c r="D109" s="43" t="s">
         <v>843</v>
       </c>
-      <c r="E106" s="43" t="s">
+      <c r="E109" s="43" t="s">
         <v>190</v>
       </c>
-      <c r="F106" s="43" t="s">
+      <c r="F109" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="G106" s="43" t="s">
+      <c r="G109" s="43" t="s">
         <v>844</v>
       </c>
-      <c r="H106" s="43">
+      <c r="H109" s="43">
         <v>1</v>
       </c>
-      <c r="I106" s="46"/>
-      <c r="J106" s="45">
+      <c r="I109" s="46"/>
+      <c r="J109" s="45">
         <v>-2</v>
       </c>
-      <c r="K106" s="45">
-        <v>2</v>
-      </c>
-      <c r="L106" s="45">
-        <v>0</v>
-      </c>
-      <c r="M106" s="45">
-        <f>(K106-J106)/6</f>
+      <c r="K109" s="45">
+        <v>2</v>
+      </c>
+      <c r="L109" s="45">
+        <v>0</v>
+      </c>
+      <c r="M109" s="45">
+        <f>(K109-J109)/6</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="N106" s="45">
+      <c r="N109" s="45">
         <v>1</v>
       </c>
-      <c r="Q106" s="43" t="s">
+      <c r="Q109" s="43" t="s">
         <v>773</v>
       </c>
     </row>
-    <row r="107" spans="1:17" s="43" customFormat="1">
-      <c r="B107" s="43" t="s">
+    <row r="110" spans="1:17" s="43" customFormat="1">
+      <c r="B110" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="D107" s="43" t="s">
+      <c r="D110" s="43" t="s">
         <v>845</v>
       </c>
-      <c r="E107" s="43" t="s">
+      <c r="E110" s="43" t="s">
         <v>192</v>
       </c>
-      <c r="F107" s="43" t="s">
+      <c r="F110" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="G107" s="43" t="s">
+      <c r="G110" s="43" t="s">
         <v>844</v>
       </c>
-      <c r="H107" s="43">
+      <c r="H110" s="43">
         <v>-1</v>
       </c>
-      <c r="I107" s="46"/>
-      <c r="J107" s="45">
+      <c r="I110" s="46"/>
+      <c r="J110" s="45">
         <v>-2</v>
       </c>
-      <c r="K107" s="45">
-        <v>2</v>
-      </c>
-      <c r="L107" s="45">
-        <v>0</v>
-      </c>
-      <c r="M107" s="45">
-        <f>(K107-J107)/6</f>
+      <c r="K110" s="45">
+        <v>2</v>
+      </c>
+      <c r="L110" s="45">
+        <v>0</v>
+      </c>
+      <c r="M110" s="45">
+        <f>(K110-J110)/6</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="N107" s="45">
+      <c r="N110" s="45">
         <v>1</v>
       </c>
-      <c r="Q107" s="43" t="s">
+      <c r="Q110" s="43" t="s">
         <v>773</v>
       </c>
     </row>
-    <row r="108" spans="1:17">
-      <c r="B108" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D108" s="31" t="s">
+    <row r="111" spans="1:17">
+      <c r="B111" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D111" s="31" t="s">
         <v>846</v>
       </c>
-      <c r="E108" s="31" t="s">
+      <c r="E111" s="31" t="s">
         <v>194</v>
       </c>
-      <c r="F108" s="31" t="s">
+      <c r="F111" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="H108" s="31" t="b">
-        <v>0</v>
-      </c>
-      <c r="J108" s="3"/>
-      <c r="K108" s="3"/>
-      <c r="L108" s="3"/>
-      <c r="M108" s="3"/>
-      <c r="N108" s="3"/>
-    </row>
-    <row r="109" spans="1:17">
-      <c r="H109" s="31"/>
-      <c r="I109" s="31"/>
-    </row>
-    <row r="110" spans="1:17">
-      <c r="H110" s="31"/>
-      <c r="I110" s="31"/>
-    </row>
-    <row r="111" spans="1:17">
-      <c r="H111" s="31"/>
-      <c r="I111" s="31"/>
+      <c r="H111" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="J111" s="3"/>
+      <c r="K111" s="3"/>
+      <c r="L111" s="3"/>
+      <c r="M111" s="3"/>
+      <c r="N111" s="3"/>
     </row>
     <row r="112" spans="1:17">
       <c r="H112" s="31"/>
@@ -10427,8 +10516,20 @@
       <c r="H224" s="31"/>
       <c r="I224" s="31"/>
     </row>
+    <row r="225" spans="8:9">
+      <c r="H225" s="31"/>
+      <c r="I225" s="31"/>
+    </row>
+    <row r="226" spans="8:9">
+      <c r="H226" s="31"/>
+      <c r="I226" s="31"/>
+    </row>
+    <row r="227" spans="8:9">
+      <c r="H227" s="31"/>
+      <c r="I227" s="31"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A2:Z151"/>
+  <autoFilter ref="A2:Z154"/>
   <mergeCells count="1">
     <mergeCell ref="T1:Y1"/>
   </mergeCells>
@@ -10451,20 +10552,20 @@
       <selection pane="bottomLeft" activeCell="A4" sqref="A4:XFD35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="29.44140625" style="31" customWidth="1"/>
+    <col min="1" max="2" width="29.42578125" style="31" customWidth="1"/>
     <col min="3" max="3" width="71" style="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.44140625" style="31" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="10.44140625" style="31" customWidth="1"/>
-    <col min="8" max="8" width="14.44140625" style="31" customWidth="1"/>
-    <col min="9" max="9" width="14.6640625" style="31" customWidth="1"/>
-    <col min="10" max="10" width="9.6640625" style="31" customWidth="1"/>
-    <col min="11" max="16384" width="11.44140625" style="31"/>
+    <col min="4" max="4" width="10.42578125" style="31" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" style="31" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="10.42578125" style="31" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="31" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="31" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" style="31" customWidth="1"/>
+    <col min="11" max="16384" width="11.42578125" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18">
+    <row r="1" spans="1:12" ht="18.75">
       <c r="A1" s="5"/>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -10479,7 +10580,7 @@
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
     </row>
-    <row r="2" spans="1:12" s="8" customFormat="1" ht="15.6">
+    <row r="2" spans="1:12" s="8" customFormat="1" ht="15.75">
       <c r="A2" s="8" t="s">
         <v>459</v>
       </c>
@@ -10514,7 +10615,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="14" customFormat="1" ht="46.8">
+    <row r="3" spans="1:12" s="14" customFormat="1" ht="47.25">
       <c r="A3" s="14" t="s">
         <v>628</v>
       </c>
@@ -11528,19 +11629,19 @@
       <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="70.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="80.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="33.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="255.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="70.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="80.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="33.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="255.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.6">
+    <row r="1" spans="1:9" ht="15.75">
       <c r="A1" s="17" t="b">
         <v>0</v>
       </c>
@@ -11559,7 +11660,7 @@
       <c r="H1" s="17"/>
       <c r="I1" s="17"/>
     </row>
-    <row r="2" spans="1:9" ht="15.6">
+    <row r="2" spans="1:9" ht="15.75">
       <c r="A2" s="17"/>
       <c r="B2" s="17" t="s">
         <v>21</v>
@@ -11580,7 +11681,7 @@
       <c r="H2" s="17"/>
       <c r="I2" s="17"/>
     </row>
-    <row r="3" spans="1:9" ht="15.6">
+    <row r="3" spans="1:9" ht="15.75">
       <c r="A3" s="17"/>
       <c r="B3" s="17" t="s">
         <v>21</v>
@@ -11603,7 +11704,7 @@
       </c>
       <c r="I3" s="17"/>
     </row>
-    <row r="4" spans="1:9" ht="15.6">
+    <row r="4" spans="1:9" ht="15.75">
       <c r="A4" s="17"/>
       <c r="B4" s="17" t="s">
         <v>21</v>
@@ -11626,7 +11727,7 @@
       </c>
       <c r="I4" s="17"/>
     </row>
-    <row r="5" spans="1:9" ht="15.6">
+    <row r="5" spans="1:9" ht="15.75">
       <c r="A5" s="17"/>
       <c r="B5" s="17" t="s">
         <v>21</v>
@@ -11649,7 +11750,7 @@
       </c>
       <c r="I5" s="17"/>
     </row>
-    <row r="6" spans="1:9" ht="15.6">
+    <row r="6" spans="1:9" ht="15.75">
       <c r="A6" s="17"/>
       <c r="B6" s="17" t="s">
         <v>21</v>
@@ -11672,7 +11773,7 @@
       </c>
       <c r="I6" s="17"/>
     </row>
-    <row r="7" spans="1:9" ht="15.6">
+    <row r="7" spans="1:9" ht="15.75">
       <c r="A7" s="17"/>
       <c r="B7" s="17" t="s">
         <v>21</v>
@@ -11695,7 +11796,7 @@
       </c>
       <c r="I7" s="17"/>
     </row>
-    <row r="8" spans="1:9" ht="15.6">
+    <row r="8" spans="1:9" ht="15.75">
       <c r="A8" s="17"/>
       <c r="B8" s="17" t="s">
         <v>21</v>
@@ -11718,7 +11819,7 @@
       </c>
       <c r="I8" s="17"/>
     </row>
-    <row r="9" spans="1:9" ht="15.6">
+    <row r="9" spans="1:9" ht="15.75">
       <c r="A9" s="17"/>
       <c r="B9" s="17" t="s">
         <v>21</v>
@@ -11741,7 +11842,7 @@
       </c>
       <c r="I9" s="17"/>
     </row>
-    <row r="10" spans="1:9" ht="15.6">
+    <row r="10" spans="1:9" ht="15.75">
       <c r="A10" s="17"/>
       <c r="B10" s="17" t="s">
         <v>21</v>
@@ -11764,7 +11865,7 @@
       </c>
       <c r="I10" s="17"/>
     </row>
-    <row r="11" spans="1:9" ht="15.6">
+    <row r="11" spans="1:9" ht="15.75">
       <c r="A11" s="17" t="b">
         <v>0</v>
       </c>
@@ -11783,7 +11884,7 @@
       <c r="H11" s="17"/>
       <c r="I11" s="17"/>
     </row>
-    <row r="12" spans="1:9" ht="15.6">
+    <row r="12" spans="1:9" ht="15.75">
       <c r="A12" s="17"/>
       <c r="B12" s="17" t="s">
         <v>21</v>
@@ -11804,7 +11905,7 @@
       <c r="H12" s="17"/>
       <c r="I12" s="17"/>
     </row>
-    <row r="13" spans="1:9" ht="15.6">
+    <row r="13" spans="1:9" ht="15.75">
       <c r="A13" s="17"/>
       <c r="B13" s="17" t="s">
         <v>21</v>
@@ -11827,7 +11928,7 @@
       </c>
       <c r="I13" s="17"/>
     </row>
-    <row r="14" spans="1:9" ht="15.6">
+    <row r="14" spans="1:9" ht="15.75">
       <c r="A14" s="17"/>
       <c r="B14" s="17" t="s">
         <v>21</v>
@@ -11850,7 +11951,7 @@
       </c>
       <c r="I14" s="17"/>
     </row>
-    <row r="15" spans="1:9" ht="15.6">
+    <row r="15" spans="1:9" ht="15.75">
       <c r="A15" s="17"/>
       <c r="B15" s="17" t="s">
         <v>21</v>
@@ -11873,7 +11974,7 @@
       </c>
       <c r="I15" s="17"/>
     </row>
-    <row r="16" spans="1:9" ht="15.6">
+    <row r="16" spans="1:9" ht="15.75">
       <c r="A16" s="17"/>
       <c r="B16" s="17" t="s">
         <v>21</v>
@@ -11896,7 +11997,7 @@
       </c>
       <c r="I16" s="17"/>
     </row>
-    <row r="17" spans="1:9" ht="15.6">
+    <row r="17" spans="1:9" ht="15.75">
       <c r="A17" s="17"/>
       <c r="B17" s="17" t="s">
         <v>21</v>
@@ -11919,7 +12020,7 @@
       </c>
       <c r="I17" s="17"/>
     </row>
-    <row r="18" spans="1:9" ht="15.6">
+    <row r="18" spans="1:9" ht="15.75">
       <c r="A18" s="17"/>
       <c r="B18" s="17" t="s">
         <v>21</v>
@@ -11942,7 +12043,7 @@
       </c>
       <c r="I18" s="17"/>
     </row>
-    <row r="19" spans="1:9" ht="15.6">
+    <row r="19" spans="1:9" ht="15.75">
       <c r="A19" s="17"/>
       <c r="B19" s="17" t="s">
         <v>21</v>
@@ -11965,7 +12066,7 @@
       </c>
       <c r="I19" s="17"/>
     </row>
-    <row r="20" spans="1:9" ht="15.6">
+    <row r="20" spans="1:9" ht="15.75">
       <c r="A20" s="17"/>
       <c r="B20" s="17" t="s">
         <v>21</v>
@@ -11988,7 +12089,7 @@
       </c>
       <c r="I20" s="17"/>
     </row>
-    <row r="21" spans="1:9" ht="15.6">
+    <row r="21" spans="1:9" ht="15.75">
       <c r="A21" s="17" t="b">
         <v>0</v>
       </c>
@@ -12007,7 +12108,7 @@
       <c r="H21" s="17"/>
       <c r="I21" s="17"/>
     </row>
-    <row r="22" spans="1:9" ht="15.6">
+    <row r="22" spans="1:9" ht="15.75">
       <c r="A22" s="17"/>
       <c r="B22" s="17" t="s">
         <v>21</v>
@@ -12030,7 +12131,7 @@
       </c>
       <c r="I22" s="17"/>
     </row>
-    <row r="23" spans="1:9" ht="15.6">
+    <row r="23" spans="1:9" ht="15.75">
       <c r="A23" s="17"/>
       <c r="B23" s="17" t="s">
         <v>21</v>
@@ -12053,7 +12154,7 @@
       </c>
       <c r="I23" s="17"/>
     </row>
-    <row r="24" spans="1:9" ht="15.6">
+    <row r="24" spans="1:9" ht="15.75">
       <c r="A24" s="17"/>
       <c r="B24" s="17" t="s">
         <v>21</v>
@@ -12076,7 +12177,7 @@
       </c>
       <c r="I24" s="17"/>
     </row>
-    <row r="25" spans="1:9" ht="15.6">
+    <row r="25" spans="1:9" ht="15.75">
       <c r="A25" s="17"/>
       <c r="B25" s="17" t="s">
         <v>21</v>
@@ -12099,7 +12200,7 @@
       </c>
       <c r="I25" s="17"/>
     </row>
-    <row r="26" spans="1:9" ht="15.6">
+    <row r="26" spans="1:9" ht="15.75">
       <c r="A26" s="17"/>
       <c r="B26" s="17" t="s">
         <v>21</v>
@@ -12122,7 +12223,7 @@
       </c>
       <c r="I26" s="17"/>
     </row>
-    <row r="27" spans="1:9" ht="15.6">
+    <row r="27" spans="1:9" ht="15.75">
       <c r="A27" s="17"/>
       <c r="B27" s="17" t="s">
         <v>21</v>
@@ -12145,7 +12246,7 @@
       </c>
       <c r="I27" s="17"/>
     </row>
-    <row r="28" spans="1:9" ht="15.6">
+    <row r="28" spans="1:9" ht="15.75">
       <c r="A28" s="17"/>
       <c r="B28" s="17" t="s">
         <v>21</v>
@@ -12168,7 +12269,7 @@
       </c>
       <c r="I28" s="17"/>
     </row>
-    <row r="29" spans="1:9" ht="15.6">
+    <row r="29" spans="1:9" ht="15.75">
       <c r="A29" s="17"/>
       <c r="B29" s="17" t="s">
         <v>21</v>
@@ -12191,7 +12292,7 @@
       </c>
       <c r="I29" s="17"/>
     </row>
-    <row r="30" spans="1:9" ht="15.6">
+    <row r="30" spans="1:9" ht="15.75">
       <c r="A30" s="17"/>
       <c r="B30" s="17" t="s">
         <v>21</v>
@@ -12214,7 +12315,7 @@
       </c>
       <c r="I30" s="17"/>
     </row>
-    <row r="31" spans="1:9" ht="15.6">
+    <row r="31" spans="1:9" ht="15.75">
       <c r="A31" s="17" t="b">
         <v>0</v>
       </c>
@@ -12233,7 +12334,7 @@
       <c r="H31" s="17"/>
       <c r="I31" s="17"/>
     </row>
-    <row r="32" spans="1:9" ht="15.6">
+    <row r="32" spans="1:9" ht="15.75">
       <c r="A32" s="17"/>
       <c r="B32" s="17" t="s">
         <v>21</v>
@@ -12254,7 +12355,7 @@
       <c r="H32" s="17"/>
       <c r="I32" s="17"/>
     </row>
-    <row r="33" spans="1:9" ht="15.6">
+    <row r="33" spans="1:9" ht="15.75">
       <c r="A33" s="17"/>
       <c r="B33" s="17" t="s">
         <v>21</v>
@@ -12277,7 +12378,7 @@
       </c>
       <c r="I33" s="17"/>
     </row>
-    <row r="34" spans="1:9" ht="15.6">
+    <row r="34" spans="1:9" ht="15.75">
       <c r="A34" s="17"/>
       <c r="B34" s="17" t="s">
         <v>21</v>
@@ -12300,7 +12401,7 @@
       </c>
       <c r="I34" s="17"/>
     </row>
-    <row r="35" spans="1:9" ht="15.6">
+    <row r="35" spans="1:9" ht="15.75">
       <c r="A35" s="17"/>
       <c r="B35" s="17" t="s">
         <v>21</v>
@@ -12323,7 +12424,7 @@
       </c>
       <c r="I35" s="17"/>
     </row>
-    <row r="36" spans="1:9" ht="15.6">
+    <row r="36" spans="1:9" ht="15.75">
       <c r="A36" s="17"/>
       <c r="B36" s="17" t="s">
         <v>21</v>
@@ -12346,7 +12447,7 @@
       </c>
       <c r="I36" s="17"/>
     </row>
-    <row r="37" spans="1:9" ht="15.6">
+    <row r="37" spans="1:9" ht="15.75">
       <c r="A37" s="17"/>
       <c r="B37" s="17" t="s">
         <v>21</v>
@@ -12369,7 +12470,7 @@
       </c>
       <c r="I37" s="17"/>
     </row>
-    <row r="38" spans="1:9" ht="15.6">
+    <row r="38" spans="1:9" ht="15.75">
       <c r="A38" s="17"/>
       <c r="B38" s="17" t="s">
         <v>21</v>
@@ -12392,7 +12493,7 @@
       </c>
       <c r="I38" s="17"/>
     </row>
-    <row r="39" spans="1:9" ht="15.6">
+    <row r="39" spans="1:9" ht="15.75">
       <c r="A39" s="17"/>
       <c r="B39" s="17" t="s">
         <v>21</v>
@@ -12415,7 +12516,7 @@
       </c>
       <c r="I39" s="17"/>
     </row>
-    <row r="40" spans="1:9" ht="15.6">
+    <row r="40" spans="1:9" ht="15.75">
       <c r="A40" s="17"/>
       <c r="B40" s="17" t="s">
         <v>21</v>
@@ -12438,7 +12539,7 @@
       </c>
       <c r="I40" s="17"/>
     </row>
-    <row r="41" spans="1:9" ht="15.6">
+    <row r="41" spans="1:9" ht="15.75">
       <c r="A41" s="17" t="b">
         <v>0</v>
       </c>
@@ -12457,7 +12558,7 @@
       <c r="H41" s="17"/>
       <c r="I41" s="17"/>
     </row>
-    <row r="42" spans="1:9" ht="15.6">
+    <row r="42" spans="1:9" ht="15.75">
       <c r="A42" s="17"/>
       <c r="B42" s="17" t="s">
         <v>21</v>
@@ -12478,7 +12579,7 @@
       <c r="H42" s="17"/>
       <c r="I42" s="17"/>
     </row>
-    <row r="43" spans="1:9" ht="15.6">
+    <row r="43" spans="1:9" ht="15.75">
       <c r="A43" s="17"/>
       <c r="B43" s="17" t="s">
         <v>21</v>
@@ -12501,7 +12602,7 @@
       </c>
       <c r="I43" s="17"/>
     </row>
-    <row r="44" spans="1:9" ht="15.6">
+    <row r="44" spans="1:9" ht="15.75">
       <c r="A44" s="17"/>
       <c r="B44" s="17" t="s">
         <v>21</v>
@@ -12524,7 +12625,7 @@
       </c>
       <c r="I44" s="17"/>
     </row>
-    <row r="45" spans="1:9" ht="15.6">
+    <row r="45" spans="1:9" ht="15.75">
       <c r="A45" s="17"/>
       <c r="B45" s="17" t="s">
         <v>21</v>
@@ -12547,7 +12648,7 @@
       </c>
       <c r="I45" s="17"/>
     </row>
-    <row r="46" spans="1:9" ht="15.6">
+    <row r="46" spans="1:9" ht="15.75">
       <c r="A46" s="17"/>
       <c r="B46" s="17" t="s">
         <v>21</v>
@@ -12570,7 +12671,7 @@
       </c>
       <c r="I46" s="17"/>
     </row>
-    <row r="47" spans="1:9" ht="15.6">
+    <row r="47" spans="1:9" ht="15.75">
       <c r="A47" s="17"/>
       <c r="B47" s="17" t="s">
         <v>21</v>
@@ -12593,7 +12694,7 @@
       </c>
       <c r="I47" s="17"/>
     </row>
-    <row r="48" spans="1:9" ht="15.6">
+    <row r="48" spans="1:9" ht="15.75">
       <c r="A48" s="17"/>
       <c r="B48" s="17" t="s">
         <v>21</v>
@@ -12616,7 +12717,7 @@
       </c>
       <c r="I48" s="17"/>
     </row>
-    <row r="49" spans="1:9" ht="15.6">
+    <row r="49" spans="1:9" ht="15.75">
       <c r="A49" s="17"/>
       <c r="B49" s="17" t="s">
         <v>21</v>
@@ -12639,7 +12740,7 @@
       </c>
       <c r="I49" s="17"/>
     </row>
-    <row r="50" spans="1:9" ht="15.6">
+    <row r="50" spans="1:9" ht="15.75">
       <c r="A50" s="17"/>
       <c r="B50" s="17" t="s">
         <v>21</v>
@@ -12662,7 +12763,7 @@
       </c>
       <c r="I50" s="17"/>
     </row>
-    <row r="51" spans="1:9" ht="15.6">
+    <row r="51" spans="1:9" ht="15.75">
       <c r="A51" s="17" t="b">
         <v>0</v>
       </c>
@@ -12681,7 +12782,7 @@
       <c r="H51" s="17"/>
       <c r="I51" s="17"/>
     </row>
-    <row r="52" spans="1:9" ht="15.6">
+    <row r="52" spans="1:9" ht="15.75">
       <c r="A52" s="17"/>
       <c r="B52" s="17" t="s">
         <v>21</v>
@@ -12702,7 +12803,7 @@
       <c r="H52" s="17"/>
       <c r="I52" s="17"/>
     </row>
-    <row r="53" spans="1:9" ht="15.6">
+    <row r="53" spans="1:9" ht="15.75">
       <c r="A53" s="17"/>
       <c r="B53" s="17" t="s">
         <v>21</v>
@@ -12725,7 +12826,7 @@
       </c>
       <c r="I53" s="17"/>
     </row>
-    <row r="54" spans="1:9" ht="15.6">
+    <row r="54" spans="1:9" ht="15.75">
       <c r="A54" s="17"/>
       <c r="B54" s="17" t="s">
         <v>21</v>
@@ -12748,7 +12849,7 @@
       </c>
       <c r="I54" s="17"/>
     </row>
-    <row r="55" spans="1:9" ht="15.6">
+    <row r="55" spans="1:9" ht="15.75">
       <c r="A55" s="17"/>
       <c r="B55" s="17" t="s">
         <v>21</v>
@@ -12771,7 +12872,7 @@
       </c>
       <c r="I55" s="17"/>
     </row>
-    <row r="56" spans="1:9" ht="15.6">
+    <row r="56" spans="1:9" ht="15.75">
       <c r="A56" s="17"/>
       <c r="B56" s="17" t="s">
         <v>21</v>
@@ -12794,7 +12895,7 @@
       </c>
       <c r="I56" s="17"/>
     </row>
-    <row r="57" spans="1:9" ht="15.6">
+    <row r="57" spans="1:9" ht="15.75">
       <c r="A57" s="17"/>
       <c r="B57" s="17" t="s">
         <v>21</v>
@@ -12817,7 +12918,7 @@
       </c>
       <c r="I57" s="17"/>
     </row>
-    <row r="58" spans="1:9" ht="15.6">
+    <row r="58" spans="1:9" ht="15.75">
       <c r="A58" s="17"/>
       <c r="B58" s="17" t="s">
         <v>21</v>
@@ -12840,7 +12941,7 @@
       </c>
       <c r="I58" s="17"/>
     </row>
-    <row r="59" spans="1:9" ht="15.6">
+    <row r="59" spans="1:9" ht="15.75">
       <c r="A59" s="17"/>
       <c r="B59" s="17" t="s">
         <v>21</v>
@@ -12863,7 +12964,7 @@
       </c>
       <c r="I59" s="17"/>
     </row>
-    <row r="60" spans="1:9" ht="15.6">
+    <row r="60" spans="1:9" ht="15.75">
       <c r="A60" s="17"/>
       <c r="B60" s="17" t="s">
         <v>21</v>
@@ -12886,7 +12987,7 @@
       </c>
       <c r="I60" s="17"/>
     </row>
-    <row r="61" spans="1:9" ht="15.6">
+    <row r="61" spans="1:9" ht="15.75">
       <c r="A61" s="17" t="b">
         <v>0</v>
       </c>
@@ -12905,7 +13006,7 @@
       <c r="H61" s="17"/>
       <c r="I61" s="17"/>
     </row>
-    <row r="62" spans="1:9" ht="15.6">
+    <row r="62" spans="1:9" ht="15.75">
       <c r="A62" s="17"/>
       <c r="B62" s="17" t="s">
         <v>21</v>
@@ -12926,7 +13027,7 @@
       <c r="H62" s="17"/>
       <c r="I62" s="17"/>
     </row>
-    <row r="63" spans="1:9" ht="15.6">
+    <row r="63" spans="1:9" ht="15.75">
       <c r="A63" s="17"/>
       <c r="B63" s="17" t="s">
         <v>21</v>
@@ -12951,7 +13052,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="15.6">
+    <row r="64" spans="1:9" ht="15.75">
       <c r="A64" s="17"/>
       <c r="B64" s="17" t="s">
         <v>21</v>
@@ -12974,7 +13075,7 @@
       </c>
       <c r="I64" s="17"/>
     </row>
-    <row r="65" spans="1:9" ht="15.6">
+    <row r="65" spans="1:9" ht="15.75">
       <c r="A65" s="17"/>
       <c r="B65" s="17" t="s">
         <v>21</v>
@@ -12997,7 +13098,7 @@
       </c>
       <c r="I65" s="17"/>
     </row>
-    <row r="66" spans="1:9" ht="15.6">
+    <row r="66" spans="1:9" ht="15.75">
       <c r="A66" s="17"/>
       <c r="B66" s="17" t="s">
         <v>21</v>
@@ -13020,7 +13121,7 @@
       </c>
       <c r="I66" s="17"/>
     </row>
-    <row r="67" spans="1:9" ht="15.6">
+    <row r="67" spans="1:9" ht="15.75">
       <c r="A67" s="17"/>
       <c r="B67" s="17" t="s">
         <v>21</v>
@@ -13043,7 +13144,7 @@
       </c>
       <c r="I67" s="17"/>
     </row>
-    <row r="68" spans="1:9" ht="15.6">
+    <row r="68" spans="1:9" ht="15.75">
       <c r="A68" s="17"/>
       <c r="B68" s="17" t="s">
         <v>21</v>
@@ -13066,7 +13167,7 @@
       </c>
       <c r="I68" s="17"/>
     </row>
-    <row r="69" spans="1:9" ht="15.6">
+    <row r="69" spans="1:9" ht="15.75">
       <c r="A69" s="17"/>
       <c r="B69" s="17" t="s">
         <v>21</v>
@@ -13089,7 +13190,7 @@
       </c>
       <c r="I69" s="17"/>
     </row>
-    <row r="70" spans="1:9" ht="15.6">
+    <row r="70" spans="1:9" ht="15.75">
       <c r="A70" s="17"/>
       <c r="B70" s="17" t="s">
         <v>21</v>
@@ -13112,7 +13213,7 @@
       </c>
       <c r="I70" s="17"/>
     </row>
-    <row r="71" spans="1:9" ht="15.6">
+    <row r="71" spans="1:9" ht="15.75">
       <c r="A71" s="17"/>
       <c r="B71" s="17" t="s">
         <v>21</v>
@@ -13135,7 +13236,7 @@
       </c>
       <c r="I71" s="17"/>
     </row>
-    <row r="72" spans="1:9" ht="15.6">
+    <row r="72" spans="1:9" ht="15.75">
       <c r="A72" s="17" t="b">
         <v>0</v>
       </c>
@@ -13154,7 +13255,7 @@
       <c r="H72" s="17"/>
       <c r="I72" s="17"/>
     </row>
-    <row r="73" spans="1:9" ht="15.6">
+    <row r="73" spans="1:9" ht="15.75">
       <c r="A73" s="17"/>
       <c r="B73" s="17" t="s">
         <v>21</v>
@@ -13175,7 +13276,7 @@
       <c r="H73" s="17"/>
       <c r="I73" s="17"/>
     </row>
-    <row r="74" spans="1:9" ht="15.6">
+    <row r="74" spans="1:9" ht="15.75">
       <c r="A74" s="17"/>
       <c r="B74" s="17" t="s">
         <v>21</v>
@@ -13198,7 +13299,7 @@
       </c>
       <c r="I74" s="17"/>
     </row>
-    <row r="75" spans="1:9" ht="15.6">
+    <row r="75" spans="1:9" ht="15.75">
       <c r="A75" s="17"/>
       <c r="B75" s="17" t="s">
         <v>21</v>
@@ -13223,7 +13324,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="15.6">
+    <row r="76" spans="1:9" ht="15.75">
       <c r="A76" s="17"/>
       <c r="B76" s="17" t="s">
         <v>21</v>
@@ -13246,7 +13347,7 @@
       </c>
       <c r="I76" s="17"/>
     </row>
-    <row r="77" spans="1:9" ht="15.6">
+    <row r="77" spans="1:9" ht="15.75">
       <c r="A77" s="17"/>
       <c r="B77" s="17" t="s">
         <v>21</v>
@@ -13269,7 +13370,7 @@
       </c>
       <c r="I77" s="17"/>
     </row>
-    <row r="78" spans="1:9" ht="15.6">
+    <row r="78" spans="1:9" ht="15.75">
       <c r="A78" s="17"/>
       <c r="B78" s="17" t="s">
         <v>21</v>
@@ -13292,7 +13393,7 @@
       </c>
       <c r="I78" s="17"/>
     </row>
-    <row r="79" spans="1:9" ht="15.6">
+    <row r="79" spans="1:9" ht="15.75">
       <c r="A79" s="17"/>
       <c r="B79" s="17" t="s">
         <v>21</v>
@@ -13315,7 +13416,7 @@
       </c>
       <c r="I79" s="17"/>
     </row>
-    <row r="80" spans="1:9" ht="15.6">
+    <row r="80" spans="1:9" ht="15.75">
       <c r="A80" s="17"/>
       <c r="B80" s="17" t="s">
         <v>21</v>
@@ -13338,7 +13439,7 @@
       </c>
       <c r="I80" s="17"/>
     </row>
-    <row r="81" spans="1:9" ht="15.6">
+    <row r="81" spans="1:9" ht="15.75">
       <c r="A81" s="17"/>
       <c r="B81" s="17" t="s">
         <v>21</v>
@@ -13361,7 +13462,7 @@
       </c>
       <c r="I81" s="17"/>
     </row>
-    <row r="82" spans="1:9" ht="15.6">
+    <row r="82" spans="1:9" ht="15.75">
       <c r="A82" s="17"/>
       <c r="B82" s="17" t="s">
         <v>21</v>
@@ -13384,7 +13485,7 @@
       </c>
       <c r="I82" s="17"/>
     </row>
-    <row r="83" spans="1:9" ht="15.6">
+    <row r="83" spans="1:9" ht="15.75">
       <c r="A83" s="17"/>
       <c r="B83" s="17" t="s">
         <v>21</v>
@@ -13407,7 +13508,7 @@
       </c>
       <c r="I83" s="17"/>
     </row>
-    <row r="84" spans="1:9" ht="15.6">
+    <row r="84" spans="1:9" ht="15.75">
       <c r="A84" s="17"/>
       <c r="B84" s="17" t="s">
         <v>21</v>
@@ -13430,7 +13531,7 @@
       </c>
       <c r="I84" s="17"/>
     </row>
-    <row r="85" spans="1:9" ht="15.6">
+    <row r="85" spans="1:9" ht="15.75">
       <c r="A85" s="17"/>
       <c r="B85" s="17" t="s">
         <v>21</v>
@@ -13453,7 +13554,7 @@
       </c>
       <c r="I85" s="17"/>
     </row>
-    <row r="86" spans="1:9" ht="15.6">
+    <row r="86" spans="1:9" ht="15.75">
       <c r="A86" s="17" t="b">
         <v>0</v>
       </c>
@@ -13472,7 +13573,7 @@
       <c r="H86" s="17"/>
       <c r="I86" s="17"/>
     </row>
-    <row r="87" spans="1:9" ht="15.6">
+    <row r="87" spans="1:9" ht="15.75">
       <c r="A87" s="17"/>
       <c r="B87" s="17" t="s">
         <v>21</v>
@@ -13495,7 +13596,7 @@
       </c>
       <c r="I87" s="17"/>
     </row>
-    <row r="88" spans="1:9" ht="15.6">
+    <row r="88" spans="1:9" ht="15.75">
       <c r="A88" s="17"/>
       <c r="B88" s="17" t="s">
         <v>21</v>
@@ -13518,7 +13619,7 @@
       </c>
       <c r="I88" s="17"/>
     </row>
-    <row r="89" spans="1:9" ht="15.6">
+    <row r="89" spans="1:9" ht="15.75">
       <c r="A89" s="17"/>
       <c r="B89" s="17" t="s">
         <v>21</v>
@@ -13541,7 +13642,7 @@
       </c>
       <c r="I89" s="17"/>
     </row>
-    <row r="90" spans="1:9" ht="15.6">
+    <row r="90" spans="1:9" ht="15.75">
       <c r="A90" s="17"/>
       <c r="B90" s="17" t="s">
         <v>21</v>
@@ -13564,7 +13665,7 @@
       </c>
       <c r="I90" s="17"/>
     </row>
-    <row r="91" spans="1:9" ht="15.6">
+    <row r="91" spans="1:9" ht="15.75">
       <c r="A91" s="17"/>
       <c r="B91" s="17" t="s">
         <v>21</v>
@@ -13587,7 +13688,7 @@
       </c>
       <c r="I91" s="17"/>
     </row>
-    <row r="92" spans="1:9" ht="15.6">
+    <row r="92" spans="1:9" ht="15.75">
       <c r="A92" s="17"/>
       <c r="B92" s="17" t="s">
         <v>21</v>
@@ -13610,7 +13711,7 @@
       </c>
       <c r="I92" s="17"/>
     </row>
-    <row r="93" spans="1:9" ht="15.6">
+    <row r="93" spans="1:9" ht="15.75">
       <c r="A93" s="17"/>
       <c r="B93" s="17" t="s">
         <v>21</v>
@@ -13633,7 +13734,7 @@
       </c>
       <c r="I93" s="17"/>
     </row>
-    <row r="94" spans="1:9" ht="15.6">
+    <row r="94" spans="1:9" ht="15.75">
       <c r="A94" s="17"/>
       <c r="B94" s="17" t="s">
         <v>21</v>
@@ -13656,7 +13757,7 @@
       </c>
       <c r="I94" s="17"/>
     </row>
-    <row r="95" spans="1:9" ht="15.6">
+    <row r="95" spans="1:9" ht="15.75">
       <c r="A95" s="17"/>
       <c r="B95" s="17" t="s">
         <v>21</v>
@@ -13679,7 +13780,7 @@
       </c>
       <c r="I95" s="17"/>
     </row>
-    <row r="96" spans="1:9" ht="15.6">
+    <row r="96" spans="1:9" ht="15.75">
       <c r="A96" s="17"/>
       <c r="B96" s="17" t="s">
         <v>21</v>
@@ -13702,7 +13803,7 @@
       </c>
       <c r="I96" s="17"/>
     </row>
-    <row r="97" spans="1:9" ht="15.6">
+    <row r="97" spans="1:9" ht="15.75">
       <c r="A97" s="17" t="b">
         <v>0</v>
       </c>
@@ -13721,7 +13822,7 @@
       <c r="H97" s="17"/>
       <c r="I97" s="17"/>
     </row>
-    <row r="98" spans="1:9" ht="15.6">
+    <row r="98" spans="1:9" ht="15.75">
       <c r="A98" s="17"/>
       <c r="B98" s="17" t="s">
         <v>21</v>
@@ -13746,7 +13847,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="15.6">
+    <row r="99" spans="1:9" ht="15.75">
       <c r="A99" s="17" t="b">
         <v>0</v>
       </c>
@@ -13765,7 +13866,7 @@
       <c r="H99" s="17"/>
       <c r="I99" s="17"/>
     </row>
-    <row r="100" spans="1:9" ht="15.6">
+    <row r="100" spans="1:9" ht="15.75">
       <c r="A100" s="17"/>
       <c r="B100" s="17" t="s">
         <v>21</v>
@@ -13786,7 +13887,7 @@
       <c r="H100" s="17"/>
       <c r="I100" s="17"/>
     </row>
-    <row r="101" spans="1:9" ht="15.6">
+    <row r="101" spans="1:9" ht="15.75">
       <c r="A101" s="17"/>
       <c r="B101" s="17" t="s">
         <v>21</v>
@@ -13811,7 +13912,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="15.6">
+    <row r="102" spans="1:9" ht="15.75">
       <c r="A102" s="17" t="b">
         <v>0</v>
       </c>
@@ -13830,7 +13931,7 @@
       <c r="H102" s="17"/>
       <c r="I102" s="17"/>
     </row>
-    <row r="103" spans="1:9" ht="15.6">
+    <row r="103" spans="1:9" ht="15.75">
       <c r="A103" s="17"/>
       <c r="B103" s="17" t="s">
         <v>21</v>
@@ -13853,7 +13954,7 @@
       </c>
       <c r="I103" s="17"/>
     </row>
-    <row r="104" spans="1:9" ht="15.6">
+    <row r="104" spans="1:9" ht="15.75">
       <c r="A104" s="17"/>
       <c r="B104" s="17" t="s">
         <v>21</v>
@@ -13878,7 +13979,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="15.6">
+    <row r="105" spans="1:9" ht="15.75">
       <c r="A105" s="17"/>
       <c r="B105" s="17" t="s">
         <v>21</v>
@@ -13901,7 +14002,7 @@
       </c>
       <c r="I105" s="17"/>
     </row>
-    <row r="106" spans="1:9" ht="15.6">
+    <row r="106" spans="1:9" ht="15.75">
       <c r="A106" s="17"/>
       <c r="B106" s="17" t="s">
         <v>21</v>
@@ -13922,7 +14023,7 @@
       <c r="H106" s="17"/>
       <c r="I106" s="17"/>
     </row>
-    <row r="107" spans="1:9" ht="15.6">
+    <row r="107" spans="1:9" ht="15.75">
       <c r="A107" s="17" t="b">
         <v>0</v>
       </c>
@@ -13941,7 +14042,7 @@
       <c r="H107" s="17"/>
       <c r="I107" s="17"/>
     </row>
-    <row r="108" spans="1:9" ht="15.6">
+    <row r="108" spans="1:9" ht="15.75">
       <c r="A108" s="17"/>
       <c r="B108" s="17" t="s">
         <v>21</v>
@@ -13966,7 +14067,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="15.6">
+    <row r="109" spans="1:9" ht="15.75">
       <c r="A109" s="17"/>
       <c r="B109" s="17" t="s">
         <v>21</v>
@@ -13989,7 +14090,7 @@
       </c>
       <c r="I109" s="17"/>
     </row>
-    <row r="110" spans="1:9" ht="15.6">
+    <row r="110" spans="1:9" ht="15.75">
       <c r="A110" s="17"/>
       <c r="B110" s="17" t="s">
         <v>21</v>
@@ -14012,7 +14113,7 @@
       </c>
       <c r="I110" s="17"/>
     </row>
-    <row r="111" spans="1:9" ht="15.6">
+    <row r="111" spans="1:9" ht="15.75">
       <c r="A111" s="17"/>
       <c r="B111" s="17" t="s">
         <v>21</v>
@@ -14035,7 +14136,7 @@
       </c>
       <c r="I111" s="17"/>
     </row>
-    <row r="112" spans="1:9" ht="15.6">
+    <row r="112" spans="1:9" ht="15.75">
       <c r="A112" s="17"/>
       <c r="B112" s="17" t="s">
         <v>21</v>
@@ -14058,7 +14159,7 @@
       </c>
       <c r="I112" s="17"/>
     </row>
-    <row r="113" spans="1:9" ht="15.6">
+    <row r="113" spans="1:9" ht="15.75">
       <c r="A113" s="17"/>
       <c r="B113" s="17" t="s">
         <v>21</v>
@@ -14081,7 +14182,7 @@
       </c>
       <c r="I113" s="17"/>
     </row>
-    <row r="114" spans="1:9" ht="15.6">
+    <row r="114" spans="1:9" ht="15.75">
       <c r="A114" s="17"/>
       <c r="B114" s="17" t="s">
         <v>21</v>
@@ -14104,7 +14205,7 @@
       </c>
       <c r="I114" s="17"/>
     </row>
-    <row r="115" spans="1:9" ht="15.6">
+    <row r="115" spans="1:9" ht="15.75">
       <c r="A115" s="17" t="b">
         <v>0</v>
       </c>
@@ -14123,7 +14224,7 @@
       <c r="H115" s="17"/>
       <c r="I115" s="17"/>
     </row>
-    <row r="116" spans="1:9" ht="15.6">
+    <row r="116" spans="1:9" ht="15.75">
       <c r="A116" s="17"/>
       <c r="B116" s="17" t="s">
         <v>21</v>
@@ -14146,7 +14247,7 @@
       </c>
       <c r="I116" s="17"/>
     </row>
-    <row r="117" spans="1:9" ht="15.6">
+    <row r="117" spans="1:9" ht="15.75">
       <c r="A117" s="17"/>
       <c r="B117" s="17" t="s">
         <v>21</v>
@@ -14169,7 +14270,7 @@
       </c>
       <c r="I117" s="17"/>
     </row>
-    <row r="118" spans="1:9" ht="15.6">
+    <row r="118" spans="1:9" ht="15.75">
       <c r="A118" s="17"/>
       <c r="B118" s="17" t="s">
         <v>21</v>
@@ -14192,7 +14293,7 @@
       </c>
       <c r="I118" s="17"/>
     </row>
-    <row r="119" spans="1:9" ht="15.6">
+    <row r="119" spans="1:9" ht="15.75">
       <c r="A119" s="17" t="b">
         <v>0</v>
       </c>
@@ -14211,7 +14312,7 @@
       <c r="H119" s="17"/>
       <c r="I119" s="17"/>
     </row>
-    <row r="120" spans="1:9" ht="15.6">
+    <row r="120" spans="1:9" ht="15.75">
       <c r="A120" s="17"/>
       <c r="B120" s="17" t="s">
         <v>21</v>
@@ -14234,7 +14335,7 @@
       </c>
       <c r="I120" s="17"/>
     </row>
-    <row r="121" spans="1:9" ht="15.6">
+    <row r="121" spans="1:9" ht="15.75">
       <c r="A121" s="17"/>
       <c r="B121" s="17" t="s">
         <v>21</v>
@@ -14257,7 +14358,7 @@
       </c>
       <c r="I121" s="17"/>
     </row>
-    <row r="122" spans="1:9" ht="15.6">
+    <row r="122" spans="1:9" ht="15.75">
       <c r="A122" s="17"/>
       <c r="B122" s="17" t="s">
         <v>21</v>
@@ -14280,7 +14381,7 @@
       </c>
       <c r="I122" s="17"/>
     </row>
-    <row r="123" spans="1:9" ht="15.6">
+    <row r="123" spans="1:9" ht="15.75">
       <c r="A123" s="17"/>
       <c r="B123" s="17" t="s">
         <v>21</v>
@@ -14303,7 +14404,7 @@
       </c>
       <c r="I123" s="17"/>
     </row>
-    <row r="124" spans="1:9" ht="15.6">
+    <row r="124" spans="1:9" ht="15.75">
       <c r="A124" s="17"/>
       <c r="B124" s="17" t="s">
         <v>21</v>
@@ -14326,7 +14427,7 @@
       </c>
       <c r="I124" s="17"/>
     </row>
-    <row r="125" spans="1:9" ht="15.6">
+    <row r="125" spans="1:9" ht="15.75">
       <c r="A125" s="17"/>
       <c r="B125" s="17" t="s">
         <v>21</v>
@@ -14349,7 +14450,7 @@
       </c>
       <c r="I125" s="17"/>
     </row>
-    <row r="126" spans="1:9" ht="15.6">
+    <row r="126" spans="1:9" ht="15.75">
       <c r="A126" s="17" t="b">
         <v>0</v>
       </c>
@@ -14368,7 +14469,7 @@
       <c r="H126" s="17"/>
       <c r="I126" s="17"/>
     </row>
-    <row r="127" spans="1:9" ht="15.6">
+    <row r="127" spans="1:9" ht="15.75">
       <c r="A127" s="17"/>
       <c r="B127" s="17" t="s">
         <v>21</v>
@@ -14393,7 +14494,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="128" spans="1:9" ht="15.6">
+    <row r="128" spans="1:9" ht="15.75">
       <c r="A128" s="17"/>
       <c r="B128" s="17" t="s">
         <v>21</v>
@@ -14416,7 +14517,7 @@
       </c>
       <c r="I128" s="17"/>
     </row>
-    <row r="129" spans="1:9" ht="15.6">
+    <row r="129" spans="1:9" ht="15.75">
       <c r="A129" s="17"/>
       <c r="B129" s="17" t="s">
         <v>21</v>
@@ -14439,7 +14540,7 @@
       </c>
       <c r="I129" s="17"/>
     </row>
-    <row r="130" spans="1:9" ht="15.6">
+    <row r="130" spans="1:9" ht="15.75">
       <c r="A130" s="17"/>
       <c r="B130" s="17" t="s">
         <v>21</v>
@@ -14462,7 +14563,7 @@
       </c>
       <c r="I130" s="17"/>
     </row>
-    <row r="131" spans="1:9" ht="15.6">
+    <row r="131" spans="1:9" ht="15.75">
       <c r="A131" s="17"/>
       <c r="B131" s="17" t="s">
         <v>21</v>
@@ -14485,7 +14586,7 @@
       </c>
       <c r="I131" s="17"/>
     </row>
-    <row r="132" spans="1:9" ht="15.6">
+    <row r="132" spans="1:9" ht="15.75">
       <c r="A132" s="17"/>
       <c r="B132" s="17" t="s">
         <v>21</v>
@@ -14508,7 +14609,7 @@
       </c>
       <c r="I132" s="17"/>
     </row>
-    <row r="133" spans="1:9" ht="15.6">
+    <row r="133" spans="1:9" ht="15.75">
       <c r="A133" s="17"/>
       <c r="B133" s="17" t="s">
         <v>21</v>
@@ -14531,7 +14632,7 @@
       </c>
       <c r="I133" s="17"/>
     </row>
-    <row r="134" spans="1:9" ht="15.6">
+    <row r="134" spans="1:9" ht="15.75">
       <c r="A134" s="17"/>
       <c r="B134" s="17" t="s">
         <v>21</v>
@@ -14554,7 +14655,7 @@
       </c>
       <c r="I134" s="17"/>
     </row>
-    <row r="135" spans="1:9" ht="15.6">
+    <row r="135" spans="1:9" ht="15.75">
       <c r="A135" s="17"/>
       <c r="B135" s="17" t="s">
         <v>21</v>
@@ -14577,7 +14678,7 @@
       </c>
       <c r="I135" s="17"/>
     </row>
-    <row r="136" spans="1:9" ht="15.6">
+    <row r="136" spans="1:9" ht="15.75">
       <c r="A136" s="17" t="b">
         <v>0</v>
       </c>
@@ -14596,7 +14697,7 @@
       <c r="H136" s="17"/>
       <c r="I136" s="17"/>
     </row>
-    <row r="137" spans="1:9" ht="15.6">
+    <row r="137" spans="1:9" ht="15.75">
       <c r="A137" s="17"/>
       <c r="B137" s="17" t="s">
         <v>21</v>
@@ -14621,7 +14722,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="138" spans="1:9" ht="15.6">
+    <row r="138" spans="1:9" ht="15.75">
       <c r="A138" s="17"/>
       <c r="B138" s="17" t="s">
         <v>21</v>
@@ -14642,7 +14743,7 @@
       <c r="H138" s="17"/>
       <c r="I138" s="17"/>
     </row>
-    <row r="139" spans="1:9" ht="15.6">
+    <row r="139" spans="1:9" ht="15.75">
       <c r="A139" s="17"/>
       <c r="B139" s="17" t="s">
         <v>21</v>
@@ -14665,7 +14766,7 @@
       </c>
       <c r="I139" s="17"/>
     </row>
-    <row r="140" spans="1:9" ht="15.6">
+    <row r="140" spans="1:9" ht="15.75">
       <c r="A140" s="17"/>
       <c r="B140" s="17" t="s">
         <v>21</v>
@@ -14688,7 +14789,7 @@
       </c>
       <c r="I140" s="17"/>
     </row>
-    <row r="141" spans="1:9" ht="15.6">
+    <row r="141" spans="1:9" ht="15.75">
       <c r="A141" s="17"/>
       <c r="B141" s="17" t="s">
         <v>21</v>
@@ -14711,7 +14812,7 @@
       </c>
       <c r="I141" s="17"/>
     </row>
-    <row r="142" spans="1:9" ht="15.6">
+    <row r="142" spans="1:9" ht="15.75">
       <c r="A142" s="17"/>
       <c r="B142" s="17" t="s">
         <v>21</v>
@@ -14734,7 +14835,7 @@
       </c>
       <c r="I142" s="17"/>
     </row>
-    <row r="143" spans="1:9" ht="15.6">
+    <row r="143" spans="1:9" ht="15.75">
       <c r="A143" s="17"/>
       <c r="B143" s="17" t="s">
         <v>21</v>
@@ -14757,7 +14858,7 @@
       </c>
       <c r="I143" s="17"/>
     </row>
-    <row r="144" spans="1:9" ht="15.6">
+    <row r="144" spans="1:9" ht="15.75">
       <c r="A144" s="17"/>
       <c r="B144" s="17" t="s">
         <v>21</v>
@@ -14780,7 +14881,7 @@
       </c>
       <c r="I144" s="17"/>
     </row>
-    <row r="145" spans="1:9" ht="15.6">
+    <row r="145" spans="1:9" ht="15.75">
       <c r="A145" s="17"/>
       <c r="B145" s="17" t="s">
         <v>21</v>
@@ -14803,7 +14904,7 @@
       </c>
       <c r="I145" s="17"/>
     </row>
-    <row r="146" spans="1:9" ht="15.6">
+    <row r="146" spans="1:9" ht="15.75">
       <c r="A146" s="17"/>
       <c r="B146" s="17" t="s">
         <v>21</v>
@@ -14826,7 +14927,7 @@
       </c>
       <c r="I146" s="17"/>
     </row>
-    <row r="147" spans="1:9" ht="15.6">
+    <row r="147" spans="1:9" ht="15.75">
       <c r="A147" s="17"/>
       <c r="B147" s="17" t="s">
         <v>21</v>
@@ -14849,7 +14950,7 @@
       </c>
       <c r="I147" s="17"/>
     </row>
-    <row r="148" spans="1:9" ht="15.6">
+    <row r="148" spans="1:9" ht="15.75">
       <c r="A148" s="17"/>
       <c r="B148" s="17" t="s">
         <v>21</v>
@@ -14872,7 +14973,7 @@
       </c>
       <c r="I148" s="17"/>
     </row>
-    <row r="149" spans="1:9" ht="15.6">
+    <row r="149" spans="1:9" ht="15.75">
       <c r="A149" s="17"/>
       <c r="B149" s="17" t="s">
         <v>21</v>
@@ -14895,7 +14996,7 @@
       </c>
       <c r="I149" s="17"/>
     </row>
-    <row r="150" spans="1:9" ht="15.6">
+    <row r="150" spans="1:9" ht="15.75">
       <c r="A150" s="17"/>
       <c r="B150" s="17" t="s">
         <v>21</v>
@@ -14918,7 +15019,7 @@
       </c>
       <c r="I150" s="17"/>
     </row>
-    <row r="151" spans="1:9" ht="15.6">
+    <row r="151" spans="1:9" ht="15.75">
       <c r="A151" s="17" t="b">
         <v>0</v>
       </c>
@@ -14937,7 +15038,7 @@
       <c r="H151" s="17"/>
       <c r="I151" s="17"/>
     </row>
-    <row r="152" spans="1:9" ht="15.6">
+    <row r="152" spans="1:9" ht="15.75">
       <c r="A152" s="17"/>
       <c r="B152" s="17" t="s">
         <v>21</v>
@@ -14960,7 +15061,7 @@
       </c>
       <c r="I152" s="17"/>
     </row>
-    <row r="153" spans="1:9" ht="15.6">
+    <row r="153" spans="1:9" ht="15.75">
       <c r="A153" s="17" t="b">
         <v>0</v>
       </c>
@@ -14979,7 +15080,7 @@
       <c r="H153" s="17"/>
       <c r="I153" s="17"/>
     </row>
-    <row r="154" spans="1:9" ht="15.6">
+    <row r="154" spans="1:9" ht="15.75">
       <c r="A154" s="17"/>
       <c r="B154" s="17" t="s">
         <v>21</v>
@@ -15002,7 +15103,7 @@
       </c>
       <c r="I154" s="17"/>
     </row>
-    <row r="155" spans="1:9" ht="15.6">
+    <row r="155" spans="1:9" ht="15.75">
       <c r="A155" s="17"/>
       <c r="B155" s="17" t="s">
         <v>21</v>
@@ -15025,7 +15126,7 @@
       </c>
       <c r="I155" s="17"/>
     </row>
-    <row r="156" spans="1:9" ht="15.6">
+    <row r="156" spans="1:9" ht="15.75">
       <c r="A156" s="17" t="b">
         <v>0</v>
       </c>
@@ -15044,7 +15145,7 @@
       <c r="H156" s="17"/>
       <c r="I156" s="17"/>
     </row>
-    <row r="157" spans="1:9" ht="15.6">
+    <row r="157" spans="1:9" ht="15.75">
       <c r="A157" s="17"/>
       <c r="B157" s="17" t="s">
         <v>21</v>
@@ -15069,7 +15170,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="158" spans="1:9" ht="15.6">
+    <row r="158" spans="1:9" ht="15.75">
       <c r="A158" s="17"/>
       <c r="B158" s="17" t="s">
         <v>21</v>
@@ -15092,7 +15193,7 @@
       </c>
       <c r="I158" s="17"/>
     </row>
-    <row r="159" spans="1:9" ht="15.6">
+    <row r="159" spans="1:9" ht="15.75">
       <c r="A159" s="17"/>
       <c r="B159" s="17" t="s">
         <v>21</v>
@@ -15115,7 +15216,7 @@
       </c>
       <c r="I159" s="17"/>
     </row>
-    <row r="160" spans="1:9" ht="15.6">
+    <row r="160" spans="1:9" ht="15.75">
       <c r="A160" s="17"/>
       <c r="B160" s="17" t="s">
         <v>21</v>
@@ -15138,7 +15239,7 @@
       </c>
       <c r="I160" s="17"/>
     </row>
-    <row r="161" spans="1:9" ht="15.6">
+    <row r="161" spans="1:9" ht="15.75">
       <c r="A161" s="17"/>
       <c r="B161" s="17" t="s">
         <v>21</v>
@@ -15161,7 +15262,7 @@
       </c>
       <c r="I161" s="17"/>
     </row>
-    <row r="162" spans="1:9" ht="15.6">
+    <row r="162" spans="1:9" ht="15.75">
       <c r="A162" s="17"/>
       <c r="B162" s="17" t="s">
         <v>21</v>
@@ -15184,7 +15285,7 @@
       </c>
       <c r="I162" s="17"/>
     </row>
-    <row r="163" spans="1:9" ht="15.6">
+    <row r="163" spans="1:9" ht="15.75">
       <c r="A163" s="17"/>
       <c r="B163" s="17" t="s">
         <v>21</v>
@@ -15207,7 +15308,7 @@
       </c>
       <c r="I163" s="17"/>
     </row>
-    <row r="164" spans="1:9" ht="15.6">
+    <row r="164" spans="1:9" ht="15.75">
       <c r="A164" s="17"/>
       <c r="B164" s="17" t="s">
         <v>21</v>
@@ -15230,7 +15331,7 @@
       </c>
       <c r="I164" s="17"/>
     </row>
-    <row r="165" spans="1:9" ht="15.6">
+    <row r="165" spans="1:9" ht="15.75">
       <c r="A165" s="17"/>
       <c r="B165" s="17" t="s">
         <v>21</v>
@@ -15253,7 +15354,7 @@
       </c>
       <c r="I165" s="17"/>
     </row>
-    <row r="166" spans="1:9" ht="15.6">
+    <row r="166" spans="1:9" ht="15.75">
       <c r="A166" s="17"/>
       <c r="B166" s="17" t="s">
         <v>21</v>
@@ -15276,7 +15377,7 @@
       </c>
       <c r="I166" s="17"/>
     </row>
-    <row r="167" spans="1:9" ht="15.6">
+    <row r="167" spans="1:9" ht="15.75">
       <c r="A167" s="17" t="b">
         <v>0</v>
       </c>
@@ -15295,7 +15396,7 @@
       <c r="H167" s="17"/>
       <c r="I167" s="17"/>
     </row>
-    <row r="168" spans="1:9" ht="15.6">
+    <row r="168" spans="1:9" ht="15.75">
       <c r="A168" s="17"/>
       <c r="B168" s="17" t="s">
         <v>21</v>
@@ -15320,7 +15421,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="169" spans="1:9" ht="15.6">
+    <row r="169" spans="1:9" ht="15.75">
       <c r="A169" s="17"/>
       <c r="B169" s="17" t="s">
         <v>21</v>
@@ -15343,7 +15444,7 @@
       </c>
       <c r="I169" s="17"/>
     </row>
-    <row r="170" spans="1:9" ht="15.6">
+    <row r="170" spans="1:9" ht="15.75">
       <c r="A170" s="17"/>
       <c r="B170" s="17" t="s">
         <v>21</v>
@@ -15366,7 +15467,7 @@
       </c>
       <c r="I170" s="17"/>
     </row>
-    <row r="171" spans="1:9" ht="15.6">
+    <row r="171" spans="1:9" ht="15.75">
       <c r="A171" s="17"/>
       <c r="B171" s="17" t="s">
         <v>21</v>
@@ -15389,7 +15490,7 @@
       </c>
       <c r="I171" s="17"/>
     </row>
-    <row r="172" spans="1:9" ht="15.6">
+    <row r="172" spans="1:9" ht="15.75">
       <c r="A172" s="17"/>
       <c r="B172" s="17" t="s">
         <v>21</v>
@@ -15412,7 +15513,7 @@
       </c>
       <c r="I172" s="17"/>
     </row>
-    <row r="173" spans="1:9" ht="15.6">
+    <row r="173" spans="1:9" ht="15.75">
       <c r="A173" s="17"/>
       <c r="B173" s="17" t="s">
         <v>21</v>
@@ -15435,7 +15536,7 @@
       </c>
       <c r="I173" s="17"/>
     </row>
-    <row r="174" spans="1:9" ht="15.6">
+    <row r="174" spans="1:9" ht="15.75">
       <c r="A174" s="17"/>
       <c r="B174" s="17" t="s">
         <v>21</v>
@@ -15458,7 +15559,7 @@
       </c>
       <c r="I174" s="17"/>
     </row>
-    <row r="175" spans="1:9" ht="15.6">
+    <row r="175" spans="1:9" ht="15.75">
       <c r="A175" s="17"/>
       <c r="B175" s="17" t="s">
         <v>21</v>
@@ -15481,7 +15582,7 @@
       </c>
       <c r="I175" s="17"/>
     </row>
-    <row r="176" spans="1:9" ht="15.6">
+    <row r="176" spans="1:9" ht="15.75">
       <c r="A176" s="17"/>
       <c r="B176" s="17" t="s">
         <v>21</v>
@@ -15504,7 +15605,7 @@
       </c>
       <c r="I176" s="17"/>
     </row>
-    <row r="177" spans="1:9" ht="15.6">
+    <row r="177" spans="1:9" ht="15.75">
       <c r="A177" s="17"/>
       <c r="B177" s="17" t="s">
         <v>21</v>
@@ -15527,7 +15628,7 @@
       </c>
       <c r="I177" s="17"/>
     </row>
-    <row r="178" spans="1:9" ht="15.6">
+    <row r="178" spans="1:9" ht="15.75">
       <c r="A178" s="17" t="b">
         <v>0</v>
       </c>
@@ -15546,7 +15647,7 @@
       <c r="H178" s="17"/>
       <c r="I178" s="17"/>
     </row>
-    <row r="179" spans="1:9" ht="15.6">
+    <row r="179" spans="1:9" ht="15.75">
       <c r="A179" s="17"/>
       <c r="B179" s="17" t="s">
         <v>21</v>
@@ -15569,7 +15670,7 @@
       </c>
       <c r="I179" s="17"/>
     </row>
-    <row r="180" spans="1:9" ht="15.6">
+    <row r="180" spans="1:9" ht="15.75">
       <c r="A180" s="17"/>
       <c r="B180" s="17" t="s">
         <v>21</v>
@@ -15592,7 +15693,7 @@
       </c>
       <c r="I180" s="17"/>
     </row>
-    <row r="181" spans="1:9" ht="15.6">
+    <row r="181" spans="1:9" ht="15.75">
       <c r="A181" s="17"/>
       <c r="B181" s="17" t="s">
         <v>21</v>
@@ -15615,7 +15716,7 @@
       </c>
       <c r="I181" s="17"/>
     </row>
-    <row r="182" spans="1:9" ht="15.6">
+    <row r="182" spans="1:9" ht="15.75">
       <c r="A182" s="17"/>
       <c r="B182" s="17" t="s">
         <v>21</v>
@@ -15638,7 +15739,7 @@
       </c>
       <c r="I182" s="17"/>
     </row>
-    <row r="183" spans="1:9" ht="15.6">
+    <row r="183" spans="1:9" ht="15.75">
       <c r="A183" s="17" t="b">
         <v>0</v>
       </c>
@@ -15657,7 +15758,7 @@
       <c r="H183" s="17"/>
       <c r="I183" s="17"/>
     </row>
-    <row r="184" spans="1:9" ht="15.6">
+    <row r="184" spans="1:9" ht="15.75">
       <c r="A184" s="17"/>
       <c r="B184" s="17" t="s">
         <v>21</v>
@@ -15680,7 +15781,7 @@
       </c>
       <c r="I184" s="17"/>
     </row>
-    <row r="185" spans="1:9" ht="15.6">
+    <row r="185" spans="1:9" ht="15.75">
       <c r="A185" s="17"/>
       <c r="B185" s="17" t="s">
         <v>21</v>
@@ -15703,7 +15804,7 @@
       </c>
       <c r="I185" s="17"/>
     </row>
-    <row r="186" spans="1:9" ht="15.6">
+    <row r="186" spans="1:9" ht="15.75">
       <c r="A186" s="17"/>
       <c r="B186" s="17" t="s">
         <v>21</v>
@@ -15726,7 +15827,7 @@
       </c>
       <c r="I186" s="17"/>
     </row>
-    <row r="187" spans="1:9" ht="15.6">
+    <row r="187" spans="1:9" ht="15.75">
       <c r="A187" s="17"/>
       <c r="B187" s="17" t="s">
         <v>21</v>
@@ -15749,7 +15850,7 @@
       </c>
       <c r="I187" s="17"/>
     </row>
-    <row r="188" spans="1:9" ht="15.6">
+    <row r="188" spans="1:9" ht="15.75">
       <c r="A188" s="17" t="b">
         <v>0</v>
       </c>
@@ -15768,7 +15869,7 @@
       <c r="H188" s="17"/>
       <c r="I188" s="17"/>
     </row>
-    <row r="189" spans="1:9" ht="15.6">
+    <row r="189" spans="1:9" ht="15.75">
       <c r="A189" s="17"/>
       <c r="B189" s="17" t="s">
         <v>21</v>
@@ -15789,7 +15890,7 @@
       <c r="H189" s="17"/>
       <c r="I189" s="17"/>
     </row>
-    <row r="190" spans="1:9" ht="15.6">
+    <row r="190" spans="1:9" ht="15.75">
       <c r="A190" s="17"/>
       <c r="B190" s="17" t="s">
         <v>21</v>
@@ -15812,7 +15913,7 @@
       </c>
       <c r="I190" s="17"/>
     </row>
-    <row r="191" spans="1:9" ht="15.6">
+    <row r="191" spans="1:9" ht="15.75">
       <c r="A191" s="17" t="b">
         <v>0</v>
       </c>
@@ -15831,7 +15932,7 @@
       <c r="H191" s="17"/>
       <c r="I191" s="17"/>
     </row>
-    <row r="192" spans="1:9" ht="15.6">
+    <row r="192" spans="1:9" ht="15.75">
       <c r="A192" s="17"/>
       <c r="B192" s="17" t="s">
         <v>21</v>
@@ -15854,7 +15955,7 @@
       </c>
       <c r="I192" s="17"/>
     </row>
-    <row r="193" spans="1:9" ht="15.6">
+    <row r="193" spans="1:9" ht="15.75">
       <c r="A193" s="17"/>
       <c r="B193" s="17" t="s">
         <v>21</v>
@@ -15879,7 +15980,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="194" spans="1:9" ht="15.6">
+    <row r="194" spans="1:9" ht="15.75">
       <c r="A194" s="17"/>
       <c r="B194" s="17" t="s">
         <v>21</v>
@@ -15900,7 +16001,7 @@
       <c r="H194" s="17"/>
       <c r="I194" s="17"/>
     </row>
-    <row r="195" spans="1:9" ht="15.6">
+    <row r="195" spans="1:9" ht="15.75">
       <c r="A195" s="17"/>
       <c r="B195" s="17" t="s">
         <v>21</v>
@@ -15925,7 +16026,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="196" spans="1:9" ht="15.6">
+    <row r="196" spans="1:9" ht="15.75">
       <c r="A196" s="17"/>
       <c r="B196" s="17" t="s">
         <v>21</v>
@@ -15950,7 +16051,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="197" spans="1:9" ht="15.6">
+    <row r="197" spans="1:9" ht="15.75">
       <c r="A197" s="17" t="b">
         <v>0</v>
       </c>
@@ -15969,7 +16070,7 @@
       <c r="H197" s="17"/>
       <c r="I197" s="17"/>
     </row>
-    <row r="198" spans="1:9" ht="15.6">
+    <row r="198" spans="1:9" ht="15.75">
       <c r="A198" s="17"/>
       <c r="B198" s="17" t="s">
         <v>21</v>
@@ -15994,7 +16095,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="199" spans="1:9" ht="15.6">
+    <row r="199" spans="1:9" ht="15.75">
       <c r="A199" s="17"/>
       <c r="B199" s="17" t="s">
         <v>21</v>
@@ -16017,7 +16118,7 @@
       </c>
       <c r="I199" s="17"/>
     </row>
-    <row r="200" spans="1:9" ht="15.6">
+    <row r="200" spans="1:9" ht="15.75">
       <c r="A200" s="17"/>
       <c r="B200" s="17" t="s">
         <v>21</v>
@@ -16040,7 +16141,7 @@
       </c>
       <c r="I200" s="17"/>
     </row>
-    <row r="201" spans="1:9" ht="15.6">
+    <row r="201" spans="1:9" ht="15.75">
       <c r="A201" s="17"/>
       <c r="B201" s="17" t="s">
         <v>21</v>
@@ -16063,7 +16164,7 @@
       </c>
       <c r="I201" s="17"/>
     </row>
-    <row r="202" spans="1:9" ht="15.6">
+    <row r="202" spans="1:9" ht="15.75">
       <c r="A202" s="17"/>
       <c r="B202" s="17" t="s">
         <v>21</v>
@@ -16086,7 +16187,7 @@
       </c>
       <c r="I202" s="17"/>
     </row>
-    <row r="203" spans="1:9" ht="15.6">
+    <row r="203" spans="1:9" ht="15.75">
       <c r="A203" s="17"/>
       <c r="B203" s="17" t="s">
         <v>21</v>
@@ -16109,7 +16210,7 @@
       </c>
       <c r="I203" s="17"/>
     </row>
-    <row r="204" spans="1:9" ht="15.6">
+    <row r="204" spans="1:9" ht="15.75">
       <c r="A204" s="17"/>
       <c r="B204" s="17" t="s">
         <v>21</v>
@@ -16132,7 +16233,7 @@
       </c>
       <c r="I204" s="17"/>
     </row>
-    <row r="205" spans="1:9" ht="15.6">
+    <row r="205" spans="1:9" ht="15.75">
       <c r="A205" s="17"/>
       <c r="B205" s="17" t="s">
         <v>21</v>
@@ -16155,7 +16256,7 @@
       </c>
       <c r="I205" s="17"/>
     </row>
-    <row r="206" spans="1:9" ht="15.6">
+    <row r="206" spans="1:9" ht="15.75">
       <c r="A206" s="17"/>
       <c r="B206" s="17" t="s">
         <v>21</v>
@@ -16178,7 +16279,7 @@
       </c>
       <c r="I206" s="17"/>
     </row>
-    <row r="207" spans="1:9" ht="15.6">
+    <row r="207" spans="1:9" ht="15.75">
       <c r="A207" s="17" t="b">
         <v>0</v>
       </c>
@@ -16197,7 +16298,7 @@
       <c r="H207" s="17"/>
       <c r="I207" s="17"/>
     </row>
-    <row r="208" spans="1:9" ht="15.6">
+    <row r="208" spans="1:9" ht="15.75">
       <c r="A208" s="17"/>
       <c r="B208" s="17" t="s">
         <v>21</v>
@@ -16222,7 +16323,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="209" spans="1:9" ht="15.6">
+    <row r="209" spans="1:9" ht="15.75">
       <c r="A209" s="17"/>
       <c r="B209" s="17" t="s">
         <v>21</v>
@@ -16245,7 +16346,7 @@
       </c>
       <c r="I209" s="17"/>
     </row>
-    <row r="210" spans="1:9" ht="15.6">
+    <row r="210" spans="1:9" ht="15.75">
       <c r="A210" s="17"/>
       <c r="B210" s="17" t="s">
         <v>21</v>
@@ -16268,7 +16369,7 @@
       </c>
       <c r="I210" s="17"/>
     </row>
-    <row r="211" spans="1:9" ht="15.6">
+    <row r="211" spans="1:9" ht="15.75">
       <c r="A211" s="17"/>
       <c r="B211" s="17" t="s">
         <v>21</v>
@@ -16291,7 +16392,7 @@
       </c>
       <c r="I211" s="17"/>
     </row>
-    <row r="212" spans="1:9" ht="15.6">
+    <row r="212" spans="1:9" ht="15.75">
       <c r="A212" s="17"/>
       <c r="B212" s="17" t="s">
         <v>21</v>
@@ -16314,7 +16415,7 @@
       </c>
       <c r="I212" s="17"/>
     </row>
-    <row r="213" spans="1:9" ht="15.6">
+    <row r="213" spans="1:9" ht="15.75">
       <c r="A213" s="17"/>
       <c r="B213" s="17" t="s">
         <v>21</v>
@@ -16337,7 +16438,7 @@
       </c>
       <c r="I213" s="17"/>
     </row>
-    <row r="214" spans="1:9" ht="15.6">
+    <row r="214" spans="1:9" ht="15.75">
       <c r="A214" s="17"/>
       <c r="B214" s="17" t="s">
         <v>21</v>
@@ -16360,7 +16461,7 @@
       </c>
       <c r="I214" s="17"/>
     </row>
-    <row r="215" spans="1:9" ht="15.6">
+    <row r="215" spans="1:9" ht="15.75">
       <c r="A215" s="17"/>
       <c r="B215" s="17" t="s">
         <v>21</v>
@@ -16383,7 +16484,7 @@
       </c>
       <c r="I215" s="17"/>
     </row>
-    <row r="216" spans="1:9" ht="15.6">
+    <row r="216" spans="1:9" ht="15.75">
       <c r="A216" s="17"/>
       <c r="B216" s="17" t="s">
         <v>21</v>
@@ -16406,7 +16507,7 @@
       </c>
       <c r="I216" s="17"/>
     </row>
-    <row r="217" spans="1:9" ht="15.6">
+    <row r="217" spans="1:9" ht="15.75">
       <c r="A217" s="17" t="b">
         <v>0</v>
       </c>
@@ -16425,7 +16526,7 @@
       <c r="H217" s="17"/>
       <c r="I217" s="17"/>
     </row>
-    <row r="218" spans="1:9" ht="15.6">
+    <row r="218" spans="1:9" ht="15.75">
       <c r="A218" s="17"/>
       <c r="B218" s="17" t="s">
         <v>21</v>
@@ -16446,7 +16547,7 @@
       <c r="H218" s="17"/>
       <c r="I218" s="17"/>
     </row>
-    <row r="219" spans="1:9" ht="15.6">
+    <row r="219" spans="1:9" ht="15.75">
       <c r="A219" s="17"/>
       <c r="B219" s="17" t="s">
         <v>21</v>
@@ -16469,7 +16570,7 @@
       </c>
       <c r="I219" s="17"/>
     </row>
-    <row r="220" spans="1:9" ht="15.6">
+    <row r="220" spans="1:9" ht="15.75">
       <c r="A220" s="17"/>
       <c r="B220" s="17" t="s">
         <v>21</v>
@@ -16492,7 +16593,7 @@
       </c>
       <c r="I220" s="17"/>
     </row>
-    <row r="221" spans="1:9" ht="15.6">
+    <row r="221" spans="1:9" ht="15.75">
       <c r="A221" s="17"/>
       <c r="B221" s="17" t="s">
         <v>21</v>
@@ -16515,7 +16616,7 @@
       </c>
       <c r="I221" s="17"/>
     </row>
-    <row r="222" spans="1:9" ht="15.6">
+    <row r="222" spans="1:9" ht="15.75">
       <c r="A222" s="17"/>
       <c r="B222" s="17" t="s">
         <v>21</v>
@@ -16538,7 +16639,7 @@
       </c>
       <c r="I222" s="17"/>
     </row>
-    <row r="223" spans="1:9" ht="15.6">
+    <row r="223" spans="1:9" ht="15.75">
       <c r="A223" s="17"/>
       <c r="B223" s="17" t="s">
         <v>21</v>
@@ -16561,7 +16662,7 @@
       </c>
       <c r="I223" s="17"/>
     </row>
-    <row r="224" spans="1:9" ht="15.6">
+    <row r="224" spans="1:9" ht="15.75">
       <c r="A224" s="17"/>
       <c r="B224" s="17" t="s">
         <v>21</v>
@@ -16584,7 +16685,7 @@
       </c>
       <c r="I224" s="17"/>
     </row>
-    <row r="225" spans="1:9" ht="15.6">
+    <row r="225" spans="1:9" ht="15.75">
       <c r="A225" s="17"/>
       <c r="B225" s="17" t="s">
         <v>21</v>
@@ -16607,7 +16708,7 @@
       </c>
       <c r="I225" s="17"/>
     </row>
-    <row r="226" spans="1:9" ht="15.6">
+    <row r="226" spans="1:9" ht="15.75">
       <c r="A226" s="17"/>
       <c r="B226" s="17" t="s">
         <v>21</v>
@@ -16630,7 +16731,7 @@
       </c>
       <c r="I226" s="17"/>
     </row>
-    <row r="227" spans="1:9" ht="15.6">
+    <row r="227" spans="1:9" ht="15.75">
       <c r="A227" s="17"/>
       <c r="B227" s="17" t="s">
         <v>21</v>
@@ -16653,7 +16754,7 @@
       </c>
       <c r="I227" s="17"/>
     </row>
-    <row r="228" spans="1:9" ht="15.6">
+    <row r="228" spans="1:9" ht="15.75">
       <c r="A228" s="17"/>
       <c r="B228" s="17" t="s">
         <v>21</v>
@@ -16676,7 +16777,7 @@
       </c>
       <c r="I228" s="17"/>
     </row>
-    <row r="229" spans="1:9" ht="15.6">
+    <row r="229" spans="1:9" ht="15.75">
       <c r="A229" s="17"/>
       <c r="B229" s="17" t="s">
         <v>21</v>
@@ -16699,7 +16800,7 @@
       </c>
       <c r="I229" s="17"/>
     </row>
-    <row r="230" spans="1:9" ht="15.6">
+    <row r="230" spans="1:9" ht="15.75">
       <c r="A230" s="17"/>
       <c r="B230" s="17" t="s">
         <v>21</v>
@@ -16722,7 +16823,7 @@
       </c>
       <c r="I230" s="17"/>
     </row>
-    <row r="231" spans="1:9" ht="15.6">
+    <row r="231" spans="1:9" ht="15.75">
       <c r="A231" s="17"/>
       <c r="B231" s="17" t="s">
         <v>21</v>
@@ -16745,7 +16846,7 @@
       </c>
       <c r="I231" s="17"/>
     </row>
-    <row r="232" spans="1:9" ht="15.6">
+    <row r="232" spans="1:9" ht="15.75">
       <c r="A232" s="17"/>
       <c r="B232" s="17" t="s">
         <v>21</v>
@@ -16768,7 +16869,7 @@
       </c>
       <c r="I232" s="17"/>
     </row>
-    <row r="233" spans="1:9" ht="15.6">
+    <row r="233" spans="1:9" ht="15.75">
       <c r="A233" s="17"/>
       <c r="B233" s="17" t="s">
         <v>21</v>
@@ -16791,7 +16892,7 @@
       </c>
       <c r="I233" s="17"/>
     </row>
-    <row r="234" spans="1:9" ht="15.6">
+    <row r="234" spans="1:9" ht="15.75">
       <c r="A234" s="17" t="b">
         <v>0</v>
       </c>
@@ -16810,7 +16911,7 @@
       <c r="H234" s="17"/>
       <c r="I234" s="17"/>
     </row>
-    <row r="235" spans="1:9" ht="15.6">
+    <row r="235" spans="1:9" ht="15.75">
       <c r="A235" s="17"/>
       <c r="B235" s="17" t="s">
         <v>21</v>
@@ -16831,7 +16932,7 @@
       <c r="H235" s="17"/>
       <c r="I235" s="17"/>
     </row>
-    <row r="236" spans="1:9" ht="15.6">
+    <row r="236" spans="1:9" ht="15.75">
       <c r="A236" s="17"/>
       <c r="B236" s="17" t="s">
         <v>21</v>
@@ -16854,7 +16955,7 @@
       </c>
       <c r="I236" s="17"/>
     </row>
-    <row r="237" spans="1:9" ht="15.6">
+    <row r="237" spans="1:9" ht="15.75">
       <c r="A237" s="17"/>
       <c r="B237" s="17" t="s">
         <v>21</v>
@@ -16877,7 +16978,7 @@
       </c>
       <c r="I237" s="17"/>
     </row>
-    <row r="238" spans="1:9" ht="15.6">
+    <row r="238" spans="1:9" ht="15.75">
       <c r="A238" s="17"/>
       <c r="B238" s="17" t="s">
         <v>21</v>
@@ -16900,7 +17001,7 @@
       </c>
       <c r="I238" s="17"/>
     </row>
-    <row r="239" spans="1:9" ht="15.6">
+    <row r="239" spans="1:9" ht="15.75">
       <c r="A239" s="17"/>
       <c r="B239" s="17" t="s">
         <v>21</v>
@@ -16923,7 +17024,7 @@
       </c>
       <c r="I239" s="17"/>
     </row>
-    <row r="240" spans="1:9" ht="15.6">
+    <row r="240" spans="1:9" ht="15.75">
       <c r="A240" s="17"/>
       <c r="B240" s="17" t="s">
         <v>21</v>
@@ -16946,7 +17047,7 @@
       </c>
       <c r="I240" s="17"/>
     </row>
-    <row r="241" spans="1:9" ht="15.6">
+    <row r="241" spans="1:9" ht="15.75">
       <c r="A241" s="17"/>
       <c r="B241" s="17" t="s">
         <v>21</v>
@@ -16969,7 +17070,7 @@
       </c>
       <c r="I241" s="17"/>
     </row>
-    <row r="242" spans="1:9" ht="15.6">
+    <row r="242" spans="1:9" ht="15.75">
       <c r="A242" s="17"/>
       <c r="B242" s="17" t="s">
         <v>21</v>
@@ -16992,7 +17093,7 @@
       </c>
       <c r="I242" s="17"/>
     </row>
-    <row r="243" spans="1:9" ht="15.6">
+    <row r="243" spans="1:9" ht="15.75">
       <c r="A243" s="17"/>
       <c r="B243" s="17" t="s">
         <v>21</v>
@@ -17015,7 +17116,7 @@
       </c>
       <c r="I243" s="17"/>
     </row>
-    <row r="244" spans="1:9" ht="15.6">
+    <row r="244" spans="1:9" ht="15.75">
       <c r="A244" s="17"/>
       <c r="B244" s="17" t="s">
         <v>21</v>
@@ -17038,7 +17139,7 @@
       </c>
       <c r="I244" s="17"/>
     </row>
-    <row r="245" spans="1:9" ht="15.6">
+    <row r="245" spans="1:9" ht="15.75">
       <c r="A245" s="17"/>
       <c r="B245" s="17" t="s">
         <v>21</v>
@@ -17061,7 +17162,7 @@
       </c>
       <c r="I245" s="17"/>
     </row>
-    <row r="246" spans="1:9" ht="15.6">
+    <row r="246" spans="1:9" ht="15.75">
       <c r="A246" s="17"/>
       <c r="B246" s="17" t="s">
         <v>21</v>
@@ -17084,7 +17185,7 @@
       </c>
       <c r="I246" s="17"/>
     </row>
-    <row r="247" spans="1:9" ht="15.6">
+    <row r="247" spans="1:9" ht="15.75">
       <c r="A247" s="17"/>
       <c r="B247" s="17" t="s">
         <v>21</v>
@@ -17107,7 +17208,7 @@
       </c>
       <c r="I247" s="17"/>
     </row>
-    <row r="248" spans="1:9" ht="15.6">
+    <row r="248" spans="1:9" ht="15.75">
       <c r="A248" s="17"/>
       <c r="B248" s="17" t="s">
         <v>21</v>
@@ -17130,7 +17231,7 @@
       </c>
       <c r="I248" s="17"/>
     </row>
-    <row r="249" spans="1:9" ht="15.6">
+    <row r="249" spans="1:9" ht="15.75">
       <c r="A249" s="17"/>
       <c r="B249" s="17" t="s">
         <v>21</v>
@@ -17153,7 +17254,7 @@
       </c>
       <c r="I249" s="17"/>
     </row>
-    <row r="250" spans="1:9" ht="15.6">
+    <row r="250" spans="1:9" ht="15.75">
       <c r="A250" s="17"/>
       <c r="B250" s="17" t="s">
         <v>21</v>
@@ -17176,7 +17277,7 @@
       </c>
       <c r="I250" s="17"/>
     </row>
-    <row r="251" spans="1:9" ht="15.6">
+    <row r="251" spans="1:9" ht="15.75">
       <c r="A251" s="17" t="b">
         <v>0</v>
       </c>
@@ -17195,7 +17296,7 @@
       <c r="H251" s="17"/>
       <c r="I251" s="17"/>
     </row>
-    <row r="252" spans="1:9" ht="15.6">
+    <row r="252" spans="1:9" ht="15.75">
       <c r="A252" s="17"/>
       <c r="B252" s="17" t="s">
         <v>21</v>
@@ -17220,7 +17321,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="253" spans="1:9" ht="15.6">
+    <row r="253" spans="1:9" ht="15.75">
       <c r="A253" s="17"/>
       <c r="B253" s="17" t="s">
         <v>21</v>
@@ -17243,7 +17344,7 @@
       </c>
       <c r="I253" s="17"/>
     </row>
-    <row r="254" spans="1:9" ht="15.6">
+    <row r="254" spans="1:9" ht="15.75">
       <c r="A254" s="17"/>
       <c r="B254" s="17" t="s">
         <v>21</v>
@@ -17266,7 +17367,7 @@
       </c>
       <c r="I254" s="17"/>
     </row>
-    <row r="255" spans="1:9" ht="15.6">
+    <row r="255" spans="1:9" ht="15.75">
       <c r="A255" s="17"/>
       <c r="B255" s="17" t="s">
         <v>21</v>
@@ -17289,7 +17390,7 @@
       </c>
       <c r="I255" s="17"/>
     </row>
-    <row r="256" spans="1:9" ht="15.6">
+    <row r="256" spans="1:9" ht="15.75">
       <c r="A256" s="17"/>
       <c r="B256" s="17" t="s">
         <v>21</v>
@@ -17312,7 +17413,7 @@
       </c>
       <c r="I256" s="17"/>
     </row>
-    <row r="257" spans="1:9" ht="15.6">
+    <row r="257" spans="1:9" ht="15.75">
       <c r="A257" s="17" t="b">
         <v>0</v>
       </c>
@@ -17331,7 +17432,7 @@
       <c r="H257" s="17"/>
       <c r="I257" s="17"/>
     </row>
-    <row r="258" spans="1:9" ht="15.6">
+    <row r="258" spans="1:9" ht="15.75">
       <c r="A258" s="17"/>
       <c r="B258" s="17" t="s">
         <v>21</v>
@@ -17356,7 +17457,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="259" spans="1:9" ht="15.6">
+    <row r="259" spans="1:9" ht="15.75">
       <c r="A259" s="17"/>
       <c r="B259" s="17" t="s">
         <v>21</v>
@@ -17379,7 +17480,7 @@
       </c>
       <c r="I259" s="17"/>
     </row>
-    <row r="260" spans="1:9" ht="15.6">
+    <row r="260" spans="1:9" ht="15.75">
       <c r="A260" s="17" t="b">
         <v>0</v>
       </c>
@@ -17398,7 +17499,7 @@
       <c r="H260" s="17"/>
       <c r="I260" s="17"/>
     </row>
-    <row r="261" spans="1:9" ht="15.6">
+    <row r="261" spans="1:9" ht="15.75">
       <c r="A261" s="17" t="b">
         <v>0</v>
       </c>
@@ -17417,7 +17518,7 @@
       <c r="H261" s="17"/>
       <c r="I261" s="17"/>
     </row>
-    <row r="262" spans="1:9" ht="15.6">
+    <row r="262" spans="1:9" ht="15.75">
       <c r="A262" s="17" t="b">
         <v>0</v>
       </c>
@@ -17436,7 +17537,7 @@
       <c r="H262" s="17"/>
       <c r="I262" s="17"/>
     </row>
-    <row r="263" spans="1:9" ht="15.6">
+    <row r="263" spans="1:9" ht="15.75">
       <c r="A263" s="17"/>
       <c r="B263" s="17" t="s">
         <v>21</v>
@@ -17457,7 +17558,7 @@
       <c r="H263" s="17"/>
       <c r="I263" s="17"/>
     </row>
-    <row r="264" spans="1:9" ht="15.6">
+    <row r="264" spans="1:9" ht="15.75">
       <c r="A264" s="17"/>
       <c r="B264" s="17" t="s">
         <v>21</v>
@@ -17480,7 +17581,7 @@
       </c>
       <c r="I264" s="17"/>
     </row>
-    <row r="265" spans="1:9" ht="15.6">
+    <row r="265" spans="1:9" ht="15.75">
       <c r="A265" s="17"/>
       <c r="B265" s="17" t="s">
         <v>21</v>
@@ -17503,7 +17604,7 @@
       </c>
       <c r="I265" s="17"/>
     </row>
-    <row r="266" spans="1:9" ht="15.6">
+    <row r="266" spans="1:9" ht="15.75">
       <c r="A266" s="17"/>
       <c r="B266" s="17" t="s">
         <v>21</v>
@@ -17526,7 +17627,7 @@
       </c>
       <c r="I266" s="17"/>
     </row>
-    <row r="267" spans="1:9" ht="15.6">
+    <row r="267" spans="1:9" ht="15.75">
       <c r="A267" s="17"/>
       <c r="B267" s="17" t="s">
         <v>21</v>
@@ -17549,7 +17650,7 @@
       </c>
       <c r="I267" s="17"/>
     </row>
-    <row r="268" spans="1:9" ht="15.6">
+    <row r="268" spans="1:9" ht="15.75">
       <c r="A268" s="17"/>
       <c r="B268" s="17" t="s">
         <v>21</v>
@@ -17572,7 +17673,7 @@
       </c>
       <c r="I268" s="17"/>
     </row>
-    <row r="269" spans="1:9" ht="15.6">
+    <row r="269" spans="1:9" ht="15.75">
       <c r="A269" s="17"/>
       <c r="B269" s="17" t="s">
         <v>21</v>
@@ -17595,7 +17696,7 @@
       </c>
       <c r="I269" s="17"/>
     </row>
-    <row r="270" spans="1:9" ht="15.6">
+    <row r="270" spans="1:9" ht="15.75">
       <c r="A270" s="17"/>
       <c r="B270" s="17" t="s">
         <v>21</v>
@@ -17618,7 +17719,7 @@
       </c>
       <c r="I270" s="17"/>
     </row>
-    <row r="271" spans="1:9" ht="15.6">
+    <row r="271" spans="1:9" ht="15.75">
       <c r="A271" s="17"/>
       <c r="B271" s="17" t="s">
         <v>21</v>
@@ -17641,7 +17742,7 @@
       </c>
       <c r="I271" s="17"/>
     </row>
-    <row r="272" spans="1:9" ht="15.6">
+    <row r="272" spans="1:9" ht="15.75">
       <c r="A272" s="17"/>
       <c r="B27